--- a/数据记录/记录表单.xlsx
+++ b/数据记录/记录表单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="4530" tabRatio="618" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="4530" tabRatio="552" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="正式记录" sheetId="9" r:id="rId1"/>
@@ -12,8 +12,7 @@
     <sheet name="照射面积" sheetId="5" r:id="rId3"/>
     <sheet name="预测试-仪表" sheetId="8" r:id="rId4"/>
     <sheet name="预测试-仪表-day2" sheetId="6" r:id="rId5"/>
-    <sheet name="预测试-仪表-day3" sheetId="7" r:id="rId6"/>
-    <sheet name="变阻器" sheetId="4" r:id="rId7"/>
+    <sheet name="变阻器" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="80000"/>
 </workbook>
@@ -4294,7 +4293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4425,6 +4424,39 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4464,8 +4496,32 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4473,20 +4529,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4497,19 +4547,13 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4521,17 +4565,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4550,39 +4585,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4876,486 +4878,480 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="53" t="s">
         <v>448</v>
       </c>
-      <c r="B5" s="96"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="99"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="101"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="58"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="53" t="s">
         <v>449</v>
       </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="101"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="58"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="53" t="s">
         <v>450</v>
       </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="101"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="58"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="53" t="s">
         <v>439</v>
       </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="95" t="s">
+      <c r="A9" s="53" t="s">
         <v>447</v>
       </c>
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="54" t="s">
         <v>423</v>
       </c>
-      <c r="C9" s="97" t="s">
+      <c r="C9" s="54" t="s">
         <v>424</v>
       </c>
-      <c r="D9" s="95" t="s">
+      <c r="D9" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="97" t="s">
+      <c r="E9" s="54" t="s">
         <v>440</v>
       </c>
-      <c r="F9" s="97" t="s">
+      <c r="F9" s="54" t="s">
         <v>423</v>
       </c>
-      <c r="G9" s="97" t="s">
+      <c r="G9" s="54" t="s">
         <v>424</v>
       </c>
-      <c r="H9" s="95" t="s">
+      <c r="H9" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="97" t="s">
+      <c r="I9" s="54" t="s">
         <v>440</v>
       </c>
-      <c r="J9" s="97" t="s">
+      <c r="J9" s="54" t="s">
         <v>423</v>
       </c>
-      <c r="K9" s="97" t="s">
+      <c r="K9" s="54" t="s">
         <v>424</v>
       </c>
-      <c r="L9" s="95" t="s">
+      <c r="L9" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="M9" s="97" t="s">
+      <c r="M9" s="54" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="95">
+      <c r="A10" s="53">
         <v>117</v>
       </c>
-      <c r="B10" s="95"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="97" t="s">
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="54" t="s">
         <v>441</v>
       </c>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="97" t="s">
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54" t="s">
         <v>441</v>
       </c>
-      <c r="J10" s="95"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="97" t="s">
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="54" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="95">
+      <c r="A11" s="53">
         <v>107</v>
       </c>
-      <c r="B11" s="95"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="95"/>
-      <c r="M11" s="95"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="95">
+      <c r="A12" s="53">
         <v>97</v>
       </c>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="95"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="95"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="95">
+      <c r="A13" s="53">
         <v>87</v>
       </c>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="95"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="95">
+      <c r="A14" s="53">
         <v>77</v>
       </c>
-      <c r="B14" s="95"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="95"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="95">
+      <c r="A15" s="53">
         <v>67</v>
       </c>
-      <c r="B15" s="95"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="97" t="s">
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="54" t="s">
         <v>442</v>
       </c>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="97" t="s">
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="54" t="s">
         <v>442</v>
       </c>
-      <c r="J15" s="95"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="95"/>
-      <c r="M15" s="97" t="s">
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="54" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="95">
+      <c r="A16" s="53">
         <v>57</v>
       </c>
-      <c r="B16" s="95"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="95"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="95">
+      <c r="A17" s="53">
         <v>47</v>
       </c>
-      <c r="B17" s="95"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="95"/>
-      <c r="I17" s="95"/>
-      <c r="J17" s="95"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="95"/>
-      <c r="M17" s="95"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="95">
+      <c r="A18" s="53">
         <v>37</v>
       </c>
-      <c r="B18" s="95"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="95"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="95"/>
-      <c r="L18" s="95"/>
-      <c r="M18" s="95"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="95">
+      <c r="A19" s="53">
         <v>27</v>
       </c>
-      <c r="B19" s="95"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="95"/>
-      <c r="L19" s="95"/>
-      <c r="M19" s="95"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="95">
+      <c r="A20" s="53">
         <v>17</v>
       </c>
-      <c r="B20" s="95"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="97" t="s">
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="54" t="s">
         <v>443</v>
       </c>
-      <c r="F20" s="95"/>
-      <c r="G20" s="95"/>
-      <c r="H20" s="95"/>
-      <c r="I20" s="97" t="s">
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="54" t="s">
         <v>443</v>
       </c>
-      <c r="J20" s="95"/>
-      <c r="K20" s="95"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="97" t="s">
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="54" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A21" s="95">
+      <c r="A21" s="53">
         <v>7</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="98"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A22" s="95">
+      <c r="A22" s="53">
         <v>6</v>
       </c>
-      <c r="B22" s="95"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="95"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="95"/>
-      <c r="L22" s="95"/>
-      <c r="M22" s="95"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A23" s="95">
+      <c r="A23" s="53">
         <v>5</v>
       </c>
-      <c r="B23" s="95"/>
-      <c r="C23" s="95"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95"/>
-      <c r="H23" s="95"/>
-      <c r="I23" s="95"/>
-      <c r="J23" s="95"/>
-      <c r="K23" s="95"/>
-      <c r="L23" s="95"/>
-      <c r="M23" s="95"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A24" s="95">
+      <c r="A24" s="53">
         <v>4</v>
       </c>
-      <c r="B24" s="95"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="95"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="95"/>
-      <c r="G24" s="95"/>
-      <c r="H24" s="95"/>
-      <c r="I24" s="95"/>
-      <c r="J24" s="95"/>
-      <c r="K24" s="95"/>
-      <c r="L24" s="95"/>
-      <c r="M24" s="95"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A25" s="95">
+      <c r="A25" s="53">
         <v>3</v>
       </c>
-      <c r="B25" s="98"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="97" t="s">
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="54" t="s">
         <v>444</v>
       </c>
-      <c r="F25" s="95"/>
-      <c r="G25" s="95"/>
-      <c r="H25" s="95"/>
-      <c r="I25" s="97" t="s">
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="54" t="s">
         <v>444</v>
       </c>
-      <c r="J25" s="95"/>
-      <c r="K25" s="95"/>
-      <c r="L25" s="95"/>
-      <c r="M25" s="97" t="s">
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="54" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A26" s="95">
+      <c r="A26" s="53">
         <v>2</v>
       </c>
-      <c r="B26" s="95"/>
-      <c r="C26" s="95"/>
-      <c r="D26" s="95"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="95"/>
-      <c r="G26" s="95"/>
-      <c r="H26" s="95"/>
-      <c r="I26" s="95"/>
-      <c r="J26" s="98"/>
-      <c r="K26" s="98"/>
-      <c r="L26" s="95"/>
-      <c r="M26" s="95"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A27" s="95">
+      <c r="A27" s="53">
         <v>1</v>
       </c>
-      <c r="B27" s="95"/>
-      <c r="C27" s="95"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="95"/>
-      <c r="H27" s="95"/>
-      <c r="I27" s="95"/>
-      <c r="J27" s="95"/>
-      <c r="K27" s="95"/>
-      <c r="L27" s="95"/>
-      <c r="M27" s="95"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A28" s="95">
+      <c r="A28" s="53">
         <v>0</v>
       </c>
-      <c r="B28" s="95"/>
-      <c r="C28" s="95"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="95"/>
-      <c r="G28" s="95"/>
-      <c r="H28" s="95"/>
-      <c r="I28" s="95"/>
-      <c r="J28" s="95"/>
-      <c r="K28" s="95"/>
-      <c r="L28" s="95"/>
-      <c r="M28" s="95"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:I5"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="F8:I8"/>
     <mergeCell ref="J8:M8"/>
@@ -5363,6 +5359,12 @@
     <mergeCell ref="J5:M5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:I5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5376,7 +5378,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:K3"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5395,39 +5397,39 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="48">
+      <c r="B4" s="61">
         <v>0.41180555555555554</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="48">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="61">
         <v>0.62986111111111109</v>
       </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48">
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61">
         <v>0.4375</v>
       </c>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -5986,23 +5988,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="50"/>
+      <c r="E1" s="63"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B4" s="10" t="s">
@@ -6019,7 +6021,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="64" t="s">
         <v>61</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -6028,69 +6030,69 @@
       <c r="D5" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="66" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B6" s="51"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="15" t="s">
         <v>63</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="60"/>
+      <c r="E6" s="73"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B7" s="51"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="15" t="s">
         <v>64</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="60"/>
+      <c r="E7" s="73"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B8" s="51"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="15" t="s">
         <v>65</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="60"/>
+      <c r="E8" s="73"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B9" s="51"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="15" t="s">
         <v>66</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="60"/>
+      <c r="E9" s="73"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B10" s="51"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="15" t="s">
         <v>67</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="60"/>
+      <c r="E10" s="73"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B11" s="51"/>
+      <c r="B11" s="64"/>
       <c r="C11" s="15" t="s">
         <v>68</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="60"/>
+      <c r="E11" s="73"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" s="16"/>
@@ -6103,7 +6105,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="70" t="s">
         <v>102</v>
       </c>
       <c r="C13" s="15" t="s">
@@ -6112,99 +6114,99 @@
       <c r="D13" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="E13" s="54" t="s">
+      <c r="E13" s="67" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B14" s="58"/>
+      <c r="B14" s="71"/>
       <c r="C14" s="15" t="s">
         <v>106</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="E14" s="55"/>
+      <c r="E14" s="68"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B15" s="58"/>
+      <c r="B15" s="71"/>
       <c r="C15" s="15" t="s">
         <v>107</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="E15" s="55"/>
+      <c r="E15" s="68"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B16" s="58"/>
+      <c r="B16" s="71"/>
       <c r="C16" s="15" t="s">
         <v>108</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E16" s="55"/>
+      <c r="E16" s="68"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B17" s="58"/>
+      <c r="B17" s="71"/>
       <c r="C17" s="15" t="s">
         <v>109</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E17" s="55"/>
+      <c r="E17" s="68"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B18" s="58"/>
+      <c r="B18" s="71"/>
       <c r="C18" s="15" t="s">
         <v>110</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E18" s="55"/>
+      <c r="E18" s="68"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B19" s="58"/>
+      <c r="B19" s="71"/>
       <c r="C19" s="15" t="s">
         <v>111</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E19" s="55"/>
+      <c r="E19" s="68"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B20" s="58"/>
+      <c r="B20" s="71"/>
       <c r="C20" s="15" t="s">
         <v>112</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E20" s="55"/>
+      <c r="E20" s="68"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B21" s="58"/>
+      <c r="B21" s="71"/>
       <c r="C21" s="15" t="s">
         <v>113</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E21" s="55"/>
+      <c r="E21" s="68"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B22" s="59"/>
+      <c r="B22" s="72"/>
       <c r="C22" s="15" t="s">
         <v>114</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E22" s="56"/>
+      <c r="E22" s="69"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B23" s="27"/>
@@ -6217,7 +6219,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="52" t="s">
+      <c r="B24" s="65" t="s">
         <v>425</v>
       </c>
       <c r="C24" s="25" t="s">
@@ -6226,59 +6228,59 @@
       <c r="D24" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="E24" s="53" t="s">
+      <c r="E24" s="66" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B25" s="52"/>
+      <c r="B25" s="65"/>
       <c r="C25" s="25" t="s">
         <v>428</v>
       </c>
       <c r="D25" s="25" t="s">
         <v>427</v>
       </c>
-      <c r="E25" s="53"/>
+      <c r="E25" s="66"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B26" s="52"/>
+      <c r="B26" s="65"/>
       <c r="C26" s="25" t="s">
         <v>430</v>
       </c>
       <c r="D26" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="E26" s="53"/>
+      <c r="E26" s="66"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B27" s="52"/>
+      <c r="B27" s="65"/>
       <c r="C27" s="25" t="s">
         <v>431</v>
       </c>
       <c r="D27" s="25" t="s">
         <v>432</v>
       </c>
-      <c r="E27" s="53"/>
+      <c r="E27" s="66"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B28" s="52"/>
+      <c r="B28" s="65"/>
       <c r="C28" s="25" t="s">
         <v>433</v>
       </c>
       <c r="D28" s="25" t="s">
         <v>434</v>
       </c>
-      <c r="E28" s="53"/>
+      <c r="E28" s="66"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B29" s="52"/>
+      <c r="B29" s="65"/>
       <c r="C29" s="25" t="s">
         <v>435</v>
       </c>
       <c r="D29" s="25" t="s">
         <v>436</v>
       </c>
-      <c r="E29" s="53"/>
+      <c r="E29" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6303,7 +6305,7 @@
   <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -6312,45 +6314,48 @@
       <c r="A1" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="75" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="83"/>
+      <c r="H2" s="76"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="102" t="s">
+      <c r="C3" s="53"/>
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="102" t="s">
+      <c r="E3" s="53"/>
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="G3" s="53"/>
       <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
@@ -6359,19 +6364,19 @@
       <c r="A4" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44" t="s">
+      <c r="E4" s="48"/>
+      <c r="F4" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44" t="s">
+      <c r="G4" s="48"/>
+      <c r="H4" s="48" t="s">
         <v>132</v>
       </c>
     </row>
@@ -6396,25 +6401,25 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="78" t="s">
         <v>81</v>
       </c>
       <c r="B6" s="41">
         <v>78.2</v>
       </c>
-      <c r="C6" s="90" t="s">
+      <c r="C6" s="78" t="s">
         <v>81</v>
       </c>
       <c r="D6" s="42">
         <v>53.3</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="66" t="s">
         <v>446</v>
       </c>
       <c r="F6" s="42">
         <v>1.4</v>
       </c>
-      <c r="G6" s="60" t="s">
+      <c r="G6" s="73" t="s">
         <v>100</v>
       </c>
       <c r="H6" s="42">
@@ -6422,1439 +6427,1455 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="90"/>
+      <c r="A7" s="78"/>
       <c r="B7" s="41">
         <v>78.400000000000006</v>
       </c>
-      <c r="C7" s="90"/>
+      <c r="C7" s="78"/>
       <c r="D7" s="42">
         <v>53.4</v>
       </c>
-      <c r="E7" s="53"/>
+      <c r="E7" s="66"/>
       <c r="F7" s="42">
         <v>0</v>
       </c>
-      <c r="G7" s="60"/>
+      <c r="G7" s="73"/>
       <c r="H7" s="42">
         <v>366.9</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="90"/>
+      <c r="A8" s="78"/>
       <c r="B8" s="41">
         <v>78.400000000000006</v>
       </c>
-      <c r="C8" s="90"/>
+      <c r="C8" s="78"/>
       <c r="D8" s="42">
         <v>53.9</v>
       </c>
-      <c r="E8" s="53"/>
+      <c r="E8" s="66"/>
       <c r="F8" s="42">
         <v>0.9</v>
       </c>
-      <c r="G8" s="60"/>
+      <c r="G8" s="73"/>
       <c r="H8" s="42">
         <v>365.9</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="90"/>
+      <c r="A9" s="78"/>
       <c r="B9" s="41">
         <v>78.400000000000006</v>
       </c>
-      <c r="C9" s="90"/>
+      <c r="C9" s="78"/>
       <c r="D9" s="42">
         <v>54</v>
       </c>
-      <c r="E9" s="53"/>
+      <c r="E9" s="66"/>
       <c r="F9" s="42">
         <v>2</v>
       </c>
-      <c r="G9" s="60"/>
+      <c r="G9" s="73"/>
       <c r="H9" s="42">
         <v>364.2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="90"/>
+      <c r="A10" s="78"/>
       <c r="B10" s="41">
         <v>78.400000000000006</v>
       </c>
-      <c r="C10" s="90"/>
+      <c r="C10" s="78"/>
       <c r="D10" s="42">
         <v>53.9</v>
       </c>
-      <c r="E10" s="53"/>
+      <c r="E10" s="66"/>
       <c r="F10" s="42">
         <v>1.7</v>
       </c>
-      <c r="G10" s="60"/>
+      <c r="G10" s="73"/>
       <c r="H10" s="42">
         <v>364.5</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="90"/>
+      <c r="A11" s="78"/>
       <c r="B11" s="41">
         <v>78.599999999999994</v>
       </c>
-      <c r="C11" s="90"/>
+      <c r="C11" s="78"/>
       <c r="D11" s="42">
         <v>55.2</v>
       </c>
-      <c r="E11" s="53"/>
+      <c r="E11" s="66"/>
       <c r="F11" s="42">
         <v>0.5</v>
       </c>
-      <c r="G11" s="60"/>
+      <c r="G11" s="73"/>
       <c r="H11" s="42">
         <v>361.8</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="90"/>
+      <c r="A12" s="78"/>
       <c r="B12" s="41">
         <v>78.599999999999994</v>
       </c>
-      <c r="C12" s="90"/>
+      <c r="C12" s="78"/>
       <c r="D12" s="42">
         <v>53.7</v>
       </c>
-      <c r="E12" s="53"/>
+      <c r="E12" s="66"/>
       <c r="F12" s="42">
         <v>0</v>
       </c>
-      <c r="G12" s="60"/>
+      <c r="G12" s="73"/>
       <c r="H12" s="42">
         <v>361.2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="90"/>
+      <c r="A13" s="78"/>
       <c r="B13" s="41">
         <v>78.599999999999994</v>
       </c>
-      <c r="C13" s="90"/>
+      <c r="C13" s="78"/>
       <c r="D13" s="42">
         <v>53.4</v>
       </c>
-      <c r="E13" s="53"/>
+      <c r="E13" s="66"/>
       <c r="F13" s="42">
         <v>1.5</v>
       </c>
-      <c r="G13" s="60"/>
+      <c r="G13" s="73"/>
       <c r="H13" s="42">
         <v>361.9</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="90"/>
+      <c r="A14" s="78"/>
       <c r="B14" s="41">
         <v>78.599999999999994</v>
       </c>
-      <c r="C14" s="90"/>
+      <c r="C14" s="78"/>
       <c r="D14" s="42">
         <v>53.1</v>
       </c>
-      <c r="E14" s="53"/>
+      <c r="E14" s="66"/>
       <c r="F14" s="42">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G14" s="60"/>
+      <c r="G14" s="73"/>
       <c r="H14" s="42">
         <v>361.9</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="90"/>
+      <c r="A15" s="78"/>
       <c r="B15" s="41">
         <v>78.599999999999994</v>
       </c>
-      <c r="C15" s="90"/>
+      <c r="C15" s="78"/>
       <c r="D15" s="42">
         <v>52.6</v>
       </c>
-      <c r="E15" s="53"/>
+      <c r="E15" s="66"/>
       <c r="F15" s="42">
         <v>1.5</v>
       </c>
-      <c r="G15" s="60"/>
+      <c r="G15" s="73"/>
       <c r="H15" s="42">
         <v>361.9</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="76" t="s">
         <v>445</v>
       </c>
       <c r="B16" s="41">
         <v>79.3</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="64" t="s">
         <v>82</v>
       </c>
       <c r="D16" s="42">
         <v>42.9</v>
       </c>
-      <c r="E16" s="53"/>
+      <c r="E16" s="66"/>
       <c r="F16" s="42">
         <v>1.3</v>
       </c>
-      <c r="G16" s="60"/>
+      <c r="G16" s="73"/>
       <c r="H16" s="42">
         <v>356.7</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="67"/>
+      <c r="A17" s="76"/>
       <c r="B17" s="41">
         <v>79.5</v>
       </c>
-      <c r="C17" s="51"/>
+      <c r="C17" s="64"/>
       <c r="D17" s="42">
         <v>42.9</v>
       </c>
-      <c r="E17" s="53"/>
+      <c r="E17" s="66"/>
       <c r="F17" s="42">
         <v>2</v>
       </c>
-      <c r="G17" s="60"/>
+      <c r="G17" s="73"/>
       <c r="H17" s="42">
         <v>354.9</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="67"/>
+      <c r="A18" s="76"/>
       <c r="B18" s="41">
         <v>79.5</v>
       </c>
-      <c r="C18" s="51"/>
+      <c r="C18" s="64"/>
       <c r="D18" s="42">
         <v>43.1</v>
       </c>
-      <c r="E18" s="53"/>
+      <c r="E18" s="66"/>
       <c r="F18" s="42">
         <v>1.4</v>
       </c>
-      <c r="G18" s="60"/>
+      <c r="G18" s="73"/>
       <c r="H18" s="42">
         <v>356.2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="67"/>
+      <c r="A19" s="76"/>
       <c r="B19" s="41">
         <v>79.5</v>
       </c>
-      <c r="C19" s="51"/>
+      <c r="C19" s="64"/>
       <c r="D19" s="42">
         <v>43.1</v>
       </c>
-      <c r="E19" s="53"/>
+      <c r="E19" s="66"/>
       <c r="F19" s="42">
         <v>0.5</v>
       </c>
-      <c r="G19" s="60"/>
+      <c r="G19" s="73"/>
       <c r="H19" s="42">
         <v>356.1</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="67"/>
+      <c r="A20" s="76"/>
       <c r="B20" s="41">
         <v>79.5</v>
       </c>
-      <c r="C20" s="51"/>
+      <c r="C20" s="64"/>
       <c r="D20" s="42">
         <v>43.1</v>
       </c>
-      <c r="E20" s="53"/>
+      <c r="E20" s="66"/>
       <c r="F20" s="42">
         <v>2.6</v>
       </c>
-      <c r="G20" s="60"/>
+      <c r="G20" s="73"/>
       <c r="H20" s="42">
         <v>355.2</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="67" t="s">
+      <c r="A21" s="76" t="s">
         <v>56</v>
       </c>
       <c r="B21" s="41">
         <v>80</v>
       </c>
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="64" t="s">
         <v>83</v>
       </c>
       <c r="D21" s="42">
         <v>43.1</v>
       </c>
-      <c r="E21" s="53"/>
+      <c r="E21" s="66"/>
       <c r="F21" s="42">
         <v>1.4</v>
       </c>
-      <c r="G21" s="60"/>
+      <c r="G21" s="73"/>
       <c r="H21" s="42">
         <v>354.9</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="67"/>
+      <c r="A22" s="76"/>
       <c r="B22" s="41">
         <v>80</v>
       </c>
-      <c r="C22" s="51"/>
+      <c r="C22" s="64"/>
       <c r="D22" s="42">
         <v>43.1</v>
       </c>
-      <c r="E22" s="53"/>
+      <c r="E22" s="66"/>
       <c r="F22" s="42">
         <v>0.6</v>
       </c>
-      <c r="G22" s="60"/>
+      <c r="G22" s="73"/>
       <c r="H22" s="42">
         <v>345.1</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="67"/>
+      <c r="A23" s="76"/>
       <c r="B23" s="41">
         <v>80</v>
       </c>
-      <c r="C23" s="51"/>
+      <c r="C23" s="64"/>
       <c r="D23" s="42">
         <v>43.1</v>
       </c>
-      <c r="E23" s="53"/>
+      <c r="E23" s="66"/>
       <c r="F23" s="42">
         <v>0.6</v>
       </c>
-      <c r="G23" s="60"/>
+      <c r="G23" s="73"/>
       <c r="H23" s="42">
         <v>349.2</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="67"/>
+      <c r="A24" s="76"/>
       <c r="B24" s="41">
         <v>80</v>
       </c>
-      <c r="C24" s="51"/>
+      <c r="C24" s="64"/>
       <c r="D24" s="42">
         <v>43.1</v>
       </c>
-      <c r="E24" s="53"/>
+      <c r="E24" s="66"/>
       <c r="F24" s="42">
         <v>0.9</v>
       </c>
-      <c r="G24" s="60"/>
+      <c r="G24" s="73"/>
       <c r="H24" s="42">
         <v>351.5</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="67"/>
+      <c r="A25" s="76"/>
       <c r="B25" s="41">
         <v>80</v>
       </c>
-      <c r="C25" s="51"/>
+      <c r="C25" s="64"/>
       <c r="D25" s="42">
         <v>43.2</v>
       </c>
-      <c r="E25" s="53"/>
+      <c r="E25" s="66"/>
       <c r="F25" s="42">
         <v>1.5</v>
       </c>
-      <c r="G25" s="60"/>
+      <c r="G25" s="73"/>
       <c r="H25" s="42">
         <v>351.4</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="67" t="s">
+      <c r="A26" s="76" t="s">
         <v>57</v>
       </c>
       <c r="B26" s="41">
         <v>80.7</v>
       </c>
-      <c r="C26" s="51" t="s">
+      <c r="C26" s="64" t="s">
         <v>84</v>
       </c>
       <c r="D26" s="42">
         <v>43.8</v>
       </c>
-      <c r="E26" s="53"/>
+      <c r="E26" s="66"/>
       <c r="F26" s="42">
         <v>1.7</v>
       </c>
-      <c r="G26" s="60"/>
+      <c r="G26" s="73"/>
       <c r="H26" s="42">
         <v>348.4</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="67"/>
+      <c r="A27" s="76"/>
       <c r="B27" s="41">
         <v>80.7</v>
       </c>
-      <c r="C27" s="51"/>
+      <c r="C27" s="64"/>
       <c r="D27" s="42">
         <v>43.8</v>
       </c>
-      <c r="E27" s="53"/>
+      <c r="E27" s="66"/>
       <c r="F27" s="42">
         <v>0.1</v>
       </c>
-      <c r="G27" s="60"/>
+      <c r="G27" s="73"/>
       <c r="H27" s="42">
         <v>347.6</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="67"/>
+      <c r="A28" s="76"/>
       <c r="B28" s="41">
         <v>80.7</v>
       </c>
-      <c r="C28" s="51"/>
+      <c r="C28" s="64"/>
       <c r="D28" s="42">
         <v>43.7</v>
       </c>
-      <c r="E28" s="53"/>
+      <c r="E28" s="66"/>
       <c r="F28" s="42">
         <v>0</v>
       </c>
-      <c r="G28" s="60"/>
+      <c r="G28" s="73"/>
       <c r="H28" s="42">
         <v>346</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="67"/>
+      <c r="A29" s="76"/>
       <c r="B29" s="41">
         <v>80.7</v>
       </c>
-      <c r="C29" s="51"/>
+      <c r="C29" s="64"/>
       <c r="D29" s="42">
         <v>43.6</v>
       </c>
-      <c r="E29" s="53"/>
+      <c r="E29" s="66"/>
       <c r="F29" s="42">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G29" s="60"/>
+      <c r="G29" s="73"/>
       <c r="H29" s="42">
         <v>345</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="67"/>
+      <c r="A30" s="76"/>
       <c r="B30" s="41">
         <v>80.900000000000006</v>
       </c>
-      <c r="C30" s="51"/>
+      <c r="C30" s="64"/>
       <c r="D30" s="42">
         <v>43.6</v>
       </c>
-      <c r="E30" s="53"/>
+      <c r="E30" s="66"/>
       <c r="F30" s="42">
         <v>1.6</v>
       </c>
-      <c r="G30" s="60"/>
+      <c r="G30" s="73"/>
       <c r="H30" s="42">
         <v>347.2</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="67" t="s">
+      <c r="A31" s="76" t="s">
         <v>58</v>
       </c>
       <c r="B31" s="41">
         <v>81.099999999999994</v>
       </c>
-      <c r="C31" s="51" t="s">
+      <c r="C31" s="64" t="s">
         <v>86</v>
       </c>
       <c r="D31" s="42">
         <v>44.3</v>
       </c>
-      <c r="E31" s="53"/>
+      <c r="E31" s="66"/>
       <c r="F31" s="42">
         <v>0.4</v>
       </c>
-      <c r="G31" s="60"/>
+      <c r="G31" s="73"/>
       <c r="H31" s="42">
         <v>345.1</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="67"/>
+      <c r="A32" s="76"/>
       <c r="B32" s="41">
         <v>81.099999999999994</v>
       </c>
-      <c r="C32" s="51"/>
+      <c r="C32" s="64"/>
       <c r="D32" s="42">
         <v>44.3</v>
       </c>
-      <c r="E32" s="53"/>
+      <c r="E32" s="66"/>
       <c r="F32" s="42">
         <v>1.3</v>
       </c>
-      <c r="G32" s="60"/>
+      <c r="G32" s="73"/>
       <c r="H32" s="42">
         <v>348</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="67"/>
+      <c r="A33" s="76"/>
       <c r="B33" s="41">
         <v>81.099999999999994</v>
       </c>
-      <c r="C33" s="51"/>
+      <c r="C33" s="64"/>
       <c r="D33" s="42">
         <v>44.3</v>
       </c>
-      <c r="E33" s="53"/>
+      <c r="E33" s="66"/>
       <c r="F33" s="42">
         <v>1.5</v>
       </c>
-      <c r="G33" s="60"/>
+      <c r="G33" s="73"/>
       <c r="H33" s="42">
         <v>347.9</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="67"/>
+      <c r="A34" s="76"/>
       <c r="B34" s="41">
         <v>81.099999999999994</v>
       </c>
-      <c r="C34" s="51"/>
+      <c r="C34" s="64"/>
       <c r="D34" s="42">
         <v>44.3</v>
       </c>
-      <c r="E34" s="53"/>
+      <c r="E34" s="66"/>
       <c r="F34" s="42">
         <v>1.2</v>
       </c>
-      <c r="G34" s="60"/>
+      <c r="G34" s="73"/>
       <c r="H34" s="42">
         <v>345.2</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="67"/>
+      <c r="A35" s="76"/>
       <c r="B35" s="41">
         <v>81.099999999999994</v>
       </c>
-      <c r="C35" s="51"/>
+      <c r="C35" s="64"/>
       <c r="D35" s="42">
         <v>44.2</v>
       </c>
-      <c r="E35" s="53"/>
+      <c r="E35" s="66"/>
       <c r="F35" s="42">
         <v>1.4</v>
       </c>
-      <c r="G35" s="60"/>
+      <c r="G35" s="73"/>
       <c r="H35" s="42">
         <v>340.7</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="67" t="s">
+      <c r="A36" s="76" t="s">
         <v>59</v>
       </c>
       <c r="B36" s="41">
         <v>81.5</v>
       </c>
-      <c r="C36" s="51" t="s">
+      <c r="C36" s="64" t="s">
         <v>87</v>
       </c>
       <c r="D36" s="42">
         <v>44</v>
       </c>
-      <c r="E36" s="53"/>
+      <c r="E36" s="66"/>
       <c r="F36" s="42">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G36" s="60"/>
+      <c r="G36" s="73"/>
       <c r="H36" s="42">
         <v>343.4</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="67"/>
+      <c r="A37" s="76"/>
       <c r="B37" s="41">
         <v>81.5</v>
       </c>
-      <c r="C37" s="51"/>
+      <c r="C37" s="64"/>
       <c r="D37" s="42">
         <v>44</v>
       </c>
-      <c r="E37" s="53"/>
+      <c r="E37" s="66"/>
       <c r="F37" s="42">
         <v>0.6</v>
       </c>
-      <c r="G37" s="60"/>
+      <c r="G37" s="73"/>
       <c r="H37" s="42">
         <v>341.5</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="67"/>
+      <c r="A38" s="76"/>
       <c r="B38" s="41">
         <v>81.5</v>
       </c>
-      <c r="C38" s="51"/>
+      <c r="C38" s="64"/>
       <c r="D38" s="42">
         <v>44.1</v>
       </c>
-      <c r="E38" s="53"/>
+      <c r="E38" s="66"/>
       <c r="F38" s="42">
         <v>0.2</v>
       </c>
-      <c r="G38" s="60"/>
+      <c r="G38" s="73"/>
       <c r="H38" s="42">
         <v>341.1</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="67"/>
+      <c r="A39" s="76"/>
       <c r="B39" s="41">
         <v>81.5</v>
       </c>
-      <c r="C39" s="51"/>
+      <c r="C39" s="64"/>
       <c r="D39" s="42">
         <v>44.1</v>
       </c>
-      <c r="E39" s="53"/>
+      <c r="E39" s="66"/>
       <c r="F39" s="42">
         <v>0</v>
       </c>
-      <c r="G39" s="60"/>
+      <c r="G39" s="73"/>
       <c r="H39" s="42">
         <v>343.7</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="67"/>
+      <c r="A40" s="76"/>
       <c r="B40" s="41">
         <v>81.5</v>
       </c>
-      <c r="C40" s="51"/>
+      <c r="C40" s="64"/>
       <c r="D40" s="42">
         <v>44.2</v>
       </c>
-      <c r="E40" s="53"/>
+      <c r="E40" s="66"/>
       <c r="F40" s="42">
         <v>0.2</v>
       </c>
-      <c r="G40" s="60"/>
+      <c r="G40" s="73"/>
       <c r="H40" s="42">
         <v>341.9</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="67" t="s">
+      <c r="A41" s="76" t="s">
         <v>60</v>
       </c>
       <c r="B41" s="41">
         <v>82.4</v>
       </c>
-      <c r="C41" s="51" t="s">
+      <c r="C41" s="64" t="s">
         <v>89</v>
       </c>
       <c r="D41" s="42">
         <v>44</v>
       </c>
-      <c r="E41" s="53"/>
+      <c r="E41" s="66"/>
       <c r="F41" s="42">
         <v>0</v>
       </c>
-      <c r="G41" s="60"/>
+      <c r="G41" s="73"/>
       <c r="H41" s="42">
         <v>344.1</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="67"/>
+      <c r="A42" s="76"/>
       <c r="B42" s="41">
         <v>82.4</v>
       </c>
-      <c r="C42" s="51"/>
+      <c r="C42" s="64"/>
       <c r="D42" s="42">
         <v>43.9</v>
       </c>
-      <c r="E42" s="53"/>
+      <c r="E42" s="66"/>
       <c r="F42" s="42">
         <v>0.9</v>
       </c>
-      <c r="G42" s="60"/>
+      <c r="G42" s="73"/>
       <c r="H42" s="42">
         <v>342.8</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A43" s="67"/>
+      <c r="A43" s="76"/>
       <c r="B43" s="41">
         <v>82.4</v>
       </c>
-      <c r="C43" s="51"/>
+      <c r="C43" s="64"/>
       <c r="D43" s="42">
         <v>43.9</v>
       </c>
-      <c r="E43" s="53"/>
+      <c r="E43" s="66"/>
       <c r="F43" s="42">
         <v>1.2</v>
       </c>
-      <c r="G43" s="60"/>
+      <c r="G43" s="73"/>
       <c r="H43" s="42">
         <v>342.8</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A44" s="67"/>
+      <c r="A44" s="76"/>
       <c r="B44" s="41">
         <v>82.4</v>
       </c>
-      <c r="C44" s="51"/>
+      <c r="C44" s="64"/>
       <c r="D44" s="42">
         <v>43.8</v>
       </c>
-      <c r="E44" s="53"/>
+      <c r="E44" s="66"/>
       <c r="F44" s="42">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G44" s="60"/>
+      <c r="G44" s="73"/>
       <c r="H44" s="42">
         <v>342.5</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A45" s="67"/>
+      <c r="A45" s="76"/>
       <c r="B45" s="41">
         <v>82.4</v>
       </c>
-      <c r="C45" s="51"/>
+      <c r="C45" s="64"/>
       <c r="D45" s="42">
         <v>43.8</v>
       </c>
-      <c r="E45" s="53"/>
+      <c r="E45" s="66"/>
       <c r="F45" s="42">
         <v>2</v>
       </c>
-      <c r="G45" s="60"/>
+      <c r="G45" s="73"/>
       <c r="H45" s="42">
         <v>345.7</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A46" s="67" t="s">
+      <c r="A46" s="76" t="s">
         <v>95</v>
       </c>
       <c r="B46" s="41">
         <v>82.9</v>
       </c>
-      <c r="C46" s="93" t="s">
+      <c r="C46" s="77" t="s">
         <v>91</v>
       </c>
       <c r="D46" s="42">
         <v>43.4</v>
       </c>
-      <c r="E46" s="92"/>
-      <c r="F46" s="94"/>
-      <c r="G46" s="94"/>
-      <c r="H46" s="94"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="52"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A47" s="67"/>
+      <c r="A47" s="76"/>
       <c r="B47" s="41">
         <v>83.1</v>
       </c>
-      <c r="C47" s="93"/>
+      <c r="C47" s="77"/>
       <c r="D47" s="42">
         <v>43.4</v>
       </c>
-      <c r="E47" s="92"/>
-      <c r="F47" s="94"/>
-      <c r="G47" s="94"/>
-      <c r="H47" s="94"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="52"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A48" s="67"/>
+      <c r="A48" s="76"/>
       <c r="B48" s="41">
         <v>83.1</v>
       </c>
-      <c r="C48" s="93"/>
+      <c r="C48" s="77"/>
       <c r="D48" s="42">
         <v>43.4</v>
       </c>
-      <c r="E48" s="92"/>
-      <c r="F48" s="94"/>
-      <c r="G48" s="94"/>
-      <c r="H48" s="94"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="52"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A49" s="67"/>
+      <c r="A49" s="76"/>
       <c r="B49" s="41">
         <v>83.1</v>
       </c>
-      <c r="C49" s="93"/>
+      <c r="C49" s="77"/>
       <c r="D49" s="42">
         <v>43.4</v>
       </c>
-      <c r="E49" s="92"/>
-      <c r="F49" s="94"/>
-      <c r="G49" s="94"/>
-      <c r="H49" s="94"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="52"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A50" s="67"/>
+      <c r="A50" s="76"/>
       <c r="B50" s="41">
         <v>83.1</v>
       </c>
-      <c r="C50" s="93"/>
+      <c r="C50" s="77"/>
       <c r="D50" s="42">
         <v>43.4</v>
       </c>
-      <c r="E50" s="92"/>
-      <c r="F50" s="94"/>
-      <c r="G50" s="94"/>
-      <c r="H50" s="94"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="52"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A51" s="67" t="s">
+      <c r="A51" s="76" t="s">
         <v>96</v>
       </c>
       <c r="B51" s="41">
         <v>83.4</v>
       </c>
-      <c r="C51" s="93" t="s">
+      <c r="C51" s="77" t="s">
         <v>93</v>
       </c>
       <c r="D51" s="42">
         <v>43.3</v>
       </c>
-      <c r="E51" s="92"/>
-      <c r="F51" s="94"/>
-      <c r="G51" s="94"/>
-      <c r="H51" s="94"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="52"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A52" s="67"/>
+      <c r="A52" s="76"/>
       <c r="B52" s="41">
         <v>83.4</v>
       </c>
-      <c r="C52" s="93"/>
+      <c r="C52" s="77"/>
       <c r="D52" s="42">
         <v>43.3</v>
       </c>
-      <c r="E52" s="92"/>
-      <c r="F52" s="94"/>
-      <c r="G52" s="94"/>
-      <c r="H52" s="94"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="52"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A53" s="67"/>
+      <c r="A53" s="76"/>
       <c r="B53" s="41">
         <v>83.4</v>
       </c>
-      <c r="C53" s="93"/>
+      <c r="C53" s="77"/>
       <c r="D53" s="42">
         <v>43.4</v>
       </c>
-      <c r="E53" s="92"/>
-      <c r="F53" s="94"/>
-      <c r="G53" s="94"/>
-      <c r="H53" s="94"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="52"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A54" s="67"/>
+      <c r="A54" s="76"/>
       <c r="B54" s="41">
         <v>83.6</v>
       </c>
-      <c r="C54" s="93"/>
+      <c r="C54" s="77"/>
       <c r="D54" s="42">
         <v>43.4</v>
       </c>
-      <c r="E54" s="92"/>
-      <c r="F54" s="94"/>
-      <c r="G54" s="94"/>
-      <c r="H54" s="94"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="52"/>
+      <c r="H54" s="52"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A55" s="67"/>
+      <c r="A55" s="76"/>
       <c r="B55" s="41">
         <v>83.3</v>
       </c>
-      <c r="C55" s="93"/>
+      <c r="C55" s="77"/>
       <c r="D55" s="42">
         <v>43.4</v>
       </c>
-      <c r="E55" s="92"/>
-      <c r="F55" s="94"/>
-      <c r="G55" s="94"/>
-      <c r="H55" s="94"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="52"/>
+      <c r="H55" s="52"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A56" s="67" t="s">
+      <c r="A56" s="76" t="s">
         <v>97</v>
       </c>
       <c r="B56" s="41">
         <v>83.3</v>
       </c>
-      <c r="C56" s="94"/>
-      <c r="D56" s="94"/>
-      <c r="E56" s="94"/>
-      <c r="F56" s="94"/>
-      <c r="G56" s="94"/>
-      <c r="H56" s="94"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="52"/>
+      <c r="E56" s="52"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="52"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A57" s="67"/>
+      <c r="A57" s="76"/>
       <c r="B57" s="41">
         <v>83.4</v>
       </c>
-      <c r="C57" s="91"/>
-      <c r="D57" s="94"/>
-      <c r="E57" s="94"/>
-      <c r="F57" s="94"/>
-      <c r="G57" s="94"/>
-      <c r="H57" s="94"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="52"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="52"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A58" s="67"/>
+      <c r="A58" s="76"/>
       <c r="B58" s="41">
         <v>83.3</v>
       </c>
-      <c r="C58" s="91"/>
-      <c r="D58" s="94"/>
-      <c r="E58" s="94"/>
-      <c r="F58" s="94"/>
-      <c r="G58" s="94"/>
-      <c r="H58" s="94"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="52"/>
+      <c r="E58" s="52"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="52"/>
+      <c r="H58" s="52"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A59" s="67"/>
+      <c r="A59" s="76"/>
       <c r="B59" s="41">
         <v>83.3</v>
       </c>
-      <c r="C59" s="91"/>
-      <c r="D59" s="94"/>
-      <c r="E59" s="94"/>
-      <c r="F59" s="94"/>
-      <c r="G59" s="94"/>
-      <c r="H59" s="94"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="52"/>
+      <c r="E59" s="52"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="52"/>
+      <c r="H59" s="52"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A60" s="67"/>
+      <c r="A60" s="76"/>
       <c r="B60" s="41">
         <v>83.4</v>
       </c>
-      <c r="C60" s="91"/>
-      <c r="D60" s="94"/>
-      <c r="E60" s="94"/>
-      <c r="F60" s="94"/>
-      <c r="G60" s="94"/>
-      <c r="H60" s="94"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="52"/>
+      <c r="E60" s="52"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="52"/>
+      <c r="H60" s="52"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A61" s="67" t="s">
+      <c r="A61" s="76" t="s">
         <v>98</v>
       </c>
       <c r="B61" s="41">
         <v>83.6</v>
       </c>
-      <c r="C61" s="91"/>
-      <c r="D61" s="94"/>
-      <c r="E61" s="94"/>
-      <c r="F61" s="94"/>
-      <c r="G61" s="94"/>
-      <c r="H61" s="94"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="52"/>
+      <c r="E61" s="52"/>
+      <c r="F61" s="52"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="52"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A62" s="67"/>
+      <c r="A62" s="76"/>
       <c r="B62" s="41">
         <v>83.8</v>
       </c>
-      <c r="C62" s="91"/>
-      <c r="D62" s="94"/>
-      <c r="E62" s="94"/>
-      <c r="F62" s="94"/>
-      <c r="G62" s="94"/>
-      <c r="H62" s="94"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="52"/>
+      <c r="E62" s="52"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="52"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A63" s="67"/>
+      <c r="A63" s="76"/>
       <c r="B63" s="41">
         <v>83.6</v>
       </c>
-      <c r="C63" s="91"/>
-      <c r="D63" s="94"/>
-      <c r="E63" s="94"/>
-      <c r="F63" s="94"/>
-      <c r="G63" s="94"/>
-      <c r="H63" s="94"/>
+      <c r="C63" s="50"/>
+      <c r="D63" s="52"/>
+      <c r="E63" s="52"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="52"/>
+      <c r="H63" s="52"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A64" s="67"/>
+      <c r="A64" s="76"/>
       <c r="B64" s="41">
         <v>83.8</v>
       </c>
-      <c r="C64" s="91"/>
-      <c r="D64" s="94"/>
-      <c r="E64" s="94"/>
-      <c r="F64" s="94"/>
-      <c r="G64" s="94"/>
-      <c r="H64" s="94"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="52"/>
+      <c r="E64" s="52"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="52"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A65" s="67"/>
+      <c r="A65" s="76"/>
       <c r="B65" s="41">
         <v>83.8</v>
       </c>
-      <c r="C65" s="91"/>
-      <c r="D65" s="94"/>
-      <c r="E65" s="94"/>
-      <c r="F65" s="94"/>
-      <c r="G65" s="94"/>
-      <c r="H65" s="94"/>
+      <c r="C65" s="50"/>
+      <c r="D65" s="52"/>
+      <c r="E65" s="52"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="52"/>
+      <c r="H65" s="52"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A66" s="67" t="s">
+      <c r="A66" s="76" t="s">
         <v>94</v>
       </c>
       <c r="B66" s="41">
         <v>83.8</v>
       </c>
-      <c r="C66" s="91"/>
-      <c r="D66" s="94"/>
-      <c r="E66" s="94"/>
-      <c r="F66" s="94"/>
-      <c r="G66" s="94"/>
-      <c r="H66" s="94"/>
+      <c r="C66" s="50"/>
+      <c r="D66" s="52"/>
+      <c r="E66" s="52"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="52"/>
+      <c r="H66" s="52"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A67" s="67"/>
+      <c r="A67" s="76"/>
       <c r="B67" s="41">
         <v>84</v>
       </c>
-      <c r="C67" s="91"/>
-      <c r="D67" s="94"/>
-      <c r="E67" s="94"/>
-      <c r="F67" s="94"/>
-      <c r="G67" s="94"/>
-      <c r="H67" s="94"/>
+      <c r="C67" s="50"/>
+      <c r="D67" s="52"/>
+      <c r="E67" s="52"/>
+      <c r="F67" s="52"/>
+      <c r="G67" s="52"/>
+      <c r="H67" s="52"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A68" s="67"/>
+      <c r="A68" s="76"/>
       <c r="B68" s="41">
         <v>84</v>
       </c>
-      <c r="C68" s="91"/>
-      <c r="D68" s="94"/>
-      <c r="E68" s="94"/>
-      <c r="F68" s="94"/>
-      <c r="G68" s="94"/>
-      <c r="H68" s="94"/>
+      <c r="C68" s="50"/>
+      <c r="D68" s="52"/>
+      <c r="E68" s="52"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="52"/>
+      <c r="H68" s="52"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A69" s="67"/>
+      <c r="A69" s="76"/>
       <c r="B69" s="41">
         <v>84</v>
       </c>
-      <c r="C69" s="91"/>
-      <c r="D69" s="94"/>
-      <c r="E69" s="94"/>
-      <c r="F69" s="94"/>
-      <c r="G69" s="94"/>
-      <c r="H69" s="94"/>
+      <c r="C69" s="50"/>
+      <c r="D69" s="52"/>
+      <c r="E69" s="52"/>
+      <c r="F69" s="52"/>
+      <c r="G69" s="52"/>
+      <c r="H69" s="52"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A70" s="67"/>
+      <c r="A70" s="76"/>
       <c r="B70" s="41">
         <v>84</v>
       </c>
-      <c r="C70" s="91"/>
-      <c r="D70" s="94"/>
-      <c r="E70" s="94"/>
-      <c r="F70" s="94"/>
-      <c r="G70" s="94"/>
-      <c r="H70" s="94"/>
+      <c r="C70" s="50"/>
+      <c r="D70" s="52"/>
+      <c r="E70" s="52"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="52"/>
+      <c r="H70" s="52"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A71" s="67" t="s">
+      <c r="A71" s="76" t="s">
         <v>83</v>
       </c>
       <c r="B71" s="41">
         <v>83.4</v>
       </c>
-      <c r="C71" s="91"/>
-      <c r="D71" s="94"/>
-      <c r="E71" s="94"/>
-      <c r="F71" s="94"/>
-      <c r="G71" s="94"/>
-      <c r="H71" s="94"/>
+      <c r="C71" s="50"/>
+      <c r="D71" s="52"/>
+      <c r="E71" s="52"/>
+      <c r="F71" s="52"/>
+      <c r="G71" s="52"/>
+      <c r="H71" s="52"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A72" s="67"/>
+      <c r="A72" s="76"/>
       <c r="B72" s="41">
         <v>83.4</v>
       </c>
-      <c r="C72" s="91"/>
-      <c r="D72" s="94"/>
-      <c r="E72" s="94"/>
-      <c r="F72" s="94"/>
-      <c r="G72" s="94"/>
-      <c r="H72" s="94"/>
+      <c r="C72" s="50"/>
+      <c r="D72" s="52"/>
+      <c r="E72" s="52"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="52"/>
+      <c r="H72" s="52"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A73" s="67"/>
+      <c r="A73" s="76"/>
       <c r="B73" s="41">
         <v>83.3</v>
       </c>
-      <c r="C73" s="91"/>
-      <c r="D73" s="94"/>
-      <c r="E73" s="94"/>
-      <c r="F73" s="94"/>
-      <c r="G73" s="94"/>
-      <c r="H73" s="94"/>
+      <c r="C73" s="50"/>
+      <c r="D73" s="52"/>
+      <c r="E73" s="52"/>
+      <c r="F73" s="52"/>
+      <c r="G73" s="52"/>
+      <c r="H73" s="52"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A74" s="67"/>
+      <c r="A74" s="76"/>
       <c r="B74" s="41">
         <v>83.3</v>
       </c>
-      <c r="C74" s="91"/>
-      <c r="D74" s="94"/>
-      <c r="E74" s="94"/>
-      <c r="F74" s="94"/>
-      <c r="G74" s="94"/>
-      <c r="H74" s="94"/>
+      <c r="C74" s="50"/>
+      <c r="D74" s="52"/>
+      <c r="E74" s="52"/>
+      <c r="F74" s="52"/>
+      <c r="G74" s="52"/>
+      <c r="H74" s="52"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A75" s="67"/>
+      <c r="A75" s="76"/>
       <c r="B75" s="41">
         <v>83.3</v>
       </c>
-      <c r="C75" s="91"/>
-      <c r="D75" s="94"/>
-      <c r="E75" s="94"/>
-      <c r="F75" s="94"/>
-      <c r="G75" s="94"/>
-      <c r="H75" s="94"/>
+      <c r="C75" s="50"/>
+      <c r="D75" s="52"/>
+      <c r="E75" s="52"/>
+      <c r="F75" s="52"/>
+      <c r="G75" s="52"/>
+      <c r="H75" s="52"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A76" s="67" t="s">
+      <c r="A76" s="76" t="s">
         <v>84</v>
       </c>
       <c r="B76" s="41">
         <v>83.3</v>
       </c>
-      <c r="C76" s="91"/>
-      <c r="D76" s="94"/>
-      <c r="E76" s="94"/>
-      <c r="F76" s="94"/>
-      <c r="G76" s="94"/>
-      <c r="H76" s="94"/>
+      <c r="C76" s="50"/>
+      <c r="D76" s="52"/>
+      <c r="E76" s="52"/>
+      <c r="F76" s="52"/>
+      <c r="G76" s="52"/>
+      <c r="H76" s="52"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A77" s="67"/>
+      <c r="A77" s="76"/>
       <c r="B77" s="41">
         <v>83.4</v>
       </c>
-      <c r="C77" s="91"/>
-      <c r="D77" s="94"/>
-      <c r="E77" s="94"/>
-      <c r="F77" s="94"/>
-      <c r="G77" s="94"/>
-      <c r="H77" s="94"/>
+      <c r="C77" s="50"/>
+      <c r="D77" s="52"/>
+      <c r="E77" s="52"/>
+      <c r="F77" s="52"/>
+      <c r="G77" s="52"/>
+      <c r="H77" s="52"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A78" s="67"/>
+      <c r="A78" s="76"/>
       <c r="B78" s="41">
         <v>83.4</v>
       </c>
-      <c r="C78" s="91"/>
-      <c r="D78" s="94"/>
-      <c r="E78" s="94"/>
-      <c r="F78" s="94"/>
-      <c r="G78" s="94"/>
-      <c r="H78" s="94"/>
+      <c r="C78" s="50"/>
+      <c r="D78" s="52"/>
+      <c r="E78" s="52"/>
+      <c r="F78" s="52"/>
+      <c r="G78" s="52"/>
+      <c r="H78" s="52"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A79" s="67"/>
+      <c r="A79" s="76"/>
       <c r="B79" s="41">
         <v>83.4</v>
       </c>
-      <c r="C79" s="91"/>
-      <c r="D79" s="94"/>
-      <c r="E79" s="94"/>
-      <c r="F79" s="94"/>
-      <c r="G79" s="94"/>
-      <c r="H79" s="94"/>
+      <c r="C79" s="50"/>
+      <c r="D79" s="52"/>
+      <c r="E79" s="52"/>
+      <c r="F79" s="52"/>
+      <c r="G79" s="52"/>
+      <c r="H79" s="52"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A80" s="67"/>
+      <c r="A80" s="76"/>
       <c r="B80" s="41">
         <v>83.4</v>
       </c>
-      <c r="C80" s="91"/>
-      <c r="D80" s="94"/>
-      <c r="E80" s="94"/>
-      <c r="F80" s="94"/>
-      <c r="G80" s="94"/>
-      <c r="H80" s="94"/>
+      <c r="C80" s="50"/>
+      <c r="D80" s="52"/>
+      <c r="E80" s="52"/>
+      <c r="F80" s="52"/>
+      <c r="G80" s="52"/>
+      <c r="H80" s="52"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A81" s="67" t="s">
+      <c r="A81" s="76" t="s">
         <v>85</v>
       </c>
       <c r="B81" s="41">
         <v>83.4</v>
       </c>
-      <c r="C81" s="91"/>
-      <c r="D81" s="94"/>
-      <c r="E81" s="94"/>
-      <c r="F81" s="94"/>
-      <c r="G81" s="94"/>
-      <c r="H81" s="94"/>
+      <c r="C81" s="50"/>
+      <c r="D81" s="52"/>
+      <c r="E81" s="52"/>
+      <c r="F81" s="52"/>
+      <c r="G81" s="52"/>
+      <c r="H81" s="52"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A82" s="67"/>
+      <c r="A82" s="76"/>
       <c r="B82" s="41">
         <v>83.3</v>
       </c>
-      <c r="C82" s="91"/>
-      <c r="D82" s="94"/>
-      <c r="E82" s="94"/>
-      <c r="F82" s="94"/>
-      <c r="G82" s="94"/>
-      <c r="H82" s="94"/>
+      <c r="C82" s="50"/>
+      <c r="D82" s="52"/>
+      <c r="E82" s="52"/>
+      <c r="F82" s="52"/>
+      <c r="G82" s="52"/>
+      <c r="H82" s="52"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A83" s="67"/>
+      <c r="A83" s="76"/>
       <c r="B83" s="41">
         <v>83.3</v>
       </c>
-      <c r="C83" s="91"/>
-      <c r="D83" s="94"/>
-      <c r="E83" s="94"/>
-      <c r="F83" s="94"/>
-      <c r="G83" s="94"/>
-      <c r="H83" s="94"/>
+      <c r="C83" s="50"/>
+      <c r="D83" s="52"/>
+      <c r="E83" s="52"/>
+      <c r="F83" s="52"/>
+      <c r="G83" s="52"/>
+      <c r="H83" s="52"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A84" s="67"/>
+      <c r="A84" s="76"/>
       <c r="B84" s="41">
         <v>83.3</v>
       </c>
-      <c r="C84" s="91"/>
-      <c r="D84" s="94"/>
-      <c r="E84" s="94"/>
-      <c r="F84" s="94"/>
-      <c r="G84" s="94"/>
-      <c r="H84" s="94"/>
+      <c r="C84" s="50"/>
+      <c r="D84" s="52"/>
+      <c r="E84" s="52"/>
+      <c r="F84" s="52"/>
+      <c r="G84" s="52"/>
+      <c r="H84" s="52"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A85" s="67"/>
+      <c r="A85" s="76"/>
       <c r="B85" s="41">
         <v>83.3</v>
       </c>
-      <c r="C85" s="91"/>
-      <c r="D85" s="94"/>
-      <c r="E85" s="94"/>
-      <c r="F85" s="94"/>
-      <c r="G85" s="94"/>
-      <c r="H85" s="94"/>
+      <c r="C85" s="50"/>
+      <c r="D85" s="52"/>
+      <c r="E85" s="52"/>
+      <c r="F85" s="52"/>
+      <c r="G85" s="52"/>
+      <c r="H85" s="52"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A86" s="67" t="s">
+      <c r="A86" s="76" t="s">
         <v>88</v>
       </c>
       <c r="B86" s="41">
         <v>83.8</v>
       </c>
-      <c r="C86" s="91"/>
-      <c r="D86" s="94"/>
-      <c r="E86" s="94"/>
-      <c r="F86" s="94"/>
-      <c r="G86" s="94"/>
-      <c r="H86" s="94"/>
+      <c r="C86" s="50"/>
+      <c r="D86" s="52"/>
+      <c r="E86" s="52"/>
+      <c r="F86" s="52"/>
+      <c r="G86" s="52"/>
+      <c r="H86" s="52"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A87" s="67"/>
+      <c r="A87" s="76"/>
       <c r="B87" s="41">
         <v>83.8</v>
       </c>
-      <c r="C87" s="91"/>
-      <c r="D87" s="94"/>
-      <c r="E87" s="94"/>
-      <c r="F87" s="94"/>
-      <c r="G87" s="94"/>
-      <c r="H87" s="94"/>
+      <c r="C87" s="50"/>
+      <c r="D87" s="52"/>
+      <c r="E87" s="52"/>
+      <c r="F87" s="52"/>
+      <c r="G87" s="52"/>
+      <c r="H87" s="52"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A88" s="67"/>
+      <c r="A88" s="76"/>
       <c r="B88" s="41">
         <v>83.8</v>
       </c>
-      <c r="C88" s="91"/>
-      <c r="D88" s="94"/>
-      <c r="E88" s="94"/>
-      <c r="F88" s="94"/>
-      <c r="G88" s="94"/>
-      <c r="H88" s="94"/>
+      <c r="C88" s="50"/>
+      <c r="D88" s="52"/>
+      <c r="E88" s="52"/>
+      <c r="F88" s="52"/>
+      <c r="G88" s="52"/>
+      <c r="H88" s="52"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A89" s="67"/>
+      <c r="A89" s="76"/>
       <c r="B89" s="41">
         <v>84</v>
       </c>
-      <c r="C89" s="91"/>
-      <c r="D89" s="94"/>
-      <c r="E89" s="94"/>
-      <c r="F89" s="94"/>
-      <c r="G89" s="94"/>
-      <c r="H89" s="94"/>
+      <c r="C89" s="50"/>
+      <c r="D89" s="52"/>
+      <c r="E89" s="52"/>
+      <c r="F89" s="52"/>
+      <c r="G89" s="52"/>
+      <c r="H89" s="52"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A90" s="67"/>
+      <c r="A90" s="76"/>
       <c r="B90" s="41">
         <v>84</v>
       </c>
-      <c r="C90" s="91"/>
-      <c r="D90" s="94"/>
-      <c r="E90" s="94"/>
-      <c r="F90" s="94"/>
-      <c r="G90" s="94"/>
-      <c r="H90" s="94"/>
+      <c r="C90" s="50"/>
+      <c r="D90" s="52"/>
+      <c r="E90" s="52"/>
+      <c r="F90" s="52"/>
+      <c r="G90" s="52"/>
+      <c r="H90" s="52"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A91" s="67" t="s">
+      <c r="A91" s="76" t="s">
         <v>90</v>
       </c>
       <c r="B91" s="41">
         <v>84</v>
       </c>
-      <c r="C91" s="91"/>
-      <c r="D91" s="94"/>
-      <c r="E91" s="94"/>
-      <c r="F91" s="94"/>
-      <c r="G91" s="94"/>
-      <c r="H91" s="94"/>
+      <c r="C91" s="50"/>
+      <c r="D91" s="52"/>
+      <c r="E91" s="52"/>
+      <c r="F91" s="52"/>
+      <c r="G91" s="52"/>
+      <c r="H91" s="52"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A92" s="67"/>
+      <c r="A92" s="76"/>
       <c r="B92" s="41">
         <v>84</v>
       </c>
-      <c r="C92" s="91"/>
-      <c r="D92" s="94"/>
-      <c r="E92" s="94"/>
-      <c r="F92" s="94"/>
-      <c r="G92" s="94"/>
-      <c r="H92" s="94"/>
+      <c r="C92" s="50"/>
+      <c r="D92" s="52"/>
+      <c r="E92" s="52"/>
+      <c r="F92" s="52"/>
+      <c r="G92" s="52"/>
+      <c r="H92" s="52"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A93" s="67"/>
+      <c r="A93" s="76"/>
       <c r="B93" s="41">
         <v>84</v>
       </c>
-      <c r="C93" s="91"/>
-      <c r="D93" s="94"/>
-      <c r="E93" s="94"/>
-      <c r="F93" s="94"/>
-      <c r="G93" s="94"/>
-      <c r="H93" s="94"/>
+      <c r="C93" s="50"/>
+      <c r="D93" s="52"/>
+      <c r="E93" s="52"/>
+      <c r="F93" s="52"/>
+      <c r="G93" s="52"/>
+      <c r="H93" s="52"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A94" s="67"/>
+      <c r="A94" s="76"/>
       <c r="B94" s="41">
         <v>84.2</v>
       </c>
-      <c r="C94" s="91"/>
-      <c r="D94" s="94"/>
-      <c r="E94" s="94"/>
-      <c r="F94" s="94"/>
-      <c r="G94" s="94"/>
-      <c r="H94" s="94"/>
+      <c r="C94" s="50"/>
+      <c r="D94" s="52"/>
+      <c r="E94" s="52"/>
+      <c r="F94" s="52"/>
+      <c r="G94" s="52"/>
+      <c r="H94" s="52"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A95" s="67"/>
+      <c r="A95" s="76"/>
       <c r="B95" s="41">
         <v>84.2</v>
       </c>
-      <c r="C95" s="91"/>
-      <c r="D95" s="94"/>
-      <c r="E95" s="94"/>
-      <c r="F95" s="94"/>
-      <c r="G95" s="94"/>
-      <c r="H95" s="94"/>
+      <c r="C95" s="50"/>
+      <c r="D95" s="52"/>
+      <c r="E95" s="52"/>
+      <c r="F95" s="52"/>
+      <c r="G95" s="52"/>
+      <c r="H95" s="52"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A96" s="67" t="s">
+      <c r="A96" s="76" t="s">
         <v>92</v>
       </c>
       <c r="B96" s="41">
         <v>84</v>
       </c>
-      <c r="C96" s="91"/>
-      <c r="D96" s="94"/>
-      <c r="E96" s="94"/>
-      <c r="F96" s="94"/>
-      <c r="G96" s="94"/>
-      <c r="H96" s="94"/>
+      <c r="C96" s="50"/>
+      <c r="D96" s="52"/>
+      <c r="E96" s="52"/>
+      <c r="F96" s="52"/>
+      <c r="G96" s="52"/>
+      <c r="H96" s="52"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A97" s="67"/>
+      <c r="A97" s="76"/>
       <c r="B97" s="41">
         <v>84</v>
       </c>
-      <c r="C97" s="91"/>
-      <c r="D97" s="94"/>
-      <c r="E97" s="94"/>
-      <c r="F97" s="94"/>
-      <c r="G97" s="94"/>
-      <c r="H97" s="94"/>
+      <c r="C97" s="50"/>
+      <c r="D97" s="52"/>
+      <c r="E97" s="52"/>
+      <c r="F97" s="52"/>
+      <c r="G97" s="52"/>
+      <c r="H97" s="52"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A98" s="67"/>
+      <c r="A98" s="76"/>
       <c r="B98" s="41">
         <v>84</v>
       </c>
-      <c r="C98" s="91"/>
-      <c r="D98" s="94"/>
-      <c r="E98" s="94"/>
-      <c r="F98" s="94"/>
-      <c r="G98" s="94"/>
-      <c r="H98" s="94"/>
+      <c r="C98" s="50"/>
+      <c r="D98" s="52"/>
+      <c r="E98" s="52"/>
+      <c r="F98" s="52"/>
+      <c r="G98" s="52"/>
+      <c r="H98" s="52"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A99" s="67"/>
+      <c r="A99" s="76"/>
       <c r="B99" s="41">
         <v>84</v>
       </c>
-      <c r="C99" s="91"/>
-      <c r="D99" s="94"/>
-      <c r="E99" s="94"/>
-      <c r="F99" s="94"/>
-      <c r="G99" s="94"/>
-      <c r="H99" s="94"/>
+      <c r="C99" s="50"/>
+      <c r="D99" s="52"/>
+      <c r="E99" s="52"/>
+      <c r="F99" s="52"/>
+      <c r="G99" s="52"/>
+      <c r="H99" s="52"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A100" s="67"/>
+      <c r="A100" s="76"/>
       <c r="B100" s="41">
         <v>84</v>
       </c>
-      <c r="C100" s="91"/>
-      <c r="D100" s="94"/>
-      <c r="E100" s="94"/>
-      <c r="F100" s="94"/>
-      <c r="G100" s="94"/>
-      <c r="H100" s="94"/>
+      <c r="C100" s="50"/>
+      <c r="D100" s="52"/>
+      <c r="E100" s="52"/>
+      <c r="F100" s="52"/>
+      <c r="G100" s="52"/>
+      <c r="H100" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="C6:C15"/>
+    <mergeCell ref="E6:E45"/>
+    <mergeCell ref="G6:G45"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="A56:A60"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="A91:A95"/>
     <mergeCell ref="A96:A100"/>
@@ -7871,22 +7892,6 @@
     <mergeCell ref="A81:A85"/>
     <mergeCell ref="A86:A90"/>
     <mergeCell ref="A31:A35"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="A46:A50"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="A56:A60"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="C6:C15"/>
-    <mergeCell ref="E6:E45"/>
-    <mergeCell ref="G6:G45"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="A6:A15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7904,44 +7909,44 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
       <c r="G1" s="18"/>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63" t="s">
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A2" s="81"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A3" s="27" t="s">
@@ -7965,27 +7970,27 @@
       <c r="G3" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="H3" s="75" t="s">
+      <c r="H3" s="74" t="s">
         <v>190</v>
       </c>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="83"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="75"/>
       <c r="P3" s="32">
         <v>0.36041666666666666</v>
       </c>
-      <c r="Q3" s="75" t="s">
+      <c r="Q3" s="74" t="s">
         <v>190</v>
       </c>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="76"/>
+      <c r="R3" s="87"/>
+      <c r="S3" s="87"/>
+      <c r="T3" s="87"/>
+      <c r="U3" s="87"/>
+      <c r="V3" s="87"/>
       <c r="W3" s="38">
         <v>0.36319444444444443</v>
       </c>
@@ -7994,22 +7999,22 @@
       <c r="Z3" s="21"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="88" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="76" t="s">
         <v>99</v>
       </c>
       <c r="D4" s="24">
         <v>1</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="F4" s="52"/>
+      <c r="F4" s="65"/>
       <c r="G4" s="25"/>
       <c r="H4" s="24" t="s">
         <v>137</v>
@@ -8064,14 +8069,14 @@
       <c r="Z4" s="14"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A5" s="70"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="67"/>
+      <c r="A5" s="89"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="76"/>
       <c r="D5" s="24">
         <v>2</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="52"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="25"/>
       <c r="H5" s="24" t="s">
         <v>137</v>
@@ -8126,14 +8131,14 @@
       <c r="Z5" s="14"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A6" s="70"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="67"/>
+      <c r="A6" s="89"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="76"/>
       <c r="D6" s="24">
         <v>3</v>
       </c>
-      <c r="E6" s="51"/>
-      <c r="F6" s="52"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="25"/>
       <c r="H6" s="24" t="s">
         <v>138</v>
@@ -8188,14 +8193,14 @@
       <c r="Z6" s="14"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A7" s="70"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="67"/>
+      <c r="A7" s="89"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="76"/>
       <c r="D7" s="24">
         <v>4</v>
       </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="52"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="25"/>
       <c r="H7" s="24" t="s">
         <v>138</v>
@@ -8250,14 +8255,14 @@
       <c r="Z7" s="14"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A8" s="70"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="67"/>
+      <c r="A8" s="89"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="76"/>
       <c r="D8" s="24">
         <v>5</v>
       </c>
-      <c r="E8" s="51"/>
-      <c r="F8" s="52"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="65"/>
       <c r="G8" s="25"/>
       <c r="H8" s="24" t="s">
         <v>139</v>
@@ -8312,23 +8317,23 @@
       <c r="Z8" s="14"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A9" s="70"/>
-      <c r="B9" s="65"/>
+      <c r="A9" s="89"/>
+      <c r="B9" s="92"/>
       <c r="C9" s="27"/>
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="51"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="64"/>
       <c r="R9" s="28"/>
       <c r="S9" s="28"/>
       <c r="T9" s="28"/>
@@ -8340,15 +8345,15 @@
       <c r="Z9" s="22"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A10" s="70"/>
-      <c r="B10" s="65"/>
+      <c r="A10" s="89"/>
+      <c r="B10" s="92"/>
       <c r="C10" s="27"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
       <c r="L10" s="24"/>
@@ -8372,18 +8377,18 @@
       <c r="Z10" s="12"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A11" s="70"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="67" t="s">
+      <c r="A11" s="89"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="76" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="24">
         <v>1</v>
       </c>
-      <c r="E11" s="52" t="s">
+      <c r="E11" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="F11" s="52"/>
+      <c r="F11" s="65"/>
       <c r="G11" s="25"/>
       <c r="H11" s="25" t="s">
         <v>197</v>
@@ -8438,14 +8443,14 @@
       <c r="Z11" s="12"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A12" s="70"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="67"/>
+      <c r="A12" s="89"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="76"/>
       <c r="D12" s="24">
         <v>2</v>
       </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="52"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="65"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25" t="s">
         <v>198</v>
@@ -8500,14 +8505,14 @@
       <c r="Z12" s="12"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A13" s="70"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="67"/>
+      <c r="A13" s="89"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="76"/>
       <c r="D13" s="24">
         <v>3</v>
       </c>
-      <c r="E13" s="51"/>
-      <c r="F13" s="52"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="65"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25" t="s">
         <v>198</v>
@@ -8562,14 +8567,14 @@
       <c r="Z13" s="12"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A14" s="70"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="67"/>
+      <c r="A14" s="89"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="24">
         <v>4</v>
       </c>
-      <c r="E14" s="51"/>
-      <c r="F14" s="52"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="65"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25" t="s">
         <v>199</v>
@@ -8624,14 +8629,14 @@
       <c r="Z14" s="12"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A15" s="70"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="67"/>
+      <c r="A15" s="89"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="76"/>
       <c r="D15" s="24">
         <v>5</v>
       </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="52"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="65"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25" t="s">
         <v>200</v>
@@ -8686,23 +8691,23 @@
       <c r="Z15" s="12"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A16" s="70"/>
-      <c r="B16" s="66"/>
+      <c r="A16" s="89"/>
+      <c r="B16" s="93"/>
       <c r="C16" s="30"/>
       <c r="D16" s="23"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
-      <c r="H16" s="72" t="s">
+      <c r="H16" s="79" t="s">
         <v>179</v>
       </c>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="74"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="80"/>
+      <c r="O16" s="81"/>
       <c r="P16" s="37"/>
       <c r="Q16" s="37"/>
       <c r="R16" s="37"/>
@@ -8716,21 +8721,21 @@
       <c r="Z16" s="12"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A17" s="70"/>
-      <c r="B17" s="67" t="s">
+      <c r="A17" s="89"/>
+      <c r="B17" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="76" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="24">
         <v>1</v>
       </c>
-      <c r="E17" s="52" t="s">
+      <c r="E17" s="65" t="s">
         <v>140</v>
       </c>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52" t="s">
+      <c r="F17" s="65"/>
+      <c r="G17" s="65" t="s">
         <v>142</v>
       </c>
       <c r="H17" s="25" t="s">
@@ -8770,15 +8775,15 @@
       <c r="Z17" s="12"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A18" s="70"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="67"/>
+      <c r="A18" s="89"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
       <c r="D18" s="24">
         <v>2</v>
       </c>
-      <c r="E18" s="51"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
       <c r="H18" s="25" t="s">
         <v>144</v>
       </c>
@@ -8816,15 +8821,15 @@
       <c r="Z18" s="12"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A19" s="70"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
+      <c r="A19" s="89"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="24">
         <v>3</v>
       </c>
-      <c r="E19" s="51"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
       <c r="H19" s="25" t="s">
         <v>145</v>
       </c>
@@ -8862,15 +8867,15 @@
       <c r="Z19" s="12"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A20" s="70"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
+      <c r="A20" s="89"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
       <c r="D20" s="24">
         <v>4</v>
       </c>
-      <c r="E20" s="51"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
       <c r="H20" s="25" t="s">
         <v>146</v>
       </c>
@@ -8908,15 +8913,15 @@
       <c r="Z20" s="12"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A21" s="71"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="67"/>
+      <c r="A21" s="90"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="76"/>
       <c r="D21" s="24">
         <v>5</v>
       </c>
-      <c r="E21" s="51"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
       <c r="H21" s="25" t="s">
         <v>147</v>
       </c>
@@ -8969,16 +8974,16 @@
       <c r="G22" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="H22" s="77" t="s">
+      <c r="H22" s="94" t="s">
         <v>190</v>
       </c>
-      <c r="I22" s="78"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="78"/>
-      <c r="N22" s="78"/>
-      <c r="O22" s="79"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="95"/>
+      <c r="L22" s="95"/>
+      <c r="M22" s="95"/>
+      <c r="N22" s="95"/>
+      <c r="O22" s="96"/>
       <c r="P22" s="33" t="s">
         <v>249</v>
       </c>
@@ -8994,25 +8999,25 @@
       <c r="Z22" s="12"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A23" s="69" t="s">
+      <c r="A23" s="88" t="s">
         <v>135</v>
       </c>
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="67" t="s">
+      <c r="C23" s="76" t="s">
         <v>99</v>
       </c>
       <c r="D23" s="24">
         <v>1</v>
       </c>
-      <c r="E23" s="52" t="s">
+      <c r="E23" s="65" t="s">
         <v>231</v>
       </c>
-      <c r="F23" s="53" t="s">
+      <c r="F23" s="66" t="s">
         <v>292</v>
       </c>
-      <c r="G23" s="52" t="s">
+      <c r="G23" s="65" t="s">
         <v>293</v>
       </c>
       <c r="H23" s="25" t="s">
@@ -9068,15 +9073,15 @@
       <c r="Z23" s="12"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A24" s="70"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
+      <c r="A24" s="89"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="24">
         <v>2</v>
       </c>
-      <c r="E24" s="51"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="52"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="65"/>
       <c r="H24" s="25" t="s">
         <v>233</v>
       </c>
@@ -9130,15 +9135,15 @@
       <c r="Z24" s="12"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A25" s="70"/>
-      <c r="B25" s="67"/>
-      <c r="C25" s="67"/>
+      <c r="A25" s="89"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="76"/>
       <c r="D25" s="24">
         <v>3</v>
       </c>
-      <c r="E25" s="51"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="52"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="65"/>
       <c r="H25" s="25" t="s">
         <v>232</v>
       </c>
@@ -9192,15 +9197,15 @@
       <c r="Z25" s="12"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A26" s="70"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
+      <c r="A26" s="89"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="76"/>
       <c r="D26" s="24">
         <v>4</v>
       </c>
-      <c r="E26" s="51"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="52"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="65"/>
       <c r="H26" s="25" t="s">
         <v>232</v>
       </c>
@@ -9254,15 +9259,15 @@
       <c r="Z26" s="12"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A27" s="70"/>
-      <c r="B27" s="67"/>
-      <c r="C27" s="67"/>
+      <c r="A27" s="89"/>
+      <c r="B27" s="76"/>
+      <c r="C27" s="76"/>
       <c r="D27" s="24">
         <v>5</v>
       </c>
-      <c r="E27" s="51"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="52"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="65"/>
       <c r="H27" s="25" t="s">
         <v>232</v>
       </c>
@@ -9316,8 +9321,8 @@
       <c r="Z27" s="12"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A28" s="70"/>
-      <c r="B28" s="67"/>
+      <c r="A28" s="89"/>
+      <c r="B28" s="76"/>
       <c r="C28" s="27"/>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
@@ -9344,8 +9349,8 @@
       <c r="Z28" s="12"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A29" s="70"/>
-      <c r="B29" s="67"/>
+      <c r="A29" s="89"/>
+      <c r="B29" s="76"/>
       <c r="C29" s="27"/>
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
@@ -9374,21 +9379,21 @@
       <c r="Z29" s="12"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A30" s="70"/>
-      <c r="B30" s="67"/>
-      <c r="C30" s="67" t="s">
+      <c r="A30" s="89"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="76" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="24">
         <v>1</v>
       </c>
-      <c r="E30" s="52" t="s">
+      <c r="E30" s="65" t="s">
         <v>231</v>
       </c>
-      <c r="F30" s="53" t="s">
+      <c r="F30" s="66" t="s">
         <v>292</v>
       </c>
-      <c r="G30" s="52" t="s">
+      <c r="G30" s="65" t="s">
         <v>293</v>
       </c>
       <c r="H30" s="25" t="s">
@@ -9444,15 +9449,15 @@
       <c r="Z30" s="12"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A31" s="70"/>
-      <c r="B31" s="67"/>
-      <c r="C31" s="67"/>
+      <c r="A31" s="89"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="76"/>
       <c r="D31" s="24">
         <v>2</v>
       </c>
-      <c r="E31" s="51"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="52"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="65"/>
       <c r="H31" s="25" t="s">
         <v>239</v>
       </c>
@@ -9506,15 +9511,15 @@
       <c r="Z31" s="12"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A32" s="70"/>
-      <c r="B32" s="67"/>
-      <c r="C32" s="67"/>
+      <c r="A32" s="89"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="76"/>
       <c r="D32" s="24">
         <v>3</v>
       </c>
-      <c r="E32" s="51"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="52"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="65"/>
       <c r="H32" s="25" t="s">
         <v>239</v>
       </c>
@@ -9568,15 +9573,15 @@
       <c r="Z32" s="12"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A33" s="70"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="67"/>
+      <c r="A33" s="89"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="76"/>
       <c r="D33" s="24">
         <v>4</v>
       </c>
-      <c r="E33" s="51"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="52"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="65"/>
       <c r="H33" s="25" t="s">
         <v>239</v>
       </c>
@@ -9627,15 +9632,15 @@
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A34" s="70"/>
-      <c r="B34" s="67"/>
-      <c r="C34" s="67"/>
+      <c r="A34" s="89"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="24">
         <v>5</v>
       </c>
-      <c r="E34" s="51"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="52"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="65"/>
       <c r="H34" s="25" t="s">
         <v>240</v>
       </c>
@@ -9686,8 +9691,8 @@
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A35" s="70"/>
-      <c r="B35" s="67"/>
+      <c r="A35" s="89"/>
+      <c r="B35" s="76"/>
       <c r="C35" s="27"/>
       <c r="D35" s="24"/>
       <c r="E35" s="24"/>
@@ -9711,21 +9716,21 @@
       <c r="W35" s="27"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A36" s="70"/>
-      <c r="B36" s="67" t="s">
+      <c r="A36" s="89"/>
+      <c r="B36" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="67" t="s">
+      <c r="C36" s="76" t="s">
         <v>11</v>
       </c>
       <c r="D36" s="24">
         <v>1</v>
       </c>
-      <c r="E36" s="53" t="s">
+      <c r="E36" s="66" t="s">
         <v>294</v>
       </c>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52" t="s">
+      <c r="F36" s="65"/>
+      <c r="G36" s="65" t="s">
         <v>293</v>
       </c>
       <c r="H36" s="27"/>
@@ -9774,15 +9779,15 @@
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A37" s="70"/>
-      <c r="B37" s="67"/>
-      <c r="C37" s="67"/>
+      <c r="A37" s="89"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="76"/>
       <c r="D37" s="24">
         <v>2</v>
       </c>
-      <c r="E37" s="60"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
       <c r="J37" s="25" t="s">
@@ -9829,15 +9834,15 @@
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A38" s="70"/>
-      <c r="B38" s="67"/>
-      <c r="C38" s="67"/>
+      <c r="A38" s="89"/>
+      <c r="B38" s="76"/>
+      <c r="C38" s="76"/>
       <c r="D38" s="24">
         <v>3</v>
       </c>
-      <c r="E38" s="60"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
       <c r="J38" s="25" t="s">
@@ -9884,15 +9889,15 @@
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A39" s="70"/>
-      <c r="B39" s="67"/>
-      <c r="C39" s="67"/>
+      <c r="A39" s="89"/>
+      <c r="B39" s="76"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="24">
         <v>4</v>
       </c>
-      <c r="E39" s="60"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
       <c r="J39" s="25" t="s">
@@ -9939,15 +9944,15 @@
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A40" s="71"/>
-      <c r="B40" s="67"/>
-      <c r="C40" s="67"/>
+      <c r="A40" s="90"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="76"/>
       <c r="D40" s="24">
         <v>5</v>
       </c>
-      <c r="E40" s="60"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
       <c r="J40" s="25" t="s">
@@ -10009,37 +10014,37 @@
       <c r="G41" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="H41" s="51" t="s">
+      <c r="H41" s="64" t="s">
         <v>190</v>
       </c>
-      <c r="I41" s="51"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="51"/>
-      <c r="L41" s="51"/>
-      <c r="M41" s="51"/>
-      <c r="N41" s="51"/>
-      <c r="O41" s="51"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="64"/>
+      <c r="K41" s="64"/>
+      <c r="L41" s="64"/>
+      <c r="M41" s="64"/>
+      <c r="N41" s="64"/>
+      <c r="O41" s="64"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A42" s="52" t="s">
+      <c r="A42" s="65" t="s">
         <v>295</v>
       </c>
-      <c r="B42" s="67" t="s">
+      <c r="B42" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="67" t="s">
+      <c r="C42" s="76" t="s">
         <v>99</v>
       </c>
       <c r="D42" s="24">
         <v>1</v>
       </c>
-      <c r="E42" s="52" t="s">
+      <c r="E42" s="65" t="s">
         <v>296</v>
       </c>
-      <c r="F42" s="52" t="s">
+      <c r="F42" s="65" t="s">
         <v>297</v>
       </c>
-      <c r="G42" s="52"/>
+      <c r="G42" s="65"/>
       <c r="H42" s="25" t="s">
         <v>298</v>
       </c>
@@ -10066,15 +10071,15 @@
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A43" s="52"/>
-      <c r="B43" s="67"/>
-      <c r="C43" s="67"/>
+      <c r="A43" s="65"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="76"/>
       <c r="D43" s="24">
         <v>2</v>
       </c>
-      <c r="E43" s="51"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="65"/>
       <c r="H43" s="25" t="s">
         <v>299</v>
       </c>
@@ -10101,15 +10106,15 @@
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A44" s="52"/>
-      <c r="B44" s="67"/>
-      <c r="C44" s="67"/>
+      <c r="A44" s="65"/>
+      <c r="B44" s="76"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="24">
         <v>3</v>
       </c>
-      <c r="E44" s="51"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="52"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="65"/>
       <c r="H44" s="25" t="s">
         <v>300</v>
       </c>
@@ -10136,15 +10141,15 @@
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A45" s="52"/>
-      <c r="B45" s="67"/>
-      <c r="C45" s="67"/>
+      <c r="A45" s="65"/>
+      <c r="B45" s="76"/>
+      <c r="C45" s="76"/>
       <c r="D45" s="24">
         <v>4</v>
       </c>
-      <c r="E45" s="51"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="52"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="65"/>
       <c r="H45" s="25" t="s">
         <v>300</v>
       </c>
@@ -10171,15 +10176,15 @@
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A46" s="52"/>
-      <c r="B46" s="67"/>
-      <c r="C46" s="67"/>
+      <c r="A46" s="65"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="76"/>
       <c r="D46" s="24">
         <v>5</v>
       </c>
-      <c r="E46" s="51"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="52"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="65"/>
       <c r="H46" s="25" t="s">
         <v>300</v>
       </c>
@@ -10206,8 +10211,8 @@
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A47" s="52"/>
-      <c r="B47" s="67"/>
+      <c r="A47" s="65"/>
+      <c r="B47" s="76"/>
       <c r="C47" s="27"/>
       <c r="D47" s="24"/>
       <c r="E47" s="24"/>
@@ -10223,8 +10228,8 @@
       <c r="O47" s="24"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A48" s="52"/>
-      <c r="B48" s="67"/>
+      <c r="A48" s="65"/>
+      <c r="B48" s="76"/>
       <c r="C48" s="27"/>
       <c r="D48" s="24"/>
       <c r="E48" s="24"/>
@@ -10240,21 +10245,21 @@
       <c r="O48" s="24"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A49" s="52"/>
-      <c r="B49" s="67"/>
-      <c r="C49" s="67" t="s">
+      <c r="A49" s="65"/>
+      <c r="B49" s="76"/>
+      <c r="C49" s="76" t="s">
         <v>3</v>
       </c>
       <c r="D49" s="24">
         <v>1</v>
       </c>
-      <c r="E49" s="52" t="s">
+      <c r="E49" s="65" t="s">
         <v>296</v>
       </c>
-      <c r="F49" s="52" t="s">
+      <c r="F49" s="65" t="s">
         <v>297</v>
       </c>
-      <c r="G49" s="52"/>
+      <c r="G49" s="65"/>
       <c r="H49" s="25" t="s">
         <v>310</v>
       </c>
@@ -10281,15 +10286,15 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A50" s="52"/>
-      <c r="B50" s="67"/>
-      <c r="C50" s="67"/>
+      <c r="A50" s="65"/>
+      <c r="B50" s="76"/>
+      <c r="C50" s="76"/>
       <c r="D50" s="24">
         <v>2</v>
       </c>
-      <c r="E50" s="51"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="52"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="65"/>
       <c r="H50" s="25" t="s">
         <v>310</v>
       </c>
@@ -10316,15 +10321,15 @@
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A51" s="52"/>
-      <c r="B51" s="67"/>
-      <c r="C51" s="67"/>
+      <c r="A51" s="65"/>
+      <c r="B51" s="76"/>
+      <c r="C51" s="76"/>
       <c r="D51" s="24">
         <v>3</v>
       </c>
-      <c r="E51" s="51"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="52"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="65"/>
       <c r="H51" s="25" t="s">
         <v>311</v>
       </c>
@@ -10351,15 +10356,15 @@
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A52" s="52"/>
-      <c r="B52" s="67"/>
-      <c r="C52" s="67"/>
+      <c r="A52" s="65"/>
+      <c r="B52" s="76"/>
+      <c r="C52" s="76"/>
       <c r="D52" s="24">
         <v>4</v>
       </c>
-      <c r="E52" s="51"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="52"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="65"/>
       <c r="H52" s="25" t="s">
         <v>311</v>
       </c>
@@ -10386,15 +10391,15 @@
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A53" s="52"/>
-      <c r="B53" s="67"/>
-      <c r="C53" s="67"/>
+      <c r="A53" s="65"/>
+      <c r="B53" s="76"/>
+      <c r="C53" s="76"/>
       <c r="D53" s="24">
         <v>5</v>
       </c>
-      <c r="E53" s="51"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="52"/>
+      <c r="E53" s="64"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="65"/>
       <c r="H53" s="25" t="s">
         <v>310</v>
       </c>
@@ -10421,8 +10426,8 @@
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A54" s="52"/>
-      <c r="B54" s="67"/>
+      <c r="A54" s="65"/>
+      <c r="B54" s="76"/>
       <c r="C54" s="27"/>
       <c r="D54" s="24"/>
       <c r="E54" s="24"/>
@@ -10438,23 +10443,23 @@
       <c r="O54" s="24"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A55" s="52"/>
-      <c r="B55" s="67" t="s">
+      <c r="A55" s="65"/>
+      <c r="B55" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="67" t="s">
+      <c r="C55" s="76" t="s">
         <v>11</v>
       </c>
       <c r="D55" s="24">
         <v>1</v>
       </c>
-      <c r="E55" s="52" t="s">
+      <c r="E55" s="65" t="s">
         <v>296</v>
       </c>
-      <c r="F55" s="52" t="s">
+      <c r="F55" s="65" t="s">
         <v>297</v>
       </c>
-      <c r="G55" s="52"/>
+      <c r="G55" s="65"/>
       <c r="H55" s="25" t="s">
         <v>328</v>
       </c>
@@ -10481,15 +10486,15 @@
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A56" s="52"/>
-      <c r="B56" s="67"/>
-      <c r="C56" s="67"/>
+      <c r="A56" s="65"/>
+      <c r="B56" s="76"/>
+      <c r="C56" s="76"/>
       <c r="D56" s="24">
         <v>2</v>
       </c>
-      <c r="E56" s="51"/>
-      <c r="F56" s="52"/>
-      <c r="G56" s="52"/>
+      <c r="E56" s="64"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="65"/>
       <c r="H56" s="25" t="s">
         <v>329</v>
       </c>
@@ -10516,15 +10521,15 @@
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A57" s="52"/>
-      <c r="B57" s="67"/>
-      <c r="C57" s="67"/>
+      <c r="A57" s="65"/>
+      <c r="B57" s="76"/>
+      <c r="C57" s="76"/>
       <c r="D57" s="24">
         <v>3</v>
       </c>
-      <c r="E57" s="51"/>
-      <c r="F57" s="52"/>
-      <c r="G57" s="52"/>
+      <c r="E57" s="64"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="65"/>
       <c r="H57" s="25" t="s">
         <v>330</v>
       </c>
@@ -10551,15 +10556,15 @@
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A58" s="52"/>
-      <c r="B58" s="67"/>
-      <c r="C58" s="67"/>
+      <c r="A58" s="65"/>
+      <c r="B58" s="76"/>
+      <c r="C58" s="76"/>
       <c r="D58" s="24">
         <v>4</v>
       </c>
-      <c r="E58" s="51"/>
-      <c r="F58" s="52"/>
-      <c r="G58" s="52"/>
+      <c r="E58" s="64"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="65"/>
       <c r="H58" s="25" t="s">
         <v>331</v>
       </c>
@@ -10586,15 +10591,15 @@
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A59" s="52"/>
-      <c r="B59" s="67"/>
-      <c r="C59" s="67"/>
+      <c r="A59" s="65"/>
+      <c r="B59" s="76"/>
+      <c r="C59" s="76"/>
       <c r="D59" s="24">
         <v>5</v>
       </c>
-      <c r="E59" s="51"/>
-      <c r="F59" s="52"/>
-      <c r="G59" s="52"/>
+      <c r="E59" s="64"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="65"/>
       <c r="H59" s="25" t="s">
         <v>332</v>
       </c>
@@ -10636,37 +10641,37 @@
       <c r="G60" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="H60" s="51" t="s">
+      <c r="H60" s="64" t="s">
         <v>190</v>
       </c>
-      <c r="I60" s="51"/>
-      <c r="J60" s="51"/>
-      <c r="K60" s="51"/>
-      <c r="L60" s="51"/>
-      <c r="M60" s="51"/>
-      <c r="N60" s="51"/>
-      <c r="O60" s="51"/>
+      <c r="I60" s="64"/>
+      <c r="J60" s="64"/>
+      <c r="K60" s="64"/>
+      <c r="L60" s="64"/>
+      <c r="M60" s="64"/>
+      <c r="N60" s="64"/>
+      <c r="O60" s="64"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A61" s="52" t="s">
+      <c r="A61" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="B61" s="67" t="s">
+      <c r="B61" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="C61" s="67" t="s">
+      <c r="C61" s="76" t="s">
         <v>99</v>
       </c>
       <c r="D61" s="24">
         <v>1</v>
       </c>
-      <c r="E61" s="52" t="s">
+      <c r="E61" s="65" t="s">
         <v>367</v>
       </c>
-      <c r="F61" s="52" t="s">
+      <c r="F61" s="65" t="s">
         <v>368</v>
       </c>
-      <c r="G61" s="52" t="s">
+      <c r="G61" s="65" t="s">
         <v>369</v>
       </c>
       <c r="H61" s="25" t="s">
@@ -10695,15 +10700,15 @@
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A62" s="52"/>
-      <c r="B62" s="67"/>
-      <c r="C62" s="67"/>
+      <c r="A62" s="65"/>
+      <c r="B62" s="76"/>
+      <c r="C62" s="76"/>
       <c r="D62" s="24">
         <v>2</v>
       </c>
-      <c r="E62" s="51"/>
-      <c r="F62" s="52"/>
-      <c r="G62" s="52"/>
+      <c r="E62" s="64"/>
+      <c r="F62" s="65"/>
+      <c r="G62" s="65"/>
       <c r="H62" s="25" t="s">
         <v>371</v>
       </c>
@@ -10730,15 +10735,15 @@
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A63" s="52"/>
-      <c r="B63" s="67"/>
-      <c r="C63" s="67"/>
+      <c r="A63" s="65"/>
+      <c r="B63" s="76"/>
+      <c r="C63" s="76"/>
       <c r="D63" s="24">
         <v>3</v>
       </c>
-      <c r="E63" s="51"/>
-      <c r="F63" s="52"/>
-      <c r="G63" s="52"/>
+      <c r="E63" s="64"/>
+      <c r="F63" s="65"/>
+      <c r="G63" s="65"/>
       <c r="H63" s="25" t="s">
         <v>371</v>
       </c>
@@ -10765,15 +10770,15 @@
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A64" s="52"/>
-      <c r="B64" s="67"/>
-      <c r="C64" s="67"/>
+      <c r="A64" s="65"/>
+      <c r="B64" s="76"/>
+      <c r="C64" s="76"/>
       <c r="D64" s="24">
         <v>4</v>
       </c>
-      <c r="E64" s="51"/>
-      <c r="F64" s="52"/>
-      <c r="G64" s="52"/>
+      <c r="E64" s="64"/>
+      <c r="F64" s="65"/>
+      <c r="G64" s="65"/>
       <c r="H64" s="25" t="s">
         <v>370</v>
       </c>
@@ -10800,15 +10805,15 @@
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A65" s="52"/>
-      <c r="B65" s="67"/>
-      <c r="C65" s="67"/>
+      <c r="A65" s="65"/>
+      <c r="B65" s="76"/>
+      <c r="C65" s="76"/>
       <c r="D65" s="24">
         <v>5</v>
       </c>
-      <c r="E65" s="51"/>
-      <c r="F65" s="52"/>
-      <c r="G65" s="52"/>
+      <c r="E65" s="64"/>
+      <c r="F65" s="65"/>
+      <c r="G65" s="65"/>
       <c r="H65" s="25" t="s">
         <v>370</v>
       </c>
@@ -10835,8 +10840,8 @@
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A66" s="52"/>
-      <c r="B66" s="67"/>
+      <c r="A66" s="65"/>
+      <c r="B66" s="76"/>
       <c r="C66" s="27"/>
       <c r="D66" s="24"/>
       <c r="E66" s="24"/>
@@ -10852,8 +10857,8 @@
       <c r="O66" s="24"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A67" s="52"/>
-      <c r="B67" s="67"/>
+      <c r="A67" s="65"/>
+      <c r="B67" s="76"/>
       <c r="C67" s="27"/>
       <c r="D67" s="24"/>
       <c r="E67" s="24"/>
@@ -10869,21 +10874,21 @@
       <c r="O67" s="24"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A68" s="52"/>
-      <c r="B68" s="67"/>
-      <c r="C68" s="67" t="s">
+      <c r="A68" s="65"/>
+      <c r="B68" s="76"/>
+      <c r="C68" s="76" t="s">
         <v>3</v>
       </c>
       <c r="D68" s="24">
         <v>1</v>
       </c>
-      <c r="E68" s="52" t="s">
+      <c r="E68" s="65" t="s">
         <v>367</v>
       </c>
-      <c r="F68" s="52" t="s">
+      <c r="F68" s="65" t="s">
         <v>368</v>
       </c>
-      <c r="G68" s="52" t="s">
+      <c r="G68" s="65" t="s">
         <v>369</v>
       </c>
       <c r="H68" s="24" t="s">
@@ -10912,15 +10917,15 @@
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A69" s="52"/>
-      <c r="B69" s="67"/>
-      <c r="C69" s="67"/>
+      <c r="A69" s="65"/>
+      <c r="B69" s="76"/>
+      <c r="C69" s="76"/>
       <c r="D69" s="24">
         <v>2</v>
       </c>
-      <c r="E69" s="51"/>
-      <c r="F69" s="52"/>
-      <c r="G69" s="52"/>
+      <c r="E69" s="64"/>
+      <c r="F69" s="65"/>
+      <c r="G69" s="65"/>
       <c r="H69" s="24" t="s">
         <v>376</v>
       </c>
@@ -10947,15 +10952,15 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A70" s="52"/>
-      <c r="B70" s="67"/>
-      <c r="C70" s="67"/>
+      <c r="A70" s="65"/>
+      <c r="B70" s="76"/>
+      <c r="C70" s="76"/>
       <c r="D70" s="24">
         <v>3</v>
       </c>
-      <c r="E70" s="51"/>
-      <c r="F70" s="52"/>
-      <c r="G70" s="52"/>
+      <c r="E70" s="64"/>
+      <c r="F70" s="65"/>
+      <c r="G70" s="65"/>
       <c r="H70" s="24" t="s">
         <v>377</v>
       </c>
@@ -10982,15 +10987,15 @@
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A71" s="52"/>
-      <c r="B71" s="67"/>
-      <c r="C71" s="67"/>
+      <c r="A71" s="65"/>
+      <c r="B71" s="76"/>
+      <c r="C71" s="76"/>
       <c r="D71" s="24">
         <v>4</v>
       </c>
-      <c r="E71" s="51"/>
-      <c r="F71" s="52"/>
-      <c r="G71" s="52"/>
+      <c r="E71" s="64"/>
+      <c r="F71" s="65"/>
+      <c r="G71" s="65"/>
       <c r="H71" s="24" t="s">
         <v>376</v>
       </c>
@@ -11017,15 +11022,15 @@
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A72" s="52"/>
-      <c r="B72" s="67"/>
-      <c r="C72" s="67"/>
+      <c r="A72" s="65"/>
+      <c r="B72" s="76"/>
+      <c r="C72" s="76"/>
       <c r="D72" s="24">
         <v>5</v>
       </c>
-      <c r="E72" s="51"/>
-      <c r="F72" s="52"/>
-      <c r="G72" s="52"/>
+      <c r="E72" s="64"/>
+      <c r="F72" s="65"/>
+      <c r="G72" s="65"/>
       <c r="H72" s="24" t="s">
         <v>377</v>
       </c>
@@ -11052,8 +11057,8 @@
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A73" s="52"/>
-      <c r="B73" s="67"/>
+      <c r="A73" s="65"/>
+      <c r="B73" s="76"/>
       <c r="C73" s="27"/>
       <c r="D73" s="24"/>
       <c r="E73" s="24"/>
@@ -11069,23 +11074,23 @@
       <c r="O73" s="24"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A74" s="52"/>
-      <c r="B74" s="67" t="s">
+      <c r="A74" s="65"/>
+      <c r="B74" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="C74" s="67" t="s">
+      <c r="C74" s="76" t="s">
         <v>11</v>
       </c>
       <c r="D74" s="24">
         <v>1</v>
       </c>
-      <c r="E74" s="52" t="s">
+      <c r="E74" s="65" t="s">
         <v>367</v>
       </c>
-      <c r="F74" s="52" t="s">
+      <c r="F74" s="65" t="s">
         <v>368</v>
       </c>
-      <c r="G74" s="52" t="s">
+      <c r="G74" s="65" t="s">
         <v>369</v>
       </c>
       <c r="H74" s="25" t="s">
@@ -11114,15 +11119,15 @@
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A75" s="52"/>
-      <c r="B75" s="67"/>
-      <c r="C75" s="67"/>
+      <c r="A75" s="65"/>
+      <c r="B75" s="76"/>
+      <c r="C75" s="76"/>
       <c r="D75" s="24">
         <v>2</v>
       </c>
-      <c r="E75" s="51"/>
-      <c r="F75" s="52"/>
-      <c r="G75" s="52"/>
+      <c r="E75" s="64"/>
+      <c r="F75" s="65"/>
+      <c r="G75" s="65"/>
       <c r="H75" s="25" t="s">
         <v>391</v>
       </c>
@@ -11149,15 +11154,15 @@
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A76" s="52"/>
-      <c r="B76" s="67"/>
-      <c r="C76" s="67"/>
+      <c r="A76" s="65"/>
+      <c r="B76" s="76"/>
+      <c r="C76" s="76"/>
       <c r="D76" s="24">
         <v>3</v>
       </c>
-      <c r="E76" s="51"/>
-      <c r="F76" s="52"/>
-      <c r="G76" s="52"/>
+      <c r="E76" s="64"/>
+      <c r="F76" s="65"/>
+      <c r="G76" s="65"/>
       <c r="H76" s="25" t="s">
         <v>392</v>
       </c>
@@ -11184,15 +11189,15 @@
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A77" s="52"/>
-      <c r="B77" s="67"/>
-      <c r="C77" s="67"/>
+      <c r="A77" s="65"/>
+      <c r="B77" s="76"/>
+      <c r="C77" s="76"/>
       <c r="D77" s="24">
         <v>4</v>
       </c>
-      <c r="E77" s="51"/>
-      <c r="F77" s="52"/>
-      <c r="G77" s="52"/>
+      <c r="E77" s="64"/>
+      <c r="F77" s="65"/>
+      <c r="G77" s="65"/>
       <c r="H77" s="25" t="s">
         <v>393</v>
       </c>
@@ -11219,15 +11224,15 @@
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A78" s="52"/>
-      <c r="B78" s="67"/>
-      <c r="C78" s="67"/>
+      <c r="A78" s="65"/>
+      <c r="B78" s="76"/>
+      <c r="C78" s="76"/>
       <c r="D78" s="24">
         <v>5</v>
       </c>
-      <c r="E78" s="51"/>
-      <c r="F78" s="52"/>
-      <c r="G78" s="52"/>
+      <c r="E78" s="64"/>
+      <c r="F78" s="65"/>
+      <c r="G78" s="65"/>
       <c r="H78" s="25" t="s">
         <v>394</v>
       </c>
@@ -11345,45 +11350,22 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="G42:G46"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="C36:C40"/>
-    <mergeCell ref="E36:E40"/>
-    <mergeCell ref="F36:F40"/>
-    <mergeCell ref="E49:E53"/>
-    <mergeCell ref="F49:F53"/>
-    <mergeCell ref="A42:A59"/>
-    <mergeCell ref="B42:B54"/>
-    <mergeCell ref="C42:C46"/>
-    <mergeCell ref="E42:E46"/>
-    <mergeCell ref="F42:F46"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="C55:C59"/>
-    <mergeCell ref="E55:E59"/>
-    <mergeCell ref="F55:F59"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="E30:E34"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="H41:O41"/>
-    <mergeCell ref="E11:E15"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="G17:G21"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="F17:F21"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="G55:G59"/>
+    <mergeCell ref="G68:G72"/>
+    <mergeCell ref="G74:G78"/>
+    <mergeCell ref="H60:O60"/>
+    <mergeCell ref="A61:A78"/>
+    <mergeCell ref="B61:B73"/>
+    <mergeCell ref="C61:C65"/>
+    <mergeCell ref="E61:E65"/>
+    <mergeCell ref="F61:F65"/>
+    <mergeCell ref="G61:G65"/>
+    <mergeCell ref="C68:C72"/>
+    <mergeCell ref="E68:E72"/>
+    <mergeCell ref="F68:F72"/>
+    <mergeCell ref="B74:B78"/>
+    <mergeCell ref="C74:C78"/>
+    <mergeCell ref="E74:E78"/>
     <mergeCell ref="F74:F78"/>
     <mergeCell ref="G49:G53"/>
     <mergeCell ref="Q3:V3"/>
@@ -11400,22 +11382,45 @@
     <mergeCell ref="J9:Q9"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="C11:C15"/>
-    <mergeCell ref="G55:G59"/>
-    <mergeCell ref="G68:G72"/>
-    <mergeCell ref="G74:G78"/>
-    <mergeCell ref="H60:O60"/>
-    <mergeCell ref="A61:A78"/>
-    <mergeCell ref="B61:B73"/>
-    <mergeCell ref="C61:C65"/>
-    <mergeCell ref="E61:E65"/>
-    <mergeCell ref="F61:F65"/>
-    <mergeCell ref="G61:G65"/>
-    <mergeCell ref="C68:C72"/>
-    <mergeCell ref="E68:E72"/>
-    <mergeCell ref="F68:F72"/>
-    <mergeCell ref="B74:B78"/>
-    <mergeCell ref="C74:C78"/>
-    <mergeCell ref="E74:E78"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="G17:G21"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="F17:F21"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="H41:O41"/>
+    <mergeCell ref="A42:A59"/>
+    <mergeCell ref="B42:B54"/>
+    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="E42:E46"/>
+    <mergeCell ref="F42:F46"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="E55:E59"/>
+    <mergeCell ref="F55:F59"/>
+    <mergeCell ref="G42:G46"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="F30:F34"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="E36:E40"/>
+    <mergeCell ref="F36:F40"/>
+    <mergeCell ref="E49:E53"/>
+    <mergeCell ref="F49:F53"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11425,25 +11430,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -11454,64 +11444,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="84" t="s">
+      <c r="E2" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="89" t="s">
+      <c r="E3" s="103" t="s">
         <v>437</v>
       </c>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89" t="s">
+      <c r="F3" s="103"/>
+      <c r="G3" s="103" t="s">
         <v>438</v>
       </c>
-      <c r="H3" s="89"/>
+      <c r="H3" s="103"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="67"/>
-      <c r="E4" s="88" t="s">
+      <c r="D4" s="76"/>
+      <c r="E4" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="67"/>
-      <c r="G4" s="88" t="s">
+      <c r="F4" s="76"/>
+      <c r="G4" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="67"/>
+      <c r="H4" s="76"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
@@ -11536,7 +11526,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="76" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="2">
@@ -11562,7 +11552,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="67"/>
+      <c r="A7" s="76"/>
       <c r="B7" s="2">
         <v>2</v>
       </c>
@@ -11586,7 +11576,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="67"/>
+      <c r="A8" s="76"/>
       <c r="B8" s="2">
         <v>3</v>
       </c>
@@ -11610,7 +11600,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="67"/>
+      <c r="A9" s="76"/>
       <c r="B9" s="8">
         <v>4</v>
       </c>
@@ -11634,7 +11624,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="67"/>
+      <c r="A10" s="76"/>
       <c r="B10" s="8">
         <v>5</v>
       </c>
@@ -11658,7 +11648,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="76" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="2">
@@ -11684,7 +11674,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="67"/>
+      <c r="A12" s="76"/>
       <c r="B12" s="2">
         <v>2</v>
       </c>
@@ -11708,7 +11698,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="67"/>
+      <c r="A13" s="76"/>
       <c r="B13" s="2">
         <v>3</v>
       </c>
@@ -11732,7 +11722,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="67"/>
+      <c r="A14" s="76"/>
       <c r="B14" s="8">
         <v>4</v>
       </c>
@@ -11756,7 +11746,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="67"/>
+      <c r="A15" s="76"/>
       <c r="B15" s="8">
         <v>5</v>
       </c>

--- a/数据记录/记录表单.xlsx
+++ b/数据记录/记录表单.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="465">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4139,6 +4139,18 @@
   </si>
   <si>
     <t>环境仪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知 估计约5min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳可见 但无照射</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4379,7 +4391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4528,11 +4540,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4593,46 +4606,55 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4653,17 +4675,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4683,31 +4720,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4992,8 +5021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:M28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5005,86 +5034,94 @@
       <c r="A4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
+      <c r="B4" s="119">
+        <v>42309</v>
+      </c>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="49" t="s">
         <v>447</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="63"/>
+      <c r="B5" s="58">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="62"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="49" t="s">
         <v>448</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="63"/>
+      <c r="B6" s="60" t="s">
+        <v>462</v>
+      </c>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="62"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="49" t="s">
         <v>449</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="63"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="62"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="49" t="s">
         <v>438</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
+      <c r="B8" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="49" t="s">
@@ -5131,9 +5168,15 @@
       <c r="A10" s="49">
         <v>117</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
+      <c r="B10" s="49">
+        <v>9.6</v>
+      </c>
+      <c r="C10" s="49">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="D10" s="49">
+        <v>25.2</v>
+      </c>
       <c r="E10" s="50" t="s">
         <v>440</v>
       </c>
@@ -5154,10 +5197,18 @@
       <c r="A11" s="49">
         <v>107</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
+      <c r="B11" s="49">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="C11" s="49">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="D11" s="49">
+        <v>25</v>
+      </c>
+      <c r="E11" s="49">
+        <v>17.7</v>
+      </c>
       <c r="F11" s="49"/>
       <c r="G11" s="49"/>
       <c r="H11" s="49"/>
@@ -5171,10 +5222,18 @@
       <c r="A12" s="49">
         <v>97</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
+      <c r="B12" s="49">
+        <v>9.51</v>
+      </c>
+      <c r="C12" s="49">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="D12" s="49">
+        <v>25.3</v>
+      </c>
+      <c r="E12" s="49">
+        <v>51.3</v>
+      </c>
       <c r="F12" s="49"/>
       <c r="G12" s="49"/>
       <c r="H12" s="49"/>
@@ -5188,9 +5247,15 @@
       <c r="A13" s="49">
         <v>87</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
+      <c r="B13" s="49">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="C13" s="49">
+        <v>0.107</v>
+      </c>
+      <c r="D13" s="49">
+        <v>25</v>
+      </c>
       <c r="E13" s="49"/>
       <c r="F13" s="49"/>
       <c r="G13" s="49"/>
@@ -5205,9 +5270,15 @@
       <c r="A14" s="49">
         <v>77</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
+      <c r="B14" s="49">
+        <v>9.4</v>
+      </c>
+      <c r="C14" s="49">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="D14" s="49">
+        <v>24.7</v>
+      </c>
       <c r="E14" s="49"/>
       <c r="F14" s="49"/>
       <c r="G14" s="49"/>
@@ -5222,9 +5293,15 @@
       <c r="A15" s="49">
         <v>67</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
+      <c r="B15" s="49">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="C15" s="49">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="D15" s="49">
+        <v>24.6</v>
+      </c>
       <c r="E15" s="50" t="s">
         <v>441</v>
       </c>
@@ -5245,10 +5322,18 @@
       <c r="A16" s="49">
         <v>57</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
+      <c r="B16" s="49">
+        <v>9.02</v>
+      </c>
+      <c r="C16" s="49">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="D16" s="49">
+        <v>22.8</v>
+      </c>
+      <c r="E16" s="49">
+        <v>17.7</v>
+      </c>
       <c r="F16" s="49"/>
       <c r="G16" s="49"/>
       <c r="H16" s="49"/>
@@ -5262,10 +5347,18 @@
       <c r="A17" s="49">
         <v>47</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
+      <c r="B17" s="49">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="C17" s="49">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="D17" s="49">
+        <v>21.6</v>
+      </c>
+      <c r="E17" s="49">
+        <v>51.6</v>
+      </c>
       <c r="F17" s="49"/>
       <c r="G17" s="49"/>
       <c r="H17" s="49"/>
@@ -5279,9 +5372,15 @@
       <c r="A18" s="49">
         <v>37</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
+      <c r="B18" s="49">
+        <v>7.29</v>
+      </c>
+      <c r="C18" s="49">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="D18" s="49">
+        <v>21.1</v>
+      </c>
       <c r="E18" s="49"/>
       <c r="F18" s="49"/>
       <c r="G18" s="49"/>
@@ -5296,9 +5395,15 @@
       <c r="A19" s="49">
         <v>27</v>
       </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
+      <c r="B19" s="49">
+        <v>5.09</v>
+      </c>
+      <c r="C19" s="49">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="D19" s="49">
+        <v>21.4</v>
+      </c>
       <c r="E19" s="49"/>
       <c r="F19" s="49"/>
       <c r="G19" s="49"/>
@@ -5313,9 +5418,15 @@
       <c r="A20" s="49">
         <v>17</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
+      <c r="B20" s="49">
+        <v>3.5249999999999999</v>
+      </c>
+      <c r="C20" s="49">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="D20" s="49">
+        <v>20.2</v>
+      </c>
       <c r="E20" s="50" t="s">
         <v>442</v>
       </c>
@@ -5336,10 +5447,18 @@
       <c r="A21" s="49">
         <v>7</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
+      <c r="B21" s="49">
+        <v>1.5389999999999999</v>
+      </c>
+      <c r="C21" s="49">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="D21" s="49">
+        <v>21.3</v>
+      </c>
+      <c r="E21" s="49">
+        <v>17.7</v>
+      </c>
       <c r="F21" s="51"/>
       <c r="G21" s="51"/>
       <c r="H21" s="49"/>
@@ -5353,10 +5472,18 @@
       <c r="A22" s="49">
         <v>6</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
+      <c r="B22" s="49">
+        <v>1.2549999999999999</v>
+      </c>
+      <c r="C22" s="49">
+        <v>0.193</v>
+      </c>
+      <c r="D22" s="49">
+        <v>20</v>
+      </c>
+      <c r="E22" s="49">
+        <v>51.6</v>
+      </c>
       <c r="F22" s="49"/>
       <c r="G22" s="49"/>
       <c r="H22" s="49"/>
@@ -5370,9 +5497,15 @@
       <c r="A23" s="49">
         <v>5</v>
       </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
+      <c r="B23" s="49">
+        <v>1.034</v>
+      </c>
+      <c r="C23" s="49">
+        <v>0.192</v>
+      </c>
+      <c r="D23" s="49">
+        <v>20.3</v>
+      </c>
       <c r="E23" s="49"/>
       <c r="F23" s="49"/>
       <c r="G23" s="49"/>
@@ -5387,9 +5520,15 @@
       <c r="A24" s="49">
         <v>4</v>
       </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
+      <c r="B24" s="49">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="C24" s="49">
+        <v>0.19</v>
+      </c>
+      <c r="D24" s="49">
+        <v>21.9</v>
+      </c>
       <c r="E24" s="49"/>
       <c r="F24" s="49"/>
       <c r="G24" s="49"/>
@@ -5404,9 +5543,15 @@
       <c r="A25" s="49">
         <v>3</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="49"/>
+      <c r="B25" s="51">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="C25" s="51">
+        <v>0.189</v>
+      </c>
+      <c r="D25" s="49">
+        <v>20.7</v>
+      </c>
       <c r="E25" s="50" t="s">
         <v>443</v>
       </c>
@@ -5427,10 +5572,18 @@
       <c r="A26" s="49">
         <v>2</v>
       </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
+      <c r="B26" s="49">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="C26" s="49">
+        <v>0.185</v>
+      </c>
+      <c r="D26" s="49">
+        <v>21.1</v>
+      </c>
+      <c r="E26" s="49">
+        <v>17.600000000000001</v>
+      </c>
       <c r="F26" s="49"/>
       <c r="G26" s="49"/>
       <c r="H26" s="49"/>
@@ -5444,10 +5597,18 @@
       <c r="A27" s="49">
         <v>1</v>
       </c>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
+      <c r="B27" s="49">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="C27" s="49">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="D27" s="49">
+        <v>20.9</v>
+      </c>
+      <c r="E27" s="49">
+        <v>51.6</v>
+      </c>
       <c r="F27" s="49"/>
       <c r="G27" s="49"/>
       <c r="H27" s="49"/>
@@ -5461,9 +5622,15 @@
       <c r="A28" s="49">
         <v>0</v>
       </c>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
+      <c r="B28" s="49">
+        <v>0.215</v>
+      </c>
+      <c r="C28" s="49">
+        <v>0.17</v>
+      </c>
+      <c r="D28" s="49">
+        <v>19.399999999999999</v>
+      </c>
       <c r="E28" s="49"/>
       <c r="F28" s="49"/>
       <c r="G28" s="49"/>
@@ -5479,7 +5646,6 @@
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="F8:I8"/>
     <mergeCell ref="J8:M8"/>
-    <mergeCell ref="B4:M4"/>
     <mergeCell ref="J5:M5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F6:I6"/>
@@ -5489,6 +5655,7 @@
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="F5:I5"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5501,8 +5668,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AG27"/>
   <sheetViews>
-    <sheetView topLeftCell="M7" workbookViewId="0">
-      <selection activeCell="Y27" sqref="Y27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5524,70 +5691,93 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="58">
+      <c r="B3" s="120">
         <v>42299</v>
       </c>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="Z3" s="56"/>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="56"/>
-      <c r="AE3" s="56"/>
-      <c r="AF3" s="56"/>
-      <c r="AG3" s="56"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="120"/>
+      <c r="O3" s="120"/>
+      <c r="P3" s="120"/>
+      <c r="Q3" s="120"/>
+      <c r="R3" s="120"/>
+      <c r="S3" s="120"/>
+      <c r="T3" s="120"/>
+      <c r="U3" s="120"/>
+      <c r="V3" s="120"/>
+      <c r="W3" s="120"/>
+      <c r="X3" s="120"/>
+      <c r="Y3" s="120"/>
+      <c r="Z3" s="120">
+        <v>42300</v>
+      </c>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="64"/>
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="64"/>
+      <c r="AG3" s="64"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A4" s="39" t="s">
         <v>454</v>
       </c>
-      <c r="B4" s="64">
+      <c r="B4" s="63">
         <v>0.37013888888888885</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="64">
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="63">
         <v>0.4375</v>
       </c>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64">
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63">
         <v>0.52361111111111114</v>
       </c>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="64">
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63">
         <v>0.60625000000000007</v>
       </c>
-      <c r="S4" s="64"/>
-      <c r="T4" s="64"/>
-      <c r="U4" s="64"/>
-      <c r="V4" s="64">
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="63">
         <v>0.67569444444444438</v>
       </c>
-      <c r="W4" s="64"/>
-      <c r="X4" s="64"/>
-      <c r="Y4" s="64"/>
-      <c r="Z4" s="64">
+      <c r="W4" s="63"/>
+      <c r="X4" s="63"/>
+      <c r="Y4" s="63"/>
+      <c r="Z4" s="63">
         <v>0.41180555555555554</v>
       </c>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="64">
+      <c r="AA4" s="64"/>
+      <c r="AB4" s="64"/>
+      <c r="AC4" s="64"/>
+      <c r="AD4" s="63">
         <v>0.62986111111111109</v>
       </c>
-      <c r="AE4" s="64"/>
-      <c r="AF4" s="64"/>
-      <c r="AG4" s="64"/>
+      <c r="AE4" s="63"/>
+      <c r="AF4" s="63"/>
+      <c r="AG4" s="63"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A5" s="39" t="s">
@@ -5617,10 +5807,12 @@
       <c r="W5" s="52"/>
       <c r="X5" s="52"/>
       <c r="Y5" s="52"/>
-      <c r="Z5" s="52"/>
-      <c r="AA5" s="53"/>
-      <c r="AB5" s="53"/>
-      <c r="AC5" s="53"/>
+      <c r="Z5" s="121" t="s">
+        <v>464</v>
+      </c>
+      <c r="AA5" s="122"/>
+      <c r="AB5" s="122"/>
+      <c r="AC5" s="122"/>
       <c r="AD5" s="52"/>
       <c r="AE5" s="52"/>
       <c r="AF5" s="52"/>
@@ -5634,34 +5826,46 @@
       <c r="C6" s="52"/>
       <c r="D6" s="52"/>
       <c r="E6" s="52"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="52"/>
-      <c r="S6" s="52"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="52"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="53"/>
-      <c r="AB6" s="53"/>
-      <c r="AC6" s="53"/>
-      <c r="AD6" s="52"/>
-      <c r="AE6" s="52"/>
-      <c r="AF6" s="52"/>
-      <c r="AG6" s="52"/>
+      <c r="F6" s="63">
+        <v>0.38055555555555554</v>
+      </c>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="63">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63">
+        <v>0.52847222222222223</v>
+      </c>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63">
+        <v>0.61249999999999993</v>
+      </c>
+      <c r="S6" s="63"/>
+      <c r="T6" s="63"/>
+      <c r="U6" s="63"/>
+      <c r="V6" s="63">
+        <v>0.68194444444444446</v>
+      </c>
+      <c r="W6" s="63"/>
+      <c r="X6" s="63"/>
+      <c r="Y6" s="63"/>
+      <c r="Z6" s="122"/>
+      <c r="AA6" s="122"/>
+      <c r="AB6" s="122"/>
+      <c r="AC6" s="122"/>
+      <c r="AD6" s="63">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="AE6" s="63"/>
+      <c r="AF6" s="63"/>
+      <c r="AG6" s="63"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
@@ -5885,7 +6089,7 @@
       <c r="C10">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="D10" s="66" t="s">
+      <c r="D10" s="65" t="s">
         <v>450</v>
       </c>
       <c r="F10">
@@ -5977,7 +6181,7 @@
       <c r="C11">
         <v>0.107</v>
       </c>
-      <c r="D11" s="67"/>
+      <c r="D11" s="66"/>
       <c r="F11">
         <v>10.47</v>
       </c>
@@ -6067,7 +6271,7 @@
       <c r="C12">
         <v>0.11799999999999999</v>
       </c>
-      <c r="D12" s="67"/>
+      <c r="D12" s="66"/>
       <c r="F12">
         <v>10.47</v>
       </c>
@@ -6139,7 +6343,7 @@
       <c r="C13">
         <v>0.13500000000000001</v>
       </c>
-      <c r="D13" s="67"/>
+      <c r="D13" s="66"/>
       <c r="F13">
         <v>10.46</v>
       </c>
@@ -6211,7 +6415,7 @@
       <c r="C14">
         <v>0.154</v>
       </c>
-      <c r="D14" s="67"/>
+      <c r="D14" s="66"/>
       <c r="E14" s="39" t="s">
         <v>441</v>
       </c>
@@ -6307,7 +6511,7 @@
       <c r="C15">
         <v>0.184</v>
       </c>
-      <c r="D15" s="67"/>
+      <c r="D15" s="66"/>
       <c r="F15">
         <v>10.43</v>
       </c>
@@ -6390,7 +6594,7 @@
       <c r="C16">
         <v>0.218</v>
       </c>
-      <c r="D16" s="67"/>
+      <c r="D16" s="66"/>
       <c r="F16">
         <v>10.42</v>
       </c>
@@ -6473,7 +6677,7 @@
       <c r="C17">
         <v>0.27500000000000002</v>
       </c>
-      <c r="D17" s="67"/>
+      <c r="D17" s="66"/>
       <c r="F17">
         <v>10.42</v>
       </c>
@@ -6548,7 +6752,7 @@
       <c r="C18">
         <v>0.42099999999999999</v>
       </c>
-      <c r="D18" s="67"/>
+      <c r="D18" s="66"/>
       <c r="F18">
         <v>10.4</v>
       </c>
@@ -6623,7 +6827,7 @@
       <c r="C19">
         <v>0.61699999999999999</v>
       </c>
-      <c r="D19" s="67"/>
+      <c r="D19" s="66"/>
       <c r="E19" s="39" t="s">
         <v>442</v>
       </c>
@@ -6722,7 +6926,7 @@
       <c r="C20">
         <v>1.425</v>
       </c>
-      <c r="D20" s="67"/>
+      <c r="D20" s="66"/>
       <c r="F20">
         <v>10.3</v>
       </c>
@@ -6812,7 +7016,7 @@
       <c r="C21">
         <v>1.649</v>
       </c>
-      <c r="D21" s="67"/>
+      <c r="D21" s="66"/>
       <c r="F21">
         <v>10.02</v>
       </c>
@@ -6902,7 +7106,7 @@
       <c r="C22">
         <v>2</v>
       </c>
-      <c r="D22" s="67"/>
+      <c r="D22" s="66"/>
       <c r="F22">
         <v>9.94</v>
       </c>
@@ -6977,7 +7181,7 @@
       <c r="C23">
         <v>2.4950000000000001</v>
       </c>
-      <c r="D23" s="67"/>
+      <c r="D23" s="66"/>
       <c r="F23">
         <v>9.82</v>
       </c>
@@ -7052,7 +7256,7 @@
       <c r="C24">
         <v>3.0350000000000001</v>
       </c>
-      <c r="D24" s="67"/>
+      <c r="D24" s="66"/>
       <c r="E24" s="39" t="s">
         <v>443</v>
       </c>
@@ -7151,7 +7355,7 @@
       <c r="C25">
         <v>3.2789999999999999</v>
       </c>
-      <c r="D25" s="67"/>
+      <c r="D25" s="66"/>
       <c r="F25">
         <v>8.9700000000000006</v>
       </c>
@@ -7244,7 +7448,7 @@
       <c r="C26">
         <v>3.3</v>
       </c>
-      <c r="D26" s="67"/>
+      <c r="D26" s="66"/>
       <c r="F26">
         <v>5.95</v>
       </c>
@@ -7337,7 +7541,7 @@
       <c r="C27">
         <v>3.3</v>
       </c>
-      <c r="D27" s="67"/>
+      <c r="D27" s="66"/>
       <c r="F27">
         <v>3.105</v>
       </c>
@@ -7403,7 +7607,16 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="18">
+    <mergeCell ref="B3:Y3"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="Z3:AG3"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="V6:Y6"/>
+    <mergeCell ref="Z5:AC6"/>
+    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="Z4:AC4"/>
     <mergeCell ref="AD4:AG4"/>
     <mergeCell ref="J4:M4"/>
@@ -7425,7 +7638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24:E29"/>
     </sheetView>
   </sheetViews>
@@ -7437,23 +7650,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="68"/>
+      <c r="E1" s="67"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
@@ -7470,7 +7683,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="68" t="s">
         <v>60</v>
       </c>
       <c r="C5" s="14" t="s">
@@ -7479,69 +7692,69 @@
       <c r="D5" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="70" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B6" s="69"/>
+      <c r="B6" s="68"/>
       <c r="C6" s="14" t="s">
         <v>62</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="78"/>
+      <c r="E6" s="77"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B7" s="69"/>
+      <c r="B7" s="68"/>
       <c r="C7" s="14" t="s">
         <v>63</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="78"/>
+      <c r="E7" s="77"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B8" s="69"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="14" t="s">
         <v>64</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="78"/>
+      <c r="E8" s="77"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B9" s="69"/>
+      <c r="B9" s="68"/>
       <c r="C9" s="14" t="s">
         <v>65</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="78"/>
+      <c r="E9" s="77"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B10" s="69"/>
+      <c r="B10" s="68"/>
       <c r="C10" s="14" t="s">
         <v>66</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="78"/>
+      <c r="E10" s="77"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B11" s="69"/>
+      <c r="B11" s="68"/>
       <c r="C11" s="14" t="s">
         <v>67</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="78"/>
+      <c r="E11" s="77"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" s="15"/>
@@ -7554,7 +7767,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B13" s="75" t="s">
+      <c r="B13" s="74" t="s">
         <v>101</v>
       </c>
       <c r="C13" s="14" t="s">
@@ -7563,99 +7776,99 @@
       <c r="D13" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E13" s="72" t="s">
+      <c r="E13" s="71" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B14" s="76"/>
+      <c r="B14" s="75"/>
       <c r="C14" s="14" t="s">
         <v>105</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="E14" s="73"/>
+      <c r="E14" s="72"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B15" s="76"/>
+      <c r="B15" s="75"/>
       <c r="C15" s="14" t="s">
         <v>106</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="E15" s="73"/>
+      <c r="E15" s="72"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B16" s="76"/>
+      <c r="B16" s="75"/>
       <c r="C16" s="14" t="s">
         <v>107</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E16" s="73"/>
+      <c r="E16" s="72"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B17" s="76"/>
+      <c r="B17" s="75"/>
       <c r="C17" s="14" t="s">
         <v>108</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E17" s="73"/>
+      <c r="E17" s="72"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B18" s="76"/>
+      <c r="B18" s="75"/>
       <c r="C18" s="14" t="s">
         <v>109</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E18" s="73"/>
+      <c r="E18" s="72"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B19" s="76"/>
+      <c r="B19" s="75"/>
       <c r="C19" s="14" t="s">
         <v>110</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E19" s="73"/>
+      <c r="E19" s="72"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B20" s="76"/>
+      <c r="B20" s="75"/>
       <c r="C20" s="14" t="s">
         <v>111</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E20" s="73"/>
+      <c r="E20" s="72"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B21" s="76"/>
+      <c r="B21" s="75"/>
       <c r="C21" s="14" t="s">
         <v>112</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E21" s="73"/>
+      <c r="E21" s="72"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B22" s="77"/>
+      <c r="B22" s="76"/>
       <c r="C22" s="14" t="s">
         <v>113</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E22" s="74"/>
+      <c r="E22" s="73"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B23" s="26"/>
@@ -7668,7 +7881,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="70" t="s">
+      <c r="B24" s="69" t="s">
         <v>424</v>
       </c>
       <c r="C24" s="24" t="s">
@@ -7677,59 +7890,59 @@
       <c r="D24" s="24" t="s">
         <v>428</v>
       </c>
-      <c r="E24" s="71" t="s">
+      <c r="E24" s="70" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B25" s="70"/>
+      <c r="B25" s="69"/>
       <c r="C25" s="24" t="s">
         <v>427</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>426</v>
       </c>
-      <c r="E25" s="71"/>
+      <c r="E25" s="70"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B26" s="70"/>
+      <c r="B26" s="69"/>
       <c r="C26" s="24" t="s">
         <v>429</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="E26" s="71"/>
+      <c r="E26" s="70"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B27" s="70"/>
+      <c r="B27" s="69"/>
       <c r="C27" s="24" t="s">
         <v>430</v>
       </c>
       <c r="D27" s="24" t="s">
         <v>431</v>
       </c>
-      <c r="E27" s="71"/>
+      <c r="E27" s="70"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B28" s="70"/>
+      <c r="B28" s="69"/>
       <c r="C28" s="24" t="s">
         <v>432</v>
       </c>
       <c r="D28" s="24" t="s">
         <v>433</v>
       </c>
-      <c r="E28" s="71"/>
+      <c r="E28" s="70"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B29" s="70"/>
+      <c r="B29" s="69"/>
       <c r="C29" s="24" t="s">
         <v>434</v>
       </c>
       <c r="D29" s="24" t="s">
         <v>435</v>
       </c>
-      <c r="E29" s="71"/>
+      <c r="E29" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -7754,7 +7967,7 @@
   <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O46" sqref="O46"/>
+      <selection activeCell="J6" sqref="J6:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -7763,138 +7976,138 @@
       <c r="A1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="80" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="111" t="s">
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="80" t="s">
         <v>458</v>
       </c>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="83" t="s">
         <v>461</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="79" t="s">
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="79"/>
-      <c r="J2" s="90" t="s">
+      <c r="I2" s="91"/>
+      <c r="J2" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="79" t="s">
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="79"/>
+      <c r="O2" s="91"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="99" t="s">
+      <c r="B3" s="89" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="99" t="s">
+      <c r="C3" s="90"/>
+      <c r="D3" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="101"/>
-      <c r="F3" s="99" t="s">
+      <c r="E3" s="90"/>
+      <c r="F3" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="101"/>
-      <c r="H3" s="99" t="s">
+      <c r="G3" s="90"/>
+      <c r="H3" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="101"/>
-      <c r="J3" s="90" t="s">
+      <c r="I3" s="90"/>
+      <c r="J3" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="K3" s="92"/>
-      <c r="L3" s="90" t="s">
+      <c r="K3" s="84"/>
+      <c r="L3" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="92"/>
-      <c r="N3" s="99" t="s">
+      <c r="M3" s="84"/>
+      <c r="N3" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="100"/>
+      <c r="O3" s="92"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="115"/>
-      <c r="D4" s="114" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="115"/>
-      <c r="F4" s="114" t="s">
+      <c r="E4" s="82"/>
+      <c r="F4" s="78" t="s">
         <v>130</v>
       </c>
-      <c r="G4" s="115"/>
-      <c r="H4" s="114" t="s">
+      <c r="G4" s="82"/>
+      <c r="H4" s="78" t="s">
         <v>131</v>
       </c>
-      <c r="I4" s="115"/>
-      <c r="J4" s="109" t="s">
+      <c r="I4" s="82"/>
+      <c r="J4" s="85" t="s">
         <v>457</v>
       </c>
-      <c r="K4" s="110"/>
-      <c r="L4" s="109" t="s">
+      <c r="K4" s="86"/>
+      <c r="L4" s="85" t="s">
         <v>457</v>
       </c>
-      <c r="M4" s="110"/>
-      <c r="N4" s="114" t="s">
+      <c r="M4" s="86"/>
+      <c r="N4" s="78" t="s">
         <v>457</v>
       </c>
-      <c r="O4" s="116"/>
+      <c r="O4" s="79"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="115"/>
-      <c r="D5" s="114" t="s">
+      <c r="C5" s="82"/>
+      <c r="D5" s="78" t="s">
         <v>127</v>
       </c>
-      <c r="E5" s="115"/>
-      <c r="F5" s="114" t="s">
+      <c r="E5" s="82"/>
+      <c r="F5" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="G5" s="115"/>
-      <c r="H5" s="114" t="s">
+      <c r="G5" s="82"/>
+      <c r="H5" s="78" t="s">
         <v>129</v>
       </c>
-      <c r="I5" s="115"/>
+      <c r="I5" s="82"/>
       <c r="J5" s="54"/>
       <c r="K5" s="54"/>
       <c r="L5" s="54"/>
@@ -7909,57 +8122,57 @@
       <c r="D6" s="54"/>
       <c r="F6" s="54"/>
       <c r="H6" s="54"/>
-      <c r="J6" s="109" t="s">
+      <c r="J6" s="85" t="s">
         <v>460</v>
       </c>
-      <c r="K6" s="110"/>
-      <c r="L6" s="109" t="s">
+      <c r="K6" s="86"/>
+      <c r="L6" s="85" t="s">
         <v>460</v>
       </c>
-      <c r="M6" s="110"/>
-      <c r="N6" s="111" t="s">
+      <c r="M6" s="86"/>
+      <c r="N6" s="80" t="s">
         <v>460</v>
       </c>
-      <c r="O6" s="112"/>
+      <c r="O6" s="81"/>
     </row>
     <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="93" t="s">
         <v>80</v>
       </c>
       <c r="C7" s="40">
         <v>78.2</v>
       </c>
-      <c r="D7" s="81" t="s">
+      <c r="D7" s="93" t="s">
         <v>80</v>
       </c>
       <c r="E7" s="41">
         <v>53.3</v>
       </c>
-      <c r="F7" s="71" t="s">
+      <c r="F7" s="70" t="s">
         <v>445</v>
       </c>
       <c r="G7" s="41">
         <v>1.4</v>
       </c>
-      <c r="H7" s="78" t="s">
+      <c r="H7" s="77" t="s">
         <v>99</v>
       </c>
       <c r="I7" s="41">
         <v>365.4</v>
       </c>
-      <c r="J7" s="78" t="s">
+      <c r="J7" s="77" t="s">
         <v>99</v>
       </c>
       <c r="K7" s="40">
         <v>76.8</v>
       </c>
-      <c r="L7" s="78" t="s">
+      <c r="L7" s="77" t="s">
         <v>99</v>
       </c>
       <c r="M7" s="41">
         <v>59.3</v>
       </c>
-      <c r="N7" s="78" t="s">
+      <c r="N7" s="77" t="s">
         <v>99</v>
       </c>
       <c r="O7" s="41">
@@ -7967,1207 +8180,1207 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B8" s="81"/>
+      <c r="B8" s="93"/>
       <c r="C8" s="40">
         <v>78.400000000000006</v>
       </c>
-      <c r="D8" s="81"/>
+      <c r="D8" s="93"/>
       <c r="E8" s="41">
         <v>53.4</v>
       </c>
-      <c r="F8" s="71"/>
+      <c r="F8" s="70"/>
       <c r="G8" s="41">
         <v>0</v>
       </c>
-      <c r="H8" s="78"/>
+      <c r="H8" s="77"/>
       <c r="I8" s="41">
         <v>366.9</v>
       </c>
-      <c r="J8" s="78"/>
+      <c r="J8" s="77"/>
       <c r="K8" s="40">
         <v>76.8</v>
       </c>
-      <c r="L8" s="78"/>
+      <c r="L8" s="77"/>
       <c r="M8" s="41">
         <v>59.4</v>
       </c>
-      <c r="N8" s="78"/>
+      <c r="N8" s="77"/>
       <c r="O8" s="41">
         <v>425.4</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B9" s="81"/>
+      <c r="B9" s="93"/>
       <c r="C9" s="40">
         <v>78.400000000000006</v>
       </c>
-      <c r="D9" s="81"/>
+      <c r="D9" s="93"/>
       <c r="E9" s="41">
         <v>53.9</v>
       </c>
-      <c r="F9" s="71"/>
+      <c r="F9" s="70"/>
       <c r="G9" s="41">
         <v>0.9</v>
       </c>
-      <c r="H9" s="78"/>
+      <c r="H9" s="77"/>
       <c r="I9" s="41">
         <v>365.9</v>
       </c>
-      <c r="J9" s="78"/>
+      <c r="J9" s="77"/>
       <c r="K9" s="40">
         <v>77</v>
       </c>
-      <c r="L9" s="78"/>
+      <c r="L9" s="77"/>
       <c r="M9" s="41">
         <v>59.3</v>
       </c>
-      <c r="N9" s="78"/>
+      <c r="N9" s="77"/>
       <c r="O9" s="41">
         <v>430.2</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B10" s="81"/>
+      <c r="B10" s="93"/>
       <c r="C10" s="40">
         <v>78.400000000000006</v>
       </c>
-      <c r="D10" s="81"/>
+      <c r="D10" s="93"/>
       <c r="E10" s="41">
         <v>54</v>
       </c>
-      <c r="F10" s="71"/>
+      <c r="F10" s="70"/>
       <c r="G10" s="41">
         <v>2</v>
       </c>
-      <c r="H10" s="78"/>
+      <c r="H10" s="77"/>
       <c r="I10" s="41">
         <v>364.2</v>
       </c>
-      <c r="J10" s="78"/>
+      <c r="J10" s="77"/>
       <c r="K10" s="40">
         <v>77</v>
       </c>
-      <c r="L10" s="78"/>
+      <c r="L10" s="77"/>
       <c r="M10" s="41">
         <v>59.2</v>
       </c>
-      <c r="N10" s="78"/>
+      <c r="N10" s="77"/>
       <c r="O10" s="41">
         <v>432.5</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B11" s="81"/>
+      <c r="B11" s="93"/>
       <c r="C11" s="40">
         <v>78.400000000000006</v>
       </c>
-      <c r="D11" s="81"/>
+      <c r="D11" s="93"/>
       <c r="E11" s="41">
         <v>53.9</v>
       </c>
-      <c r="F11" s="71"/>
+      <c r="F11" s="70"/>
       <c r="G11" s="41">
         <v>1.7</v>
       </c>
-      <c r="H11" s="78"/>
+      <c r="H11" s="77"/>
       <c r="I11" s="41">
         <v>364.5</v>
       </c>
-      <c r="J11" s="78"/>
+      <c r="J11" s="77"/>
       <c r="K11" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L11" s="78"/>
+      <c r="L11" s="77"/>
       <c r="M11" s="41">
         <v>58.9</v>
       </c>
-      <c r="N11" s="78"/>
+      <c r="N11" s="77"/>
       <c r="O11" s="41">
         <v>426.9</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B12" s="81"/>
+      <c r="B12" s="93"/>
       <c r="C12" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D12" s="81"/>
+      <c r="D12" s="93"/>
       <c r="E12" s="41">
         <v>55.2</v>
       </c>
-      <c r="F12" s="71"/>
+      <c r="F12" s="70"/>
       <c r="G12" s="41">
         <v>0.5</v>
       </c>
-      <c r="H12" s="78"/>
+      <c r="H12" s="77"/>
       <c r="I12" s="41">
         <v>361.8</v>
       </c>
-      <c r="J12" s="78"/>
+      <c r="J12" s="77"/>
       <c r="K12" s="40">
         <v>77</v>
       </c>
-      <c r="L12" s="78"/>
+      <c r="L12" s="77"/>
       <c r="M12" s="41">
         <v>59.5</v>
       </c>
-      <c r="N12" s="78"/>
+      <c r="N12" s="77"/>
       <c r="O12" s="41">
         <v>440.9</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B13" s="81"/>
+      <c r="B13" s="93"/>
       <c r="C13" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D13" s="81"/>
+      <c r="D13" s="93"/>
       <c r="E13" s="41">
         <v>53.7</v>
       </c>
-      <c r="F13" s="71"/>
+      <c r="F13" s="70"/>
       <c r="G13" s="41">
         <v>0</v>
       </c>
-      <c r="H13" s="78"/>
+      <c r="H13" s="77"/>
       <c r="I13" s="41">
         <v>361.2</v>
       </c>
-      <c r="J13" s="78"/>
+      <c r="J13" s="77"/>
       <c r="K13" s="40">
         <v>77</v>
       </c>
-      <c r="L13" s="78"/>
+      <c r="L13" s="77"/>
       <c r="M13" s="41">
         <v>59.5</v>
       </c>
-      <c r="N13" s="78"/>
+      <c r="N13" s="77"/>
       <c r="O13" s="41">
         <v>441.7</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B14" s="81"/>
+      <c r="B14" s="93"/>
       <c r="C14" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D14" s="81"/>
+      <c r="D14" s="93"/>
       <c r="E14" s="41">
         <v>53.4</v>
       </c>
-      <c r="F14" s="71"/>
+      <c r="F14" s="70"/>
       <c r="G14" s="41">
         <v>1.5</v>
       </c>
-      <c r="H14" s="78"/>
+      <c r="H14" s="77"/>
       <c r="I14" s="41">
         <v>361.9</v>
       </c>
-      <c r="J14" s="78"/>
+      <c r="J14" s="77"/>
       <c r="K14" s="40">
         <v>76.8</v>
       </c>
-      <c r="L14" s="78"/>
+      <c r="L14" s="77"/>
       <c r="M14" s="41">
         <v>59.3</v>
       </c>
-      <c r="N14" s="78"/>
+      <c r="N14" s="77"/>
       <c r="O14" s="41">
         <v>452</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B15" s="81"/>
+      <c r="B15" s="93"/>
       <c r="C15" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D15" s="81"/>
+      <c r="D15" s="93"/>
       <c r="E15" s="41">
         <v>53.1</v>
       </c>
-      <c r="F15" s="71"/>
+      <c r="F15" s="70"/>
       <c r="G15" s="41">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H15" s="78"/>
+      <c r="H15" s="77"/>
       <c r="I15" s="41">
         <v>361.9</v>
       </c>
-      <c r="J15" s="78"/>
+      <c r="J15" s="77"/>
       <c r="K15" s="40">
         <v>76.8</v>
       </c>
-      <c r="L15" s="78"/>
+      <c r="L15" s="77"/>
       <c r="M15" s="41">
         <v>59.3</v>
       </c>
-      <c r="N15" s="78"/>
+      <c r="N15" s="77"/>
       <c r="O15" s="41">
         <v>454.5</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B16" s="81"/>
+      <c r="B16" s="93"/>
       <c r="C16" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D16" s="81"/>
+      <c r="D16" s="93"/>
       <c r="E16" s="41">
         <v>52.6</v>
       </c>
-      <c r="F16" s="71"/>
+      <c r="F16" s="70"/>
       <c r="G16" s="41">
         <v>1.5</v>
       </c>
-      <c r="H16" s="78"/>
+      <c r="H16" s="77"/>
       <c r="I16" s="41">
         <v>361.9</v>
       </c>
-      <c r="J16" s="78"/>
+      <c r="J16" s="77"/>
       <c r="K16" s="40">
         <v>76.8</v>
       </c>
-      <c r="L16" s="78"/>
+      <c r="L16" s="77"/>
       <c r="M16" s="41">
         <v>59.2</v>
       </c>
-      <c r="N16" s="78"/>
+      <c r="N16" s="77"/>
       <c r="O16" s="41">
         <v>462.4</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B17" s="79" t="s">
+      <c r="B17" s="91" t="s">
         <v>444</v>
       </c>
       <c r="C17" s="40">
         <v>79.3</v>
       </c>
-      <c r="D17" s="69" t="s">
+      <c r="D17" s="68" t="s">
         <v>81</v>
       </c>
       <c r="E17" s="41">
         <v>42.9</v>
       </c>
-      <c r="F17" s="71"/>
+      <c r="F17" s="70"/>
       <c r="G17" s="41">
         <v>1.3</v>
       </c>
-      <c r="H17" s="78"/>
+      <c r="H17" s="77"/>
       <c r="I17" s="41">
         <v>356.7</v>
       </c>
-      <c r="J17" s="78"/>
+      <c r="J17" s="77"/>
       <c r="K17" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L17" s="78"/>
+      <c r="L17" s="77"/>
       <c r="M17" s="41">
         <v>59.1</v>
       </c>
-      <c r="N17" s="78"/>
+      <c r="N17" s="77"/>
       <c r="O17" s="41">
         <v>459.9</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B18" s="79"/>
+      <c r="B18" s="91"/>
       <c r="C18" s="40">
         <v>79.5</v>
       </c>
-      <c r="D18" s="69"/>
+      <c r="D18" s="68"/>
       <c r="E18" s="41">
         <v>42.9</v>
       </c>
-      <c r="F18" s="71"/>
+      <c r="F18" s="70"/>
       <c r="G18" s="41">
         <v>2</v>
       </c>
-      <c r="H18" s="78"/>
+      <c r="H18" s="77"/>
       <c r="I18" s="41">
         <v>354.9</v>
       </c>
-      <c r="J18" s="78"/>
+      <c r="J18" s="77"/>
       <c r="K18" s="40">
         <v>77</v>
       </c>
-      <c r="L18" s="78"/>
+      <c r="L18" s="77"/>
       <c r="M18" s="41">
         <v>59</v>
       </c>
-      <c r="N18" s="78"/>
+      <c r="N18" s="77"/>
       <c r="O18" s="41">
         <v>452.7</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B19" s="79"/>
+      <c r="B19" s="91"/>
       <c r="C19" s="40">
         <v>79.5</v>
       </c>
-      <c r="D19" s="69"/>
+      <c r="D19" s="68"/>
       <c r="E19" s="41">
         <v>43.1</v>
       </c>
-      <c r="F19" s="71"/>
+      <c r="F19" s="70"/>
       <c r="G19" s="41">
         <v>1.4</v>
       </c>
-      <c r="H19" s="78"/>
+      <c r="H19" s="77"/>
       <c r="I19" s="41">
         <v>356.2</v>
       </c>
-      <c r="J19" s="78"/>
+      <c r="J19" s="77"/>
       <c r="K19" s="40">
         <v>77</v>
       </c>
-      <c r="L19" s="78"/>
+      <c r="L19" s="77"/>
       <c r="M19" s="41">
         <v>58.9</v>
       </c>
-      <c r="N19" s="78"/>
+      <c r="N19" s="77"/>
       <c r="O19" s="41">
         <v>465.8</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B20" s="79"/>
+      <c r="B20" s="91"/>
       <c r="C20" s="40">
         <v>79.5</v>
       </c>
-      <c r="D20" s="69"/>
+      <c r="D20" s="68"/>
       <c r="E20" s="41">
         <v>43.1</v>
       </c>
-      <c r="F20" s="71"/>
+      <c r="F20" s="70"/>
       <c r="G20" s="41">
         <v>0.5</v>
       </c>
-      <c r="H20" s="78"/>
+      <c r="H20" s="77"/>
       <c r="I20" s="41">
         <v>356.1</v>
       </c>
-      <c r="J20" s="78"/>
+      <c r="J20" s="77"/>
       <c r="K20" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L20" s="78"/>
+      <c r="L20" s="77"/>
       <c r="M20" s="41">
         <v>58.8</v>
       </c>
-      <c r="N20" s="78"/>
+      <c r="N20" s="77"/>
       <c r="O20" s="41">
         <v>455.5</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B21" s="79"/>
+      <c r="B21" s="91"/>
       <c r="C21" s="40">
         <v>79.5</v>
       </c>
-      <c r="D21" s="69"/>
+      <c r="D21" s="68"/>
       <c r="E21" s="41">
         <v>43.1</v>
       </c>
-      <c r="F21" s="71"/>
+      <c r="F21" s="70"/>
       <c r="G21" s="41">
         <v>2.6</v>
       </c>
-      <c r="H21" s="78"/>
+      <c r="H21" s="77"/>
       <c r="I21" s="41">
         <v>355.2</v>
       </c>
-      <c r="J21" s="78"/>
+      <c r="J21" s="77"/>
       <c r="K21" s="40">
         <v>77</v>
       </c>
-      <c r="L21" s="78"/>
+      <c r="L21" s="77"/>
       <c r="M21" s="41">
         <v>58.8</v>
       </c>
-      <c r="N21" s="78"/>
+      <c r="N21" s="77"/>
       <c r="O21" s="41">
         <v>459.8</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B22" s="79" t="s">
+      <c r="B22" s="91" t="s">
         <v>55</v>
       </c>
       <c r="C22" s="40">
         <v>80</v>
       </c>
-      <c r="D22" s="69" t="s">
+      <c r="D22" s="68" t="s">
         <v>82</v>
       </c>
       <c r="E22" s="41">
         <v>43.1</v>
       </c>
-      <c r="F22" s="71"/>
+      <c r="F22" s="70"/>
       <c r="G22" s="41">
         <v>1.4</v>
       </c>
-      <c r="H22" s="78"/>
+      <c r="H22" s="77"/>
       <c r="I22" s="41">
         <v>354.9</v>
       </c>
-      <c r="J22" s="78"/>
+      <c r="J22" s="77"/>
       <c r="K22" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L22" s="78"/>
+      <c r="L22" s="77"/>
       <c r="M22" s="41">
         <v>59.1</v>
       </c>
-      <c r="N22" s="78"/>
+      <c r="N22" s="77"/>
       <c r="O22" s="41">
         <v>474.8</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B23" s="79"/>
+      <c r="B23" s="91"/>
       <c r="C23" s="40">
         <v>80</v>
       </c>
-      <c r="D23" s="69"/>
+      <c r="D23" s="68"/>
       <c r="E23" s="41">
         <v>43.1</v>
       </c>
-      <c r="F23" s="71"/>
+      <c r="F23" s="70"/>
       <c r="G23" s="41">
         <v>0.6</v>
       </c>
-      <c r="H23" s="78"/>
+      <c r="H23" s="77"/>
       <c r="I23" s="41">
         <v>345.1</v>
       </c>
-      <c r="J23" s="78"/>
+      <c r="J23" s="77"/>
       <c r="K23" s="40">
         <v>77</v>
       </c>
-      <c r="L23" s="78"/>
+      <c r="L23" s="77"/>
       <c r="M23" s="41">
         <v>59.1</v>
       </c>
-      <c r="N23" s="78"/>
+      <c r="N23" s="77"/>
       <c r="O23" s="41">
         <v>469.8</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B24" s="79"/>
+      <c r="B24" s="91"/>
       <c r="C24" s="40">
         <v>80</v>
       </c>
-      <c r="D24" s="69"/>
+      <c r="D24" s="68"/>
       <c r="E24" s="41">
         <v>43.1</v>
       </c>
-      <c r="F24" s="71"/>
+      <c r="F24" s="70"/>
       <c r="G24" s="41">
         <v>0.6</v>
       </c>
-      <c r="H24" s="78"/>
+      <c r="H24" s="77"/>
       <c r="I24" s="41">
         <v>349.2</v>
       </c>
-      <c r="J24" s="78"/>
+      <c r="J24" s="77"/>
       <c r="K24" s="40">
         <v>76.8</v>
       </c>
-      <c r="L24" s="78"/>
+      <c r="L24" s="77"/>
       <c r="M24" s="41">
         <v>59.2</v>
       </c>
-      <c r="N24" s="78"/>
+      <c r="N24" s="77"/>
       <c r="O24" s="41">
         <v>479.7</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B25" s="79"/>
+      <c r="B25" s="91"/>
       <c r="C25" s="40">
         <v>80</v>
       </c>
-      <c r="D25" s="69"/>
+      <c r="D25" s="68"/>
       <c r="E25" s="41">
         <v>43.1</v>
       </c>
-      <c r="F25" s="71"/>
+      <c r="F25" s="70"/>
       <c r="G25" s="41">
         <v>0.9</v>
       </c>
-      <c r="H25" s="78"/>
+      <c r="H25" s="77"/>
       <c r="I25" s="41">
         <v>351.5</v>
       </c>
-      <c r="J25" s="78"/>
+      <c r="J25" s="77"/>
       <c r="K25" s="40">
         <v>77</v>
       </c>
-      <c r="L25" s="78"/>
+      <c r="L25" s="77"/>
       <c r="M25" s="41">
         <v>59.3</v>
       </c>
-      <c r="N25" s="78"/>
+      <c r="N25" s="77"/>
       <c r="O25" s="41">
         <v>480.8</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B26" s="79"/>
+      <c r="B26" s="91"/>
       <c r="C26" s="40">
         <v>80</v>
       </c>
-      <c r="D26" s="69"/>
+      <c r="D26" s="68"/>
       <c r="E26" s="41">
         <v>43.2</v>
       </c>
-      <c r="F26" s="71"/>
+      <c r="F26" s="70"/>
       <c r="G26" s="41">
         <v>1.5</v>
       </c>
-      <c r="H26" s="78"/>
+      <c r="H26" s="77"/>
       <c r="I26" s="41">
         <v>351.4</v>
       </c>
-      <c r="J26" s="78"/>
+      <c r="J26" s="77"/>
       <c r="K26" s="40">
         <v>77</v>
       </c>
-      <c r="L26" s="78"/>
+      <c r="L26" s="77"/>
       <c r="M26" s="41">
         <v>59.2</v>
       </c>
-      <c r="N26" s="78"/>
+      <c r="N26" s="77"/>
       <c r="O26" s="41">
         <v>482.6</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B27" s="79" t="s">
+      <c r="B27" s="91" t="s">
         <v>56</v>
       </c>
       <c r="C27" s="40">
         <v>80.7</v>
       </c>
-      <c r="D27" s="69" t="s">
+      <c r="D27" s="68" t="s">
         <v>83</v>
       </c>
       <c r="E27" s="41">
         <v>43.8</v>
       </c>
-      <c r="F27" s="71"/>
+      <c r="F27" s="70"/>
       <c r="G27" s="41">
         <v>1.7</v>
       </c>
-      <c r="H27" s="78"/>
+      <c r="H27" s="77"/>
       <c r="I27" s="41">
         <v>348.4</v>
       </c>
-      <c r="J27" s="78"/>
+      <c r="J27" s="77"/>
       <c r="K27" s="40">
         <v>77</v>
       </c>
-      <c r="L27" s="78"/>
+      <c r="L27" s="77"/>
       <c r="M27" s="41">
         <v>58.4</v>
       </c>
-      <c r="N27" s="78"/>
+      <c r="N27" s="77"/>
       <c r="O27" s="41">
         <v>489.5</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B28" s="79"/>
+      <c r="B28" s="91"/>
       <c r="C28" s="40">
         <v>80.7</v>
       </c>
-      <c r="D28" s="69"/>
+      <c r="D28" s="68"/>
       <c r="E28" s="41">
         <v>43.8</v>
       </c>
-      <c r="F28" s="71"/>
+      <c r="F28" s="70"/>
       <c r="G28" s="41">
         <v>0.1</v>
       </c>
-      <c r="H28" s="78"/>
+      <c r="H28" s="77"/>
       <c r="I28" s="41">
         <v>347.6</v>
       </c>
-      <c r="J28" s="78"/>
+      <c r="J28" s="77"/>
       <c r="K28" s="40">
         <v>77</v>
       </c>
-      <c r="L28" s="78"/>
+      <c r="L28" s="77"/>
       <c r="M28" s="41">
         <v>58.4</v>
       </c>
-      <c r="N28" s="78"/>
+      <c r="N28" s="77"/>
       <c r="O28" s="41">
         <v>481.5</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B29" s="79"/>
+      <c r="B29" s="91"/>
       <c r="C29" s="40">
         <v>80.7</v>
       </c>
-      <c r="D29" s="69"/>
+      <c r="D29" s="68"/>
       <c r="E29" s="41">
         <v>43.7</v>
       </c>
-      <c r="F29" s="71"/>
+      <c r="F29" s="70"/>
       <c r="G29" s="41">
         <v>0</v>
       </c>
-      <c r="H29" s="78"/>
+      <c r="H29" s="77"/>
       <c r="I29" s="41">
         <v>346</v>
       </c>
-      <c r="J29" s="78"/>
+      <c r="J29" s="77"/>
       <c r="K29" s="40">
         <v>77</v>
       </c>
-      <c r="L29" s="78"/>
+      <c r="L29" s="77"/>
       <c r="M29" s="41">
         <v>58.4</v>
       </c>
-      <c r="N29" s="78"/>
+      <c r="N29" s="77"/>
       <c r="O29" s="41">
         <v>477.8</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B30" s="79"/>
+      <c r="B30" s="91"/>
       <c r="C30" s="40">
         <v>80.7</v>
       </c>
-      <c r="D30" s="69"/>
+      <c r="D30" s="68"/>
       <c r="E30" s="41">
         <v>43.6</v>
       </c>
-      <c r="F30" s="71"/>
+      <c r="F30" s="70"/>
       <c r="G30" s="41">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H30" s="78"/>
+      <c r="H30" s="77"/>
       <c r="I30" s="41">
         <v>345</v>
       </c>
-      <c r="J30" s="78"/>
+      <c r="J30" s="77"/>
       <c r="K30" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L30" s="78"/>
+      <c r="L30" s="77"/>
       <c r="M30" s="41">
         <v>58.5</v>
       </c>
-      <c r="N30" s="78"/>
+      <c r="N30" s="77"/>
       <c r="O30" s="41">
         <v>484.6</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B31" s="79"/>
+      <c r="B31" s="91"/>
       <c r="C31" s="40">
         <v>80.900000000000006</v>
       </c>
-      <c r="D31" s="69"/>
+      <c r="D31" s="68"/>
       <c r="E31" s="41">
         <v>43.6</v>
       </c>
-      <c r="F31" s="71"/>
+      <c r="F31" s="70"/>
       <c r="G31" s="41">
         <v>1.6</v>
       </c>
-      <c r="H31" s="78"/>
+      <c r="H31" s="77"/>
       <c r="I31" s="41">
         <v>347.2</v>
       </c>
-      <c r="J31" s="78"/>
+      <c r="J31" s="77"/>
       <c r="K31" s="40">
         <v>77</v>
       </c>
-      <c r="L31" s="78"/>
+      <c r="L31" s="77"/>
       <c r="M31" s="41">
         <v>58.4</v>
       </c>
-      <c r="N31" s="78"/>
+      <c r="N31" s="77"/>
       <c r="O31" s="41">
         <v>483.8</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B32" s="79" t="s">
+      <c r="B32" s="91" t="s">
         <v>57</v>
       </c>
       <c r="C32" s="40">
         <v>81.099999999999994</v>
       </c>
-      <c r="D32" s="69" t="s">
+      <c r="D32" s="68" t="s">
         <v>85</v>
       </c>
       <c r="E32" s="41">
         <v>44.3</v>
       </c>
-      <c r="F32" s="71"/>
+      <c r="F32" s="70"/>
       <c r="G32" s="41">
         <v>0.4</v>
       </c>
-      <c r="H32" s="78"/>
+      <c r="H32" s="77"/>
       <c r="I32" s="41">
         <v>345.1</v>
       </c>
-      <c r="J32" s="78"/>
+      <c r="J32" s="77"/>
       <c r="K32" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L32" s="78"/>
+      <c r="L32" s="77"/>
       <c r="M32" s="41">
         <v>58.7</v>
       </c>
-      <c r="N32" s="78"/>
+      <c r="N32" s="77"/>
       <c r="O32" s="41">
         <v>482.9</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B33" s="79"/>
+      <c r="B33" s="91"/>
       <c r="C33" s="40">
         <v>81.099999999999994</v>
       </c>
-      <c r="D33" s="69"/>
+      <c r="D33" s="68"/>
       <c r="E33" s="41">
         <v>44.3</v>
       </c>
-      <c r="F33" s="71"/>
+      <c r="F33" s="70"/>
       <c r="G33" s="41">
         <v>1.3</v>
       </c>
-      <c r="H33" s="78"/>
+      <c r="H33" s="77"/>
       <c r="I33" s="41">
         <v>348</v>
       </c>
-      <c r="J33" s="78"/>
+      <c r="J33" s="77"/>
       <c r="K33" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L33" s="78"/>
+      <c r="L33" s="77"/>
       <c r="M33" s="41">
         <v>58.7</v>
       </c>
-      <c r="N33" s="78"/>
+      <c r="N33" s="77"/>
       <c r="O33" s="41">
         <v>491.2</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B34" s="79"/>
+      <c r="B34" s="91"/>
       <c r="C34" s="40">
         <v>81.099999999999994</v>
       </c>
-      <c r="D34" s="69"/>
+      <c r="D34" s="68"/>
       <c r="E34" s="41">
         <v>44.3</v>
       </c>
-      <c r="F34" s="71"/>
+      <c r="F34" s="70"/>
       <c r="G34" s="41">
         <v>1.5</v>
       </c>
-      <c r="H34" s="78"/>
+      <c r="H34" s="77"/>
       <c r="I34" s="41">
         <v>347.9</v>
       </c>
-      <c r="J34" s="78"/>
+      <c r="J34" s="77"/>
       <c r="K34" s="40">
         <v>77</v>
       </c>
-      <c r="L34" s="78"/>
+      <c r="L34" s="77"/>
       <c r="M34" s="41">
         <v>58.6</v>
       </c>
-      <c r="N34" s="78"/>
+      <c r="N34" s="77"/>
       <c r="O34" s="41">
         <v>486.7</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B35" s="79"/>
+      <c r="B35" s="91"/>
       <c r="C35" s="40">
         <v>81.099999999999994</v>
       </c>
-      <c r="D35" s="69"/>
+      <c r="D35" s="68"/>
       <c r="E35" s="41">
         <v>44.3</v>
       </c>
-      <c r="F35" s="71"/>
+      <c r="F35" s="70"/>
       <c r="G35" s="41">
         <v>1.2</v>
       </c>
-      <c r="H35" s="78"/>
+      <c r="H35" s="77"/>
       <c r="I35" s="41">
         <v>345.2</v>
       </c>
-      <c r="J35" s="78"/>
+      <c r="J35" s="77"/>
       <c r="K35" s="40">
         <v>77</v>
       </c>
-      <c r="L35" s="78"/>
+      <c r="L35" s="77"/>
       <c r="M35" s="41">
         <v>58.7</v>
       </c>
-      <c r="N35" s="78"/>
+      <c r="N35" s="77"/>
       <c r="O35" s="41">
         <v>494.4</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B36" s="79"/>
+      <c r="B36" s="91"/>
       <c r="C36" s="40">
         <v>81.099999999999994</v>
       </c>
-      <c r="D36" s="69"/>
+      <c r="D36" s="68"/>
       <c r="E36" s="41">
         <v>44.2</v>
       </c>
-      <c r="F36" s="71"/>
+      <c r="F36" s="70"/>
       <c r="G36" s="41">
         <v>1.4</v>
       </c>
-      <c r="H36" s="78"/>
+      <c r="H36" s="77"/>
       <c r="I36" s="41">
         <v>340.7</v>
       </c>
-      <c r="J36" s="78"/>
+      <c r="J36" s="77"/>
       <c r="K36" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L36" s="78"/>
+      <c r="L36" s="77"/>
       <c r="M36" s="41">
         <v>58.7</v>
       </c>
-      <c r="N36" s="78"/>
+      <c r="N36" s="77"/>
       <c r="O36" s="41">
         <v>493</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B37" s="79" t="s">
+      <c r="B37" s="91" t="s">
         <v>58</v>
       </c>
       <c r="C37" s="40">
         <v>81.5</v>
       </c>
-      <c r="D37" s="69" t="s">
+      <c r="D37" s="68" t="s">
         <v>86</v>
       </c>
       <c r="E37" s="41">
         <v>44</v>
       </c>
-      <c r="F37" s="71"/>
+      <c r="F37" s="70"/>
       <c r="G37" s="41">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H37" s="78"/>
+      <c r="H37" s="77"/>
       <c r="I37" s="41">
         <v>343.4</v>
       </c>
-      <c r="J37" s="78"/>
+      <c r="J37" s="77"/>
       <c r="K37" s="40">
         <v>77</v>
       </c>
-      <c r="L37" s="78"/>
+      <c r="L37" s="77"/>
       <c r="M37" s="41">
         <v>58.6</v>
       </c>
-      <c r="N37" s="78"/>
+      <c r="N37" s="77"/>
       <c r="O37" s="41">
         <v>510.4</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B38" s="79"/>
+      <c r="B38" s="91"/>
       <c r="C38" s="40">
         <v>81.5</v>
       </c>
-      <c r="D38" s="69"/>
+      <c r="D38" s="68"/>
       <c r="E38" s="41">
         <v>44</v>
       </c>
-      <c r="F38" s="71"/>
+      <c r="F38" s="70"/>
       <c r="G38" s="41">
         <v>0.6</v>
       </c>
-      <c r="H38" s="78"/>
+      <c r="H38" s="77"/>
       <c r="I38" s="41">
         <v>341.5</v>
       </c>
-      <c r="J38" s="78"/>
+      <c r="J38" s="77"/>
       <c r="K38" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L38" s="78"/>
+      <c r="L38" s="77"/>
       <c r="M38" s="41">
         <v>58.6</v>
       </c>
-      <c r="N38" s="78"/>
+      <c r="N38" s="77"/>
       <c r="O38" s="41">
         <v>500</v>
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B39" s="79"/>
+      <c r="B39" s="91"/>
       <c r="C39" s="40">
         <v>81.5</v>
       </c>
-      <c r="D39" s="69"/>
+      <c r="D39" s="68"/>
       <c r="E39" s="41">
         <v>44.1</v>
       </c>
-      <c r="F39" s="71"/>
+      <c r="F39" s="70"/>
       <c r="G39" s="41">
         <v>0.2</v>
       </c>
-      <c r="H39" s="78"/>
+      <c r="H39" s="77"/>
       <c r="I39" s="41">
         <v>341.1</v>
       </c>
-      <c r="J39" s="78"/>
+      <c r="J39" s="77"/>
       <c r="K39" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L39" s="78"/>
+      <c r="L39" s="77"/>
       <c r="M39" s="41">
         <v>58.7</v>
       </c>
-      <c r="N39" s="78"/>
+      <c r="N39" s="77"/>
       <c r="O39" s="41">
         <v>500.4</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B40" s="79"/>
+      <c r="B40" s="91"/>
       <c r="C40" s="40">
         <v>81.5</v>
       </c>
-      <c r="D40" s="69"/>
+      <c r="D40" s="68"/>
       <c r="E40" s="41">
         <v>44.1</v>
       </c>
-      <c r="F40" s="71"/>
+      <c r="F40" s="70"/>
       <c r="G40" s="41">
         <v>0</v>
       </c>
-      <c r="H40" s="78"/>
+      <c r="H40" s="77"/>
       <c r="I40" s="41">
         <v>343.7</v>
       </c>
-      <c r="J40" s="78"/>
+      <c r="J40" s="77"/>
       <c r="K40" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L40" s="78"/>
+      <c r="L40" s="77"/>
       <c r="M40" s="41">
         <v>58.8</v>
       </c>
-      <c r="N40" s="78"/>
+      <c r="N40" s="77"/>
       <c r="O40" s="41">
         <v>498.7</v>
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B41" s="79"/>
+      <c r="B41" s="91"/>
       <c r="C41" s="40">
         <v>81.5</v>
       </c>
-      <c r="D41" s="69"/>
+      <c r="D41" s="68"/>
       <c r="E41" s="41">
         <v>44.2</v>
       </c>
-      <c r="F41" s="71"/>
+      <c r="F41" s="70"/>
       <c r="G41" s="41">
         <v>0.2</v>
       </c>
-      <c r="H41" s="78"/>
+      <c r="H41" s="77"/>
       <c r="I41" s="41">
         <v>341.9</v>
       </c>
-      <c r="J41" s="78"/>
+      <c r="J41" s="77"/>
       <c r="K41" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L41" s="78"/>
+      <c r="L41" s="77"/>
       <c r="M41" s="41">
         <v>58.7</v>
       </c>
-      <c r="N41" s="78"/>
+      <c r="N41" s="77"/>
       <c r="O41" s="41">
         <v>490</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B42" s="79" t="s">
+      <c r="B42" s="91" t="s">
         <v>59</v>
       </c>
       <c r="C42" s="40">
         <v>82.4</v>
       </c>
-      <c r="D42" s="69" t="s">
+      <c r="D42" s="68" t="s">
         <v>88</v>
       </c>
       <c r="E42" s="41">
         <v>44</v>
       </c>
-      <c r="F42" s="71"/>
+      <c r="F42" s="70"/>
       <c r="G42" s="41">
         <v>0</v>
       </c>
-      <c r="H42" s="78"/>
+      <c r="H42" s="77"/>
       <c r="I42" s="41">
         <v>344.1</v>
       </c>
-      <c r="J42" s="78"/>
+      <c r="J42" s="77"/>
       <c r="K42" s="40">
         <v>76.8</v>
       </c>
-      <c r="L42" s="78"/>
-      <c r="M42" s="117">
+      <c r="L42" s="77"/>
+      <c r="M42" s="57">
         <v>58.8</v>
       </c>
-      <c r="N42" s="78"/>
+      <c r="N42" s="77"/>
       <c r="O42" s="41">
         <v>514.70000000000005</v>
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B43" s="79"/>
+      <c r="B43" s="91"/>
       <c r="C43" s="40">
         <v>82.4</v>
       </c>
-      <c r="D43" s="69"/>
+      <c r="D43" s="68"/>
       <c r="E43" s="41">
         <v>43.9</v>
       </c>
-      <c r="F43" s="71"/>
+      <c r="F43" s="70"/>
       <c r="G43" s="41">
         <v>0.9</v>
       </c>
-      <c r="H43" s="78"/>
+      <c r="H43" s="77"/>
       <c r="I43" s="41">
         <v>342.8</v>
       </c>
-      <c r="J43" s="78"/>
+      <c r="J43" s="77"/>
       <c r="K43" s="40">
         <v>76.599999999999994</v>
       </c>
-      <c r="L43" s="78"/>
+      <c r="L43" s="77"/>
       <c r="M43" s="41">
         <v>59.8</v>
       </c>
-      <c r="N43" s="78"/>
+      <c r="N43" s="77"/>
       <c r="O43" s="41">
         <v>520.4</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B44" s="79"/>
+      <c r="B44" s="91"/>
       <c r="C44" s="40">
         <v>82.4</v>
       </c>
-      <c r="D44" s="69"/>
+      <c r="D44" s="68"/>
       <c r="E44" s="41">
         <v>43.9</v>
       </c>
-      <c r="F44" s="71"/>
+      <c r="F44" s="70"/>
       <c r="G44" s="41">
         <v>1.2</v>
       </c>
-      <c r="H44" s="78"/>
+      <c r="H44" s="77"/>
       <c r="I44" s="41">
         <v>342.8</v>
       </c>
-      <c r="J44" s="78"/>
+      <c r="J44" s="77"/>
       <c r="K44" s="40">
         <v>76.8</v>
       </c>
-      <c r="L44" s="78"/>
+      <c r="L44" s="77"/>
       <c r="M44" s="41">
         <v>59.6</v>
       </c>
-      <c r="N44" s="78"/>
+      <c r="N44" s="77"/>
       <c r="O44" s="41">
         <v>503.8</v>
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B45" s="79"/>
+      <c r="B45" s="91"/>
       <c r="C45" s="40">
         <v>82.4</v>
       </c>
-      <c r="D45" s="69"/>
+      <c r="D45" s="68"/>
       <c r="E45" s="41">
         <v>43.8</v>
       </c>
-      <c r="F45" s="71"/>
+      <c r="F45" s="70"/>
       <c r="G45" s="41">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H45" s="78"/>
+      <c r="H45" s="77"/>
       <c r="I45" s="41">
         <v>342.5</v>
       </c>
-      <c r="J45" s="78"/>
+      <c r="J45" s="77"/>
       <c r="K45" s="40">
         <v>76.400000000000006</v>
       </c>
-      <c r="L45" s="78"/>
+      <c r="L45" s="77"/>
       <c r="M45" s="41">
         <v>59.4</v>
       </c>
-      <c r="N45" s="78"/>
+      <c r="N45" s="77"/>
       <c r="O45" s="41">
         <v>497.8</v>
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B46" s="79"/>
+      <c r="B46" s="91"/>
       <c r="C46" s="40">
         <v>82.4</v>
       </c>
-      <c r="D46" s="69"/>
+      <c r="D46" s="68"/>
       <c r="E46" s="41">
         <v>43.8</v>
       </c>
-      <c r="F46" s="71"/>
+      <c r="F46" s="70"/>
       <c r="G46" s="41">
         <v>2</v>
       </c>
-      <c r="H46" s="78"/>
+      <c r="H46" s="77"/>
       <c r="I46" s="41">
         <v>345.7</v>
       </c>
-      <c r="J46" s="78"/>
+      <c r="J46" s="77"/>
       <c r="K46" s="40">
         <v>76.2</v>
       </c>
-      <c r="L46" s="78"/>
+      <c r="L46" s="77"/>
       <c r="M46" s="41">
         <v>59.5</v>
       </c>
-      <c r="N46" s="78"/>
+      <c r="N46" s="77"/>
       <c r="O46" s="41">
         <v>504.7</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B47" s="79" t="s">
+      <c r="B47" s="91" t="s">
         <v>94</v>
       </c>
       <c r="C47" s="40">
         <v>82.9</v>
       </c>
-      <c r="D47" s="80" t="s">
+      <c r="D47" s="94" t="s">
         <v>90</v>
       </c>
       <c r="E47" s="41">
@@ -9177,14 +9390,14 @@
       <c r="G47" s="48"/>
       <c r="H47" s="48"/>
       <c r="I47" s="48"/>
-      <c r="J47" s="57"/>
+      <c r="J47" s="56"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B48" s="79"/>
+      <c r="B48" s="91"/>
       <c r="C48" s="40">
         <v>83.1</v>
       </c>
-      <c r="D48" s="80"/>
+      <c r="D48" s="94"/>
       <c r="E48" s="41">
         <v>43.4</v>
       </c>
@@ -9192,14 +9405,14 @@
       <c r="G48" s="48"/>
       <c r="H48" s="48"/>
       <c r="I48" s="48"/>
-      <c r="J48" s="57"/>
+      <c r="J48" s="56"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B49" s="79"/>
+      <c r="B49" s="91"/>
       <c r="C49" s="40">
         <v>83.1</v>
       </c>
-      <c r="D49" s="80"/>
+      <c r="D49" s="94"/>
       <c r="E49" s="41">
         <v>43.4</v>
       </c>
@@ -9207,14 +9420,14 @@
       <c r="G49" s="48"/>
       <c r="H49" s="48"/>
       <c r="I49" s="48"/>
-      <c r="J49" s="57"/>
+      <c r="J49" s="56"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B50" s="79"/>
+      <c r="B50" s="91"/>
       <c r="C50" s="40">
         <v>83.1</v>
       </c>
-      <c r="D50" s="80"/>
+      <c r="D50" s="94"/>
       <c r="E50" s="41">
         <v>43.4</v>
       </c>
@@ -9222,14 +9435,14 @@
       <c r="G50" s="48"/>
       <c r="H50" s="48"/>
       <c r="I50" s="48"/>
-      <c r="J50" s="57"/>
+      <c r="J50" s="56"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B51" s="79"/>
+      <c r="B51" s="91"/>
       <c r="C51" s="40">
         <v>83.1</v>
       </c>
-      <c r="D51" s="80"/>
+      <c r="D51" s="94"/>
       <c r="E51" s="41">
         <v>43.4</v>
       </c>
@@ -9237,16 +9450,16 @@
       <c r="G51" s="48"/>
       <c r="H51" s="48"/>
       <c r="I51" s="48"/>
-      <c r="J51" s="57"/>
+      <c r="J51" s="56"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B52" s="79" t="s">
+      <c r="B52" s="91" t="s">
         <v>95</v>
       </c>
       <c r="C52" s="40">
         <v>83.4</v>
       </c>
-      <c r="D52" s="80" t="s">
+      <c r="D52" s="94" t="s">
         <v>92</v>
       </c>
       <c r="E52" s="41">
@@ -9256,14 +9469,14 @@
       <c r="G52" s="48"/>
       <c r="H52" s="48"/>
       <c r="I52" s="48"/>
-      <c r="J52" s="57"/>
+      <c r="J52" s="56"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B53" s="79"/>
+      <c r="B53" s="91"/>
       <c r="C53" s="40">
         <v>83.4</v>
       </c>
-      <c r="D53" s="80"/>
+      <c r="D53" s="94"/>
       <c r="E53" s="41">
         <v>43.3</v>
       </c>
@@ -9271,14 +9484,14 @@
       <c r="G53" s="48"/>
       <c r="H53" s="48"/>
       <c r="I53" s="48"/>
-      <c r="J53" s="57"/>
+      <c r="J53" s="56"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B54" s="79"/>
+      <c r="B54" s="91"/>
       <c r="C54" s="40">
         <v>83.4</v>
       </c>
-      <c r="D54" s="80"/>
+      <c r="D54" s="94"/>
       <c r="E54" s="41">
         <v>43.4</v>
       </c>
@@ -9286,14 +9499,14 @@
       <c r="G54" s="48"/>
       <c r="H54" s="48"/>
       <c r="I54" s="48"/>
-      <c r="J54" s="57"/>
+      <c r="J54" s="56"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B55" s="79"/>
+      <c r="B55" s="91"/>
       <c r="C55" s="40">
         <v>83.6</v>
       </c>
-      <c r="D55" s="80"/>
+      <c r="D55" s="94"/>
       <c r="E55" s="41">
         <v>43.4</v>
       </c>
@@ -9301,14 +9514,14 @@
       <c r="G55" s="48"/>
       <c r="H55" s="48"/>
       <c r="I55" s="48"/>
-      <c r="J55" s="57"/>
+      <c r="J55" s="56"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B56" s="79"/>
+      <c r="B56" s="91"/>
       <c r="C56" s="40">
         <v>83.3</v>
       </c>
-      <c r="D56" s="80"/>
+      <c r="D56" s="94"/>
       <c r="E56" s="41">
         <v>43.4</v>
       </c>
@@ -9316,10 +9529,10 @@
       <c r="G56" s="48"/>
       <c r="H56" s="48"/>
       <c r="I56" s="48"/>
-      <c r="J56" s="57"/>
+      <c r="J56" s="56"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B57" s="79" t="s">
+      <c r="B57" s="91" t="s">
         <v>96</v>
       </c>
       <c r="C57" s="40">
@@ -9331,10 +9544,10 @@
       <c r="G57" s="48"/>
       <c r="H57" s="48"/>
       <c r="I57" s="48"/>
-      <c r="J57" s="57"/>
+      <c r="J57" s="56"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B58" s="79"/>
+      <c r="B58" s="91"/>
       <c r="C58" s="40">
         <v>83.4</v>
       </c>
@@ -9344,10 +9557,10 @@
       <c r="G58" s="48"/>
       <c r="H58" s="48"/>
       <c r="I58" s="48"/>
-      <c r="J58" s="57"/>
+      <c r="J58" s="56"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B59" s="79"/>
+      <c r="B59" s="91"/>
       <c r="C59" s="40">
         <v>83.3</v>
       </c>
@@ -9357,10 +9570,10 @@
       <c r="G59" s="48"/>
       <c r="H59" s="48"/>
       <c r="I59" s="48"/>
-      <c r="J59" s="57"/>
+      <c r="J59" s="56"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B60" s="79"/>
+      <c r="B60" s="91"/>
       <c r="C60" s="40">
         <v>83.3</v>
       </c>
@@ -9370,10 +9583,10 @@
       <c r="G60" s="48"/>
       <c r="H60" s="48"/>
       <c r="I60" s="48"/>
-      <c r="J60" s="57"/>
+      <c r="J60" s="56"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B61" s="79"/>
+      <c r="B61" s="91"/>
       <c r="C61" s="40">
         <v>83.4</v>
       </c>
@@ -9383,10 +9596,10 @@
       <c r="G61" s="48"/>
       <c r="H61" s="48"/>
       <c r="I61" s="48"/>
-      <c r="J61" s="57"/>
+      <c r="J61" s="56"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B62" s="79" t="s">
+      <c r="B62" s="91" t="s">
         <v>97</v>
       </c>
       <c r="C62" s="40">
@@ -9398,10 +9611,10 @@
       <c r="G62" s="48"/>
       <c r="H62" s="48"/>
       <c r="I62" s="48"/>
-      <c r="J62" s="57"/>
+      <c r="J62" s="56"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B63" s="79"/>
+      <c r="B63" s="91"/>
       <c r="C63" s="40">
         <v>83.8</v>
       </c>
@@ -9411,10 +9624,10 @@
       <c r="G63" s="48"/>
       <c r="H63" s="48"/>
       <c r="I63" s="48"/>
-      <c r="J63" s="57"/>
+      <c r="J63" s="56"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B64" s="79"/>
+      <c r="B64" s="91"/>
       <c r="C64" s="40">
         <v>83.6</v>
       </c>
@@ -9424,10 +9637,10 @@
       <c r="G64" s="48"/>
       <c r="H64" s="48"/>
       <c r="I64" s="48"/>
-      <c r="J64" s="57"/>
+      <c r="J64" s="56"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B65" s="79"/>
+      <c r="B65" s="91"/>
       <c r="C65" s="40">
         <v>83.8</v>
       </c>
@@ -9437,10 +9650,10 @@
       <c r="G65" s="48"/>
       <c r="H65" s="48"/>
       <c r="I65" s="48"/>
-      <c r="J65" s="57"/>
+      <c r="J65" s="56"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B66" s="79"/>
+      <c r="B66" s="91"/>
       <c r="C66" s="40">
         <v>83.8</v>
       </c>
@@ -9450,10 +9663,10 @@
       <c r="G66" s="48"/>
       <c r="H66" s="48"/>
       <c r="I66" s="48"/>
-      <c r="J66" s="57"/>
+      <c r="J66" s="56"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B67" s="79" t="s">
+      <c r="B67" s="91" t="s">
         <v>93</v>
       </c>
       <c r="C67" s="40">
@@ -9465,10 +9678,10 @@
       <c r="G67" s="48"/>
       <c r="H67" s="48"/>
       <c r="I67" s="48"/>
-      <c r="J67" s="57"/>
+      <c r="J67" s="56"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B68" s="79"/>
+      <c r="B68" s="91"/>
       <c r="C68" s="40">
         <v>84</v>
       </c>
@@ -9478,10 +9691,10 @@
       <c r="G68" s="48"/>
       <c r="H68" s="48"/>
       <c r="I68" s="48"/>
-      <c r="J68" s="57"/>
+      <c r="J68" s="56"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B69" s="79"/>
+      <c r="B69" s="91"/>
       <c r="C69" s="40">
         <v>84</v>
       </c>
@@ -9491,10 +9704,10 @@
       <c r="G69" s="48"/>
       <c r="H69" s="48"/>
       <c r="I69" s="48"/>
-      <c r="J69" s="57"/>
+      <c r="J69" s="56"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B70" s="79"/>
+      <c r="B70" s="91"/>
       <c r="C70" s="40">
         <v>84</v>
       </c>
@@ -9504,10 +9717,10 @@
       <c r="G70" s="48"/>
       <c r="H70" s="48"/>
       <c r="I70" s="48"/>
-      <c r="J70" s="57"/>
+      <c r="J70" s="56"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B71" s="79"/>
+      <c r="B71" s="91"/>
       <c r="C71" s="40">
         <v>84</v>
       </c>
@@ -9517,10 +9730,10 @@
       <c r="G71" s="48"/>
       <c r="H71" s="48"/>
       <c r="I71" s="48"/>
-      <c r="J71" s="57"/>
+      <c r="J71" s="56"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B72" s="79" t="s">
+      <c r="B72" s="91" t="s">
         <v>82</v>
       </c>
       <c r="C72" s="40">
@@ -9532,10 +9745,10 @@
       <c r="G72" s="48"/>
       <c r="H72" s="48"/>
       <c r="I72" s="48"/>
-      <c r="J72" s="57"/>
+      <c r="J72" s="56"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B73" s="79"/>
+      <c r="B73" s="91"/>
       <c r="C73" s="40">
         <v>83.4</v>
       </c>
@@ -9545,10 +9758,10 @@
       <c r="G73" s="48"/>
       <c r="H73" s="48"/>
       <c r="I73" s="48"/>
-      <c r="J73" s="57"/>
+      <c r="J73" s="56"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B74" s="79"/>
+      <c r="B74" s="91"/>
       <c r="C74" s="40">
         <v>83.3</v>
       </c>
@@ -9558,10 +9771,10 @@
       <c r="G74" s="48"/>
       <c r="H74" s="48"/>
       <c r="I74" s="48"/>
-      <c r="J74" s="57"/>
+      <c r="J74" s="56"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B75" s="79"/>
+      <c r="B75" s="91"/>
       <c r="C75" s="40">
         <v>83.3</v>
       </c>
@@ -9571,10 +9784,10 @@
       <c r="G75" s="48"/>
       <c r="H75" s="48"/>
       <c r="I75" s="48"/>
-      <c r="J75" s="57"/>
+      <c r="J75" s="56"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B76" s="79"/>
+      <c r="B76" s="91"/>
       <c r="C76" s="40">
         <v>83.3</v>
       </c>
@@ -9584,10 +9797,10 @@
       <c r="G76" s="48"/>
       <c r="H76" s="48"/>
       <c r="I76" s="48"/>
-      <c r="J76" s="57"/>
+      <c r="J76" s="56"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B77" s="79" t="s">
+      <c r="B77" s="91" t="s">
         <v>83</v>
       </c>
       <c r="C77" s="40">
@@ -9599,10 +9812,10 @@
       <c r="G77" s="48"/>
       <c r="H77" s="48"/>
       <c r="I77" s="48"/>
-      <c r="J77" s="57"/>
+      <c r="J77" s="56"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B78" s="79"/>
+      <c r="B78" s="91"/>
       <c r="C78" s="40">
         <v>83.4</v>
       </c>
@@ -9612,10 +9825,10 @@
       <c r="G78" s="48"/>
       <c r="H78" s="48"/>
       <c r="I78" s="48"/>
-      <c r="J78" s="57"/>
+      <c r="J78" s="56"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B79" s="79"/>
+      <c r="B79" s="91"/>
       <c r="C79" s="40">
         <v>83.4</v>
       </c>
@@ -9625,10 +9838,10 @@
       <c r="G79" s="48"/>
       <c r="H79" s="48"/>
       <c r="I79" s="48"/>
-      <c r="J79" s="57"/>
+      <c r="J79" s="56"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B80" s="79"/>
+      <c r="B80" s="91"/>
       <c r="C80" s="40">
         <v>83.4</v>
       </c>
@@ -9638,10 +9851,10 @@
       <c r="G80" s="48"/>
       <c r="H80" s="48"/>
       <c r="I80" s="48"/>
-      <c r="J80" s="57"/>
+      <c r="J80" s="56"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B81" s="79"/>
+      <c r="B81" s="91"/>
       <c r="C81" s="40">
         <v>83.4</v>
       </c>
@@ -9651,10 +9864,10 @@
       <c r="G81" s="48"/>
       <c r="H81" s="48"/>
       <c r="I81" s="48"/>
-      <c r="J81" s="57"/>
+      <c r="J81" s="56"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B82" s="79" t="s">
+      <c r="B82" s="91" t="s">
         <v>84</v>
       </c>
       <c r="C82" s="40">
@@ -9666,10 +9879,10 @@
       <c r="G82" s="48"/>
       <c r="H82" s="48"/>
       <c r="I82" s="48"/>
-      <c r="J82" s="57"/>
+      <c r="J82" s="56"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B83" s="79"/>
+      <c r="B83" s="91"/>
       <c r="C83" s="40">
         <v>83.3</v>
       </c>
@@ -9679,10 +9892,10 @@
       <c r="G83" s="48"/>
       <c r="H83" s="48"/>
       <c r="I83" s="48"/>
-      <c r="J83" s="57"/>
+      <c r="J83" s="56"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B84" s="79"/>
+      <c r="B84" s="91"/>
       <c r="C84" s="40">
         <v>83.3</v>
       </c>
@@ -9692,10 +9905,10 @@
       <c r="G84" s="48"/>
       <c r="H84" s="48"/>
       <c r="I84" s="48"/>
-      <c r="J84" s="57"/>
+      <c r="J84" s="56"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B85" s="79"/>
+      <c r="B85" s="91"/>
       <c r="C85" s="40">
         <v>83.3</v>
       </c>
@@ -9705,10 +9918,10 @@
       <c r="G85" s="48"/>
       <c r="H85" s="48"/>
       <c r="I85" s="48"/>
-      <c r="J85" s="57"/>
+      <c r="J85" s="56"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B86" s="79"/>
+      <c r="B86" s="91"/>
       <c r="C86" s="40">
         <v>83.3</v>
       </c>
@@ -9718,10 +9931,10 @@
       <c r="G86" s="48"/>
       <c r="H86" s="48"/>
       <c r="I86" s="48"/>
-      <c r="J86" s="57"/>
+      <c r="J86" s="56"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B87" s="79" t="s">
+      <c r="B87" s="91" t="s">
         <v>87</v>
       </c>
       <c r="C87" s="40">
@@ -9733,10 +9946,10 @@
       <c r="G87" s="48"/>
       <c r="H87" s="48"/>
       <c r="I87" s="48"/>
-      <c r="J87" s="57"/>
+      <c r="J87" s="56"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B88" s="79"/>
+      <c r="B88" s="91"/>
       <c r="C88" s="40">
         <v>83.8</v>
       </c>
@@ -9746,10 +9959,10 @@
       <c r="G88" s="48"/>
       <c r="H88" s="48"/>
       <c r="I88" s="48"/>
-      <c r="J88" s="57"/>
+      <c r="J88" s="56"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B89" s="79"/>
+      <c r="B89" s="91"/>
       <c r="C89" s="40">
         <v>83.8</v>
       </c>
@@ -9759,10 +9972,10 @@
       <c r="G89" s="48"/>
       <c r="H89" s="48"/>
       <c r="I89" s="48"/>
-      <c r="J89" s="57"/>
+      <c r="J89" s="56"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B90" s="79"/>
+      <c r="B90" s="91"/>
       <c r="C90" s="40">
         <v>84</v>
       </c>
@@ -9772,10 +9985,10 @@
       <c r="G90" s="48"/>
       <c r="H90" s="48"/>
       <c r="I90" s="48"/>
-      <c r="J90" s="57"/>
+      <c r="J90" s="56"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B91" s="79"/>
+      <c r="B91" s="91"/>
       <c r="C91" s="40">
         <v>84</v>
       </c>
@@ -9785,10 +9998,10 @@
       <c r="G91" s="48"/>
       <c r="H91" s="48"/>
       <c r="I91" s="48"/>
-      <c r="J91" s="57"/>
+      <c r="J91" s="56"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B92" s="79" t="s">
+      <c r="B92" s="91" t="s">
         <v>89</v>
       </c>
       <c r="C92" s="40">
@@ -9800,10 +10013,10 @@
       <c r="G92" s="48"/>
       <c r="H92" s="48"/>
       <c r="I92" s="48"/>
-      <c r="J92" s="57"/>
+      <c r="J92" s="56"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B93" s="79"/>
+      <c r="B93" s="91"/>
       <c r="C93" s="40">
         <v>84</v>
       </c>
@@ -9813,10 +10026,10 @@
       <c r="G93" s="48"/>
       <c r="H93" s="48"/>
       <c r="I93" s="48"/>
-      <c r="J93" s="57"/>
+      <c r="J93" s="56"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B94" s="79"/>
+      <c r="B94" s="91"/>
       <c r="C94" s="40">
         <v>84</v>
       </c>
@@ -9826,10 +10039,10 @@
       <c r="G94" s="48"/>
       <c r="H94" s="48"/>
       <c r="I94" s="48"/>
-      <c r="J94" s="57"/>
+      <c r="J94" s="56"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B95" s="79"/>
+      <c r="B95" s="91"/>
       <c r="C95" s="40">
         <v>84.2</v>
       </c>
@@ -9839,10 +10052,10 @@
       <c r="G95" s="48"/>
       <c r="H95" s="48"/>
       <c r="I95" s="48"/>
-      <c r="J95" s="57"/>
+      <c r="J95" s="56"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B96" s="79"/>
+      <c r="B96" s="91"/>
       <c r="C96" s="40">
         <v>84.2</v>
       </c>
@@ -9852,10 +10065,10 @@
       <c r="G96" s="48"/>
       <c r="H96" s="48"/>
       <c r="I96" s="48"/>
-      <c r="J96" s="57"/>
+      <c r="J96" s="56"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B97" s="79" t="s">
+      <c r="B97" s="91" t="s">
         <v>91</v>
       </c>
       <c r="C97" s="40">
@@ -9867,10 +10080,10 @@
       <c r="G97" s="48"/>
       <c r="H97" s="48"/>
       <c r="I97" s="48"/>
-      <c r="J97" s="57"/>
+      <c r="J97" s="56"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B98" s="79"/>
+      <c r="B98" s="91"/>
       <c r="C98" s="40">
         <v>84</v>
       </c>
@@ -9880,10 +10093,10 @@
       <c r="G98" s="48"/>
       <c r="H98" s="48"/>
       <c r="I98" s="48"/>
-      <c r="J98" s="57"/>
+      <c r="J98" s="56"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B99" s="79"/>
+      <c r="B99" s="91"/>
       <c r="C99" s="40">
         <v>84</v>
       </c>
@@ -9893,10 +10106,10 @@
       <c r="G99" s="48"/>
       <c r="H99" s="48"/>
       <c r="I99" s="48"/>
-      <c r="J99" s="57"/>
+      <c r="J99" s="56"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B100" s="79"/>
+      <c r="B100" s="91"/>
       <c r="C100" s="40">
         <v>84</v>
       </c>
@@ -9906,10 +10119,10 @@
       <c r="G100" s="48"/>
       <c r="H100" s="48"/>
       <c r="I100" s="48"/>
-      <c r="J100" s="57"/>
+      <c r="J100" s="56"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B101" s="79"/>
+      <c r="B101" s="91"/>
       <c r="C101" s="40">
         <v>84</v>
       </c>
@@ -9919,15 +10132,48 @@
       <c r="G101" s="48"/>
       <c r="H101" s="48"/>
       <c r="I101" s="48"/>
-      <c r="J101" s="57"/>
+      <c r="J101" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L7:L46"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B97:B101"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="D42:D46"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B92:B96"/>
+    <mergeCell ref="B7:B16"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="D7:D16"/>
+    <mergeCell ref="F7:F46"/>
+    <mergeCell ref="H7:H46"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N7:N46"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N3:O3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="J6:K6"/>
@@ -9944,44 +10190,11 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N7:N46"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B92:B96"/>
-    <mergeCell ref="B7:B16"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="D7:D16"/>
-    <mergeCell ref="F7:F46"/>
-    <mergeCell ref="H7:H46"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="B97:B101"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="D37:D41"/>
-    <mergeCell ref="D42:D46"/>
-    <mergeCell ref="D47:D51"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L7:L46"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9993,50 +10206,50 @@
   <dimension ref="A1:Z88"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F4" sqref="F4:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="102" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
       <c r="G1" s="17"/>
-      <c r="H1" s="87" t="s">
+      <c r="H1" s="104" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87" t="s">
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A3" s="26" t="s">
@@ -10060,27 +10273,27 @@
       <c r="G3" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="H3" s="90" t="s">
+      <c r="H3" s="83" t="s">
         <v>189</v>
       </c>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="92"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="84"/>
       <c r="P3" s="31">
         <v>0.36041666666666666</v>
       </c>
-      <c r="Q3" s="90" t="s">
+      <c r="Q3" s="83" t="s">
         <v>189</v>
       </c>
-      <c r="R3" s="91"/>
-      <c r="S3" s="91"/>
-      <c r="T3" s="91"/>
-      <c r="U3" s="91"/>
-      <c r="V3" s="91"/>
+      <c r="R3" s="88"/>
+      <c r="S3" s="88"/>
+      <c r="T3" s="88"/>
+      <c r="U3" s="88"/>
+      <c r="V3" s="88"/>
       <c r="W3" s="37">
         <v>0.36319444444444443</v>
       </c>
@@ -10089,22 +10302,22 @@
       <c r="Z3" s="20"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="95" t="s">
         <v>133</v>
       </c>
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="91" t="s">
         <v>98</v>
       </c>
       <c r="D4" s="23">
         <v>1</v>
       </c>
-      <c r="E4" s="70" t="s">
+      <c r="E4" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="F4" s="70"/>
+      <c r="F4" s="69"/>
       <c r="G4" s="24"/>
       <c r="H4" s="23" t="s">
         <v>136</v>
@@ -10159,14 +10372,14 @@
       <c r="Z4" s="13"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A5" s="94"/>
-      <c r="B5" s="97"/>
-      <c r="C5" s="79"/>
+      <c r="A5" s="96"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="91"/>
       <c r="D5" s="23">
         <v>2</v>
       </c>
-      <c r="E5" s="69"/>
-      <c r="F5" s="70"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="69"/>
       <c r="G5" s="24"/>
       <c r="H5" s="23" t="s">
         <v>136</v>
@@ -10221,14 +10434,14 @@
       <c r="Z5" s="13"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A6" s="94"/>
-      <c r="B6" s="97"/>
-      <c r="C6" s="79"/>
+      <c r="A6" s="96"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="91"/>
       <c r="D6" s="23">
         <v>3</v>
       </c>
-      <c r="E6" s="69"/>
-      <c r="F6" s="70"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="24"/>
       <c r="H6" s="23" t="s">
         <v>137</v>
@@ -10283,14 +10496,14 @@
       <c r="Z6" s="13"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A7" s="94"/>
-      <c r="B7" s="97"/>
-      <c r="C7" s="79"/>
+      <c r="A7" s="96"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="91"/>
       <c r="D7" s="23">
         <v>4</v>
       </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="70"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="69"/>
       <c r="G7" s="24"/>
       <c r="H7" s="23" t="s">
         <v>137</v>
@@ -10345,14 +10558,14 @@
       <c r="Z7" s="13"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A8" s="94"/>
-      <c r="B8" s="97"/>
-      <c r="C8" s="79"/>
+      <c r="A8" s="96"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="91"/>
       <c r="D8" s="23">
         <v>5</v>
       </c>
-      <c r="E8" s="69"/>
-      <c r="F8" s="70"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="69"/>
       <c r="G8" s="24"/>
       <c r="H8" s="23" t="s">
         <v>138</v>
@@ -10407,23 +10620,23 @@
       <c r="Z8" s="13"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A9" s="94"/>
-      <c r="B9" s="97"/>
+      <c r="A9" s="96"/>
+      <c r="B9" s="99"/>
       <c r="C9" s="26"/>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="69"/>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="69"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="68"/>
       <c r="R9" s="27"/>
       <c r="S9" s="27"/>
       <c r="T9" s="27"/>
@@ -10435,15 +10648,15 @@
       <c r="Z9" s="21"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A10" s="94"/>
-      <c r="B10" s="97"/>
+      <c r="A10" s="96"/>
+      <c r="B10" s="99"/>
       <c r="C10" s="26"/>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
       <c r="L10" s="23"/>
@@ -10467,18 +10680,18 @@
       <c r="Z10" s="11"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A11" s="94"/>
-      <c r="B11" s="97"/>
-      <c r="C11" s="79" t="s">
+      <c r="A11" s="96"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="91" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="23">
         <v>1</v>
       </c>
-      <c r="E11" s="70" t="s">
+      <c r="E11" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="F11" s="70"/>
+      <c r="F11" s="69"/>
       <c r="G11" s="24"/>
       <c r="H11" s="24" t="s">
         <v>196</v>
@@ -10533,14 +10746,14 @@
       <c r="Z11" s="11"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A12" s="94"/>
-      <c r="B12" s="97"/>
-      <c r="C12" s="79"/>
+      <c r="A12" s="96"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="91"/>
       <c r="D12" s="23">
         <v>2</v>
       </c>
-      <c r="E12" s="69"/>
-      <c r="F12" s="70"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="69"/>
       <c r="G12" s="24"/>
       <c r="H12" s="24" t="s">
         <v>197</v>
@@ -10595,14 +10808,14 @@
       <c r="Z12" s="11"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A13" s="94"/>
-      <c r="B13" s="97"/>
-      <c r="C13" s="79"/>
+      <c r="A13" s="96"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="91"/>
       <c r="D13" s="23">
         <v>3</v>
       </c>
-      <c r="E13" s="69"/>
-      <c r="F13" s="70"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="69"/>
       <c r="G13" s="24"/>
       <c r="H13" s="24" t="s">
         <v>197</v>
@@ -10657,14 +10870,14 @@
       <c r="Z13" s="11"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A14" s="94"/>
-      <c r="B14" s="97"/>
-      <c r="C14" s="79"/>
+      <c r="A14" s="96"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="91"/>
       <c r="D14" s="23">
         <v>4</v>
       </c>
-      <c r="E14" s="69"/>
-      <c r="F14" s="70"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="69"/>
       <c r="G14" s="24"/>
       <c r="H14" s="24" t="s">
         <v>198</v>
@@ -10719,14 +10932,14 @@
       <c r="Z14" s="11"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A15" s="94"/>
-      <c r="B15" s="97"/>
-      <c r="C15" s="79"/>
+      <c r="A15" s="96"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="91"/>
       <c r="D15" s="23">
         <v>5</v>
       </c>
-      <c r="E15" s="69"/>
-      <c r="F15" s="70"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="69"/>
       <c r="G15" s="24"/>
       <c r="H15" s="24" t="s">
         <v>199</v>
@@ -10781,23 +10994,23 @@
       <c r="Z15" s="11"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A16" s="94"/>
-      <c r="B16" s="98"/>
+      <c r="A16" s="96"/>
+      <c r="B16" s="100"/>
       <c r="C16" s="29"/>
       <c r="D16" s="22"/>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="82" t="s">
+      <c r="H16" s="107" t="s">
         <v>178</v>
       </c>
-      <c r="I16" s="83"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="83"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="83"/>
-      <c r="O16" s="84"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="108"/>
+      <c r="N16" s="108"/>
+      <c r="O16" s="109"/>
       <c r="P16" s="36"/>
       <c r="Q16" s="36"/>
       <c r="R16" s="36"/>
@@ -10811,21 +11024,21 @@
       <c r="Z16" s="11"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A17" s="94"/>
-      <c r="B17" s="79" t="s">
+      <c r="A17" s="96"/>
+      <c r="B17" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="79" t="s">
+      <c r="C17" s="91" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="23">
         <v>1</v>
       </c>
-      <c r="E17" s="70" t="s">
+      <c r="E17" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70" t="s">
+      <c r="F17" s="69"/>
+      <c r="G17" s="69" t="s">
         <v>141</v>
       </c>
       <c r="H17" s="24" t="s">
@@ -10865,15 +11078,15 @@
       <c r="Z17" s="11"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A18" s="94"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
+      <c r="A18" s="96"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="91"/>
       <c r="D18" s="23">
         <v>2</v>
       </c>
-      <c r="E18" s="69"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
       <c r="H18" s="24" t="s">
         <v>143</v>
       </c>
@@ -10911,15 +11124,15 @@
       <c r="Z18" s="11"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A19" s="94"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="79"/>
+      <c r="A19" s="96"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="91"/>
       <c r="D19" s="23">
         <v>3</v>
       </c>
-      <c r="E19" s="69"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
       <c r="H19" s="24" t="s">
         <v>144</v>
       </c>
@@ -10957,15 +11170,15 @@
       <c r="Z19" s="11"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A20" s="94"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
+      <c r="A20" s="96"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="91"/>
       <c r="D20" s="23">
         <v>4</v>
       </c>
-      <c r="E20" s="69"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
       <c r="H20" s="24" t="s">
         <v>145</v>
       </c>
@@ -11003,15 +11216,15 @@
       <c r="Z20" s="11"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A21" s="95"/>
-      <c r="B21" s="79"/>
-      <c r="C21" s="79"/>
+      <c r="A21" s="97"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
       <c r="D21" s="23">
         <v>5</v>
       </c>
-      <c r="E21" s="69"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
       <c r="H21" s="24" t="s">
         <v>146</v>
       </c>
@@ -11064,16 +11277,16 @@
       <c r="G22" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="H22" s="99" t="s">
+      <c r="H22" s="89" t="s">
         <v>189</v>
       </c>
-      <c r="I22" s="100"/>
-      <c r="J22" s="100"/>
-      <c r="K22" s="100"/>
-      <c r="L22" s="100"/>
-      <c r="M22" s="100"/>
-      <c r="N22" s="100"/>
-      <c r="O22" s="101"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="92"/>
+      <c r="N22" s="92"/>
+      <c r="O22" s="90"/>
       <c r="P22" s="32" t="s">
         <v>248</v>
       </c>
@@ -11089,25 +11302,25 @@
       <c r="Z22" s="11"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A23" s="93" t="s">
+      <c r="A23" s="95" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="79" t="s">
+      <c r="B23" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="79" t="s">
+      <c r="C23" s="91" t="s">
         <v>98</v>
       </c>
       <c r="D23" s="23">
         <v>1</v>
       </c>
-      <c r="E23" s="70" t="s">
+      <c r="E23" s="69" t="s">
         <v>230</v>
       </c>
-      <c r="F23" s="71" t="s">
+      <c r="F23" s="70" t="s">
         <v>291</v>
       </c>
-      <c r="G23" s="70" t="s">
+      <c r="G23" s="69" t="s">
         <v>292</v>
       </c>
       <c r="H23" s="24" t="s">
@@ -11163,15 +11376,15 @@
       <c r="Z23" s="11"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A24" s="94"/>
-      <c r="B24" s="79"/>
-      <c r="C24" s="79"/>
+      <c r="A24" s="96"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="91"/>
       <c r="D24" s="23">
         <v>2</v>
       </c>
-      <c r="E24" s="69"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="70"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="69"/>
       <c r="H24" s="24" t="s">
         <v>232</v>
       </c>
@@ -11225,15 +11438,15 @@
       <c r="Z24" s="11"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A25" s="94"/>
-      <c r="B25" s="79"/>
-      <c r="C25" s="79"/>
+      <c r="A25" s="96"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="91"/>
       <c r="D25" s="23">
         <v>3</v>
       </c>
-      <c r="E25" s="69"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="70"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="69"/>
       <c r="H25" s="24" t="s">
         <v>231</v>
       </c>
@@ -11287,15 +11500,15 @@
       <c r="Z25" s="11"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A26" s="94"/>
-      <c r="B26" s="79"/>
-      <c r="C26" s="79"/>
+      <c r="A26" s="96"/>
+      <c r="B26" s="91"/>
+      <c r="C26" s="91"/>
       <c r="D26" s="23">
         <v>4</v>
       </c>
-      <c r="E26" s="69"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="70"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="69"/>
       <c r="H26" s="24" t="s">
         <v>231</v>
       </c>
@@ -11349,15 +11562,15 @@
       <c r="Z26" s="11"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A27" s="94"/>
-      <c r="B27" s="79"/>
-      <c r="C27" s="79"/>
+      <c r="A27" s="96"/>
+      <c r="B27" s="91"/>
+      <c r="C27" s="91"/>
       <c r="D27" s="23">
         <v>5</v>
       </c>
-      <c r="E27" s="69"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="70"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="69"/>
       <c r="H27" s="24" t="s">
         <v>231</v>
       </c>
@@ -11411,8 +11624,8 @@
       <c r="Z27" s="11"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A28" s="94"/>
-      <c r="B28" s="79"/>
+      <c r="A28" s="96"/>
+      <c r="B28" s="91"/>
       <c r="C28" s="26"/>
       <c r="D28" s="23"/>
       <c r="E28" s="23"/>
@@ -11439,8 +11652,8 @@
       <c r="Z28" s="11"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A29" s="94"/>
-      <c r="B29" s="79"/>
+      <c r="A29" s="96"/>
+      <c r="B29" s="91"/>
       <c r="C29" s="26"/>
       <c r="D29" s="23"/>
       <c r="E29" s="23"/>
@@ -11469,21 +11682,21 @@
       <c r="Z29" s="11"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A30" s="94"/>
-      <c r="B30" s="79"/>
-      <c r="C30" s="79" t="s">
+      <c r="A30" s="96"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="91" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="23">
         <v>1</v>
       </c>
-      <c r="E30" s="70" t="s">
+      <c r="E30" s="69" t="s">
         <v>230</v>
       </c>
-      <c r="F30" s="71" t="s">
+      <c r="F30" s="70" t="s">
         <v>291</v>
       </c>
-      <c r="G30" s="70" t="s">
+      <c r="G30" s="69" t="s">
         <v>292</v>
       </c>
       <c r="H30" s="24" t="s">
@@ -11539,15 +11752,15 @@
       <c r="Z30" s="11"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A31" s="94"/>
-      <c r="B31" s="79"/>
-      <c r="C31" s="79"/>
+      <c r="A31" s="96"/>
+      <c r="B31" s="91"/>
+      <c r="C31" s="91"/>
       <c r="D31" s="23">
         <v>2</v>
       </c>
-      <c r="E31" s="69"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="70"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="69"/>
       <c r="H31" s="24" t="s">
         <v>238</v>
       </c>
@@ -11601,15 +11814,15 @@
       <c r="Z31" s="11"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A32" s="94"/>
-      <c r="B32" s="79"/>
-      <c r="C32" s="79"/>
+      <c r="A32" s="96"/>
+      <c r="B32" s="91"/>
+      <c r="C32" s="91"/>
       <c r="D32" s="23">
         <v>3</v>
       </c>
-      <c r="E32" s="69"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="70"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="69"/>
       <c r="H32" s="24" t="s">
         <v>238</v>
       </c>
@@ -11663,15 +11876,15 @@
       <c r="Z32" s="11"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A33" s="94"/>
-      <c r="B33" s="79"/>
-      <c r="C33" s="79"/>
+      <c r="A33" s="96"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="91"/>
       <c r="D33" s="23">
         <v>4</v>
       </c>
-      <c r="E33" s="69"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="70"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="69"/>
       <c r="H33" s="24" t="s">
         <v>238</v>
       </c>
@@ -11722,15 +11935,15 @@
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A34" s="94"/>
-      <c r="B34" s="79"/>
-      <c r="C34" s="79"/>
+      <c r="A34" s="96"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="91"/>
       <c r="D34" s="23">
         <v>5</v>
       </c>
-      <c r="E34" s="69"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="70"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="69"/>
       <c r="H34" s="24" t="s">
         <v>239</v>
       </c>
@@ -11781,8 +11994,8 @@
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A35" s="94"/>
-      <c r="B35" s="79"/>
+      <c r="A35" s="96"/>
+      <c r="B35" s="91"/>
       <c r="C35" s="26"/>
       <c r="D35" s="23"/>
       <c r="E35" s="23"/>
@@ -11806,21 +12019,21 @@
       <c r="W35" s="26"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A36" s="94"/>
-      <c r="B36" s="79" t="s">
+      <c r="A36" s="96"/>
+      <c r="B36" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="79" t="s">
+      <c r="C36" s="91" t="s">
         <v>10</v>
       </c>
       <c r="D36" s="23">
         <v>1</v>
       </c>
-      <c r="E36" s="71" t="s">
+      <c r="E36" s="70" t="s">
         <v>293</v>
       </c>
-      <c r="F36" s="70"/>
-      <c r="G36" s="70" t="s">
+      <c r="F36" s="69"/>
+      <c r="G36" s="69" t="s">
         <v>292</v>
       </c>
       <c r="H36" s="26"/>
@@ -11869,15 +12082,15 @@
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A37" s="94"/>
-      <c r="B37" s="79"/>
-      <c r="C37" s="79"/>
+      <c r="A37" s="96"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="91"/>
       <c r="D37" s="23">
         <v>2</v>
       </c>
-      <c r="E37" s="78"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="70"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="69"/>
       <c r="H37" s="26"/>
       <c r="I37" s="26"/>
       <c r="J37" s="24" t="s">
@@ -11924,15 +12137,15 @@
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A38" s="94"/>
-      <c r="B38" s="79"/>
-      <c r="C38" s="79"/>
+      <c r="A38" s="96"/>
+      <c r="B38" s="91"/>
+      <c r="C38" s="91"/>
       <c r="D38" s="23">
         <v>3</v>
       </c>
-      <c r="E38" s="78"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="70"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="69"/>
       <c r="H38" s="26"/>
       <c r="I38" s="26"/>
       <c r="J38" s="24" t="s">
@@ -11979,15 +12192,15 @@
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A39" s="94"/>
-      <c r="B39" s="79"/>
-      <c r="C39" s="79"/>
+      <c r="A39" s="96"/>
+      <c r="B39" s="91"/>
+      <c r="C39" s="91"/>
       <c r="D39" s="23">
         <v>4</v>
       </c>
-      <c r="E39" s="78"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="70"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="69"/>
       <c r="H39" s="26"/>
       <c r="I39" s="26"/>
       <c r="J39" s="24" t="s">
@@ -12034,15 +12247,15 @@
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A40" s="95"/>
-      <c r="B40" s="79"/>
-      <c r="C40" s="79"/>
+      <c r="A40" s="97"/>
+      <c r="B40" s="91"/>
+      <c r="C40" s="91"/>
       <c r="D40" s="23">
         <v>5</v>
       </c>
-      <c r="E40" s="78"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="70"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="69"/>
+      <c r="G40" s="69"/>
       <c r="H40" s="26"/>
       <c r="I40" s="26"/>
       <c r="J40" s="24" t="s">
@@ -12104,37 +12317,37 @@
       <c r="G41" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="H41" s="69" t="s">
+      <c r="H41" s="68" t="s">
         <v>189</v>
       </c>
-      <c r="I41" s="69"/>
-      <c r="J41" s="69"/>
-      <c r="K41" s="69"/>
-      <c r="L41" s="69"/>
-      <c r="M41" s="69"/>
-      <c r="N41" s="69"/>
-      <c r="O41" s="69"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="68"/>
+      <c r="K41" s="68"/>
+      <c r="L41" s="68"/>
+      <c r="M41" s="68"/>
+      <c r="N41" s="68"/>
+      <c r="O41" s="68"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A42" s="70" t="s">
+      <c r="A42" s="69" t="s">
         <v>294</v>
       </c>
-      <c r="B42" s="79" t="s">
+      <c r="B42" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="79" t="s">
+      <c r="C42" s="91" t="s">
         <v>98</v>
       </c>
       <c r="D42" s="23">
         <v>1</v>
       </c>
-      <c r="E42" s="70" t="s">
+      <c r="E42" s="69" t="s">
         <v>295</v>
       </c>
-      <c r="F42" s="70" t="s">
+      <c r="F42" s="69" t="s">
         <v>296</v>
       </c>
-      <c r="G42" s="70"/>
+      <c r="G42" s="69"/>
       <c r="H42" s="24" t="s">
         <v>297</v>
       </c>
@@ -12161,15 +12374,15 @@
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A43" s="70"/>
-      <c r="B43" s="79"/>
-      <c r="C43" s="79"/>
+      <c r="A43" s="69"/>
+      <c r="B43" s="91"/>
+      <c r="C43" s="91"/>
       <c r="D43" s="23">
         <v>2</v>
       </c>
-      <c r="E43" s="69"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="70"/>
+      <c r="E43" s="68"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="69"/>
       <c r="H43" s="24" t="s">
         <v>298</v>
       </c>
@@ -12196,15 +12409,15 @@
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A44" s="70"/>
-      <c r="B44" s="79"/>
-      <c r="C44" s="79"/>
+      <c r="A44" s="69"/>
+      <c r="B44" s="91"/>
+      <c r="C44" s="91"/>
       <c r="D44" s="23">
         <v>3</v>
       </c>
-      <c r="E44" s="69"/>
-      <c r="F44" s="70"/>
-      <c r="G44" s="70"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="69"/>
       <c r="H44" s="24" t="s">
         <v>299</v>
       </c>
@@ -12231,15 +12444,15 @@
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A45" s="70"/>
-      <c r="B45" s="79"/>
-      <c r="C45" s="79"/>
+      <c r="A45" s="69"/>
+      <c r="B45" s="91"/>
+      <c r="C45" s="91"/>
       <c r="D45" s="23">
         <v>4</v>
       </c>
-      <c r="E45" s="69"/>
-      <c r="F45" s="70"/>
-      <c r="G45" s="70"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="69"/>
       <c r="H45" s="24" t="s">
         <v>299</v>
       </c>
@@ -12266,15 +12479,15 @@
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A46" s="70"/>
-      <c r="B46" s="79"/>
-      <c r="C46" s="79"/>
+      <c r="A46" s="69"/>
+      <c r="B46" s="91"/>
+      <c r="C46" s="91"/>
       <c r="D46" s="23">
         <v>5</v>
       </c>
-      <c r="E46" s="69"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="70"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="69"/>
       <c r="H46" s="24" t="s">
         <v>299</v>
       </c>
@@ -12301,8 +12514,8 @@
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A47" s="70"/>
-      <c r="B47" s="79"/>
+      <c r="A47" s="69"/>
+      <c r="B47" s="91"/>
       <c r="C47" s="26"/>
       <c r="D47" s="23"/>
       <c r="E47" s="23"/>
@@ -12318,8 +12531,8 @@
       <c r="O47" s="23"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A48" s="70"/>
-      <c r="B48" s="79"/>
+      <c r="A48" s="69"/>
+      <c r="B48" s="91"/>
       <c r="C48" s="26"/>
       <c r="D48" s="23"/>
       <c r="E48" s="23"/>
@@ -12335,21 +12548,21 @@
       <c r="O48" s="23"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A49" s="70"/>
-      <c r="B49" s="79"/>
-      <c r="C49" s="79" t="s">
+      <c r="A49" s="69"/>
+      <c r="B49" s="91"/>
+      <c r="C49" s="91" t="s">
         <v>2</v>
       </c>
       <c r="D49" s="23">
         <v>1</v>
       </c>
-      <c r="E49" s="70" t="s">
+      <c r="E49" s="69" t="s">
         <v>295</v>
       </c>
-      <c r="F49" s="70" t="s">
+      <c r="F49" s="69" t="s">
         <v>296</v>
       </c>
-      <c r="G49" s="70"/>
+      <c r="G49" s="69"/>
       <c r="H49" s="24" t="s">
         <v>309</v>
       </c>
@@ -12376,15 +12589,15 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A50" s="70"/>
-      <c r="B50" s="79"/>
-      <c r="C50" s="79"/>
+      <c r="A50" s="69"/>
+      <c r="B50" s="91"/>
+      <c r="C50" s="91"/>
       <c r="D50" s="23">
         <v>2</v>
       </c>
-      <c r="E50" s="69"/>
-      <c r="F50" s="70"/>
-      <c r="G50" s="70"/>
+      <c r="E50" s="68"/>
+      <c r="F50" s="69"/>
+      <c r="G50" s="69"/>
       <c r="H50" s="24" t="s">
         <v>309</v>
       </c>
@@ -12411,15 +12624,15 @@
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A51" s="70"/>
-      <c r="B51" s="79"/>
-      <c r="C51" s="79"/>
+      <c r="A51" s="69"/>
+      <c r="B51" s="91"/>
+      <c r="C51" s="91"/>
       <c r="D51" s="23">
         <v>3</v>
       </c>
-      <c r="E51" s="69"/>
-      <c r="F51" s="70"/>
-      <c r="G51" s="70"/>
+      <c r="E51" s="68"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="69"/>
       <c r="H51" s="24" t="s">
         <v>310</v>
       </c>
@@ -12446,15 +12659,15 @@
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A52" s="70"/>
-      <c r="B52" s="79"/>
-      <c r="C52" s="79"/>
+      <c r="A52" s="69"/>
+      <c r="B52" s="91"/>
+      <c r="C52" s="91"/>
       <c r="D52" s="23">
         <v>4</v>
       </c>
-      <c r="E52" s="69"/>
-      <c r="F52" s="70"/>
-      <c r="G52" s="70"/>
+      <c r="E52" s="68"/>
+      <c r="F52" s="69"/>
+      <c r="G52" s="69"/>
       <c r="H52" s="24" t="s">
         <v>310</v>
       </c>
@@ -12481,15 +12694,15 @@
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A53" s="70"/>
-      <c r="B53" s="79"/>
-      <c r="C53" s="79"/>
+      <c r="A53" s="69"/>
+      <c r="B53" s="91"/>
+      <c r="C53" s="91"/>
       <c r="D53" s="23">
         <v>5</v>
       </c>
-      <c r="E53" s="69"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="70"/>
+      <c r="E53" s="68"/>
+      <c r="F53" s="69"/>
+      <c r="G53" s="69"/>
       <c r="H53" s="24" t="s">
         <v>309</v>
       </c>
@@ -12516,8 +12729,8 @@
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A54" s="70"/>
-      <c r="B54" s="79"/>
+      <c r="A54" s="69"/>
+      <c r="B54" s="91"/>
       <c r="C54" s="26"/>
       <c r="D54" s="23"/>
       <c r="E54" s="23"/>
@@ -12533,23 +12746,23 @@
       <c r="O54" s="23"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A55" s="70"/>
-      <c r="B55" s="79" t="s">
+      <c r="A55" s="69"/>
+      <c r="B55" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="79" t="s">
+      <c r="C55" s="91" t="s">
         <v>10</v>
       </c>
       <c r="D55" s="23">
         <v>1</v>
       </c>
-      <c r="E55" s="70" t="s">
+      <c r="E55" s="69" t="s">
         <v>295</v>
       </c>
-      <c r="F55" s="70" t="s">
+      <c r="F55" s="69" t="s">
         <v>296</v>
       </c>
-      <c r="G55" s="70"/>
+      <c r="G55" s="69"/>
       <c r="H55" s="24" t="s">
         <v>327</v>
       </c>
@@ -12576,15 +12789,15 @@
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A56" s="70"/>
-      <c r="B56" s="79"/>
-      <c r="C56" s="79"/>
+      <c r="A56" s="69"/>
+      <c r="B56" s="91"/>
+      <c r="C56" s="91"/>
       <c r="D56" s="23">
         <v>2</v>
       </c>
-      <c r="E56" s="69"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="70"/>
+      <c r="E56" s="68"/>
+      <c r="F56" s="69"/>
+      <c r="G56" s="69"/>
       <c r="H56" s="24" t="s">
         <v>328</v>
       </c>
@@ -12611,15 +12824,15 @@
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A57" s="70"/>
-      <c r="B57" s="79"/>
-      <c r="C57" s="79"/>
+      <c r="A57" s="69"/>
+      <c r="B57" s="91"/>
+      <c r="C57" s="91"/>
       <c r="D57" s="23">
         <v>3</v>
       </c>
-      <c r="E57" s="69"/>
-      <c r="F57" s="70"/>
-      <c r="G57" s="70"/>
+      <c r="E57" s="68"/>
+      <c r="F57" s="69"/>
+      <c r="G57" s="69"/>
       <c r="H57" s="24" t="s">
         <v>329</v>
       </c>
@@ -12646,15 +12859,15 @@
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A58" s="70"/>
-      <c r="B58" s="79"/>
-      <c r="C58" s="79"/>
+      <c r="A58" s="69"/>
+      <c r="B58" s="91"/>
+      <c r="C58" s="91"/>
       <c r="D58" s="23">
         <v>4</v>
       </c>
-      <c r="E58" s="69"/>
-      <c r="F58" s="70"/>
-      <c r="G58" s="70"/>
+      <c r="E58" s="68"/>
+      <c r="F58" s="69"/>
+      <c r="G58" s="69"/>
       <c r="H58" s="24" t="s">
         <v>330</v>
       </c>
@@ -12681,15 +12894,15 @@
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A59" s="70"/>
-      <c r="B59" s="79"/>
-      <c r="C59" s="79"/>
+      <c r="A59" s="69"/>
+      <c r="B59" s="91"/>
+      <c r="C59" s="91"/>
       <c r="D59" s="23">
         <v>5</v>
       </c>
-      <c r="E59" s="69"/>
-      <c r="F59" s="70"/>
-      <c r="G59" s="70"/>
+      <c r="E59" s="68"/>
+      <c r="F59" s="69"/>
+      <c r="G59" s="69"/>
       <c r="H59" s="24" t="s">
         <v>331</v>
       </c>
@@ -12731,37 +12944,37 @@
       <c r="G60" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="H60" s="69" t="s">
+      <c r="H60" s="68" t="s">
         <v>189</v>
       </c>
-      <c r="I60" s="69"/>
-      <c r="J60" s="69"/>
-      <c r="K60" s="69"/>
-      <c r="L60" s="69"/>
-      <c r="M60" s="69"/>
-      <c r="N60" s="69"/>
-      <c r="O60" s="69"/>
+      <c r="I60" s="68"/>
+      <c r="J60" s="68"/>
+      <c r="K60" s="68"/>
+      <c r="L60" s="68"/>
+      <c r="M60" s="68"/>
+      <c r="N60" s="68"/>
+      <c r="O60" s="68"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A61" s="70" t="s">
+      <c r="A61" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="B61" s="79" t="s">
+      <c r="B61" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="79" t="s">
+      <c r="C61" s="91" t="s">
         <v>98</v>
       </c>
       <c r="D61" s="23">
         <v>1</v>
       </c>
-      <c r="E61" s="70" t="s">
+      <c r="E61" s="69" t="s">
         <v>366</v>
       </c>
-      <c r="F61" s="70" t="s">
+      <c r="F61" s="69" t="s">
         <v>367</v>
       </c>
-      <c r="G61" s="70" t="s">
+      <c r="G61" s="69" t="s">
         <v>368</v>
       </c>
       <c r="H61" s="24" t="s">
@@ -12790,15 +13003,15 @@
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A62" s="70"/>
-      <c r="B62" s="79"/>
-      <c r="C62" s="79"/>
+      <c r="A62" s="69"/>
+      <c r="B62" s="91"/>
+      <c r="C62" s="91"/>
       <c r="D62" s="23">
         <v>2</v>
       </c>
-      <c r="E62" s="69"/>
-      <c r="F62" s="70"/>
-      <c r="G62" s="70"/>
+      <c r="E62" s="68"/>
+      <c r="F62" s="69"/>
+      <c r="G62" s="69"/>
       <c r="H62" s="24" t="s">
         <v>370</v>
       </c>
@@ -12825,15 +13038,15 @@
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A63" s="70"/>
-      <c r="B63" s="79"/>
-      <c r="C63" s="79"/>
+      <c r="A63" s="69"/>
+      <c r="B63" s="91"/>
+      <c r="C63" s="91"/>
       <c r="D63" s="23">
         <v>3</v>
       </c>
-      <c r="E63" s="69"/>
-      <c r="F63" s="70"/>
-      <c r="G63" s="70"/>
+      <c r="E63" s="68"/>
+      <c r="F63" s="69"/>
+      <c r="G63" s="69"/>
       <c r="H63" s="24" t="s">
         <v>370</v>
       </c>
@@ -12860,15 +13073,15 @@
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A64" s="70"/>
-      <c r="B64" s="79"/>
-      <c r="C64" s="79"/>
+      <c r="A64" s="69"/>
+      <c r="B64" s="91"/>
+      <c r="C64" s="91"/>
       <c r="D64" s="23">
         <v>4</v>
       </c>
-      <c r="E64" s="69"/>
-      <c r="F64" s="70"/>
-      <c r="G64" s="70"/>
+      <c r="E64" s="68"/>
+      <c r="F64" s="69"/>
+      <c r="G64" s="69"/>
       <c r="H64" s="24" t="s">
         <v>369</v>
       </c>
@@ -12895,15 +13108,15 @@
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A65" s="70"/>
-      <c r="B65" s="79"/>
-      <c r="C65" s="79"/>
+      <c r="A65" s="69"/>
+      <c r="B65" s="91"/>
+      <c r="C65" s="91"/>
       <c r="D65" s="23">
         <v>5</v>
       </c>
-      <c r="E65" s="69"/>
-      <c r="F65" s="70"/>
-      <c r="G65" s="70"/>
+      <c r="E65" s="68"/>
+      <c r="F65" s="69"/>
+      <c r="G65" s="69"/>
       <c r="H65" s="24" t="s">
         <v>369</v>
       </c>
@@ -12930,8 +13143,8 @@
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A66" s="70"/>
-      <c r="B66" s="79"/>
+      <c r="A66" s="69"/>
+      <c r="B66" s="91"/>
       <c r="C66" s="26"/>
       <c r="D66" s="23"/>
       <c r="E66" s="23"/>
@@ -12947,8 +13160,8 @@
       <c r="O66" s="23"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A67" s="70"/>
-      <c r="B67" s="79"/>
+      <c r="A67" s="69"/>
+      <c r="B67" s="91"/>
       <c r="C67" s="26"/>
       <c r="D67" s="23"/>
       <c r="E67" s="23"/>
@@ -12964,21 +13177,21 @@
       <c r="O67" s="23"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A68" s="70"/>
-      <c r="B68" s="79"/>
-      <c r="C68" s="79" t="s">
+      <c r="A68" s="69"/>
+      <c r="B68" s="91"/>
+      <c r="C68" s="91" t="s">
         <v>2</v>
       </c>
       <c r="D68" s="23">
         <v>1</v>
       </c>
-      <c r="E68" s="70" t="s">
+      <c r="E68" s="69" t="s">
         <v>366</v>
       </c>
-      <c r="F68" s="70" t="s">
+      <c r="F68" s="69" t="s">
         <v>367</v>
       </c>
-      <c r="G68" s="70" t="s">
+      <c r="G68" s="69" t="s">
         <v>368</v>
       </c>
       <c r="H68" s="23" t="s">
@@ -13007,15 +13220,15 @@
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A69" s="70"/>
-      <c r="B69" s="79"/>
-      <c r="C69" s="79"/>
+      <c r="A69" s="69"/>
+      <c r="B69" s="91"/>
+      <c r="C69" s="91"/>
       <c r="D69" s="23">
         <v>2</v>
       </c>
-      <c r="E69" s="69"/>
-      <c r="F69" s="70"/>
-      <c r="G69" s="70"/>
+      <c r="E69" s="68"/>
+      <c r="F69" s="69"/>
+      <c r="G69" s="69"/>
       <c r="H69" s="23" t="s">
         <v>375</v>
       </c>
@@ -13042,15 +13255,15 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A70" s="70"/>
-      <c r="B70" s="79"/>
-      <c r="C70" s="79"/>
+      <c r="A70" s="69"/>
+      <c r="B70" s="91"/>
+      <c r="C70" s="91"/>
       <c r="D70" s="23">
         <v>3</v>
       </c>
-      <c r="E70" s="69"/>
-      <c r="F70" s="70"/>
-      <c r="G70" s="70"/>
+      <c r="E70" s="68"/>
+      <c r="F70" s="69"/>
+      <c r="G70" s="69"/>
       <c r="H70" s="23" t="s">
         <v>376</v>
       </c>
@@ -13077,15 +13290,15 @@
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A71" s="70"/>
-      <c r="B71" s="79"/>
-      <c r="C71" s="79"/>
+      <c r="A71" s="69"/>
+      <c r="B71" s="91"/>
+      <c r="C71" s="91"/>
       <c r="D71" s="23">
         <v>4</v>
       </c>
-      <c r="E71" s="69"/>
-      <c r="F71" s="70"/>
-      <c r="G71" s="70"/>
+      <c r="E71" s="68"/>
+      <c r="F71" s="69"/>
+      <c r="G71" s="69"/>
       <c r="H71" s="23" t="s">
         <v>375</v>
       </c>
@@ -13112,15 +13325,15 @@
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A72" s="70"/>
-      <c r="B72" s="79"/>
-      <c r="C72" s="79"/>
+      <c r="A72" s="69"/>
+      <c r="B72" s="91"/>
+      <c r="C72" s="91"/>
       <c r="D72" s="23">
         <v>5</v>
       </c>
-      <c r="E72" s="69"/>
-      <c r="F72" s="70"/>
-      <c r="G72" s="70"/>
+      <c r="E72" s="68"/>
+      <c r="F72" s="69"/>
+      <c r="G72" s="69"/>
       <c r="H72" s="23" t="s">
         <v>376</v>
       </c>
@@ -13147,8 +13360,8 @@
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A73" s="70"/>
-      <c r="B73" s="79"/>
+      <c r="A73" s="69"/>
+      <c r="B73" s="91"/>
       <c r="C73" s="26"/>
       <c r="D73" s="23"/>
       <c r="E73" s="23"/>
@@ -13164,23 +13377,23 @@
       <c r="O73" s="23"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A74" s="70"/>
-      <c r="B74" s="79" t="s">
+      <c r="A74" s="69"/>
+      <c r="B74" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="C74" s="79" t="s">
+      <c r="C74" s="91" t="s">
         <v>10</v>
       </c>
       <c r="D74" s="23">
         <v>1</v>
       </c>
-      <c r="E74" s="70" t="s">
+      <c r="E74" s="69" t="s">
         <v>366</v>
       </c>
-      <c r="F74" s="70" t="s">
+      <c r="F74" s="69" t="s">
         <v>367</v>
       </c>
-      <c r="G74" s="70" t="s">
+      <c r="G74" s="69" t="s">
         <v>368</v>
       </c>
       <c r="H74" s="24" t="s">
@@ -13209,15 +13422,15 @@
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A75" s="70"/>
-      <c r="B75" s="79"/>
-      <c r="C75" s="79"/>
+      <c r="A75" s="69"/>
+      <c r="B75" s="91"/>
+      <c r="C75" s="91"/>
       <c r="D75" s="23">
         <v>2</v>
       </c>
-      <c r="E75" s="69"/>
-      <c r="F75" s="70"/>
-      <c r="G75" s="70"/>
+      <c r="E75" s="68"/>
+      <c r="F75" s="69"/>
+      <c r="G75" s="69"/>
       <c r="H75" s="24" t="s">
         <v>390</v>
       </c>
@@ -13244,15 +13457,15 @@
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A76" s="70"/>
-      <c r="B76" s="79"/>
-      <c r="C76" s="79"/>
+      <c r="A76" s="69"/>
+      <c r="B76" s="91"/>
+      <c r="C76" s="91"/>
       <c r="D76" s="23">
         <v>3</v>
       </c>
-      <c r="E76" s="69"/>
-      <c r="F76" s="70"/>
-      <c r="G76" s="70"/>
+      <c r="E76" s="68"/>
+      <c r="F76" s="69"/>
+      <c r="G76" s="69"/>
       <c r="H76" s="24" t="s">
         <v>391</v>
       </c>
@@ -13279,15 +13492,15 @@
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A77" s="70"/>
-      <c r="B77" s="79"/>
-      <c r="C77" s="79"/>
+      <c r="A77" s="69"/>
+      <c r="B77" s="91"/>
+      <c r="C77" s="91"/>
       <c r="D77" s="23">
         <v>4</v>
       </c>
-      <c r="E77" s="69"/>
-      <c r="F77" s="70"/>
-      <c r="G77" s="70"/>
+      <c r="E77" s="68"/>
+      <c r="F77" s="69"/>
+      <c r="G77" s="69"/>
       <c r="H77" s="24" t="s">
         <v>392</v>
       </c>
@@ -13314,15 +13527,15 @@
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A78" s="70"/>
-      <c r="B78" s="79"/>
-      <c r="C78" s="79"/>
+      <c r="A78" s="69"/>
+      <c r="B78" s="91"/>
+      <c r="C78" s="91"/>
       <c r="D78" s="23">
         <v>5</v>
       </c>
-      <c r="E78" s="69"/>
-      <c r="F78" s="70"/>
-      <c r="G78" s="70"/>
+      <c r="E78" s="68"/>
+      <c r="F78" s="69"/>
+      <c r="G78" s="69"/>
       <c r="H78" s="24" t="s">
         <v>393</v>
       </c>
@@ -13440,6 +13653,61 @@
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="G42:G46"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="F30:F34"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="E36:E40"/>
+    <mergeCell ref="F36:F40"/>
+    <mergeCell ref="E49:E53"/>
+    <mergeCell ref="F49:F53"/>
+    <mergeCell ref="A42:A59"/>
+    <mergeCell ref="B42:B54"/>
+    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="E42:E46"/>
+    <mergeCell ref="F42:F46"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="E55:E59"/>
+    <mergeCell ref="F55:F59"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="H41:O41"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="G17:G21"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="F17:F21"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="F74:F78"/>
+    <mergeCell ref="G49:G53"/>
+    <mergeCell ref="Q3:V3"/>
+    <mergeCell ref="A4:A21"/>
+    <mergeCell ref="B4:B16"/>
+    <mergeCell ref="A23:A40"/>
+    <mergeCell ref="B23:B35"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="G30:G34"/>
+    <mergeCell ref="G36:G40"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="F23:F27"/>
+    <mergeCell ref="J9:Q9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:C15"/>
     <mergeCell ref="G55:G59"/>
     <mergeCell ref="G68:G72"/>
     <mergeCell ref="G74:G78"/>
@@ -13456,61 +13724,6 @@
     <mergeCell ref="B74:B78"/>
     <mergeCell ref="C74:C78"/>
     <mergeCell ref="E74:E78"/>
-    <mergeCell ref="F74:F78"/>
-    <mergeCell ref="G49:G53"/>
-    <mergeCell ref="Q3:V3"/>
-    <mergeCell ref="A4:A21"/>
-    <mergeCell ref="B4:B16"/>
-    <mergeCell ref="A23:A40"/>
-    <mergeCell ref="B23:B35"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="G30:G34"/>
-    <mergeCell ref="G36:G40"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="F23:F27"/>
-    <mergeCell ref="J9:Q9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="H3:O3"/>
-    <mergeCell ref="E11:E15"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="G17:G21"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="F17:F21"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="E30:E34"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="H41:O41"/>
-    <mergeCell ref="A42:A59"/>
-    <mergeCell ref="B42:B54"/>
-    <mergeCell ref="C42:C46"/>
-    <mergeCell ref="E42:E46"/>
-    <mergeCell ref="F42:F46"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="C55:C59"/>
-    <mergeCell ref="E55:E59"/>
-    <mergeCell ref="F55:F59"/>
-    <mergeCell ref="G42:G46"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="C36:C40"/>
-    <mergeCell ref="E36:E40"/>
-    <mergeCell ref="F36:F40"/>
-    <mergeCell ref="E49:E53"/>
-    <mergeCell ref="F49:F53"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13534,64 +13747,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="103" t="s">
+      <c r="E2" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="104"/>
-      <c r="C3" s="104"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="108" t="s">
+      <c r="E3" s="115" t="s">
         <v>436</v>
       </c>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108" t="s">
+      <c r="F3" s="115"/>
+      <c r="G3" s="115" t="s">
         <v>437</v>
       </c>
-      <c r="H3" s="108"/>
+      <c r="H3" s="115"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="107" t="s">
+      <c r="C4" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="79"/>
-      <c r="E4" s="107" t="s">
+      <c r="D4" s="91"/>
+      <c r="E4" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="79"/>
-      <c r="G4" s="107" t="s">
+      <c r="F4" s="91"/>
+      <c r="G4" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="79"/>
+      <c r="H4" s="91"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
@@ -13616,7 +13829,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="91" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="1">
@@ -13642,7 +13855,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="79"/>
+      <c r="A7" s="91"/>
       <c r="B7" s="1">
         <v>2</v>
       </c>
@@ -13666,7 +13879,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="79"/>
+      <c r="A8" s="91"/>
       <c r="B8" s="1">
         <v>3</v>
       </c>
@@ -13690,7 +13903,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="79"/>
+      <c r="A9" s="91"/>
       <c r="B9" s="7">
         <v>4</v>
       </c>
@@ -13714,7 +13927,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="79"/>
+      <c r="A10" s="91"/>
       <c r="B10" s="7">
         <v>5</v>
       </c>
@@ -13738,7 +13951,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="91" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="1">
@@ -13764,7 +13977,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="79"/>
+      <c r="A12" s="91"/>
       <c r="B12" s="1">
         <v>2</v>
       </c>
@@ -13788,7 +14001,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="79"/>
+      <c r="A13" s="91"/>
       <c r="B13" s="1">
         <v>3</v>
       </c>
@@ -13812,7 +14025,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="79"/>
+      <c r="A14" s="91"/>
       <c r="B14" s="7">
         <v>4</v>
       </c>
@@ -13836,7 +14049,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="79"/>
+      <c r="A15" s="91"/>
       <c r="B15" s="7">
         <v>5</v>
       </c>

--- a/数据记录/记录表单.xlsx
+++ b/数据记录/记录表单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="4530" tabRatio="552" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="4530" tabRatio="552"/>
   </bookViews>
   <sheets>
     <sheet name="正式记录" sheetId="9" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="466">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4151,6 +4151,10 @@
   </si>
   <si>
     <t>未知</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳可见 无照射 今日较暖和</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4391,7 +4395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4546,6 +4550,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4561,16 +4581,25 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4609,15 +4638,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4631,6 +4651,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4649,6 +4675,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4719,25 +4748,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5021,8 +5031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:M28"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5034,94 +5044,102 @@
       <c r="A4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="119">
+      <c r="B4" s="59">
         <v>42309</v>
       </c>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="59">
+        <v>42310</v>
+      </c>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="49" t="s">
         <v>447</v>
       </c>
-      <c r="B5" s="58">
+      <c r="B5" s="64">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="62"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="64">
+        <v>0.68819444444444444</v>
+      </c>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="68"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="49" t="s">
         <v>448</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="66" t="s">
         <v>462</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="62"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="68"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="49" t="s">
         <v>449</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="62"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="66">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="68"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="49" t="s">
         <v>438</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="64" t="s">
         <v>463</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64" t="s">
+        <v>465</v>
+      </c>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="49" t="s">
@@ -5180,9 +5198,15 @@
       <c r="E10" s="50" t="s">
         <v>440</v>
       </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
+      <c r="F10" s="49">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="G10" s="49">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="H10" s="49">
+        <v>45.9</v>
+      </c>
       <c r="I10" s="50" t="s">
         <v>440</v>
       </c>
@@ -5209,10 +5233,18 @@
       <c r="E11" s="49">
         <v>17.7</v>
       </c>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
+      <c r="F11" s="49">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="G11" s="49">
+        <v>9.4E-2</v>
+      </c>
+      <c r="H11" s="49">
+        <v>45.1</v>
+      </c>
+      <c r="I11" s="49">
+        <v>19.8</v>
+      </c>
       <c r="J11" s="49"/>
       <c r="K11" s="49"/>
       <c r="L11" s="49"/>
@@ -5234,10 +5266,18 @@
       <c r="E12" s="49">
         <v>51.3</v>
       </c>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
+      <c r="F12" s="49">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="G12" s="49">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="H12" s="49">
+        <v>44.8</v>
+      </c>
+      <c r="I12" s="49">
+        <v>43.9</v>
+      </c>
       <c r="J12" s="49"/>
       <c r="K12" s="49"/>
       <c r="L12" s="49"/>
@@ -5257,9 +5297,15 @@
         <v>25</v>
       </c>
       <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
+      <c r="F13" s="49">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="G13" s="49">
+        <v>0.111</v>
+      </c>
+      <c r="H13" s="49">
+        <v>44.8</v>
+      </c>
       <c r="I13" s="49"/>
       <c r="J13" s="49"/>
       <c r="K13" s="49"/>
@@ -5280,9 +5326,15 @@
         <v>24.7</v>
       </c>
       <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
+      <c r="F14" s="49">
+        <v>10.02</v>
+      </c>
+      <c r="G14" s="49">
+        <v>0.125</v>
+      </c>
+      <c r="H14" s="49">
+        <v>44.5</v>
+      </c>
       <c r="I14" s="49"/>
       <c r="J14" s="49"/>
       <c r="K14" s="49"/>
@@ -5305,9 +5357,15 @@
       <c r="E15" s="50" t="s">
         <v>441</v>
       </c>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
+      <c r="F15" s="49">
+        <v>9.99</v>
+      </c>
+      <c r="G15" s="49">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="H15" s="49">
+        <v>44.8</v>
+      </c>
       <c r="I15" s="50" t="s">
         <v>441</v>
       </c>
@@ -5334,10 +5392,18 @@
       <c r="E16" s="49">
         <v>17.7</v>
       </c>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
+      <c r="F16" s="49">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="G16" s="49">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="H16" s="49">
+        <v>43.8</v>
+      </c>
+      <c r="I16" s="49">
+        <v>19.8</v>
+      </c>
       <c r="J16" s="49"/>
       <c r="K16" s="49"/>
       <c r="L16" s="49"/>
@@ -5359,10 +5425,18 @@
       <c r="E17" s="49">
         <v>51.6</v>
       </c>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
+      <c r="F17" s="49">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="G17" s="49">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="H17" s="49">
+        <v>46.4</v>
+      </c>
+      <c r="I17" s="49">
+        <v>44.2</v>
+      </c>
       <c r="J17" s="49"/>
       <c r="K17" s="49"/>
       <c r="L17" s="49"/>
@@ -5382,9 +5456,15 @@
         <v>21.1</v>
       </c>
       <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
+      <c r="F18" s="49">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="G18" s="49">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="H18" s="49">
+        <v>51.9</v>
+      </c>
       <c r="I18" s="49"/>
       <c r="J18" s="49"/>
       <c r="K18" s="49"/>
@@ -5405,9 +5485,15 @@
         <v>21.4</v>
       </c>
       <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
+      <c r="F19" s="49">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="G19" s="49">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="H19" s="49">
+        <v>56.9</v>
+      </c>
       <c r="I19" s="49"/>
       <c r="J19" s="49"/>
       <c r="K19" s="49"/>
@@ -5430,9 +5516,15 @@
       <c r="E20" s="50" t="s">
         <v>442</v>
       </c>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
+      <c r="F20" s="49">
+        <v>7.04</v>
+      </c>
+      <c r="G20" s="49">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="H20" s="49">
+        <v>65.7</v>
+      </c>
       <c r="I20" s="50" t="s">
         <v>442</v>
       </c>
@@ -5459,10 +5551,18 @@
       <c r="E21" s="49">
         <v>17.7</v>
       </c>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
+      <c r="F21" s="51">
+        <v>3.1349999999999998</v>
+      </c>
+      <c r="G21" s="51">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="H21" s="49">
+        <v>73.3</v>
+      </c>
+      <c r="I21" s="49">
+        <v>19.899999999999999</v>
+      </c>
       <c r="J21" s="49"/>
       <c r="K21" s="49"/>
       <c r="L21" s="49"/>
@@ -5484,10 +5584,18 @@
       <c r="E22" s="49">
         <v>51.6</v>
       </c>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
+      <c r="F22" s="49">
+        <v>2.6850000000000001</v>
+      </c>
+      <c r="G22" s="49">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="H22" s="49">
+        <v>88.5</v>
+      </c>
+      <c r="I22" s="49">
+        <v>44.6</v>
+      </c>
       <c r="J22" s="49"/>
       <c r="K22" s="49"/>
       <c r="L22" s="49"/>
@@ -5507,9 +5615,15 @@
         <v>20.3</v>
       </c>
       <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
+      <c r="F23" s="49">
+        <v>2.1989999999999998</v>
+      </c>
+      <c r="G23" s="49">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="H23" s="49">
+        <v>93.2</v>
+      </c>
       <c r="I23" s="49"/>
       <c r="J23" s="49"/>
       <c r="K23" s="49"/>
@@ -5530,9 +5644,15 @@
         <v>21.9</v>
       </c>
       <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
+      <c r="F24" s="49">
+        <v>1.73</v>
+      </c>
+      <c r="G24" s="49">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="H24" s="49">
+        <v>96</v>
+      </c>
       <c r="I24" s="49"/>
       <c r="J24" s="49"/>
       <c r="K24" s="49"/>
@@ -5555,9 +5675,15 @@
       <c r="E25" s="50" t="s">
         <v>443</v>
       </c>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
+      <c r="F25" s="49">
+        <v>1.331</v>
+      </c>
+      <c r="G25" s="49">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="H25" s="49">
+        <v>84.8</v>
+      </c>
       <c r="I25" s="50" t="s">
         <v>443</v>
       </c>
@@ -5584,10 +5710,18 @@
       <c r="E26" s="49">
         <v>17.600000000000001</v>
       </c>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
+      <c r="F26" s="49">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="G26" s="49">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="H26" s="49">
+        <v>74</v>
+      </c>
+      <c r="I26" s="49">
+        <v>20</v>
+      </c>
       <c r="J26" s="51"/>
       <c r="K26" s="51"/>
       <c r="L26" s="49"/>
@@ -5609,10 +5743,18 @@
       <c r="E27" s="49">
         <v>51.6</v>
       </c>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
+      <c r="F27" s="49">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="G27" s="49">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="H27" s="49">
+        <v>75.2</v>
+      </c>
+      <c r="I27" s="49">
+        <v>45</v>
+      </c>
       <c r="J27" s="49"/>
       <c r="K27" s="49"/>
       <c r="L27" s="49"/>
@@ -5632,9 +5774,15 @@
         <v>19.399999999999999</v>
       </c>
       <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
+      <c r="F28" s="49">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="G28" s="49">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="H28" s="49">
+        <v>56.5</v>
+      </c>
       <c r="I28" s="49"/>
       <c r="J28" s="49"/>
       <c r="K28" s="49"/>
@@ -5642,7 +5790,9 @@
       <c r="M28" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="F8:I8"/>
     <mergeCell ref="J8:M8"/>
@@ -5655,7 +5805,6 @@
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="F5:I5"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5691,93 +5840,93 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="120">
+      <c r="B3" s="73">
         <v>42299</v>
       </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="120"/>
-      <c r="P3" s="120"/>
-      <c r="Q3" s="120"/>
-      <c r="R3" s="120"/>
-      <c r="S3" s="120"/>
-      <c r="T3" s="120"/>
-      <c r="U3" s="120"/>
-      <c r="V3" s="120"/>
-      <c r="W3" s="120"/>
-      <c r="X3" s="120"/>
-      <c r="Y3" s="120"/>
-      <c r="Z3" s="120">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="73">
         <v>42300</v>
       </c>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="64"/>
-      <c r="AD3" s="64"/>
-      <c r="AE3" s="64"/>
-      <c r="AF3" s="64"/>
-      <c r="AG3" s="64"/>
+      <c r="AA3" s="72"/>
+      <c r="AB3" s="72"/>
+      <c r="AC3" s="72"/>
+      <c r="AD3" s="72"/>
+      <c r="AE3" s="72"/>
+      <c r="AF3" s="72"/>
+      <c r="AG3" s="72"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A4" s="39" t="s">
         <v>454</v>
       </c>
-      <c r="B4" s="63">
+      <c r="B4" s="71">
         <v>0.37013888888888885</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="63">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="71">
         <v>0.4375</v>
       </c>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63">
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71">
         <v>0.52361111111111114</v>
       </c>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63">
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="71">
         <v>0.60625000000000007</v>
       </c>
-      <c r="S4" s="63"/>
-      <c r="T4" s="63"/>
-      <c r="U4" s="63"/>
-      <c r="V4" s="63">
+      <c r="S4" s="71"/>
+      <c r="T4" s="71"/>
+      <c r="U4" s="71"/>
+      <c r="V4" s="71">
         <v>0.67569444444444438</v>
       </c>
-      <c r="W4" s="63"/>
-      <c r="X4" s="63"/>
-      <c r="Y4" s="63"/>
-      <c r="Z4" s="63">
+      <c r="W4" s="71"/>
+      <c r="X4" s="71"/>
+      <c r="Y4" s="71"/>
+      <c r="Z4" s="71">
         <v>0.41180555555555554</v>
       </c>
-      <c r="AA4" s="64"/>
-      <c r="AB4" s="64"/>
-      <c r="AC4" s="64"/>
-      <c r="AD4" s="63">
+      <c r="AA4" s="72"/>
+      <c r="AB4" s="72"/>
+      <c r="AC4" s="72"/>
+      <c r="AD4" s="71">
         <v>0.62986111111111109</v>
       </c>
-      <c r="AE4" s="63"/>
-      <c r="AF4" s="63"/>
-      <c r="AG4" s="63"/>
+      <c r="AE4" s="71"/>
+      <c r="AF4" s="71"/>
+      <c r="AG4" s="71"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A5" s="39" t="s">
@@ -5807,12 +5956,12 @@
       <c r="W5" s="52"/>
       <c r="X5" s="52"/>
       <c r="Y5" s="52"/>
-      <c r="Z5" s="121" t="s">
+      <c r="Z5" s="74" t="s">
         <v>464</v>
       </c>
-      <c r="AA5" s="122"/>
-      <c r="AB5" s="122"/>
-      <c r="AC5" s="122"/>
+      <c r="AA5" s="75"/>
+      <c r="AB5" s="75"/>
+      <c r="AC5" s="75"/>
       <c r="AD5" s="52"/>
       <c r="AE5" s="52"/>
       <c r="AF5" s="52"/>
@@ -5826,46 +5975,46 @@
       <c r="C6" s="52"/>
       <c r="D6" s="52"/>
       <c r="E6" s="52"/>
-      <c r="F6" s="63">
+      <c r="F6" s="71">
         <v>0.38055555555555554</v>
       </c>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="63">
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="71">
         <v>0.44305555555555554</v>
       </c>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63">
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71">
         <v>0.52847222222222223</v>
       </c>
-      <c r="O6" s="63"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="63">
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71">
         <v>0.61249999999999993</v>
       </c>
-      <c r="S6" s="63"/>
-      <c r="T6" s="63"/>
-      <c r="U6" s="63"/>
-      <c r="V6" s="63">
+      <c r="S6" s="71"/>
+      <c r="T6" s="71"/>
+      <c r="U6" s="71"/>
+      <c r="V6" s="71">
         <v>0.68194444444444446</v>
       </c>
-      <c r="W6" s="63"/>
-      <c r="X6" s="63"/>
-      <c r="Y6" s="63"/>
-      <c r="Z6" s="122"/>
-      <c r="AA6" s="122"/>
-      <c r="AB6" s="122"/>
-      <c r="AC6" s="122"/>
-      <c r="AD6" s="63">
+      <c r="W6" s="71"/>
+      <c r="X6" s="71"/>
+      <c r="Y6" s="71"/>
+      <c r="Z6" s="75"/>
+      <c r="AA6" s="75"/>
+      <c r="AB6" s="75"/>
+      <c r="AC6" s="75"/>
+      <c r="AD6" s="71">
         <v>0.64236111111111105</v>
       </c>
-      <c r="AE6" s="63"/>
-      <c r="AF6" s="63"/>
-      <c r="AG6" s="63"/>
+      <c r="AE6" s="71"/>
+      <c r="AF6" s="71"/>
+      <c r="AG6" s="71"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
@@ -6089,7 +6238,7 @@
       <c r="C10">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="D10" s="65" t="s">
+      <c r="D10" s="69" t="s">
         <v>450</v>
       </c>
       <c r="F10">
@@ -6181,7 +6330,7 @@
       <c r="C11">
         <v>0.107</v>
       </c>
-      <c r="D11" s="66"/>
+      <c r="D11" s="70"/>
       <c r="F11">
         <v>10.47</v>
       </c>
@@ -6271,7 +6420,7 @@
       <c r="C12">
         <v>0.11799999999999999</v>
       </c>
-      <c r="D12" s="66"/>
+      <c r="D12" s="70"/>
       <c r="F12">
         <v>10.47</v>
       </c>
@@ -6343,7 +6492,7 @@
       <c r="C13">
         <v>0.13500000000000001</v>
       </c>
-      <c r="D13" s="66"/>
+      <c r="D13" s="70"/>
       <c r="F13">
         <v>10.46</v>
       </c>
@@ -6415,7 +6564,7 @@
       <c r="C14">
         <v>0.154</v>
       </c>
-      <c r="D14" s="66"/>
+      <c r="D14" s="70"/>
       <c r="E14" s="39" t="s">
         <v>441</v>
       </c>
@@ -6511,7 +6660,7 @@
       <c r="C15">
         <v>0.184</v>
       </c>
-      <c r="D15" s="66"/>
+      <c r="D15" s="70"/>
       <c r="F15">
         <v>10.43</v>
       </c>
@@ -6594,7 +6743,7 @@
       <c r="C16">
         <v>0.218</v>
       </c>
-      <c r="D16" s="66"/>
+      <c r="D16" s="70"/>
       <c r="F16">
         <v>10.42</v>
       </c>
@@ -6677,7 +6826,7 @@
       <c r="C17">
         <v>0.27500000000000002</v>
       </c>
-      <c r="D17" s="66"/>
+      <c r="D17" s="70"/>
       <c r="F17">
         <v>10.42</v>
       </c>
@@ -6752,7 +6901,7 @@
       <c r="C18">
         <v>0.42099999999999999</v>
       </c>
-      <c r="D18" s="66"/>
+      <c r="D18" s="70"/>
       <c r="F18">
         <v>10.4</v>
       </c>
@@ -6827,7 +6976,7 @@
       <c r="C19">
         <v>0.61699999999999999</v>
       </c>
-      <c r="D19" s="66"/>
+      <c r="D19" s="70"/>
       <c r="E19" s="39" t="s">
         <v>442</v>
       </c>
@@ -6926,7 +7075,7 @@
       <c r="C20">
         <v>1.425</v>
       </c>
-      <c r="D20" s="66"/>
+      <c r="D20" s="70"/>
       <c r="F20">
         <v>10.3</v>
       </c>
@@ -7016,7 +7165,7 @@
       <c r="C21">
         <v>1.649</v>
       </c>
-      <c r="D21" s="66"/>
+      <c r="D21" s="70"/>
       <c r="F21">
         <v>10.02</v>
       </c>
@@ -7106,7 +7255,7 @@
       <c r="C22">
         <v>2</v>
       </c>
-      <c r="D22" s="66"/>
+      <c r="D22" s="70"/>
       <c r="F22">
         <v>9.94</v>
       </c>
@@ -7181,7 +7330,7 @@
       <c r="C23">
         <v>2.4950000000000001</v>
       </c>
-      <c r="D23" s="66"/>
+      <c r="D23" s="70"/>
       <c r="F23">
         <v>9.82</v>
       </c>
@@ -7256,7 +7405,7 @@
       <c r="C24">
         <v>3.0350000000000001</v>
       </c>
-      <c r="D24" s="66"/>
+      <c r="D24" s="70"/>
       <c r="E24" s="39" t="s">
         <v>443</v>
       </c>
@@ -7355,7 +7504,7 @@
       <c r="C25">
         <v>3.2789999999999999</v>
       </c>
-      <c r="D25" s="66"/>
+      <c r="D25" s="70"/>
       <c r="F25">
         <v>8.9700000000000006</v>
       </c>
@@ -7448,7 +7597,7 @@
       <c r="C26">
         <v>3.3</v>
       </c>
-      <c r="D26" s="66"/>
+      <c r="D26" s="70"/>
       <c r="F26">
         <v>5.95</v>
       </c>
@@ -7541,7 +7690,7 @@
       <c r="C27">
         <v>3.3</v>
       </c>
-      <c r="D27" s="66"/>
+      <c r="D27" s="70"/>
       <c r="F27">
         <v>3.105</v>
       </c>
@@ -7620,12 +7769,12 @@
     <mergeCell ref="Z4:AC4"/>
     <mergeCell ref="AD4:AG4"/>
     <mergeCell ref="J4:M4"/>
+    <mergeCell ref="V4:Y4"/>
     <mergeCell ref="D10:D27"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="N4:Q4"/>
     <mergeCell ref="R4:U4"/>
-    <mergeCell ref="V4:Y4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7650,23 +7799,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="67"/>
+      <c r="E1" s="76"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
@@ -7683,7 +7832,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="77" t="s">
         <v>60</v>
       </c>
       <c r="C5" s="14" t="s">
@@ -7692,69 +7841,69 @@
       <c r="D5" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="70" t="s">
+      <c r="E5" s="79" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B6" s="68"/>
+      <c r="B6" s="77"/>
       <c r="C6" s="14" t="s">
         <v>62</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="77"/>
+      <c r="E6" s="86"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B7" s="68"/>
+      <c r="B7" s="77"/>
       <c r="C7" s="14" t="s">
         <v>63</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="77"/>
+      <c r="E7" s="86"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B8" s="68"/>
+      <c r="B8" s="77"/>
       <c r="C8" s="14" t="s">
         <v>64</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="77"/>
+      <c r="E8" s="86"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B9" s="68"/>
+      <c r="B9" s="77"/>
       <c r="C9" s="14" t="s">
         <v>65</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="77"/>
+      <c r="E9" s="86"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B10" s="68"/>
+      <c r="B10" s="77"/>
       <c r="C10" s="14" t="s">
         <v>66</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="77"/>
+      <c r="E10" s="86"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B11" s="68"/>
+      <c r="B11" s="77"/>
       <c r="C11" s="14" t="s">
         <v>67</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="77"/>
+      <c r="E11" s="86"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" s="15"/>
@@ -7767,7 +7916,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="83" t="s">
         <v>101</v>
       </c>
       <c r="C13" s="14" t="s">
@@ -7776,99 +7925,99 @@
       <c r="D13" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E13" s="71" t="s">
+      <c r="E13" s="80" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B14" s="75"/>
+      <c r="B14" s="84"/>
       <c r="C14" s="14" t="s">
         <v>105</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="E14" s="72"/>
+      <c r="E14" s="81"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B15" s="75"/>
+      <c r="B15" s="84"/>
       <c r="C15" s="14" t="s">
         <v>106</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="E15" s="72"/>
+      <c r="E15" s="81"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B16" s="75"/>
+      <c r="B16" s="84"/>
       <c r="C16" s="14" t="s">
         <v>107</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E16" s="72"/>
+      <c r="E16" s="81"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B17" s="75"/>
+      <c r="B17" s="84"/>
       <c r="C17" s="14" t="s">
         <v>108</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E17" s="72"/>
+      <c r="E17" s="81"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B18" s="75"/>
+      <c r="B18" s="84"/>
       <c r="C18" s="14" t="s">
         <v>109</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E18" s="72"/>
+      <c r="E18" s="81"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B19" s="75"/>
+      <c r="B19" s="84"/>
       <c r="C19" s="14" t="s">
         <v>110</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E19" s="72"/>
+      <c r="E19" s="81"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B20" s="75"/>
+      <c r="B20" s="84"/>
       <c r="C20" s="14" t="s">
         <v>111</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E20" s="72"/>
+      <c r="E20" s="81"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B21" s="75"/>
+      <c r="B21" s="84"/>
       <c r="C21" s="14" t="s">
         <v>112</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E21" s="72"/>
+      <c r="E21" s="81"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B22" s="76"/>
+      <c r="B22" s="85"/>
       <c r="C22" s="14" t="s">
         <v>113</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E22" s="73"/>
+      <c r="E22" s="82"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B23" s="26"/>
@@ -7881,7 +8030,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="69" t="s">
+      <c r="B24" s="78" t="s">
         <v>424</v>
       </c>
       <c r="C24" s="24" t="s">
@@ -7890,59 +8039,59 @@
       <c r="D24" s="24" t="s">
         <v>428</v>
       </c>
-      <c r="E24" s="70" t="s">
+      <c r="E24" s="79" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B25" s="69"/>
+      <c r="B25" s="78"/>
       <c r="C25" s="24" t="s">
         <v>427</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>426</v>
       </c>
-      <c r="E25" s="70"/>
+      <c r="E25" s="79"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B26" s="69"/>
+      <c r="B26" s="78"/>
       <c r="C26" s="24" t="s">
         <v>429</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="E26" s="70"/>
+      <c r="E26" s="79"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B27" s="69"/>
+      <c r="B27" s="78"/>
       <c r="C27" s="24" t="s">
         <v>430</v>
       </c>
       <c r="D27" s="24" t="s">
         <v>431</v>
       </c>
-      <c r="E27" s="70"/>
+      <c r="E27" s="79"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B28" s="69"/>
+      <c r="B28" s="78"/>
       <c r="C28" s="24" t="s">
         <v>432</v>
       </c>
       <c r="D28" s="24" t="s">
         <v>433</v>
       </c>
-      <c r="E28" s="70"/>
+      <c r="E28" s="79"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B29" s="69"/>
+      <c r="B29" s="78"/>
       <c r="C29" s="24" t="s">
         <v>434</v>
       </c>
       <c r="D29" s="24" t="s">
         <v>435</v>
       </c>
-      <c r="E29" s="70"/>
+      <c r="E29" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -7966,7 +8115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6:K6"/>
     </sheetView>
   </sheetViews>
@@ -7976,138 +8125,138 @@
       <c r="A1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="80" t="s">
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="93" t="s">
         <v>458</v>
       </c>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="89" t="s">
         <v>461</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="91" t="s">
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="91"/>
-      <c r="J2" s="83" t="s">
+      <c r="I2" s="99"/>
+      <c r="J2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="91" t="s">
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="91"/>
+      <c r="O2" s="99"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="97" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="89" t="s">
+      <c r="C3" s="98"/>
+      <c r="D3" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="90"/>
-      <c r="F3" s="89" t="s">
+      <c r="E3" s="98"/>
+      <c r="F3" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="90"/>
-      <c r="H3" s="89" t="s">
+      <c r="G3" s="98"/>
+      <c r="H3" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="90"/>
-      <c r="J3" s="83" t="s">
+      <c r="I3" s="98"/>
+      <c r="J3" s="89" t="s">
         <v>98</v>
       </c>
-      <c r="K3" s="84"/>
-      <c r="L3" s="83" t="s">
+      <c r="K3" s="90"/>
+      <c r="L3" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="84"/>
-      <c r="N3" s="89" t="s">
+      <c r="M3" s="90"/>
+      <c r="N3" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="92"/>
+      <c r="O3" s="100"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="78" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="82"/>
-      <c r="F4" s="78" t="s">
+      <c r="E4" s="88"/>
+      <c r="F4" s="87" t="s">
         <v>130</v>
       </c>
-      <c r="G4" s="82"/>
-      <c r="H4" s="78" t="s">
+      <c r="G4" s="88"/>
+      <c r="H4" s="87" t="s">
         <v>131</v>
       </c>
-      <c r="I4" s="82"/>
-      <c r="J4" s="85" t="s">
+      <c r="I4" s="88"/>
+      <c r="J4" s="91" t="s">
         <v>457</v>
       </c>
-      <c r="K4" s="86"/>
-      <c r="L4" s="85" t="s">
+      <c r="K4" s="92"/>
+      <c r="L4" s="91" t="s">
         <v>457</v>
       </c>
-      <c r="M4" s="86"/>
-      <c r="N4" s="78" t="s">
+      <c r="M4" s="92"/>
+      <c r="N4" s="87" t="s">
         <v>457</v>
       </c>
-      <c r="O4" s="79"/>
+      <c r="O4" s="101"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="82"/>
-      <c r="D5" s="78" t="s">
+      <c r="C5" s="88"/>
+      <c r="D5" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="E5" s="82"/>
-      <c r="F5" s="78" t="s">
+      <c r="E5" s="88"/>
+      <c r="F5" s="87" t="s">
         <v>128</v>
       </c>
-      <c r="G5" s="82"/>
-      <c r="H5" s="78" t="s">
+      <c r="G5" s="88"/>
+      <c r="H5" s="87" t="s">
         <v>129</v>
       </c>
-      <c r="I5" s="82"/>
+      <c r="I5" s="88"/>
       <c r="J5" s="54"/>
       <c r="K5" s="54"/>
       <c r="L5" s="54"/>
@@ -8122,57 +8271,57 @@
       <c r="D6" s="54"/>
       <c r="F6" s="54"/>
       <c r="H6" s="54"/>
-      <c r="J6" s="85" t="s">
+      <c r="J6" s="91" t="s">
         <v>460</v>
       </c>
-      <c r="K6" s="86"/>
-      <c r="L6" s="85" t="s">
+      <c r="K6" s="92"/>
+      <c r="L6" s="91" t="s">
         <v>460</v>
       </c>
-      <c r="M6" s="86"/>
-      <c r="N6" s="80" t="s">
+      <c r="M6" s="92"/>
+      <c r="N6" s="93" t="s">
         <v>460</v>
       </c>
-      <c r="O6" s="81"/>
+      <c r="O6" s="94"/>
     </row>
     <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="102" t="s">
         <v>80</v>
       </c>
       <c r="C7" s="40">
         <v>78.2</v>
       </c>
-      <c r="D7" s="93" t="s">
+      <c r="D7" s="102" t="s">
         <v>80</v>
       </c>
       <c r="E7" s="41">
         <v>53.3</v>
       </c>
-      <c r="F7" s="70" t="s">
+      <c r="F7" s="79" t="s">
         <v>445</v>
       </c>
       <c r="G7" s="41">
         <v>1.4</v>
       </c>
-      <c r="H7" s="77" t="s">
+      <c r="H7" s="86" t="s">
         <v>99</v>
       </c>
       <c r="I7" s="41">
         <v>365.4</v>
       </c>
-      <c r="J7" s="77" t="s">
+      <c r="J7" s="86" t="s">
         <v>99</v>
       </c>
       <c r="K7" s="40">
         <v>76.8</v>
       </c>
-      <c r="L7" s="77" t="s">
+      <c r="L7" s="86" t="s">
         <v>99</v>
       </c>
       <c r="M7" s="41">
         <v>59.3</v>
       </c>
-      <c r="N7" s="77" t="s">
+      <c r="N7" s="86" t="s">
         <v>99</v>
       </c>
       <c r="O7" s="41">
@@ -8180,1207 +8329,1207 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B8" s="93"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="40">
         <v>78.400000000000006</v>
       </c>
-      <c r="D8" s="93"/>
+      <c r="D8" s="102"/>
       <c r="E8" s="41">
         <v>53.4</v>
       </c>
-      <c r="F8" s="70"/>
+      <c r="F8" s="79"/>
       <c r="G8" s="41">
         <v>0</v>
       </c>
-      <c r="H8" s="77"/>
+      <c r="H8" s="86"/>
       <c r="I8" s="41">
         <v>366.9</v>
       </c>
-      <c r="J8" s="77"/>
+      <c r="J8" s="86"/>
       <c r="K8" s="40">
         <v>76.8</v>
       </c>
-      <c r="L8" s="77"/>
+      <c r="L8" s="86"/>
       <c r="M8" s="41">
         <v>59.4</v>
       </c>
-      <c r="N8" s="77"/>
+      <c r="N8" s="86"/>
       <c r="O8" s="41">
         <v>425.4</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B9" s="93"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="40">
         <v>78.400000000000006</v>
       </c>
-      <c r="D9" s="93"/>
+      <c r="D9" s="102"/>
       <c r="E9" s="41">
         <v>53.9</v>
       </c>
-      <c r="F9" s="70"/>
+      <c r="F9" s="79"/>
       <c r="G9" s="41">
         <v>0.9</v>
       </c>
-      <c r="H9" s="77"/>
+      <c r="H9" s="86"/>
       <c r="I9" s="41">
         <v>365.9</v>
       </c>
-      <c r="J9" s="77"/>
+      <c r="J9" s="86"/>
       <c r="K9" s="40">
         <v>77</v>
       </c>
-      <c r="L9" s="77"/>
+      <c r="L9" s="86"/>
       <c r="M9" s="41">
         <v>59.3</v>
       </c>
-      <c r="N9" s="77"/>
+      <c r="N9" s="86"/>
       <c r="O9" s="41">
         <v>430.2</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B10" s="93"/>
+      <c r="B10" s="102"/>
       <c r="C10" s="40">
         <v>78.400000000000006</v>
       </c>
-      <c r="D10" s="93"/>
+      <c r="D10" s="102"/>
       <c r="E10" s="41">
         <v>54</v>
       </c>
-      <c r="F10" s="70"/>
+      <c r="F10" s="79"/>
       <c r="G10" s="41">
         <v>2</v>
       </c>
-      <c r="H10" s="77"/>
+      <c r="H10" s="86"/>
       <c r="I10" s="41">
         <v>364.2</v>
       </c>
-      <c r="J10" s="77"/>
+      <c r="J10" s="86"/>
       <c r="K10" s="40">
         <v>77</v>
       </c>
-      <c r="L10" s="77"/>
+      <c r="L10" s="86"/>
       <c r="M10" s="41">
         <v>59.2</v>
       </c>
-      <c r="N10" s="77"/>
+      <c r="N10" s="86"/>
       <c r="O10" s="41">
         <v>432.5</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B11" s="93"/>
+      <c r="B11" s="102"/>
       <c r="C11" s="40">
         <v>78.400000000000006</v>
       </c>
-      <c r="D11" s="93"/>
+      <c r="D11" s="102"/>
       <c r="E11" s="41">
         <v>53.9</v>
       </c>
-      <c r="F11" s="70"/>
+      <c r="F11" s="79"/>
       <c r="G11" s="41">
         <v>1.7</v>
       </c>
-      <c r="H11" s="77"/>
+      <c r="H11" s="86"/>
       <c r="I11" s="41">
         <v>364.5</v>
       </c>
-      <c r="J11" s="77"/>
+      <c r="J11" s="86"/>
       <c r="K11" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L11" s="77"/>
+      <c r="L11" s="86"/>
       <c r="M11" s="41">
         <v>58.9</v>
       </c>
-      <c r="N11" s="77"/>
+      <c r="N11" s="86"/>
       <c r="O11" s="41">
         <v>426.9</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B12" s="93"/>
+      <c r="B12" s="102"/>
       <c r="C12" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D12" s="93"/>
+      <c r="D12" s="102"/>
       <c r="E12" s="41">
         <v>55.2</v>
       </c>
-      <c r="F12" s="70"/>
+      <c r="F12" s="79"/>
       <c r="G12" s="41">
         <v>0.5</v>
       </c>
-      <c r="H12" s="77"/>
+      <c r="H12" s="86"/>
       <c r="I12" s="41">
         <v>361.8</v>
       </c>
-      <c r="J12" s="77"/>
+      <c r="J12" s="86"/>
       <c r="K12" s="40">
         <v>77</v>
       </c>
-      <c r="L12" s="77"/>
+      <c r="L12" s="86"/>
       <c r="M12" s="41">
         <v>59.5</v>
       </c>
-      <c r="N12" s="77"/>
+      <c r="N12" s="86"/>
       <c r="O12" s="41">
         <v>440.9</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B13" s="93"/>
+      <c r="B13" s="102"/>
       <c r="C13" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D13" s="93"/>
+      <c r="D13" s="102"/>
       <c r="E13" s="41">
         <v>53.7</v>
       </c>
-      <c r="F13" s="70"/>
+      <c r="F13" s="79"/>
       <c r="G13" s="41">
         <v>0</v>
       </c>
-      <c r="H13" s="77"/>
+      <c r="H13" s="86"/>
       <c r="I13" s="41">
         <v>361.2</v>
       </c>
-      <c r="J13" s="77"/>
+      <c r="J13" s="86"/>
       <c r="K13" s="40">
         <v>77</v>
       </c>
-      <c r="L13" s="77"/>
+      <c r="L13" s="86"/>
       <c r="M13" s="41">
         <v>59.5</v>
       </c>
-      <c r="N13" s="77"/>
+      <c r="N13" s="86"/>
       <c r="O13" s="41">
         <v>441.7</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B14" s="93"/>
+      <c r="B14" s="102"/>
       <c r="C14" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D14" s="93"/>
+      <c r="D14" s="102"/>
       <c r="E14" s="41">
         <v>53.4</v>
       </c>
-      <c r="F14" s="70"/>
+      <c r="F14" s="79"/>
       <c r="G14" s="41">
         <v>1.5</v>
       </c>
-      <c r="H14" s="77"/>
+      <c r="H14" s="86"/>
       <c r="I14" s="41">
         <v>361.9</v>
       </c>
-      <c r="J14" s="77"/>
+      <c r="J14" s="86"/>
       <c r="K14" s="40">
         <v>76.8</v>
       </c>
-      <c r="L14" s="77"/>
+      <c r="L14" s="86"/>
       <c r="M14" s="41">
         <v>59.3</v>
       </c>
-      <c r="N14" s="77"/>
+      <c r="N14" s="86"/>
       <c r="O14" s="41">
         <v>452</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B15" s="93"/>
+      <c r="B15" s="102"/>
       <c r="C15" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D15" s="93"/>
+      <c r="D15" s="102"/>
       <c r="E15" s="41">
         <v>53.1</v>
       </c>
-      <c r="F15" s="70"/>
+      <c r="F15" s="79"/>
       <c r="G15" s="41">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H15" s="77"/>
+      <c r="H15" s="86"/>
       <c r="I15" s="41">
         <v>361.9</v>
       </c>
-      <c r="J15" s="77"/>
+      <c r="J15" s="86"/>
       <c r="K15" s="40">
         <v>76.8</v>
       </c>
-      <c r="L15" s="77"/>
+      <c r="L15" s="86"/>
       <c r="M15" s="41">
         <v>59.3</v>
       </c>
-      <c r="N15" s="77"/>
+      <c r="N15" s="86"/>
       <c r="O15" s="41">
         <v>454.5</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B16" s="93"/>
+      <c r="B16" s="102"/>
       <c r="C16" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D16" s="93"/>
+      <c r="D16" s="102"/>
       <c r="E16" s="41">
         <v>52.6</v>
       </c>
-      <c r="F16" s="70"/>
+      <c r="F16" s="79"/>
       <c r="G16" s="41">
         <v>1.5</v>
       </c>
-      <c r="H16" s="77"/>
+      <c r="H16" s="86"/>
       <c r="I16" s="41">
         <v>361.9</v>
       </c>
-      <c r="J16" s="77"/>
+      <c r="J16" s="86"/>
       <c r="K16" s="40">
         <v>76.8</v>
       </c>
-      <c r="L16" s="77"/>
+      <c r="L16" s="86"/>
       <c r="M16" s="41">
         <v>59.2</v>
       </c>
-      <c r="N16" s="77"/>
+      <c r="N16" s="86"/>
       <c r="O16" s="41">
         <v>462.4</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B17" s="91" t="s">
+      <c r="B17" s="99" t="s">
         <v>444</v>
       </c>
       <c r="C17" s="40">
         <v>79.3</v>
       </c>
-      <c r="D17" s="68" t="s">
+      <c r="D17" s="77" t="s">
         <v>81</v>
       </c>
       <c r="E17" s="41">
         <v>42.9</v>
       </c>
-      <c r="F17" s="70"/>
+      <c r="F17" s="79"/>
       <c r="G17" s="41">
         <v>1.3</v>
       </c>
-      <c r="H17" s="77"/>
+      <c r="H17" s="86"/>
       <c r="I17" s="41">
         <v>356.7</v>
       </c>
-      <c r="J17" s="77"/>
+      <c r="J17" s="86"/>
       <c r="K17" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L17" s="77"/>
+      <c r="L17" s="86"/>
       <c r="M17" s="41">
         <v>59.1</v>
       </c>
-      <c r="N17" s="77"/>
+      <c r="N17" s="86"/>
       <c r="O17" s="41">
         <v>459.9</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B18" s="91"/>
+      <c r="B18" s="99"/>
       <c r="C18" s="40">
         <v>79.5</v>
       </c>
-      <c r="D18" s="68"/>
+      <c r="D18" s="77"/>
       <c r="E18" s="41">
         <v>42.9</v>
       </c>
-      <c r="F18" s="70"/>
+      <c r="F18" s="79"/>
       <c r="G18" s="41">
         <v>2</v>
       </c>
-      <c r="H18" s="77"/>
+      <c r="H18" s="86"/>
       <c r="I18" s="41">
         <v>354.9</v>
       </c>
-      <c r="J18" s="77"/>
+      <c r="J18" s="86"/>
       <c r="K18" s="40">
         <v>77</v>
       </c>
-      <c r="L18" s="77"/>
+      <c r="L18" s="86"/>
       <c r="M18" s="41">
         <v>59</v>
       </c>
-      <c r="N18" s="77"/>
+      <c r="N18" s="86"/>
       <c r="O18" s="41">
         <v>452.7</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B19" s="91"/>
+      <c r="B19" s="99"/>
       <c r="C19" s="40">
         <v>79.5</v>
       </c>
-      <c r="D19" s="68"/>
+      <c r="D19" s="77"/>
       <c r="E19" s="41">
         <v>43.1</v>
       </c>
-      <c r="F19" s="70"/>
+      <c r="F19" s="79"/>
       <c r="G19" s="41">
         <v>1.4</v>
       </c>
-      <c r="H19" s="77"/>
+      <c r="H19" s="86"/>
       <c r="I19" s="41">
         <v>356.2</v>
       </c>
-      <c r="J19" s="77"/>
+      <c r="J19" s="86"/>
       <c r="K19" s="40">
         <v>77</v>
       </c>
-      <c r="L19" s="77"/>
+      <c r="L19" s="86"/>
       <c r="M19" s="41">
         <v>58.9</v>
       </c>
-      <c r="N19" s="77"/>
+      <c r="N19" s="86"/>
       <c r="O19" s="41">
         <v>465.8</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B20" s="91"/>
+      <c r="B20" s="99"/>
       <c r="C20" s="40">
         <v>79.5</v>
       </c>
-      <c r="D20" s="68"/>
+      <c r="D20" s="77"/>
       <c r="E20" s="41">
         <v>43.1</v>
       </c>
-      <c r="F20" s="70"/>
+      <c r="F20" s="79"/>
       <c r="G20" s="41">
         <v>0.5</v>
       </c>
-      <c r="H20" s="77"/>
+      <c r="H20" s="86"/>
       <c r="I20" s="41">
         <v>356.1</v>
       </c>
-      <c r="J20" s="77"/>
+      <c r="J20" s="86"/>
       <c r="K20" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L20" s="77"/>
+      <c r="L20" s="86"/>
       <c r="M20" s="41">
         <v>58.8</v>
       </c>
-      <c r="N20" s="77"/>
+      <c r="N20" s="86"/>
       <c r="O20" s="41">
         <v>455.5</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B21" s="91"/>
+      <c r="B21" s="99"/>
       <c r="C21" s="40">
         <v>79.5</v>
       </c>
-      <c r="D21" s="68"/>
+      <c r="D21" s="77"/>
       <c r="E21" s="41">
         <v>43.1</v>
       </c>
-      <c r="F21" s="70"/>
+      <c r="F21" s="79"/>
       <c r="G21" s="41">
         <v>2.6</v>
       </c>
-      <c r="H21" s="77"/>
+      <c r="H21" s="86"/>
       <c r="I21" s="41">
         <v>355.2</v>
       </c>
-      <c r="J21" s="77"/>
+      <c r="J21" s="86"/>
       <c r="K21" s="40">
         <v>77</v>
       </c>
-      <c r="L21" s="77"/>
+      <c r="L21" s="86"/>
       <c r="M21" s="41">
         <v>58.8</v>
       </c>
-      <c r="N21" s="77"/>
+      <c r="N21" s="86"/>
       <c r="O21" s="41">
         <v>459.8</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B22" s="91" t="s">
+      <c r="B22" s="99" t="s">
         <v>55</v>
       </c>
       <c r="C22" s="40">
         <v>80</v>
       </c>
-      <c r="D22" s="68" t="s">
+      <c r="D22" s="77" t="s">
         <v>82</v>
       </c>
       <c r="E22" s="41">
         <v>43.1</v>
       </c>
-      <c r="F22" s="70"/>
+      <c r="F22" s="79"/>
       <c r="G22" s="41">
         <v>1.4</v>
       </c>
-      <c r="H22" s="77"/>
+      <c r="H22" s="86"/>
       <c r="I22" s="41">
         <v>354.9</v>
       </c>
-      <c r="J22" s="77"/>
+      <c r="J22" s="86"/>
       <c r="K22" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L22" s="77"/>
+      <c r="L22" s="86"/>
       <c r="M22" s="41">
         <v>59.1</v>
       </c>
-      <c r="N22" s="77"/>
+      <c r="N22" s="86"/>
       <c r="O22" s="41">
         <v>474.8</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B23" s="91"/>
+      <c r="B23" s="99"/>
       <c r="C23" s="40">
         <v>80</v>
       </c>
-      <c r="D23" s="68"/>
+      <c r="D23" s="77"/>
       <c r="E23" s="41">
         <v>43.1</v>
       </c>
-      <c r="F23" s="70"/>
+      <c r="F23" s="79"/>
       <c r="G23" s="41">
         <v>0.6</v>
       </c>
-      <c r="H23" s="77"/>
+      <c r="H23" s="86"/>
       <c r="I23" s="41">
         <v>345.1</v>
       </c>
-      <c r="J23" s="77"/>
+      <c r="J23" s="86"/>
       <c r="K23" s="40">
         <v>77</v>
       </c>
-      <c r="L23" s="77"/>
+      <c r="L23" s="86"/>
       <c r="M23" s="41">
         <v>59.1</v>
       </c>
-      <c r="N23" s="77"/>
+      <c r="N23" s="86"/>
       <c r="O23" s="41">
         <v>469.8</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B24" s="91"/>
+      <c r="B24" s="99"/>
       <c r="C24" s="40">
         <v>80</v>
       </c>
-      <c r="D24" s="68"/>
+      <c r="D24" s="77"/>
       <c r="E24" s="41">
         <v>43.1</v>
       </c>
-      <c r="F24" s="70"/>
+      <c r="F24" s="79"/>
       <c r="G24" s="41">
         <v>0.6</v>
       </c>
-      <c r="H24" s="77"/>
+      <c r="H24" s="86"/>
       <c r="I24" s="41">
         <v>349.2</v>
       </c>
-      <c r="J24" s="77"/>
+      <c r="J24" s="86"/>
       <c r="K24" s="40">
         <v>76.8</v>
       </c>
-      <c r="L24" s="77"/>
+      <c r="L24" s="86"/>
       <c r="M24" s="41">
         <v>59.2</v>
       </c>
-      <c r="N24" s="77"/>
+      <c r="N24" s="86"/>
       <c r="O24" s="41">
         <v>479.7</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B25" s="91"/>
+      <c r="B25" s="99"/>
       <c r="C25" s="40">
         <v>80</v>
       </c>
-      <c r="D25" s="68"/>
+      <c r="D25" s="77"/>
       <c r="E25" s="41">
         <v>43.1</v>
       </c>
-      <c r="F25" s="70"/>
+      <c r="F25" s="79"/>
       <c r="G25" s="41">
         <v>0.9</v>
       </c>
-      <c r="H25" s="77"/>
+      <c r="H25" s="86"/>
       <c r="I25" s="41">
         <v>351.5</v>
       </c>
-      <c r="J25" s="77"/>
+      <c r="J25" s="86"/>
       <c r="K25" s="40">
         <v>77</v>
       </c>
-      <c r="L25" s="77"/>
+      <c r="L25" s="86"/>
       <c r="M25" s="41">
         <v>59.3</v>
       </c>
-      <c r="N25" s="77"/>
+      <c r="N25" s="86"/>
       <c r="O25" s="41">
         <v>480.8</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B26" s="91"/>
+      <c r="B26" s="99"/>
       <c r="C26" s="40">
         <v>80</v>
       </c>
-      <c r="D26" s="68"/>
+      <c r="D26" s="77"/>
       <c r="E26" s="41">
         <v>43.2</v>
       </c>
-      <c r="F26" s="70"/>
+      <c r="F26" s="79"/>
       <c r="G26" s="41">
         <v>1.5</v>
       </c>
-      <c r="H26" s="77"/>
+      <c r="H26" s="86"/>
       <c r="I26" s="41">
         <v>351.4</v>
       </c>
-      <c r="J26" s="77"/>
+      <c r="J26" s="86"/>
       <c r="K26" s="40">
         <v>77</v>
       </c>
-      <c r="L26" s="77"/>
+      <c r="L26" s="86"/>
       <c r="M26" s="41">
         <v>59.2</v>
       </c>
-      <c r="N26" s="77"/>
+      <c r="N26" s="86"/>
       <c r="O26" s="41">
         <v>482.6</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B27" s="91" t="s">
+      <c r="B27" s="99" t="s">
         <v>56</v>
       </c>
       <c r="C27" s="40">
         <v>80.7</v>
       </c>
-      <c r="D27" s="68" t="s">
+      <c r="D27" s="77" t="s">
         <v>83</v>
       </c>
       <c r="E27" s="41">
         <v>43.8</v>
       </c>
-      <c r="F27" s="70"/>
+      <c r="F27" s="79"/>
       <c r="G27" s="41">
         <v>1.7</v>
       </c>
-      <c r="H27" s="77"/>
+      <c r="H27" s="86"/>
       <c r="I27" s="41">
         <v>348.4</v>
       </c>
-      <c r="J27" s="77"/>
+      <c r="J27" s="86"/>
       <c r="K27" s="40">
         <v>77</v>
       </c>
-      <c r="L27" s="77"/>
+      <c r="L27" s="86"/>
       <c r="M27" s="41">
         <v>58.4</v>
       </c>
-      <c r="N27" s="77"/>
+      <c r="N27" s="86"/>
       <c r="O27" s="41">
         <v>489.5</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B28" s="91"/>
+      <c r="B28" s="99"/>
       <c r="C28" s="40">
         <v>80.7</v>
       </c>
-      <c r="D28" s="68"/>
+      <c r="D28" s="77"/>
       <c r="E28" s="41">
         <v>43.8</v>
       </c>
-      <c r="F28" s="70"/>
+      <c r="F28" s="79"/>
       <c r="G28" s="41">
         <v>0.1</v>
       </c>
-      <c r="H28" s="77"/>
+      <c r="H28" s="86"/>
       <c r="I28" s="41">
         <v>347.6</v>
       </c>
-      <c r="J28" s="77"/>
+      <c r="J28" s="86"/>
       <c r="K28" s="40">
         <v>77</v>
       </c>
-      <c r="L28" s="77"/>
+      <c r="L28" s="86"/>
       <c r="M28" s="41">
         <v>58.4</v>
       </c>
-      <c r="N28" s="77"/>
+      <c r="N28" s="86"/>
       <c r="O28" s="41">
         <v>481.5</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B29" s="91"/>
+      <c r="B29" s="99"/>
       <c r="C29" s="40">
         <v>80.7</v>
       </c>
-      <c r="D29" s="68"/>
+      <c r="D29" s="77"/>
       <c r="E29" s="41">
         <v>43.7</v>
       </c>
-      <c r="F29" s="70"/>
+      <c r="F29" s="79"/>
       <c r="G29" s="41">
         <v>0</v>
       </c>
-      <c r="H29" s="77"/>
+      <c r="H29" s="86"/>
       <c r="I29" s="41">
         <v>346</v>
       </c>
-      <c r="J29" s="77"/>
+      <c r="J29" s="86"/>
       <c r="K29" s="40">
         <v>77</v>
       </c>
-      <c r="L29" s="77"/>
+      <c r="L29" s="86"/>
       <c r="M29" s="41">
         <v>58.4</v>
       </c>
-      <c r="N29" s="77"/>
+      <c r="N29" s="86"/>
       <c r="O29" s="41">
         <v>477.8</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B30" s="91"/>
+      <c r="B30" s="99"/>
       <c r="C30" s="40">
         <v>80.7</v>
       </c>
-      <c r="D30" s="68"/>
+      <c r="D30" s="77"/>
       <c r="E30" s="41">
         <v>43.6</v>
       </c>
-      <c r="F30" s="70"/>
+      <c r="F30" s="79"/>
       <c r="G30" s="41">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H30" s="77"/>
+      <c r="H30" s="86"/>
       <c r="I30" s="41">
         <v>345</v>
       </c>
-      <c r="J30" s="77"/>
+      <c r="J30" s="86"/>
       <c r="K30" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L30" s="77"/>
+      <c r="L30" s="86"/>
       <c r="M30" s="41">
         <v>58.5</v>
       </c>
-      <c r="N30" s="77"/>
+      <c r="N30" s="86"/>
       <c r="O30" s="41">
         <v>484.6</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B31" s="91"/>
+      <c r="B31" s="99"/>
       <c r="C31" s="40">
         <v>80.900000000000006</v>
       </c>
-      <c r="D31" s="68"/>
+      <c r="D31" s="77"/>
       <c r="E31" s="41">
         <v>43.6</v>
       </c>
-      <c r="F31" s="70"/>
+      <c r="F31" s="79"/>
       <c r="G31" s="41">
         <v>1.6</v>
       </c>
-      <c r="H31" s="77"/>
+      <c r="H31" s="86"/>
       <c r="I31" s="41">
         <v>347.2</v>
       </c>
-      <c r="J31" s="77"/>
+      <c r="J31" s="86"/>
       <c r="K31" s="40">
         <v>77</v>
       </c>
-      <c r="L31" s="77"/>
+      <c r="L31" s="86"/>
       <c r="M31" s="41">
         <v>58.4</v>
       </c>
-      <c r="N31" s="77"/>
+      <c r="N31" s="86"/>
       <c r="O31" s="41">
         <v>483.8</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B32" s="91" t="s">
+      <c r="B32" s="99" t="s">
         <v>57</v>
       </c>
       <c r="C32" s="40">
         <v>81.099999999999994</v>
       </c>
-      <c r="D32" s="68" t="s">
+      <c r="D32" s="77" t="s">
         <v>85</v>
       </c>
       <c r="E32" s="41">
         <v>44.3</v>
       </c>
-      <c r="F32" s="70"/>
+      <c r="F32" s="79"/>
       <c r="G32" s="41">
         <v>0.4</v>
       </c>
-      <c r="H32" s="77"/>
+      <c r="H32" s="86"/>
       <c r="I32" s="41">
         <v>345.1</v>
       </c>
-      <c r="J32" s="77"/>
+      <c r="J32" s="86"/>
       <c r="K32" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L32" s="77"/>
+      <c r="L32" s="86"/>
       <c r="M32" s="41">
         <v>58.7</v>
       </c>
-      <c r="N32" s="77"/>
+      <c r="N32" s="86"/>
       <c r="O32" s="41">
         <v>482.9</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B33" s="91"/>
+      <c r="B33" s="99"/>
       <c r="C33" s="40">
         <v>81.099999999999994</v>
       </c>
-      <c r="D33" s="68"/>
+      <c r="D33" s="77"/>
       <c r="E33" s="41">
         <v>44.3</v>
       </c>
-      <c r="F33" s="70"/>
+      <c r="F33" s="79"/>
       <c r="G33" s="41">
         <v>1.3</v>
       </c>
-      <c r="H33" s="77"/>
+      <c r="H33" s="86"/>
       <c r="I33" s="41">
         <v>348</v>
       </c>
-      <c r="J33" s="77"/>
+      <c r="J33" s="86"/>
       <c r="K33" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L33" s="77"/>
+      <c r="L33" s="86"/>
       <c r="M33" s="41">
         <v>58.7</v>
       </c>
-      <c r="N33" s="77"/>
+      <c r="N33" s="86"/>
       <c r="O33" s="41">
         <v>491.2</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B34" s="91"/>
+      <c r="B34" s="99"/>
       <c r="C34" s="40">
         <v>81.099999999999994</v>
       </c>
-      <c r="D34" s="68"/>
+      <c r="D34" s="77"/>
       <c r="E34" s="41">
         <v>44.3</v>
       </c>
-      <c r="F34" s="70"/>
+      <c r="F34" s="79"/>
       <c r="G34" s="41">
         <v>1.5</v>
       </c>
-      <c r="H34" s="77"/>
+      <c r="H34" s="86"/>
       <c r="I34" s="41">
         <v>347.9</v>
       </c>
-      <c r="J34" s="77"/>
+      <c r="J34" s="86"/>
       <c r="K34" s="40">
         <v>77</v>
       </c>
-      <c r="L34" s="77"/>
+      <c r="L34" s="86"/>
       <c r="M34" s="41">
         <v>58.6</v>
       </c>
-      <c r="N34" s="77"/>
+      <c r="N34" s="86"/>
       <c r="O34" s="41">
         <v>486.7</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B35" s="91"/>
+      <c r="B35" s="99"/>
       <c r="C35" s="40">
         <v>81.099999999999994</v>
       </c>
-      <c r="D35" s="68"/>
+      <c r="D35" s="77"/>
       <c r="E35" s="41">
         <v>44.3</v>
       </c>
-      <c r="F35" s="70"/>
+      <c r="F35" s="79"/>
       <c r="G35" s="41">
         <v>1.2</v>
       </c>
-      <c r="H35" s="77"/>
+      <c r="H35" s="86"/>
       <c r="I35" s="41">
         <v>345.2</v>
       </c>
-      <c r="J35" s="77"/>
+      <c r="J35" s="86"/>
       <c r="K35" s="40">
         <v>77</v>
       </c>
-      <c r="L35" s="77"/>
+      <c r="L35" s="86"/>
       <c r="M35" s="41">
         <v>58.7</v>
       </c>
-      <c r="N35" s="77"/>
+      <c r="N35" s="86"/>
       <c r="O35" s="41">
         <v>494.4</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B36" s="91"/>
+      <c r="B36" s="99"/>
       <c r="C36" s="40">
         <v>81.099999999999994</v>
       </c>
-      <c r="D36" s="68"/>
+      <c r="D36" s="77"/>
       <c r="E36" s="41">
         <v>44.2</v>
       </c>
-      <c r="F36" s="70"/>
+      <c r="F36" s="79"/>
       <c r="G36" s="41">
         <v>1.4</v>
       </c>
-      <c r="H36" s="77"/>
+      <c r="H36" s="86"/>
       <c r="I36" s="41">
         <v>340.7</v>
       </c>
-      <c r="J36" s="77"/>
+      <c r="J36" s="86"/>
       <c r="K36" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L36" s="77"/>
+      <c r="L36" s="86"/>
       <c r="M36" s="41">
         <v>58.7</v>
       </c>
-      <c r="N36" s="77"/>
+      <c r="N36" s="86"/>
       <c r="O36" s="41">
         <v>493</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B37" s="91" t="s">
+      <c r="B37" s="99" t="s">
         <v>58</v>
       </c>
       <c r="C37" s="40">
         <v>81.5</v>
       </c>
-      <c r="D37" s="68" t="s">
+      <c r="D37" s="77" t="s">
         <v>86</v>
       </c>
       <c r="E37" s="41">
         <v>44</v>
       </c>
-      <c r="F37" s="70"/>
+      <c r="F37" s="79"/>
       <c r="G37" s="41">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H37" s="77"/>
+      <c r="H37" s="86"/>
       <c r="I37" s="41">
         <v>343.4</v>
       </c>
-      <c r="J37" s="77"/>
+      <c r="J37" s="86"/>
       <c r="K37" s="40">
         <v>77</v>
       </c>
-      <c r="L37" s="77"/>
+      <c r="L37" s="86"/>
       <c r="M37" s="41">
         <v>58.6</v>
       </c>
-      <c r="N37" s="77"/>
+      <c r="N37" s="86"/>
       <c r="O37" s="41">
         <v>510.4</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B38" s="91"/>
+      <c r="B38" s="99"/>
       <c r="C38" s="40">
         <v>81.5</v>
       </c>
-      <c r="D38" s="68"/>
+      <c r="D38" s="77"/>
       <c r="E38" s="41">
         <v>44</v>
       </c>
-      <c r="F38" s="70"/>
+      <c r="F38" s="79"/>
       <c r="G38" s="41">
         <v>0.6</v>
       </c>
-      <c r="H38" s="77"/>
+      <c r="H38" s="86"/>
       <c r="I38" s="41">
         <v>341.5</v>
       </c>
-      <c r="J38" s="77"/>
+      <c r="J38" s="86"/>
       <c r="K38" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L38" s="77"/>
+      <c r="L38" s="86"/>
       <c r="M38" s="41">
         <v>58.6</v>
       </c>
-      <c r="N38" s="77"/>
+      <c r="N38" s="86"/>
       <c r="O38" s="41">
         <v>500</v>
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B39" s="91"/>
+      <c r="B39" s="99"/>
       <c r="C39" s="40">
         <v>81.5</v>
       </c>
-      <c r="D39" s="68"/>
+      <c r="D39" s="77"/>
       <c r="E39" s="41">
         <v>44.1</v>
       </c>
-      <c r="F39" s="70"/>
+      <c r="F39" s="79"/>
       <c r="G39" s="41">
         <v>0.2</v>
       </c>
-      <c r="H39" s="77"/>
+      <c r="H39" s="86"/>
       <c r="I39" s="41">
         <v>341.1</v>
       </c>
-      <c r="J39" s="77"/>
+      <c r="J39" s="86"/>
       <c r="K39" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L39" s="77"/>
+      <c r="L39" s="86"/>
       <c r="M39" s="41">
         <v>58.7</v>
       </c>
-      <c r="N39" s="77"/>
+      <c r="N39" s="86"/>
       <c r="O39" s="41">
         <v>500.4</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B40" s="91"/>
+      <c r="B40" s="99"/>
       <c r="C40" s="40">
         <v>81.5</v>
       </c>
-      <c r="D40" s="68"/>
+      <c r="D40" s="77"/>
       <c r="E40" s="41">
         <v>44.1</v>
       </c>
-      <c r="F40" s="70"/>
+      <c r="F40" s="79"/>
       <c r="G40" s="41">
         <v>0</v>
       </c>
-      <c r="H40" s="77"/>
+      <c r="H40" s="86"/>
       <c r="I40" s="41">
         <v>343.7</v>
       </c>
-      <c r="J40" s="77"/>
+      <c r="J40" s="86"/>
       <c r="K40" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L40" s="77"/>
+      <c r="L40" s="86"/>
       <c r="M40" s="41">
         <v>58.8</v>
       </c>
-      <c r="N40" s="77"/>
+      <c r="N40" s="86"/>
       <c r="O40" s="41">
         <v>498.7</v>
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B41" s="91"/>
+      <c r="B41" s="99"/>
       <c r="C41" s="40">
         <v>81.5</v>
       </c>
-      <c r="D41" s="68"/>
+      <c r="D41" s="77"/>
       <c r="E41" s="41">
         <v>44.2</v>
       </c>
-      <c r="F41" s="70"/>
+      <c r="F41" s="79"/>
       <c r="G41" s="41">
         <v>0.2</v>
       </c>
-      <c r="H41" s="77"/>
+      <c r="H41" s="86"/>
       <c r="I41" s="41">
         <v>341.9</v>
       </c>
-      <c r="J41" s="77"/>
+      <c r="J41" s="86"/>
       <c r="K41" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L41" s="77"/>
+      <c r="L41" s="86"/>
       <c r="M41" s="41">
         <v>58.7</v>
       </c>
-      <c r="N41" s="77"/>
+      <c r="N41" s="86"/>
       <c r="O41" s="41">
         <v>490</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B42" s="91" t="s">
+      <c r="B42" s="99" t="s">
         <v>59</v>
       </c>
       <c r="C42" s="40">
         <v>82.4</v>
       </c>
-      <c r="D42" s="68" t="s">
+      <c r="D42" s="77" t="s">
         <v>88</v>
       </c>
       <c r="E42" s="41">
         <v>44</v>
       </c>
-      <c r="F42" s="70"/>
+      <c r="F42" s="79"/>
       <c r="G42" s="41">
         <v>0</v>
       </c>
-      <c r="H42" s="77"/>
+      <c r="H42" s="86"/>
       <c r="I42" s="41">
         <v>344.1</v>
       </c>
-      <c r="J42" s="77"/>
+      <c r="J42" s="86"/>
       <c r="K42" s="40">
         <v>76.8</v>
       </c>
-      <c r="L42" s="77"/>
+      <c r="L42" s="86"/>
       <c r="M42" s="57">
         <v>58.8</v>
       </c>
-      <c r="N42" s="77"/>
+      <c r="N42" s="86"/>
       <c r="O42" s="41">
         <v>514.70000000000005</v>
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B43" s="91"/>
+      <c r="B43" s="99"/>
       <c r="C43" s="40">
         <v>82.4</v>
       </c>
-      <c r="D43" s="68"/>
+      <c r="D43" s="77"/>
       <c r="E43" s="41">
         <v>43.9</v>
       </c>
-      <c r="F43" s="70"/>
+      <c r="F43" s="79"/>
       <c r="G43" s="41">
         <v>0.9</v>
       </c>
-      <c r="H43" s="77"/>
+      <c r="H43" s="86"/>
       <c r="I43" s="41">
         <v>342.8</v>
       </c>
-      <c r="J43" s="77"/>
+      <c r="J43" s="86"/>
       <c r="K43" s="40">
         <v>76.599999999999994</v>
       </c>
-      <c r="L43" s="77"/>
+      <c r="L43" s="86"/>
       <c r="M43" s="41">
         <v>59.8</v>
       </c>
-      <c r="N43" s="77"/>
+      <c r="N43" s="86"/>
       <c r="O43" s="41">
         <v>520.4</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B44" s="91"/>
+      <c r="B44" s="99"/>
       <c r="C44" s="40">
         <v>82.4</v>
       </c>
-      <c r="D44" s="68"/>
+      <c r="D44" s="77"/>
       <c r="E44" s="41">
         <v>43.9</v>
       </c>
-      <c r="F44" s="70"/>
+      <c r="F44" s="79"/>
       <c r="G44" s="41">
         <v>1.2</v>
       </c>
-      <c r="H44" s="77"/>
+      <c r="H44" s="86"/>
       <c r="I44" s="41">
         <v>342.8</v>
       </c>
-      <c r="J44" s="77"/>
+      <c r="J44" s="86"/>
       <c r="K44" s="40">
         <v>76.8</v>
       </c>
-      <c r="L44" s="77"/>
+      <c r="L44" s="86"/>
       <c r="M44" s="41">
         <v>59.6</v>
       </c>
-      <c r="N44" s="77"/>
+      <c r="N44" s="86"/>
       <c r="O44" s="41">
         <v>503.8</v>
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B45" s="91"/>
+      <c r="B45" s="99"/>
       <c r="C45" s="40">
         <v>82.4</v>
       </c>
-      <c r="D45" s="68"/>
+      <c r="D45" s="77"/>
       <c r="E45" s="41">
         <v>43.8</v>
       </c>
-      <c r="F45" s="70"/>
+      <c r="F45" s="79"/>
       <c r="G45" s="41">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H45" s="77"/>
+      <c r="H45" s="86"/>
       <c r="I45" s="41">
         <v>342.5</v>
       </c>
-      <c r="J45" s="77"/>
+      <c r="J45" s="86"/>
       <c r="K45" s="40">
         <v>76.400000000000006</v>
       </c>
-      <c r="L45" s="77"/>
+      <c r="L45" s="86"/>
       <c r="M45" s="41">
         <v>59.4</v>
       </c>
-      <c r="N45" s="77"/>
+      <c r="N45" s="86"/>
       <c r="O45" s="41">
         <v>497.8</v>
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B46" s="91"/>
+      <c r="B46" s="99"/>
       <c r="C46" s="40">
         <v>82.4</v>
       </c>
-      <c r="D46" s="68"/>
+      <c r="D46" s="77"/>
       <c r="E46" s="41">
         <v>43.8</v>
       </c>
-      <c r="F46" s="70"/>
+      <c r="F46" s="79"/>
       <c r="G46" s="41">
         <v>2</v>
       </c>
-      <c r="H46" s="77"/>
+      <c r="H46" s="86"/>
       <c r="I46" s="41">
         <v>345.7</v>
       </c>
-      <c r="J46" s="77"/>
+      <c r="J46" s="86"/>
       <c r="K46" s="40">
         <v>76.2</v>
       </c>
-      <c r="L46" s="77"/>
+      <c r="L46" s="86"/>
       <c r="M46" s="41">
         <v>59.5</v>
       </c>
-      <c r="N46" s="77"/>
+      <c r="N46" s="86"/>
       <c r="O46" s="41">
         <v>504.7</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B47" s="91" t="s">
+      <c r="B47" s="99" t="s">
         <v>94</v>
       </c>
       <c r="C47" s="40">
         <v>82.9</v>
       </c>
-      <c r="D47" s="94" t="s">
+      <c r="D47" s="103" t="s">
         <v>90</v>
       </c>
       <c r="E47" s="41">
@@ -9393,11 +9542,11 @@
       <c r="J47" s="56"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B48" s="91"/>
+      <c r="B48" s="99"/>
       <c r="C48" s="40">
         <v>83.1</v>
       </c>
-      <c r="D48" s="94"/>
+      <c r="D48" s="103"/>
       <c r="E48" s="41">
         <v>43.4</v>
       </c>
@@ -9408,11 +9557,11 @@
       <c r="J48" s="56"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B49" s="91"/>
+      <c r="B49" s="99"/>
       <c r="C49" s="40">
         <v>83.1</v>
       </c>
-      <c r="D49" s="94"/>
+      <c r="D49" s="103"/>
       <c r="E49" s="41">
         <v>43.4</v>
       </c>
@@ -9423,11 +9572,11 @@
       <c r="J49" s="56"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B50" s="91"/>
+      <c r="B50" s="99"/>
       <c r="C50" s="40">
         <v>83.1</v>
       </c>
-      <c r="D50" s="94"/>
+      <c r="D50" s="103"/>
       <c r="E50" s="41">
         <v>43.4</v>
       </c>
@@ -9438,11 +9587,11 @@
       <c r="J50" s="56"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B51" s="91"/>
+      <c r="B51" s="99"/>
       <c r="C51" s="40">
         <v>83.1</v>
       </c>
-      <c r="D51" s="94"/>
+      <c r="D51" s="103"/>
       <c r="E51" s="41">
         <v>43.4</v>
       </c>
@@ -9453,13 +9602,13 @@
       <c r="J51" s="56"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B52" s="91" t="s">
+      <c r="B52" s="99" t="s">
         <v>95</v>
       </c>
       <c r="C52" s="40">
         <v>83.4</v>
       </c>
-      <c r="D52" s="94" t="s">
+      <c r="D52" s="103" t="s">
         <v>92</v>
       </c>
       <c r="E52" s="41">
@@ -9472,11 +9621,11 @@
       <c r="J52" s="56"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B53" s="91"/>
+      <c r="B53" s="99"/>
       <c r="C53" s="40">
         <v>83.4</v>
       </c>
-      <c r="D53" s="94"/>
+      <c r="D53" s="103"/>
       <c r="E53" s="41">
         <v>43.3</v>
       </c>
@@ -9487,11 +9636,11 @@
       <c r="J53" s="56"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B54" s="91"/>
+      <c r="B54" s="99"/>
       <c r="C54" s="40">
         <v>83.4</v>
       </c>
-      <c r="D54" s="94"/>
+      <c r="D54" s="103"/>
       <c r="E54" s="41">
         <v>43.4</v>
       </c>
@@ -9502,11 +9651,11 @@
       <c r="J54" s="56"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B55" s="91"/>
+      <c r="B55" s="99"/>
       <c r="C55" s="40">
         <v>83.6</v>
       </c>
-      <c r="D55" s="94"/>
+      <c r="D55" s="103"/>
       <c r="E55" s="41">
         <v>43.4</v>
       </c>
@@ -9517,11 +9666,11 @@
       <c r="J55" s="56"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B56" s="91"/>
+      <c r="B56" s="99"/>
       <c r="C56" s="40">
         <v>83.3</v>
       </c>
-      <c r="D56" s="94"/>
+      <c r="D56" s="103"/>
       <c r="E56" s="41">
         <v>43.4</v>
       </c>
@@ -9532,7 +9681,7 @@
       <c r="J56" s="56"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B57" s="91" t="s">
+      <c r="B57" s="99" t="s">
         <v>96</v>
       </c>
       <c r="C57" s="40">
@@ -9547,7 +9696,7 @@
       <c r="J57" s="56"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B58" s="91"/>
+      <c r="B58" s="99"/>
       <c r="C58" s="40">
         <v>83.4</v>
       </c>
@@ -9560,7 +9709,7 @@
       <c r="J58" s="56"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B59" s="91"/>
+      <c r="B59" s="99"/>
       <c r="C59" s="40">
         <v>83.3</v>
       </c>
@@ -9573,7 +9722,7 @@
       <c r="J59" s="56"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B60" s="91"/>
+      <c r="B60" s="99"/>
       <c r="C60" s="40">
         <v>83.3</v>
       </c>
@@ -9586,7 +9735,7 @@
       <c r="J60" s="56"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B61" s="91"/>
+      <c r="B61" s="99"/>
       <c r="C61" s="40">
         <v>83.4</v>
       </c>
@@ -9599,7 +9748,7 @@
       <c r="J61" s="56"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B62" s="91" t="s">
+      <c r="B62" s="99" t="s">
         <v>97</v>
       </c>
       <c r="C62" s="40">
@@ -9614,7 +9763,7 @@
       <c r="J62" s="56"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B63" s="91"/>
+      <c r="B63" s="99"/>
       <c r="C63" s="40">
         <v>83.8</v>
       </c>
@@ -9627,7 +9776,7 @@
       <c r="J63" s="56"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B64" s="91"/>
+      <c r="B64" s="99"/>
       <c r="C64" s="40">
         <v>83.6</v>
       </c>
@@ -9640,7 +9789,7 @@
       <c r="J64" s="56"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B65" s="91"/>
+      <c r="B65" s="99"/>
       <c r="C65" s="40">
         <v>83.8</v>
       </c>
@@ -9653,7 +9802,7 @@
       <c r="J65" s="56"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B66" s="91"/>
+      <c r="B66" s="99"/>
       <c r="C66" s="40">
         <v>83.8</v>
       </c>
@@ -9666,7 +9815,7 @@
       <c r="J66" s="56"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B67" s="91" t="s">
+      <c r="B67" s="99" t="s">
         <v>93</v>
       </c>
       <c r="C67" s="40">
@@ -9681,7 +9830,7 @@
       <c r="J67" s="56"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B68" s="91"/>
+      <c r="B68" s="99"/>
       <c r="C68" s="40">
         <v>84</v>
       </c>
@@ -9694,7 +9843,7 @@
       <c r="J68" s="56"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B69" s="91"/>
+      <c r="B69" s="99"/>
       <c r="C69" s="40">
         <v>84</v>
       </c>
@@ -9707,7 +9856,7 @@
       <c r="J69" s="56"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B70" s="91"/>
+      <c r="B70" s="99"/>
       <c r="C70" s="40">
         <v>84</v>
       </c>
@@ -9720,7 +9869,7 @@
       <c r="J70" s="56"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B71" s="91"/>
+      <c r="B71" s="99"/>
       <c r="C71" s="40">
         <v>84</v>
       </c>
@@ -9733,7 +9882,7 @@
       <c r="J71" s="56"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B72" s="91" t="s">
+      <c r="B72" s="99" t="s">
         <v>82</v>
       </c>
       <c r="C72" s="40">
@@ -9748,7 +9897,7 @@
       <c r="J72" s="56"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B73" s="91"/>
+      <c r="B73" s="99"/>
       <c r="C73" s="40">
         <v>83.4</v>
       </c>
@@ -9761,7 +9910,7 @@
       <c r="J73" s="56"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B74" s="91"/>
+      <c r="B74" s="99"/>
       <c r="C74" s="40">
         <v>83.3</v>
       </c>
@@ -9774,7 +9923,7 @@
       <c r="J74" s="56"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B75" s="91"/>
+      <c r="B75" s="99"/>
       <c r="C75" s="40">
         <v>83.3</v>
       </c>
@@ -9787,7 +9936,7 @@
       <c r="J75" s="56"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B76" s="91"/>
+      <c r="B76" s="99"/>
       <c r="C76" s="40">
         <v>83.3</v>
       </c>
@@ -9800,7 +9949,7 @@
       <c r="J76" s="56"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B77" s="91" t="s">
+      <c r="B77" s="99" t="s">
         <v>83</v>
       </c>
       <c r="C77" s="40">
@@ -9815,7 +9964,7 @@
       <c r="J77" s="56"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B78" s="91"/>
+      <c r="B78" s="99"/>
       <c r="C78" s="40">
         <v>83.4</v>
       </c>
@@ -9828,7 +9977,7 @@
       <c r="J78" s="56"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B79" s="91"/>
+      <c r="B79" s="99"/>
       <c r="C79" s="40">
         <v>83.4</v>
       </c>
@@ -9841,7 +9990,7 @@
       <c r="J79" s="56"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B80" s="91"/>
+      <c r="B80" s="99"/>
       <c r="C80" s="40">
         <v>83.4</v>
       </c>
@@ -9854,7 +10003,7 @@
       <c r="J80" s="56"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B81" s="91"/>
+      <c r="B81" s="99"/>
       <c r="C81" s="40">
         <v>83.4</v>
       </c>
@@ -9867,7 +10016,7 @@
       <c r="J81" s="56"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B82" s="91" t="s">
+      <c r="B82" s="99" t="s">
         <v>84</v>
       </c>
       <c r="C82" s="40">
@@ -9882,7 +10031,7 @@
       <c r="J82" s="56"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B83" s="91"/>
+      <c r="B83" s="99"/>
       <c r="C83" s="40">
         <v>83.3</v>
       </c>
@@ -9895,7 +10044,7 @@
       <c r="J83" s="56"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B84" s="91"/>
+      <c r="B84" s="99"/>
       <c r="C84" s="40">
         <v>83.3</v>
       </c>
@@ -9908,7 +10057,7 @@
       <c r="J84" s="56"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B85" s="91"/>
+      <c r="B85" s="99"/>
       <c r="C85" s="40">
         <v>83.3</v>
       </c>
@@ -9921,7 +10070,7 @@
       <c r="J85" s="56"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B86" s="91"/>
+      <c r="B86" s="99"/>
       <c r="C86" s="40">
         <v>83.3</v>
       </c>
@@ -9934,7 +10083,7 @@
       <c r="J86" s="56"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B87" s="91" t="s">
+      <c r="B87" s="99" t="s">
         <v>87</v>
       </c>
       <c r="C87" s="40">
@@ -9949,7 +10098,7 @@
       <c r="J87" s="56"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B88" s="91"/>
+      <c r="B88" s="99"/>
       <c r="C88" s="40">
         <v>83.8</v>
       </c>
@@ -9962,7 +10111,7 @@
       <c r="J88" s="56"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B89" s="91"/>
+      <c r="B89" s="99"/>
       <c r="C89" s="40">
         <v>83.8</v>
       </c>
@@ -9975,7 +10124,7 @@
       <c r="J89" s="56"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B90" s="91"/>
+      <c r="B90" s="99"/>
       <c r="C90" s="40">
         <v>84</v>
       </c>
@@ -9988,7 +10137,7 @@
       <c r="J90" s="56"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B91" s="91"/>
+      <c r="B91" s="99"/>
       <c r="C91" s="40">
         <v>84</v>
       </c>
@@ -10001,7 +10150,7 @@
       <c r="J91" s="56"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B92" s="91" t="s">
+      <c r="B92" s="99" t="s">
         <v>89</v>
       </c>
       <c r="C92" s="40">
@@ -10016,7 +10165,7 @@
       <c r="J92" s="56"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B93" s="91"/>
+      <c r="B93" s="99"/>
       <c r="C93" s="40">
         <v>84</v>
       </c>
@@ -10029,7 +10178,7 @@
       <c r="J93" s="56"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B94" s="91"/>
+      <c r="B94" s="99"/>
       <c r="C94" s="40">
         <v>84</v>
       </c>
@@ -10042,7 +10191,7 @@
       <c r="J94" s="56"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B95" s="91"/>
+      <c r="B95" s="99"/>
       <c r="C95" s="40">
         <v>84.2</v>
       </c>
@@ -10055,7 +10204,7 @@
       <c r="J95" s="56"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B96" s="91"/>
+      <c r="B96" s="99"/>
       <c r="C96" s="40">
         <v>84.2</v>
       </c>
@@ -10068,7 +10217,7 @@
       <c r="J96" s="56"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B97" s="91" t="s">
+      <c r="B97" s="99" t="s">
         <v>91</v>
       </c>
       <c r="C97" s="40">
@@ -10083,7 +10232,7 @@
       <c r="J97" s="56"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B98" s="91"/>
+      <c r="B98" s="99"/>
       <c r="C98" s="40">
         <v>84</v>
       </c>
@@ -10096,7 +10245,7 @@
       <c r="J98" s="56"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B99" s="91"/>
+      <c r="B99" s="99"/>
       <c r="C99" s="40">
         <v>84</v>
       </c>
@@ -10109,7 +10258,7 @@
       <c r="J99" s="56"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B100" s="91"/>
+      <c r="B100" s="99"/>
       <c r="C100" s="40">
         <v>84</v>
       </c>
@@ -10122,7 +10271,7 @@
       <c r="J100" s="56"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B101" s="91"/>
+      <c r="B101" s="99"/>
       <c r="C101" s="40">
         <v>84</v>
       </c>
@@ -10152,6 +10301,7 @@
     <mergeCell ref="B32:B36"/>
     <mergeCell ref="B47:B51"/>
     <mergeCell ref="B52:B56"/>
+    <mergeCell ref="L7:L46"/>
     <mergeCell ref="B57:B61"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="B92:B96"/>
@@ -10167,16 +10317,11 @@
     <mergeCell ref="B37:B41"/>
     <mergeCell ref="B42:B46"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N7:N46"/>
-    <mergeCell ref="L3:M3"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="N3:O3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N6:O6"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="J7:J46"/>
     <mergeCell ref="J2:M2"/>
@@ -10190,11 +10335,15 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L7:L46"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N7:N46"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10212,44 +10361,44 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="111" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
       <c r="G1" s="17"/>
-      <c r="H1" s="104" t="s">
+      <c r="H1" s="113" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104" t="s">
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A2" s="105"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
+      <c r="A2" s="114"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A3" s="26" t="s">
@@ -10273,27 +10422,27 @@
       <c r="G3" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="H3" s="83" t="s">
+      <c r="H3" s="89" t="s">
         <v>189</v>
       </c>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="84"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="90"/>
       <c r="P3" s="31">
         <v>0.36041666666666666</v>
       </c>
-      <c r="Q3" s="83" t="s">
+      <c r="Q3" s="89" t="s">
         <v>189</v>
       </c>
-      <c r="R3" s="88"/>
-      <c r="S3" s="88"/>
-      <c r="T3" s="88"/>
-      <c r="U3" s="88"/>
-      <c r="V3" s="88"/>
+      <c r="R3" s="96"/>
+      <c r="S3" s="96"/>
+      <c r="T3" s="96"/>
+      <c r="U3" s="96"/>
+      <c r="V3" s="96"/>
       <c r="W3" s="37">
         <v>0.36319444444444443</v>
       </c>
@@ -10302,22 +10451,22 @@
       <c r="Z3" s="20"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="104" t="s">
         <v>133</v>
       </c>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="99" t="s">
         <v>98</v>
       </c>
       <c r="D4" s="23">
         <v>1</v>
       </c>
-      <c r="E4" s="69" t="s">
+      <c r="E4" s="78" t="s">
         <v>135</v>
       </c>
-      <c r="F4" s="69"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="24"/>
       <c r="H4" s="23" t="s">
         <v>136</v>
@@ -10372,14 +10521,14 @@
       <c r="Z4" s="13"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A5" s="96"/>
-      <c r="B5" s="99"/>
-      <c r="C5" s="91"/>
+      <c r="A5" s="105"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="99"/>
       <c r="D5" s="23">
         <v>2</v>
       </c>
-      <c r="E5" s="68"/>
-      <c r="F5" s="69"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="24"/>
       <c r="H5" s="23" t="s">
         <v>136</v>
@@ -10434,14 +10583,14 @@
       <c r="Z5" s="13"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A6" s="96"/>
-      <c r="B6" s="99"/>
-      <c r="C6" s="91"/>
+      <c r="A6" s="105"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="99"/>
       <c r="D6" s="23">
         <v>3</v>
       </c>
-      <c r="E6" s="68"/>
-      <c r="F6" s="69"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="24"/>
       <c r="H6" s="23" t="s">
         <v>137</v>
@@ -10496,14 +10645,14 @@
       <c r="Z6" s="13"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A7" s="96"/>
-      <c r="B7" s="99"/>
-      <c r="C7" s="91"/>
+      <c r="A7" s="105"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="99"/>
       <c r="D7" s="23">
         <v>4</v>
       </c>
-      <c r="E7" s="68"/>
-      <c r="F7" s="69"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="24"/>
       <c r="H7" s="23" t="s">
         <v>137</v>
@@ -10558,14 +10707,14 @@
       <c r="Z7" s="13"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A8" s="96"/>
-      <c r="B8" s="99"/>
-      <c r="C8" s="91"/>
+      <c r="A8" s="105"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="99"/>
       <c r="D8" s="23">
         <v>5</v>
       </c>
-      <c r="E8" s="68"/>
-      <c r="F8" s="69"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="78"/>
       <c r="G8" s="24"/>
       <c r="H8" s="23" t="s">
         <v>138</v>
@@ -10620,23 +10769,23 @@
       <c r="Z8" s="13"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A9" s="96"/>
-      <c r="B9" s="99"/>
+      <c r="A9" s="105"/>
+      <c r="B9" s="108"/>
       <c r="C9" s="26"/>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="68"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="77"/>
+      <c r="Q9" s="77"/>
       <c r="R9" s="27"/>
       <c r="S9" s="27"/>
       <c r="T9" s="27"/>
@@ -10648,15 +10797,15 @@
       <c r="Z9" s="21"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A10" s="96"/>
-      <c r="B10" s="99"/>
+      <c r="A10" s="105"/>
+      <c r="B10" s="108"/>
       <c r="C10" s="26"/>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
       <c r="L10" s="23"/>
@@ -10680,18 +10829,18 @@
       <c r="Z10" s="11"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A11" s="96"/>
-      <c r="B11" s="99"/>
-      <c r="C11" s="91" t="s">
+      <c r="A11" s="105"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="99" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="23">
         <v>1</v>
       </c>
-      <c r="E11" s="69" t="s">
+      <c r="E11" s="78" t="s">
         <v>135</v>
       </c>
-      <c r="F11" s="69"/>
+      <c r="F11" s="78"/>
       <c r="G11" s="24"/>
       <c r="H11" s="24" t="s">
         <v>196</v>
@@ -10746,14 +10895,14 @@
       <c r="Z11" s="11"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A12" s="96"/>
-      <c r="B12" s="99"/>
-      <c r="C12" s="91"/>
+      <c r="A12" s="105"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="99"/>
       <c r="D12" s="23">
         <v>2</v>
       </c>
-      <c r="E12" s="68"/>
-      <c r="F12" s="69"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="78"/>
       <c r="G12" s="24"/>
       <c r="H12" s="24" t="s">
         <v>197</v>
@@ -10808,14 +10957,14 @@
       <c r="Z12" s="11"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A13" s="96"/>
-      <c r="B13" s="99"/>
-      <c r="C13" s="91"/>
+      <c r="A13" s="105"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="99"/>
       <c r="D13" s="23">
         <v>3</v>
       </c>
-      <c r="E13" s="68"/>
-      <c r="F13" s="69"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="78"/>
       <c r="G13" s="24"/>
       <c r="H13" s="24" t="s">
         <v>197</v>
@@ -10870,14 +11019,14 @@
       <c r="Z13" s="11"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A14" s="96"/>
-      <c r="B14" s="99"/>
-      <c r="C14" s="91"/>
+      <c r="A14" s="105"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="99"/>
       <c r="D14" s="23">
         <v>4</v>
       </c>
-      <c r="E14" s="68"/>
-      <c r="F14" s="69"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="78"/>
       <c r="G14" s="24"/>
       <c r="H14" s="24" t="s">
         <v>198</v>
@@ -10932,14 +11081,14 @@
       <c r="Z14" s="11"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A15" s="96"/>
-      <c r="B15" s="99"/>
-      <c r="C15" s="91"/>
+      <c r="A15" s="105"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="99"/>
       <c r="D15" s="23">
         <v>5</v>
       </c>
-      <c r="E15" s="68"/>
-      <c r="F15" s="69"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="78"/>
       <c r="G15" s="24"/>
       <c r="H15" s="24" t="s">
         <v>199</v>
@@ -10994,23 +11143,23 @@
       <c r="Z15" s="11"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A16" s="96"/>
-      <c r="B16" s="100"/>
+      <c r="A16" s="105"/>
+      <c r="B16" s="109"/>
       <c r="C16" s="29"/>
       <c r="D16" s="22"/>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="107" t="s">
+      <c r="H16" s="116" t="s">
         <v>178</v>
       </c>
-      <c r="I16" s="108"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="108"/>
-      <c r="M16" s="108"/>
-      <c r="N16" s="108"/>
-      <c r="O16" s="109"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="117"/>
+      <c r="L16" s="117"/>
+      <c r="M16" s="117"/>
+      <c r="N16" s="117"/>
+      <c r="O16" s="118"/>
       <c r="P16" s="36"/>
       <c r="Q16" s="36"/>
       <c r="R16" s="36"/>
@@ -11024,21 +11173,21 @@
       <c r="Z16" s="11"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A17" s="96"/>
-      <c r="B17" s="91" t="s">
+      <c r="A17" s="105"/>
+      <c r="B17" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="91" t="s">
+      <c r="C17" s="99" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="23">
         <v>1</v>
       </c>
-      <c r="E17" s="69" t="s">
+      <c r="E17" s="78" t="s">
         <v>139</v>
       </c>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69" t="s">
+      <c r="F17" s="78"/>
+      <c r="G17" s="78" t="s">
         <v>141</v>
       </c>
       <c r="H17" s="24" t="s">
@@ -11078,15 +11227,15 @@
       <c r="Z17" s="11"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A18" s="96"/>
-      <c r="B18" s="91"/>
-      <c r="C18" s="91"/>
+      <c r="A18" s="105"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="99"/>
       <c r="D18" s="23">
         <v>2</v>
       </c>
-      <c r="E18" s="68"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
       <c r="H18" s="24" t="s">
         <v>143</v>
       </c>
@@ -11124,15 +11273,15 @@
       <c r="Z18" s="11"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A19" s="96"/>
-      <c r="B19" s="91"/>
-      <c r="C19" s="91"/>
+      <c r="A19" s="105"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="99"/>
       <c r="D19" s="23">
         <v>3</v>
       </c>
-      <c r="E19" s="68"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
       <c r="H19" s="24" t="s">
         <v>144</v>
       </c>
@@ -11170,15 +11319,15 @@
       <c r="Z19" s="11"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A20" s="96"/>
-      <c r="B20" s="91"/>
-      <c r="C20" s="91"/>
+      <c r="A20" s="105"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="99"/>
       <c r="D20" s="23">
         <v>4</v>
       </c>
-      <c r="E20" s="68"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
       <c r="H20" s="24" t="s">
         <v>145</v>
       </c>
@@ -11216,15 +11365,15 @@
       <c r="Z20" s="11"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A21" s="97"/>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
+      <c r="A21" s="106"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="99"/>
       <c r="D21" s="23">
         <v>5</v>
       </c>
-      <c r="E21" s="68"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
       <c r="H21" s="24" t="s">
         <v>146</v>
       </c>
@@ -11277,16 +11426,16 @@
       <c r="G22" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="H22" s="89" t="s">
+      <c r="H22" s="97" t="s">
         <v>189</v>
       </c>
-      <c r="I22" s="92"/>
-      <c r="J22" s="92"/>
-      <c r="K22" s="92"/>
-      <c r="L22" s="92"/>
-      <c r="M22" s="92"/>
-      <c r="N22" s="92"/>
-      <c r="O22" s="90"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="100"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="100"/>
+      <c r="M22" s="100"/>
+      <c r="N22" s="100"/>
+      <c r="O22" s="98"/>
       <c r="P22" s="32" t="s">
         <v>248</v>
       </c>
@@ -11302,25 +11451,25 @@
       <c r="Z22" s="11"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A23" s="95" t="s">
+      <c r="A23" s="104" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="91" t="s">
+      <c r="B23" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="91" t="s">
+      <c r="C23" s="99" t="s">
         <v>98</v>
       </c>
       <c r="D23" s="23">
         <v>1</v>
       </c>
-      <c r="E23" s="69" t="s">
+      <c r="E23" s="78" t="s">
         <v>230</v>
       </c>
-      <c r="F23" s="70" t="s">
+      <c r="F23" s="79" t="s">
         <v>291</v>
       </c>
-      <c r="G23" s="69" t="s">
+      <c r="G23" s="78" t="s">
         <v>292</v>
       </c>
       <c r="H23" s="24" t="s">
@@ -11376,15 +11525,15 @@
       <c r="Z23" s="11"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A24" s="96"/>
-      <c r="B24" s="91"/>
-      <c r="C24" s="91"/>
+      <c r="A24" s="105"/>
+      <c r="B24" s="99"/>
+      <c r="C24" s="99"/>
       <c r="D24" s="23">
         <v>2</v>
       </c>
-      <c r="E24" s="68"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="69"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="78"/>
       <c r="H24" s="24" t="s">
         <v>232</v>
       </c>
@@ -11438,15 +11587,15 @@
       <c r="Z24" s="11"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A25" s="96"/>
-      <c r="B25" s="91"/>
-      <c r="C25" s="91"/>
+      <c r="A25" s="105"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="99"/>
       <c r="D25" s="23">
         <v>3</v>
       </c>
-      <c r="E25" s="68"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="69"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="78"/>
       <c r="H25" s="24" t="s">
         <v>231</v>
       </c>
@@ -11500,15 +11649,15 @@
       <c r="Z25" s="11"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A26" s="96"/>
-      <c r="B26" s="91"/>
-      <c r="C26" s="91"/>
+      <c r="A26" s="105"/>
+      <c r="B26" s="99"/>
+      <c r="C26" s="99"/>
       <c r="D26" s="23">
         <v>4</v>
       </c>
-      <c r="E26" s="68"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="69"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="78"/>
       <c r="H26" s="24" t="s">
         <v>231</v>
       </c>
@@ -11562,15 +11711,15 @@
       <c r="Z26" s="11"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A27" s="96"/>
-      <c r="B27" s="91"/>
-      <c r="C27" s="91"/>
+      <c r="A27" s="105"/>
+      <c r="B27" s="99"/>
+      <c r="C27" s="99"/>
       <c r="D27" s="23">
         <v>5</v>
       </c>
-      <c r="E27" s="68"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="69"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="78"/>
       <c r="H27" s="24" t="s">
         <v>231</v>
       </c>
@@ -11624,8 +11773,8 @@
       <c r="Z27" s="11"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A28" s="96"/>
-      <c r="B28" s="91"/>
+      <c r="A28" s="105"/>
+      <c r="B28" s="99"/>
       <c r="C28" s="26"/>
       <c r="D28" s="23"/>
       <c r="E28" s="23"/>
@@ -11652,8 +11801,8 @@
       <c r="Z28" s="11"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A29" s="96"/>
-      <c r="B29" s="91"/>
+      <c r="A29" s="105"/>
+      <c r="B29" s="99"/>
       <c r="C29" s="26"/>
       <c r="D29" s="23"/>
       <c r="E29" s="23"/>
@@ -11682,21 +11831,21 @@
       <c r="Z29" s="11"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A30" s="96"/>
-      <c r="B30" s="91"/>
-      <c r="C30" s="91" t="s">
+      <c r="A30" s="105"/>
+      <c r="B30" s="99"/>
+      <c r="C30" s="99" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="23">
         <v>1</v>
       </c>
-      <c r="E30" s="69" t="s">
+      <c r="E30" s="78" t="s">
         <v>230</v>
       </c>
-      <c r="F30" s="70" t="s">
+      <c r="F30" s="79" t="s">
         <v>291</v>
       </c>
-      <c r="G30" s="69" t="s">
+      <c r="G30" s="78" t="s">
         <v>292</v>
       </c>
       <c r="H30" s="24" t="s">
@@ -11752,15 +11901,15 @@
       <c r="Z30" s="11"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A31" s="96"/>
-      <c r="B31" s="91"/>
-      <c r="C31" s="91"/>
+      <c r="A31" s="105"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="99"/>
       <c r="D31" s="23">
         <v>2</v>
       </c>
-      <c r="E31" s="68"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="69"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="78"/>
       <c r="H31" s="24" t="s">
         <v>238</v>
       </c>
@@ -11814,15 +11963,15 @@
       <c r="Z31" s="11"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A32" s="96"/>
-      <c r="B32" s="91"/>
-      <c r="C32" s="91"/>
+      <c r="A32" s="105"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="99"/>
       <c r="D32" s="23">
         <v>3</v>
       </c>
-      <c r="E32" s="68"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="69"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="78"/>
       <c r="H32" s="24" t="s">
         <v>238</v>
       </c>
@@ -11876,15 +12025,15 @@
       <c r="Z32" s="11"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A33" s="96"/>
-      <c r="B33" s="91"/>
-      <c r="C33" s="91"/>
+      <c r="A33" s="105"/>
+      <c r="B33" s="99"/>
+      <c r="C33" s="99"/>
       <c r="D33" s="23">
         <v>4</v>
       </c>
-      <c r="E33" s="68"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="69"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="78"/>
       <c r="H33" s="24" t="s">
         <v>238</v>
       </c>
@@ -11935,15 +12084,15 @@
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A34" s="96"/>
-      <c r="B34" s="91"/>
-      <c r="C34" s="91"/>
+      <c r="A34" s="105"/>
+      <c r="B34" s="99"/>
+      <c r="C34" s="99"/>
       <c r="D34" s="23">
         <v>5</v>
       </c>
-      <c r="E34" s="68"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="69"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="78"/>
       <c r="H34" s="24" t="s">
         <v>239</v>
       </c>
@@ -11994,8 +12143,8 @@
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A35" s="96"/>
-      <c r="B35" s="91"/>
+      <c r="A35" s="105"/>
+      <c r="B35" s="99"/>
       <c r="C35" s="26"/>
       <c r="D35" s="23"/>
       <c r="E35" s="23"/>
@@ -12019,21 +12168,21 @@
       <c r="W35" s="26"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A36" s="96"/>
-      <c r="B36" s="91" t="s">
+      <c r="A36" s="105"/>
+      <c r="B36" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="91" t="s">
+      <c r="C36" s="99" t="s">
         <v>10</v>
       </c>
       <c r="D36" s="23">
         <v>1</v>
       </c>
-      <c r="E36" s="70" t="s">
+      <c r="E36" s="79" t="s">
         <v>293</v>
       </c>
-      <c r="F36" s="69"/>
-      <c r="G36" s="69" t="s">
+      <c r="F36" s="78"/>
+      <c r="G36" s="78" t="s">
         <v>292</v>
       </c>
       <c r="H36" s="26"/>
@@ -12082,15 +12231,15 @@
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A37" s="96"/>
-      <c r="B37" s="91"/>
-      <c r="C37" s="91"/>
+      <c r="A37" s="105"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="99"/>
       <c r="D37" s="23">
         <v>2</v>
       </c>
-      <c r="E37" s="77"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="69"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="78"/>
       <c r="H37" s="26"/>
       <c r="I37" s="26"/>
       <c r="J37" s="24" t="s">
@@ -12137,15 +12286,15 @@
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A38" s="96"/>
-      <c r="B38" s="91"/>
-      <c r="C38" s="91"/>
+      <c r="A38" s="105"/>
+      <c r="B38" s="99"/>
+      <c r="C38" s="99"/>
       <c r="D38" s="23">
         <v>3</v>
       </c>
-      <c r="E38" s="77"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="69"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="78"/>
       <c r="H38" s="26"/>
       <c r="I38" s="26"/>
       <c r="J38" s="24" t="s">
@@ -12192,15 +12341,15 @@
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A39" s="96"/>
-      <c r="B39" s="91"/>
-      <c r="C39" s="91"/>
+      <c r="A39" s="105"/>
+      <c r="B39" s="99"/>
+      <c r="C39" s="99"/>
       <c r="D39" s="23">
         <v>4</v>
       </c>
-      <c r="E39" s="77"/>
-      <c r="F39" s="69"/>
-      <c r="G39" s="69"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="78"/>
       <c r="H39" s="26"/>
       <c r="I39" s="26"/>
       <c r="J39" s="24" t="s">
@@ -12247,15 +12396,15 @@
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A40" s="97"/>
-      <c r="B40" s="91"/>
-      <c r="C40" s="91"/>
+      <c r="A40" s="106"/>
+      <c r="B40" s="99"/>
+      <c r="C40" s="99"/>
       <c r="D40" s="23">
         <v>5</v>
       </c>
-      <c r="E40" s="77"/>
-      <c r="F40" s="69"/>
-      <c r="G40" s="69"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="78"/>
       <c r="H40" s="26"/>
       <c r="I40" s="26"/>
       <c r="J40" s="24" t="s">
@@ -12317,37 +12466,37 @@
       <c r="G41" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="H41" s="68" t="s">
+      <c r="H41" s="77" t="s">
         <v>189</v>
       </c>
-      <c r="I41" s="68"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="68"/>
-      <c r="L41" s="68"/>
-      <c r="M41" s="68"/>
-      <c r="N41" s="68"/>
-      <c r="O41" s="68"/>
+      <c r="I41" s="77"/>
+      <c r="J41" s="77"/>
+      <c r="K41" s="77"/>
+      <c r="L41" s="77"/>
+      <c r="M41" s="77"/>
+      <c r="N41" s="77"/>
+      <c r="O41" s="77"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A42" s="69" t="s">
+      <c r="A42" s="78" t="s">
         <v>294</v>
       </c>
-      <c r="B42" s="91" t="s">
+      <c r="B42" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="91" t="s">
+      <c r="C42" s="99" t="s">
         <v>98</v>
       </c>
       <c r="D42" s="23">
         <v>1</v>
       </c>
-      <c r="E42" s="69" t="s">
+      <c r="E42" s="78" t="s">
         <v>295</v>
       </c>
-      <c r="F42" s="69" t="s">
+      <c r="F42" s="78" t="s">
         <v>296</v>
       </c>
-      <c r="G42" s="69"/>
+      <c r="G42" s="78"/>
       <c r="H42" s="24" t="s">
         <v>297</v>
       </c>
@@ -12374,15 +12523,15 @@
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A43" s="69"/>
-      <c r="B43" s="91"/>
-      <c r="C43" s="91"/>
+      <c r="A43" s="78"/>
+      <c r="B43" s="99"/>
+      <c r="C43" s="99"/>
       <c r="D43" s="23">
         <v>2</v>
       </c>
-      <c r="E43" s="68"/>
-      <c r="F43" s="69"/>
-      <c r="G43" s="69"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="78"/>
       <c r="H43" s="24" t="s">
         <v>298</v>
       </c>
@@ -12409,15 +12558,15 @@
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A44" s="69"/>
-      <c r="B44" s="91"/>
-      <c r="C44" s="91"/>
+      <c r="A44" s="78"/>
+      <c r="B44" s="99"/>
+      <c r="C44" s="99"/>
       <c r="D44" s="23">
         <v>3</v>
       </c>
-      <c r="E44" s="68"/>
-      <c r="F44" s="69"/>
-      <c r="G44" s="69"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="78"/>
+      <c r="G44" s="78"/>
       <c r="H44" s="24" t="s">
         <v>299</v>
       </c>
@@ -12444,15 +12593,15 @@
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A45" s="69"/>
-      <c r="B45" s="91"/>
-      <c r="C45" s="91"/>
+      <c r="A45" s="78"/>
+      <c r="B45" s="99"/>
+      <c r="C45" s="99"/>
       <c r="D45" s="23">
         <v>4</v>
       </c>
-      <c r="E45" s="68"/>
-      <c r="F45" s="69"/>
-      <c r="G45" s="69"/>
+      <c r="E45" s="77"/>
+      <c r="F45" s="78"/>
+      <c r="G45" s="78"/>
       <c r="H45" s="24" t="s">
         <v>299</v>
       </c>
@@ -12479,15 +12628,15 @@
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A46" s="69"/>
-      <c r="B46" s="91"/>
-      <c r="C46" s="91"/>
+      <c r="A46" s="78"/>
+      <c r="B46" s="99"/>
+      <c r="C46" s="99"/>
       <c r="D46" s="23">
         <v>5</v>
       </c>
-      <c r="E46" s="68"/>
-      <c r="F46" s="69"/>
-      <c r="G46" s="69"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="78"/>
+      <c r="G46" s="78"/>
       <c r="H46" s="24" t="s">
         <v>299</v>
       </c>
@@ -12514,8 +12663,8 @@
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A47" s="69"/>
-      <c r="B47" s="91"/>
+      <c r="A47" s="78"/>
+      <c r="B47" s="99"/>
       <c r="C47" s="26"/>
       <c r="D47" s="23"/>
       <c r="E47" s="23"/>
@@ -12531,8 +12680,8 @@
       <c r="O47" s="23"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A48" s="69"/>
-      <c r="B48" s="91"/>
+      <c r="A48" s="78"/>
+      <c r="B48" s="99"/>
       <c r="C48" s="26"/>
       <c r="D48" s="23"/>
       <c r="E48" s="23"/>
@@ -12548,21 +12697,21 @@
       <c r="O48" s="23"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A49" s="69"/>
-      <c r="B49" s="91"/>
-      <c r="C49" s="91" t="s">
+      <c r="A49" s="78"/>
+      <c r="B49" s="99"/>
+      <c r="C49" s="99" t="s">
         <v>2</v>
       </c>
       <c r="D49" s="23">
         <v>1</v>
       </c>
-      <c r="E49" s="69" t="s">
+      <c r="E49" s="78" t="s">
         <v>295</v>
       </c>
-      <c r="F49" s="69" t="s">
+      <c r="F49" s="78" t="s">
         <v>296</v>
       </c>
-      <c r="G49" s="69"/>
+      <c r="G49" s="78"/>
       <c r="H49" s="24" t="s">
         <v>309</v>
       </c>
@@ -12589,15 +12738,15 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A50" s="69"/>
-      <c r="B50" s="91"/>
-      <c r="C50" s="91"/>
+      <c r="A50" s="78"/>
+      <c r="B50" s="99"/>
+      <c r="C50" s="99"/>
       <c r="D50" s="23">
         <v>2</v>
       </c>
-      <c r="E50" s="68"/>
-      <c r="F50" s="69"/>
-      <c r="G50" s="69"/>
+      <c r="E50" s="77"/>
+      <c r="F50" s="78"/>
+      <c r="G50" s="78"/>
       <c r="H50" s="24" t="s">
         <v>309</v>
       </c>
@@ -12624,15 +12773,15 @@
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A51" s="69"/>
-      <c r="B51" s="91"/>
-      <c r="C51" s="91"/>
+      <c r="A51" s="78"/>
+      <c r="B51" s="99"/>
+      <c r="C51" s="99"/>
       <c r="D51" s="23">
         <v>3</v>
       </c>
-      <c r="E51" s="68"/>
-      <c r="F51" s="69"/>
-      <c r="G51" s="69"/>
+      <c r="E51" s="77"/>
+      <c r="F51" s="78"/>
+      <c r="G51" s="78"/>
       <c r="H51" s="24" t="s">
         <v>310</v>
       </c>
@@ -12659,15 +12808,15 @@
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A52" s="69"/>
-      <c r="B52" s="91"/>
-      <c r="C52" s="91"/>
+      <c r="A52" s="78"/>
+      <c r="B52" s="99"/>
+      <c r="C52" s="99"/>
       <c r="D52" s="23">
         <v>4</v>
       </c>
-      <c r="E52" s="68"/>
-      <c r="F52" s="69"/>
-      <c r="G52" s="69"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="78"/>
+      <c r="G52" s="78"/>
       <c r="H52" s="24" t="s">
         <v>310</v>
       </c>
@@ -12694,15 +12843,15 @@
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A53" s="69"/>
-      <c r="B53" s="91"/>
-      <c r="C53" s="91"/>
+      <c r="A53" s="78"/>
+      <c r="B53" s="99"/>
+      <c r="C53" s="99"/>
       <c r="D53" s="23">
         <v>5</v>
       </c>
-      <c r="E53" s="68"/>
-      <c r="F53" s="69"/>
-      <c r="G53" s="69"/>
+      <c r="E53" s="77"/>
+      <c r="F53" s="78"/>
+      <c r="G53" s="78"/>
       <c r="H53" s="24" t="s">
         <v>309</v>
       </c>
@@ -12729,8 +12878,8 @@
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A54" s="69"/>
-      <c r="B54" s="91"/>
+      <c r="A54" s="78"/>
+      <c r="B54" s="99"/>
       <c r="C54" s="26"/>
       <c r="D54" s="23"/>
       <c r="E54" s="23"/>
@@ -12746,23 +12895,23 @@
       <c r="O54" s="23"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A55" s="69"/>
-      <c r="B55" s="91" t="s">
+      <c r="A55" s="78"/>
+      <c r="B55" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="91" t="s">
+      <c r="C55" s="99" t="s">
         <v>10</v>
       </c>
       <c r="D55" s="23">
         <v>1</v>
       </c>
-      <c r="E55" s="69" t="s">
+      <c r="E55" s="78" t="s">
         <v>295</v>
       </c>
-      <c r="F55" s="69" t="s">
+      <c r="F55" s="78" t="s">
         <v>296</v>
       </c>
-      <c r="G55" s="69"/>
+      <c r="G55" s="78"/>
       <c r="H55" s="24" t="s">
         <v>327</v>
       </c>
@@ -12789,15 +12938,15 @@
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A56" s="69"/>
-      <c r="B56" s="91"/>
-      <c r="C56" s="91"/>
+      <c r="A56" s="78"/>
+      <c r="B56" s="99"/>
+      <c r="C56" s="99"/>
       <c r="D56" s="23">
         <v>2</v>
       </c>
-      <c r="E56" s="68"/>
-      <c r="F56" s="69"/>
-      <c r="G56" s="69"/>
+      <c r="E56" s="77"/>
+      <c r="F56" s="78"/>
+      <c r="G56" s="78"/>
       <c r="H56" s="24" t="s">
         <v>328</v>
       </c>
@@ -12824,15 +12973,15 @@
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A57" s="69"/>
-      <c r="B57" s="91"/>
-      <c r="C57" s="91"/>
+      <c r="A57" s="78"/>
+      <c r="B57" s="99"/>
+      <c r="C57" s="99"/>
       <c r="D57" s="23">
         <v>3</v>
       </c>
-      <c r="E57" s="68"/>
-      <c r="F57" s="69"/>
-      <c r="G57" s="69"/>
+      <c r="E57" s="77"/>
+      <c r="F57" s="78"/>
+      <c r="G57" s="78"/>
       <c r="H57" s="24" t="s">
         <v>329</v>
       </c>
@@ -12859,15 +13008,15 @@
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A58" s="69"/>
-      <c r="B58" s="91"/>
-      <c r="C58" s="91"/>
+      <c r="A58" s="78"/>
+      <c r="B58" s="99"/>
+      <c r="C58" s="99"/>
       <c r="D58" s="23">
         <v>4</v>
       </c>
-      <c r="E58" s="68"/>
-      <c r="F58" s="69"/>
-      <c r="G58" s="69"/>
+      <c r="E58" s="77"/>
+      <c r="F58" s="78"/>
+      <c r="G58" s="78"/>
       <c r="H58" s="24" t="s">
         <v>330</v>
       </c>
@@ -12894,15 +13043,15 @@
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A59" s="69"/>
-      <c r="B59" s="91"/>
-      <c r="C59" s="91"/>
+      <c r="A59" s="78"/>
+      <c r="B59" s="99"/>
+      <c r="C59" s="99"/>
       <c r="D59" s="23">
         <v>5</v>
       </c>
-      <c r="E59" s="68"/>
-      <c r="F59" s="69"/>
-      <c r="G59" s="69"/>
+      <c r="E59" s="77"/>
+      <c r="F59" s="78"/>
+      <c r="G59" s="78"/>
       <c r="H59" s="24" t="s">
         <v>331</v>
       </c>
@@ -12944,37 +13093,37 @@
       <c r="G60" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="H60" s="68" t="s">
+      <c r="H60" s="77" t="s">
         <v>189</v>
       </c>
-      <c r="I60" s="68"/>
-      <c r="J60" s="68"/>
-      <c r="K60" s="68"/>
-      <c r="L60" s="68"/>
-      <c r="M60" s="68"/>
-      <c r="N60" s="68"/>
-      <c r="O60" s="68"/>
+      <c r="I60" s="77"/>
+      <c r="J60" s="77"/>
+      <c r="K60" s="77"/>
+      <c r="L60" s="77"/>
+      <c r="M60" s="77"/>
+      <c r="N60" s="77"/>
+      <c r="O60" s="77"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A61" s="69" t="s">
+      <c r="A61" s="78" t="s">
         <v>134</v>
       </c>
-      <c r="B61" s="91" t="s">
+      <c r="B61" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="91" t="s">
+      <c r="C61" s="99" t="s">
         <v>98</v>
       </c>
       <c r="D61" s="23">
         <v>1</v>
       </c>
-      <c r="E61" s="69" t="s">
+      <c r="E61" s="78" t="s">
         <v>366</v>
       </c>
-      <c r="F61" s="69" t="s">
+      <c r="F61" s="78" t="s">
         <v>367</v>
       </c>
-      <c r="G61" s="69" t="s">
+      <c r="G61" s="78" t="s">
         <v>368</v>
       </c>
       <c r="H61" s="24" t="s">
@@ -13003,15 +13152,15 @@
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A62" s="69"/>
-      <c r="B62" s="91"/>
-      <c r="C62" s="91"/>
+      <c r="A62" s="78"/>
+      <c r="B62" s="99"/>
+      <c r="C62" s="99"/>
       <c r="D62" s="23">
         <v>2</v>
       </c>
-      <c r="E62" s="68"/>
-      <c r="F62" s="69"/>
-      <c r="G62" s="69"/>
+      <c r="E62" s="77"/>
+      <c r="F62" s="78"/>
+      <c r="G62" s="78"/>
       <c r="H62" s="24" t="s">
         <v>370</v>
       </c>
@@ -13038,15 +13187,15 @@
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A63" s="69"/>
-      <c r="B63" s="91"/>
-      <c r="C63" s="91"/>
+      <c r="A63" s="78"/>
+      <c r="B63" s="99"/>
+      <c r="C63" s="99"/>
       <c r="D63" s="23">
         <v>3</v>
       </c>
-      <c r="E63" s="68"/>
-      <c r="F63" s="69"/>
-      <c r="G63" s="69"/>
+      <c r="E63" s="77"/>
+      <c r="F63" s="78"/>
+      <c r="G63" s="78"/>
       <c r="H63" s="24" t="s">
         <v>370</v>
       </c>
@@ -13073,15 +13222,15 @@
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A64" s="69"/>
-      <c r="B64" s="91"/>
-      <c r="C64" s="91"/>
+      <c r="A64" s="78"/>
+      <c r="B64" s="99"/>
+      <c r="C64" s="99"/>
       <c r="D64" s="23">
         <v>4</v>
       </c>
-      <c r="E64" s="68"/>
-      <c r="F64" s="69"/>
-      <c r="G64" s="69"/>
+      <c r="E64" s="77"/>
+      <c r="F64" s="78"/>
+      <c r="G64" s="78"/>
       <c r="H64" s="24" t="s">
         <v>369</v>
       </c>
@@ -13108,15 +13257,15 @@
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A65" s="69"/>
-      <c r="B65" s="91"/>
-      <c r="C65" s="91"/>
+      <c r="A65" s="78"/>
+      <c r="B65" s="99"/>
+      <c r="C65" s="99"/>
       <c r="D65" s="23">
         <v>5</v>
       </c>
-      <c r="E65" s="68"/>
-      <c r="F65" s="69"/>
-      <c r="G65" s="69"/>
+      <c r="E65" s="77"/>
+      <c r="F65" s="78"/>
+      <c r="G65" s="78"/>
       <c r="H65" s="24" t="s">
         <v>369</v>
       </c>
@@ -13143,8 +13292,8 @@
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A66" s="69"/>
-      <c r="B66" s="91"/>
+      <c r="A66" s="78"/>
+      <c r="B66" s="99"/>
       <c r="C66" s="26"/>
       <c r="D66" s="23"/>
       <c r="E66" s="23"/>
@@ -13160,8 +13309,8 @@
       <c r="O66" s="23"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A67" s="69"/>
-      <c r="B67" s="91"/>
+      <c r="A67" s="78"/>
+      <c r="B67" s="99"/>
       <c r="C67" s="26"/>
       <c r="D67" s="23"/>
       <c r="E67" s="23"/>
@@ -13177,21 +13326,21 @@
       <c r="O67" s="23"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A68" s="69"/>
-      <c r="B68" s="91"/>
-      <c r="C68" s="91" t="s">
+      <c r="A68" s="78"/>
+      <c r="B68" s="99"/>
+      <c r="C68" s="99" t="s">
         <v>2</v>
       </c>
       <c r="D68" s="23">
         <v>1</v>
       </c>
-      <c r="E68" s="69" t="s">
+      <c r="E68" s="78" t="s">
         <v>366</v>
       </c>
-      <c r="F68" s="69" t="s">
+      <c r="F68" s="78" t="s">
         <v>367</v>
       </c>
-      <c r="G68" s="69" t="s">
+      <c r="G68" s="78" t="s">
         <v>368</v>
       </c>
       <c r="H68" s="23" t="s">
@@ -13220,15 +13369,15 @@
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A69" s="69"/>
-      <c r="B69" s="91"/>
-      <c r="C69" s="91"/>
+      <c r="A69" s="78"/>
+      <c r="B69" s="99"/>
+      <c r="C69" s="99"/>
       <c r="D69" s="23">
         <v>2</v>
       </c>
-      <c r="E69" s="68"/>
-      <c r="F69" s="69"/>
-      <c r="G69" s="69"/>
+      <c r="E69" s="77"/>
+      <c r="F69" s="78"/>
+      <c r="G69" s="78"/>
       <c r="H69" s="23" t="s">
         <v>375</v>
       </c>
@@ -13255,15 +13404,15 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A70" s="69"/>
-      <c r="B70" s="91"/>
-      <c r="C70" s="91"/>
+      <c r="A70" s="78"/>
+      <c r="B70" s="99"/>
+      <c r="C70" s="99"/>
       <c r="D70" s="23">
         <v>3</v>
       </c>
-      <c r="E70" s="68"/>
-      <c r="F70" s="69"/>
-      <c r="G70" s="69"/>
+      <c r="E70" s="77"/>
+      <c r="F70" s="78"/>
+      <c r="G70" s="78"/>
       <c r="H70" s="23" t="s">
         <v>376</v>
       </c>
@@ -13290,15 +13439,15 @@
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A71" s="69"/>
-      <c r="B71" s="91"/>
-      <c r="C71" s="91"/>
+      <c r="A71" s="78"/>
+      <c r="B71" s="99"/>
+      <c r="C71" s="99"/>
       <c r="D71" s="23">
         <v>4</v>
       </c>
-      <c r="E71" s="68"/>
-      <c r="F71" s="69"/>
-      <c r="G71" s="69"/>
+      <c r="E71" s="77"/>
+      <c r="F71" s="78"/>
+      <c r="G71" s="78"/>
       <c r="H71" s="23" t="s">
         <v>375</v>
       </c>
@@ -13325,15 +13474,15 @@
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A72" s="69"/>
-      <c r="B72" s="91"/>
-      <c r="C72" s="91"/>
+      <c r="A72" s="78"/>
+      <c r="B72" s="99"/>
+      <c r="C72" s="99"/>
       <c r="D72" s="23">
         <v>5</v>
       </c>
-      <c r="E72" s="68"/>
-      <c r="F72" s="69"/>
-      <c r="G72" s="69"/>
+      <c r="E72" s="77"/>
+      <c r="F72" s="78"/>
+      <c r="G72" s="78"/>
       <c r="H72" s="23" t="s">
         <v>376</v>
       </c>
@@ -13360,8 +13509,8 @@
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A73" s="69"/>
-      <c r="B73" s="91"/>
+      <c r="A73" s="78"/>
+      <c r="B73" s="99"/>
       <c r="C73" s="26"/>
       <c r="D73" s="23"/>
       <c r="E73" s="23"/>
@@ -13377,23 +13526,23 @@
       <c r="O73" s="23"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A74" s="69"/>
-      <c r="B74" s="91" t="s">
+      <c r="A74" s="78"/>
+      <c r="B74" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="C74" s="91" t="s">
+      <c r="C74" s="99" t="s">
         <v>10</v>
       </c>
       <c r="D74" s="23">
         <v>1</v>
       </c>
-      <c r="E74" s="69" t="s">
+      <c r="E74" s="78" t="s">
         <v>366</v>
       </c>
-      <c r="F74" s="69" t="s">
+      <c r="F74" s="78" t="s">
         <v>367</v>
       </c>
-      <c r="G74" s="69" t="s">
+      <c r="G74" s="78" t="s">
         <v>368</v>
       </c>
       <c r="H74" s="24" t="s">
@@ -13422,15 +13571,15 @@
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A75" s="69"/>
-      <c r="B75" s="91"/>
-      <c r="C75" s="91"/>
+      <c r="A75" s="78"/>
+      <c r="B75" s="99"/>
+      <c r="C75" s="99"/>
       <c r="D75" s="23">
         <v>2</v>
       </c>
-      <c r="E75" s="68"/>
-      <c r="F75" s="69"/>
-      <c r="G75" s="69"/>
+      <c r="E75" s="77"/>
+      <c r="F75" s="78"/>
+      <c r="G75" s="78"/>
       <c r="H75" s="24" t="s">
         <v>390</v>
       </c>
@@ -13457,15 +13606,15 @@
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A76" s="69"/>
-      <c r="B76" s="91"/>
-      <c r="C76" s="91"/>
+      <c r="A76" s="78"/>
+      <c r="B76" s="99"/>
+      <c r="C76" s="99"/>
       <c r="D76" s="23">
         <v>3</v>
       </c>
-      <c r="E76" s="68"/>
-      <c r="F76" s="69"/>
-      <c r="G76" s="69"/>
+      <c r="E76" s="77"/>
+      <c r="F76" s="78"/>
+      <c r="G76" s="78"/>
       <c r="H76" s="24" t="s">
         <v>391</v>
       </c>
@@ -13492,15 +13641,15 @@
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A77" s="69"/>
-      <c r="B77" s="91"/>
-      <c r="C77" s="91"/>
+      <c r="A77" s="78"/>
+      <c r="B77" s="99"/>
+      <c r="C77" s="99"/>
       <c r="D77" s="23">
         <v>4</v>
       </c>
-      <c r="E77" s="68"/>
-      <c r="F77" s="69"/>
-      <c r="G77" s="69"/>
+      <c r="E77" s="77"/>
+      <c r="F77" s="78"/>
+      <c r="G77" s="78"/>
       <c r="H77" s="24" t="s">
         <v>392</v>
       </c>
@@ -13527,15 +13676,15 @@
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A78" s="69"/>
-      <c r="B78" s="91"/>
-      <c r="C78" s="91"/>
+      <c r="A78" s="78"/>
+      <c r="B78" s="99"/>
+      <c r="C78" s="99"/>
       <c r="D78" s="23">
         <v>5</v>
       </c>
-      <c r="E78" s="68"/>
-      <c r="F78" s="69"/>
-      <c r="G78" s="69"/>
+      <c r="E78" s="77"/>
+      <c r="F78" s="78"/>
+      <c r="G78" s="78"/>
       <c r="H78" s="24" t="s">
         <v>393</v>
       </c>
@@ -13747,64 +13896,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="110" t="s">
+      <c r="E2" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="120" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
+      <c r="B3" s="120"/>
+      <c r="C3" s="120"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="115" t="s">
+      <c r="E3" s="124" t="s">
         <v>436</v>
       </c>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115" t="s">
+      <c r="F3" s="124"/>
+      <c r="G3" s="124" t="s">
         <v>437</v>
       </c>
-      <c r="H3" s="115"/>
+      <c r="H3" s="124"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="114" t="s">
+      <c r="C4" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="91"/>
-      <c r="E4" s="114" t="s">
+      <c r="D4" s="99"/>
+      <c r="E4" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="114" t="s">
+      <c r="F4" s="99"/>
+      <c r="G4" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="91"/>
+      <c r="H4" s="99"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
@@ -13829,7 +13978,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="99" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="1">
@@ -13855,7 +14004,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="91"/>
+      <c r="A7" s="99"/>
       <c r="B7" s="1">
         <v>2</v>
       </c>
@@ -13879,7 +14028,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="91"/>
+      <c r="A8" s="99"/>
       <c r="B8" s="1">
         <v>3</v>
       </c>
@@ -13903,7 +14052,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="91"/>
+      <c r="A9" s="99"/>
       <c r="B9" s="7">
         <v>4</v>
       </c>
@@ -13927,7 +14076,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="91"/>
+      <c r="A10" s="99"/>
       <c r="B10" s="7">
         <v>5</v>
       </c>
@@ -13951,7 +14100,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="99" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="1">
@@ -13977,7 +14126,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="91"/>
+      <c r="A12" s="99"/>
       <c r="B12" s="1">
         <v>2</v>
       </c>
@@ -14001,7 +14150,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="91"/>
+      <c r="A13" s="99"/>
       <c r="B13" s="1">
         <v>3</v>
       </c>
@@ -14025,7 +14174,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="91"/>
+      <c r="A14" s="99"/>
       <c r="B14" s="7">
         <v>4</v>
       </c>
@@ -14049,7 +14198,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="91"/>
+      <c r="A15" s="99"/>
       <c r="B15" s="7">
         <v>5</v>
       </c>

--- a/数据记录/记录表单.xlsx
+++ b/数据记录/记录表单.xlsx
@@ -14,12 +14,12 @@
     <sheet name="预测试-仪表-day2" sheetId="6" r:id="rId5"/>
     <sheet name="变阻器" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="80000"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="472">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4155,6 +4155,63 @@
   </si>
   <si>
     <t>太阳可见 无照射 今日较暖和</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳可见 全照射 较亮 冷 有风</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:24前 约11:20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳可见 全照射 略暖 基本无风</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>略热 太阳可见</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 全照射 温度开始未稳定 应为22.1℃</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>略冷 太阳不可见</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 照射情况未知 小风</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>温度后续稳定在2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.2-22.0之间</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4395,7 +4452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4551,6 +4608,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4569,23 +4639,8 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4593,13 +4648,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4635,22 +4693,34 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4662,29 +4732,41 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4707,30 +4789,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4748,6 +4806,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5029,10 +5093,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:M28"/>
+  <dimension ref="A4:AG29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="I10" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5040,108 +5104,234 @@
     <col min="13" max="13" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="59">
+      <c r="B4" s="64">
         <v>42309</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="59">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="64">
         <v>42310</v>
       </c>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="64">
+        <v>42311</v>
+      </c>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="67"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="67"/>
+      <c r="U4" s="67"/>
+      <c r="V4" s="67"/>
+      <c r="W4" s="67"/>
+      <c r="X4" s="67"/>
+      <c r="Y4" s="68"/>
+      <c r="Z4" s="59"/>
+      <c r="AA4" s="58"/>
+      <c r="AB4" s="58"/>
+      <c r="AC4" s="58"/>
+      <c r="AD4" s="59"/>
+      <c r="AE4" s="58"/>
+      <c r="AF4" s="58"/>
+      <c r="AG4" s="58"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A5" s="49" t="s">
         <v>447</v>
       </c>
-      <c r="B5" s="64">
+      <c r="B5" s="69">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="64">
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="69">
         <v>0.68819444444444444</v>
       </c>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="68"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="60">
+        <v>0.41041666666666665</v>
+      </c>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="60">
+        <v>0.46597222222222223</v>
+      </c>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="60">
+        <v>0.52916666666666667</v>
+      </c>
+      <c r="S5" s="61"/>
+      <c r="T5" s="61"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="60">
+        <v>0.65486111111111112</v>
+      </c>
+      <c r="W5" s="61"/>
+      <c r="X5" s="61"/>
+      <c r="Y5" s="62"/>
+      <c r="Z5" s="60"/>
+      <c r="AA5" s="61"/>
+      <c r="AB5" s="61"/>
+      <c r="AC5" s="62"/>
+      <c r="AD5" s="60"/>
+      <c r="AE5" s="61"/>
+      <c r="AF5" s="61"/>
+      <c r="AG5" s="62"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A6" s="49" t="s">
         <v>448</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="60" t="s">
         <v>462</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="68"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="62"/>
+      <c r="V6" s="60"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="61"/>
+      <c r="Y6" s="62"/>
+      <c r="Z6" s="60"/>
+      <c r="AA6" s="61"/>
+      <c r="AB6" s="61"/>
+      <c r="AC6" s="62"/>
+      <c r="AD6" s="60"/>
+      <c r="AE6" s="61"/>
+      <c r="AF6" s="61"/>
+      <c r="AG6" s="62"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A7" s="49" t="s">
         <v>449</v>
       </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="66">
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="60">
         <v>0.69444444444444453</v>
       </c>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="68"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="60">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="60" t="s">
+        <v>467</v>
+      </c>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="60">
+        <v>0.53611111111111109</v>
+      </c>
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="62"/>
+      <c r="V7" s="60">
+        <v>0.66180555555555554</v>
+      </c>
+      <c r="W7" s="61"/>
+      <c r="X7" s="61"/>
+      <c r="Y7" s="62"/>
+      <c r="Z7" s="60"/>
+      <c r="AA7" s="61"/>
+      <c r="AB7" s="61"/>
+      <c r="AC7" s="62"/>
+      <c r="AD7" s="60"/>
+      <c r="AE7" s="61"/>
+      <c r="AF7" s="61"/>
+      <c r="AG7" s="62"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A8" s="49" t="s">
         <v>438</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="69" t="s">
         <v>463</v>
       </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64" t="s">
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69" t="s">
         <v>465</v>
       </c>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="63" t="s">
+        <v>466</v>
+      </c>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63" t="s">
+        <v>468</v>
+      </c>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="126" t="s">
+        <v>469</v>
+      </c>
+      <c r="S8" s="63"/>
+      <c r="T8" s="63"/>
+      <c r="U8" s="63"/>
+      <c r="V8" s="126" t="s">
+        <v>470</v>
+      </c>
+      <c r="W8" s="63"/>
+      <c r="X8" s="63"/>
+      <c r="Y8" s="63"/>
+      <c r="Z8" s="63"/>
+      <c r="AA8" s="63"/>
+      <c r="AB8" s="63"/>
+      <c r="AC8" s="63"/>
+      <c r="AD8" s="63"/>
+      <c r="AE8" s="63"/>
+      <c r="AF8" s="63"/>
+      <c r="AG8" s="63"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A9" s="49" t="s">
         <v>446</v>
       </c>
@@ -5181,8 +5371,68 @@
       <c r="M9" s="50" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N9" s="50" t="s">
+        <v>422</v>
+      </c>
+      <c r="O9" s="50" t="s">
+        <v>423</v>
+      </c>
+      <c r="P9" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="50" t="s">
+        <v>439</v>
+      </c>
+      <c r="R9" s="50" t="s">
+        <v>422</v>
+      </c>
+      <c r="S9" s="50" t="s">
+        <v>423</v>
+      </c>
+      <c r="T9" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="U9" s="50" t="s">
+        <v>439</v>
+      </c>
+      <c r="V9" s="50" t="s">
+        <v>422</v>
+      </c>
+      <c r="W9" s="50" t="s">
+        <v>423</v>
+      </c>
+      <c r="X9" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="50" t="s">
+        <v>439</v>
+      </c>
+      <c r="Z9" s="50" t="s">
+        <v>422</v>
+      </c>
+      <c r="AA9" s="50" t="s">
+        <v>423</v>
+      </c>
+      <c r="AB9" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="50" t="s">
+        <v>439</v>
+      </c>
+      <c r="AD9" s="50" t="s">
+        <v>422</v>
+      </c>
+      <c r="AE9" s="50" t="s">
+        <v>423</v>
+      </c>
+      <c r="AF9" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="50" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A10" s="49">
         <v>117</v>
       </c>
@@ -5210,14 +5460,68 @@
       <c r="I10" s="50" t="s">
         <v>440</v>
       </c>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
+      <c r="J10" s="49">
+        <v>10.71</v>
+      </c>
+      <c r="K10" s="49">
+        <v>0.09</v>
+      </c>
+      <c r="L10" s="49">
+        <v>405.9</v>
+      </c>
       <c r="M10" s="50" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N10" s="49">
+        <v>10.4</v>
+      </c>
+      <c r="O10" s="49">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="P10" s="49">
+        <v>761.7</v>
+      </c>
+      <c r="Q10" s="50" t="s">
+        <v>440</v>
+      </c>
+      <c r="R10" s="49">
+        <v>10.36</v>
+      </c>
+      <c r="S10" s="49">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="T10" s="49">
+        <v>648.6</v>
+      </c>
+      <c r="U10" s="50" t="s">
+        <v>440</v>
+      </c>
+      <c r="V10" s="49">
+        <v>10</v>
+      </c>
+      <c r="W10" s="49">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="X10" s="49">
+        <v>60.5</v>
+      </c>
+      <c r="Y10" s="50" t="s">
+        <v>440</v>
+      </c>
+      <c r="Z10" s="49"/>
+      <c r="AA10" s="49"/>
+      <c r="AB10" s="49"/>
+      <c r="AC10" s="50" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD10" s="49"/>
+      <c r="AE10" s="49"/>
+      <c r="AF10" s="49"/>
+      <c r="AG10" s="50" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A11" s="49">
         <v>107</v>
       </c>
@@ -5245,12 +5549,64 @@
       <c r="I11" s="49">
         <v>19.8</v>
       </c>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J11" s="49">
+        <v>10.92</v>
+      </c>
+      <c r="K11" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="L11" s="49">
+        <v>603</v>
+      </c>
+      <c r="M11" s="49">
+        <v>17.3</v>
+      </c>
+      <c r="N11" s="49">
+        <v>10.4</v>
+      </c>
+      <c r="O11" s="49">
+        <v>9.4E-2</v>
+      </c>
+      <c r="P11" s="49">
+        <v>762.5</v>
+      </c>
+      <c r="Q11" s="49">
+        <v>20.2</v>
+      </c>
+      <c r="R11" s="49">
+        <v>10.32</v>
+      </c>
+      <c r="S11" s="49">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="T11" s="49">
+        <v>605.9</v>
+      </c>
+      <c r="U11" s="49">
+        <v>20.6</v>
+      </c>
+      <c r="V11" s="49">
+        <v>9.98</v>
+      </c>
+      <c r="W11" s="49">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="X11" s="49">
+        <v>62.3</v>
+      </c>
+      <c r="Y11" s="49">
+        <v>19.8</v>
+      </c>
+      <c r="Z11" s="49"/>
+      <c r="AA11" s="49"/>
+      <c r="AB11" s="49"/>
+      <c r="AC11" s="49"/>
+      <c r="AD11" s="49"/>
+      <c r="AE11" s="49"/>
+      <c r="AF11" s="49"/>
+      <c r="AG11" s="49"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A12" s="49">
         <v>97</v>
       </c>
@@ -5278,12 +5634,64 @@
       <c r="I12" s="49">
         <v>43.9</v>
       </c>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J12" s="49">
+        <v>10.84</v>
+      </c>
+      <c r="K12" s="49">
+        <v>0.106</v>
+      </c>
+      <c r="L12" s="49">
+        <v>516</v>
+      </c>
+      <c r="M12" s="49">
+        <v>58.1</v>
+      </c>
+      <c r="N12" s="49">
+        <v>10.41</v>
+      </c>
+      <c r="O12" s="49">
+        <v>0.106</v>
+      </c>
+      <c r="P12" s="49">
+        <v>762.9</v>
+      </c>
+      <c r="Q12" s="49">
+        <v>52</v>
+      </c>
+      <c r="R12" s="49">
+        <v>10.35</v>
+      </c>
+      <c r="S12" s="49">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="T12" s="49">
+        <v>656.4</v>
+      </c>
+      <c r="U12" s="49">
+        <v>50.4</v>
+      </c>
+      <c r="V12" s="49">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="W12" s="49">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="X12" s="49">
+        <v>56.8</v>
+      </c>
+      <c r="Y12" s="49">
+        <v>50</v>
+      </c>
+      <c r="Z12" s="49"/>
+      <c r="AA12" s="49"/>
+      <c r="AB12" s="49"/>
+      <c r="AC12" s="49"/>
+      <c r="AD12" s="49"/>
+      <c r="AE12" s="49"/>
+      <c r="AF12" s="49"/>
+      <c r="AG12" s="49"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A13" s="49">
         <v>87</v>
       </c>
@@ -5307,12 +5715,56 @@
         <v>44.8</v>
       </c>
       <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
+      <c r="J13" s="49">
+        <v>10.88</v>
+      </c>
+      <c r="K13" s="49">
+        <v>0.123</v>
+      </c>
+      <c r="L13" s="49">
+        <v>576.4</v>
+      </c>
       <c r="M13" s="49"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N13" s="49">
+        <v>10.4</v>
+      </c>
+      <c r="O13" s="49">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="P13" s="49">
+        <v>759.2</v>
+      </c>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49">
+        <v>10.32</v>
+      </c>
+      <c r="S13" s="49">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="T13" s="49">
+        <v>639.6</v>
+      </c>
+      <c r="U13" s="49"/>
+      <c r="V13" s="49">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="W13" s="49">
+        <v>0.113</v>
+      </c>
+      <c r="X13" s="49">
+        <v>50.6</v>
+      </c>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="49"/>
+      <c r="AA13" s="49"/>
+      <c r="AB13" s="49"/>
+      <c r="AC13" s="49"/>
+      <c r="AD13" s="49"/>
+      <c r="AE13" s="49"/>
+      <c r="AF13" s="49"/>
+      <c r="AG13" s="49"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A14" s="49">
         <v>77</v>
       </c>
@@ -5336,12 +5788,56 @@
         <v>44.5</v>
       </c>
       <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
+      <c r="J14" s="49">
+        <v>10.93</v>
+      </c>
+      <c r="K14" s="49">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L14" s="49">
+        <v>646.6</v>
+      </c>
       <c r="M14" s="49"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N14" s="49">
+        <v>10.4</v>
+      </c>
+      <c r="O14" s="49">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="P14" s="49">
+        <v>765.3</v>
+      </c>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49">
+        <v>10.39</v>
+      </c>
+      <c r="S14" s="49">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="T14" s="49">
+        <v>737.6</v>
+      </c>
+      <c r="U14" s="49"/>
+      <c r="V14" s="49">
+        <v>9.92</v>
+      </c>
+      <c r="W14" s="49">
+        <v>0.128</v>
+      </c>
+      <c r="X14" s="49">
+        <v>58.2</v>
+      </c>
+      <c r="Y14" s="49"/>
+      <c r="Z14" s="49"/>
+      <c r="AA14" s="49"/>
+      <c r="AB14" s="49"/>
+      <c r="AC14" s="49"/>
+      <c r="AD14" s="49"/>
+      <c r="AE14" s="49"/>
+      <c r="AF14" s="49"/>
+      <c r="AG14" s="49"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A15" s="49">
         <v>67</v>
       </c>
@@ -5369,14 +5865,68 @@
       <c r="I15" s="50" t="s">
         <v>441</v>
       </c>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
+      <c r="J15" s="49">
+        <v>10.79</v>
+      </c>
+      <c r="K15" s="49">
+        <v>0.157</v>
+      </c>
+      <c r="L15" s="49">
+        <v>517.20000000000005</v>
+      </c>
       <c r="M15" s="50" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N15" s="49">
+        <v>10.41</v>
+      </c>
+      <c r="O15" s="49">
+        <v>0.151</v>
+      </c>
+      <c r="P15" s="49">
+        <v>773.9</v>
+      </c>
+      <c r="Q15" s="50" t="s">
+        <v>441</v>
+      </c>
+      <c r="R15" s="49">
+        <v>10.43</v>
+      </c>
+      <c r="S15" s="49">
+        <v>0.153</v>
+      </c>
+      <c r="T15" s="49">
+        <v>820.9</v>
+      </c>
+      <c r="U15" s="50" t="s">
+        <v>441</v>
+      </c>
+      <c r="V15" s="49">
+        <v>9.9</v>
+      </c>
+      <c r="W15" s="49">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="X15" s="49">
+        <v>53.1</v>
+      </c>
+      <c r="Y15" s="50" t="s">
+        <v>441</v>
+      </c>
+      <c r="Z15" s="49"/>
+      <c r="AA15" s="49"/>
+      <c r="AB15" s="49"/>
+      <c r="AC15" s="50" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD15" s="49"/>
+      <c r="AE15" s="49"/>
+      <c r="AF15" s="49"/>
+      <c r="AG15" s="50" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A16" s="49">
         <v>57</v>
       </c>
@@ -5404,12 +5954,64 @@
       <c r="I16" s="49">
         <v>19.8</v>
       </c>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J16" s="49">
+        <v>10.87</v>
+      </c>
+      <c r="K16" s="49">
+        <v>0.185</v>
+      </c>
+      <c r="L16" s="49">
+        <v>624</v>
+      </c>
+      <c r="M16" s="49">
+        <v>17.3</v>
+      </c>
+      <c r="N16" s="49">
+        <v>10.41</v>
+      </c>
+      <c r="O16" s="49">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="P16" s="49">
+        <v>778.8</v>
+      </c>
+      <c r="Q16" s="49">
+        <v>20.2</v>
+      </c>
+      <c r="R16" s="49">
+        <v>10.32</v>
+      </c>
+      <c r="S16" s="49">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="T16" s="49">
+        <v>678.4</v>
+      </c>
+      <c r="U16" s="49">
+        <v>21.2</v>
+      </c>
+      <c r="V16" s="49">
+        <v>9.85</v>
+      </c>
+      <c r="W16" s="49">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="X16" s="49">
+        <v>57.2</v>
+      </c>
+      <c r="Y16" s="49">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="Z16" s="49"/>
+      <c r="AA16" s="49"/>
+      <c r="AB16" s="49"/>
+      <c r="AC16" s="49"/>
+      <c r="AD16" s="49"/>
+      <c r="AE16" s="49"/>
+      <c r="AF16" s="49"/>
+      <c r="AG16" s="49"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A17" s="49">
         <v>47</v>
       </c>
@@ -5437,12 +6039,64 @@
       <c r="I17" s="49">
         <v>44.2</v>
       </c>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J17" s="49">
+        <v>10.83</v>
+      </c>
+      <c r="K17" s="49">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="L17" s="49">
+        <v>584.20000000000005</v>
+      </c>
+      <c r="M17" s="49">
+        <v>57.8</v>
+      </c>
+      <c r="N17" s="49">
+        <v>10.39</v>
+      </c>
+      <c r="O17" s="49">
+        <v>0.214</v>
+      </c>
+      <c r="P17" s="49">
+        <v>774.3</v>
+      </c>
+      <c r="Q17" s="49">
+        <v>51.8</v>
+      </c>
+      <c r="R17" s="49">
+        <v>10.36</v>
+      </c>
+      <c r="S17" s="49">
+        <v>0.215</v>
+      </c>
+      <c r="T17" s="49">
+        <v>765.6</v>
+      </c>
+      <c r="U17" s="49">
+        <v>48.8</v>
+      </c>
+      <c r="V17" s="49">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="W17" s="49">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="X17" s="49">
+        <v>58.6</v>
+      </c>
+      <c r="Y17" s="49">
+        <v>50.1</v>
+      </c>
+      <c r="Z17" s="49"/>
+      <c r="AA17" s="49"/>
+      <c r="AB17" s="49"/>
+      <c r="AC17" s="49"/>
+      <c r="AD17" s="49"/>
+      <c r="AE17" s="49"/>
+      <c r="AF17" s="49"/>
+      <c r="AG17" s="49"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A18" s="49">
         <v>37</v>
       </c>
@@ -5466,12 +6120,56 @@
         <v>51.9</v>
       </c>
       <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
+      <c r="J18" s="49">
+        <v>10.81</v>
+      </c>
+      <c r="K18" s="49">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="L18" s="49">
+        <v>585.1</v>
+      </c>
       <c r="M18" s="49"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N18" s="49">
+        <v>10.38</v>
+      </c>
+      <c r="O18" s="49">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="P18" s="49">
+        <v>779.3</v>
+      </c>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49">
+        <v>10.34</v>
+      </c>
+      <c r="S18" s="49">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="T18" s="49">
+        <v>778</v>
+      </c>
+      <c r="U18" s="49"/>
+      <c r="V18" s="49">
+        <v>9.67</v>
+      </c>
+      <c r="W18" s="49">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="X18" s="49">
+        <v>55.3</v>
+      </c>
+      <c r="Y18" s="49"/>
+      <c r="Z18" s="49"/>
+      <c r="AA18" s="49"/>
+      <c r="AB18" s="49"/>
+      <c r="AC18" s="49"/>
+      <c r="AD18" s="49"/>
+      <c r="AE18" s="49"/>
+      <c r="AF18" s="49"/>
+      <c r="AG18" s="49"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A19" s="49">
         <v>27</v>
       </c>
@@ -5495,12 +6193,56 @@
         <v>56.9</v>
       </c>
       <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
+      <c r="J19" s="49">
+        <v>10.73</v>
+      </c>
+      <c r="K19" s="49">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="L19" s="49">
+        <v>525.20000000000005</v>
+      </c>
       <c r="M19" s="49"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N19" s="49">
+        <v>10.36</v>
+      </c>
+      <c r="O19" s="49">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="P19" s="49">
+        <v>785.7</v>
+      </c>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49">
+        <v>10.35</v>
+      </c>
+      <c r="S19" s="49">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="T19" s="49">
+        <v>867.3</v>
+      </c>
+      <c r="U19" s="49"/>
+      <c r="V19" s="49">
+        <v>9.32</v>
+      </c>
+      <c r="W19" s="49">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="X19" s="49">
+        <v>49.9</v>
+      </c>
+      <c r="Y19" s="49"/>
+      <c r="Z19" s="49"/>
+      <c r="AA19" s="49"/>
+      <c r="AB19" s="49"/>
+      <c r="AC19" s="49"/>
+      <c r="AD19" s="49"/>
+      <c r="AE19" s="49"/>
+      <c r="AF19" s="49"/>
+      <c r="AG19" s="49"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A20" s="49">
         <v>17</v>
       </c>
@@ -5528,14 +6270,68 @@
       <c r="I20" s="50" t="s">
         <v>442</v>
       </c>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
+      <c r="J20" s="49">
+        <v>10.75</v>
+      </c>
+      <c r="K20" s="49">
+        <v>0.622</v>
+      </c>
+      <c r="L20" s="49">
+        <v>623.6</v>
+      </c>
       <c r="M20" s="50" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N20" s="49">
+        <v>10.32</v>
+      </c>
+      <c r="O20" s="49">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="P20" s="49">
+        <v>780.7</v>
+      </c>
+      <c r="Q20" s="50" t="s">
+        <v>442</v>
+      </c>
+      <c r="R20" s="49">
+        <v>10.26</v>
+      </c>
+      <c r="S20" s="49">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="T20" s="49">
+        <v>856.8</v>
+      </c>
+      <c r="U20" s="50" t="s">
+        <v>442</v>
+      </c>
+      <c r="V20" s="49">
+        <v>7.47</v>
+      </c>
+      <c r="W20" s="49">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="X20" s="49">
+        <v>52</v>
+      </c>
+      <c r="Y20" s="50" t="s">
+        <v>442</v>
+      </c>
+      <c r="Z20" s="49"/>
+      <c r="AA20" s="49"/>
+      <c r="AB20" s="49"/>
+      <c r="AC20" s="50" t="s">
+        <v>442</v>
+      </c>
+      <c r="AD20" s="49"/>
+      <c r="AE20" s="49"/>
+      <c r="AF20" s="49"/>
+      <c r="AG20" s="50" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A21" s="49">
         <v>7</v>
       </c>
@@ -5563,12 +6359,64 @@
       <c r="I21" s="49">
         <v>19.899999999999999</v>
       </c>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J21" s="49">
+        <v>10.53</v>
+      </c>
+      <c r="K21" s="49">
+        <v>1.4890000000000001</v>
+      </c>
+      <c r="L21" s="49">
+        <v>610.4</v>
+      </c>
+      <c r="M21" s="49">
+        <v>17.3</v>
+      </c>
+      <c r="N21" s="49">
+        <v>10.14</v>
+      </c>
+      <c r="O21" s="49">
+        <v>1.4470000000000001</v>
+      </c>
+      <c r="P21" s="49">
+        <v>786</v>
+      </c>
+      <c r="Q21" s="49">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="R21" s="49">
+        <v>10.1</v>
+      </c>
+      <c r="S21" s="49">
+        <v>1.4510000000000001</v>
+      </c>
+      <c r="T21" s="49">
+        <v>880.2</v>
+      </c>
+      <c r="U21" s="49">
+        <v>21.7</v>
+      </c>
+      <c r="V21" s="49">
+        <v>3.5030000000000001</v>
+      </c>
+      <c r="W21" s="49">
+        <v>0.501</v>
+      </c>
+      <c r="X21" s="49">
+        <v>58.5</v>
+      </c>
+      <c r="Y21" s="49">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="Z21" s="49"/>
+      <c r="AA21" s="49"/>
+      <c r="AB21" s="49"/>
+      <c r="AC21" s="49"/>
+      <c r="AD21" s="49"/>
+      <c r="AE21" s="49"/>
+      <c r="AF21" s="49"/>
+      <c r="AG21" s="49"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A22" s="49">
         <v>6</v>
       </c>
@@ -5596,12 +6444,64 @@
       <c r="I22" s="49">
         <v>44.6</v>
       </c>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J22" s="49">
+        <v>10.44</v>
+      </c>
+      <c r="K22" s="49">
+        <v>1.722</v>
+      </c>
+      <c r="L22" s="49">
+        <v>592.1</v>
+      </c>
+      <c r="M22" s="49">
+        <v>57.7</v>
+      </c>
+      <c r="N22" s="49">
+        <v>10.11</v>
+      </c>
+      <c r="O22" s="49">
+        <v>1.681</v>
+      </c>
+      <c r="P22" s="49">
+        <v>791.2</v>
+      </c>
+      <c r="Q22" s="49">
+        <v>51.7</v>
+      </c>
+      <c r="R22" s="49">
+        <v>9.86</v>
+      </c>
+      <c r="S22" s="49">
+        <v>1.6519999999999999</v>
+      </c>
+      <c r="T22" s="49">
+        <v>685.1</v>
+      </c>
+      <c r="U22" s="49">
+        <v>46.8</v>
+      </c>
+      <c r="V22" s="49">
+        <v>2.8250000000000002</v>
+      </c>
+      <c r="W22" s="49">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="X22" s="49">
+        <v>52.9</v>
+      </c>
+      <c r="Y22" s="49">
+        <v>50.6</v>
+      </c>
+      <c r="Z22" s="49"/>
+      <c r="AA22" s="49"/>
+      <c r="AB22" s="49"/>
+      <c r="AC22" s="49"/>
+      <c r="AD22" s="49"/>
+      <c r="AE22" s="49"/>
+      <c r="AF22" s="49"/>
+      <c r="AG22" s="49"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A23" s="49">
         <v>5</v>
       </c>
@@ -5625,12 +6525,56 @@
         <v>93.2</v>
       </c>
       <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
+      <c r="J23" s="49">
+        <v>10.35</v>
+      </c>
+      <c r="K23" s="49">
+        <v>2.11</v>
+      </c>
+      <c r="L23" s="49">
+        <v>610.70000000000005</v>
+      </c>
       <c r="M23" s="49"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N23" s="49">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="O23" s="49">
+        <v>2.052</v>
+      </c>
+      <c r="P23" s="49">
+        <v>795.4</v>
+      </c>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="49">
+        <v>9.75</v>
+      </c>
+      <c r="S23" s="49">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="T23" s="49">
+        <v>659.7</v>
+      </c>
+      <c r="U23" s="49"/>
+      <c r="V23" s="49">
+        <v>2.2389999999999999</v>
+      </c>
+      <c r="W23" s="49">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="X23" s="49">
+        <v>51.8</v>
+      </c>
+      <c r="Y23" s="49"/>
+      <c r="Z23" s="49"/>
+      <c r="AA23" s="49"/>
+      <c r="AB23" s="49"/>
+      <c r="AC23" s="49"/>
+      <c r="AD23" s="49"/>
+      <c r="AE23" s="49"/>
+      <c r="AF23" s="49"/>
+      <c r="AG23" s="49"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A24" s="49">
         <v>4</v>
       </c>
@@ -5654,12 +6598,56 @@
         <v>96</v>
       </c>
       <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
+      <c r="J24" s="49">
+        <v>10.19</v>
+      </c>
+      <c r="K24" s="49">
+        <v>2.6549999999999998</v>
+      </c>
+      <c r="L24" s="49">
+        <v>613.70000000000005</v>
+      </c>
       <c r="M24" s="49"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N24" s="49">
+        <v>9.91</v>
+      </c>
+      <c r="O24" s="49">
+        <v>2.6110000000000002</v>
+      </c>
+      <c r="P24" s="49">
+        <v>794.9</v>
+      </c>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49">
+        <v>9.43</v>
+      </c>
+      <c r="S24" s="49">
+        <v>2.508</v>
+      </c>
+      <c r="T24" s="49">
+        <v>540</v>
+      </c>
+      <c r="U24" s="49"/>
+      <c r="V24" s="49">
+        <v>1.7210000000000001</v>
+      </c>
+      <c r="W24" s="49">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="X24" s="49">
+        <v>52.5</v>
+      </c>
+      <c r="Y24" s="49"/>
+      <c r="Z24" s="49"/>
+      <c r="AA24" s="49"/>
+      <c r="AB24" s="49"/>
+      <c r="AC24" s="49"/>
+      <c r="AD24" s="49"/>
+      <c r="AE24" s="49"/>
+      <c r="AF24" s="49"/>
+      <c r="AG24" s="49"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A25" s="49">
         <v>3</v>
       </c>
@@ -5687,14 +6675,68 @@
       <c r="I25" s="50" t="s">
         <v>443</v>
       </c>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
+      <c r="J25" s="49">
+        <v>9.92</v>
+      </c>
+      <c r="K25" s="49">
+        <v>3.431</v>
+      </c>
+      <c r="L25" s="49">
+        <v>608.1</v>
+      </c>
       <c r="M25" s="50" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N25" s="49">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="O25" s="49">
+        <v>3.363</v>
+      </c>
+      <c r="P25" s="49">
+        <v>789.5</v>
+      </c>
+      <c r="Q25" s="50" t="s">
+        <v>443</v>
+      </c>
+      <c r="R25" s="49">
+        <v>9.59</v>
+      </c>
+      <c r="S25" s="49">
+        <v>3.3889999999999998</v>
+      </c>
+      <c r="T25" s="49">
+        <v>828.8</v>
+      </c>
+      <c r="U25" s="50" t="s">
+        <v>443</v>
+      </c>
+      <c r="V25" s="49">
+        <v>1.296</v>
+      </c>
+      <c r="W25" s="49">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="X25" s="49">
+        <v>51.3</v>
+      </c>
+      <c r="Y25" s="50" t="s">
+        <v>443</v>
+      </c>
+      <c r="Z25" s="49"/>
+      <c r="AA25" s="49"/>
+      <c r="AB25" s="49"/>
+      <c r="AC25" s="50" t="s">
+        <v>443</v>
+      </c>
+      <c r="AD25" s="49"/>
+      <c r="AE25" s="49"/>
+      <c r="AF25" s="49"/>
+      <c r="AG25" s="50" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A26" s="49">
         <v>2</v>
       </c>
@@ -5722,12 +6764,64 @@
       <c r="I26" s="49">
         <v>20</v>
       </c>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J26" s="51">
+        <v>8.9</v>
+      </c>
+      <c r="K26" s="51">
+        <v>5.19</v>
+      </c>
+      <c r="L26" s="49">
+        <v>605.6</v>
+      </c>
+      <c r="M26" s="49">
+        <v>17.2</v>
+      </c>
+      <c r="N26" s="49">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="O26" s="51">
+        <v>5.36</v>
+      </c>
+      <c r="P26" s="49">
+        <v>794.7</v>
+      </c>
+      <c r="Q26" s="49">
+        <v>20.2</v>
+      </c>
+      <c r="R26" s="51">
+        <v>9.02</v>
+      </c>
+      <c r="S26" s="51">
+        <v>5.32</v>
+      </c>
+      <c r="T26" s="49">
+        <v>865</v>
+      </c>
+      <c r="U26" s="49">
+        <v>22</v>
+      </c>
+      <c r="V26" s="51">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="W26" s="51">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="X26" s="49">
+        <v>50.2</v>
+      </c>
+      <c r="Y26" s="49">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="Z26" s="51"/>
+      <c r="AA26" s="51"/>
+      <c r="AB26" s="49"/>
+      <c r="AC26" s="49"/>
+      <c r="AD26" s="51"/>
+      <c r="AE26" s="51"/>
+      <c r="AF26" s="49"/>
+      <c r="AG26" s="49"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A27" s="49">
         <v>1</v>
       </c>
@@ -5755,12 +6849,64 @@
       <c r="I27" s="49">
         <v>45</v>
       </c>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J27" s="49">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="K27" s="49">
+        <v>5.59</v>
+      </c>
+      <c r="L27" s="49">
+        <v>614.9</v>
+      </c>
+      <c r="M27" s="49">
+        <v>58.6</v>
+      </c>
+      <c r="N27" s="51">
+        <v>5.82</v>
+      </c>
+      <c r="O27" s="49">
+        <v>6.8</v>
+      </c>
+      <c r="P27" s="49">
+        <v>797.3</v>
+      </c>
+      <c r="Q27" s="49">
+        <v>51.8</v>
+      </c>
+      <c r="R27" s="49">
+        <v>5.62</v>
+      </c>
+      <c r="S27" s="49">
+        <v>6.81</v>
+      </c>
+      <c r="T27" s="49">
+        <v>790.2</v>
+      </c>
+      <c r="U27" s="49">
+        <v>46.5</v>
+      </c>
+      <c r="V27" s="49">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="W27" s="49">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="X27" s="49">
+        <v>50.8</v>
+      </c>
+      <c r="Y27" s="49">
+        <v>47.1</v>
+      </c>
+      <c r="Z27" s="49"/>
+      <c r="AA27" s="49"/>
+      <c r="AB27" s="49"/>
+      <c r="AC27" s="49"/>
+      <c r="AD27" s="49"/>
+      <c r="AE27" s="49"/>
+      <c r="AF27" s="49"/>
+      <c r="AG27" s="49"/>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A28" s="49">
         <v>0</v>
       </c>
@@ -5784,13 +6930,78 @@
         <v>56.5</v>
       </c>
       <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
+      <c r="J28" s="49">
+        <v>1.752</v>
+      </c>
+      <c r="K28" s="49">
+        <v>5.74</v>
+      </c>
+      <c r="L28" s="49">
+        <v>610.29999999999995</v>
+      </c>
       <c r="M28" s="49"/>
+      <c r="N28" s="49">
+        <v>2.0179999999999998</v>
+      </c>
+      <c r="O28" s="49">
+        <v>6.95</v>
+      </c>
+      <c r="P28" s="49">
+        <v>800.3</v>
+      </c>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49">
+        <v>1.819</v>
+      </c>
+      <c r="S28" s="49">
+        <v>7.15</v>
+      </c>
+      <c r="T28" s="49">
+        <v>829.2</v>
+      </c>
+      <c r="U28" s="49"/>
+      <c r="V28" s="49">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="W28" s="49">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="X28" s="49">
+        <v>47.6</v>
+      </c>
+      <c r="Y28" s="49"/>
+      <c r="Z28" s="49"/>
+      <c r="AA28" s="49"/>
+      <c r="AB28" s="49"/>
+      <c r="AC28" s="49"/>
+      <c r="AD28" s="49"/>
+      <c r="AE28" s="49"/>
+      <c r="AF28" s="49"/>
+      <c r="AG28" s="49"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="R29" s="127" t="s">
+        <v>471</v>
+      </c>
+      <c r="S29" s="127"/>
+      <c r="T29" s="127"/>
+      <c r="U29" s="127"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="36">
+    <mergeCell ref="AD5:AG5"/>
+    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="AD7:AG7"/>
+    <mergeCell ref="AD8:AG8"/>
+    <mergeCell ref="R29:U29"/>
+    <mergeCell ref="V5:Y5"/>
+    <mergeCell ref="V6:Y6"/>
+    <mergeCell ref="V7:Y7"/>
+    <mergeCell ref="V8:Y8"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="Z7:AC7"/>
+    <mergeCell ref="Z8:AC8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="B8:E8"/>
@@ -5805,6 +7016,15 @@
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J4:Y4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="R8:U8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5840,33 +7060,33 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="73">
+      <c r="B3" s="70">
         <v>42299</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
-      <c r="W3" s="73"/>
-      <c r="X3" s="73"/>
-      <c r="Y3" s="73"/>
-      <c r="Z3" s="73">
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="70"/>
+      <c r="W3" s="70"/>
+      <c r="X3" s="70"/>
+      <c r="Y3" s="70"/>
+      <c r="Z3" s="70">
         <v>42300</v>
       </c>
       <c r="AA3" s="72"/>
@@ -5956,12 +7176,12 @@
       <c r="W5" s="52"/>
       <c r="X5" s="52"/>
       <c r="Y5" s="52"/>
-      <c r="Z5" s="74" t="s">
+      <c r="Z5" s="73" t="s">
         <v>464</v>
       </c>
-      <c r="AA5" s="75"/>
-      <c r="AB5" s="75"/>
-      <c r="AC5" s="75"/>
+      <c r="AA5" s="74"/>
+      <c r="AB5" s="74"/>
+      <c r="AC5" s="74"/>
       <c r="AD5" s="52"/>
       <c r="AE5" s="52"/>
       <c r="AF5" s="52"/>
@@ -6005,10 +7225,10 @@
       <c r="W6" s="71"/>
       <c r="X6" s="71"/>
       <c r="Y6" s="71"/>
-      <c r="Z6" s="75"/>
-      <c r="AA6" s="75"/>
-      <c r="AB6" s="75"/>
-      <c r="AC6" s="75"/>
+      <c r="Z6" s="74"/>
+      <c r="AA6" s="74"/>
+      <c r="AB6" s="74"/>
+      <c r="AC6" s="74"/>
       <c r="AD6" s="71">
         <v>0.64236111111111105</v>
       </c>
@@ -6238,7 +7458,7 @@
       <c r="C10">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="D10" s="69" t="s">
+      <c r="D10" s="75" t="s">
         <v>450</v>
       </c>
       <c r="F10">
@@ -6330,7 +7550,7 @@
       <c r="C11">
         <v>0.107</v>
       </c>
-      <c r="D11" s="70"/>
+      <c r="D11" s="76"/>
       <c r="F11">
         <v>10.47</v>
       </c>
@@ -6420,7 +7640,7 @@
       <c r="C12">
         <v>0.11799999999999999</v>
       </c>
-      <c r="D12" s="70"/>
+      <c r="D12" s="76"/>
       <c r="F12">
         <v>10.47</v>
       </c>
@@ -6492,7 +7712,7 @@
       <c r="C13">
         <v>0.13500000000000001</v>
       </c>
-      <c r="D13" s="70"/>
+      <c r="D13" s="76"/>
       <c r="F13">
         <v>10.46</v>
       </c>
@@ -6564,7 +7784,7 @@
       <c r="C14">
         <v>0.154</v>
       </c>
-      <c r="D14" s="70"/>
+      <c r="D14" s="76"/>
       <c r="E14" s="39" t="s">
         <v>441</v>
       </c>
@@ -6660,7 +7880,7 @@
       <c r="C15">
         <v>0.184</v>
       </c>
-      <c r="D15" s="70"/>
+      <c r="D15" s="76"/>
       <c r="F15">
         <v>10.43</v>
       </c>
@@ -6743,7 +7963,7 @@
       <c r="C16">
         <v>0.218</v>
       </c>
-      <c r="D16" s="70"/>
+      <c r="D16" s="76"/>
       <c r="F16">
         <v>10.42</v>
       </c>
@@ -6826,7 +8046,7 @@
       <c r="C17">
         <v>0.27500000000000002</v>
       </c>
-      <c r="D17" s="70"/>
+      <c r="D17" s="76"/>
       <c r="F17">
         <v>10.42</v>
       </c>
@@ -6901,7 +8121,7 @@
       <c r="C18">
         <v>0.42099999999999999</v>
       </c>
-      <c r="D18" s="70"/>
+      <c r="D18" s="76"/>
       <c r="F18">
         <v>10.4</v>
       </c>
@@ -6976,7 +8196,7 @@
       <c r="C19">
         <v>0.61699999999999999</v>
       </c>
-      <c r="D19" s="70"/>
+      <c r="D19" s="76"/>
       <c r="E19" s="39" t="s">
         <v>442</v>
       </c>
@@ -7075,7 +8295,7 @@
       <c r="C20">
         <v>1.425</v>
       </c>
-      <c r="D20" s="70"/>
+      <c r="D20" s="76"/>
       <c r="F20">
         <v>10.3</v>
       </c>
@@ -7165,7 +8385,7 @@
       <c r="C21">
         <v>1.649</v>
       </c>
-      <c r="D21" s="70"/>
+      <c r="D21" s="76"/>
       <c r="F21">
         <v>10.02</v>
       </c>
@@ -7255,7 +8475,7 @@
       <c r="C22">
         <v>2</v>
       </c>
-      <c r="D22" s="70"/>
+      <c r="D22" s="76"/>
       <c r="F22">
         <v>9.94</v>
       </c>
@@ -7330,7 +8550,7 @@
       <c r="C23">
         <v>2.4950000000000001</v>
       </c>
-      <c r="D23" s="70"/>
+      <c r="D23" s="76"/>
       <c r="F23">
         <v>9.82</v>
       </c>
@@ -7405,7 +8625,7 @@
       <c r="C24">
         <v>3.0350000000000001</v>
       </c>
-      <c r="D24" s="70"/>
+      <c r="D24" s="76"/>
       <c r="E24" s="39" t="s">
         <v>443</v>
       </c>
@@ -7504,7 +8724,7 @@
       <c r="C25">
         <v>3.2789999999999999</v>
       </c>
-      <c r="D25" s="70"/>
+      <c r="D25" s="76"/>
       <c r="F25">
         <v>8.9700000000000006</v>
       </c>
@@ -7597,7 +8817,7 @@
       <c r="C26">
         <v>3.3</v>
       </c>
-      <c r="D26" s="70"/>
+      <c r="D26" s="76"/>
       <c r="F26">
         <v>5.95</v>
       </c>
@@ -7690,7 +8910,7 @@
       <c r="C27">
         <v>3.3</v>
       </c>
-      <c r="D27" s="70"/>
+      <c r="D27" s="76"/>
       <c r="F27">
         <v>3.105</v>
       </c>
@@ -7757,6 +8977,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D10:D27"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="R4:U4"/>
     <mergeCell ref="B3:Y3"/>
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="Z3:AG3"/>
@@ -7770,11 +8995,6 @@
     <mergeCell ref="AD4:AG4"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="V4:Y4"/>
-    <mergeCell ref="D10:D27"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="R4:U4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7799,23 +9019,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="76"/>
+      <c r="E1" s="77"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
@@ -7832,7 +9052,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="78" t="s">
         <v>60</v>
       </c>
       <c r="C5" s="14" t="s">
@@ -7841,69 +9061,69 @@
       <c r="D5" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="79" t="s">
+      <c r="E5" s="80" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B6" s="77"/>
+      <c r="B6" s="78"/>
       <c r="C6" s="14" t="s">
         <v>62</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="86"/>
+      <c r="E6" s="87"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B7" s="77"/>
+      <c r="B7" s="78"/>
       <c r="C7" s="14" t="s">
         <v>63</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="86"/>
+      <c r="E7" s="87"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B8" s="77"/>
+      <c r="B8" s="78"/>
       <c r="C8" s="14" t="s">
         <v>64</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="86"/>
+      <c r="E8" s="87"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B9" s="77"/>
+      <c r="B9" s="78"/>
       <c r="C9" s="14" t="s">
         <v>65</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="86"/>
+      <c r="E9" s="87"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B10" s="77"/>
+      <c r="B10" s="78"/>
       <c r="C10" s="14" t="s">
         <v>66</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="86"/>
+      <c r="E10" s="87"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B11" s="77"/>
+      <c r="B11" s="78"/>
       <c r="C11" s="14" t="s">
         <v>67</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="86"/>
+      <c r="E11" s="87"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" s="15"/>
@@ -7916,7 +9136,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B13" s="83" t="s">
+      <c r="B13" s="84" t="s">
         <v>101</v>
       </c>
       <c r="C13" s="14" t="s">
@@ -7925,99 +9145,99 @@
       <c r="D13" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E13" s="80" t="s">
+      <c r="E13" s="81" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B14" s="84"/>
+      <c r="B14" s="85"/>
       <c r="C14" s="14" t="s">
         <v>105</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="E14" s="81"/>
+      <c r="E14" s="82"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B15" s="84"/>
+      <c r="B15" s="85"/>
       <c r="C15" s="14" t="s">
         <v>106</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="E15" s="81"/>
+      <c r="E15" s="82"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B16" s="84"/>
+      <c r="B16" s="85"/>
       <c r="C16" s="14" t="s">
         <v>107</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E16" s="81"/>
+      <c r="E16" s="82"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B17" s="84"/>
+      <c r="B17" s="85"/>
       <c r="C17" s="14" t="s">
         <v>108</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E17" s="81"/>
+      <c r="E17" s="82"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B18" s="84"/>
+      <c r="B18" s="85"/>
       <c r="C18" s="14" t="s">
         <v>109</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E18" s="81"/>
+      <c r="E18" s="82"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B19" s="84"/>
+      <c r="B19" s="85"/>
       <c r="C19" s="14" t="s">
         <v>110</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E19" s="81"/>
+      <c r="E19" s="82"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B20" s="84"/>
+      <c r="B20" s="85"/>
       <c r="C20" s="14" t="s">
         <v>111</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E20" s="81"/>
+      <c r="E20" s="82"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B21" s="84"/>
+      <c r="B21" s="85"/>
       <c r="C21" s="14" t="s">
         <v>112</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E21" s="81"/>
+      <c r="E21" s="82"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B22" s="85"/>
+      <c r="B22" s="86"/>
       <c r="C22" s="14" t="s">
         <v>113</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E22" s="82"/>
+      <c r="E22" s="83"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B23" s="26"/>
@@ -8030,7 +9250,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="78" t="s">
+      <c r="B24" s="79" t="s">
         <v>424</v>
       </c>
       <c r="C24" s="24" t="s">
@@ -8039,59 +9259,59 @@
       <c r="D24" s="24" t="s">
         <v>428</v>
       </c>
-      <c r="E24" s="79" t="s">
+      <c r="E24" s="80" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B25" s="78"/>
+      <c r="B25" s="79"/>
       <c r="C25" s="24" t="s">
         <v>427</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>426</v>
       </c>
-      <c r="E25" s="79"/>
+      <c r="E25" s="80"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B26" s="78"/>
+      <c r="B26" s="79"/>
       <c r="C26" s="24" t="s">
         <v>429</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="E26" s="79"/>
+      <c r="E26" s="80"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B27" s="78"/>
+      <c r="B27" s="79"/>
       <c r="C27" s="24" t="s">
         <v>430</v>
       </c>
       <c r="D27" s="24" t="s">
         <v>431</v>
       </c>
-      <c r="E27" s="79"/>
+      <c r="E27" s="80"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B28" s="78"/>
+      <c r="B28" s="79"/>
       <c r="C28" s="24" t="s">
         <v>432</v>
       </c>
       <c r="D28" s="24" t="s">
         <v>433</v>
       </c>
-      <c r="E28" s="79"/>
+      <c r="E28" s="80"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B29" s="78"/>
+      <c r="B29" s="79"/>
       <c r="C29" s="24" t="s">
         <v>434</v>
       </c>
       <c r="D29" s="24" t="s">
         <v>435</v>
       </c>
-      <c r="E29" s="79"/>
+      <c r="E29" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -8125,138 +9345,138 @@
       <c r="A1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="98" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="93" t="s">
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="98" t="s">
         <v>458</v>
       </c>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="101" t="s">
         <v>461</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="99" t="s">
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="99"/>
-      <c r="J2" s="89" t="s">
+      <c r="I2" s="88"/>
+      <c r="J2" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="99" t="s">
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="99"/>
+      <c r="O2" s="88"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="98"/>
-      <c r="D3" s="97" t="s">
+      <c r="C3" s="104"/>
+      <c r="D3" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="98"/>
-      <c r="F3" s="97" t="s">
+      <c r="E3" s="104"/>
+      <c r="F3" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="98"/>
-      <c r="H3" s="97" t="s">
+      <c r="G3" s="104"/>
+      <c r="H3" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="98"/>
-      <c r="J3" s="89" t="s">
+      <c r="I3" s="104"/>
+      <c r="J3" s="101" t="s">
         <v>98</v>
       </c>
-      <c r="K3" s="90"/>
-      <c r="L3" s="89" t="s">
+      <c r="K3" s="103"/>
+      <c r="L3" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="90"/>
-      <c r="N3" s="97" t="s">
+      <c r="M3" s="103"/>
+      <c r="N3" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="100"/>
+      <c r="O3" s="96"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="87" t="s">
+      <c r="C4" s="92"/>
+      <c r="D4" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="88"/>
-      <c r="F4" s="87" t="s">
+      <c r="E4" s="92"/>
+      <c r="F4" s="91" t="s">
         <v>130</v>
       </c>
-      <c r="G4" s="88"/>
-      <c r="H4" s="87" t="s">
+      <c r="G4" s="92"/>
+      <c r="H4" s="91" t="s">
         <v>131</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="91" t="s">
+      <c r="I4" s="92"/>
+      <c r="J4" s="93" t="s">
         <v>457</v>
       </c>
-      <c r="K4" s="92"/>
-      <c r="L4" s="91" t="s">
+      <c r="K4" s="94"/>
+      <c r="L4" s="93" t="s">
         <v>457</v>
       </c>
-      <c r="M4" s="92"/>
-      <c r="N4" s="87" t="s">
+      <c r="M4" s="94"/>
+      <c r="N4" s="91" t="s">
         <v>457</v>
       </c>
-      <c r="O4" s="101"/>
+      <c r="O4" s="97"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="91" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="87" t="s">
+      <c r="C5" s="92"/>
+      <c r="D5" s="91" t="s">
         <v>127</v>
       </c>
-      <c r="E5" s="88"/>
-      <c r="F5" s="87" t="s">
+      <c r="E5" s="92"/>
+      <c r="F5" s="91" t="s">
         <v>128</v>
       </c>
-      <c r="G5" s="88"/>
-      <c r="H5" s="87" t="s">
+      <c r="G5" s="92"/>
+      <c r="H5" s="91" t="s">
         <v>129</v>
       </c>
-      <c r="I5" s="88"/>
+      <c r="I5" s="92"/>
       <c r="J5" s="54"/>
       <c r="K5" s="54"/>
       <c r="L5" s="54"/>
@@ -8271,57 +9491,57 @@
       <c r="D6" s="54"/>
       <c r="F6" s="54"/>
       <c r="H6" s="54"/>
-      <c r="J6" s="91" t="s">
+      <c r="J6" s="93" t="s">
         <v>460</v>
       </c>
-      <c r="K6" s="92"/>
-      <c r="L6" s="91" t="s">
+      <c r="K6" s="94"/>
+      <c r="L6" s="93" t="s">
         <v>460</v>
       </c>
-      <c r="M6" s="92"/>
-      <c r="N6" s="93" t="s">
+      <c r="M6" s="94"/>
+      <c r="N6" s="98" t="s">
         <v>460</v>
       </c>
-      <c r="O6" s="94"/>
+      <c r="O6" s="99"/>
     </row>
     <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="90" t="s">
         <v>80</v>
       </c>
       <c r="C7" s="40">
         <v>78.2</v>
       </c>
-      <c r="D7" s="102" t="s">
+      <c r="D7" s="90" t="s">
         <v>80</v>
       </c>
       <c r="E7" s="41">
         <v>53.3</v>
       </c>
-      <c r="F7" s="79" t="s">
+      <c r="F7" s="80" t="s">
         <v>445</v>
       </c>
       <c r="G7" s="41">
         <v>1.4</v>
       </c>
-      <c r="H7" s="86" t="s">
+      <c r="H7" s="87" t="s">
         <v>99</v>
       </c>
       <c r="I7" s="41">
         <v>365.4</v>
       </c>
-      <c r="J7" s="86" t="s">
+      <c r="J7" s="87" t="s">
         <v>99</v>
       </c>
       <c r="K7" s="40">
         <v>76.8</v>
       </c>
-      <c r="L7" s="86" t="s">
+      <c r="L7" s="87" t="s">
         <v>99</v>
       </c>
       <c r="M7" s="41">
         <v>59.3</v>
       </c>
-      <c r="N7" s="86" t="s">
+      <c r="N7" s="87" t="s">
         <v>99</v>
       </c>
       <c r="O7" s="41">
@@ -8329,1207 +9549,1207 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B8" s="102"/>
+      <c r="B8" s="90"/>
       <c r="C8" s="40">
         <v>78.400000000000006</v>
       </c>
-      <c r="D8" s="102"/>
+      <c r="D8" s="90"/>
       <c r="E8" s="41">
         <v>53.4</v>
       </c>
-      <c r="F8" s="79"/>
+      <c r="F8" s="80"/>
       <c r="G8" s="41">
         <v>0</v>
       </c>
-      <c r="H8" s="86"/>
+      <c r="H8" s="87"/>
       <c r="I8" s="41">
         <v>366.9</v>
       </c>
-      <c r="J8" s="86"/>
+      <c r="J8" s="87"/>
       <c r="K8" s="40">
         <v>76.8</v>
       </c>
-      <c r="L8" s="86"/>
+      <c r="L8" s="87"/>
       <c r="M8" s="41">
         <v>59.4</v>
       </c>
-      <c r="N8" s="86"/>
+      <c r="N8" s="87"/>
       <c r="O8" s="41">
         <v>425.4</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B9" s="102"/>
+      <c r="B9" s="90"/>
       <c r="C9" s="40">
         <v>78.400000000000006</v>
       </c>
-      <c r="D9" s="102"/>
+      <c r="D9" s="90"/>
       <c r="E9" s="41">
         <v>53.9</v>
       </c>
-      <c r="F9" s="79"/>
+      <c r="F9" s="80"/>
       <c r="G9" s="41">
         <v>0.9</v>
       </c>
-      <c r="H9" s="86"/>
+      <c r="H9" s="87"/>
       <c r="I9" s="41">
         <v>365.9</v>
       </c>
-      <c r="J9" s="86"/>
+      <c r="J9" s="87"/>
       <c r="K9" s="40">
         <v>77</v>
       </c>
-      <c r="L9" s="86"/>
+      <c r="L9" s="87"/>
       <c r="M9" s="41">
         <v>59.3</v>
       </c>
-      <c r="N9" s="86"/>
+      <c r="N9" s="87"/>
       <c r="O9" s="41">
         <v>430.2</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B10" s="102"/>
+      <c r="B10" s="90"/>
       <c r="C10" s="40">
         <v>78.400000000000006</v>
       </c>
-      <c r="D10" s="102"/>
+      <c r="D10" s="90"/>
       <c r="E10" s="41">
         <v>54</v>
       </c>
-      <c r="F10" s="79"/>
+      <c r="F10" s="80"/>
       <c r="G10" s="41">
         <v>2</v>
       </c>
-      <c r="H10" s="86"/>
+      <c r="H10" s="87"/>
       <c r="I10" s="41">
         <v>364.2</v>
       </c>
-      <c r="J10" s="86"/>
+      <c r="J10" s="87"/>
       <c r="K10" s="40">
         <v>77</v>
       </c>
-      <c r="L10" s="86"/>
+      <c r="L10" s="87"/>
       <c r="M10" s="41">
         <v>59.2</v>
       </c>
-      <c r="N10" s="86"/>
+      <c r="N10" s="87"/>
       <c r="O10" s="41">
         <v>432.5</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B11" s="102"/>
+      <c r="B11" s="90"/>
       <c r="C11" s="40">
         <v>78.400000000000006</v>
       </c>
-      <c r="D11" s="102"/>
+      <c r="D11" s="90"/>
       <c r="E11" s="41">
         <v>53.9</v>
       </c>
-      <c r="F11" s="79"/>
+      <c r="F11" s="80"/>
       <c r="G11" s="41">
         <v>1.7</v>
       </c>
-      <c r="H11" s="86"/>
+      <c r="H11" s="87"/>
       <c r="I11" s="41">
         <v>364.5</v>
       </c>
-      <c r="J11" s="86"/>
+      <c r="J11" s="87"/>
       <c r="K11" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L11" s="86"/>
+      <c r="L11" s="87"/>
       <c r="M11" s="41">
         <v>58.9</v>
       </c>
-      <c r="N11" s="86"/>
+      <c r="N11" s="87"/>
       <c r="O11" s="41">
         <v>426.9</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B12" s="102"/>
+      <c r="B12" s="90"/>
       <c r="C12" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D12" s="102"/>
+      <c r="D12" s="90"/>
       <c r="E12" s="41">
         <v>55.2</v>
       </c>
-      <c r="F12" s="79"/>
+      <c r="F12" s="80"/>
       <c r="G12" s="41">
         <v>0.5</v>
       </c>
-      <c r="H12" s="86"/>
+      <c r="H12" s="87"/>
       <c r="I12" s="41">
         <v>361.8</v>
       </c>
-      <c r="J12" s="86"/>
+      <c r="J12" s="87"/>
       <c r="K12" s="40">
         <v>77</v>
       </c>
-      <c r="L12" s="86"/>
+      <c r="L12" s="87"/>
       <c r="M12" s="41">
         <v>59.5</v>
       </c>
-      <c r="N12" s="86"/>
+      <c r="N12" s="87"/>
       <c r="O12" s="41">
         <v>440.9</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B13" s="102"/>
+      <c r="B13" s="90"/>
       <c r="C13" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D13" s="102"/>
+      <c r="D13" s="90"/>
       <c r="E13" s="41">
         <v>53.7</v>
       </c>
-      <c r="F13" s="79"/>
+      <c r="F13" s="80"/>
       <c r="G13" s="41">
         <v>0</v>
       </c>
-      <c r="H13" s="86"/>
+      <c r="H13" s="87"/>
       <c r="I13" s="41">
         <v>361.2</v>
       </c>
-      <c r="J13" s="86"/>
+      <c r="J13" s="87"/>
       <c r="K13" s="40">
         <v>77</v>
       </c>
-      <c r="L13" s="86"/>
+      <c r="L13" s="87"/>
       <c r="M13" s="41">
         <v>59.5</v>
       </c>
-      <c r="N13" s="86"/>
+      <c r="N13" s="87"/>
       <c r="O13" s="41">
         <v>441.7</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B14" s="102"/>
+      <c r="B14" s="90"/>
       <c r="C14" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D14" s="102"/>
+      <c r="D14" s="90"/>
       <c r="E14" s="41">
         <v>53.4</v>
       </c>
-      <c r="F14" s="79"/>
+      <c r="F14" s="80"/>
       <c r="G14" s="41">
         <v>1.5</v>
       </c>
-      <c r="H14" s="86"/>
+      <c r="H14" s="87"/>
       <c r="I14" s="41">
         <v>361.9</v>
       </c>
-      <c r="J14" s="86"/>
+      <c r="J14" s="87"/>
       <c r="K14" s="40">
         <v>76.8</v>
       </c>
-      <c r="L14" s="86"/>
+      <c r="L14" s="87"/>
       <c r="M14" s="41">
         <v>59.3</v>
       </c>
-      <c r="N14" s="86"/>
+      <c r="N14" s="87"/>
       <c r="O14" s="41">
         <v>452</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B15" s="102"/>
+      <c r="B15" s="90"/>
       <c r="C15" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D15" s="102"/>
+      <c r="D15" s="90"/>
       <c r="E15" s="41">
         <v>53.1</v>
       </c>
-      <c r="F15" s="79"/>
+      <c r="F15" s="80"/>
       <c r="G15" s="41">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H15" s="86"/>
+      <c r="H15" s="87"/>
       <c r="I15" s="41">
         <v>361.9</v>
       </c>
-      <c r="J15" s="86"/>
+      <c r="J15" s="87"/>
       <c r="K15" s="40">
         <v>76.8</v>
       </c>
-      <c r="L15" s="86"/>
+      <c r="L15" s="87"/>
       <c r="M15" s="41">
         <v>59.3</v>
       </c>
-      <c r="N15" s="86"/>
+      <c r="N15" s="87"/>
       <c r="O15" s="41">
         <v>454.5</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B16" s="102"/>
+      <c r="B16" s="90"/>
       <c r="C16" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D16" s="102"/>
+      <c r="D16" s="90"/>
       <c r="E16" s="41">
         <v>52.6</v>
       </c>
-      <c r="F16" s="79"/>
+      <c r="F16" s="80"/>
       <c r="G16" s="41">
         <v>1.5</v>
       </c>
-      <c r="H16" s="86"/>
+      <c r="H16" s="87"/>
       <c r="I16" s="41">
         <v>361.9</v>
       </c>
-      <c r="J16" s="86"/>
+      <c r="J16" s="87"/>
       <c r="K16" s="40">
         <v>76.8</v>
       </c>
-      <c r="L16" s="86"/>
+      <c r="L16" s="87"/>
       <c r="M16" s="41">
         <v>59.2</v>
       </c>
-      <c r="N16" s="86"/>
+      <c r="N16" s="87"/>
       <c r="O16" s="41">
         <v>462.4</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B17" s="99" t="s">
+      <c r="B17" s="88" t="s">
         <v>444</v>
       </c>
       <c r="C17" s="40">
         <v>79.3</v>
       </c>
-      <c r="D17" s="77" t="s">
+      <c r="D17" s="78" t="s">
         <v>81</v>
       </c>
       <c r="E17" s="41">
         <v>42.9</v>
       </c>
-      <c r="F17" s="79"/>
+      <c r="F17" s="80"/>
       <c r="G17" s="41">
         <v>1.3</v>
       </c>
-      <c r="H17" s="86"/>
+      <c r="H17" s="87"/>
       <c r="I17" s="41">
         <v>356.7</v>
       </c>
-      <c r="J17" s="86"/>
+      <c r="J17" s="87"/>
       <c r="K17" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L17" s="86"/>
+      <c r="L17" s="87"/>
       <c r="M17" s="41">
         <v>59.1</v>
       </c>
-      <c r="N17" s="86"/>
+      <c r="N17" s="87"/>
       <c r="O17" s="41">
         <v>459.9</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B18" s="99"/>
+      <c r="B18" s="88"/>
       <c r="C18" s="40">
         <v>79.5</v>
       </c>
-      <c r="D18" s="77"/>
+      <c r="D18" s="78"/>
       <c r="E18" s="41">
         <v>42.9</v>
       </c>
-      <c r="F18" s="79"/>
+      <c r="F18" s="80"/>
       <c r="G18" s="41">
         <v>2</v>
       </c>
-      <c r="H18" s="86"/>
+      <c r="H18" s="87"/>
       <c r="I18" s="41">
         <v>354.9</v>
       </c>
-      <c r="J18" s="86"/>
+      <c r="J18" s="87"/>
       <c r="K18" s="40">
         <v>77</v>
       </c>
-      <c r="L18" s="86"/>
+      <c r="L18" s="87"/>
       <c r="M18" s="41">
         <v>59</v>
       </c>
-      <c r="N18" s="86"/>
+      <c r="N18" s="87"/>
       <c r="O18" s="41">
         <v>452.7</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B19" s="99"/>
+      <c r="B19" s="88"/>
       <c r="C19" s="40">
         <v>79.5</v>
       </c>
-      <c r="D19" s="77"/>
+      <c r="D19" s="78"/>
       <c r="E19" s="41">
         <v>43.1</v>
       </c>
-      <c r="F19" s="79"/>
+      <c r="F19" s="80"/>
       <c r="G19" s="41">
         <v>1.4</v>
       </c>
-      <c r="H19" s="86"/>
+      <c r="H19" s="87"/>
       <c r="I19" s="41">
         <v>356.2</v>
       </c>
-      <c r="J19" s="86"/>
+      <c r="J19" s="87"/>
       <c r="K19" s="40">
         <v>77</v>
       </c>
-      <c r="L19" s="86"/>
+      <c r="L19" s="87"/>
       <c r="M19" s="41">
         <v>58.9</v>
       </c>
-      <c r="N19" s="86"/>
+      <c r="N19" s="87"/>
       <c r="O19" s="41">
         <v>465.8</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B20" s="99"/>
+      <c r="B20" s="88"/>
       <c r="C20" s="40">
         <v>79.5</v>
       </c>
-      <c r="D20" s="77"/>
+      <c r="D20" s="78"/>
       <c r="E20" s="41">
         <v>43.1</v>
       </c>
-      <c r="F20" s="79"/>
+      <c r="F20" s="80"/>
       <c r="G20" s="41">
         <v>0.5</v>
       </c>
-      <c r="H20" s="86"/>
+      <c r="H20" s="87"/>
       <c r="I20" s="41">
         <v>356.1</v>
       </c>
-      <c r="J20" s="86"/>
+      <c r="J20" s="87"/>
       <c r="K20" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L20" s="86"/>
+      <c r="L20" s="87"/>
       <c r="M20" s="41">
         <v>58.8</v>
       </c>
-      <c r="N20" s="86"/>
+      <c r="N20" s="87"/>
       <c r="O20" s="41">
         <v>455.5</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B21" s="99"/>
+      <c r="B21" s="88"/>
       <c r="C21" s="40">
         <v>79.5</v>
       </c>
-      <c r="D21" s="77"/>
+      <c r="D21" s="78"/>
       <c r="E21" s="41">
         <v>43.1</v>
       </c>
-      <c r="F21" s="79"/>
+      <c r="F21" s="80"/>
       <c r="G21" s="41">
         <v>2.6</v>
       </c>
-      <c r="H21" s="86"/>
+      <c r="H21" s="87"/>
       <c r="I21" s="41">
         <v>355.2</v>
       </c>
-      <c r="J21" s="86"/>
+      <c r="J21" s="87"/>
       <c r="K21" s="40">
         <v>77</v>
       </c>
-      <c r="L21" s="86"/>
+      <c r="L21" s="87"/>
       <c r="M21" s="41">
         <v>58.8</v>
       </c>
-      <c r="N21" s="86"/>
+      <c r="N21" s="87"/>
       <c r="O21" s="41">
         <v>459.8</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B22" s="99" t="s">
+      <c r="B22" s="88" t="s">
         <v>55</v>
       </c>
       <c r="C22" s="40">
         <v>80</v>
       </c>
-      <c r="D22" s="77" t="s">
+      <c r="D22" s="78" t="s">
         <v>82</v>
       </c>
       <c r="E22" s="41">
         <v>43.1</v>
       </c>
-      <c r="F22" s="79"/>
+      <c r="F22" s="80"/>
       <c r="G22" s="41">
         <v>1.4</v>
       </c>
-      <c r="H22" s="86"/>
+      <c r="H22" s="87"/>
       <c r="I22" s="41">
         <v>354.9</v>
       </c>
-      <c r="J22" s="86"/>
+      <c r="J22" s="87"/>
       <c r="K22" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L22" s="86"/>
+      <c r="L22" s="87"/>
       <c r="M22" s="41">
         <v>59.1</v>
       </c>
-      <c r="N22" s="86"/>
+      <c r="N22" s="87"/>
       <c r="O22" s="41">
         <v>474.8</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B23" s="99"/>
+      <c r="B23" s="88"/>
       <c r="C23" s="40">
         <v>80</v>
       </c>
-      <c r="D23" s="77"/>
+      <c r="D23" s="78"/>
       <c r="E23" s="41">
         <v>43.1</v>
       </c>
-      <c r="F23" s="79"/>
+      <c r="F23" s="80"/>
       <c r="G23" s="41">
         <v>0.6</v>
       </c>
-      <c r="H23" s="86"/>
+      <c r="H23" s="87"/>
       <c r="I23" s="41">
         <v>345.1</v>
       </c>
-      <c r="J23" s="86"/>
+      <c r="J23" s="87"/>
       <c r="K23" s="40">
         <v>77</v>
       </c>
-      <c r="L23" s="86"/>
+      <c r="L23" s="87"/>
       <c r="M23" s="41">
         <v>59.1</v>
       </c>
-      <c r="N23" s="86"/>
+      <c r="N23" s="87"/>
       <c r="O23" s="41">
         <v>469.8</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B24" s="99"/>
+      <c r="B24" s="88"/>
       <c r="C24" s="40">
         <v>80</v>
       </c>
-      <c r="D24" s="77"/>
+      <c r="D24" s="78"/>
       <c r="E24" s="41">
         <v>43.1</v>
       </c>
-      <c r="F24" s="79"/>
+      <c r="F24" s="80"/>
       <c r="G24" s="41">
         <v>0.6</v>
       </c>
-      <c r="H24" s="86"/>
+      <c r="H24" s="87"/>
       <c r="I24" s="41">
         <v>349.2</v>
       </c>
-      <c r="J24" s="86"/>
+      <c r="J24" s="87"/>
       <c r="K24" s="40">
         <v>76.8</v>
       </c>
-      <c r="L24" s="86"/>
+      <c r="L24" s="87"/>
       <c r="M24" s="41">
         <v>59.2</v>
       </c>
-      <c r="N24" s="86"/>
+      <c r="N24" s="87"/>
       <c r="O24" s="41">
         <v>479.7</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B25" s="99"/>
+      <c r="B25" s="88"/>
       <c r="C25" s="40">
         <v>80</v>
       </c>
-      <c r="D25" s="77"/>
+      <c r="D25" s="78"/>
       <c r="E25" s="41">
         <v>43.1</v>
       </c>
-      <c r="F25" s="79"/>
+      <c r="F25" s="80"/>
       <c r="G25" s="41">
         <v>0.9</v>
       </c>
-      <c r="H25" s="86"/>
+      <c r="H25" s="87"/>
       <c r="I25" s="41">
         <v>351.5</v>
       </c>
-      <c r="J25" s="86"/>
+      <c r="J25" s="87"/>
       <c r="K25" s="40">
         <v>77</v>
       </c>
-      <c r="L25" s="86"/>
+      <c r="L25" s="87"/>
       <c r="M25" s="41">
         <v>59.3</v>
       </c>
-      <c r="N25" s="86"/>
+      <c r="N25" s="87"/>
       <c r="O25" s="41">
         <v>480.8</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B26" s="99"/>
+      <c r="B26" s="88"/>
       <c r="C26" s="40">
         <v>80</v>
       </c>
-      <c r="D26" s="77"/>
+      <c r="D26" s="78"/>
       <c r="E26" s="41">
         <v>43.2</v>
       </c>
-      <c r="F26" s="79"/>
+      <c r="F26" s="80"/>
       <c r="G26" s="41">
         <v>1.5</v>
       </c>
-      <c r="H26" s="86"/>
+      <c r="H26" s="87"/>
       <c r="I26" s="41">
         <v>351.4</v>
       </c>
-      <c r="J26" s="86"/>
+      <c r="J26" s="87"/>
       <c r="K26" s="40">
         <v>77</v>
       </c>
-      <c r="L26" s="86"/>
+      <c r="L26" s="87"/>
       <c r="M26" s="41">
         <v>59.2</v>
       </c>
-      <c r="N26" s="86"/>
+      <c r="N26" s="87"/>
       <c r="O26" s="41">
         <v>482.6</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B27" s="99" t="s">
+      <c r="B27" s="88" t="s">
         <v>56</v>
       </c>
       <c r="C27" s="40">
         <v>80.7</v>
       </c>
-      <c r="D27" s="77" t="s">
+      <c r="D27" s="78" t="s">
         <v>83</v>
       </c>
       <c r="E27" s="41">
         <v>43.8</v>
       </c>
-      <c r="F27" s="79"/>
+      <c r="F27" s="80"/>
       <c r="G27" s="41">
         <v>1.7</v>
       </c>
-      <c r="H27" s="86"/>
+      <c r="H27" s="87"/>
       <c r="I27" s="41">
         <v>348.4</v>
       </c>
-      <c r="J27" s="86"/>
+      <c r="J27" s="87"/>
       <c r="K27" s="40">
         <v>77</v>
       </c>
-      <c r="L27" s="86"/>
+      <c r="L27" s="87"/>
       <c r="M27" s="41">
         <v>58.4</v>
       </c>
-      <c r="N27" s="86"/>
+      <c r="N27" s="87"/>
       <c r="O27" s="41">
         <v>489.5</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B28" s="99"/>
+      <c r="B28" s="88"/>
       <c r="C28" s="40">
         <v>80.7</v>
       </c>
-      <c r="D28" s="77"/>
+      <c r="D28" s="78"/>
       <c r="E28" s="41">
         <v>43.8</v>
       </c>
-      <c r="F28" s="79"/>
+      <c r="F28" s="80"/>
       <c r="G28" s="41">
         <v>0.1</v>
       </c>
-      <c r="H28" s="86"/>
+      <c r="H28" s="87"/>
       <c r="I28" s="41">
         <v>347.6</v>
       </c>
-      <c r="J28" s="86"/>
+      <c r="J28" s="87"/>
       <c r="K28" s="40">
         <v>77</v>
       </c>
-      <c r="L28" s="86"/>
+      <c r="L28" s="87"/>
       <c r="M28" s="41">
         <v>58.4</v>
       </c>
-      <c r="N28" s="86"/>
+      <c r="N28" s="87"/>
       <c r="O28" s="41">
         <v>481.5</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B29" s="99"/>
+      <c r="B29" s="88"/>
       <c r="C29" s="40">
         <v>80.7</v>
       </c>
-      <c r="D29" s="77"/>
+      <c r="D29" s="78"/>
       <c r="E29" s="41">
         <v>43.7</v>
       </c>
-      <c r="F29" s="79"/>
+      <c r="F29" s="80"/>
       <c r="G29" s="41">
         <v>0</v>
       </c>
-      <c r="H29" s="86"/>
+      <c r="H29" s="87"/>
       <c r="I29" s="41">
         <v>346</v>
       </c>
-      <c r="J29" s="86"/>
+      <c r="J29" s="87"/>
       <c r="K29" s="40">
         <v>77</v>
       </c>
-      <c r="L29" s="86"/>
+      <c r="L29" s="87"/>
       <c r="M29" s="41">
         <v>58.4</v>
       </c>
-      <c r="N29" s="86"/>
+      <c r="N29" s="87"/>
       <c r="O29" s="41">
         <v>477.8</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B30" s="99"/>
+      <c r="B30" s="88"/>
       <c r="C30" s="40">
         <v>80.7</v>
       </c>
-      <c r="D30" s="77"/>
+      <c r="D30" s="78"/>
       <c r="E30" s="41">
         <v>43.6</v>
       </c>
-      <c r="F30" s="79"/>
+      <c r="F30" s="80"/>
       <c r="G30" s="41">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H30" s="86"/>
+      <c r="H30" s="87"/>
       <c r="I30" s="41">
         <v>345</v>
       </c>
-      <c r="J30" s="86"/>
+      <c r="J30" s="87"/>
       <c r="K30" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L30" s="86"/>
+      <c r="L30" s="87"/>
       <c r="M30" s="41">
         <v>58.5</v>
       </c>
-      <c r="N30" s="86"/>
+      <c r="N30" s="87"/>
       <c r="O30" s="41">
         <v>484.6</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B31" s="99"/>
+      <c r="B31" s="88"/>
       <c r="C31" s="40">
         <v>80.900000000000006</v>
       </c>
-      <c r="D31" s="77"/>
+      <c r="D31" s="78"/>
       <c r="E31" s="41">
         <v>43.6</v>
       </c>
-      <c r="F31" s="79"/>
+      <c r="F31" s="80"/>
       <c r="G31" s="41">
         <v>1.6</v>
       </c>
-      <c r="H31" s="86"/>
+      <c r="H31" s="87"/>
       <c r="I31" s="41">
         <v>347.2</v>
       </c>
-      <c r="J31" s="86"/>
+      <c r="J31" s="87"/>
       <c r="K31" s="40">
         <v>77</v>
       </c>
-      <c r="L31" s="86"/>
+      <c r="L31" s="87"/>
       <c r="M31" s="41">
         <v>58.4</v>
       </c>
-      <c r="N31" s="86"/>
+      <c r="N31" s="87"/>
       <c r="O31" s="41">
         <v>483.8</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B32" s="99" t="s">
+      <c r="B32" s="88" t="s">
         <v>57</v>
       </c>
       <c r="C32" s="40">
         <v>81.099999999999994</v>
       </c>
-      <c r="D32" s="77" t="s">
+      <c r="D32" s="78" t="s">
         <v>85</v>
       </c>
       <c r="E32" s="41">
         <v>44.3</v>
       </c>
-      <c r="F32" s="79"/>
+      <c r="F32" s="80"/>
       <c r="G32" s="41">
         <v>0.4</v>
       </c>
-      <c r="H32" s="86"/>
+      <c r="H32" s="87"/>
       <c r="I32" s="41">
         <v>345.1</v>
       </c>
-      <c r="J32" s="86"/>
+      <c r="J32" s="87"/>
       <c r="K32" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L32" s="86"/>
+      <c r="L32" s="87"/>
       <c r="M32" s="41">
         <v>58.7</v>
       </c>
-      <c r="N32" s="86"/>
+      <c r="N32" s="87"/>
       <c r="O32" s="41">
         <v>482.9</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B33" s="99"/>
+      <c r="B33" s="88"/>
       <c r="C33" s="40">
         <v>81.099999999999994</v>
       </c>
-      <c r="D33" s="77"/>
+      <c r="D33" s="78"/>
       <c r="E33" s="41">
         <v>44.3</v>
       </c>
-      <c r="F33" s="79"/>
+      <c r="F33" s="80"/>
       <c r="G33" s="41">
         <v>1.3</v>
       </c>
-      <c r="H33" s="86"/>
+      <c r="H33" s="87"/>
       <c r="I33" s="41">
         <v>348</v>
       </c>
-      <c r="J33" s="86"/>
+      <c r="J33" s="87"/>
       <c r="K33" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L33" s="86"/>
+      <c r="L33" s="87"/>
       <c r="M33" s="41">
         <v>58.7</v>
       </c>
-      <c r="N33" s="86"/>
+      <c r="N33" s="87"/>
       <c r="O33" s="41">
         <v>491.2</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B34" s="99"/>
+      <c r="B34" s="88"/>
       <c r="C34" s="40">
         <v>81.099999999999994</v>
       </c>
-      <c r="D34" s="77"/>
+      <c r="D34" s="78"/>
       <c r="E34" s="41">
         <v>44.3</v>
       </c>
-      <c r="F34" s="79"/>
+      <c r="F34" s="80"/>
       <c r="G34" s="41">
         <v>1.5</v>
       </c>
-      <c r="H34" s="86"/>
+      <c r="H34" s="87"/>
       <c r="I34" s="41">
         <v>347.9</v>
       </c>
-      <c r="J34" s="86"/>
+      <c r="J34" s="87"/>
       <c r="K34" s="40">
         <v>77</v>
       </c>
-      <c r="L34" s="86"/>
+      <c r="L34" s="87"/>
       <c r="M34" s="41">
         <v>58.6</v>
       </c>
-      <c r="N34" s="86"/>
+      <c r="N34" s="87"/>
       <c r="O34" s="41">
         <v>486.7</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B35" s="99"/>
+      <c r="B35" s="88"/>
       <c r="C35" s="40">
         <v>81.099999999999994</v>
       </c>
-      <c r="D35" s="77"/>
+      <c r="D35" s="78"/>
       <c r="E35" s="41">
         <v>44.3</v>
       </c>
-      <c r="F35" s="79"/>
+      <c r="F35" s="80"/>
       <c r="G35" s="41">
         <v>1.2</v>
       </c>
-      <c r="H35" s="86"/>
+      <c r="H35" s="87"/>
       <c r="I35" s="41">
         <v>345.2</v>
       </c>
-      <c r="J35" s="86"/>
+      <c r="J35" s="87"/>
       <c r="K35" s="40">
         <v>77</v>
       </c>
-      <c r="L35" s="86"/>
+      <c r="L35" s="87"/>
       <c r="M35" s="41">
         <v>58.7</v>
       </c>
-      <c r="N35" s="86"/>
+      <c r="N35" s="87"/>
       <c r="O35" s="41">
         <v>494.4</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B36" s="99"/>
+      <c r="B36" s="88"/>
       <c r="C36" s="40">
         <v>81.099999999999994</v>
       </c>
-      <c r="D36" s="77"/>
+      <c r="D36" s="78"/>
       <c r="E36" s="41">
         <v>44.2</v>
       </c>
-      <c r="F36" s="79"/>
+      <c r="F36" s="80"/>
       <c r="G36" s="41">
         <v>1.4</v>
       </c>
-      <c r="H36" s="86"/>
+      <c r="H36" s="87"/>
       <c r="I36" s="41">
         <v>340.7</v>
       </c>
-      <c r="J36" s="86"/>
+      <c r="J36" s="87"/>
       <c r="K36" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L36" s="86"/>
+      <c r="L36" s="87"/>
       <c r="M36" s="41">
         <v>58.7</v>
       </c>
-      <c r="N36" s="86"/>
+      <c r="N36" s="87"/>
       <c r="O36" s="41">
         <v>493</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B37" s="99" t="s">
+      <c r="B37" s="88" t="s">
         <v>58</v>
       </c>
       <c r="C37" s="40">
         <v>81.5</v>
       </c>
-      <c r="D37" s="77" t="s">
+      <c r="D37" s="78" t="s">
         <v>86</v>
       </c>
       <c r="E37" s="41">
         <v>44</v>
       </c>
-      <c r="F37" s="79"/>
+      <c r="F37" s="80"/>
       <c r="G37" s="41">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H37" s="86"/>
+      <c r="H37" s="87"/>
       <c r="I37" s="41">
         <v>343.4</v>
       </c>
-      <c r="J37" s="86"/>
+      <c r="J37" s="87"/>
       <c r="K37" s="40">
         <v>77</v>
       </c>
-      <c r="L37" s="86"/>
+      <c r="L37" s="87"/>
       <c r="M37" s="41">
         <v>58.6</v>
       </c>
-      <c r="N37" s="86"/>
+      <c r="N37" s="87"/>
       <c r="O37" s="41">
         <v>510.4</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B38" s="99"/>
+      <c r="B38" s="88"/>
       <c r="C38" s="40">
         <v>81.5</v>
       </c>
-      <c r="D38" s="77"/>
+      <c r="D38" s="78"/>
       <c r="E38" s="41">
         <v>44</v>
       </c>
-      <c r="F38" s="79"/>
+      <c r="F38" s="80"/>
       <c r="G38" s="41">
         <v>0.6</v>
       </c>
-      <c r="H38" s="86"/>
+      <c r="H38" s="87"/>
       <c r="I38" s="41">
         <v>341.5</v>
       </c>
-      <c r="J38" s="86"/>
+      <c r="J38" s="87"/>
       <c r="K38" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L38" s="86"/>
+      <c r="L38" s="87"/>
       <c r="M38" s="41">
         <v>58.6</v>
       </c>
-      <c r="N38" s="86"/>
+      <c r="N38" s="87"/>
       <c r="O38" s="41">
         <v>500</v>
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B39" s="99"/>
+      <c r="B39" s="88"/>
       <c r="C39" s="40">
         <v>81.5</v>
       </c>
-      <c r="D39" s="77"/>
+      <c r="D39" s="78"/>
       <c r="E39" s="41">
         <v>44.1</v>
       </c>
-      <c r="F39" s="79"/>
+      <c r="F39" s="80"/>
       <c r="G39" s="41">
         <v>0.2</v>
       </c>
-      <c r="H39" s="86"/>
+      <c r="H39" s="87"/>
       <c r="I39" s="41">
         <v>341.1</v>
       </c>
-      <c r="J39" s="86"/>
+      <c r="J39" s="87"/>
       <c r="K39" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L39" s="86"/>
+      <c r="L39" s="87"/>
       <c r="M39" s="41">
         <v>58.7</v>
       </c>
-      <c r="N39" s="86"/>
+      <c r="N39" s="87"/>
       <c r="O39" s="41">
         <v>500.4</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B40" s="99"/>
+      <c r="B40" s="88"/>
       <c r="C40" s="40">
         <v>81.5</v>
       </c>
-      <c r="D40" s="77"/>
+      <c r="D40" s="78"/>
       <c r="E40" s="41">
         <v>44.1</v>
       </c>
-      <c r="F40" s="79"/>
+      <c r="F40" s="80"/>
       <c r="G40" s="41">
         <v>0</v>
       </c>
-      <c r="H40" s="86"/>
+      <c r="H40" s="87"/>
       <c r="I40" s="41">
         <v>343.7</v>
       </c>
-      <c r="J40" s="86"/>
+      <c r="J40" s="87"/>
       <c r="K40" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L40" s="86"/>
+      <c r="L40" s="87"/>
       <c r="M40" s="41">
         <v>58.8</v>
       </c>
-      <c r="N40" s="86"/>
+      <c r="N40" s="87"/>
       <c r="O40" s="41">
         <v>498.7</v>
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B41" s="99"/>
+      <c r="B41" s="88"/>
       <c r="C41" s="40">
         <v>81.5</v>
       </c>
-      <c r="D41" s="77"/>
+      <c r="D41" s="78"/>
       <c r="E41" s="41">
         <v>44.2</v>
       </c>
-      <c r="F41" s="79"/>
+      <c r="F41" s="80"/>
       <c r="G41" s="41">
         <v>0.2</v>
       </c>
-      <c r="H41" s="86"/>
+      <c r="H41" s="87"/>
       <c r="I41" s="41">
         <v>341.9</v>
       </c>
-      <c r="J41" s="86"/>
+      <c r="J41" s="87"/>
       <c r="K41" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L41" s="86"/>
+      <c r="L41" s="87"/>
       <c r="M41" s="41">
         <v>58.7</v>
       </c>
-      <c r="N41" s="86"/>
+      <c r="N41" s="87"/>
       <c r="O41" s="41">
         <v>490</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B42" s="99" t="s">
+      <c r="B42" s="88" t="s">
         <v>59</v>
       </c>
       <c r="C42" s="40">
         <v>82.4</v>
       </c>
-      <c r="D42" s="77" t="s">
+      <c r="D42" s="78" t="s">
         <v>88</v>
       </c>
       <c r="E42" s="41">
         <v>44</v>
       </c>
-      <c r="F42" s="79"/>
+      <c r="F42" s="80"/>
       <c r="G42" s="41">
         <v>0</v>
       </c>
-      <c r="H42" s="86"/>
+      <c r="H42" s="87"/>
       <c r="I42" s="41">
         <v>344.1</v>
       </c>
-      <c r="J42" s="86"/>
+      <c r="J42" s="87"/>
       <c r="K42" s="40">
         <v>76.8</v>
       </c>
-      <c r="L42" s="86"/>
+      <c r="L42" s="87"/>
       <c r="M42" s="57">
         <v>58.8</v>
       </c>
-      <c r="N42" s="86"/>
+      <c r="N42" s="87"/>
       <c r="O42" s="41">
         <v>514.70000000000005</v>
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B43" s="99"/>
+      <c r="B43" s="88"/>
       <c r="C43" s="40">
         <v>82.4</v>
       </c>
-      <c r="D43" s="77"/>
+      <c r="D43" s="78"/>
       <c r="E43" s="41">
         <v>43.9</v>
       </c>
-      <c r="F43" s="79"/>
+      <c r="F43" s="80"/>
       <c r="G43" s="41">
         <v>0.9</v>
       </c>
-      <c r="H43" s="86"/>
+      <c r="H43" s="87"/>
       <c r="I43" s="41">
         <v>342.8</v>
       </c>
-      <c r="J43" s="86"/>
+      <c r="J43" s="87"/>
       <c r="K43" s="40">
         <v>76.599999999999994</v>
       </c>
-      <c r="L43" s="86"/>
+      <c r="L43" s="87"/>
       <c r="M43" s="41">
         <v>59.8</v>
       </c>
-      <c r="N43" s="86"/>
+      <c r="N43" s="87"/>
       <c r="O43" s="41">
         <v>520.4</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B44" s="99"/>
+      <c r="B44" s="88"/>
       <c r="C44" s="40">
         <v>82.4</v>
       </c>
-      <c r="D44" s="77"/>
+      <c r="D44" s="78"/>
       <c r="E44" s="41">
         <v>43.9</v>
       </c>
-      <c r="F44" s="79"/>
+      <c r="F44" s="80"/>
       <c r="G44" s="41">
         <v>1.2</v>
       </c>
-      <c r="H44" s="86"/>
+      <c r="H44" s="87"/>
       <c r="I44" s="41">
         <v>342.8</v>
       </c>
-      <c r="J44" s="86"/>
+      <c r="J44" s="87"/>
       <c r="K44" s="40">
         <v>76.8</v>
       </c>
-      <c r="L44" s="86"/>
+      <c r="L44" s="87"/>
       <c r="M44" s="41">
         <v>59.6</v>
       </c>
-      <c r="N44" s="86"/>
+      <c r="N44" s="87"/>
       <c r="O44" s="41">
         <v>503.8</v>
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B45" s="99"/>
+      <c r="B45" s="88"/>
       <c r="C45" s="40">
         <v>82.4</v>
       </c>
-      <c r="D45" s="77"/>
+      <c r="D45" s="78"/>
       <c r="E45" s="41">
         <v>43.8</v>
       </c>
-      <c r="F45" s="79"/>
+      <c r="F45" s="80"/>
       <c r="G45" s="41">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H45" s="86"/>
+      <c r="H45" s="87"/>
       <c r="I45" s="41">
         <v>342.5</v>
       </c>
-      <c r="J45" s="86"/>
+      <c r="J45" s="87"/>
       <c r="K45" s="40">
         <v>76.400000000000006</v>
       </c>
-      <c r="L45" s="86"/>
+      <c r="L45" s="87"/>
       <c r="M45" s="41">
         <v>59.4</v>
       </c>
-      <c r="N45" s="86"/>
+      <c r="N45" s="87"/>
       <c r="O45" s="41">
         <v>497.8</v>
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B46" s="99"/>
+      <c r="B46" s="88"/>
       <c r="C46" s="40">
         <v>82.4</v>
       </c>
-      <c r="D46" s="77"/>
+      <c r="D46" s="78"/>
       <c r="E46" s="41">
         <v>43.8</v>
       </c>
-      <c r="F46" s="79"/>
+      <c r="F46" s="80"/>
       <c r="G46" s="41">
         <v>2</v>
       </c>
-      <c r="H46" s="86"/>
+      <c r="H46" s="87"/>
       <c r="I46" s="41">
         <v>345.7</v>
       </c>
-      <c r="J46" s="86"/>
+      <c r="J46" s="87"/>
       <c r="K46" s="40">
         <v>76.2</v>
       </c>
-      <c r="L46" s="86"/>
+      <c r="L46" s="87"/>
       <c r="M46" s="41">
         <v>59.5</v>
       </c>
-      <c r="N46" s="86"/>
+      <c r="N46" s="87"/>
       <c r="O46" s="41">
         <v>504.7</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B47" s="99" t="s">
+      <c r="B47" s="88" t="s">
         <v>94</v>
       </c>
       <c r="C47" s="40">
         <v>82.9</v>
       </c>
-      <c r="D47" s="103" t="s">
+      <c r="D47" s="89" t="s">
         <v>90</v>
       </c>
       <c r="E47" s="41">
@@ -9542,11 +10762,11 @@
       <c r="J47" s="56"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B48" s="99"/>
+      <c r="B48" s="88"/>
       <c r="C48" s="40">
         <v>83.1</v>
       </c>
-      <c r="D48" s="103"/>
+      <c r="D48" s="89"/>
       <c r="E48" s="41">
         <v>43.4</v>
       </c>
@@ -9557,11 +10777,11 @@
       <c r="J48" s="56"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B49" s="99"/>
+      <c r="B49" s="88"/>
       <c r="C49" s="40">
         <v>83.1</v>
       </c>
-      <c r="D49" s="103"/>
+      <c r="D49" s="89"/>
       <c r="E49" s="41">
         <v>43.4</v>
       </c>
@@ -9572,11 +10792,11 @@
       <c r="J49" s="56"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B50" s="99"/>
+      <c r="B50" s="88"/>
       <c r="C50" s="40">
         <v>83.1</v>
       </c>
-      <c r="D50" s="103"/>
+      <c r="D50" s="89"/>
       <c r="E50" s="41">
         <v>43.4</v>
       </c>
@@ -9587,11 +10807,11 @@
       <c r="J50" s="56"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B51" s="99"/>
+      <c r="B51" s="88"/>
       <c r="C51" s="40">
         <v>83.1</v>
       </c>
-      <c r="D51" s="103"/>
+      <c r="D51" s="89"/>
       <c r="E51" s="41">
         <v>43.4</v>
       </c>
@@ -9602,13 +10822,13 @@
       <c r="J51" s="56"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B52" s="99" t="s">
+      <c r="B52" s="88" t="s">
         <v>95</v>
       </c>
       <c r="C52" s="40">
         <v>83.4</v>
       </c>
-      <c r="D52" s="103" t="s">
+      <c r="D52" s="89" t="s">
         <v>92</v>
       </c>
       <c r="E52" s="41">
@@ -9621,11 +10841,11 @@
       <c r="J52" s="56"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B53" s="99"/>
+      <c r="B53" s="88"/>
       <c r="C53" s="40">
         <v>83.4</v>
       </c>
-      <c r="D53" s="103"/>
+      <c r="D53" s="89"/>
       <c r="E53" s="41">
         <v>43.3</v>
       </c>
@@ -9636,11 +10856,11 @@
       <c r="J53" s="56"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B54" s="99"/>
+      <c r="B54" s="88"/>
       <c r="C54" s="40">
         <v>83.4</v>
       </c>
-      <c r="D54" s="103"/>
+      <c r="D54" s="89"/>
       <c r="E54" s="41">
         <v>43.4</v>
       </c>
@@ -9651,11 +10871,11 @@
       <c r="J54" s="56"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B55" s="99"/>
+      <c r="B55" s="88"/>
       <c r="C55" s="40">
         <v>83.6</v>
       </c>
-      <c r="D55" s="103"/>
+      <c r="D55" s="89"/>
       <c r="E55" s="41">
         <v>43.4</v>
       </c>
@@ -9666,11 +10886,11 @@
       <c r="J55" s="56"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B56" s="99"/>
+      <c r="B56" s="88"/>
       <c r="C56" s="40">
         <v>83.3</v>
       </c>
-      <c r="D56" s="103"/>
+      <c r="D56" s="89"/>
       <c r="E56" s="41">
         <v>43.4</v>
       </c>
@@ -9681,7 +10901,7 @@
       <c r="J56" s="56"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B57" s="99" t="s">
+      <c r="B57" s="88" t="s">
         <v>96</v>
       </c>
       <c r="C57" s="40">
@@ -9696,7 +10916,7 @@
       <c r="J57" s="56"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B58" s="99"/>
+      <c r="B58" s="88"/>
       <c r="C58" s="40">
         <v>83.4</v>
       </c>
@@ -9709,7 +10929,7 @@
       <c r="J58" s="56"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B59" s="99"/>
+      <c r="B59" s="88"/>
       <c r="C59" s="40">
         <v>83.3</v>
       </c>
@@ -9722,7 +10942,7 @@
       <c r="J59" s="56"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B60" s="99"/>
+      <c r="B60" s="88"/>
       <c r="C60" s="40">
         <v>83.3</v>
       </c>
@@ -9735,7 +10955,7 @@
       <c r="J60" s="56"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B61" s="99"/>
+      <c r="B61" s="88"/>
       <c r="C61" s="40">
         <v>83.4</v>
       </c>
@@ -9748,7 +10968,7 @@
       <c r="J61" s="56"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B62" s="99" t="s">
+      <c r="B62" s="88" t="s">
         <v>97</v>
       </c>
       <c r="C62" s="40">
@@ -9763,7 +10983,7 @@
       <c r="J62" s="56"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B63" s="99"/>
+      <c r="B63" s="88"/>
       <c r="C63" s="40">
         <v>83.8</v>
       </c>
@@ -9776,7 +10996,7 @@
       <c r="J63" s="56"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B64" s="99"/>
+      <c r="B64" s="88"/>
       <c r="C64" s="40">
         <v>83.6</v>
       </c>
@@ -9789,7 +11009,7 @@
       <c r="J64" s="56"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B65" s="99"/>
+      <c r="B65" s="88"/>
       <c r="C65" s="40">
         <v>83.8</v>
       </c>
@@ -9802,7 +11022,7 @@
       <c r="J65" s="56"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B66" s="99"/>
+      <c r="B66" s="88"/>
       <c r="C66" s="40">
         <v>83.8</v>
       </c>
@@ -9815,7 +11035,7 @@
       <c r="J66" s="56"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B67" s="99" t="s">
+      <c r="B67" s="88" t="s">
         <v>93</v>
       </c>
       <c r="C67" s="40">
@@ -9830,7 +11050,7 @@
       <c r="J67" s="56"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B68" s="99"/>
+      <c r="B68" s="88"/>
       <c r="C68" s="40">
         <v>84</v>
       </c>
@@ -9843,7 +11063,7 @@
       <c r="J68" s="56"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B69" s="99"/>
+      <c r="B69" s="88"/>
       <c r="C69" s="40">
         <v>84</v>
       </c>
@@ -9856,7 +11076,7 @@
       <c r="J69" s="56"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B70" s="99"/>
+      <c r="B70" s="88"/>
       <c r="C70" s="40">
         <v>84</v>
       </c>
@@ -9869,7 +11089,7 @@
       <c r="J70" s="56"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B71" s="99"/>
+      <c r="B71" s="88"/>
       <c r="C71" s="40">
         <v>84</v>
       </c>
@@ -9882,7 +11102,7 @@
       <c r="J71" s="56"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B72" s="99" t="s">
+      <c r="B72" s="88" t="s">
         <v>82</v>
       </c>
       <c r="C72" s="40">
@@ -9897,7 +11117,7 @@
       <c r="J72" s="56"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B73" s="99"/>
+      <c r="B73" s="88"/>
       <c r="C73" s="40">
         <v>83.4</v>
       </c>
@@ -9910,7 +11130,7 @@
       <c r="J73" s="56"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B74" s="99"/>
+      <c r="B74" s="88"/>
       <c r="C74" s="40">
         <v>83.3</v>
       </c>
@@ -9923,7 +11143,7 @@
       <c r="J74" s="56"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B75" s="99"/>
+      <c r="B75" s="88"/>
       <c r="C75" s="40">
         <v>83.3</v>
       </c>
@@ -9936,7 +11156,7 @@
       <c r="J75" s="56"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B76" s="99"/>
+      <c r="B76" s="88"/>
       <c r="C76" s="40">
         <v>83.3</v>
       </c>
@@ -9949,7 +11169,7 @@
       <c r="J76" s="56"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B77" s="99" t="s">
+      <c r="B77" s="88" t="s">
         <v>83</v>
       </c>
       <c r="C77" s="40">
@@ -9964,7 +11184,7 @@
       <c r="J77" s="56"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B78" s="99"/>
+      <c r="B78" s="88"/>
       <c r="C78" s="40">
         <v>83.4</v>
       </c>
@@ -9977,7 +11197,7 @@
       <c r="J78" s="56"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B79" s="99"/>
+      <c r="B79" s="88"/>
       <c r="C79" s="40">
         <v>83.4</v>
       </c>
@@ -9990,7 +11210,7 @@
       <c r="J79" s="56"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B80" s="99"/>
+      <c r="B80" s="88"/>
       <c r="C80" s="40">
         <v>83.4</v>
       </c>
@@ -10003,7 +11223,7 @@
       <c r="J80" s="56"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B81" s="99"/>
+      <c r="B81" s="88"/>
       <c r="C81" s="40">
         <v>83.4</v>
       </c>
@@ -10016,7 +11236,7 @@
       <c r="J81" s="56"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B82" s="99" t="s">
+      <c r="B82" s="88" t="s">
         <v>84</v>
       </c>
       <c r="C82" s="40">
@@ -10031,7 +11251,7 @@
       <c r="J82" s="56"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B83" s="99"/>
+      <c r="B83" s="88"/>
       <c r="C83" s="40">
         <v>83.3</v>
       </c>
@@ -10044,7 +11264,7 @@
       <c r="J83" s="56"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B84" s="99"/>
+      <c r="B84" s="88"/>
       <c r="C84" s="40">
         <v>83.3</v>
       </c>
@@ -10057,7 +11277,7 @@
       <c r="J84" s="56"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B85" s="99"/>
+      <c r="B85" s="88"/>
       <c r="C85" s="40">
         <v>83.3</v>
       </c>
@@ -10070,7 +11290,7 @@
       <c r="J85" s="56"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B86" s="99"/>
+      <c r="B86" s="88"/>
       <c r="C86" s="40">
         <v>83.3</v>
       </c>
@@ -10083,7 +11303,7 @@
       <c r="J86" s="56"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B87" s="99" t="s">
+      <c r="B87" s="88" t="s">
         <v>87</v>
       </c>
       <c r="C87" s="40">
@@ -10098,7 +11318,7 @@
       <c r="J87" s="56"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B88" s="99"/>
+      <c r="B88" s="88"/>
       <c r="C88" s="40">
         <v>83.8</v>
       </c>
@@ -10111,7 +11331,7 @@
       <c r="J88" s="56"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B89" s="99"/>
+      <c r="B89" s="88"/>
       <c r="C89" s="40">
         <v>83.8</v>
       </c>
@@ -10124,7 +11344,7 @@
       <c r="J89" s="56"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B90" s="99"/>
+      <c r="B90" s="88"/>
       <c r="C90" s="40">
         <v>84</v>
       </c>
@@ -10137,7 +11357,7 @@
       <c r="J90" s="56"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B91" s="99"/>
+      <c r="B91" s="88"/>
       <c r="C91" s="40">
         <v>84</v>
       </c>
@@ -10150,7 +11370,7 @@
       <c r="J91" s="56"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B92" s="99" t="s">
+      <c r="B92" s="88" t="s">
         <v>89</v>
       </c>
       <c r="C92" s="40">
@@ -10165,7 +11385,7 @@
       <c r="J92" s="56"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B93" s="99"/>
+      <c r="B93" s="88"/>
       <c r="C93" s="40">
         <v>84</v>
       </c>
@@ -10178,7 +11398,7 @@
       <c r="J93" s="56"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B94" s="99"/>
+      <c r="B94" s="88"/>
       <c r="C94" s="40">
         <v>84</v>
       </c>
@@ -10191,7 +11411,7 @@
       <c r="J94" s="56"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B95" s="99"/>
+      <c r="B95" s="88"/>
       <c r="C95" s="40">
         <v>84.2</v>
       </c>
@@ -10204,7 +11424,7 @@
       <c r="J95" s="56"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B96" s="99"/>
+      <c r="B96" s="88"/>
       <c r="C96" s="40">
         <v>84.2</v>
       </c>
@@ -10217,7 +11437,7 @@
       <c r="J96" s="56"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B97" s="99" t="s">
+      <c r="B97" s="88" t="s">
         <v>91</v>
       </c>
       <c r="C97" s="40">
@@ -10232,7 +11452,7 @@
       <c r="J97" s="56"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B98" s="99"/>
+      <c r="B98" s="88"/>
       <c r="C98" s="40">
         <v>84</v>
       </c>
@@ -10245,7 +11465,7 @@
       <c r="J98" s="56"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B99" s="99"/>
+      <c r="B99" s="88"/>
       <c r="C99" s="40">
         <v>84</v>
       </c>
@@ -10258,7 +11478,7 @@
       <c r="J99" s="56"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B100" s="99"/>
+      <c r="B100" s="88"/>
       <c r="C100" s="40">
         <v>84</v>
       </c>
@@ -10271,7 +11491,7 @@
       <c r="J100" s="56"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B101" s="99"/>
+      <c r="B101" s="88"/>
       <c r="C101" s="40">
         <v>84</v>
       </c>
@@ -10285,6 +11505,49 @@
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="J7:J46"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N7:N46"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L7:L46"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B92:B96"/>
+    <mergeCell ref="B7:B16"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="D7:D16"/>
+    <mergeCell ref="F7:F46"/>
+    <mergeCell ref="H7:H46"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="F5:G5"/>
     <mergeCell ref="B97:B101"/>
     <mergeCell ref="D27:D31"/>
     <mergeCell ref="D32:D36"/>
@@ -10301,49 +11564,6 @@
     <mergeCell ref="B32:B36"/>
     <mergeCell ref="B47:B51"/>
     <mergeCell ref="B52:B56"/>
-    <mergeCell ref="L7:L46"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B92:B96"/>
-    <mergeCell ref="B7:B16"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="D7:D16"/>
-    <mergeCell ref="F7:F46"/>
-    <mergeCell ref="H7:H46"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="J7:J46"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N7:N46"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10361,44 +11581,44 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="108" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
       <c r="G1" s="17"/>
-      <c r="H1" s="113" t="s">
+      <c r="H1" s="110" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113" t="s">
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A2" s="114"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A3" s="26" t="s">
@@ -10422,27 +11642,27 @@
       <c r="G3" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="H3" s="89" t="s">
+      <c r="H3" s="101" t="s">
         <v>189</v>
       </c>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="90"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="103"/>
       <c r="P3" s="31">
         <v>0.36041666666666666</v>
       </c>
-      <c r="Q3" s="89" t="s">
+      <c r="Q3" s="101" t="s">
         <v>189</v>
       </c>
-      <c r="R3" s="96"/>
-      <c r="S3" s="96"/>
-      <c r="T3" s="96"/>
-      <c r="U3" s="96"/>
-      <c r="V3" s="96"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
+      <c r="U3" s="102"/>
+      <c r="V3" s="102"/>
       <c r="W3" s="37">
         <v>0.36319444444444443</v>
       </c>
@@ -10451,22 +11671,22 @@
       <c r="Z3" s="20"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="113" t="s">
         <v>133</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="88" t="s">
         <v>98</v>
       </c>
       <c r="D4" s="23">
         <v>1</v>
       </c>
-      <c r="E4" s="78" t="s">
+      <c r="E4" s="79" t="s">
         <v>135</v>
       </c>
-      <c r="F4" s="78"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="24"/>
       <c r="H4" s="23" t="s">
         <v>136</v>
@@ -10521,14 +11741,14 @@
       <c r="Z4" s="13"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A5" s="105"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="99"/>
+      <c r="A5" s="114"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="88"/>
       <c r="D5" s="23">
         <v>2</v>
       </c>
-      <c r="E5" s="77"/>
-      <c r="F5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="24"/>
       <c r="H5" s="23" t="s">
         <v>136</v>
@@ -10583,14 +11803,14 @@
       <c r="Z5" s="13"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A6" s="105"/>
-      <c r="B6" s="108"/>
-      <c r="C6" s="99"/>
+      <c r="A6" s="114"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="88"/>
       <c r="D6" s="23">
         <v>3</v>
       </c>
-      <c r="E6" s="77"/>
-      <c r="F6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="24"/>
       <c r="H6" s="23" t="s">
         <v>137</v>
@@ -10645,14 +11865,14 @@
       <c r="Z6" s="13"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A7" s="105"/>
-      <c r="B7" s="108"/>
-      <c r="C7" s="99"/>
+      <c r="A7" s="114"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="88"/>
       <c r="D7" s="23">
         <v>4</v>
       </c>
-      <c r="E7" s="77"/>
-      <c r="F7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="24"/>
       <c r="H7" s="23" t="s">
         <v>137</v>
@@ -10707,14 +11927,14 @@
       <c r="Z7" s="13"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A8" s="105"/>
-      <c r="B8" s="108"/>
-      <c r="C8" s="99"/>
+      <c r="A8" s="114"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="88"/>
       <c r="D8" s="23">
         <v>5</v>
       </c>
-      <c r="E8" s="77"/>
-      <c r="F8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="79"/>
       <c r="G8" s="24"/>
       <c r="H8" s="23" t="s">
         <v>138</v>
@@ -10769,23 +11989,23 @@
       <c r="Z8" s="13"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A9" s="105"/>
-      <c r="B9" s="108"/>
+      <c r="A9" s="114"/>
+      <c r="B9" s="117"/>
       <c r="C9" s="26"/>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="77"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="77"/>
-      <c r="P9" s="77"/>
-      <c r="Q9" s="77"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="78"/>
       <c r="R9" s="27"/>
       <c r="S9" s="27"/>
       <c r="T9" s="27"/>
@@ -10797,15 +12017,15 @@
       <c r="Z9" s="21"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A10" s="105"/>
-      <c r="B10" s="108"/>
+      <c r="A10" s="114"/>
+      <c r="B10" s="117"/>
       <c r="C10" s="26"/>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
       <c r="L10" s="23"/>
@@ -10829,18 +12049,18 @@
       <c r="Z10" s="11"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A11" s="105"/>
-      <c r="B11" s="108"/>
-      <c r="C11" s="99" t="s">
+      <c r="A11" s="114"/>
+      <c r="B11" s="117"/>
+      <c r="C11" s="88" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="23">
         <v>1</v>
       </c>
-      <c r="E11" s="78" t="s">
+      <c r="E11" s="79" t="s">
         <v>135</v>
       </c>
-      <c r="F11" s="78"/>
+      <c r="F11" s="79"/>
       <c r="G11" s="24"/>
       <c r="H11" s="24" t="s">
         <v>196</v>
@@ -10895,14 +12115,14 @@
       <c r="Z11" s="11"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A12" s="105"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="99"/>
+      <c r="A12" s="114"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="88"/>
       <c r="D12" s="23">
         <v>2</v>
       </c>
-      <c r="E12" s="77"/>
-      <c r="F12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="79"/>
       <c r="G12" s="24"/>
       <c r="H12" s="24" t="s">
         <v>197</v>
@@ -10957,14 +12177,14 @@
       <c r="Z12" s="11"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A13" s="105"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="99"/>
+      <c r="A13" s="114"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="88"/>
       <c r="D13" s="23">
         <v>3</v>
       </c>
-      <c r="E13" s="77"/>
-      <c r="F13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="79"/>
       <c r="G13" s="24"/>
       <c r="H13" s="24" t="s">
         <v>197</v>
@@ -11019,14 +12239,14 @@
       <c r="Z13" s="11"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A14" s="105"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="99"/>
+      <c r="A14" s="114"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="88"/>
       <c r="D14" s="23">
         <v>4</v>
       </c>
-      <c r="E14" s="77"/>
-      <c r="F14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="79"/>
       <c r="G14" s="24"/>
       <c r="H14" s="24" t="s">
         <v>198</v>
@@ -11081,14 +12301,14 @@
       <c r="Z14" s="11"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A15" s="105"/>
-      <c r="B15" s="108"/>
-      <c r="C15" s="99"/>
+      <c r="A15" s="114"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="88"/>
       <c r="D15" s="23">
         <v>5</v>
       </c>
-      <c r="E15" s="77"/>
-      <c r="F15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="79"/>
       <c r="G15" s="24"/>
       <c r="H15" s="24" t="s">
         <v>199</v>
@@ -11143,23 +12363,23 @@
       <c r="Z15" s="11"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A16" s="105"/>
-      <c r="B16" s="109"/>
+      <c r="A16" s="114"/>
+      <c r="B16" s="118"/>
       <c r="C16" s="29"/>
       <c r="D16" s="22"/>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="116" t="s">
+      <c r="H16" s="105" t="s">
         <v>178</v>
       </c>
-      <c r="I16" s="117"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="117"/>
-      <c r="L16" s="117"/>
-      <c r="M16" s="117"/>
-      <c r="N16" s="117"/>
-      <c r="O16" s="118"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="106"/>
+      <c r="K16" s="106"/>
+      <c r="L16" s="106"/>
+      <c r="M16" s="106"/>
+      <c r="N16" s="106"/>
+      <c r="O16" s="107"/>
       <c r="P16" s="36"/>
       <c r="Q16" s="36"/>
       <c r="R16" s="36"/>
@@ -11173,21 +12393,21 @@
       <c r="Z16" s="11"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A17" s="105"/>
-      <c r="B17" s="99" t="s">
+      <c r="A17" s="114"/>
+      <c r="B17" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="99" t="s">
+      <c r="C17" s="88" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="23">
         <v>1</v>
       </c>
-      <c r="E17" s="78" t="s">
+      <c r="E17" s="79" t="s">
         <v>139</v>
       </c>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78" t="s">
+      <c r="F17" s="79"/>
+      <c r="G17" s="79" t="s">
         <v>141</v>
       </c>
       <c r="H17" s="24" t="s">
@@ -11227,15 +12447,15 @@
       <c r="Z17" s="11"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A18" s="105"/>
-      <c r="B18" s="99"/>
-      <c r="C18" s="99"/>
+      <c r="A18" s="114"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="88"/>
       <c r="D18" s="23">
         <v>2</v>
       </c>
-      <c r="E18" s="77"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
       <c r="H18" s="24" t="s">
         <v>143</v>
       </c>
@@ -11273,15 +12493,15 @@
       <c r="Z18" s="11"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A19" s="105"/>
-      <c r="B19" s="99"/>
-      <c r="C19" s="99"/>
+      <c r="A19" s="114"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="88"/>
       <c r="D19" s="23">
         <v>3</v>
       </c>
-      <c r="E19" s="77"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
       <c r="H19" s="24" t="s">
         <v>144</v>
       </c>
@@ -11319,15 +12539,15 @@
       <c r="Z19" s="11"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A20" s="105"/>
-      <c r="B20" s="99"/>
-      <c r="C20" s="99"/>
+      <c r="A20" s="114"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="88"/>
       <c r="D20" s="23">
         <v>4</v>
       </c>
-      <c r="E20" s="77"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
       <c r="H20" s="24" t="s">
         <v>145</v>
       </c>
@@ -11365,15 +12585,15 @@
       <c r="Z20" s="11"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A21" s="106"/>
-      <c r="B21" s="99"/>
-      <c r="C21" s="99"/>
+      <c r="A21" s="115"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="88"/>
       <c r="D21" s="23">
         <v>5</v>
       </c>
-      <c r="E21" s="77"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
       <c r="H21" s="24" t="s">
         <v>146</v>
       </c>
@@ -11426,16 +12646,16 @@
       <c r="G22" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="H22" s="97" t="s">
+      <c r="H22" s="95" t="s">
         <v>189</v>
       </c>
-      <c r="I22" s="100"/>
-      <c r="J22" s="100"/>
-      <c r="K22" s="100"/>
-      <c r="L22" s="100"/>
-      <c r="M22" s="100"/>
-      <c r="N22" s="100"/>
-      <c r="O22" s="98"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="96"/>
+      <c r="M22" s="96"/>
+      <c r="N22" s="96"/>
+      <c r="O22" s="104"/>
       <c r="P22" s="32" t="s">
         <v>248</v>
       </c>
@@ -11451,25 +12671,25 @@
       <c r="Z22" s="11"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A23" s="104" t="s">
+      <c r="A23" s="113" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="99" t="s">
+      <c r="B23" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="99" t="s">
+      <c r="C23" s="88" t="s">
         <v>98</v>
       </c>
       <c r="D23" s="23">
         <v>1</v>
       </c>
-      <c r="E23" s="78" t="s">
+      <c r="E23" s="79" t="s">
         <v>230</v>
       </c>
-      <c r="F23" s="79" t="s">
+      <c r="F23" s="80" t="s">
         <v>291</v>
       </c>
-      <c r="G23" s="78" t="s">
+      <c r="G23" s="79" t="s">
         <v>292</v>
       </c>
       <c r="H23" s="24" t="s">
@@ -11525,15 +12745,15 @@
       <c r="Z23" s="11"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A24" s="105"/>
-      <c r="B24" s="99"/>
-      <c r="C24" s="99"/>
+      <c r="A24" s="114"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="88"/>
       <c r="D24" s="23">
         <v>2</v>
       </c>
-      <c r="E24" s="77"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="79"/>
       <c r="H24" s="24" t="s">
         <v>232</v>
       </c>
@@ -11587,15 +12807,15 @@
       <c r="Z24" s="11"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A25" s="105"/>
-      <c r="B25" s="99"/>
-      <c r="C25" s="99"/>
+      <c r="A25" s="114"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="88"/>
       <c r="D25" s="23">
         <v>3</v>
       </c>
-      <c r="E25" s="77"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="79"/>
       <c r="H25" s="24" t="s">
         <v>231</v>
       </c>
@@ -11649,15 +12869,15 @@
       <c r="Z25" s="11"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A26" s="105"/>
-      <c r="B26" s="99"/>
-      <c r="C26" s="99"/>
+      <c r="A26" s="114"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="88"/>
       <c r="D26" s="23">
         <v>4</v>
       </c>
-      <c r="E26" s="77"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="79"/>
       <c r="H26" s="24" t="s">
         <v>231</v>
       </c>
@@ -11711,15 +12931,15 @@
       <c r="Z26" s="11"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A27" s="105"/>
-      <c r="B27" s="99"/>
-      <c r="C27" s="99"/>
+      <c r="A27" s="114"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="88"/>
       <c r="D27" s="23">
         <v>5</v>
       </c>
-      <c r="E27" s="77"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="79"/>
       <c r="H27" s="24" t="s">
         <v>231</v>
       </c>
@@ -11773,8 +12993,8 @@
       <c r="Z27" s="11"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A28" s="105"/>
-      <c r="B28" s="99"/>
+      <c r="A28" s="114"/>
+      <c r="B28" s="88"/>
       <c r="C28" s="26"/>
       <c r="D28" s="23"/>
       <c r="E28" s="23"/>
@@ -11801,8 +13021,8 @@
       <c r="Z28" s="11"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A29" s="105"/>
-      <c r="B29" s="99"/>
+      <c r="A29" s="114"/>
+      <c r="B29" s="88"/>
       <c r="C29" s="26"/>
       <c r="D29" s="23"/>
       <c r="E29" s="23"/>
@@ -11831,21 +13051,21 @@
       <c r="Z29" s="11"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A30" s="105"/>
-      <c r="B30" s="99"/>
-      <c r="C30" s="99" t="s">
+      <c r="A30" s="114"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="88" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="23">
         <v>1</v>
       </c>
-      <c r="E30" s="78" t="s">
+      <c r="E30" s="79" t="s">
         <v>230</v>
       </c>
-      <c r="F30" s="79" t="s">
+      <c r="F30" s="80" t="s">
         <v>291</v>
       </c>
-      <c r="G30" s="78" t="s">
+      <c r="G30" s="79" t="s">
         <v>292</v>
       </c>
       <c r="H30" s="24" t="s">
@@ -11901,15 +13121,15 @@
       <c r="Z30" s="11"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A31" s="105"/>
-      <c r="B31" s="99"/>
-      <c r="C31" s="99"/>
+      <c r="A31" s="114"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="88"/>
       <c r="D31" s="23">
         <v>2</v>
       </c>
-      <c r="E31" s="77"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="78"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="79"/>
       <c r="H31" s="24" t="s">
         <v>238</v>
       </c>
@@ -11963,15 +13183,15 @@
       <c r="Z31" s="11"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A32" s="105"/>
-      <c r="B32" s="99"/>
-      <c r="C32" s="99"/>
+      <c r="A32" s="114"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="88"/>
       <c r="D32" s="23">
         <v>3</v>
       </c>
-      <c r="E32" s="77"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="78"/>
+      <c r="E32" s="78"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="79"/>
       <c r="H32" s="24" t="s">
         <v>238</v>
       </c>
@@ -12025,15 +13245,15 @@
       <c r="Z32" s="11"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A33" s="105"/>
-      <c r="B33" s="99"/>
-      <c r="C33" s="99"/>
+      <c r="A33" s="114"/>
+      <c r="B33" s="88"/>
+      <c r="C33" s="88"/>
       <c r="D33" s="23">
         <v>4</v>
       </c>
-      <c r="E33" s="77"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="78"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="79"/>
       <c r="H33" s="24" t="s">
         <v>238</v>
       </c>
@@ -12084,15 +13304,15 @@
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A34" s="105"/>
-      <c r="B34" s="99"/>
-      <c r="C34" s="99"/>
+      <c r="A34" s="114"/>
+      <c r="B34" s="88"/>
+      <c r="C34" s="88"/>
       <c r="D34" s="23">
         <v>5</v>
       </c>
-      <c r="E34" s="77"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="79"/>
       <c r="H34" s="24" t="s">
         <v>239</v>
       </c>
@@ -12143,8 +13363,8 @@
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A35" s="105"/>
-      <c r="B35" s="99"/>
+      <c r="A35" s="114"/>
+      <c r="B35" s="88"/>
       <c r="C35" s="26"/>
       <c r="D35" s="23"/>
       <c r="E35" s="23"/>
@@ -12168,21 +13388,21 @@
       <c r="W35" s="26"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A36" s="105"/>
-      <c r="B36" s="99" t="s">
+      <c r="A36" s="114"/>
+      <c r="B36" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="99" t="s">
+      <c r="C36" s="88" t="s">
         <v>10</v>
       </c>
       <c r="D36" s="23">
         <v>1</v>
       </c>
-      <c r="E36" s="79" t="s">
+      <c r="E36" s="80" t="s">
         <v>293</v>
       </c>
-      <c r="F36" s="78"/>
-      <c r="G36" s="78" t="s">
+      <c r="F36" s="79"/>
+      <c r="G36" s="79" t="s">
         <v>292</v>
       </c>
       <c r="H36" s="26"/>
@@ -12231,15 +13451,15 @@
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A37" s="105"/>
-      <c r="B37" s="99"/>
-      <c r="C37" s="99"/>
+      <c r="A37" s="114"/>
+      <c r="B37" s="88"/>
+      <c r="C37" s="88"/>
       <c r="D37" s="23">
         <v>2</v>
       </c>
-      <c r="E37" s="86"/>
-      <c r="F37" s="78"/>
-      <c r="G37" s="78"/>
+      <c r="E37" s="87"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="79"/>
       <c r="H37" s="26"/>
       <c r="I37" s="26"/>
       <c r="J37" s="24" t="s">
@@ -12286,15 +13506,15 @@
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A38" s="105"/>
-      <c r="B38" s="99"/>
-      <c r="C38" s="99"/>
+      <c r="A38" s="114"/>
+      <c r="B38" s="88"/>
+      <c r="C38" s="88"/>
       <c r="D38" s="23">
         <v>3</v>
       </c>
-      <c r="E38" s="86"/>
-      <c r="F38" s="78"/>
-      <c r="G38" s="78"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="79"/>
       <c r="H38" s="26"/>
       <c r="I38" s="26"/>
       <c r="J38" s="24" t="s">
@@ -12341,15 +13561,15 @@
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A39" s="105"/>
-      <c r="B39" s="99"/>
-      <c r="C39" s="99"/>
+      <c r="A39" s="114"/>
+      <c r="B39" s="88"/>
+      <c r="C39" s="88"/>
       <c r="D39" s="23">
         <v>4</v>
       </c>
-      <c r="E39" s="86"/>
-      <c r="F39" s="78"/>
-      <c r="G39" s="78"/>
+      <c r="E39" s="87"/>
+      <c r="F39" s="79"/>
+      <c r="G39" s="79"/>
       <c r="H39" s="26"/>
       <c r="I39" s="26"/>
       <c r="J39" s="24" t="s">
@@ -12396,15 +13616,15 @@
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A40" s="106"/>
-      <c r="B40" s="99"/>
-      <c r="C40" s="99"/>
+      <c r="A40" s="115"/>
+      <c r="B40" s="88"/>
+      <c r="C40" s="88"/>
       <c r="D40" s="23">
         <v>5</v>
       </c>
-      <c r="E40" s="86"/>
-      <c r="F40" s="78"/>
-      <c r="G40" s="78"/>
+      <c r="E40" s="87"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="79"/>
       <c r="H40" s="26"/>
       <c r="I40" s="26"/>
       <c r="J40" s="24" t="s">
@@ -12466,37 +13686,37 @@
       <c r="G41" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="H41" s="77" t="s">
+      <c r="H41" s="78" t="s">
         <v>189</v>
       </c>
-      <c r="I41" s="77"/>
-      <c r="J41" s="77"/>
-      <c r="K41" s="77"/>
-      <c r="L41" s="77"/>
-      <c r="M41" s="77"/>
-      <c r="N41" s="77"/>
-      <c r="O41" s="77"/>
+      <c r="I41" s="78"/>
+      <c r="J41" s="78"/>
+      <c r="K41" s="78"/>
+      <c r="L41" s="78"/>
+      <c r="M41" s="78"/>
+      <c r="N41" s="78"/>
+      <c r="O41" s="78"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A42" s="78" t="s">
+      <c r="A42" s="79" t="s">
         <v>294</v>
       </c>
-      <c r="B42" s="99" t="s">
+      <c r="B42" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="99" t="s">
+      <c r="C42" s="88" t="s">
         <v>98</v>
       </c>
       <c r="D42" s="23">
         <v>1</v>
       </c>
-      <c r="E42" s="78" t="s">
+      <c r="E42" s="79" t="s">
         <v>295</v>
       </c>
-      <c r="F42" s="78" t="s">
+      <c r="F42" s="79" t="s">
         <v>296</v>
       </c>
-      <c r="G42" s="78"/>
+      <c r="G42" s="79"/>
       <c r="H42" s="24" t="s">
         <v>297</v>
       </c>
@@ -12523,15 +13743,15 @@
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A43" s="78"/>
-      <c r="B43" s="99"/>
-      <c r="C43" s="99"/>
+      <c r="A43" s="79"/>
+      <c r="B43" s="88"/>
+      <c r="C43" s="88"/>
       <c r="D43" s="23">
         <v>2</v>
       </c>
-      <c r="E43" s="77"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="78"/>
+      <c r="E43" s="78"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="79"/>
       <c r="H43" s="24" t="s">
         <v>298</v>
       </c>
@@ -12558,15 +13778,15 @@
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A44" s="78"/>
-      <c r="B44" s="99"/>
-      <c r="C44" s="99"/>
+      <c r="A44" s="79"/>
+      <c r="B44" s="88"/>
+      <c r="C44" s="88"/>
       <c r="D44" s="23">
         <v>3</v>
       </c>
-      <c r="E44" s="77"/>
-      <c r="F44" s="78"/>
-      <c r="G44" s="78"/>
+      <c r="E44" s="78"/>
+      <c r="F44" s="79"/>
+      <c r="G44" s="79"/>
       <c r="H44" s="24" t="s">
         <v>299</v>
       </c>
@@ -12593,15 +13813,15 @@
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A45" s="78"/>
-      <c r="B45" s="99"/>
-      <c r="C45" s="99"/>
+      <c r="A45" s="79"/>
+      <c r="B45" s="88"/>
+      <c r="C45" s="88"/>
       <c r="D45" s="23">
         <v>4</v>
       </c>
-      <c r="E45" s="77"/>
-      <c r="F45" s="78"/>
-      <c r="G45" s="78"/>
+      <c r="E45" s="78"/>
+      <c r="F45" s="79"/>
+      <c r="G45" s="79"/>
       <c r="H45" s="24" t="s">
         <v>299</v>
       </c>
@@ -12628,15 +13848,15 @@
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A46" s="78"/>
-      <c r="B46" s="99"/>
-      <c r="C46" s="99"/>
+      <c r="A46" s="79"/>
+      <c r="B46" s="88"/>
+      <c r="C46" s="88"/>
       <c r="D46" s="23">
         <v>5</v>
       </c>
-      <c r="E46" s="77"/>
-      <c r="F46" s="78"/>
-      <c r="G46" s="78"/>
+      <c r="E46" s="78"/>
+      <c r="F46" s="79"/>
+      <c r="G46" s="79"/>
       <c r="H46" s="24" t="s">
         <v>299</v>
       </c>
@@ -12663,8 +13883,8 @@
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A47" s="78"/>
-      <c r="B47" s="99"/>
+      <c r="A47" s="79"/>
+      <c r="B47" s="88"/>
       <c r="C47" s="26"/>
       <c r="D47" s="23"/>
       <c r="E47" s="23"/>
@@ -12680,8 +13900,8 @@
       <c r="O47" s="23"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A48" s="78"/>
-      <c r="B48" s="99"/>
+      <c r="A48" s="79"/>
+      <c r="B48" s="88"/>
       <c r="C48" s="26"/>
       <c r="D48" s="23"/>
       <c r="E48" s="23"/>
@@ -12697,21 +13917,21 @@
       <c r="O48" s="23"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A49" s="78"/>
-      <c r="B49" s="99"/>
-      <c r="C49" s="99" t="s">
+      <c r="A49" s="79"/>
+      <c r="B49" s="88"/>
+      <c r="C49" s="88" t="s">
         <v>2</v>
       </c>
       <c r="D49" s="23">
         <v>1</v>
       </c>
-      <c r="E49" s="78" t="s">
+      <c r="E49" s="79" t="s">
         <v>295</v>
       </c>
-      <c r="F49" s="78" t="s">
+      <c r="F49" s="79" t="s">
         <v>296</v>
       </c>
-      <c r="G49" s="78"/>
+      <c r="G49" s="79"/>
       <c r="H49" s="24" t="s">
         <v>309</v>
       </c>
@@ -12738,15 +13958,15 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A50" s="78"/>
-      <c r="B50" s="99"/>
-      <c r="C50" s="99"/>
+      <c r="A50" s="79"/>
+      <c r="B50" s="88"/>
+      <c r="C50" s="88"/>
       <c r="D50" s="23">
         <v>2</v>
       </c>
-      <c r="E50" s="77"/>
-      <c r="F50" s="78"/>
-      <c r="G50" s="78"/>
+      <c r="E50" s="78"/>
+      <c r="F50" s="79"/>
+      <c r="G50" s="79"/>
       <c r="H50" s="24" t="s">
         <v>309</v>
       </c>
@@ -12773,15 +13993,15 @@
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A51" s="78"/>
-      <c r="B51" s="99"/>
-      <c r="C51" s="99"/>
+      <c r="A51" s="79"/>
+      <c r="B51" s="88"/>
+      <c r="C51" s="88"/>
       <c r="D51" s="23">
         <v>3</v>
       </c>
-      <c r="E51" s="77"/>
-      <c r="F51" s="78"/>
-      <c r="G51" s="78"/>
+      <c r="E51" s="78"/>
+      <c r="F51" s="79"/>
+      <c r="G51" s="79"/>
       <c r="H51" s="24" t="s">
         <v>310</v>
       </c>
@@ -12808,15 +14028,15 @@
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A52" s="78"/>
-      <c r="B52" s="99"/>
-      <c r="C52" s="99"/>
+      <c r="A52" s="79"/>
+      <c r="B52" s="88"/>
+      <c r="C52" s="88"/>
       <c r="D52" s="23">
         <v>4</v>
       </c>
-      <c r="E52" s="77"/>
-      <c r="F52" s="78"/>
-      <c r="G52" s="78"/>
+      <c r="E52" s="78"/>
+      <c r="F52" s="79"/>
+      <c r="G52" s="79"/>
       <c r="H52" s="24" t="s">
         <v>310</v>
       </c>
@@ -12843,15 +14063,15 @@
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A53" s="78"/>
-      <c r="B53" s="99"/>
-      <c r="C53" s="99"/>
+      <c r="A53" s="79"/>
+      <c r="B53" s="88"/>
+      <c r="C53" s="88"/>
       <c r="D53" s="23">
         <v>5</v>
       </c>
-      <c r="E53" s="77"/>
-      <c r="F53" s="78"/>
-      <c r="G53" s="78"/>
+      <c r="E53" s="78"/>
+      <c r="F53" s="79"/>
+      <c r="G53" s="79"/>
       <c r="H53" s="24" t="s">
         <v>309</v>
       </c>
@@ -12878,8 +14098,8 @@
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A54" s="78"/>
-      <c r="B54" s="99"/>
+      <c r="A54" s="79"/>
+      <c r="B54" s="88"/>
       <c r="C54" s="26"/>
       <c r="D54" s="23"/>
       <c r="E54" s="23"/>
@@ -12895,23 +14115,23 @@
       <c r="O54" s="23"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A55" s="78"/>
-      <c r="B55" s="99" t="s">
+      <c r="A55" s="79"/>
+      <c r="B55" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="99" t="s">
+      <c r="C55" s="88" t="s">
         <v>10</v>
       </c>
       <c r="D55" s="23">
         <v>1</v>
       </c>
-      <c r="E55" s="78" t="s">
+      <c r="E55" s="79" t="s">
         <v>295</v>
       </c>
-      <c r="F55" s="78" t="s">
+      <c r="F55" s="79" t="s">
         <v>296</v>
       </c>
-      <c r="G55" s="78"/>
+      <c r="G55" s="79"/>
       <c r="H55" s="24" t="s">
         <v>327</v>
       </c>
@@ -12938,15 +14158,15 @@
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A56" s="78"/>
-      <c r="B56" s="99"/>
-      <c r="C56" s="99"/>
+      <c r="A56" s="79"/>
+      <c r="B56" s="88"/>
+      <c r="C56" s="88"/>
       <c r="D56" s="23">
         <v>2</v>
       </c>
-      <c r="E56" s="77"/>
-      <c r="F56" s="78"/>
-      <c r="G56" s="78"/>
+      <c r="E56" s="78"/>
+      <c r="F56" s="79"/>
+      <c r="G56" s="79"/>
       <c r="H56" s="24" t="s">
         <v>328</v>
       </c>
@@ -12973,15 +14193,15 @@
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A57" s="78"/>
-      <c r="B57" s="99"/>
-      <c r="C57" s="99"/>
+      <c r="A57" s="79"/>
+      <c r="B57" s="88"/>
+      <c r="C57" s="88"/>
       <c r="D57" s="23">
         <v>3</v>
       </c>
-      <c r="E57" s="77"/>
-      <c r="F57" s="78"/>
-      <c r="G57" s="78"/>
+      <c r="E57" s="78"/>
+      <c r="F57" s="79"/>
+      <c r="G57" s="79"/>
       <c r="H57" s="24" t="s">
         <v>329</v>
       </c>
@@ -13008,15 +14228,15 @@
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A58" s="78"/>
-      <c r="B58" s="99"/>
-      <c r="C58" s="99"/>
+      <c r="A58" s="79"/>
+      <c r="B58" s="88"/>
+      <c r="C58" s="88"/>
       <c r="D58" s="23">
         <v>4</v>
       </c>
-      <c r="E58" s="77"/>
-      <c r="F58" s="78"/>
-      <c r="G58" s="78"/>
+      <c r="E58" s="78"/>
+      <c r="F58" s="79"/>
+      <c r="G58" s="79"/>
       <c r="H58" s="24" t="s">
         <v>330</v>
       </c>
@@ -13043,15 +14263,15 @@
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A59" s="78"/>
-      <c r="B59" s="99"/>
-      <c r="C59" s="99"/>
+      <c r="A59" s="79"/>
+      <c r="B59" s="88"/>
+      <c r="C59" s="88"/>
       <c r="D59" s="23">
         <v>5</v>
       </c>
-      <c r="E59" s="77"/>
-      <c r="F59" s="78"/>
-      <c r="G59" s="78"/>
+      <c r="E59" s="78"/>
+      <c r="F59" s="79"/>
+      <c r="G59" s="79"/>
       <c r="H59" s="24" t="s">
         <v>331</v>
       </c>
@@ -13093,37 +14313,37 @@
       <c r="G60" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="H60" s="77" t="s">
+      <c r="H60" s="78" t="s">
         <v>189</v>
       </c>
-      <c r="I60" s="77"/>
-      <c r="J60" s="77"/>
-      <c r="K60" s="77"/>
-      <c r="L60" s="77"/>
-      <c r="M60" s="77"/>
-      <c r="N60" s="77"/>
-      <c r="O60" s="77"/>
+      <c r="I60" s="78"/>
+      <c r="J60" s="78"/>
+      <c r="K60" s="78"/>
+      <c r="L60" s="78"/>
+      <c r="M60" s="78"/>
+      <c r="N60" s="78"/>
+      <c r="O60" s="78"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A61" s="78" t="s">
+      <c r="A61" s="79" t="s">
         <v>134</v>
       </c>
-      <c r="B61" s="99" t="s">
+      <c r="B61" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="99" t="s">
+      <c r="C61" s="88" t="s">
         <v>98</v>
       </c>
       <c r="D61" s="23">
         <v>1</v>
       </c>
-      <c r="E61" s="78" t="s">
+      <c r="E61" s="79" t="s">
         <v>366</v>
       </c>
-      <c r="F61" s="78" t="s">
+      <c r="F61" s="79" t="s">
         <v>367</v>
       </c>
-      <c r="G61" s="78" t="s">
+      <c r="G61" s="79" t="s">
         <v>368</v>
       </c>
       <c r="H61" s="24" t="s">
@@ -13152,15 +14372,15 @@
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A62" s="78"/>
-      <c r="B62" s="99"/>
-      <c r="C62" s="99"/>
+      <c r="A62" s="79"/>
+      <c r="B62" s="88"/>
+      <c r="C62" s="88"/>
       <c r="D62" s="23">
         <v>2</v>
       </c>
-      <c r="E62" s="77"/>
-      <c r="F62" s="78"/>
-      <c r="G62" s="78"/>
+      <c r="E62" s="78"/>
+      <c r="F62" s="79"/>
+      <c r="G62" s="79"/>
       <c r="H62" s="24" t="s">
         <v>370</v>
       </c>
@@ -13187,15 +14407,15 @@
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A63" s="78"/>
-      <c r="B63" s="99"/>
-      <c r="C63" s="99"/>
+      <c r="A63" s="79"/>
+      <c r="B63" s="88"/>
+      <c r="C63" s="88"/>
       <c r="D63" s="23">
         <v>3</v>
       </c>
-      <c r="E63" s="77"/>
-      <c r="F63" s="78"/>
-      <c r="G63" s="78"/>
+      <c r="E63" s="78"/>
+      <c r="F63" s="79"/>
+      <c r="G63" s="79"/>
       <c r="H63" s="24" t="s">
         <v>370</v>
       </c>
@@ -13222,15 +14442,15 @@
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A64" s="78"/>
-      <c r="B64" s="99"/>
-      <c r="C64" s="99"/>
+      <c r="A64" s="79"/>
+      <c r="B64" s="88"/>
+      <c r="C64" s="88"/>
       <c r="D64" s="23">
         <v>4</v>
       </c>
-      <c r="E64" s="77"/>
-      <c r="F64" s="78"/>
-      <c r="G64" s="78"/>
+      <c r="E64" s="78"/>
+      <c r="F64" s="79"/>
+      <c r="G64" s="79"/>
       <c r="H64" s="24" t="s">
         <v>369</v>
       </c>
@@ -13257,15 +14477,15 @@
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A65" s="78"/>
-      <c r="B65" s="99"/>
-      <c r="C65" s="99"/>
+      <c r="A65" s="79"/>
+      <c r="B65" s="88"/>
+      <c r="C65" s="88"/>
       <c r="D65" s="23">
         <v>5</v>
       </c>
-      <c r="E65" s="77"/>
-      <c r="F65" s="78"/>
-      <c r="G65" s="78"/>
+      <c r="E65" s="78"/>
+      <c r="F65" s="79"/>
+      <c r="G65" s="79"/>
       <c r="H65" s="24" t="s">
         <v>369</v>
       </c>
@@ -13292,8 +14512,8 @@
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A66" s="78"/>
-      <c r="B66" s="99"/>
+      <c r="A66" s="79"/>
+      <c r="B66" s="88"/>
       <c r="C66" s="26"/>
       <c r="D66" s="23"/>
       <c r="E66" s="23"/>
@@ -13309,8 +14529,8 @@
       <c r="O66" s="23"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A67" s="78"/>
-      <c r="B67" s="99"/>
+      <c r="A67" s="79"/>
+      <c r="B67" s="88"/>
       <c r="C67" s="26"/>
       <c r="D67" s="23"/>
       <c r="E67" s="23"/>
@@ -13326,21 +14546,21 @@
       <c r="O67" s="23"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A68" s="78"/>
-      <c r="B68" s="99"/>
-      <c r="C68" s="99" t="s">
+      <c r="A68" s="79"/>
+      <c r="B68" s="88"/>
+      <c r="C68" s="88" t="s">
         <v>2</v>
       </c>
       <c r="D68" s="23">
         <v>1</v>
       </c>
-      <c r="E68" s="78" t="s">
+      <c r="E68" s="79" t="s">
         <v>366</v>
       </c>
-      <c r="F68" s="78" t="s">
+      <c r="F68" s="79" t="s">
         <v>367</v>
       </c>
-      <c r="G68" s="78" t="s">
+      <c r="G68" s="79" t="s">
         <v>368</v>
       </c>
       <c r="H68" s="23" t="s">
@@ -13369,15 +14589,15 @@
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A69" s="78"/>
-      <c r="B69" s="99"/>
-      <c r="C69" s="99"/>
+      <c r="A69" s="79"/>
+      <c r="B69" s="88"/>
+      <c r="C69" s="88"/>
       <c r="D69" s="23">
         <v>2</v>
       </c>
-      <c r="E69" s="77"/>
-      <c r="F69" s="78"/>
-      <c r="G69" s="78"/>
+      <c r="E69" s="78"/>
+      <c r="F69" s="79"/>
+      <c r="G69" s="79"/>
       <c r="H69" s="23" t="s">
         <v>375</v>
       </c>
@@ -13404,15 +14624,15 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A70" s="78"/>
-      <c r="B70" s="99"/>
-      <c r="C70" s="99"/>
+      <c r="A70" s="79"/>
+      <c r="B70" s="88"/>
+      <c r="C70" s="88"/>
       <c r="D70" s="23">
         <v>3</v>
       </c>
-      <c r="E70" s="77"/>
-      <c r="F70" s="78"/>
-      <c r="G70" s="78"/>
+      <c r="E70" s="78"/>
+      <c r="F70" s="79"/>
+      <c r="G70" s="79"/>
       <c r="H70" s="23" t="s">
         <v>376</v>
       </c>
@@ -13439,15 +14659,15 @@
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A71" s="78"/>
-      <c r="B71" s="99"/>
-      <c r="C71" s="99"/>
+      <c r="A71" s="79"/>
+      <c r="B71" s="88"/>
+      <c r="C71" s="88"/>
       <c r="D71" s="23">
         <v>4</v>
       </c>
-      <c r="E71" s="77"/>
-      <c r="F71" s="78"/>
-      <c r="G71" s="78"/>
+      <c r="E71" s="78"/>
+      <c r="F71" s="79"/>
+      <c r="G71" s="79"/>
       <c r="H71" s="23" t="s">
         <v>375</v>
       </c>
@@ -13474,15 +14694,15 @@
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A72" s="78"/>
-      <c r="B72" s="99"/>
-      <c r="C72" s="99"/>
+      <c r="A72" s="79"/>
+      <c r="B72" s="88"/>
+      <c r="C72" s="88"/>
       <c r="D72" s="23">
         <v>5</v>
       </c>
-      <c r="E72" s="77"/>
-      <c r="F72" s="78"/>
-      <c r="G72" s="78"/>
+      <c r="E72" s="78"/>
+      <c r="F72" s="79"/>
+      <c r="G72" s="79"/>
       <c r="H72" s="23" t="s">
         <v>376</v>
       </c>
@@ -13509,8 +14729,8 @@
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A73" s="78"/>
-      <c r="B73" s="99"/>
+      <c r="A73" s="79"/>
+      <c r="B73" s="88"/>
       <c r="C73" s="26"/>
       <c r="D73" s="23"/>
       <c r="E73" s="23"/>
@@ -13526,23 +14746,23 @@
       <c r="O73" s="23"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A74" s="78"/>
-      <c r="B74" s="99" t="s">
+      <c r="A74" s="79"/>
+      <c r="B74" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="C74" s="99" t="s">
+      <c r="C74" s="88" t="s">
         <v>10</v>
       </c>
       <c r="D74" s="23">
         <v>1</v>
       </c>
-      <c r="E74" s="78" t="s">
+      <c r="E74" s="79" t="s">
         <v>366</v>
       </c>
-      <c r="F74" s="78" t="s">
+      <c r="F74" s="79" t="s">
         <v>367</v>
       </c>
-      <c r="G74" s="78" t="s">
+      <c r="G74" s="79" t="s">
         <v>368</v>
       </c>
       <c r="H74" s="24" t="s">
@@ -13571,15 +14791,15 @@
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A75" s="78"/>
-      <c r="B75" s="99"/>
-      <c r="C75" s="99"/>
+      <c r="A75" s="79"/>
+      <c r="B75" s="88"/>
+      <c r="C75" s="88"/>
       <c r="D75" s="23">
         <v>2</v>
       </c>
-      <c r="E75" s="77"/>
-      <c r="F75" s="78"/>
-      <c r="G75" s="78"/>
+      <c r="E75" s="78"/>
+      <c r="F75" s="79"/>
+      <c r="G75" s="79"/>
       <c r="H75" s="24" t="s">
         <v>390</v>
       </c>
@@ -13606,15 +14826,15 @@
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A76" s="78"/>
-      <c r="B76" s="99"/>
-      <c r="C76" s="99"/>
+      <c r="A76" s="79"/>
+      <c r="B76" s="88"/>
+      <c r="C76" s="88"/>
       <c r="D76" s="23">
         <v>3</v>
       </c>
-      <c r="E76" s="77"/>
-      <c r="F76" s="78"/>
-      <c r="G76" s="78"/>
+      <c r="E76" s="78"/>
+      <c r="F76" s="79"/>
+      <c r="G76" s="79"/>
       <c r="H76" s="24" t="s">
         <v>391</v>
       </c>
@@ -13641,15 +14861,15 @@
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A77" s="78"/>
-      <c r="B77" s="99"/>
-      <c r="C77" s="99"/>
+      <c r="A77" s="79"/>
+      <c r="B77" s="88"/>
+      <c r="C77" s="88"/>
       <c r="D77" s="23">
         <v>4</v>
       </c>
-      <c r="E77" s="77"/>
-      <c r="F77" s="78"/>
-      <c r="G77" s="78"/>
+      <c r="E77" s="78"/>
+      <c r="F77" s="79"/>
+      <c r="G77" s="79"/>
       <c r="H77" s="24" t="s">
         <v>392</v>
       </c>
@@ -13676,15 +14896,15 @@
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A78" s="78"/>
-      <c r="B78" s="99"/>
-      <c r="C78" s="99"/>
+      <c r="A78" s="79"/>
+      <c r="B78" s="88"/>
+      <c r="C78" s="88"/>
       <c r="D78" s="23">
         <v>5</v>
       </c>
-      <c r="E78" s="77"/>
-      <c r="F78" s="78"/>
-      <c r="G78" s="78"/>
+      <c r="E78" s="78"/>
+      <c r="F78" s="79"/>
+      <c r="G78" s="79"/>
       <c r="H78" s="24" t="s">
         <v>393</v>
       </c>
@@ -13802,45 +15022,22 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="G42:G46"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="C36:C40"/>
-    <mergeCell ref="E36:E40"/>
-    <mergeCell ref="F36:F40"/>
-    <mergeCell ref="E49:E53"/>
-    <mergeCell ref="F49:F53"/>
-    <mergeCell ref="A42:A59"/>
-    <mergeCell ref="B42:B54"/>
-    <mergeCell ref="C42:C46"/>
-    <mergeCell ref="E42:E46"/>
-    <mergeCell ref="F42:F46"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="C55:C59"/>
-    <mergeCell ref="E55:E59"/>
-    <mergeCell ref="F55:F59"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="E30:E34"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="H41:O41"/>
-    <mergeCell ref="E11:E15"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="G17:G21"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="F17:F21"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="G55:G59"/>
+    <mergeCell ref="G68:G72"/>
+    <mergeCell ref="G74:G78"/>
+    <mergeCell ref="H60:O60"/>
+    <mergeCell ref="A61:A78"/>
+    <mergeCell ref="B61:B73"/>
+    <mergeCell ref="C61:C65"/>
+    <mergeCell ref="E61:E65"/>
+    <mergeCell ref="F61:F65"/>
+    <mergeCell ref="G61:G65"/>
+    <mergeCell ref="C68:C72"/>
+    <mergeCell ref="E68:E72"/>
+    <mergeCell ref="F68:F72"/>
+    <mergeCell ref="B74:B78"/>
+    <mergeCell ref="C74:C78"/>
+    <mergeCell ref="E74:E78"/>
     <mergeCell ref="F74:F78"/>
     <mergeCell ref="G49:G53"/>
     <mergeCell ref="Q3:V3"/>
@@ -13857,22 +15054,45 @@
     <mergeCell ref="J9:Q9"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="C11:C15"/>
-    <mergeCell ref="G55:G59"/>
-    <mergeCell ref="G68:G72"/>
-    <mergeCell ref="G74:G78"/>
-    <mergeCell ref="H60:O60"/>
-    <mergeCell ref="A61:A78"/>
-    <mergeCell ref="B61:B73"/>
-    <mergeCell ref="C61:C65"/>
-    <mergeCell ref="E61:E65"/>
-    <mergeCell ref="F61:F65"/>
-    <mergeCell ref="G61:G65"/>
-    <mergeCell ref="C68:C72"/>
-    <mergeCell ref="E68:E72"/>
-    <mergeCell ref="F68:F72"/>
-    <mergeCell ref="B74:B78"/>
-    <mergeCell ref="C74:C78"/>
-    <mergeCell ref="E74:E78"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="G17:G21"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="F17:F21"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="H41:O41"/>
+    <mergeCell ref="A42:A59"/>
+    <mergeCell ref="B42:B54"/>
+    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="E42:E46"/>
+    <mergeCell ref="F42:F46"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="E55:E59"/>
+    <mergeCell ref="F55:F59"/>
+    <mergeCell ref="G42:G46"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="F30:F34"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="E36:E40"/>
+    <mergeCell ref="F36:F40"/>
+    <mergeCell ref="E49:E53"/>
+    <mergeCell ref="F49:F53"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13896,64 +15116,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="119" t="s">
+      <c r="E2" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="124" t="s">
+      <c r="E3" s="125" t="s">
         <v>436</v>
       </c>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124" t="s">
+      <c r="F3" s="125"/>
+      <c r="G3" s="125" t="s">
         <v>437</v>
       </c>
-      <c r="H3" s="124"/>
+      <c r="H3" s="125"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="123" t="s">
+      <c r="C4" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="99"/>
-      <c r="E4" s="123" t="s">
+      <c r="D4" s="88"/>
+      <c r="E4" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="99"/>
-      <c r="G4" s="123" t="s">
+      <c r="F4" s="88"/>
+      <c r="G4" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="99"/>
+      <c r="H4" s="88"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
@@ -13978,7 +15198,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="88" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="1">
@@ -14004,7 +15224,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="99"/>
+      <c r="A7" s="88"/>
       <c r="B7" s="1">
         <v>2</v>
       </c>
@@ -14028,7 +15248,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="99"/>
+      <c r="A8" s="88"/>
       <c r="B8" s="1">
         <v>3</v>
       </c>
@@ -14052,7 +15272,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="99"/>
+      <c r="A9" s="88"/>
       <c r="B9" s="7">
         <v>4</v>
       </c>
@@ -14076,7 +15296,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="99"/>
+      <c r="A10" s="88"/>
       <c r="B10" s="7">
         <v>5</v>
       </c>
@@ -14100,7 +15320,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="99" t="s">
+      <c r="A11" s="88" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="1">
@@ -14126,7 +15346,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="99"/>
+      <c r="A12" s="88"/>
       <c r="B12" s="1">
         <v>2</v>
       </c>
@@ -14150,7 +15370,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="99"/>
+      <c r="A13" s="88"/>
       <c r="B13" s="1">
         <v>3</v>
       </c>
@@ -14174,7 +15394,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="99"/>
+      <c r="A14" s="88"/>
       <c r="B14" s="7">
         <v>4</v>
       </c>
@@ -14198,7 +15418,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="99"/>
+      <c r="A15" s="88"/>
       <c r="B15" s="7">
         <v>5</v>
       </c>

--- a/数据记录/记录表单.xlsx
+++ b/数据记录/记录表单.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="473">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4212,6 +4212,10 @@
       </rPr>
       <t>2.2-22.0之间</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳不可见 气温一般 昨夜有雨</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4621,6 +4625,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4639,8 +4649,11 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4648,16 +4661,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4693,19 +4703,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4717,10 +4724,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4732,41 +4736,23 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4789,6 +4775,30 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4806,12 +4816,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5095,8 +5099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AG29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I10" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:Y4"/>
+    <sheetView tabSelected="1" topLeftCell="P6" workbookViewId="0">
+      <selection activeCell="AC28" sqref="AC28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5108,37 +5112,39 @@
       <c r="A4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="64">
+      <c r="B4" s="66">
         <v>42309</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="64">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="66">
         <v>42310</v>
       </c>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="64">
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="66">
         <v>42311</v>
       </c>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="67"/>
-      <c r="T4" s="67"/>
-      <c r="U4" s="67"/>
-      <c r="V4" s="67"/>
-      <c r="W4" s="67"/>
-      <c r="X4" s="67"/>
-      <c r="Y4" s="68"/>
-      <c r="Z4" s="59"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
+      <c r="U4" s="69"/>
+      <c r="V4" s="69"/>
+      <c r="W4" s="69"/>
+      <c r="X4" s="69"/>
+      <c r="Y4" s="70"/>
+      <c r="Z4" s="59">
+        <v>42312</v>
+      </c>
       <c r="AA4" s="58"/>
       <c r="AB4" s="58"/>
       <c r="AC4" s="58"/>
@@ -5151,18 +5157,18 @@
       <c r="A5" s="49" t="s">
         <v>447</v>
       </c>
-      <c r="B5" s="69">
+      <c r="B5" s="71">
         <v>0.70833333333333337</v>
       </c>
       <c r="C5" s="63"/>
       <c r="D5" s="63"/>
       <c r="E5" s="63"/>
-      <c r="F5" s="69">
+      <c r="F5" s="71">
         <v>0.68819444444444444</v>
       </c>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
       <c r="J5" s="60">
         <v>0.41041666666666665</v>
       </c>
@@ -5187,7 +5193,9 @@
       <c r="W5" s="61"/>
       <c r="X5" s="61"/>
       <c r="Y5" s="62"/>
-      <c r="Z5" s="60"/>
+      <c r="Z5" s="60">
+        <v>0.57638888888888895</v>
+      </c>
       <c r="AA5" s="61"/>
       <c r="AB5" s="61"/>
       <c r="AC5" s="62"/>
@@ -5273,7 +5281,9 @@
       <c r="W7" s="61"/>
       <c r="X7" s="61"/>
       <c r="Y7" s="62"/>
-      <c r="Z7" s="60"/>
+      <c r="Z7" s="60">
+        <v>0.58402777777777781</v>
+      </c>
       <c r="AA7" s="61"/>
       <c r="AB7" s="61"/>
       <c r="AC7" s="62"/>
@@ -5286,18 +5296,18 @@
       <c r="A8" s="49" t="s">
         <v>438</v>
       </c>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="71" t="s">
         <v>463</v>
       </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69" t="s">
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71" t="s">
         <v>465</v>
       </c>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
       <c r="J8" s="63" t="s">
         <v>466</v>
       </c>
@@ -5310,19 +5320,21 @@
       <c r="O8" s="63"/>
       <c r="P8" s="63"/>
       <c r="Q8" s="63"/>
-      <c r="R8" s="126" t="s">
+      <c r="R8" s="65" t="s">
         <v>469</v>
       </c>
       <c r="S8" s="63"/>
       <c r="T8" s="63"/>
       <c r="U8" s="63"/>
-      <c r="V8" s="126" t="s">
+      <c r="V8" s="65" t="s">
         <v>470</v>
       </c>
       <c r="W8" s="63"/>
       <c r="X8" s="63"/>
       <c r="Y8" s="63"/>
-      <c r="Z8" s="63"/>
+      <c r="Z8" s="63" t="s">
+        <v>472</v>
+      </c>
       <c r="AA8" s="63"/>
       <c r="AB8" s="63"/>
       <c r="AC8" s="63"/>
@@ -5508,9 +5520,15 @@
       <c r="Y10" s="50" t="s">
         <v>440</v>
       </c>
-      <c r="Z10" s="49"/>
-      <c r="AA10" s="49"/>
-      <c r="AB10" s="49"/>
+      <c r="Z10" s="49">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="AA10" s="49">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="AB10" s="49">
+        <v>78.7</v>
+      </c>
       <c r="AC10" s="50" t="s">
         <v>440</v>
       </c>
@@ -5597,10 +5615,18 @@
       <c r="Y11" s="49">
         <v>19.8</v>
       </c>
-      <c r="Z11" s="49"/>
-      <c r="AA11" s="49"/>
-      <c r="AB11" s="49"/>
-      <c r="AC11" s="49"/>
+      <c r="Z11" s="49">
+        <v>10.11</v>
+      </c>
+      <c r="AA11" s="49">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AB11" s="49">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="AC11" s="49">
+        <v>19.100000000000001</v>
+      </c>
       <c r="AD11" s="49"/>
       <c r="AE11" s="49"/>
       <c r="AF11" s="49"/>
@@ -5682,10 +5708,18 @@
       <c r="Y12" s="49">
         <v>50</v>
       </c>
-      <c r="Z12" s="49"/>
-      <c r="AA12" s="49"/>
-      <c r="AB12" s="49"/>
-      <c r="AC12" s="49"/>
+      <c r="Z12" s="49">
+        <v>10.1</v>
+      </c>
+      <c r="AA12" s="49">
+        <v>0.106</v>
+      </c>
+      <c r="AB12" s="49">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="AC12" s="49">
+        <v>73.3</v>
+      </c>
       <c r="AD12" s="49"/>
       <c r="AE12" s="49"/>
       <c r="AF12" s="49"/>
@@ -5755,9 +5789,15 @@
         <v>50.6</v>
       </c>
       <c r="Y13" s="49"/>
-      <c r="Z13" s="49"/>
-      <c r="AA13" s="49"/>
-      <c r="AB13" s="49"/>
+      <c r="Z13" s="49">
+        <v>10.09</v>
+      </c>
+      <c r="AA13" s="49">
+        <v>0.115</v>
+      </c>
+      <c r="AB13" s="49">
+        <v>74</v>
+      </c>
       <c r="AC13" s="49"/>
       <c r="AD13" s="49"/>
       <c r="AE13" s="49"/>
@@ -5828,9 +5868,15 @@
         <v>58.2</v>
       </c>
       <c r="Y14" s="49"/>
-      <c r="Z14" s="49"/>
-      <c r="AA14" s="49"/>
-      <c r="AB14" s="49"/>
+      <c r="Z14" s="49">
+        <v>10.08</v>
+      </c>
+      <c r="AA14" s="49">
+        <v>0.129</v>
+      </c>
+      <c r="AB14" s="49">
+        <v>76.900000000000006</v>
+      </c>
       <c r="AC14" s="49"/>
       <c r="AD14" s="49"/>
       <c r="AE14" s="49"/>
@@ -5913,9 +5959,15 @@
       <c r="Y15" s="50" t="s">
         <v>441</v>
       </c>
-      <c r="Z15" s="49"/>
-      <c r="AA15" s="49"/>
-      <c r="AB15" s="49"/>
+      <c r="Z15" s="49">
+        <v>10.07</v>
+      </c>
+      <c r="AA15" s="49">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="AB15" s="49">
+        <v>73.7</v>
+      </c>
       <c r="AC15" s="50" t="s">
         <v>441</v>
       </c>
@@ -6002,10 +6054,18 @@
       <c r="Y16" s="49">
         <v>19.899999999999999</v>
       </c>
-      <c r="Z16" s="49"/>
-      <c r="AA16" s="49"/>
-      <c r="AB16" s="49"/>
-      <c r="AC16" s="49"/>
+      <c r="Z16" s="49">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="AA16" s="49">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="AB16" s="49">
+        <v>74.3</v>
+      </c>
+      <c r="AC16" s="49">
+        <v>19.2</v>
+      </c>
       <c r="AD16" s="49"/>
       <c r="AE16" s="49"/>
       <c r="AF16" s="49"/>
@@ -6087,10 +6147,18 @@
       <c r="Y17" s="49">
         <v>50.1</v>
       </c>
-      <c r="Z17" s="49"/>
-      <c r="AA17" s="49"/>
-      <c r="AB17" s="49"/>
-      <c r="AC17" s="49"/>
+      <c r="Z17" s="49">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="AA17" s="49">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="AB17" s="49">
+        <v>77.8</v>
+      </c>
+      <c r="AC17" s="49">
+        <v>72.900000000000006</v>
+      </c>
       <c r="AD17" s="49"/>
       <c r="AE17" s="49"/>
       <c r="AF17" s="49"/>
@@ -6160,9 +6228,15 @@
         <v>55.3</v>
       </c>
       <c r="Y18" s="49"/>
-      <c r="Z18" s="49"/>
-      <c r="AA18" s="49"/>
-      <c r="AB18" s="49"/>
+      <c r="Z18" s="49">
+        <v>9.98</v>
+      </c>
+      <c r="AA18" s="49">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="AB18" s="49">
+        <v>77.3</v>
+      </c>
       <c r="AC18" s="49"/>
       <c r="AD18" s="49"/>
       <c r="AE18" s="49"/>
@@ -6233,9 +6307,15 @@
         <v>49.9</v>
       </c>
       <c r="Y19" s="49"/>
-      <c r="Z19" s="49"/>
-      <c r="AA19" s="49"/>
-      <c r="AB19" s="49"/>
+      <c r="Z19" s="49">
+        <v>9.81</v>
+      </c>
+      <c r="AA19" s="49">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="AB19" s="49">
+        <v>80.3</v>
+      </c>
       <c r="AC19" s="49"/>
       <c r="AD19" s="49"/>
       <c r="AE19" s="49"/>
@@ -6318,9 +6398,15 @@
       <c r="Y20" s="50" t="s">
         <v>442</v>
       </c>
-      <c r="Z20" s="49"/>
-      <c r="AA20" s="49"/>
-      <c r="AB20" s="49"/>
+      <c r="Z20" s="49">
+        <v>9.51</v>
+      </c>
+      <c r="AA20" s="49">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="AB20" s="49">
+        <v>78.3</v>
+      </c>
       <c r="AC20" s="50" t="s">
         <v>442</v>
       </c>
@@ -6407,10 +6493,18 @@
       <c r="Y21" s="49">
         <v>19.899999999999999</v>
       </c>
-      <c r="Z21" s="49"/>
-      <c r="AA21" s="49"/>
-      <c r="AB21" s="49"/>
-      <c r="AC21" s="49"/>
+      <c r="Z21" s="49">
+        <v>5.67</v>
+      </c>
+      <c r="AA21" s="49">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="AB21" s="49">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="AC21" s="49">
+        <v>19.3</v>
+      </c>
       <c r="AD21" s="49"/>
       <c r="AE21" s="49"/>
       <c r="AF21" s="49"/>
@@ -6492,10 +6586,18 @@
       <c r="Y22" s="49">
         <v>50.6</v>
       </c>
-      <c r="Z22" s="49"/>
-      <c r="AA22" s="49"/>
-      <c r="AB22" s="49"/>
-      <c r="AC22" s="49"/>
+      <c r="Z22" s="49">
+        <v>4.37</v>
+      </c>
+      <c r="AA22" s="49">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="AB22" s="49">
+        <v>75</v>
+      </c>
+      <c r="AC22" s="49">
+        <v>72.2</v>
+      </c>
       <c r="AD22" s="49"/>
       <c r="AE22" s="49"/>
       <c r="AF22" s="49"/>
@@ -6565,9 +6667,15 @@
         <v>51.8</v>
       </c>
       <c r="Y23" s="49"/>
-      <c r="Z23" s="49"/>
-      <c r="AA23" s="49"/>
-      <c r="AB23" s="49"/>
+      <c r="Z23" s="49">
+        <v>3.8</v>
+      </c>
+      <c r="AA23" s="49">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="AB23" s="49">
+        <v>77.599999999999994</v>
+      </c>
       <c r="AC23" s="49"/>
       <c r="AD23" s="49"/>
       <c r="AE23" s="49"/>
@@ -6638,9 +6746,15 @@
         <v>52.5</v>
       </c>
       <c r="Y24" s="49"/>
-      <c r="Z24" s="49"/>
-      <c r="AA24" s="49"/>
-      <c r="AB24" s="49"/>
+      <c r="Z24" s="49">
+        <v>2.7709999999999999</v>
+      </c>
+      <c r="AA24" s="49">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="AB24" s="49">
+        <v>80.400000000000006</v>
+      </c>
       <c r="AC24" s="49"/>
       <c r="AD24" s="49"/>
       <c r="AE24" s="49"/>
@@ -6723,9 +6837,15 @@
       <c r="Y25" s="50" t="s">
         <v>443</v>
       </c>
-      <c r="Z25" s="49"/>
-      <c r="AA25" s="49"/>
-      <c r="AB25" s="49"/>
+      <c r="Z25" s="49">
+        <v>2.2320000000000002</v>
+      </c>
+      <c r="AA25" s="49">
+        <v>0.77</v>
+      </c>
+      <c r="AB25" s="49">
+        <v>81.900000000000006</v>
+      </c>
       <c r="AC25" s="50" t="s">
         <v>443</v>
       </c>
@@ -6812,10 +6932,18 @@
       <c r="Y26" s="49">
         <v>20.100000000000001</v>
       </c>
-      <c r="Z26" s="51"/>
-      <c r="AA26" s="51"/>
-      <c r="AB26" s="49"/>
-      <c r="AC26" s="49"/>
+      <c r="Z26" s="51">
+        <v>1.444</v>
+      </c>
+      <c r="AA26" s="51">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="AB26" s="49">
+        <v>80.8</v>
+      </c>
+      <c r="AC26" s="49">
+        <v>19.2</v>
+      </c>
       <c r="AD26" s="51"/>
       <c r="AE26" s="51"/>
       <c r="AF26" s="49"/>
@@ -6897,10 +7025,18 @@
       <c r="Y27" s="49">
         <v>47.1</v>
       </c>
-      <c r="Z27" s="49"/>
-      <c r="AA27" s="49"/>
-      <c r="AB27" s="49"/>
-      <c r="AC27" s="49"/>
+      <c r="Z27" s="49">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="AA27" s="49">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="AB27" s="49">
+        <v>85.1</v>
+      </c>
+      <c r="AC27" s="49">
+        <v>71.900000000000006</v>
+      </c>
       <c r="AD27" s="49"/>
       <c r="AE27" s="49"/>
       <c r="AF27" s="49"/>
@@ -6970,9 +7106,15 @@
         <v>47.6</v>
       </c>
       <c r="Y28" s="49"/>
-      <c r="Z28" s="49"/>
-      <c r="AA28" s="49"/>
-      <c r="AB28" s="49"/>
+      <c r="Z28" s="49">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="AA28" s="49">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="AB28" s="49">
+        <v>86.4</v>
+      </c>
       <c r="AC28" s="49"/>
       <c r="AD28" s="49"/>
       <c r="AE28" s="49"/>
@@ -6980,28 +7122,22 @@
       <c r="AG28" s="49"/>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="R29" s="127" t="s">
+      <c r="R29" s="64" t="s">
         <v>471</v>
       </c>
-      <c r="S29" s="127"/>
-      <c r="T29" s="127"/>
-      <c r="U29" s="127"/>
+      <c r="S29" s="64"/>
+      <c r="T29" s="64"/>
+      <c r="U29" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="AD5:AG5"/>
-    <mergeCell ref="AD6:AG6"/>
-    <mergeCell ref="AD7:AG7"/>
-    <mergeCell ref="AD8:AG8"/>
-    <mergeCell ref="R29:U29"/>
-    <mergeCell ref="V5:Y5"/>
-    <mergeCell ref="V6:Y6"/>
-    <mergeCell ref="V7:Y7"/>
-    <mergeCell ref="V8:Y8"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="Z6:AC6"/>
-    <mergeCell ref="Z7:AC7"/>
-    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="R8:U8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="B8:E8"/>
@@ -7018,13 +7154,19 @@
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="J4:Y4"/>
     <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="R5:U5"/>
-    <mergeCell ref="R6:U6"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="AD5:AG5"/>
+    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="AD7:AG7"/>
+    <mergeCell ref="AD8:AG8"/>
+    <mergeCell ref="R29:U29"/>
+    <mergeCell ref="V5:Y5"/>
+    <mergeCell ref="V6:Y6"/>
+    <mergeCell ref="V7:Y7"/>
+    <mergeCell ref="V8:Y8"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="Z7:AC7"/>
+    <mergeCell ref="Z8:AC8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7060,93 +7202,93 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="70">
+      <c r="B3" s="76">
         <v>42299</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="70"/>
-      <c r="S3" s="70"/>
-      <c r="T3" s="70"/>
-      <c r="U3" s="70"/>
-      <c r="V3" s="70"/>
-      <c r="W3" s="70"/>
-      <c r="X3" s="70"/>
-      <c r="Y3" s="70"/>
-      <c r="Z3" s="70">
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="76">
         <v>42300</v>
       </c>
-      <c r="AA3" s="72"/>
-      <c r="AB3" s="72"/>
-      <c r="AC3" s="72"/>
-      <c r="AD3" s="72"/>
-      <c r="AE3" s="72"/>
-      <c r="AF3" s="72"/>
-      <c r="AG3" s="72"/>
+      <c r="AA3" s="75"/>
+      <c r="AB3" s="75"/>
+      <c r="AC3" s="75"/>
+      <c r="AD3" s="75"/>
+      <c r="AE3" s="75"/>
+      <c r="AF3" s="75"/>
+      <c r="AG3" s="75"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A4" s="39" t="s">
         <v>454</v>
       </c>
-      <c r="B4" s="71">
+      <c r="B4" s="74">
         <v>0.37013888888888885</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="71">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="74">
         <v>0.4375</v>
       </c>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71">
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74">
         <v>0.52361111111111114</v>
       </c>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71">
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74">
         <v>0.60625000000000007</v>
       </c>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="71">
+      <c r="S4" s="74"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="74"/>
+      <c r="V4" s="74">
         <v>0.67569444444444438</v>
       </c>
-      <c r="W4" s="71"/>
-      <c r="X4" s="71"/>
-      <c r="Y4" s="71"/>
-      <c r="Z4" s="71">
+      <c r="W4" s="74"/>
+      <c r="X4" s="74"/>
+      <c r="Y4" s="74"/>
+      <c r="Z4" s="74">
         <v>0.41180555555555554</v>
       </c>
-      <c r="AA4" s="72"/>
-      <c r="AB4" s="72"/>
-      <c r="AC4" s="72"/>
-      <c r="AD4" s="71">
+      <c r="AA4" s="75"/>
+      <c r="AB4" s="75"/>
+      <c r="AC4" s="75"/>
+      <c r="AD4" s="74">
         <v>0.62986111111111109</v>
       </c>
-      <c r="AE4" s="71"/>
-      <c r="AF4" s="71"/>
-      <c r="AG4" s="71"/>
+      <c r="AE4" s="74"/>
+      <c r="AF4" s="74"/>
+      <c r="AG4" s="74"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A5" s="39" t="s">
@@ -7176,12 +7318,12 @@
       <c r="W5" s="52"/>
       <c r="X5" s="52"/>
       <c r="Y5" s="52"/>
-      <c r="Z5" s="73" t="s">
+      <c r="Z5" s="77" t="s">
         <v>464</v>
       </c>
-      <c r="AA5" s="74"/>
-      <c r="AB5" s="74"/>
-      <c r="AC5" s="74"/>
+      <c r="AA5" s="78"/>
+      <c r="AB5" s="78"/>
+      <c r="AC5" s="78"/>
       <c r="AD5" s="52"/>
       <c r="AE5" s="52"/>
       <c r="AF5" s="52"/>
@@ -7195,46 +7337,46 @@
       <c r="C6" s="52"/>
       <c r="D6" s="52"/>
       <c r="E6" s="52"/>
-      <c r="F6" s="71">
+      <c r="F6" s="74">
         <v>0.38055555555555554</v>
       </c>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="71">
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="74">
         <v>0.44305555555555554</v>
       </c>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71">
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74">
         <v>0.52847222222222223</v>
       </c>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71">
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="74">
         <v>0.61249999999999993</v>
       </c>
-      <c r="S6" s="71"/>
-      <c r="T6" s="71"/>
-      <c r="U6" s="71"/>
-      <c r="V6" s="71">
+      <c r="S6" s="74"/>
+      <c r="T6" s="74"/>
+      <c r="U6" s="74"/>
+      <c r="V6" s="74">
         <v>0.68194444444444446</v>
       </c>
-      <c r="W6" s="71"/>
-      <c r="X6" s="71"/>
-      <c r="Y6" s="71"/>
-      <c r="Z6" s="74"/>
-      <c r="AA6" s="74"/>
-      <c r="AB6" s="74"/>
-      <c r="AC6" s="74"/>
-      <c r="AD6" s="71">
+      <c r="W6" s="74"/>
+      <c r="X6" s="74"/>
+      <c r="Y6" s="74"/>
+      <c r="Z6" s="78"/>
+      <c r="AA6" s="78"/>
+      <c r="AB6" s="78"/>
+      <c r="AC6" s="78"/>
+      <c r="AD6" s="74">
         <v>0.64236111111111105</v>
       </c>
-      <c r="AE6" s="71"/>
-      <c r="AF6" s="71"/>
-      <c r="AG6" s="71"/>
+      <c r="AE6" s="74"/>
+      <c r="AF6" s="74"/>
+      <c r="AG6" s="74"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
@@ -7458,7 +7600,7 @@
       <c r="C10">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="D10" s="75" t="s">
+      <c r="D10" s="72" t="s">
         <v>450</v>
       </c>
       <c r="F10">
@@ -7550,7 +7692,7 @@
       <c r="C11">
         <v>0.107</v>
       </c>
-      <c r="D11" s="76"/>
+      <c r="D11" s="73"/>
       <c r="F11">
         <v>10.47</v>
       </c>
@@ -7640,7 +7782,7 @@
       <c r="C12">
         <v>0.11799999999999999</v>
       </c>
-      <c r="D12" s="76"/>
+      <c r="D12" s="73"/>
       <c r="F12">
         <v>10.47</v>
       </c>
@@ -7712,7 +7854,7 @@
       <c r="C13">
         <v>0.13500000000000001</v>
       </c>
-      <c r="D13" s="76"/>
+      <c r="D13" s="73"/>
       <c r="F13">
         <v>10.46</v>
       </c>
@@ -7784,7 +7926,7 @@
       <c r="C14">
         <v>0.154</v>
       </c>
-      <c r="D14" s="76"/>
+      <c r="D14" s="73"/>
       <c r="E14" s="39" t="s">
         <v>441</v>
       </c>
@@ -7880,7 +8022,7 @@
       <c r="C15">
         <v>0.184</v>
       </c>
-      <c r="D15" s="76"/>
+      <c r="D15" s="73"/>
       <c r="F15">
         <v>10.43</v>
       </c>
@@ -7963,7 +8105,7 @@
       <c r="C16">
         <v>0.218</v>
       </c>
-      <c r="D16" s="76"/>
+      <c r="D16" s="73"/>
       <c r="F16">
         <v>10.42</v>
       </c>
@@ -8046,7 +8188,7 @@
       <c r="C17">
         <v>0.27500000000000002</v>
       </c>
-      <c r="D17" s="76"/>
+      <c r="D17" s="73"/>
       <c r="F17">
         <v>10.42</v>
       </c>
@@ -8121,7 +8263,7 @@
       <c r="C18">
         <v>0.42099999999999999</v>
       </c>
-      <c r="D18" s="76"/>
+      <c r="D18" s="73"/>
       <c r="F18">
         <v>10.4</v>
       </c>
@@ -8196,7 +8338,7 @@
       <c r="C19">
         <v>0.61699999999999999</v>
       </c>
-      <c r="D19" s="76"/>
+      <c r="D19" s="73"/>
       <c r="E19" s="39" t="s">
         <v>442</v>
       </c>
@@ -8295,7 +8437,7 @@
       <c r="C20">
         <v>1.425</v>
       </c>
-      <c r="D20" s="76"/>
+      <c r="D20" s="73"/>
       <c r="F20">
         <v>10.3</v>
       </c>
@@ -8385,7 +8527,7 @@
       <c r="C21">
         <v>1.649</v>
       </c>
-      <c r="D21" s="76"/>
+      <c r="D21" s="73"/>
       <c r="F21">
         <v>10.02</v>
       </c>
@@ -8475,7 +8617,7 @@
       <c r="C22">
         <v>2</v>
       </c>
-      <c r="D22" s="76"/>
+      <c r="D22" s="73"/>
       <c r="F22">
         <v>9.94</v>
       </c>
@@ -8550,7 +8692,7 @@
       <c r="C23">
         <v>2.4950000000000001</v>
       </c>
-      <c r="D23" s="76"/>
+      <c r="D23" s="73"/>
       <c r="F23">
         <v>9.82</v>
       </c>
@@ -8625,7 +8767,7 @@
       <c r="C24">
         <v>3.0350000000000001</v>
       </c>
-      <c r="D24" s="76"/>
+      <c r="D24" s="73"/>
       <c r="E24" s="39" t="s">
         <v>443</v>
       </c>
@@ -8724,7 +8866,7 @@
       <c r="C25">
         <v>3.2789999999999999</v>
       </c>
-      <c r="D25" s="76"/>
+      <c r="D25" s="73"/>
       <c r="F25">
         <v>8.9700000000000006</v>
       </c>
@@ -8817,7 +8959,7 @@
       <c r="C26">
         <v>3.3</v>
       </c>
-      <c r="D26" s="76"/>
+      <c r="D26" s="73"/>
       <c r="F26">
         <v>5.95</v>
       </c>
@@ -8910,7 +9052,7 @@
       <c r="C27">
         <v>3.3</v>
       </c>
-      <c r="D27" s="76"/>
+      <c r="D27" s="73"/>
       <c r="F27">
         <v>3.105</v>
       </c>
@@ -8977,11 +9119,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D10:D27"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="R4:U4"/>
     <mergeCell ref="B3:Y3"/>
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="Z3:AG3"/>
@@ -8995,6 +9132,11 @@
     <mergeCell ref="AD4:AG4"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="V4:Y4"/>
+    <mergeCell ref="D10:D27"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="R4:U4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9019,23 +9161,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="77"/>
+      <c r="E1" s="79"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="79" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
@@ -9052,7 +9194,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="80" t="s">
         <v>60</v>
       </c>
       <c r="C5" s="14" t="s">
@@ -9061,69 +9203,69 @@
       <c r="D5" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="80" t="s">
+      <c r="E5" s="82" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B6" s="78"/>
+      <c r="B6" s="80"/>
       <c r="C6" s="14" t="s">
         <v>62</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="87"/>
+      <c r="E6" s="89"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B7" s="78"/>
+      <c r="B7" s="80"/>
       <c r="C7" s="14" t="s">
         <v>63</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="87"/>
+      <c r="E7" s="89"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B8" s="78"/>
+      <c r="B8" s="80"/>
       <c r="C8" s="14" t="s">
         <v>64</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="87"/>
+      <c r="E8" s="89"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B9" s="78"/>
+      <c r="B9" s="80"/>
       <c r="C9" s="14" t="s">
         <v>65</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="87"/>
+      <c r="E9" s="89"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B10" s="78"/>
+      <c r="B10" s="80"/>
       <c r="C10" s="14" t="s">
         <v>66</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="87"/>
+      <c r="E10" s="89"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B11" s="78"/>
+      <c r="B11" s="80"/>
       <c r="C11" s="14" t="s">
         <v>67</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="87"/>
+      <c r="E11" s="89"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" s="15"/>
@@ -9136,7 +9278,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B13" s="84" t="s">
+      <c r="B13" s="86" t="s">
         <v>101</v>
       </c>
       <c r="C13" s="14" t="s">
@@ -9145,99 +9287,99 @@
       <c r="D13" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E13" s="81" t="s">
+      <c r="E13" s="83" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B14" s="85"/>
+      <c r="B14" s="87"/>
       <c r="C14" s="14" t="s">
         <v>105</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="E14" s="82"/>
+      <c r="E14" s="84"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B15" s="85"/>
+      <c r="B15" s="87"/>
       <c r="C15" s="14" t="s">
         <v>106</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="E15" s="82"/>
+      <c r="E15" s="84"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B16" s="85"/>
+      <c r="B16" s="87"/>
       <c r="C16" s="14" t="s">
         <v>107</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E16" s="82"/>
+      <c r="E16" s="84"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B17" s="85"/>
+      <c r="B17" s="87"/>
       <c r="C17" s="14" t="s">
         <v>108</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E17" s="82"/>
+      <c r="E17" s="84"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B18" s="85"/>
+      <c r="B18" s="87"/>
       <c r="C18" s="14" t="s">
         <v>109</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E18" s="82"/>
+      <c r="E18" s="84"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B19" s="85"/>
+      <c r="B19" s="87"/>
       <c r="C19" s="14" t="s">
         <v>110</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E19" s="82"/>
+      <c r="E19" s="84"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B20" s="85"/>
+      <c r="B20" s="87"/>
       <c r="C20" s="14" t="s">
         <v>111</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E20" s="82"/>
+      <c r="E20" s="84"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B21" s="85"/>
+      <c r="B21" s="87"/>
       <c r="C21" s="14" t="s">
         <v>112</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E21" s="82"/>
+      <c r="E21" s="84"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B22" s="86"/>
+      <c r="B22" s="88"/>
       <c r="C22" s="14" t="s">
         <v>113</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E22" s="83"/>
+      <c r="E22" s="85"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B23" s="26"/>
@@ -9250,7 +9392,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="79" t="s">
+      <c r="B24" s="81" t="s">
         <v>424</v>
       </c>
       <c r="C24" s="24" t="s">
@@ -9259,59 +9401,59 @@
       <c r="D24" s="24" t="s">
         <v>428</v>
       </c>
-      <c r="E24" s="80" t="s">
+      <c r="E24" s="82" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B25" s="79"/>
+      <c r="B25" s="81"/>
       <c r="C25" s="24" t="s">
         <v>427</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>426</v>
       </c>
-      <c r="E25" s="80"/>
+      <c r="E25" s="82"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B26" s="79"/>
+      <c r="B26" s="81"/>
       <c r="C26" s="24" t="s">
         <v>429</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="E26" s="80"/>
+      <c r="E26" s="82"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B27" s="79"/>
+      <c r="B27" s="81"/>
       <c r="C27" s="24" t="s">
         <v>430</v>
       </c>
       <c r="D27" s="24" t="s">
         <v>431</v>
       </c>
-      <c r="E27" s="80"/>
+      <c r="E27" s="82"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B28" s="79"/>
+      <c r="B28" s="81"/>
       <c r="C28" s="24" t="s">
         <v>432</v>
       </c>
       <c r="D28" s="24" t="s">
         <v>433</v>
       </c>
-      <c r="E28" s="80"/>
+      <c r="E28" s="82"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B29" s="79"/>
+      <c r="B29" s="81"/>
       <c r="C29" s="24" t="s">
         <v>434</v>
       </c>
       <c r="D29" s="24" t="s">
         <v>435</v>
       </c>
-      <c r="E29" s="80"/>
+      <c r="E29" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -9368,115 +9510,115 @@
       <c r="A2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="92" t="s">
         <v>461</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="88" t="s">
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="88"/>
-      <c r="J2" s="101" t="s">
+      <c r="I2" s="102"/>
+      <c r="J2" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="88" t="s">
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="88"/>
+      <c r="O2" s="102"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="95" t="s">
+      <c r="C3" s="97"/>
+      <c r="D3" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="104"/>
-      <c r="F3" s="95" t="s">
+      <c r="E3" s="97"/>
+      <c r="F3" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="104"/>
-      <c r="H3" s="95" t="s">
+      <c r="G3" s="97"/>
+      <c r="H3" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="104"/>
-      <c r="J3" s="101" t="s">
+      <c r="I3" s="97"/>
+      <c r="J3" s="92" t="s">
         <v>98</v>
       </c>
-      <c r="K3" s="103"/>
-      <c r="L3" s="101" t="s">
+      <c r="K3" s="93"/>
+      <c r="L3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="103"/>
-      <c r="N3" s="95" t="s">
+      <c r="M3" s="93"/>
+      <c r="N3" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="96"/>
+      <c r="O3" s="103"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="91" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="92"/>
-      <c r="F4" s="91" t="s">
+      <c r="E4" s="91"/>
+      <c r="F4" s="90" t="s">
         <v>130</v>
       </c>
-      <c r="G4" s="92"/>
-      <c r="H4" s="91" t="s">
+      <c r="G4" s="91"/>
+      <c r="H4" s="90" t="s">
         <v>131</v>
       </c>
-      <c r="I4" s="92"/>
-      <c r="J4" s="93" t="s">
+      <c r="I4" s="91"/>
+      <c r="J4" s="94" t="s">
         <v>457</v>
       </c>
-      <c r="K4" s="94"/>
-      <c r="L4" s="93" t="s">
+      <c r="K4" s="95"/>
+      <c r="L4" s="94" t="s">
         <v>457</v>
       </c>
-      <c r="M4" s="94"/>
-      <c r="N4" s="91" t="s">
+      <c r="M4" s="95"/>
+      <c r="N4" s="90" t="s">
         <v>457</v>
       </c>
-      <c r="O4" s="97"/>
+      <c r="O4" s="104"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="91" t="s">
+      <c r="C5" s="91"/>
+      <c r="D5" s="90" t="s">
         <v>127</v>
       </c>
-      <c r="E5" s="92"/>
-      <c r="F5" s="91" t="s">
+      <c r="E5" s="91"/>
+      <c r="F5" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="G5" s="92"/>
-      <c r="H5" s="91" t="s">
+      <c r="G5" s="91"/>
+      <c r="H5" s="90" t="s">
         <v>129</v>
       </c>
-      <c r="I5" s="92"/>
+      <c r="I5" s="91"/>
       <c r="J5" s="54"/>
       <c r="K5" s="54"/>
       <c r="L5" s="54"/>
@@ -9491,57 +9633,57 @@
       <c r="D6" s="54"/>
       <c r="F6" s="54"/>
       <c r="H6" s="54"/>
-      <c r="J6" s="93" t="s">
+      <c r="J6" s="94" t="s">
         <v>460</v>
       </c>
-      <c r="K6" s="94"/>
-      <c r="L6" s="93" t="s">
+      <c r="K6" s="95"/>
+      <c r="L6" s="94" t="s">
         <v>460</v>
       </c>
-      <c r="M6" s="94"/>
+      <c r="M6" s="95"/>
       <c r="N6" s="98" t="s">
         <v>460</v>
       </c>
       <c r="O6" s="99"/>
     </row>
     <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="105" t="s">
         <v>80</v>
       </c>
       <c r="C7" s="40">
         <v>78.2</v>
       </c>
-      <c r="D7" s="90" t="s">
+      <c r="D7" s="105" t="s">
         <v>80</v>
       </c>
       <c r="E7" s="41">
         <v>53.3</v>
       </c>
-      <c r="F7" s="80" t="s">
+      <c r="F7" s="82" t="s">
         <v>445</v>
       </c>
       <c r="G7" s="41">
         <v>1.4</v>
       </c>
-      <c r="H7" s="87" t="s">
+      <c r="H7" s="89" t="s">
         <v>99</v>
       </c>
       <c r="I7" s="41">
         <v>365.4</v>
       </c>
-      <c r="J7" s="87" t="s">
+      <c r="J7" s="89" t="s">
         <v>99</v>
       </c>
       <c r="K7" s="40">
         <v>76.8</v>
       </c>
-      <c r="L7" s="87" t="s">
+      <c r="L7" s="89" t="s">
         <v>99</v>
       </c>
       <c r="M7" s="41">
         <v>59.3</v>
       </c>
-      <c r="N7" s="87" t="s">
+      <c r="N7" s="89" t="s">
         <v>99</v>
       </c>
       <c r="O7" s="41">
@@ -9549,1207 +9691,1207 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B8" s="90"/>
+      <c r="B8" s="105"/>
       <c r="C8" s="40">
         <v>78.400000000000006</v>
       </c>
-      <c r="D8" s="90"/>
+      <c r="D8" s="105"/>
       <c r="E8" s="41">
         <v>53.4</v>
       </c>
-      <c r="F8" s="80"/>
+      <c r="F8" s="82"/>
       <c r="G8" s="41">
         <v>0</v>
       </c>
-      <c r="H8" s="87"/>
+      <c r="H8" s="89"/>
       <c r="I8" s="41">
         <v>366.9</v>
       </c>
-      <c r="J8" s="87"/>
+      <c r="J8" s="89"/>
       <c r="K8" s="40">
         <v>76.8</v>
       </c>
-      <c r="L8" s="87"/>
+      <c r="L8" s="89"/>
       <c r="M8" s="41">
         <v>59.4</v>
       </c>
-      <c r="N8" s="87"/>
+      <c r="N8" s="89"/>
       <c r="O8" s="41">
         <v>425.4</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B9" s="90"/>
+      <c r="B9" s="105"/>
       <c r="C9" s="40">
         <v>78.400000000000006</v>
       </c>
-      <c r="D9" s="90"/>
+      <c r="D9" s="105"/>
       <c r="E9" s="41">
         <v>53.9</v>
       </c>
-      <c r="F9" s="80"/>
+      <c r="F9" s="82"/>
       <c r="G9" s="41">
         <v>0.9</v>
       </c>
-      <c r="H9" s="87"/>
+      <c r="H9" s="89"/>
       <c r="I9" s="41">
         <v>365.9</v>
       </c>
-      <c r="J9" s="87"/>
+      <c r="J9" s="89"/>
       <c r="K9" s="40">
         <v>77</v>
       </c>
-      <c r="L9" s="87"/>
+      <c r="L9" s="89"/>
       <c r="M9" s="41">
         <v>59.3</v>
       </c>
-      <c r="N9" s="87"/>
+      <c r="N9" s="89"/>
       <c r="O9" s="41">
         <v>430.2</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B10" s="90"/>
+      <c r="B10" s="105"/>
       <c r="C10" s="40">
         <v>78.400000000000006</v>
       </c>
-      <c r="D10" s="90"/>
+      <c r="D10" s="105"/>
       <c r="E10" s="41">
         <v>54</v>
       </c>
-      <c r="F10" s="80"/>
+      <c r="F10" s="82"/>
       <c r="G10" s="41">
         <v>2</v>
       </c>
-      <c r="H10" s="87"/>
+      <c r="H10" s="89"/>
       <c r="I10" s="41">
         <v>364.2</v>
       </c>
-      <c r="J10" s="87"/>
+      <c r="J10" s="89"/>
       <c r="K10" s="40">
         <v>77</v>
       </c>
-      <c r="L10" s="87"/>
+      <c r="L10" s="89"/>
       <c r="M10" s="41">
         <v>59.2</v>
       </c>
-      <c r="N10" s="87"/>
+      <c r="N10" s="89"/>
       <c r="O10" s="41">
         <v>432.5</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B11" s="90"/>
+      <c r="B11" s="105"/>
       <c r="C11" s="40">
         <v>78.400000000000006</v>
       </c>
-      <c r="D11" s="90"/>
+      <c r="D11" s="105"/>
       <c r="E11" s="41">
         <v>53.9</v>
       </c>
-      <c r="F11" s="80"/>
+      <c r="F11" s="82"/>
       <c r="G11" s="41">
         <v>1.7</v>
       </c>
-      <c r="H11" s="87"/>
+      <c r="H11" s="89"/>
       <c r="I11" s="41">
         <v>364.5</v>
       </c>
-      <c r="J11" s="87"/>
+      <c r="J11" s="89"/>
       <c r="K11" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L11" s="87"/>
+      <c r="L11" s="89"/>
       <c r="M11" s="41">
         <v>58.9</v>
       </c>
-      <c r="N11" s="87"/>
+      <c r="N11" s="89"/>
       <c r="O11" s="41">
         <v>426.9</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B12" s="90"/>
+      <c r="B12" s="105"/>
       <c r="C12" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D12" s="90"/>
+      <c r="D12" s="105"/>
       <c r="E12" s="41">
         <v>55.2</v>
       </c>
-      <c r="F12" s="80"/>
+      <c r="F12" s="82"/>
       <c r="G12" s="41">
         <v>0.5</v>
       </c>
-      <c r="H12" s="87"/>
+      <c r="H12" s="89"/>
       <c r="I12" s="41">
         <v>361.8</v>
       </c>
-      <c r="J12" s="87"/>
+      <c r="J12" s="89"/>
       <c r="K12" s="40">
         <v>77</v>
       </c>
-      <c r="L12" s="87"/>
+      <c r="L12" s="89"/>
       <c r="M12" s="41">
         <v>59.5</v>
       </c>
-      <c r="N12" s="87"/>
+      <c r="N12" s="89"/>
       <c r="O12" s="41">
         <v>440.9</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B13" s="90"/>
+      <c r="B13" s="105"/>
       <c r="C13" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D13" s="90"/>
+      <c r="D13" s="105"/>
       <c r="E13" s="41">
         <v>53.7</v>
       </c>
-      <c r="F13" s="80"/>
+      <c r="F13" s="82"/>
       <c r="G13" s="41">
         <v>0</v>
       </c>
-      <c r="H13" s="87"/>
+      <c r="H13" s="89"/>
       <c r="I13" s="41">
         <v>361.2</v>
       </c>
-      <c r="J13" s="87"/>
+      <c r="J13" s="89"/>
       <c r="K13" s="40">
         <v>77</v>
       </c>
-      <c r="L13" s="87"/>
+      <c r="L13" s="89"/>
       <c r="M13" s="41">
         <v>59.5</v>
       </c>
-      <c r="N13" s="87"/>
+      <c r="N13" s="89"/>
       <c r="O13" s="41">
         <v>441.7</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B14" s="90"/>
+      <c r="B14" s="105"/>
       <c r="C14" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D14" s="90"/>
+      <c r="D14" s="105"/>
       <c r="E14" s="41">
         <v>53.4</v>
       </c>
-      <c r="F14" s="80"/>
+      <c r="F14" s="82"/>
       <c r="G14" s="41">
         <v>1.5</v>
       </c>
-      <c r="H14" s="87"/>
+      <c r="H14" s="89"/>
       <c r="I14" s="41">
         <v>361.9</v>
       </c>
-      <c r="J14" s="87"/>
+      <c r="J14" s="89"/>
       <c r="K14" s="40">
         <v>76.8</v>
       </c>
-      <c r="L14" s="87"/>
+      <c r="L14" s="89"/>
       <c r="M14" s="41">
         <v>59.3</v>
       </c>
-      <c r="N14" s="87"/>
+      <c r="N14" s="89"/>
       <c r="O14" s="41">
         <v>452</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B15" s="90"/>
+      <c r="B15" s="105"/>
       <c r="C15" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D15" s="90"/>
+      <c r="D15" s="105"/>
       <c r="E15" s="41">
         <v>53.1</v>
       </c>
-      <c r="F15" s="80"/>
+      <c r="F15" s="82"/>
       <c r="G15" s="41">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H15" s="87"/>
+      <c r="H15" s="89"/>
       <c r="I15" s="41">
         <v>361.9</v>
       </c>
-      <c r="J15" s="87"/>
+      <c r="J15" s="89"/>
       <c r="K15" s="40">
         <v>76.8</v>
       </c>
-      <c r="L15" s="87"/>
+      <c r="L15" s="89"/>
       <c r="M15" s="41">
         <v>59.3</v>
       </c>
-      <c r="N15" s="87"/>
+      <c r="N15" s="89"/>
       <c r="O15" s="41">
         <v>454.5</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B16" s="90"/>
+      <c r="B16" s="105"/>
       <c r="C16" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D16" s="90"/>
+      <c r="D16" s="105"/>
       <c r="E16" s="41">
         <v>52.6</v>
       </c>
-      <c r="F16" s="80"/>
+      <c r="F16" s="82"/>
       <c r="G16" s="41">
         <v>1.5</v>
       </c>
-      <c r="H16" s="87"/>
+      <c r="H16" s="89"/>
       <c r="I16" s="41">
         <v>361.9</v>
       </c>
-      <c r="J16" s="87"/>
+      <c r="J16" s="89"/>
       <c r="K16" s="40">
         <v>76.8</v>
       </c>
-      <c r="L16" s="87"/>
+      <c r="L16" s="89"/>
       <c r="M16" s="41">
         <v>59.2</v>
       </c>
-      <c r="N16" s="87"/>
+      <c r="N16" s="89"/>
       <c r="O16" s="41">
         <v>462.4</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B17" s="88" t="s">
+      <c r="B17" s="102" t="s">
         <v>444</v>
       </c>
       <c r="C17" s="40">
         <v>79.3</v>
       </c>
-      <c r="D17" s="78" t="s">
+      <c r="D17" s="80" t="s">
         <v>81</v>
       </c>
       <c r="E17" s="41">
         <v>42.9</v>
       </c>
-      <c r="F17" s="80"/>
+      <c r="F17" s="82"/>
       <c r="G17" s="41">
         <v>1.3</v>
       </c>
-      <c r="H17" s="87"/>
+      <c r="H17" s="89"/>
       <c r="I17" s="41">
         <v>356.7</v>
       </c>
-      <c r="J17" s="87"/>
+      <c r="J17" s="89"/>
       <c r="K17" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L17" s="87"/>
+      <c r="L17" s="89"/>
       <c r="M17" s="41">
         <v>59.1</v>
       </c>
-      <c r="N17" s="87"/>
+      <c r="N17" s="89"/>
       <c r="O17" s="41">
         <v>459.9</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B18" s="88"/>
+      <c r="B18" s="102"/>
       <c r="C18" s="40">
         <v>79.5</v>
       </c>
-      <c r="D18" s="78"/>
+      <c r="D18" s="80"/>
       <c r="E18" s="41">
         <v>42.9</v>
       </c>
-      <c r="F18" s="80"/>
+      <c r="F18" s="82"/>
       <c r="G18" s="41">
         <v>2</v>
       </c>
-      <c r="H18" s="87"/>
+      <c r="H18" s="89"/>
       <c r="I18" s="41">
         <v>354.9</v>
       </c>
-      <c r="J18" s="87"/>
+      <c r="J18" s="89"/>
       <c r="K18" s="40">
         <v>77</v>
       </c>
-      <c r="L18" s="87"/>
+      <c r="L18" s="89"/>
       <c r="M18" s="41">
         <v>59</v>
       </c>
-      <c r="N18" s="87"/>
+      <c r="N18" s="89"/>
       <c r="O18" s="41">
         <v>452.7</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B19" s="88"/>
+      <c r="B19" s="102"/>
       <c r="C19" s="40">
         <v>79.5</v>
       </c>
-      <c r="D19" s="78"/>
+      <c r="D19" s="80"/>
       <c r="E19" s="41">
         <v>43.1</v>
       </c>
-      <c r="F19" s="80"/>
+      <c r="F19" s="82"/>
       <c r="G19" s="41">
         <v>1.4</v>
       </c>
-      <c r="H19" s="87"/>
+      <c r="H19" s="89"/>
       <c r="I19" s="41">
         <v>356.2</v>
       </c>
-      <c r="J19" s="87"/>
+      <c r="J19" s="89"/>
       <c r="K19" s="40">
         <v>77</v>
       </c>
-      <c r="L19" s="87"/>
+      <c r="L19" s="89"/>
       <c r="M19" s="41">
         <v>58.9</v>
       </c>
-      <c r="N19" s="87"/>
+      <c r="N19" s="89"/>
       <c r="O19" s="41">
         <v>465.8</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B20" s="88"/>
+      <c r="B20" s="102"/>
       <c r="C20" s="40">
         <v>79.5</v>
       </c>
-      <c r="D20" s="78"/>
+      <c r="D20" s="80"/>
       <c r="E20" s="41">
         <v>43.1</v>
       </c>
-      <c r="F20" s="80"/>
+      <c r="F20" s="82"/>
       <c r="G20" s="41">
         <v>0.5</v>
       </c>
-      <c r="H20" s="87"/>
+      <c r="H20" s="89"/>
       <c r="I20" s="41">
         <v>356.1</v>
       </c>
-      <c r="J20" s="87"/>
+      <c r="J20" s="89"/>
       <c r="K20" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L20" s="87"/>
+      <c r="L20" s="89"/>
       <c r="M20" s="41">
         <v>58.8</v>
       </c>
-      <c r="N20" s="87"/>
+      <c r="N20" s="89"/>
       <c r="O20" s="41">
         <v>455.5</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B21" s="88"/>
+      <c r="B21" s="102"/>
       <c r="C21" s="40">
         <v>79.5</v>
       </c>
-      <c r="D21" s="78"/>
+      <c r="D21" s="80"/>
       <c r="E21" s="41">
         <v>43.1</v>
       </c>
-      <c r="F21" s="80"/>
+      <c r="F21" s="82"/>
       <c r="G21" s="41">
         <v>2.6</v>
       </c>
-      <c r="H21" s="87"/>
+      <c r="H21" s="89"/>
       <c r="I21" s="41">
         <v>355.2</v>
       </c>
-      <c r="J21" s="87"/>
+      <c r="J21" s="89"/>
       <c r="K21" s="40">
         <v>77</v>
       </c>
-      <c r="L21" s="87"/>
+      <c r="L21" s="89"/>
       <c r="M21" s="41">
         <v>58.8</v>
       </c>
-      <c r="N21" s="87"/>
+      <c r="N21" s="89"/>
       <c r="O21" s="41">
         <v>459.8</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B22" s="88" t="s">
+      <c r="B22" s="102" t="s">
         <v>55</v>
       </c>
       <c r="C22" s="40">
         <v>80</v>
       </c>
-      <c r="D22" s="78" t="s">
+      <c r="D22" s="80" t="s">
         <v>82</v>
       </c>
       <c r="E22" s="41">
         <v>43.1</v>
       </c>
-      <c r="F22" s="80"/>
+      <c r="F22" s="82"/>
       <c r="G22" s="41">
         <v>1.4</v>
       </c>
-      <c r="H22" s="87"/>
+      <c r="H22" s="89"/>
       <c r="I22" s="41">
         <v>354.9</v>
       </c>
-      <c r="J22" s="87"/>
+      <c r="J22" s="89"/>
       <c r="K22" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L22" s="87"/>
+      <c r="L22" s="89"/>
       <c r="M22" s="41">
         <v>59.1</v>
       </c>
-      <c r="N22" s="87"/>
+      <c r="N22" s="89"/>
       <c r="O22" s="41">
         <v>474.8</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B23" s="88"/>
+      <c r="B23" s="102"/>
       <c r="C23" s="40">
         <v>80</v>
       </c>
-      <c r="D23" s="78"/>
+      <c r="D23" s="80"/>
       <c r="E23" s="41">
         <v>43.1</v>
       </c>
-      <c r="F23" s="80"/>
+      <c r="F23" s="82"/>
       <c r="G23" s="41">
         <v>0.6</v>
       </c>
-      <c r="H23" s="87"/>
+      <c r="H23" s="89"/>
       <c r="I23" s="41">
         <v>345.1</v>
       </c>
-      <c r="J23" s="87"/>
+      <c r="J23" s="89"/>
       <c r="K23" s="40">
         <v>77</v>
       </c>
-      <c r="L23" s="87"/>
+      <c r="L23" s="89"/>
       <c r="M23" s="41">
         <v>59.1</v>
       </c>
-      <c r="N23" s="87"/>
+      <c r="N23" s="89"/>
       <c r="O23" s="41">
         <v>469.8</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B24" s="88"/>
+      <c r="B24" s="102"/>
       <c r="C24" s="40">
         <v>80</v>
       </c>
-      <c r="D24" s="78"/>
+      <c r="D24" s="80"/>
       <c r="E24" s="41">
         <v>43.1</v>
       </c>
-      <c r="F24" s="80"/>
+      <c r="F24" s="82"/>
       <c r="G24" s="41">
         <v>0.6</v>
       </c>
-      <c r="H24" s="87"/>
+      <c r="H24" s="89"/>
       <c r="I24" s="41">
         <v>349.2</v>
       </c>
-      <c r="J24" s="87"/>
+      <c r="J24" s="89"/>
       <c r="K24" s="40">
         <v>76.8</v>
       </c>
-      <c r="L24" s="87"/>
+      <c r="L24" s="89"/>
       <c r="M24" s="41">
         <v>59.2</v>
       </c>
-      <c r="N24" s="87"/>
+      <c r="N24" s="89"/>
       <c r="O24" s="41">
         <v>479.7</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B25" s="88"/>
+      <c r="B25" s="102"/>
       <c r="C25" s="40">
         <v>80</v>
       </c>
-      <c r="D25" s="78"/>
+      <c r="D25" s="80"/>
       <c r="E25" s="41">
         <v>43.1</v>
       </c>
-      <c r="F25" s="80"/>
+      <c r="F25" s="82"/>
       <c r="G25" s="41">
         <v>0.9</v>
       </c>
-      <c r="H25" s="87"/>
+      <c r="H25" s="89"/>
       <c r="I25" s="41">
         <v>351.5</v>
       </c>
-      <c r="J25" s="87"/>
+      <c r="J25" s="89"/>
       <c r="K25" s="40">
         <v>77</v>
       </c>
-      <c r="L25" s="87"/>
+      <c r="L25" s="89"/>
       <c r="M25" s="41">
         <v>59.3</v>
       </c>
-      <c r="N25" s="87"/>
+      <c r="N25" s="89"/>
       <c r="O25" s="41">
         <v>480.8</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B26" s="88"/>
+      <c r="B26" s="102"/>
       <c r="C26" s="40">
         <v>80</v>
       </c>
-      <c r="D26" s="78"/>
+      <c r="D26" s="80"/>
       <c r="E26" s="41">
         <v>43.2</v>
       </c>
-      <c r="F26" s="80"/>
+      <c r="F26" s="82"/>
       <c r="G26" s="41">
         <v>1.5</v>
       </c>
-      <c r="H26" s="87"/>
+      <c r="H26" s="89"/>
       <c r="I26" s="41">
         <v>351.4</v>
       </c>
-      <c r="J26" s="87"/>
+      <c r="J26" s="89"/>
       <c r="K26" s="40">
         <v>77</v>
       </c>
-      <c r="L26" s="87"/>
+      <c r="L26" s="89"/>
       <c r="M26" s="41">
         <v>59.2</v>
       </c>
-      <c r="N26" s="87"/>
+      <c r="N26" s="89"/>
       <c r="O26" s="41">
         <v>482.6</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B27" s="88" t="s">
+      <c r="B27" s="102" t="s">
         <v>56</v>
       </c>
       <c r="C27" s="40">
         <v>80.7</v>
       </c>
-      <c r="D27" s="78" t="s">
+      <c r="D27" s="80" t="s">
         <v>83</v>
       </c>
       <c r="E27" s="41">
         <v>43.8</v>
       </c>
-      <c r="F27" s="80"/>
+      <c r="F27" s="82"/>
       <c r="G27" s="41">
         <v>1.7</v>
       </c>
-      <c r="H27" s="87"/>
+      <c r="H27" s="89"/>
       <c r="I27" s="41">
         <v>348.4</v>
       </c>
-      <c r="J27" s="87"/>
+      <c r="J27" s="89"/>
       <c r="K27" s="40">
         <v>77</v>
       </c>
-      <c r="L27" s="87"/>
+      <c r="L27" s="89"/>
       <c r="M27" s="41">
         <v>58.4</v>
       </c>
-      <c r="N27" s="87"/>
+      <c r="N27" s="89"/>
       <c r="O27" s="41">
         <v>489.5</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B28" s="88"/>
+      <c r="B28" s="102"/>
       <c r="C28" s="40">
         <v>80.7</v>
       </c>
-      <c r="D28" s="78"/>
+      <c r="D28" s="80"/>
       <c r="E28" s="41">
         <v>43.8</v>
       </c>
-      <c r="F28" s="80"/>
+      <c r="F28" s="82"/>
       <c r="G28" s="41">
         <v>0.1</v>
       </c>
-      <c r="H28" s="87"/>
+      <c r="H28" s="89"/>
       <c r="I28" s="41">
         <v>347.6</v>
       </c>
-      <c r="J28" s="87"/>
+      <c r="J28" s="89"/>
       <c r="K28" s="40">
         <v>77</v>
       </c>
-      <c r="L28" s="87"/>
+      <c r="L28" s="89"/>
       <c r="M28" s="41">
         <v>58.4</v>
       </c>
-      <c r="N28" s="87"/>
+      <c r="N28" s="89"/>
       <c r="O28" s="41">
         <v>481.5</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B29" s="88"/>
+      <c r="B29" s="102"/>
       <c r="C29" s="40">
         <v>80.7</v>
       </c>
-      <c r="D29" s="78"/>
+      <c r="D29" s="80"/>
       <c r="E29" s="41">
         <v>43.7</v>
       </c>
-      <c r="F29" s="80"/>
+      <c r="F29" s="82"/>
       <c r="G29" s="41">
         <v>0</v>
       </c>
-      <c r="H29" s="87"/>
+      <c r="H29" s="89"/>
       <c r="I29" s="41">
         <v>346</v>
       </c>
-      <c r="J29" s="87"/>
+      <c r="J29" s="89"/>
       <c r="K29" s="40">
         <v>77</v>
       </c>
-      <c r="L29" s="87"/>
+      <c r="L29" s="89"/>
       <c r="M29" s="41">
         <v>58.4</v>
       </c>
-      <c r="N29" s="87"/>
+      <c r="N29" s="89"/>
       <c r="O29" s="41">
         <v>477.8</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B30" s="88"/>
+      <c r="B30" s="102"/>
       <c r="C30" s="40">
         <v>80.7</v>
       </c>
-      <c r="D30" s="78"/>
+      <c r="D30" s="80"/>
       <c r="E30" s="41">
         <v>43.6</v>
       </c>
-      <c r="F30" s="80"/>
+      <c r="F30" s="82"/>
       <c r="G30" s="41">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H30" s="87"/>
+      <c r="H30" s="89"/>
       <c r="I30" s="41">
         <v>345</v>
       </c>
-      <c r="J30" s="87"/>
+      <c r="J30" s="89"/>
       <c r="K30" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L30" s="87"/>
+      <c r="L30" s="89"/>
       <c r="M30" s="41">
         <v>58.5</v>
       </c>
-      <c r="N30" s="87"/>
+      <c r="N30" s="89"/>
       <c r="O30" s="41">
         <v>484.6</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B31" s="88"/>
+      <c r="B31" s="102"/>
       <c r="C31" s="40">
         <v>80.900000000000006</v>
       </c>
-      <c r="D31" s="78"/>
+      <c r="D31" s="80"/>
       <c r="E31" s="41">
         <v>43.6</v>
       </c>
-      <c r="F31" s="80"/>
+      <c r="F31" s="82"/>
       <c r="G31" s="41">
         <v>1.6</v>
       </c>
-      <c r="H31" s="87"/>
+      <c r="H31" s="89"/>
       <c r="I31" s="41">
         <v>347.2</v>
       </c>
-      <c r="J31" s="87"/>
+      <c r="J31" s="89"/>
       <c r="K31" s="40">
         <v>77</v>
       </c>
-      <c r="L31" s="87"/>
+      <c r="L31" s="89"/>
       <c r="M31" s="41">
         <v>58.4</v>
       </c>
-      <c r="N31" s="87"/>
+      <c r="N31" s="89"/>
       <c r="O31" s="41">
         <v>483.8</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B32" s="88" t="s">
+      <c r="B32" s="102" t="s">
         <v>57</v>
       </c>
       <c r="C32" s="40">
         <v>81.099999999999994</v>
       </c>
-      <c r="D32" s="78" t="s">
+      <c r="D32" s="80" t="s">
         <v>85</v>
       </c>
       <c r="E32" s="41">
         <v>44.3</v>
       </c>
-      <c r="F32" s="80"/>
+      <c r="F32" s="82"/>
       <c r="G32" s="41">
         <v>0.4</v>
       </c>
-      <c r="H32" s="87"/>
+      <c r="H32" s="89"/>
       <c r="I32" s="41">
         <v>345.1</v>
       </c>
-      <c r="J32" s="87"/>
+      <c r="J32" s="89"/>
       <c r="K32" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L32" s="87"/>
+      <c r="L32" s="89"/>
       <c r="M32" s="41">
         <v>58.7</v>
       </c>
-      <c r="N32" s="87"/>
+      <c r="N32" s="89"/>
       <c r="O32" s="41">
         <v>482.9</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B33" s="88"/>
+      <c r="B33" s="102"/>
       <c r="C33" s="40">
         <v>81.099999999999994</v>
       </c>
-      <c r="D33" s="78"/>
+      <c r="D33" s="80"/>
       <c r="E33" s="41">
         <v>44.3</v>
       </c>
-      <c r="F33" s="80"/>
+      <c r="F33" s="82"/>
       <c r="G33" s="41">
         <v>1.3</v>
       </c>
-      <c r="H33" s="87"/>
+      <c r="H33" s="89"/>
       <c r="I33" s="41">
         <v>348</v>
       </c>
-      <c r="J33" s="87"/>
+      <c r="J33" s="89"/>
       <c r="K33" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L33" s="87"/>
+      <c r="L33" s="89"/>
       <c r="M33" s="41">
         <v>58.7</v>
       </c>
-      <c r="N33" s="87"/>
+      <c r="N33" s="89"/>
       <c r="O33" s="41">
         <v>491.2</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B34" s="88"/>
+      <c r="B34" s="102"/>
       <c r="C34" s="40">
         <v>81.099999999999994</v>
       </c>
-      <c r="D34" s="78"/>
+      <c r="D34" s="80"/>
       <c r="E34" s="41">
         <v>44.3</v>
       </c>
-      <c r="F34" s="80"/>
+      <c r="F34" s="82"/>
       <c r="G34" s="41">
         <v>1.5</v>
       </c>
-      <c r="H34" s="87"/>
+      <c r="H34" s="89"/>
       <c r="I34" s="41">
         <v>347.9</v>
       </c>
-      <c r="J34" s="87"/>
+      <c r="J34" s="89"/>
       <c r="K34" s="40">
         <v>77</v>
       </c>
-      <c r="L34" s="87"/>
+      <c r="L34" s="89"/>
       <c r="M34" s="41">
         <v>58.6</v>
       </c>
-      <c r="N34" s="87"/>
+      <c r="N34" s="89"/>
       <c r="O34" s="41">
         <v>486.7</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B35" s="88"/>
+      <c r="B35" s="102"/>
       <c r="C35" s="40">
         <v>81.099999999999994</v>
       </c>
-      <c r="D35" s="78"/>
+      <c r="D35" s="80"/>
       <c r="E35" s="41">
         <v>44.3</v>
       </c>
-      <c r="F35" s="80"/>
+      <c r="F35" s="82"/>
       <c r="G35" s="41">
         <v>1.2</v>
       </c>
-      <c r="H35" s="87"/>
+      <c r="H35" s="89"/>
       <c r="I35" s="41">
         <v>345.2</v>
       </c>
-      <c r="J35" s="87"/>
+      <c r="J35" s="89"/>
       <c r="K35" s="40">
         <v>77</v>
       </c>
-      <c r="L35" s="87"/>
+      <c r="L35" s="89"/>
       <c r="M35" s="41">
         <v>58.7</v>
       </c>
-      <c r="N35" s="87"/>
+      <c r="N35" s="89"/>
       <c r="O35" s="41">
         <v>494.4</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B36" s="88"/>
+      <c r="B36" s="102"/>
       <c r="C36" s="40">
         <v>81.099999999999994</v>
       </c>
-      <c r="D36" s="78"/>
+      <c r="D36" s="80"/>
       <c r="E36" s="41">
         <v>44.2</v>
       </c>
-      <c r="F36" s="80"/>
+      <c r="F36" s="82"/>
       <c r="G36" s="41">
         <v>1.4</v>
       </c>
-      <c r="H36" s="87"/>
+      <c r="H36" s="89"/>
       <c r="I36" s="41">
         <v>340.7</v>
       </c>
-      <c r="J36" s="87"/>
+      <c r="J36" s="89"/>
       <c r="K36" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L36" s="87"/>
+      <c r="L36" s="89"/>
       <c r="M36" s="41">
         <v>58.7</v>
       </c>
-      <c r="N36" s="87"/>
+      <c r="N36" s="89"/>
       <c r="O36" s="41">
         <v>493</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B37" s="88" t="s">
+      <c r="B37" s="102" t="s">
         <v>58</v>
       </c>
       <c r="C37" s="40">
         <v>81.5</v>
       </c>
-      <c r="D37" s="78" t="s">
+      <c r="D37" s="80" t="s">
         <v>86</v>
       </c>
       <c r="E37" s="41">
         <v>44</v>
       </c>
-      <c r="F37" s="80"/>
+      <c r="F37" s="82"/>
       <c r="G37" s="41">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H37" s="87"/>
+      <c r="H37" s="89"/>
       <c r="I37" s="41">
         <v>343.4</v>
       </c>
-      <c r="J37" s="87"/>
+      <c r="J37" s="89"/>
       <c r="K37" s="40">
         <v>77</v>
       </c>
-      <c r="L37" s="87"/>
+      <c r="L37" s="89"/>
       <c r="M37" s="41">
         <v>58.6</v>
       </c>
-      <c r="N37" s="87"/>
+      <c r="N37" s="89"/>
       <c r="O37" s="41">
         <v>510.4</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B38" s="88"/>
+      <c r="B38" s="102"/>
       <c r="C38" s="40">
         <v>81.5</v>
       </c>
-      <c r="D38" s="78"/>
+      <c r="D38" s="80"/>
       <c r="E38" s="41">
         <v>44</v>
       </c>
-      <c r="F38" s="80"/>
+      <c r="F38" s="82"/>
       <c r="G38" s="41">
         <v>0.6</v>
       </c>
-      <c r="H38" s="87"/>
+      <c r="H38" s="89"/>
       <c r="I38" s="41">
         <v>341.5</v>
       </c>
-      <c r="J38" s="87"/>
+      <c r="J38" s="89"/>
       <c r="K38" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L38" s="87"/>
+      <c r="L38" s="89"/>
       <c r="M38" s="41">
         <v>58.6</v>
       </c>
-      <c r="N38" s="87"/>
+      <c r="N38" s="89"/>
       <c r="O38" s="41">
         <v>500</v>
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B39" s="88"/>
+      <c r="B39" s="102"/>
       <c r="C39" s="40">
         <v>81.5</v>
       </c>
-      <c r="D39" s="78"/>
+      <c r="D39" s="80"/>
       <c r="E39" s="41">
         <v>44.1</v>
       </c>
-      <c r="F39" s="80"/>
+      <c r="F39" s="82"/>
       <c r="G39" s="41">
         <v>0.2</v>
       </c>
-      <c r="H39" s="87"/>
+      <c r="H39" s="89"/>
       <c r="I39" s="41">
         <v>341.1</v>
       </c>
-      <c r="J39" s="87"/>
+      <c r="J39" s="89"/>
       <c r="K39" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L39" s="87"/>
+      <c r="L39" s="89"/>
       <c r="M39" s="41">
         <v>58.7</v>
       </c>
-      <c r="N39" s="87"/>
+      <c r="N39" s="89"/>
       <c r="O39" s="41">
         <v>500.4</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B40" s="88"/>
+      <c r="B40" s="102"/>
       <c r="C40" s="40">
         <v>81.5</v>
       </c>
-      <c r="D40" s="78"/>
+      <c r="D40" s="80"/>
       <c r="E40" s="41">
         <v>44.1</v>
       </c>
-      <c r="F40" s="80"/>
+      <c r="F40" s="82"/>
       <c r="G40" s="41">
         <v>0</v>
       </c>
-      <c r="H40" s="87"/>
+      <c r="H40" s="89"/>
       <c r="I40" s="41">
         <v>343.7</v>
       </c>
-      <c r="J40" s="87"/>
+      <c r="J40" s="89"/>
       <c r="K40" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L40" s="87"/>
+      <c r="L40" s="89"/>
       <c r="M40" s="41">
         <v>58.8</v>
       </c>
-      <c r="N40" s="87"/>
+      <c r="N40" s="89"/>
       <c r="O40" s="41">
         <v>498.7</v>
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B41" s="88"/>
+      <c r="B41" s="102"/>
       <c r="C41" s="40">
         <v>81.5</v>
       </c>
-      <c r="D41" s="78"/>
+      <c r="D41" s="80"/>
       <c r="E41" s="41">
         <v>44.2</v>
       </c>
-      <c r="F41" s="80"/>
+      <c r="F41" s="82"/>
       <c r="G41" s="41">
         <v>0.2</v>
       </c>
-      <c r="H41" s="87"/>
+      <c r="H41" s="89"/>
       <c r="I41" s="41">
         <v>341.9</v>
       </c>
-      <c r="J41" s="87"/>
+      <c r="J41" s="89"/>
       <c r="K41" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L41" s="87"/>
+      <c r="L41" s="89"/>
       <c r="M41" s="41">
         <v>58.7</v>
       </c>
-      <c r="N41" s="87"/>
+      <c r="N41" s="89"/>
       <c r="O41" s="41">
         <v>490</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B42" s="88" t="s">
+      <c r="B42" s="102" t="s">
         <v>59</v>
       </c>
       <c r="C42" s="40">
         <v>82.4</v>
       </c>
-      <c r="D42" s="78" t="s">
+      <c r="D42" s="80" t="s">
         <v>88</v>
       </c>
       <c r="E42" s="41">
         <v>44</v>
       </c>
-      <c r="F42" s="80"/>
+      <c r="F42" s="82"/>
       <c r="G42" s="41">
         <v>0</v>
       </c>
-      <c r="H42" s="87"/>
+      <c r="H42" s="89"/>
       <c r="I42" s="41">
         <v>344.1</v>
       </c>
-      <c r="J42" s="87"/>
+      <c r="J42" s="89"/>
       <c r="K42" s="40">
         <v>76.8</v>
       </c>
-      <c r="L42" s="87"/>
+      <c r="L42" s="89"/>
       <c r="M42" s="57">
         <v>58.8</v>
       </c>
-      <c r="N42" s="87"/>
+      <c r="N42" s="89"/>
       <c r="O42" s="41">
         <v>514.70000000000005</v>
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B43" s="88"/>
+      <c r="B43" s="102"/>
       <c r="C43" s="40">
         <v>82.4</v>
       </c>
-      <c r="D43" s="78"/>
+      <c r="D43" s="80"/>
       <c r="E43" s="41">
         <v>43.9</v>
       </c>
-      <c r="F43" s="80"/>
+      <c r="F43" s="82"/>
       <c r="G43" s="41">
         <v>0.9</v>
       </c>
-      <c r="H43" s="87"/>
+      <c r="H43" s="89"/>
       <c r="I43" s="41">
         <v>342.8</v>
       </c>
-      <c r="J43" s="87"/>
+      <c r="J43" s="89"/>
       <c r="K43" s="40">
         <v>76.599999999999994</v>
       </c>
-      <c r="L43" s="87"/>
+      <c r="L43" s="89"/>
       <c r="M43" s="41">
         <v>59.8</v>
       </c>
-      <c r="N43" s="87"/>
+      <c r="N43" s="89"/>
       <c r="O43" s="41">
         <v>520.4</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B44" s="88"/>
+      <c r="B44" s="102"/>
       <c r="C44" s="40">
         <v>82.4</v>
       </c>
-      <c r="D44" s="78"/>
+      <c r="D44" s="80"/>
       <c r="E44" s="41">
         <v>43.9</v>
       </c>
-      <c r="F44" s="80"/>
+      <c r="F44" s="82"/>
       <c r="G44" s="41">
         <v>1.2</v>
       </c>
-      <c r="H44" s="87"/>
+      <c r="H44" s="89"/>
       <c r="I44" s="41">
         <v>342.8</v>
       </c>
-      <c r="J44" s="87"/>
+      <c r="J44" s="89"/>
       <c r="K44" s="40">
         <v>76.8</v>
       </c>
-      <c r="L44" s="87"/>
+      <c r="L44" s="89"/>
       <c r="M44" s="41">
         <v>59.6</v>
       </c>
-      <c r="N44" s="87"/>
+      <c r="N44" s="89"/>
       <c r="O44" s="41">
         <v>503.8</v>
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B45" s="88"/>
+      <c r="B45" s="102"/>
       <c r="C45" s="40">
         <v>82.4</v>
       </c>
-      <c r="D45" s="78"/>
+      <c r="D45" s="80"/>
       <c r="E45" s="41">
         <v>43.8</v>
       </c>
-      <c r="F45" s="80"/>
+      <c r="F45" s="82"/>
       <c r="G45" s="41">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H45" s="87"/>
+      <c r="H45" s="89"/>
       <c r="I45" s="41">
         <v>342.5</v>
       </c>
-      <c r="J45" s="87"/>
+      <c r="J45" s="89"/>
       <c r="K45" s="40">
         <v>76.400000000000006</v>
       </c>
-      <c r="L45" s="87"/>
+      <c r="L45" s="89"/>
       <c r="M45" s="41">
         <v>59.4</v>
       </c>
-      <c r="N45" s="87"/>
+      <c r="N45" s="89"/>
       <c r="O45" s="41">
         <v>497.8</v>
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B46" s="88"/>
+      <c r="B46" s="102"/>
       <c r="C46" s="40">
         <v>82.4</v>
       </c>
-      <c r="D46" s="78"/>
+      <c r="D46" s="80"/>
       <c r="E46" s="41">
         <v>43.8</v>
       </c>
-      <c r="F46" s="80"/>
+      <c r="F46" s="82"/>
       <c r="G46" s="41">
         <v>2</v>
       </c>
-      <c r="H46" s="87"/>
+      <c r="H46" s="89"/>
       <c r="I46" s="41">
         <v>345.7</v>
       </c>
-      <c r="J46" s="87"/>
+      <c r="J46" s="89"/>
       <c r="K46" s="40">
         <v>76.2</v>
       </c>
-      <c r="L46" s="87"/>
+      <c r="L46" s="89"/>
       <c r="M46" s="41">
         <v>59.5</v>
       </c>
-      <c r="N46" s="87"/>
+      <c r="N46" s="89"/>
       <c r="O46" s="41">
         <v>504.7</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B47" s="88" t="s">
+      <c r="B47" s="102" t="s">
         <v>94</v>
       </c>
       <c r="C47" s="40">
         <v>82.9</v>
       </c>
-      <c r="D47" s="89" t="s">
+      <c r="D47" s="106" t="s">
         <v>90</v>
       </c>
       <c r="E47" s="41">
@@ -10762,11 +10904,11 @@
       <c r="J47" s="56"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B48" s="88"/>
+      <c r="B48" s="102"/>
       <c r="C48" s="40">
         <v>83.1</v>
       </c>
-      <c r="D48" s="89"/>
+      <c r="D48" s="106"/>
       <c r="E48" s="41">
         <v>43.4</v>
       </c>
@@ -10777,11 +10919,11 @@
       <c r="J48" s="56"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B49" s="88"/>
+      <c r="B49" s="102"/>
       <c r="C49" s="40">
         <v>83.1</v>
       </c>
-      <c r="D49" s="89"/>
+      <c r="D49" s="106"/>
       <c r="E49" s="41">
         <v>43.4</v>
       </c>
@@ -10792,11 +10934,11 @@
       <c r="J49" s="56"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B50" s="88"/>
+      <c r="B50" s="102"/>
       <c r="C50" s="40">
         <v>83.1</v>
       </c>
-      <c r="D50" s="89"/>
+      <c r="D50" s="106"/>
       <c r="E50" s="41">
         <v>43.4</v>
       </c>
@@ -10807,11 +10949,11 @@
       <c r="J50" s="56"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B51" s="88"/>
+      <c r="B51" s="102"/>
       <c r="C51" s="40">
         <v>83.1</v>
       </c>
-      <c r="D51" s="89"/>
+      <c r="D51" s="106"/>
       <c r="E51" s="41">
         <v>43.4</v>
       </c>
@@ -10822,13 +10964,13 @@
       <c r="J51" s="56"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B52" s="88" t="s">
+      <c r="B52" s="102" t="s">
         <v>95</v>
       </c>
       <c r="C52" s="40">
         <v>83.4</v>
       </c>
-      <c r="D52" s="89" t="s">
+      <c r="D52" s="106" t="s">
         <v>92</v>
       </c>
       <c r="E52" s="41">
@@ -10841,11 +10983,11 @@
       <c r="J52" s="56"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B53" s="88"/>
+      <c r="B53" s="102"/>
       <c r="C53" s="40">
         <v>83.4</v>
       </c>
-      <c r="D53" s="89"/>
+      <c r="D53" s="106"/>
       <c r="E53" s="41">
         <v>43.3</v>
       </c>
@@ -10856,11 +10998,11 @@
       <c r="J53" s="56"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B54" s="88"/>
+      <c r="B54" s="102"/>
       <c r="C54" s="40">
         <v>83.4</v>
       </c>
-      <c r="D54" s="89"/>
+      <c r="D54" s="106"/>
       <c r="E54" s="41">
         <v>43.4</v>
       </c>
@@ -10871,11 +11013,11 @@
       <c r="J54" s="56"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B55" s="88"/>
+      <c r="B55" s="102"/>
       <c r="C55" s="40">
         <v>83.6</v>
       </c>
-      <c r="D55" s="89"/>
+      <c r="D55" s="106"/>
       <c r="E55" s="41">
         <v>43.4</v>
       </c>
@@ -10886,11 +11028,11 @@
       <c r="J55" s="56"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B56" s="88"/>
+      <c r="B56" s="102"/>
       <c r="C56" s="40">
         <v>83.3</v>
       </c>
-      <c r="D56" s="89"/>
+      <c r="D56" s="106"/>
       <c r="E56" s="41">
         <v>43.4</v>
       </c>
@@ -10901,7 +11043,7 @@
       <c r="J56" s="56"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B57" s="88" t="s">
+      <c r="B57" s="102" t="s">
         <v>96</v>
       </c>
       <c r="C57" s="40">
@@ -10916,7 +11058,7 @@
       <c r="J57" s="56"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B58" s="88"/>
+      <c r="B58" s="102"/>
       <c r="C58" s="40">
         <v>83.4</v>
       </c>
@@ -10929,7 +11071,7 @@
       <c r="J58" s="56"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B59" s="88"/>
+      <c r="B59" s="102"/>
       <c r="C59" s="40">
         <v>83.3</v>
       </c>
@@ -10942,7 +11084,7 @@
       <c r="J59" s="56"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B60" s="88"/>
+      <c r="B60" s="102"/>
       <c r="C60" s="40">
         <v>83.3</v>
       </c>
@@ -10955,7 +11097,7 @@
       <c r="J60" s="56"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B61" s="88"/>
+      <c r="B61" s="102"/>
       <c r="C61" s="40">
         <v>83.4</v>
       </c>
@@ -10968,7 +11110,7 @@
       <c r="J61" s="56"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B62" s="88" t="s">
+      <c r="B62" s="102" t="s">
         <v>97</v>
       </c>
       <c r="C62" s="40">
@@ -10983,7 +11125,7 @@
       <c r="J62" s="56"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B63" s="88"/>
+      <c r="B63" s="102"/>
       <c r="C63" s="40">
         <v>83.8</v>
       </c>
@@ -10996,7 +11138,7 @@
       <c r="J63" s="56"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B64" s="88"/>
+      <c r="B64" s="102"/>
       <c r="C64" s="40">
         <v>83.6</v>
       </c>
@@ -11009,7 +11151,7 @@
       <c r="J64" s="56"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B65" s="88"/>
+      <c r="B65" s="102"/>
       <c r="C65" s="40">
         <v>83.8</v>
       </c>
@@ -11022,7 +11164,7 @@
       <c r="J65" s="56"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B66" s="88"/>
+      <c r="B66" s="102"/>
       <c r="C66" s="40">
         <v>83.8</v>
       </c>
@@ -11035,7 +11177,7 @@
       <c r="J66" s="56"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B67" s="88" t="s">
+      <c r="B67" s="102" t="s">
         <v>93</v>
       </c>
       <c r="C67" s="40">
@@ -11050,7 +11192,7 @@
       <c r="J67" s="56"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B68" s="88"/>
+      <c r="B68" s="102"/>
       <c r="C68" s="40">
         <v>84</v>
       </c>
@@ -11063,7 +11205,7 @@
       <c r="J68" s="56"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B69" s="88"/>
+      <c r="B69" s="102"/>
       <c r="C69" s="40">
         <v>84</v>
       </c>
@@ -11076,7 +11218,7 @@
       <c r="J69" s="56"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B70" s="88"/>
+      <c r="B70" s="102"/>
       <c r="C70" s="40">
         <v>84</v>
       </c>
@@ -11089,7 +11231,7 @@
       <c r="J70" s="56"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B71" s="88"/>
+      <c r="B71" s="102"/>
       <c r="C71" s="40">
         <v>84</v>
       </c>
@@ -11102,7 +11244,7 @@
       <c r="J71" s="56"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B72" s="88" t="s">
+      <c r="B72" s="102" t="s">
         <v>82</v>
       </c>
       <c r="C72" s="40">
@@ -11117,7 +11259,7 @@
       <c r="J72" s="56"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B73" s="88"/>
+      <c r="B73" s="102"/>
       <c r="C73" s="40">
         <v>83.4</v>
       </c>
@@ -11130,7 +11272,7 @@
       <c r="J73" s="56"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B74" s="88"/>
+      <c r="B74" s="102"/>
       <c r="C74" s="40">
         <v>83.3</v>
       </c>
@@ -11143,7 +11285,7 @@
       <c r="J74" s="56"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B75" s="88"/>
+      <c r="B75" s="102"/>
       <c r="C75" s="40">
         <v>83.3</v>
       </c>
@@ -11156,7 +11298,7 @@
       <c r="J75" s="56"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B76" s="88"/>
+      <c r="B76" s="102"/>
       <c r="C76" s="40">
         <v>83.3</v>
       </c>
@@ -11169,7 +11311,7 @@
       <c r="J76" s="56"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B77" s="88" t="s">
+      <c r="B77" s="102" t="s">
         <v>83</v>
       </c>
       <c r="C77" s="40">
@@ -11184,7 +11326,7 @@
       <c r="J77" s="56"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B78" s="88"/>
+      <c r="B78" s="102"/>
       <c r="C78" s="40">
         <v>83.4</v>
       </c>
@@ -11197,7 +11339,7 @@
       <c r="J78" s="56"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B79" s="88"/>
+      <c r="B79" s="102"/>
       <c r="C79" s="40">
         <v>83.4</v>
       </c>
@@ -11210,7 +11352,7 @@
       <c r="J79" s="56"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B80" s="88"/>
+      <c r="B80" s="102"/>
       <c r="C80" s="40">
         <v>83.4</v>
       </c>
@@ -11223,7 +11365,7 @@
       <c r="J80" s="56"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B81" s="88"/>
+      <c r="B81" s="102"/>
       <c r="C81" s="40">
         <v>83.4</v>
       </c>
@@ -11236,7 +11378,7 @@
       <c r="J81" s="56"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B82" s="88" t="s">
+      <c r="B82" s="102" t="s">
         <v>84</v>
       </c>
       <c r="C82" s="40">
@@ -11251,7 +11393,7 @@
       <c r="J82" s="56"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B83" s="88"/>
+      <c r="B83" s="102"/>
       <c r="C83" s="40">
         <v>83.3</v>
       </c>
@@ -11264,7 +11406,7 @@
       <c r="J83" s="56"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B84" s="88"/>
+      <c r="B84" s="102"/>
       <c r="C84" s="40">
         <v>83.3</v>
       </c>
@@ -11277,7 +11419,7 @@
       <c r="J84" s="56"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B85" s="88"/>
+      <c r="B85" s="102"/>
       <c r="C85" s="40">
         <v>83.3</v>
       </c>
@@ -11290,7 +11432,7 @@
       <c r="J85" s="56"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B86" s="88"/>
+      <c r="B86" s="102"/>
       <c r="C86" s="40">
         <v>83.3</v>
       </c>
@@ -11303,7 +11445,7 @@
       <c r="J86" s="56"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B87" s="88" t="s">
+      <c r="B87" s="102" t="s">
         <v>87</v>
       </c>
       <c r="C87" s="40">
@@ -11318,7 +11460,7 @@
       <c r="J87" s="56"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B88" s="88"/>
+      <c r="B88" s="102"/>
       <c r="C88" s="40">
         <v>83.8</v>
       </c>
@@ -11331,7 +11473,7 @@
       <c r="J88" s="56"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B89" s="88"/>
+      <c r="B89" s="102"/>
       <c r="C89" s="40">
         <v>83.8</v>
       </c>
@@ -11344,7 +11486,7 @@
       <c r="J89" s="56"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B90" s="88"/>
+      <c r="B90" s="102"/>
       <c r="C90" s="40">
         <v>84</v>
       </c>
@@ -11357,7 +11499,7 @@
       <c r="J90" s="56"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B91" s="88"/>
+      <c r="B91" s="102"/>
       <c r="C91" s="40">
         <v>84</v>
       </c>
@@ -11370,7 +11512,7 @@
       <c r="J91" s="56"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B92" s="88" t="s">
+      <c r="B92" s="102" t="s">
         <v>89</v>
       </c>
       <c r="C92" s="40">
@@ -11385,7 +11527,7 @@
       <c r="J92" s="56"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B93" s="88"/>
+      <c r="B93" s="102"/>
       <c r="C93" s="40">
         <v>84</v>
       </c>
@@ -11398,7 +11540,7 @@
       <c r="J93" s="56"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B94" s="88"/>
+      <c r="B94" s="102"/>
       <c r="C94" s="40">
         <v>84</v>
       </c>
@@ -11411,7 +11553,7 @@
       <c r="J94" s="56"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B95" s="88"/>
+      <c r="B95" s="102"/>
       <c r="C95" s="40">
         <v>84.2</v>
       </c>
@@ -11424,7 +11566,7 @@
       <c r="J95" s="56"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B96" s="88"/>
+      <c r="B96" s="102"/>
       <c r="C96" s="40">
         <v>84.2</v>
       </c>
@@ -11437,7 +11579,7 @@
       <c r="J96" s="56"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B97" s="88" t="s">
+      <c r="B97" s="102" t="s">
         <v>91</v>
       </c>
       <c r="C97" s="40">
@@ -11452,7 +11594,7 @@
       <c r="J97" s="56"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B98" s="88"/>
+      <c r="B98" s="102"/>
       <c r="C98" s="40">
         <v>84</v>
       </c>
@@ -11465,7 +11607,7 @@
       <c r="J98" s="56"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B99" s="88"/>
+      <c r="B99" s="102"/>
       <c r="C99" s="40">
         <v>84</v>
       </c>
@@ -11478,7 +11620,7 @@
       <c r="J99" s="56"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B100" s="88"/>
+      <c r="B100" s="102"/>
       <c r="C100" s="40">
         <v>84</v>
       </c>
@@ -11491,7 +11633,7 @@
       <c r="J100" s="56"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B101" s="88"/>
+      <c r="B101" s="102"/>
       <c r="C101" s="40">
         <v>84</v>
       </c>
@@ -11505,12 +11647,43 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B97:B101"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="D42:D46"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="L7:L46"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B92:B96"/>
+    <mergeCell ref="B7:B16"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="D7:D16"/>
+    <mergeCell ref="F7:F46"/>
+    <mergeCell ref="H7:H46"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N6:O6"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="J7:J46"/>
     <mergeCell ref="J2:M2"/>
@@ -11527,43 +11700,12 @@
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="N7:N46"/>
     <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L7:L46"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B92:B96"/>
-    <mergeCell ref="B7:B16"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="D7:D16"/>
-    <mergeCell ref="F7:F46"/>
-    <mergeCell ref="H7:H46"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B97:B101"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="D37:D41"/>
-    <mergeCell ref="D42:D46"/>
-    <mergeCell ref="D47:D51"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11581,44 +11723,44 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="114" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
       <c r="G1" s="17"/>
-      <c r="H1" s="110" t="s">
+      <c r="H1" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110" t="s">
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A2" s="111"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
+      <c r="A2" s="117"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A3" s="26" t="s">
@@ -11642,27 +11784,27 @@
       <c r="G3" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="H3" s="101" t="s">
+      <c r="H3" s="92" t="s">
         <v>189</v>
       </c>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="102"/>
-      <c r="O3" s="103"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="93"/>
       <c r="P3" s="31">
         <v>0.36041666666666666</v>
       </c>
-      <c r="Q3" s="101" t="s">
+      <c r="Q3" s="92" t="s">
         <v>189</v>
       </c>
-      <c r="R3" s="102"/>
-      <c r="S3" s="102"/>
-      <c r="T3" s="102"/>
-      <c r="U3" s="102"/>
-      <c r="V3" s="102"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="101"/>
+      <c r="T3" s="101"/>
+      <c r="U3" s="101"/>
+      <c r="V3" s="101"/>
       <c r="W3" s="37">
         <v>0.36319444444444443</v>
       </c>
@@ -11671,22 +11813,22 @@
       <c r="Z3" s="20"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="107" t="s">
         <v>133</v>
       </c>
-      <c r="B4" s="116" t="s">
+      <c r="B4" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="102" t="s">
         <v>98</v>
       </c>
       <c r="D4" s="23">
         <v>1</v>
       </c>
-      <c r="E4" s="79" t="s">
+      <c r="E4" s="81" t="s">
         <v>135</v>
       </c>
-      <c r="F4" s="79"/>
+      <c r="F4" s="81"/>
       <c r="G4" s="24"/>
       <c r="H4" s="23" t="s">
         <v>136</v>
@@ -11741,14 +11883,14 @@
       <c r="Z4" s="13"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A5" s="114"/>
-      <c r="B5" s="117"/>
-      <c r="C5" s="88"/>
+      <c r="A5" s="108"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="102"/>
       <c r="D5" s="23">
         <v>2</v>
       </c>
-      <c r="E5" s="78"/>
-      <c r="F5" s="79"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="81"/>
       <c r="G5" s="24"/>
       <c r="H5" s="23" t="s">
         <v>136</v>
@@ -11803,14 +11945,14 @@
       <c r="Z5" s="13"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A6" s="114"/>
-      <c r="B6" s="117"/>
-      <c r="C6" s="88"/>
+      <c r="A6" s="108"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="102"/>
       <c r="D6" s="23">
         <v>3</v>
       </c>
-      <c r="E6" s="78"/>
-      <c r="F6" s="79"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="81"/>
       <c r="G6" s="24"/>
       <c r="H6" s="23" t="s">
         <v>137</v>
@@ -11865,14 +12007,14 @@
       <c r="Z6" s="13"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A7" s="114"/>
-      <c r="B7" s="117"/>
-      <c r="C7" s="88"/>
+      <c r="A7" s="108"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="102"/>
       <c r="D7" s="23">
         <v>4</v>
       </c>
-      <c r="E7" s="78"/>
-      <c r="F7" s="79"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="81"/>
       <c r="G7" s="24"/>
       <c r="H7" s="23" t="s">
         <v>137</v>
@@ -11927,14 +12069,14 @@
       <c r="Z7" s="13"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A8" s="114"/>
-      <c r="B8" s="117"/>
-      <c r="C8" s="88"/>
+      <c r="A8" s="108"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="102"/>
       <c r="D8" s="23">
         <v>5</v>
       </c>
-      <c r="E8" s="78"/>
-      <c r="F8" s="79"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="81"/>
       <c r="G8" s="24"/>
       <c r="H8" s="23" t="s">
         <v>138</v>
@@ -11989,23 +12131,23 @@
       <c r="Z8" s="13"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A9" s="114"/>
-      <c r="B9" s="117"/>
+      <c r="A9" s="108"/>
+      <c r="B9" s="111"/>
       <c r="C9" s="26"/>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="78"/>
-      <c r="N9" s="78"/>
-      <c r="O9" s="78"/>
-      <c r="P9" s="78"/>
-      <c r="Q9" s="78"/>
+      <c r="H9" s="113"/>
+      <c r="I9" s="113"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="80"/>
+      <c r="P9" s="80"/>
+      <c r="Q9" s="80"/>
       <c r="R9" s="27"/>
       <c r="S9" s="27"/>
       <c r="T9" s="27"/>
@@ -12017,15 +12159,15 @@
       <c r="Z9" s="21"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A10" s="114"/>
-      <c r="B10" s="117"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="111"/>
       <c r="C10" s="26"/>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
       <c r="L10" s="23"/>
@@ -12049,18 +12191,18 @@
       <c r="Z10" s="11"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A11" s="114"/>
-      <c r="B11" s="117"/>
-      <c r="C11" s="88" t="s">
+      <c r="A11" s="108"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="102" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="23">
         <v>1</v>
       </c>
-      <c r="E11" s="79" t="s">
+      <c r="E11" s="81" t="s">
         <v>135</v>
       </c>
-      <c r="F11" s="79"/>
+      <c r="F11" s="81"/>
       <c r="G11" s="24"/>
       <c r="H11" s="24" t="s">
         <v>196</v>
@@ -12115,14 +12257,14 @@
       <c r="Z11" s="11"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A12" s="114"/>
-      <c r="B12" s="117"/>
-      <c r="C12" s="88"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="102"/>
       <c r="D12" s="23">
         <v>2</v>
       </c>
-      <c r="E12" s="78"/>
-      <c r="F12" s="79"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="81"/>
       <c r="G12" s="24"/>
       <c r="H12" s="24" t="s">
         <v>197</v>
@@ -12177,14 +12319,14 @@
       <c r="Z12" s="11"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A13" s="114"/>
-      <c r="B13" s="117"/>
-      <c r="C13" s="88"/>
+      <c r="A13" s="108"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="102"/>
       <c r="D13" s="23">
         <v>3</v>
       </c>
-      <c r="E13" s="78"/>
-      <c r="F13" s="79"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="81"/>
       <c r="G13" s="24"/>
       <c r="H13" s="24" t="s">
         <v>197</v>
@@ -12239,14 +12381,14 @@
       <c r="Z13" s="11"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A14" s="114"/>
-      <c r="B14" s="117"/>
-      <c r="C14" s="88"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="102"/>
       <c r="D14" s="23">
         <v>4</v>
       </c>
-      <c r="E14" s="78"/>
-      <c r="F14" s="79"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="81"/>
       <c r="G14" s="24"/>
       <c r="H14" s="24" t="s">
         <v>198</v>
@@ -12301,14 +12443,14 @@
       <c r="Z14" s="11"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A15" s="114"/>
-      <c r="B15" s="117"/>
-      <c r="C15" s="88"/>
+      <c r="A15" s="108"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="102"/>
       <c r="D15" s="23">
         <v>5</v>
       </c>
-      <c r="E15" s="78"/>
-      <c r="F15" s="79"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="81"/>
       <c r="G15" s="24"/>
       <c r="H15" s="24" t="s">
         <v>199</v>
@@ -12363,23 +12505,23 @@
       <c r="Z15" s="11"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A16" s="114"/>
-      <c r="B16" s="118"/>
+      <c r="A16" s="108"/>
+      <c r="B16" s="112"/>
       <c r="C16" s="29"/>
       <c r="D16" s="22"/>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="105" t="s">
+      <c r="H16" s="119" t="s">
         <v>178</v>
       </c>
-      <c r="I16" s="106"/>
-      <c r="J16" s="106"/>
-      <c r="K16" s="106"/>
-      <c r="L16" s="106"/>
-      <c r="M16" s="106"/>
-      <c r="N16" s="106"/>
-      <c r="O16" s="107"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="120"/>
+      <c r="L16" s="120"/>
+      <c r="M16" s="120"/>
+      <c r="N16" s="120"/>
+      <c r="O16" s="121"/>
       <c r="P16" s="36"/>
       <c r="Q16" s="36"/>
       <c r="R16" s="36"/>
@@ -12393,21 +12535,21 @@
       <c r="Z16" s="11"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A17" s="114"/>
-      <c r="B17" s="88" t="s">
+      <c r="A17" s="108"/>
+      <c r="B17" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="88" t="s">
+      <c r="C17" s="102" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="23">
         <v>1</v>
       </c>
-      <c r="E17" s="79" t="s">
+      <c r="E17" s="81" t="s">
         <v>139</v>
       </c>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79" t="s">
+      <c r="F17" s="81"/>
+      <c r="G17" s="81" t="s">
         <v>141</v>
       </c>
       <c r="H17" s="24" t="s">
@@ -12447,15 +12589,15 @@
       <c r="Z17" s="11"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A18" s="114"/>
-      <c r="B18" s="88"/>
-      <c r="C18" s="88"/>
+      <c r="A18" s="108"/>
+      <c r="B18" s="102"/>
+      <c r="C18" s="102"/>
       <c r="D18" s="23">
         <v>2</v>
       </c>
-      <c r="E18" s="78"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
       <c r="H18" s="24" t="s">
         <v>143</v>
       </c>
@@ -12493,15 +12635,15 @@
       <c r="Z18" s="11"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A19" s="114"/>
-      <c r="B19" s="88"/>
-      <c r="C19" s="88"/>
+      <c r="A19" s="108"/>
+      <c r="B19" s="102"/>
+      <c r="C19" s="102"/>
       <c r="D19" s="23">
         <v>3</v>
       </c>
-      <c r="E19" s="78"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
       <c r="H19" s="24" t="s">
         <v>144</v>
       </c>
@@ -12539,15 +12681,15 @@
       <c r="Z19" s="11"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A20" s="114"/>
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
+      <c r="A20" s="108"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="102"/>
       <c r="D20" s="23">
         <v>4</v>
       </c>
-      <c r="E20" s="78"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
       <c r="H20" s="24" t="s">
         <v>145</v>
       </c>
@@ -12585,15 +12727,15 @@
       <c r="Z20" s="11"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A21" s="115"/>
-      <c r="B21" s="88"/>
-      <c r="C21" s="88"/>
+      <c r="A21" s="109"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="102"/>
       <c r="D21" s="23">
         <v>5</v>
       </c>
-      <c r="E21" s="78"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
       <c r="H21" s="24" t="s">
         <v>146</v>
       </c>
@@ -12646,16 +12788,16 @@
       <c r="G22" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="H22" s="95" t="s">
+      <c r="H22" s="96" t="s">
         <v>189</v>
       </c>
-      <c r="I22" s="96"/>
-      <c r="J22" s="96"/>
-      <c r="K22" s="96"/>
-      <c r="L22" s="96"/>
-      <c r="M22" s="96"/>
-      <c r="N22" s="96"/>
-      <c r="O22" s="104"/>
+      <c r="I22" s="103"/>
+      <c r="J22" s="103"/>
+      <c r="K22" s="103"/>
+      <c r="L22" s="103"/>
+      <c r="M22" s="103"/>
+      <c r="N22" s="103"/>
+      <c r="O22" s="97"/>
       <c r="P22" s="32" t="s">
         <v>248</v>
       </c>
@@ -12671,25 +12813,25 @@
       <c r="Z22" s="11"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A23" s="113" t="s">
+      <c r="A23" s="107" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="88" t="s">
+      <c r="B23" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="88" t="s">
+      <c r="C23" s="102" t="s">
         <v>98</v>
       </c>
       <c r="D23" s="23">
         <v>1</v>
       </c>
-      <c r="E23" s="79" t="s">
+      <c r="E23" s="81" t="s">
         <v>230</v>
       </c>
-      <c r="F23" s="80" t="s">
+      <c r="F23" s="82" t="s">
         <v>291</v>
       </c>
-      <c r="G23" s="79" t="s">
+      <c r="G23" s="81" t="s">
         <v>292</v>
       </c>
       <c r="H23" s="24" t="s">
@@ -12745,15 +12887,15 @@
       <c r="Z23" s="11"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A24" s="114"/>
-      <c r="B24" s="88"/>
-      <c r="C24" s="88"/>
+      <c r="A24" s="108"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="102"/>
       <c r="D24" s="23">
         <v>2</v>
       </c>
-      <c r="E24" s="78"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="79"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="81"/>
       <c r="H24" s="24" t="s">
         <v>232</v>
       </c>
@@ -12807,15 +12949,15 @@
       <c r="Z24" s="11"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A25" s="114"/>
-      <c r="B25" s="88"/>
-      <c r="C25" s="88"/>
+      <c r="A25" s="108"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="102"/>
       <c r="D25" s="23">
         <v>3</v>
       </c>
-      <c r="E25" s="78"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="79"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="81"/>
       <c r="H25" s="24" t="s">
         <v>231</v>
       </c>
@@ -12869,15 +13011,15 @@
       <c r="Z25" s="11"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A26" s="114"/>
-      <c r="B26" s="88"/>
-      <c r="C26" s="88"/>
+      <c r="A26" s="108"/>
+      <c r="B26" s="102"/>
+      <c r="C26" s="102"/>
       <c r="D26" s="23">
         <v>4</v>
       </c>
-      <c r="E26" s="78"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="79"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="81"/>
       <c r="H26" s="24" t="s">
         <v>231</v>
       </c>
@@ -12931,15 +13073,15 @@
       <c r="Z26" s="11"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A27" s="114"/>
-      <c r="B27" s="88"/>
-      <c r="C27" s="88"/>
+      <c r="A27" s="108"/>
+      <c r="B27" s="102"/>
+      <c r="C27" s="102"/>
       <c r="D27" s="23">
         <v>5</v>
       </c>
-      <c r="E27" s="78"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="79"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="81"/>
       <c r="H27" s="24" t="s">
         <v>231</v>
       </c>
@@ -12993,8 +13135,8 @@
       <c r="Z27" s="11"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A28" s="114"/>
-      <c r="B28" s="88"/>
+      <c r="A28" s="108"/>
+      <c r="B28" s="102"/>
       <c r="C28" s="26"/>
       <c r="D28" s="23"/>
       <c r="E28" s="23"/>
@@ -13021,8 +13163,8 @@
       <c r="Z28" s="11"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A29" s="114"/>
-      <c r="B29" s="88"/>
+      <c r="A29" s="108"/>
+      <c r="B29" s="102"/>
       <c r="C29" s="26"/>
       <c r="D29" s="23"/>
       <c r="E29" s="23"/>
@@ -13051,21 +13193,21 @@
       <c r="Z29" s="11"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A30" s="114"/>
-      <c r="B30" s="88"/>
-      <c r="C30" s="88" t="s">
+      <c r="A30" s="108"/>
+      <c r="B30" s="102"/>
+      <c r="C30" s="102" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="23">
         <v>1</v>
       </c>
-      <c r="E30" s="79" t="s">
+      <c r="E30" s="81" t="s">
         <v>230</v>
       </c>
-      <c r="F30" s="80" t="s">
+      <c r="F30" s="82" t="s">
         <v>291</v>
       </c>
-      <c r="G30" s="79" t="s">
+      <c r="G30" s="81" t="s">
         <v>292</v>
       </c>
       <c r="H30" s="24" t="s">
@@ -13121,15 +13263,15 @@
       <c r="Z30" s="11"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A31" s="114"/>
-      <c r="B31" s="88"/>
-      <c r="C31" s="88"/>
+      <c r="A31" s="108"/>
+      <c r="B31" s="102"/>
+      <c r="C31" s="102"/>
       <c r="D31" s="23">
         <v>2</v>
       </c>
-      <c r="E31" s="78"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="79"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="81"/>
       <c r="H31" s="24" t="s">
         <v>238</v>
       </c>
@@ -13183,15 +13325,15 @@
       <c r="Z31" s="11"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A32" s="114"/>
-      <c r="B32" s="88"/>
-      <c r="C32" s="88"/>
+      <c r="A32" s="108"/>
+      <c r="B32" s="102"/>
+      <c r="C32" s="102"/>
       <c r="D32" s="23">
         <v>3</v>
       </c>
-      <c r="E32" s="78"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="79"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="81"/>
       <c r="H32" s="24" t="s">
         <v>238</v>
       </c>
@@ -13245,15 +13387,15 @@
       <c r="Z32" s="11"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A33" s="114"/>
-      <c r="B33" s="88"/>
-      <c r="C33" s="88"/>
+      <c r="A33" s="108"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="102"/>
       <c r="D33" s="23">
         <v>4</v>
       </c>
-      <c r="E33" s="78"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="79"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="82"/>
+      <c r="G33" s="81"/>
       <c r="H33" s="24" t="s">
         <v>238</v>
       </c>
@@ -13304,15 +13446,15 @@
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A34" s="114"/>
-      <c r="B34" s="88"/>
-      <c r="C34" s="88"/>
+      <c r="A34" s="108"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="102"/>
       <c r="D34" s="23">
         <v>5</v>
       </c>
-      <c r="E34" s="78"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="79"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="81"/>
       <c r="H34" s="24" t="s">
         <v>239</v>
       </c>
@@ -13363,8 +13505,8 @@
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A35" s="114"/>
-      <c r="B35" s="88"/>
+      <c r="A35" s="108"/>
+      <c r="B35" s="102"/>
       <c r="C35" s="26"/>
       <c r="D35" s="23"/>
       <c r="E35" s="23"/>
@@ -13388,21 +13530,21 @@
       <c r="W35" s="26"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A36" s="114"/>
-      <c r="B36" s="88" t="s">
+      <c r="A36" s="108"/>
+      <c r="B36" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="88" t="s">
+      <c r="C36" s="102" t="s">
         <v>10</v>
       </c>
       <c r="D36" s="23">
         <v>1</v>
       </c>
-      <c r="E36" s="80" t="s">
+      <c r="E36" s="82" t="s">
         <v>293</v>
       </c>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79" t="s">
+      <c r="F36" s="81"/>
+      <c r="G36" s="81" t="s">
         <v>292</v>
       </c>
       <c r="H36" s="26"/>
@@ -13451,15 +13593,15 @@
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A37" s="114"/>
-      <c r="B37" s="88"/>
-      <c r="C37" s="88"/>
+      <c r="A37" s="108"/>
+      <c r="B37" s="102"/>
+      <c r="C37" s="102"/>
       <c r="D37" s="23">
         <v>2</v>
       </c>
-      <c r="E37" s="87"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
       <c r="H37" s="26"/>
       <c r="I37" s="26"/>
       <c r="J37" s="24" t="s">
@@ -13506,15 +13648,15 @@
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A38" s="114"/>
-      <c r="B38" s="88"/>
-      <c r="C38" s="88"/>
+      <c r="A38" s="108"/>
+      <c r="B38" s="102"/>
+      <c r="C38" s="102"/>
       <c r="D38" s="23">
         <v>3</v>
       </c>
-      <c r="E38" s="87"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="79"/>
+      <c r="E38" s="89"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="81"/>
       <c r="H38" s="26"/>
       <c r="I38" s="26"/>
       <c r="J38" s="24" t="s">
@@ -13561,15 +13703,15 @@
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A39" s="114"/>
-      <c r="B39" s="88"/>
-      <c r="C39" s="88"/>
+      <c r="A39" s="108"/>
+      <c r="B39" s="102"/>
+      <c r="C39" s="102"/>
       <c r="D39" s="23">
         <v>4</v>
       </c>
-      <c r="E39" s="87"/>
-      <c r="F39" s="79"/>
-      <c r="G39" s="79"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="81"/>
       <c r="H39" s="26"/>
       <c r="I39" s="26"/>
       <c r="J39" s="24" t="s">
@@ -13616,15 +13758,15 @@
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A40" s="115"/>
-      <c r="B40" s="88"/>
-      <c r="C40" s="88"/>
+      <c r="A40" s="109"/>
+      <c r="B40" s="102"/>
+      <c r="C40" s="102"/>
       <c r="D40" s="23">
         <v>5</v>
       </c>
-      <c r="E40" s="87"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="79"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="81"/>
       <c r="H40" s="26"/>
       <c r="I40" s="26"/>
       <c r="J40" s="24" t="s">
@@ -13686,37 +13828,37 @@
       <c r="G41" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="H41" s="78" t="s">
+      <c r="H41" s="80" t="s">
         <v>189</v>
       </c>
-      <c r="I41" s="78"/>
-      <c r="J41" s="78"/>
-      <c r="K41" s="78"/>
-      <c r="L41" s="78"/>
-      <c r="M41" s="78"/>
-      <c r="N41" s="78"/>
-      <c r="O41" s="78"/>
+      <c r="I41" s="80"/>
+      <c r="J41" s="80"/>
+      <c r="K41" s="80"/>
+      <c r="L41" s="80"/>
+      <c r="M41" s="80"/>
+      <c r="N41" s="80"/>
+      <c r="O41" s="80"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A42" s="79" t="s">
+      <c r="A42" s="81" t="s">
         <v>294</v>
       </c>
-      <c r="B42" s="88" t="s">
+      <c r="B42" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="88" t="s">
+      <c r="C42" s="102" t="s">
         <v>98</v>
       </c>
       <c r="D42" s="23">
         <v>1</v>
       </c>
-      <c r="E42" s="79" t="s">
+      <c r="E42" s="81" t="s">
         <v>295</v>
       </c>
-      <c r="F42" s="79" t="s">
+      <c r="F42" s="81" t="s">
         <v>296</v>
       </c>
-      <c r="G42" s="79"/>
+      <c r="G42" s="81"/>
       <c r="H42" s="24" t="s">
         <v>297</v>
       </c>
@@ -13743,15 +13885,15 @@
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A43" s="79"/>
-      <c r="B43" s="88"/>
-      <c r="C43" s="88"/>
+      <c r="A43" s="81"/>
+      <c r="B43" s="102"/>
+      <c r="C43" s="102"/>
       <c r="D43" s="23">
         <v>2</v>
       </c>
-      <c r="E43" s="78"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="79"/>
+      <c r="E43" s="80"/>
+      <c r="F43" s="81"/>
+      <c r="G43" s="81"/>
       <c r="H43" s="24" t="s">
         <v>298</v>
       </c>
@@ -13778,15 +13920,15 @@
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A44" s="79"/>
-      <c r="B44" s="88"/>
-      <c r="C44" s="88"/>
+      <c r="A44" s="81"/>
+      <c r="B44" s="102"/>
+      <c r="C44" s="102"/>
       <c r="D44" s="23">
         <v>3</v>
       </c>
-      <c r="E44" s="78"/>
-      <c r="F44" s="79"/>
-      <c r="G44" s="79"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="81"/>
       <c r="H44" s="24" t="s">
         <v>299</v>
       </c>
@@ -13813,15 +13955,15 @@
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A45" s="79"/>
-      <c r="B45" s="88"/>
-      <c r="C45" s="88"/>
+      <c r="A45" s="81"/>
+      <c r="B45" s="102"/>
+      <c r="C45" s="102"/>
       <c r="D45" s="23">
         <v>4</v>
       </c>
-      <c r="E45" s="78"/>
-      <c r="F45" s="79"/>
-      <c r="G45" s="79"/>
+      <c r="E45" s="80"/>
+      <c r="F45" s="81"/>
+      <c r="G45" s="81"/>
       <c r="H45" s="24" t="s">
         <v>299</v>
       </c>
@@ -13848,15 +13990,15 @@
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A46" s="79"/>
-      <c r="B46" s="88"/>
-      <c r="C46" s="88"/>
+      <c r="A46" s="81"/>
+      <c r="B46" s="102"/>
+      <c r="C46" s="102"/>
       <c r="D46" s="23">
         <v>5</v>
       </c>
-      <c r="E46" s="78"/>
-      <c r="F46" s="79"/>
-      <c r="G46" s="79"/>
+      <c r="E46" s="80"/>
+      <c r="F46" s="81"/>
+      <c r="G46" s="81"/>
       <c r="H46" s="24" t="s">
         <v>299</v>
       </c>
@@ -13883,8 +14025,8 @@
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A47" s="79"/>
-      <c r="B47" s="88"/>
+      <c r="A47" s="81"/>
+      <c r="B47" s="102"/>
       <c r="C47" s="26"/>
       <c r="D47" s="23"/>
       <c r="E47" s="23"/>
@@ -13900,8 +14042,8 @@
       <c r="O47" s="23"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A48" s="79"/>
-      <c r="B48" s="88"/>
+      <c r="A48" s="81"/>
+      <c r="B48" s="102"/>
       <c r="C48" s="26"/>
       <c r="D48" s="23"/>
       <c r="E48" s="23"/>
@@ -13917,21 +14059,21 @@
       <c r="O48" s="23"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A49" s="79"/>
-      <c r="B49" s="88"/>
-      <c r="C49" s="88" t="s">
+      <c r="A49" s="81"/>
+      <c r="B49" s="102"/>
+      <c r="C49" s="102" t="s">
         <v>2</v>
       </c>
       <c r="D49" s="23">
         <v>1</v>
       </c>
-      <c r="E49" s="79" t="s">
+      <c r="E49" s="81" t="s">
         <v>295</v>
       </c>
-      <c r="F49" s="79" t="s">
+      <c r="F49" s="81" t="s">
         <v>296</v>
       </c>
-      <c r="G49" s="79"/>
+      <c r="G49" s="81"/>
       <c r="H49" s="24" t="s">
         <v>309</v>
       </c>
@@ -13958,15 +14100,15 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A50" s="79"/>
-      <c r="B50" s="88"/>
-      <c r="C50" s="88"/>
+      <c r="A50" s="81"/>
+      <c r="B50" s="102"/>
+      <c r="C50" s="102"/>
       <c r="D50" s="23">
         <v>2</v>
       </c>
-      <c r="E50" s="78"/>
-      <c r="F50" s="79"/>
-      <c r="G50" s="79"/>
+      <c r="E50" s="80"/>
+      <c r="F50" s="81"/>
+      <c r="G50" s="81"/>
       <c r="H50" s="24" t="s">
         <v>309</v>
       </c>
@@ -13993,15 +14135,15 @@
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A51" s="79"/>
-      <c r="B51" s="88"/>
-      <c r="C51" s="88"/>
+      <c r="A51" s="81"/>
+      <c r="B51" s="102"/>
+      <c r="C51" s="102"/>
       <c r="D51" s="23">
         <v>3</v>
       </c>
-      <c r="E51" s="78"/>
-      <c r="F51" s="79"/>
-      <c r="G51" s="79"/>
+      <c r="E51" s="80"/>
+      <c r="F51" s="81"/>
+      <c r="G51" s="81"/>
       <c r="H51" s="24" t="s">
         <v>310</v>
       </c>
@@ -14028,15 +14170,15 @@
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A52" s="79"/>
-      <c r="B52" s="88"/>
-      <c r="C52" s="88"/>
+      <c r="A52" s="81"/>
+      <c r="B52" s="102"/>
+      <c r="C52" s="102"/>
       <c r="D52" s="23">
         <v>4</v>
       </c>
-      <c r="E52" s="78"/>
-      <c r="F52" s="79"/>
-      <c r="G52" s="79"/>
+      <c r="E52" s="80"/>
+      <c r="F52" s="81"/>
+      <c r="G52" s="81"/>
       <c r="H52" s="24" t="s">
         <v>310</v>
       </c>
@@ -14063,15 +14205,15 @@
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A53" s="79"/>
-      <c r="B53" s="88"/>
-      <c r="C53" s="88"/>
+      <c r="A53" s="81"/>
+      <c r="B53" s="102"/>
+      <c r="C53" s="102"/>
       <c r="D53" s="23">
         <v>5</v>
       </c>
-      <c r="E53" s="78"/>
-      <c r="F53" s="79"/>
-      <c r="G53" s="79"/>
+      <c r="E53" s="80"/>
+      <c r="F53" s="81"/>
+      <c r="G53" s="81"/>
       <c r="H53" s="24" t="s">
         <v>309</v>
       </c>
@@ -14098,8 +14240,8 @@
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A54" s="79"/>
-      <c r="B54" s="88"/>
+      <c r="A54" s="81"/>
+      <c r="B54" s="102"/>
       <c r="C54" s="26"/>
       <c r="D54" s="23"/>
       <c r="E54" s="23"/>
@@ -14115,23 +14257,23 @@
       <c r="O54" s="23"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A55" s="79"/>
-      <c r="B55" s="88" t="s">
+      <c r="A55" s="81"/>
+      <c r="B55" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="88" t="s">
+      <c r="C55" s="102" t="s">
         <v>10</v>
       </c>
       <c r="D55" s="23">
         <v>1</v>
       </c>
-      <c r="E55" s="79" t="s">
+      <c r="E55" s="81" t="s">
         <v>295</v>
       </c>
-      <c r="F55" s="79" t="s">
+      <c r="F55" s="81" t="s">
         <v>296</v>
       </c>
-      <c r="G55" s="79"/>
+      <c r="G55" s="81"/>
       <c r="H55" s="24" t="s">
         <v>327</v>
       </c>
@@ -14158,15 +14300,15 @@
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A56" s="79"/>
-      <c r="B56" s="88"/>
-      <c r="C56" s="88"/>
+      <c r="A56" s="81"/>
+      <c r="B56" s="102"/>
+      <c r="C56" s="102"/>
       <c r="D56" s="23">
         <v>2</v>
       </c>
-      <c r="E56" s="78"/>
-      <c r="F56" s="79"/>
-      <c r="G56" s="79"/>
+      <c r="E56" s="80"/>
+      <c r="F56" s="81"/>
+      <c r="G56" s="81"/>
       <c r="H56" s="24" t="s">
         <v>328</v>
       </c>
@@ -14193,15 +14335,15 @@
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A57" s="79"/>
-      <c r="B57" s="88"/>
-      <c r="C57" s="88"/>
+      <c r="A57" s="81"/>
+      <c r="B57" s="102"/>
+      <c r="C57" s="102"/>
       <c r="D57" s="23">
         <v>3</v>
       </c>
-      <c r="E57" s="78"/>
-      <c r="F57" s="79"/>
-      <c r="G57" s="79"/>
+      <c r="E57" s="80"/>
+      <c r="F57" s="81"/>
+      <c r="G57" s="81"/>
       <c r="H57" s="24" t="s">
         <v>329</v>
       </c>
@@ -14228,15 +14370,15 @@
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A58" s="79"/>
-      <c r="B58" s="88"/>
-      <c r="C58" s="88"/>
+      <c r="A58" s="81"/>
+      <c r="B58" s="102"/>
+      <c r="C58" s="102"/>
       <c r="D58" s="23">
         <v>4</v>
       </c>
-      <c r="E58" s="78"/>
-      <c r="F58" s="79"/>
-      <c r="G58" s="79"/>
+      <c r="E58" s="80"/>
+      <c r="F58" s="81"/>
+      <c r="G58" s="81"/>
       <c r="H58" s="24" t="s">
         <v>330</v>
       </c>
@@ -14263,15 +14405,15 @@
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A59" s="79"/>
-      <c r="B59" s="88"/>
-      <c r="C59" s="88"/>
+      <c r="A59" s="81"/>
+      <c r="B59" s="102"/>
+      <c r="C59" s="102"/>
       <c r="D59" s="23">
         <v>5</v>
       </c>
-      <c r="E59" s="78"/>
-      <c r="F59" s="79"/>
-      <c r="G59" s="79"/>
+      <c r="E59" s="80"/>
+      <c r="F59" s="81"/>
+      <c r="G59" s="81"/>
       <c r="H59" s="24" t="s">
         <v>331</v>
       </c>
@@ -14313,37 +14455,37 @@
       <c r="G60" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="H60" s="78" t="s">
+      <c r="H60" s="80" t="s">
         <v>189</v>
       </c>
-      <c r="I60" s="78"/>
-      <c r="J60" s="78"/>
-      <c r="K60" s="78"/>
-      <c r="L60" s="78"/>
-      <c r="M60" s="78"/>
-      <c r="N60" s="78"/>
-      <c r="O60" s="78"/>
+      <c r="I60" s="80"/>
+      <c r="J60" s="80"/>
+      <c r="K60" s="80"/>
+      <c r="L60" s="80"/>
+      <c r="M60" s="80"/>
+      <c r="N60" s="80"/>
+      <c r="O60" s="80"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A61" s="79" t="s">
+      <c r="A61" s="81" t="s">
         <v>134</v>
       </c>
-      <c r="B61" s="88" t="s">
+      <c r="B61" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="88" t="s">
+      <c r="C61" s="102" t="s">
         <v>98</v>
       </c>
       <c r="D61" s="23">
         <v>1</v>
       </c>
-      <c r="E61" s="79" t="s">
+      <c r="E61" s="81" t="s">
         <v>366</v>
       </c>
-      <c r="F61" s="79" t="s">
+      <c r="F61" s="81" t="s">
         <v>367</v>
       </c>
-      <c r="G61" s="79" t="s">
+      <c r="G61" s="81" t="s">
         <v>368</v>
       </c>
       <c r="H61" s="24" t="s">
@@ -14372,15 +14514,15 @@
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A62" s="79"/>
-      <c r="B62" s="88"/>
-      <c r="C62" s="88"/>
+      <c r="A62" s="81"/>
+      <c r="B62" s="102"/>
+      <c r="C62" s="102"/>
       <c r="D62" s="23">
         <v>2</v>
       </c>
-      <c r="E62" s="78"/>
-      <c r="F62" s="79"/>
-      <c r="G62" s="79"/>
+      <c r="E62" s="80"/>
+      <c r="F62" s="81"/>
+      <c r="G62" s="81"/>
       <c r="H62" s="24" t="s">
         <v>370</v>
       </c>
@@ -14407,15 +14549,15 @@
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A63" s="79"/>
-      <c r="B63" s="88"/>
-      <c r="C63" s="88"/>
+      <c r="A63" s="81"/>
+      <c r="B63" s="102"/>
+      <c r="C63" s="102"/>
       <c r="D63" s="23">
         <v>3</v>
       </c>
-      <c r="E63" s="78"/>
-      <c r="F63" s="79"/>
-      <c r="G63" s="79"/>
+      <c r="E63" s="80"/>
+      <c r="F63" s="81"/>
+      <c r="G63" s="81"/>
       <c r="H63" s="24" t="s">
         <v>370</v>
       </c>
@@ -14442,15 +14584,15 @@
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A64" s="79"/>
-      <c r="B64" s="88"/>
-      <c r="C64" s="88"/>
+      <c r="A64" s="81"/>
+      <c r="B64" s="102"/>
+      <c r="C64" s="102"/>
       <c r="D64" s="23">
         <v>4</v>
       </c>
-      <c r="E64" s="78"/>
-      <c r="F64" s="79"/>
-      <c r="G64" s="79"/>
+      <c r="E64" s="80"/>
+      <c r="F64" s="81"/>
+      <c r="G64" s="81"/>
       <c r="H64" s="24" t="s">
         <v>369</v>
       </c>
@@ -14477,15 +14619,15 @@
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A65" s="79"/>
-      <c r="B65" s="88"/>
-      <c r="C65" s="88"/>
+      <c r="A65" s="81"/>
+      <c r="B65" s="102"/>
+      <c r="C65" s="102"/>
       <c r="D65" s="23">
         <v>5</v>
       </c>
-      <c r="E65" s="78"/>
-      <c r="F65" s="79"/>
-      <c r="G65" s="79"/>
+      <c r="E65" s="80"/>
+      <c r="F65" s="81"/>
+      <c r="G65" s="81"/>
       <c r="H65" s="24" t="s">
         <v>369</v>
       </c>
@@ -14512,8 +14654,8 @@
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A66" s="79"/>
-      <c r="B66" s="88"/>
+      <c r="A66" s="81"/>
+      <c r="B66" s="102"/>
       <c r="C66" s="26"/>
       <c r="D66" s="23"/>
       <c r="E66" s="23"/>
@@ -14529,8 +14671,8 @@
       <c r="O66" s="23"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A67" s="79"/>
-      <c r="B67" s="88"/>
+      <c r="A67" s="81"/>
+      <c r="B67" s="102"/>
       <c r="C67" s="26"/>
       <c r="D67" s="23"/>
       <c r="E67" s="23"/>
@@ -14546,21 +14688,21 @@
       <c r="O67" s="23"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A68" s="79"/>
-      <c r="B68" s="88"/>
-      <c r="C68" s="88" t="s">
+      <c r="A68" s="81"/>
+      <c r="B68" s="102"/>
+      <c r="C68" s="102" t="s">
         <v>2</v>
       </c>
       <c r="D68" s="23">
         <v>1</v>
       </c>
-      <c r="E68" s="79" t="s">
+      <c r="E68" s="81" t="s">
         <v>366</v>
       </c>
-      <c r="F68" s="79" t="s">
+      <c r="F68" s="81" t="s">
         <v>367</v>
       </c>
-      <c r="G68" s="79" t="s">
+      <c r="G68" s="81" t="s">
         <v>368</v>
       </c>
       <c r="H68" s="23" t="s">
@@ -14589,15 +14731,15 @@
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A69" s="79"/>
-      <c r="B69" s="88"/>
-      <c r="C69" s="88"/>
+      <c r="A69" s="81"/>
+      <c r="B69" s="102"/>
+      <c r="C69" s="102"/>
       <c r="D69" s="23">
         <v>2</v>
       </c>
-      <c r="E69" s="78"/>
-      <c r="F69" s="79"/>
-      <c r="G69" s="79"/>
+      <c r="E69" s="80"/>
+      <c r="F69" s="81"/>
+      <c r="G69" s="81"/>
       <c r="H69" s="23" t="s">
         <v>375</v>
       </c>
@@ -14624,15 +14766,15 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A70" s="79"/>
-      <c r="B70" s="88"/>
-      <c r="C70" s="88"/>
+      <c r="A70" s="81"/>
+      <c r="B70" s="102"/>
+      <c r="C70" s="102"/>
       <c r="D70" s="23">
         <v>3</v>
       </c>
-      <c r="E70" s="78"/>
-      <c r="F70" s="79"/>
-      <c r="G70" s="79"/>
+      <c r="E70" s="80"/>
+      <c r="F70" s="81"/>
+      <c r="G70" s="81"/>
       <c r="H70" s="23" t="s">
         <v>376</v>
       </c>
@@ -14659,15 +14801,15 @@
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A71" s="79"/>
-      <c r="B71" s="88"/>
-      <c r="C71" s="88"/>
+      <c r="A71" s="81"/>
+      <c r="B71" s="102"/>
+      <c r="C71" s="102"/>
       <c r="D71" s="23">
         <v>4</v>
       </c>
-      <c r="E71" s="78"/>
-      <c r="F71" s="79"/>
-      <c r="G71" s="79"/>
+      <c r="E71" s="80"/>
+      <c r="F71" s="81"/>
+      <c r="G71" s="81"/>
       <c r="H71" s="23" t="s">
         <v>375</v>
       </c>
@@ -14694,15 +14836,15 @@
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A72" s="79"/>
-      <c r="B72" s="88"/>
-      <c r="C72" s="88"/>
+      <c r="A72" s="81"/>
+      <c r="B72" s="102"/>
+      <c r="C72" s="102"/>
       <c r="D72" s="23">
         <v>5</v>
       </c>
-      <c r="E72" s="78"/>
-      <c r="F72" s="79"/>
-      <c r="G72" s="79"/>
+      <c r="E72" s="80"/>
+      <c r="F72" s="81"/>
+      <c r="G72" s="81"/>
       <c r="H72" s="23" t="s">
         <v>376</v>
       </c>
@@ -14729,8 +14871,8 @@
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A73" s="79"/>
-      <c r="B73" s="88"/>
+      <c r="A73" s="81"/>
+      <c r="B73" s="102"/>
       <c r="C73" s="26"/>
       <c r="D73" s="23"/>
       <c r="E73" s="23"/>
@@ -14746,23 +14888,23 @@
       <c r="O73" s="23"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A74" s="79"/>
-      <c r="B74" s="88" t="s">
+      <c r="A74" s="81"/>
+      <c r="B74" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="C74" s="88" t="s">
+      <c r="C74" s="102" t="s">
         <v>10</v>
       </c>
       <c r="D74" s="23">
         <v>1</v>
       </c>
-      <c r="E74" s="79" t="s">
+      <c r="E74" s="81" t="s">
         <v>366</v>
       </c>
-      <c r="F74" s="79" t="s">
+      <c r="F74" s="81" t="s">
         <v>367</v>
       </c>
-      <c r="G74" s="79" t="s">
+      <c r="G74" s="81" t="s">
         <v>368</v>
       </c>
       <c r="H74" s="24" t="s">
@@ -14791,15 +14933,15 @@
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A75" s="79"/>
-      <c r="B75" s="88"/>
-      <c r="C75" s="88"/>
+      <c r="A75" s="81"/>
+      <c r="B75" s="102"/>
+      <c r="C75" s="102"/>
       <c r="D75" s="23">
         <v>2</v>
       </c>
-      <c r="E75" s="78"/>
-      <c r="F75" s="79"/>
-      <c r="G75" s="79"/>
+      <c r="E75" s="80"/>
+      <c r="F75" s="81"/>
+      <c r="G75" s="81"/>
       <c r="H75" s="24" t="s">
         <v>390</v>
       </c>
@@ -14826,15 +14968,15 @@
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A76" s="79"/>
-      <c r="B76" s="88"/>
-      <c r="C76" s="88"/>
+      <c r="A76" s="81"/>
+      <c r="B76" s="102"/>
+      <c r="C76" s="102"/>
       <c r="D76" s="23">
         <v>3</v>
       </c>
-      <c r="E76" s="78"/>
-      <c r="F76" s="79"/>
-      <c r="G76" s="79"/>
+      <c r="E76" s="80"/>
+      <c r="F76" s="81"/>
+      <c r="G76" s="81"/>
       <c r="H76" s="24" t="s">
         <v>391</v>
       </c>
@@ -14861,15 +15003,15 @@
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A77" s="79"/>
-      <c r="B77" s="88"/>
-      <c r="C77" s="88"/>
+      <c r="A77" s="81"/>
+      <c r="B77" s="102"/>
+      <c r="C77" s="102"/>
       <c r="D77" s="23">
         <v>4</v>
       </c>
-      <c r="E77" s="78"/>
-      <c r="F77" s="79"/>
-      <c r="G77" s="79"/>
+      <c r="E77" s="80"/>
+      <c r="F77" s="81"/>
+      <c r="G77" s="81"/>
       <c r="H77" s="24" t="s">
         <v>392</v>
       </c>
@@ -14896,15 +15038,15 @@
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A78" s="79"/>
-      <c r="B78" s="88"/>
-      <c r="C78" s="88"/>
+      <c r="A78" s="81"/>
+      <c r="B78" s="102"/>
+      <c r="C78" s="102"/>
       <c r="D78" s="23">
         <v>5</v>
       </c>
-      <c r="E78" s="78"/>
-      <c r="F78" s="79"/>
-      <c r="G78" s="79"/>
+      <c r="E78" s="80"/>
+      <c r="F78" s="81"/>
+      <c r="G78" s="81"/>
       <c r="H78" s="24" t="s">
         <v>393</v>
       </c>
@@ -15022,6 +15164,61 @@
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="G42:G46"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="F30:F34"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="E36:E40"/>
+    <mergeCell ref="F36:F40"/>
+    <mergeCell ref="E49:E53"/>
+    <mergeCell ref="F49:F53"/>
+    <mergeCell ref="A42:A59"/>
+    <mergeCell ref="B42:B54"/>
+    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="E42:E46"/>
+    <mergeCell ref="F42:F46"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="E55:E59"/>
+    <mergeCell ref="F55:F59"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="H41:O41"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="G17:G21"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="F17:F21"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="F74:F78"/>
+    <mergeCell ref="G49:G53"/>
+    <mergeCell ref="Q3:V3"/>
+    <mergeCell ref="A4:A21"/>
+    <mergeCell ref="B4:B16"/>
+    <mergeCell ref="A23:A40"/>
+    <mergeCell ref="B23:B35"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="G30:G34"/>
+    <mergeCell ref="G36:G40"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="F23:F27"/>
+    <mergeCell ref="J9:Q9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:C15"/>
     <mergeCell ref="G55:G59"/>
     <mergeCell ref="G68:G72"/>
     <mergeCell ref="G74:G78"/>
@@ -15038,61 +15235,6 @@
     <mergeCell ref="B74:B78"/>
     <mergeCell ref="C74:C78"/>
     <mergeCell ref="E74:E78"/>
-    <mergeCell ref="F74:F78"/>
-    <mergeCell ref="G49:G53"/>
-    <mergeCell ref="Q3:V3"/>
-    <mergeCell ref="A4:A21"/>
-    <mergeCell ref="B4:B16"/>
-    <mergeCell ref="A23:A40"/>
-    <mergeCell ref="B23:B35"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="G30:G34"/>
-    <mergeCell ref="G36:G40"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="F23:F27"/>
-    <mergeCell ref="J9:Q9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="H3:O3"/>
-    <mergeCell ref="E11:E15"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="G17:G21"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="F17:F21"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="E30:E34"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="H41:O41"/>
-    <mergeCell ref="A42:A59"/>
-    <mergeCell ref="B42:B54"/>
-    <mergeCell ref="C42:C46"/>
-    <mergeCell ref="E42:E46"/>
-    <mergeCell ref="F42:F46"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="C55:C59"/>
-    <mergeCell ref="E55:E59"/>
-    <mergeCell ref="F55:F59"/>
-    <mergeCell ref="G42:G46"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="C36:C40"/>
-    <mergeCell ref="E36:E40"/>
-    <mergeCell ref="F36:F40"/>
-    <mergeCell ref="E49:E53"/>
-    <mergeCell ref="F49:F53"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15116,64 +15258,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="124" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="120" t="s">
+      <c r="E2" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="125" t="s">
+      <c r="E3" s="127" t="s">
         <v>436</v>
       </c>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125" t="s">
+      <c r="F3" s="127"/>
+      <c r="G3" s="127" t="s">
         <v>437</v>
       </c>
-      <c r="H3" s="125"/>
+      <c r="H3" s="127"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="124" t="s">
+      <c r="C4" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="88"/>
-      <c r="E4" s="124" t="s">
+      <c r="D4" s="102"/>
+      <c r="E4" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="88"/>
-      <c r="G4" s="124" t="s">
+      <c r="F4" s="102"/>
+      <c r="G4" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="88"/>
+      <c r="H4" s="102"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
@@ -15198,7 +15340,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="102" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="1">
@@ -15224,7 +15366,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="88"/>
+      <c r="A7" s="102"/>
       <c r="B7" s="1">
         <v>2</v>
       </c>
@@ -15248,7 +15390,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="88"/>
+      <c r="A8" s="102"/>
       <c r="B8" s="1">
         <v>3</v>
       </c>
@@ -15272,7 +15414,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="88"/>
+      <c r="A9" s="102"/>
       <c r="B9" s="7">
         <v>4</v>
       </c>
@@ -15296,7 +15438,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="88"/>
+      <c r="A10" s="102"/>
       <c r="B10" s="7">
         <v>5</v>
       </c>
@@ -15320,7 +15462,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="88" t="s">
+      <c r="A11" s="102" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="1">
@@ -15346,7 +15488,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="88"/>
+      <c r="A12" s="102"/>
       <c r="B12" s="1">
         <v>2</v>
       </c>
@@ -15370,7 +15512,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="88"/>
+      <c r="A13" s="102"/>
       <c r="B13" s="1">
         <v>3</v>
       </c>
@@ -15394,7 +15536,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="88"/>
+      <c r="A14" s="102"/>
       <c r="B14" s="7">
         <v>4</v>
       </c>
@@ -15418,7 +15560,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="88"/>
+      <c r="A15" s="102"/>
       <c r="B15" s="7">
         <v>5</v>
       </c>

--- a/数据记录/记录表单.xlsx
+++ b/数据记录/记录表单.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="474">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4216,6 +4216,10 @@
   </si>
   <si>
     <t>太阳不可见 气温一般 昨夜有雨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳可见 无照射 较暖 有白云</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4456,7 +4460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4625,9 +4629,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4649,11 +4650,11 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4661,13 +4662,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4703,16 +4707,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4724,7 +4731,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4736,23 +4746,41 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4775,30 +4803,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4817,6 +4821,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5097,10 +5102,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AG29"/>
+  <dimension ref="A4:AK29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P6" workbookViewId="0">
-      <selection activeCell="AC28" sqref="AC28"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AD9" sqref="AD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5108,40 +5113,40 @@
     <col min="13" max="13" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="66">
+      <c r="B4" s="65">
         <v>42309</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="66">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="65">
         <v>42310</v>
       </c>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="66">
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="65">
         <v>42311</v>
       </c>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
-      <c r="U4" s="69"/>
-      <c r="V4" s="69"/>
-      <c r="W4" s="69"/>
-      <c r="X4" s="69"/>
-      <c r="Y4" s="70"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
+      <c r="Y4" s="69"/>
       <c r="Z4" s="59">
         <v>42312</v>
       </c>
@@ -5152,23 +5157,27 @@
       <c r="AE4" s="58"/>
       <c r="AF4" s="58"/>
       <c r="AG4" s="58"/>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AH4" s="59"/>
+      <c r="AI4" s="58"/>
+      <c r="AJ4" s="58"/>
+      <c r="AK4" s="58"/>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A5" s="49" t="s">
         <v>447</v>
       </c>
-      <c r="B5" s="71">
+      <c r="B5" s="70">
         <v>0.70833333333333337</v>
       </c>
       <c r="C5" s="63"/>
       <c r="D5" s="63"/>
       <c r="E5" s="63"/>
-      <c r="F5" s="71">
+      <c r="F5" s="70">
         <v>0.68819444444444444</v>
       </c>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
       <c r="J5" s="60">
         <v>0.41041666666666665</v>
       </c>
@@ -5199,12 +5208,18 @@
       <c r="AA5" s="61"/>
       <c r="AB5" s="61"/>
       <c r="AC5" s="62"/>
-      <c r="AD5" s="60"/>
+      <c r="AD5" s="60">
+        <v>0.65069444444444446</v>
+      </c>
       <c r="AE5" s="61"/>
       <c r="AF5" s="61"/>
       <c r="AG5" s="62"/>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AH5" s="60"/>
+      <c r="AI5" s="61"/>
+      <c r="AJ5" s="61"/>
+      <c r="AK5" s="62"/>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A6" s="49" t="s">
         <v>448</v>
       </c>
@@ -5242,8 +5257,12 @@
       <c r="AE6" s="61"/>
       <c r="AF6" s="61"/>
       <c r="AG6" s="62"/>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AH6" s="60"/>
+      <c r="AI6" s="61"/>
+      <c r="AJ6" s="61"/>
+      <c r="AK6" s="62"/>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A7" s="49" t="s">
         <v>449</v>
       </c>
@@ -5287,27 +5306,33 @@
       <c r="AA7" s="61"/>
       <c r="AB7" s="61"/>
       <c r="AC7" s="62"/>
-      <c r="AD7" s="60"/>
+      <c r="AD7" s="60">
+        <v>0.65694444444444444</v>
+      </c>
       <c r="AE7" s="61"/>
       <c r="AF7" s="61"/>
       <c r="AG7" s="62"/>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AH7" s="60"/>
+      <c r="AI7" s="61"/>
+      <c r="AJ7" s="61"/>
+      <c r="AK7" s="62"/>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A8" s="49" t="s">
         <v>438</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="70" t="s">
         <v>463</v>
       </c>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71" t="s">
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70" t="s">
         <v>465</v>
       </c>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
       <c r="J8" s="63" t="s">
         <v>466</v>
       </c>
@@ -5320,13 +5345,13 @@
       <c r="O8" s="63"/>
       <c r="P8" s="63"/>
       <c r="Q8" s="63"/>
-      <c r="R8" s="65" t="s">
+      <c r="R8" s="64" t="s">
         <v>469</v>
       </c>
       <c r="S8" s="63"/>
       <c r="T8" s="63"/>
       <c r="U8" s="63"/>
-      <c r="V8" s="65" t="s">
+      <c r="V8" s="64" t="s">
         <v>470</v>
       </c>
       <c r="W8" s="63"/>
@@ -5338,12 +5363,18 @@
       <c r="AA8" s="63"/>
       <c r="AB8" s="63"/>
       <c r="AC8" s="63"/>
-      <c r="AD8" s="63"/>
+      <c r="AD8" s="64" t="s">
+        <v>473</v>
+      </c>
       <c r="AE8" s="63"/>
       <c r="AF8" s="63"/>
       <c r="AG8" s="63"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AH8" s="63"/>
+      <c r="AI8" s="63"/>
+      <c r="AJ8" s="63"/>
+      <c r="AK8" s="63"/>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A9" s="49" t="s">
         <v>446</v>
       </c>
@@ -5443,8 +5474,20 @@
       <c r="AG9" s="50" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AH9" s="50" t="s">
+        <v>422</v>
+      </c>
+      <c r="AI9" s="50" t="s">
+        <v>423</v>
+      </c>
+      <c r="AJ9" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="50" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A10" s="49">
         <v>117</v>
       </c>
@@ -5532,14 +5575,26 @@
       <c r="AC10" s="50" t="s">
         <v>440</v>
       </c>
-      <c r="AD10" s="49"/>
-      <c r="AE10" s="49"/>
-      <c r="AF10" s="49"/>
+      <c r="AD10" s="49">
+        <v>10.17</v>
+      </c>
+      <c r="AE10" s="49">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="AF10" s="49">
+        <v>114.1</v>
+      </c>
       <c r="AG10" s="50" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AH10" s="49"/>
+      <c r="AI10" s="49"/>
+      <c r="AJ10" s="49"/>
+      <c r="AK10" s="50" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A11" s="49">
         <v>107</v>
       </c>
@@ -5627,12 +5682,24 @@
       <c r="AC11" s="49">
         <v>19.100000000000001</v>
       </c>
-      <c r="AD11" s="49"/>
-      <c r="AE11" s="49"/>
-      <c r="AF11" s="49"/>
-      <c r="AG11" s="49"/>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AD11" s="49">
+        <v>10.14</v>
+      </c>
+      <c r="AE11" s="49">
+        <v>9.4E-2</v>
+      </c>
+      <c r="AF11" s="49">
+        <v>108.2</v>
+      </c>
+      <c r="AG11" s="49">
+        <v>21.7</v>
+      </c>
+      <c r="AH11" s="49"/>
+      <c r="AI11" s="49"/>
+      <c r="AJ11" s="49"/>
+      <c r="AK11" s="49"/>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A12" s="49">
         <v>97</v>
       </c>
@@ -5720,12 +5787,24 @@
       <c r="AC12" s="49">
         <v>73.3</v>
       </c>
-      <c r="AD12" s="49"/>
-      <c r="AE12" s="49"/>
-      <c r="AF12" s="49"/>
-      <c r="AG12" s="49"/>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AD12" s="49">
+        <v>10.09</v>
+      </c>
+      <c r="AE12" s="49">
+        <v>0.105</v>
+      </c>
+      <c r="AF12" s="49">
+        <v>99.1</v>
+      </c>
+      <c r="AG12" s="49">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="AH12" s="49"/>
+      <c r="AI12" s="49"/>
+      <c r="AJ12" s="49"/>
+      <c r="AK12" s="49"/>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A13" s="49">
         <v>87</v>
       </c>
@@ -5799,12 +5878,22 @@
         <v>74</v>
       </c>
       <c r="AC13" s="49"/>
-      <c r="AD13" s="49"/>
-      <c r="AE13" s="49"/>
-      <c r="AF13" s="49"/>
+      <c r="AD13" s="49">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="AE13" s="49">
+        <v>0.115</v>
+      </c>
+      <c r="AF13" s="49">
+        <v>93.3</v>
+      </c>
       <c r="AG13" s="49"/>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AH13" s="49"/>
+      <c r="AI13" s="49"/>
+      <c r="AJ13" s="49"/>
+      <c r="AK13" s="49"/>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A14" s="49">
         <v>77</v>
       </c>
@@ -5878,12 +5967,22 @@
         <v>76.900000000000006</v>
       </c>
       <c r="AC14" s="49"/>
-      <c r="AD14" s="49"/>
-      <c r="AE14" s="49"/>
-      <c r="AF14" s="49"/>
+      <c r="AD14" s="49">
+        <v>10.02</v>
+      </c>
+      <c r="AE14" s="49">
+        <v>0.129</v>
+      </c>
+      <c r="AF14" s="49">
+        <v>89.8</v>
+      </c>
       <c r="AG14" s="49"/>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AH14" s="49"/>
+      <c r="AI14" s="49"/>
+      <c r="AJ14" s="49"/>
+      <c r="AK14" s="49"/>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A15" s="49">
         <v>67</v>
       </c>
@@ -5971,14 +6070,26 @@
       <c r="AC15" s="50" t="s">
         <v>441</v>
       </c>
-      <c r="AD15" s="49"/>
-      <c r="AE15" s="49"/>
-      <c r="AF15" s="49"/>
+      <c r="AD15" s="49">
+        <v>9.98</v>
+      </c>
+      <c r="AE15" s="49">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="AF15" s="49">
+        <v>87.7</v>
+      </c>
       <c r="AG15" s="50" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AH15" s="49"/>
+      <c r="AI15" s="49"/>
+      <c r="AJ15" s="49"/>
+      <c r="AK15" s="50" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A16" s="49">
         <v>57</v>
       </c>
@@ -6066,12 +6177,24 @@
       <c r="AC16" s="49">
         <v>19.2</v>
       </c>
-      <c r="AD16" s="49"/>
-      <c r="AE16" s="49"/>
-      <c r="AF16" s="49"/>
-      <c r="AG16" s="49"/>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AD16" s="49">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="AE16" s="49">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="AF16" s="49">
+        <v>87.5</v>
+      </c>
+      <c r="AG16" s="49">
+        <v>22.1</v>
+      </c>
+      <c r="AH16" s="49"/>
+      <c r="AI16" s="49"/>
+      <c r="AJ16" s="49"/>
+      <c r="AK16" s="49"/>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A17" s="49">
         <v>47</v>
       </c>
@@ -6159,12 +6282,24 @@
       <c r="AC17" s="49">
         <v>72.900000000000006</v>
       </c>
-      <c r="AD17" s="49"/>
-      <c r="AE17" s="49"/>
-      <c r="AF17" s="49"/>
-      <c r="AG17" s="49"/>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AD17" s="49">
+        <v>9.98</v>
+      </c>
+      <c r="AE17" s="49">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="AF17" s="49">
+        <v>94.5</v>
+      </c>
+      <c r="AG17" s="49">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="AH17" s="49"/>
+      <c r="AI17" s="49"/>
+      <c r="AJ17" s="49"/>
+      <c r="AK17" s="49"/>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A18" s="49">
         <v>37</v>
       </c>
@@ -6238,12 +6373,22 @@
         <v>77.3</v>
       </c>
       <c r="AC18" s="49"/>
-      <c r="AD18" s="49"/>
-      <c r="AE18" s="49"/>
-      <c r="AF18" s="49"/>
+      <c r="AD18" s="49">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="AE18" s="49">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="AF18" s="49">
+        <v>88.7</v>
+      </c>
       <c r="AG18" s="49"/>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AH18" s="49"/>
+      <c r="AI18" s="49"/>
+      <c r="AJ18" s="49"/>
+      <c r="AK18" s="49"/>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A19" s="49">
         <v>27</v>
       </c>
@@ -6317,12 +6462,22 @@
         <v>80.3</v>
       </c>
       <c r="AC19" s="49"/>
-      <c r="AD19" s="49"/>
-      <c r="AE19" s="49"/>
-      <c r="AF19" s="49"/>
+      <c r="AD19" s="49">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="AE19" s="49">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="AF19" s="49">
+        <v>84.7</v>
+      </c>
       <c r="AG19" s="49"/>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AH19" s="49"/>
+      <c r="AI19" s="49"/>
+      <c r="AJ19" s="49"/>
+      <c r="AK19" s="49"/>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A20" s="49">
         <v>17</v>
       </c>
@@ -6410,14 +6565,26 @@
       <c r="AC20" s="50" t="s">
         <v>442</v>
       </c>
-      <c r="AD20" s="49"/>
-      <c r="AE20" s="49"/>
-      <c r="AF20" s="49"/>
+      <c r="AD20" s="49">
+        <v>9.32</v>
+      </c>
+      <c r="AE20" s="49">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="AF20" s="49">
+        <v>83.8</v>
+      </c>
       <c r="AG20" s="50" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AH20" s="49"/>
+      <c r="AI20" s="49"/>
+      <c r="AJ20" s="49"/>
+      <c r="AK20" s="50" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A21" s="49">
         <v>7</v>
       </c>
@@ -6505,12 +6672,24 @@
       <c r="AC21" s="49">
         <v>19.3</v>
       </c>
-      <c r="AD21" s="49"/>
-      <c r="AE21" s="49"/>
-      <c r="AF21" s="49"/>
-      <c r="AG21" s="49"/>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AD21" s="49">
+        <v>5.45</v>
+      </c>
+      <c r="AE21" s="49">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="AF21" s="49">
+        <v>83.5</v>
+      </c>
+      <c r="AG21" s="49">
+        <v>22.1</v>
+      </c>
+      <c r="AH21" s="49"/>
+      <c r="AI21" s="49"/>
+      <c r="AJ21" s="49"/>
+      <c r="AK21" s="49"/>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A22" s="49">
         <v>6</v>
       </c>
@@ -6598,12 +6777,24 @@
       <c r="AC22" s="49">
         <v>72.2</v>
       </c>
-      <c r="AD22" s="49"/>
-      <c r="AE22" s="49"/>
-      <c r="AF22" s="49"/>
-      <c r="AG22" s="49"/>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AD22" s="49">
+        <v>4.66</v>
+      </c>
+      <c r="AE22" s="49">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="AF22" s="49">
+        <v>82.3</v>
+      </c>
+      <c r="AG22" s="49">
+        <v>74.7</v>
+      </c>
+      <c r="AH22" s="49"/>
+      <c r="AI22" s="49"/>
+      <c r="AJ22" s="49"/>
+      <c r="AK22" s="49"/>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A23" s="49">
         <v>5</v>
       </c>
@@ -6677,12 +6868,22 @@
         <v>77.599999999999994</v>
       </c>
       <c r="AC23" s="49"/>
-      <c r="AD23" s="49"/>
-      <c r="AE23" s="49"/>
-      <c r="AF23" s="49"/>
+      <c r="AD23" s="49">
+        <v>3.82</v>
+      </c>
+      <c r="AE23" s="49">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="AF23" s="49">
+        <v>82.8</v>
+      </c>
       <c r="AG23" s="49"/>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AH23" s="49"/>
+      <c r="AI23" s="49"/>
+      <c r="AJ23" s="49"/>
+      <c r="AK23" s="49"/>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A24" s="49">
         <v>4</v>
       </c>
@@ -6756,12 +6957,22 @@
         <v>80.400000000000006</v>
       </c>
       <c r="AC24" s="49"/>
-      <c r="AD24" s="49"/>
-      <c r="AE24" s="49"/>
-      <c r="AF24" s="49"/>
+      <c r="AD24" s="49">
+        <v>3.0009999999999999</v>
+      </c>
+      <c r="AE24" s="49">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="AF24" s="49">
+        <v>81.599999999999994</v>
+      </c>
       <c r="AG24" s="49"/>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AH24" s="49"/>
+      <c r="AI24" s="49"/>
+      <c r="AJ24" s="49"/>
+      <c r="AK24" s="49"/>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A25" s="49">
         <v>3</v>
       </c>
@@ -6849,14 +7060,26 @@
       <c r="AC25" s="50" t="s">
         <v>443</v>
       </c>
-      <c r="AD25" s="49"/>
-      <c r="AE25" s="49"/>
-      <c r="AF25" s="49"/>
+      <c r="AD25" s="49">
+        <v>2.306</v>
+      </c>
+      <c r="AE25" s="49">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="AF25" s="49">
+        <v>83.6</v>
+      </c>
       <c r="AG25" s="50" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AH25" s="49"/>
+      <c r="AI25" s="49"/>
+      <c r="AJ25" s="49"/>
+      <c r="AK25" s="50" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A26" s="49">
         <v>2</v>
       </c>
@@ -6944,12 +7167,24 @@
       <c r="AC26" s="49">
         <v>19.2</v>
       </c>
-      <c r="AD26" s="51"/>
-      <c r="AE26" s="51"/>
-      <c r="AF26" s="49"/>
-      <c r="AG26" s="49"/>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AD26" s="51">
+        <v>1.415</v>
+      </c>
+      <c r="AE26" s="51">
+        <v>0.81</v>
+      </c>
+      <c r="AF26" s="49">
+        <v>89.5</v>
+      </c>
+      <c r="AG26" s="49">
+        <v>22.2</v>
+      </c>
+      <c r="AH26" s="51"/>
+      <c r="AI26" s="51"/>
+      <c r="AJ26" s="49"/>
+      <c r="AK26" s="49"/>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A27" s="49">
         <v>1</v>
       </c>
@@ -7037,12 +7272,24 @@
       <c r="AC27" s="49">
         <v>71.900000000000006</v>
       </c>
-      <c r="AD27" s="49"/>
-      <c r="AE27" s="49"/>
-      <c r="AF27" s="49"/>
-      <c r="AG27" s="49"/>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AD27" s="49">
+        <v>0.747</v>
+      </c>
+      <c r="AE27" s="49">
+        <v>0.82</v>
+      </c>
+      <c r="AF27" s="49">
+        <v>92</v>
+      </c>
+      <c r="AG27" s="49">
+        <v>74.3</v>
+      </c>
+      <c r="AH27" s="49"/>
+      <c r="AI27" s="49"/>
+      <c r="AJ27" s="49"/>
+      <c r="AK27" s="49"/>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A28" s="49">
         <v>0</v>
       </c>
@@ -7116,28 +7363,60 @@
         <v>86.4</v>
       </c>
       <c r="AC28" s="49"/>
-      <c r="AD28" s="49"/>
-      <c r="AE28" s="49"/>
-      <c r="AF28" s="49"/>
+      <c r="AD28" s="49">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="AE28" s="49">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="AF28" s="49">
+        <v>92.2</v>
+      </c>
       <c r="AG28" s="49"/>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="R29" s="64" t="s">
+      <c r="AH28" s="49"/>
+      <c r="AI28" s="49"/>
+      <c r="AJ28" s="49"/>
+      <c r="AK28" s="49"/>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="R29" s="71" t="s">
         <v>471</v>
       </c>
-      <c r="S29" s="64"/>
-      <c r="T29" s="64"/>
-      <c r="U29" s="64"/>
+      <c r="S29" s="71"/>
+      <c r="T29" s="71"/>
+      <c r="U29" s="71"/>
+      <c r="AD29">
+        <v>22.5</v>
+      </c>
+      <c r="AE29" s="128">
+        <v>22.6</v>
+      </c>
+      <c r="AF29" s="128">
+        <v>22.5</v>
+      </c>
+      <c r="AG29" s="128">
+        <v>22.6</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="R5:U5"/>
-    <mergeCell ref="R6:U6"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="R8:U8"/>
+  <mergeCells count="40">
+    <mergeCell ref="AH5:AK5"/>
+    <mergeCell ref="AH6:AK6"/>
+    <mergeCell ref="AH7:AK7"/>
+    <mergeCell ref="AH8:AK8"/>
+    <mergeCell ref="AD5:AG5"/>
+    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="AD7:AG7"/>
+    <mergeCell ref="AD8:AG8"/>
+    <mergeCell ref="R29:U29"/>
+    <mergeCell ref="V5:Y5"/>
+    <mergeCell ref="V6:Y6"/>
+    <mergeCell ref="V7:Y7"/>
+    <mergeCell ref="V8:Y8"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="Z7:AC7"/>
+    <mergeCell ref="Z8:AC8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="B8:E8"/>
@@ -7154,19 +7433,13 @@
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="J4:Y4"/>
     <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="AD5:AG5"/>
-    <mergeCell ref="AD6:AG6"/>
-    <mergeCell ref="AD7:AG7"/>
-    <mergeCell ref="AD8:AG8"/>
-    <mergeCell ref="R29:U29"/>
-    <mergeCell ref="V5:Y5"/>
-    <mergeCell ref="V6:Y6"/>
-    <mergeCell ref="V7:Y7"/>
-    <mergeCell ref="V8:Y8"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="Z6:AC6"/>
-    <mergeCell ref="Z7:AC7"/>
-    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="R8:U8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7202,93 +7475,93 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="76">
+      <c r="B3" s="72">
         <v>42299</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="76"/>
-      <c r="W3" s="76"/>
-      <c r="X3" s="76"/>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="76">
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="72"/>
+      <c r="W3" s="72"/>
+      <c r="X3" s="72"/>
+      <c r="Y3" s="72"/>
+      <c r="Z3" s="72">
         <v>42300</v>
       </c>
-      <c r="AA3" s="75"/>
-      <c r="AB3" s="75"/>
-      <c r="AC3" s="75"/>
-      <c r="AD3" s="75"/>
-      <c r="AE3" s="75"/>
-      <c r="AF3" s="75"/>
-      <c r="AG3" s="75"/>
+      <c r="AA3" s="74"/>
+      <c r="AB3" s="74"/>
+      <c r="AC3" s="74"/>
+      <c r="AD3" s="74"/>
+      <c r="AE3" s="74"/>
+      <c r="AF3" s="74"/>
+      <c r="AG3" s="74"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A4" s="39" t="s">
         <v>454</v>
       </c>
-      <c r="B4" s="74">
+      <c r="B4" s="73">
         <v>0.37013888888888885</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="74">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="73">
         <v>0.4375</v>
       </c>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74">
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73">
         <v>0.52361111111111114</v>
       </c>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74">
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73">
         <v>0.60625000000000007</v>
       </c>
-      <c r="S4" s="74"/>
-      <c r="T4" s="74"/>
-      <c r="U4" s="74"/>
-      <c r="V4" s="74">
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="73">
         <v>0.67569444444444438</v>
       </c>
-      <c r="W4" s="74"/>
-      <c r="X4" s="74"/>
-      <c r="Y4" s="74"/>
-      <c r="Z4" s="74">
+      <c r="W4" s="73"/>
+      <c r="X4" s="73"/>
+      <c r="Y4" s="73"/>
+      <c r="Z4" s="73">
         <v>0.41180555555555554</v>
       </c>
-      <c r="AA4" s="75"/>
-      <c r="AB4" s="75"/>
-      <c r="AC4" s="75"/>
-      <c r="AD4" s="74">
+      <c r="AA4" s="74"/>
+      <c r="AB4" s="74"/>
+      <c r="AC4" s="74"/>
+      <c r="AD4" s="73">
         <v>0.62986111111111109</v>
       </c>
-      <c r="AE4" s="74"/>
-      <c r="AF4" s="74"/>
-      <c r="AG4" s="74"/>
+      <c r="AE4" s="73"/>
+      <c r="AF4" s="73"/>
+      <c r="AG4" s="73"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A5" s="39" t="s">
@@ -7318,12 +7591,12 @@
       <c r="W5" s="52"/>
       <c r="X5" s="52"/>
       <c r="Y5" s="52"/>
-      <c r="Z5" s="77" t="s">
+      <c r="Z5" s="75" t="s">
         <v>464</v>
       </c>
-      <c r="AA5" s="78"/>
-      <c r="AB5" s="78"/>
-      <c r="AC5" s="78"/>
+      <c r="AA5" s="76"/>
+      <c r="AB5" s="76"/>
+      <c r="AC5" s="76"/>
       <c r="AD5" s="52"/>
       <c r="AE5" s="52"/>
       <c r="AF5" s="52"/>
@@ -7337,46 +7610,46 @@
       <c r="C6" s="52"/>
       <c r="D6" s="52"/>
       <c r="E6" s="52"/>
-      <c r="F6" s="74">
+      <c r="F6" s="73">
         <v>0.38055555555555554</v>
       </c>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="74">
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="73">
         <v>0.44305555555555554</v>
       </c>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74">
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73">
         <v>0.52847222222222223</v>
       </c>
-      <c r="O6" s="74"/>
-      <c r="P6" s="74"/>
-      <c r="Q6" s="74"/>
-      <c r="R6" s="74">
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73">
         <v>0.61249999999999993</v>
       </c>
-      <c r="S6" s="74"/>
-      <c r="T6" s="74"/>
-      <c r="U6" s="74"/>
-      <c r="V6" s="74">
+      <c r="S6" s="73"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="73"/>
+      <c r="V6" s="73">
         <v>0.68194444444444446</v>
       </c>
-      <c r="W6" s="74"/>
-      <c r="X6" s="74"/>
-      <c r="Y6" s="74"/>
-      <c r="Z6" s="78"/>
-      <c r="AA6" s="78"/>
-      <c r="AB6" s="78"/>
-      <c r="AC6" s="78"/>
-      <c r="AD6" s="74">
+      <c r="W6" s="73"/>
+      <c r="X6" s="73"/>
+      <c r="Y6" s="73"/>
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="76"/>
+      <c r="AB6" s="76"/>
+      <c r="AC6" s="76"/>
+      <c r="AD6" s="73">
         <v>0.64236111111111105</v>
       </c>
-      <c r="AE6" s="74"/>
-      <c r="AF6" s="74"/>
-      <c r="AG6" s="74"/>
+      <c r="AE6" s="73"/>
+      <c r="AF6" s="73"/>
+      <c r="AG6" s="73"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
@@ -7600,7 +7873,7 @@
       <c r="C10">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="D10" s="72" t="s">
+      <c r="D10" s="77" t="s">
         <v>450</v>
       </c>
       <c r="F10">
@@ -7692,7 +7965,7 @@
       <c r="C11">
         <v>0.107</v>
       </c>
-      <c r="D11" s="73"/>
+      <c r="D11" s="78"/>
       <c r="F11">
         <v>10.47</v>
       </c>
@@ -7782,7 +8055,7 @@
       <c r="C12">
         <v>0.11799999999999999</v>
       </c>
-      <c r="D12" s="73"/>
+      <c r="D12" s="78"/>
       <c r="F12">
         <v>10.47</v>
       </c>
@@ -7854,7 +8127,7 @@
       <c r="C13">
         <v>0.13500000000000001</v>
       </c>
-      <c r="D13" s="73"/>
+      <c r="D13" s="78"/>
       <c r="F13">
         <v>10.46</v>
       </c>
@@ -7926,7 +8199,7 @@
       <c r="C14">
         <v>0.154</v>
       </c>
-      <c r="D14" s="73"/>
+      <c r="D14" s="78"/>
       <c r="E14" s="39" t="s">
         <v>441</v>
       </c>
@@ -8022,7 +8295,7 @@
       <c r="C15">
         <v>0.184</v>
       </c>
-      <c r="D15" s="73"/>
+      <c r="D15" s="78"/>
       <c r="F15">
         <v>10.43</v>
       </c>
@@ -8105,7 +8378,7 @@
       <c r="C16">
         <v>0.218</v>
       </c>
-      <c r="D16" s="73"/>
+      <c r="D16" s="78"/>
       <c r="F16">
         <v>10.42</v>
       </c>
@@ -8188,7 +8461,7 @@
       <c r="C17">
         <v>0.27500000000000002</v>
       </c>
-      <c r="D17" s="73"/>
+      <c r="D17" s="78"/>
       <c r="F17">
         <v>10.42</v>
       </c>
@@ -8263,7 +8536,7 @@
       <c r="C18">
         <v>0.42099999999999999</v>
       </c>
-      <c r="D18" s="73"/>
+      <c r="D18" s="78"/>
       <c r="F18">
         <v>10.4</v>
       </c>
@@ -8338,7 +8611,7 @@
       <c r="C19">
         <v>0.61699999999999999</v>
       </c>
-      <c r="D19" s="73"/>
+      <c r="D19" s="78"/>
       <c r="E19" s="39" t="s">
         <v>442</v>
       </c>
@@ -8437,7 +8710,7 @@
       <c r="C20">
         <v>1.425</v>
       </c>
-      <c r="D20" s="73"/>
+      <c r="D20" s="78"/>
       <c r="F20">
         <v>10.3</v>
       </c>
@@ -8527,7 +8800,7 @@
       <c r="C21">
         <v>1.649</v>
       </c>
-      <c r="D21" s="73"/>
+      <c r="D21" s="78"/>
       <c r="F21">
         <v>10.02</v>
       </c>
@@ -8617,7 +8890,7 @@
       <c r="C22">
         <v>2</v>
       </c>
-      <c r="D22" s="73"/>
+      <c r="D22" s="78"/>
       <c r="F22">
         <v>9.94</v>
       </c>
@@ -8692,7 +8965,7 @@
       <c r="C23">
         <v>2.4950000000000001</v>
       </c>
-      <c r="D23" s="73"/>
+      <c r="D23" s="78"/>
       <c r="F23">
         <v>9.82</v>
       </c>
@@ -8767,7 +9040,7 @@
       <c r="C24">
         <v>3.0350000000000001</v>
       </c>
-      <c r="D24" s="73"/>
+      <c r="D24" s="78"/>
       <c r="E24" s="39" t="s">
         <v>443</v>
       </c>
@@ -8866,7 +9139,7 @@
       <c r="C25">
         <v>3.2789999999999999</v>
       </c>
-      <c r="D25" s="73"/>
+      <c r="D25" s="78"/>
       <c r="F25">
         <v>8.9700000000000006</v>
       </c>
@@ -8959,7 +9232,7 @@
       <c r="C26">
         <v>3.3</v>
       </c>
-      <c r="D26" s="73"/>
+      <c r="D26" s="78"/>
       <c r="F26">
         <v>5.95</v>
       </c>
@@ -9052,7 +9325,7 @@
       <c r="C27">
         <v>3.3</v>
       </c>
-      <c r="D27" s="73"/>
+      <c r="D27" s="78"/>
       <c r="F27">
         <v>3.105</v>
       </c>
@@ -9119,6 +9392,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D10:D27"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="R4:U4"/>
     <mergeCell ref="B3:Y3"/>
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="Z3:AG3"/>
@@ -9132,11 +9410,6 @@
     <mergeCell ref="AD4:AG4"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="V4:Y4"/>
-    <mergeCell ref="D10:D27"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="R4:U4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9487,138 +9760,138 @@
       <c r="A1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="100" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="98" t="s">
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="100" t="s">
         <v>458</v>
       </c>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="103" t="s">
         <v>461</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="102" t="s">
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="102"/>
-      <c r="J2" s="92" t="s">
+      <c r="I2" s="90"/>
+      <c r="J2" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="102" t="s">
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="102"/>
+      <c r="O2" s="90"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="97" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="96" t="s">
+      <c r="C3" s="106"/>
+      <c r="D3" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="97"/>
-      <c r="F3" s="96" t="s">
+      <c r="E3" s="106"/>
+      <c r="F3" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="97"/>
-      <c r="H3" s="96" t="s">
+      <c r="G3" s="106"/>
+      <c r="H3" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="97"/>
-      <c r="J3" s="92" t="s">
+      <c r="I3" s="106"/>
+      <c r="J3" s="103" t="s">
         <v>98</v>
       </c>
-      <c r="K3" s="93"/>
-      <c r="L3" s="92" t="s">
+      <c r="K3" s="105"/>
+      <c r="L3" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="93"/>
-      <c r="N3" s="96" t="s">
+      <c r="M3" s="105"/>
+      <c r="N3" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="103"/>
+      <c r="O3" s="98"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="90" t="s">
+      <c r="C4" s="94"/>
+      <c r="D4" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="91"/>
-      <c r="F4" s="90" t="s">
+      <c r="E4" s="94"/>
+      <c r="F4" s="93" t="s">
         <v>130</v>
       </c>
-      <c r="G4" s="91"/>
-      <c r="H4" s="90" t="s">
+      <c r="G4" s="94"/>
+      <c r="H4" s="93" t="s">
         <v>131</v>
       </c>
-      <c r="I4" s="91"/>
-      <c r="J4" s="94" t="s">
+      <c r="I4" s="94"/>
+      <c r="J4" s="95" t="s">
         <v>457</v>
       </c>
-      <c r="K4" s="95"/>
-      <c r="L4" s="94" t="s">
+      <c r="K4" s="96"/>
+      <c r="L4" s="95" t="s">
         <v>457</v>
       </c>
-      <c r="M4" s="95"/>
-      <c r="N4" s="90" t="s">
+      <c r="M4" s="96"/>
+      <c r="N4" s="93" t="s">
         <v>457</v>
       </c>
-      <c r="O4" s="104"/>
+      <c r="O4" s="99"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="93" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="91"/>
-      <c r="D5" s="90" t="s">
+      <c r="C5" s="94"/>
+      <c r="D5" s="93" t="s">
         <v>127</v>
       </c>
-      <c r="E5" s="91"/>
-      <c r="F5" s="90" t="s">
+      <c r="E5" s="94"/>
+      <c r="F5" s="93" t="s">
         <v>128</v>
       </c>
-      <c r="G5" s="91"/>
-      <c r="H5" s="90" t="s">
+      <c r="G5" s="94"/>
+      <c r="H5" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="I5" s="91"/>
+      <c r="I5" s="94"/>
       <c r="J5" s="54"/>
       <c r="K5" s="54"/>
       <c r="L5" s="54"/>
@@ -9633,27 +9906,27 @@
       <c r="D6" s="54"/>
       <c r="F6" s="54"/>
       <c r="H6" s="54"/>
-      <c r="J6" s="94" t="s">
+      <c r="J6" s="95" t="s">
         <v>460</v>
       </c>
-      <c r="K6" s="95"/>
-      <c r="L6" s="94" t="s">
+      <c r="K6" s="96"/>
+      <c r="L6" s="95" t="s">
         <v>460</v>
       </c>
-      <c r="M6" s="95"/>
-      <c r="N6" s="98" t="s">
+      <c r="M6" s="96"/>
+      <c r="N6" s="100" t="s">
         <v>460</v>
       </c>
-      <c r="O6" s="99"/>
+      <c r="O6" s="101"/>
     </row>
     <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="105" t="s">
+      <c r="B7" s="92" t="s">
         <v>80</v>
       </c>
       <c r="C7" s="40">
         <v>78.2</v>
       </c>
-      <c r="D7" s="105" t="s">
+      <c r="D7" s="92" t="s">
         <v>80</v>
       </c>
       <c r="E7" s="41">
@@ -9691,11 +9964,11 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B8" s="105"/>
+      <c r="B8" s="92"/>
       <c r="C8" s="40">
         <v>78.400000000000006</v>
       </c>
-      <c r="D8" s="105"/>
+      <c r="D8" s="92"/>
       <c r="E8" s="41">
         <v>53.4</v>
       </c>
@@ -9721,11 +9994,11 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B9" s="105"/>
+      <c r="B9" s="92"/>
       <c r="C9" s="40">
         <v>78.400000000000006</v>
       </c>
-      <c r="D9" s="105"/>
+      <c r="D9" s="92"/>
       <c r="E9" s="41">
         <v>53.9</v>
       </c>
@@ -9751,11 +10024,11 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B10" s="105"/>
+      <c r="B10" s="92"/>
       <c r="C10" s="40">
         <v>78.400000000000006</v>
       </c>
-      <c r="D10" s="105"/>
+      <c r="D10" s="92"/>
       <c r="E10" s="41">
         <v>54</v>
       </c>
@@ -9781,11 +10054,11 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B11" s="105"/>
+      <c r="B11" s="92"/>
       <c r="C11" s="40">
         <v>78.400000000000006</v>
       </c>
-      <c r="D11" s="105"/>
+      <c r="D11" s="92"/>
       <c r="E11" s="41">
         <v>53.9</v>
       </c>
@@ -9811,11 +10084,11 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B12" s="105"/>
+      <c r="B12" s="92"/>
       <c r="C12" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D12" s="105"/>
+      <c r="D12" s="92"/>
       <c r="E12" s="41">
         <v>55.2</v>
       </c>
@@ -9841,11 +10114,11 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B13" s="105"/>
+      <c r="B13" s="92"/>
       <c r="C13" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D13" s="105"/>
+      <c r="D13" s="92"/>
       <c r="E13" s="41">
         <v>53.7</v>
       </c>
@@ -9871,11 +10144,11 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B14" s="105"/>
+      <c r="B14" s="92"/>
       <c r="C14" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D14" s="105"/>
+      <c r="D14" s="92"/>
       <c r="E14" s="41">
         <v>53.4</v>
       </c>
@@ -9901,11 +10174,11 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B15" s="105"/>
+      <c r="B15" s="92"/>
       <c r="C15" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D15" s="105"/>
+      <c r="D15" s="92"/>
       <c r="E15" s="41">
         <v>53.1</v>
       </c>
@@ -9931,11 +10204,11 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B16" s="105"/>
+      <c r="B16" s="92"/>
       <c r="C16" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D16" s="105"/>
+      <c r="D16" s="92"/>
       <c r="E16" s="41">
         <v>52.6</v>
       </c>
@@ -9961,7 +10234,7 @@
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B17" s="102" t="s">
+      <c r="B17" s="90" t="s">
         <v>444</v>
       </c>
       <c r="C17" s="40">
@@ -9995,7 +10268,7 @@
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B18" s="102"/>
+      <c r="B18" s="90"/>
       <c r="C18" s="40">
         <v>79.5</v>
       </c>
@@ -10025,7 +10298,7 @@
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B19" s="102"/>
+      <c r="B19" s="90"/>
       <c r="C19" s="40">
         <v>79.5</v>
       </c>
@@ -10055,7 +10328,7 @@
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B20" s="102"/>
+      <c r="B20" s="90"/>
       <c r="C20" s="40">
         <v>79.5</v>
       </c>
@@ -10085,7 +10358,7 @@
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B21" s="102"/>
+      <c r="B21" s="90"/>
       <c r="C21" s="40">
         <v>79.5</v>
       </c>
@@ -10115,7 +10388,7 @@
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B22" s="102" t="s">
+      <c r="B22" s="90" t="s">
         <v>55</v>
       </c>
       <c r="C22" s="40">
@@ -10149,7 +10422,7 @@
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B23" s="102"/>
+      <c r="B23" s="90"/>
       <c r="C23" s="40">
         <v>80</v>
       </c>
@@ -10179,7 +10452,7 @@
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B24" s="102"/>
+      <c r="B24" s="90"/>
       <c r="C24" s="40">
         <v>80</v>
       </c>
@@ -10209,7 +10482,7 @@
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B25" s="102"/>
+      <c r="B25" s="90"/>
       <c r="C25" s="40">
         <v>80</v>
       </c>
@@ -10239,7 +10512,7 @@
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B26" s="102"/>
+      <c r="B26" s="90"/>
       <c r="C26" s="40">
         <v>80</v>
       </c>
@@ -10269,7 +10542,7 @@
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B27" s="102" t="s">
+      <c r="B27" s="90" t="s">
         <v>56</v>
       </c>
       <c r="C27" s="40">
@@ -10303,7 +10576,7 @@
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B28" s="102"/>
+      <c r="B28" s="90"/>
       <c r="C28" s="40">
         <v>80.7</v>
       </c>
@@ -10333,7 +10606,7 @@
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B29" s="102"/>
+      <c r="B29" s="90"/>
       <c r="C29" s="40">
         <v>80.7</v>
       </c>
@@ -10363,7 +10636,7 @@
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B30" s="102"/>
+      <c r="B30" s="90"/>
       <c r="C30" s="40">
         <v>80.7</v>
       </c>
@@ -10393,7 +10666,7 @@
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B31" s="102"/>
+      <c r="B31" s="90"/>
       <c r="C31" s="40">
         <v>80.900000000000006</v>
       </c>
@@ -10423,7 +10696,7 @@
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B32" s="102" t="s">
+      <c r="B32" s="90" t="s">
         <v>57</v>
       </c>
       <c r="C32" s="40">
@@ -10457,7 +10730,7 @@
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B33" s="102"/>
+      <c r="B33" s="90"/>
       <c r="C33" s="40">
         <v>81.099999999999994</v>
       </c>
@@ -10487,7 +10760,7 @@
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B34" s="102"/>
+      <c r="B34" s="90"/>
       <c r="C34" s="40">
         <v>81.099999999999994</v>
       </c>
@@ -10517,7 +10790,7 @@
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B35" s="102"/>
+      <c r="B35" s="90"/>
       <c r="C35" s="40">
         <v>81.099999999999994</v>
       </c>
@@ -10547,7 +10820,7 @@
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B36" s="102"/>
+      <c r="B36" s="90"/>
       <c r="C36" s="40">
         <v>81.099999999999994</v>
       </c>
@@ -10577,7 +10850,7 @@
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B37" s="102" t="s">
+      <c r="B37" s="90" t="s">
         <v>58</v>
       </c>
       <c r="C37" s="40">
@@ -10611,7 +10884,7 @@
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B38" s="102"/>
+      <c r="B38" s="90"/>
       <c r="C38" s="40">
         <v>81.5</v>
       </c>
@@ -10641,7 +10914,7 @@
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B39" s="102"/>
+      <c r="B39" s="90"/>
       <c r="C39" s="40">
         <v>81.5</v>
       </c>
@@ -10671,7 +10944,7 @@
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B40" s="102"/>
+      <c r="B40" s="90"/>
       <c r="C40" s="40">
         <v>81.5</v>
       </c>
@@ -10701,7 +10974,7 @@
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B41" s="102"/>
+      <c r="B41" s="90"/>
       <c r="C41" s="40">
         <v>81.5</v>
       </c>
@@ -10731,7 +11004,7 @@
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B42" s="102" t="s">
+      <c r="B42" s="90" t="s">
         <v>59</v>
       </c>
       <c r="C42" s="40">
@@ -10765,7 +11038,7 @@
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B43" s="102"/>
+      <c r="B43" s="90"/>
       <c r="C43" s="40">
         <v>82.4</v>
       </c>
@@ -10795,7 +11068,7 @@
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B44" s="102"/>
+      <c r="B44" s="90"/>
       <c r="C44" s="40">
         <v>82.4</v>
       </c>
@@ -10825,7 +11098,7 @@
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B45" s="102"/>
+      <c r="B45" s="90"/>
       <c r="C45" s="40">
         <v>82.4</v>
       </c>
@@ -10855,7 +11128,7 @@
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B46" s="102"/>
+      <c r="B46" s="90"/>
       <c r="C46" s="40">
         <v>82.4</v>
       </c>
@@ -10885,13 +11158,13 @@
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B47" s="102" t="s">
+      <c r="B47" s="90" t="s">
         <v>94</v>
       </c>
       <c r="C47" s="40">
         <v>82.9</v>
       </c>
-      <c r="D47" s="106" t="s">
+      <c r="D47" s="91" t="s">
         <v>90</v>
       </c>
       <c r="E47" s="41">
@@ -10904,11 +11177,11 @@
       <c r="J47" s="56"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B48" s="102"/>
+      <c r="B48" s="90"/>
       <c r="C48" s="40">
         <v>83.1</v>
       </c>
-      <c r="D48" s="106"/>
+      <c r="D48" s="91"/>
       <c r="E48" s="41">
         <v>43.4</v>
       </c>
@@ -10919,11 +11192,11 @@
       <c r="J48" s="56"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B49" s="102"/>
+      <c r="B49" s="90"/>
       <c r="C49" s="40">
         <v>83.1</v>
       </c>
-      <c r="D49" s="106"/>
+      <c r="D49" s="91"/>
       <c r="E49" s="41">
         <v>43.4</v>
       </c>
@@ -10934,11 +11207,11 @@
       <c r="J49" s="56"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B50" s="102"/>
+      <c r="B50" s="90"/>
       <c r="C50" s="40">
         <v>83.1</v>
       </c>
-      <c r="D50" s="106"/>
+      <c r="D50" s="91"/>
       <c r="E50" s="41">
         <v>43.4</v>
       </c>
@@ -10949,11 +11222,11 @@
       <c r="J50" s="56"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B51" s="102"/>
+      <c r="B51" s="90"/>
       <c r="C51" s="40">
         <v>83.1</v>
       </c>
-      <c r="D51" s="106"/>
+      <c r="D51" s="91"/>
       <c r="E51" s="41">
         <v>43.4</v>
       </c>
@@ -10964,13 +11237,13 @@
       <c r="J51" s="56"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B52" s="102" t="s">
+      <c r="B52" s="90" t="s">
         <v>95</v>
       </c>
       <c r="C52" s="40">
         <v>83.4</v>
       </c>
-      <c r="D52" s="106" t="s">
+      <c r="D52" s="91" t="s">
         <v>92</v>
       </c>
       <c r="E52" s="41">
@@ -10983,11 +11256,11 @@
       <c r="J52" s="56"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B53" s="102"/>
+      <c r="B53" s="90"/>
       <c r="C53" s="40">
         <v>83.4</v>
       </c>
-      <c r="D53" s="106"/>
+      <c r="D53" s="91"/>
       <c r="E53" s="41">
         <v>43.3</v>
       </c>
@@ -10998,11 +11271,11 @@
       <c r="J53" s="56"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B54" s="102"/>
+      <c r="B54" s="90"/>
       <c r="C54" s="40">
         <v>83.4</v>
       </c>
-      <c r="D54" s="106"/>
+      <c r="D54" s="91"/>
       <c r="E54" s="41">
         <v>43.4</v>
       </c>
@@ -11013,11 +11286,11 @@
       <c r="J54" s="56"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B55" s="102"/>
+      <c r="B55" s="90"/>
       <c r="C55" s="40">
         <v>83.6</v>
       </c>
-      <c r="D55" s="106"/>
+      <c r="D55" s="91"/>
       <c r="E55" s="41">
         <v>43.4</v>
       </c>
@@ -11028,11 +11301,11 @@
       <c r="J55" s="56"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B56" s="102"/>
+      <c r="B56" s="90"/>
       <c r="C56" s="40">
         <v>83.3</v>
       </c>
-      <c r="D56" s="106"/>
+      <c r="D56" s="91"/>
       <c r="E56" s="41">
         <v>43.4</v>
       </c>
@@ -11043,7 +11316,7 @@
       <c r="J56" s="56"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B57" s="102" t="s">
+      <c r="B57" s="90" t="s">
         <v>96</v>
       </c>
       <c r="C57" s="40">
@@ -11058,7 +11331,7 @@
       <c r="J57" s="56"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B58" s="102"/>
+      <c r="B58" s="90"/>
       <c r="C58" s="40">
         <v>83.4</v>
       </c>
@@ -11071,7 +11344,7 @@
       <c r="J58" s="56"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B59" s="102"/>
+      <c r="B59" s="90"/>
       <c r="C59" s="40">
         <v>83.3</v>
       </c>
@@ -11084,7 +11357,7 @@
       <c r="J59" s="56"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B60" s="102"/>
+      <c r="B60" s="90"/>
       <c r="C60" s="40">
         <v>83.3</v>
       </c>
@@ -11097,7 +11370,7 @@
       <c r="J60" s="56"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B61" s="102"/>
+      <c r="B61" s="90"/>
       <c r="C61" s="40">
         <v>83.4</v>
       </c>
@@ -11110,7 +11383,7 @@
       <c r="J61" s="56"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B62" s="102" t="s">
+      <c r="B62" s="90" t="s">
         <v>97</v>
       </c>
       <c r="C62" s="40">
@@ -11125,7 +11398,7 @@
       <c r="J62" s="56"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B63" s="102"/>
+      <c r="B63" s="90"/>
       <c r="C63" s="40">
         <v>83.8</v>
       </c>
@@ -11138,7 +11411,7 @@
       <c r="J63" s="56"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B64" s="102"/>
+      <c r="B64" s="90"/>
       <c r="C64" s="40">
         <v>83.6</v>
       </c>
@@ -11151,7 +11424,7 @@
       <c r="J64" s="56"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B65" s="102"/>
+      <c r="B65" s="90"/>
       <c r="C65" s="40">
         <v>83.8</v>
       </c>
@@ -11164,7 +11437,7 @@
       <c r="J65" s="56"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B66" s="102"/>
+      <c r="B66" s="90"/>
       <c r="C66" s="40">
         <v>83.8</v>
       </c>
@@ -11177,7 +11450,7 @@
       <c r="J66" s="56"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B67" s="102" t="s">
+      <c r="B67" s="90" t="s">
         <v>93</v>
       </c>
       <c r="C67" s="40">
@@ -11192,7 +11465,7 @@
       <c r="J67" s="56"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B68" s="102"/>
+      <c r="B68" s="90"/>
       <c r="C68" s="40">
         <v>84</v>
       </c>
@@ -11205,7 +11478,7 @@
       <c r="J68" s="56"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B69" s="102"/>
+      <c r="B69" s="90"/>
       <c r="C69" s="40">
         <v>84</v>
       </c>
@@ -11218,7 +11491,7 @@
       <c r="J69" s="56"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B70" s="102"/>
+      <c r="B70" s="90"/>
       <c r="C70" s="40">
         <v>84</v>
       </c>
@@ -11231,7 +11504,7 @@
       <c r="J70" s="56"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B71" s="102"/>
+      <c r="B71" s="90"/>
       <c r="C71" s="40">
         <v>84</v>
       </c>
@@ -11244,7 +11517,7 @@
       <c r="J71" s="56"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B72" s="102" t="s">
+      <c r="B72" s="90" t="s">
         <v>82</v>
       </c>
       <c r="C72" s="40">
@@ -11259,7 +11532,7 @@
       <c r="J72" s="56"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B73" s="102"/>
+      <c r="B73" s="90"/>
       <c r="C73" s="40">
         <v>83.4</v>
       </c>
@@ -11272,7 +11545,7 @@
       <c r="J73" s="56"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B74" s="102"/>
+      <c r="B74" s="90"/>
       <c r="C74" s="40">
         <v>83.3</v>
       </c>
@@ -11285,7 +11558,7 @@
       <c r="J74" s="56"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B75" s="102"/>
+      <c r="B75" s="90"/>
       <c r="C75" s="40">
         <v>83.3</v>
       </c>
@@ -11298,7 +11571,7 @@
       <c r="J75" s="56"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B76" s="102"/>
+      <c r="B76" s="90"/>
       <c r="C76" s="40">
         <v>83.3</v>
       </c>
@@ -11311,7 +11584,7 @@
       <c r="J76" s="56"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B77" s="102" t="s">
+      <c r="B77" s="90" t="s">
         <v>83</v>
       </c>
       <c r="C77" s="40">
@@ -11326,7 +11599,7 @@
       <c r="J77" s="56"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B78" s="102"/>
+      <c r="B78" s="90"/>
       <c r="C78" s="40">
         <v>83.4</v>
       </c>
@@ -11339,7 +11612,7 @@
       <c r="J78" s="56"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B79" s="102"/>
+      <c r="B79" s="90"/>
       <c r="C79" s="40">
         <v>83.4</v>
       </c>
@@ -11352,7 +11625,7 @@
       <c r="J79" s="56"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B80" s="102"/>
+      <c r="B80" s="90"/>
       <c r="C80" s="40">
         <v>83.4</v>
       </c>
@@ -11365,7 +11638,7 @@
       <c r="J80" s="56"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B81" s="102"/>
+      <c r="B81" s="90"/>
       <c r="C81" s="40">
         <v>83.4</v>
       </c>
@@ -11378,7 +11651,7 @@
       <c r="J81" s="56"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B82" s="102" t="s">
+      <c r="B82" s="90" t="s">
         <v>84</v>
       </c>
       <c r="C82" s="40">
@@ -11393,7 +11666,7 @@
       <c r="J82" s="56"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B83" s="102"/>
+      <c r="B83" s="90"/>
       <c r="C83" s="40">
         <v>83.3</v>
       </c>
@@ -11406,7 +11679,7 @@
       <c r="J83" s="56"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B84" s="102"/>
+      <c r="B84" s="90"/>
       <c r="C84" s="40">
         <v>83.3</v>
       </c>
@@ -11419,7 +11692,7 @@
       <c r="J84" s="56"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B85" s="102"/>
+      <c r="B85" s="90"/>
       <c r="C85" s="40">
         <v>83.3</v>
       </c>
@@ -11432,7 +11705,7 @@
       <c r="J85" s="56"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B86" s="102"/>
+      <c r="B86" s="90"/>
       <c r="C86" s="40">
         <v>83.3</v>
       </c>
@@ -11445,7 +11718,7 @@
       <c r="J86" s="56"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B87" s="102" t="s">
+      <c r="B87" s="90" t="s">
         <v>87</v>
       </c>
       <c r="C87" s="40">
@@ -11460,7 +11733,7 @@
       <c r="J87" s="56"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B88" s="102"/>
+      <c r="B88" s="90"/>
       <c r="C88" s="40">
         <v>83.8</v>
       </c>
@@ -11473,7 +11746,7 @@
       <c r="J88" s="56"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B89" s="102"/>
+      <c r="B89" s="90"/>
       <c r="C89" s="40">
         <v>83.8</v>
       </c>
@@ -11486,7 +11759,7 @@
       <c r="J89" s="56"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B90" s="102"/>
+      <c r="B90" s="90"/>
       <c r="C90" s="40">
         <v>84</v>
       </c>
@@ -11499,7 +11772,7 @@
       <c r="J90" s="56"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B91" s="102"/>
+      <c r="B91" s="90"/>
       <c r="C91" s="40">
         <v>84</v>
       </c>
@@ -11512,7 +11785,7 @@
       <c r="J91" s="56"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B92" s="102" t="s">
+      <c r="B92" s="90" t="s">
         <v>89</v>
       </c>
       <c r="C92" s="40">
@@ -11527,7 +11800,7 @@
       <c r="J92" s="56"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B93" s="102"/>
+      <c r="B93" s="90"/>
       <c r="C93" s="40">
         <v>84</v>
       </c>
@@ -11540,7 +11813,7 @@
       <c r="J93" s="56"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B94" s="102"/>
+      <c r="B94" s="90"/>
       <c r="C94" s="40">
         <v>84</v>
       </c>
@@ -11553,7 +11826,7 @@
       <c r="J94" s="56"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B95" s="102"/>
+      <c r="B95" s="90"/>
       <c r="C95" s="40">
         <v>84.2</v>
       </c>
@@ -11566,7 +11839,7 @@
       <c r="J95" s="56"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B96" s="102"/>
+      <c r="B96" s="90"/>
       <c r="C96" s="40">
         <v>84.2</v>
       </c>
@@ -11579,7 +11852,7 @@
       <c r="J96" s="56"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B97" s="102" t="s">
+      <c r="B97" s="90" t="s">
         <v>91</v>
       </c>
       <c r="C97" s="40">
@@ -11594,7 +11867,7 @@
       <c r="J97" s="56"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B98" s="102"/>
+      <c r="B98" s="90"/>
       <c r="C98" s="40">
         <v>84</v>
       </c>
@@ -11607,7 +11880,7 @@
       <c r="J98" s="56"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B99" s="102"/>
+      <c r="B99" s="90"/>
       <c r="C99" s="40">
         <v>84</v>
       </c>
@@ -11620,7 +11893,7 @@
       <c r="J99" s="56"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B100" s="102"/>
+      <c r="B100" s="90"/>
       <c r="C100" s="40">
         <v>84</v>
       </c>
@@ -11633,7 +11906,7 @@
       <c r="J100" s="56"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B101" s="102"/>
+      <c r="B101" s="90"/>
       <c r="C101" s="40">
         <v>84</v>
       </c>
@@ -11647,6 +11920,49 @@
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="J7:J46"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N7:N46"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L7:L46"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B92:B96"/>
+    <mergeCell ref="B7:B16"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="D7:D16"/>
+    <mergeCell ref="F7:F46"/>
+    <mergeCell ref="H7:H46"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="F5:G5"/>
     <mergeCell ref="B97:B101"/>
     <mergeCell ref="D27:D31"/>
     <mergeCell ref="D32:D36"/>
@@ -11663,49 +11979,6 @@
     <mergeCell ref="B32:B36"/>
     <mergeCell ref="B47:B51"/>
     <mergeCell ref="B52:B56"/>
-    <mergeCell ref="L7:L46"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B92:B96"/>
-    <mergeCell ref="B7:B16"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="D7:D16"/>
-    <mergeCell ref="F7:F46"/>
-    <mergeCell ref="H7:H46"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="J7:J46"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N7:N46"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11723,44 +11996,44 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="110" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
       <c r="G1" s="17"/>
-      <c r="H1" s="116" t="s">
+      <c r="H1" s="112" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116" t="s">
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A2" s="117"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="118"/>
-      <c r="M2" s="118"/>
-      <c r="N2" s="118"/>
-      <c r="O2" s="118"/>
+      <c r="A2" s="113"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A3" s="26" t="s">
@@ -11784,27 +12057,27 @@
       <c r="G3" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="H3" s="92" t="s">
+      <c r="H3" s="103" t="s">
         <v>189</v>
       </c>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="93"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="105"/>
       <c r="P3" s="31">
         <v>0.36041666666666666</v>
       </c>
-      <c r="Q3" s="92" t="s">
+      <c r="Q3" s="103" t="s">
         <v>189</v>
       </c>
-      <c r="R3" s="101"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="101"/>
-      <c r="U3" s="101"/>
-      <c r="V3" s="101"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
+      <c r="U3" s="104"/>
+      <c r="V3" s="104"/>
       <c r="W3" s="37">
         <v>0.36319444444444443</v>
       </c>
@@ -11813,13 +12086,13 @@
       <c r="Z3" s="20"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="115" t="s">
         <v>133</v>
       </c>
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="102" t="s">
+      <c r="C4" s="90" t="s">
         <v>98</v>
       </c>
       <c r="D4" s="23">
@@ -11883,9 +12156,9 @@
       <c r="Z4" s="13"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A5" s="108"/>
-      <c r="B5" s="111"/>
-      <c r="C5" s="102"/>
+      <c r="A5" s="116"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="90"/>
       <c r="D5" s="23">
         <v>2</v>
       </c>
@@ -11945,9 +12218,9 @@
       <c r="Z5" s="13"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A6" s="108"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="102"/>
+      <c r="A6" s="116"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="90"/>
       <c r="D6" s="23">
         <v>3</v>
       </c>
@@ -12007,9 +12280,9 @@
       <c r="Z6" s="13"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A7" s="108"/>
-      <c r="B7" s="111"/>
-      <c r="C7" s="102"/>
+      <c r="A7" s="116"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="90"/>
       <c r="D7" s="23">
         <v>4</v>
       </c>
@@ -12069,9 +12342,9 @@
       <c r="Z7" s="13"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A8" s="108"/>
-      <c r="B8" s="111"/>
-      <c r="C8" s="102"/>
+      <c r="A8" s="116"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="90"/>
       <c r="D8" s="23">
         <v>5</v>
       </c>
@@ -12131,15 +12404,15 @@
       <c r="Z8" s="13"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A9" s="108"/>
-      <c r="B9" s="111"/>
+      <c r="A9" s="116"/>
+      <c r="B9" s="119"/>
       <c r="C9" s="26"/>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
-      <c r="H9" s="113"/>
-      <c r="I9" s="113"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
       <c r="J9" s="80"/>
       <c r="K9" s="80"/>
       <c r="L9" s="80"/>
@@ -12159,8 +12432,8 @@
       <c r="Z9" s="21"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A10" s="108"/>
-      <c r="B10" s="111"/>
+      <c r="A10" s="116"/>
+      <c r="B10" s="119"/>
       <c r="C10" s="26"/>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
@@ -12191,9 +12464,9 @@
       <c r="Z10" s="11"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A11" s="108"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="102" t="s">
+      <c r="A11" s="116"/>
+      <c r="B11" s="119"/>
+      <c r="C11" s="90" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="23">
@@ -12257,9 +12530,9 @@
       <c r="Z11" s="11"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A12" s="108"/>
-      <c r="B12" s="111"/>
-      <c r="C12" s="102"/>
+      <c r="A12" s="116"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="90"/>
       <c r="D12" s="23">
         <v>2</v>
       </c>
@@ -12319,9 +12592,9 @@
       <c r="Z12" s="11"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A13" s="108"/>
-      <c r="B13" s="111"/>
-      <c r="C13" s="102"/>
+      <c r="A13" s="116"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="90"/>
       <c r="D13" s="23">
         <v>3</v>
       </c>
@@ -12381,9 +12654,9 @@
       <c r="Z13" s="11"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A14" s="108"/>
-      <c r="B14" s="111"/>
-      <c r="C14" s="102"/>
+      <c r="A14" s="116"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="90"/>
       <c r="D14" s="23">
         <v>4</v>
       </c>
@@ -12443,9 +12716,9 @@
       <c r="Z14" s="11"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A15" s="108"/>
-      <c r="B15" s="111"/>
-      <c r="C15" s="102"/>
+      <c r="A15" s="116"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="90"/>
       <c r="D15" s="23">
         <v>5</v>
       </c>
@@ -12505,23 +12778,23 @@
       <c r="Z15" s="11"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A16" s="108"/>
-      <c r="B16" s="112"/>
+      <c r="A16" s="116"/>
+      <c r="B16" s="120"/>
       <c r="C16" s="29"/>
       <c r="D16" s="22"/>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="119" t="s">
+      <c r="H16" s="107" t="s">
         <v>178</v>
       </c>
-      <c r="I16" s="120"/>
-      <c r="J16" s="120"/>
-      <c r="K16" s="120"/>
-      <c r="L16" s="120"/>
-      <c r="M16" s="120"/>
-      <c r="N16" s="120"/>
-      <c r="O16" s="121"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="108"/>
+      <c r="N16" s="108"/>
+      <c r="O16" s="109"/>
       <c r="P16" s="36"/>
       <c r="Q16" s="36"/>
       <c r="R16" s="36"/>
@@ -12535,11 +12808,11 @@
       <c r="Z16" s="11"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A17" s="108"/>
-      <c r="B17" s="102" t="s">
+      <c r="A17" s="116"/>
+      <c r="B17" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="102" t="s">
+      <c r="C17" s="90" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="23">
@@ -12589,9 +12862,9 @@
       <c r="Z17" s="11"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A18" s="108"/>
-      <c r="B18" s="102"/>
-      <c r="C18" s="102"/>
+      <c r="A18" s="116"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="90"/>
       <c r="D18" s="23">
         <v>2</v>
       </c>
@@ -12635,9 +12908,9 @@
       <c r="Z18" s="11"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A19" s="108"/>
-      <c r="B19" s="102"/>
-      <c r="C19" s="102"/>
+      <c r="A19" s="116"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="90"/>
       <c r="D19" s="23">
         <v>3</v>
       </c>
@@ -12681,9 +12954,9 @@
       <c r="Z19" s="11"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A20" s="108"/>
-      <c r="B20" s="102"/>
-      <c r="C20" s="102"/>
+      <c r="A20" s="116"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="90"/>
       <c r="D20" s="23">
         <v>4</v>
       </c>
@@ -12727,9 +13000,9 @@
       <c r="Z20" s="11"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A21" s="109"/>
-      <c r="B21" s="102"/>
-      <c r="C21" s="102"/>
+      <c r="A21" s="117"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
       <c r="D21" s="23">
         <v>5</v>
       </c>
@@ -12788,16 +13061,16 @@
       <c r="G22" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="H22" s="96" t="s">
+      <c r="H22" s="97" t="s">
         <v>189</v>
       </c>
-      <c r="I22" s="103"/>
-      <c r="J22" s="103"/>
-      <c r="K22" s="103"/>
-      <c r="L22" s="103"/>
-      <c r="M22" s="103"/>
-      <c r="N22" s="103"/>
-      <c r="O22" s="97"/>
+      <c r="I22" s="98"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="98"/>
+      <c r="L22" s="98"/>
+      <c r="M22" s="98"/>
+      <c r="N22" s="98"/>
+      <c r="O22" s="106"/>
       <c r="P22" s="32" t="s">
         <v>248</v>
       </c>
@@ -12813,13 +13086,13 @@
       <c r="Z22" s="11"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A23" s="107" t="s">
+      <c r="A23" s="115" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="102" t="s">
+      <c r="B23" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="102" t="s">
+      <c r="C23" s="90" t="s">
         <v>98</v>
       </c>
       <c r="D23" s="23">
@@ -12887,9 +13160,9 @@
       <c r="Z23" s="11"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A24" s="108"/>
-      <c r="B24" s="102"/>
-      <c r="C24" s="102"/>
+      <c r="A24" s="116"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="90"/>
       <c r="D24" s="23">
         <v>2</v>
       </c>
@@ -12949,9 +13222,9 @@
       <c r="Z24" s="11"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A25" s="108"/>
-      <c r="B25" s="102"/>
-      <c r="C25" s="102"/>
+      <c r="A25" s="116"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="90"/>
       <c r="D25" s="23">
         <v>3</v>
       </c>
@@ -13011,9 +13284,9 @@
       <c r="Z25" s="11"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A26" s="108"/>
-      <c r="B26" s="102"/>
-      <c r="C26" s="102"/>
+      <c r="A26" s="116"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="90"/>
       <c r="D26" s="23">
         <v>4</v>
       </c>
@@ -13073,9 +13346,9 @@
       <c r="Z26" s="11"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A27" s="108"/>
-      <c r="B27" s="102"/>
-      <c r="C27" s="102"/>
+      <c r="A27" s="116"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="90"/>
       <c r="D27" s="23">
         <v>5</v>
       </c>
@@ -13135,8 +13408,8 @@
       <c r="Z27" s="11"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A28" s="108"/>
-      <c r="B28" s="102"/>
+      <c r="A28" s="116"/>
+      <c r="B28" s="90"/>
       <c r="C28" s="26"/>
       <c r="D28" s="23"/>
       <c r="E28" s="23"/>
@@ -13163,8 +13436,8 @@
       <c r="Z28" s="11"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A29" s="108"/>
-      <c r="B29" s="102"/>
+      <c r="A29" s="116"/>
+      <c r="B29" s="90"/>
       <c r="C29" s="26"/>
       <c r="D29" s="23"/>
       <c r="E29" s="23"/>
@@ -13193,9 +13466,9 @@
       <c r="Z29" s="11"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A30" s="108"/>
-      <c r="B30" s="102"/>
-      <c r="C30" s="102" t="s">
+      <c r="A30" s="116"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="90" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="23">
@@ -13263,9 +13536,9 @@
       <c r="Z30" s="11"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A31" s="108"/>
-      <c r="B31" s="102"/>
-      <c r="C31" s="102"/>
+      <c r="A31" s="116"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="90"/>
       <c r="D31" s="23">
         <v>2</v>
       </c>
@@ -13325,9 +13598,9 @@
       <c r="Z31" s="11"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A32" s="108"/>
-      <c r="B32" s="102"/>
-      <c r="C32" s="102"/>
+      <c r="A32" s="116"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="90"/>
       <c r="D32" s="23">
         <v>3</v>
       </c>
@@ -13387,9 +13660,9 @@
       <c r="Z32" s="11"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A33" s="108"/>
-      <c r="B33" s="102"/>
-      <c r="C33" s="102"/>
+      <c r="A33" s="116"/>
+      <c r="B33" s="90"/>
+      <c r="C33" s="90"/>
       <c r="D33" s="23">
         <v>4</v>
       </c>
@@ -13446,9 +13719,9 @@
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A34" s="108"/>
-      <c r="B34" s="102"/>
-      <c r="C34" s="102"/>
+      <c r="A34" s="116"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="90"/>
       <c r="D34" s="23">
         <v>5</v>
       </c>
@@ -13505,8 +13778,8 @@
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A35" s="108"/>
-      <c r="B35" s="102"/>
+      <c r="A35" s="116"/>
+      <c r="B35" s="90"/>
       <c r="C35" s="26"/>
       <c r="D35" s="23"/>
       <c r="E35" s="23"/>
@@ -13530,11 +13803,11 @@
       <c r="W35" s="26"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A36" s="108"/>
-      <c r="B36" s="102" t="s">
+      <c r="A36" s="116"/>
+      <c r="B36" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="102" t="s">
+      <c r="C36" s="90" t="s">
         <v>10</v>
       </c>
       <c r="D36" s="23">
@@ -13593,9 +13866,9 @@
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A37" s="108"/>
-      <c r="B37" s="102"/>
-      <c r="C37" s="102"/>
+      <c r="A37" s="116"/>
+      <c r="B37" s="90"/>
+      <c r="C37" s="90"/>
       <c r="D37" s="23">
         <v>2</v>
       </c>
@@ -13648,9 +13921,9 @@
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A38" s="108"/>
-      <c r="B38" s="102"/>
-      <c r="C38" s="102"/>
+      <c r="A38" s="116"/>
+      <c r="B38" s="90"/>
+      <c r="C38" s="90"/>
       <c r="D38" s="23">
         <v>3</v>
       </c>
@@ -13703,9 +13976,9 @@
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A39" s="108"/>
-      <c r="B39" s="102"/>
-      <c r="C39" s="102"/>
+      <c r="A39" s="116"/>
+      <c r="B39" s="90"/>
+      <c r="C39" s="90"/>
       <c r="D39" s="23">
         <v>4</v>
       </c>
@@ -13758,9 +14031,9 @@
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A40" s="109"/>
-      <c r="B40" s="102"/>
-      <c r="C40" s="102"/>
+      <c r="A40" s="117"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="90"/>
       <c r="D40" s="23">
         <v>5</v>
       </c>
@@ -13843,10 +14116,10 @@
       <c r="A42" s="81" t="s">
         <v>294</v>
       </c>
-      <c r="B42" s="102" t="s">
+      <c r="B42" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="102" t="s">
+      <c r="C42" s="90" t="s">
         <v>98</v>
       </c>
       <c r="D42" s="23">
@@ -13886,8 +14159,8 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A43" s="81"/>
-      <c r="B43" s="102"/>
-      <c r="C43" s="102"/>
+      <c r="B43" s="90"/>
+      <c r="C43" s="90"/>
       <c r="D43" s="23">
         <v>2</v>
       </c>
@@ -13921,8 +14194,8 @@
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A44" s="81"/>
-      <c r="B44" s="102"/>
-      <c r="C44" s="102"/>
+      <c r="B44" s="90"/>
+      <c r="C44" s="90"/>
       <c r="D44" s="23">
         <v>3</v>
       </c>
@@ -13956,8 +14229,8 @@
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A45" s="81"/>
-      <c r="B45" s="102"/>
-      <c r="C45" s="102"/>
+      <c r="B45" s="90"/>
+      <c r="C45" s="90"/>
       <c r="D45" s="23">
         <v>4</v>
       </c>
@@ -13991,8 +14264,8 @@
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A46" s="81"/>
-      <c r="B46" s="102"/>
-      <c r="C46" s="102"/>
+      <c r="B46" s="90"/>
+      <c r="C46" s="90"/>
       <c r="D46" s="23">
         <v>5</v>
       </c>
@@ -14026,7 +14299,7 @@
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A47" s="81"/>
-      <c r="B47" s="102"/>
+      <c r="B47" s="90"/>
       <c r="C47" s="26"/>
       <c r="D47" s="23"/>
       <c r="E47" s="23"/>
@@ -14043,7 +14316,7 @@
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A48" s="81"/>
-      <c r="B48" s="102"/>
+      <c r="B48" s="90"/>
       <c r="C48" s="26"/>
       <c r="D48" s="23"/>
       <c r="E48" s="23"/>
@@ -14060,8 +14333,8 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A49" s="81"/>
-      <c r="B49" s="102"/>
-      <c r="C49" s="102" t="s">
+      <c r="B49" s="90"/>
+      <c r="C49" s="90" t="s">
         <v>2</v>
       </c>
       <c r="D49" s="23">
@@ -14101,8 +14374,8 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A50" s="81"/>
-      <c r="B50" s="102"/>
-      <c r="C50" s="102"/>
+      <c r="B50" s="90"/>
+      <c r="C50" s="90"/>
       <c r="D50" s="23">
         <v>2</v>
       </c>
@@ -14136,8 +14409,8 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A51" s="81"/>
-      <c r="B51" s="102"/>
-      <c r="C51" s="102"/>
+      <c r="B51" s="90"/>
+      <c r="C51" s="90"/>
       <c r="D51" s="23">
         <v>3</v>
       </c>
@@ -14171,8 +14444,8 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A52" s="81"/>
-      <c r="B52" s="102"/>
-      <c r="C52" s="102"/>
+      <c r="B52" s="90"/>
+      <c r="C52" s="90"/>
       <c r="D52" s="23">
         <v>4</v>
       </c>
@@ -14206,8 +14479,8 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A53" s="81"/>
-      <c r="B53" s="102"/>
-      <c r="C53" s="102"/>
+      <c r="B53" s="90"/>
+      <c r="C53" s="90"/>
       <c r="D53" s="23">
         <v>5</v>
       </c>
@@ -14241,7 +14514,7 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A54" s="81"/>
-      <c r="B54" s="102"/>
+      <c r="B54" s="90"/>
       <c r="C54" s="26"/>
       <c r="D54" s="23"/>
       <c r="E54" s="23"/>
@@ -14258,10 +14531,10 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A55" s="81"/>
-      <c r="B55" s="102" t="s">
+      <c r="B55" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="102" t="s">
+      <c r="C55" s="90" t="s">
         <v>10</v>
       </c>
       <c r="D55" s="23">
@@ -14301,8 +14574,8 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A56" s="81"/>
-      <c r="B56" s="102"/>
-      <c r="C56" s="102"/>
+      <c r="B56" s="90"/>
+      <c r="C56" s="90"/>
       <c r="D56" s="23">
         <v>2</v>
       </c>
@@ -14336,8 +14609,8 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A57" s="81"/>
-      <c r="B57" s="102"/>
-      <c r="C57" s="102"/>
+      <c r="B57" s="90"/>
+      <c r="C57" s="90"/>
       <c r="D57" s="23">
         <v>3</v>
       </c>
@@ -14371,8 +14644,8 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A58" s="81"/>
-      <c r="B58" s="102"/>
-      <c r="C58" s="102"/>
+      <c r="B58" s="90"/>
+      <c r="C58" s="90"/>
       <c r="D58" s="23">
         <v>4</v>
       </c>
@@ -14406,8 +14679,8 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A59" s="81"/>
-      <c r="B59" s="102"/>
-      <c r="C59" s="102"/>
+      <c r="B59" s="90"/>
+      <c r="C59" s="90"/>
       <c r="D59" s="23">
         <v>5</v>
       </c>
@@ -14470,10 +14743,10 @@
       <c r="A61" s="81" t="s">
         <v>134</v>
       </c>
-      <c r="B61" s="102" t="s">
+      <c r="B61" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="102" t="s">
+      <c r="C61" s="90" t="s">
         <v>98</v>
       </c>
       <c r="D61" s="23">
@@ -14515,8 +14788,8 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A62" s="81"/>
-      <c r="B62" s="102"/>
-      <c r="C62" s="102"/>
+      <c r="B62" s="90"/>
+      <c r="C62" s="90"/>
       <c r="D62" s="23">
         <v>2</v>
       </c>
@@ -14550,8 +14823,8 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A63" s="81"/>
-      <c r="B63" s="102"/>
-      <c r="C63" s="102"/>
+      <c r="B63" s="90"/>
+      <c r="C63" s="90"/>
       <c r="D63" s="23">
         <v>3</v>
       </c>
@@ -14585,8 +14858,8 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A64" s="81"/>
-      <c r="B64" s="102"/>
-      <c r="C64" s="102"/>
+      <c r="B64" s="90"/>
+      <c r="C64" s="90"/>
       <c r="D64" s="23">
         <v>4</v>
       </c>
@@ -14620,8 +14893,8 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A65" s="81"/>
-      <c r="B65" s="102"/>
-      <c r="C65" s="102"/>
+      <c r="B65" s="90"/>
+      <c r="C65" s="90"/>
       <c r="D65" s="23">
         <v>5</v>
       </c>
@@ -14655,7 +14928,7 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A66" s="81"/>
-      <c r="B66" s="102"/>
+      <c r="B66" s="90"/>
       <c r="C66" s="26"/>
       <c r="D66" s="23"/>
       <c r="E66" s="23"/>
@@ -14672,7 +14945,7 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A67" s="81"/>
-      <c r="B67" s="102"/>
+      <c r="B67" s="90"/>
       <c r="C67" s="26"/>
       <c r="D67" s="23"/>
       <c r="E67" s="23"/>
@@ -14689,8 +14962,8 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A68" s="81"/>
-      <c r="B68" s="102"/>
-      <c r="C68" s="102" t="s">
+      <c r="B68" s="90"/>
+      <c r="C68" s="90" t="s">
         <v>2</v>
       </c>
       <c r="D68" s="23">
@@ -14732,8 +15005,8 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A69" s="81"/>
-      <c r="B69" s="102"/>
-      <c r="C69" s="102"/>
+      <c r="B69" s="90"/>
+      <c r="C69" s="90"/>
       <c r="D69" s="23">
         <v>2</v>
       </c>
@@ -14767,8 +15040,8 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A70" s="81"/>
-      <c r="B70" s="102"/>
-      <c r="C70" s="102"/>
+      <c r="B70" s="90"/>
+      <c r="C70" s="90"/>
       <c r="D70" s="23">
         <v>3</v>
       </c>
@@ -14802,8 +15075,8 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A71" s="81"/>
-      <c r="B71" s="102"/>
-      <c r="C71" s="102"/>
+      <c r="B71" s="90"/>
+      <c r="C71" s="90"/>
       <c r="D71" s="23">
         <v>4</v>
       </c>
@@ -14837,8 +15110,8 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A72" s="81"/>
-      <c r="B72" s="102"/>
-      <c r="C72" s="102"/>
+      <c r="B72" s="90"/>
+      <c r="C72" s="90"/>
       <c r="D72" s="23">
         <v>5</v>
       </c>
@@ -14872,7 +15145,7 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A73" s="81"/>
-      <c r="B73" s="102"/>
+      <c r="B73" s="90"/>
       <c r="C73" s="26"/>
       <c r="D73" s="23"/>
       <c r="E73" s="23"/>
@@ -14889,10 +15162,10 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A74" s="81"/>
-      <c r="B74" s="102" t="s">
+      <c r="B74" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="C74" s="102" t="s">
+      <c r="C74" s="90" t="s">
         <v>10</v>
       </c>
       <c r="D74" s="23">
@@ -14934,8 +15207,8 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A75" s="81"/>
-      <c r="B75" s="102"/>
-      <c r="C75" s="102"/>
+      <c r="B75" s="90"/>
+      <c r="C75" s="90"/>
       <c r="D75" s="23">
         <v>2</v>
       </c>
@@ -14969,8 +15242,8 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A76" s="81"/>
-      <c r="B76" s="102"/>
-      <c r="C76" s="102"/>
+      <c r="B76" s="90"/>
+      <c r="C76" s="90"/>
       <c r="D76" s="23">
         <v>3</v>
       </c>
@@ -15004,8 +15277,8 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A77" s="81"/>
-      <c r="B77" s="102"/>
-      <c r="C77" s="102"/>
+      <c r="B77" s="90"/>
+      <c r="C77" s="90"/>
       <c r="D77" s="23">
         <v>4</v>
       </c>
@@ -15039,8 +15312,8 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A78" s="81"/>
-      <c r="B78" s="102"/>
-      <c r="C78" s="102"/>
+      <c r="B78" s="90"/>
+      <c r="C78" s="90"/>
       <c r="D78" s="23">
         <v>5</v>
       </c>
@@ -15164,45 +15437,22 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="G42:G46"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="C36:C40"/>
-    <mergeCell ref="E36:E40"/>
-    <mergeCell ref="F36:F40"/>
-    <mergeCell ref="E49:E53"/>
-    <mergeCell ref="F49:F53"/>
-    <mergeCell ref="A42:A59"/>
-    <mergeCell ref="B42:B54"/>
-    <mergeCell ref="C42:C46"/>
-    <mergeCell ref="E42:E46"/>
-    <mergeCell ref="F42:F46"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="C55:C59"/>
-    <mergeCell ref="E55:E59"/>
-    <mergeCell ref="F55:F59"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="E30:E34"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="H41:O41"/>
-    <mergeCell ref="E11:E15"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="G17:G21"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="F17:F21"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="G55:G59"/>
+    <mergeCell ref="G68:G72"/>
+    <mergeCell ref="G74:G78"/>
+    <mergeCell ref="H60:O60"/>
+    <mergeCell ref="A61:A78"/>
+    <mergeCell ref="B61:B73"/>
+    <mergeCell ref="C61:C65"/>
+    <mergeCell ref="E61:E65"/>
+    <mergeCell ref="F61:F65"/>
+    <mergeCell ref="G61:G65"/>
+    <mergeCell ref="C68:C72"/>
+    <mergeCell ref="E68:E72"/>
+    <mergeCell ref="F68:F72"/>
+    <mergeCell ref="B74:B78"/>
+    <mergeCell ref="C74:C78"/>
+    <mergeCell ref="E74:E78"/>
     <mergeCell ref="F74:F78"/>
     <mergeCell ref="G49:G53"/>
     <mergeCell ref="Q3:V3"/>
@@ -15219,22 +15469,45 @@
     <mergeCell ref="J9:Q9"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="C11:C15"/>
-    <mergeCell ref="G55:G59"/>
-    <mergeCell ref="G68:G72"/>
-    <mergeCell ref="G74:G78"/>
-    <mergeCell ref="H60:O60"/>
-    <mergeCell ref="A61:A78"/>
-    <mergeCell ref="B61:B73"/>
-    <mergeCell ref="C61:C65"/>
-    <mergeCell ref="E61:E65"/>
-    <mergeCell ref="F61:F65"/>
-    <mergeCell ref="G61:G65"/>
-    <mergeCell ref="C68:C72"/>
-    <mergeCell ref="E68:E72"/>
-    <mergeCell ref="F68:F72"/>
-    <mergeCell ref="B74:B78"/>
-    <mergeCell ref="C74:C78"/>
-    <mergeCell ref="E74:E78"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="G17:G21"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="F17:F21"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="H41:O41"/>
+    <mergeCell ref="A42:A59"/>
+    <mergeCell ref="B42:B54"/>
+    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="E42:E46"/>
+    <mergeCell ref="F42:F46"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="E55:E59"/>
+    <mergeCell ref="F55:F59"/>
+    <mergeCell ref="G42:G46"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="F30:F34"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="E36:E40"/>
+    <mergeCell ref="F36:F40"/>
+    <mergeCell ref="E49:E53"/>
+    <mergeCell ref="F49:F53"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15307,15 +15580,15 @@
       <c r="C4" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="102"/>
+      <c r="D4" s="90"/>
       <c r="E4" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="102"/>
+      <c r="F4" s="90"/>
       <c r="G4" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="102"/>
+      <c r="H4" s="90"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
@@ -15340,7 +15613,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="90" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="1">
@@ -15366,7 +15639,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="102"/>
+      <c r="A7" s="90"/>
       <c r="B7" s="1">
         <v>2</v>
       </c>
@@ -15390,7 +15663,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="102"/>
+      <c r="A8" s="90"/>
       <c r="B8" s="1">
         <v>3</v>
       </c>
@@ -15414,7 +15687,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="102"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="7">
         <v>4</v>
       </c>
@@ -15438,7 +15711,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="102"/>
+      <c r="A10" s="90"/>
       <c r="B10" s="7">
         <v>5</v>
       </c>
@@ -15462,7 +15735,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="102" t="s">
+      <c r="A11" s="90" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="1">
@@ -15488,7 +15761,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="102"/>
+      <c r="A12" s="90"/>
       <c r="B12" s="1">
         <v>2</v>
       </c>
@@ -15512,7 +15785,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="102"/>
+      <c r="A13" s="90"/>
       <c r="B13" s="1">
         <v>3</v>
       </c>
@@ -15536,7 +15809,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="102"/>
+      <c r="A14" s="90"/>
       <c r="B14" s="7">
         <v>4</v>
       </c>
@@ -15560,7 +15833,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="102"/>
+      <c r="A15" s="90"/>
       <c r="B15" s="7">
         <v>5</v>
       </c>

--- a/数据记录/记录表单.xlsx
+++ b/数据记录/记录表单.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="476">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4220,6 +4220,14 @@
   </si>
   <si>
     <t>太阳可见 无照射 较暖 有白云</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>较暖 太阳可见 全照射 有云</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没太阳 未知照射 近期有雨 冷</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4617,6 +4625,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4632,13 +4641,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -4647,7 +4653,10 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4821,7 +4830,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5102,10 +5110,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AK29"/>
+  <dimension ref="A4:AS29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AD9" sqref="AD9"/>
+    <sheetView tabSelected="1" topLeftCell="Y6" workbookViewId="0">
+      <selection activeCell="AP29" sqref="AP29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5113,23 +5121,23 @@
     <col min="13" max="13" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="65">
+      <c r="B4" s="67">
         <v>42309</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="65">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="67">
         <v>42310</v>
       </c>
       <c r="G4" s="68"/>
       <c r="H4" s="68"/>
       <c r="I4" s="69"/>
-      <c r="J4" s="65">
+      <c r="J4" s="67">
         <v>42311</v>
       </c>
       <c r="K4" s="68"/>
@@ -5157,224 +5165,280 @@
       <c r="AE4" s="58"/>
       <c r="AF4" s="58"/>
       <c r="AG4" s="58"/>
-      <c r="AH4" s="59"/>
+      <c r="AH4" s="59">
+        <v>42314</v>
+      </c>
       <c r="AI4" s="58"/>
       <c r="AJ4" s="58"/>
       <c r="AK4" s="58"/>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AL4" s="59">
+        <v>42315</v>
+      </c>
+      <c r="AM4" s="58"/>
+      <c r="AN4" s="58"/>
+      <c r="AO4" s="58"/>
+      <c r="AP4" s="59"/>
+      <c r="AQ4" s="58"/>
+      <c r="AR4" s="58"/>
+      <c r="AS4" s="58"/>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A5" s="49" t="s">
         <v>447</v>
       </c>
-      <c r="B5" s="70">
+      <c r="B5" s="66">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="70">
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="66">
         <v>0.68819444444444444</v>
       </c>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="60">
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="61">
         <v>0.41041666666666665</v>
       </c>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="60">
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="61">
         <v>0.46597222222222223</v>
       </c>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="60">
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="61">
         <v>0.52916666666666667</v>
       </c>
-      <c r="S5" s="61"/>
-      <c r="T5" s="61"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="60">
+      <c r="S5" s="62"/>
+      <c r="T5" s="62"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="61">
         <v>0.65486111111111112</v>
       </c>
-      <c r="W5" s="61"/>
-      <c r="X5" s="61"/>
-      <c r="Y5" s="62"/>
-      <c r="Z5" s="60">
+      <c r="W5" s="62"/>
+      <c r="X5" s="62"/>
+      <c r="Y5" s="63"/>
+      <c r="Z5" s="61">
         <v>0.57638888888888895</v>
       </c>
-      <c r="AA5" s="61"/>
-      <c r="AB5" s="61"/>
-      <c r="AC5" s="62"/>
-      <c r="AD5" s="60">
+      <c r="AA5" s="62"/>
+      <c r="AB5" s="62"/>
+      <c r="AC5" s="63"/>
+      <c r="AD5" s="61">
         <v>0.65069444444444446</v>
       </c>
-      <c r="AE5" s="61"/>
-      <c r="AF5" s="61"/>
-      <c r="AG5" s="62"/>
-      <c r="AH5" s="60"/>
-      <c r="AI5" s="61"/>
-      <c r="AJ5" s="61"/>
-      <c r="AK5" s="62"/>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AE5" s="62"/>
+      <c r="AF5" s="62"/>
+      <c r="AG5" s="63"/>
+      <c r="AH5" s="61">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="AI5" s="62"/>
+      <c r="AJ5" s="62"/>
+      <c r="AK5" s="63"/>
+      <c r="AL5" s="61">
+        <v>0.5395833333333333</v>
+      </c>
+      <c r="AM5" s="62"/>
+      <c r="AN5" s="62"/>
+      <c r="AO5" s="63"/>
+      <c r="AP5" s="61"/>
+      <c r="AQ5" s="62"/>
+      <c r="AR5" s="62"/>
+      <c r="AS5" s="63"/>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A6" s="49" t="s">
         <v>448</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="61" t="s">
         <v>462</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="60"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="61"/>
-      <c r="Y6" s="62"/>
-      <c r="Z6" s="60"/>
-      <c r="AA6" s="61"/>
-      <c r="AB6" s="61"/>
-      <c r="AC6" s="62"/>
-      <c r="AD6" s="60"/>
-      <c r="AE6" s="61"/>
-      <c r="AF6" s="61"/>
-      <c r="AG6" s="62"/>
-      <c r="AH6" s="60"/>
-      <c r="AI6" s="61"/>
-      <c r="AJ6" s="61"/>
-      <c r="AK6" s="62"/>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="63"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="62"/>
+      <c r="Y6" s="63"/>
+      <c r="Z6" s="61"/>
+      <c r="AA6" s="62"/>
+      <c r="AB6" s="62"/>
+      <c r="AC6" s="63"/>
+      <c r="AD6" s="61"/>
+      <c r="AE6" s="62"/>
+      <c r="AF6" s="62"/>
+      <c r="AG6" s="63"/>
+      <c r="AH6" s="61"/>
+      <c r="AI6" s="62"/>
+      <c r="AJ6" s="62"/>
+      <c r="AK6" s="63"/>
+      <c r="AL6" s="61"/>
+      <c r="AM6" s="62"/>
+      <c r="AN6" s="62"/>
+      <c r="AO6" s="63"/>
+      <c r="AP6" s="61"/>
+      <c r="AQ6" s="62"/>
+      <c r="AR6" s="62"/>
+      <c r="AS6" s="63"/>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A7" s="49" t="s">
         <v>449</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="60">
+      <c r="B7" s="61"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="61">
         <v>0.69444444444444453</v>
       </c>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="60">
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="61">
         <v>0.41666666666666669</v>
       </c>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="60" t="s">
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="61" t="s">
         <v>467</v>
       </c>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="60">
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="63"/>
+      <c r="R7" s="61">
         <v>0.53611111111111109</v>
       </c>
-      <c r="S7" s="61"/>
-      <c r="T7" s="61"/>
-      <c r="U7" s="62"/>
-      <c r="V7" s="60">
+      <c r="S7" s="62"/>
+      <c r="T7" s="62"/>
+      <c r="U7" s="63"/>
+      <c r="V7" s="61">
         <v>0.66180555555555554</v>
       </c>
-      <c r="W7" s="61"/>
-      <c r="X7" s="61"/>
-      <c r="Y7" s="62"/>
-      <c r="Z7" s="60">
+      <c r="W7" s="62"/>
+      <c r="X7" s="62"/>
+      <c r="Y7" s="63"/>
+      <c r="Z7" s="61">
         <v>0.58402777777777781</v>
       </c>
-      <c r="AA7" s="61"/>
-      <c r="AB7" s="61"/>
-      <c r="AC7" s="62"/>
-      <c r="AD7" s="60">
+      <c r="AA7" s="62"/>
+      <c r="AB7" s="62"/>
+      <c r="AC7" s="63"/>
+      <c r="AD7" s="61">
         <v>0.65694444444444444</v>
       </c>
-      <c r="AE7" s="61"/>
-      <c r="AF7" s="61"/>
-      <c r="AG7" s="62"/>
-      <c r="AH7" s="60"/>
-      <c r="AI7" s="61"/>
-      <c r="AJ7" s="61"/>
-      <c r="AK7" s="62"/>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AE7" s="62"/>
+      <c r="AF7" s="62"/>
+      <c r="AG7" s="63"/>
+      <c r="AH7" s="61">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="AI7" s="62"/>
+      <c r="AJ7" s="62"/>
+      <c r="AK7" s="63"/>
+      <c r="AL7" s="61">
+        <v>0.54583333333333328</v>
+      </c>
+      <c r="AM7" s="62"/>
+      <c r="AN7" s="62"/>
+      <c r="AO7" s="63"/>
+      <c r="AP7" s="61"/>
+      <c r="AQ7" s="62"/>
+      <c r="AR7" s="62"/>
+      <c r="AS7" s="63"/>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A8" s="49" t="s">
         <v>438</v>
       </c>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="66" t="s">
         <v>463</v>
       </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70" t="s">
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66" t="s">
         <v>465</v>
       </c>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="63" t="s">
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="64" t="s">
         <v>466</v>
       </c>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63" t="s">
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64" t="s">
         <v>468</v>
       </c>
-      <c r="O8" s="63"/>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="64" t="s">
+      <c r="O8" s="64"/>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="65" t="s">
         <v>469</v>
       </c>
-      <c r="S8" s="63"/>
-      <c r="T8" s="63"/>
-      <c r="U8" s="63"/>
-      <c r="V8" s="64" t="s">
+      <c r="S8" s="64"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="65" t="s">
         <v>470</v>
       </c>
-      <c r="W8" s="63"/>
-      <c r="X8" s="63"/>
-      <c r="Y8" s="63"/>
-      <c r="Z8" s="63" t="s">
+      <c r="W8" s="64"/>
+      <c r="X8" s="64"/>
+      <c r="Y8" s="64"/>
+      <c r="Z8" s="64" t="s">
         <v>472</v>
       </c>
-      <c r="AA8" s="63"/>
-      <c r="AB8" s="63"/>
-      <c r="AC8" s="63"/>
-      <c r="AD8" s="64" t="s">
+      <c r="AA8" s="64"/>
+      <c r="AB8" s="64"/>
+      <c r="AC8" s="64"/>
+      <c r="AD8" s="65" t="s">
         <v>473</v>
       </c>
-      <c r="AE8" s="63"/>
-      <c r="AF8" s="63"/>
-      <c r="AG8" s="63"/>
-      <c r="AH8" s="63"/>
-      <c r="AI8" s="63"/>
-      <c r="AJ8" s="63"/>
-      <c r="AK8" s="63"/>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AE8" s="64"/>
+      <c r="AF8" s="64"/>
+      <c r="AG8" s="64"/>
+      <c r="AH8" s="64" t="s">
+        <v>474</v>
+      </c>
+      <c r="AI8" s="64"/>
+      <c r="AJ8" s="64"/>
+      <c r="AK8" s="64"/>
+      <c r="AL8" s="64" t="s">
+        <v>475</v>
+      </c>
+      <c r="AM8" s="64"/>
+      <c r="AN8" s="64"/>
+      <c r="AO8" s="64"/>
+      <c r="AP8" s="64"/>
+      <c r="AQ8" s="64"/>
+      <c r="AR8" s="64"/>
+      <c r="AS8" s="64"/>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A9" s="49" t="s">
         <v>446</v>
       </c>
@@ -5486,8 +5550,32 @@
       <c r="AK9" s="50" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AL9" s="50" t="s">
+        <v>422</v>
+      </c>
+      <c r="AM9" s="50" t="s">
+        <v>423</v>
+      </c>
+      <c r="AN9" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO9" s="50" t="s">
+        <v>439</v>
+      </c>
+      <c r="AP9" s="50" t="s">
+        <v>422</v>
+      </c>
+      <c r="AQ9" s="50" t="s">
+        <v>423</v>
+      </c>
+      <c r="AR9" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS9" s="50" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A10" s="49">
         <v>117</v>
       </c>
@@ -5587,14 +5675,38 @@
       <c r="AG10" s="50" t="s">
         <v>440</v>
       </c>
-      <c r="AH10" s="49"/>
-      <c r="AI10" s="49"/>
-      <c r="AJ10" s="49"/>
+      <c r="AH10" s="49">
+        <v>10.15</v>
+      </c>
+      <c r="AI10" s="49">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="AJ10" s="49">
+        <v>656.5</v>
+      </c>
       <c r="AK10" s="50" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AL10" s="49">
+        <v>10.53</v>
+      </c>
+      <c r="AM10" s="49">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="AN10" s="49">
+        <v>69.5</v>
+      </c>
+      <c r="AO10" s="50" t="s">
+        <v>440</v>
+      </c>
+      <c r="AP10" s="49"/>
+      <c r="AQ10" s="49"/>
+      <c r="AR10" s="49"/>
+      <c r="AS10" s="50" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A11" s="49">
         <v>107</v>
       </c>
@@ -5694,12 +5806,36 @@
       <c r="AG11" s="49">
         <v>21.7</v>
       </c>
-      <c r="AH11" s="49"/>
-      <c r="AI11" s="49"/>
-      <c r="AJ11" s="49"/>
-      <c r="AK11" s="49"/>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AH11" s="49">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="AI11" s="49">
+        <v>9.4E-2</v>
+      </c>
+      <c r="AJ11" s="49">
+        <v>757.2</v>
+      </c>
+      <c r="AK11" s="49">
+        <v>26.9</v>
+      </c>
+      <c r="AL11" s="49">
+        <v>10.5</v>
+      </c>
+      <c r="AM11" s="49">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="AN11" s="49">
+        <v>69</v>
+      </c>
+      <c r="AO11" s="49">
+        <v>14.1</v>
+      </c>
+      <c r="AP11" s="49"/>
+      <c r="AQ11" s="49"/>
+      <c r="AR11" s="49"/>
+      <c r="AS11" s="49"/>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A12" s="49">
         <v>97</v>
       </c>
@@ -5799,12 +5935,36 @@
       <c r="AG12" s="49">
         <v>76.099999999999994</v>
       </c>
-      <c r="AH12" s="49"/>
-      <c r="AI12" s="49"/>
-      <c r="AJ12" s="49"/>
-      <c r="AK12" s="49"/>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AH12" s="49">
+        <v>9.93</v>
+      </c>
+      <c r="AI12" s="49">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="AJ12" s="49">
+        <v>453.3</v>
+      </c>
+      <c r="AK12" s="49">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="AL12" s="49">
+        <v>10.48</v>
+      </c>
+      <c r="AM12" s="49">
+        <v>0.11</v>
+      </c>
+      <c r="AN12" s="49">
+        <v>65.8</v>
+      </c>
+      <c r="AO12" s="49">
+        <v>62.7</v>
+      </c>
+      <c r="AP12" s="49"/>
+      <c r="AQ12" s="49"/>
+      <c r="AR12" s="49"/>
+      <c r="AS12" s="49"/>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A13" s="49">
         <v>87</v>
       </c>
@@ -5888,12 +6048,32 @@
         <v>93.3</v>
       </c>
       <c r="AG13" s="49"/>
-      <c r="AH13" s="49"/>
-      <c r="AI13" s="49"/>
-      <c r="AJ13" s="49"/>
+      <c r="AH13" s="49">
+        <v>9.85</v>
+      </c>
+      <c r="AI13" s="60">
+        <v>0.11</v>
+      </c>
+      <c r="AJ13" s="49">
+        <v>410.6</v>
+      </c>
       <c r="AK13" s="49"/>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AL13" s="49">
+        <v>10.45</v>
+      </c>
+      <c r="AM13" s="49">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="AN13" s="49">
+        <v>66.2</v>
+      </c>
+      <c r="AO13" s="49"/>
+      <c r="AP13" s="49"/>
+      <c r="AQ13" s="49"/>
+      <c r="AR13" s="49"/>
+      <c r="AS13" s="49"/>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A14" s="49">
         <v>77</v>
       </c>
@@ -5977,12 +6157,32 @@
         <v>89.8</v>
       </c>
       <c r="AG14" s="49"/>
-      <c r="AH14" s="49"/>
-      <c r="AI14" s="49"/>
-      <c r="AJ14" s="49"/>
+      <c r="AH14" s="49">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="AI14" s="49">
+        <v>0.122</v>
+      </c>
+      <c r="AJ14" s="49">
+        <v>160.4</v>
+      </c>
       <c r="AK14" s="49"/>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AL14" s="49">
+        <v>10.42</v>
+      </c>
+      <c r="AM14" s="49">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="AN14" s="49">
+        <v>61.2</v>
+      </c>
+      <c r="AO14" s="49"/>
+      <c r="AP14" s="49"/>
+      <c r="AQ14" s="49"/>
+      <c r="AR14" s="49"/>
+      <c r="AS14" s="49"/>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A15" s="49">
         <v>67</v>
       </c>
@@ -6082,14 +6282,38 @@
       <c r="AG15" s="50" t="s">
         <v>441</v>
       </c>
-      <c r="AH15" s="49"/>
-      <c r="AI15" s="49"/>
-      <c r="AJ15" s="49"/>
+      <c r="AH15" s="49">
+        <v>9.41</v>
+      </c>
+      <c r="AI15" s="49">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="AJ15" s="49">
+        <v>143.30000000000001</v>
+      </c>
       <c r="AK15" s="50" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AL15" s="49">
+        <v>10.39</v>
+      </c>
+      <c r="AM15" s="49">
+        <v>0.152</v>
+      </c>
+      <c r="AN15" s="49">
+        <v>60</v>
+      </c>
+      <c r="AO15" s="50" t="s">
+        <v>441</v>
+      </c>
+      <c r="AP15" s="49"/>
+      <c r="AQ15" s="49"/>
+      <c r="AR15" s="49"/>
+      <c r="AS15" s="50" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A16" s="49">
         <v>57</v>
       </c>
@@ -6189,12 +6413,36 @@
       <c r="AG16" s="49">
         <v>22.1</v>
       </c>
-      <c r="AH16" s="49"/>
-      <c r="AI16" s="49"/>
-      <c r="AJ16" s="49"/>
-      <c r="AK16" s="49"/>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AH16" s="49">
+        <v>9.51</v>
+      </c>
+      <c r="AI16" s="49">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="AJ16" s="49">
+        <v>166.1</v>
+      </c>
+      <c r="AK16" s="49">
+        <v>27.2</v>
+      </c>
+      <c r="AL16" s="49">
+        <v>10.34</v>
+      </c>
+      <c r="AM16" s="49">
+        <v>0.18</v>
+      </c>
+      <c r="AN16" s="49">
+        <v>59.3</v>
+      </c>
+      <c r="AO16" s="49">
+        <v>13.4</v>
+      </c>
+      <c r="AP16" s="49"/>
+      <c r="AQ16" s="49"/>
+      <c r="AR16" s="49"/>
+      <c r="AS16" s="49"/>
+    </row>
+    <row r="17" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A17" s="49">
         <v>47</v>
       </c>
@@ -6294,12 +6542,36 @@
       <c r="AG17" s="49">
         <v>74.599999999999994</v>
       </c>
-      <c r="AH17" s="49"/>
-      <c r="AI17" s="49"/>
-      <c r="AJ17" s="49"/>
-      <c r="AK17" s="49"/>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AH17" s="49">
+        <v>10.25</v>
+      </c>
+      <c r="AI17" s="49">
+        <v>0.214</v>
+      </c>
+      <c r="AJ17" s="49">
+        <v>668.8</v>
+      </c>
+      <c r="AK17" s="49">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="AL17" s="49">
+        <v>10.28</v>
+      </c>
+      <c r="AM17" s="49">
+        <v>0.219</v>
+      </c>
+      <c r="AN17" s="49">
+        <v>59.8</v>
+      </c>
+      <c r="AO17" s="49">
+        <v>65.2</v>
+      </c>
+      <c r="AP17" s="49"/>
+      <c r="AQ17" s="49"/>
+      <c r="AR17" s="49"/>
+      <c r="AS17" s="49"/>
+    </row>
+    <row r="18" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A18" s="49">
         <v>37</v>
       </c>
@@ -6383,12 +6655,32 @@
         <v>88.7</v>
       </c>
       <c r="AG18" s="49"/>
-      <c r="AH18" s="49"/>
-      <c r="AI18" s="49"/>
-      <c r="AJ18" s="49"/>
+      <c r="AH18" s="49">
+        <v>10.28</v>
+      </c>
+      <c r="AI18" s="49">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="AJ18" s="49">
+        <v>749</v>
+      </c>
       <c r="AK18" s="49"/>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AL18" s="49">
+        <v>10.19</v>
+      </c>
+      <c r="AM18" s="49">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="AN18" s="49">
+        <v>56.8</v>
+      </c>
+      <c r="AO18" s="49"/>
+      <c r="AP18" s="49"/>
+      <c r="AQ18" s="49"/>
+      <c r="AR18" s="49"/>
+      <c r="AS18" s="49"/>
+    </row>
+    <row r="19" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A19" s="49">
         <v>27</v>
       </c>
@@ -6472,12 +6764,32 @@
         <v>84.7</v>
       </c>
       <c r="AG19" s="49"/>
-      <c r="AH19" s="49"/>
-      <c r="AI19" s="49"/>
-      <c r="AJ19" s="49"/>
+      <c r="AH19" s="49">
+        <v>10.25</v>
+      </c>
+      <c r="AI19" s="49">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="AJ19" s="49">
+        <v>748.8</v>
+      </c>
       <c r="AK19" s="49"/>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AL19" s="49">
+        <v>9.93</v>
+      </c>
+      <c r="AM19" s="49">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="AN19" s="49">
+        <v>56.3</v>
+      </c>
+      <c r="AO19" s="49"/>
+      <c r="AP19" s="49"/>
+      <c r="AQ19" s="49"/>
+      <c r="AR19" s="49"/>
+      <c r="AS19" s="49"/>
+    </row>
+    <row r="20" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A20" s="49">
         <v>17</v>
       </c>
@@ -6577,14 +6889,38 @@
       <c r="AG20" s="50" t="s">
         <v>442</v>
       </c>
-      <c r="AH20" s="49"/>
-      <c r="AI20" s="49"/>
-      <c r="AJ20" s="49"/>
+      <c r="AH20" s="49">
+        <v>10.18</v>
+      </c>
+      <c r="AI20" s="49">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="AJ20" s="49">
+        <v>755.5</v>
+      </c>
       <c r="AK20" s="50" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AL20" s="49">
+        <v>9.08</v>
+      </c>
+      <c r="AM20" s="49">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="AN20" s="49">
+        <v>53.5</v>
+      </c>
+      <c r="AO20" s="50" t="s">
+        <v>442</v>
+      </c>
+      <c r="AP20" s="49"/>
+      <c r="AQ20" s="49"/>
+      <c r="AR20" s="49"/>
+      <c r="AS20" s="50" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="21" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A21" s="49">
         <v>7</v>
       </c>
@@ -6684,12 +7020,36 @@
       <c r="AG21" s="49">
         <v>22.1</v>
       </c>
-      <c r="AH21" s="49"/>
-      <c r="AI21" s="49"/>
-      <c r="AJ21" s="49"/>
-      <c r="AK21" s="49"/>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AH21" s="49">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="AI21" s="49">
+        <v>1.423</v>
+      </c>
+      <c r="AJ21" s="49">
+        <v>697.4</v>
+      </c>
+      <c r="AK21" s="49">
+        <v>27.2</v>
+      </c>
+      <c r="AL21" s="49">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="AM21" s="49">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="AN21" s="49">
+        <v>52.1</v>
+      </c>
+      <c r="AO21" s="49">
+        <v>12.9</v>
+      </c>
+      <c r="AP21" s="49"/>
+      <c r="AQ21" s="49"/>
+      <c r="AR21" s="49"/>
+      <c r="AS21" s="49"/>
+    </row>
+    <row r="22" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A22" s="49">
         <v>6</v>
       </c>
@@ -6789,12 +7149,36 @@
       <c r="AG22" s="49">
         <v>74.7</v>
       </c>
-      <c r="AH22" s="49"/>
-      <c r="AI22" s="49"/>
-      <c r="AJ22" s="49"/>
-      <c r="AK22" s="49"/>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AH22" s="49">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="AI22" s="49">
+        <v>1.597</v>
+      </c>
+      <c r="AJ22" s="49">
+        <v>475.2</v>
+      </c>
+      <c r="AK22" s="49">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="AL22" s="49">
+        <v>3.484</v>
+      </c>
+      <c r="AM22" s="49">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="AN22" s="49">
+        <v>54.6</v>
+      </c>
+      <c r="AO22" s="49">
+        <v>66.5</v>
+      </c>
+      <c r="AP22" s="49"/>
+      <c r="AQ22" s="49"/>
+      <c r="AR22" s="49"/>
+      <c r="AS22" s="49"/>
+    </row>
+    <row r="23" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A23" s="49">
         <v>5</v>
       </c>
@@ -6878,12 +7262,32 @@
         <v>82.8</v>
       </c>
       <c r="AG23" s="49"/>
-      <c r="AH23" s="49"/>
-      <c r="AI23" s="49"/>
-      <c r="AJ23" s="49"/>
+      <c r="AH23" s="49">
+        <v>9.85</v>
+      </c>
+      <c r="AI23" s="49">
+        <v>2</v>
+      </c>
+      <c r="AJ23" s="49">
+        <v>734.3</v>
+      </c>
       <c r="AK23" s="49"/>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AL23" s="49">
+        <v>2.843</v>
+      </c>
+      <c r="AM23" s="49">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="AN23" s="49">
+        <v>54.1</v>
+      </c>
+      <c r="AO23" s="49"/>
+      <c r="AP23" s="49"/>
+      <c r="AQ23" s="49"/>
+      <c r="AR23" s="49"/>
+      <c r="AS23" s="49"/>
+    </row>
+    <row r="24" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A24" s="49">
         <v>4</v>
       </c>
@@ -6967,12 +7371,32 @@
         <v>81.599999999999994</v>
       </c>
       <c r="AG24" s="49"/>
-      <c r="AH24" s="49"/>
-      <c r="AI24" s="49"/>
-      <c r="AJ24" s="49"/>
+      <c r="AH24" s="49">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="AI24" s="49">
+        <v>2.5459999999999998</v>
+      </c>
+      <c r="AJ24" s="49">
+        <v>737.6</v>
+      </c>
       <c r="AK24" s="49"/>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AL24" s="49">
+        <v>2.355</v>
+      </c>
+      <c r="AM24" s="49">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="AN24" s="49">
+        <v>58.3</v>
+      </c>
+      <c r="AO24" s="49"/>
+      <c r="AP24" s="49"/>
+      <c r="AQ24" s="49"/>
+      <c r="AR24" s="49"/>
+      <c r="AS24" s="49"/>
+    </row>
+    <row r="25" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A25" s="49">
         <v>3</v>
       </c>
@@ -7072,14 +7496,38 @@
       <c r="AG25" s="50" t="s">
         <v>443</v>
       </c>
-      <c r="AH25" s="49"/>
-      <c r="AI25" s="49"/>
-      <c r="AJ25" s="49"/>
+      <c r="AH25" s="49">
+        <v>9.5</v>
+      </c>
+      <c r="AI25" s="49">
+        <v>3.2589999999999999</v>
+      </c>
+      <c r="AJ25" s="49">
+        <v>744.9</v>
+      </c>
       <c r="AK25" s="50" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AL25" s="49">
+        <v>1.798</v>
+      </c>
+      <c r="AM25" s="49">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="AN25" s="49">
+        <v>58.2</v>
+      </c>
+      <c r="AO25" s="50" t="s">
+        <v>443</v>
+      </c>
+      <c r="AP25" s="49"/>
+      <c r="AQ25" s="49"/>
+      <c r="AR25" s="49"/>
+      <c r="AS25" s="50" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="26" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A26" s="49">
         <v>2</v>
       </c>
@@ -7179,12 +7627,36 @@
       <c r="AG26" s="49">
         <v>22.2</v>
       </c>
-      <c r="AH26" s="51"/>
-      <c r="AI26" s="51"/>
-      <c r="AJ26" s="49"/>
-      <c r="AK26" s="49"/>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AH26" s="51">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="AI26" s="49">
+        <v>5.05</v>
+      </c>
+      <c r="AJ26" s="49">
+        <v>747.1</v>
+      </c>
+      <c r="AK26" s="49">
+        <v>27.4</v>
+      </c>
+      <c r="AL26" s="51">
+        <v>1.081</v>
+      </c>
+      <c r="AM26" s="51">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="AN26" s="49">
+        <v>57.2</v>
+      </c>
+      <c r="AO26" s="49">
+        <v>12.7</v>
+      </c>
+      <c r="AP26" s="51"/>
+      <c r="AQ26" s="51"/>
+      <c r="AR26" s="49"/>
+      <c r="AS26" s="49"/>
+    </row>
+    <row r="27" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A27" s="49">
         <v>1</v>
       </c>
@@ -7284,12 +7756,36 @@
       <c r="AG27" s="49">
         <v>74.3</v>
       </c>
-      <c r="AH27" s="49"/>
-      <c r="AI27" s="49"/>
-      <c r="AJ27" s="49"/>
-      <c r="AK27" s="49"/>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AH27" s="49">
+        <v>5.08</v>
+      </c>
+      <c r="AI27" s="51">
+        <v>5.56</v>
+      </c>
+      <c r="AJ27" s="49">
+        <v>754</v>
+      </c>
+      <c r="AK27" s="49">
+        <v>64.3</v>
+      </c>
+      <c r="AL27" s="49">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="AM27" s="49">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="AN27" s="49">
+        <v>58</v>
+      </c>
+      <c r="AO27" s="49">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="AP27" s="49"/>
+      <c r="AQ27" s="49"/>
+      <c r="AR27" s="49"/>
+      <c r="AS27" s="49"/>
+    </row>
+    <row r="28" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A28" s="49">
         <v>0</v>
       </c>
@@ -7373,33 +7869,74 @@
         <v>92.2</v>
       </c>
       <c r="AG28" s="49"/>
-      <c r="AH28" s="49"/>
-      <c r="AI28" s="49"/>
-      <c r="AJ28" s="49"/>
+      <c r="AH28" s="49">
+        <v>1.7210000000000001</v>
+      </c>
+      <c r="AI28" s="49">
+        <v>5.34</v>
+      </c>
+      <c r="AJ28" s="49">
+        <v>714.7</v>
+      </c>
       <c r="AK28" s="49"/>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="R29" s="71" t="s">
+      <c r="AL28" s="49">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="AM28" s="49">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="AN28" s="49">
+        <v>59.4</v>
+      </c>
+      <c r="AO28" s="49"/>
+      <c r="AP28" s="49"/>
+      <c r="AQ28" s="49"/>
+      <c r="AR28" s="49"/>
+      <c r="AS28" s="49"/>
+    </row>
+    <row r="29" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="R29" s="72" t="s">
         <v>471</v>
       </c>
-      <c r="S29" s="71"/>
-      <c r="T29" s="71"/>
-      <c r="U29" s="71"/>
+      <c r="S29" s="72"/>
+      <c r="T29" s="72"/>
+      <c r="U29" s="72"/>
       <c r="AD29">
         <v>22.5</v>
       </c>
-      <c r="AE29" s="128">
+      <c r="AE29" s="60">
         <v>22.6</v>
       </c>
-      <c r="AF29" s="128">
+      <c r="AF29" s="60">
         <v>22.5</v>
       </c>
-      <c r="AG29" s="128">
+      <c r="AG29" s="60">
         <v>22.6</v>
       </c>
+      <c r="AH29" s="60">
+        <v>27.6</v>
+      </c>
+      <c r="AI29" s="60">
+        <v>27.5</v>
+      </c>
+      <c r="AJ29" s="60">
+        <v>27.5</v>
+      </c>
+      <c r="AK29" s="60">
+        <v>27.5</v>
+      </c>
+      <c r="AM29" s="60">
+        <v>12.1</v>
+      </c>
+      <c r="AN29" s="60">
+        <v>12.2</v>
+      </c>
+      <c r="AO29" s="60">
+        <v>12.2</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="48">
     <mergeCell ref="AH5:AK5"/>
     <mergeCell ref="AH6:AK6"/>
     <mergeCell ref="AH7:AK7"/>
@@ -7440,6 +7977,14 @@
     <mergeCell ref="R6:U6"/>
     <mergeCell ref="R7:U7"/>
     <mergeCell ref="R8:U8"/>
+    <mergeCell ref="AL5:AO5"/>
+    <mergeCell ref="AL6:AO6"/>
+    <mergeCell ref="AL7:AO7"/>
+    <mergeCell ref="AL8:AO8"/>
+    <mergeCell ref="AP5:AS5"/>
+    <mergeCell ref="AP6:AS6"/>
+    <mergeCell ref="AP7:AS7"/>
+    <mergeCell ref="AP8:AS8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7475,93 +8020,93 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="72">
+      <c r="B3" s="73">
         <v>42299</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="72"/>
-      <c r="W3" s="72"/>
-      <c r="X3" s="72"/>
-      <c r="Y3" s="72"/>
-      <c r="Z3" s="72">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="73">
         <v>42300</v>
       </c>
-      <c r="AA3" s="74"/>
-      <c r="AB3" s="74"/>
-      <c r="AC3" s="74"/>
-      <c r="AD3" s="74"/>
-      <c r="AE3" s="74"/>
-      <c r="AF3" s="74"/>
-      <c r="AG3" s="74"/>
+      <c r="AA3" s="75"/>
+      <c r="AB3" s="75"/>
+      <c r="AC3" s="75"/>
+      <c r="AD3" s="75"/>
+      <c r="AE3" s="75"/>
+      <c r="AF3" s="75"/>
+      <c r="AG3" s="75"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A4" s="39" t="s">
         <v>454</v>
       </c>
-      <c r="B4" s="73">
+      <c r="B4" s="74">
         <v>0.37013888888888885</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="73">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="74">
         <v>0.4375</v>
       </c>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73">
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74">
         <v>0.52361111111111114</v>
       </c>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73">
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74">
         <v>0.60625000000000007</v>
       </c>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="73">
+      <c r="S4" s="74"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="74"/>
+      <c r="V4" s="74">
         <v>0.67569444444444438</v>
       </c>
-      <c r="W4" s="73"/>
-      <c r="X4" s="73"/>
-      <c r="Y4" s="73"/>
-      <c r="Z4" s="73">
+      <c r="W4" s="74"/>
+      <c r="X4" s="74"/>
+      <c r="Y4" s="74"/>
+      <c r="Z4" s="74">
         <v>0.41180555555555554</v>
       </c>
-      <c r="AA4" s="74"/>
-      <c r="AB4" s="74"/>
-      <c r="AC4" s="74"/>
-      <c r="AD4" s="73">
+      <c r="AA4" s="75"/>
+      <c r="AB4" s="75"/>
+      <c r="AC4" s="75"/>
+      <c r="AD4" s="74">
         <v>0.62986111111111109</v>
       </c>
-      <c r="AE4" s="73"/>
-      <c r="AF4" s="73"/>
-      <c r="AG4" s="73"/>
+      <c r="AE4" s="74"/>
+      <c r="AF4" s="74"/>
+      <c r="AG4" s="74"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A5" s="39" t="s">
@@ -7591,12 +8136,12 @@
       <c r="W5" s="52"/>
       <c r="X5" s="52"/>
       <c r="Y5" s="52"/>
-      <c r="Z5" s="75" t="s">
+      <c r="Z5" s="76" t="s">
         <v>464</v>
       </c>
-      <c r="AA5" s="76"/>
-      <c r="AB5" s="76"/>
-      <c r="AC5" s="76"/>
+      <c r="AA5" s="77"/>
+      <c r="AB5" s="77"/>
+      <c r="AC5" s="77"/>
       <c r="AD5" s="52"/>
       <c r="AE5" s="52"/>
       <c r="AF5" s="52"/>
@@ -7610,46 +8155,46 @@
       <c r="C6" s="52"/>
       <c r="D6" s="52"/>
       <c r="E6" s="52"/>
-      <c r="F6" s="73">
+      <c r="F6" s="74">
         <v>0.38055555555555554</v>
       </c>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="73">
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="74">
         <v>0.44305555555555554</v>
       </c>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="73">
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74">
         <v>0.52847222222222223</v>
       </c>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="73">
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="74">
         <v>0.61249999999999993</v>
       </c>
-      <c r="S6" s="73"/>
-      <c r="T6" s="73"/>
-      <c r="U6" s="73"/>
-      <c r="V6" s="73">
+      <c r="S6" s="74"/>
+      <c r="T6" s="74"/>
+      <c r="U6" s="74"/>
+      <c r="V6" s="74">
         <v>0.68194444444444446</v>
       </c>
-      <c r="W6" s="73"/>
-      <c r="X6" s="73"/>
-      <c r="Y6" s="73"/>
-      <c r="Z6" s="76"/>
-      <c r="AA6" s="76"/>
-      <c r="AB6" s="76"/>
-      <c r="AC6" s="76"/>
-      <c r="AD6" s="73">
+      <c r="W6" s="74"/>
+      <c r="X6" s="74"/>
+      <c r="Y6" s="74"/>
+      <c r="Z6" s="77"/>
+      <c r="AA6" s="77"/>
+      <c r="AB6" s="77"/>
+      <c r="AC6" s="77"/>
+      <c r="AD6" s="74">
         <v>0.64236111111111105</v>
       </c>
-      <c r="AE6" s="73"/>
-      <c r="AF6" s="73"/>
-      <c r="AG6" s="73"/>
+      <c r="AE6" s="74"/>
+      <c r="AF6" s="74"/>
+      <c r="AG6" s="74"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
@@ -7873,7 +8418,7 @@
       <c r="C10">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="D10" s="77" t="s">
+      <c r="D10" s="78" t="s">
         <v>450</v>
       </c>
       <c r="F10">
@@ -7965,7 +8510,7 @@
       <c r="C11">
         <v>0.107</v>
       </c>
-      <c r="D11" s="78"/>
+      <c r="D11" s="79"/>
       <c r="F11">
         <v>10.47</v>
       </c>
@@ -8055,7 +8600,7 @@
       <c r="C12">
         <v>0.11799999999999999</v>
       </c>
-      <c r="D12" s="78"/>
+      <c r="D12" s="79"/>
       <c r="F12">
         <v>10.47</v>
       </c>
@@ -8127,7 +8672,7 @@
       <c r="C13">
         <v>0.13500000000000001</v>
       </c>
-      <c r="D13" s="78"/>
+      <c r="D13" s="79"/>
       <c r="F13">
         <v>10.46</v>
       </c>
@@ -8199,7 +8744,7 @@
       <c r="C14">
         <v>0.154</v>
       </c>
-      <c r="D14" s="78"/>
+      <c r="D14" s="79"/>
       <c r="E14" s="39" t="s">
         <v>441</v>
       </c>
@@ -8295,7 +8840,7 @@
       <c r="C15">
         <v>0.184</v>
       </c>
-      <c r="D15" s="78"/>
+      <c r="D15" s="79"/>
       <c r="F15">
         <v>10.43</v>
       </c>
@@ -8378,7 +8923,7 @@
       <c r="C16">
         <v>0.218</v>
       </c>
-      <c r="D16" s="78"/>
+      <c r="D16" s="79"/>
       <c r="F16">
         <v>10.42</v>
       </c>
@@ -8461,7 +9006,7 @@
       <c r="C17">
         <v>0.27500000000000002</v>
       </c>
-      <c r="D17" s="78"/>
+      <c r="D17" s="79"/>
       <c r="F17">
         <v>10.42</v>
       </c>
@@ -8536,7 +9081,7 @@
       <c r="C18">
         <v>0.42099999999999999</v>
       </c>
-      <c r="D18" s="78"/>
+      <c r="D18" s="79"/>
       <c r="F18">
         <v>10.4</v>
       </c>
@@ -8611,7 +9156,7 @@
       <c r="C19">
         <v>0.61699999999999999</v>
       </c>
-      <c r="D19" s="78"/>
+      <c r="D19" s="79"/>
       <c r="E19" s="39" t="s">
         <v>442</v>
       </c>
@@ -8710,7 +9255,7 @@
       <c r="C20">
         <v>1.425</v>
       </c>
-      <c r="D20" s="78"/>
+      <c r="D20" s="79"/>
       <c r="F20">
         <v>10.3</v>
       </c>
@@ -8800,7 +9345,7 @@
       <c r="C21">
         <v>1.649</v>
       </c>
-      <c r="D21" s="78"/>
+      <c r="D21" s="79"/>
       <c r="F21">
         <v>10.02</v>
       </c>
@@ -8890,7 +9435,7 @@
       <c r="C22">
         <v>2</v>
       </c>
-      <c r="D22" s="78"/>
+      <c r="D22" s="79"/>
       <c r="F22">
         <v>9.94</v>
       </c>
@@ -8965,7 +9510,7 @@
       <c r="C23">
         <v>2.4950000000000001</v>
       </c>
-      <c r="D23" s="78"/>
+      <c r="D23" s="79"/>
       <c r="F23">
         <v>9.82</v>
       </c>
@@ -9040,7 +9585,7 @@
       <c r="C24">
         <v>3.0350000000000001</v>
       </c>
-      <c r="D24" s="78"/>
+      <c r="D24" s="79"/>
       <c r="E24" s="39" t="s">
         <v>443</v>
       </c>
@@ -9139,7 +9684,7 @@
       <c r="C25">
         <v>3.2789999999999999</v>
       </c>
-      <c r="D25" s="78"/>
+      <c r="D25" s="79"/>
       <c r="F25">
         <v>8.9700000000000006</v>
       </c>
@@ -9232,7 +9777,7 @@
       <c r="C26">
         <v>3.3</v>
       </c>
-      <c r="D26" s="78"/>
+      <c r="D26" s="79"/>
       <c r="F26">
         <v>5.95</v>
       </c>
@@ -9325,7 +9870,7 @@
       <c r="C27">
         <v>3.3</v>
       </c>
-      <c r="D27" s="78"/>
+      <c r="D27" s="79"/>
       <c r="F27">
         <v>3.105</v>
       </c>
@@ -9434,23 +9979,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79" t="s">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="79"/>
+      <c r="E1" s="80"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
@@ -9467,7 +10012,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="81" t="s">
         <v>60</v>
       </c>
       <c r="C5" s="14" t="s">
@@ -9476,69 +10021,69 @@
       <c r="D5" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="82" t="s">
+      <c r="E5" s="83" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B6" s="80"/>
+      <c r="B6" s="81"/>
       <c r="C6" s="14" t="s">
         <v>62</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="89"/>
+      <c r="E6" s="90"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B7" s="80"/>
+      <c r="B7" s="81"/>
       <c r="C7" s="14" t="s">
         <v>63</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="89"/>
+      <c r="E7" s="90"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B8" s="80"/>
+      <c r="B8" s="81"/>
       <c r="C8" s="14" t="s">
         <v>64</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="89"/>
+      <c r="E8" s="90"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B9" s="80"/>
+      <c r="B9" s="81"/>
       <c r="C9" s="14" t="s">
         <v>65</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="89"/>
+      <c r="E9" s="90"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B10" s="80"/>
+      <c r="B10" s="81"/>
       <c r="C10" s="14" t="s">
         <v>66</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="89"/>
+      <c r="E10" s="90"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B11" s="80"/>
+      <c r="B11" s="81"/>
       <c r="C11" s="14" t="s">
         <v>67</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="89"/>
+      <c r="E11" s="90"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" s="15"/>
@@ -9551,7 +10096,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B13" s="86" t="s">
+      <c r="B13" s="87" t="s">
         <v>101</v>
       </c>
       <c r="C13" s="14" t="s">
@@ -9560,99 +10105,99 @@
       <c r="D13" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E13" s="83" t="s">
+      <c r="E13" s="84" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B14" s="87"/>
+      <c r="B14" s="88"/>
       <c r="C14" s="14" t="s">
         <v>105</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="E14" s="84"/>
+      <c r="E14" s="85"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B15" s="87"/>
+      <c r="B15" s="88"/>
       <c r="C15" s="14" t="s">
         <v>106</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="E15" s="84"/>
+      <c r="E15" s="85"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B16" s="87"/>
+      <c r="B16" s="88"/>
       <c r="C16" s="14" t="s">
         <v>107</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E16" s="84"/>
+      <c r="E16" s="85"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B17" s="87"/>
+      <c r="B17" s="88"/>
       <c r="C17" s="14" t="s">
         <v>108</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E17" s="84"/>
+      <c r="E17" s="85"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B18" s="87"/>
+      <c r="B18" s="88"/>
       <c r="C18" s="14" t="s">
         <v>109</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E18" s="84"/>
+      <c r="E18" s="85"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B19" s="87"/>
+      <c r="B19" s="88"/>
       <c r="C19" s="14" t="s">
         <v>110</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E19" s="84"/>
+      <c r="E19" s="85"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B20" s="87"/>
+      <c r="B20" s="88"/>
       <c r="C20" s="14" t="s">
         <v>111</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E20" s="84"/>
+      <c r="E20" s="85"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B21" s="87"/>
+      <c r="B21" s="88"/>
       <c r="C21" s="14" t="s">
         <v>112</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E21" s="84"/>
+      <c r="E21" s="85"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B22" s="88"/>
+      <c r="B22" s="89"/>
       <c r="C22" s="14" t="s">
         <v>113</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E22" s="85"/>
+      <c r="E22" s="86"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B23" s="26"/>
@@ -9665,7 +10210,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="81" t="s">
+      <c r="B24" s="82" t="s">
         <v>424</v>
       </c>
       <c r="C24" s="24" t="s">
@@ -9674,59 +10219,59 @@
       <c r="D24" s="24" t="s">
         <v>428</v>
       </c>
-      <c r="E24" s="82" t="s">
+      <c r="E24" s="83" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B25" s="81"/>
+      <c r="B25" s="82"/>
       <c r="C25" s="24" t="s">
         <v>427</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>426</v>
       </c>
-      <c r="E25" s="82"/>
+      <c r="E25" s="83"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B26" s="81"/>
+      <c r="B26" s="82"/>
       <c r="C26" s="24" t="s">
         <v>429</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="E26" s="82"/>
+      <c r="E26" s="83"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B27" s="81"/>
+      <c r="B27" s="82"/>
       <c r="C27" s="24" t="s">
         <v>430</v>
       </c>
       <c r="D27" s="24" t="s">
         <v>431</v>
       </c>
-      <c r="E27" s="82"/>
+      <c r="E27" s="83"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B28" s="81"/>
+      <c r="B28" s="82"/>
       <c r="C28" s="24" t="s">
         <v>432</v>
       </c>
       <c r="D28" s="24" t="s">
         <v>433</v>
       </c>
-      <c r="E28" s="82"/>
+      <c r="E28" s="83"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B29" s="81"/>
+      <c r="B29" s="82"/>
       <c r="C29" s="24" t="s">
         <v>434</v>
       </c>
       <c r="D29" s="24" t="s">
         <v>435</v>
       </c>
-      <c r="E29" s="82"/>
+      <c r="E29" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -9760,138 +10305,138 @@
       <c r="A1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="100" t="s">
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="101" t="s">
         <v>458</v>
       </c>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="104" t="s">
         <v>461</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="90" t="s">
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="90"/>
-      <c r="J2" s="103" t="s">
+      <c r="I2" s="91"/>
+      <c r="J2" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="90" t="s">
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="90"/>
+      <c r="O2" s="91"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="106"/>
-      <c r="D3" s="97" t="s">
+      <c r="C3" s="107"/>
+      <c r="D3" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="106"/>
-      <c r="F3" s="97" t="s">
+      <c r="E3" s="107"/>
+      <c r="F3" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="106"/>
-      <c r="H3" s="97" t="s">
+      <c r="G3" s="107"/>
+      <c r="H3" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="106"/>
-      <c r="J3" s="103" t="s">
+      <c r="I3" s="107"/>
+      <c r="J3" s="104" t="s">
         <v>98</v>
       </c>
-      <c r="K3" s="105"/>
-      <c r="L3" s="103" t="s">
+      <c r="K3" s="106"/>
+      <c r="L3" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="105"/>
-      <c r="N3" s="97" t="s">
+      <c r="M3" s="106"/>
+      <c r="N3" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="98"/>
+      <c r="O3" s="99"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="93" t="s">
+      <c r="C4" s="95"/>
+      <c r="D4" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="94"/>
-      <c r="F4" s="93" t="s">
+      <c r="E4" s="95"/>
+      <c r="F4" s="94" t="s">
         <v>130</v>
       </c>
-      <c r="G4" s="94"/>
-      <c r="H4" s="93" t="s">
+      <c r="G4" s="95"/>
+      <c r="H4" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="I4" s="94"/>
-      <c r="J4" s="95" t="s">
+      <c r="I4" s="95"/>
+      <c r="J4" s="96" t="s">
         <v>457</v>
       </c>
-      <c r="K4" s="96"/>
-      <c r="L4" s="95" t="s">
+      <c r="K4" s="97"/>
+      <c r="L4" s="96" t="s">
         <v>457</v>
       </c>
-      <c r="M4" s="96"/>
-      <c r="N4" s="93" t="s">
+      <c r="M4" s="97"/>
+      <c r="N4" s="94" t="s">
         <v>457</v>
       </c>
-      <c r="O4" s="99"/>
+      <c r="O4" s="100"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="94" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="94"/>
-      <c r="D5" s="93" t="s">
+      <c r="C5" s="95"/>
+      <c r="D5" s="94" t="s">
         <v>127</v>
       </c>
-      <c r="E5" s="94"/>
-      <c r="F5" s="93" t="s">
+      <c r="E5" s="95"/>
+      <c r="F5" s="94" t="s">
         <v>128</v>
       </c>
-      <c r="G5" s="94"/>
-      <c r="H5" s="93" t="s">
+      <c r="G5" s="95"/>
+      <c r="H5" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="I5" s="94"/>
+      <c r="I5" s="95"/>
       <c r="J5" s="54"/>
       <c r="K5" s="54"/>
       <c r="L5" s="54"/>
@@ -9906,57 +10451,57 @@
       <c r="D6" s="54"/>
       <c r="F6" s="54"/>
       <c r="H6" s="54"/>
-      <c r="J6" s="95" t="s">
+      <c r="J6" s="96" t="s">
         <v>460</v>
       </c>
-      <c r="K6" s="96"/>
-      <c r="L6" s="95" t="s">
+      <c r="K6" s="97"/>
+      <c r="L6" s="96" t="s">
         <v>460</v>
       </c>
-      <c r="M6" s="96"/>
-      <c r="N6" s="100" t="s">
+      <c r="M6" s="97"/>
+      <c r="N6" s="101" t="s">
         <v>460</v>
       </c>
-      <c r="O6" s="101"/>
+      <c r="O6" s="102"/>
     </row>
     <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="93" t="s">
         <v>80</v>
       </c>
       <c r="C7" s="40">
         <v>78.2</v>
       </c>
-      <c r="D7" s="92" t="s">
+      <c r="D7" s="93" t="s">
         <v>80</v>
       </c>
       <c r="E7" s="41">
         <v>53.3</v>
       </c>
-      <c r="F7" s="82" t="s">
+      <c r="F7" s="83" t="s">
         <v>445</v>
       </c>
       <c r="G7" s="41">
         <v>1.4</v>
       </c>
-      <c r="H7" s="89" t="s">
+      <c r="H7" s="90" t="s">
         <v>99</v>
       </c>
       <c r="I7" s="41">
         <v>365.4</v>
       </c>
-      <c r="J7" s="89" t="s">
+      <c r="J7" s="90" t="s">
         <v>99</v>
       </c>
       <c r="K7" s="40">
         <v>76.8</v>
       </c>
-      <c r="L7" s="89" t="s">
+      <c r="L7" s="90" t="s">
         <v>99</v>
       </c>
       <c r="M7" s="41">
         <v>59.3</v>
       </c>
-      <c r="N7" s="89" t="s">
+      <c r="N7" s="90" t="s">
         <v>99</v>
       </c>
       <c r="O7" s="41">
@@ -9964,1207 +10509,1207 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B8" s="92"/>
+      <c r="B8" s="93"/>
       <c r="C8" s="40">
         <v>78.400000000000006</v>
       </c>
-      <c r="D8" s="92"/>
+      <c r="D8" s="93"/>
       <c r="E8" s="41">
         <v>53.4</v>
       </c>
-      <c r="F8" s="82"/>
+      <c r="F8" s="83"/>
       <c r="G8" s="41">
         <v>0</v>
       </c>
-      <c r="H8" s="89"/>
+      <c r="H8" s="90"/>
       <c r="I8" s="41">
         <v>366.9</v>
       </c>
-      <c r="J8" s="89"/>
+      <c r="J8" s="90"/>
       <c r="K8" s="40">
         <v>76.8</v>
       </c>
-      <c r="L8" s="89"/>
+      <c r="L8" s="90"/>
       <c r="M8" s="41">
         <v>59.4</v>
       </c>
-      <c r="N8" s="89"/>
+      <c r="N8" s="90"/>
       <c r="O8" s="41">
         <v>425.4</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B9" s="92"/>
+      <c r="B9" s="93"/>
       <c r="C9" s="40">
         <v>78.400000000000006</v>
       </c>
-      <c r="D9" s="92"/>
+      <c r="D9" s="93"/>
       <c r="E9" s="41">
         <v>53.9</v>
       </c>
-      <c r="F9" s="82"/>
+      <c r="F9" s="83"/>
       <c r="G9" s="41">
         <v>0.9</v>
       </c>
-      <c r="H9" s="89"/>
+      <c r="H9" s="90"/>
       <c r="I9" s="41">
         <v>365.9</v>
       </c>
-      <c r="J9" s="89"/>
+      <c r="J9" s="90"/>
       <c r="K9" s="40">
         <v>77</v>
       </c>
-      <c r="L9" s="89"/>
+      <c r="L9" s="90"/>
       <c r="M9" s="41">
         <v>59.3</v>
       </c>
-      <c r="N9" s="89"/>
+      <c r="N9" s="90"/>
       <c r="O9" s="41">
         <v>430.2</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B10" s="92"/>
+      <c r="B10" s="93"/>
       <c r="C10" s="40">
         <v>78.400000000000006</v>
       </c>
-      <c r="D10" s="92"/>
+      <c r="D10" s="93"/>
       <c r="E10" s="41">
         <v>54</v>
       </c>
-      <c r="F10" s="82"/>
+      <c r="F10" s="83"/>
       <c r="G10" s="41">
         <v>2</v>
       </c>
-      <c r="H10" s="89"/>
+      <c r="H10" s="90"/>
       <c r="I10" s="41">
         <v>364.2</v>
       </c>
-      <c r="J10" s="89"/>
+      <c r="J10" s="90"/>
       <c r="K10" s="40">
         <v>77</v>
       </c>
-      <c r="L10" s="89"/>
+      <c r="L10" s="90"/>
       <c r="M10" s="41">
         <v>59.2</v>
       </c>
-      <c r="N10" s="89"/>
+      <c r="N10" s="90"/>
       <c r="O10" s="41">
         <v>432.5</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B11" s="92"/>
+      <c r="B11" s="93"/>
       <c r="C11" s="40">
         <v>78.400000000000006</v>
       </c>
-      <c r="D11" s="92"/>
+      <c r="D11" s="93"/>
       <c r="E11" s="41">
         <v>53.9</v>
       </c>
-      <c r="F11" s="82"/>
+      <c r="F11" s="83"/>
       <c r="G11" s="41">
         <v>1.7</v>
       </c>
-      <c r="H11" s="89"/>
+      <c r="H11" s="90"/>
       <c r="I11" s="41">
         <v>364.5</v>
       </c>
-      <c r="J11" s="89"/>
+      <c r="J11" s="90"/>
       <c r="K11" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L11" s="89"/>
+      <c r="L11" s="90"/>
       <c r="M11" s="41">
         <v>58.9</v>
       </c>
-      <c r="N11" s="89"/>
+      <c r="N11" s="90"/>
       <c r="O11" s="41">
         <v>426.9</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B12" s="92"/>
+      <c r="B12" s="93"/>
       <c r="C12" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D12" s="92"/>
+      <c r="D12" s="93"/>
       <c r="E12" s="41">
         <v>55.2</v>
       </c>
-      <c r="F12" s="82"/>
+      <c r="F12" s="83"/>
       <c r="G12" s="41">
         <v>0.5</v>
       </c>
-      <c r="H12" s="89"/>
+      <c r="H12" s="90"/>
       <c r="I12" s="41">
         <v>361.8</v>
       </c>
-      <c r="J12" s="89"/>
+      <c r="J12" s="90"/>
       <c r="K12" s="40">
         <v>77</v>
       </c>
-      <c r="L12" s="89"/>
+      <c r="L12" s="90"/>
       <c r="M12" s="41">
         <v>59.5</v>
       </c>
-      <c r="N12" s="89"/>
+      <c r="N12" s="90"/>
       <c r="O12" s="41">
         <v>440.9</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B13" s="92"/>
+      <c r="B13" s="93"/>
       <c r="C13" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D13" s="92"/>
+      <c r="D13" s="93"/>
       <c r="E13" s="41">
         <v>53.7</v>
       </c>
-      <c r="F13" s="82"/>
+      <c r="F13" s="83"/>
       <c r="G13" s="41">
         <v>0</v>
       </c>
-      <c r="H13" s="89"/>
+      <c r="H13" s="90"/>
       <c r="I13" s="41">
         <v>361.2</v>
       </c>
-      <c r="J13" s="89"/>
+      <c r="J13" s="90"/>
       <c r="K13" s="40">
         <v>77</v>
       </c>
-      <c r="L13" s="89"/>
+      <c r="L13" s="90"/>
       <c r="M13" s="41">
         <v>59.5</v>
       </c>
-      <c r="N13" s="89"/>
+      <c r="N13" s="90"/>
       <c r="O13" s="41">
         <v>441.7</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B14" s="92"/>
+      <c r="B14" s="93"/>
       <c r="C14" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D14" s="92"/>
+      <c r="D14" s="93"/>
       <c r="E14" s="41">
         <v>53.4</v>
       </c>
-      <c r="F14" s="82"/>
+      <c r="F14" s="83"/>
       <c r="G14" s="41">
         <v>1.5</v>
       </c>
-      <c r="H14" s="89"/>
+      <c r="H14" s="90"/>
       <c r="I14" s="41">
         <v>361.9</v>
       </c>
-      <c r="J14" s="89"/>
+      <c r="J14" s="90"/>
       <c r="K14" s="40">
         <v>76.8</v>
       </c>
-      <c r="L14" s="89"/>
+      <c r="L14" s="90"/>
       <c r="M14" s="41">
         <v>59.3</v>
       </c>
-      <c r="N14" s="89"/>
+      <c r="N14" s="90"/>
       <c r="O14" s="41">
         <v>452</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B15" s="92"/>
+      <c r="B15" s="93"/>
       <c r="C15" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D15" s="92"/>
+      <c r="D15" s="93"/>
       <c r="E15" s="41">
         <v>53.1</v>
       </c>
-      <c r="F15" s="82"/>
+      <c r="F15" s="83"/>
       <c r="G15" s="41">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H15" s="89"/>
+      <c r="H15" s="90"/>
       <c r="I15" s="41">
         <v>361.9</v>
       </c>
-      <c r="J15" s="89"/>
+      <c r="J15" s="90"/>
       <c r="K15" s="40">
         <v>76.8</v>
       </c>
-      <c r="L15" s="89"/>
+      <c r="L15" s="90"/>
       <c r="M15" s="41">
         <v>59.3</v>
       </c>
-      <c r="N15" s="89"/>
+      <c r="N15" s="90"/>
       <c r="O15" s="41">
         <v>454.5</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B16" s="92"/>
+      <c r="B16" s="93"/>
       <c r="C16" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D16" s="92"/>
+      <c r="D16" s="93"/>
       <c r="E16" s="41">
         <v>52.6</v>
       </c>
-      <c r="F16" s="82"/>
+      <c r="F16" s="83"/>
       <c r="G16" s="41">
         <v>1.5</v>
       </c>
-      <c r="H16" s="89"/>
+      <c r="H16" s="90"/>
       <c r="I16" s="41">
         <v>361.9</v>
       </c>
-      <c r="J16" s="89"/>
+      <c r="J16" s="90"/>
       <c r="K16" s="40">
         <v>76.8</v>
       </c>
-      <c r="L16" s="89"/>
+      <c r="L16" s="90"/>
       <c r="M16" s="41">
         <v>59.2</v>
       </c>
-      <c r="N16" s="89"/>
+      <c r="N16" s="90"/>
       <c r="O16" s="41">
         <v>462.4</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B17" s="90" t="s">
+      <c r="B17" s="91" t="s">
         <v>444</v>
       </c>
       <c r="C17" s="40">
         <v>79.3</v>
       </c>
-      <c r="D17" s="80" t="s">
+      <c r="D17" s="81" t="s">
         <v>81</v>
       </c>
       <c r="E17" s="41">
         <v>42.9</v>
       </c>
-      <c r="F17" s="82"/>
+      <c r="F17" s="83"/>
       <c r="G17" s="41">
         <v>1.3</v>
       </c>
-      <c r="H17" s="89"/>
+      <c r="H17" s="90"/>
       <c r="I17" s="41">
         <v>356.7</v>
       </c>
-      <c r="J17" s="89"/>
+      <c r="J17" s="90"/>
       <c r="K17" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L17" s="89"/>
+      <c r="L17" s="90"/>
       <c r="M17" s="41">
         <v>59.1</v>
       </c>
-      <c r="N17" s="89"/>
+      <c r="N17" s="90"/>
       <c r="O17" s="41">
         <v>459.9</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B18" s="90"/>
+      <c r="B18" s="91"/>
       <c r="C18" s="40">
         <v>79.5</v>
       </c>
-      <c r="D18" s="80"/>
+      <c r="D18" s="81"/>
       <c r="E18" s="41">
         <v>42.9</v>
       </c>
-      <c r="F18" s="82"/>
+      <c r="F18" s="83"/>
       <c r="G18" s="41">
         <v>2</v>
       </c>
-      <c r="H18" s="89"/>
+      <c r="H18" s="90"/>
       <c r="I18" s="41">
         <v>354.9</v>
       </c>
-      <c r="J18" s="89"/>
+      <c r="J18" s="90"/>
       <c r="K18" s="40">
         <v>77</v>
       </c>
-      <c r="L18" s="89"/>
+      <c r="L18" s="90"/>
       <c r="M18" s="41">
         <v>59</v>
       </c>
-      <c r="N18" s="89"/>
+      <c r="N18" s="90"/>
       <c r="O18" s="41">
         <v>452.7</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B19" s="90"/>
+      <c r="B19" s="91"/>
       <c r="C19" s="40">
         <v>79.5</v>
       </c>
-      <c r="D19" s="80"/>
+      <c r="D19" s="81"/>
       <c r="E19" s="41">
         <v>43.1</v>
       </c>
-      <c r="F19" s="82"/>
+      <c r="F19" s="83"/>
       <c r="G19" s="41">
         <v>1.4</v>
       </c>
-      <c r="H19" s="89"/>
+      <c r="H19" s="90"/>
       <c r="I19" s="41">
         <v>356.2</v>
       </c>
-      <c r="J19" s="89"/>
+      <c r="J19" s="90"/>
       <c r="K19" s="40">
         <v>77</v>
       </c>
-      <c r="L19" s="89"/>
+      <c r="L19" s="90"/>
       <c r="M19" s="41">
         <v>58.9</v>
       </c>
-      <c r="N19" s="89"/>
+      <c r="N19" s="90"/>
       <c r="O19" s="41">
         <v>465.8</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B20" s="90"/>
+      <c r="B20" s="91"/>
       <c r="C20" s="40">
         <v>79.5</v>
       </c>
-      <c r="D20" s="80"/>
+      <c r="D20" s="81"/>
       <c r="E20" s="41">
         <v>43.1</v>
       </c>
-      <c r="F20" s="82"/>
+      <c r="F20" s="83"/>
       <c r="G20" s="41">
         <v>0.5</v>
       </c>
-      <c r="H20" s="89"/>
+      <c r="H20" s="90"/>
       <c r="I20" s="41">
         <v>356.1</v>
       </c>
-      <c r="J20" s="89"/>
+      <c r="J20" s="90"/>
       <c r="K20" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L20" s="89"/>
+      <c r="L20" s="90"/>
       <c r="M20" s="41">
         <v>58.8</v>
       </c>
-      <c r="N20" s="89"/>
+      <c r="N20" s="90"/>
       <c r="O20" s="41">
         <v>455.5</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B21" s="90"/>
+      <c r="B21" s="91"/>
       <c r="C21" s="40">
         <v>79.5</v>
       </c>
-      <c r="D21" s="80"/>
+      <c r="D21" s="81"/>
       <c r="E21" s="41">
         <v>43.1</v>
       </c>
-      <c r="F21" s="82"/>
+      <c r="F21" s="83"/>
       <c r="G21" s="41">
         <v>2.6</v>
       </c>
-      <c r="H21" s="89"/>
+      <c r="H21" s="90"/>
       <c r="I21" s="41">
         <v>355.2</v>
       </c>
-      <c r="J21" s="89"/>
+      <c r="J21" s="90"/>
       <c r="K21" s="40">
         <v>77</v>
       </c>
-      <c r="L21" s="89"/>
+      <c r="L21" s="90"/>
       <c r="M21" s="41">
         <v>58.8</v>
       </c>
-      <c r="N21" s="89"/>
+      <c r="N21" s="90"/>
       <c r="O21" s="41">
         <v>459.8</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B22" s="90" t="s">
+      <c r="B22" s="91" t="s">
         <v>55</v>
       </c>
       <c r="C22" s="40">
         <v>80</v>
       </c>
-      <c r="D22" s="80" t="s">
+      <c r="D22" s="81" t="s">
         <v>82</v>
       </c>
       <c r="E22" s="41">
         <v>43.1</v>
       </c>
-      <c r="F22" s="82"/>
+      <c r="F22" s="83"/>
       <c r="G22" s="41">
         <v>1.4</v>
       </c>
-      <c r="H22" s="89"/>
+      <c r="H22" s="90"/>
       <c r="I22" s="41">
         <v>354.9</v>
       </c>
-      <c r="J22" s="89"/>
+      <c r="J22" s="90"/>
       <c r="K22" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L22" s="89"/>
+      <c r="L22" s="90"/>
       <c r="M22" s="41">
         <v>59.1</v>
       </c>
-      <c r="N22" s="89"/>
+      <c r="N22" s="90"/>
       <c r="O22" s="41">
         <v>474.8</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B23" s="90"/>
+      <c r="B23" s="91"/>
       <c r="C23" s="40">
         <v>80</v>
       </c>
-      <c r="D23" s="80"/>
+      <c r="D23" s="81"/>
       <c r="E23" s="41">
         <v>43.1</v>
       </c>
-      <c r="F23" s="82"/>
+      <c r="F23" s="83"/>
       <c r="G23" s="41">
         <v>0.6</v>
       </c>
-      <c r="H23" s="89"/>
+      <c r="H23" s="90"/>
       <c r="I23" s="41">
         <v>345.1</v>
       </c>
-      <c r="J23" s="89"/>
+      <c r="J23" s="90"/>
       <c r="K23" s="40">
         <v>77</v>
       </c>
-      <c r="L23" s="89"/>
+      <c r="L23" s="90"/>
       <c r="M23" s="41">
         <v>59.1</v>
       </c>
-      <c r="N23" s="89"/>
+      <c r="N23" s="90"/>
       <c r="O23" s="41">
         <v>469.8</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B24" s="90"/>
+      <c r="B24" s="91"/>
       <c r="C24" s="40">
         <v>80</v>
       </c>
-      <c r="D24" s="80"/>
+      <c r="D24" s="81"/>
       <c r="E24" s="41">
         <v>43.1</v>
       </c>
-      <c r="F24" s="82"/>
+      <c r="F24" s="83"/>
       <c r="G24" s="41">
         <v>0.6</v>
       </c>
-      <c r="H24" s="89"/>
+      <c r="H24" s="90"/>
       <c r="I24" s="41">
         <v>349.2</v>
       </c>
-      <c r="J24" s="89"/>
+      <c r="J24" s="90"/>
       <c r="K24" s="40">
         <v>76.8</v>
       </c>
-      <c r="L24" s="89"/>
+      <c r="L24" s="90"/>
       <c r="M24" s="41">
         <v>59.2</v>
       </c>
-      <c r="N24" s="89"/>
+      <c r="N24" s="90"/>
       <c r="O24" s="41">
         <v>479.7</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B25" s="90"/>
+      <c r="B25" s="91"/>
       <c r="C25" s="40">
         <v>80</v>
       </c>
-      <c r="D25" s="80"/>
+      <c r="D25" s="81"/>
       <c r="E25" s="41">
         <v>43.1</v>
       </c>
-      <c r="F25" s="82"/>
+      <c r="F25" s="83"/>
       <c r="G25" s="41">
         <v>0.9</v>
       </c>
-      <c r="H25" s="89"/>
+      <c r="H25" s="90"/>
       <c r="I25" s="41">
         <v>351.5</v>
       </c>
-      <c r="J25" s="89"/>
+      <c r="J25" s="90"/>
       <c r="K25" s="40">
         <v>77</v>
       </c>
-      <c r="L25" s="89"/>
+      <c r="L25" s="90"/>
       <c r="M25" s="41">
         <v>59.3</v>
       </c>
-      <c r="N25" s="89"/>
+      <c r="N25" s="90"/>
       <c r="O25" s="41">
         <v>480.8</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B26" s="90"/>
+      <c r="B26" s="91"/>
       <c r="C26" s="40">
         <v>80</v>
       </c>
-      <c r="D26" s="80"/>
+      <c r="D26" s="81"/>
       <c r="E26" s="41">
         <v>43.2</v>
       </c>
-      <c r="F26" s="82"/>
+      <c r="F26" s="83"/>
       <c r="G26" s="41">
         <v>1.5</v>
       </c>
-      <c r="H26" s="89"/>
+      <c r="H26" s="90"/>
       <c r="I26" s="41">
         <v>351.4</v>
       </c>
-      <c r="J26" s="89"/>
+      <c r="J26" s="90"/>
       <c r="K26" s="40">
         <v>77</v>
       </c>
-      <c r="L26" s="89"/>
+      <c r="L26" s="90"/>
       <c r="M26" s="41">
         <v>59.2</v>
       </c>
-      <c r="N26" s="89"/>
+      <c r="N26" s="90"/>
       <c r="O26" s="41">
         <v>482.6</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B27" s="90" t="s">
+      <c r="B27" s="91" t="s">
         <v>56</v>
       </c>
       <c r="C27" s="40">
         <v>80.7</v>
       </c>
-      <c r="D27" s="80" t="s">
+      <c r="D27" s="81" t="s">
         <v>83</v>
       </c>
       <c r="E27" s="41">
         <v>43.8</v>
       </c>
-      <c r="F27" s="82"/>
+      <c r="F27" s="83"/>
       <c r="G27" s="41">
         <v>1.7</v>
       </c>
-      <c r="H27" s="89"/>
+      <c r="H27" s="90"/>
       <c r="I27" s="41">
         <v>348.4</v>
       </c>
-      <c r="J27" s="89"/>
+      <c r="J27" s="90"/>
       <c r="K27" s="40">
         <v>77</v>
       </c>
-      <c r="L27" s="89"/>
+      <c r="L27" s="90"/>
       <c r="M27" s="41">
         <v>58.4</v>
       </c>
-      <c r="N27" s="89"/>
+      <c r="N27" s="90"/>
       <c r="O27" s="41">
         <v>489.5</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B28" s="90"/>
+      <c r="B28" s="91"/>
       <c r="C28" s="40">
         <v>80.7</v>
       </c>
-      <c r="D28" s="80"/>
+      <c r="D28" s="81"/>
       <c r="E28" s="41">
         <v>43.8</v>
       </c>
-      <c r="F28" s="82"/>
+      <c r="F28" s="83"/>
       <c r="G28" s="41">
         <v>0.1</v>
       </c>
-      <c r="H28" s="89"/>
+      <c r="H28" s="90"/>
       <c r="I28" s="41">
         <v>347.6</v>
       </c>
-      <c r="J28" s="89"/>
+      <c r="J28" s="90"/>
       <c r="K28" s="40">
         <v>77</v>
       </c>
-      <c r="L28" s="89"/>
+      <c r="L28" s="90"/>
       <c r="M28" s="41">
         <v>58.4</v>
       </c>
-      <c r="N28" s="89"/>
+      <c r="N28" s="90"/>
       <c r="O28" s="41">
         <v>481.5</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B29" s="90"/>
+      <c r="B29" s="91"/>
       <c r="C29" s="40">
         <v>80.7</v>
       </c>
-      <c r="D29" s="80"/>
+      <c r="D29" s="81"/>
       <c r="E29" s="41">
         <v>43.7</v>
       </c>
-      <c r="F29" s="82"/>
+      <c r="F29" s="83"/>
       <c r="G29" s="41">
         <v>0</v>
       </c>
-      <c r="H29" s="89"/>
+      <c r="H29" s="90"/>
       <c r="I29" s="41">
         <v>346</v>
       </c>
-      <c r="J29" s="89"/>
+      <c r="J29" s="90"/>
       <c r="K29" s="40">
         <v>77</v>
       </c>
-      <c r="L29" s="89"/>
+      <c r="L29" s="90"/>
       <c r="M29" s="41">
         <v>58.4</v>
       </c>
-      <c r="N29" s="89"/>
+      <c r="N29" s="90"/>
       <c r="O29" s="41">
         <v>477.8</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B30" s="90"/>
+      <c r="B30" s="91"/>
       <c r="C30" s="40">
         <v>80.7</v>
       </c>
-      <c r="D30" s="80"/>
+      <c r="D30" s="81"/>
       <c r="E30" s="41">
         <v>43.6</v>
       </c>
-      <c r="F30" s="82"/>
+      <c r="F30" s="83"/>
       <c r="G30" s="41">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H30" s="89"/>
+      <c r="H30" s="90"/>
       <c r="I30" s="41">
         <v>345</v>
       </c>
-      <c r="J30" s="89"/>
+      <c r="J30" s="90"/>
       <c r="K30" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L30" s="89"/>
+      <c r="L30" s="90"/>
       <c r="M30" s="41">
         <v>58.5</v>
       </c>
-      <c r="N30" s="89"/>
+      <c r="N30" s="90"/>
       <c r="O30" s="41">
         <v>484.6</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B31" s="90"/>
+      <c r="B31" s="91"/>
       <c r="C31" s="40">
         <v>80.900000000000006</v>
       </c>
-      <c r="D31" s="80"/>
+      <c r="D31" s="81"/>
       <c r="E31" s="41">
         <v>43.6</v>
       </c>
-      <c r="F31" s="82"/>
+      <c r="F31" s="83"/>
       <c r="G31" s="41">
         <v>1.6</v>
       </c>
-      <c r="H31" s="89"/>
+      <c r="H31" s="90"/>
       <c r="I31" s="41">
         <v>347.2</v>
       </c>
-      <c r="J31" s="89"/>
+      <c r="J31" s="90"/>
       <c r="K31" s="40">
         <v>77</v>
       </c>
-      <c r="L31" s="89"/>
+      <c r="L31" s="90"/>
       <c r="M31" s="41">
         <v>58.4</v>
       </c>
-      <c r="N31" s="89"/>
+      <c r="N31" s="90"/>
       <c r="O31" s="41">
         <v>483.8</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B32" s="90" t="s">
+      <c r="B32" s="91" t="s">
         <v>57</v>
       </c>
       <c r="C32" s="40">
         <v>81.099999999999994</v>
       </c>
-      <c r="D32" s="80" t="s">
+      <c r="D32" s="81" t="s">
         <v>85</v>
       </c>
       <c r="E32" s="41">
         <v>44.3</v>
       </c>
-      <c r="F32" s="82"/>
+      <c r="F32" s="83"/>
       <c r="G32" s="41">
         <v>0.4</v>
       </c>
-      <c r="H32" s="89"/>
+      <c r="H32" s="90"/>
       <c r="I32" s="41">
         <v>345.1</v>
       </c>
-      <c r="J32" s="89"/>
+      <c r="J32" s="90"/>
       <c r="K32" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L32" s="89"/>
+      <c r="L32" s="90"/>
       <c r="M32" s="41">
         <v>58.7</v>
       </c>
-      <c r="N32" s="89"/>
+      <c r="N32" s="90"/>
       <c r="O32" s="41">
         <v>482.9</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B33" s="90"/>
+      <c r="B33" s="91"/>
       <c r="C33" s="40">
         <v>81.099999999999994</v>
       </c>
-      <c r="D33" s="80"/>
+      <c r="D33" s="81"/>
       <c r="E33" s="41">
         <v>44.3</v>
       </c>
-      <c r="F33" s="82"/>
+      <c r="F33" s="83"/>
       <c r="G33" s="41">
         <v>1.3</v>
       </c>
-      <c r="H33" s="89"/>
+      <c r="H33" s="90"/>
       <c r="I33" s="41">
         <v>348</v>
       </c>
-      <c r="J33" s="89"/>
+      <c r="J33" s="90"/>
       <c r="K33" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L33" s="89"/>
+      <c r="L33" s="90"/>
       <c r="M33" s="41">
         <v>58.7</v>
       </c>
-      <c r="N33" s="89"/>
+      <c r="N33" s="90"/>
       <c r="O33" s="41">
         <v>491.2</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B34" s="90"/>
+      <c r="B34" s="91"/>
       <c r="C34" s="40">
         <v>81.099999999999994</v>
       </c>
-      <c r="D34" s="80"/>
+      <c r="D34" s="81"/>
       <c r="E34" s="41">
         <v>44.3</v>
       </c>
-      <c r="F34" s="82"/>
+      <c r="F34" s="83"/>
       <c r="G34" s="41">
         <v>1.5</v>
       </c>
-      <c r="H34" s="89"/>
+      <c r="H34" s="90"/>
       <c r="I34" s="41">
         <v>347.9</v>
       </c>
-      <c r="J34" s="89"/>
+      <c r="J34" s="90"/>
       <c r="K34" s="40">
         <v>77</v>
       </c>
-      <c r="L34" s="89"/>
+      <c r="L34" s="90"/>
       <c r="M34" s="41">
         <v>58.6</v>
       </c>
-      <c r="N34" s="89"/>
+      <c r="N34" s="90"/>
       <c r="O34" s="41">
         <v>486.7</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B35" s="90"/>
+      <c r="B35" s="91"/>
       <c r="C35" s="40">
         <v>81.099999999999994</v>
       </c>
-      <c r="D35" s="80"/>
+      <c r="D35" s="81"/>
       <c r="E35" s="41">
         <v>44.3</v>
       </c>
-      <c r="F35" s="82"/>
+      <c r="F35" s="83"/>
       <c r="G35" s="41">
         <v>1.2</v>
       </c>
-      <c r="H35" s="89"/>
+      <c r="H35" s="90"/>
       <c r="I35" s="41">
         <v>345.2</v>
       </c>
-      <c r="J35" s="89"/>
+      <c r="J35" s="90"/>
       <c r="K35" s="40">
         <v>77</v>
       </c>
-      <c r="L35" s="89"/>
+      <c r="L35" s="90"/>
       <c r="M35" s="41">
         <v>58.7</v>
       </c>
-      <c r="N35" s="89"/>
+      <c r="N35" s="90"/>
       <c r="O35" s="41">
         <v>494.4</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B36" s="90"/>
+      <c r="B36" s="91"/>
       <c r="C36" s="40">
         <v>81.099999999999994</v>
       </c>
-      <c r="D36" s="80"/>
+      <c r="D36" s="81"/>
       <c r="E36" s="41">
         <v>44.2</v>
       </c>
-      <c r="F36" s="82"/>
+      <c r="F36" s="83"/>
       <c r="G36" s="41">
         <v>1.4</v>
       </c>
-      <c r="H36" s="89"/>
+      <c r="H36" s="90"/>
       <c r="I36" s="41">
         <v>340.7</v>
       </c>
-      <c r="J36" s="89"/>
+      <c r="J36" s="90"/>
       <c r="K36" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L36" s="89"/>
+      <c r="L36" s="90"/>
       <c r="M36" s="41">
         <v>58.7</v>
       </c>
-      <c r="N36" s="89"/>
+      <c r="N36" s="90"/>
       <c r="O36" s="41">
         <v>493</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B37" s="90" t="s">
+      <c r="B37" s="91" t="s">
         <v>58</v>
       </c>
       <c r="C37" s="40">
         <v>81.5</v>
       </c>
-      <c r="D37" s="80" t="s">
+      <c r="D37" s="81" t="s">
         <v>86</v>
       </c>
       <c r="E37" s="41">
         <v>44</v>
       </c>
-      <c r="F37" s="82"/>
+      <c r="F37" s="83"/>
       <c r="G37" s="41">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H37" s="89"/>
+      <c r="H37" s="90"/>
       <c r="I37" s="41">
         <v>343.4</v>
       </c>
-      <c r="J37" s="89"/>
+      <c r="J37" s="90"/>
       <c r="K37" s="40">
         <v>77</v>
       </c>
-      <c r="L37" s="89"/>
+      <c r="L37" s="90"/>
       <c r="M37" s="41">
         <v>58.6</v>
       </c>
-      <c r="N37" s="89"/>
+      <c r="N37" s="90"/>
       <c r="O37" s="41">
         <v>510.4</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B38" s="90"/>
+      <c r="B38" s="91"/>
       <c r="C38" s="40">
         <v>81.5</v>
       </c>
-      <c r="D38" s="80"/>
+      <c r="D38" s="81"/>
       <c r="E38" s="41">
         <v>44</v>
       </c>
-      <c r="F38" s="82"/>
+      <c r="F38" s="83"/>
       <c r="G38" s="41">
         <v>0.6</v>
       </c>
-      <c r="H38" s="89"/>
+      <c r="H38" s="90"/>
       <c r="I38" s="41">
         <v>341.5</v>
       </c>
-      <c r="J38" s="89"/>
+      <c r="J38" s="90"/>
       <c r="K38" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L38" s="89"/>
+      <c r="L38" s="90"/>
       <c r="M38" s="41">
         <v>58.6</v>
       </c>
-      <c r="N38" s="89"/>
+      <c r="N38" s="90"/>
       <c r="O38" s="41">
         <v>500</v>
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B39" s="90"/>
+      <c r="B39" s="91"/>
       <c r="C39" s="40">
         <v>81.5</v>
       </c>
-      <c r="D39" s="80"/>
+      <c r="D39" s="81"/>
       <c r="E39" s="41">
         <v>44.1</v>
       </c>
-      <c r="F39" s="82"/>
+      <c r="F39" s="83"/>
       <c r="G39" s="41">
         <v>0.2</v>
       </c>
-      <c r="H39" s="89"/>
+      <c r="H39" s="90"/>
       <c r="I39" s="41">
         <v>341.1</v>
       </c>
-      <c r="J39" s="89"/>
+      <c r="J39" s="90"/>
       <c r="K39" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L39" s="89"/>
+      <c r="L39" s="90"/>
       <c r="M39" s="41">
         <v>58.7</v>
       </c>
-      <c r="N39" s="89"/>
+      <c r="N39" s="90"/>
       <c r="O39" s="41">
         <v>500.4</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B40" s="90"/>
+      <c r="B40" s="91"/>
       <c r="C40" s="40">
         <v>81.5</v>
       </c>
-      <c r="D40" s="80"/>
+      <c r="D40" s="81"/>
       <c r="E40" s="41">
         <v>44.1</v>
       </c>
-      <c r="F40" s="82"/>
+      <c r="F40" s="83"/>
       <c r="G40" s="41">
         <v>0</v>
       </c>
-      <c r="H40" s="89"/>
+      <c r="H40" s="90"/>
       <c r="I40" s="41">
         <v>343.7</v>
       </c>
-      <c r="J40" s="89"/>
+      <c r="J40" s="90"/>
       <c r="K40" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L40" s="89"/>
+      <c r="L40" s="90"/>
       <c r="M40" s="41">
         <v>58.8</v>
       </c>
-      <c r="N40" s="89"/>
+      <c r="N40" s="90"/>
       <c r="O40" s="41">
         <v>498.7</v>
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B41" s="90"/>
+      <c r="B41" s="91"/>
       <c r="C41" s="40">
         <v>81.5</v>
       </c>
-      <c r="D41" s="80"/>
+      <c r="D41" s="81"/>
       <c r="E41" s="41">
         <v>44.2</v>
       </c>
-      <c r="F41" s="82"/>
+      <c r="F41" s="83"/>
       <c r="G41" s="41">
         <v>0.2</v>
       </c>
-      <c r="H41" s="89"/>
+      <c r="H41" s="90"/>
       <c r="I41" s="41">
         <v>341.9</v>
       </c>
-      <c r="J41" s="89"/>
+      <c r="J41" s="90"/>
       <c r="K41" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L41" s="89"/>
+      <c r="L41" s="90"/>
       <c r="M41" s="41">
         <v>58.7</v>
       </c>
-      <c r="N41" s="89"/>
+      <c r="N41" s="90"/>
       <c r="O41" s="41">
         <v>490</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B42" s="90" t="s">
+      <c r="B42" s="91" t="s">
         <v>59</v>
       </c>
       <c r="C42" s="40">
         <v>82.4</v>
       </c>
-      <c r="D42" s="80" t="s">
+      <c r="D42" s="81" t="s">
         <v>88</v>
       </c>
       <c r="E42" s="41">
         <v>44</v>
       </c>
-      <c r="F42" s="82"/>
+      <c r="F42" s="83"/>
       <c r="G42" s="41">
         <v>0</v>
       </c>
-      <c r="H42" s="89"/>
+      <c r="H42" s="90"/>
       <c r="I42" s="41">
         <v>344.1</v>
       </c>
-      <c r="J42" s="89"/>
+      <c r="J42" s="90"/>
       <c r="K42" s="40">
         <v>76.8</v>
       </c>
-      <c r="L42" s="89"/>
+      <c r="L42" s="90"/>
       <c r="M42" s="57">
         <v>58.8</v>
       </c>
-      <c r="N42" s="89"/>
+      <c r="N42" s="90"/>
       <c r="O42" s="41">
         <v>514.70000000000005</v>
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B43" s="90"/>
+      <c r="B43" s="91"/>
       <c r="C43" s="40">
         <v>82.4</v>
       </c>
-      <c r="D43" s="80"/>
+      <c r="D43" s="81"/>
       <c r="E43" s="41">
         <v>43.9</v>
       </c>
-      <c r="F43" s="82"/>
+      <c r="F43" s="83"/>
       <c r="G43" s="41">
         <v>0.9</v>
       </c>
-      <c r="H43" s="89"/>
+      <c r="H43" s="90"/>
       <c r="I43" s="41">
         <v>342.8</v>
       </c>
-      <c r="J43" s="89"/>
+      <c r="J43" s="90"/>
       <c r="K43" s="40">
         <v>76.599999999999994</v>
       </c>
-      <c r="L43" s="89"/>
+      <c r="L43" s="90"/>
       <c r="M43" s="41">
         <v>59.8</v>
       </c>
-      <c r="N43" s="89"/>
+      <c r="N43" s="90"/>
       <c r="O43" s="41">
         <v>520.4</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B44" s="90"/>
+      <c r="B44" s="91"/>
       <c r="C44" s="40">
         <v>82.4</v>
       </c>
-      <c r="D44" s="80"/>
+      <c r="D44" s="81"/>
       <c r="E44" s="41">
         <v>43.9</v>
       </c>
-      <c r="F44" s="82"/>
+      <c r="F44" s="83"/>
       <c r="G44" s="41">
         <v>1.2</v>
       </c>
-      <c r="H44" s="89"/>
+      <c r="H44" s="90"/>
       <c r="I44" s="41">
         <v>342.8</v>
       </c>
-      <c r="J44" s="89"/>
+      <c r="J44" s="90"/>
       <c r="K44" s="40">
         <v>76.8</v>
       </c>
-      <c r="L44" s="89"/>
+      <c r="L44" s="90"/>
       <c r="M44" s="41">
         <v>59.6</v>
       </c>
-      <c r="N44" s="89"/>
+      <c r="N44" s="90"/>
       <c r="O44" s="41">
         <v>503.8</v>
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B45" s="90"/>
+      <c r="B45" s="91"/>
       <c r="C45" s="40">
         <v>82.4</v>
       </c>
-      <c r="D45" s="80"/>
+      <c r="D45" s="81"/>
       <c r="E45" s="41">
         <v>43.8</v>
       </c>
-      <c r="F45" s="82"/>
+      <c r="F45" s="83"/>
       <c r="G45" s="41">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H45" s="89"/>
+      <c r="H45" s="90"/>
       <c r="I45" s="41">
         <v>342.5</v>
       </c>
-      <c r="J45" s="89"/>
+      <c r="J45" s="90"/>
       <c r="K45" s="40">
         <v>76.400000000000006</v>
       </c>
-      <c r="L45" s="89"/>
+      <c r="L45" s="90"/>
       <c r="M45" s="41">
         <v>59.4</v>
       </c>
-      <c r="N45" s="89"/>
+      <c r="N45" s="90"/>
       <c r="O45" s="41">
         <v>497.8</v>
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B46" s="90"/>
+      <c r="B46" s="91"/>
       <c r="C46" s="40">
         <v>82.4</v>
       </c>
-      <c r="D46" s="80"/>
+      <c r="D46" s="81"/>
       <c r="E46" s="41">
         <v>43.8</v>
       </c>
-      <c r="F46" s="82"/>
+      <c r="F46" s="83"/>
       <c r="G46" s="41">
         <v>2</v>
       </c>
-      <c r="H46" s="89"/>
+      <c r="H46" s="90"/>
       <c r="I46" s="41">
         <v>345.7</v>
       </c>
-      <c r="J46" s="89"/>
+      <c r="J46" s="90"/>
       <c r="K46" s="40">
         <v>76.2</v>
       </c>
-      <c r="L46" s="89"/>
+      <c r="L46" s="90"/>
       <c r="M46" s="41">
         <v>59.5</v>
       </c>
-      <c r="N46" s="89"/>
+      <c r="N46" s="90"/>
       <c r="O46" s="41">
         <v>504.7</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B47" s="90" t="s">
+      <c r="B47" s="91" t="s">
         <v>94</v>
       </c>
       <c r="C47" s="40">
         <v>82.9</v>
       </c>
-      <c r="D47" s="91" t="s">
+      <c r="D47" s="92" t="s">
         <v>90</v>
       </c>
       <c r="E47" s="41">
@@ -11177,11 +11722,11 @@
       <c r="J47" s="56"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B48" s="90"/>
+      <c r="B48" s="91"/>
       <c r="C48" s="40">
         <v>83.1</v>
       </c>
-      <c r="D48" s="91"/>
+      <c r="D48" s="92"/>
       <c r="E48" s="41">
         <v>43.4</v>
       </c>
@@ -11192,11 +11737,11 @@
       <c r="J48" s="56"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B49" s="90"/>
+      <c r="B49" s="91"/>
       <c r="C49" s="40">
         <v>83.1</v>
       </c>
-      <c r="D49" s="91"/>
+      <c r="D49" s="92"/>
       <c r="E49" s="41">
         <v>43.4</v>
       </c>
@@ -11207,11 +11752,11 @@
       <c r="J49" s="56"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B50" s="90"/>
+      <c r="B50" s="91"/>
       <c r="C50" s="40">
         <v>83.1</v>
       </c>
-      <c r="D50" s="91"/>
+      <c r="D50" s="92"/>
       <c r="E50" s="41">
         <v>43.4</v>
       </c>
@@ -11222,11 +11767,11 @@
       <c r="J50" s="56"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B51" s="90"/>
+      <c r="B51" s="91"/>
       <c r="C51" s="40">
         <v>83.1</v>
       </c>
-      <c r="D51" s="91"/>
+      <c r="D51" s="92"/>
       <c r="E51" s="41">
         <v>43.4</v>
       </c>
@@ -11237,13 +11782,13 @@
       <c r="J51" s="56"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B52" s="90" t="s">
+      <c r="B52" s="91" t="s">
         <v>95</v>
       </c>
       <c r="C52" s="40">
         <v>83.4</v>
       </c>
-      <c r="D52" s="91" t="s">
+      <c r="D52" s="92" t="s">
         <v>92</v>
       </c>
       <c r="E52" s="41">
@@ -11256,11 +11801,11 @@
       <c r="J52" s="56"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B53" s="90"/>
+      <c r="B53" s="91"/>
       <c r="C53" s="40">
         <v>83.4</v>
       </c>
-      <c r="D53" s="91"/>
+      <c r="D53" s="92"/>
       <c r="E53" s="41">
         <v>43.3</v>
       </c>
@@ -11271,11 +11816,11 @@
       <c r="J53" s="56"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B54" s="90"/>
+      <c r="B54" s="91"/>
       <c r="C54" s="40">
         <v>83.4</v>
       </c>
-      <c r="D54" s="91"/>
+      <c r="D54" s="92"/>
       <c r="E54" s="41">
         <v>43.4</v>
       </c>
@@ -11286,11 +11831,11 @@
       <c r="J54" s="56"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B55" s="90"/>
+      <c r="B55" s="91"/>
       <c r="C55" s="40">
         <v>83.6</v>
       </c>
-      <c r="D55" s="91"/>
+      <c r="D55" s="92"/>
       <c r="E55" s="41">
         <v>43.4</v>
       </c>
@@ -11301,11 +11846,11 @@
       <c r="J55" s="56"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B56" s="90"/>
+      <c r="B56" s="91"/>
       <c r="C56" s="40">
         <v>83.3</v>
       </c>
-      <c r="D56" s="91"/>
+      <c r="D56" s="92"/>
       <c r="E56" s="41">
         <v>43.4</v>
       </c>
@@ -11316,7 +11861,7 @@
       <c r="J56" s="56"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B57" s="90" t="s">
+      <c r="B57" s="91" t="s">
         <v>96</v>
       </c>
       <c r="C57" s="40">
@@ -11331,7 +11876,7 @@
       <c r="J57" s="56"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B58" s="90"/>
+      <c r="B58" s="91"/>
       <c r="C58" s="40">
         <v>83.4</v>
       </c>
@@ -11344,7 +11889,7 @@
       <c r="J58" s="56"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B59" s="90"/>
+      <c r="B59" s="91"/>
       <c r="C59" s="40">
         <v>83.3</v>
       </c>
@@ -11357,7 +11902,7 @@
       <c r="J59" s="56"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B60" s="90"/>
+      <c r="B60" s="91"/>
       <c r="C60" s="40">
         <v>83.3</v>
       </c>
@@ -11370,7 +11915,7 @@
       <c r="J60" s="56"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B61" s="90"/>
+      <c r="B61" s="91"/>
       <c r="C61" s="40">
         <v>83.4</v>
       </c>
@@ -11383,7 +11928,7 @@
       <c r="J61" s="56"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B62" s="90" t="s">
+      <c r="B62" s="91" t="s">
         <v>97</v>
       </c>
       <c r="C62" s="40">
@@ -11398,7 +11943,7 @@
       <c r="J62" s="56"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B63" s="90"/>
+      <c r="B63" s="91"/>
       <c r="C63" s="40">
         <v>83.8</v>
       </c>
@@ -11411,7 +11956,7 @@
       <c r="J63" s="56"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B64" s="90"/>
+      <c r="B64" s="91"/>
       <c r="C64" s="40">
         <v>83.6</v>
       </c>
@@ -11424,7 +11969,7 @@
       <c r="J64" s="56"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B65" s="90"/>
+      <c r="B65" s="91"/>
       <c r="C65" s="40">
         <v>83.8</v>
       </c>
@@ -11437,7 +11982,7 @@
       <c r="J65" s="56"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B66" s="90"/>
+      <c r="B66" s="91"/>
       <c r="C66" s="40">
         <v>83.8</v>
       </c>
@@ -11450,7 +11995,7 @@
       <c r="J66" s="56"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B67" s="90" t="s">
+      <c r="B67" s="91" t="s">
         <v>93</v>
       </c>
       <c r="C67" s="40">
@@ -11465,7 +12010,7 @@
       <c r="J67" s="56"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B68" s="90"/>
+      <c r="B68" s="91"/>
       <c r="C68" s="40">
         <v>84</v>
       </c>
@@ -11478,7 +12023,7 @@
       <c r="J68" s="56"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B69" s="90"/>
+      <c r="B69" s="91"/>
       <c r="C69" s="40">
         <v>84</v>
       </c>
@@ -11491,7 +12036,7 @@
       <c r="J69" s="56"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B70" s="90"/>
+      <c r="B70" s="91"/>
       <c r="C70" s="40">
         <v>84</v>
       </c>
@@ -11504,7 +12049,7 @@
       <c r="J70" s="56"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B71" s="90"/>
+      <c r="B71" s="91"/>
       <c r="C71" s="40">
         <v>84</v>
       </c>
@@ -11517,7 +12062,7 @@
       <c r="J71" s="56"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B72" s="90" t="s">
+      <c r="B72" s="91" t="s">
         <v>82</v>
       </c>
       <c r="C72" s="40">
@@ -11532,7 +12077,7 @@
       <c r="J72" s="56"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B73" s="90"/>
+      <c r="B73" s="91"/>
       <c r="C73" s="40">
         <v>83.4</v>
       </c>
@@ -11545,7 +12090,7 @@
       <c r="J73" s="56"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B74" s="90"/>
+      <c r="B74" s="91"/>
       <c r="C74" s="40">
         <v>83.3</v>
       </c>
@@ -11558,7 +12103,7 @@
       <c r="J74" s="56"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B75" s="90"/>
+      <c r="B75" s="91"/>
       <c r="C75" s="40">
         <v>83.3</v>
       </c>
@@ -11571,7 +12116,7 @@
       <c r="J75" s="56"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B76" s="90"/>
+      <c r="B76" s="91"/>
       <c r="C76" s="40">
         <v>83.3</v>
       </c>
@@ -11584,7 +12129,7 @@
       <c r="J76" s="56"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B77" s="90" t="s">
+      <c r="B77" s="91" t="s">
         <v>83</v>
       </c>
       <c r="C77" s="40">
@@ -11599,7 +12144,7 @@
       <c r="J77" s="56"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B78" s="90"/>
+      <c r="B78" s="91"/>
       <c r="C78" s="40">
         <v>83.4</v>
       </c>
@@ -11612,7 +12157,7 @@
       <c r="J78" s="56"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B79" s="90"/>
+      <c r="B79" s="91"/>
       <c r="C79" s="40">
         <v>83.4</v>
       </c>
@@ -11625,7 +12170,7 @@
       <c r="J79" s="56"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B80" s="90"/>
+      <c r="B80" s="91"/>
       <c r="C80" s="40">
         <v>83.4</v>
       </c>
@@ -11638,7 +12183,7 @@
       <c r="J80" s="56"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B81" s="90"/>
+      <c r="B81" s="91"/>
       <c r="C81" s="40">
         <v>83.4</v>
       </c>
@@ -11651,7 +12196,7 @@
       <c r="J81" s="56"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B82" s="90" t="s">
+      <c r="B82" s="91" t="s">
         <v>84</v>
       </c>
       <c r="C82" s="40">
@@ -11666,7 +12211,7 @@
       <c r="J82" s="56"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B83" s="90"/>
+      <c r="B83" s="91"/>
       <c r="C83" s="40">
         <v>83.3</v>
       </c>
@@ -11679,7 +12224,7 @@
       <c r="J83" s="56"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B84" s="90"/>
+      <c r="B84" s="91"/>
       <c r="C84" s="40">
         <v>83.3</v>
       </c>
@@ -11692,7 +12237,7 @@
       <c r="J84" s="56"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B85" s="90"/>
+      <c r="B85" s="91"/>
       <c r="C85" s="40">
         <v>83.3</v>
       </c>
@@ -11705,7 +12250,7 @@
       <c r="J85" s="56"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B86" s="90"/>
+      <c r="B86" s="91"/>
       <c r="C86" s="40">
         <v>83.3</v>
       </c>
@@ -11718,7 +12263,7 @@
       <c r="J86" s="56"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B87" s="90" t="s">
+      <c r="B87" s="91" t="s">
         <v>87</v>
       </c>
       <c r="C87" s="40">
@@ -11733,7 +12278,7 @@
       <c r="J87" s="56"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B88" s="90"/>
+      <c r="B88" s="91"/>
       <c r="C88" s="40">
         <v>83.8</v>
       </c>
@@ -11746,7 +12291,7 @@
       <c r="J88" s="56"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B89" s="90"/>
+      <c r="B89" s="91"/>
       <c r="C89" s="40">
         <v>83.8</v>
       </c>
@@ -11759,7 +12304,7 @@
       <c r="J89" s="56"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B90" s="90"/>
+      <c r="B90" s="91"/>
       <c r="C90" s="40">
         <v>84</v>
       </c>
@@ -11772,7 +12317,7 @@
       <c r="J90" s="56"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B91" s="90"/>
+      <c r="B91" s="91"/>
       <c r="C91" s="40">
         <v>84</v>
       </c>
@@ -11785,7 +12330,7 @@
       <c r="J91" s="56"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B92" s="90" t="s">
+      <c r="B92" s="91" t="s">
         <v>89</v>
       </c>
       <c r="C92" s="40">
@@ -11800,7 +12345,7 @@
       <c r="J92" s="56"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B93" s="90"/>
+      <c r="B93" s="91"/>
       <c r="C93" s="40">
         <v>84</v>
       </c>
@@ -11813,7 +12358,7 @@
       <c r="J93" s="56"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B94" s="90"/>
+      <c r="B94" s="91"/>
       <c r="C94" s="40">
         <v>84</v>
       </c>
@@ -11826,7 +12371,7 @@
       <c r="J94" s="56"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B95" s="90"/>
+      <c r="B95" s="91"/>
       <c r="C95" s="40">
         <v>84.2</v>
       </c>
@@ -11839,7 +12384,7 @@
       <c r="J95" s="56"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B96" s="90"/>
+      <c r="B96" s="91"/>
       <c r="C96" s="40">
         <v>84.2</v>
       </c>
@@ -11852,7 +12397,7 @@
       <c r="J96" s="56"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B97" s="90" t="s">
+      <c r="B97" s="91" t="s">
         <v>91</v>
       </c>
       <c r="C97" s="40">
@@ -11867,7 +12412,7 @@
       <c r="J97" s="56"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B98" s="90"/>
+      <c r="B98" s="91"/>
       <c r="C98" s="40">
         <v>84</v>
       </c>
@@ -11880,7 +12425,7 @@
       <c r="J98" s="56"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B99" s="90"/>
+      <c r="B99" s="91"/>
       <c r="C99" s="40">
         <v>84</v>
       </c>
@@ -11893,7 +12438,7 @@
       <c r="J99" s="56"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B100" s="90"/>
+      <c r="B100" s="91"/>
       <c r="C100" s="40">
         <v>84</v>
       </c>
@@ -11906,7 +12451,7 @@
       <c r="J100" s="56"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B101" s="90"/>
+      <c r="B101" s="91"/>
       <c r="C101" s="40">
         <v>84</v>
       </c>
@@ -11996,44 +12541,44 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="111" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
       <c r="G1" s="17"/>
-      <c r="H1" s="112" t="s">
+      <c r="H1" s="113" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112" t="s">
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A2" s="113"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
+      <c r="A2" s="114"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A3" s="26" t="s">
@@ -12057,27 +12602,27 @@
       <c r="G3" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="H3" s="103" t="s">
+      <c r="H3" s="104" t="s">
         <v>189</v>
       </c>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="104"/>
-      <c r="O3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="106"/>
       <c r="P3" s="31">
         <v>0.36041666666666666</v>
       </c>
-      <c r="Q3" s="103" t="s">
+      <c r="Q3" s="104" t="s">
         <v>189</v>
       </c>
-      <c r="R3" s="104"/>
-      <c r="S3" s="104"/>
-      <c r="T3" s="104"/>
-      <c r="U3" s="104"/>
-      <c r="V3" s="104"/>
+      <c r="R3" s="105"/>
+      <c r="S3" s="105"/>
+      <c r="T3" s="105"/>
+      <c r="U3" s="105"/>
+      <c r="V3" s="105"/>
       <c r="W3" s="37">
         <v>0.36319444444444443</v>
       </c>
@@ -12086,22 +12631,22 @@
       <c r="Z3" s="20"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="116" t="s">
         <v>133</v>
       </c>
-      <c r="B4" s="118" t="s">
+      <c r="B4" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="91" t="s">
         <v>98</v>
       </c>
       <c r="D4" s="23">
         <v>1</v>
       </c>
-      <c r="E4" s="81" t="s">
+      <c r="E4" s="82" t="s">
         <v>135</v>
       </c>
-      <c r="F4" s="81"/>
+      <c r="F4" s="82"/>
       <c r="G4" s="24"/>
       <c r="H4" s="23" t="s">
         <v>136</v>
@@ -12156,14 +12701,14 @@
       <c r="Z4" s="13"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A5" s="116"/>
-      <c r="B5" s="119"/>
-      <c r="C5" s="90"/>
+      <c r="A5" s="117"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="91"/>
       <c r="D5" s="23">
         <v>2</v>
       </c>
-      <c r="E5" s="80"/>
-      <c r="F5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="82"/>
       <c r="G5" s="24"/>
       <c r="H5" s="23" t="s">
         <v>136</v>
@@ -12218,14 +12763,14 @@
       <c r="Z5" s="13"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A6" s="116"/>
-      <c r="B6" s="119"/>
-      <c r="C6" s="90"/>
+      <c r="A6" s="117"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="91"/>
       <c r="D6" s="23">
         <v>3</v>
       </c>
-      <c r="E6" s="80"/>
-      <c r="F6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="24"/>
       <c r="H6" s="23" t="s">
         <v>137</v>
@@ -12280,14 +12825,14 @@
       <c r="Z6" s="13"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A7" s="116"/>
-      <c r="B7" s="119"/>
-      <c r="C7" s="90"/>
+      <c r="A7" s="117"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="91"/>
       <c r="D7" s="23">
         <v>4</v>
       </c>
-      <c r="E7" s="80"/>
-      <c r="F7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="82"/>
       <c r="G7" s="24"/>
       <c r="H7" s="23" t="s">
         <v>137</v>
@@ -12342,14 +12887,14 @@
       <c r="Z7" s="13"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A8" s="116"/>
-      <c r="B8" s="119"/>
-      <c r="C8" s="90"/>
+      <c r="A8" s="117"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="91"/>
       <c r="D8" s="23">
         <v>5</v>
       </c>
-      <c r="E8" s="80"/>
-      <c r="F8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="82"/>
       <c r="G8" s="24"/>
       <c r="H8" s="23" t="s">
         <v>138</v>
@@ -12404,23 +12949,23 @@
       <c r="Z8" s="13"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A9" s="116"/>
-      <c r="B9" s="119"/>
+      <c r="A9" s="117"/>
+      <c r="B9" s="120"/>
       <c r="C9" s="26"/>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
-      <c r="H9" s="121"/>
-      <c r="I9" s="121"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="80"/>
-      <c r="O9" s="80"/>
-      <c r="P9" s="80"/>
-      <c r="Q9" s="80"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="81"/>
+      <c r="O9" s="81"/>
+      <c r="P9" s="81"/>
+      <c r="Q9" s="81"/>
       <c r="R9" s="27"/>
       <c r="S9" s="27"/>
       <c r="T9" s="27"/>
@@ -12432,15 +12977,15 @@
       <c r="Z9" s="21"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A10" s="116"/>
-      <c r="B10" s="119"/>
+      <c r="A10" s="117"/>
+      <c r="B10" s="120"/>
       <c r="C10" s="26"/>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
       <c r="L10" s="23"/>
@@ -12464,18 +13009,18 @@
       <c r="Z10" s="11"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A11" s="116"/>
-      <c r="B11" s="119"/>
-      <c r="C11" s="90" t="s">
+      <c r="A11" s="117"/>
+      <c r="B11" s="120"/>
+      <c r="C11" s="91" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="23">
         <v>1</v>
       </c>
-      <c r="E11" s="81" t="s">
+      <c r="E11" s="82" t="s">
         <v>135</v>
       </c>
-      <c r="F11" s="81"/>
+      <c r="F11" s="82"/>
       <c r="G11" s="24"/>
       <c r="H11" s="24" t="s">
         <v>196</v>
@@ -12530,14 +13075,14 @@
       <c r="Z11" s="11"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A12" s="116"/>
-      <c r="B12" s="119"/>
-      <c r="C12" s="90"/>
+      <c r="A12" s="117"/>
+      <c r="B12" s="120"/>
+      <c r="C12" s="91"/>
       <c r="D12" s="23">
         <v>2</v>
       </c>
-      <c r="E12" s="80"/>
-      <c r="F12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="82"/>
       <c r="G12" s="24"/>
       <c r="H12" s="24" t="s">
         <v>197</v>
@@ -12592,14 +13137,14 @@
       <c r="Z12" s="11"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A13" s="116"/>
-      <c r="B13" s="119"/>
-      <c r="C13" s="90"/>
+      <c r="A13" s="117"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="91"/>
       <c r="D13" s="23">
         <v>3</v>
       </c>
-      <c r="E13" s="80"/>
-      <c r="F13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="82"/>
       <c r="G13" s="24"/>
       <c r="H13" s="24" t="s">
         <v>197</v>
@@ -12654,14 +13199,14 @@
       <c r="Z13" s="11"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A14" s="116"/>
-      <c r="B14" s="119"/>
-      <c r="C14" s="90"/>
+      <c r="A14" s="117"/>
+      <c r="B14" s="120"/>
+      <c r="C14" s="91"/>
       <c r="D14" s="23">
         <v>4</v>
       </c>
-      <c r="E14" s="80"/>
-      <c r="F14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="82"/>
       <c r="G14" s="24"/>
       <c r="H14" s="24" t="s">
         <v>198</v>
@@ -12716,14 +13261,14 @@
       <c r="Z14" s="11"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A15" s="116"/>
-      <c r="B15" s="119"/>
-      <c r="C15" s="90"/>
+      <c r="A15" s="117"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="91"/>
       <c r="D15" s="23">
         <v>5</v>
       </c>
-      <c r="E15" s="80"/>
-      <c r="F15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="82"/>
       <c r="G15" s="24"/>
       <c r="H15" s="24" t="s">
         <v>199</v>
@@ -12778,23 +13323,23 @@
       <c r="Z15" s="11"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A16" s="116"/>
-      <c r="B16" s="120"/>
+      <c r="A16" s="117"/>
+      <c r="B16" s="121"/>
       <c r="C16" s="29"/>
       <c r="D16" s="22"/>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="107" t="s">
+      <c r="H16" s="108" t="s">
         <v>178</v>
       </c>
-      <c r="I16" s="108"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="108"/>
-      <c r="M16" s="108"/>
-      <c r="N16" s="108"/>
-      <c r="O16" s="109"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="109"/>
+      <c r="M16" s="109"/>
+      <c r="N16" s="109"/>
+      <c r="O16" s="110"/>
       <c r="P16" s="36"/>
       <c r="Q16" s="36"/>
       <c r="R16" s="36"/>
@@ -12808,21 +13353,21 @@
       <c r="Z16" s="11"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A17" s="116"/>
-      <c r="B17" s="90" t="s">
+      <c r="A17" s="117"/>
+      <c r="B17" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="90" t="s">
+      <c r="C17" s="91" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="23">
         <v>1</v>
       </c>
-      <c r="E17" s="81" t="s">
+      <c r="E17" s="82" t="s">
         <v>139</v>
       </c>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81" t="s">
+      <c r="F17" s="82"/>
+      <c r="G17" s="82" t="s">
         <v>141</v>
       </c>
       <c r="H17" s="24" t="s">
@@ -12862,15 +13407,15 @@
       <c r="Z17" s="11"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A18" s="116"/>
-      <c r="B18" s="90"/>
-      <c r="C18" s="90"/>
+      <c r="A18" s="117"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="91"/>
       <c r="D18" s="23">
         <v>2</v>
       </c>
-      <c r="E18" s="80"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
       <c r="H18" s="24" t="s">
         <v>143</v>
       </c>
@@ -12908,15 +13453,15 @@
       <c r="Z18" s="11"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A19" s="116"/>
-      <c r="B19" s="90"/>
-      <c r="C19" s="90"/>
+      <c r="A19" s="117"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="91"/>
       <c r="D19" s="23">
         <v>3</v>
       </c>
-      <c r="E19" s="80"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
       <c r="H19" s="24" t="s">
         <v>144</v>
       </c>
@@ -12954,15 +13499,15 @@
       <c r="Z19" s="11"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A20" s="116"/>
-      <c r="B20" s="90"/>
-      <c r="C20" s="90"/>
+      <c r="A20" s="117"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="91"/>
       <c r="D20" s="23">
         <v>4</v>
       </c>
-      <c r="E20" s="80"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
       <c r="H20" s="24" t="s">
         <v>145</v>
       </c>
@@ -13000,15 +13545,15 @@
       <c r="Z20" s="11"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A21" s="117"/>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
+      <c r="A21" s="118"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
       <c r="D21" s="23">
         <v>5</v>
       </c>
-      <c r="E21" s="80"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
       <c r="H21" s="24" t="s">
         <v>146</v>
       </c>
@@ -13061,16 +13606,16 @@
       <c r="G22" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="H22" s="97" t="s">
+      <c r="H22" s="98" t="s">
         <v>189</v>
       </c>
-      <c r="I22" s="98"/>
-      <c r="J22" s="98"/>
-      <c r="K22" s="98"/>
-      <c r="L22" s="98"/>
-      <c r="M22" s="98"/>
-      <c r="N22" s="98"/>
-      <c r="O22" s="106"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="99"/>
+      <c r="M22" s="99"/>
+      <c r="N22" s="99"/>
+      <c r="O22" s="107"/>
       <c r="P22" s="32" t="s">
         <v>248</v>
       </c>
@@ -13086,25 +13631,25 @@
       <c r="Z22" s="11"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A23" s="115" t="s">
+      <c r="A23" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="90" t="s">
+      <c r="B23" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="90" t="s">
+      <c r="C23" s="91" t="s">
         <v>98</v>
       </c>
       <c r="D23" s="23">
         <v>1</v>
       </c>
-      <c r="E23" s="81" t="s">
+      <c r="E23" s="82" t="s">
         <v>230</v>
       </c>
-      <c r="F23" s="82" t="s">
+      <c r="F23" s="83" t="s">
         <v>291</v>
       </c>
-      <c r="G23" s="81" t="s">
+      <c r="G23" s="82" t="s">
         <v>292</v>
       </c>
       <c r="H23" s="24" t="s">
@@ -13160,15 +13705,15 @@
       <c r="Z23" s="11"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A24" s="116"/>
-      <c r="B24" s="90"/>
-      <c r="C24" s="90"/>
+      <c r="A24" s="117"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="91"/>
       <c r="D24" s="23">
         <v>2</v>
       </c>
-      <c r="E24" s="80"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="82"/>
       <c r="H24" s="24" t="s">
         <v>232</v>
       </c>
@@ -13222,15 +13767,15 @@
       <c r="Z24" s="11"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A25" s="116"/>
-      <c r="B25" s="90"/>
-      <c r="C25" s="90"/>
+      <c r="A25" s="117"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="91"/>
       <c r="D25" s="23">
         <v>3</v>
       </c>
-      <c r="E25" s="80"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="82"/>
       <c r="H25" s="24" t="s">
         <v>231</v>
       </c>
@@ -13284,15 +13829,15 @@
       <c r="Z25" s="11"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A26" s="116"/>
-      <c r="B26" s="90"/>
-      <c r="C26" s="90"/>
+      <c r="A26" s="117"/>
+      <c r="B26" s="91"/>
+      <c r="C26" s="91"/>
       <c r="D26" s="23">
         <v>4</v>
       </c>
-      <c r="E26" s="80"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="82"/>
       <c r="H26" s="24" t="s">
         <v>231</v>
       </c>
@@ -13346,15 +13891,15 @@
       <c r="Z26" s="11"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A27" s="116"/>
-      <c r="B27" s="90"/>
-      <c r="C27" s="90"/>
+      <c r="A27" s="117"/>
+      <c r="B27" s="91"/>
+      <c r="C27" s="91"/>
       <c r="D27" s="23">
         <v>5</v>
       </c>
-      <c r="E27" s="80"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="82"/>
       <c r="H27" s="24" t="s">
         <v>231</v>
       </c>
@@ -13408,8 +13953,8 @@
       <c r="Z27" s="11"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A28" s="116"/>
-      <c r="B28" s="90"/>
+      <c r="A28" s="117"/>
+      <c r="B28" s="91"/>
       <c r="C28" s="26"/>
       <c r="D28" s="23"/>
       <c r="E28" s="23"/>
@@ -13436,8 +13981,8 @@
       <c r="Z28" s="11"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A29" s="116"/>
-      <c r="B29" s="90"/>
+      <c r="A29" s="117"/>
+      <c r="B29" s="91"/>
       <c r="C29" s="26"/>
       <c r="D29" s="23"/>
       <c r="E29" s="23"/>
@@ -13466,21 +14011,21 @@
       <c r="Z29" s="11"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A30" s="116"/>
-      <c r="B30" s="90"/>
-      <c r="C30" s="90" t="s">
+      <c r="A30" s="117"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="91" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="23">
         <v>1</v>
       </c>
-      <c r="E30" s="81" t="s">
+      <c r="E30" s="82" t="s">
         <v>230</v>
       </c>
-      <c r="F30" s="82" t="s">
+      <c r="F30" s="83" t="s">
         <v>291</v>
       </c>
-      <c r="G30" s="81" t="s">
+      <c r="G30" s="82" t="s">
         <v>292</v>
       </c>
       <c r="H30" s="24" t="s">
@@ -13536,15 +14081,15 @@
       <c r="Z30" s="11"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A31" s="116"/>
-      <c r="B31" s="90"/>
-      <c r="C31" s="90"/>
+      <c r="A31" s="117"/>
+      <c r="B31" s="91"/>
+      <c r="C31" s="91"/>
       <c r="D31" s="23">
         <v>2</v>
       </c>
-      <c r="E31" s="80"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="82"/>
       <c r="H31" s="24" t="s">
         <v>238</v>
       </c>
@@ -13598,15 +14143,15 @@
       <c r="Z31" s="11"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A32" s="116"/>
-      <c r="B32" s="90"/>
-      <c r="C32" s="90"/>
+      <c r="A32" s="117"/>
+      <c r="B32" s="91"/>
+      <c r="C32" s="91"/>
       <c r="D32" s="23">
         <v>3</v>
       </c>
-      <c r="E32" s="80"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="82"/>
       <c r="H32" s="24" t="s">
         <v>238</v>
       </c>
@@ -13660,15 +14205,15 @@
       <c r="Z32" s="11"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A33" s="116"/>
-      <c r="B33" s="90"/>
-      <c r="C33" s="90"/>
+      <c r="A33" s="117"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="91"/>
       <c r="D33" s="23">
         <v>4</v>
       </c>
-      <c r="E33" s="80"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="81"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="83"/>
+      <c r="G33" s="82"/>
       <c r="H33" s="24" t="s">
         <v>238</v>
       </c>
@@ -13719,15 +14264,15 @@
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A34" s="116"/>
-      <c r="B34" s="90"/>
-      <c r="C34" s="90"/>
+      <c r="A34" s="117"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="91"/>
       <c r="D34" s="23">
         <v>5</v>
       </c>
-      <c r="E34" s="80"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="81"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="82"/>
       <c r="H34" s="24" t="s">
         <v>239</v>
       </c>
@@ -13778,8 +14323,8 @@
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A35" s="116"/>
-      <c r="B35" s="90"/>
+      <c r="A35" s="117"/>
+      <c r="B35" s="91"/>
       <c r="C35" s="26"/>
       <c r="D35" s="23"/>
       <c r="E35" s="23"/>
@@ -13803,21 +14348,21 @@
       <c r="W35" s="26"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A36" s="116"/>
-      <c r="B36" s="90" t="s">
+      <c r="A36" s="117"/>
+      <c r="B36" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="90" t="s">
+      <c r="C36" s="91" t="s">
         <v>10</v>
       </c>
       <c r="D36" s="23">
         <v>1</v>
       </c>
-      <c r="E36" s="82" t="s">
+      <c r="E36" s="83" t="s">
         <v>293</v>
       </c>
-      <c r="F36" s="81"/>
-      <c r="G36" s="81" t="s">
+      <c r="F36" s="82"/>
+      <c r="G36" s="82" t="s">
         <v>292</v>
       </c>
       <c r="H36" s="26"/>
@@ -13866,15 +14411,15 @@
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A37" s="116"/>
-      <c r="B37" s="90"/>
-      <c r="C37" s="90"/>
+      <c r="A37" s="117"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="91"/>
       <c r="D37" s="23">
         <v>2</v>
       </c>
-      <c r="E37" s="89"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="82"/>
       <c r="H37" s="26"/>
       <c r="I37" s="26"/>
       <c r="J37" s="24" t="s">
@@ -13921,15 +14466,15 @@
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A38" s="116"/>
-      <c r="B38" s="90"/>
-      <c r="C38" s="90"/>
+      <c r="A38" s="117"/>
+      <c r="B38" s="91"/>
+      <c r="C38" s="91"/>
       <c r="D38" s="23">
         <v>3</v>
       </c>
-      <c r="E38" s="89"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="81"/>
+      <c r="E38" s="90"/>
+      <c r="F38" s="82"/>
+      <c r="G38" s="82"/>
       <c r="H38" s="26"/>
       <c r="I38" s="26"/>
       <c r="J38" s="24" t="s">
@@ -13976,15 +14521,15 @@
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A39" s="116"/>
-      <c r="B39" s="90"/>
-      <c r="C39" s="90"/>
+      <c r="A39" s="117"/>
+      <c r="B39" s="91"/>
+      <c r="C39" s="91"/>
       <c r="D39" s="23">
         <v>4</v>
       </c>
-      <c r="E39" s="89"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
+      <c r="E39" s="90"/>
+      <c r="F39" s="82"/>
+      <c r="G39" s="82"/>
       <c r="H39" s="26"/>
       <c r="I39" s="26"/>
       <c r="J39" s="24" t="s">
@@ -14031,15 +14576,15 @@
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A40" s="117"/>
-      <c r="B40" s="90"/>
-      <c r="C40" s="90"/>
+      <c r="A40" s="118"/>
+      <c r="B40" s="91"/>
+      <c r="C40" s="91"/>
       <c r="D40" s="23">
         <v>5</v>
       </c>
-      <c r="E40" s="89"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="81"/>
+      <c r="E40" s="90"/>
+      <c r="F40" s="82"/>
+      <c r="G40" s="82"/>
       <c r="H40" s="26"/>
       <c r="I40" s="26"/>
       <c r="J40" s="24" t="s">
@@ -14101,37 +14646,37 @@
       <c r="G41" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="H41" s="80" t="s">
+      <c r="H41" s="81" t="s">
         <v>189</v>
       </c>
-      <c r="I41" s="80"/>
-      <c r="J41" s="80"/>
-      <c r="K41" s="80"/>
-      <c r="L41" s="80"/>
-      <c r="M41" s="80"/>
-      <c r="N41" s="80"/>
-      <c r="O41" s="80"/>
+      <c r="I41" s="81"/>
+      <c r="J41" s="81"/>
+      <c r="K41" s="81"/>
+      <c r="L41" s="81"/>
+      <c r="M41" s="81"/>
+      <c r="N41" s="81"/>
+      <c r="O41" s="81"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A42" s="81" t="s">
+      <c r="A42" s="82" t="s">
         <v>294</v>
       </c>
-      <c r="B42" s="90" t="s">
+      <c r="B42" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="90" t="s">
+      <c r="C42" s="91" t="s">
         <v>98</v>
       </c>
       <c r="D42" s="23">
         <v>1</v>
       </c>
-      <c r="E42" s="81" t="s">
+      <c r="E42" s="82" t="s">
         <v>295</v>
       </c>
-      <c r="F42" s="81" t="s">
+      <c r="F42" s="82" t="s">
         <v>296</v>
       </c>
-      <c r="G42" s="81"/>
+      <c r="G42" s="82"/>
       <c r="H42" s="24" t="s">
         <v>297</v>
       </c>
@@ -14158,15 +14703,15 @@
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A43" s="81"/>
-      <c r="B43" s="90"/>
-      <c r="C43" s="90"/>
+      <c r="A43" s="82"/>
+      <c r="B43" s="91"/>
+      <c r="C43" s="91"/>
       <c r="D43" s="23">
         <v>2</v>
       </c>
-      <c r="E43" s="80"/>
-      <c r="F43" s="81"/>
-      <c r="G43" s="81"/>
+      <c r="E43" s="81"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="82"/>
       <c r="H43" s="24" t="s">
         <v>298</v>
       </c>
@@ -14193,15 +14738,15 @@
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A44" s="81"/>
-      <c r="B44" s="90"/>
-      <c r="C44" s="90"/>
+      <c r="A44" s="82"/>
+      <c r="B44" s="91"/>
+      <c r="C44" s="91"/>
       <c r="D44" s="23">
         <v>3</v>
       </c>
-      <c r="E44" s="80"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="81"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="82"/>
+      <c r="G44" s="82"/>
       <c r="H44" s="24" t="s">
         <v>299</v>
       </c>
@@ -14228,15 +14773,15 @@
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A45" s="81"/>
-      <c r="B45" s="90"/>
-      <c r="C45" s="90"/>
+      <c r="A45" s="82"/>
+      <c r="B45" s="91"/>
+      <c r="C45" s="91"/>
       <c r="D45" s="23">
         <v>4</v>
       </c>
-      <c r="E45" s="80"/>
-      <c r="F45" s="81"/>
-      <c r="G45" s="81"/>
+      <c r="E45" s="81"/>
+      <c r="F45" s="82"/>
+      <c r="G45" s="82"/>
       <c r="H45" s="24" t="s">
         <v>299</v>
       </c>
@@ -14263,15 +14808,15 @@
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A46" s="81"/>
-      <c r="B46" s="90"/>
-      <c r="C46" s="90"/>
+      <c r="A46" s="82"/>
+      <c r="B46" s="91"/>
+      <c r="C46" s="91"/>
       <c r="D46" s="23">
         <v>5</v>
       </c>
-      <c r="E46" s="80"/>
-      <c r="F46" s="81"/>
-      <c r="G46" s="81"/>
+      <c r="E46" s="81"/>
+      <c r="F46" s="82"/>
+      <c r="G46" s="82"/>
       <c r="H46" s="24" t="s">
         <v>299</v>
       </c>
@@ -14298,8 +14843,8 @@
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A47" s="81"/>
-      <c r="B47" s="90"/>
+      <c r="A47" s="82"/>
+      <c r="B47" s="91"/>
       <c r="C47" s="26"/>
       <c r="D47" s="23"/>
       <c r="E47" s="23"/>
@@ -14315,8 +14860,8 @@
       <c r="O47" s="23"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A48" s="81"/>
-      <c r="B48" s="90"/>
+      <c r="A48" s="82"/>
+      <c r="B48" s="91"/>
       <c r="C48" s="26"/>
       <c r="D48" s="23"/>
       <c r="E48" s="23"/>
@@ -14332,21 +14877,21 @@
       <c r="O48" s="23"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A49" s="81"/>
-      <c r="B49" s="90"/>
-      <c r="C49" s="90" t="s">
+      <c r="A49" s="82"/>
+      <c r="B49" s="91"/>
+      <c r="C49" s="91" t="s">
         <v>2</v>
       </c>
       <c r="D49" s="23">
         <v>1</v>
       </c>
-      <c r="E49" s="81" t="s">
+      <c r="E49" s="82" t="s">
         <v>295</v>
       </c>
-      <c r="F49" s="81" t="s">
+      <c r="F49" s="82" t="s">
         <v>296</v>
       </c>
-      <c r="G49" s="81"/>
+      <c r="G49" s="82"/>
       <c r="H49" s="24" t="s">
         <v>309</v>
       </c>
@@ -14373,15 +14918,15 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A50" s="81"/>
-      <c r="B50" s="90"/>
-      <c r="C50" s="90"/>
+      <c r="A50" s="82"/>
+      <c r="B50" s="91"/>
+      <c r="C50" s="91"/>
       <c r="D50" s="23">
         <v>2</v>
       </c>
-      <c r="E50" s="80"/>
-      <c r="F50" s="81"/>
-      <c r="G50" s="81"/>
+      <c r="E50" s="81"/>
+      <c r="F50" s="82"/>
+      <c r="G50" s="82"/>
       <c r="H50" s="24" t="s">
         <v>309</v>
       </c>
@@ -14408,15 +14953,15 @@
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A51" s="81"/>
-      <c r="B51" s="90"/>
-      <c r="C51" s="90"/>
+      <c r="A51" s="82"/>
+      <c r="B51" s="91"/>
+      <c r="C51" s="91"/>
       <c r="D51" s="23">
         <v>3</v>
       </c>
-      <c r="E51" s="80"/>
-      <c r="F51" s="81"/>
-      <c r="G51" s="81"/>
+      <c r="E51" s="81"/>
+      <c r="F51" s="82"/>
+      <c r="G51" s="82"/>
       <c r="H51" s="24" t="s">
         <v>310</v>
       </c>
@@ -14443,15 +14988,15 @@
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A52" s="81"/>
-      <c r="B52" s="90"/>
-      <c r="C52" s="90"/>
+      <c r="A52" s="82"/>
+      <c r="B52" s="91"/>
+      <c r="C52" s="91"/>
       <c r="D52" s="23">
         <v>4</v>
       </c>
-      <c r="E52" s="80"/>
-      <c r="F52" s="81"/>
-      <c r="G52" s="81"/>
+      <c r="E52" s="81"/>
+      <c r="F52" s="82"/>
+      <c r="G52" s="82"/>
       <c r="H52" s="24" t="s">
         <v>310</v>
       </c>
@@ -14478,15 +15023,15 @@
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A53" s="81"/>
-      <c r="B53" s="90"/>
-      <c r="C53" s="90"/>
+      <c r="A53" s="82"/>
+      <c r="B53" s="91"/>
+      <c r="C53" s="91"/>
       <c r="D53" s="23">
         <v>5</v>
       </c>
-      <c r="E53" s="80"/>
-      <c r="F53" s="81"/>
-      <c r="G53" s="81"/>
+      <c r="E53" s="81"/>
+      <c r="F53" s="82"/>
+      <c r="G53" s="82"/>
       <c r="H53" s="24" t="s">
         <v>309</v>
       </c>
@@ -14513,8 +15058,8 @@
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A54" s="81"/>
-      <c r="B54" s="90"/>
+      <c r="A54" s="82"/>
+      <c r="B54" s="91"/>
       <c r="C54" s="26"/>
       <c r="D54" s="23"/>
       <c r="E54" s="23"/>
@@ -14530,23 +15075,23 @@
       <c r="O54" s="23"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A55" s="81"/>
-      <c r="B55" s="90" t="s">
+      <c r="A55" s="82"/>
+      <c r="B55" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="90" t="s">
+      <c r="C55" s="91" t="s">
         <v>10</v>
       </c>
       <c r="D55" s="23">
         <v>1</v>
       </c>
-      <c r="E55" s="81" t="s">
+      <c r="E55" s="82" t="s">
         <v>295</v>
       </c>
-      <c r="F55" s="81" t="s">
+      <c r="F55" s="82" t="s">
         <v>296</v>
       </c>
-      <c r="G55" s="81"/>
+      <c r="G55" s="82"/>
       <c r="H55" s="24" t="s">
         <v>327</v>
       </c>
@@ -14573,15 +15118,15 @@
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A56" s="81"/>
-      <c r="B56" s="90"/>
-      <c r="C56" s="90"/>
+      <c r="A56" s="82"/>
+      <c r="B56" s="91"/>
+      <c r="C56" s="91"/>
       <c r="D56" s="23">
         <v>2</v>
       </c>
-      <c r="E56" s="80"/>
-      <c r="F56" s="81"/>
-      <c r="G56" s="81"/>
+      <c r="E56" s="81"/>
+      <c r="F56" s="82"/>
+      <c r="G56" s="82"/>
       <c r="H56" s="24" t="s">
         <v>328</v>
       </c>
@@ -14608,15 +15153,15 @@
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A57" s="81"/>
-      <c r="B57" s="90"/>
-      <c r="C57" s="90"/>
+      <c r="A57" s="82"/>
+      <c r="B57" s="91"/>
+      <c r="C57" s="91"/>
       <c r="D57" s="23">
         <v>3</v>
       </c>
-      <c r="E57" s="80"/>
-      <c r="F57" s="81"/>
-      <c r="G57" s="81"/>
+      <c r="E57" s="81"/>
+      <c r="F57" s="82"/>
+      <c r="G57" s="82"/>
       <c r="H57" s="24" t="s">
         <v>329</v>
       </c>
@@ -14643,15 +15188,15 @@
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A58" s="81"/>
-      <c r="B58" s="90"/>
-      <c r="C58" s="90"/>
+      <c r="A58" s="82"/>
+      <c r="B58" s="91"/>
+      <c r="C58" s="91"/>
       <c r="D58" s="23">
         <v>4</v>
       </c>
-      <c r="E58" s="80"/>
-      <c r="F58" s="81"/>
-      <c r="G58" s="81"/>
+      <c r="E58" s="81"/>
+      <c r="F58" s="82"/>
+      <c r="G58" s="82"/>
       <c r="H58" s="24" t="s">
         <v>330</v>
       </c>
@@ -14678,15 +15223,15 @@
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A59" s="81"/>
-      <c r="B59" s="90"/>
-      <c r="C59" s="90"/>
+      <c r="A59" s="82"/>
+      <c r="B59" s="91"/>
+      <c r="C59" s="91"/>
       <c r="D59" s="23">
         <v>5</v>
       </c>
-      <c r="E59" s="80"/>
-      <c r="F59" s="81"/>
-      <c r="G59" s="81"/>
+      <c r="E59" s="81"/>
+      <c r="F59" s="82"/>
+      <c r="G59" s="82"/>
       <c r="H59" s="24" t="s">
         <v>331</v>
       </c>
@@ -14728,37 +15273,37 @@
       <c r="G60" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="H60" s="80" t="s">
+      <c r="H60" s="81" t="s">
         <v>189</v>
       </c>
-      <c r="I60" s="80"/>
-      <c r="J60" s="80"/>
-      <c r="K60" s="80"/>
-      <c r="L60" s="80"/>
-      <c r="M60" s="80"/>
-      <c r="N60" s="80"/>
-      <c r="O60" s="80"/>
+      <c r="I60" s="81"/>
+      <c r="J60" s="81"/>
+      <c r="K60" s="81"/>
+      <c r="L60" s="81"/>
+      <c r="M60" s="81"/>
+      <c r="N60" s="81"/>
+      <c r="O60" s="81"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A61" s="81" t="s">
+      <c r="A61" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="B61" s="90" t="s">
+      <c r="B61" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="90" t="s">
+      <c r="C61" s="91" t="s">
         <v>98</v>
       </c>
       <c r="D61" s="23">
         <v>1</v>
       </c>
-      <c r="E61" s="81" t="s">
+      <c r="E61" s="82" t="s">
         <v>366</v>
       </c>
-      <c r="F61" s="81" t="s">
+      <c r="F61" s="82" t="s">
         <v>367</v>
       </c>
-      <c r="G61" s="81" t="s">
+      <c r="G61" s="82" t="s">
         <v>368</v>
       </c>
       <c r="H61" s="24" t="s">
@@ -14787,15 +15332,15 @@
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A62" s="81"/>
-      <c r="B62" s="90"/>
-      <c r="C62" s="90"/>
+      <c r="A62" s="82"/>
+      <c r="B62" s="91"/>
+      <c r="C62" s="91"/>
       <c r="D62" s="23">
         <v>2</v>
       </c>
-      <c r="E62" s="80"/>
-      <c r="F62" s="81"/>
-      <c r="G62" s="81"/>
+      <c r="E62" s="81"/>
+      <c r="F62" s="82"/>
+      <c r="G62" s="82"/>
       <c r="H62" s="24" t="s">
         <v>370</v>
       </c>
@@ -14822,15 +15367,15 @@
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A63" s="81"/>
-      <c r="B63" s="90"/>
-      <c r="C63" s="90"/>
+      <c r="A63" s="82"/>
+      <c r="B63" s="91"/>
+      <c r="C63" s="91"/>
       <c r="D63" s="23">
         <v>3</v>
       </c>
-      <c r="E63" s="80"/>
-      <c r="F63" s="81"/>
-      <c r="G63" s="81"/>
+      <c r="E63" s="81"/>
+      <c r="F63" s="82"/>
+      <c r="G63" s="82"/>
       <c r="H63" s="24" t="s">
         <v>370</v>
       </c>
@@ -14857,15 +15402,15 @@
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A64" s="81"/>
-      <c r="B64" s="90"/>
-      <c r="C64" s="90"/>
+      <c r="A64" s="82"/>
+      <c r="B64" s="91"/>
+      <c r="C64" s="91"/>
       <c r="D64" s="23">
         <v>4</v>
       </c>
-      <c r="E64" s="80"/>
-      <c r="F64" s="81"/>
-      <c r="G64" s="81"/>
+      <c r="E64" s="81"/>
+      <c r="F64" s="82"/>
+      <c r="G64" s="82"/>
       <c r="H64" s="24" t="s">
         <v>369</v>
       </c>
@@ -14892,15 +15437,15 @@
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A65" s="81"/>
-      <c r="B65" s="90"/>
-      <c r="C65" s="90"/>
+      <c r="A65" s="82"/>
+      <c r="B65" s="91"/>
+      <c r="C65" s="91"/>
       <c r="D65" s="23">
         <v>5</v>
       </c>
-      <c r="E65" s="80"/>
-      <c r="F65" s="81"/>
-      <c r="G65" s="81"/>
+      <c r="E65" s="81"/>
+      <c r="F65" s="82"/>
+      <c r="G65" s="82"/>
       <c r="H65" s="24" t="s">
         <v>369</v>
       </c>
@@ -14927,8 +15472,8 @@
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A66" s="81"/>
-      <c r="B66" s="90"/>
+      <c r="A66" s="82"/>
+      <c r="B66" s="91"/>
       <c r="C66" s="26"/>
       <c r="D66" s="23"/>
       <c r="E66" s="23"/>
@@ -14944,8 +15489,8 @@
       <c r="O66" s="23"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A67" s="81"/>
-      <c r="B67" s="90"/>
+      <c r="A67" s="82"/>
+      <c r="B67" s="91"/>
       <c r="C67" s="26"/>
       <c r="D67" s="23"/>
       <c r="E67" s="23"/>
@@ -14961,21 +15506,21 @@
       <c r="O67" s="23"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A68" s="81"/>
-      <c r="B68" s="90"/>
-      <c r="C68" s="90" t="s">
+      <c r="A68" s="82"/>
+      <c r="B68" s="91"/>
+      <c r="C68" s="91" t="s">
         <v>2</v>
       </c>
       <c r="D68" s="23">
         <v>1</v>
       </c>
-      <c r="E68" s="81" t="s">
+      <c r="E68" s="82" t="s">
         <v>366</v>
       </c>
-      <c r="F68" s="81" t="s">
+      <c r="F68" s="82" t="s">
         <v>367</v>
       </c>
-      <c r="G68" s="81" t="s">
+      <c r="G68" s="82" t="s">
         <v>368</v>
       </c>
       <c r="H68" s="23" t="s">
@@ -15004,15 +15549,15 @@
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A69" s="81"/>
-      <c r="B69" s="90"/>
-      <c r="C69" s="90"/>
+      <c r="A69" s="82"/>
+      <c r="B69" s="91"/>
+      <c r="C69" s="91"/>
       <c r="D69" s="23">
         <v>2</v>
       </c>
-      <c r="E69" s="80"/>
-      <c r="F69" s="81"/>
-      <c r="G69" s="81"/>
+      <c r="E69" s="81"/>
+      <c r="F69" s="82"/>
+      <c r="G69" s="82"/>
       <c r="H69" s="23" t="s">
         <v>375</v>
       </c>
@@ -15039,15 +15584,15 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A70" s="81"/>
-      <c r="B70" s="90"/>
-      <c r="C70" s="90"/>
+      <c r="A70" s="82"/>
+      <c r="B70" s="91"/>
+      <c r="C70" s="91"/>
       <c r="D70" s="23">
         <v>3</v>
       </c>
-      <c r="E70" s="80"/>
-      <c r="F70" s="81"/>
-      <c r="G70" s="81"/>
+      <c r="E70" s="81"/>
+      <c r="F70" s="82"/>
+      <c r="G70" s="82"/>
       <c r="H70" s="23" t="s">
         <v>376</v>
       </c>
@@ -15074,15 +15619,15 @@
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A71" s="81"/>
-      <c r="B71" s="90"/>
-      <c r="C71" s="90"/>
+      <c r="A71" s="82"/>
+      <c r="B71" s="91"/>
+      <c r="C71" s="91"/>
       <c r="D71" s="23">
         <v>4</v>
       </c>
-      <c r="E71" s="80"/>
-      <c r="F71" s="81"/>
-      <c r="G71" s="81"/>
+      <c r="E71" s="81"/>
+      <c r="F71" s="82"/>
+      <c r="G71" s="82"/>
       <c r="H71" s="23" t="s">
         <v>375</v>
       </c>
@@ -15109,15 +15654,15 @@
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A72" s="81"/>
-      <c r="B72" s="90"/>
-      <c r="C72" s="90"/>
+      <c r="A72" s="82"/>
+      <c r="B72" s="91"/>
+      <c r="C72" s="91"/>
       <c r="D72" s="23">
         <v>5</v>
       </c>
-      <c r="E72" s="80"/>
-      <c r="F72" s="81"/>
-      <c r="G72" s="81"/>
+      <c r="E72" s="81"/>
+      <c r="F72" s="82"/>
+      <c r="G72" s="82"/>
       <c r="H72" s="23" t="s">
         <v>376</v>
       </c>
@@ -15144,8 +15689,8 @@
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A73" s="81"/>
-      <c r="B73" s="90"/>
+      <c r="A73" s="82"/>
+      <c r="B73" s="91"/>
       <c r="C73" s="26"/>
       <c r="D73" s="23"/>
       <c r="E73" s="23"/>
@@ -15161,23 +15706,23 @@
       <c r="O73" s="23"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A74" s="81"/>
-      <c r="B74" s="90" t="s">
+      <c r="A74" s="82"/>
+      <c r="B74" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="C74" s="90" t="s">
+      <c r="C74" s="91" t="s">
         <v>10</v>
       </c>
       <c r="D74" s="23">
         <v>1</v>
       </c>
-      <c r="E74" s="81" t="s">
+      <c r="E74" s="82" t="s">
         <v>366</v>
       </c>
-      <c r="F74" s="81" t="s">
+      <c r="F74" s="82" t="s">
         <v>367</v>
       </c>
-      <c r="G74" s="81" t="s">
+      <c r="G74" s="82" t="s">
         <v>368</v>
       </c>
       <c r="H74" s="24" t="s">
@@ -15206,15 +15751,15 @@
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A75" s="81"/>
-      <c r="B75" s="90"/>
-      <c r="C75" s="90"/>
+      <c r="A75" s="82"/>
+      <c r="B75" s="91"/>
+      <c r="C75" s="91"/>
       <c r="D75" s="23">
         <v>2</v>
       </c>
-      <c r="E75" s="80"/>
-      <c r="F75" s="81"/>
-      <c r="G75" s="81"/>
+      <c r="E75" s="81"/>
+      <c r="F75" s="82"/>
+      <c r="G75" s="82"/>
       <c r="H75" s="24" t="s">
         <v>390</v>
       </c>
@@ -15241,15 +15786,15 @@
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A76" s="81"/>
-      <c r="B76" s="90"/>
-      <c r="C76" s="90"/>
+      <c r="A76" s="82"/>
+      <c r="B76" s="91"/>
+      <c r="C76" s="91"/>
       <c r="D76" s="23">
         <v>3</v>
       </c>
-      <c r="E76" s="80"/>
-      <c r="F76" s="81"/>
-      <c r="G76" s="81"/>
+      <c r="E76" s="81"/>
+      <c r="F76" s="82"/>
+      <c r="G76" s="82"/>
       <c r="H76" s="24" t="s">
         <v>391</v>
       </c>
@@ -15276,15 +15821,15 @@
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A77" s="81"/>
-      <c r="B77" s="90"/>
-      <c r="C77" s="90"/>
+      <c r="A77" s="82"/>
+      <c r="B77" s="91"/>
+      <c r="C77" s="91"/>
       <c r="D77" s="23">
         <v>4</v>
       </c>
-      <c r="E77" s="80"/>
-      <c r="F77" s="81"/>
-      <c r="G77" s="81"/>
+      <c r="E77" s="81"/>
+      <c r="F77" s="82"/>
+      <c r="G77" s="82"/>
       <c r="H77" s="24" t="s">
         <v>392</v>
       </c>
@@ -15311,15 +15856,15 @@
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A78" s="81"/>
-      <c r="B78" s="90"/>
-      <c r="C78" s="90"/>
+      <c r="A78" s="82"/>
+      <c r="B78" s="91"/>
+      <c r="C78" s="91"/>
       <c r="D78" s="23">
         <v>5</v>
       </c>
-      <c r="E78" s="80"/>
-      <c r="F78" s="81"/>
-      <c r="G78" s="81"/>
+      <c r="E78" s="81"/>
+      <c r="F78" s="82"/>
+      <c r="G78" s="82"/>
       <c r="H78" s="24" t="s">
         <v>393</v>
       </c>
@@ -15531,64 +16076,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="125" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="122" t="s">
+      <c r="E2" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="127" t="s">
+      <c r="E3" s="128" t="s">
         <v>436</v>
       </c>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127" t="s">
+      <c r="F3" s="128"/>
+      <c r="G3" s="128" t="s">
         <v>437</v>
       </c>
-      <c r="H3" s="127"/>
+      <c r="H3" s="128"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="126" t="s">
+      <c r="C4" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="90"/>
-      <c r="E4" s="126" t="s">
+      <c r="D4" s="91"/>
+      <c r="E4" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="90"/>
-      <c r="G4" s="126" t="s">
+      <c r="F4" s="91"/>
+      <c r="G4" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="90"/>
+      <c r="H4" s="91"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
@@ -15613,7 +16158,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="91" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="1">
@@ -15639,7 +16184,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="90"/>
+      <c r="A7" s="91"/>
       <c r="B7" s="1">
         <v>2</v>
       </c>
@@ -15663,7 +16208,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="90"/>
+      <c r="A8" s="91"/>
       <c r="B8" s="1">
         <v>3</v>
       </c>
@@ -15687,7 +16232,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="90"/>
+      <c r="A9" s="91"/>
       <c r="B9" s="7">
         <v>4</v>
       </c>
@@ -15711,7 +16256,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="90"/>
+      <c r="A10" s="91"/>
       <c r="B10" s="7">
         <v>5</v>
       </c>
@@ -15735,7 +16280,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="90" t="s">
+      <c r="A11" s="91" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="1">
@@ -15761,7 +16306,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="90"/>
+      <c r="A12" s="91"/>
       <c r="B12" s="1">
         <v>2</v>
       </c>
@@ -15785,7 +16330,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="90"/>
+      <c r="A13" s="91"/>
       <c r="B13" s="1">
         <v>3</v>
       </c>
@@ -15809,7 +16354,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="90"/>
+      <c r="A14" s="91"/>
       <c r="B14" s="7">
         <v>4</v>
       </c>
@@ -15833,7 +16378,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="90"/>
+      <c r="A15" s="91"/>
       <c r="B15" s="7">
         <v>5</v>
       </c>

--- a/数据记录/记录表单.xlsx
+++ b/数据记录/记录表单.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="480">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4228,6 +4228,33 @@
   </si>
   <si>
     <t>没太阳 未知照射 近期有雨 冷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘了记 预计10min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳不可见 最近持续小雨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.4℃</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4641,10 +4668,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -4653,17 +4686,14 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4671,16 +4701,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4716,19 +4743,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4740,10 +4764,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4755,41 +4776,23 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4811,6 +4814,30 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5110,15 +5137,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AS29"/>
+  <dimension ref="A4:AS56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y6" workbookViewId="0">
-      <selection activeCell="AP29" sqref="AP29"/>
+    <sheetView tabSelected="1" topLeftCell="AB15" workbookViewId="0">
+      <selection activeCell="AS28" sqref="AS28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="13" max="13" width="9" customWidth="1"/>
+    <col min="42" max="42" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:45" x14ac:dyDescent="0.15">
@@ -5128,33 +5156,33 @@
       <c r="B4" s="67">
         <v>42309</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="71"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="69"/>
       <c r="F4" s="67">
         <v>42310</v>
       </c>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="69"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="71"/>
       <c r="J4" s="67">
         <v>42311</v>
       </c>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
-      <c r="U4" s="68"/>
-      <c r="V4" s="68"/>
-      <c r="W4" s="68"/>
-      <c r="X4" s="68"/>
-      <c r="Y4" s="69"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
+      <c r="U4" s="70"/>
+      <c r="V4" s="70"/>
+      <c r="W4" s="70"/>
+      <c r="X4" s="70"/>
+      <c r="Y4" s="71"/>
       <c r="Z4" s="59">
         <v>42312</v>
       </c>
@@ -5177,7 +5205,9 @@
       <c r="AM4" s="58"/>
       <c r="AN4" s="58"/>
       <c r="AO4" s="58"/>
-      <c r="AP4" s="59"/>
+      <c r="AP4" s="59">
+        <v>42338</v>
+      </c>
       <c r="AQ4" s="58"/>
       <c r="AR4" s="58"/>
       <c r="AS4" s="58"/>
@@ -5186,18 +5216,18 @@
       <c r="A5" s="49" t="s">
         <v>447</v>
       </c>
-      <c r="B5" s="66">
+      <c r="B5" s="72">
         <v>0.70833333333333337</v>
       </c>
       <c r="C5" s="64"/>
       <c r="D5" s="64"/>
       <c r="E5" s="64"/>
-      <c r="F5" s="66">
+      <c r="F5" s="72">
         <v>0.68819444444444444</v>
       </c>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
       <c r="J5" s="61">
         <v>0.41041666666666665</v>
       </c>
@@ -5246,7 +5276,9 @@
       <c r="AM5" s="62"/>
       <c r="AN5" s="62"/>
       <c r="AO5" s="63"/>
-      <c r="AP5" s="61"/>
+      <c r="AP5" s="61">
+        <v>0.57291666666666663</v>
+      </c>
       <c r="AQ5" s="62"/>
       <c r="AR5" s="62"/>
       <c r="AS5" s="63"/>
@@ -5364,7 +5396,9 @@
       <c r="AM7" s="62"/>
       <c r="AN7" s="62"/>
       <c r="AO7" s="63"/>
-      <c r="AP7" s="61"/>
+      <c r="AP7" s="61" t="s">
+        <v>477</v>
+      </c>
       <c r="AQ7" s="62"/>
       <c r="AR7" s="62"/>
       <c r="AS7" s="63"/>
@@ -5373,18 +5407,18 @@
       <c r="A8" s="49" t="s">
         <v>438</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="72" t="s">
         <v>463</v>
       </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66" t="s">
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72" t="s">
         <v>465</v>
       </c>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
       <c r="J8" s="64" t="s">
         <v>466</v>
       </c>
@@ -5433,7 +5467,9 @@
       <c r="AM8" s="64"/>
       <c r="AN8" s="64"/>
       <c r="AO8" s="64"/>
-      <c r="AP8" s="64"/>
+      <c r="AP8" s="64" t="s">
+        <v>478</v>
+      </c>
       <c r="AQ8" s="64"/>
       <c r="AR8" s="64"/>
       <c r="AS8" s="64"/>
@@ -5699,9 +5735,15 @@
       <c r="AO10" s="50" t="s">
         <v>440</v>
       </c>
-      <c r="AP10" s="49"/>
-      <c r="AQ10" s="49"/>
-      <c r="AR10" s="49"/>
+      <c r="AP10" s="49">
+        <v>10.28</v>
+      </c>
+      <c r="AQ10" s="49">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="AR10" s="49">
+        <v>47.9</v>
+      </c>
       <c r="AS10" s="50" t="s">
         <v>440</v>
       </c>
@@ -5830,10 +5872,18 @@
       <c r="AO11" s="49">
         <v>14.1</v>
       </c>
-      <c r="AP11" s="49"/>
-      <c r="AQ11" s="49"/>
-      <c r="AR11" s="49"/>
-      <c r="AS11" s="49"/>
+      <c r="AP11" s="49">
+        <v>10.27</v>
+      </c>
+      <c r="AQ11" s="49">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AR11" s="49">
+        <v>50.2</v>
+      </c>
+      <c r="AS11" s="50" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A12" s="49">
@@ -5959,10 +6009,18 @@
       <c r="AO12" s="49">
         <v>62.7</v>
       </c>
-      <c r="AP12" s="49"/>
-      <c r="AQ12" s="49"/>
-      <c r="AR12" s="49"/>
-      <c r="AS12" s="49"/>
+      <c r="AP12" s="49">
+        <v>10.26</v>
+      </c>
+      <c r="AQ12" s="49">
+        <v>0.104</v>
+      </c>
+      <c r="AR12" s="49">
+        <v>50.7</v>
+      </c>
+      <c r="AS12" s="49">
+        <v>80.3</v>
+      </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A13" s="49">
@@ -6068,9 +6126,15 @@
         <v>66.2</v>
       </c>
       <c r="AO13" s="49"/>
-      <c r="AP13" s="49"/>
-      <c r="AQ13" s="49"/>
-      <c r="AR13" s="49"/>
+      <c r="AP13" s="49">
+        <v>10.24</v>
+      </c>
+      <c r="AQ13" s="49">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="AR13" s="49">
+        <v>52.8</v>
+      </c>
       <c r="AS13" s="49"/>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.15">
@@ -6177,9 +6241,15 @@
         <v>61.2</v>
       </c>
       <c r="AO14" s="49"/>
-      <c r="AP14" s="49"/>
-      <c r="AQ14" s="49"/>
-      <c r="AR14" s="49"/>
+      <c r="AP14" s="49">
+        <v>10.23</v>
+      </c>
+      <c r="AQ14" s="49">
+        <v>0.13</v>
+      </c>
+      <c r="AR14" s="49">
+        <v>51.8</v>
+      </c>
       <c r="AS14" s="49"/>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.15">
@@ -6306,9 +6376,15 @@
       <c r="AO15" s="50" t="s">
         <v>441</v>
       </c>
-      <c r="AP15" s="49"/>
-      <c r="AQ15" s="49"/>
-      <c r="AR15" s="49"/>
+      <c r="AP15" s="49">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="AQ15" s="49">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="AR15" s="49">
+        <v>52.4</v>
+      </c>
       <c r="AS15" s="50" t="s">
         <v>441</v>
       </c>
@@ -6437,10 +6513,18 @@
       <c r="AO16" s="49">
         <v>13.4</v>
       </c>
-      <c r="AP16" s="49"/>
-      <c r="AQ16" s="49"/>
-      <c r="AR16" s="49"/>
-      <c r="AS16" s="49"/>
+      <c r="AP16" s="49">
+        <v>10.18</v>
+      </c>
+      <c r="AQ16" s="49">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="AR16" s="49">
+        <v>51.5</v>
+      </c>
+      <c r="AS16" s="49">
+        <v>11.6</v>
+      </c>
     </row>
     <row r="17" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A17" s="49">
@@ -6566,10 +6650,18 @@
       <c r="AO17" s="49">
         <v>65.2</v>
       </c>
-      <c r="AP17" s="49"/>
-      <c r="AQ17" s="49"/>
-      <c r="AR17" s="49"/>
-      <c r="AS17" s="49"/>
+      <c r="AP17" s="49">
+        <v>10.14</v>
+      </c>
+      <c r="AQ17" s="49">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="AR17" s="49">
+        <v>52.5</v>
+      </c>
+      <c r="AS17" s="49">
+        <v>80.3</v>
+      </c>
     </row>
     <row r="18" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A18" s="49">
@@ -6675,9 +6767,15 @@
         <v>56.8</v>
       </c>
       <c r="AO18" s="49"/>
-      <c r="AP18" s="49"/>
-      <c r="AQ18" s="49"/>
-      <c r="AR18" s="49"/>
+      <c r="AP18" s="49">
+        <v>10.02</v>
+      </c>
+      <c r="AQ18" s="49">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="AR18" s="49">
+        <v>52.1</v>
+      </c>
       <c r="AS18" s="49"/>
     </row>
     <row r="19" spans="1:45" x14ac:dyDescent="0.15">
@@ -6784,9 +6882,15 @@
         <v>56.3</v>
       </c>
       <c r="AO19" s="49"/>
-      <c r="AP19" s="49"/>
-      <c r="AQ19" s="49"/>
-      <c r="AR19" s="49"/>
+      <c r="AP19" s="49">
+        <v>9.77</v>
+      </c>
+      <c r="AQ19" s="49">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="AR19" s="49">
+        <v>52.1</v>
+      </c>
       <c r="AS19" s="49"/>
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.15">
@@ -6913,9 +7017,15 @@
       <c r="AO20" s="50" t="s">
         <v>442</v>
       </c>
-      <c r="AP20" s="49"/>
-      <c r="AQ20" s="49"/>
-      <c r="AR20" s="49"/>
+      <c r="AP20" s="49">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="AQ20" s="49">
+        <v>0.54</v>
+      </c>
+      <c r="AR20" s="49">
+        <v>52.3</v>
+      </c>
       <c r="AS20" s="50" t="s">
         <v>442</v>
       </c>
@@ -7044,10 +7154,18 @@
       <c r="AO21" s="49">
         <v>12.9</v>
       </c>
-      <c r="AP21" s="49"/>
-      <c r="AQ21" s="49"/>
-      <c r="AR21" s="49"/>
-      <c r="AS21" s="49"/>
+      <c r="AP21" s="49">
+        <v>3.9830000000000001</v>
+      </c>
+      <c r="AQ21" s="49">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="AR21" s="49">
+        <v>51.9</v>
+      </c>
+      <c r="AS21" s="49">
+        <v>11.7</v>
+      </c>
     </row>
     <row r="22" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A22" s="49">
@@ -7173,10 +7291,18 @@
       <c r="AO22" s="49">
         <v>66.5</v>
       </c>
-      <c r="AP22" s="49"/>
-      <c r="AQ22" s="49"/>
-      <c r="AR22" s="49"/>
-      <c r="AS22" s="49"/>
+      <c r="AP22" s="49">
+        <v>3.4129999999999998</v>
+      </c>
+      <c r="AQ22" s="49">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="AR22" s="49">
+        <v>52.8</v>
+      </c>
+      <c r="AS22" s="49">
+        <v>80</v>
+      </c>
     </row>
     <row r="23" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A23" s="49">
@@ -7282,9 +7408,15 @@
         <v>54.1</v>
       </c>
       <c r="AO23" s="49"/>
-      <c r="AP23" s="49"/>
-      <c r="AQ23" s="49"/>
-      <c r="AR23" s="49"/>
+      <c r="AP23" s="49">
+        <v>2.8029999999999999</v>
+      </c>
+      <c r="AQ23" s="49">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="AR23" s="49">
+        <v>52.5</v>
+      </c>
       <c r="AS23" s="49"/>
     </row>
     <row r="24" spans="1:45" x14ac:dyDescent="0.15">
@@ -7391,9 +7523,15 @@
         <v>58.3</v>
       </c>
       <c r="AO24" s="49"/>
-      <c r="AP24" s="49"/>
-      <c r="AQ24" s="49"/>
-      <c r="AR24" s="49"/>
+      <c r="AP24" s="49">
+        <v>2.2010000000000001</v>
+      </c>
+      <c r="AQ24" s="49">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="AR24" s="49">
+        <v>52.2</v>
+      </c>
       <c r="AS24" s="49"/>
     </row>
     <row r="25" spans="1:45" x14ac:dyDescent="0.15">
@@ -7520,9 +7658,15 @@
       <c r="AO25" s="50" t="s">
         <v>443</v>
       </c>
-      <c r="AP25" s="49"/>
-      <c r="AQ25" s="49"/>
-      <c r="AR25" s="49"/>
+      <c r="AP25" s="49">
+        <v>1.7070000000000001</v>
+      </c>
+      <c r="AQ25" s="49">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="AR25" s="49">
+        <v>51.3</v>
+      </c>
       <c r="AS25" s="50" t="s">
         <v>443</v>
       </c>
@@ -7651,10 +7795,18 @@
       <c r="AO26" s="49">
         <v>12.7</v>
       </c>
-      <c r="AP26" s="51"/>
-      <c r="AQ26" s="51"/>
-      <c r="AR26" s="49"/>
-      <c r="AS26" s="49"/>
+      <c r="AP26" s="51">
+        <v>1.0640000000000001</v>
+      </c>
+      <c r="AQ26" s="51">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="AR26" s="49">
+        <v>52.6</v>
+      </c>
+      <c r="AS26" s="49">
+        <v>11.7</v>
+      </c>
     </row>
     <row r="27" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A27" s="49">
@@ -7780,10 +7932,18 @@
       <c r="AO27" s="49">
         <v>67.400000000000006</v>
       </c>
-      <c r="AP27" s="49"/>
-      <c r="AQ27" s="49"/>
-      <c r="AR27" s="49"/>
-      <c r="AS27" s="49"/>
+      <c r="AP27" s="49">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="AQ27" s="49">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="AR27" s="49">
+        <v>51.1</v>
+      </c>
+      <c r="AS27" s="49">
+        <v>79.7</v>
+      </c>
     </row>
     <row r="28" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A28" s="49">
@@ -7889,18 +8049,24 @@
         <v>59.4</v>
       </c>
       <c r="AO28" s="49"/>
-      <c r="AP28" s="49"/>
-      <c r="AQ28" s="49"/>
-      <c r="AR28" s="49"/>
+      <c r="AP28" s="49">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="AQ28" s="49">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="AR28" s="49">
+        <v>52.8</v>
+      </c>
       <c r="AS28" s="49"/>
     </row>
     <row r="29" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="R29" s="72" t="s">
+      <c r="R29" s="66" t="s">
         <v>471</v>
       </c>
-      <c r="S29" s="72"/>
-      <c r="T29" s="72"/>
-      <c r="U29" s="72"/>
+      <c r="S29" s="66"/>
+      <c r="T29" s="66"/>
+      <c r="U29" s="66"/>
       <c r="AD29">
         <v>22.5</v>
       </c>
@@ -7935,21 +8101,277 @@
         <v>12.2</v>
       </c>
     </row>
+    <row r="31" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="32" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="A32" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="59"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="61"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="63"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" s="61"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="63"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="49" t="s">
+        <v>449</v>
+      </c>
+      <c r="B35" s="61"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="63"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="49" t="s">
+        <v>438</v>
+      </c>
+      <c r="B36" s="64"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="50" t="s">
+        <v>422</v>
+      </c>
+      <c r="C37" s="50" t="s">
+        <v>423</v>
+      </c>
+      <c r="D37" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="50" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="49">
+        <v>117</v>
+      </c>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="50" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" s="49">
+        <v>107</v>
+      </c>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" s="49">
+        <v>97</v>
+      </c>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="49">
+        <v>87</v>
+      </c>
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="49">
+        <v>77</v>
+      </c>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="49">
+        <v>67</v>
+      </c>
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="50" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" s="49">
+        <v>57</v>
+      </c>
+      <c r="B44" s="49"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" s="49">
+        <v>47</v>
+      </c>
+      <c r="B45" s="49"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" s="49">
+        <v>37</v>
+      </c>
+      <c r="B46" s="49"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" s="49">
+        <v>27</v>
+      </c>
+      <c r="B47" s="49"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" s="49">
+        <v>17</v>
+      </c>
+      <c r="B48" s="49"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="50" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" s="49">
+        <v>7</v>
+      </c>
+      <c r="B49" s="49"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" s="49">
+        <v>6</v>
+      </c>
+      <c r="B50" s="49"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" s="49">
+        <v>5</v>
+      </c>
+      <c r="B51" s="49"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" s="49">
+        <v>4</v>
+      </c>
+      <c r="B52" s="49"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="49"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" s="49">
+        <v>3</v>
+      </c>
+      <c r="B53" s="49"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="50" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" s="49">
+        <v>2</v>
+      </c>
+      <c r="B54" s="51"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="49"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" s="49">
+        <v>1</v>
+      </c>
+      <c r="B55" s="49"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="49"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" s="49">
+        <v>0</v>
+      </c>
+      <c r="B56" s="49"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49"/>
+    </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="AH5:AK5"/>
-    <mergeCell ref="AH6:AK6"/>
-    <mergeCell ref="AH7:AK7"/>
-    <mergeCell ref="AH8:AK8"/>
-    <mergeCell ref="AD5:AG5"/>
-    <mergeCell ref="AD6:AG6"/>
-    <mergeCell ref="AD7:AG7"/>
-    <mergeCell ref="AD8:AG8"/>
-    <mergeCell ref="R29:U29"/>
-    <mergeCell ref="V5:Y5"/>
-    <mergeCell ref="V6:Y6"/>
-    <mergeCell ref="V7:Y7"/>
-    <mergeCell ref="V8:Y8"/>
+  <mergeCells count="52">
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="AL5:AO5"/>
+    <mergeCell ref="AL6:AO6"/>
+    <mergeCell ref="AL7:AO7"/>
+    <mergeCell ref="AL8:AO8"/>
+    <mergeCell ref="AP5:AS5"/>
+    <mergeCell ref="AP6:AS6"/>
+    <mergeCell ref="AP7:AS7"/>
+    <mergeCell ref="AP8:AS8"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J4:Y4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="Z5:AC5"/>
     <mergeCell ref="Z6:AC6"/>
     <mergeCell ref="Z7:AC7"/>
@@ -7966,25 +8388,19 @@
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J7:M7"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J4:Y4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="R5:U5"/>
-    <mergeCell ref="R6:U6"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="AL5:AO5"/>
-    <mergeCell ref="AL6:AO6"/>
-    <mergeCell ref="AL7:AO7"/>
-    <mergeCell ref="AL8:AO8"/>
-    <mergeCell ref="AP5:AS5"/>
-    <mergeCell ref="AP6:AS6"/>
-    <mergeCell ref="AP7:AS7"/>
-    <mergeCell ref="AP8:AS8"/>
+    <mergeCell ref="R29:U29"/>
+    <mergeCell ref="V5:Y5"/>
+    <mergeCell ref="V6:Y6"/>
+    <mergeCell ref="V7:Y7"/>
+    <mergeCell ref="V8:Y8"/>
+    <mergeCell ref="AH5:AK5"/>
+    <mergeCell ref="AH6:AK6"/>
+    <mergeCell ref="AH7:AK7"/>
+    <mergeCell ref="AH8:AK8"/>
+    <mergeCell ref="AD5:AG5"/>
+    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="AD7:AG7"/>
+    <mergeCell ref="AD8:AG8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8020,93 +8436,93 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="73">
+      <c r="B3" s="77">
         <v>42299</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
-      <c r="W3" s="73"/>
-      <c r="X3" s="73"/>
-      <c r="Y3" s="73"/>
-      <c r="Z3" s="73">
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="77"/>
+      <c r="W3" s="77"/>
+      <c r="X3" s="77"/>
+      <c r="Y3" s="77"/>
+      <c r="Z3" s="77">
         <v>42300</v>
       </c>
-      <c r="AA3" s="75"/>
-      <c r="AB3" s="75"/>
-      <c r="AC3" s="75"/>
-      <c r="AD3" s="75"/>
-      <c r="AE3" s="75"/>
-      <c r="AF3" s="75"/>
-      <c r="AG3" s="75"/>
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="76"/>
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="76"/>
+      <c r="AE3" s="76"/>
+      <c r="AF3" s="76"/>
+      <c r="AG3" s="76"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A4" s="39" t="s">
         <v>454</v>
       </c>
-      <c r="B4" s="74">
+      <c r="B4" s="75">
         <v>0.37013888888888885</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="74">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="75">
         <v>0.4375</v>
       </c>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74">
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75">
         <v>0.52361111111111114</v>
       </c>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74">
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75">
         <v>0.60625000000000007</v>
       </c>
-      <c r="S4" s="74"/>
-      <c r="T4" s="74"/>
-      <c r="U4" s="74"/>
-      <c r="V4" s="74">
+      <c r="S4" s="75"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="75">
         <v>0.67569444444444438</v>
       </c>
-      <c r="W4" s="74"/>
-      <c r="X4" s="74"/>
-      <c r="Y4" s="74"/>
-      <c r="Z4" s="74">
+      <c r="W4" s="75"/>
+      <c r="X4" s="75"/>
+      <c r="Y4" s="75"/>
+      <c r="Z4" s="75">
         <v>0.41180555555555554</v>
       </c>
-      <c r="AA4" s="75"/>
-      <c r="AB4" s="75"/>
-      <c r="AC4" s="75"/>
-      <c r="AD4" s="74">
+      <c r="AA4" s="76"/>
+      <c r="AB4" s="76"/>
+      <c r="AC4" s="76"/>
+      <c r="AD4" s="75">
         <v>0.62986111111111109</v>
       </c>
-      <c r="AE4" s="74"/>
-      <c r="AF4" s="74"/>
-      <c r="AG4" s="74"/>
+      <c r="AE4" s="75"/>
+      <c r="AF4" s="75"/>
+      <c r="AG4" s="75"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A5" s="39" t="s">
@@ -8136,12 +8552,12 @@
       <c r="W5" s="52"/>
       <c r="X5" s="52"/>
       <c r="Y5" s="52"/>
-      <c r="Z5" s="76" t="s">
+      <c r="Z5" s="78" t="s">
         <v>464</v>
       </c>
-      <c r="AA5" s="77"/>
-      <c r="AB5" s="77"/>
-      <c r="AC5" s="77"/>
+      <c r="AA5" s="79"/>
+      <c r="AB5" s="79"/>
+      <c r="AC5" s="79"/>
       <c r="AD5" s="52"/>
       <c r="AE5" s="52"/>
       <c r="AF5" s="52"/>
@@ -8155,46 +8571,46 @@
       <c r="C6" s="52"/>
       <c r="D6" s="52"/>
       <c r="E6" s="52"/>
-      <c r="F6" s="74">
+      <c r="F6" s="75">
         <v>0.38055555555555554</v>
       </c>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="74">
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="75">
         <v>0.44305555555555554</v>
       </c>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74">
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75">
         <v>0.52847222222222223</v>
       </c>
-      <c r="O6" s="74"/>
-      <c r="P6" s="74"/>
-      <c r="Q6" s="74"/>
-      <c r="R6" s="74">
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="75">
         <v>0.61249999999999993</v>
       </c>
-      <c r="S6" s="74"/>
-      <c r="T6" s="74"/>
-      <c r="U6" s="74"/>
-      <c r="V6" s="74">
+      <c r="S6" s="75"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="75">
         <v>0.68194444444444446</v>
       </c>
-      <c r="W6" s="74"/>
-      <c r="X6" s="74"/>
-      <c r="Y6" s="74"/>
-      <c r="Z6" s="77"/>
-      <c r="AA6" s="77"/>
-      <c r="AB6" s="77"/>
-      <c r="AC6" s="77"/>
-      <c r="AD6" s="74">
+      <c r="W6" s="75"/>
+      <c r="X6" s="75"/>
+      <c r="Y6" s="75"/>
+      <c r="Z6" s="79"/>
+      <c r="AA6" s="79"/>
+      <c r="AB6" s="79"/>
+      <c r="AC6" s="79"/>
+      <c r="AD6" s="75">
         <v>0.64236111111111105</v>
       </c>
-      <c r="AE6" s="74"/>
-      <c r="AF6" s="74"/>
-      <c r="AG6" s="74"/>
+      <c r="AE6" s="75"/>
+      <c r="AF6" s="75"/>
+      <c r="AG6" s="75"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
@@ -8418,7 +8834,7 @@
       <c r="C10">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="D10" s="78" t="s">
+      <c r="D10" s="73" t="s">
         <v>450</v>
       </c>
       <c r="F10">
@@ -8510,7 +8926,7 @@
       <c r="C11">
         <v>0.107</v>
       </c>
-      <c r="D11" s="79"/>
+      <c r="D11" s="74"/>
       <c r="F11">
         <v>10.47</v>
       </c>
@@ -8600,7 +9016,7 @@
       <c r="C12">
         <v>0.11799999999999999</v>
       </c>
-      <c r="D12" s="79"/>
+      <c r="D12" s="74"/>
       <c r="F12">
         <v>10.47</v>
       </c>
@@ -8672,7 +9088,7 @@
       <c r="C13">
         <v>0.13500000000000001</v>
       </c>
-      <c r="D13" s="79"/>
+      <c r="D13" s="74"/>
       <c r="F13">
         <v>10.46</v>
       </c>
@@ -8744,7 +9160,7 @@
       <c r="C14">
         <v>0.154</v>
       </c>
-      <c r="D14" s="79"/>
+      <c r="D14" s="74"/>
       <c r="E14" s="39" t="s">
         <v>441</v>
       </c>
@@ -8840,7 +9256,7 @@
       <c r="C15">
         <v>0.184</v>
       </c>
-      <c r="D15" s="79"/>
+      <c r="D15" s="74"/>
       <c r="F15">
         <v>10.43</v>
       </c>
@@ -8923,7 +9339,7 @@
       <c r="C16">
         <v>0.218</v>
       </c>
-      <c r="D16" s="79"/>
+      <c r="D16" s="74"/>
       <c r="F16">
         <v>10.42</v>
       </c>
@@ -9006,7 +9422,7 @@
       <c r="C17">
         <v>0.27500000000000002</v>
       </c>
-      <c r="D17" s="79"/>
+      <c r="D17" s="74"/>
       <c r="F17">
         <v>10.42</v>
       </c>
@@ -9081,7 +9497,7 @@
       <c r="C18">
         <v>0.42099999999999999</v>
       </c>
-      <c r="D18" s="79"/>
+      <c r="D18" s="74"/>
       <c r="F18">
         <v>10.4</v>
       </c>
@@ -9156,7 +9572,7 @@
       <c r="C19">
         <v>0.61699999999999999</v>
       </c>
-      <c r="D19" s="79"/>
+      <c r="D19" s="74"/>
       <c r="E19" s="39" t="s">
         <v>442</v>
       </c>
@@ -9255,7 +9671,7 @@
       <c r="C20">
         <v>1.425</v>
       </c>
-      <c r="D20" s="79"/>
+      <c r="D20" s="74"/>
       <c r="F20">
         <v>10.3</v>
       </c>
@@ -9345,7 +9761,7 @@
       <c r="C21">
         <v>1.649</v>
       </c>
-      <c r="D21" s="79"/>
+      <c r="D21" s="74"/>
       <c r="F21">
         <v>10.02</v>
       </c>
@@ -9435,7 +9851,7 @@
       <c r="C22">
         <v>2</v>
       </c>
-      <c r="D22" s="79"/>
+      <c r="D22" s="74"/>
       <c r="F22">
         <v>9.94</v>
       </c>
@@ -9510,7 +9926,7 @@
       <c r="C23">
         <v>2.4950000000000001</v>
       </c>
-      <c r="D23" s="79"/>
+      <c r="D23" s="74"/>
       <c r="F23">
         <v>9.82</v>
       </c>
@@ -9585,7 +10001,7 @@
       <c r="C24">
         <v>3.0350000000000001</v>
       </c>
-      <c r="D24" s="79"/>
+      <c r="D24" s="74"/>
       <c r="E24" s="39" t="s">
         <v>443</v>
       </c>
@@ -9684,7 +10100,7 @@
       <c r="C25">
         <v>3.2789999999999999</v>
       </c>
-      <c r="D25" s="79"/>
+      <c r="D25" s="74"/>
       <c r="F25">
         <v>8.9700000000000006</v>
       </c>
@@ -9777,7 +10193,7 @@
       <c r="C26">
         <v>3.3</v>
       </c>
-      <c r="D26" s="79"/>
+      <c r="D26" s="74"/>
       <c r="F26">
         <v>5.95</v>
       </c>
@@ -9870,7 +10286,7 @@
       <c r="C27">
         <v>3.3</v>
       </c>
-      <c r="D27" s="79"/>
+      <c r="D27" s="74"/>
       <c r="F27">
         <v>3.105</v>
       </c>
@@ -9937,11 +10353,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D10:D27"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="R4:U4"/>
     <mergeCell ref="B3:Y3"/>
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="Z3:AG3"/>
@@ -9955,6 +10366,11 @@
     <mergeCell ref="AD4:AG4"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="V4:Y4"/>
+    <mergeCell ref="D10:D27"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="R4:U4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10305,138 +10721,138 @@
       <c r="A1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="99" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="101" t="s">
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="99" t="s">
         <v>458</v>
       </c>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="93" t="s">
         <v>461</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="91" t="s">
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="91"/>
-      <c r="J2" s="104" t="s">
+      <c r="I2" s="103"/>
+      <c r="J2" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="91" t="s">
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="91"/>
+      <c r="O2" s="103"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="97" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="98" t="s">
+      <c r="C3" s="98"/>
+      <c r="D3" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="107"/>
-      <c r="F3" s="98" t="s">
+      <c r="E3" s="98"/>
+      <c r="F3" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="107"/>
-      <c r="H3" s="98" t="s">
+      <c r="G3" s="98"/>
+      <c r="H3" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="107"/>
-      <c r="J3" s="104" t="s">
+      <c r="I3" s="98"/>
+      <c r="J3" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="K3" s="106"/>
-      <c r="L3" s="104" t="s">
+      <c r="K3" s="94"/>
+      <c r="L3" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="106"/>
-      <c r="N3" s="98" t="s">
+      <c r="M3" s="94"/>
+      <c r="N3" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="99"/>
+      <c r="O3" s="104"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="94" t="s">
+      <c r="C4" s="92"/>
+      <c r="D4" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="95"/>
-      <c r="F4" s="94" t="s">
+      <c r="E4" s="92"/>
+      <c r="F4" s="91" t="s">
         <v>130</v>
       </c>
-      <c r="G4" s="95"/>
-      <c r="H4" s="94" t="s">
+      <c r="G4" s="92"/>
+      <c r="H4" s="91" t="s">
         <v>131</v>
       </c>
-      <c r="I4" s="95"/>
-      <c r="J4" s="96" t="s">
+      <c r="I4" s="92"/>
+      <c r="J4" s="95" t="s">
         <v>457</v>
       </c>
-      <c r="K4" s="97"/>
-      <c r="L4" s="96" t="s">
+      <c r="K4" s="96"/>
+      <c r="L4" s="95" t="s">
         <v>457</v>
       </c>
-      <c r="M4" s="97"/>
-      <c r="N4" s="94" t="s">
+      <c r="M4" s="96"/>
+      <c r="N4" s="91" t="s">
         <v>457</v>
       </c>
-      <c r="O4" s="100"/>
+      <c r="O4" s="105"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="91" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="95"/>
-      <c r="D5" s="94" t="s">
+      <c r="C5" s="92"/>
+      <c r="D5" s="91" t="s">
         <v>127</v>
       </c>
-      <c r="E5" s="95"/>
-      <c r="F5" s="94" t="s">
+      <c r="E5" s="92"/>
+      <c r="F5" s="91" t="s">
         <v>128</v>
       </c>
-      <c r="G5" s="95"/>
-      <c r="H5" s="94" t="s">
+      <c r="G5" s="92"/>
+      <c r="H5" s="91" t="s">
         <v>129</v>
       </c>
-      <c r="I5" s="95"/>
+      <c r="I5" s="92"/>
       <c r="J5" s="54"/>
       <c r="K5" s="54"/>
       <c r="L5" s="54"/>
@@ -10451,27 +10867,27 @@
       <c r="D6" s="54"/>
       <c r="F6" s="54"/>
       <c r="H6" s="54"/>
-      <c r="J6" s="96" t="s">
+      <c r="J6" s="95" t="s">
         <v>460</v>
       </c>
-      <c r="K6" s="97"/>
-      <c r="L6" s="96" t="s">
+      <c r="K6" s="96"/>
+      <c r="L6" s="95" t="s">
         <v>460</v>
       </c>
-      <c r="M6" s="97"/>
-      <c r="N6" s="101" t="s">
+      <c r="M6" s="96"/>
+      <c r="N6" s="99" t="s">
         <v>460</v>
       </c>
-      <c r="O6" s="102"/>
+      <c r="O6" s="100"/>
     </row>
     <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="106" t="s">
         <v>80</v>
       </c>
       <c r="C7" s="40">
         <v>78.2</v>
       </c>
-      <c r="D7" s="93" t="s">
+      <c r="D7" s="106" t="s">
         <v>80</v>
       </c>
       <c r="E7" s="41">
@@ -10509,11 +10925,11 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B8" s="93"/>
+      <c r="B8" s="106"/>
       <c r="C8" s="40">
         <v>78.400000000000006</v>
       </c>
-      <c r="D8" s="93"/>
+      <c r="D8" s="106"/>
       <c r="E8" s="41">
         <v>53.4</v>
       </c>
@@ -10539,11 +10955,11 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B9" s="93"/>
+      <c r="B9" s="106"/>
       <c r="C9" s="40">
         <v>78.400000000000006</v>
       </c>
-      <c r="D9" s="93"/>
+      <c r="D9" s="106"/>
       <c r="E9" s="41">
         <v>53.9</v>
       </c>
@@ -10569,11 +10985,11 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B10" s="93"/>
+      <c r="B10" s="106"/>
       <c r="C10" s="40">
         <v>78.400000000000006</v>
       </c>
-      <c r="D10" s="93"/>
+      <c r="D10" s="106"/>
       <c r="E10" s="41">
         <v>54</v>
       </c>
@@ -10599,11 +11015,11 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B11" s="93"/>
+      <c r="B11" s="106"/>
       <c r="C11" s="40">
         <v>78.400000000000006</v>
       </c>
-      <c r="D11" s="93"/>
+      <c r="D11" s="106"/>
       <c r="E11" s="41">
         <v>53.9</v>
       </c>
@@ -10629,11 +11045,11 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B12" s="93"/>
+      <c r="B12" s="106"/>
       <c r="C12" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D12" s="93"/>
+      <c r="D12" s="106"/>
       <c r="E12" s="41">
         <v>55.2</v>
       </c>
@@ -10659,11 +11075,11 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B13" s="93"/>
+      <c r="B13" s="106"/>
       <c r="C13" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D13" s="93"/>
+      <c r="D13" s="106"/>
       <c r="E13" s="41">
         <v>53.7</v>
       </c>
@@ -10689,11 +11105,11 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B14" s="93"/>
+      <c r="B14" s="106"/>
       <c r="C14" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D14" s="93"/>
+      <c r="D14" s="106"/>
       <c r="E14" s="41">
         <v>53.4</v>
       </c>
@@ -10719,11 +11135,11 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B15" s="93"/>
+      <c r="B15" s="106"/>
       <c r="C15" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D15" s="93"/>
+      <c r="D15" s="106"/>
       <c r="E15" s="41">
         <v>53.1</v>
       </c>
@@ -10749,11 +11165,11 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B16" s="93"/>
+      <c r="B16" s="106"/>
       <c r="C16" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D16" s="93"/>
+      <c r="D16" s="106"/>
       <c r="E16" s="41">
         <v>52.6</v>
       </c>
@@ -10779,7 +11195,7 @@
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B17" s="91" t="s">
+      <c r="B17" s="103" t="s">
         <v>444</v>
       </c>
       <c r="C17" s="40">
@@ -10813,7 +11229,7 @@
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B18" s="91"/>
+      <c r="B18" s="103"/>
       <c r="C18" s="40">
         <v>79.5</v>
       </c>
@@ -10843,7 +11259,7 @@
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B19" s="91"/>
+      <c r="B19" s="103"/>
       <c r="C19" s="40">
         <v>79.5</v>
       </c>
@@ -10873,7 +11289,7 @@
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B20" s="91"/>
+      <c r="B20" s="103"/>
       <c r="C20" s="40">
         <v>79.5</v>
       </c>
@@ -10903,7 +11319,7 @@
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B21" s="91"/>
+      <c r="B21" s="103"/>
       <c r="C21" s="40">
         <v>79.5</v>
       </c>
@@ -10933,7 +11349,7 @@
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B22" s="91" t="s">
+      <c r="B22" s="103" t="s">
         <v>55</v>
       </c>
       <c r="C22" s="40">
@@ -10967,7 +11383,7 @@
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B23" s="91"/>
+      <c r="B23" s="103"/>
       <c r="C23" s="40">
         <v>80</v>
       </c>
@@ -10997,7 +11413,7 @@
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B24" s="91"/>
+      <c r="B24" s="103"/>
       <c r="C24" s="40">
         <v>80</v>
       </c>
@@ -11027,7 +11443,7 @@
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B25" s="91"/>
+      <c r="B25" s="103"/>
       <c r="C25" s="40">
         <v>80</v>
       </c>
@@ -11057,7 +11473,7 @@
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B26" s="91"/>
+      <c r="B26" s="103"/>
       <c r="C26" s="40">
         <v>80</v>
       </c>
@@ -11087,7 +11503,7 @@
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B27" s="91" t="s">
+      <c r="B27" s="103" t="s">
         <v>56</v>
       </c>
       <c r="C27" s="40">
@@ -11121,7 +11537,7 @@
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B28" s="91"/>
+      <c r="B28" s="103"/>
       <c r="C28" s="40">
         <v>80.7</v>
       </c>
@@ -11151,7 +11567,7 @@
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B29" s="91"/>
+      <c r="B29" s="103"/>
       <c r="C29" s="40">
         <v>80.7</v>
       </c>
@@ -11181,7 +11597,7 @@
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B30" s="91"/>
+      <c r="B30" s="103"/>
       <c r="C30" s="40">
         <v>80.7</v>
       </c>
@@ -11211,7 +11627,7 @@
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B31" s="91"/>
+      <c r="B31" s="103"/>
       <c r="C31" s="40">
         <v>80.900000000000006</v>
       </c>
@@ -11241,7 +11657,7 @@
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B32" s="91" t="s">
+      <c r="B32" s="103" t="s">
         <v>57</v>
       </c>
       <c r="C32" s="40">
@@ -11275,7 +11691,7 @@
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B33" s="91"/>
+      <c r="B33" s="103"/>
       <c r="C33" s="40">
         <v>81.099999999999994</v>
       </c>
@@ -11305,7 +11721,7 @@
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B34" s="91"/>
+      <c r="B34" s="103"/>
       <c r="C34" s="40">
         <v>81.099999999999994</v>
       </c>
@@ -11335,7 +11751,7 @@
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B35" s="91"/>
+      <c r="B35" s="103"/>
       <c r="C35" s="40">
         <v>81.099999999999994</v>
       </c>
@@ -11365,7 +11781,7 @@
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B36" s="91"/>
+      <c r="B36" s="103"/>
       <c r="C36" s="40">
         <v>81.099999999999994</v>
       </c>
@@ -11395,7 +11811,7 @@
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B37" s="91" t="s">
+      <c r="B37" s="103" t="s">
         <v>58</v>
       </c>
       <c r="C37" s="40">
@@ -11429,7 +11845,7 @@
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B38" s="91"/>
+      <c r="B38" s="103"/>
       <c r="C38" s="40">
         <v>81.5</v>
       </c>
@@ -11459,7 +11875,7 @@
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B39" s="91"/>
+      <c r="B39" s="103"/>
       <c r="C39" s="40">
         <v>81.5</v>
       </c>
@@ -11489,7 +11905,7 @@
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B40" s="91"/>
+      <c r="B40" s="103"/>
       <c r="C40" s="40">
         <v>81.5</v>
       </c>
@@ -11519,7 +11935,7 @@
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B41" s="91"/>
+      <c r="B41" s="103"/>
       <c r="C41" s="40">
         <v>81.5</v>
       </c>
@@ -11549,7 +11965,7 @@
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B42" s="91" t="s">
+      <c r="B42" s="103" t="s">
         <v>59</v>
       </c>
       <c r="C42" s="40">
@@ -11583,7 +11999,7 @@
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B43" s="91"/>
+      <c r="B43" s="103"/>
       <c r="C43" s="40">
         <v>82.4</v>
       </c>
@@ -11613,7 +12029,7 @@
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B44" s="91"/>
+      <c r="B44" s="103"/>
       <c r="C44" s="40">
         <v>82.4</v>
       </c>
@@ -11643,7 +12059,7 @@
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B45" s="91"/>
+      <c r="B45" s="103"/>
       <c r="C45" s="40">
         <v>82.4</v>
       </c>
@@ -11673,7 +12089,7 @@
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B46" s="91"/>
+      <c r="B46" s="103"/>
       <c r="C46" s="40">
         <v>82.4</v>
       </c>
@@ -11703,13 +12119,13 @@
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B47" s="91" t="s">
+      <c r="B47" s="103" t="s">
         <v>94</v>
       </c>
       <c r="C47" s="40">
         <v>82.9</v>
       </c>
-      <c r="D47" s="92" t="s">
+      <c r="D47" s="107" t="s">
         <v>90</v>
       </c>
       <c r="E47" s="41">
@@ -11722,11 +12138,11 @@
       <c r="J47" s="56"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B48" s="91"/>
+      <c r="B48" s="103"/>
       <c r="C48" s="40">
         <v>83.1</v>
       </c>
-      <c r="D48" s="92"/>
+      <c r="D48" s="107"/>
       <c r="E48" s="41">
         <v>43.4</v>
       </c>
@@ -11737,11 +12153,11 @@
       <c r="J48" s="56"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B49" s="91"/>
+      <c r="B49" s="103"/>
       <c r="C49" s="40">
         <v>83.1</v>
       </c>
-      <c r="D49" s="92"/>
+      <c r="D49" s="107"/>
       <c r="E49" s="41">
         <v>43.4</v>
       </c>
@@ -11752,11 +12168,11 @@
       <c r="J49" s="56"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B50" s="91"/>
+      <c r="B50" s="103"/>
       <c r="C50" s="40">
         <v>83.1</v>
       </c>
-      <c r="D50" s="92"/>
+      <c r="D50" s="107"/>
       <c r="E50" s="41">
         <v>43.4</v>
       </c>
@@ -11767,11 +12183,11 @@
       <c r="J50" s="56"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B51" s="91"/>
+      <c r="B51" s="103"/>
       <c r="C51" s="40">
         <v>83.1</v>
       </c>
-      <c r="D51" s="92"/>
+      <c r="D51" s="107"/>
       <c r="E51" s="41">
         <v>43.4</v>
       </c>
@@ -11782,13 +12198,13 @@
       <c r="J51" s="56"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B52" s="91" t="s">
+      <c r="B52" s="103" t="s">
         <v>95</v>
       </c>
       <c r="C52" s="40">
         <v>83.4</v>
       </c>
-      <c r="D52" s="92" t="s">
+      <c r="D52" s="107" t="s">
         <v>92</v>
       </c>
       <c r="E52" s="41">
@@ -11801,11 +12217,11 @@
       <c r="J52" s="56"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B53" s="91"/>
+      <c r="B53" s="103"/>
       <c r="C53" s="40">
         <v>83.4</v>
       </c>
-      <c r="D53" s="92"/>
+      <c r="D53" s="107"/>
       <c r="E53" s="41">
         <v>43.3</v>
       </c>
@@ -11816,11 +12232,11 @@
       <c r="J53" s="56"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B54" s="91"/>
+      <c r="B54" s="103"/>
       <c r="C54" s="40">
         <v>83.4</v>
       </c>
-      <c r="D54" s="92"/>
+      <c r="D54" s="107"/>
       <c r="E54" s="41">
         <v>43.4</v>
       </c>
@@ -11831,11 +12247,11 @@
       <c r="J54" s="56"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B55" s="91"/>
+      <c r="B55" s="103"/>
       <c r="C55" s="40">
         <v>83.6</v>
       </c>
-      <c r="D55" s="92"/>
+      <c r="D55" s="107"/>
       <c r="E55" s="41">
         <v>43.4</v>
       </c>
@@ -11846,11 +12262,11 @@
       <c r="J55" s="56"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B56" s="91"/>
+      <c r="B56" s="103"/>
       <c r="C56" s="40">
         <v>83.3</v>
       </c>
-      <c r="D56" s="92"/>
+      <c r="D56" s="107"/>
       <c r="E56" s="41">
         <v>43.4</v>
       </c>
@@ -11861,7 +12277,7 @@
       <c r="J56" s="56"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B57" s="91" t="s">
+      <c r="B57" s="103" t="s">
         <v>96</v>
       </c>
       <c r="C57" s="40">
@@ -11876,7 +12292,7 @@
       <c r="J57" s="56"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B58" s="91"/>
+      <c r="B58" s="103"/>
       <c r="C58" s="40">
         <v>83.4</v>
       </c>
@@ -11889,7 +12305,7 @@
       <c r="J58" s="56"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B59" s="91"/>
+      <c r="B59" s="103"/>
       <c r="C59" s="40">
         <v>83.3</v>
       </c>
@@ -11902,7 +12318,7 @@
       <c r="J59" s="56"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B60" s="91"/>
+      <c r="B60" s="103"/>
       <c r="C60" s="40">
         <v>83.3</v>
       </c>
@@ -11915,7 +12331,7 @@
       <c r="J60" s="56"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B61" s="91"/>
+      <c r="B61" s="103"/>
       <c r="C61" s="40">
         <v>83.4</v>
       </c>
@@ -11928,7 +12344,7 @@
       <c r="J61" s="56"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B62" s="91" t="s">
+      <c r="B62" s="103" t="s">
         <v>97</v>
       </c>
       <c r="C62" s="40">
@@ -11943,7 +12359,7 @@
       <c r="J62" s="56"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B63" s="91"/>
+      <c r="B63" s="103"/>
       <c r="C63" s="40">
         <v>83.8</v>
       </c>
@@ -11956,7 +12372,7 @@
       <c r="J63" s="56"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B64" s="91"/>
+      <c r="B64" s="103"/>
       <c r="C64" s="40">
         <v>83.6</v>
       </c>
@@ -11969,7 +12385,7 @@
       <c r="J64" s="56"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B65" s="91"/>
+      <c r="B65" s="103"/>
       <c r="C65" s="40">
         <v>83.8</v>
       </c>
@@ -11982,7 +12398,7 @@
       <c r="J65" s="56"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B66" s="91"/>
+      <c r="B66" s="103"/>
       <c r="C66" s="40">
         <v>83.8</v>
       </c>
@@ -11995,7 +12411,7 @@
       <c r="J66" s="56"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B67" s="91" t="s">
+      <c r="B67" s="103" t="s">
         <v>93</v>
       </c>
       <c r="C67" s="40">
@@ -12010,7 +12426,7 @@
       <c r="J67" s="56"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B68" s="91"/>
+      <c r="B68" s="103"/>
       <c r="C68" s="40">
         <v>84</v>
       </c>
@@ -12023,7 +12439,7 @@
       <c r="J68" s="56"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B69" s="91"/>
+      <c r="B69" s="103"/>
       <c r="C69" s="40">
         <v>84</v>
       </c>
@@ -12036,7 +12452,7 @@
       <c r="J69" s="56"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B70" s="91"/>
+      <c r="B70" s="103"/>
       <c r="C70" s="40">
         <v>84</v>
       </c>
@@ -12049,7 +12465,7 @@
       <c r="J70" s="56"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B71" s="91"/>
+      <c r="B71" s="103"/>
       <c r="C71" s="40">
         <v>84</v>
       </c>
@@ -12062,7 +12478,7 @@
       <c r="J71" s="56"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B72" s="91" t="s">
+      <c r="B72" s="103" t="s">
         <v>82</v>
       </c>
       <c r="C72" s="40">
@@ -12077,7 +12493,7 @@
       <c r="J72" s="56"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B73" s="91"/>
+      <c r="B73" s="103"/>
       <c r="C73" s="40">
         <v>83.4</v>
       </c>
@@ -12090,7 +12506,7 @@
       <c r="J73" s="56"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B74" s="91"/>
+      <c r="B74" s="103"/>
       <c r="C74" s="40">
         <v>83.3</v>
       </c>
@@ -12103,7 +12519,7 @@
       <c r="J74" s="56"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B75" s="91"/>
+      <c r="B75" s="103"/>
       <c r="C75" s="40">
         <v>83.3</v>
       </c>
@@ -12116,7 +12532,7 @@
       <c r="J75" s="56"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B76" s="91"/>
+      <c r="B76" s="103"/>
       <c r="C76" s="40">
         <v>83.3</v>
       </c>
@@ -12129,7 +12545,7 @@
       <c r="J76" s="56"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B77" s="91" t="s">
+      <c r="B77" s="103" t="s">
         <v>83</v>
       </c>
       <c r="C77" s="40">
@@ -12144,7 +12560,7 @@
       <c r="J77" s="56"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B78" s="91"/>
+      <c r="B78" s="103"/>
       <c r="C78" s="40">
         <v>83.4</v>
       </c>
@@ -12157,7 +12573,7 @@
       <c r="J78" s="56"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B79" s="91"/>
+      <c r="B79" s="103"/>
       <c r="C79" s="40">
         <v>83.4</v>
       </c>
@@ -12170,7 +12586,7 @@
       <c r="J79" s="56"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B80" s="91"/>
+      <c r="B80" s="103"/>
       <c r="C80" s="40">
         <v>83.4</v>
       </c>
@@ -12183,7 +12599,7 @@
       <c r="J80" s="56"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B81" s="91"/>
+      <c r="B81" s="103"/>
       <c r="C81" s="40">
         <v>83.4</v>
       </c>
@@ -12196,7 +12612,7 @@
       <c r="J81" s="56"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B82" s="91" t="s">
+      <c r="B82" s="103" t="s">
         <v>84</v>
       </c>
       <c r="C82" s="40">
@@ -12211,7 +12627,7 @@
       <c r="J82" s="56"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B83" s="91"/>
+      <c r="B83" s="103"/>
       <c r="C83" s="40">
         <v>83.3</v>
       </c>
@@ -12224,7 +12640,7 @@
       <c r="J83" s="56"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B84" s="91"/>
+      <c r="B84" s="103"/>
       <c r="C84" s="40">
         <v>83.3</v>
       </c>
@@ -12237,7 +12653,7 @@
       <c r="J84" s="56"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B85" s="91"/>
+      <c r="B85" s="103"/>
       <c r="C85" s="40">
         <v>83.3</v>
       </c>
@@ -12250,7 +12666,7 @@
       <c r="J85" s="56"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B86" s="91"/>
+      <c r="B86" s="103"/>
       <c r="C86" s="40">
         <v>83.3</v>
       </c>
@@ -12263,7 +12679,7 @@
       <c r="J86" s="56"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B87" s="91" t="s">
+      <c r="B87" s="103" t="s">
         <v>87</v>
       </c>
       <c r="C87" s="40">
@@ -12278,7 +12694,7 @@
       <c r="J87" s="56"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B88" s="91"/>
+      <c r="B88" s="103"/>
       <c r="C88" s="40">
         <v>83.8</v>
       </c>
@@ -12291,7 +12707,7 @@
       <c r="J88" s="56"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B89" s="91"/>
+      <c r="B89" s="103"/>
       <c r="C89" s="40">
         <v>83.8</v>
       </c>
@@ -12304,7 +12720,7 @@
       <c r="J89" s="56"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B90" s="91"/>
+      <c r="B90" s="103"/>
       <c r="C90" s="40">
         <v>84</v>
       </c>
@@ -12317,7 +12733,7 @@
       <c r="J90" s="56"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B91" s="91"/>
+      <c r="B91" s="103"/>
       <c r="C91" s="40">
         <v>84</v>
       </c>
@@ -12330,7 +12746,7 @@
       <c r="J91" s="56"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B92" s="91" t="s">
+      <c r="B92" s="103" t="s">
         <v>89</v>
       </c>
       <c r="C92" s="40">
@@ -12345,7 +12761,7 @@
       <c r="J92" s="56"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B93" s="91"/>
+      <c r="B93" s="103"/>
       <c r="C93" s="40">
         <v>84</v>
       </c>
@@ -12358,7 +12774,7 @@
       <c r="J93" s="56"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B94" s="91"/>
+      <c r="B94" s="103"/>
       <c r="C94" s="40">
         <v>84</v>
       </c>
@@ -12371,7 +12787,7 @@
       <c r="J94" s="56"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B95" s="91"/>
+      <c r="B95" s="103"/>
       <c r="C95" s="40">
         <v>84.2</v>
       </c>
@@ -12384,7 +12800,7 @@
       <c r="J95" s="56"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B96" s="91"/>
+      <c r="B96" s="103"/>
       <c r="C96" s="40">
         <v>84.2</v>
       </c>
@@ -12397,7 +12813,7 @@
       <c r="J96" s="56"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B97" s="91" t="s">
+      <c r="B97" s="103" t="s">
         <v>91</v>
       </c>
       <c r="C97" s="40">
@@ -12412,7 +12828,7 @@
       <c r="J97" s="56"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B98" s="91"/>
+      <c r="B98" s="103"/>
       <c r="C98" s="40">
         <v>84</v>
       </c>
@@ -12425,7 +12841,7 @@
       <c r="J98" s="56"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B99" s="91"/>
+      <c r="B99" s="103"/>
       <c r="C99" s="40">
         <v>84</v>
       </c>
@@ -12438,7 +12854,7 @@
       <c r="J99" s="56"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B100" s="91"/>
+      <c r="B100" s="103"/>
       <c r="C100" s="40">
         <v>84</v>
       </c>
@@ -12451,7 +12867,7 @@
       <c r="J100" s="56"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B101" s="91"/>
+      <c r="B101" s="103"/>
       <c r="C101" s="40">
         <v>84</v>
       </c>
@@ -12465,12 +12881,43 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B97:B101"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="D42:D46"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="L7:L46"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B92:B96"/>
+    <mergeCell ref="B7:B16"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="D7:D16"/>
+    <mergeCell ref="F7:F46"/>
+    <mergeCell ref="H7:H46"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N6:O6"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="J7:J46"/>
     <mergeCell ref="J2:M2"/>
@@ -12487,43 +12934,12 @@
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="N7:N46"/>
     <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L7:L46"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B92:B96"/>
-    <mergeCell ref="B7:B16"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="D7:D16"/>
-    <mergeCell ref="F7:F46"/>
-    <mergeCell ref="H7:H46"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B97:B101"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="D37:D41"/>
-    <mergeCell ref="D42:D46"/>
-    <mergeCell ref="D47:D51"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12541,44 +12957,44 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="115" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
       <c r="G1" s="17"/>
-      <c r="H1" s="113" t="s">
+      <c r="H1" s="117" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113" t="s">
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A2" s="114"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
+      <c r="A2" s="118"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A3" s="26" t="s">
@@ -12602,27 +13018,27 @@
       <c r="G3" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="H3" s="104" t="s">
+      <c r="H3" s="93" t="s">
         <v>189</v>
       </c>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="106"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="94"/>
       <c r="P3" s="31">
         <v>0.36041666666666666</v>
       </c>
-      <c r="Q3" s="104" t="s">
+      <c r="Q3" s="93" t="s">
         <v>189</v>
       </c>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
-      <c r="U3" s="105"/>
-      <c r="V3" s="105"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
+      <c r="U3" s="102"/>
+      <c r="V3" s="102"/>
       <c r="W3" s="37">
         <v>0.36319444444444443</v>
       </c>
@@ -12631,13 +13047,13 @@
       <c r="Z3" s="20"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="108" t="s">
         <v>133</v>
       </c>
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="103" t="s">
         <v>98</v>
       </c>
       <c r="D4" s="23">
@@ -12701,9 +13117,9 @@
       <c r="Z4" s="13"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A5" s="117"/>
-      <c r="B5" s="120"/>
-      <c r="C5" s="91"/>
+      <c r="A5" s="109"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="103"/>
       <c r="D5" s="23">
         <v>2</v>
       </c>
@@ -12763,9 +13179,9 @@
       <c r="Z5" s="13"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A6" s="117"/>
-      <c r="B6" s="120"/>
-      <c r="C6" s="91"/>
+      <c r="A6" s="109"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="103"/>
       <c r="D6" s="23">
         <v>3</v>
       </c>
@@ -12825,9 +13241,9 @@
       <c r="Z6" s="13"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A7" s="117"/>
-      <c r="B7" s="120"/>
-      <c r="C7" s="91"/>
+      <c r="A7" s="109"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="103"/>
       <c r="D7" s="23">
         <v>4</v>
       </c>
@@ -12887,9 +13303,9 @@
       <c r="Z7" s="13"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A8" s="117"/>
-      <c r="B8" s="120"/>
-      <c r="C8" s="91"/>
+      <c r="A8" s="109"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="103"/>
       <c r="D8" s="23">
         <v>5</v>
       </c>
@@ -12949,15 +13365,15 @@
       <c r="Z8" s="13"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A9" s="117"/>
-      <c r="B9" s="120"/>
+      <c r="A9" s="109"/>
+      <c r="B9" s="112"/>
       <c r="C9" s="26"/>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="122"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="114"/>
       <c r="J9" s="81"/>
       <c r="K9" s="81"/>
       <c r="L9" s="81"/>
@@ -12977,8 +13393,8 @@
       <c r="Z9" s="21"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A10" s="117"/>
-      <c r="B10" s="120"/>
+      <c r="A10" s="109"/>
+      <c r="B10" s="112"/>
       <c r="C10" s="26"/>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
@@ -13009,9 +13425,9 @@
       <c r="Z10" s="11"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A11" s="117"/>
-      <c r="B11" s="120"/>
-      <c r="C11" s="91" t="s">
+      <c r="A11" s="109"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="103" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="23">
@@ -13075,9 +13491,9 @@
       <c r="Z11" s="11"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A12" s="117"/>
-      <c r="B12" s="120"/>
-      <c r="C12" s="91"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="103"/>
       <c r="D12" s="23">
         <v>2</v>
       </c>
@@ -13137,9 +13553,9 @@
       <c r="Z12" s="11"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A13" s="117"/>
-      <c r="B13" s="120"/>
-      <c r="C13" s="91"/>
+      <c r="A13" s="109"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="103"/>
       <c r="D13" s="23">
         <v>3</v>
       </c>
@@ -13199,9 +13615,9 @@
       <c r="Z13" s="11"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A14" s="117"/>
-      <c r="B14" s="120"/>
-      <c r="C14" s="91"/>
+      <c r="A14" s="109"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="103"/>
       <c r="D14" s="23">
         <v>4</v>
       </c>
@@ -13261,9 +13677,9 @@
       <c r="Z14" s="11"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A15" s="117"/>
-      <c r="B15" s="120"/>
-      <c r="C15" s="91"/>
+      <c r="A15" s="109"/>
+      <c r="B15" s="112"/>
+      <c r="C15" s="103"/>
       <c r="D15" s="23">
         <v>5</v>
       </c>
@@ -13323,23 +13739,23 @@
       <c r="Z15" s="11"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A16" s="117"/>
-      <c r="B16" s="121"/>
+      <c r="A16" s="109"/>
+      <c r="B16" s="113"/>
       <c r="C16" s="29"/>
       <c r="D16" s="22"/>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="108" t="s">
+      <c r="H16" s="120" t="s">
         <v>178</v>
       </c>
-      <c r="I16" s="109"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="109"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="109"/>
-      <c r="N16" s="109"/>
-      <c r="O16" s="110"/>
+      <c r="I16" s="121"/>
+      <c r="J16" s="121"/>
+      <c r="K16" s="121"/>
+      <c r="L16" s="121"/>
+      <c r="M16" s="121"/>
+      <c r="N16" s="121"/>
+      <c r="O16" s="122"/>
       <c r="P16" s="36"/>
       <c r="Q16" s="36"/>
       <c r="R16" s="36"/>
@@ -13353,11 +13769,11 @@
       <c r="Z16" s="11"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A17" s="117"/>
-      <c r="B17" s="91" t="s">
+      <c r="A17" s="109"/>
+      <c r="B17" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="91" t="s">
+      <c r="C17" s="103" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="23">
@@ -13407,9 +13823,9 @@
       <c r="Z17" s="11"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A18" s="117"/>
-      <c r="B18" s="91"/>
-      <c r="C18" s="91"/>
+      <c r="A18" s="109"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="103"/>
       <c r="D18" s="23">
         <v>2</v>
       </c>
@@ -13453,9 +13869,9 @@
       <c r="Z18" s="11"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A19" s="117"/>
-      <c r="B19" s="91"/>
-      <c r="C19" s="91"/>
+      <c r="A19" s="109"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="103"/>
       <c r="D19" s="23">
         <v>3</v>
       </c>
@@ -13499,9 +13915,9 @@
       <c r="Z19" s="11"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A20" s="117"/>
-      <c r="B20" s="91"/>
-      <c r="C20" s="91"/>
+      <c r="A20" s="109"/>
+      <c r="B20" s="103"/>
+      <c r="C20" s="103"/>
       <c r="D20" s="23">
         <v>4</v>
       </c>
@@ -13545,9 +13961,9 @@
       <c r="Z20" s="11"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A21" s="118"/>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
+      <c r="A21" s="110"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="103"/>
       <c r="D21" s="23">
         <v>5</v>
       </c>
@@ -13606,16 +14022,16 @@
       <c r="G22" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="H22" s="98" t="s">
+      <c r="H22" s="97" t="s">
         <v>189</v>
       </c>
-      <c r="I22" s="99"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="99"/>
-      <c r="M22" s="99"/>
-      <c r="N22" s="99"/>
-      <c r="O22" s="107"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="104"/>
+      <c r="K22" s="104"/>
+      <c r="L22" s="104"/>
+      <c r="M22" s="104"/>
+      <c r="N22" s="104"/>
+      <c r="O22" s="98"/>
       <c r="P22" s="32" t="s">
         <v>248</v>
       </c>
@@ -13631,13 +14047,13 @@
       <c r="Z22" s="11"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A23" s="116" t="s">
+      <c r="A23" s="108" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="91" t="s">
+      <c r="B23" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="91" t="s">
+      <c r="C23" s="103" t="s">
         <v>98</v>
       </c>
       <c r="D23" s="23">
@@ -13705,9 +14121,9 @@
       <c r="Z23" s="11"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A24" s="117"/>
-      <c r="B24" s="91"/>
-      <c r="C24" s="91"/>
+      <c r="A24" s="109"/>
+      <c r="B24" s="103"/>
+      <c r="C24" s="103"/>
       <c r="D24" s="23">
         <v>2</v>
       </c>
@@ -13767,9 +14183,9 @@
       <c r="Z24" s="11"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A25" s="117"/>
-      <c r="B25" s="91"/>
-      <c r="C25" s="91"/>
+      <c r="A25" s="109"/>
+      <c r="B25" s="103"/>
+      <c r="C25" s="103"/>
       <c r="D25" s="23">
         <v>3</v>
       </c>
@@ -13829,9 +14245,9 @@
       <c r="Z25" s="11"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A26" s="117"/>
-      <c r="B26" s="91"/>
-      <c r="C26" s="91"/>
+      <c r="A26" s="109"/>
+      <c r="B26" s="103"/>
+      <c r="C26" s="103"/>
       <c r="D26" s="23">
         <v>4</v>
       </c>
@@ -13891,9 +14307,9 @@
       <c r="Z26" s="11"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A27" s="117"/>
-      <c r="B27" s="91"/>
-      <c r="C27" s="91"/>
+      <c r="A27" s="109"/>
+      <c r="B27" s="103"/>
+      <c r="C27" s="103"/>
       <c r="D27" s="23">
         <v>5</v>
       </c>
@@ -13953,8 +14369,8 @@
       <c r="Z27" s="11"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A28" s="117"/>
-      <c r="B28" s="91"/>
+      <c r="A28" s="109"/>
+      <c r="B28" s="103"/>
       <c r="C28" s="26"/>
       <c r="D28" s="23"/>
       <c r="E28" s="23"/>
@@ -13981,8 +14397,8 @@
       <c r="Z28" s="11"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A29" s="117"/>
-      <c r="B29" s="91"/>
+      <c r="A29" s="109"/>
+      <c r="B29" s="103"/>
       <c r="C29" s="26"/>
       <c r="D29" s="23"/>
       <c r="E29" s="23"/>
@@ -14011,9 +14427,9 @@
       <c r="Z29" s="11"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A30" s="117"/>
-      <c r="B30" s="91"/>
-      <c r="C30" s="91" t="s">
+      <c r="A30" s="109"/>
+      <c r="B30" s="103"/>
+      <c r="C30" s="103" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="23">
@@ -14081,9 +14497,9 @@
       <c r="Z30" s="11"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A31" s="117"/>
-      <c r="B31" s="91"/>
-      <c r="C31" s="91"/>
+      <c r="A31" s="109"/>
+      <c r="B31" s="103"/>
+      <c r="C31" s="103"/>
       <c r="D31" s="23">
         <v>2</v>
       </c>
@@ -14143,9 +14559,9 @@
       <c r="Z31" s="11"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A32" s="117"/>
-      <c r="B32" s="91"/>
-      <c r="C32" s="91"/>
+      <c r="A32" s="109"/>
+      <c r="B32" s="103"/>
+      <c r="C32" s="103"/>
       <c r="D32" s="23">
         <v>3</v>
       </c>
@@ -14205,9 +14621,9 @@
       <c r="Z32" s="11"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A33" s="117"/>
-      <c r="B33" s="91"/>
-      <c r="C33" s="91"/>
+      <c r="A33" s="109"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="103"/>
       <c r="D33" s="23">
         <v>4</v>
       </c>
@@ -14264,9 +14680,9 @@
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A34" s="117"/>
-      <c r="B34" s="91"/>
-      <c r="C34" s="91"/>
+      <c r="A34" s="109"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="103"/>
       <c r="D34" s="23">
         <v>5</v>
       </c>
@@ -14323,8 +14739,8 @@
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A35" s="117"/>
-      <c r="B35" s="91"/>
+      <c r="A35" s="109"/>
+      <c r="B35" s="103"/>
       <c r="C35" s="26"/>
       <c r="D35" s="23"/>
       <c r="E35" s="23"/>
@@ -14348,11 +14764,11 @@
       <c r="W35" s="26"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A36" s="117"/>
-      <c r="B36" s="91" t="s">
+      <c r="A36" s="109"/>
+      <c r="B36" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="91" t="s">
+      <c r="C36" s="103" t="s">
         <v>10</v>
       </c>
       <c r="D36" s="23">
@@ -14411,9 +14827,9 @@
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A37" s="117"/>
-      <c r="B37" s="91"/>
-      <c r="C37" s="91"/>
+      <c r="A37" s="109"/>
+      <c r="B37" s="103"/>
+      <c r="C37" s="103"/>
       <c r="D37" s="23">
         <v>2</v>
       </c>
@@ -14466,9 +14882,9 @@
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A38" s="117"/>
-      <c r="B38" s="91"/>
-      <c r="C38" s="91"/>
+      <c r="A38" s="109"/>
+      <c r="B38" s="103"/>
+      <c r="C38" s="103"/>
       <c r="D38" s="23">
         <v>3</v>
       </c>
@@ -14521,9 +14937,9 @@
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A39" s="117"/>
-      <c r="B39" s="91"/>
-      <c r="C39" s="91"/>
+      <c r="A39" s="109"/>
+      <c r="B39" s="103"/>
+      <c r="C39" s="103"/>
       <c r="D39" s="23">
         <v>4</v>
       </c>
@@ -14576,9 +14992,9 @@
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A40" s="118"/>
-      <c r="B40" s="91"/>
-      <c r="C40" s="91"/>
+      <c r="A40" s="110"/>
+      <c r="B40" s="103"/>
+      <c r="C40" s="103"/>
       <c r="D40" s="23">
         <v>5</v>
       </c>
@@ -14661,10 +15077,10 @@
       <c r="A42" s="82" t="s">
         <v>294</v>
       </c>
-      <c r="B42" s="91" t="s">
+      <c r="B42" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="91" t="s">
+      <c r="C42" s="103" t="s">
         <v>98</v>
       </c>
       <c r="D42" s="23">
@@ -14704,8 +15120,8 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A43" s="82"/>
-      <c r="B43" s="91"/>
-      <c r="C43" s="91"/>
+      <c r="B43" s="103"/>
+      <c r="C43" s="103"/>
       <c r="D43" s="23">
         <v>2</v>
       </c>
@@ -14739,8 +15155,8 @@
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A44" s="82"/>
-      <c r="B44" s="91"/>
-      <c r="C44" s="91"/>
+      <c r="B44" s="103"/>
+      <c r="C44" s="103"/>
       <c r="D44" s="23">
         <v>3</v>
       </c>
@@ -14774,8 +15190,8 @@
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A45" s="82"/>
-      <c r="B45" s="91"/>
-      <c r="C45" s="91"/>
+      <c r="B45" s="103"/>
+      <c r="C45" s="103"/>
       <c r="D45" s="23">
         <v>4</v>
       </c>
@@ -14809,8 +15225,8 @@
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A46" s="82"/>
-      <c r="B46" s="91"/>
-      <c r="C46" s="91"/>
+      <c r="B46" s="103"/>
+      <c r="C46" s="103"/>
       <c r="D46" s="23">
         <v>5</v>
       </c>
@@ -14844,7 +15260,7 @@
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A47" s="82"/>
-      <c r="B47" s="91"/>
+      <c r="B47" s="103"/>
       <c r="C47" s="26"/>
       <c r="D47" s="23"/>
       <c r="E47" s="23"/>
@@ -14861,7 +15277,7 @@
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A48" s="82"/>
-      <c r="B48" s="91"/>
+      <c r="B48" s="103"/>
       <c r="C48" s="26"/>
       <c r="D48" s="23"/>
       <c r="E48" s="23"/>
@@ -14878,8 +15294,8 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A49" s="82"/>
-      <c r="B49" s="91"/>
-      <c r="C49" s="91" t="s">
+      <c r="B49" s="103"/>
+      <c r="C49" s="103" t="s">
         <v>2</v>
       </c>
       <c r="D49" s="23">
@@ -14919,8 +15335,8 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A50" s="82"/>
-      <c r="B50" s="91"/>
-      <c r="C50" s="91"/>
+      <c r="B50" s="103"/>
+      <c r="C50" s="103"/>
       <c r="D50" s="23">
         <v>2</v>
       </c>
@@ -14954,8 +15370,8 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A51" s="82"/>
-      <c r="B51" s="91"/>
-      <c r="C51" s="91"/>
+      <c r="B51" s="103"/>
+      <c r="C51" s="103"/>
       <c r="D51" s="23">
         <v>3</v>
       </c>
@@ -14989,8 +15405,8 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A52" s="82"/>
-      <c r="B52" s="91"/>
-      <c r="C52" s="91"/>
+      <c r="B52" s="103"/>
+      <c r="C52" s="103"/>
       <c r="D52" s="23">
         <v>4</v>
       </c>
@@ -15024,8 +15440,8 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A53" s="82"/>
-      <c r="B53" s="91"/>
-      <c r="C53" s="91"/>
+      <c r="B53" s="103"/>
+      <c r="C53" s="103"/>
       <c r="D53" s="23">
         <v>5</v>
       </c>
@@ -15059,7 +15475,7 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A54" s="82"/>
-      <c r="B54" s="91"/>
+      <c r="B54" s="103"/>
       <c r="C54" s="26"/>
       <c r="D54" s="23"/>
       <c r="E54" s="23"/>
@@ -15076,10 +15492,10 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A55" s="82"/>
-      <c r="B55" s="91" t="s">
+      <c r="B55" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="91" t="s">
+      <c r="C55" s="103" t="s">
         <v>10</v>
       </c>
       <c r="D55" s="23">
@@ -15119,8 +15535,8 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A56" s="82"/>
-      <c r="B56" s="91"/>
-      <c r="C56" s="91"/>
+      <c r="B56" s="103"/>
+      <c r="C56" s="103"/>
       <c r="D56" s="23">
         <v>2</v>
       </c>
@@ -15154,8 +15570,8 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A57" s="82"/>
-      <c r="B57" s="91"/>
-      <c r="C57" s="91"/>
+      <c r="B57" s="103"/>
+      <c r="C57" s="103"/>
       <c r="D57" s="23">
         <v>3</v>
       </c>
@@ -15189,8 +15605,8 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A58" s="82"/>
-      <c r="B58" s="91"/>
-      <c r="C58" s="91"/>
+      <c r="B58" s="103"/>
+      <c r="C58" s="103"/>
       <c r="D58" s="23">
         <v>4</v>
       </c>
@@ -15224,8 +15640,8 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A59" s="82"/>
-      <c r="B59" s="91"/>
-      <c r="C59" s="91"/>
+      <c r="B59" s="103"/>
+      <c r="C59" s="103"/>
       <c r="D59" s="23">
         <v>5</v>
       </c>
@@ -15288,10 +15704,10 @@
       <c r="A61" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="B61" s="91" t="s">
+      <c r="B61" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="91" t="s">
+      <c r="C61" s="103" t="s">
         <v>98</v>
       </c>
       <c r="D61" s="23">
@@ -15333,8 +15749,8 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A62" s="82"/>
-      <c r="B62" s="91"/>
-      <c r="C62" s="91"/>
+      <c r="B62" s="103"/>
+      <c r="C62" s="103"/>
       <c r="D62" s="23">
         <v>2</v>
       </c>
@@ -15368,8 +15784,8 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A63" s="82"/>
-      <c r="B63" s="91"/>
-      <c r="C63" s="91"/>
+      <c r="B63" s="103"/>
+      <c r="C63" s="103"/>
       <c r="D63" s="23">
         <v>3</v>
       </c>
@@ -15403,8 +15819,8 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A64" s="82"/>
-      <c r="B64" s="91"/>
-      <c r="C64" s="91"/>
+      <c r="B64" s="103"/>
+      <c r="C64" s="103"/>
       <c r="D64" s="23">
         <v>4</v>
       </c>
@@ -15438,8 +15854,8 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A65" s="82"/>
-      <c r="B65" s="91"/>
-      <c r="C65" s="91"/>
+      <c r="B65" s="103"/>
+      <c r="C65" s="103"/>
       <c r="D65" s="23">
         <v>5</v>
       </c>
@@ -15473,7 +15889,7 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A66" s="82"/>
-      <c r="B66" s="91"/>
+      <c r="B66" s="103"/>
       <c r="C66" s="26"/>
       <c r="D66" s="23"/>
       <c r="E66" s="23"/>
@@ -15490,7 +15906,7 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A67" s="82"/>
-      <c r="B67" s="91"/>
+      <c r="B67" s="103"/>
       <c r="C67" s="26"/>
       <c r="D67" s="23"/>
       <c r="E67" s="23"/>
@@ -15507,8 +15923,8 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A68" s="82"/>
-      <c r="B68" s="91"/>
-      <c r="C68" s="91" t="s">
+      <c r="B68" s="103"/>
+      <c r="C68" s="103" t="s">
         <v>2</v>
       </c>
       <c r="D68" s="23">
@@ -15550,8 +15966,8 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A69" s="82"/>
-      <c r="B69" s="91"/>
-      <c r="C69" s="91"/>
+      <c r="B69" s="103"/>
+      <c r="C69" s="103"/>
       <c r="D69" s="23">
         <v>2</v>
       </c>
@@ -15585,8 +16001,8 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A70" s="82"/>
-      <c r="B70" s="91"/>
-      <c r="C70" s="91"/>
+      <c r="B70" s="103"/>
+      <c r="C70" s="103"/>
       <c r="D70" s="23">
         <v>3</v>
       </c>
@@ -15620,8 +16036,8 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A71" s="82"/>
-      <c r="B71" s="91"/>
-      <c r="C71" s="91"/>
+      <c r="B71" s="103"/>
+      <c r="C71" s="103"/>
       <c r="D71" s="23">
         <v>4</v>
       </c>
@@ -15655,8 +16071,8 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A72" s="82"/>
-      <c r="B72" s="91"/>
-      <c r="C72" s="91"/>
+      <c r="B72" s="103"/>
+      <c r="C72" s="103"/>
       <c r="D72" s="23">
         <v>5</v>
       </c>
@@ -15690,7 +16106,7 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A73" s="82"/>
-      <c r="B73" s="91"/>
+      <c r="B73" s="103"/>
       <c r="C73" s="26"/>
       <c r="D73" s="23"/>
       <c r="E73" s="23"/>
@@ -15707,10 +16123,10 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A74" s="82"/>
-      <c r="B74" s="91" t="s">
+      <c r="B74" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C74" s="91" t="s">
+      <c r="C74" s="103" t="s">
         <v>10</v>
       </c>
       <c r="D74" s="23">
@@ -15752,8 +16168,8 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A75" s="82"/>
-      <c r="B75" s="91"/>
-      <c r="C75" s="91"/>
+      <c r="B75" s="103"/>
+      <c r="C75" s="103"/>
       <c r="D75" s="23">
         <v>2</v>
       </c>
@@ -15787,8 +16203,8 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A76" s="82"/>
-      <c r="B76" s="91"/>
-      <c r="C76" s="91"/>
+      <c r="B76" s="103"/>
+      <c r="C76" s="103"/>
       <c r="D76" s="23">
         <v>3</v>
       </c>
@@ -15822,8 +16238,8 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A77" s="82"/>
-      <c r="B77" s="91"/>
-      <c r="C77" s="91"/>
+      <c r="B77" s="103"/>
+      <c r="C77" s="103"/>
       <c r="D77" s="23">
         <v>4</v>
       </c>
@@ -15857,8 +16273,8 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A78" s="82"/>
-      <c r="B78" s="91"/>
-      <c r="C78" s="91"/>
+      <c r="B78" s="103"/>
+      <c r="C78" s="103"/>
       <c r="D78" s="23">
         <v>5</v>
       </c>
@@ -15982,6 +16398,61 @@
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="G42:G46"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="F30:F34"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="E36:E40"/>
+    <mergeCell ref="F36:F40"/>
+    <mergeCell ref="E49:E53"/>
+    <mergeCell ref="F49:F53"/>
+    <mergeCell ref="A42:A59"/>
+    <mergeCell ref="B42:B54"/>
+    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="E42:E46"/>
+    <mergeCell ref="F42:F46"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="E55:E59"/>
+    <mergeCell ref="F55:F59"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="H41:O41"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="G17:G21"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="F17:F21"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="F74:F78"/>
+    <mergeCell ref="G49:G53"/>
+    <mergeCell ref="Q3:V3"/>
+    <mergeCell ref="A4:A21"/>
+    <mergeCell ref="B4:B16"/>
+    <mergeCell ref="A23:A40"/>
+    <mergeCell ref="B23:B35"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="G30:G34"/>
+    <mergeCell ref="G36:G40"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="F23:F27"/>
+    <mergeCell ref="J9:Q9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:C15"/>
     <mergeCell ref="G55:G59"/>
     <mergeCell ref="G68:G72"/>
     <mergeCell ref="G74:G78"/>
@@ -15998,61 +16469,6 @@
     <mergeCell ref="B74:B78"/>
     <mergeCell ref="C74:C78"/>
     <mergeCell ref="E74:E78"/>
-    <mergeCell ref="F74:F78"/>
-    <mergeCell ref="G49:G53"/>
-    <mergeCell ref="Q3:V3"/>
-    <mergeCell ref="A4:A21"/>
-    <mergeCell ref="B4:B16"/>
-    <mergeCell ref="A23:A40"/>
-    <mergeCell ref="B23:B35"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="G30:G34"/>
-    <mergeCell ref="G36:G40"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="F23:F27"/>
-    <mergeCell ref="J9:Q9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="H3:O3"/>
-    <mergeCell ref="E11:E15"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="G17:G21"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="F17:F21"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="E30:E34"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="H41:O41"/>
-    <mergeCell ref="A42:A59"/>
-    <mergeCell ref="B42:B54"/>
-    <mergeCell ref="C42:C46"/>
-    <mergeCell ref="E42:E46"/>
-    <mergeCell ref="F42:F46"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="C55:C59"/>
-    <mergeCell ref="E55:E59"/>
-    <mergeCell ref="F55:F59"/>
-    <mergeCell ref="G42:G46"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="C36:C40"/>
-    <mergeCell ref="E36:E40"/>
-    <mergeCell ref="F36:F40"/>
-    <mergeCell ref="E49:E53"/>
-    <mergeCell ref="F49:F53"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16125,15 +16541,15 @@
       <c r="C4" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="91"/>
+      <c r="D4" s="103"/>
       <c r="E4" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="91"/>
+      <c r="F4" s="103"/>
       <c r="G4" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="91"/>
+      <c r="H4" s="103"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
@@ -16158,7 +16574,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="103" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="1">
@@ -16184,7 +16600,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="91"/>
+      <c r="A7" s="103"/>
       <c r="B7" s="1">
         <v>2</v>
       </c>
@@ -16208,7 +16624,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="91"/>
+      <c r="A8" s="103"/>
       <c r="B8" s="1">
         <v>3</v>
       </c>
@@ -16232,7 +16648,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="91"/>
+      <c r="A9" s="103"/>
       <c r="B9" s="7">
         <v>4</v>
       </c>
@@ -16256,7 +16672,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="91"/>
+      <c r="A10" s="103"/>
       <c r="B10" s="7">
         <v>5</v>
       </c>
@@ -16280,7 +16696,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="103" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="1">
@@ -16306,7 +16722,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="91"/>
+      <c r="A12" s="103"/>
       <c r="B12" s="1">
         <v>2</v>
       </c>
@@ -16330,7 +16746,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="91"/>
+      <c r="A13" s="103"/>
       <c r="B13" s="1">
         <v>3</v>
       </c>
@@ -16354,7 +16770,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="91"/>
+      <c r="A14" s="103"/>
       <c r="B14" s="7">
         <v>4</v>
       </c>
@@ -16378,7 +16794,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="91"/>
+      <c r="A15" s="103"/>
       <c r="B15" s="7">
         <v>5</v>
       </c>

--- a/数据记录/记录表单.xlsx
+++ b/数据记录/记录表单.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="482">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4255,6 +4255,14 @@
       </rPr>
       <t>1.4℃</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>约16:38</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳不可见</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4668,10 +4676,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4680,20 +4694,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4701,13 +4706,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4743,16 +4751,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4764,7 +4775,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4776,23 +4790,41 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4814,30 +4846,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5139,8 +5147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AS56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB15" workbookViewId="0">
-      <selection activeCell="AS28" sqref="AS28"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5156,33 +5164,33 @@
       <c r="B4" s="67">
         <v>42309</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="69"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="71"/>
       <c r="F4" s="67">
         <v>42310</v>
       </c>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="71"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="69"/>
       <c r="J4" s="67">
         <v>42311</v>
       </c>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="70"/>
-      <c r="S4" s="70"/>
-      <c r="T4" s="70"/>
-      <c r="U4" s="70"/>
-      <c r="V4" s="70"/>
-      <c r="W4" s="70"/>
-      <c r="X4" s="70"/>
-      <c r="Y4" s="71"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
+      <c r="Y4" s="69"/>
       <c r="Z4" s="59">
         <v>42312</v>
       </c>
@@ -5216,18 +5224,18 @@
       <c r="A5" s="49" t="s">
         <v>447</v>
       </c>
-      <c r="B5" s="72">
+      <c r="B5" s="66">
         <v>0.70833333333333337</v>
       </c>
       <c r="C5" s="64"/>
       <c r="D5" s="64"/>
       <c r="E5" s="64"/>
-      <c r="F5" s="72">
+      <c r="F5" s="66">
         <v>0.68819444444444444</v>
       </c>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
       <c r="J5" s="61">
         <v>0.41041666666666665</v>
       </c>
@@ -5407,18 +5415,18 @@
       <c r="A8" s="49" t="s">
         <v>438</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="66" t="s">
         <v>463</v>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72" t="s">
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66" t="s">
         <v>465</v>
       </c>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
       <c r="J8" s="64" t="s">
         <v>466</v>
       </c>
@@ -8061,12 +8069,12 @@
       <c r="AS28" s="49"/>
     </row>
     <row r="29" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="R29" s="66" t="s">
+      <c r="R29" s="72" t="s">
         <v>471</v>
       </c>
-      <c r="S29" s="66"/>
-      <c r="T29" s="66"/>
-      <c r="U29" s="66"/>
+      <c r="S29" s="72"/>
+      <c r="T29" s="72"/>
+      <c r="U29" s="72"/>
       <c r="AD29">
         <v>22.5</v>
       </c>
@@ -8110,21 +8118,49 @@
       <c r="A32" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="59"/>
+      <c r="B32" s="59">
+        <v>42339</v>
+      </c>
       <c r="C32" s="58"/>
       <c r="D32" s="58"/>
       <c r="E32" s="58"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F32" s="59"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="58"/>
+      <c r="P32" s="58"/>
+      <c r="Q32" s="58"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="B33" s="61"/>
+      <c r="B33" s="61" t="s">
+        <v>480</v>
+      </c>
       <c r="C33" s="62"/>
       <c r="D33" s="62"/>
       <c r="E33" s="63"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F33" s="61"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="63"/>
+      <c r="N33" s="61"/>
+      <c r="O33" s="62"/>
+      <c r="P33" s="62"/>
+      <c r="Q33" s="63"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A34" s="49" t="s">
         <v>126</v>
       </c>
@@ -8132,26 +8168,66 @@
       <c r="C34" s="62"/>
       <c r="D34" s="62"/>
       <c r="E34" s="63"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F34" s="61"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="63"/>
+      <c r="N34" s="61"/>
+      <c r="O34" s="62"/>
+      <c r="P34" s="62"/>
+      <c r="Q34" s="63"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35" s="49" t="s">
         <v>449</v>
       </c>
-      <c r="B35" s="61"/>
+      <c r="B35" s="61">
+        <v>0.70138888888888884</v>
+      </c>
       <c r="C35" s="62"/>
       <c r="D35" s="62"/>
       <c r="E35" s="63"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F35" s="61"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="62"/>
+      <c r="M35" s="63"/>
+      <c r="N35" s="61"/>
+      <c r="O35" s="62"/>
+      <c r="P35" s="62"/>
+      <c r="Q35" s="63"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A36" s="49" t="s">
         <v>438</v>
       </c>
-      <c r="B36" s="64"/>
+      <c r="B36" s="64" t="s">
+        <v>481</v>
+      </c>
       <c r="C36" s="64"/>
       <c r="D36" s="64"/>
       <c r="E36" s="64"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F36" s="64"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="64"/>
+      <c r="L36" s="64"/>
+      <c r="M36" s="64"/>
+      <c r="N36" s="64"/>
+      <c r="O36" s="64"/>
+      <c r="P36" s="64"/>
+      <c r="Q36" s="64"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37" s="49" t="s">
         <v>11</v>
       </c>
@@ -8167,215 +8243,619 @@
       <c r="E37" s="50" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F37" s="50" t="s">
+        <v>422</v>
+      </c>
+      <c r="G37" s="50" t="s">
+        <v>423</v>
+      </c>
+      <c r="H37" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="I37" s="50" t="s">
+        <v>439</v>
+      </c>
+      <c r="J37" s="50" t="s">
+        <v>422</v>
+      </c>
+      <c r="K37" s="50" t="s">
+        <v>423</v>
+      </c>
+      <c r="L37" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="M37" s="50" t="s">
+        <v>439</v>
+      </c>
+      <c r="N37" s="50" t="s">
+        <v>422</v>
+      </c>
+      <c r="O37" s="50" t="s">
+        <v>423</v>
+      </c>
+      <c r="P37" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="50" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A38" s="49">
         <v>117</v>
       </c>
-      <c r="B38" s="49"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
+      <c r="B38" s="49">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C38" s="49">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="D38" s="49">
+        <v>7.3</v>
+      </c>
       <c r="E38" s="50" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="50" t="s">
+        <v>440</v>
+      </c>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="50" t="s">
+        <v>440</v>
+      </c>
+      <c r="N38" s="49"/>
+      <c r="O38" s="49"/>
+      <c r="P38" s="49"/>
+      <c r="Q38" s="50" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A39" s="49">
         <v>107</v>
       </c>
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B39" s="49">
+        <v>8.44</v>
+      </c>
+      <c r="C39" s="49">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D39" s="49">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E39" s="49">
+        <v>12.1</v>
+      </c>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="49"/>
+      <c r="O39" s="49"/>
+      <c r="P39" s="49"/>
+      <c r="Q39" s="49"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A40" s="49">
         <v>97</v>
       </c>
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B40" s="49">
+        <v>7.9</v>
+      </c>
+      <c r="C40" s="49">
+        <v>0.08</v>
+      </c>
+      <c r="D40" s="49">
+        <v>6.9</v>
+      </c>
+      <c r="E40" s="49">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="49"/>
+      <c r="O40" s="49"/>
+      <c r="P40" s="49"/>
+      <c r="Q40" s="49"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A41" s="49">
         <v>87</v>
       </c>
-      <c r="B41" s="49"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
+      <c r="B41" s="49">
+        <v>7.25</v>
+      </c>
+      <c r="C41" s="49">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="D41" s="49">
+        <v>7.2</v>
+      </c>
       <c r="E41" s="49"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="49"/>
+      <c r="L41" s="49"/>
+      <c r="M41" s="49"/>
+      <c r="N41" s="49"/>
+      <c r="O41" s="49"/>
+      <c r="P41" s="49"/>
+      <c r="Q41" s="49"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A42" s="49">
         <v>77</v>
       </c>
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
+      <c r="B42" s="49">
+        <v>6.51</v>
+      </c>
+      <c r="C42" s="49">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="D42" s="49">
+        <v>6.9</v>
+      </c>
       <c r="E42" s="49"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="49"/>
+      <c r="M42" s="49"/>
+      <c r="N42" s="49"/>
+      <c r="O42" s="49"/>
+      <c r="P42" s="49"/>
+      <c r="Q42" s="49"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A43" s="49">
         <v>67</v>
       </c>
-      <c r="B43" s="49"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
+      <c r="B43" s="49">
+        <v>5.6</v>
+      </c>
+      <c r="C43" s="49">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="D43" s="49">
+        <v>7.2</v>
+      </c>
       <c r="E43" s="50" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="50" t="s">
+        <v>441</v>
+      </c>
+      <c r="J43" s="49"/>
+      <c r="K43" s="49"/>
+      <c r="L43" s="49"/>
+      <c r="M43" s="50" t="s">
+        <v>441</v>
+      </c>
+      <c r="N43" s="49"/>
+      <c r="O43" s="49"/>
+      <c r="P43" s="49"/>
+      <c r="Q43" s="50" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A44" s="49">
         <v>57</v>
       </c>
-      <c r="B44" s="49"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B44" s="49">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="C44" s="49">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="D44" s="49">
+        <v>6.8</v>
+      </c>
+      <c r="E44" s="49">
+        <v>12.4</v>
+      </c>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
+      <c r="K44" s="49"/>
+      <c r="L44" s="49"/>
+      <c r="M44" s="49"/>
+      <c r="N44" s="49"/>
+      <c r="O44" s="49"/>
+      <c r="P44" s="49"/>
+      <c r="Q44" s="49"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A45" s="49">
         <v>47</v>
       </c>
-      <c r="B45" s="49"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B45" s="49">
+        <v>3.94</v>
+      </c>
+      <c r="C45" s="49">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="D45" s="49">
+        <v>6.6</v>
+      </c>
+      <c r="E45" s="49">
+        <v>73.8</v>
+      </c>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
+      <c r="K45" s="49"/>
+      <c r="L45" s="49"/>
+      <c r="M45" s="49"/>
+      <c r="N45" s="49"/>
+      <c r="O45" s="49"/>
+      <c r="P45" s="49"/>
+      <c r="Q45" s="49"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A46" s="49">
         <v>37</v>
       </c>
-      <c r="B46" s="49"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="49"/>
+      <c r="B46" s="49">
+        <v>2.9140000000000001</v>
+      </c>
+      <c r="C46" s="49">
+        <v>0.08</v>
+      </c>
+      <c r="D46" s="49">
+        <v>6.9</v>
+      </c>
       <c r="E46" s="49"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="49"/>
+      <c r="K46" s="49"/>
+      <c r="L46" s="49"/>
+      <c r="M46" s="49"/>
+      <c r="N46" s="49"/>
+      <c r="O46" s="49"/>
+      <c r="P46" s="49"/>
+      <c r="Q46" s="49"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A47" s="49">
         <v>27</v>
       </c>
-      <c r="B47" s="49"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49"/>
+      <c r="B47" s="49">
+        <v>1.9530000000000001</v>
+      </c>
+      <c r="C47" s="49">
+        <v>0.08</v>
+      </c>
+      <c r="D47" s="49">
+        <v>5.9</v>
+      </c>
       <c r="E47" s="49"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F47" s="49"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="49"/>
+      <c r="I47" s="49"/>
+      <c r="J47" s="49"/>
+      <c r="K47" s="49"/>
+      <c r="L47" s="49"/>
+      <c r="M47" s="49"/>
+      <c r="N47" s="49"/>
+      <c r="O47" s="49"/>
+      <c r="P47" s="49"/>
+      <c r="Q47" s="49"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A48" s="49">
         <v>17</v>
       </c>
-      <c r="B48" s="49"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49"/>
+      <c r="B48" s="49">
+        <v>1.4610000000000001</v>
+      </c>
+      <c r="C48" s="49">
+        <v>0.08</v>
+      </c>
+      <c r="D48" s="49">
+        <v>6.2</v>
+      </c>
       <c r="E48" s="50" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="49"/>
+      <c r="I48" s="50" t="s">
+        <v>442</v>
+      </c>
+      <c r="J48" s="49"/>
+      <c r="K48" s="49"/>
+      <c r="L48" s="49"/>
+      <c r="M48" s="50" t="s">
+        <v>442</v>
+      </c>
+      <c r="N48" s="49"/>
+      <c r="O48" s="49"/>
+      <c r="P48" s="49"/>
+      <c r="Q48" s="50" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A49" s="49">
         <v>7</v>
       </c>
-      <c r="B49" s="49"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B49" s="49">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="C49" s="49">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="D49" s="49">
+        <v>7</v>
+      </c>
+      <c r="E49" s="49">
+        <v>12.5</v>
+      </c>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="49"/>
+      <c r="L49" s="49"/>
+      <c r="M49" s="49"/>
+      <c r="N49" s="49"/>
+      <c r="O49" s="49"/>
+      <c r="P49" s="49"/>
+      <c r="Q49" s="49"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A50" s="49">
         <v>6</v>
       </c>
-      <c r="B50" s="49"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B50" s="49">
+        <v>0.502</v>
+      </c>
+      <c r="C50" s="49">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="D50" s="49">
+        <v>6</v>
+      </c>
+      <c r="E50" s="49">
+        <v>72.8</v>
+      </c>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="49"/>
+      <c r="L50" s="49"/>
+      <c r="M50" s="49"/>
+      <c r="N50" s="49"/>
+      <c r="O50" s="49"/>
+      <c r="P50" s="49"/>
+      <c r="Q50" s="49"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A51" s="49">
         <v>5</v>
       </c>
-      <c r="B51" s="49"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="49"/>
+      <c r="B51" s="49">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="C51" s="49">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D51" s="49">
+        <v>5.9</v>
+      </c>
       <c r="E51" s="49"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F51" s="49"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="49"/>
+      <c r="I51" s="49"/>
+      <c r="J51" s="49"/>
+      <c r="K51" s="49"/>
+      <c r="L51" s="49"/>
+      <c r="M51" s="49"/>
+      <c r="N51" s="49"/>
+      <c r="O51" s="49"/>
+      <c r="P51" s="49"/>
+      <c r="Q51" s="49"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A52" s="49">
         <v>4</v>
       </c>
-      <c r="B52" s="49"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="49"/>
+      <c r="B52" s="49">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="C52" s="49">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D52" s="49">
+        <v>6</v>
+      </c>
       <c r="E52" s="49"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="49"/>
+      <c r="I52" s="49"/>
+      <c r="J52" s="49"/>
+      <c r="K52" s="49"/>
+      <c r="L52" s="49"/>
+      <c r="M52" s="49"/>
+      <c r="N52" s="49"/>
+      <c r="O52" s="49"/>
+      <c r="P52" s="49"/>
+      <c r="Q52" s="49"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A53" s="49">
         <v>3</v>
       </c>
-      <c r="B53" s="49"/>
-      <c r="C53" s="49"/>
-      <c r="D53" s="49"/>
+      <c r="B53" s="49">
+        <v>0.246</v>
+      </c>
+      <c r="C53" s="49">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D53" s="49">
+        <v>6</v>
+      </c>
       <c r="E53" s="50" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F53" s="49"/>
+      <c r="G53" s="49"/>
+      <c r="H53" s="49"/>
+      <c r="I53" s="50" t="s">
+        <v>443</v>
+      </c>
+      <c r="J53" s="49"/>
+      <c r="K53" s="49"/>
+      <c r="L53" s="49"/>
+      <c r="M53" s="50" t="s">
+        <v>443</v>
+      </c>
+      <c r="N53" s="49"/>
+      <c r="O53" s="49"/>
+      <c r="P53" s="49"/>
+      <c r="Q53" s="50" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A54" s="49">
         <v>2</v>
       </c>
-      <c r="B54" s="51"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="49"/>
-      <c r="E54" s="49"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B54" s="51">
+        <v>0.151</v>
+      </c>
+      <c r="C54" s="51">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="D54" s="49">
+        <v>6.2</v>
+      </c>
+      <c r="E54" s="49">
+        <v>12.8</v>
+      </c>
+      <c r="F54" s="51"/>
+      <c r="G54" s="51"/>
+      <c r="H54" s="49"/>
+      <c r="I54" s="49"/>
+      <c r="J54" s="51"/>
+      <c r="K54" s="51"/>
+      <c r="L54" s="49"/>
+      <c r="M54" s="49"/>
+      <c r="N54" s="51"/>
+      <c r="O54" s="51"/>
+      <c r="P54" s="49"/>
+      <c r="Q54" s="49"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A55" s="49">
         <v>1</v>
       </c>
-      <c r="B55" s="49"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="49"/>
-      <c r="E55" s="49"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B55" s="49">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="C55" s="49">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="D55" s="49">
+        <v>5.9</v>
+      </c>
+      <c r="E55" s="49">
+        <v>71.8</v>
+      </c>
+      <c r="F55" s="49"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="49"/>
+      <c r="I55" s="49"/>
+      <c r="J55" s="49"/>
+      <c r="K55" s="49"/>
+      <c r="L55" s="49"/>
+      <c r="M55" s="49"/>
+      <c r="N55" s="49"/>
+      <c r="O55" s="49"/>
+      <c r="P55" s="49"/>
+      <c r="Q55" s="49"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A56" s="49">
         <v>0</v>
       </c>
-      <c r="B56" s="49"/>
-      <c r="C56" s="49"/>
-      <c r="D56" s="49"/>
+      <c r="B56" s="49">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="C56" s="51">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D56" s="49">
+        <v>5.8</v>
+      </c>
       <c r="E56" s="49"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="49"/>
+      <c r="I56" s="49"/>
+      <c r="J56" s="49"/>
+      <c r="K56" s="49"/>
+      <c r="L56" s="49"/>
+      <c r="M56" s="49"/>
+      <c r="N56" s="49"/>
+      <c r="O56" s="49"/>
+      <c r="P56" s="49"/>
+      <c r="Q56" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="AL5:AO5"/>
-    <mergeCell ref="AL6:AO6"/>
-    <mergeCell ref="AL7:AO7"/>
-    <mergeCell ref="AL8:AO8"/>
-    <mergeCell ref="AP5:AS5"/>
-    <mergeCell ref="AP6:AS6"/>
-    <mergeCell ref="AP7:AS7"/>
-    <mergeCell ref="AP8:AS8"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="R5:U5"/>
-    <mergeCell ref="R6:U6"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J4:Y4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="Z6:AC6"/>
-    <mergeCell ref="Z7:AC7"/>
-    <mergeCell ref="Z8:AC8"/>
+  <mergeCells count="64">
+    <mergeCell ref="AD8:AG8"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="N33:Q33"/>
+    <mergeCell ref="N34:Q34"/>
+    <mergeCell ref="N35:Q35"/>
+    <mergeCell ref="N36:Q36"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="B8:E8"/>
@@ -8388,19 +8868,45 @@
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J7:M7"/>
-    <mergeCell ref="R29:U29"/>
+    <mergeCell ref="J4:Y4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="Z6:AC6"/>
     <mergeCell ref="V5:Y5"/>
     <mergeCell ref="V6:Y6"/>
+    <mergeCell ref="AP5:AS5"/>
+    <mergeCell ref="AP6:AS6"/>
+    <mergeCell ref="AP7:AS7"/>
+    <mergeCell ref="AP8:AS8"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="Z7:AC7"/>
+    <mergeCell ref="Z8:AC8"/>
     <mergeCell ref="V7:Y7"/>
     <mergeCell ref="V8:Y8"/>
     <mergeCell ref="AH5:AK5"/>
     <mergeCell ref="AH6:AK6"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="AL5:AO5"/>
+    <mergeCell ref="AL6:AO6"/>
+    <mergeCell ref="AL7:AO7"/>
+    <mergeCell ref="AL8:AO8"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="R29:U29"/>
     <mergeCell ref="AH7:AK7"/>
     <mergeCell ref="AH8:AK8"/>
     <mergeCell ref="AD5:AG5"/>
     <mergeCell ref="AD6:AG6"/>
     <mergeCell ref="AD7:AG7"/>
-    <mergeCell ref="AD8:AG8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8436,93 +8942,93 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="77">
+      <c r="B3" s="73">
         <v>42299</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="77"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="77"/>
-      <c r="Y3" s="77"/>
-      <c r="Z3" s="77">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="73">
         <v>42300</v>
       </c>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="76"/>
-      <c r="AC3" s="76"/>
-      <c r="AD3" s="76"/>
-      <c r="AE3" s="76"/>
-      <c r="AF3" s="76"/>
-      <c r="AG3" s="76"/>
+      <c r="AA3" s="75"/>
+      <c r="AB3" s="75"/>
+      <c r="AC3" s="75"/>
+      <c r="AD3" s="75"/>
+      <c r="AE3" s="75"/>
+      <c r="AF3" s="75"/>
+      <c r="AG3" s="75"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A4" s="39" t="s">
         <v>454</v>
       </c>
-      <c r="B4" s="75">
+      <c r="B4" s="74">
         <v>0.37013888888888885</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="75">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="74">
         <v>0.4375</v>
       </c>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75">
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74">
         <v>0.52361111111111114</v>
       </c>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="75">
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74">
         <v>0.60625000000000007</v>
       </c>
-      <c r="S4" s="75"/>
-      <c r="T4" s="75"/>
-      <c r="U4" s="75"/>
-      <c r="V4" s="75">
+      <c r="S4" s="74"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="74"/>
+      <c r="V4" s="74">
         <v>0.67569444444444438</v>
       </c>
-      <c r="W4" s="75"/>
-      <c r="X4" s="75"/>
-      <c r="Y4" s="75"/>
-      <c r="Z4" s="75">
+      <c r="W4" s="74"/>
+      <c r="X4" s="74"/>
+      <c r="Y4" s="74"/>
+      <c r="Z4" s="74">
         <v>0.41180555555555554</v>
       </c>
-      <c r="AA4" s="76"/>
-      <c r="AB4" s="76"/>
-      <c r="AC4" s="76"/>
-      <c r="AD4" s="75">
+      <c r="AA4" s="75"/>
+      <c r="AB4" s="75"/>
+      <c r="AC4" s="75"/>
+      <c r="AD4" s="74">
         <v>0.62986111111111109</v>
       </c>
-      <c r="AE4" s="75"/>
-      <c r="AF4" s="75"/>
-      <c r="AG4" s="75"/>
+      <c r="AE4" s="74"/>
+      <c r="AF4" s="74"/>
+      <c r="AG4" s="74"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A5" s="39" t="s">
@@ -8552,12 +9058,12 @@
       <c r="W5" s="52"/>
       <c r="X5" s="52"/>
       <c r="Y5" s="52"/>
-      <c r="Z5" s="78" t="s">
+      <c r="Z5" s="76" t="s">
         <v>464</v>
       </c>
-      <c r="AA5" s="79"/>
-      <c r="AB5" s="79"/>
-      <c r="AC5" s="79"/>
+      <c r="AA5" s="77"/>
+      <c r="AB5" s="77"/>
+      <c r="AC5" s="77"/>
       <c r="AD5" s="52"/>
       <c r="AE5" s="52"/>
       <c r="AF5" s="52"/>
@@ -8571,46 +9077,46 @@
       <c r="C6" s="52"/>
       <c r="D6" s="52"/>
       <c r="E6" s="52"/>
-      <c r="F6" s="75">
+      <c r="F6" s="74">
         <v>0.38055555555555554</v>
       </c>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="75">
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="74">
         <v>0.44305555555555554</v>
       </c>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75">
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74">
         <v>0.52847222222222223</v>
       </c>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="75">
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="74">
         <v>0.61249999999999993</v>
       </c>
-      <c r="S6" s="75"/>
-      <c r="T6" s="75"/>
-      <c r="U6" s="75"/>
-      <c r="V6" s="75">
+      <c r="S6" s="74"/>
+      <c r="T6" s="74"/>
+      <c r="U6" s="74"/>
+      <c r="V6" s="74">
         <v>0.68194444444444446</v>
       </c>
-      <c r="W6" s="75"/>
-      <c r="X6" s="75"/>
-      <c r="Y6" s="75"/>
-      <c r="Z6" s="79"/>
-      <c r="AA6" s="79"/>
-      <c r="AB6" s="79"/>
-      <c r="AC6" s="79"/>
-      <c r="AD6" s="75">
+      <c r="W6" s="74"/>
+      <c r="X6" s="74"/>
+      <c r="Y6" s="74"/>
+      <c r="Z6" s="77"/>
+      <c r="AA6" s="77"/>
+      <c r="AB6" s="77"/>
+      <c r="AC6" s="77"/>
+      <c r="AD6" s="74">
         <v>0.64236111111111105</v>
       </c>
-      <c r="AE6" s="75"/>
-      <c r="AF6" s="75"/>
-      <c r="AG6" s="75"/>
+      <c r="AE6" s="74"/>
+      <c r="AF6" s="74"/>
+      <c r="AG6" s="74"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
@@ -8834,7 +9340,7 @@
       <c r="C10">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="78" t="s">
         <v>450</v>
       </c>
       <c r="F10">
@@ -8926,7 +9432,7 @@
       <c r="C11">
         <v>0.107</v>
       </c>
-      <c r="D11" s="74"/>
+      <c r="D11" s="79"/>
       <c r="F11">
         <v>10.47</v>
       </c>
@@ -9016,7 +9522,7 @@
       <c r="C12">
         <v>0.11799999999999999</v>
       </c>
-      <c r="D12" s="74"/>
+      <c r="D12" s="79"/>
       <c r="F12">
         <v>10.47</v>
       </c>
@@ -9088,7 +9594,7 @@
       <c r="C13">
         <v>0.13500000000000001</v>
       </c>
-      <c r="D13" s="74"/>
+      <c r="D13" s="79"/>
       <c r="F13">
         <v>10.46</v>
       </c>
@@ -9160,7 +9666,7 @@
       <c r="C14">
         <v>0.154</v>
       </c>
-      <c r="D14" s="74"/>
+      <c r="D14" s="79"/>
       <c r="E14" s="39" t="s">
         <v>441</v>
       </c>
@@ -9256,7 +9762,7 @@
       <c r="C15">
         <v>0.184</v>
       </c>
-      <c r="D15" s="74"/>
+      <c r="D15" s="79"/>
       <c r="F15">
         <v>10.43</v>
       </c>
@@ -9339,7 +9845,7 @@
       <c r="C16">
         <v>0.218</v>
       </c>
-      <c r="D16" s="74"/>
+      <c r="D16" s="79"/>
       <c r="F16">
         <v>10.42</v>
       </c>
@@ -9422,7 +9928,7 @@
       <c r="C17">
         <v>0.27500000000000002</v>
       </c>
-      <c r="D17" s="74"/>
+      <c r="D17" s="79"/>
       <c r="F17">
         <v>10.42</v>
       </c>
@@ -9497,7 +10003,7 @@
       <c r="C18">
         <v>0.42099999999999999</v>
       </c>
-      <c r="D18" s="74"/>
+      <c r="D18" s="79"/>
       <c r="F18">
         <v>10.4</v>
       </c>
@@ -9572,7 +10078,7 @@
       <c r="C19">
         <v>0.61699999999999999</v>
       </c>
-      <c r="D19" s="74"/>
+      <c r="D19" s="79"/>
       <c r="E19" s="39" t="s">
         <v>442</v>
       </c>
@@ -9671,7 +10177,7 @@
       <c r="C20">
         <v>1.425</v>
       </c>
-      <c r="D20" s="74"/>
+      <c r="D20" s="79"/>
       <c r="F20">
         <v>10.3</v>
       </c>
@@ -9761,7 +10267,7 @@
       <c r="C21">
         <v>1.649</v>
       </c>
-      <c r="D21" s="74"/>
+      <c r="D21" s="79"/>
       <c r="F21">
         <v>10.02</v>
       </c>
@@ -9851,7 +10357,7 @@
       <c r="C22">
         <v>2</v>
       </c>
-      <c r="D22" s="74"/>
+      <c r="D22" s="79"/>
       <c r="F22">
         <v>9.94</v>
       </c>
@@ -9926,7 +10432,7 @@
       <c r="C23">
         <v>2.4950000000000001</v>
       </c>
-      <c r="D23" s="74"/>
+      <c r="D23" s="79"/>
       <c r="F23">
         <v>9.82</v>
       </c>
@@ -10001,7 +10507,7 @@
       <c r="C24">
         <v>3.0350000000000001</v>
       </c>
-      <c r="D24" s="74"/>
+      <c r="D24" s="79"/>
       <c r="E24" s="39" t="s">
         <v>443</v>
       </c>
@@ -10100,7 +10606,7 @@
       <c r="C25">
         <v>3.2789999999999999</v>
       </c>
-      <c r="D25" s="74"/>
+      <c r="D25" s="79"/>
       <c r="F25">
         <v>8.9700000000000006</v>
       </c>
@@ -10193,7 +10699,7 @@
       <c r="C26">
         <v>3.3</v>
       </c>
-      <c r="D26" s="74"/>
+      <c r="D26" s="79"/>
       <c r="F26">
         <v>5.95</v>
       </c>
@@ -10286,7 +10792,7 @@
       <c r="C27">
         <v>3.3</v>
       </c>
-      <c r="D27" s="74"/>
+      <c r="D27" s="79"/>
       <c r="F27">
         <v>3.105</v>
       </c>
@@ -10353,6 +10859,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D10:D27"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="R4:U4"/>
     <mergeCell ref="B3:Y3"/>
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="Z3:AG3"/>
@@ -10366,11 +10877,6 @@
     <mergeCell ref="AD4:AG4"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="V4:Y4"/>
-    <mergeCell ref="D10:D27"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="R4:U4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10721,138 +11227,138 @@
       <c r="A1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="99" t="s">
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="101" t="s">
         <v>458</v>
       </c>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="104" t="s">
         <v>461</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="103" t="s">
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="103"/>
-      <c r="J2" s="93" t="s">
+      <c r="I2" s="91"/>
+      <c r="J2" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="103" t="s">
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="103"/>
+      <c r="O2" s="91"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="98"/>
-      <c r="D3" s="97" t="s">
+      <c r="C3" s="107"/>
+      <c r="D3" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="98"/>
-      <c r="F3" s="97" t="s">
+      <c r="E3" s="107"/>
+      <c r="F3" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="98"/>
-      <c r="H3" s="97" t="s">
+      <c r="G3" s="107"/>
+      <c r="H3" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="98"/>
-      <c r="J3" s="93" t="s">
+      <c r="I3" s="107"/>
+      <c r="J3" s="104" t="s">
         <v>98</v>
       </c>
-      <c r="K3" s="94"/>
-      <c r="L3" s="93" t="s">
+      <c r="K3" s="106"/>
+      <c r="L3" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="94"/>
-      <c r="N3" s="97" t="s">
+      <c r="M3" s="106"/>
+      <c r="N3" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="104"/>
+      <c r="O3" s="99"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="91" t="s">
+      <c r="C4" s="95"/>
+      <c r="D4" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="92"/>
-      <c r="F4" s="91" t="s">
+      <c r="E4" s="95"/>
+      <c r="F4" s="94" t="s">
         <v>130</v>
       </c>
-      <c r="G4" s="92"/>
-      <c r="H4" s="91" t="s">
+      <c r="G4" s="95"/>
+      <c r="H4" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="I4" s="92"/>
-      <c r="J4" s="95" t="s">
+      <c r="I4" s="95"/>
+      <c r="J4" s="96" t="s">
         <v>457</v>
       </c>
-      <c r="K4" s="96"/>
-      <c r="L4" s="95" t="s">
+      <c r="K4" s="97"/>
+      <c r="L4" s="96" t="s">
         <v>457</v>
       </c>
-      <c r="M4" s="96"/>
-      <c r="N4" s="91" t="s">
+      <c r="M4" s="97"/>
+      <c r="N4" s="94" t="s">
         <v>457</v>
       </c>
-      <c r="O4" s="105"/>
+      <c r="O4" s="100"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="94" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="91" t="s">
+      <c r="C5" s="95"/>
+      <c r="D5" s="94" t="s">
         <v>127</v>
       </c>
-      <c r="E5" s="92"/>
-      <c r="F5" s="91" t="s">
+      <c r="E5" s="95"/>
+      <c r="F5" s="94" t="s">
         <v>128</v>
       </c>
-      <c r="G5" s="92"/>
-      <c r="H5" s="91" t="s">
+      <c r="G5" s="95"/>
+      <c r="H5" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="I5" s="92"/>
+      <c r="I5" s="95"/>
       <c r="J5" s="54"/>
       <c r="K5" s="54"/>
       <c r="L5" s="54"/>
@@ -10867,27 +11373,27 @@
       <c r="D6" s="54"/>
       <c r="F6" s="54"/>
       <c r="H6" s="54"/>
-      <c r="J6" s="95" t="s">
+      <c r="J6" s="96" t="s">
         <v>460</v>
       </c>
-      <c r="K6" s="96"/>
-      <c r="L6" s="95" t="s">
+      <c r="K6" s="97"/>
+      <c r="L6" s="96" t="s">
         <v>460</v>
       </c>
-      <c r="M6" s="96"/>
-      <c r="N6" s="99" t="s">
+      <c r="M6" s="97"/>
+      <c r="N6" s="101" t="s">
         <v>460</v>
       </c>
-      <c r="O6" s="100"/>
+      <c r="O6" s="102"/>
     </row>
     <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="93" t="s">
         <v>80</v>
       </c>
       <c r="C7" s="40">
         <v>78.2</v>
       </c>
-      <c r="D7" s="106" t="s">
+      <c r="D7" s="93" t="s">
         <v>80</v>
       </c>
       <c r="E7" s="41">
@@ -10925,11 +11431,11 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B8" s="106"/>
+      <c r="B8" s="93"/>
       <c r="C8" s="40">
         <v>78.400000000000006</v>
       </c>
-      <c r="D8" s="106"/>
+      <c r="D8" s="93"/>
       <c r="E8" s="41">
         <v>53.4</v>
       </c>
@@ -10955,11 +11461,11 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B9" s="106"/>
+      <c r="B9" s="93"/>
       <c r="C9" s="40">
         <v>78.400000000000006</v>
       </c>
-      <c r="D9" s="106"/>
+      <c r="D9" s="93"/>
       <c r="E9" s="41">
         <v>53.9</v>
       </c>
@@ -10985,11 +11491,11 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B10" s="106"/>
+      <c r="B10" s="93"/>
       <c r="C10" s="40">
         <v>78.400000000000006</v>
       </c>
-      <c r="D10" s="106"/>
+      <c r="D10" s="93"/>
       <c r="E10" s="41">
         <v>54</v>
       </c>
@@ -11015,11 +11521,11 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B11" s="106"/>
+      <c r="B11" s="93"/>
       <c r="C11" s="40">
         <v>78.400000000000006</v>
       </c>
-      <c r="D11" s="106"/>
+      <c r="D11" s="93"/>
       <c r="E11" s="41">
         <v>53.9</v>
       </c>
@@ -11045,11 +11551,11 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B12" s="106"/>
+      <c r="B12" s="93"/>
       <c r="C12" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D12" s="106"/>
+      <c r="D12" s="93"/>
       <c r="E12" s="41">
         <v>55.2</v>
       </c>
@@ -11075,11 +11581,11 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B13" s="106"/>
+      <c r="B13" s="93"/>
       <c r="C13" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D13" s="106"/>
+      <c r="D13" s="93"/>
       <c r="E13" s="41">
         <v>53.7</v>
       </c>
@@ -11105,11 +11611,11 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B14" s="106"/>
+      <c r="B14" s="93"/>
       <c r="C14" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D14" s="106"/>
+      <c r="D14" s="93"/>
       <c r="E14" s="41">
         <v>53.4</v>
       </c>
@@ -11135,11 +11641,11 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B15" s="106"/>
+      <c r="B15" s="93"/>
       <c r="C15" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D15" s="106"/>
+      <c r="D15" s="93"/>
       <c r="E15" s="41">
         <v>53.1</v>
       </c>
@@ -11165,11 +11671,11 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B16" s="106"/>
+      <c r="B16" s="93"/>
       <c r="C16" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D16" s="106"/>
+      <c r="D16" s="93"/>
       <c r="E16" s="41">
         <v>52.6</v>
       </c>
@@ -11195,7 +11701,7 @@
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B17" s="103" t="s">
+      <c r="B17" s="91" t="s">
         <v>444</v>
       </c>
       <c r="C17" s="40">
@@ -11229,7 +11735,7 @@
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B18" s="103"/>
+      <c r="B18" s="91"/>
       <c r="C18" s="40">
         <v>79.5</v>
       </c>
@@ -11259,7 +11765,7 @@
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B19" s="103"/>
+      <c r="B19" s="91"/>
       <c r="C19" s="40">
         <v>79.5</v>
       </c>
@@ -11289,7 +11795,7 @@
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B20" s="103"/>
+      <c r="B20" s="91"/>
       <c r="C20" s="40">
         <v>79.5</v>
       </c>
@@ -11319,7 +11825,7 @@
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B21" s="103"/>
+      <c r="B21" s="91"/>
       <c r="C21" s="40">
         <v>79.5</v>
       </c>
@@ -11349,7 +11855,7 @@
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B22" s="103" t="s">
+      <c r="B22" s="91" t="s">
         <v>55</v>
       </c>
       <c r="C22" s="40">
@@ -11383,7 +11889,7 @@
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B23" s="103"/>
+      <c r="B23" s="91"/>
       <c r="C23" s="40">
         <v>80</v>
       </c>
@@ -11413,7 +11919,7 @@
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B24" s="103"/>
+      <c r="B24" s="91"/>
       <c r="C24" s="40">
         <v>80</v>
       </c>
@@ -11443,7 +11949,7 @@
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B25" s="103"/>
+      <c r="B25" s="91"/>
       <c r="C25" s="40">
         <v>80</v>
       </c>
@@ -11473,7 +11979,7 @@
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B26" s="103"/>
+      <c r="B26" s="91"/>
       <c r="C26" s="40">
         <v>80</v>
       </c>
@@ -11503,7 +12009,7 @@
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B27" s="103" t="s">
+      <c r="B27" s="91" t="s">
         <v>56</v>
       </c>
       <c r="C27" s="40">
@@ -11537,7 +12043,7 @@
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B28" s="103"/>
+      <c r="B28" s="91"/>
       <c r="C28" s="40">
         <v>80.7</v>
       </c>
@@ -11567,7 +12073,7 @@
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B29" s="103"/>
+      <c r="B29" s="91"/>
       <c r="C29" s="40">
         <v>80.7</v>
       </c>
@@ -11597,7 +12103,7 @@
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B30" s="103"/>
+      <c r="B30" s="91"/>
       <c r="C30" s="40">
         <v>80.7</v>
       </c>
@@ -11627,7 +12133,7 @@
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B31" s="103"/>
+      <c r="B31" s="91"/>
       <c r="C31" s="40">
         <v>80.900000000000006</v>
       </c>
@@ -11657,7 +12163,7 @@
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B32" s="103" t="s">
+      <c r="B32" s="91" t="s">
         <v>57</v>
       </c>
       <c r="C32" s="40">
@@ -11691,7 +12197,7 @@
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B33" s="103"/>
+      <c r="B33" s="91"/>
       <c r="C33" s="40">
         <v>81.099999999999994</v>
       </c>
@@ -11721,7 +12227,7 @@
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B34" s="103"/>
+      <c r="B34" s="91"/>
       <c r="C34" s="40">
         <v>81.099999999999994</v>
       </c>
@@ -11751,7 +12257,7 @@
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B35" s="103"/>
+      <c r="B35" s="91"/>
       <c r="C35" s="40">
         <v>81.099999999999994</v>
       </c>
@@ -11781,7 +12287,7 @@
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B36" s="103"/>
+      <c r="B36" s="91"/>
       <c r="C36" s="40">
         <v>81.099999999999994</v>
       </c>
@@ -11811,7 +12317,7 @@
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B37" s="103" t="s">
+      <c r="B37" s="91" t="s">
         <v>58</v>
       </c>
       <c r="C37" s="40">
@@ -11845,7 +12351,7 @@
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B38" s="103"/>
+      <c r="B38" s="91"/>
       <c r="C38" s="40">
         <v>81.5</v>
       </c>
@@ -11875,7 +12381,7 @@
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B39" s="103"/>
+      <c r="B39" s="91"/>
       <c r="C39" s="40">
         <v>81.5</v>
       </c>
@@ -11905,7 +12411,7 @@
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B40" s="103"/>
+      <c r="B40" s="91"/>
       <c r="C40" s="40">
         <v>81.5</v>
       </c>
@@ -11935,7 +12441,7 @@
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B41" s="103"/>
+      <c r="B41" s="91"/>
       <c r="C41" s="40">
         <v>81.5</v>
       </c>
@@ -11965,7 +12471,7 @@
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B42" s="103" t="s">
+      <c r="B42" s="91" t="s">
         <v>59</v>
       </c>
       <c r="C42" s="40">
@@ -11999,7 +12505,7 @@
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B43" s="103"/>
+      <c r="B43" s="91"/>
       <c r="C43" s="40">
         <v>82.4</v>
       </c>
@@ -12029,7 +12535,7 @@
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B44" s="103"/>
+      <c r="B44" s="91"/>
       <c r="C44" s="40">
         <v>82.4</v>
       </c>
@@ -12059,7 +12565,7 @@
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B45" s="103"/>
+      <c r="B45" s="91"/>
       <c r="C45" s="40">
         <v>82.4</v>
       </c>
@@ -12089,7 +12595,7 @@
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B46" s="103"/>
+      <c r="B46" s="91"/>
       <c r="C46" s="40">
         <v>82.4</v>
       </c>
@@ -12119,13 +12625,13 @@
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B47" s="103" t="s">
+      <c r="B47" s="91" t="s">
         <v>94</v>
       </c>
       <c r="C47" s="40">
         <v>82.9</v>
       </c>
-      <c r="D47" s="107" t="s">
+      <c r="D47" s="92" t="s">
         <v>90</v>
       </c>
       <c r="E47" s="41">
@@ -12138,11 +12644,11 @@
       <c r="J47" s="56"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B48" s="103"/>
+      <c r="B48" s="91"/>
       <c r="C48" s="40">
         <v>83.1</v>
       </c>
-      <c r="D48" s="107"/>
+      <c r="D48" s="92"/>
       <c r="E48" s="41">
         <v>43.4</v>
       </c>
@@ -12153,11 +12659,11 @@
       <c r="J48" s="56"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B49" s="103"/>
+      <c r="B49" s="91"/>
       <c r="C49" s="40">
         <v>83.1</v>
       </c>
-      <c r="D49" s="107"/>
+      <c r="D49" s="92"/>
       <c r="E49" s="41">
         <v>43.4</v>
       </c>
@@ -12168,11 +12674,11 @@
       <c r="J49" s="56"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B50" s="103"/>
+      <c r="B50" s="91"/>
       <c r="C50" s="40">
         <v>83.1</v>
       </c>
-      <c r="D50" s="107"/>
+      <c r="D50" s="92"/>
       <c r="E50" s="41">
         <v>43.4</v>
       </c>
@@ -12183,11 +12689,11 @@
       <c r="J50" s="56"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B51" s="103"/>
+      <c r="B51" s="91"/>
       <c r="C51" s="40">
         <v>83.1</v>
       </c>
-      <c r="D51" s="107"/>
+      <c r="D51" s="92"/>
       <c r="E51" s="41">
         <v>43.4</v>
       </c>
@@ -12198,13 +12704,13 @@
       <c r="J51" s="56"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B52" s="103" t="s">
+      <c r="B52" s="91" t="s">
         <v>95</v>
       </c>
       <c r="C52" s="40">
         <v>83.4</v>
       </c>
-      <c r="D52" s="107" t="s">
+      <c r="D52" s="92" t="s">
         <v>92</v>
       </c>
       <c r="E52" s="41">
@@ -12217,11 +12723,11 @@
       <c r="J52" s="56"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B53" s="103"/>
+      <c r="B53" s="91"/>
       <c r="C53" s="40">
         <v>83.4</v>
       </c>
-      <c r="D53" s="107"/>
+      <c r="D53" s="92"/>
       <c r="E53" s="41">
         <v>43.3</v>
       </c>
@@ -12232,11 +12738,11 @@
       <c r="J53" s="56"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B54" s="103"/>
+      <c r="B54" s="91"/>
       <c r="C54" s="40">
         <v>83.4</v>
       </c>
-      <c r="D54" s="107"/>
+      <c r="D54" s="92"/>
       <c r="E54" s="41">
         <v>43.4</v>
       </c>
@@ -12247,11 +12753,11 @@
       <c r="J54" s="56"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B55" s="103"/>
+      <c r="B55" s="91"/>
       <c r="C55" s="40">
         <v>83.6</v>
       </c>
-      <c r="D55" s="107"/>
+      <c r="D55" s="92"/>
       <c r="E55" s="41">
         <v>43.4</v>
       </c>
@@ -12262,11 +12768,11 @@
       <c r="J55" s="56"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B56" s="103"/>
+      <c r="B56" s="91"/>
       <c r="C56" s="40">
         <v>83.3</v>
       </c>
-      <c r="D56" s="107"/>
+      <c r="D56" s="92"/>
       <c r="E56" s="41">
         <v>43.4</v>
       </c>
@@ -12277,7 +12783,7 @@
       <c r="J56" s="56"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B57" s="103" t="s">
+      <c r="B57" s="91" t="s">
         <v>96</v>
       </c>
       <c r="C57" s="40">
@@ -12292,7 +12798,7 @@
       <c r="J57" s="56"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B58" s="103"/>
+      <c r="B58" s="91"/>
       <c r="C58" s="40">
         <v>83.4</v>
       </c>
@@ -12305,7 +12811,7 @@
       <c r="J58" s="56"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B59" s="103"/>
+      <c r="B59" s="91"/>
       <c r="C59" s="40">
         <v>83.3</v>
       </c>
@@ -12318,7 +12824,7 @@
       <c r="J59" s="56"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B60" s="103"/>
+      <c r="B60" s="91"/>
       <c r="C60" s="40">
         <v>83.3</v>
       </c>
@@ -12331,7 +12837,7 @@
       <c r="J60" s="56"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B61" s="103"/>
+      <c r="B61" s="91"/>
       <c r="C61" s="40">
         <v>83.4</v>
       </c>
@@ -12344,7 +12850,7 @@
       <c r="J61" s="56"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B62" s="103" t="s">
+      <c r="B62" s="91" t="s">
         <v>97</v>
       </c>
       <c r="C62" s="40">
@@ -12359,7 +12865,7 @@
       <c r="J62" s="56"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B63" s="103"/>
+      <c r="B63" s="91"/>
       <c r="C63" s="40">
         <v>83.8</v>
       </c>
@@ -12372,7 +12878,7 @@
       <c r="J63" s="56"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B64" s="103"/>
+      <c r="B64" s="91"/>
       <c r="C64" s="40">
         <v>83.6</v>
       </c>
@@ -12385,7 +12891,7 @@
       <c r="J64" s="56"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B65" s="103"/>
+      <c r="B65" s="91"/>
       <c r="C65" s="40">
         <v>83.8</v>
       </c>
@@ -12398,7 +12904,7 @@
       <c r="J65" s="56"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B66" s="103"/>
+      <c r="B66" s="91"/>
       <c r="C66" s="40">
         <v>83.8</v>
       </c>
@@ -12411,7 +12917,7 @@
       <c r="J66" s="56"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B67" s="103" t="s">
+      <c r="B67" s="91" t="s">
         <v>93</v>
       </c>
       <c r="C67" s="40">
@@ -12426,7 +12932,7 @@
       <c r="J67" s="56"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B68" s="103"/>
+      <c r="B68" s="91"/>
       <c r="C68" s="40">
         <v>84</v>
       </c>
@@ -12439,7 +12945,7 @@
       <c r="J68" s="56"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B69" s="103"/>
+      <c r="B69" s="91"/>
       <c r="C69" s="40">
         <v>84</v>
       </c>
@@ -12452,7 +12958,7 @@
       <c r="J69" s="56"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B70" s="103"/>
+      <c r="B70" s="91"/>
       <c r="C70" s="40">
         <v>84</v>
       </c>
@@ -12465,7 +12971,7 @@
       <c r="J70" s="56"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B71" s="103"/>
+      <c r="B71" s="91"/>
       <c r="C71" s="40">
         <v>84</v>
       </c>
@@ -12478,7 +12984,7 @@
       <c r="J71" s="56"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B72" s="103" t="s">
+      <c r="B72" s="91" t="s">
         <v>82</v>
       </c>
       <c r="C72" s="40">
@@ -12493,7 +12999,7 @@
       <c r="J72" s="56"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B73" s="103"/>
+      <c r="B73" s="91"/>
       <c r="C73" s="40">
         <v>83.4</v>
       </c>
@@ -12506,7 +13012,7 @@
       <c r="J73" s="56"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B74" s="103"/>
+      <c r="B74" s="91"/>
       <c r="C74" s="40">
         <v>83.3</v>
       </c>
@@ -12519,7 +13025,7 @@
       <c r="J74" s="56"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B75" s="103"/>
+      <c r="B75" s="91"/>
       <c r="C75" s="40">
         <v>83.3</v>
       </c>
@@ -12532,7 +13038,7 @@
       <c r="J75" s="56"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B76" s="103"/>
+      <c r="B76" s="91"/>
       <c r="C76" s="40">
         <v>83.3</v>
       </c>
@@ -12545,7 +13051,7 @@
       <c r="J76" s="56"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B77" s="103" t="s">
+      <c r="B77" s="91" t="s">
         <v>83</v>
       </c>
       <c r="C77" s="40">
@@ -12560,7 +13066,7 @@
       <c r="J77" s="56"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B78" s="103"/>
+      <c r="B78" s="91"/>
       <c r="C78" s="40">
         <v>83.4</v>
       </c>
@@ -12573,7 +13079,7 @@
       <c r="J78" s="56"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B79" s="103"/>
+      <c r="B79" s="91"/>
       <c r="C79" s="40">
         <v>83.4</v>
       </c>
@@ -12586,7 +13092,7 @@
       <c r="J79" s="56"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B80" s="103"/>
+      <c r="B80" s="91"/>
       <c r="C80" s="40">
         <v>83.4</v>
       </c>
@@ -12599,7 +13105,7 @@
       <c r="J80" s="56"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B81" s="103"/>
+      <c r="B81" s="91"/>
       <c r="C81" s="40">
         <v>83.4</v>
       </c>
@@ -12612,7 +13118,7 @@
       <c r="J81" s="56"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B82" s="103" t="s">
+      <c r="B82" s="91" t="s">
         <v>84</v>
       </c>
       <c r="C82" s="40">
@@ -12627,7 +13133,7 @@
       <c r="J82" s="56"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B83" s="103"/>
+      <c r="B83" s="91"/>
       <c r="C83" s="40">
         <v>83.3</v>
       </c>
@@ -12640,7 +13146,7 @@
       <c r="J83" s="56"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B84" s="103"/>
+      <c r="B84" s="91"/>
       <c r="C84" s="40">
         <v>83.3</v>
       </c>
@@ -12653,7 +13159,7 @@
       <c r="J84" s="56"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B85" s="103"/>
+      <c r="B85" s="91"/>
       <c r="C85" s="40">
         <v>83.3</v>
       </c>
@@ -12666,7 +13172,7 @@
       <c r="J85" s="56"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B86" s="103"/>
+      <c r="B86" s="91"/>
       <c r="C86" s="40">
         <v>83.3</v>
       </c>
@@ -12679,7 +13185,7 @@
       <c r="J86" s="56"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B87" s="103" t="s">
+      <c r="B87" s="91" t="s">
         <v>87</v>
       </c>
       <c r="C87" s="40">
@@ -12694,7 +13200,7 @@
       <c r="J87" s="56"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B88" s="103"/>
+      <c r="B88" s="91"/>
       <c r="C88" s="40">
         <v>83.8</v>
       </c>
@@ -12707,7 +13213,7 @@
       <c r="J88" s="56"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B89" s="103"/>
+      <c r="B89" s="91"/>
       <c r="C89" s="40">
         <v>83.8</v>
       </c>
@@ -12720,7 +13226,7 @@
       <c r="J89" s="56"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B90" s="103"/>
+      <c r="B90" s="91"/>
       <c r="C90" s="40">
         <v>84</v>
       </c>
@@ -12733,7 +13239,7 @@
       <c r="J90" s="56"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B91" s="103"/>
+      <c r="B91" s="91"/>
       <c r="C91" s="40">
         <v>84</v>
       </c>
@@ -12746,7 +13252,7 @@
       <c r="J91" s="56"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B92" s="103" t="s">
+      <c r="B92" s="91" t="s">
         <v>89</v>
       </c>
       <c r="C92" s="40">
@@ -12761,7 +13267,7 @@
       <c r="J92" s="56"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B93" s="103"/>
+      <c r="B93" s="91"/>
       <c r="C93" s="40">
         <v>84</v>
       </c>
@@ -12774,7 +13280,7 @@
       <c r="J93" s="56"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B94" s="103"/>
+      <c r="B94" s="91"/>
       <c r="C94" s="40">
         <v>84</v>
       </c>
@@ -12787,7 +13293,7 @@
       <c r="J94" s="56"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B95" s="103"/>
+      <c r="B95" s="91"/>
       <c r="C95" s="40">
         <v>84.2</v>
       </c>
@@ -12800,7 +13306,7 @@
       <c r="J95" s="56"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B96" s="103"/>
+      <c r="B96" s="91"/>
       <c r="C96" s="40">
         <v>84.2</v>
       </c>
@@ -12813,7 +13319,7 @@
       <c r="J96" s="56"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B97" s="103" t="s">
+      <c r="B97" s="91" t="s">
         <v>91</v>
       </c>
       <c r="C97" s="40">
@@ -12828,7 +13334,7 @@
       <c r="J97" s="56"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B98" s="103"/>
+      <c r="B98" s="91"/>
       <c r="C98" s="40">
         <v>84</v>
       </c>
@@ -12841,7 +13347,7 @@
       <c r="J98" s="56"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B99" s="103"/>
+      <c r="B99" s="91"/>
       <c r="C99" s="40">
         <v>84</v>
       </c>
@@ -12854,7 +13360,7 @@
       <c r="J99" s="56"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B100" s="103"/>
+      <c r="B100" s="91"/>
       <c r="C100" s="40">
         <v>84</v>
       </c>
@@ -12867,7 +13373,7 @@
       <c r="J100" s="56"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B101" s="103"/>
+      <c r="B101" s="91"/>
       <c r="C101" s="40">
         <v>84</v>
       </c>
@@ -12881,6 +13387,49 @@
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="J7:J46"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N7:N46"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L7:L46"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B92:B96"/>
+    <mergeCell ref="B7:B16"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="D7:D16"/>
+    <mergeCell ref="F7:F46"/>
+    <mergeCell ref="H7:H46"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="F5:G5"/>
     <mergeCell ref="B97:B101"/>
     <mergeCell ref="D27:D31"/>
     <mergeCell ref="D32:D36"/>
@@ -12897,49 +13446,6 @@
     <mergeCell ref="B32:B36"/>
     <mergeCell ref="B47:B51"/>
     <mergeCell ref="B52:B56"/>
-    <mergeCell ref="L7:L46"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B92:B96"/>
-    <mergeCell ref="B7:B16"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="D7:D16"/>
-    <mergeCell ref="F7:F46"/>
-    <mergeCell ref="H7:H46"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="J7:J46"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N7:N46"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12957,44 +13463,44 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="111" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
       <c r="G1" s="17"/>
-      <c r="H1" s="117" t="s">
+      <c r="H1" s="113" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117" t="s">
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="117"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A2" s="118"/>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
+      <c r="A2" s="114"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A3" s="26" t="s">
@@ -13018,27 +13524,27 @@
       <c r="G3" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="H3" s="93" t="s">
+      <c r="H3" s="104" t="s">
         <v>189</v>
       </c>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="102"/>
-      <c r="O3" s="94"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="106"/>
       <c r="P3" s="31">
         <v>0.36041666666666666</v>
       </c>
-      <c r="Q3" s="93" t="s">
+      <c r="Q3" s="104" t="s">
         <v>189</v>
       </c>
-      <c r="R3" s="102"/>
-      <c r="S3" s="102"/>
-      <c r="T3" s="102"/>
-      <c r="U3" s="102"/>
-      <c r="V3" s="102"/>
+      <c r="R3" s="105"/>
+      <c r="S3" s="105"/>
+      <c r="T3" s="105"/>
+      <c r="U3" s="105"/>
+      <c r="V3" s="105"/>
       <c r="W3" s="37">
         <v>0.36319444444444443</v>
       </c>
@@ -13047,13 +13553,13 @@
       <c r="Z3" s="20"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="116" t="s">
         <v>133</v>
       </c>
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="91" t="s">
         <v>98</v>
       </c>
       <c r="D4" s="23">
@@ -13117,9 +13623,9 @@
       <c r="Z4" s="13"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A5" s="109"/>
-      <c r="B5" s="112"/>
-      <c r="C5" s="103"/>
+      <c r="A5" s="117"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="91"/>
       <c r="D5" s="23">
         <v>2</v>
       </c>
@@ -13179,9 +13685,9 @@
       <c r="Z5" s="13"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A6" s="109"/>
-      <c r="B6" s="112"/>
-      <c r="C6" s="103"/>
+      <c r="A6" s="117"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="91"/>
       <c r="D6" s="23">
         <v>3</v>
       </c>
@@ -13241,9 +13747,9 @@
       <c r="Z6" s="13"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A7" s="109"/>
-      <c r="B7" s="112"/>
-      <c r="C7" s="103"/>
+      <c r="A7" s="117"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="91"/>
       <c r="D7" s="23">
         <v>4</v>
       </c>
@@ -13303,9 +13809,9 @@
       <c r="Z7" s="13"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A8" s="109"/>
-      <c r="B8" s="112"/>
-      <c r="C8" s="103"/>
+      <c r="A8" s="117"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="91"/>
       <c r="D8" s="23">
         <v>5</v>
       </c>
@@ -13365,15 +13871,15 @@
       <c r="Z8" s="13"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A9" s="109"/>
-      <c r="B9" s="112"/>
+      <c r="A9" s="117"/>
+      <c r="B9" s="120"/>
       <c r="C9" s="26"/>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="114"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
       <c r="J9" s="81"/>
       <c r="K9" s="81"/>
       <c r="L9" s="81"/>
@@ -13393,8 +13899,8 @@
       <c r="Z9" s="21"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A10" s="109"/>
-      <c r="B10" s="112"/>
+      <c r="A10" s="117"/>
+      <c r="B10" s="120"/>
       <c r="C10" s="26"/>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
@@ -13425,9 +13931,9 @@
       <c r="Z10" s="11"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A11" s="109"/>
-      <c r="B11" s="112"/>
-      <c r="C11" s="103" t="s">
+      <c r="A11" s="117"/>
+      <c r="B11" s="120"/>
+      <c r="C11" s="91" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="23">
@@ -13491,9 +13997,9 @@
       <c r="Z11" s="11"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A12" s="109"/>
-      <c r="B12" s="112"/>
-      <c r="C12" s="103"/>
+      <c r="A12" s="117"/>
+      <c r="B12" s="120"/>
+      <c r="C12" s="91"/>
       <c r="D12" s="23">
         <v>2</v>
       </c>
@@ -13553,9 +14059,9 @@
       <c r="Z12" s="11"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A13" s="109"/>
-      <c r="B13" s="112"/>
-      <c r="C13" s="103"/>
+      <c r="A13" s="117"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="91"/>
       <c r="D13" s="23">
         <v>3</v>
       </c>
@@ -13615,9 +14121,9 @@
       <c r="Z13" s="11"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A14" s="109"/>
-      <c r="B14" s="112"/>
-      <c r="C14" s="103"/>
+      <c r="A14" s="117"/>
+      <c r="B14" s="120"/>
+      <c r="C14" s="91"/>
       <c r="D14" s="23">
         <v>4</v>
       </c>
@@ -13677,9 +14183,9 @@
       <c r="Z14" s="11"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A15" s="109"/>
-      <c r="B15" s="112"/>
-      <c r="C15" s="103"/>
+      <c r="A15" s="117"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="91"/>
       <c r="D15" s="23">
         <v>5</v>
       </c>
@@ -13739,23 +14245,23 @@
       <c r="Z15" s="11"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A16" s="109"/>
-      <c r="B16" s="113"/>
+      <c r="A16" s="117"/>
+      <c r="B16" s="121"/>
       <c r="C16" s="29"/>
       <c r="D16" s="22"/>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="120" t="s">
+      <c r="H16" s="108" t="s">
         <v>178</v>
       </c>
-      <c r="I16" s="121"/>
-      <c r="J16" s="121"/>
-      <c r="K16" s="121"/>
-      <c r="L16" s="121"/>
-      <c r="M16" s="121"/>
-      <c r="N16" s="121"/>
-      <c r="O16" s="122"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="109"/>
+      <c r="M16" s="109"/>
+      <c r="N16" s="109"/>
+      <c r="O16" s="110"/>
       <c r="P16" s="36"/>
       <c r="Q16" s="36"/>
       <c r="R16" s="36"/>
@@ -13769,11 +14275,11 @@
       <c r="Z16" s="11"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A17" s="109"/>
-      <c r="B17" s="103" t="s">
+      <c r="A17" s="117"/>
+      <c r="B17" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="103" t="s">
+      <c r="C17" s="91" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="23">
@@ -13823,9 +14329,9 @@
       <c r="Z17" s="11"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A18" s="109"/>
-      <c r="B18" s="103"/>
-      <c r="C18" s="103"/>
+      <c r="A18" s="117"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="91"/>
       <c r="D18" s="23">
         <v>2</v>
       </c>
@@ -13869,9 +14375,9 @@
       <c r="Z18" s="11"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A19" s="109"/>
-      <c r="B19" s="103"/>
-      <c r="C19" s="103"/>
+      <c r="A19" s="117"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="91"/>
       <c r="D19" s="23">
         <v>3</v>
       </c>
@@ -13915,9 +14421,9 @@
       <c r="Z19" s="11"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A20" s="109"/>
-      <c r="B20" s="103"/>
-      <c r="C20" s="103"/>
+      <c r="A20" s="117"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="91"/>
       <c r="D20" s="23">
         <v>4</v>
       </c>
@@ -13961,9 +14467,9 @@
       <c r="Z20" s="11"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A21" s="110"/>
-      <c r="B21" s="103"/>
-      <c r="C21" s="103"/>
+      <c r="A21" s="118"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
       <c r="D21" s="23">
         <v>5</v>
       </c>
@@ -14022,16 +14528,16 @@
       <c r="G22" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="H22" s="97" t="s">
+      <c r="H22" s="98" t="s">
         <v>189</v>
       </c>
-      <c r="I22" s="104"/>
-      <c r="J22" s="104"/>
-      <c r="K22" s="104"/>
-      <c r="L22" s="104"/>
-      <c r="M22" s="104"/>
-      <c r="N22" s="104"/>
-      <c r="O22" s="98"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="99"/>
+      <c r="M22" s="99"/>
+      <c r="N22" s="99"/>
+      <c r="O22" s="107"/>
       <c r="P22" s="32" t="s">
         <v>248</v>
       </c>
@@ -14047,13 +14553,13 @@
       <c r="Z22" s="11"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A23" s="108" t="s">
+      <c r="A23" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="103" t="s">
+      <c r="B23" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="103" t="s">
+      <c r="C23" s="91" t="s">
         <v>98</v>
       </c>
       <c r="D23" s="23">
@@ -14121,9 +14627,9 @@
       <c r="Z23" s="11"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A24" s="109"/>
-      <c r="B24" s="103"/>
-      <c r="C24" s="103"/>
+      <c r="A24" s="117"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="91"/>
       <c r="D24" s="23">
         <v>2</v>
       </c>
@@ -14183,9 +14689,9 @@
       <c r="Z24" s="11"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A25" s="109"/>
-      <c r="B25" s="103"/>
-      <c r="C25" s="103"/>
+      <c r="A25" s="117"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="91"/>
       <c r="D25" s="23">
         <v>3</v>
       </c>
@@ -14245,9 +14751,9 @@
       <c r="Z25" s="11"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A26" s="109"/>
-      <c r="B26" s="103"/>
-      <c r="C26" s="103"/>
+      <c r="A26" s="117"/>
+      <c r="B26" s="91"/>
+      <c r="C26" s="91"/>
       <c r="D26" s="23">
         <v>4</v>
       </c>
@@ -14307,9 +14813,9 @@
       <c r="Z26" s="11"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A27" s="109"/>
-      <c r="B27" s="103"/>
-      <c r="C27" s="103"/>
+      <c r="A27" s="117"/>
+      <c r="B27" s="91"/>
+      <c r="C27" s="91"/>
       <c r="D27" s="23">
         <v>5</v>
       </c>
@@ -14369,8 +14875,8 @@
       <c r="Z27" s="11"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A28" s="109"/>
-      <c r="B28" s="103"/>
+      <c r="A28" s="117"/>
+      <c r="B28" s="91"/>
       <c r="C28" s="26"/>
       <c r="D28" s="23"/>
       <c r="E28" s="23"/>
@@ -14397,8 +14903,8 @@
       <c r="Z28" s="11"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A29" s="109"/>
-      <c r="B29" s="103"/>
+      <c r="A29" s="117"/>
+      <c r="B29" s="91"/>
       <c r="C29" s="26"/>
       <c r="D29" s="23"/>
       <c r="E29" s="23"/>
@@ -14427,9 +14933,9 @@
       <c r="Z29" s="11"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A30" s="109"/>
-      <c r="B30" s="103"/>
-      <c r="C30" s="103" t="s">
+      <c r="A30" s="117"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="91" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="23">
@@ -14497,9 +15003,9 @@
       <c r="Z30" s="11"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A31" s="109"/>
-      <c r="B31" s="103"/>
-      <c r="C31" s="103"/>
+      <c r="A31" s="117"/>
+      <c r="B31" s="91"/>
+      <c r="C31" s="91"/>
       <c r="D31" s="23">
         <v>2</v>
       </c>
@@ -14559,9 +15065,9 @@
       <c r="Z31" s="11"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A32" s="109"/>
-      <c r="B32" s="103"/>
-      <c r="C32" s="103"/>
+      <c r="A32" s="117"/>
+      <c r="B32" s="91"/>
+      <c r="C32" s="91"/>
       <c r="D32" s="23">
         <v>3</v>
       </c>
@@ -14621,9 +15127,9 @@
       <c r="Z32" s="11"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A33" s="109"/>
-      <c r="B33" s="103"/>
-      <c r="C33" s="103"/>
+      <c r="A33" s="117"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="91"/>
       <c r="D33" s="23">
         <v>4</v>
       </c>
@@ -14680,9 +15186,9 @@
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A34" s="109"/>
-      <c r="B34" s="103"/>
-      <c r="C34" s="103"/>
+      <c r="A34" s="117"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="91"/>
       <c r="D34" s="23">
         <v>5</v>
       </c>
@@ -14739,8 +15245,8 @@
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A35" s="109"/>
-      <c r="B35" s="103"/>
+      <c r="A35" s="117"/>
+      <c r="B35" s="91"/>
       <c r="C35" s="26"/>
       <c r="D35" s="23"/>
       <c r="E35" s="23"/>
@@ -14764,11 +15270,11 @@
       <c r="W35" s="26"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A36" s="109"/>
-      <c r="B36" s="103" t="s">
+      <c r="A36" s="117"/>
+      <c r="B36" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="103" t="s">
+      <c r="C36" s="91" t="s">
         <v>10</v>
       </c>
       <c r="D36" s="23">
@@ -14827,9 +15333,9 @@
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A37" s="109"/>
-      <c r="B37" s="103"/>
-      <c r="C37" s="103"/>
+      <c r="A37" s="117"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="91"/>
       <c r="D37" s="23">
         <v>2</v>
       </c>
@@ -14882,9 +15388,9 @@
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A38" s="109"/>
-      <c r="B38" s="103"/>
-      <c r="C38" s="103"/>
+      <c r="A38" s="117"/>
+      <c r="B38" s="91"/>
+      <c r="C38" s="91"/>
       <c r="D38" s="23">
         <v>3</v>
       </c>
@@ -14937,9 +15443,9 @@
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A39" s="109"/>
-      <c r="B39" s="103"/>
-      <c r="C39" s="103"/>
+      <c r="A39" s="117"/>
+      <c r="B39" s="91"/>
+      <c r="C39" s="91"/>
       <c r="D39" s="23">
         <v>4</v>
       </c>
@@ -14992,9 +15498,9 @@
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A40" s="110"/>
-      <c r="B40" s="103"/>
-      <c r="C40" s="103"/>
+      <c r="A40" s="118"/>
+      <c r="B40" s="91"/>
+      <c r="C40" s="91"/>
       <c r="D40" s="23">
         <v>5</v>
       </c>
@@ -15077,10 +15583,10 @@
       <c r="A42" s="82" t="s">
         <v>294</v>
       </c>
-      <c r="B42" s="103" t="s">
+      <c r="B42" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="103" t="s">
+      <c r="C42" s="91" t="s">
         <v>98</v>
       </c>
       <c r="D42" s="23">
@@ -15120,8 +15626,8 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A43" s="82"/>
-      <c r="B43" s="103"/>
-      <c r="C43" s="103"/>
+      <c r="B43" s="91"/>
+      <c r="C43" s="91"/>
       <c r="D43" s="23">
         <v>2</v>
       </c>
@@ -15155,8 +15661,8 @@
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A44" s="82"/>
-      <c r="B44" s="103"/>
-      <c r="C44" s="103"/>
+      <c r="B44" s="91"/>
+      <c r="C44" s="91"/>
       <c r="D44" s="23">
         <v>3</v>
       </c>
@@ -15190,8 +15696,8 @@
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A45" s="82"/>
-      <c r="B45" s="103"/>
-      <c r="C45" s="103"/>
+      <c r="B45" s="91"/>
+      <c r="C45" s="91"/>
       <c r="D45" s="23">
         <v>4</v>
       </c>
@@ -15225,8 +15731,8 @@
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A46" s="82"/>
-      <c r="B46" s="103"/>
-      <c r="C46" s="103"/>
+      <c r="B46" s="91"/>
+      <c r="C46" s="91"/>
       <c r="D46" s="23">
         <v>5</v>
       </c>
@@ -15260,7 +15766,7 @@
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A47" s="82"/>
-      <c r="B47" s="103"/>
+      <c r="B47" s="91"/>
       <c r="C47" s="26"/>
       <c r="D47" s="23"/>
       <c r="E47" s="23"/>
@@ -15277,7 +15783,7 @@
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A48" s="82"/>
-      <c r="B48" s="103"/>
+      <c r="B48" s="91"/>
       <c r="C48" s="26"/>
       <c r="D48" s="23"/>
       <c r="E48" s="23"/>
@@ -15294,8 +15800,8 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A49" s="82"/>
-      <c r="B49" s="103"/>
-      <c r="C49" s="103" t="s">
+      <c r="B49" s="91"/>
+      <c r="C49" s="91" t="s">
         <v>2</v>
       </c>
       <c r="D49" s="23">
@@ -15335,8 +15841,8 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A50" s="82"/>
-      <c r="B50" s="103"/>
-      <c r="C50" s="103"/>
+      <c r="B50" s="91"/>
+      <c r="C50" s="91"/>
       <c r="D50" s="23">
         <v>2</v>
       </c>
@@ -15370,8 +15876,8 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A51" s="82"/>
-      <c r="B51" s="103"/>
-      <c r="C51" s="103"/>
+      <c r="B51" s="91"/>
+      <c r="C51" s="91"/>
       <c r="D51" s="23">
         <v>3</v>
       </c>
@@ -15405,8 +15911,8 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A52" s="82"/>
-      <c r="B52" s="103"/>
-      <c r="C52" s="103"/>
+      <c r="B52" s="91"/>
+      <c r="C52" s="91"/>
       <c r="D52" s="23">
         <v>4</v>
       </c>
@@ -15440,8 +15946,8 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A53" s="82"/>
-      <c r="B53" s="103"/>
-      <c r="C53" s="103"/>
+      <c r="B53" s="91"/>
+      <c r="C53" s="91"/>
       <c r="D53" s="23">
         <v>5</v>
       </c>
@@ -15475,7 +15981,7 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A54" s="82"/>
-      <c r="B54" s="103"/>
+      <c r="B54" s="91"/>
       <c r="C54" s="26"/>
       <c r="D54" s="23"/>
       <c r="E54" s="23"/>
@@ -15492,10 +15998,10 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A55" s="82"/>
-      <c r="B55" s="103" t="s">
+      <c r="B55" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="103" t="s">
+      <c r="C55" s="91" t="s">
         <v>10</v>
       </c>
       <c r="D55" s="23">
@@ -15535,8 +16041,8 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A56" s="82"/>
-      <c r="B56" s="103"/>
-      <c r="C56" s="103"/>
+      <c r="B56" s="91"/>
+      <c r="C56" s="91"/>
       <c r="D56" s="23">
         <v>2</v>
       </c>
@@ -15570,8 +16076,8 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A57" s="82"/>
-      <c r="B57" s="103"/>
-      <c r="C57" s="103"/>
+      <c r="B57" s="91"/>
+      <c r="C57" s="91"/>
       <c r="D57" s="23">
         <v>3</v>
       </c>
@@ -15605,8 +16111,8 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A58" s="82"/>
-      <c r="B58" s="103"/>
-      <c r="C58" s="103"/>
+      <c r="B58" s="91"/>
+      <c r="C58" s="91"/>
       <c r="D58" s="23">
         <v>4</v>
       </c>
@@ -15640,8 +16146,8 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A59" s="82"/>
-      <c r="B59" s="103"/>
-      <c r="C59" s="103"/>
+      <c r="B59" s="91"/>
+      <c r="C59" s="91"/>
       <c r="D59" s="23">
         <v>5</v>
       </c>
@@ -15704,10 +16210,10 @@
       <c r="A61" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="B61" s="103" t="s">
+      <c r="B61" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="103" t="s">
+      <c r="C61" s="91" t="s">
         <v>98</v>
       </c>
       <c r="D61" s="23">
@@ -15749,8 +16255,8 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A62" s="82"/>
-      <c r="B62" s="103"/>
-      <c r="C62" s="103"/>
+      <c r="B62" s="91"/>
+      <c r="C62" s="91"/>
       <c r="D62" s="23">
         <v>2</v>
       </c>
@@ -15784,8 +16290,8 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A63" s="82"/>
-      <c r="B63" s="103"/>
-      <c r="C63" s="103"/>
+      <c r="B63" s="91"/>
+      <c r="C63" s="91"/>
       <c r="D63" s="23">
         <v>3</v>
       </c>
@@ -15819,8 +16325,8 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A64" s="82"/>
-      <c r="B64" s="103"/>
-      <c r="C64" s="103"/>
+      <c r="B64" s="91"/>
+      <c r="C64" s="91"/>
       <c r="D64" s="23">
         <v>4</v>
       </c>
@@ -15854,8 +16360,8 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A65" s="82"/>
-      <c r="B65" s="103"/>
-      <c r="C65" s="103"/>
+      <c r="B65" s="91"/>
+      <c r="C65" s="91"/>
       <c r="D65" s="23">
         <v>5</v>
       </c>
@@ -15889,7 +16395,7 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A66" s="82"/>
-      <c r="B66" s="103"/>
+      <c r="B66" s="91"/>
       <c r="C66" s="26"/>
       <c r="D66" s="23"/>
       <c r="E66" s="23"/>
@@ -15906,7 +16412,7 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A67" s="82"/>
-      <c r="B67" s="103"/>
+      <c r="B67" s="91"/>
       <c r="C67" s="26"/>
       <c r="D67" s="23"/>
       <c r="E67" s="23"/>
@@ -15923,8 +16429,8 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A68" s="82"/>
-      <c r="B68" s="103"/>
-      <c r="C68" s="103" t="s">
+      <c r="B68" s="91"/>
+      <c r="C68" s="91" t="s">
         <v>2</v>
       </c>
       <c r="D68" s="23">
@@ -15966,8 +16472,8 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A69" s="82"/>
-      <c r="B69" s="103"/>
-      <c r="C69" s="103"/>
+      <c r="B69" s="91"/>
+      <c r="C69" s="91"/>
       <c r="D69" s="23">
         <v>2</v>
       </c>
@@ -16001,8 +16507,8 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A70" s="82"/>
-      <c r="B70" s="103"/>
-      <c r="C70" s="103"/>
+      <c r="B70" s="91"/>
+      <c r="C70" s="91"/>
       <c r="D70" s="23">
         <v>3</v>
       </c>
@@ -16036,8 +16542,8 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A71" s="82"/>
-      <c r="B71" s="103"/>
-      <c r="C71" s="103"/>
+      <c r="B71" s="91"/>
+      <c r="C71" s="91"/>
       <c r="D71" s="23">
         <v>4</v>
       </c>
@@ -16071,8 +16577,8 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A72" s="82"/>
-      <c r="B72" s="103"/>
-      <c r="C72" s="103"/>
+      <c r="B72" s="91"/>
+      <c r="C72" s="91"/>
       <c r="D72" s="23">
         <v>5</v>
       </c>
@@ -16106,7 +16612,7 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A73" s="82"/>
-      <c r="B73" s="103"/>
+      <c r="B73" s="91"/>
       <c r="C73" s="26"/>
       <c r="D73" s="23"/>
       <c r="E73" s="23"/>
@@ -16123,10 +16629,10 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A74" s="82"/>
-      <c r="B74" s="103" t="s">
+      <c r="B74" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="C74" s="103" t="s">
+      <c r="C74" s="91" t="s">
         <v>10</v>
       </c>
       <c r="D74" s="23">
@@ -16168,8 +16674,8 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A75" s="82"/>
-      <c r="B75" s="103"/>
-      <c r="C75" s="103"/>
+      <c r="B75" s="91"/>
+      <c r="C75" s="91"/>
       <c r="D75" s="23">
         <v>2</v>
       </c>
@@ -16203,8 +16709,8 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A76" s="82"/>
-      <c r="B76" s="103"/>
-      <c r="C76" s="103"/>
+      <c r="B76" s="91"/>
+      <c r="C76" s="91"/>
       <c r="D76" s="23">
         <v>3</v>
       </c>
@@ -16238,8 +16744,8 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A77" s="82"/>
-      <c r="B77" s="103"/>
-      <c r="C77" s="103"/>
+      <c r="B77" s="91"/>
+      <c r="C77" s="91"/>
       <c r="D77" s="23">
         <v>4</v>
       </c>
@@ -16273,8 +16779,8 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A78" s="82"/>
-      <c r="B78" s="103"/>
-      <c r="C78" s="103"/>
+      <c r="B78" s="91"/>
+      <c r="C78" s="91"/>
       <c r="D78" s="23">
         <v>5</v>
       </c>
@@ -16398,45 +16904,22 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="G42:G46"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="C36:C40"/>
-    <mergeCell ref="E36:E40"/>
-    <mergeCell ref="F36:F40"/>
-    <mergeCell ref="E49:E53"/>
-    <mergeCell ref="F49:F53"/>
-    <mergeCell ref="A42:A59"/>
-    <mergeCell ref="B42:B54"/>
-    <mergeCell ref="C42:C46"/>
-    <mergeCell ref="E42:E46"/>
-    <mergeCell ref="F42:F46"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="C55:C59"/>
-    <mergeCell ref="E55:E59"/>
-    <mergeCell ref="F55:F59"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="E30:E34"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="H41:O41"/>
-    <mergeCell ref="E11:E15"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="G17:G21"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="F17:F21"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="G55:G59"/>
+    <mergeCell ref="G68:G72"/>
+    <mergeCell ref="G74:G78"/>
+    <mergeCell ref="H60:O60"/>
+    <mergeCell ref="A61:A78"/>
+    <mergeCell ref="B61:B73"/>
+    <mergeCell ref="C61:C65"/>
+    <mergeCell ref="E61:E65"/>
+    <mergeCell ref="F61:F65"/>
+    <mergeCell ref="G61:G65"/>
+    <mergeCell ref="C68:C72"/>
+    <mergeCell ref="E68:E72"/>
+    <mergeCell ref="F68:F72"/>
+    <mergeCell ref="B74:B78"/>
+    <mergeCell ref="C74:C78"/>
+    <mergeCell ref="E74:E78"/>
     <mergeCell ref="F74:F78"/>
     <mergeCell ref="G49:G53"/>
     <mergeCell ref="Q3:V3"/>
@@ -16453,22 +16936,45 @@
     <mergeCell ref="J9:Q9"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="C11:C15"/>
-    <mergeCell ref="G55:G59"/>
-    <mergeCell ref="G68:G72"/>
-    <mergeCell ref="G74:G78"/>
-    <mergeCell ref="H60:O60"/>
-    <mergeCell ref="A61:A78"/>
-    <mergeCell ref="B61:B73"/>
-    <mergeCell ref="C61:C65"/>
-    <mergeCell ref="E61:E65"/>
-    <mergeCell ref="F61:F65"/>
-    <mergeCell ref="G61:G65"/>
-    <mergeCell ref="C68:C72"/>
-    <mergeCell ref="E68:E72"/>
-    <mergeCell ref="F68:F72"/>
-    <mergeCell ref="B74:B78"/>
-    <mergeCell ref="C74:C78"/>
-    <mergeCell ref="E74:E78"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="G17:G21"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="F17:F21"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="H41:O41"/>
+    <mergeCell ref="A42:A59"/>
+    <mergeCell ref="B42:B54"/>
+    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="E42:E46"/>
+    <mergeCell ref="F42:F46"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="E55:E59"/>
+    <mergeCell ref="F55:F59"/>
+    <mergeCell ref="G42:G46"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="F30:F34"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="E36:E40"/>
+    <mergeCell ref="F36:F40"/>
+    <mergeCell ref="E49:E53"/>
+    <mergeCell ref="F49:F53"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16541,15 +17047,15 @@
       <c r="C4" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="103"/>
+      <c r="D4" s="91"/>
       <c r="E4" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="103"/>
+      <c r="F4" s="91"/>
       <c r="G4" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="103"/>
+      <c r="H4" s="91"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
@@ -16574,7 +17080,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="103" t="s">
+      <c r="A6" s="91" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="1">
@@ -16600,7 +17106,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="103"/>
+      <c r="A7" s="91"/>
       <c r="B7" s="1">
         <v>2</v>
       </c>
@@ -16624,7 +17130,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="103"/>
+      <c r="A8" s="91"/>
       <c r="B8" s="1">
         <v>3</v>
       </c>
@@ -16648,7 +17154,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="103"/>
+      <c r="A9" s="91"/>
       <c r="B9" s="7">
         <v>4</v>
       </c>
@@ -16672,7 +17178,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="103"/>
+      <c r="A10" s="91"/>
       <c r="B10" s="7">
         <v>5</v>
       </c>
@@ -16696,7 +17202,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="103" t="s">
+      <c r="A11" s="91" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="1">
@@ -16722,7 +17228,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="103"/>
+      <c r="A12" s="91"/>
       <c r="B12" s="1">
         <v>2</v>
       </c>
@@ -16746,7 +17252,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="103"/>
+      <c r="A13" s="91"/>
       <c r="B13" s="1">
         <v>3</v>
       </c>
@@ -16770,7 +17276,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="103"/>
+      <c r="A14" s="91"/>
       <c r="B14" s="7">
         <v>4</v>
       </c>
@@ -16794,7 +17300,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="103"/>
+      <c r="A15" s="91"/>
       <c r="B15" s="7">
         <v>5</v>
       </c>

--- a/数据记录/记录表单.xlsx
+++ b/数据记录/记录表单.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="488">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4263,6 +4263,63 @@
   </si>
   <si>
     <t>太阳不可见</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳可见 但不亮 略阴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3:49 结束时只有一块板照射</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>太阳可见 照射</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.5块板 无云</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>忘了记录 估计还是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10min吧</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳可见 无照射</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计冬天的数据采集只能在上午了</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4503,7 +4560,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4661,6 +4718,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4670,16 +4733,13 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -4688,17 +4748,17 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4706,16 +4766,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4751,19 +4808,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4775,10 +4829,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4790,41 +4841,23 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4847,6 +4880,30 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4864,6 +4921,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5145,14 +5205,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AS56"/>
+  <dimension ref="A4:AS57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:E33"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S42" sqref="S42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" customWidth="1"/>
     <col min="42" max="42" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -5161,36 +5222,36 @@
       <c r="A4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="67">
+      <c r="B4" s="66">
         <v>42309</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="67">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="66">
         <v>42310</v>
       </c>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="67">
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="66">
         <v>42311</v>
       </c>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
-      <c r="U4" s="68"/>
-      <c r="V4" s="68"/>
-      <c r="W4" s="68"/>
-      <c r="X4" s="68"/>
-      <c r="Y4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
+      <c r="U4" s="69"/>
+      <c r="V4" s="69"/>
+      <c r="W4" s="69"/>
+      <c r="X4" s="69"/>
+      <c r="Y4" s="70"/>
       <c r="Z4" s="59">
         <v>42312</v>
       </c>
@@ -5224,263 +5285,263 @@
       <c r="A5" s="49" t="s">
         <v>447</v>
       </c>
-      <c r="B5" s="66">
+      <c r="B5" s="71">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="66">
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="71">
         <v>0.68819444444444444</v>
       </c>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="61">
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="63">
         <v>0.41041666666666665</v>
       </c>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="61">
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="63">
         <v>0.46597222222222223</v>
       </c>
-      <c r="O5" s="62"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="61">
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="63">
         <v>0.52916666666666667</v>
       </c>
-      <c r="S5" s="62"/>
-      <c r="T5" s="62"/>
-      <c r="U5" s="63"/>
-      <c r="V5" s="61">
+      <c r="S5" s="64"/>
+      <c r="T5" s="64"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="63">
         <v>0.65486111111111112</v>
       </c>
-      <c r="W5" s="62"/>
-      <c r="X5" s="62"/>
-      <c r="Y5" s="63"/>
-      <c r="Z5" s="61">
+      <c r="W5" s="64"/>
+      <c r="X5" s="64"/>
+      <c r="Y5" s="65"/>
+      <c r="Z5" s="63">
         <v>0.57638888888888895</v>
       </c>
-      <c r="AA5" s="62"/>
-      <c r="AB5" s="62"/>
-      <c r="AC5" s="63"/>
-      <c r="AD5" s="61">
+      <c r="AA5" s="64"/>
+      <c r="AB5" s="64"/>
+      <c r="AC5" s="65"/>
+      <c r="AD5" s="63">
         <v>0.65069444444444446</v>
       </c>
-      <c r="AE5" s="62"/>
-      <c r="AF5" s="62"/>
-      <c r="AG5" s="63"/>
-      <c r="AH5" s="61">
+      <c r="AE5" s="64"/>
+      <c r="AF5" s="64"/>
+      <c r="AG5" s="65"/>
+      <c r="AH5" s="63">
         <v>0.53819444444444442</v>
       </c>
-      <c r="AI5" s="62"/>
-      <c r="AJ5" s="62"/>
-      <c r="AK5" s="63"/>
-      <c r="AL5" s="61">
+      <c r="AI5" s="64"/>
+      <c r="AJ5" s="64"/>
+      <c r="AK5" s="65"/>
+      <c r="AL5" s="63">
         <v>0.5395833333333333</v>
       </c>
-      <c r="AM5" s="62"/>
-      <c r="AN5" s="62"/>
-      <c r="AO5" s="63"/>
-      <c r="AP5" s="61">
+      <c r="AM5" s="64"/>
+      <c r="AN5" s="64"/>
+      <c r="AO5" s="65"/>
+      <c r="AP5" s="63">
         <v>0.57291666666666663</v>
       </c>
-      <c r="AQ5" s="62"/>
-      <c r="AR5" s="62"/>
-      <c r="AS5" s="63"/>
+      <c r="AQ5" s="64"/>
+      <c r="AR5" s="64"/>
+      <c r="AS5" s="65"/>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A6" s="49" t="s">
         <v>448</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="63" t="s">
         <v>462</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="63"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="62"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="63"/>
-      <c r="Z6" s="61"/>
-      <c r="AA6" s="62"/>
-      <c r="AB6" s="62"/>
-      <c r="AC6" s="63"/>
-      <c r="AD6" s="61"/>
-      <c r="AE6" s="62"/>
-      <c r="AF6" s="62"/>
-      <c r="AG6" s="63"/>
-      <c r="AH6" s="61"/>
-      <c r="AI6" s="62"/>
-      <c r="AJ6" s="62"/>
-      <c r="AK6" s="63"/>
-      <c r="AL6" s="61"/>
-      <c r="AM6" s="62"/>
-      <c r="AN6" s="62"/>
-      <c r="AO6" s="63"/>
-      <c r="AP6" s="61"/>
-      <c r="AQ6" s="62"/>
-      <c r="AR6" s="62"/>
-      <c r="AS6" s="63"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="65"/>
+      <c r="V6" s="63"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="64"/>
+      <c r="Y6" s="65"/>
+      <c r="Z6" s="63"/>
+      <c r="AA6" s="64"/>
+      <c r="AB6" s="64"/>
+      <c r="AC6" s="65"/>
+      <c r="AD6" s="63"/>
+      <c r="AE6" s="64"/>
+      <c r="AF6" s="64"/>
+      <c r="AG6" s="65"/>
+      <c r="AH6" s="63"/>
+      <c r="AI6" s="64"/>
+      <c r="AJ6" s="64"/>
+      <c r="AK6" s="65"/>
+      <c r="AL6" s="63"/>
+      <c r="AM6" s="64"/>
+      <c r="AN6" s="64"/>
+      <c r="AO6" s="65"/>
+      <c r="AP6" s="63"/>
+      <c r="AQ6" s="64"/>
+      <c r="AR6" s="64"/>
+      <c r="AS6" s="65"/>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A7" s="49" t="s">
         <v>449</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="61">
+      <c r="B7" s="63"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="63">
         <v>0.69444444444444453</v>
       </c>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="61">
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="63">
         <v>0.41666666666666669</v>
       </c>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="61" t="s">
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="63" t="s">
         <v>467</v>
       </c>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="61">
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="65"/>
+      <c r="R7" s="63">
         <v>0.53611111111111109</v>
       </c>
-      <c r="S7" s="62"/>
-      <c r="T7" s="62"/>
-      <c r="U7" s="63"/>
-      <c r="V7" s="61">
+      <c r="S7" s="64"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="65"/>
+      <c r="V7" s="63">
         <v>0.66180555555555554</v>
       </c>
-      <c r="W7" s="62"/>
-      <c r="X7" s="62"/>
-      <c r="Y7" s="63"/>
-      <c r="Z7" s="61">
+      <c r="W7" s="64"/>
+      <c r="X7" s="64"/>
+      <c r="Y7" s="65"/>
+      <c r="Z7" s="63">
         <v>0.58402777777777781</v>
       </c>
-      <c r="AA7" s="62"/>
-      <c r="AB7" s="62"/>
-      <c r="AC7" s="63"/>
-      <c r="AD7" s="61">
+      <c r="AA7" s="64"/>
+      <c r="AB7" s="64"/>
+      <c r="AC7" s="65"/>
+      <c r="AD7" s="63">
         <v>0.65694444444444444</v>
       </c>
-      <c r="AE7" s="62"/>
-      <c r="AF7" s="62"/>
-      <c r="AG7" s="63"/>
-      <c r="AH7" s="61">
+      <c r="AE7" s="64"/>
+      <c r="AF7" s="64"/>
+      <c r="AG7" s="65"/>
+      <c r="AH7" s="63">
         <v>0.54513888888888895</v>
       </c>
-      <c r="AI7" s="62"/>
-      <c r="AJ7" s="62"/>
-      <c r="AK7" s="63"/>
-      <c r="AL7" s="61">
+      <c r="AI7" s="64"/>
+      <c r="AJ7" s="64"/>
+      <c r="AK7" s="65"/>
+      <c r="AL7" s="63">
         <v>0.54583333333333328</v>
       </c>
-      <c r="AM7" s="62"/>
-      <c r="AN7" s="62"/>
-      <c r="AO7" s="63"/>
-      <c r="AP7" s="61" t="s">
+      <c r="AM7" s="64"/>
+      <c r="AN7" s="64"/>
+      <c r="AO7" s="65"/>
+      <c r="AP7" s="63" t="s">
         <v>477</v>
       </c>
-      <c r="AQ7" s="62"/>
-      <c r="AR7" s="62"/>
-      <c r="AS7" s="63"/>
+      <c r="AQ7" s="64"/>
+      <c r="AR7" s="64"/>
+      <c r="AS7" s="65"/>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A8" s="49" t="s">
         <v>438</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="71" t="s">
         <v>463</v>
       </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66" t="s">
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71" t="s">
         <v>465</v>
       </c>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="64" t="s">
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="62" t="s">
         <v>466</v>
       </c>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64" t="s">
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62" t="s">
         <v>468</v>
       </c>
-      <c r="O8" s="64"/>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="65" t="s">
+      <c r="O8" s="62"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="61" t="s">
         <v>469</v>
       </c>
-      <c r="S8" s="64"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="64"/>
-      <c r="V8" s="65" t="s">
+      <c r="S8" s="62"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="62"/>
+      <c r="V8" s="61" t="s">
         <v>470</v>
       </c>
-      <c r="W8" s="64"/>
-      <c r="X8" s="64"/>
-      <c r="Y8" s="64"/>
-      <c r="Z8" s="64" t="s">
+      <c r="W8" s="62"/>
+      <c r="X8" s="62"/>
+      <c r="Y8" s="62"/>
+      <c r="Z8" s="62" t="s">
         <v>472</v>
       </c>
-      <c r="AA8" s="64"/>
-      <c r="AB8" s="64"/>
-      <c r="AC8" s="64"/>
-      <c r="AD8" s="65" t="s">
+      <c r="AA8" s="62"/>
+      <c r="AB8" s="62"/>
+      <c r="AC8" s="62"/>
+      <c r="AD8" s="61" t="s">
         <v>473</v>
       </c>
-      <c r="AE8" s="64"/>
-      <c r="AF8" s="64"/>
-      <c r="AG8" s="64"/>
-      <c r="AH8" s="64" t="s">
+      <c r="AE8" s="62"/>
+      <c r="AF8" s="62"/>
+      <c r="AG8" s="62"/>
+      <c r="AH8" s="62" t="s">
         <v>474</v>
       </c>
-      <c r="AI8" s="64"/>
-      <c r="AJ8" s="64"/>
-      <c r="AK8" s="64"/>
-      <c r="AL8" s="64" t="s">
+      <c r="AI8" s="62"/>
+      <c r="AJ8" s="62"/>
+      <c r="AK8" s="62"/>
+      <c r="AL8" s="62" t="s">
         <v>475</v>
       </c>
-      <c r="AM8" s="64"/>
-      <c r="AN8" s="64"/>
-      <c r="AO8" s="64"/>
-      <c r="AP8" s="64" t="s">
+      <c r="AM8" s="62"/>
+      <c r="AN8" s="62"/>
+      <c r="AO8" s="62"/>
+      <c r="AP8" s="62" t="s">
         <v>478</v>
       </c>
-      <c r="AQ8" s="64"/>
-      <c r="AR8" s="64"/>
-      <c r="AS8" s="64"/>
+      <c r="AQ8" s="62"/>
+      <c r="AR8" s="62"/>
+      <c r="AS8" s="62"/>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A9" s="49" t="s">
@@ -8124,11 +8185,15 @@
       <c r="C32" s="58"/>
       <c r="D32" s="58"/>
       <c r="E32" s="58"/>
-      <c r="F32" s="59"/>
+      <c r="F32" s="59">
+        <v>42342</v>
+      </c>
       <c r="G32" s="58"/>
       <c r="H32" s="58"/>
       <c r="I32" s="58"/>
-      <c r="J32" s="59"/>
+      <c r="J32" s="59">
+        <v>42355</v>
+      </c>
       <c r="K32" s="58"/>
       <c r="L32" s="58"/>
       <c r="M32" s="58"/>
@@ -8136,98 +8201,256 @@
       <c r="O32" s="58"/>
       <c r="P32" s="58"/>
       <c r="Q32" s="58"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R32" s="59"/>
+      <c r="S32" s="58"/>
+      <c r="T32" s="58"/>
+      <c r="U32" s="58"/>
+      <c r="V32" s="59"/>
+      <c r="W32" s="58"/>
+      <c r="X32" s="58"/>
+      <c r="Y32" s="58"/>
+      <c r="Z32" s="59"/>
+      <c r="AA32" s="58"/>
+      <c r="AB32" s="58"/>
+      <c r="AC32" s="58"/>
+      <c r="AD32" s="59"/>
+      <c r="AE32" s="58"/>
+      <c r="AF32" s="58"/>
+      <c r="AG32" s="58"/>
+      <c r="AH32" s="59"/>
+      <c r="AI32" s="58"/>
+      <c r="AJ32" s="58"/>
+      <c r="AK32" s="58"/>
+      <c r="AL32" s="59"/>
+      <c r="AM32" s="58"/>
+      <c r="AN32" s="58"/>
+      <c r="AO32" s="58"/>
+      <c r="AP32" s="59"/>
+      <c r="AQ32" s="58"/>
+      <c r="AR32" s="58"/>
+      <c r="AS32" s="58"/>
+    </row>
+    <row r="33" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A33" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="B33" s="61" t="s">
+      <c r="B33" s="63" t="s">
         <v>480</v>
       </c>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="63"/>
-      <c r="N33" s="61"/>
-      <c r="O33" s="62"/>
-      <c r="P33" s="62"/>
-      <c r="Q33" s="63"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="63">
+        <v>0.57361111111111118</v>
+      </c>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="63">
+        <v>0.56874999999999998</v>
+      </c>
+      <c r="K33" s="64"/>
+      <c r="L33" s="64"/>
+      <c r="M33" s="65"/>
+      <c r="N33" s="63">
+        <v>0.16388888888888889</v>
+      </c>
+      <c r="O33" s="64"/>
+      <c r="P33" s="64"/>
+      <c r="Q33" s="65"/>
+      <c r="R33" s="63"/>
+      <c r="S33" s="64"/>
+      <c r="T33" s="64"/>
+      <c r="U33" s="65"/>
+      <c r="V33" s="63"/>
+      <c r="W33" s="64"/>
+      <c r="X33" s="64"/>
+      <c r="Y33" s="65"/>
+      <c r="Z33" s="63"/>
+      <c r="AA33" s="64"/>
+      <c r="AB33" s="64"/>
+      <c r="AC33" s="65"/>
+      <c r="AD33" s="63"/>
+      <c r="AE33" s="64"/>
+      <c r="AF33" s="64"/>
+      <c r="AG33" s="65"/>
+      <c r="AH33" s="63"/>
+      <c r="AI33" s="64"/>
+      <c r="AJ33" s="64"/>
+      <c r="AK33" s="65"/>
+      <c r="AL33" s="63"/>
+      <c r="AM33" s="64"/>
+      <c r="AN33" s="64"/>
+      <c r="AO33" s="65"/>
+      <c r="AP33" s="63"/>
+      <c r="AQ33" s="64"/>
+      <c r="AR33" s="64"/>
+      <c r="AS33" s="65"/>
+    </row>
+    <row r="34" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A34" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="B34" s="61"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="63"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="63"/>
-      <c r="N34" s="61"/>
-      <c r="O34" s="62"/>
-      <c r="P34" s="62"/>
-      <c r="Q34" s="63"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B34" s="63"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="64"/>
+      <c r="M34" s="65"/>
+      <c r="N34" s="129" t="s">
+        <v>485</v>
+      </c>
+      <c r="O34" s="64"/>
+      <c r="P34" s="64"/>
+      <c r="Q34" s="65"/>
+      <c r="R34" s="63"/>
+      <c r="S34" s="64"/>
+      <c r="T34" s="64"/>
+      <c r="U34" s="65"/>
+      <c r="V34" s="63"/>
+      <c r="W34" s="64"/>
+      <c r="X34" s="64"/>
+      <c r="Y34" s="65"/>
+      <c r="Z34" s="63"/>
+      <c r="AA34" s="64"/>
+      <c r="AB34" s="64"/>
+      <c r="AC34" s="65"/>
+      <c r="AD34" s="63"/>
+      <c r="AE34" s="64"/>
+      <c r="AF34" s="64"/>
+      <c r="AG34" s="65"/>
+      <c r="AH34" s="63"/>
+      <c r="AI34" s="64"/>
+      <c r="AJ34" s="64"/>
+      <c r="AK34" s="65"/>
+      <c r="AL34" s="63"/>
+      <c r="AM34" s="64"/>
+      <c r="AN34" s="64"/>
+      <c r="AO34" s="65"/>
+      <c r="AP34" s="63"/>
+      <c r="AQ34" s="64"/>
+      <c r="AR34" s="64"/>
+      <c r="AS34" s="65"/>
+    </row>
+    <row r="35" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A35" s="49" t="s">
         <v>449</v>
       </c>
-      <c r="B35" s="61">
+      <c r="B35" s="63">
         <v>0.70138888888888884</v>
       </c>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="63"/>
-      <c r="J35" s="61"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="62"/>
-      <c r="M35" s="63"/>
-      <c r="N35" s="61"/>
-      <c r="O35" s="62"/>
-      <c r="P35" s="62"/>
-      <c r="Q35" s="63"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="63">
+        <v>0.5805555555555556</v>
+      </c>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="65"/>
+      <c r="J35" s="129" t="s">
+        <v>483</v>
+      </c>
+      <c r="K35" s="64"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="65"/>
+      <c r="N35" s="63"/>
+      <c r="O35" s="64"/>
+      <c r="P35" s="64"/>
+      <c r="Q35" s="65"/>
+      <c r="R35" s="63"/>
+      <c r="S35" s="64"/>
+      <c r="T35" s="64"/>
+      <c r="U35" s="65"/>
+      <c r="V35" s="63"/>
+      <c r="W35" s="64"/>
+      <c r="X35" s="64"/>
+      <c r="Y35" s="65"/>
+      <c r="Z35" s="63"/>
+      <c r="AA35" s="64"/>
+      <c r="AB35" s="64"/>
+      <c r="AC35" s="65"/>
+      <c r="AD35" s="63"/>
+      <c r="AE35" s="64"/>
+      <c r="AF35" s="64"/>
+      <c r="AG35" s="65"/>
+      <c r="AH35" s="63"/>
+      <c r="AI35" s="64"/>
+      <c r="AJ35" s="64"/>
+      <c r="AK35" s="65"/>
+      <c r="AL35" s="63"/>
+      <c r="AM35" s="64"/>
+      <c r="AN35" s="64"/>
+      <c r="AO35" s="65"/>
+      <c r="AP35" s="63"/>
+      <c r="AQ35" s="64"/>
+      <c r="AR35" s="64"/>
+      <c r="AS35" s="65"/>
+    </row>
+    <row r="36" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A36" s="49" t="s">
         <v>438</v>
       </c>
-      <c r="B36" s="64" t="s">
+      <c r="B36" s="62" t="s">
         <v>481</v>
       </c>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="64"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="64"/>
-      <c r="K36" s="64"/>
-      <c r="L36" s="64"/>
-      <c r="M36" s="64"/>
-      <c r="N36" s="64"/>
-      <c r="O36" s="64"/>
-      <c r="P36" s="64"/>
-      <c r="Q36" s="64"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62" t="s">
+        <v>482</v>
+      </c>
+      <c r="G36" s="62"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="61" t="s">
+        <v>484</v>
+      </c>
+      <c r="K36" s="62"/>
+      <c r="L36" s="62"/>
+      <c r="M36" s="62"/>
+      <c r="N36" s="61" t="s">
+        <v>486</v>
+      </c>
+      <c r="O36" s="62"/>
+      <c r="P36" s="62"/>
+      <c r="Q36" s="62"/>
+      <c r="R36" s="62"/>
+      <c r="S36" s="62"/>
+      <c r="T36" s="62"/>
+      <c r="U36" s="62"/>
+      <c r="V36" s="62"/>
+      <c r="W36" s="62"/>
+      <c r="X36" s="62"/>
+      <c r="Y36" s="62"/>
+      <c r="Z36" s="62"/>
+      <c r="AA36" s="62"/>
+      <c r="AB36" s="62"/>
+      <c r="AC36" s="62"/>
+      <c r="AD36" s="62"/>
+      <c r="AE36" s="62"/>
+      <c r="AF36" s="62"/>
+      <c r="AG36" s="62"/>
+      <c r="AH36" s="62"/>
+      <c r="AI36" s="62"/>
+      <c r="AJ36" s="62"/>
+      <c r="AK36" s="62"/>
+      <c r="AL36" s="62"/>
+      <c r="AM36" s="62"/>
+      <c r="AN36" s="62"/>
+      <c r="AO36" s="62"/>
+      <c r="AP36" s="62"/>
+      <c r="AQ36" s="62"/>
+      <c r="AR36" s="62"/>
+      <c r="AS36" s="62"/>
+    </row>
+    <row r="37" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A37" s="49" t="s">
         <v>11</v>
       </c>
@@ -8279,8 +8502,92 @@
       <c r="Q37" s="50" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R37" s="50" t="s">
+        <v>422</v>
+      </c>
+      <c r="S37" s="50" t="s">
+        <v>423</v>
+      </c>
+      <c r="T37" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="U37" s="50" t="s">
+        <v>439</v>
+      </c>
+      <c r="V37" s="50" t="s">
+        <v>422</v>
+      </c>
+      <c r="W37" s="50" t="s">
+        <v>423</v>
+      </c>
+      <c r="X37" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="50" t="s">
+        <v>439</v>
+      </c>
+      <c r="Z37" s="50" t="s">
+        <v>422</v>
+      </c>
+      <c r="AA37" s="50" t="s">
+        <v>423</v>
+      </c>
+      <c r="AB37" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC37" s="50" t="s">
+        <v>439</v>
+      </c>
+      <c r="AD37" s="50" t="s">
+        <v>422</v>
+      </c>
+      <c r="AE37" s="50" t="s">
+        <v>423</v>
+      </c>
+      <c r="AF37" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG37" s="50" t="s">
+        <v>439</v>
+      </c>
+      <c r="AH37" s="50" t="s">
+        <v>422</v>
+      </c>
+      <c r="AI37" s="50" t="s">
+        <v>423</v>
+      </c>
+      <c r="AJ37" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK37" s="50" t="s">
+        <v>439</v>
+      </c>
+      <c r="AL37" s="50" t="s">
+        <v>422</v>
+      </c>
+      <c r="AM37" s="50" t="s">
+        <v>423</v>
+      </c>
+      <c r="AN37" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO37" s="50" t="s">
+        <v>439</v>
+      </c>
+      <c r="AP37" s="50" t="s">
+        <v>422</v>
+      </c>
+      <c r="AQ37" s="50" t="s">
+        <v>423</v>
+      </c>
+      <c r="AR37" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS37" s="50" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="38" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A38" s="49">
         <v>117</v>
       </c>
@@ -8296,26 +8603,86 @@
       <c r="E38" s="50" t="s">
         <v>440</v>
       </c>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
+      <c r="F38" s="49">
+        <v>10.63</v>
+      </c>
+      <c r="G38" s="49">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="H38" s="49">
+        <v>118.6</v>
+      </c>
       <c r="I38" s="50" t="s">
         <v>440</v>
       </c>
-      <c r="J38" s="49"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="49"/>
+      <c r="J38" s="49">
+        <v>10.63</v>
+      </c>
+      <c r="K38" s="49">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="L38" s="49">
+        <v>789</v>
+      </c>
       <c r="M38" s="50" t="s">
         <v>440</v>
       </c>
-      <c r="N38" s="49"/>
-      <c r="O38" s="49"/>
-      <c r="P38" s="49"/>
+      <c r="N38" s="49">
+        <v>10.52</v>
+      </c>
+      <c r="O38" s="49">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="P38" s="49">
+        <v>56</v>
+      </c>
       <c r="Q38" s="50" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R38" s="49"/>
+      <c r="S38" s="49"/>
+      <c r="T38" s="49"/>
+      <c r="U38" s="50" t="s">
+        <v>440</v>
+      </c>
+      <c r="V38" s="49"/>
+      <c r="W38" s="49"/>
+      <c r="X38" s="49"/>
+      <c r="Y38" s="50" t="s">
+        <v>440</v>
+      </c>
+      <c r="Z38" s="49"/>
+      <c r="AA38" s="49"/>
+      <c r="AB38" s="49"/>
+      <c r="AC38" s="50" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD38" s="49"/>
+      <c r="AE38" s="49"/>
+      <c r="AF38" s="49"/>
+      <c r="AG38" s="50" t="s">
+        <v>440</v>
+      </c>
+      <c r="AH38" s="49"/>
+      <c r="AI38" s="49"/>
+      <c r="AJ38" s="49"/>
+      <c r="AK38" s="50" t="s">
+        <v>440</v>
+      </c>
+      <c r="AL38" s="49"/>
+      <c r="AM38" s="49"/>
+      <c r="AN38" s="49"/>
+      <c r="AO38" s="50" t="s">
+        <v>440</v>
+      </c>
+      <c r="AP38" s="49"/>
+      <c r="AQ38" s="49"/>
+      <c r="AR38" s="49"/>
+      <c r="AS38" s="50" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="39" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A39" s="49">
         <v>107</v>
       </c>
@@ -8331,20 +8698,72 @@
       <c r="E39" s="49">
         <v>12.1</v>
       </c>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="49"/>
-      <c r="L39" s="49"/>
-      <c r="M39" s="49"/>
-      <c r="N39" s="49"/>
-      <c r="O39" s="49"/>
-      <c r="P39" s="49"/>
-      <c r="Q39" s="49"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="F39" s="49">
+        <v>10.63</v>
+      </c>
+      <c r="G39" s="49">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="H39" s="49">
+        <v>116.8</v>
+      </c>
+      <c r="I39" s="49">
+        <v>12.5</v>
+      </c>
+      <c r="J39" s="49">
+        <v>10.62</v>
+      </c>
+      <c r="K39" s="49">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="L39" s="49">
+        <v>747.5</v>
+      </c>
+      <c r="M39" s="49">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="N39" s="49">
+        <v>10.5</v>
+      </c>
+      <c r="O39" s="49">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="P39" s="49">
+        <v>55.6</v>
+      </c>
+      <c r="Q39" s="49">
+        <v>10</v>
+      </c>
+      <c r="R39" s="49"/>
+      <c r="S39" s="49"/>
+      <c r="T39" s="49"/>
+      <c r="U39" s="49"/>
+      <c r="V39" s="49"/>
+      <c r="W39" s="49"/>
+      <c r="X39" s="49"/>
+      <c r="Y39" s="49"/>
+      <c r="Z39" s="49"/>
+      <c r="AA39" s="49"/>
+      <c r="AB39" s="49"/>
+      <c r="AC39" s="49"/>
+      <c r="AD39" s="49"/>
+      <c r="AE39" s="49"/>
+      <c r="AF39" s="49"/>
+      <c r="AG39" s="49"/>
+      <c r="AH39" s="49"/>
+      <c r="AI39" s="49"/>
+      <c r="AJ39" s="49"/>
+      <c r="AK39" s="49"/>
+      <c r="AL39" s="49"/>
+      <c r="AM39" s="49"/>
+      <c r="AN39" s="49"/>
+      <c r="AO39" s="49"/>
+      <c r="AP39" s="49"/>
+      <c r="AQ39" s="49"/>
+      <c r="AR39" s="49"/>
+      <c r="AS39" s="49"/>
+    </row>
+    <row r="40" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A40" s="49">
         <v>97</v>
       </c>
@@ -8360,20 +8779,72 @@
       <c r="E40" s="49">
         <v>74.400000000000006</v>
       </c>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="49"/>
-      <c r="L40" s="49"/>
-      <c r="M40" s="49"/>
-      <c r="N40" s="49"/>
-      <c r="O40" s="49"/>
-      <c r="P40" s="49"/>
-      <c r="Q40" s="49"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="F40" s="49">
+        <v>10.62</v>
+      </c>
+      <c r="G40" s="49">
+        <v>0.109</v>
+      </c>
+      <c r="H40" s="49">
+        <v>119.5</v>
+      </c>
+      <c r="I40" s="49">
+        <v>26.1</v>
+      </c>
+      <c r="J40" s="49">
+        <v>10.61</v>
+      </c>
+      <c r="K40" s="49">
+        <v>0.109</v>
+      </c>
+      <c r="L40" s="49">
+        <v>775.5</v>
+      </c>
+      <c r="M40" s="49">
+        <v>23.5</v>
+      </c>
+      <c r="N40" s="49">
+        <v>10.48</v>
+      </c>
+      <c r="O40" s="49">
+        <v>0.109</v>
+      </c>
+      <c r="P40" s="49">
+        <v>55.2</v>
+      </c>
+      <c r="Q40" s="49">
+        <v>27.2</v>
+      </c>
+      <c r="R40" s="49"/>
+      <c r="S40" s="49"/>
+      <c r="T40" s="49"/>
+      <c r="U40" s="49"/>
+      <c r="V40" s="49"/>
+      <c r="W40" s="49"/>
+      <c r="X40" s="49"/>
+      <c r="Y40" s="49"/>
+      <c r="Z40" s="49"/>
+      <c r="AA40" s="49"/>
+      <c r="AB40" s="49"/>
+      <c r="AC40" s="49"/>
+      <c r="AD40" s="49"/>
+      <c r="AE40" s="49"/>
+      <c r="AF40" s="49"/>
+      <c r="AG40" s="49"/>
+      <c r="AH40" s="49"/>
+      <c r="AI40" s="49"/>
+      <c r="AJ40" s="49"/>
+      <c r="AK40" s="49"/>
+      <c r="AL40" s="49"/>
+      <c r="AM40" s="49"/>
+      <c r="AN40" s="49"/>
+      <c r="AO40" s="49"/>
+      <c r="AP40" s="49"/>
+      <c r="AQ40" s="49"/>
+      <c r="AR40" s="49"/>
+      <c r="AS40" s="49"/>
+    </row>
+    <row r="41" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A41" s="49">
         <v>87</v>
       </c>
@@ -8387,20 +8858,66 @@
         <v>7.2</v>
       </c>
       <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
+      <c r="F41" s="49">
+        <v>10.62</v>
+      </c>
+      <c r="G41" s="49">
+        <v>0.121</v>
+      </c>
+      <c r="H41" s="49">
+        <v>117.2</v>
+      </c>
       <c r="I41" s="49"/>
-      <c r="J41" s="49"/>
-      <c r="K41" s="49"/>
-      <c r="L41" s="49"/>
+      <c r="J41" s="49">
+        <v>10.6</v>
+      </c>
+      <c r="K41" s="49">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="L41" s="49">
+        <v>773.8</v>
+      </c>
       <c r="M41" s="49"/>
-      <c r="N41" s="49"/>
-      <c r="O41" s="49"/>
-      <c r="P41" s="49"/>
+      <c r="N41" s="49">
+        <v>10.46</v>
+      </c>
+      <c r="O41" s="49">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="P41" s="49">
+        <v>55.5</v>
+      </c>
       <c r="Q41" s="49"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R41" s="49"/>
+      <c r="S41" s="49"/>
+      <c r="T41" s="49"/>
+      <c r="U41" s="49"/>
+      <c r="V41" s="49"/>
+      <c r="W41" s="49"/>
+      <c r="X41" s="49"/>
+      <c r="Y41" s="49"/>
+      <c r="Z41" s="49"/>
+      <c r="AA41" s="49"/>
+      <c r="AB41" s="49"/>
+      <c r="AC41" s="49"/>
+      <c r="AD41" s="49"/>
+      <c r="AE41" s="49"/>
+      <c r="AF41" s="49"/>
+      <c r="AG41" s="49"/>
+      <c r="AH41" s="49"/>
+      <c r="AI41" s="49"/>
+      <c r="AJ41" s="49"/>
+      <c r="AK41" s="49"/>
+      <c r="AL41" s="49"/>
+      <c r="AM41" s="49"/>
+      <c r="AN41" s="49"/>
+      <c r="AO41" s="49"/>
+      <c r="AP41" s="49"/>
+      <c r="AQ41" s="49"/>
+      <c r="AR41" s="49"/>
+      <c r="AS41" s="49"/>
+    </row>
+    <row r="42" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A42" s="49">
         <v>77</v>
       </c>
@@ -8414,20 +8931,66 @@
         <v>6.9</v>
       </c>
       <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
+      <c r="F42" s="49">
+        <v>10.61</v>
+      </c>
+      <c r="G42" s="49">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="H42" s="49">
+        <v>116.9</v>
+      </c>
       <c r="I42" s="49"/>
-      <c r="J42" s="49"/>
-      <c r="K42" s="49"/>
-      <c r="L42" s="49"/>
+      <c r="J42" s="49">
+        <v>10.6</v>
+      </c>
+      <c r="K42" s="49">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="L42" s="49">
+        <v>768.6</v>
+      </c>
       <c r="M42" s="49"/>
-      <c r="N42" s="49"/>
-      <c r="O42" s="49"/>
-      <c r="P42" s="49"/>
+      <c r="N42" s="49">
+        <v>10.44</v>
+      </c>
+      <c r="O42" s="49">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="P42" s="49">
+        <v>55.5</v>
+      </c>
       <c r="Q42" s="49"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R42" s="49"/>
+      <c r="S42" s="49"/>
+      <c r="T42" s="49"/>
+      <c r="U42" s="49"/>
+      <c r="V42" s="49"/>
+      <c r="W42" s="49"/>
+      <c r="X42" s="49"/>
+      <c r="Y42" s="49"/>
+      <c r="Z42" s="49"/>
+      <c r="AA42" s="49"/>
+      <c r="AB42" s="49"/>
+      <c r="AC42" s="49"/>
+      <c r="AD42" s="49"/>
+      <c r="AE42" s="49"/>
+      <c r="AF42" s="49"/>
+      <c r="AG42" s="49"/>
+      <c r="AH42" s="49"/>
+      <c r="AI42" s="49"/>
+      <c r="AJ42" s="49"/>
+      <c r="AK42" s="49"/>
+      <c r="AL42" s="49"/>
+      <c r="AM42" s="49"/>
+      <c r="AN42" s="49"/>
+      <c r="AO42" s="49"/>
+      <c r="AP42" s="49"/>
+      <c r="AQ42" s="49"/>
+      <c r="AR42" s="49"/>
+      <c r="AS42" s="49"/>
+    </row>
+    <row r="43" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A43" s="49">
         <v>67</v>
       </c>
@@ -8443,26 +9006,86 @@
       <c r="E43" s="50" t="s">
         <v>441</v>
       </c>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
+      <c r="F43" s="49">
+        <v>10.6</v>
+      </c>
+      <c r="G43" s="49">
+        <v>0.153</v>
+      </c>
+      <c r="H43" s="49">
+        <v>119.6</v>
+      </c>
       <c r="I43" s="50" t="s">
         <v>441</v>
       </c>
-      <c r="J43" s="49"/>
-      <c r="K43" s="49"/>
-      <c r="L43" s="49"/>
+      <c r="J43" s="49">
+        <v>10.59</v>
+      </c>
+      <c r="K43" s="49">
+        <v>0.157</v>
+      </c>
+      <c r="L43" s="49">
+        <v>772.7</v>
+      </c>
       <c r="M43" s="50" t="s">
         <v>441</v>
       </c>
-      <c r="N43" s="49"/>
-      <c r="O43" s="49"/>
-      <c r="P43" s="49"/>
+      <c r="N43" s="49">
+        <v>10.41</v>
+      </c>
+      <c r="O43" s="49">
+        <v>0.152</v>
+      </c>
+      <c r="P43" s="49">
+        <v>57.5</v>
+      </c>
       <c r="Q43" s="50" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R43" s="49"/>
+      <c r="S43" s="49"/>
+      <c r="T43" s="49"/>
+      <c r="U43" s="50" t="s">
+        <v>441</v>
+      </c>
+      <c r="V43" s="49"/>
+      <c r="W43" s="49"/>
+      <c r="X43" s="49"/>
+      <c r="Y43" s="50" t="s">
+        <v>441</v>
+      </c>
+      <c r="Z43" s="49"/>
+      <c r="AA43" s="49"/>
+      <c r="AB43" s="49"/>
+      <c r="AC43" s="50" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD43" s="49"/>
+      <c r="AE43" s="49"/>
+      <c r="AF43" s="49"/>
+      <c r="AG43" s="50" t="s">
+        <v>441</v>
+      </c>
+      <c r="AH43" s="49"/>
+      <c r="AI43" s="49"/>
+      <c r="AJ43" s="49"/>
+      <c r="AK43" s="50" t="s">
+        <v>441</v>
+      </c>
+      <c r="AL43" s="49"/>
+      <c r="AM43" s="49"/>
+      <c r="AN43" s="49"/>
+      <c r="AO43" s="50" t="s">
+        <v>441</v>
+      </c>
+      <c r="AP43" s="49"/>
+      <c r="AQ43" s="49"/>
+      <c r="AR43" s="49"/>
+      <c r="AS43" s="50" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="44" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A44" s="49">
         <v>57</v>
       </c>
@@ -8478,20 +9101,72 @@
       <c r="E44" s="49">
         <v>12.4</v>
       </c>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
-      <c r="K44" s="49"/>
-      <c r="L44" s="49"/>
-      <c r="M44" s="49"/>
-      <c r="N44" s="49"/>
-      <c r="O44" s="49"/>
-      <c r="P44" s="49"/>
-      <c r="Q44" s="49"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="F44" s="49">
+        <v>10.58</v>
+      </c>
+      <c r="G44" s="49">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="H44" s="49">
+        <v>116.3</v>
+      </c>
+      <c r="I44" s="49">
+        <v>12.4</v>
+      </c>
+      <c r="J44" s="49">
+        <v>10.57</v>
+      </c>
+      <c r="K44" s="49">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="L44" s="49">
+        <v>773.3</v>
+      </c>
+      <c r="M44" s="49">
+        <v>9.6</v>
+      </c>
+      <c r="N44" s="49">
+        <v>10.36</v>
+      </c>
+      <c r="O44" s="49">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="P44" s="49">
+        <v>61.5</v>
+      </c>
+      <c r="Q44" s="49">
+        <v>9.9</v>
+      </c>
+      <c r="R44" s="49"/>
+      <c r="S44" s="49"/>
+      <c r="T44" s="49"/>
+      <c r="U44" s="49"/>
+      <c r="V44" s="49"/>
+      <c r="W44" s="49"/>
+      <c r="X44" s="49"/>
+      <c r="Y44" s="49"/>
+      <c r="Z44" s="49"/>
+      <c r="AA44" s="49"/>
+      <c r="AB44" s="49"/>
+      <c r="AC44" s="49"/>
+      <c r="AD44" s="49"/>
+      <c r="AE44" s="49"/>
+      <c r="AF44" s="49"/>
+      <c r="AG44" s="49"/>
+      <c r="AH44" s="49"/>
+      <c r="AI44" s="49"/>
+      <c r="AJ44" s="49"/>
+      <c r="AK44" s="49"/>
+      <c r="AL44" s="49"/>
+      <c r="AM44" s="49"/>
+      <c r="AN44" s="49"/>
+      <c r="AO44" s="49"/>
+      <c r="AP44" s="49"/>
+      <c r="AQ44" s="49"/>
+      <c r="AR44" s="49"/>
+      <c r="AS44" s="49"/>
+    </row>
+    <row r="45" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A45" s="49">
         <v>47</v>
       </c>
@@ -8507,20 +9182,72 @@
       <c r="E45" s="49">
         <v>73.8</v>
       </c>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
-      <c r="K45" s="49"/>
-      <c r="L45" s="49"/>
-      <c r="M45" s="49"/>
-      <c r="N45" s="49"/>
-      <c r="O45" s="49"/>
-      <c r="P45" s="49"/>
-      <c r="Q45" s="49"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="F45" s="49">
+        <v>10.56</v>
+      </c>
+      <c r="G45" s="49">
+        <v>0.214</v>
+      </c>
+      <c r="H45" s="49">
+        <v>115.5</v>
+      </c>
+      <c r="I45" s="49">
+        <v>26</v>
+      </c>
+      <c r="J45" s="49">
+        <v>10.55</v>
+      </c>
+      <c r="K45" s="49">
+        <v>0.215</v>
+      </c>
+      <c r="L45" s="49">
+        <v>780.8</v>
+      </c>
+      <c r="M45" s="49">
+        <v>22.8</v>
+      </c>
+      <c r="N45" s="49">
+        <v>10.3</v>
+      </c>
+      <c r="O45" s="49">
+        <v>0.214</v>
+      </c>
+      <c r="P45" s="49">
+        <v>70.2</v>
+      </c>
+      <c r="Q45" s="49">
+        <v>27.3</v>
+      </c>
+      <c r="R45" s="49"/>
+      <c r="S45" s="49"/>
+      <c r="T45" s="49"/>
+      <c r="U45" s="49"/>
+      <c r="V45" s="49"/>
+      <c r="W45" s="49"/>
+      <c r="X45" s="49"/>
+      <c r="Y45" s="49"/>
+      <c r="Z45" s="49"/>
+      <c r="AA45" s="49"/>
+      <c r="AB45" s="49"/>
+      <c r="AC45" s="49"/>
+      <c r="AD45" s="49"/>
+      <c r="AE45" s="49"/>
+      <c r="AF45" s="49"/>
+      <c r="AG45" s="49"/>
+      <c r="AH45" s="49"/>
+      <c r="AI45" s="49"/>
+      <c r="AJ45" s="49"/>
+      <c r="AK45" s="49"/>
+      <c r="AL45" s="49"/>
+      <c r="AM45" s="49"/>
+      <c r="AN45" s="49"/>
+      <c r="AO45" s="49"/>
+      <c r="AP45" s="49"/>
+      <c r="AQ45" s="49"/>
+      <c r="AR45" s="49"/>
+      <c r="AS45" s="49"/>
+    </row>
+    <row r="46" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A46" s="49">
         <v>37</v>
       </c>
@@ -8534,20 +9261,66 @@
         <v>6.9</v>
       </c>
       <c r="E46" s="49"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="49"/>
+      <c r="F46" s="49">
+        <v>10.52</v>
+      </c>
+      <c r="G46" s="49">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="H46" s="49">
+        <v>115.8</v>
+      </c>
       <c r="I46" s="49"/>
-      <c r="J46" s="49"/>
-      <c r="K46" s="49"/>
-      <c r="L46" s="49"/>
+      <c r="J46" s="49">
+        <v>10.49</v>
+      </c>
+      <c r="K46" s="49">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="L46" s="49">
+        <v>765.8</v>
+      </c>
       <c r="M46" s="49"/>
-      <c r="N46" s="49"/>
-      <c r="O46" s="49"/>
-      <c r="P46" s="49"/>
+      <c r="N46" s="49">
+        <v>10.17</v>
+      </c>
+      <c r="O46" s="49">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="P46" s="49">
+        <v>77.3</v>
+      </c>
       <c r="Q46" s="49"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R46" s="49"/>
+      <c r="S46" s="49"/>
+      <c r="T46" s="49"/>
+      <c r="U46" s="49"/>
+      <c r="V46" s="49"/>
+      <c r="W46" s="49"/>
+      <c r="X46" s="49"/>
+      <c r="Y46" s="49"/>
+      <c r="Z46" s="49"/>
+      <c r="AA46" s="49"/>
+      <c r="AB46" s="49"/>
+      <c r="AC46" s="49"/>
+      <c r="AD46" s="49"/>
+      <c r="AE46" s="49"/>
+      <c r="AF46" s="49"/>
+      <c r="AG46" s="49"/>
+      <c r="AH46" s="49"/>
+      <c r="AI46" s="49"/>
+      <c r="AJ46" s="49"/>
+      <c r="AK46" s="49"/>
+      <c r="AL46" s="49"/>
+      <c r="AM46" s="49"/>
+      <c r="AN46" s="49"/>
+      <c r="AO46" s="49"/>
+      <c r="AP46" s="49"/>
+      <c r="AQ46" s="49"/>
+      <c r="AR46" s="49"/>
+      <c r="AS46" s="49"/>
+    </row>
+    <row r="47" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A47" s="49">
         <v>27</v>
       </c>
@@ -8561,20 +9334,66 @@
         <v>5.9</v>
       </c>
       <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="49"/>
+      <c r="F47" s="49">
+        <v>10.43</v>
+      </c>
+      <c r="G47" s="49">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="H47" s="49">
+        <v>113.7</v>
+      </c>
       <c r="I47" s="49"/>
-      <c r="J47" s="49"/>
-      <c r="K47" s="49"/>
-      <c r="L47" s="49"/>
+      <c r="J47" s="49">
+        <v>10.37</v>
+      </c>
+      <c r="K47" s="49">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="L47" s="49">
+        <v>774</v>
+      </c>
       <c r="M47" s="49"/>
-      <c r="N47" s="49"/>
-      <c r="O47" s="49"/>
-      <c r="P47" s="49"/>
+      <c r="N47" s="49">
+        <v>9.86</v>
+      </c>
+      <c r="O47" s="49">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="P47" s="49">
+        <v>83.1</v>
+      </c>
       <c r="Q47" s="49"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R47" s="49"/>
+      <c r="S47" s="49"/>
+      <c r="T47" s="49"/>
+      <c r="U47" s="49"/>
+      <c r="V47" s="49"/>
+      <c r="W47" s="49"/>
+      <c r="X47" s="49"/>
+      <c r="Y47" s="49"/>
+      <c r="Z47" s="49"/>
+      <c r="AA47" s="49"/>
+      <c r="AB47" s="49"/>
+      <c r="AC47" s="49"/>
+      <c r="AD47" s="49"/>
+      <c r="AE47" s="49"/>
+      <c r="AF47" s="49"/>
+      <c r="AG47" s="49"/>
+      <c r="AH47" s="49"/>
+      <c r="AI47" s="49"/>
+      <c r="AJ47" s="49"/>
+      <c r="AK47" s="49"/>
+      <c r="AL47" s="49"/>
+      <c r="AM47" s="49"/>
+      <c r="AN47" s="49"/>
+      <c r="AO47" s="49"/>
+      <c r="AP47" s="49"/>
+      <c r="AQ47" s="49"/>
+      <c r="AR47" s="49"/>
+      <c r="AS47" s="49"/>
+    </row>
+    <row r="48" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A48" s="49">
         <v>17</v>
       </c>
@@ -8590,26 +9409,86 @@
       <c r="E48" s="50" t="s">
         <v>442</v>
       </c>
-      <c r="F48" s="49"/>
-      <c r="G48" s="49"/>
-      <c r="H48" s="49"/>
+      <c r="F48" s="49">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="G48" s="49">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="H48" s="49">
+        <v>116.1</v>
+      </c>
       <c r="I48" s="50" t="s">
         <v>442</v>
       </c>
-      <c r="J48" s="49"/>
-      <c r="K48" s="49"/>
-      <c r="L48" s="49"/>
+      <c r="J48" s="49">
+        <v>9.98</v>
+      </c>
+      <c r="K48" s="49">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="L48" s="49">
+        <v>773</v>
+      </c>
       <c r="M48" s="50" t="s">
         <v>442</v>
       </c>
-      <c r="N48" s="49"/>
-      <c r="O48" s="49"/>
-      <c r="P48" s="49"/>
+      <c r="N48" s="49">
+        <v>7.39</v>
+      </c>
+      <c r="O48" s="49">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="P48" s="49">
+        <v>89.5</v>
+      </c>
       <c r="Q48" s="50" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R48" s="49"/>
+      <c r="S48" s="49"/>
+      <c r="T48" s="49"/>
+      <c r="U48" s="50" t="s">
+        <v>442</v>
+      </c>
+      <c r="V48" s="49"/>
+      <c r="W48" s="49"/>
+      <c r="X48" s="49"/>
+      <c r="Y48" s="50" t="s">
+        <v>442</v>
+      </c>
+      <c r="Z48" s="49"/>
+      <c r="AA48" s="49"/>
+      <c r="AB48" s="49"/>
+      <c r="AC48" s="50" t="s">
+        <v>442</v>
+      </c>
+      <c r="AD48" s="49"/>
+      <c r="AE48" s="49"/>
+      <c r="AF48" s="49"/>
+      <c r="AG48" s="50" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH48" s="49"/>
+      <c r="AI48" s="49"/>
+      <c r="AJ48" s="49"/>
+      <c r="AK48" s="50" t="s">
+        <v>442</v>
+      </c>
+      <c r="AL48" s="49"/>
+      <c r="AM48" s="49"/>
+      <c r="AN48" s="49"/>
+      <c r="AO48" s="50" t="s">
+        <v>442</v>
+      </c>
+      <c r="AP48" s="49"/>
+      <c r="AQ48" s="49"/>
+      <c r="AR48" s="49"/>
+      <c r="AS48" s="50" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="49" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A49" s="49">
         <v>7</v>
       </c>
@@ -8625,20 +9504,72 @@
       <c r="E49" s="49">
         <v>12.5</v>
       </c>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="49"/>
-      <c r="J49" s="49"/>
-      <c r="K49" s="49"/>
-      <c r="L49" s="49"/>
-      <c r="M49" s="49"/>
-      <c r="N49" s="49"/>
-      <c r="O49" s="49"/>
-      <c r="P49" s="49"/>
-      <c r="Q49" s="49"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="F49" s="49">
+        <v>8.11</v>
+      </c>
+      <c r="G49" s="49">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H49" s="49">
+        <v>113.9</v>
+      </c>
+      <c r="I49" s="49">
+        <v>12.5</v>
+      </c>
+      <c r="J49" s="49">
+        <v>5.56</v>
+      </c>
+      <c r="K49" s="49">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="L49" s="49">
+        <v>775.5</v>
+      </c>
+      <c r="M49" s="49">
+        <v>9.5</v>
+      </c>
+      <c r="N49" s="49">
+        <v>3.516</v>
+      </c>
+      <c r="O49" s="49">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="P49" s="49">
+        <v>96.7</v>
+      </c>
+      <c r="Q49" s="49">
+        <v>9.9</v>
+      </c>
+      <c r="R49" s="49"/>
+      <c r="S49" s="49"/>
+      <c r="T49" s="49"/>
+      <c r="U49" s="49"/>
+      <c r="V49" s="49"/>
+      <c r="W49" s="49"/>
+      <c r="X49" s="49"/>
+      <c r="Y49" s="49"/>
+      <c r="Z49" s="49"/>
+      <c r="AA49" s="49"/>
+      <c r="AB49" s="49"/>
+      <c r="AC49" s="49"/>
+      <c r="AD49" s="49"/>
+      <c r="AE49" s="49"/>
+      <c r="AF49" s="49"/>
+      <c r="AG49" s="49"/>
+      <c r="AH49" s="49"/>
+      <c r="AI49" s="49"/>
+      <c r="AJ49" s="49"/>
+      <c r="AK49" s="49"/>
+      <c r="AL49" s="49"/>
+      <c r="AM49" s="49"/>
+      <c r="AN49" s="49"/>
+      <c r="AO49" s="49"/>
+      <c r="AP49" s="49"/>
+      <c r="AQ49" s="49"/>
+      <c r="AR49" s="49"/>
+      <c r="AS49" s="49"/>
+    </row>
+    <row r="50" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A50" s="49">
         <v>6</v>
       </c>
@@ -8654,20 +9585,72 @@
       <c r="E50" s="49">
         <v>72.8</v>
       </c>
-      <c r="F50" s="49"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="49"/>
-      <c r="K50" s="49"/>
-      <c r="L50" s="49"/>
-      <c r="M50" s="49"/>
-      <c r="N50" s="49"/>
-      <c r="O50" s="49"/>
-      <c r="P50" s="49"/>
-      <c r="Q50" s="49"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="F50" s="49">
+        <v>7.11</v>
+      </c>
+      <c r="G50" s="49">
+        <v>1.115</v>
+      </c>
+      <c r="H50" s="49">
+        <v>133.69999999999999</v>
+      </c>
+      <c r="I50" s="49">
+        <v>26.4</v>
+      </c>
+      <c r="J50" s="49">
+        <v>4.8</v>
+      </c>
+      <c r="K50" s="49">
+        <v>0.749</v>
+      </c>
+      <c r="L50" s="49">
+        <v>757.4</v>
+      </c>
+      <c r="M50" s="49">
+        <v>23.1</v>
+      </c>
+      <c r="N50" s="49">
+        <v>2.992</v>
+      </c>
+      <c r="O50" s="49">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="P50" s="49">
+        <v>78.3</v>
+      </c>
+      <c r="Q50" s="49">
+        <v>27.3</v>
+      </c>
+      <c r="R50" s="49"/>
+      <c r="S50" s="49"/>
+      <c r="T50" s="49"/>
+      <c r="U50" s="49"/>
+      <c r="V50" s="49"/>
+      <c r="W50" s="49"/>
+      <c r="X50" s="49"/>
+      <c r="Y50" s="49"/>
+      <c r="Z50" s="49"/>
+      <c r="AA50" s="49"/>
+      <c r="AB50" s="49"/>
+      <c r="AC50" s="49"/>
+      <c r="AD50" s="49"/>
+      <c r="AE50" s="49"/>
+      <c r="AF50" s="49"/>
+      <c r="AG50" s="49"/>
+      <c r="AH50" s="49"/>
+      <c r="AI50" s="49"/>
+      <c r="AJ50" s="49"/>
+      <c r="AK50" s="49"/>
+      <c r="AL50" s="49"/>
+      <c r="AM50" s="49"/>
+      <c r="AN50" s="49"/>
+      <c r="AO50" s="49"/>
+      <c r="AP50" s="49"/>
+      <c r="AQ50" s="49"/>
+      <c r="AR50" s="49"/>
+      <c r="AS50" s="49"/>
+    </row>
+    <row r="51" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A51" s="49">
         <v>5</v>
       </c>
@@ -8681,20 +9664,66 @@
         <v>5.9</v>
       </c>
       <c r="E51" s="49"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="49"/>
+      <c r="F51" s="49">
+        <v>5.85</v>
+      </c>
+      <c r="G51" s="49">
+        <v>1.127</v>
+      </c>
+      <c r="H51" s="49">
+        <v>133.19999999999999</v>
+      </c>
       <c r="I51" s="49"/>
-      <c r="J51" s="49"/>
-      <c r="K51" s="49"/>
-      <c r="L51" s="49"/>
+      <c r="J51" s="49">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K51" s="49">
+        <v>0.753</v>
+      </c>
+      <c r="L51" s="49">
+        <v>769.5</v>
+      </c>
       <c r="M51" s="49"/>
-      <c r="N51" s="49"/>
-      <c r="O51" s="49"/>
-      <c r="P51" s="49"/>
+      <c r="N51" s="49">
+        <v>2.444</v>
+      </c>
+      <c r="O51" s="49">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="P51" s="49">
+        <v>83.1</v>
+      </c>
       <c r="Q51" s="49"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R51" s="49"/>
+      <c r="S51" s="49"/>
+      <c r="T51" s="49"/>
+      <c r="U51" s="49"/>
+      <c r="V51" s="49"/>
+      <c r="W51" s="49"/>
+      <c r="X51" s="49"/>
+      <c r="Y51" s="49"/>
+      <c r="Z51" s="49"/>
+      <c r="AA51" s="49"/>
+      <c r="AB51" s="49"/>
+      <c r="AC51" s="49"/>
+      <c r="AD51" s="49"/>
+      <c r="AE51" s="49"/>
+      <c r="AF51" s="49"/>
+      <c r="AG51" s="49"/>
+      <c r="AH51" s="49"/>
+      <c r="AI51" s="49"/>
+      <c r="AJ51" s="49"/>
+      <c r="AK51" s="49"/>
+      <c r="AL51" s="49"/>
+      <c r="AM51" s="49"/>
+      <c r="AN51" s="49"/>
+      <c r="AO51" s="49"/>
+      <c r="AP51" s="49"/>
+      <c r="AQ51" s="49"/>
+      <c r="AR51" s="49"/>
+      <c r="AS51" s="49"/>
+    </row>
+    <row r="52" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A52" s="49">
         <v>4</v>
       </c>
@@ -8708,20 +9737,66 @@
         <v>6</v>
       </c>
       <c r="E52" s="49"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="49"/>
+      <c r="F52" s="49">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="G52" s="49">
+        <v>1.133</v>
+      </c>
+      <c r="H52" s="49">
+        <v>130.5</v>
+      </c>
       <c r="I52" s="49"/>
-      <c r="J52" s="49"/>
-      <c r="K52" s="49"/>
-      <c r="L52" s="49"/>
+      <c r="J52" s="49">
+        <v>3.1549999999999998</v>
+      </c>
+      <c r="K52" s="49">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="L52" s="49">
+        <v>777.4</v>
+      </c>
       <c r="M52" s="49"/>
-      <c r="N52" s="49"/>
-      <c r="O52" s="49"/>
-      <c r="P52" s="49"/>
+      <c r="N52" s="49">
+        <v>1.9079999999999999</v>
+      </c>
+      <c r="O52" s="49">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="P52" s="49">
+        <v>56.6</v>
+      </c>
       <c r="Q52" s="49"/>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R52" s="49"/>
+      <c r="S52" s="49"/>
+      <c r="T52" s="49"/>
+      <c r="U52" s="49"/>
+      <c r="V52" s="49"/>
+      <c r="W52" s="49"/>
+      <c r="X52" s="49"/>
+      <c r="Y52" s="49"/>
+      <c r="Z52" s="49"/>
+      <c r="AA52" s="49"/>
+      <c r="AB52" s="49"/>
+      <c r="AC52" s="49"/>
+      <c r="AD52" s="49"/>
+      <c r="AE52" s="49"/>
+      <c r="AF52" s="49"/>
+      <c r="AG52" s="49"/>
+      <c r="AH52" s="49"/>
+      <c r="AI52" s="49"/>
+      <c r="AJ52" s="49"/>
+      <c r="AK52" s="49"/>
+      <c r="AL52" s="49"/>
+      <c r="AM52" s="49"/>
+      <c r="AN52" s="49"/>
+      <c r="AO52" s="49"/>
+      <c r="AP52" s="49"/>
+      <c r="AQ52" s="49"/>
+      <c r="AR52" s="49"/>
+      <c r="AS52" s="49"/>
+    </row>
+    <row r="53" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A53" s="49">
         <v>3</v>
       </c>
@@ -8737,26 +9812,86 @@
       <c r="E53" s="50" t="s">
         <v>443</v>
       </c>
-      <c r="F53" s="49"/>
-      <c r="G53" s="49"/>
-      <c r="H53" s="49"/>
+      <c r="F53" s="49">
+        <v>3.6549999999999998</v>
+      </c>
+      <c r="G53" s="49">
+        <v>1.139</v>
+      </c>
+      <c r="H53" s="49">
+        <v>120.9</v>
+      </c>
       <c r="I53" s="50" t="s">
         <v>443</v>
       </c>
-      <c r="J53" s="49"/>
-      <c r="K53" s="49"/>
-      <c r="L53" s="49"/>
+      <c r="J53" s="49">
+        <v>2.4670000000000001</v>
+      </c>
+      <c r="K53" s="49">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="L53" s="49">
+        <v>770.6</v>
+      </c>
       <c r="M53" s="50" t="s">
         <v>443</v>
       </c>
-      <c r="N53" s="49"/>
-      <c r="O53" s="49"/>
-      <c r="P53" s="49"/>
+      <c r="N53" s="49">
+        <v>1.4630000000000001</v>
+      </c>
+      <c r="O53" s="49">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="P53" s="49">
+        <v>79.599999999999994</v>
+      </c>
       <c r="Q53" s="50" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R53" s="49"/>
+      <c r="S53" s="49"/>
+      <c r="T53" s="49"/>
+      <c r="U53" s="50" t="s">
+        <v>443</v>
+      </c>
+      <c r="V53" s="49"/>
+      <c r="W53" s="49"/>
+      <c r="X53" s="49"/>
+      <c r="Y53" s="50" t="s">
+        <v>443</v>
+      </c>
+      <c r="Z53" s="49"/>
+      <c r="AA53" s="49"/>
+      <c r="AB53" s="49"/>
+      <c r="AC53" s="50" t="s">
+        <v>443</v>
+      </c>
+      <c r="AD53" s="49"/>
+      <c r="AE53" s="49"/>
+      <c r="AF53" s="49"/>
+      <c r="AG53" s="50" t="s">
+        <v>443</v>
+      </c>
+      <c r="AH53" s="49"/>
+      <c r="AI53" s="49"/>
+      <c r="AJ53" s="49"/>
+      <c r="AK53" s="50" t="s">
+        <v>443</v>
+      </c>
+      <c r="AL53" s="49"/>
+      <c r="AM53" s="49"/>
+      <c r="AN53" s="49"/>
+      <c r="AO53" s="50" t="s">
+        <v>443</v>
+      </c>
+      <c r="AP53" s="49"/>
+      <c r="AQ53" s="49"/>
+      <c r="AR53" s="49"/>
+      <c r="AS53" s="50" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="54" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A54" s="49">
         <v>2</v>
       </c>
@@ -8772,20 +9907,72 @@
       <c r="E54" s="49">
         <v>12.8</v>
       </c>
-      <c r="F54" s="51"/>
-      <c r="G54" s="51"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="49"/>
-      <c r="J54" s="51"/>
-      <c r="K54" s="51"/>
-      <c r="L54" s="49"/>
-      <c r="M54" s="49"/>
-      <c r="N54" s="51"/>
-      <c r="O54" s="51"/>
-      <c r="P54" s="49"/>
-      <c r="Q54" s="49"/>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="F54" s="51">
+        <v>2.3370000000000002</v>
+      </c>
+      <c r="G54" s="51">
+        <v>1.147</v>
+      </c>
+      <c r="H54" s="49">
+        <v>120.6</v>
+      </c>
+      <c r="I54" s="49">
+        <v>12.6</v>
+      </c>
+      <c r="J54" s="51">
+        <v>1.631</v>
+      </c>
+      <c r="K54" s="51">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="L54" s="49">
+        <v>766.4</v>
+      </c>
+      <c r="M54" s="49">
+        <v>9.6</v>
+      </c>
+      <c r="N54" s="51">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="O54" s="51">
+        <v>0.47</v>
+      </c>
+      <c r="P54" s="49">
+        <v>61.8</v>
+      </c>
+      <c r="Q54" s="49">
+        <v>9.6</v>
+      </c>
+      <c r="R54" s="51"/>
+      <c r="S54" s="51"/>
+      <c r="T54" s="49"/>
+      <c r="U54" s="49"/>
+      <c r="V54" s="51"/>
+      <c r="W54" s="51"/>
+      <c r="X54" s="49"/>
+      <c r="Y54" s="49"/>
+      <c r="Z54" s="51"/>
+      <c r="AA54" s="51"/>
+      <c r="AB54" s="49"/>
+      <c r="AC54" s="49"/>
+      <c r="AD54" s="51"/>
+      <c r="AE54" s="51"/>
+      <c r="AF54" s="49"/>
+      <c r="AG54" s="49"/>
+      <c r="AH54" s="51"/>
+      <c r="AI54" s="51"/>
+      <c r="AJ54" s="49"/>
+      <c r="AK54" s="49"/>
+      <c r="AL54" s="51"/>
+      <c r="AM54" s="51"/>
+      <c r="AN54" s="49"/>
+      <c r="AO54" s="49"/>
+      <c r="AP54" s="51"/>
+      <c r="AQ54" s="51"/>
+      <c r="AR54" s="49"/>
+      <c r="AS54" s="49"/>
+    </row>
+    <row r="55" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A55" s="49">
         <v>1</v>
       </c>
@@ -8801,20 +9988,72 @@
       <c r="E55" s="49">
         <v>71.8</v>
       </c>
-      <c r="F55" s="49"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="49"/>
-      <c r="I55" s="49"/>
-      <c r="J55" s="49"/>
-      <c r="K55" s="49"/>
-      <c r="L55" s="49"/>
-      <c r="M55" s="49"/>
-      <c r="N55" s="49"/>
-      <c r="O55" s="49"/>
-      <c r="P55" s="49"/>
-      <c r="Q55" s="49"/>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="F55" s="49">
+        <v>1.472</v>
+      </c>
+      <c r="G55" s="49">
+        <v>1.153</v>
+      </c>
+      <c r="H55" s="49">
+        <v>121.5</v>
+      </c>
+      <c r="I55" s="49">
+        <v>25.9</v>
+      </c>
+      <c r="J55" s="49">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="K55" s="49">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="L55" s="49">
+        <v>772.3</v>
+      </c>
+      <c r="M55" s="49">
+        <v>24</v>
+      </c>
+      <c r="N55" s="49">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="O55" s="49">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="P55" s="49">
+        <v>54</v>
+      </c>
+      <c r="Q55" s="49">
+        <v>28</v>
+      </c>
+      <c r="R55" s="49"/>
+      <c r="S55" s="49"/>
+      <c r="T55" s="49"/>
+      <c r="U55" s="49"/>
+      <c r="V55" s="49"/>
+      <c r="W55" s="49"/>
+      <c r="X55" s="49"/>
+      <c r="Y55" s="49"/>
+      <c r="Z55" s="49"/>
+      <c r="AA55" s="49"/>
+      <c r="AB55" s="49"/>
+      <c r="AC55" s="49"/>
+      <c r="AD55" s="49"/>
+      <c r="AE55" s="49"/>
+      <c r="AF55" s="49"/>
+      <c r="AG55" s="49"/>
+      <c r="AH55" s="49"/>
+      <c r="AI55" s="49"/>
+      <c r="AJ55" s="49"/>
+      <c r="AK55" s="49"/>
+      <c r="AL55" s="49"/>
+      <c r="AM55" s="49"/>
+      <c r="AN55" s="49"/>
+      <c r="AO55" s="49"/>
+      <c r="AP55" s="49"/>
+      <c r="AQ55" s="49"/>
+      <c r="AR55" s="49"/>
+      <c r="AS55" s="49"/>
+    </row>
+    <row r="56" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A56" s="49">
         <v>0</v>
       </c>
@@ -8828,69 +10067,101 @@
         <v>5.8</v>
       </c>
       <c r="E56" s="49"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="49"/>
+      <c r="F56" s="49">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="G56" s="49">
+        <v>1.157</v>
+      </c>
+      <c r="H56" s="49">
+        <v>121.5</v>
+      </c>
       <c r="I56" s="49"/>
-      <c r="J56" s="49"/>
-      <c r="K56" s="49"/>
-      <c r="L56" s="49"/>
+      <c r="J56" s="49">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="K56" s="49">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="L56" s="49">
+        <v>771.1</v>
+      </c>
       <c r="M56" s="49"/>
-      <c r="N56" s="49"/>
-      <c r="O56" s="49"/>
-      <c r="P56" s="49"/>
+      <c r="N56" s="49">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="O56" s="49">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="P56" s="49">
+        <v>53.8</v>
+      </c>
       <c r="Q56" s="49"/>
+      <c r="R56" s="49"/>
+      <c r="S56" s="49"/>
+      <c r="T56" s="49"/>
+      <c r="U56" s="49"/>
+      <c r="V56" s="49"/>
+      <c r="W56" s="49"/>
+      <c r="X56" s="49"/>
+      <c r="Y56" s="49"/>
+      <c r="Z56" s="49"/>
+      <c r="AA56" s="49"/>
+      <c r="AB56" s="49"/>
+      <c r="AC56" s="49"/>
+      <c r="AD56" s="49"/>
+      <c r="AE56" s="49"/>
+      <c r="AF56" s="49"/>
+      <c r="AG56" s="49"/>
+      <c r="AH56" s="49"/>
+      <c r="AI56" s="49"/>
+      <c r="AJ56" s="49"/>
+      <c r="AK56" s="49"/>
+      <c r="AL56" s="49"/>
+      <c r="AM56" s="49"/>
+      <c r="AN56" s="49"/>
+      <c r="AO56" s="49"/>
+      <c r="AP56" s="49"/>
+      <c r="AQ56" s="49"/>
+      <c r="AR56" s="49"/>
+      <c r="AS56" s="49"/>
+    </row>
+    <row r="57" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="J57" s="72" t="s">
+        <v>487</v>
+      </c>
+      <c r="K57" s="72"/>
+      <c r="L57" s="72"/>
+      <c r="M57" s="72"/>
     </row>
   </sheetData>
-  <mergeCells count="64">
-    <mergeCell ref="AD8:AG8"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="N33:Q33"/>
-    <mergeCell ref="N34:Q34"/>
-    <mergeCell ref="N35:Q35"/>
-    <mergeCell ref="N36:Q36"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J4:Y4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="Z6:AC6"/>
-    <mergeCell ref="V5:Y5"/>
-    <mergeCell ref="V6:Y6"/>
-    <mergeCell ref="AP5:AS5"/>
-    <mergeCell ref="AP6:AS6"/>
-    <mergeCell ref="AP7:AS7"/>
-    <mergeCell ref="AP8:AS8"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="R5:U5"/>
-    <mergeCell ref="R6:U6"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="Z7:AC7"/>
-    <mergeCell ref="Z8:AC8"/>
-    <mergeCell ref="V7:Y7"/>
-    <mergeCell ref="V8:Y8"/>
-    <mergeCell ref="AH5:AK5"/>
-    <mergeCell ref="AH6:AK6"/>
+  <mergeCells count="93">
+    <mergeCell ref="AP33:AS33"/>
+    <mergeCell ref="AP34:AS34"/>
+    <mergeCell ref="AP35:AS35"/>
+    <mergeCell ref="AP36:AS36"/>
+    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="AH33:AK33"/>
+    <mergeCell ref="AH34:AK34"/>
+    <mergeCell ref="AH35:AK35"/>
+    <mergeCell ref="AH36:AK36"/>
+    <mergeCell ref="AL33:AO33"/>
+    <mergeCell ref="AL34:AO34"/>
+    <mergeCell ref="AL35:AO35"/>
+    <mergeCell ref="AL36:AO36"/>
+    <mergeCell ref="Z33:AC33"/>
+    <mergeCell ref="Z34:AC34"/>
+    <mergeCell ref="Z35:AC35"/>
+    <mergeCell ref="Z36:AC36"/>
+    <mergeCell ref="AD33:AG33"/>
+    <mergeCell ref="AD34:AG34"/>
+    <mergeCell ref="AD35:AG35"/>
+    <mergeCell ref="AD36:AG36"/>
+    <mergeCell ref="R36:U36"/>
+    <mergeCell ref="V33:Y33"/>
+    <mergeCell ref="V34:Y34"/>
+    <mergeCell ref="V35:Y35"/>
+    <mergeCell ref="V36:Y36"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="B35:E35"/>
@@ -8907,6 +10178,57 @@
     <mergeCell ref="AD5:AG5"/>
     <mergeCell ref="AD6:AG6"/>
     <mergeCell ref="AD7:AG7"/>
+    <mergeCell ref="AP7:AS7"/>
+    <mergeCell ref="AP8:AS8"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="Z7:AC7"/>
+    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="V7:Y7"/>
+    <mergeCell ref="V8:Y8"/>
+    <mergeCell ref="AH5:AK5"/>
+    <mergeCell ref="AH6:AK6"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="V5:Y5"/>
+    <mergeCell ref="V6:Y6"/>
+    <mergeCell ref="AP5:AS5"/>
+    <mergeCell ref="AP6:AS6"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J4:Y4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="AD8:AG8"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="N33:Q33"/>
+    <mergeCell ref="N34:Q34"/>
+    <mergeCell ref="N35:Q35"/>
+    <mergeCell ref="N36:Q36"/>
+    <mergeCell ref="R33:U33"/>
+    <mergeCell ref="R34:U34"/>
+    <mergeCell ref="R35:U35"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8920,7 +10242,7 @@
   <dimension ref="A1:AG27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="AD4" sqref="AD4:AG4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -8942,93 +10264,93 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="73">
+      <c r="B3" s="77">
         <v>42299</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
-      <c r="W3" s="73"/>
-      <c r="X3" s="73"/>
-      <c r="Y3" s="73"/>
-      <c r="Z3" s="73">
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="77"/>
+      <c r="W3" s="77"/>
+      <c r="X3" s="77"/>
+      <c r="Y3" s="77"/>
+      <c r="Z3" s="77">
         <v>42300</v>
       </c>
-      <c r="AA3" s="75"/>
-      <c r="AB3" s="75"/>
-      <c r="AC3" s="75"/>
-      <c r="AD3" s="75"/>
-      <c r="AE3" s="75"/>
-      <c r="AF3" s="75"/>
-      <c r="AG3" s="75"/>
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="76"/>
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="76"/>
+      <c r="AE3" s="76"/>
+      <c r="AF3" s="76"/>
+      <c r="AG3" s="76"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A4" s="39" t="s">
         <v>454</v>
       </c>
-      <c r="B4" s="74">
+      <c r="B4" s="75">
         <v>0.37013888888888885</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="74">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="75">
         <v>0.4375</v>
       </c>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74">
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75">
         <v>0.52361111111111114</v>
       </c>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74">
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75">
         <v>0.60625000000000007</v>
       </c>
-      <c r="S4" s="74"/>
-      <c r="T4" s="74"/>
-      <c r="U4" s="74"/>
-      <c r="V4" s="74">
+      <c r="S4" s="75"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="75">
         <v>0.67569444444444438</v>
       </c>
-      <c r="W4" s="74"/>
-      <c r="X4" s="74"/>
-      <c r="Y4" s="74"/>
-      <c r="Z4" s="74">
+      <c r="W4" s="75"/>
+      <c r="X4" s="75"/>
+      <c r="Y4" s="75"/>
+      <c r="Z4" s="75">
         <v>0.41180555555555554</v>
       </c>
-      <c r="AA4" s="75"/>
-      <c r="AB4" s="75"/>
-      <c r="AC4" s="75"/>
-      <c r="AD4" s="74">
+      <c r="AA4" s="76"/>
+      <c r="AB4" s="76"/>
+      <c r="AC4" s="76"/>
+      <c r="AD4" s="75">
         <v>0.62986111111111109</v>
       </c>
-      <c r="AE4" s="74"/>
-      <c r="AF4" s="74"/>
-      <c r="AG4" s="74"/>
+      <c r="AE4" s="75"/>
+      <c r="AF4" s="75"/>
+      <c r="AG4" s="75"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A5" s="39" t="s">
@@ -9058,12 +10380,12 @@
       <c r="W5" s="52"/>
       <c r="X5" s="52"/>
       <c r="Y5" s="52"/>
-      <c r="Z5" s="76" t="s">
+      <c r="Z5" s="78" t="s">
         <v>464</v>
       </c>
-      <c r="AA5" s="77"/>
-      <c r="AB5" s="77"/>
-      <c r="AC5" s="77"/>
+      <c r="AA5" s="79"/>
+      <c r="AB5" s="79"/>
+      <c r="AC5" s="79"/>
       <c r="AD5" s="52"/>
       <c r="AE5" s="52"/>
       <c r="AF5" s="52"/>
@@ -9077,46 +10399,46 @@
       <c r="C6" s="52"/>
       <c r="D6" s="52"/>
       <c r="E6" s="52"/>
-      <c r="F6" s="74">
+      <c r="F6" s="75">
         <v>0.38055555555555554</v>
       </c>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="74">
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="75">
         <v>0.44305555555555554</v>
       </c>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74">
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75">
         <v>0.52847222222222223</v>
       </c>
-      <c r="O6" s="74"/>
-      <c r="P6" s="74"/>
-      <c r="Q6" s="74"/>
-      <c r="R6" s="74">
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="75">
         <v>0.61249999999999993</v>
       </c>
-      <c r="S6" s="74"/>
-      <c r="T6" s="74"/>
-      <c r="U6" s="74"/>
-      <c r="V6" s="74">
+      <c r="S6" s="75"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="75">
         <v>0.68194444444444446</v>
       </c>
-      <c r="W6" s="74"/>
-      <c r="X6" s="74"/>
-      <c r="Y6" s="74"/>
-      <c r="Z6" s="77"/>
-      <c r="AA6" s="77"/>
-      <c r="AB6" s="77"/>
-      <c r="AC6" s="77"/>
-      <c r="AD6" s="74">
+      <c r="W6" s="75"/>
+      <c r="X6" s="75"/>
+      <c r="Y6" s="75"/>
+      <c r="Z6" s="79"/>
+      <c r="AA6" s="79"/>
+      <c r="AB6" s="79"/>
+      <c r="AC6" s="79"/>
+      <c r="AD6" s="75">
         <v>0.64236111111111105</v>
       </c>
-      <c r="AE6" s="74"/>
-      <c r="AF6" s="74"/>
-      <c r="AG6" s="74"/>
+      <c r="AE6" s="75"/>
+      <c r="AF6" s="75"/>
+      <c r="AG6" s="75"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
@@ -9340,7 +10662,7 @@
       <c r="C10">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="D10" s="78" t="s">
+      <c r="D10" s="73" t="s">
         <v>450</v>
       </c>
       <c r="F10">
@@ -9432,7 +10754,7 @@
       <c r="C11">
         <v>0.107</v>
       </c>
-      <c r="D11" s="79"/>
+      <c r="D11" s="74"/>
       <c r="F11">
         <v>10.47</v>
       </c>
@@ -9522,7 +10844,7 @@
       <c r="C12">
         <v>0.11799999999999999</v>
       </c>
-      <c r="D12" s="79"/>
+      <c r="D12" s="74"/>
       <c r="F12">
         <v>10.47</v>
       </c>
@@ -9594,7 +10916,7 @@
       <c r="C13">
         <v>0.13500000000000001</v>
       </c>
-      <c r="D13" s="79"/>
+      <c r="D13" s="74"/>
       <c r="F13">
         <v>10.46</v>
       </c>
@@ -9666,7 +10988,7 @@
       <c r="C14">
         <v>0.154</v>
       </c>
-      <c r="D14" s="79"/>
+      <c r="D14" s="74"/>
       <c r="E14" s="39" t="s">
         <v>441</v>
       </c>
@@ -9762,7 +11084,7 @@
       <c r="C15">
         <v>0.184</v>
       </c>
-      <c r="D15" s="79"/>
+      <c r="D15" s="74"/>
       <c r="F15">
         <v>10.43</v>
       </c>
@@ -9845,7 +11167,7 @@
       <c r="C16">
         <v>0.218</v>
       </c>
-      <c r="D16" s="79"/>
+      <c r="D16" s="74"/>
       <c r="F16">
         <v>10.42</v>
       </c>
@@ -9928,7 +11250,7 @@
       <c r="C17">
         <v>0.27500000000000002</v>
       </c>
-      <c r="D17" s="79"/>
+      <c r="D17" s="74"/>
       <c r="F17">
         <v>10.42</v>
       </c>
@@ -10003,7 +11325,7 @@
       <c r="C18">
         <v>0.42099999999999999</v>
       </c>
-      <c r="D18" s="79"/>
+      <c r="D18" s="74"/>
       <c r="F18">
         <v>10.4</v>
       </c>
@@ -10078,7 +11400,7 @@
       <c r="C19">
         <v>0.61699999999999999</v>
       </c>
-      <c r="D19" s="79"/>
+      <c r="D19" s="74"/>
       <c r="E19" s="39" t="s">
         <v>442</v>
       </c>
@@ -10177,7 +11499,7 @@
       <c r="C20">
         <v>1.425</v>
       </c>
-      <c r="D20" s="79"/>
+      <c r="D20" s="74"/>
       <c r="F20">
         <v>10.3</v>
       </c>
@@ -10267,7 +11589,7 @@
       <c r="C21">
         <v>1.649</v>
       </c>
-      <c r="D21" s="79"/>
+      <c r="D21" s="74"/>
       <c r="F21">
         <v>10.02</v>
       </c>
@@ -10357,7 +11679,7 @@
       <c r="C22">
         <v>2</v>
       </c>
-      <c r="D22" s="79"/>
+      <c r="D22" s="74"/>
       <c r="F22">
         <v>9.94</v>
       </c>
@@ -10432,7 +11754,7 @@
       <c r="C23">
         <v>2.4950000000000001</v>
       </c>
-      <c r="D23" s="79"/>
+      <c r="D23" s="74"/>
       <c r="F23">
         <v>9.82</v>
       </c>
@@ -10507,7 +11829,7 @@
       <c r="C24">
         <v>3.0350000000000001</v>
       </c>
-      <c r="D24" s="79"/>
+      <c r="D24" s="74"/>
       <c r="E24" s="39" t="s">
         <v>443</v>
       </c>
@@ -10606,7 +11928,7 @@
       <c r="C25">
         <v>3.2789999999999999</v>
       </c>
-      <c r="D25" s="79"/>
+      <c r="D25" s="74"/>
       <c r="F25">
         <v>8.9700000000000006</v>
       </c>
@@ -10699,7 +12021,7 @@
       <c r="C26">
         <v>3.3</v>
       </c>
-      <c r="D26" s="79"/>
+      <c r="D26" s="74"/>
       <c r="F26">
         <v>5.95</v>
       </c>
@@ -10792,7 +12114,7 @@
       <c r="C27">
         <v>3.3</v>
       </c>
-      <c r="D27" s="79"/>
+      <c r="D27" s="74"/>
       <c r="F27">
         <v>3.105</v>
       </c>
@@ -10859,11 +12181,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D10:D27"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="R4:U4"/>
     <mergeCell ref="B3:Y3"/>
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="Z3:AG3"/>
@@ -10877,6 +12194,11 @@
     <mergeCell ref="AD4:AG4"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="V4:Y4"/>
+    <mergeCell ref="D10:D27"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="R4:U4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11227,138 +12549,138 @@
       <c r="A1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="99" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="101" t="s">
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="99" t="s">
         <v>458</v>
       </c>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="93" t="s">
         <v>461</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="91" t="s">
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="91"/>
-      <c r="J2" s="104" t="s">
+      <c r="I2" s="103"/>
+      <c r="J2" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="91" t="s">
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="91"/>
+      <c r="O2" s="103"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="97" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="98" t="s">
+      <c r="C3" s="98"/>
+      <c r="D3" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="107"/>
-      <c r="F3" s="98" t="s">
+      <c r="E3" s="98"/>
+      <c r="F3" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="107"/>
-      <c r="H3" s="98" t="s">
+      <c r="G3" s="98"/>
+      <c r="H3" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="107"/>
-      <c r="J3" s="104" t="s">
+      <c r="I3" s="98"/>
+      <c r="J3" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="K3" s="106"/>
-      <c r="L3" s="104" t="s">
+      <c r="K3" s="94"/>
+      <c r="L3" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="106"/>
-      <c r="N3" s="98" t="s">
+      <c r="M3" s="94"/>
+      <c r="N3" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="99"/>
+      <c r="O3" s="104"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="94" t="s">
+      <c r="C4" s="92"/>
+      <c r="D4" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="95"/>
-      <c r="F4" s="94" t="s">
+      <c r="E4" s="92"/>
+      <c r="F4" s="91" t="s">
         <v>130</v>
       </c>
-      <c r="G4" s="95"/>
-      <c r="H4" s="94" t="s">
+      <c r="G4" s="92"/>
+      <c r="H4" s="91" t="s">
         <v>131</v>
       </c>
-      <c r="I4" s="95"/>
-      <c r="J4" s="96" t="s">
+      <c r="I4" s="92"/>
+      <c r="J4" s="95" t="s">
         <v>457</v>
       </c>
-      <c r="K4" s="97"/>
-      <c r="L4" s="96" t="s">
+      <c r="K4" s="96"/>
+      <c r="L4" s="95" t="s">
         <v>457</v>
       </c>
-      <c r="M4" s="97"/>
-      <c r="N4" s="94" t="s">
+      <c r="M4" s="96"/>
+      <c r="N4" s="91" t="s">
         <v>457</v>
       </c>
-      <c r="O4" s="100"/>
+      <c r="O4" s="105"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="91" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="95"/>
-      <c r="D5" s="94" t="s">
+      <c r="C5" s="92"/>
+      <c r="D5" s="91" t="s">
         <v>127</v>
       </c>
-      <c r="E5" s="95"/>
-      <c r="F5" s="94" t="s">
+      <c r="E5" s="92"/>
+      <c r="F5" s="91" t="s">
         <v>128</v>
       </c>
-      <c r="G5" s="95"/>
-      <c r="H5" s="94" t="s">
+      <c r="G5" s="92"/>
+      <c r="H5" s="91" t="s">
         <v>129</v>
       </c>
-      <c r="I5" s="95"/>
+      <c r="I5" s="92"/>
       <c r="J5" s="54"/>
       <c r="K5" s="54"/>
       <c r="L5" s="54"/>
@@ -11373,27 +12695,27 @@
       <c r="D6" s="54"/>
       <c r="F6" s="54"/>
       <c r="H6" s="54"/>
-      <c r="J6" s="96" t="s">
+      <c r="J6" s="95" t="s">
         <v>460</v>
       </c>
-      <c r="K6" s="97"/>
-      <c r="L6" s="96" t="s">
+      <c r="K6" s="96"/>
+      <c r="L6" s="95" t="s">
         <v>460</v>
       </c>
-      <c r="M6" s="97"/>
-      <c r="N6" s="101" t="s">
+      <c r="M6" s="96"/>
+      <c r="N6" s="99" t="s">
         <v>460</v>
       </c>
-      <c r="O6" s="102"/>
+      <c r="O6" s="100"/>
     </row>
     <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="106" t="s">
         <v>80</v>
       </c>
       <c r="C7" s="40">
         <v>78.2</v>
       </c>
-      <c r="D7" s="93" t="s">
+      <c r="D7" s="106" t="s">
         <v>80</v>
       </c>
       <c r="E7" s="41">
@@ -11431,11 +12753,11 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B8" s="93"/>
+      <c r="B8" s="106"/>
       <c r="C8" s="40">
         <v>78.400000000000006</v>
       </c>
-      <c r="D8" s="93"/>
+      <c r="D8" s="106"/>
       <c r="E8" s="41">
         <v>53.4</v>
       </c>
@@ -11461,11 +12783,11 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B9" s="93"/>
+      <c r="B9" s="106"/>
       <c r="C9" s="40">
         <v>78.400000000000006</v>
       </c>
-      <c r="D9" s="93"/>
+      <c r="D9" s="106"/>
       <c r="E9" s="41">
         <v>53.9</v>
       </c>
@@ -11491,11 +12813,11 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B10" s="93"/>
+      <c r="B10" s="106"/>
       <c r="C10" s="40">
         <v>78.400000000000006</v>
       </c>
-      <c r="D10" s="93"/>
+      <c r="D10" s="106"/>
       <c r="E10" s="41">
         <v>54</v>
       </c>
@@ -11521,11 +12843,11 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B11" s="93"/>
+      <c r="B11" s="106"/>
       <c r="C11" s="40">
         <v>78.400000000000006</v>
       </c>
-      <c r="D11" s="93"/>
+      <c r="D11" s="106"/>
       <c r="E11" s="41">
         <v>53.9</v>
       </c>
@@ -11551,11 +12873,11 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B12" s="93"/>
+      <c r="B12" s="106"/>
       <c r="C12" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D12" s="93"/>
+      <c r="D12" s="106"/>
       <c r="E12" s="41">
         <v>55.2</v>
       </c>
@@ -11581,11 +12903,11 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B13" s="93"/>
+      <c r="B13" s="106"/>
       <c r="C13" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D13" s="93"/>
+      <c r="D13" s="106"/>
       <c r="E13" s="41">
         <v>53.7</v>
       </c>
@@ -11611,11 +12933,11 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B14" s="93"/>
+      <c r="B14" s="106"/>
       <c r="C14" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D14" s="93"/>
+      <c r="D14" s="106"/>
       <c r="E14" s="41">
         <v>53.4</v>
       </c>
@@ -11641,11 +12963,11 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B15" s="93"/>
+      <c r="B15" s="106"/>
       <c r="C15" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D15" s="93"/>
+      <c r="D15" s="106"/>
       <c r="E15" s="41">
         <v>53.1</v>
       </c>
@@ -11671,11 +12993,11 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B16" s="93"/>
+      <c r="B16" s="106"/>
       <c r="C16" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D16" s="93"/>
+      <c r="D16" s="106"/>
       <c r="E16" s="41">
         <v>52.6</v>
       </c>
@@ -11701,7 +13023,7 @@
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B17" s="91" t="s">
+      <c r="B17" s="103" t="s">
         <v>444</v>
       </c>
       <c r="C17" s="40">
@@ -11735,7 +13057,7 @@
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B18" s="91"/>
+      <c r="B18" s="103"/>
       <c r="C18" s="40">
         <v>79.5</v>
       </c>
@@ -11765,7 +13087,7 @@
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B19" s="91"/>
+      <c r="B19" s="103"/>
       <c r="C19" s="40">
         <v>79.5</v>
       </c>
@@ -11795,7 +13117,7 @@
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B20" s="91"/>
+      <c r="B20" s="103"/>
       <c r="C20" s="40">
         <v>79.5</v>
       </c>
@@ -11825,7 +13147,7 @@
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B21" s="91"/>
+      <c r="B21" s="103"/>
       <c r="C21" s="40">
         <v>79.5</v>
       </c>
@@ -11855,7 +13177,7 @@
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B22" s="91" t="s">
+      <c r="B22" s="103" t="s">
         <v>55</v>
       </c>
       <c r="C22" s="40">
@@ -11889,7 +13211,7 @@
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B23" s="91"/>
+      <c r="B23" s="103"/>
       <c r="C23" s="40">
         <v>80</v>
       </c>
@@ -11919,7 +13241,7 @@
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B24" s="91"/>
+      <c r="B24" s="103"/>
       <c r="C24" s="40">
         <v>80</v>
       </c>
@@ -11949,7 +13271,7 @@
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B25" s="91"/>
+      <c r="B25" s="103"/>
       <c r="C25" s="40">
         <v>80</v>
       </c>
@@ -11979,7 +13301,7 @@
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B26" s="91"/>
+      <c r="B26" s="103"/>
       <c r="C26" s="40">
         <v>80</v>
       </c>
@@ -12009,7 +13331,7 @@
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B27" s="91" t="s">
+      <c r="B27" s="103" t="s">
         <v>56</v>
       </c>
       <c r="C27" s="40">
@@ -12043,7 +13365,7 @@
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B28" s="91"/>
+      <c r="B28" s="103"/>
       <c r="C28" s="40">
         <v>80.7</v>
       </c>
@@ -12073,7 +13395,7 @@
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B29" s="91"/>
+      <c r="B29" s="103"/>
       <c r="C29" s="40">
         <v>80.7</v>
       </c>
@@ -12103,7 +13425,7 @@
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B30" s="91"/>
+      <c r="B30" s="103"/>
       <c r="C30" s="40">
         <v>80.7</v>
       </c>
@@ -12133,7 +13455,7 @@
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B31" s="91"/>
+      <c r="B31" s="103"/>
       <c r="C31" s="40">
         <v>80.900000000000006</v>
       </c>
@@ -12163,7 +13485,7 @@
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B32" s="91" t="s">
+      <c r="B32" s="103" t="s">
         <v>57</v>
       </c>
       <c r="C32" s="40">
@@ -12197,7 +13519,7 @@
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B33" s="91"/>
+      <c r="B33" s="103"/>
       <c r="C33" s="40">
         <v>81.099999999999994</v>
       </c>
@@ -12227,7 +13549,7 @@
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B34" s="91"/>
+      <c r="B34" s="103"/>
       <c r="C34" s="40">
         <v>81.099999999999994</v>
       </c>
@@ -12257,7 +13579,7 @@
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B35" s="91"/>
+      <c r="B35" s="103"/>
       <c r="C35" s="40">
         <v>81.099999999999994</v>
       </c>
@@ -12287,7 +13609,7 @@
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B36" s="91"/>
+      <c r="B36" s="103"/>
       <c r="C36" s="40">
         <v>81.099999999999994</v>
       </c>
@@ -12317,7 +13639,7 @@
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B37" s="91" t="s">
+      <c r="B37" s="103" t="s">
         <v>58</v>
       </c>
       <c r="C37" s="40">
@@ -12351,7 +13673,7 @@
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B38" s="91"/>
+      <c r="B38" s="103"/>
       <c r="C38" s="40">
         <v>81.5</v>
       </c>
@@ -12381,7 +13703,7 @@
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B39" s="91"/>
+      <c r="B39" s="103"/>
       <c r="C39" s="40">
         <v>81.5</v>
       </c>
@@ -12411,7 +13733,7 @@
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B40" s="91"/>
+      <c r="B40" s="103"/>
       <c r="C40" s="40">
         <v>81.5</v>
       </c>
@@ -12441,7 +13763,7 @@
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B41" s="91"/>
+      <c r="B41" s="103"/>
       <c r="C41" s="40">
         <v>81.5</v>
       </c>
@@ -12471,7 +13793,7 @@
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B42" s="91" t="s">
+      <c r="B42" s="103" t="s">
         <v>59</v>
       </c>
       <c r="C42" s="40">
@@ -12505,7 +13827,7 @@
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B43" s="91"/>
+      <c r="B43" s="103"/>
       <c r="C43" s="40">
         <v>82.4</v>
       </c>
@@ -12535,7 +13857,7 @@
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B44" s="91"/>
+      <c r="B44" s="103"/>
       <c r="C44" s="40">
         <v>82.4</v>
       </c>
@@ -12565,7 +13887,7 @@
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B45" s="91"/>
+      <c r="B45" s="103"/>
       <c r="C45" s="40">
         <v>82.4</v>
       </c>
@@ -12595,7 +13917,7 @@
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B46" s="91"/>
+      <c r="B46" s="103"/>
       <c r="C46" s="40">
         <v>82.4</v>
       </c>
@@ -12625,13 +13947,13 @@
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B47" s="91" t="s">
+      <c r="B47" s="103" t="s">
         <v>94</v>
       </c>
       <c r="C47" s="40">
         <v>82.9</v>
       </c>
-      <c r="D47" s="92" t="s">
+      <c r="D47" s="107" t="s">
         <v>90</v>
       </c>
       <c r="E47" s="41">
@@ -12644,11 +13966,11 @@
       <c r="J47" s="56"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B48" s="91"/>
+      <c r="B48" s="103"/>
       <c r="C48" s="40">
         <v>83.1</v>
       </c>
-      <c r="D48" s="92"/>
+      <c r="D48" s="107"/>
       <c r="E48" s="41">
         <v>43.4</v>
       </c>
@@ -12659,11 +13981,11 @@
       <c r="J48" s="56"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B49" s="91"/>
+      <c r="B49" s="103"/>
       <c r="C49" s="40">
         <v>83.1</v>
       </c>
-      <c r="D49" s="92"/>
+      <c r="D49" s="107"/>
       <c r="E49" s="41">
         <v>43.4</v>
       </c>
@@ -12674,11 +13996,11 @@
       <c r="J49" s="56"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B50" s="91"/>
+      <c r="B50" s="103"/>
       <c r="C50" s="40">
         <v>83.1</v>
       </c>
-      <c r="D50" s="92"/>
+      <c r="D50" s="107"/>
       <c r="E50" s="41">
         <v>43.4</v>
       </c>
@@ -12689,11 +14011,11 @@
       <c r="J50" s="56"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B51" s="91"/>
+      <c r="B51" s="103"/>
       <c r="C51" s="40">
         <v>83.1</v>
       </c>
-      <c r="D51" s="92"/>
+      <c r="D51" s="107"/>
       <c r="E51" s="41">
         <v>43.4</v>
       </c>
@@ -12704,13 +14026,13 @@
       <c r="J51" s="56"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B52" s="91" t="s">
+      <c r="B52" s="103" t="s">
         <v>95</v>
       </c>
       <c r="C52" s="40">
         <v>83.4</v>
       </c>
-      <c r="D52" s="92" t="s">
+      <c r="D52" s="107" t="s">
         <v>92</v>
       </c>
       <c r="E52" s="41">
@@ -12723,11 +14045,11 @@
       <c r="J52" s="56"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B53" s="91"/>
+      <c r="B53" s="103"/>
       <c r="C53" s="40">
         <v>83.4</v>
       </c>
-      <c r="D53" s="92"/>
+      <c r="D53" s="107"/>
       <c r="E53" s="41">
         <v>43.3</v>
       </c>
@@ -12738,11 +14060,11 @@
       <c r="J53" s="56"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B54" s="91"/>
+      <c r="B54" s="103"/>
       <c r="C54" s="40">
         <v>83.4</v>
       </c>
-      <c r="D54" s="92"/>
+      <c r="D54" s="107"/>
       <c r="E54" s="41">
         <v>43.4</v>
       </c>
@@ -12753,11 +14075,11 @@
       <c r="J54" s="56"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B55" s="91"/>
+      <c r="B55" s="103"/>
       <c r="C55" s="40">
         <v>83.6</v>
       </c>
-      <c r="D55" s="92"/>
+      <c r="D55" s="107"/>
       <c r="E55" s="41">
         <v>43.4</v>
       </c>
@@ -12768,11 +14090,11 @@
       <c r="J55" s="56"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B56" s="91"/>
+      <c r="B56" s="103"/>
       <c r="C56" s="40">
         <v>83.3</v>
       </c>
-      <c r="D56" s="92"/>
+      <c r="D56" s="107"/>
       <c r="E56" s="41">
         <v>43.4</v>
       </c>
@@ -12783,7 +14105,7 @@
       <c r="J56" s="56"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B57" s="91" t="s">
+      <c r="B57" s="103" t="s">
         <v>96</v>
       </c>
       <c r="C57" s="40">
@@ -12798,7 +14120,7 @@
       <c r="J57" s="56"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B58" s="91"/>
+      <c r="B58" s="103"/>
       <c r="C58" s="40">
         <v>83.4</v>
       </c>
@@ -12811,7 +14133,7 @@
       <c r="J58" s="56"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B59" s="91"/>
+      <c r="B59" s="103"/>
       <c r="C59" s="40">
         <v>83.3</v>
       </c>
@@ -12824,7 +14146,7 @@
       <c r="J59" s="56"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B60" s="91"/>
+      <c r="B60" s="103"/>
       <c r="C60" s="40">
         <v>83.3</v>
       </c>
@@ -12837,7 +14159,7 @@
       <c r="J60" s="56"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B61" s="91"/>
+      <c r="B61" s="103"/>
       <c r="C61" s="40">
         <v>83.4</v>
       </c>
@@ -12850,7 +14172,7 @@
       <c r="J61" s="56"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B62" s="91" t="s">
+      <c r="B62" s="103" t="s">
         <v>97</v>
       </c>
       <c r="C62" s="40">
@@ -12865,7 +14187,7 @@
       <c r="J62" s="56"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B63" s="91"/>
+      <c r="B63" s="103"/>
       <c r="C63" s="40">
         <v>83.8</v>
       </c>
@@ -12878,7 +14200,7 @@
       <c r="J63" s="56"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B64" s="91"/>
+      <c r="B64" s="103"/>
       <c r="C64" s="40">
         <v>83.6</v>
       </c>
@@ -12891,7 +14213,7 @@
       <c r="J64" s="56"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B65" s="91"/>
+      <c r="B65" s="103"/>
       <c r="C65" s="40">
         <v>83.8</v>
       </c>
@@ -12904,7 +14226,7 @@
       <c r="J65" s="56"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B66" s="91"/>
+      <c r="B66" s="103"/>
       <c r="C66" s="40">
         <v>83.8</v>
       </c>
@@ -12917,7 +14239,7 @@
       <c r="J66" s="56"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B67" s="91" t="s">
+      <c r="B67" s="103" t="s">
         <v>93</v>
       </c>
       <c r="C67" s="40">
@@ -12932,7 +14254,7 @@
       <c r="J67" s="56"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B68" s="91"/>
+      <c r="B68" s="103"/>
       <c r="C68" s="40">
         <v>84</v>
       </c>
@@ -12945,7 +14267,7 @@
       <c r="J68" s="56"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B69" s="91"/>
+      <c r="B69" s="103"/>
       <c r="C69" s="40">
         <v>84</v>
       </c>
@@ -12958,7 +14280,7 @@
       <c r="J69" s="56"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B70" s="91"/>
+      <c r="B70" s="103"/>
       <c r="C70" s="40">
         <v>84</v>
       </c>
@@ -12971,7 +14293,7 @@
       <c r="J70" s="56"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B71" s="91"/>
+      <c r="B71" s="103"/>
       <c r="C71" s="40">
         <v>84</v>
       </c>
@@ -12984,7 +14306,7 @@
       <c r="J71" s="56"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B72" s="91" t="s">
+      <c r="B72" s="103" t="s">
         <v>82</v>
       </c>
       <c r="C72" s="40">
@@ -12999,7 +14321,7 @@
       <c r="J72" s="56"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B73" s="91"/>
+      <c r="B73" s="103"/>
       <c r="C73" s="40">
         <v>83.4</v>
       </c>
@@ -13012,7 +14334,7 @@
       <c r="J73" s="56"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B74" s="91"/>
+      <c r="B74" s="103"/>
       <c r="C74" s="40">
         <v>83.3</v>
       </c>
@@ -13025,7 +14347,7 @@
       <c r="J74" s="56"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B75" s="91"/>
+      <c r="B75" s="103"/>
       <c r="C75" s="40">
         <v>83.3</v>
       </c>
@@ -13038,7 +14360,7 @@
       <c r="J75" s="56"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B76" s="91"/>
+      <c r="B76" s="103"/>
       <c r="C76" s="40">
         <v>83.3</v>
       </c>
@@ -13051,7 +14373,7 @@
       <c r="J76" s="56"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B77" s="91" t="s">
+      <c r="B77" s="103" t="s">
         <v>83</v>
       </c>
       <c r="C77" s="40">
@@ -13066,7 +14388,7 @@
       <c r="J77" s="56"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B78" s="91"/>
+      <c r="B78" s="103"/>
       <c r="C78" s="40">
         <v>83.4</v>
       </c>
@@ -13079,7 +14401,7 @@
       <c r="J78" s="56"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B79" s="91"/>
+      <c r="B79" s="103"/>
       <c r="C79" s="40">
         <v>83.4</v>
       </c>
@@ -13092,7 +14414,7 @@
       <c r="J79" s="56"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B80" s="91"/>
+      <c r="B80" s="103"/>
       <c r="C80" s="40">
         <v>83.4</v>
       </c>
@@ -13105,7 +14427,7 @@
       <c r="J80" s="56"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B81" s="91"/>
+      <c r="B81" s="103"/>
       <c r="C81" s="40">
         <v>83.4</v>
       </c>
@@ -13118,7 +14440,7 @@
       <c r="J81" s="56"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B82" s="91" t="s">
+      <c r="B82" s="103" t="s">
         <v>84</v>
       </c>
       <c r="C82" s="40">
@@ -13133,7 +14455,7 @@
       <c r="J82" s="56"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B83" s="91"/>
+      <c r="B83" s="103"/>
       <c r="C83" s="40">
         <v>83.3</v>
       </c>
@@ -13146,7 +14468,7 @@
       <c r="J83" s="56"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B84" s="91"/>
+      <c r="B84" s="103"/>
       <c r="C84" s="40">
         <v>83.3</v>
       </c>
@@ -13159,7 +14481,7 @@
       <c r="J84" s="56"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B85" s="91"/>
+      <c r="B85" s="103"/>
       <c r="C85" s="40">
         <v>83.3</v>
       </c>
@@ -13172,7 +14494,7 @@
       <c r="J85" s="56"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B86" s="91"/>
+      <c r="B86" s="103"/>
       <c r="C86" s="40">
         <v>83.3</v>
       </c>
@@ -13185,7 +14507,7 @@
       <c r="J86" s="56"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B87" s="91" t="s">
+      <c r="B87" s="103" t="s">
         <v>87</v>
       </c>
       <c r="C87" s="40">
@@ -13200,7 +14522,7 @@
       <c r="J87" s="56"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B88" s="91"/>
+      <c r="B88" s="103"/>
       <c r="C88" s="40">
         <v>83.8</v>
       </c>
@@ -13213,7 +14535,7 @@
       <c r="J88" s="56"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B89" s="91"/>
+      <c r="B89" s="103"/>
       <c r="C89" s="40">
         <v>83.8</v>
       </c>
@@ -13226,7 +14548,7 @@
       <c r="J89" s="56"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B90" s="91"/>
+      <c r="B90" s="103"/>
       <c r="C90" s="40">
         <v>84</v>
       </c>
@@ -13239,7 +14561,7 @@
       <c r="J90" s="56"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B91" s="91"/>
+      <c r="B91" s="103"/>
       <c r="C91" s="40">
         <v>84</v>
       </c>
@@ -13252,7 +14574,7 @@
       <c r="J91" s="56"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B92" s="91" t="s">
+      <c r="B92" s="103" t="s">
         <v>89</v>
       </c>
       <c r="C92" s="40">
@@ -13267,7 +14589,7 @@
       <c r="J92" s="56"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B93" s="91"/>
+      <c r="B93" s="103"/>
       <c r="C93" s="40">
         <v>84</v>
       </c>
@@ -13280,7 +14602,7 @@
       <c r="J93" s="56"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B94" s="91"/>
+      <c r="B94" s="103"/>
       <c r="C94" s="40">
         <v>84</v>
       </c>
@@ -13293,7 +14615,7 @@
       <c r="J94" s="56"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B95" s="91"/>
+      <c r="B95" s="103"/>
       <c r="C95" s="40">
         <v>84.2</v>
       </c>
@@ -13306,7 +14628,7 @@
       <c r="J95" s="56"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B96" s="91"/>
+      <c r="B96" s="103"/>
       <c r="C96" s="40">
         <v>84.2</v>
       </c>
@@ -13319,7 +14641,7 @@
       <c r="J96" s="56"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B97" s="91" t="s">
+      <c r="B97" s="103" t="s">
         <v>91</v>
       </c>
       <c r="C97" s="40">
@@ -13334,7 +14656,7 @@
       <c r="J97" s="56"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B98" s="91"/>
+      <c r="B98" s="103"/>
       <c r="C98" s="40">
         <v>84</v>
       </c>
@@ -13347,7 +14669,7 @@
       <c r="J98" s="56"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B99" s="91"/>
+      <c r="B99" s="103"/>
       <c r="C99" s="40">
         <v>84</v>
       </c>
@@ -13360,7 +14682,7 @@
       <c r="J99" s="56"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B100" s="91"/>
+      <c r="B100" s="103"/>
       <c r="C100" s="40">
         <v>84</v>
       </c>
@@ -13373,7 +14695,7 @@
       <c r="J100" s="56"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B101" s="91"/>
+      <c r="B101" s="103"/>
       <c r="C101" s="40">
         <v>84</v>
       </c>
@@ -13387,12 +14709,43 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B97:B101"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="D42:D46"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="L7:L46"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B92:B96"/>
+    <mergeCell ref="B7:B16"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="D7:D16"/>
+    <mergeCell ref="F7:F46"/>
+    <mergeCell ref="H7:H46"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N6:O6"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="J7:J46"/>
     <mergeCell ref="J2:M2"/>
@@ -13409,43 +14762,12 @@
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="N7:N46"/>
     <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L7:L46"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B92:B96"/>
-    <mergeCell ref="B7:B16"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="D7:D16"/>
-    <mergeCell ref="F7:F46"/>
-    <mergeCell ref="H7:H46"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B97:B101"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="D37:D41"/>
-    <mergeCell ref="D42:D46"/>
-    <mergeCell ref="D47:D51"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13463,44 +14785,44 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="115" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
       <c r="G1" s="17"/>
-      <c r="H1" s="113" t="s">
+      <c r="H1" s="117" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113" t="s">
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A2" s="114"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
+      <c r="A2" s="118"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A3" s="26" t="s">
@@ -13524,27 +14846,27 @@
       <c r="G3" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="H3" s="104" t="s">
+      <c r="H3" s="93" t="s">
         <v>189</v>
       </c>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="106"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="94"/>
       <c r="P3" s="31">
         <v>0.36041666666666666</v>
       </c>
-      <c r="Q3" s="104" t="s">
+      <c r="Q3" s="93" t="s">
         <v>189</v>
       </c>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
-      <c r="U3" s="105"/>
-      <c r="V3" s="105"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
+      <c r="U3" s="102"/>
+      <c r="V3" s="102"/>
       <c r="W3" s="37">
         <v>0.36319444444444443</v>
       </c>
@@ -13553,13 +14875,13 @@
       <c r="Z3" s="20"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="108" t="s">
         <v>133</v>
       </c>
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="103" t="s">
         <v>98</v>
       </c>
       <c r="D4" s="23">
@@ -13623,9 +14945,9 @@
       <c r="Z4" s="13"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A5" s="117"/>
-      <c r="B5" s="120"/>
-      <c r="C5" s="91"/>
+      <c r="A5" s="109"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="103"/>
       <c r="D5" s="23">
         <v>2</v>
       </c>
@@ -13685,9 +15007,9 @@
       <c r="Z5" s="13"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A6" s="117"/>
-      <c r="B6" s="120"/>
-      <c r="C6" s="91"/>
+      <c r="A6" s="109"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="103"/>
       <c r="D6" s="23">
         <v>3</v>
       </c>
@@ -13747,9 +15069,9 @@
       <c r="Z6" s="13"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A7" s="117"/>
-      <c r="B7" s="120"/>
-      <c r="C7" s="91"/>
+      <c r="A7" s="109"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="103"/>
       <c r="D7" s="23">
         <v>4</v>
       </c>
@@ -13809,9 +15131,9 @@
       <c r="Z7" s="13"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A8" s="117"/>
-      <c r="B8" s="120"/>
-      <c r="C8" s="91"/>
+      <c r="A8" s="109"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="103"/>
       <c r="D8" s="23">
         <v>5</v>
       </c>
@@ -13871,15 +15193,15 @@
       <c r="Z8" s="13"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A9" s="117"/>
-      <c r="B9" s="120"/>
+      <c r="A9" s="109"/>
+      <c r="B9" s="112"/>
       <c r="C9" s="26"/>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="122"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="114"/>
       <c r="J9" s="81"/>
       <c r="K9" s="81"/>
       <c r="L9" s="81"/>
@@ -13899,8 +15221,8 @@
       <c r="Z9" s="21"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A10" s="117"/>
-      <c r="B10" s="120"/>
+      <c r="A10" s="109"/>
+      <c r="B10" s="112"/>
       <c r="C10" s="26"/>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
@@ -13931,9 +15253,9 @@
       <c r="Z10" s="11"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A11" s="117"/>
-      <c r="B11" s="120"/>
-      <c r="C11" s="91" t="s">
+      <c r="A11" s="109"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="103" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="23">
@@ -13997,9 +15319,9 @@
       <c r="Z11" s="11"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A12" s="117"/>
-      <c r="B12" s="120"/>
-      <c r="C12" s="91"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="103"/>
       <c r="D12" s="23">
         <v>2</v>
       </c>
@@ -14059,9 +15381,9 @@
       <c r="Z12" s="11"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A13" s="117"/>
-      <c r="B13" s="120"/>
-      <c r="C13" s="91"/>
+      <c r="A13" s="109"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="103"/>
       <c r="D13" s="23">
         <v>3</v>
       </c>
@@ -14121,9 +15443,9 @@
       <c r="Z13" s="11"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A14" s="117"/>
-      <c r="B14" s="120"/>
-      <c r="C14" s="91"/>
+      <c r="A14" s="109"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="103"/>
       <c r="D14" s="23">
         <v>4</v>
       </c>
@@ -14183,9 +15505,9 @@
       <c r="Z14" s="11"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A15" s="117"/>
-      <c r="B15" s="120"/>
-      <c r="C15" s="91"/>
+      <c r="A15" s="109"/>
+      <c r="B15" s="112"/>
+      <c r="C15" s="103"/>
       <c r="D15" s="23">
         <v>5</v>
       </c>
@@ -14245,23 +15567,23 @@
       <c r="Z15" s="11"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A16" s="117"/>
-      <c r="B16" s="121"/>
+      <c r="A16" s="109"/>
+      <c r="B16" s="113"/>
       <c r="C16" s="29"/>
       <c r="D16" s="22"/>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="108" t="s">
+      <c r="H16" s="120" t="s">
         <v>178</v>
       </c>
-      <c r="I16" s="109"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="109"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="109"/>
-      <c r="N16" s="109"/>
-      <c r="O16" s="110"/>
+      <c r="I16" s="121"/>
+      <c r="J16" s="121"/>
+      <c r="K16" s="121"/>
+      <c r="L16" s="121"/>
+      <c r="M16" s="121"/>
+      <c r="N16" s="121"/>
+      <c r="O16" s="122"/>
       <c r="P16" s="36"/>
       <c r="Q16" s="36"/>
       <c r="R16" s="36"/>
@@ -14275,11 +15597,11 @@
       <c r="Z16" s="11"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A17" s="117"/>
-      <c r="B17" s="91" t="s">
+      <c r="A17" s="109"/>
+      <c r="B17" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="91" t="s">
+      <c r="C17" s="103" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="23">
@@ -14329,9 +15651,9 @@
       <c r="Z17" s="11"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A18" s="117"/>
-      <c r="B18" s="91"/>
-      <c r="C18" s="91"/>
+      <c r="A18" s="109"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="103"/>
       <c r="D18" s="23">
         <v>2</v>
       </c>
@@ -14375,9 +15697,9 @@
       <c r="Z18" s="11"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A19" s="117"/>
-      <c r="B19" s="91"/>
-      <c r="C19" s="91"/>
+      <c r="A19" s="109"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="103"/>
       <c r="D19" s="23">
         <v>3</v>
       </c>
@@ -14421,9 +15743,9 @@
       <c r="Z19" s="11"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A20" s="117"/>
-      <c r="B20" s="91"/>
-      <c r="C20" s="91"/>
+      <c r="A20" s="109"/>
+      <c r="B20" s="103"/>
+      <c r="C20" s="103"/>
       <c r="D20" s="23">
         <v>4</v>
       </c>
@@ -14467,9 +15789,9 @@
       <c r="Z20" s="11"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A21" s="118"/>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
+      <c r="A21" s="110"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="103"/>
       <c r="D21" s="23">
         <v>5</v>
       </c>
@@ -14528,16 +15850,16 @@
       <c r="G22" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="H22" s="98" t="s">
+      <c r="H22" s="97" t="s">
         <v>189</v>
       </c>
-      <c r="I22" s="99"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="99"/>
-      <c r="M22" s="99"/>
-      <c r="N22" s="99"/>
-      <c r="O22" s="107"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="104"/>
+      <c r="K22" s="104"/>
+      <c r="L22" s="104"/>
+      <c r="M22" s="104"/>
+      <c r="N22" s="104"/>
+      <c r="O22" s="98"/>
       <c r="P22" s="32" t="s">
         <v>248</v>
       </c>
@@ -14553,13 +15875,13 @@
       <c r="Z22" s="11"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A23" s="116" t="s">
+      <c r="A23" s="108" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="91" t="s">
+      <c r="B23" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="91" t="s">
+      <c r="C23" s="103" t="s">
         <v>98</v>
       </c>
       <c r="D23" s="23">
@@ -14627,9 +15949,9 @@
       <c r="Z23" s="11"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A24" s="117"/>
-      <c r="B24" s="91"/>
-      <c r="C24" s="91"/>
+      <c r="A24" s="109"/>
+      <c r="B24" s="103"/>
+      <c r="C24" s="103"/>
       <c r="D24" s="23">
         <v>2</v>
       </c>
@@ -14689,9 +16011,9 @@
       <c r="Z24" s="11"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A25" s="117"/>
-      <c r="B25" s="91"/>
-      <c r="C25" s="91"/>
+      <c r="A25" s="109"/>
+      <c r="B25" s="103"/>
+      <c r="C25" s="103"/>
       <c r="D25" s="23">
         <v>3</v>
       </c>
@@ -14751,9 +16073,9 @@
       <c r="Z25" s="11"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A26" s="117"/>
-      <c r="B26" s="91"/>
-      <c r="C26" s="91"/>
+      <c r="A26" s="109"/>
+      <c r="B26" s="103"/>
+      <c r="C26" s="103"/>
       <c r="D26" s="23">
         <v>4</v>
       </c>
@@ -14813,9 +16135,9 @@
       <c r="Z26" s="11"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A27" s="117"/>
-      <c r="B27" s="91"/>
-      <c r="C27" s="91"/>
+      <c r="A27" s="109"/>
+      <c r="B27" s="103"/>
+      <c r="C27" s="103"/>
       <c r="D27" s="23">
         <v>5</v>
       </c>
@@ -14875,8 +16197,8 @@
       <c r="Z27" s="11"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A28" s="117"/>
-      <c r="B28" s="91"/>
+      <c r="A28" s="109"/>
+      <c r="B28" s="103"/>
       <c r="C28" s="26"/>
       <c r="D28" s="23"/>
       <c r="E28" s="23"/>
@@ -14903,8 +16225,8 @@
       <c r="Z28" s="11"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A29" s="117"/>
-      <c r="B29" s="91"/>
+      <c r="A29" s="109"/>
+      <c r="B29" s="103"/>
       <c r="C29" s="26"/>
       <c r="D29" s="23"/>
       <c r="E29" s="23"/>
@@ -14933,9 +16255,9 @@
       <c r="Z29" s="11"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A30" s="117"/>
-      <c r="B30" s="91"/>
-      <c r="C30" s="91" t="s">
+      <c r="A30" s="109"/>
+      <c r="B30" s="103"/>
+      <c r="C30" s="103" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="23">
@@ -15003,9 +16325,9 @@
       <c r="Z30" s="11"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A31" s="117"/>
-      <c r="B31" s="91"/>
-      <c r="C31" s="91"/>
+      <c r="A31" s="109"/>
+      <c r="B31" s="103"/>
+      <c r="C31" s="103"/>
       <c r="D31" s="23">
         <v>2</v>
       </c>
@@ -15065,9 +16387,9 @@
       <c r="Z31" s="11"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A32" s="117"/>
-      <c r="B32" s="91"/>
-      <c r="C32" s="91"/>
+      <c r="A32" s="109"/>
+      <c r="B32" s="103"/>
+      <c r="C32" s="103"/>
       <c r="D32" s="23">
         <v>3</v>
       </c>
@@ -15127,9 +16449,9 @@
       <c r="Z32" s="11"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A33" s="117"/>
-      <c r="B33" s="91"/>
-      <c r="C33" s="91"/>
+      <c r="A33" s="109"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="103"/>
       <c r="D33" s="23">
         <v>4</v>
       </c>
@@ -15186,9 +16508,9 @@
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A34" s="117"/>
-      <c r="B34" s="91"/>
-      <c r="C34" s="91"/>
+      <c r="A34" s="109"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="103"/>
       <c r="D34" s="23">
         <v>5</v>
       </c>
@@ -15245,8 +16567,8 @@
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A35" s="117"/>
-      <c r="B35" s="91"/>
+      <c r="A35" s="109"/>
+      <c r="B35" s="103"/>
       <c r="C35" s="26"/>
       <c r="D35" s="23"/>
       <c r="E35" s="23"/>
@@ -15270,11 +16592,11 @@
       <c r="W35" s="26"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A36" s="117"/>
-      <c r="B36" s="91" t="s">
+      <c r="A36" s="109"/>
+      <c r="B36" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="91" t="s">
+      <c r="C36" s="103" t="s">
         <v>10</v>
       </c>
       <c r="D36" s="23">
@@ -15333,9 +16655,9 @@
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A37" s="117"/>
-      <c r="B37" s="91"/>
-      <c r="C37" s="91"/>
+      <c r="A37" s="109"/>
+      <c r="B37" s="103"/>
+      <c r="C37" s="103"/>
       <c r="D37" s="23">
         <v>2</v>
       </c>
@@ -15388,9 +16710,9 @@
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A38" s="117"/>
-      <c r="B38" s="91"/>
-      <c r="C38" s="91"/>
+      <c r="A38" s="109"/>
+      <c r="B38" s="103"/>
+      <c r="C38" s="103"/>
       <c r="D38" s="23">
         <v>3</v>
       </c>
@@ -15443,9 +16765,9 @@
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A39" s="117"/>
-      <c r="B39" s="91"/>
-      <c r="C39" s="91"/>
+      <c r="A39" s="109"/>
+      <c r="B39" s="103"/>
+      <c r="C39" s="103"/>
       <c r="D39" s="23">
         <v>4</v>
       </c>
@@ -15498,9 +16820,9 @@
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A40" s="118"/>
-      <c r="B40" s="91"/>
-      <c r="C40" s="91"/>
+      <c r="A40" s="110"/>
+      <c r="B40" s="103"/>
+      <c r="C40" s="103"/>
       <c r="D40" s="23">
         <v>5</v>
       </c>
@@ -15583,10 +16905,10 @@
       <c r="A42" s="82" t="s">
         <v>294</v>
       </c>
-      <c r="B42" s="91" t="s">
+      <c r="B42" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="91" t="s">
+      <c r="C42" s="103" t="s">
         <v>98</v>
       </c>
       <c r="D42" s="23">
@@ -15626,8 +16948,8 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A43" s="82"/>
-      <c r="B43" s="91"/>
-      <c r="C43" s="91"/>
+      <c r="B43" s="103"/>
+      <c r="C43" s="103"/>
       <c r="D43" s="23">
         <v>2</v>
       </c>
@@ -15661,8 +16983,8 @@
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A44" s="82"/>
-      <c r="B44" s="91"/>
-      <c r="C44" s="91"/>
+      <c r="B44" s="103"/>
+      <c r="C44" s="103"/>
       <c r="D44" s="23">
         <v>3</v>
       </c>
@@ -15696,8 +17018,8 @@
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A45" s="82"/>
-      <c r="B45" s="91"/>
-      <c r="C45" s="91"/>
+      <c r="B45" s="103"/>
+      <c r="C45" s="103"/>
       <c r="D45" s="23">
         <v>4</v>
       </c>
@@ -15731,8 +17053,8 @@
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A46" s="82"/>
-      <c r="B46" s="91"/>
-      <c r="C46" s="91"/>
+      <c r="B46" s="103"/>
+      <c r="C46" s="103"/>
       <c r="D46" s="23">
         <v>5</v>
       </c>
@@ -15766,7 +17088,7 @@
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A47" s="82"/>
-      <c r="B47" s="91"/>
+      <c r="B47" s="103"/>
       <c r="C47" s="26"/>
       <c r="D47" s="23"/>
       <c r="E47" s="23"/>
@@ -15783,7 +17105,7 @@
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A48" s="82"/>
-      <c r="B48" s="91"/>
+      <c r="B48" s="103"/>
       <c r="C48" s="26"/>
       <c r="D48" s="23"/>
       <c r="E48" s="23"/>
@@ -15800,8 +17122,8 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A49" s="82"/>
-      <c r="B49" s="91"/>
-      <c r="C49" s="91" t="s">
+      <c r="B49" s="103"/>
+      <c r="C49" s="103" t="s">
         <v>2</v>
       </c>
       <c r="D49" s="23">
@@ -15841,8 +17163,8 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A50" s="82"/>
-      <c r="B50" s="91"/>
-      <c r="C50" s="91"/>
+      <c r="B50" s="103"/>
+      <c r="C50" s="103"/>
       <c r="D50" s="23">
         <v>2</v>
       </c>
@@ -15876,8 +17198,8 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A51" s="82"/>
-      <c r="B51" s="91"/>
-      <c r="C51" s="91"/>
+      <c r="B51" s="103"/>
+      <c r="C51" s="103"/>
       <c r="D51" s="23">
         <v>3</v>
       </c>
@@ -15911,8 +17233,8 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A52" s="82"/>
-      <c r="B52" s="91"/>
-      <c r="C52" s="91"/>
+      <c r="B52" s="103"/>
+      <c r="C52" s="103"/>
       <c r="D52" s="23">
         <v>4</v>
       </c>
@@ -15946,8 +17268,8 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A53" s="82"/>
-      <c r="B53" s="91"/>
-      <c r="C53" s="91"/>
+      <c r="B53" s="103"/>
+      <c r="C53" s="103"/>
       <c r="D53" s="23">
         <v>5</v>
       </c>
@@ -15981,7 +17303,7 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A54" s="82"/>
-      <c r="B54" s="91"/>
+      <c r="B54" s="103"/>
       <c r="C54" s="26"/>
       <c r="D54" s="23"/>
       <c r="E54" s="23"/>
@@ -15998,10 +17320,10 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A55" s="82"/>
-      <c r="B55" s="91" t="s">
+      <c r="B55" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="91" t="s">
+      <c r="C55" s="103" t="s">
         <v>10</v>
       </c>
       <c r="D55" s="23">
@@ -16041,8 +17363,8 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A56" s="82"/>
-      <c r="B56" s="91"/>
-      <c r="C56" s="91"/>
+      <c r="B56" s="103"/>
+      <c r="C56" s="103"/>
       <c r="D56" s="23">
         <v>2</v>
       </c>
@@ -16076,8 +17398,8 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A57" s="82"/>
-      <c r="B57" s="91"/>
-      <c r="C57" s="91"/>
+      <c r="B57" s="103"/>
+      <c r="C57" s="103"/>
       <c r="D57" s="23">
         <v>3</v>
       </c>
@@ -16111,8 +17433,8 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A58" s="82"/>
-      <c r="B58" s="91"/>
-      <c r="C58" s="91"/>
+      <c r="B58" s="103"/>
+      <c r="C58" s="103"/>
       <c r="D58" s="23">
         <v>4</v>
       </c>
@@ -16146,8 +17468,8 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A59" s="82"/>
-      <c r="B59" s="91"/>
-      <c r="C59" s="91"/>
+      <c r="B59" s="103"/>
+      <c r="C59" s="103"/>
       <c r="D59" s="23">
         <v>5</v>
       </c>
@@ -16210,10 +17532,10 @@
       <c r="A61" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="B61" s="91" t="s">
+      <c r="B61" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="91" t="s">
+      <c r="C61" s="103" t="s">
         <v>98</v>
       </c>
       <c r="D61" s="23">
@@ -16255,8 +17577,8 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A62" s="82"/>
-      <c r="B62" s="91"/>
-      <c r="C62" s="91"/>
+      <c r="B62" s="103"/>
+      <c r="C62" s="103"/>
       <c r="D62" s="23">
         <v>2</v>
       </c>
@@ -16290,8 +17612,8 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A63" s="82"/>
-      <c r="B63" s="91"/>
-      <c r="C63" s="91"/>
+      <c r="B63" s="103"/>
+      <c r="C63" s="103"/>
       <c r="D63" s="23">
         <v>3</v>
       </c>
@@ -16325,8 +17647,8 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A64" s="82"/>
-      <c r="B64" s="91"/>
-      <c r="C64" s="91"/>
+      <c r="B64" s="103"/>
+      <c r="C64" s="103"/>
       <c r="D64" s="23">
         <v>4</v>
       </c>
@@ -16360,8 +17682,8 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A65" s="82"/>
-      <c r="B65" s="91"/>
-      <c r="C65" s="91"/>
+      <c r="B65" s="103"/>
+      <c r="C65" s="103"/>
       <c r="D65" s="23">
         <v>5</v>
       </c>
@@ -16395,7 +17717,7 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A66" s="82"/>
-      <c r="B66" s="91"/>
+      <c r="B66" s="103"/>
       <c r="C66" s="26"/>
       <c r="D66" s="23"/>
       <c r="E66" s="23"/>
@@ -16412,7 +17734,7 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A67" s="82"/>
-      <c r="B67" s="91"/>
+      <c r="B67" s="103"/>
       <c r="C67" s="26"/>
       <c r="D67" s="23"/>
       <c r="E67" s="23"/>
@@ -16429,8 +17751,8 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A68" s="82"/>
-      <c r="B68" s="91"/>
-      <c r="C68" s="91" t="s">
+      <c r="B68" s="103"/>
+      <c r="C68" s="103" t="s">
         <v>2</v>
       </c>
       <c r="D68" s="23">
@@ -16472,8 +17794,8 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A69" s="82"/>
-      <c r="B69" s="91"/>
-      <c r="C69" s="91"/>
+      <c r="B69" s="103"/>
+      <c r="C69" s="103"/>
       <c r="D69" s="23">
         <v>2</v>
       </c>
@@ -16507,8 +17829,8 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A70" s="82"/>
-      <c r="B70" s="91"/>
-      <c r="C70" s="91"/>
+      <c r="B70" s="103"/>
+      <c r="C70" s="103"/>
       <c r="D70" s="23">
         <v>3</v>
       </c>
@@ -16542,8 +17864,8 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A71" s="82"/>
-      <c r="B71" s="91"/>
-      <c r="C71" s="91"/>
+      <c r="B71" s="103"/>
+      <c r="C71" s="103"/>
       <c r="D71" s="23">
         <v>4</v>
       </c>
@@ -16577,8 +17899,8 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A72" s="82"/>
-      <c r="B72" s="91"/>
-      <c r="C72" s="91"/>
+      <c r="B72" s="103"/>
+      <c r="C72" s="103"/>
       <c r="D72" s="23">
         <v>5</v>
       </c>
@@ -16612,7 +17934,7 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A73" s="82"/>
-      <c r="B73" s="91"/>
+      <c r="B73" s="103"/>
       <c r="C73" s="26"/>
       <c r="D73" s="23"/>
       <c r="E73" s="23"/>
@@ -16629,10 +17951,10 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A74" s="82"/>
-      <c r="B74" s="91" t="s">
+      <c r="B74" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C74" s="91" t="s">
+      <c r="C74" s="103" t="s">
         <v>10</v>
       </c>
       <c r="D74" s="23">
@@ -16674,8 +17996,8 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A75" s="82"/>
-      <c r="B75" s="91"/>
-      <c r="C75" s="91"/>
+      <c r="B75" s="103"/>
+      <c r="C75" s="103"/>
       <c r="D75" s="23">
         <v>2</v>
       </c>
@@ -16709,8 +18031,8 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A76" s="82"/>
-      <c r="B76" s="91"/>
-      <c r="C76" s="91"/>
+      <c r="B76" s="103"/>
+      <c r="C76" s="103"/>
       <c r="D76" s="23">
         <v>3</v>
       </c>
@@ -16744,8 +18066,8 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A77" s="82"/>
-      <c r="B77" s="91"/>
-      <c r="C77" s="91"/>
+      <c r="B77" s="103"/>
+      <c r="C77" s="103"/>
       <c r="D77" s="23">
         <v>4</v>
       </c>
@@ -16779,8 +18101,8 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A78" s="82"/>
-      <c r="B78" s="91"/>
-      <c r="C78" s="91"/>
+      <c r="B78" s="103"/>
+      <c r="C78" s="103"/>
       <c r="D78" s="23">
         <v>5</v>
       </c>
@@ -16904,6 +18226,61 @@
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="G42:G46"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="F30:F34"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="E36:E40"/>
+    <mergeCell ref="F36:F40"/>
+    <mergeCell ref="E49:E53"/>
+    <mergeCell ref="F49:F53"/>
+    <mergeCell ref="A42:A59"/>
+    <mergeCell ref="B42:B54"/>
+    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="E42:E46"/>
+    <mergeCell ref="F42:F46"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="E55:E59"/>
+    <mergeCell ref="F55:F59"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="H41:O41"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="G17:G21"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="F17:F21"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="F74:F78"/>
+    <mergeCell ref="G49:G53"/>
+    <mergeCell ref="Q3:V3"/>
+    <mergeCell ref="A4:A21"/>
+    <mergeCell ref="B4:B16"/>
+    <mergeCell ref="A23:A40"/>
+    <mergeCell ref="B23:B35"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="G30:G34"/>
+    <mergeCell ref="G36:G40"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="F23:F27"/>
+    <mergeCell ref="J9:Q9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:C15"/>
     <mergeCell ref="G55:G59"/>
     <mergeCell ref="G68:G72"/>
     <mergeCell ref="G74:G78"/>
@@ -16920,61 +18297,6 @@
     <mergeCell ref="B74:B78"/>
     <mergeCell ref="C74:C78"/>
     <mergeCell ref="E74:E78"/>
-    <mergeCell ref="F74:F78"/>
-    <mergeCell ref="G49:G53"/>
-    <mergeCell ref="Q3:V3"/>
-    <mergeCell ref="A4:A21"/>
-    <mergeCell ref="B4:B16"/>
-    <mergeCell ref="A23:A40"/>
-    <mergeCell ref="B23:B35"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="G30:G34"/>
-    <mergeCell ref="G36:G40"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="F23:F27"/>
-    <mergeCell ref="J9:Q9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="H3:O3"/>
-    <mergeCell ref="E11:E15"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="G17:G21"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="F17:F21"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="E30:E34"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="H41:O41"/>
-    <mergeCell ref="A42:A59"/>
-    <mergeCell ref="B42:B54"/>
-    <mergeCell ref="C42:C46"/>
-    <mergeCell ref="E42:E46"/>
-    <mergeCell ref="F42:F46"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="C55:C59"/>
-    <mergeCell ref="E55:E59"/>
-    <mergeCell ref="F55:F59"/>
-    <mergeCell ref="G42:G46"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="C36:C40"/>
-    <mergeCell ref="E36:E40"/>
-    <mergeCell ref="F36:F40"/>
-    <mergeCell ref="E49:E53"/>
-    <mergeCell ref="F49:F53"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17047,15 +18369,15 @@
       <c r="C4" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="91"/>
+      <c r="D4" s="103"/>
       <c r="E4" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="91"/>
+      <c r="F4" s="103"/>
       <c r="G4" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="91"/>
+      <c r="H4" s="103"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
@@ -17080,7 +18402,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="103" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="1">
@@ -17106,7 +18428,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="91"/>
+      <c r="A7" s="103"/>
       <c r="B7" s="1">
         <v>2</v>
       </c>
@@ -17130,7 +18452,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="91"/>
+      <c r="A8" s="103"/>
       <c r="B8" s="1">
         <v>3</v>
       </c>
@@ -17154,7 +18476,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="91"/>
+      <c r="A9" s="103"/>
       <c r="B9" s="7">
         <v>4</v>
       </c>
@@ -17178,7 +18500,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="91"/>
+      <c r="A10" s="103"/>
       <c r="B10" s="7">
         <v>5</v>
       </c>
@@ -17202,7 +18524,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="103" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="1">
@@ -17228,7 +18550,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="91"/>
+      <c r="A12" s="103"/>
       <c r="B12" s="1">
         <v>2</v>
       </c>
@@ -17252,7 +18574,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="91"/>
+      <c r="A13" s="103"/>
       <c r="B13" s="1">
         <v>3</v>
       </c>
@@ -17276,7 +18598,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="91"/>
+      <c r="A14" s="103"/>
       <c r="B14" s="7">
         <v>4</v>
       </c>
@@ -17300,7 +18622,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="91"/>
+      <c r="A15" s="103"/>
       <c r="B15" s="7">
         <v>5</v>
       </c>

--- a/数据记录/记录表单.xlsx
+++ b/数据记录/记录表单.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="494">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4320,6 +4320,52 @@
   </si>
   <si>
     <t>预计冬天的数据采集只能在上午了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午12:28</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:36 太阳不可见了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳可见 半照射 有云 3块有光</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>下午1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:53</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>忘了记 估计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10min以内</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳不可见 照射未知</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4718,12 +4764,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4731,6 +4771,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -4748,17 +4800,11 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4766,13 +4812,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4808,16 +4857,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4829,7 +4881,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4841,23 +4896,41 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4880,30 +4953,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4921,9 +4970,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5207,14 +5253,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AS57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S42" sqref="S42"/>
+    <sheetView tabSelected="1" topLeftCell="I29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V40" sqref="V40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" customWidth="1"/>
+    <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5222,36 +5269,36 @@
       <c r="A4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="66">
+      <c r="B4" s="68">
         <v>42309</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="66">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="68">
         <v>42310</v>
       </c>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="66">
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="68">
         <v>42311</v>
       </c>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
-      <c r="U4" s="69"/>
-      <c r="V4" s="69"/>
-      <c r="W4" s="69"/>
-      <c r="X4" s="69"/>
-      <c r="Y4" s="70"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="71"/>
+      <c r="T4" s="71"/>
+      <c r="U4" s="71"/>
+      <c r="V4" s="71"/>
+      <c r="W4" s="71"/>
+      <c r="X4" s="71"/>
+      <c r="Y4" s="72"/>
       <c r="Z4" s="59">
         <v>42312</v>
       </c>
@@ -5285,263 +5332,263 @@
       <c r="A5" s="49" t="s">
         <v>447</v>
       </c>
-      <c r="B5" s="71">
+      <c r="B5" s="66">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="71">
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="66">
         <v>0.68819444444444444</v>
       </c>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="63">
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="61">
         <v>0.41041666666666665</v>
       </c>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="63">
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="61">
         <v>0.46597222222222223</v>
       </c>
-      <c r="O5" s="64"/>
-      <c r="P5" s="64"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="63">
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="61">
         <v>0.52916666666666667</v>
       </c>
-      <c r="S5" s="64"/>
-      <c r="T5" s="64"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="63">
+      <c r="S5" s="62"/>
+      <c r="T5" s="62"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="61">
         <v>0.65486111111111112</v>
       </c>
-      <c r="W5" s="64"/>
-      <c r="X5" s="64"/>
-      <c r="Y5" s="65"/>
-      <c r="Z5" s="63">
+      <c r="W5" s="62"/>
+      <c r="X5" s="62"/>
+      <c r="Y5" s="63"/>
+      <c r="Z5" s="61">
         <v>0.57638888888888895</v>
       </c>
-      <c r="AA5" s="64"/>
-      <c r="AB5" s="64"/>
-      <c r="AC5" s="65"/>
-      <c r="AD5" s="63">
+      <c r="AA5" s="62"/>
+      <c r="AB5" s="62"/>
+      <c r="AC5" s="63"/>
+      <c r="AD5" s="61">
         <v>0.65069444444444446</v>
       </c>
-      <c r="AE5" s="64"/>
-      <c r="AF5" s="64"/>
-      <c r="AG5" s="65"/>
-      <c r="AH5" s="63">
+      <c r="AE5" s="62"/>
+      <c r="AF5" s="62"/>
+      <c r="AG5" s="63"/>
+      <c r="AH5" s="61">
         <v>0.53819444444444442</v>
       </c>
-      <c r="AI5" s="64"/>
-      <c r="AJ5" s="64"/>
-      <c r="AK5" s="65"/>
-      <c r="AL5" s="63">
+      <c r="AI5" s="62"/>
+      <c r="AJ5" s="62"/>
+      <c r="AK5" s="63"/>
+      <c r="AL5" s="61">
         <v>0.5395833333333333</v>
       </c>
-      <c r="AM5" s="64"/>
-      <c r="AN5" s="64"/>
-      <c r="AO5" s="65"/>
-      <c r="AP5" s="63">
+      <c r="AM5" s="62"/>
+      <c r="AN5" s="62"/>
+      <c r="AO5" s="63"/>
+      <c r="AP5" s="61">
         <v>0.57291666666666663</v>
       </c>
-      <c r="AQ5" s="64"/>
-      <c r="AR5" s="64"/>
-      <c r="AS5" s="65"/>
+      <c r="AQ5" s="62"/>
+      <c r="AR5" s="62"/>
+      <c r="AS5" s="63"/>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A6" s="49" t="s">
         <v>448</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="61" t="s">
         <v>462</v>
       </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="63"/>
-      <c r="S6" s="64"/>
-      <c r="T6" s="64"/>
-      <c r="U6" s="65"/>
-      <c r="V6" s="63"/>
-      <c r="W6" s="64"/>
-      <c r="X6" s="64"/>
-      <c r="Y6" s="65"/>
-      <c r="Z6" s="63"/>
-      <c r="AA6" s="64"/>
-      <c r="AB6" s="64"/>
-      <c r="AC6" s="65"/>
-      <c r="AD6" s="63"/>
-      <c r="AE6" s="64"/>
-      <c r="AF6" s="64"/>
-      <c r="AG6" s="65"/>
-      <c r="AH6" s="63"/>
-      <c r="AI6" s="64"/>
-      <c r="AJ6" s="64"/>
-      <c r="AK6" s="65"/>
-      <c r="AL6" s="63"/>
-      <c r="AM6" s="64"/>
-      <c r="AN6" s="64"/>
-      <c r="AO6" s="65"/>
-      <c r="AP6" s="63"/>
-      <c r="AQ6" s="64"/>
-      <c r="AR6" s="64"/>
-      <c r="AS6" s="65"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="63"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="62"/>
+      <c r="Y6" s="63"/>
+      <c r="Z6" s="61"/>
+      <c r="AA6" s="62"/>
+      <c r="AB6" s="62"/>
+      <c r="AC6" s="63"/>
+      <c r="AD6" s="61"/>
+      <c r="AE6" s="62"/>
+      <c r="AF6" s="62"/>
+      <c r="AG6" s="63"/>
+      <c r="AH6" s="61"/>
+      <c r="AI6" s="62"/>
+      <c r="AJ6" s="62"/>
+      <c r="AK6" s="63"/>
+      <c r="AL6" s="61"/>
+      <c r="AM6" s="62"/>
+      <c r="AN6" s="62"/>
+      <c r="AO6" s="63"/>
+      <c r="AP6" s="61"/>
+      <c r="AQ6" s="62"/>
+      <c r="AR6" s="62"/>
+      <c r="AS6" s="63"/>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A7" s="49" t="s">
         <v>449</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="63">
+      <c r="B7" s="61"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="61">
         <v>0.69444444444444453</v>
       </c>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="63">
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="61">
         <v>0.41666666666666669</v>
       </c>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="63" t="s">
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="61" t="s">
         <v>467</v>
       </c>
-      <c r="O7" s="64"/>
-      <c r="P7" s="64"/>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="63">
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="63"/>
+      <c r="R7" s="61">
         <v>0.53611111111111109</v>
       </c>
-      <c r="S7" s="64"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="65"/>
-      <c r="V7" s="63">
+      <c r="S7" s="62"/>
+      <c r="T7" s="62"/>
+      <c r="U7" s="63"/>
+      <c r="V7" s="61">
         <v>0.66180555555555554</v>
       </c>
-      <c r="W7" s="64"/>
-      <c r="X7" s="64"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="63">
+      <c r="W7" s="62"/>
+      <c r="X7" s="62"/>
+      <c r="Y7" s="63"/>
+      <c r="Z7" s="61">
         <v>0.58402777777777781</v>
       </c>
-      <c r="AA7" s="64"/>
-      <c r="AB7" s="64"/>
-      <c r="AC7" s="65"/>
-      <c r="AD7" s="63">
+      <c r="AA7" s="62"/>
+      <c r="AB7" s="62"/>
+      <c r="AC7" s="63"/>
+      <c r="AD7" s="61">
         <v>0.65694444444444444</v>
       </c>
-      <c r="AE7" s="64"/>
-      <c r="AF7" s="64"/>
-      <c r="AG7" s="65"/>
-      <c r="AH7" s="63">
+      <c r="AE7" s="62"/>
+      <c r="AF7" s="62"/>
+      <c r="AG7" s="63"/>
+      <c r="AH7" s="61">
         <v>0.54513888888888895</v>
       </c>
-      <c r="AI7" s="64"/>
-      <c r="AJ7" s="64"/>
-      <c r="AK7" s="65"/>
-      <c r="AL7" s="63">
+      <c r="AI7" s="62"/>
+      <c r="AJ7" s="62"/>
+      <c r="AK7" s="63"/>
+      <c r="AL7" s="61">
         <v>0.54583333333333328</v>
       </c>
-      <c r="AM7" s="64"/>
-      <c r="AN7" s="64"/>
-      <c r="AO7" s="65"/>
-      <c r="AP7" s="63" t="s">
+      <c r="AM7" s="62"/>
+      <c r="AN7" s="62"/>
+      <c r="AO7" s="63"/>
+      <c r="AP7" s="61" t="s">
         <v>477</v>
       </c>
-      <c r="AQ7" s="64"/>
-      <c r="AR7" s="64"/>
-      <c r="AS7" s="65"/>
+      <c r="AQ7" s="62"/>
+      <c r="AR7" s="62"/>
+      <c r="AS7" s="63"/>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A8" s="49" t="s">
         <v>438</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="66" t="s">
         <v>463</v>
       </c>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71" t="s">
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66" t="s">
         <v>465</v>
       </c>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="62" t="s">
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="64" t="s">
         <v>466</v>
       </c>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62" t="s">
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64" t="s">
         <v>468</v>
       </c>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="61" t="s">
+      <c r="O8" s="64"/>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="67" t="s">
         <v>469</v>
       </c>
-      <c r="S8" s="62"/>
-      <c r="T8" s="62"/>
-      <c r="U8" s="62"/>
-      <c r="V8" s="61" t="s">
+      <c r="S8" s="64"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="67" t="s">
         <v>470</v>
       </c>
-      <c r="W8" s="62"/>
-      <c r="X8" s="62"/>
-      <c r="Y8" s="62"/>
-      <c r="Z8" s="62" t="s">
+      <c r="W8" s="64"/>
+      <c r="X8" s="64"/>
+      <c r="Y8" s="64"/>
+      <c r="Z8" s="64" t="s">
         <v>472</v>
       </c>
-      <c r="AA8" s="62"/>
-      <c r="AB8" s="62"/>
-      <c r="AC8" s="62"/>
-      <c r="AD8" s="61" t="s">
+      <c r="AA8" s="64"/>
+      <c r="AB8" s="64"/>
+      <c r="AC8" s="64"/>
+      <c r="AD8" s="67" t="s">
         <v>473</v>
       </c>
-      <c r="AE8" s="62"/>
-      <c r="AF8" s="62"/>
-      <c r="AG8" s="62"/>
-      <c r="AH8" s="62" t="s">
+      <c r="AE8" s="64"/>
+      <c r="AF8" s="64"/>
+      <c r="AG8" s="64"/>
+      <c r="AH8" s="64" t="s">
         <v>474</v>
       </c>
-      <c r="AI8" s="62"/>
-      <c r="AJ8" s="62"/>
-      <c r="AK8" s="62"/>
-      <c r="AL8" s="62" t="s">
+      <c r="AI8" s="64"/>
+      <c r="AJ8" s="64"/>
+      <c r="AK8" s="64"/>
+      <c r="AL8" s="64" t="s">
         <v>475</v>
       </c>
-      <c r="AM8" s="62"/>
-      <c r="AN8" s="62"/>
-      <c r="AO8" s="62"/>
-      <c r="AP8" s="62" t="s">
+      <c r="AM8" s="64"/>
+      <c r="AN8" s="64"/>
+      <c r="AO8" s="64"/>
+      <c r="AP8" s="64" t="s">
         <v>478</v>
       </c>
-      <c r="AQ8" s="62"/>
-      <c r="AR8" s="62"/>
-      <c r="AS8" s="62"/>
+      <c r="AQ8" s="64"/>
+      <c r="AR8" s="64"/>
+      <c r="AS8" s="64"/>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A9" s="49" t="s">
@@ -8130,12 +8177,12 @@
       <c r="AS28" s="49"/>
     </row>
     <row r="29" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="R29" s="72" t="s">
+      <c r="R29" s="65" t="s">
         <v>471</v>
       </c>
-      <c r="S29" s="72"/>
-      <c r="T29" s="72"/>
-      <c r="U29" s="72"/>
+      <c r="S29" s="65"/>
+      <c r="T29" s="65"/>
+      <c r="U29" s="65"/>
       <c r="AD29">
         <v>22.5</v>
       </c>
@@ -8201,7 +8248,9 @@
       <c r="O32" s="58"/>
       <c r="P32" s="58"/>
       <c r="Q32" s="58"/>
-      <c r="R32" s="59"/>
+      <c r="R32" s="59">
+        <v>42356</v>
+      </c>
       <c r="S32" s="58"/>
       <c r="T32" s="58"/>
       <c r="U32" s="58"/>
@@ -8234,221 +8283,233 @@
       <c r="A33" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="B33" s="63" t="s">
+      <c r="B33" s="61" t="s">
         <v>480</v>
       </c>
-      <c r="C33" s="64"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="63">
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="61">
         <v>0.57361111111111118</v>
       </c>
-      <c r="G33" s="64"/>
-      <c r="H33" s="64"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="63">
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="61">
         <v>0.56874999999999998</v>
       </c>
-      <c r="K33" s="64"/>
-      <c r="L33" s="64"/>
-      <c r="M33" s="65"/>
-      <c r="N33" s="63">
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="63"/>
+      <c r="N33" s="61">
         <v>0.16388888888888889</v>
       </c>
-      <c r="O33" s="64"/>
-      <c r="P33" s="64"/>
-      <c r="Q33" s="65"/>
-      <c r="R33" s="63"/>
-      <c r="S33" s="64"/>
-      <c r="T33" s="64"/>
-      <c r="U33" s="65"/>
-      <c r="V33" s="63"/>
-      <c r="W33" s="64"/>
-      <c r="X33" s="64"/>
-      <c r="Y33" s="65"/>
-      <c r="Z33" s="63"/>
-      <c r="AA33" s="64"/>
-      <c r="AB33" s="64"/>
-      <c r="AC33" s="65"/>
-      <c r="AD33" s="63"/>
-      <c r="AE33" s="64"/>
-      <c r="AF33" s="64"/>
-      <c r="AG33" s="65"/>
-      <c r="AH33" s="63"/>
-      <c r="AI33" s="64"/>
-      <c r="AJ33" s="64"/>
-      <c r="AK33" s="65"/>
-      <c r="AL33" s="63"/>
-      <c r="AM33" s="64"/>
-      <c r="AN33" s="64"/>
-      <c r="AO33" s="65"/>
-      <c r="AP33" s="63"/>
-      <c r="AQ33" s="64"/>
-      <c r="AR33" s="64"/>
-      <c r="AS33" s="65"/>
+      <c r="O33" s="62"/>
+      <c r="P33" s="62"/>
+      <c r="Q33" s="63"/>
+      <c r="R33" s="61" t="s">
+        <v>488</v>
+      </c>
+      <c r="S33" s="62"/>
+      <c r="T33" s="62"/>
+      <c r="U33" s="63"/>
+      <c r="V33" s="73" t="s">
+        <v>491</v>
+      </c>
+      <c r="W33" s="62"/>
+      <c r="X33" s="62"/>
+      <c r="Y33" s="63"/>
+      <c r="Z33" s="61"/>
+      <c r="AA33" s="62"/>
+      <c r="AB33" s="62"/>
+      <c r="AC33" s="63"/>
+      <c r="AD33" s="61"/>
+      <c r="AE33" s="62"/>
+      <c r="AF33" s="62"/>
+      <c r="AG33" s="63"/>
+      <c r="AH33" s="61"/>
+      <c r="AI33" s="62"/>
+      <c r="AJ33" s="62"/>
+      <c r="AK33" s="63"/>
+      <c r="AL33" s="61"/>
+      <c r="AM33" s="62"/>
+      <c r="AN33" s="62"/>
+      <c r="AO33" s="63"/>
+      <c r="AP33" s="61"/>
+      <c r="AQ33" s="62"/>
+      <c r="AR33" s="62"/>
+      <c r="AS33" s="63"/>
     </row>
     <row r="34" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A34" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="B34" s="63"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="63"/>
-      <c r="K34" s="64"/>
-      <c r="L34" s="64"/>
-      <c r="M34" s="65"/>
-      <c r="N34" s="129" t="s">
+      <c r="B34" s="61"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="63"/>
+      <c r="N34" s="73" t="s">
         <v>485</v>
       </c>
-      <c r="O34" s="64"/>
-      <c r="P34" s="64"/>
-      <c r="Q34" s="65"/>
-      <c r="R34" s="63"/>
-      <c r="S34" s="64"/>
-      <c r="T34" s="64"/>
-      <c r="U34" s="65"/>
-      <c r="V34" s="63"/>
-      <c r="W34" s="64"/>
-      <c r="X34" s="64"/>
-      <c r="Y34" s="65"/>
-      <c r="Z34" s="63"/>
-      <c r="AA34" s="64"/>
-      <c r="AB34" s="64"/>
-      <c r="AC34" s="65"/>
-      <c r="AD34" s="63"/>
-      <c r="AE34" s="64"/>
-      <c r="AF34" s="64"/>
-      <c r="AG34" s="65"/>
-      <c r="AH34" s="63"/>
-      <c r="AI34" s="64"/>
-      <c r="AJ34" s="64"/>
-      <c r="AK34" s="65"/>
-      <c r="AL34" s="63"/>
-      <c r="AM34" s="64"/>
-      <c r="AN34" s="64"/>
-      <c r="AO34" s="65"/>
-      <c r="AP34" s="63"/>
-      <c r="AQ34" s="64"/>
-      <c r="AR34" s="64"/>
-      <c r="AS34" s="65"/>
+      <c r="O34" s="62"/>
+      <c r="P34" s="62"/>
+      <c r="Q34" s="63"/>
+      <c r="R34" s="61"/>
+      <c r="S34" s="62"/>
+      <c r="T34" s="62"/>
+      <c r="U34" s="63"/>
+      <c r="V34" s="61"/>
+      <c r="W34" s="62"/>
+      <c r="X34" s="62"/>
+      <c r="Y34" s="63"/>
+      <c r="Z34" s="61"/>
+      <c r="AA34" s="62"/>
+      <c r="AB34" s="62"/>
+      <c r="AC34" s="63"/>
+      <c r="AD34" s="61"/>
+      <c r="AE34" s="62"/>
+      <c r="AF34" s="62"/>
+      <c r="AG34" s="63"/>
+      <c r="AH34" s="61"/>
+      <c r="AI34" s="62"/>
+      <c r="AJ34" s="62"/>
+      <c r="AK34" s="63"/>
+      <c r="AL34" s="61"/>
+      <c r="AM34" s="62"/>
+      <c r="AN34" s="62"/>
+      <c r="AO34" s="63"/>
+      <c r="AP34" s="61"/>
+      <c r="AQ34" s="62"/>
+      <c r="AR34" s="62"/>
+      <c r="AS34" s="63"/>
     </row>
     <row r="35" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A35" s="49" t="s">
         <v>449</v>
       </c>
-      <c r="B35" s="63">
+      <c r="B35" s="61">
         <v>0.70138888888888884</v>
       </c>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="63">
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="61">
         <v>0.5805555555555556</v>
       </c>
-      <c r="G35" s="64"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="65"/>
-      <c r="J35" s="129" t="s">
+      <c r="G35" s="62"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="73" t="s">
         <v>483</v>
       </c>
-      <c r="K35" s="64"/>
-      <c r="L35" s="64"/>
-      <c r="M35" s="65"/>
-      <c r="N35" s="63"/>
-      <c r="O35" s="64"/>
-      <c r="P35" s="64"/>
-      <c r="Q35" s="65"/>
-      <c r="R35" s="63"/>
-      <c r="S35" s="64"/>
-      <c r="T35" s="64"/>
-      <c r="U35" s="65"/>
-      <c r="V35" s="63"/>
-      <c r="W35" s="64"/>
-      <c r="X35" s="64"/>
-      <c r="Y35" s="65"/>
-      <c r="Z35" s="63"/>
-      <c r="AA35" s="64"/>
-      <c r="AB35" s="64"/>
-      <c r="AC35" s="65"/>
-      <c r="AD35" s="63"/>
-      <c r="AE35" s="64"/>
-      <c r="AF35" s="64"/>
-      <c r="AG35" s="65"/>
-      <c r="AH35" s="63"/>
-      <c r="AI35" s="64"/>
-      <c r="AJ35" s="64"/>
-      <c r="AK35" s="65"/>
-      <c r="AL35" s="63"/>
-      <c r="AM35" s="64"/>
-      <c r="AN35" s="64"/>
-      <c r="AO35" s="65"/>
-      <c r="AP35" s="63"/>
-      <c r="AQ35" s="64"/>
-      <c r="AR35" s="64"/>
-      <c r="AS35" s="65"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="62"/>
+      <c r="M35" s="63"/>
+      <c r="N35" s="61"/>
+      <c r="O35" s="62"/>
+      <c r="P35" s="62"/>
+      <c r="Q35" s="63"/>
+      <c r="R35" s="61" t="s">
+        <v>489</v>
+      </c>
+      <c r="S35" s="62"/>
+      <c r="T35" s="62"/>
+      <c r="U35" s="63"/>
+      <c r="V35" s="73" t="s">
+        <v>492</v>
+      </c>
+      <c r="W35" s="62"/>
+      <c r="X35" s="62"/>
+      <c r="Y35" s="63"/>
+      <c r="Z35" s="61"/>
+      <c r="AA35" s="62"/>
+      <c r="AB35" s="62"/>
+      <c r="AC35" s="63"/>
+      <c r="AD35" s="61"/>
+      <c r="AE35" s="62"/>
+      <c r="AF35" s="62"/>
+      <c r="AG35" s="63"/>
+      <c r="AH35" s="61"/>
+      <c r="AI35" s="62"/>
+      <c r="AJ35" s="62"/>
+      <c r="AK35" s="63"/>
+      <c r="AL35" s="61"/>
+      <c r="AM35" s="62"/>
+      <c r="AN35" s="62"/>
+      <c r="AO35" s="63"/>
+      <c r="AP35" s="61"/>
+      <c r="AQ35" s="62"/>
+      <c r="AR35" s="62"/>
+      <c r="AS35" s="63"/>
     </row>
     <row r="36" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A36" s="49" t="s">
         <v>438</v>
       </c>
-      <c r="B36" s="62" t="s">
+      <c r="B36" s="64" t="s">
         <v>481</v>
       </c>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62" t="s">
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="64" t="s">
         <v>482</v>
       </c>
-      <c r="G36" s="62"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="62"/>
-      <c r="J36" s="61" t="s">
+      <c r="G36" s="64"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="67" t="s">
         <v>484</v>
       </c>
-      <c r="K36" s="62"/>
-      <c r="L36" s="62"/>
-      <c r="M36" s="62"/>
-      <c r="N36" s="61" t="s">
+      <c r="K36" s="64"/>
+      <c r="L36" s="64"/>
+      <c r="M36" s="64"/>
+      <c r="N36" s="67" t="s">
         <v>486</v>
       </c>
-      <c r="O36" s="62"/>
-      <c r="P36" s="62"/>
-      <c r="Q36" s="62"/>
-      <c r="R36" s="62"/>
-      <c r="S36" s="62"/>
-      <c r="T36" s="62"/>
-      <c r="U36" s="62"/>
-      <c r="V36" s="62"/>
-      <c r="W36" s="62"/>
-      <c r="X36" s="62"/>
-      <c r="Y36" s="62"/>
-      <c r="Z36" s="62"/>
-      <c r="AA36" s="62"/>
-      <c r="AB36" s="62"/>
-      <c r="AC36" s="62"/>
-      <c r="AD36" s="62"/>
-      <c r="AE36" s="62"/>
-      <c r="AF36" s="62"/>
-      <c r="AG36" s="62"/>
-      <c r="AH36" s="62"/>
-      <c r="AI36" s="62"/>
-      <c r="AJ36" s="62"/>
-      <c r="AK36" s="62"/>
-      <c r="AL36" s="62"/>
-      <c r="AM36" s="62"/>
-      <c r="AN36" s="62"/>
-      <c r="AO36" s="62"/>
-      <c r="AP36" s="62"/>
-      <c r="AQ36" s="62"/>
-      <c r="AR36" s="62"/>
-      <c r="AS36" s="62"/>
+      <c r="O36" s="64"/>
+      <c r="P36" s="64"/>
+      <c r="Q36" s="64"/>
+      <c r="R36" s="64" t="s">
+        <v>490</v>
+      </c>
+      <c r="S36" s="64"/>
+      <c r="T36" s="64"/>
+      <c r="U36" s="64"/>
+      <c r="V36" s="67" t="s">
+        <v>493</v>
+      </c>
+      <c r="W36" s="64"/>
+      <c r="X36" s="64"/>
+      <c r="Y36" s="64"/>
+      <c r="Z36" s="64"/>
+      <c r="AA36" s="64"/>
+      <c r="AB36" s="64"/>
+      <c r="AC36" s="64"/>
+      <c r="AD36" s="64"/>
+      <c r="AE36" s="64"/>
+      <c r="AF36" s="64"/>
+      <c r="AG36" s="64"/>
+      <c r="AH36" s="64"/>
+      <c r="AI36" s="64"/>
+      <c r="AJ36" s="64"/>
+      <c r="AK36" s="64"/>
+      <c r="AL36" s="64"/>
+      <c r="AM36" s="64"/>
+      <c r="AN36" s="64"/>
+      <c r="AO36" s="64"/>
+      <c r="AP36" s="64"/>
+      <c r="AQ36" s="64"/>
+      <c r="AR36" s="64"/>
+      <c r="AS36" s="64"/>
     </row>
     <row r="37" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A37" s="49" t="s">
@@ -8639,13 +8700,21 @@
       <c r="Q38" s="50" t="s">
         <v>440</v>
       </c>
-      <c r="R38" s="49"/>
-      <c r="S38" s="49"/>
-      <c r="T38" s="49"/>
+      <c r="R38" s="49">
+        <v>10.77</v>
+      </c>
+      <c r="S38" s="49">
+        <v>0.09</v>
+      </c>
+      <c r="T38" s="49">
+        <v>232.8</v>
+      </c>
       <c r="U38" s="50" t="s">
         <v>440</v>
       </c>
-      <c r="V38" s="49"/>
+      <c r="V38" s="49">
+        <v>10.73</v>
+      </c>
       <c r="W38" s="49"/>
       <c r="X38" s="49"/>
       <c r="Y38" s="50" t="s">
@@ -8734,11 +8803,21 @@
       <c r="Q39" s="49">
         <v>10</v>
       </c>
-      <c r="R39" s="49"/>
-      <c r="S39" s="49"/>
-      <c r="T39" s="49"/>
-      <c r="U39" s="49"/>
-      <c r="V39" s="49"/>
+      <c r="R39" s="49">
+        <v>10.79</v>
+      </c>
+      <c r="S39" s="49">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="T39" s="49">
+        <v>238</v>
+      </c>
+      <c r="U39" s="49">
+        <v>10.1</v>
+      </c>
+      <c r="V39" s="49">
+        <v>10.71</v>
+      </c>
       <c r="W39" s="49"/>
       <c r="X39" s="49"/>
       <c r="Y39" s="49"/>
@@ -8815,10 +8894,18 @@
       <c r="Q40" s="49">
         <v>27.2</v>
       </c>
-      <c r="R40" s="49"/>
-      <c r="S40" s="49"/>
-      <c r="T40" s="49"/>
-      <c r="U40" s="49"/>
+      <c r="R40" s="49">
+        <v>10.92</v>
+      </c>
+      <c r="S40" s="49">
+        <v>0.114</v>
+      </c>
+      <c r="T40" s="49">
+        <v>352.5</v>
+      </c>
+      <c r="U40" s="49">
+        <v>33.700000000000003</v>
+      </c>
       <c r="V40" s="49"/>
       <c r="W40" s="49"/>
       <c r="X40" s="49"/>
@@ -8888,9 +8975,15 @@
         <v>55.5</v>
       </c>
       <c r="Q41" s="49"/>
-      <c r="R41" s="49"/>
-      <c r="S41" s="49"/>
-      <c r="T41" s="49"/>
+      <c r="R41" s="49">
+        <v>10.92</v>
+      </c>
+      <c r="S41" s="49">
+        <v>0.124</v>
+      </c>
+      <c r="T41" s="49">
+        <v>363.8</v>
+      </c>
       <c r="U41" s="49"/>
       <c r="V41" s="49"/>
       <c r="W41" s="49"/>
@@ -8961,9 +9054,15 @@
         <v>55.5</v>
       </c>
       <c r="Q42" s="49"/>
-      <c r="R42" s="49"/>
-      <c r="S42" s="49"/>
-      <c r="T42" s="49"/>
+      <c r="R42" s="49">
+        <v>10.75</v>
+      </c>
+      <c r="S42" s="49">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="T42" s="49">
+        <v>241.5</v>
+      </c>
       <c r="U42" s="49"/>
       <c r="V42" s="49"/>
       <c r="W42" s="49"/>
@@ -9042,9 +9141,15 @@
       <c r="Q43" s="50" t="s">
         <v>441</v>
       </c>
-      <c r="R43" s="49"/>
-      <c r="S43" s="49"/>
-      <c r="T43" s="49"/>
+      <c r="R43" s="49">
+        <v>10.71</v>
+      </c>
+      <c r="S43" s="49">
+        <v>0.157</v>
+      </c>
+      <c r="T43" s="49">
+        <v>200.1</v>
+      </c>
       <c r="U43" s="50" t="s">
         <v>441</v>
       </c>
@@ -9137,10 +9242,18 @@
       <c r="Q44" s="49">
         <v>9.9</v>
       </c>
-      <c r="R44" s="49"/>
-      <c r="S44" s="49"/>
-      <c r="T44" s="49"/>
-      <c r="U44" s="49"/>
+      <c r="R44" s="49">
+        <v>10.68</v>
+      </c>
+      <c r="S44" s="49">
+        <v>0.183</v>
+      </c>
+      <c r="T44" s="49">
+        <v>177.5</v>
+      </c>
+      <c r="U44" s="49">
+        <v>10.199999999999999</v>
+      </c>
       <c r="V44" s="49"/>
       <c r="W44" s="49"/>
       <c r="X44" s="49"/>
@@ -9218,10 +9331,18 @@
       <c r="Q45" s="49">
         <v>27.3</v>
       </c>
-      <c r="R45" s="49"/>
-      <c r="S45" s="49"/>
-      <c r="T45" s="49"/>
-      <c r="U45" s="49"/>
+      <c r="R45" s="49">
+        <v>10.66</v>
+      </c>
+      <c r="S45" s="49">
+        <v>0.221</v>
+      </c>
+      <c r="T45" s="49">
+        <v>168.8</v>
+      </c>
+      <c r="U45" s="49">
+        <v>34.200000000000003</v>
+      </c>
       <c r="V45" s="49"/>
       <c r="W45" s="49"/>
       <c r="X45" s="49"/>
@@ -9291,9 +9412,15 @@
         <v>77.3</v>
       </c>
       <c r="Q46" s="49"/>
-      <c r="R46" s="49"/>
-      <c r="S46" s="49"/>
-      <c r="T46" s="49"/>
+      <c r="R46" s="49">
+        <v>10.61</v>
+      </c>
+      <c r="S46" s="49">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="T46" s="49">
+        <v>162.69999999999999</v>
+      </c>
       <c r="U46" s="49"/>
       <c r="V46" s="49"/>
       <c r="W46" s="49"/>
@@ -9364,9 +9491,15 @@
         <v>83.1</v>
       </c>
       <c r="Q47" s="49"/>
-      <c r="R47" s="49"/>
-      <c r="S47" s="49"/>
-      <c r="T47" s="49"/>
+      <c r="R47" s="49">
+        <v>10.54</v>
+      </c>
+      <c r="S47" s="49">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="T47" s="49">
+        <v>156</v>
+      </c>
       <c r="U47" s="49"/>
       <c r="V47" s="49"/>
       <c r="W47" s="49"/>
@@ -9445,9 +9578,15 @@
       <c r="Q48" s="50" t="s">
         <v>442</v>
       </c>
-      <c r="R48" s="49"/>
-      <c r="S48" s="49"/>
-      <c r="T48" s="49"/>
+      <c r="R48" s="49">
+        <v>10.41</v>
+      </c>
+      <c r="S48" s="49">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="T48" s="49">
+        <v>152.6</v>
+      </c>
       <c r="U48" s="50" t="s">
         <v>442</v>
       </c>
@@ -9540,10 +9679,18 @@
       <c r="Q49" s="49">
         <v>9.9</v>
       </c>
-      <c r="R49" s="49"/>
-      <c r="S49" s="49"/>
-      <c r="T49" s="49"/>
-      <c r="U49" s="49"/>
+      <c r="R49" s="49">
+        <v>9.36</v>
+      </c>
+      <c r="S49" s="49">
+        <v>1.2969999999999999</v>
+      </c>
+      <c r="T49" s="49">
+        <v>146.80000000000001</v>
+      </c>
+      <c r="U49" s="49">
+        <v>9.6999999999999993</v>
+      </c>
       <c r="V49" s="49"/>
       <c r="W49" s="49"/>
       <c r="X49" s="49"/>
@@ -9621,10 +9768,18 @@
       <c r="Q50" s="49">
         <v>27.3</v>
       </c>
-      <c r="R50" s="49"/>
-      <c r="S50" s="49"/>
-      <c r="T50" s="49"/>
-      <c r="U50" s="49"/>
+      <c r="R50" s="49">
+        <v>7.83</v>
+      </c>
+      <c r="S50" s="49">
+        <v>1.276</v>
+      </c>
+      <c r="T50" s="49">
+        <v>140</v>
+      </c>
+      <c r="U50" s="49">
+        <v>34.4</v>
+      </c>
       <c r="V50" s="49"/>
       <c r="W50" s="49"/>
       <c r="X50" s="49"/>
@@ -9694,9 +9849,15 @@
         <v>83.1</v>
       </c>
       <c r="Q51" s="49"/>
-      <c r="R51" s="49"/>
-      <c r="S51" s="49"/>
-      <c r="T51" s="49"/>
+      <c r="R51" s="49">
+        <v>6.29</v>
+      </c>
+      <c r="S51" s="49">
+        <v>1.2470000000000001</v>
+      </c>
+      <c r="T51" s="49">
+        <v>134.19999999999999</v>
+      </c>
       <c r="U51" s="49"/>
       <c r="V51" s="49"/>
       <c r="W51" s="49"/>
@@ -9767,9 +9928,15 @@
         <v>56.6</v>
       </c>
       <c r="Q52" s="49"/>
-      <c r="R52" s="49"/>
-      <c r="S52" s="49"/>
-      <c r="T52" s="49"/>
+      <c r="R52" s="49">
+        <v>4.84</v>
+      </c>
+      <c r="S52" s="49">
+        <v>1.23</v>
+      </c>
+      <c r="T52" s="49">
+        <v>130</v>
+      </c>
       <c r="U52" s="49"/>
       <c r="V52" s="49"/>
       <c r="W52" s="49"/>
@@ -9848,9 +10015,15 @@
       <c r="Q53" s="50" t="s">
         <v>443</v>
       </c>
-      <c r="R53" s="49"/>
-      <c r="S53" s="49"/>
-      <c r="T53" s="49"/>
+      <c r="R53" s="49">
+        <v>3.66</v>
+      </c>
+      <c r="S53" s="49">
+        <v>1.2170000000000001</v>
+      </c>
+      <c r="T53" s="49">
+        <v>130.9</v>
+      </c>
       <c r="U53" s="50" t="s">
         <v>443</v>
       </c>
@@ -9943,10 +10116,18 @@
       <c r="Q54" s="49">
         <v>9.6</v>
       </c>
-      <c r="R54" s="51"/>
-      <c r="S54" s="51"/>
-      <c r="T54" s="49"/>
-      <c r="U54" s="49"/>
+      <c r="R54" s="51">
+        <v>2.2519999999999998</v>
+      </c>
+      <c r="S54" s="51">
+        <v>1.21</v>
+      </c>
+      <c r="T54" s="49">
+        <v>128.30000000000001</v>
+      </c>
+      <c r="U54" s="49">
+        <v>9.6999999999999993</v>
+      </c>
       <c r="V54" s="51"/>
       <c r="W54" s="51"/>
       <c r="X54" s="49"/>
@@ -10024,10 +10205,18 @@
       <c r="Q55" s="49">
         <v>28</v>
       </c>
-      <c r="R55" s="49"/>
-      <c r="S55" s="49"/>
-      <c r="T55" s="49"/>
-      <c r="U55" s="49"/>
+      <c r="R55" s="49">
+        <v>1.214</v>
+      </c>
+      <c r="S55" s="49">
+        <v>1.212</v>
+      </c>
+      <c r="T55" s="49">
+        <v>126.9</v>
+      </c>
+      <c r="U55" s="49">
+        <v>34.200000000000003</v>
+      </c>
       <c r="V55" s="49"/>
       <c r="W55" s="49"/>
       <c r="X55" s="49"/>
@@ -10097,9 +10286,15 @@
         <v>53.8</v>
       </c>
       <c r="Q56" s="49"/>
-      <c r="R56" s="49"/>
-      <c r="S56" s="49"/>
-      <c r="T56" s="49"/>
+      <c r="R56" s="49">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="S56" s="49">
+        <v>1.2150000000000001</v>
+      </c>
+      <c r="T56" s="49">
+        <v>126.1</v>
+      </c>
       <c r="U56" s="49"/>
       <c r="V56" s="49"/>
       <c r="W56" s="49"/>
@@ -10127,15 +10322,92 @@
       <c r="AS56" s="49"/>
     </row>
     <row r="57" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="J57" s="72" t="s">
+      <c r="J57" s="65" t="s">
         <v>487</v>
       </c>
-      <c r="K57" s="72"/>
-      <c r="L57" s="72"/>
-      <c r="M57" s="72"/>
+      <c r="K57" s="65"/>
+      <c r="L57" s="65"/>
+      <c r="M57" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="93">
+    <mergeCell ref="AD8:AG8"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="N33:Q33"/>
+    <mergeCell ref="N34:Q34"/>
+    <mergeCell ref="N35:Q35"/>
+    <mergeCell ref="N36:Q36"/>
+    <mergeCell ref="R33:U33"/>
+    <mergeCell ref="R34:U34"/>
+    <mergeCell ref="R35:U35"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="V5:Y5"/>
+    <mergeCell ref="V6:Y6"/>
+    <mergeCell ref="AP5:AS5"/>
+    <mergeCell ref="AP6:AS6"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Y4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="AP7:AS7"/>
+    <mergeCell ref="AP8:AS8"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="Z7:AC7"/>
+    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="V7:Y7"/>
+    <mergeCell ref="V8:Y8"/>
+    <mergeCell ref="AH5:AK5"/>
+    <mergeCell ref="AH6:AK6"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="AL5:AO5"/>
+    <mergeCell ref="AL6:AO6"/>
+    <mergeCell ref="AL7:AO7"/>
+    <mergeCell ref="AL8:AO8"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="R29:U29"/>
+    <mergeCell ref="AH7:AK7"/>
+    <mergeCell ref="AH8:AK8"/>
+    <mergeCell ref="AD5:AG5"/>
+    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="AD7:AG7"/>
+    <mergeCell ref="R36:U36"/>
+    <mergeCell ref="V33:Y33"/>
+    <mergeCell ref="V34:Y34"/>
+    <mergeCell ref="V35:Y35"/>
+    <mergeCell ref="V36:Y36"/>
+    <mergeCell ref="Z36:AC36"/>
+    <mergeCell ref="AD33:AG33"/>
+    <mergeCell ref="AD34:AG34"/>
+    <mergeCell ref="AD35:AG35"/>
+    <mergeCell ref="AD36:AG36"/>
     <mergeCell ref="AP33:AS33"/>
     <mergeCell ref="AP34:AS34"/>
     <mergeCell ref="AP35:AS35"/>
@@ -10152,83 +10424,6 @@
     <mergeCell ref="Z33:AC33"/>
     <mergeCell ref="Z34:AC34"/>
     <mergeCell ref="Z35:AC35"/>
-    <mergeCell ref="Z36:AC36"/>
-    <mergeCell ref="AD33:AG33"/>
-    <mergeCell ref="AD34:AG34"/>
-    <mergeCell ref="AD35:AG35"/>
-    <mergeCell ref="AD36:AG36"/>
-    <mergeCell ref="R36:U36"/>
-    <mergeCell ref="V33:Y33"/>
-    <mergeCell ref="V34:Y34"/>
-    <mergeCell ref="V35:Y35"/>
-    <mergeCell ref="V36:Y36"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="AL5:AO5"/>
-    <mergeCell ref="AL6:AO6"/>
-    <mergeCell ref="AL7:AO7"/>
-    <mergeCell ref="AL8:AO8"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="R29:U29"/>
-    <mergeCell ref="AH7:AK7"/>
-    <mergeCell ref="AH8:AK8"/>
-    <mergeCell ref="AD5:AG5"/>
-    <mergeCell ref="AD6:AG6"/>
-    <mergeCell ref="AD7:AG7"/>
-    <mergeCell ref="AP7:AS7"/>
-    <mergeCell ref="AP8:AS8"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="R5:U5"/>
-    <mergeCell ref="R6:U6"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="Z7:AC7"/>
-    <mergeCell ref="Z8:AC8"/>
-    <mergeCell ref="V7:Y7"/>
-    <mergeCell ref="V8:Y8"/>
-    <mergeCell ref="AH5:AK5"/>
-    <mergeCell ref="AH6:AK6"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="Z6:AC6"/>
-    <mergeCell ref="V5:Y5"/>
-    <mergeCell ref="V6:Y6"/>
-    <mergeCell ref="AP5:AS5"/>
-    <mergeCell ref="AP6:AS6"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J4:Y4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="AD8:AG8"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="N33:Q33"/>
-    <mergeCell ref="N34:Q34"/>
-    <mergeCell ref="N35:Q35"/>
-    <mergeCell ref="N36:Q36"/>
-    <mergeCell ref="R33:U33"/>
-    <mergeCell ref="R34:U34"/>
-    <mergeCell ref="R35:U35"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10264,33 +10459,33 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="77">
+      <c r="B3" s="74">
         <v>42299</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="77"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="77"/>
-      <c r="Y3" s="77"/>
-      <c r="Z3" s="77">
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="74"/>
+      <c r="T3" s="74"/>
+      <c r="U3" s="74"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="74"/>
+      <c r="X3" s="74"/>
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="74">
         <v>42300</v>
       </c>
       <c r="AA3" s="76"/>
@@ -10380,12 +10575,12 @@
       <c r="W5" s="52"/>
       <c r="X5" s="52"/>
       <c r="Y5" s="52"/>
-      <c r="Z5" s="78" t="s">
+      <c r="Z5" s="77" t="s">
         <v>464</v>
       </c>
-      <c r="AA5" s="79"/>
-      <c r="AB5" s="79"/>
-      <c r="AC5" s="79"/>
+      <c r="AA5" s="78"/>
+      <c r="AB5" s="78"/>
+      <c r="AC5" s="78"/>
       <c r="AD5" s="52"/>
       <c r="AE5" s="52"/>
       <c r="AF5" s="52"/>
@@ -10429,10 +10624,10 @@
       <c r="W6" s="75"/>
       <c r="X6" s="75"/>
       <c r="Y6" s="75"/>
-      <c r="Z6" s="79"/>
-      <c r="AA6" s="79"/>
-      <c r="AB6" s="79"/>
-      <c r="AC6" s="79"/>
+      <c r="Z6" s="78"/>
+      <c r="AA6" s="78"/>
+      <c r="AB6" s="78"/>
+      <c r="AC6" s="78"/>
       <c r="AD6" s="75">
         <v>0.64236111111111105</v>
       </c>
@@ -10662,7 +10857,7 @@
       <c r="C10">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="79" t="s">
         <v>450</v>
       </c>
       <c r="F10">
@@ -10754,7 +10949,7 @@
       <c r="C11">
         <v>0.107</v>
       </c>
-      <c r="D11" s="74"/>
+      <c r="D11" s="80"/>
       <c r="F11">
         <v>10.47</v>
       </c>
@@ -10844,7 +11039,7 @@
       <c r="C12">
         <v>0.11799999999999999</v>
       </c>
-      <c r="D12" s="74"/>
+      <c r="D12" s="80"/>
       <c r="F12">
         <v>10.47</v>
       </c>
@@ -10916,7 +11111,7 @@
       <c r="C13">
         <v>0.13500000000000001</v>
       </c>
-      <c r="D13" s="74"/>
+      <c r="D13" s="80"/>
       <c r="F13">
         <v>10.46</v>
       </c>
@@ -10988,7 +11183,7 @@
       <c r="C14">
         <v>0.154</v>
       </c>
-      <c r="D14" s="74"/>
+      <c r="D14" s="80"/>
       <c r="E14" s="39" t="s">
         <v>441</v>
       </c>
@@ -11084,7 +11279,7 @@
       <c r="C15">
         <v>0.184</v>
       </c>
-      <c r="D15" s="74"/>
+      <c r="D15" s="80"/>
       <c r="F15">
         <v>10.43</v>
       </c>
@@ -11167,7 +11362,7 @@
       <c r="C16">
         <v>0.218</v>
       </c>
-      <c r="D16" s="74"/>
+      <c r="D16" s="80"/>
       <c r="F16">
         <v>10.42</v>
       </c>
@@ -11250,7 +11445,7 @@
       <c r="C17">
         <v>0.27500000000000002</v>
       </c>
-      <c r="D17" s="74"/>
+      <c r="D17" s="80"/>
       <c r="F17">
         <v>10.42</v>
       </c>
@@ -11325,7 +11520,7 @@
       <c r="C18">
         <v>0.42099999999999999</v>
       </c>
-      <c r="D18" s="74"/>
+      <c r="D18" s="80"/>
       <c r="F18">
         <v>10.4</v>
       </c>
@@ -11400,7 +11595,7 @@
       <c r="C19">
         <v>0.61699999999999999</v>
       </c>
-      <c r="D19" s="74"/>
+      <c r="D19" s="80"/>
       <c r="E19" s="39" t="s">
         <v>442</v>
       </c>
@@ -11499,7 +11694,7 @@
       <c r="C20">
         <v>1.425</v>
       </c>
-      <c r="D20" s="74"/>
+      <c r="D20" s="80"/>
       <c r="F20">
         <v>10.3</v>
       </c>
@@ -11589,7 +11784,7 @@
       <c r="C21">
         <v>1.649</v>
       </c>
-      <c r="D21" s="74"/>
+      <c r="D21" s="80"/>
       <c r="F21">
         <v>10.02</v>
       </c>
@@ -11679,7 +11874,7 @@
       <c r="C22">
         <v>2</v>
       </c>
-      <c r="D22" s="74"/>
+      <c r="D22" s="80"/>
       <c r="F22">
         <v>9.94</v>
       </c>
@@ -11754,7 +11949,7 @@
       <c r="C23">
         <v>2.4950000000000001</v>
       </c>
-      <c r="D23" s="74"/>
+      <c r="D23" s="80"/>
       <c r="F23">
         <v>9.82</v>
       </c>
@@ -11829,7 +12024,7 @@
       <c r="C24">
         <v>3.0350000000000001</v>
       </c>
-      <c r="D24" s="74"/>
+      <c r="D24" s="80"/>
       <c r="E24" s="39" t="s">
         <v>443</v>
       </c>
@@ -11928,7 +12123,7 @@
       <c r="C25">
         <v>3.2789999999999999</v>
       </c>
-      <c r="D25" s="74"/>
+      <c r="D25" s="80"/>
       <c r="F25">
         <v>8.9700000000000006</v>
       </c>
@@ -12021,7 +12216,7 @@
       <c r="C26">
         <v>3.3</v>
       </c>
-      <c r="D26" s="74"/>
+      <c r="D26" s="80"/>
       <c r="F26">
         <v>5.95</v>
       </c>
@@ -12114,7 +12309,7 @@
       <c r="C27">
         <v>3.3</v>
       </c>
-      <c r="D27" s="74"/>
+      <c r="D27" s="80"/>
       <c r="F27">
         <v>3.105</v>
       </c>
@@ -12181,6 +12376,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D10:D27"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="R4:U4"/>
     <mergeCell ref="B3:Y3"/>
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="Z3:AG3"/>
@@ -12194,11 +12394,6 @@
     <mergeCell ref="AD4:AG4"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="V4:Y4"/>
-    <mergeCell ref="D10:D27"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="R4:U4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12223,23 +12418,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="80"/>
+      <c r="E1" s="81"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
@@ -12256,7 +12451,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="82" t="s">
         <v>60</v>
       </c>
       <c r="C5" s="14" t="s">
@@ -12265,69 +12460,69 @@
       <c r="D5" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="83" t="s">
+      <c r="E5" s="84" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B6" s="81"/>
+      <c r="B6" s="82"/>
       <c r="C6" s="14" t="s">
         <v>62</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="90"/>
+      <c r="E6" s="91"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B7" s="81"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="14" t="s">
         <v>63</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="90"/>
+      <c r="E7" s="91"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B8" s="81"/>
+      <c r="B8" s="82"/>
       <c r="C8" s="14" t="s">
         <v>64</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="90"/>
+      <c r="E8" s="91"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B9" s="81"/>
+      <c r="B9" s="82"/>
       <c r="C9" s="14" t="s">
         <v>65</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="90"/>
+      <c r="E9" s="91"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B10" s="81"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="14" t="s">
         <v>66</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="90"/>
+      <c r="E10" s="91"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B11" s="81"/>
+      <c r="B11" s="82"/>
       <c r="C11" s="14" t="s">
         <v>67</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="90"/>
+      <c r="E11" s="91"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" s="15"/>
@@ -12340,7 +12535,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B13" s="87" t="s">
+      <c r="B13" s="88" t="s">
         <v>101</v>
       </c>
       <c r="C13" s="14" t="s">
@@ -12349,99 +12544,99 @@
       <c r="D13" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E13" s="84" t="s">
+      <c r="E13" s="85" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B14" s="88"/>
+      <c r="B14" s="89"/>
       <c r="C14" s="14" t="s">
         <v>105</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="E14" s="85"/>
+      <c r="E14" s="86"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B15" s="88"/>
+      <c r="B15" s="89"/>
       <c r="C15" s="14" t="s">
         <v>106</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="E15" s="85"/>
+      <c r="E15" s="86"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B16" s="88"/>
+      <c r="B16" s="89"/>
       <c r="C16" s="14" t="s">
         <v>107</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E16" s="85"/>
+      <c r="E16" s="86"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B17" s="88"/>
+      <c r="B17" s="89"/>
       <c r="C17" s="14" t="s">
         <v>108</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E17" s="85"/>
+      <c r="E17" s="86"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B18" s="88"/>
+      <c r="B18" s="89"/>
       <c r="C18" s="14" t="s">
         <v>109</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E18" s="85"/>
+      <c r="E18" s="86"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B19" s="88"/>
+      <c r="B19" s="89"/>
       <c r="C19" s="14" t="s">
         <v>110</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E19" s="85"/>
+      <c r="E19" s="86"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B20" s="88"/>
+      <c r="B20" s="89"/>
       <c r="C20" s="14" t="s">
         <v>111</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E20" s="85"/>
+      <c r="E20" s="86"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B21" s="88"/>
+      <c r="B21" s="89"/>
       <c r="C21" s="14" t="s">
         <v>112</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E21" s="85"/>
+      <c r="E21" s="86"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B22" s="89"/>
+      <c r="B22" s="90"/>
       <c r="C22" s="14" t="s">
         <v>113</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E22" s="86"/>
+      <c r="E22" s="87"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B23" s="26"/>
@@ -12454,7 +12649,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="82" t="s">
+      <c r="B24" s="83" t="s">
         <v>424</v>
       </c>
       <c r="C24" s="24" t="s">
@@ -12463,59 +12658,59 @@
       <c r="D24" s="24" t="s">
         <v>428</v>
       </c>
-      <c r="E24" s="83" t="s">
+      <c r="E24" s="84" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B25" s="82"/>
+      <c r="B25" s="83"/>
       <c r="C25" s="24" t="s">
         <v>427</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>426</v>
       </c>
-      <c r="E25" s="83"/>
+      <c r="E25" s="84"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B26" s="82"/>
+      <c r="B26" s="83"/>
       <c r="C26" s="24" t="s">
         <v>429</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="E26" s="83"/>
+      <c r="E26" s="84"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B27" s="82"/>
+      <c r="B27" s="83"/>
       <c r="C27" s="24" t="s">
         <v>430</v>
       </c>
       <c r="D27" s="24" t="s">
         <v>431</v>
       </c>
-      <c r="E27" s="83"/>
+      <c r="E27" s="84"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B28" s="82"/>
+      <c r="B28" s="83"/>
       <c r="C28" s="24" t="s">
         <v>432</v>
       </c>
       <c r="D28" s="24" t="s">
         <v>433</v>
       </c>
-      <c r="E28" s="83"/>
+      <c r="E28" s="84"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B29" s="82"/>
+      <c r="B29" s="83"/>
       <c r="C29" s="24" t="s">
         <v>434</v>
       </c>
       <c r="D29" s="24" t="s">
         <v>435</v>
       </c>
-      <c r="E29" s="83"/>
+      <c r="E29" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -12549,138 +12744,138 @@
       <c r="A1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="102" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="99" t="s">
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="102" t="s">
         <v>458</v>
       </c>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="105" t="s">
         <v>461</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="103" t="s">
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="103"/>
-      <c r="J2" s="93" t="s">
+      <c r="I2" s="92"/>
+      <c r="J2" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="103" t="s">
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="103"/>
+      <c r="O2" s="92"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="98"/>
-      <c r="D3" s="97" t="s">
+      <c r="C3" s="108"/>
+      <c r="D3" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="98"/>
-      <c r="F3" s="97" t="s">
+      <c r="E3" s="108"/>
+      <c r="F3" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="98"/>
-      <c r="H3" s="97" t="s">
+      <c r="G3" s="108"/>
+      <c r="H3" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="98"/>
-      <c r="J3" s="93" t="s">
+      <c r="I3" s="108"/>
+      <c r="J3" s="105" t="s">
         <v>98</v>
       </c>
-      <c r="K3" s="94"/>
-      <c r="L3" s="93" t="s">
+      <c r="K3" s="107"/>
+      <c r="L3" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="94"/>
-      <c r="N3" s="97" t="s">
+      <c r="M3" s="107"/>
+      <c r="N3" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="104"/>
+      <c r="O3" s="100"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="95" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="91" t="s">
+      <c r="C4" s="96"/>
+      <c r="D4" s="95" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="92"/>
-      <c r="F4" s="91" t="s">
+      <c r="E4" s="96"/>
+      <c r="F4" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="G4" s="92"/>
-      <c r="H4" s="91" t="s">
+      <c r="G4" s="96"/>
+      <c r="H4" s="95" t="s">
         <v>131</v>
       </c>
-      <c r="I4" s="92"/>
-      <c r="J4" s="95" t="s">
+      <c r="I4" s="96"/>
+      <c r="J4" s="97" t="s">
         <v>457</v>
       </c>
-      <c r="K4" s="96"/>
-      <c r="L4" s="95" t="s">
+      <c r="K4" s="98"/>
+      <c r="L4" s="97" t="s">
         <v>457</v>
       </c>
-      <c r="M4" s="96"/>
-      <c r="N4" s="91" t="s">
+      <c r="M4" s="98"/>
+      <c r="N4" s="95" t="s">
         <v>457</v>
       </c>
-      <c r="O4" s="105"/>
+      <c r="O4" s="101"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="95" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="91" t="s">
+      <c r="C5" s="96"/>
+      <c r="D5" s="95" t="s">
         <v>127</v>
       </c>
-      <c r="E5" s="92"/>
-      <c r="F5" s="91" t="s">
+      <c r="E5" s="96"/>
+      <c r="F5" s="95" t="s">
         <v>128</v>
       </c>
-      <c r="G5" s="92"/>
-      <c r="H5" s="91" t="s">
+      <c r="G5" s="96"/>
+      <c r="H5" s="95" t="s">
         <v>129</v>
       </c>
-      <c r="I5" s="92"/>
+      <c r="I5" s="96"/>
       <c r="J5" s="54"/>
       <c r="K5" s="54"/>
       <c r="L5" s="54"/>
@@ -12695,57 +12890,57 @@
       <c r="D6" s="54"/>
       <c r="F6" s="54"/>
       <c r="H6" s="54"/>
-      <c r="J6" s="95" t="s">
+      <c r="J6" s="97" t="s">
         <v>460</v>
       </c>
-      <c r="K6" s="96"/>
-      <c r="L6" s="95" t="s">
+      <c r="K6" s="98"/>
+      <c r="L6" s="97" t="s">
         <v>460</v>
       </c>
-      <c r="M6" s="96"/>
-      <c r="N6" s="99" t="s">
+      <c r="M6" s="98"/>
+      <c r="N6" s="102" t="s">
         <v>460</v>
       </c>
-      <c r="O6" s="100"/>
+      <c r="O6" s="103"/>
     </row>
     <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="94" t="s">
         <v>80</v>
       </c>
       <c r="C7" s="40">
         <v>78.2</v>
       </c>
-      <c r="D7" s="106" t="s">
+      <c r="D7" s="94" t="s">
         <v>80</v>
       </c>
       <c r="E7" s="41">
         <v>53.3</v>
       </c>
-      <c r="F7" s="83" t="s">
+      <c r="F7" s="84" t="s">
         <v>445</v>
       </c>
       <c r="G7" s="41">
         <v>1.4</v>
       </c>
-      <c r="H7" s="90" t="s">
+      <c r="H7" s="91" t="s">
         <v>99</v>
       </c>
       <c r="I7" s="41">
         <v>365.4</v>
       </c>
-      <c r="J7" s="90" t="s">
+      <c r="J7" s="91" t="s">
         <v>99</v>
       </c>
       <c r="K7" s="40">
         <v>76.8</v>
       </c>
-      <c r="L7" s="90" t="s">
+      <c r="L7" s="91" t="s">
         <v>99</v>
       </c>
       <c r="M7" s="41">
         <v>59.3</v>
       </c>
-      <c r="N7" s="90" t="s">
+      <c r="N7" s="91" t="s">
         <v>99</v>
       </c>
       <c r="O7" s="41">
@@ -12753,1207 +12948,1207 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B8" s="106"/>
+      <c r="B8" s="94"/>
       <c r="C8" s="40">
         <v>78.400000000000006</v>
       </c>
-      <c r="D8" s="106"/>
+      <c r="D8" s="94"/>
       <c r="E8" s="41">
         <v>53.4</v>
       </c>
-      <c r="F8" s="83"/>
+      <c r="F8" s="84"/>
       <c r="G8" s="41">
         <v>0</v>
       </c>
-      <c r="H8" s="90"/>
+      <c r="H8" s="91"/>
       <c r="I8" s="41">
         <v>366.9</v>
       </c>
-      <c r="J8" s="90"/>
+      <c r="J8" s="91"/>
       <c r="K8" s="40">
         <v>76.8</v>
       </c>
-      <c r="L8" s="90"/>
+      <c r="L8" s="91"/>
       <c r="M8" s="41">
         <v>59.4</v>
       </c>
-      <c r="N8" s="90"/>
+      <c r="N8" s="91"/>
       <c r="O8" s="41">
         <v>425.4</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B9" s="106"/>
+      <c r="B9" s="94"/>
       <c r="C9" s="40">
         <v>78.400000000000006</v>
       </c>
-      <c r="D9" s="106"/>
+      <c r="D9" s="94"/>
       <c r="E9" s="41">
         <v>53.9</v>
       </c>
-      <c r="F9" s="83"/>
+      <c r="F9" s="84"/>
       <c r="G9" s="41">
         <v>0.9</v>
       </c>
-      <c r="H9" s="90"/>
+      <c r="H9" s="91"/>
       <c r="I9" s="41">
         <v>365.9</v>
       </c>
-      <c r="J9" s="90"/>
+      <c r="J9" s="91"/>
       <c r="K9" s="40">
         <v>77</v>
       </c>
-      <c r="L9" s="90"/>
+      <c r="L9" s="91"/>
       <c r="M9" s="41">
         <v>59.3</v>
       </c>
-      <c r="N9" s="90"/>
+      <c r="N9" s="91"/>
       <c r="O9" s="41">
         <v>430.2</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B10" s="106"/>
+      <c r="B10" s="94"/>
       <c r="C10" s="40">
         <v>78.400000000000006</v>
       </c>
-      <c r="D10" s="106"/>
+      <c r="D10" s="94"/>
       <c r="E10" s="41">
         <v>54</v>
       </c>
-      <c r="F10" s="83"/>
+      <c r="F10" s="84"/>
       <c r="G10" s="41">
         <v>2</v>
       </c>
-      <c r="H10" s="90"/>
+      <c r="H10" s="91"/>
       <c r="I10" s="41">
         <v>364.2</v>
       </c>
-      <c r="J10" s="90"/>
+      <c r="J10" s="91"/>
       <c r="K10" s="40">
         <v>77</v>
       </c>
-      <c r="L10" s="90"/>
+      <c r="L10" s="91"/>
       <c r="M10" s="41">
         <v>59.2</v>
       </c>
-      <c r="N10" s="90"/>
+      <c r="N10" s="91"/>
       <c r="O10" s="41">
         <v>432.5</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B11" s="106"/>
+      <c r="B11" s="94"/>
       <c r="C11" s="40">
         <v>78.400000000000006</v>
       </c>
-      <c r="D11" s="106"/>
+      <c r="D11" s="94"/>
       <c r="E11" s="41">
         <v>53.9</v>
       </c>
-      <c r="F11" s="83"/>
+      <c r="F11" s="84"/>
       <c r="G11" s="41">
         <v>1.7</v>
       </c>
-      <c r="H11" s="90"/>
+      <c r="H11" s="91"/>
       <c r="I11" s="41">
         <v>364.5</v>
       </c>
-      <c r="J11" s="90"/>
+      <c r="J11" s="91"/>
       <c r="K11" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L11" s="90"/>
+      <c r="L11" s="91"/>
       <c r="M11" s="41">
         <v>58.9</v>
       </c>
-      <c r="N11" s="90"/>
+      <c r="N11" s="91"/>
       <c r="O11" s="41">
         <v>426.9</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B12" s="106"/>
+      <c r="B12" s="94"/>
       <c r="C12" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D12" s="106"/>
+      <c r="D12" s="94"/>
       <c r="E12" s="41">
         <v>55.2</v>
       </c>
-      <c r="F12" s="83"/>
+      <c r="F12" s="84"/>
       <c r="G12" s="41">
         <v>0.5</v>
       </c>
-      <c r="H12" s="90"/>
+      <c r="H12" s="91"/>
       <c r="I12" s="41">
         <v>361.8</v>
       </c>
-      <c r="J12" s="90"/>
+      <c r="J12" s="91"/>
       <c r="K12" s="40">
         <v>77</v>
       </c>
-      <c r="L12" s="90"/>
+      <c r="L12" s="91"/>
       <c r="M12" s="41">
         <v>59.5</v>
       </c>
-      <c r="N12" s="90"/>
+      <c r="N12" s="91"/>
       <c r="O12" s="41">
         <v>440.9</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B13" s="106"/>
+      <c r="B13" s="94"/>
       <c r="C13" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D13" s="106"/>
+      <c r="D13" s="94"/>
       <c r="E13" s="41">
         <v>53.7</v>
       </c>
-      <c r="F13" s="83"/>
+      <c r="F13" s="84"/>
       <c r="G13" s="41">
         <v>0</v>
       </c>
-      <c r="H13" s="90"/>
+      <c r="H13" s="91"/>
       <c r="I13" s="41">
         <v>361.2</v>
       </c>
-      <c r="J13" s="90"/>
+      <c r="J13" s="91"/>
       <c r="K13" s="40">
         <v>77</v>
       </c>
-      <c r="L13" s="90"/>
+      <c r="L13" s="91"/>
       <c r="M13" s="41">
         <v>59.5</v>
       </c>
-      <c r="N13" s="90"/>
+      <c r="N13" s="91"/>
       <c r="O13" s="41">
         <v>441.7</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B14" s="106"/>
+      <c r="B14" s="94"/>
       <c r="C14" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D14" s="106"/>
+      <c r="D14" s="94"/>
       <c r="E14" s="41">
         <v>53.4</v>
       </c>
-      <c r="F14" s="83"/>
+      <c r="F14" s="84"/>
       <c r="G14" s="41">
         <v>1.5</v>
       </c>
-      <c r="H14" s="90"/>
+      <c r="H14" s="91"/>
       <c r="I14" s="41">
         <v>361.9</v>
       </c>
-      <c r="J14" s="90"/>
+      <c r="J14" s="91"/>
       <c r="K14" s="40">
         <v>76.8</v>
       </c>
-      <c r="L14" s="90"/>
+      <c r="L14" s="91"/>
       <c r="M14" s="41">
         <v>59.3</v>
       </c>
-      <c r="N14" s="90"/>
+      <c r="N14" s="91"/>
       <c r="O14" s="41">
         <v>452</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B15" s="106"/>
+      <c r="B15" s="94"/>
       <c r="C15" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D15" s="106"/>
+      <c r="D15" s="94"/>
       <c r="E15" s="41">
         <v>53.1</v>
       </c>
-      <c r="F15" s="83"/>
+      <c r="F15" s="84"/>
       <c r="G15" s="41">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H15" s="90"/>
+      <c r="H15" s="91"/>
       <c r="I15" s="41">
         <v>361.9</v>
       </c>
-      <c r="J15" s="90"/>
+      <c r="J15" s="91"/>
       <c r="K15" s="40">
         <v>76.8</v>
       </c>
-      <c r="L15" s="90"/>
+      <c r="L15" s="91"/>
       <c r="M15" s="41">
         <v>59.3</v>
       </c>
-      <c r="N15" s="90"/>
+      <c r="N15" s="91"/>
       <c r="O15" s="41">
         <v>454.5</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B16" s="106"/>
+      <c r="B16" s="94"/>
       <c r="C16" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D16" s="106"/>
+      <c r="D16" s="94"/>
       <c r="E16" s="41">
         <v>52.6</v>
       </c>
-      <c r="F16" s="83"/>
+      <c r="F16" s="84"/>
       <c r="G16" s="41">
         <v>1.5</v>
       </c>
-      <c r="H16" s="90"/>
+      <c r="H16" s="91"/>
       <c r="I16" s="41">
         <v>361.9</v>
       </c>
-      <c r="J16" s="90"/>
+      <c r="J16" s="91"/>
       <c r="K16" s="40">
         <v>76.8</v>
       </c>
-      <c r="L16" s="90"/>
+      <c r="L16" s="91"/>
       <c r="M16" s="41">
         <v>59.2</v>
       </c>
-      <c r="N16" s="90"/>
+      <c r="N16" s="91"/>
       <c r="O16" s="41">
         <v>462.4</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B17" s="103" t="s">
+      <c r="B17" s="92" t="s">
         <v>444</v>
       </c>
       <c r="C17" s="40">
         <v>79.3</v>
       </c>
-      <c r="D17" s="81" t="s">
+      <c r="D17" s="82" t="s">
         <v>81</v>
       </c>
       <c r="E17" s="41">
         <v>42.9</v>
       </c>
-      <c r="F17" s="83"/>
+      <c r="F17" s="84"/>
       <c r="G17" s="41">
         <v>1.3</v>
       </c>
-      <c r="H17" s="90"/>
+      <c r="H17" s="91"/>
       <c r="I17" s="41">
         <v>356.7</v>
       </c>
-      <c r="J17" s="90"/>
+      <c r="J17" s="91"/>
       <c r="K17" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L17" s="90"/>
+      <c r="L17" s="91"/>
       <c r="M17" s="41">
         <v>59.1</v>
       </c>
-      <c r="N17" s="90"/>
+      <c r="N17" s="91"/>
       <c r="O17" s="41">
         <v>459.9</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B18" s="103"/>
+      <c r="B18" s="92"/>
       <c r="C18" s="40">
         <v>79.5</v>
       </c>
-      <c r="D18" s="81"/>
+      <c r="D18" s="82"/>
       <c r="E18" s="41">
         <v>42.9</v>
       </c>
-      <c r="F18" s="83"/>
+      <c r="F18" s="84"/>
       <c r="G18" s="41">
         <v>2</v>
       </c>
-      <c r="H18" s="90"/>
+      <c r="H18" s="91"/>
       <c r="I18" s="41">
         <v>354.9</v>
       </c>
-      <c r="J18" s="90"/>
+      <c r="J18" s="91"/>
       <c r="K18" s="40">
         <v>77</v>
       </c>
-      <c r="L18" s="90"/>
+      <c r="L18" s="91"/>
       <c r="M18" s="41">
         <v>59</v>
       </c>
-      <c r="N18" s="90"/>
+      <c r="N18" s="91"/>
       <c r="O18" s="41">
         <v>452.7</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B19" s="103"/>
+      <c r="B19" s="92"/>
       <c r="C19" s="40">
         <v>79.5</v>
       </c>
-      <c r="D19" s="81"/>
+      <c r="D19" s="82"/>
       <c r="E19" s="41">
         <v>43.1</v>
       </c>
-      <c r="F19" s="83"/>
+      <c r="F19" s="84"/>
       <c r="G19" s="41">
         <v>1.4</v>
       </c>
-      <c r="H19" s="90"/>
+      <c r="H19" s="91"/>
       <c r="I19" s="41">
         <v>356.2</v>
       </c>
-      <c r="J19" s="90"/>
+      <c r="J19" s="91"/>
       <c r="K19" s="40">
         <v>77</v>
       </c>
-      <c r="L19" s="90"/>
+      <c r="L19" s="91"/>
       <c r="M19" s="41">
         <v>58.9</v>
       </c>
-      <c r="N19" s="90"/>
+      <c r="N19" s="91"/>
       <c r="O19" s="41">
         <v>465.8</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B20" s="103"/>
+      <c r="B20" s="92"/>
       <c r="C20" s="40">
         <v>79.5</v>
       </c>
-      <c r="D20" s="81"/>
+      <c r="D20" s="82"/>
       <c r="E20" s="41">
         <v>43.1</v>
       </c>
-      <c r="F20" s="83"/>
+      <c r="F20" s="84"/>
       <c r="G20" s="41">
         <v>0.5</v>
       </c>
-      <c r="H20" s="90"/>
+      <c r="H20" s="91"/>
       <c r="I20" s="41">
         <v>356.1</v>
       </c>
-      <c r="J20" s="90"/>
+      <c r="J20" s="91"/>
       <c r="K20" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L20" s="90"/>
+      <c r="L20" s="91"/>
       <c r="M20" s="41">
         <v>58.8</v>
       </c>
-      <c r="N20" s="90"/>
+      <c r="N20" s="91"/>
       <c r="O20" s="41">
         <v>455.5</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B21" s="103"/>
+      <c r="B21" s="92"/>
       <c r="C21" s="40">
         <v>79.5</v>
       </c>
-      <c r="D21" s="81"/>
+      <c r="D21" s="82"/>
       <c r="E21" s="41">
         <v>43.1</v>
       </c>
-      <c r="F21" s="83"/>
+      <c r="F21" s="84"/>
       <c r="G21" s="41">
         <v>2.6</v>
       </c>
-      <c r="H21" s="90"/>
+      <c r="H21" s="91"/>
       <c r="I21" s="41">
         <v>355.2</v>
       </c>
-      <c r="J21" s="90"/>
+      <c r="J21" s="91"/>
       <c r="K21" s="40">
         <v>77</v>
       </c>
-      <c r="L21" s="90"/>
+      <c r="L21" s="91"/>
       <c r="M21" s="41">
         <v>58.8</v>
       </c>
-      <c r="N21" s="90"/>
+      <c r="N21" s="91"/>
       <c r="O21" s="41">
         <v>459.8</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B22" s="103" t="s">
+      <c r="B22" s="92" t="s">
         <v>55</v>
       </c>
       <c r="C22" s="40">
         <v>80</v>
       </c>
-      <c r="D22" s="81" t="s">
+      <c r="D22" s="82" t="s">
         <v>82</v>
       </c>
       <c r="E22" s="41">
         <v>43.1</v>
       </c>
-      <c r="F22" s="83"/>
+      <c r="F22" s="84"/>
       <c r="G22" s="41">
         <v>1.4</v>
       </c>
-      <c r="H22" s="90"/>
+      <c r="H22" s="91"/>
       <c r="I22" s="41">
         <v>354.9</v>
       </c>
-      <c r="J22" s="90"/>
+      <c r="J22" s="91"/>
       <c r="K22" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L22" s="90"/>
+      <c r="L22" s="91"/>
       <c r="M22" s="41">
         <v>59.1</v>
       </c>
-      <c r="N22" s="90"/>
+      <c r="N22" s="91"/>
       <c r="O22" s="41">
         <v>474.8</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B23" s="103"/>
+      <c r="B23" s="92"/>
       <c r="C23" s="40">
         <v>80</v>
       </c>
-      <c r="D23" s="81"/>
+      <c r="D23" s="82"/>
       <c r="E23" s="41">
         <v>43.1</v>
       </c>
-      <c r="F23" s="83"/>
+      <c r="F23" s="84"/>
       <c r="G23" s="41">
         <v>0.6</v>
       </c>
-      <c r="H23" s="90"/>
+      <c r="H23" s="91"/>
       <c r="I23" s="41">
         <v>345.1</v>
       </c>
-      <c r="J23" s="90"/>
+      <c r="J23" s="91"/>
       <c r="K23" s="40">
         <v>77</v>
       </c>
-      <c r="L23" s="90"/>
+      <c r="L23" s="91"/>
       <c r="M23" s="41">
         <v>59.1</v>
       </c>
-      <c r="N23" s="90"/>
+      <c r="N23" s="91"/>
       <c r="O23" s="41">
         <v>469.8</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B24" s="103"/>
+      <c r="B24" s="92"/>
       <c r="C24" s="40">
         <v>80</v>
       </c>
-      <c r="D24" s="81"/>
+      <c r="D24" s="82"/>
       <c r="E24" s="41">
         <v>43.1</v>
       </c>
-      <c r="F24" s="83"/>
+      <c r="F24" s="84"/>
       <c r="G24" s="41">
         <v>0.6</v>
       </c>
-      <c r="H24" s="90"/>
+      <c r="H24" s="91"/>
       <c r="I24" s="41">
         <v>349.2</v>
       </c>
-      <c r="J24" s="90"/>
+      <c r="J24" s="91"/>
       <c r="K24" s="40">
         <v>76.8</v>
       </c>
-      <c r="L24" s="90"/>
+      <c r="L24" s="91"/>
       <c r="M24" s="41">
         <v>59.2</v>
       </c>
-      <c r="N24" s="90"/>
+      <c r="N24" s="91"/>
       <c r="O24" s="41">
         <v>479.7</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B25" s="103"/>
+      <c r="B25" s="92"/>
       <c r="C25" s="40">
         <v>80</v>
       </c>
-      <c r="D25" s="81"/>
+      <c r="D25" s="82"/>
       <c r="E25" s="41">
         <v>43.1</v>
       </c>
-      <c r="F25" s="83"/>
+      <c r="F25" s="84"/>
       <c r="G25" s="41">
         <v>0.9</v>
       </c>
-      <c r="H25" s="90"/>
+      <c r="H25" s="91"/>
       <c r="I25" s="41">
         <v>351.5</v>
       </c>
-      <c r="J25" s="90"/>
+      <c r="J25" s="91"/>
       <c r="K25" s="40">
         <v>77</v>
       </c>
-      <c r="L25" s="90"/>
+      <c r="L25" s="91"/>
       <c r="M25" s="41">
         <v>59.3</v>
       </c>
-      <c r="N25" s="90"/>
+      <c r="N25" s="91"/>
       <c r="O25" s="41">
         <v>480.8</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B26" s="103"/>
+      <c r="B26" s="92"/>
       <c r="C26" s="40">
         <v>80</v>
       </c>
-      <c r="D26" s="81"/>
+      <c r="D26" s="82"/>
       <c r="E26" s="41">
         <v>43.2</v>
       </c>
-      <c r="F26" s="83"/>
+      <c r="F26" s="84"/>
       <c r="G26" s="41">
         <v>1.5</v>
       </c>
-      <c r="H26" s="90"/>
+      <c r="H26" s="91"/>
       <c r="I26" s="41">
         <v>351.4</v>
       </c>
-      <c r="J26" s="90"/>
+      <c r="J26" s="91"/>
       <c r="K26" s="40">
         <v>77</v>
       </c>
-      <c r="L26" s="90"/>
+      <c r="L26" s="91"/>
       <c r="M26" s="41">
         <v>59.2</v>
       </c>
-      <c r="N26" s="90"/>
+      <c r="N26" s="91"/>
       <c r="O26" s="41">
         <v>482.6</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B27" s="103" t="s">
+      <c r="B27" s="92" t="s">
         <v>56</v>
       </c>
       <c r="C27" s="40">
         <v>80.7</v>
       </c>
-      <c r="D27" s="81" t="s">
+      <c r="D27" s="82" t="s">
         <v>83</v>
       </c>
       <c r="E27" s="41">
         <v>43.8</v>
       </c>
-      <c r="F27" s="83"/>
+      <c r="F27" s="84"/>
       <c r="G27" s="41">
         <v>1.7</v>
       </c>
-      <c r="H27" s="90"/>
+      <c r="H27" s="91"/>
       <c r="I27" s="41">
         <v>348.4</v>
       </c>
-      <c r="J27" s="90"/>
+      <c r="J27" s="91"/>
       <c r="K27" s="40">
         <v>77</v>
       </c>
-      <c r="L27" s="90"/>
+      <c r="L27" s="91"/>
       <c r="M27" s="41">
         <v>58.4</v>
       </c>
-      <c r="N27" s="90"/>
+      <c r="N27" s="91"/>
       <c r="O27" s="41">
         <v>489.5</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B28" s="103"/>
+      <c r="B28" s="92"/>
       <c r="C28" s="40">
         <v>80.7</v>
       </c>
-      <c r="D28" s="81"/>
+      <c r="D28" s="82"/>
       <c r="E28" s="41">
         <v>43.8</v>
       </c>
-      <c r="F28" s="83"/>
+      <c r="F28" s="84"/>
       <c r="G28" s="41">
         <v>0.1</v>
       </c>
-      <c r="H28" s="90"/>
+      <c r="H28" s="91"/>
       <c r="I28" s="41">
         <v>347.6</v>
       </c>
-      <c r="J28" s="90"/>
+      <c r="J28" s="91"/>
       <c r="K28" s="40">
         <v>77</v>
       </c>
-      <c r="L28" s="90"/>
+      <c r="L28" s="91"/>
       <c r="M28" s="41">
         <v>58.4</v>
       </c>
-      <c r="N28" s="90"/>
+      <c r="N28" s="91"/>
       <c r="O28" s="41">
         <v>481.5</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B29" s="103"/>
+      <c r="B29" s="92"/>
       <c r="C29" s="40">
         <v>80.7</v>
       </c>
-      <c r="D29" s="81"/>
+      <c r="D29" s="82"/>
       <c r="E29" s="41">
         <v>43.7</v>
       </c>
-      <c r="F29" s="83"/>
+      <c r="F29" s="84"/>
       <c r="G29" s="41">
         <v>0</v>
       </c>
-      <c r="H29" s="90"/>
+      <c r="H29" s="91"/>
       <c r="I29" s="41">
         <v>346</v>
       </c>
-      <c r="J29" s="90"/>
+      <c r="J29" s="91"/>
       <c r="K29" s="40">
         <v>77</v>
       </c>
-      <c r="L29" s="90"/>
+      <c r="L29" s="91"/>
       <c r="M29" s="41">
         <v>58.4</v>
       </c>
-      <c r="N29" s="90"/>
+      <c r="N29" s="91"/>
       <c r="O29" s="41">
         <v>477.8</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B30" s="103"/>
+      <c r="B30" s="92"/>
       <c r="C30" s="40">
         <v>80.7</v>
       </c>
-      <c r="D30" s="81"/>
+      <c r="D30" s="82"/>
       <c r="E30" s="41">
         <v>43.6</v>
       </c>
-      <c r="F30" s="83"/>
+      <c r="F30" s="84"/>
       <c r="G30" s="41">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H30" s="90"/>
+      <c r="H30" s="91"/>
       <c r="I30" s="41">
         <v>345</v>
       </c>
-      <c r="J30" s="90"/>
+      <c r="J30" s="91"/>
       <c r="K30" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L30" s="90"/>
+      <c r="L30" s="91"/>
       <c r="M30" s="41">
         <v>58.5</v>
       </c>
-      <c r="N30" s="90"/>
+      <c r="N30" s="91"/>
       <c r="O30" s="41">
         <v>484.6</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B31" s="103"/>
+      <c r="B31" s="92"/>
       <c r="C31" s="40">
         <v>80.900000000000006</v>
       </c>
-      <c r="D31" s="81"/>
+      <c r="D31" s="82"/>
       <c r="E31" s="41">
         <v>43.6</v>
       </c>
-      <c r="F31" s="83"/>
+      <c r="F31" s="84"/>
       <c r="G31" s="41">
         <v>1.6</v>
       </c>
-      <c r="H31" s="90"/>
+      <c r="H31" s="91"/>
       <c r="I31" s="41">
         <v>347.2</v>
       </c>
-      <c r="J31" s="90"/>
+      <c r="J31" s="91"/>
       <c r="K31" s="40">
         <v>77</v>
       </c>
-      <c r="L31" s="90"/>
+      <c r="L31" s="91"/>
       <c r="M31" s="41">
         <v>58.4</v>
       </c>
-      <c r="N31" s="90"/>
+      <c r="N31" s="91"/>
       <c r="O31" s="41">
         <v>483.8</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B32" s="103" t="s">
+      <c r="B32" s="92" t="s">
         <v>57</v>
       </c>
       <c r="C32" s="40">
         <v>81.099999999999994</v>
       </c>
-      <c r="D32" s="81" t="s">
+      <c r="D32" s="82" t="s">
         <v>85</v>
       </c>
       <c r="E32" s="41">
         <v>44.3</v>
       </c>
-      <c r="F32" s="83"/>
+      <c r="F32" s="84"/>
       <c r="G32" s="41">
         <v>0.4</v>
       </c>
-      <c r="H32" s="90"/>
+      <c r="H32" s="91"/>
       <c r="I32" s="41">
         <v>345.1</v>
       </c>
-      <c r="J32" s="90"/>
+      <c r="J32" s="91"/>
       <c r="K32" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L32" s="90"/>
+      <c r="L32" s="91"/>
       <c r="M32" s="41">
         <v>58.7</v>
       </c>
-      <c r="N32" s="90"/>
+      <c r="N32" s="91"/>
       <c r="O32" s="41">
         <v>482.9</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B33" s="103"/>
+      <c r="B33" s="92"/>
       <c r="C33" s="40">
         <v>81.099999999999994</v>
       </c>
-      <c r="D33" s="81"/>
+      <c r="D33" s="82"/>
       <c r="E33" s="41">
         <v>44.3</v>
       </c>
-      <c r="F33" s="83"/>
+      <c r="F33" s="84"/>
       <c r="G33" s="41">
         <v>1.3</v>
       </c>
-      <c r="H33" s="90"/>
+      <c r="H33" s="91"/>
       <c r="I33" s="41">
         <v>348</v>
       </c>
-      <c r="J33" s="90"/>
+      <c r="J33" s="91"/>
       <c r="K33" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L33" s="90"/>
+      <c r="L33" s="91"/>
       <c r="M33" s="41">
         <v>58.7</v>
       </c>
-      <c r="N33" s="90"/>
+      <c r="N33" s="91"/>
       <c r="O33" s="41">
         <v>491.2</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B34" s="103"/>
+      <c r="B34" s="92"/>
       <c r="C34" s="40">
         <v>81.099999999999994</v>
       </c>
-      <c r="D34" s="81"/>
+      <c r="D34" s="82"/>
       <c r="E34" s="41">
         <v>44.3</v>
       </c>
-      <c r="F34" s="83"/>
+      <c r="F34" s="84"/>
       <c r="G34" s="41">
         <v>1.5</v>
       </c>
-      <c r="H34" s="90"/>
+      <c r="H34" s="91"/>
       <c r="I34" s="41">
         <v>347.9</v>
       </c>
-      <c r="J34" s="90"/>
+      <c r="J34" s="91"/>
       <c r="K34" s="40">
         <v>77</v>
       </c>
-      <c r="L34" s="90"/>
+      <c r="L34" s="91"/>
       <c r="M34" s="41">
         <v>58.6</v>
       </c>
-      <c r="N34" s="90"/>
+      <c r="N34" s="91"/>
       <c r="O34" s="41">
         <v>486.7</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B35" s="103"/>
+      <c r="B35" s="92"/>
       <c r="C35" s="40">
         <v>81.099999999999994</v>
       </c>
-      <c r="D35" s="81"/>
+      <c r="D35" s="82"/>
       <c r="E35" s="41">
         <v>44.3</v>
       </c>
-      <c r="F35" s="83"/>
+      <c r="F35" s="84"/>
       <c r="G35" s="41">
         <v>1.2</v>
       </c>
-      <c r="H35" s="90"/>
+      <c r="H35" s="91"/>
       <c r="I35" s="41">
         <v>345.2</v>
       </c>
-      <c r="J35" s="90"/>
+      <c r="J35" s="91"/>
       <c r="K35" s="40">
         <v>77</v>
       </c>
-      <c r="L35" s="90"/>
+      <c r="L35" s="91"/>
       <c r="M35" s="41">
         <v>58.7</v>
       </c>
-      <c r="N35" s="90"/>
+      <c r="N35" s="91"/>
       <c r="O35" s="41">
         <v>494.4</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B36" s="103"/>
+      <c r="B36" s="92"/>
       <c r="C36" s="40">
         <v>81.099999999999994</v>
       </c>
-      <c r="D36" s="81"/>
+      <c r="D36" s="82"/>
       <c r="E36" s="41">
         <v>44.2</v>
       </c>
-      <c r="F36" s="83"/>
+      <c r="F36" s="84"/>
       <c r="G36" s="41">
         <v>1.4</v>
       </c>
-      <c r="H36" s="90"/>
+      <c r="H36" s="91"/>
       <c r="I36" s="41">
         <v>340.7</v>
       </c>
-      <c r="J36" s="90"/>
+      <c r="J36" s="91"/>
       <c r="K36" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L36" s="90"/>
+      <c r="L36" s="91"/>
       <c r="M36" s="41">
         <v>58.7</v>
       </c>
-      <c r="N36" s="90"/>
+      <c r="N36" s="91"/>
       <c r="O36" s="41">
         <v>493</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B37" s="103" t="s">
+      <c r="B37" s="92" t="s">
         <v>58</v>
       </c>
       <c r="C37" s="40">
         <v>81.5</v>
       </c>
-      <c r="D37" s="81" t="s">
+      <c r="D37" s="82" t="s">
         <v>86</v>
       </c>
       <c r="E37" s="41">
         <v>44</v>
       </c>
-      <c r="F37" s="83"/>
+      <c r="F37" s="84"/>
       <c r="G37" s="41">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H37" s="90"/>
+      <c r="H37" s="91"/>
       <c r="I37" s="41">
         <v>343.4</v>
       </c>
-      <c r="J37" s="90"/>
+      <c r="J37" s="91"/>
       <c r="K37" s="40">
         <v>77</v>
       </c>
-      <c r="L37" s="90"/>
+      <c r="L37" s="91"/>
       <c r="M37" s="41">
         <v>58.6</v>
       </c>
-      <c r="N37" s="90"/>
+      <c r="N37" s="91"/>
       <c r="O37" s="41">
         <v>510.4</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B38" s="103"/>
+      <c r="B38" s="92"/>
       <c r="C38" s="40">
         <v>81.5</v>
       </c>
-      <c r="D38" s="81"/>
+      <c r="D38" s="82"/>
       <c r="E38" s="41">
         <v>44</v>
       </c>
-      <c r="F38" s="83"/>
+      <c r="F38" s="84"/>
       <c r="G38" s="41">
         <v>0.6</v>
       </c>
-      <c r="H38" s="90"/>
+      <c r="H38" s="91"/>
       <c r="I38" s="41">
         <v>341.5</v>
       </c>
-      <c r="J38" s="90"/>
+      <c r="J38" s="91"/>
       <c r="K38" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L38" s="90"/>
+      <c r="L38" s="91"/>
       <c r="M38" s="41">
         <v>58.6</v>
       </c>
-      <c r="N38" s="90"/>
+      <c r="N38" s="91"/>
       <c r="O38" s="41">
         <v>500</v>
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B39" s="103"/>
+      <c r="B39" s="92"/>
       <c r="C39" s="40">
         <v>81.5</v>
       </c>
-      <c r="D39" s="81"/>
+      <c r="D39" s="82"/>
       <c r="E39" s="41">
         <v>44.1</v>
       </c>
-      <c r="F39" s="83"/>
+      <c r="F39" s="84"/>
       <c r="G39" s="41">
         <v>0.2</v>
       </c>
-      <c r="H39" s="90"/>
+      <c r="H39" s="91"/>
       <c r="I39" s="41">
         <v>341.1</v>
       </c>
-      <c r="J39" s="90"/>
+      <c r="J39" s="91"/>
       <c r="K39" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L39" s="90"/>
+      <c r="L39" s="91"/>
       <c r="M39" s="41">
         <v>58.7</v>
       </c>
-      <c r="N39" s="90"/>
+      <c r="N39" s="91"/>
       <c r="O39" s="41">
         <v>500.4</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B40" s="103"/>
+      <c r="B40" s="92"/>
       <c r="C40" s="40">
         <v>81.5</v>
       </c>
-      <c r="D40" s="81"/>
+      <c r="D40" s="82"/>
       <c r="E40" s="41">
         <v>44.1</v>
       </c>
-      <c r="F40" s="83"/>
+      <c r="F40" s="84"/>
       <c r="G40" s="41">
         <v>0</v>
       </c>
-      <c r="H40" s="90"/>
+      <c r="H40" s="91"/>
       <c r="I40" s="41">
         <v>343.7</v>
       </c>
-      <c r="J40" s="90"/>
+      <c r="J40" s="91"/>
       <c r="K40" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L40" s="90"/>
+      <c r="L40" s="91"/>
       <c r="M40" s="41">
         <v>58.8</v>
       </c>
-      <c r="N40" s="90"/>
+      <c r="N40" s="91"/>
       <c r="O40" s="41">
         <v>498.7</v>
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B41" s="103"/>
+      <c r="B41" s="92"/>
       <c r="C41" s="40">
         <v>81.5</v>
       </c>
-      <c r="D41" s="81"/>
+      <c r="D41" s="82"/>
       <c r="E41" s="41">
         <v>44.2</v>
       </c>
-      <c r="F41" s="83"/>
+      <c r="F41" s="84"/>
       <c r="G41" s="41">
         <v>0.2</v>
       </c>
-      <c r="H41" s="90"/>
+      <c r="H41" s="91"/>
       <c r="I41" s="41">
         <v>341.9</v>
       </c>
-      <c r="J41" s="90"/>
+      <c r="J41" s="91"/>
       <c r="K41" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="L41" s="90"/>
+      <c r="L41" s="91"/>
       <c r="M41" s="41">
         <v>58.7</v>
       </c>
-      <c r="N41" s="90"/>
+      <c r="N41" s="91"/>
       <c r="O41" s="41">
         <v>490</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B42" s="103" t="s">
+      <c r="B42" s="92" t="s">
         <v>59</v>
       </c>
       <c r="C42" s="40">
         <v>82.4</v>
       </c>
-      <c r="D42" s="81" t="s">
+      <c r="D42" s="82" t="s">
         <v>88</v>
       </c>
       <c r="E42" s="41">
         <v>44</v>
       </c>
-      <c r="F42" s="83"/>
+      <c r="F42" s="84"/>
       <c r="G42" s="41">
         <v>0</v>
       </c>
-      <c r="H42" s="90"/>
+      <c r="H42" s="91"/>
       <c r="I42" s="41">
         <v>344.1</v>
       </c>
-      <c r="J42" s="90"/>
+      <c r="J42" s="91"/>
       <c r="K42" s="40">
         <v>76.8</v>
       </c>
-      <c r="L42" s="90"/>
+      <c r="L42" s="91"/>
       <c r="M42" s="57">
         <v>58.8</v>
       </c>
-      <c r="N42" s="90"/>
+      <c r="N42" s="91"/>
       <c r="O42" s="41">
         <v>514.70000000000005</v>
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B43" s="103"/>
+      <c r="B43" s="92"/>
       <c r="C43" s="40">
         <v>82.4</v>
       </c>
-      <c r="D43" s="81"/>
+      <c r="D43" s="82"/>
       <c r="E43" s="41">
         <v>43.9</v>
       </c>
-      <c r="F43" s="83"/>
+      <c r="F43" s="84"/>
       <c r="G43" s="41">
         <v>0.9</v>
       </c>
-      <c r="H43" s="90"/>
+      <c r="H43" s="91"/>
       <c r="I43" s="41">
         <v>342.8</v>
       </c>
-      <c r="J43" s="90"/>
+      <c r="J43" s="91"/>
       <c r="K43" s="40">
         <v>76.599999999999994</v>
       </c>
-      <c r="L43" s="90"/>
+      <c r="L43" s="91"/>
       <c r="M43" s="41">
         <v>59.8</v>
       </c>
-      <c r="N43" s="90"/>
+      <c r="N43" s="91"/>
       <c r="O43" s="41">
         <v>520.4</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B44" s="103"/>
+      <c r="B44" s="92"/>
       <c r="C44" s="40">
         <v>82.4</v>
       </c>
-      <c r="D44" s="81"/>
+      <c r="D44" s="82"/>
       <c r="E44" s="41">
         <v>43.9</v>
       </c>
-      <c r="F44" s="83"/>
+      <c r="F44" s="84"/>
       <c r="G44" s="41">
         <v>1.2</v>
       </c>
-      <c r="H44" s="90"/>
+      <c r="H44" s="91"/>
       <c r="I44" s="41">
         <v>342.8</v>
       </c>
-      <c r="J44" s="90"/>
+      <c r="J44" s="91"/>
       <c r="K44" s="40">
         <v>76.8</v>
       </c>
-      <c r="L44" s="90"/>
+      <c r="L44" s="91"/>
       <c r="M44" s="41">
         <v>59.6</v>
       </c>
-      <c r="N44" s="90"/>
+      <c r="N44" s="91"/>
       <c r="O44" s="41">
         <v>503.8</v>
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B45" s="103"/>
+      <c r="B45" s="92"/>
       <c r="C45" s="40">
         <v>82.4</v>
       </c>
-      <c r="D45" s="81"/>
+      <c r="D45" s="82"/>
       <c r="E45" s="41">
         <v>43.8</v>
       </c>
-      <c r="F45" s="83"/>
+      <c r="F45" s="84"/>
       <c r="G45" s="41">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H45" s="90"/>
+      <c r="H45" s="91"/>
       <c r="I45" s="41">
         <v>342.5</v>
       </c>
-      <c r="J45" s="90"/>
+      <c r="J45" s="91"/>
       <c r="K45" s="40">
         <v>76.400000000000006</v>
       </c>
-      <c r="L45" s="90"/>
+      <c r="L45" s="91"/>
       <c r="M45" s="41">
         <v>59.4</v>
       </c>
-      <c r="N45" s="90"/>
+      <c r="N45" s="91"/>
       <c r="O45" s="41">
         <v>497.8</v>
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B46" s="103"/>
+      <c r="B46" s="92"/>
       <c r="C46" s="40">
         <v>82.4</v>
       </c>
-      <c r="D46" s="81"/>
+      <c r="D46" s="82"/>
       <c r="E46" s="41">
         <v>43.8</v>
       </c>
-      <c r="F46" s="83"/>
+      <c r="F46" s="84"/>
       <c r="G46" s="41">
         <v>2</v>
       </c>
-      <c r="H46" s="90"/>
+      <c r="H46" s="91"/>
       <c r="I46" s="41">
         <v>345.7</v>
       </c>
-      <c r="J46" s="90"/>
+      <c r="J46" s="91"/>
       <c r="K46" s="40">
         <v>76.2</v>
       </c>
-      <c r="L46" s="90"/>
+      <c r="L46" s="91"/>
       <c r="M46" s="41">
         <v>59.5</v>
       </c>
-      <c r="N46" s="90"/>
+      <c r="N46" s="91"/>
       <c r="O46" s="41">
         <v>504.7</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B47" s="103" t="s">
+      <c r="B47" s="92" t="s">
         <v>94</v>
       </c>
       <c r="C47" s="40">
         <v>82.9</v>
       </c>
-      <c r="D47" s="107" t="s">
+      <c r="D47" s="93" t="s">
         <v>90</v>
       </c>
       <c r="E47" s="41">
@@ -13966,11 +14161,11 @@
       <c r="J47" s="56"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B48" s="103"/>
+      <c r="B48" s="92"/>
       <c r="C48" s="40">
         <v>83.1</v>
       </c>
-      <c r="D48" s="107"/>
+      <c r="D48" s="93"/>
       <c r="E48" s="41">
         <v>43.4</v>
       </c>
@@ -13981,11 +14176,11 @@
       <c r="J48" s="56"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B49" s="103"/>
+      <c r="B49" s="92"/>
       <c r="C49" s="40">
         <v>83.1</v>
       </c>
-      <c r="D49" s="107"/>
+      <c r="D49" s="93"/>
       <c r="E49" s="41">
         <v>43.4</v>
       </c>
@@ -13996,11 +14191,11 @@
       <c r="J49" s="56"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B50" s="103"/>
+      <c r="B50" s="92"/>
       <c r="C50" s="40">
         <v>83.1</v>
       </c>
-      <c r="D50" s="107"/>
+      <c r="D50" s="93"/>
       <c r="E50" s="41">
         <v>43.4</v>
       </c>
@@ -14011,11 +14206,11 @@
       <c r="J50" s="56"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B51" s="103"/>
+      <c r="B51" s="92"/>
       <c r="C51" s="40">
         <v>83.1</v>
       </c>
-      <c r="D51" s="107"/>
+      <c r="D51" s="93"/>
       <c r="E51" s="41">
         <v>43.4</v>
       </c>
@@ -14026,13 +14221,13 @@
       <c r="J51" s="56"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B52" s="103" t="s">
+      <c r="B52" s="92" t="s">
         <v>95</v>
       </c>
       <c r="C52" s="40">
         <v>83.4</v>
       </c>
-      <c r="D52" s="107" t="s">
+      <c r="D52" s="93" t="s">
         <v>92</v>
       </c>
       <c r="E52" s="41">
@@ -14045,11 +14240,11 @@
       <c r="J52" s="56"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B53" s="103"/>
+      <c r="B53" s="92"/>
       <c r="C53" s="40">
         <v>83.4</v>
       </c>
-      <c r="D53" s="107"/>
+      <c r="D53" s="93"/>
       <c r="E53" s="41">
         <v>43.3</v>
       </c>
@@ -14060,11 +14255,11 @@
       <c r="J53" s="56"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B54" s="103"/>
+      <c r="B54" s="92"/>
       <c r="C54" s="40">
         <v>83.4</v>
       </c>
-      <c r="D54" s="107"/>
+      <c r="D54" s="93"/>
       <c r="E54" s="41">
         <v>43.4</v>
       </c>
@@ -14075,11 +14270,11 @@
       <c r="J54" s="56"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B55" s="103"/>
+      <c r="B55" s="92"/>
       <c r="C55" s="40">
         <v>83.6</v>
       </c>
-      <c r="D55" s="107"/>
+      <c r="D55" s="93"/>
       <c r="E55" s="41">
         <v>43.4</v>
       </c>
@@ -14090,11 +14285,11 @@
       <c r="J55" s="56"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B56" s="103"/>
+      <c r="B56" s="92"/>
       <c r="C56" s="40">
         <v>83.3</v>
       </c>
-      <c r="D56" s="107"/>
+      <c r="D56" s="93"/>
       <c r="E56" s="41">
         <v>43.4</v>
       </c>
@@ -14105,7 +14300,7 @@
       <c r="J56" s="56"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B57" s="103" t="s">
+      <c r="B57" s="92" t="s">
         <v>96</v>
       </c>
       <c r="C57" s="40">
@@ -14120,7 +14315,7 @@
       <c r="J57" s="56"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B58" s="103"/>
+      <c r="B58" s="92"/>
       <c r="C58" s="40">
         <v>83.4</v>
       </c>
@@ -14133,7 +14328,7 @@
       <c r="J58" s="56"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B59" s="103"/>
+      <c r="B59" s="92"/>
       <c r="C59" s="40">
         <v>83.3</v>
       </c>
@@ -14146,7 +14341,7 @@
       <c r="J59" s="56"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B60" s="103"/>
+      <c r="B60" s="92"/>
       <c r="C60" s="40">
         <v>83.3</v>
       </c>
@@ -14159,7 +14354,7 @@
       <c r="J60" s="56"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B61" s="103"/>
+      <c r="B61" s="92"/>
       <c r="C61" s="40">
         <v>83.4</v>
       </c>
@@ -14172,7 +14367,7 @@
       <c r="J61" s="56"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B62" s="103" t="s">
+      <c r="B62" s="92" t="s">
         <v>97</v>
       </c>
       <c r="C62" s="40">
@@ -14187,7 +14382,7 @@
       <c r="J62" s="56"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B63" s="103"/>
+      <c r="B63" s="92"/>
       <c r="C63" s="40">
         <v>83.8</v>
       </c>
@@ -14200,7 +14395,7 @@
       <c r="J63" s="56"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B64" s="103"/>
+      <c r="B64" s="92"/>
       <c r="C64" s="40">
         <v>83.6</v>
       </c>
@@ -14213,7 +14408,7 @@
       <c r="J64" s="56"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B65" s="103"/>
+      <c r="B65" s="92"/>
       <c r="C65" s="40">
         <v>83.8</v>
       </c>
@@ -14226,7 +14421,7 @@
       <c r="J65" s="56"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B66" s="103"/>
+      <c r="B66" s="92"/>
       <c r="C66" s="40">
         <v>83.8</v>
       </c>
@@ -14239,7 +14434,7 @@
       <c r="J66" s="56"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B67" s="103" t="s">
+      <c r="B67" s="92" t="s">
         <v>93</v>
       </c>
       <c r="C67" s="40">
@@ -14254,7 +14449,7 @@
       <c r="J67" s="56"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B68" s="103"/>
+      <c r="B68" s="92"/>
       <c r="C68" s="40">
         <v>84</v>
       </c>
@@ -14267,7 +14462,7 @@
       <c r="J68" s="56"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B69" s="103"/>
+      <c r="B69" s="92"/>
       <c r="C69" s="40">
         <v>84</v>
       </c>
@@ -14280,7 +14475,7 @@
       <c r="J69" s="56"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B70" s="103"/>
+      <c r="B70" s="92"/>
       <c r="C70" s="40">
         <v>84</v>
       </c>
@@ -14293,7 +14488,7 @@
       <c r="J70" s="56"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B71" s="103"/>
+      <c r="B71" s="92"/>
       <c r="C71" s="40">
         <v>84</v>
       </c>
@@ -14306,7 +14501,7 @@
       <c r="J71" s="56"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B72" s="103" t="s">
+      <c r="B72" s="92" t="s">
         <v>82</v>
       </c>
       <c r="C72" s="40">
@@ -14321,7 +14516,7 @@
       <c r="J72" s="56"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B73" s="103"/>
+      <c r="B73" s="92"/>
       <c r="C73" s="40">
         <v>83.4</v>
       </c>
@@ -14334,7 +14529,7 @@
       <c r="J73" s="56"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B74" s="103"/>
+      <c r="B74" s="92"/>
       <c r="C74" s="40">
         <v>83.3</v>
       </c>
@@ -14347,7 +14542,7 @@
       <c r="J74" s="56"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B75" s="103"/>
+      <c r="B75" s="92"/>
       <c r="C75" s="40">
         <v>83.3</v>
       </c>
@@ -14360,7 +14555,7 @@
       <c r="J75" s="56"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B76" s="103"/>
+      <c r="B76" s="92"/>
       <c r="C76" s="40">
         <v>83.3</v>
       </c>
@@ -14373,7 +14568,7 @@
       <c r="J76" s="56"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B77" s="103" t="s">
+      <c r="B77" s="92" t="s">
         <v>83</v>
       </c>
       <c r="C77" s="40">
@@ -14388,7 +14583,7 @@
       <c r="J77" s="56"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B78" s="103"/>
+      <c r="B78" s="92"/>
       <c r="C78" s="40">
         <v>83.4</v>
       </c>
@@ -14401,7 +14596,7 @@
       <c r="J78" s="56"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B79" s="103"/>
+      <c r="B79" s="92"/>
       <c r="C79" s="40">
         <v>83.4</v>
       </c>
@@ -14414,7 +14609,7 @@
       <c r="J79" s="56"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B80" s="103"/>
+      <c r="B80" s="92"/>
       <c r="C80" s="40">
         <v>83.4</v>
       </c>
@@ -14427,7 +14622,7 @@
       <c r="J80" s="56"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B81" s="103"/>
+      <c r="B81" s="92"/>
       <c r="C81" s="40">
         <v>83.4</v>
       </c>
@@ -14440,7 +14635,7 @@
       <c r="J81" s="56"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B82" s="103" t="s">
+      <c r="B82" s="92" t="s">
         <v>84</v>
       </c>
       <c r="C82" s="40">
@@ -14455,7 +14650,7 @@
       <c r="J82" s="56"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B83" s="103"/>
+      <c r="B83" s="92"/>
       <c r="C83" s="40">
         <v>83.3</v>
       </c>
@@ -14468,7 +14663,7 @@
       <c r="J83" s="56"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B84" s="103"/>
+      <c r="B84" s="92"/>
       <c r="C84" s="40">
         <v>83.3</v>
       </c>
@@ -14481,7 +14676,7 @@
       <c r="J84" s="56"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B85" s="103"/>
+      <c r="B85" s="92"/>
       <c r="C85" s="40">
         <v>83.3</v>
       </c>
@@ -14494,7 +14689,7 @@
       <c r="J85" s="56"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B86" s="103"/>
+      <c r="B86" s="92"/>
       <c r="C86" s="40">
         <v>83.3</v>
       </c>
@@ -14507,7 +14702,7 @@
       <c r="J86" s="56"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B87" s="103" t="s">
+      <c r="B87" s="92" t="s">
         <v>87</v>
       </c>
       <c r="C87" s="40">
@@ -14522,7 +14717,7 @@
       <c r="J87" s="56"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B88" s="103"/>
+      <c r="B88" s="92"/>
       <c r="C88" s="40">
         <v>83.8</v>
       </c>
@@ -14535,7 +14730,7 @@
       <c r="J88" s="56"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B89" s="103"/>
+      <c r="B89" s="92"/>
       <c r="C89" s="40">
         <v>83.8</v>
       </c>
@@ -14548,7 +14743,7 @@
       <c r="J89" s="56"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B90" s="103"/>
+      <c r="B90" s="92"/>
       <c r="C90" s="40">
         <v>84</v>
       </c>
@@ -14561,7 +14756,7 @@
       <c r="J90" s="56"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B91" s="103"/>
+      <c r="B91" s="92"/>
       <c r="C91" s="40">
         <v>84</v>
       </c>
@@ -14574,7 +14769,7 @@
       <c r="J91" s="56"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B92" s="103" t="s">
+      <c r="B92" s="92" t="s">
         <v>89</v>
       </c>
       <c r="C92" s="40">
@@ -14589,7 +14784,7 @@
       <c r="J92" s="56"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B93" s="103"/>
+      <c r="B93" s="92"/>
       <c r="C93" s="40">
         <v>84</v>
       </c>
@@ -14602,7 +14797,7 @@
       <c r="J93" s="56"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B94" s="103"/>
+      <c r="B94" s="92"/>
       <c r="C94" s="40">
         <v>84</v>
       </c>
@@ -14615,7 +14810,7 @@
       <c r="J94" s="56"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B95" s="103"/>
+      <c r="B95" s="92"/>
       <c r="C95" s="40">
         <v>84.2</v>
       </c>
@@ -14628,7 +14823,7 @@
       <c r="J95" s="56"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B96" s="103"/>
+      <c r="B96" s="92"/>
       <c r="C96" s="40">
         <v>84.2</v>
       </c>
@@ -14641,7 +14836,7 @@
       <c r="J96" s="56"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B97" s="103" t="s">
+      <c r="B97" s="92" t="s">
         <v>91</v>
       </c>
       <c r="C97" s="40">
@@ -14656,7 +14851,7 @@
       <c r="J97" s="56"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B98" s="103"/>
+      <c r="B98" s="92"/>
       <c r="C98" s="40">
         <v>84</v>
       </c>
@@ -14669,7 +14864,7 @@
       <c r="J98" s="56"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B99" s="103"/>
+      <c r="B99" s="92"/>
       <c r="C99" s="40">
         <v>84</v>
       </c>
@@ -14682,7 +14877,7 @@
       <c r="J99" s="56"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B100" s="103"/>
+      <c r="B100" s="92"/>
       <c r="C100" s="40">
         <v>84</v>
       </c>
@@ -14695,7 +14890,7 @@
       <c r="J100" s="56"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B101" s="103"/>
+      <c r="B101" s="92"/>
       <c r="C101" s="40">
         <v>84</v>
       </c>
@@ -14709,6 +14904,49 @@
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="J7:J46"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N7:N46"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L7:L46"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B92:B96"/>
+    <mergeCell ref="B7:B16"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="D7:D16"/>
+    <mergeCell ref="F7:F46"/>
+    <mergeCell ref="H7:H46"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="F5:G5"/>
     <mergeCell ref="B97:B101"/>
     <mergeCell ref="D27:D31"/>
     <mergeCell ref="D32:D36"/>
@@ -14725,49 +14963,6 @@
     <mergeCell ref="B32:B36"/>
     <mergeCell ref="B47:B51"/>
     <mergeCell ref="B52:B56"/>
-    <mergeCell ref="L7:L46"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B92:B96"/>
-    <mergeCell ref="B7:B16"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="D7:D16"/>
-    <mergeCell ref="F7:F46"/>
-    <mergeCell ref="H7:H46"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="J7:J46"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N7:N46"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14785,44 +14980,44 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="112" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
       <c r="G1" s="17"/>
-      <c r="H1" s="117" t="s">
+      <c r="H1" s="114" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117" t="s">
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="117"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A2" s="118"/>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
+      <c r="A2" s="115"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A3" s="26" t="s">
@@ -14846,27 +15041,27 @@
       <c r="G3" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="H3" s="93" t="s">
+      <c r="H3" s="105" t="s">
         <v>189</v>
       </c>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="102"/>
-      <c r="O3" s="94"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="107"/>
       <c r="P3" s="31">
         <v>0.36041666666666666</v>
       </c>
-      <c r="Q3" s="93" t="s">
+      <c r="Q3" s="105" t="s">
         <v>189</v>
       </c>
-      <c r="R3" s="102"/>
-      <c r="S3" s="102"/>
-      <c r="T3" s="102"/>
-      <c r="U3" s="102"/>
-      <c r="V3" s="102"/>
+      <c r="R3" s="106"/>
+      <c r="S3" s="106"/>
+      <c r="T3" s="106"/>
+      <c r="U3" s="106"/>
+      <c r="V3" s="106"/>
       <c r="W3" s="37">
         <v>0.36319444444444443</v>
       </c>
@@ -14875,22 +15070,22 @@
       <c r="Z3" s="20"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="117" t="s">
         <v>133</v>
       </c>
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="92" t="s">
         <v>98</v>
       </c>
       <c r="D4" s="23">
         <v>1</v>
       </c>
-      <c r="E4" s="82" t="s">
+      <c r="E4" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="F4" s="82"/>
+      <c r="F4" s="83"/>
       <c r="G4" s="24"/>
       <c r="H4" s="23" t="s">
         <v>136</v>
@@ -14945,14 +15140,14 @@
       <c r="Z4" s="13"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A5" s="109"/>
-      <c r="B5" s="112"/>
-      <c r="C5" s="103"/>
+      <c r="A5" s="118"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="92"/>
       <c r="D5" s="23">
         <v>2</v>
       </c>
-      <c r="E5" s="81"/>
-      <c r="F5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="83"/>
       <c r="G5" s="24"/>
       <c r="H5" s="23" t="s">
         <v>136</v>
@@ -15007,14 +15202,14 @@
       <c r="Z5" s="13"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A6" s="109"/>
-      <c r="B6" s="112"/>
-      <c r="C6" s="103"/>
+      <c r="A6" s="118"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="92"/>
       <c r="D6" s="23">
         <v>3</v>
       </c>
-      <c r="E6" s="81"/>
-      <c r="F6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="83"/>
       <c r="G6" s="24"/>
       <c r="H6" s="23" t="s">
         <v>137</v>
@@ -15069,14 +15264,14 @@
       <c r="Z6" s="13"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A7" s="109"/>
-      <c r="B7" s="112"/>
-      <c r="C7" s="103"/>
+      <c r="A7" s="118"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="92"/>
       <c r="D7" s="23">
         <v>4</v>
       </c>
-      <c r="E7" s="81"/>
-      <c r="F7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="83"/>
       <c r="G7" s="24"/>
       <c r="H7" s="23" t="s">
         <v>137</v>
@@ -15131,14 +15326,14 @@
       <c r="Z7" s="13"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A8" s="109"/>
-      <c r="B8" s="112"/>
-      <c r="C8" s="103"/>
+      <c r="A8" s="118"/>
+      <c r="B8" s="121"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="23">
         <v>5</v>
       </c>
-      <c r="E8" s="81"/>
-      <c r="F8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="83"/>
       <c r="G8" s="24"/>
       <c r="H8" s="23" t="s">
         <v>138</v>
@@ -15193,23 +15388,23 @@
       <c r="Z8" s="13"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A9" s="109"/>
-      <c r="B9" s="112"/>
+      <c r="A9" s="118"/>
+      <c r="B9" s="121"/>
       <c r="C9" s="26"/>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="114"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="81"/>
+      <c r="H9" s="123"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="82"/>
       <c r="R9" s="27"/>
       <c r="S9" s="27"/>
       <c r="T9" s="27"/>
@@ -15221,15 +15416,15 @@
       <c r="Z9" s="21"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A10" s="109"/>
-      <c r="B10" s="112"/>
+      <c r="A10" s="118"/>
+      <c r="B10" s="121"/>
       <c r="C10" s="26"/>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
       <c r="L10" s="23"/>
@@ -15253,18 +15448,18 @@
       <c r="Z10" s="11"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A11" s="109"/>
-      <c r="B11" s="112"/>
-      <c r="C11" s="103" t="s">
+      <c r="A11" s="118"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="92" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="23">
         <v>1</v>
       </c>
-      <c r="E11" s="82" t="s">
+      <c r="E11" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="F11" s="82"/>
+      <c r="F11" s="83"/>
       <c r="G11" s="24"/>
       <c r="H11" s="24" t="s">
         <v>196</v>
@@ -15319,14 +15514,14 @@
       <c r="Z11" s="11"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A12" s="109"/>
-      <c r="B12" s="112"/>
-      <c r="C12" s="103"/>
+      <c r="A12" s="118"/>
+      <c r="B12" s="121"/>
+      <c r="C12" s="92"/>
       <c r="D12" s="23">
         <v>2</v>
       </c>
-      <c r="E12" s="81"/>
-      <c r="F12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="83"/>
       <c r="G12" s="24"/>
       <c r="H12" s="24" t="s">
         <v>197</v>
@@ -15381,14 +15576,14 @@
       <c r="Z12" s="11"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A13" s="109"/>
-      <c r="B13" s="112"/>
-      <c r="C13" s="103"/>
+      <c r="A13" s="118"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="92"/>
       <c r="D13" s="23">
         <v>3</v>
       </c>
-      <c r="E13" s="81"/>
-      <c r="F13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="83"/>
       <c r="G13" s="24"/>
       <c r="H13" s="24" t="s">
         <v>197</v>
@@ -15443,14 +15638,14 @@
       <c r="Z13" s="11"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A14" s="109"/>
-      <c r="B14" s="112"/>
-      <c r="C14" s="103"/>
+      <c r="A14" s="118"/>
+      <c r="B14" s="121"/>
+      <c r="C14" s="92"/>
       <c r="D14" s="23">
         <v>4</v>
       </c>
-      <c r="E14" s="81"/>
-      <c r="F14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="83"/>
       <c r="G14" s="24"/>
       <c r="H14" s="24" t="s">
         <v>198</v>
@@ -15505,14 +15700,14 @@
       <c r="Z14" s="11"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A15" s="109"/>
-      <c r="B15" s="112"/>
-      <c r="C15" s="103"/>
+      <c r="A15" s="118"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="92"/>
       <c r="D15" s="23">
         <v>5</v>
       </c>
-      <c r="E15" s="81"/>
-      <c r="F15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="83"/>
       <c r="G15" s="24"/>
       <c r="H15" s="24" t="s">
         <v>199</v>
@@ -15567,23 +15762,23 @@
       <c r="Z15" s="11"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A16" s="109"/>
-      <c r="B16" s="113"/>
+      <c r="A16" s="118"/>
+      <c r="B16" s="122"/>
       <c r="C16" s="29"/>
       <c r="D16" s="22"/>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="120" t="s">
+      <c r="H16" s="109" t="s">
         <v>178</v>
       </c>
-      <c r="I16" s="121"/>
-      <c r="J16" s="121"/>
-      <c r="K16" s="121"/>
-      <c r="L16" s="121"/>
-      <c r="M16" s="121"/>
-      <c r="N16" s="121"/>
-      <c r="O16" s="122"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="110"/>
+      <c r="M16" s="110"/>
+      <c r="N16" s="110"/>
+      <c r="O16" s="111"/>
       <c r="P16" s="36"/>
       <c r="Q16" s="36"/>
       <c r="R16" s="36"/>
@@ -15597,21 +15792,21 @@
       <c r="Z16" s="11"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A17" s="109"/>
-      <c r="B17" s="103" t="s">
+      <c r="A17" s="118"/>
+      <c r="B17" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="103" t="s">
+      <c r="C17" s="92" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="23">
         <v>1</v>
       </c>
-      <c r="E17" s="82" t="s">
+      <c r="E17" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82" t="s">
+      <c r="F17" s="83"/>
+      <c r="G17" s="83" t="s">
         <v>141</v>
       </c>
       <c r="H17" s="24" t="s">
@@ -15651,15 +15846,15 @@
       <c r="Z17" s="11"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A18" s="109"/>
-      <c r="B18" s="103"/>
-      <c r="C18" s="103"/>
+      <c r="A18" s="118"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
       <c r="D18" s="23">
         <v>2</v>
       </c>
-      <c r="E18" s="81"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
       <c r="H18" s="24" t="s">
         <v>143</v>
       </c>
@@ -15697,15 +15892,15 @@
       <c r="Z18" s="11"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A19" s="109"/>
-      <c r="B19" s="103"/>
-      <c r="C19" s="103"/>
+      <c r="A19" s="118"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="92"/>
       <c r="D19" s="23">
         <v>3</v>
       </c>
-      <c r="E19" s="81"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
       <c r="H19" s="24" t="s">
         <v>144</v>
       </c>
@@ -15743,15 +15938,15 @@
       <c r="Z19" s="11"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A20" s="109"/>
-      <c r="B20" s="103"/>
-      <c r="C20" s="103"/>
+      <c r="A20" s="118"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
       <c r="D20" s="23">
         <v>4</v>
       </c>
-      <c r="E20" s="81"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
       <c r="H20" s="24" t="s">
         <v>145</v>
       </c>
@@ -15789,15 +15984,15 @@
       <c r="Z20" s="11"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A21" s="110"/>
-      <c r="B21" s="103"/>
-      <c r="C21" s="103"/>
+      <c r="A21" s="119"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
       <c r="D21" s="23">
         <v>5</v>
       </c>
-      <c r="E21" s="81"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
       <c r="H21" s="24" t="s">
         <v>146</v>
       </c>
@@ -15850,16 +16045,16 @@
       <c r="G22" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="H22" s="97" t="s">
+      <c r="H22" s="99" t="s">
         <v>189</v>
       </c>
-      <c r="I22" s="104"/>
-      <c r="J22" s="104"/>
-      <c r="K22" s="104"/>
-      <c r="L22" s="104"/>
-      <c r="M22" s="104"/>
-      <c r="N22" s="104"/>
-      <c r="O22" s="98"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="100"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="100"/>
+      <c r="M22" s="100"/>
+      <c r="N22" s="100"/>
+      <c r="O22" s="108"/>
       <c r="P22" s="32" t="s">
         <v>248</v>
       </c>
@@ -15875,25 +16070,25 @@
       <c r="Z22" s="11"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A23" s="108" t="s">
+      <c r="A23" s="117" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="103" t="s">
+      <c r="B23" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="103" t="s">
+      <c r="C23" s="92" t="s">
         <v>98</v>
       </c>
       <c r="D23" s="23">
         <v>1</v>
       </c>
-      <c r="E23" s="82" t="s">
+      <c r="E23" s="83" t="s">
         <v>230</v>
       </c>
-      <c r="F23" s="83" t="s">
+      <c r="F23" s="84" t="s">
         <v>291</v>
       </c>
-      <c r="G23" s="82" t="s">
+      <c r="G23" s="83" t="s">
         <v>292</v>
       </c>
       <c r="H23" s="24" t="s">
@@ -15949,15 +16144,15 @@
       <c r="Z23" s="11"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A24" s="109"/>
-      <c r="B24" s="103"/>
-      <c r="C24" s="103"/>
+      <c r="A24" s="118"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="92"/>
       <c r="D24" s="23">
         <v>2</v>
       </c>
-      <c r="E24" s="81"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="82"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="83"/>
       <c r="H24" s="24" t="s">
         <v>232</v>
       </c>
@@ -16011,15 +16206,15 @@
       <c r="Z24" s="11"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A25" s="109"/>
-      <c r="B25" s="103"/>
-      <c r="C25" s="103"/>
+      <c r="A25" s="118"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
       <c r="D25" s="23">
         <v>3</v>
       </c>
-      <c r="E25" s="81"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="82"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="83"/>
       <c r="H25" s="24" t="s">
         <v>231</v>
       </c>
@@ -16073,15 +16268,15 @@
       <c r="Z25" s="11"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A26" s="109"/>
-      <c r="B26" s="103"/>
-      <c r="C26" s="103"/>
+      <c r="A26" s="118"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="92"/>
       <c r="D26" s="23">
         <v>4</v>
       </c>
-      <c r="E26" s="81"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="83"/>
       <c r="H26" s="24" t="s">
         <v>231</v>
       </c>
@@ -16135,15 +16330,15 @@
       <c r="Z26" s="11"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A27" s="109"/>
-      <c r="B27" s="103"/>
-      <c r="C27" s="103"/>
+      <c r="A27" s="118"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="92"/>
       <c r="D27" s="23">
         <v>5</v>
       </c>
-      <c r="E27" s="81"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="82"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="83"/>
       <c r="H27" s="24" t="s">
         <v>231</v>
       </c>
@@ -16197,8 +16392,8 @@
       <c r="Z27" s="11"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A28" s="109"/>
-      <c r="B28" s="103"/>
+      <c r="A28" s="118"/>
+      <c r="B28" s="92"/>
       <c r="C28" s="26"/>
       <c r="D28" s="23"/>
       <c r="E28" s="23"/>
@@ -16225,8 +16420,8 @@
       <c r="Z28" s="11"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A29" s="109"/>
-      <c r="B29" s="103"/>
+      <c r="A29" s="118"/>
+      <c r="B29" s="92"/>
       <c r="C29" s="26"/>
       <c r="D29" s="23"/>
       <c r="E29" s="23"/>
@@ -16255,21 +16450,21 @@
       <c r="Z29" s="11"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A30" s="109"/>
-      <c r="B30" s="103"/>
-      <c r="C30" s="103" t="s">
+      <c r="A30" s="118"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="92" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="23">
         <v>1</v>
       </c>
-      <c r="E30" s="82" t="s">
+      <c r="E30" s="83" t="s">
         <v>230</v>
       </c>
-      <c r="F30" s="83" t="s">
+      <c r="F30" s="84" t="s">
         <v>291</v>
       </c>
-      <c r="G30" s="82" t="s">
+      <c r="G30" s="83" t="s">
         <v>292</v>
       </c>
       <c r="H30" s="24" t="s">
@@ -16325,15 +16520,15 @@
       <c r="Z30" s="11"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A31" s="109"/>
-      <c r="B31" s="103"/>
-      <c r="C31" s="103"/>
+      <c r="A31" s="118"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
       <c r="D31" s="23">
         <v>2</v>
       </c>
-      <c r="E31" s="81"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="82"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="83"/>
       <c r="H31" s="24" t="s">
         <v>238</v>
       </c>
@@ -16387,15 +16582,15 @@
       <c r="Z31" s="11"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A32" s="109"/>
-      <c r="B32" s="103"/>
-      <c r="C32" s="103"/>
+      <c r="A32" s="118"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="92"/>
       <c r="D32" s="23">
         <v>3</v>
       </c>
-      <c r="E32" s="81"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="82"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="83"/>
       <c r="H32" s="24" t="s">
         <v>238</v>
       </c>
@@ -16449,15 +16644,15 @@
       <c r="Z32" s="11"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A33" s="109"/>
-      <c r="B33" s="103"/>
-      <c r="C33" s="103"/>
+      <c r="A33" s="118"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="92"/>
       <c r="D33" s="23">
         <v>4</v>
       </c>
-      <c r="E33" s="81"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="82"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="83"/>
       <c r="H33" s="24" t="s">
         <v>238</v>
       </c>
@@ -16508,15 +16703,15 @@
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A34" s="109"/>
-      <c r="B34" s="103"/>
-      <c r="C34" s="103"/>
+      <c r="A34" s="118"/>
+      <c r="B34" s="92"/>
+      <c r="C34" s="92"/>
       <c r="D34" s="23">
         <v>5</v>
       </c>
-      <c r="E34" s="81"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="82"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="83"/>
       <c r="H34" s="24" t="s">
         <v>239</v>
       </c>
@@ -16567,8 +16762,8 @@
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A35" s="109"/>
-      <c r="B35" s="103"/>
+      <c r="A35" s="118"/>
+      <c r="B35" s="92"/>
       <c r="C35" s="26"/>
       <c r="D35" s="23"/>
       <c r="E35" s="23"/>
@@ -16592,21 +16787,21 @@
       <c r="W35" s="26"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A36" s="109"/>
-      <c r="B36" s="103" t="s">
+      <c r="A36" s="118"/>
+      <c r="B36" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="103" t="s">
+      <c r="C36" s="92" t="s">
         <v>10</v>
       </c>
       <c r="D36" s="23">
         <v>1</v>
       </c>
-      <c r="E36" s="83" t="s">
+      <c r="E36" s="84" t="s">
         <v>293</v>
       </c>
-      <c r="F36" s="82"/>
-      <c r="G36" s="82" t="s">
+      <c r="F36" s="83"/>
+      <c r="G36" s="83" t="s">
         <v>292</v>
       </c>
       <c r="H36" s="26"/>
@@ -16655,15 +16850,15 @@
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A37" s="109"/>
-      <c r="B37" s="103"/>
-      <c r="C37" s="103"/>
+      <c r="A37" s="118"/>
+      <c r="B37" s="92"/>
+      <c r="C37" s="92"/>
       <c r="D37" s="23">
         <v>2</v>
       </c>
-      <c r="E37" s="90"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="82"/>
+      <c r="E37" s="91"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="83"/>
       <c r="H37" s="26"/>
       <c r="I37" s="26"/>
       <c r="J37" s="24" t="s">
@@ -16710,15 +16905,15 @@
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A38" s="109"/>
-      <c r="B38" s="103"/>
-      <c r="C38" s="103"/>
+      <c r="A38" s="118"/>
+      <c r="B38" s="92"/>
+      <c r="C38" s="92"/>
       <c r="D38" s="23">
         <v>3</v>
       </c>
-      <c r="E38" s="90"/>
-      <c r="F38" s="82"/>
-      <c r="G38" s="82"/>
+      <c r="E38" s="91"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="83"/>
       <c r="H38" s="26"/>
       <c r="I38" s="26"/>
       <c r="J38" s="24" t="s">
@@ -16765,15 +16960,15 @@
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A39" s="109"/>
-      <c r="B39" s="103"/>
-      <c r="C39" s="103"/>
+      <c r="A39" s="118"/>
+      <c r="B39" s="92"/>
+      <c r="C39" s="92"/>
       <c r="D39" s="23">
         <v>4</v>
       </c>
-      <c r="E39" s="90"/>
-      <c r="F39" s="82"/>
-      <c r="G39" s="82"/>
+      <c r="E39" s="91"/>
+      <c r="F39" s="83"/>
+      <c r="G39" s="83"/>
       <c r="H39" s="26"/>
       <c r="I39" s="26"/>
       <c r="J39" s="24" t="s">
@@ -16820,15 +17015,15 @@
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A40" s="110"/>
-      <c r="B40" s="103"/>
-      <c r="C40" s="103"/>
+      <c r="A40" s="119"/>
+      <c r="B40" s="92"/>
+      <c r="C40" s="92"/>
       <c r="D40" s="23">
         <v>5</v>
       </c>
-      <c r="E40" s="90"/>
-      <c r="F40" s="82"/>
-      <c r="G40" s="82"/>
+      <c r="E40" s="91"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="83"/>
       <c r="H40" s="26"/>
       <c r="I40" s="26"/>
       <c r="J40" s="24" t="s">
@@ -16890,37 +17085,37 @@
       <c r="G41" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="H41" s="81" t="s">
+      <c r="H41" s="82" t="s">
         <v>189</v>
       </c>
-      <c r="I41" s="81"/>
-      <c r="J41" s="81"/>
-      <c r="K41" s="81"/>
-      <c r="L41" s="81"/>
-      <c r="M41" s="81"/>
-      <c r="N41" s="81"/>
-      <c r="O41" s="81"/>
+      <c r="I41" s="82"/>
+      <c r="J41" s="82"/>
+      <c r="K41" s="82"/>
+      <c r="L41" s="82"/>
+      <c r="M41" s="82"/>
+      <c r="N41" s="82"/>
+      <c r="O41" s="82"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A42" s="82" t="s">
+      <c r="A42" s="83" t="s">
         <v>294</v>
       </c>
-      <c r="B42" s="103" t="s">
+      <c r="B42" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="103" t="s">
+      <c r="C42" s="92" t="s">
         <v>98</v>
       </c>
       <c r="D42" s="23">
         <v>1</v>
       </c>
-      <c r="E42" s="82" t="s">
+      <c r="E42" s="83" t="s">
         <v>295</v>
       </c>
-      <c r="F42" s="82" t="s">
+      <c r="F42" s="83" t="s">
         <v>296</v>
       </c>
-      <c r="G42" s="82"/>
+      <c r="G42" s="83"/>
       <c r="H42" s="24" t="s">
         <v>297</v>
       </c>
@@ -16947,15 +17142,15 @@
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A43" s="82"/>
-      <c r="B43" s="103"/>
-      <c r="C43" s="103"/>
+      <c r="A43" s="83"/>
+      <c r="B43" s="92"/>
+      <c r="C43" s="92"/>
       <c r="D43" s="23">
         <v>2</v>
       </c>
-      <c r="E43" s="81"/>
-      <c r="F43" s="82"/>
-      <c r="G43" s="82"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="83"/>
+      <c r="G43" s="83"/>
       <c r="H43" s="24" t="s">
         <v>298</v>
       </c>
@@ -16982,15 +17177,15 @@
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A44" s="82"/>
-      <c r="B44" s="103"/>
-      <c r="C44" s="103"/>
+      <c r="A44" s="83"/>
+      <c r="B44" s="92"/>
+      <c r="C44" s="92"/>
       <c r="D44" s="23">
         <v>3</v>
       </c>
-      <c r="E44" s="81"/>
-      <c r="F44" s="82"/>
-      <c r="G44" s="82"/>
+      <c r="E44" s="82"/>
+      <c r="F44" s="83"/>
+      <c r="G44" s="83"/>
       <c r="H44" s="24" t="s">
         <v>299</v>
       </c>
@@ -17017,15 +17212,15 @@
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A45" s="82"/>
-      <c r="B45" s="103"/>
-      <c r="C45" s="103"/>
+      <c r="A45" s="83"/>
+      <c r="B45" s="92"/>
+      <c r="C45" s="92"/>
       <c r="D45" s="23">
         <v>4</v>
       </c>
-      <c r="E45" s="81"/>
-      <c r="F45" s="82"/>
-      <c r="G45" s="82"/>
+      <c r="E45" s="82"/>
+      <c r="F45" s="83"/>
+      <c r="G45" s="83"/>
       <c r="H45" s="24" t="s">
         <v>299</v>
       </c>
@@ -17052,15 +17247,15 @@
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A46" s="82"/>
-      <c r="B46" s="103"/>
-      <c r="C46" s="103"/>
+      <c r="A46" s="83"/>
+      <c r="B46" s="92"/>
+      <c r="C46" s="92"/>
       <c r="D46" s="23">
         <v>5</v>
       </c>
-      <c r="E46" s="81"/>
-      <c r="F46" s="82"/>
-      <c r="G46" s="82"/>
+      <c r="E46" s="82"/>
+      <c r="F46" s="83"/>
+      <c r="G46" s="83"/>
       <c r="H46" s="24" t="s">
         <v>299</v>
       </c>
@@ -17087,8 +17282,8 @@
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A47" s="82"/>
-      <c r="B47" s="103"/>
+      <c r="A47" s="83"/>
+      <c r="B47" s="92"/>
       <c r="C47" s="26"/>
       <c r="D47" s="23"/>
       <c r="E47" s="23"/>
@@ -17104,8 +17299,8 @@
       <c r="O47" s="23"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A48" s="82"/>
-      <c r="B48" s="103"/>
+      <c r="A48" s="83"/>
+      <c r="B48" s="92"/>
       <c r="C48" s="26"/>
       <c r="D48" s="23"/>
       <c r="E48" s="23"/>
@@ -17121,21 +17316,21 @@
       <c r="O48" s="23"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A49" s="82"/>
-      <c r="B49" s="103"/>
-      <c r="C49" s="103" t="s">
+      <c r="A49" s="83"/>
+      <c r="B49" s="92"/>
+      <c r="C49" s="92" t="s">
         <v>2</v>
       </c>
       <c r="D49" s="23">
         <v>1</v>
       </c>
-      <c r="E49" s="82" t="s">
+      <c r="E49" s="83" t="s">
         <v>295</v>
       </c>
-      <c r="F49" s="82" t="s">
+      <c r="F49" s="83" t="s">
         <v>296</v>
       </c>
-      <c r="G49" s="82"/>
+      <c r="G49" s="83"/>
       <c r="H49" s="24" t="s">
         <v>309</v>
       </c>
@@ -17162,15 +17357,15 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A50" s="82"/>
-      <c r="B50" s="103"/>
-      <c r="C50" s="103"/>
+      <c r="A50" s="83"/>
+      <c r="B50" s="92"/>
+      <c r="C50" s="92"/>
       <c r="D50" s="23">
         <v>2</v>
       </c>
-      <c r="E50" s="81"/>
-      <c r="F50" s="82"/>
-      <c r="G50" s="82"/>
+      <c r="E50" s="82"/>
+      <c r="F50" s="83"/>
+      <c r="G50" s="83"/>
       <c r="H50" s="24" t="s">
         <v>309</v>
       </c>
@@ -17197,15 +17392,15 @@
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A51" s="82"/>
-      <c r="B51" s="103"/>
-      <c r="C51" s="103"/>
+      <c r="A51" s="83"/>
+      <c r="B51" s="92"/>
+      <c r="C51" s="92"/>
       <c r="D51" s="23">
         <v>3</v>
       </c>
-      <c r="E51" s="81"/>
-      <c r="F51" s="82"/>
-      <c r="G51" s="82"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="83"/>
+      <c r="G51" s="83"/>
       <c r="H51" s="24" t="s">
         <v>310</v>
       </c>
@@ -17232,15 +17427,15 @@
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A52" s="82"/>
-      <c r="B52" s="103"/>
-      <c r="C52" s="103"/>
+      <c r="A52" s="83"/>
+      <c r="B52" s="92"/>
+      <c r="C52" s="92"/>
       <c r="D52" s="23">
         <v>4</v>
       </c>
-      <c r="E52" s="81"/>
-      <c r="F52" s="82"/>
-      <c r="G52" s="82"/>
+      <c r="E52" s="82"/>
+      <c r="F52" s="83"/>
+      <c r="G52" s="83"/>
       <c r="H52" s="24" t="s">
         <v>310</v>
       </c>
@@ -17267,15 +17462,15 @@
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A53" s="82"/>
-      <c r="B53" s="103"/>
-      <c r="C53" s="103"/>
+      <c r="A53" s="83"/>
+      <c r="B53" s="92"/>
+      <c r="C53" s="92"/>
       <c r="D53" s="23">
         <v>5</v>
       </c>
-      <c r="E53" s="81"/>
-      <c r="F53" s="82"/>
-      <c r="G53" s="82"/>
+      <c r="E53" s="82"/>
+      <c r="F53" s="83"/>
+      <c r="G53" s="83"/>
       <c r="H53" s="24" t="s">
         <v>309</v>
       </c>
@@ -17302,8 +17497,8 @@
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A54" s="82"/>
-      <c r="B54" s="103"/>
+      <c r="A54" s="83"/>
+      <c r="B54" s="92"/>
       <c r="C54" s="26"/>
       <c r="D54" s="23"/>
       <c r="E54" s="23"/>
@@ -17319,23 +17514,23 @@
       <c r="O54" s="23"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A55" s="82"/>
-      <c r="B55" s="103" t="s">
+      <c r="A55" s="83"/>
+      <c r="B55" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="103" t="s">
+      <c r="C55" s="92" t="s">
         <v>10</v>
       </c>
       <c r="D55" s="23">
         <v>1</v>
       </c>
-      <c r="E55" s="82" t="s">
+      <c r="E55" s="83" t="s">
         <v>295</v>
       </c>
-      <c r="F55" s="82" t="s">
+      <c r="F55" s="83" t="s">
         <v>296</v>
       </c>
-      <c r="G55" s="82"/>
+      <c r="G55" s="83"/>
       <c r="H55" s="24" t="s">
         <v>327</v>
       </c>
@@ -17362,15 +17557,15 @@
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A56" s="82"/>
-      <c r="B56" s="103"/>
-      <c r="C56" s="103"/>
+      <c r="A56" s="83"/>
+      <c r="B56" s="92"/>
+      <c r="C56" s="92"/>
       <c r="D56" s="23">
         <v>2</v>
       </c>
-      <c r="E56" s="81"/>
-      <c r="F56" s="82"/>
-      <c r="G56" s="82"/>
+      <c r="E56" s="82"/>
+      <c r="F56" s="83"/>
+      <c r="G56" s="83"/>
       <c r="H56" s="24" t="s">
         <v>328</v>
       </c>
@@ -17397,15 +17592,15 @@
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A57" s="82"/>
-      <c r="B57" s="103"/>
-      <c r="C57" s="103"/>
+      <c r="A57" s="83"/>
+      <c r="B57" s="92"/>
+      <c r="C57" s="92"/>
       <c r="D57" s="23">
         <v>3</v>
       </c>
-      <c r="E57" s="81"/>
-      <c r="F57" s="82"/>
-      <c r="G57" s="82"/>
+      <c r="E57" s="82"/>
+      <c r="F57" s="83"/>
+      <c r="G57" s="83"/>
       <c r="H57" s="24" t="s">
         <v>329</v>
       </c>
@@ -17432,15 +17627,15 @@
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A58" s="82"/>
-      <c r="B58" s="103"/>
-      <c r="C58" s="103"/>
+      <c r="A58" s="83"/>
+      <c r="B58" s="92"/>
+      <c r="C58" s="92"/>
       <c r="D58" s="23">
         <v>4</v>
       </c>
-      <c r="E58" s="81"/>
-      <c r="F58" s="82"/>
-      <c r="G58" s="82"/>
+      <c r="E58" s="82"/>
+      <c r="F58" s="83"/>
+      <c r="G58" s="83"/>
       <c r="H58" s="24" t="s">
         <v>330</v>
       </c>
@@ -17467,15 +17662,15 @@
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A59" s="82"/>
-      <c r="B59" s="103"/>
-      <c r="C59" s="103"/>
+      <c r="A59" s="83"/>
+      <c r="B59" s="92"/>
+      <c r="C59" s="92"/>
       <c r="D59" s="23">
         <v>5</v>
       </c>
-      <c r="E59" s="81"/>
-      <c r="F59" s="82"/>
-      <c r="G59" s="82"/>
+      <c r="E59" s="82"/>
+      <c r="F59" s="83"/>
+      <c r="G59" s="83"/>
       <c r="H59" s="24" t="s">
         <v>331</v>
       </c>
@@ -17517,37 +17712,37 @@
       <c r="G60" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="H60" s="81" t="s">
+      <c r="H60" s="82" t="s">
         <v>189</v>
       </c>
-      <c r="I60" s="81"/>
-      <c r="J60" s="81"/>
-      <c r="K60" s="81"/>
-      <c r="L60" s="81"/>
-      <c r="M60" s="81"/>
-      <c r="N60" s="81"/>
-      <c r="O60" s="81"/>
+      <c r="I60" s="82"/>
+      <c r="J60" s="82"/>
+      <c r="K60" s="82"/>
+      <c r="L60" s="82"/>
+      <c r="M60" s="82"/>
+      <c r="N60" s="82"/>
+      <c r="O60" s="82"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A61" s="82" t="s">
+      <c r="A61" s="83" t="s">
         <v>134</v>
       </c>
-      <c r="B61" s="103" t="s">
+      <c r="B61" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="103" t="s">
+      <c r="C61" s="92" t="s">
         <v>98</v>
       </c>
       <c r="D61" s="23">
         <v>1</v>
       </c>
-      <c r="E61" s="82" t="s">
+      <c r="E61" s="83" t="s">
         <v>366</v>
       </c>
-      <c r="F61" s="82" t="s">
+      <c r="F61" s="83" t="s">
         <v>367</v>
       </c>
-      <c r="G61" s="82" t="s">
+      <c r="G61" s="83" t="s">
         <v>368</v>
       </c>
       <c r="H61" s="24" t="s">
@@ -17576,15 +17771,15 @@
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A62" s="82"/>
-      <c r="B62" s="103"/>
-      <c r="C62" s="103"/>
+      <c r="A62" s="83"/>
+      <c r="B62" s="92"/>
+      <c r="C62" s="92"/>
       <c r="D62" s="23">
         <v>2</v>
       </c>
-      <c r="E62" s="81"/>
-      <c r="F62" s="82"/>
-      <c r="G62" s="82"/>
+      <c r="E62" s="82"/>
+      <c r="F62" s="83"/>
+      <c r="G62" s="83"/>
       <c r="H62" s="24" t="s">
         <v>370</v>
       </c>
@@ -17611,15 +17806,15 @@
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A63" s="82"/>
-      <c r="B63" s="103"/>
-      <c r="C63" s="103"/>
+      <c r="A63" s="83"/>
+      <c r="B63" s="92"/>
+      <c r="C63" s="92"/>
       <c r="D63" s="23">
         <v>3</v>
       </c>
-      <c r="E63" s="81"/>
-      <c r="F63" s="82"/>
-      <c r="G63" s="82"/>
+      <c r="E63" s="82"/>
+      <c r="F63" s="83"/>
+      <c r="G63" s="83"/>
       <c r="H63" s="24" t="s">
         <v>370</v>
       </c>
@@ -17646,15 +17841,15 @@
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A64" s="82"/>
-      <c r="B64" s="103"/>
-      <c r="C64" s="103"/>
+      <c r="A64" s="83"/>
+      <c r="B64" s="92"/>
+      <c r="C64" s="92"/>
       <c r="D64" s="23">
         <v>4</v>
       </c>
-      <c r="E64" s="81"/>
-      <c r="F64" s="82"/>
-      <c r="G64" s="82"/>
+      <c r="E64" s="82"/>
+      <c r="F64" s="83"/>
+      <c r="G64" s="83"/>
       <c r="H64" s="24" t="s">
         <v>369</v>
       </c>
@@ -17681,15 +17876,15 @@
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A65" s="82"/>
-      <c r="B65" s="103"/>
-      <c r="C65" s="103"/>
+      <c r="A65" s="83"/>
+      <c r="B65" s="92"/>
+      <c r="C65" s="92"/>
       <c r="D65" s="23">
         <v>5</v>
       </c>
-      <c r="E65" s="81"/>
-      <c r="F65" s="82"/>
-      <c r="G65" s="82"/>
+      <c r="E65" s="82"/>
+      <c r="F65" s="83"/>
+      <c r="G65" s="83"/>
       <c r="H65" s="24" t="s">
         <v>369</v>
       </c>
@@ -17716,8 +17911,8 @@
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A66" s="82"/>
-      <c r="B66" s="103"/>
+      <c r="A66" s="83"/>
+      <c r="B66" s="92"/>
       <c r="C66" s="26"/>
       <c r="D66" s="23"/>
       <c r="E66" s="23"/>
@@ -17733,8 +17928,8 @@
       <c r="O66" s="23"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A67" s="82"/>
-      <c r="B67" s="103"/>
+      <c r="A67" s="83"/>
+      <c r="B67" s="92"/>
       <c r="C67" s="26"/>
       <c r="D67" s="23"/>
       <c r="E67" s="23"/>
@@ -17750,21 +17945,21 @@
       <c r="O67" s="23"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A68" s="82"/>
-      <c r="B68" s="103"/>
-      <c r="C68" s="103" t="s">
+      <c r="A68" s="83"/>
+      <c r="B68" s="92"/>
+      <c r="C68" s="92" t="s">
         <v>2</v>
       </c>
       <c r="D68" s="23">
         <v>1</v>
       </c>
-      <c r="E68" s="82" t="s">
+      <c r="E68" s="83" t="s">
         <v>366</v>
       </c>
-      <c r="F68" s="82" t="s">
+      <c r="F68" s="83" t="s">
         <v>367</v>
       </c>
-      <c r="G68" s="82" t="s">
+      <c r="G68" s="83" t="s">
         <v>368</v>
       </c>
       <c r="H68" s="23" t="s">
@@ -17793,15 +17988,15 @@
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A69" s="82"/>
-      <c r="B69" s="103"/>
-      <c r="C69" s="103"/>
+      <c r="A69" s="83"/>
+      <c r="B69" s="92"/>
+      <c r="C69" s="92"/>
       <c r="D69" s="23">
         <v>2</v>
       </c>
-      <c r="E69" s="81"/>
-      <c r="F69" s="82"/>
-      <c r="G69" s="82"/>
+      <c r="E69" s="82"/>
+      <c r="F69" s="83"/>
+      <c r="G69" s="83"/>
       <c r="H69" s="23" t="s">
         <v>375</v>
       </c>
@@ -17828,15 +18023,15 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A70" s="82"/>
-      <c r="B70" s="103"/>
-      <c r="C70" s="103"/>
+      <c r="A70" s="83"/>
+      <c r="B70" s="92"/>
+      <c r="C70" s="92"/>
       <c r="D70" s="23">
         <v>3</v>
       </c>
-      <c r="E70" s="81"/>
-      <c r="F70" s="82"/>
-      <c r="G70" s="82"/>
+      <c r="E70" s="82"/>
+      <c r="F70" s="83"/>
+      <c r="G70" s="83"/>
       <c r="H70" s="23" t="s">
         <v>376</v>
       </c>
@@ -17863,15 +18058,15 @@
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A71" s="82"/>
-      <c r="B71" s="103"/>
-      <c r="C71" s="103"/>
+      <c r="A71" s="83"/>
+      <c r="B71" s="92"/>
+      <c r="C71" s="92"/>
       <c r="D71" s="23">
         <v>4</v>
       </c>
-      <c r="E71" s="81"/>
-      <c r="F71" s="82"/>
-      <c r="G71" s="82"/>
+      <c r="E71" s="82"/>
+      <c r="F71" s="83"/>
+      <c r="G71" s="83"/>
       <c r="H71" s="23" t="s">
         <v>375</v>
       </c>
@@ -17898,15 +18093,15 @@
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A72" s="82"/>
-      <c r="B72" s="103"/>
-      <c r="C72" s="103"/>
+      <c r="A72" s="83"/>
+      <c r="B72" s="92"/>
+      <c r="C72" s="92"/>
       <c r="D72" s="23">
         <v>5</v>
       </c>
-      <c r="E72" s="81"/>
-      <c r="F72" s="82"/>
-      <c r="G72" s="82"/>
+      <c r="E72" s="82"/>
+      <c r="F72" s="83"/>
+      <c r="G72" s="83"/>
       <c r="H72" s="23" t="s">
         <v>376</v>
       </c>
@@ -17933,8 +18128,8 @@
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A73" s="82"/>
-      <c r="B73" s="103"/>
+      <c r="A73" s="83"/>
+      <c r="B73" s="92"/>
       <c r="C73" s="26"/>
       <c r="D73" s="23"/>
       <c r="E73" s="23"/>
@@ -17950,23 +18145,23 @@
       <c r="O73" s="23"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A74" s="82"/>
-      <c r="B74" s="103" t="s">
+      <c r="A74" s="83"/>
+      <c r="B74" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="C74" s="103" t="s">
+      <c r="C74" s="92" t="s">
         <v>10</v>
       </c>
       <c r="D74" s="23">
         <v>1</v>
       </c>
-      <c r="E74" s="82" t="s">
+      <c r="E74" s="83" t="s">
         <v>366</v>
       </c>
-      <c r="F74" s="82" t="s">
+      <c r="F74" s="83" t="s">
         <v>367</v>
       </c>
-      <c r="G74" s="82" t="s">
+      <c r="G74" s="83" t="s">
         <v>368</v>
       </c>
       <c r="H74" s="24" t="s">
@@ -17995,15 +18190,15 @@
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A75" s="82"/>
-      <c r="B75" s="103"/>
-      <c r="C75" s="103"/>
+      <c r="A75" s="83"/>
+      <c r="B75" s="92"/>
+      <c r="C75" s="92"/>
       <c r="D75" s="23">
         <v>2</v>
       </c>
-      <c r="E75" s="81"/>
-      <c r="F75" s="82"/>
-      <c r="G75" s="82"/>
+      <c r="E75" s="82"/>
+      <c r="F75" s="83"/>
+      <c r="G75" s="83"/>
       <c r="H75" s="24" t="s">
         <v>390</v>
       </c>
@@ -18030,15 +18225,15 @@
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A76" s="82"/>
-      <c r="B76" s="103"/>
-      <c r="C76" s="103"/>
+      <c r="A76" s="83"/>
+      <c r="B76" s="92"/>
+      <c r="C76" s="92"/>
       <c r="D76" s="23">
         <v>3</v>
       </c>
-      <c r="E76" s="81"/>
-      <c r="F76" s="82"/>
-      <c r="G76" s="82"/>
+      <c r="E76" s="82"/>
+      <c r="F76" s="83"/>
+      <c r="G76" s="83"/>
       <c r="H76" s="24" t="s">
         <v>391</v>
       </c>
@@ -18065,15 +18260,15 @@
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A77" s="82"/>
-      <c r="B77" s="103"/>
-      <c r="C77" s="103"/>
+      <c r="A77" s="83"/>
+      <c r="B77" s="92"/>
+      <c r="C77" s="92"/>
       <c r="D77" s="23">
         <v>4</v>
       </c>
-      <c r="E77" s="81"/>
-      <c r="F77" s="82"/>
-      <c r="G77" s="82"/>
+      <c r="E77" s="82"/>
+      <c r="F77" s="83"/>
+      <c r="G77" s="83"/>
       <c r="H77" s="24" t="s">
         <v>392</v>
       </c>
@@ -18100,15 +18295,15 @@
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A78" s="82"/>
-      <c r="B78" s="103"/>
-      <c r="C78" s="103"/>
+      <c r="A78" s="83"/>
+      <c r="B78" s="92"/>
+      <c r="C78" s="92"/>
       <c r="D78" s="23">
         <v>5</v>
       </c>
-      <c r="E78" s="81"/>
-      <c r="F78" s="82"/>
-      <c r="G78" s="82"/>
+      <c r="E78" s="82"/>
+      <c r="F78" s="83"/>
+      <c r="G78" s="83"/>
       <c r="H78" s="24" t="s">
         <v>393</v>
       </c>
@@ -18226,45 +18421,22 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="G42:G46"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="C36:C40"/>
-    <mergeCell ref="E36:E40"/>
-    <mergeCell ref="F36:F40"/>
-    <mergeCell ref="E49:E53"/>
-    <mergeCell ref="F49:F53"/>
-    <mergeCell ref="A42:A59"/>
-    <mergeCell ref="B42:B54"/>
-    <mergeCell ref="C42:C46"/>
-    <mergeCell ref="E42:E46"/>
-    <mergeCell ref="F42:F46"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="C55:C59"/>
-    <mergeCell ref="E55:E59"/>
-    <mergeCell ref="F55:F59"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="E30:E34"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="H41:O41"/>
-    <mergeCell ref="E11:E15"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="G17:G21"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="F17:F21"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="G55:G59"/>
+    <mergeCell ref="G68:G72"/>
+    <mergeCell ref="G74:G78"/>
+    <mergeCell ref="H60:O60"/>
+    <mergeCell ref="A61:A78"/>
+    <mergeCell ref="B61:B73"/>
+    <mergeCell ref="C61:C65"/>
+    <mergeCell ref="E61:E65"/>
+    <mergeCell ref="F61:F65"/>
+    <mergeCell ref="G61:G65"/>
+    <mergeCell ref="C68:C72"/>
+    <mergeCell ref="E68:E72"/>
+    <mergeCell ref="F68:F72"/>
+    <mergeCell ref="B74:B78"/>
+    <mergeCell ref="C74:C78"/>
+    <mergeCell ref="E74:E78"/>
     <mergeCell ref="F74:F78"/>
     <mergeCell ref="G49:G53"/>
     <mergeCell ref="Q3:V3"/>
@@ -18281,22 +18453,45 @@
     <mergeCell ref="J9:Q9"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="C11:C15"/>
-    <mergeCell ref="G55:G59"/>
-    <mergeCell ref="G68:G72"/>
-    <mergeCell ref="G74:G78"/>
-    <mergeCell ref="H60:O60"/>
-    <mergeCell ref="A61:A78"/>
-    <mergeCell ref="B61:B73"/>
-    <mergeCell ref="C61:C65"/>
-    <mergeCell ref="E61:E65"/>
-    <mergeCell ref="F61:F65"/>
-    <mergeCell ref="G61:G65"/>
-    <mergeCell ref="C68:C72"/>
-    <mergeCell ref="E68:E72"/>
-    <mergeCell ref="F68:F72"/>
-    <mergeCell ref="B74:B78"/>
-    <mergeCell ref="C74:C78"/>
-    <mergeCell ref="E74:E78"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="G17:G21"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="F17:F21"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="H41:O41"/>
+    <mergeCell ref="A42:A59"/>
+    <mergeCell ref="B42:B54"/>
+    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="E42:E46"/>
+    <mergeCell ref="F42:F46"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="E55:E59"/>
+    <mergeCell ref="F55:F59"/>
+    <mergeCell ref="G42:G46"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="F30:F34"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="E36:E40"/>
+    <mergeCell ref="F36:F40"/>
+    <mergeCell ref="E49:E53"/>
+    <mergeCell ref="F49:F53"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18320,64 +18515,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="123" t="s">
+      <c r="E2" s="124" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="128" t="s">
+      <c r="E3" s="129" t="s">
         <v>436</v>
       </c>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128" t="s">
+      <c r="F3" s="129"/>
+      <c r="G3" s="129" t="s">
         <v>437</v>
       </c>
-      <c r="H3" s="128"/>
+      <c r="H3" s="129"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="127" t="s">
+      <c r="C4" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="103"/>
-      <c r="E4" s="127" t="s">
+      <c r="D4" s="92"/>
+      <c r="E4" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="103"/>
-      <c r="G4" s="127" t="s">
+      <c r="F4" s="92"/>
+      <c r="G4" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="103"/>
+      <c r="H4" s="92"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
@@ -18402,7 +18597,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="103" t="s">
+      <c r="A6" s="92" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="1">
@@ -18428,7 +18623,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="103"/>
+      <c r="A7" s="92"/>
       <c r="B7" s="1">
         <v>2</v>
       </c>
@@ -18452,7 +18647,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="103"/>
+      <c r="A8" s="92"/>
       <c r="B8" s="1">
         <v>3</v>
       </c>
@@ -18476,7 +18671,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="103"/>
+      <c r="A9" s="92"/>
       <c r="B9" s="7">
         <v>4</v>
       </c>
@@ -18500,7 +18695,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="103"/>
+      <c r="A10" s="92"/>
       <c r="B10" s="7">
         <v>5</v>
       </c>
@@ -18524,7 +18719,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="103" t="s">
+      <c r="A11" s="92" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="1">
@@ -18550,7 +18745,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="103"/>
+      <c r="A12" s="92"/>
       <c r="B12" s="1">
         <v>2</v>
       </c>
@@ -18574,7 +18769,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="103"/>
+      <c r="A13" s="92"/>
       <c r="B13" s="1">
         <v>3</v>
       </c>
@@ -18598,7 +18793,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="103"/>
+      <c r="A14" s="92"/>
       <c r="B14" s="7">
         <v>4</v>
       </c>
@@ -18622,7 +18817,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="103"/>
+      <c r="A15" s="92"/>
       <c r="B15" s="7">
         <v>5</v>
       </c>

--- a/数据记录/记录表单.xlsx
+++ b/数据记录/记录表单.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="496">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4366,6 +4366,36 @@
   </si>
   <si>
     <t>太阳不可见 照射未知</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>太阳可见 无照射</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 有云</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>太阳不可见 无照射</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 有云</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4779,10 +4809,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -4798,9 +4831,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -5253,8 +5283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AS57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V40" sqref="V40"/>
+    <sheetView tabSelected="1" topLeftCell="P23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC61" sqref="AC61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5269,36 +5299,36 @@
       <c r="A4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="68">
+      <c r="B4" s="69">
         <v>42309</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="68">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="69">
         <v>42310</v>
       </c>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="68">
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="69">
         <v>42311</v>
       </c>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
-      <c r="X4" s="71"/>
-      <c r="Y4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="73"/>
       <c r="Z4" s="59">
         <v>42312</v>
       </c>
@@ -5332,18 +5362,18 @@
       <c r="A5" s="49" t="s">
         <v>447</v>
       </c>
-      <c r="B5" s="66">
+      <c r="B5" s="68">
         <v>0.70833333333333337</v>
       </c>
       <c r="C5" s="64"/>
       <c r="D5" s="64"/>
       <c r="E5" s="64"/>
-      <c r="F5" s="66">
+      <c r="F5" s="68">
         <v>0.68819444444444444</v>
       </c>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
       <c r="J5" s="61">
         <v>0.41041666666666665</v>
       </c>
@@ -5523,18 +5553,18 @@
       <c r="A8" s="49" t="s">
         <v>438</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="68" t="s">
         <v>463</v>
       </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66" t="s">
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68" t="s">
         <v>465</v>
       </c>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
       <c r="J8" s="64" t="s">
         <v>466</v>
       </c>
@@ -8313,17 +8343,21 @@
       <c r="S33" s="62"/>
       <c r="T33" s="62"/>
       <c r="U33" s="63"/>
-      <c r="V33" s="73" t="s">
+      <c r="V33" s="66" t="s">
         <v>491</v>
       </c>
       <c r="W33" s="62"/>
       <c r="X33" s="62"/>
       <c r="Y33" s="63"/>
-      <c r="Z33" s="61"/>
+      <c r="Z33" s="61">
+        <v>0.62361111111111112</v>
+      </c>
       <c r="AA33" s="62"/>
       <c r="AB33" s="62"/>
       <c r="AC33" s="63"/>
-      <c r="AD33" s="61"/>
+      <c r="AD33" s="61">
+        <v>0.68055555555555547</v>
+      </c>
       <c r="AE33" s="62"/>
       <c r="AF33" s="62"/>
       <c r="AG33" s="63"/>
@@ -8356,7 +8390,7 @@
       <c r="K34" s="62"/>
       <c r="L34" s="62"/>
       <c r="M34" s="63"/>
-      <c r="N34" s="73" t="s">
+      <c r="N34" s="66" t="s">
         <v>485</v>
       </c>
       <c r="O34" s="62"/>
@@ -8407,7 +8441,7 @@
       <c r="G35" s="62"/>
       <c r="H35" s="62"/>
       <c r="I35" s="63"/>
-      <c r="J35" s="73" t="s">
+      <c r="J35" s="66" t="s">
         <v>483</v>
       </c>
       <c r="K35" s="62"/>
@@ -8423,17 +8457,21 @@
       <c r="S35" s="62"/>
       <c r="T35" s="62"/>
       <c r="U35" s="63"/>
-      <c r="V35" s="73" t="s">
+      <c r="V35" s="66" t="s">
         <v>492</v>
       </c>
       <c r="W35" s="62"/>
       <c r="X35" s="62"/>
       <c r="Y35" s="63"/>
-      <c r="Z35" s="61"/>
+      <c r="Z35" s="61">
+        <v>0.62916666666666665</v>
+      </c>
       <c r="AA35" s="62"/>
       <c r="AB35" s="62"/>
       <c r="AC35" s="63"/>
-      <c r="AD35" s="61"/>
+      <c r="AD35" s="61">
+        <v>0.68541666666666667</v>
+      </c>
       <c r="AE35" s="62"/>
       <c r="AF35" s="62"/>
       <c r="AG35" s="63"/>
@@ -8490,11 +8528,15 @@
       <c r="W36" s="64"/>
       <c r="X36" s="64"/>
       <c r="Y36" s="64"/>
-      <c r="Z36" s="64"/>
+      <c r="Z36" s="67" t="s">
+        <v>494</v>
+      </c>
       <c r="AA36" s="64"/>
       <c r="AB36" s="64"/>
       <c r="AC36" s="64"/>
-      <c r="AD36" s="64"/>
+      <c r="AD36" s="67" t="s">
+        <v>495</v>
+      </c>
       <c r="AE36" s="64"/>
       <c r="AF36" s="64"/>
       <c r="AG36" s="64"/>
@@ -8715,20 +8757,36 @@
       <c r="V38" s="49">
         <v>10.73</v>
       </c>
-      <c r="W38" s="49"/>
-      <c r="X38" s="49"/>
+      <c r="W38" s="49">
+        <v>0.09</v>
+      </c>
+      <c r="X38" s="49">
+        <v>110.8</v>
+      </c>
       <c r="Y38" s="50" t="s">
         <v>440</v>
       </c>
-      <c r="Z38" s="49"/>
-      <c r="AA38" s="49"/>
-      <c r="AB38" s="49"/>
+      <c r="Z38" s="49">
+        <v>10.59</v>
+      </c>
+      <c r="AA38" s="49">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="AB38" s="49">
+        <v>79.599999999999994</v>
+      </c>
       <c r="AC38" s="50" t="s">
         <v>440</v>
       </c>
-      <c r="AD38" s="49"/>
-      <c r="AE38" s="49"/>
-      <c r="AF38" s="49"/>
+      <c r="AD38" s="49">
+        <v>10.24</v>
+      </c>
+      <c r="AE38" s="49">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="AF38" s="49">
+        <v>37.4</v>
+      </c>
       <c r="AG38" s="50" t="s">
         <v>440</v>
       </c>
@@ -8818,17 +8876,39 @@
       <c r="V39" s="49">
         <v>10.71</v>
       </c>
-      <c r="W39" s="49"/>
-      <c r="X39" s="49"/>
-      <c r="Y39" s="49"/>
-      <c r="Z39" s="49"/>
-      <c r="AA39" s="49"/>
-      <c r="AB39" s="49"/>
-      <c r="AC39" s="49"/>
-      <c r="AD39" s="49"/>
-      <c r="AE39" s="49"/>
-      <c r="AF39" s="49"/>
-      <c r="AG39" s="49"/>
+      <c r="W39" s="49">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="X39" s="49">
+        <v>110.8</v>
+      </c>
+      <c r="Y39" s="49">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="Z39" s="49">
+        <v>10.58</v>
+      </c>
+      <c r="AA39" s="49">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="AB39" s="49">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="AC39" s="49">
+        <v>10.4</v>
+      </c>
+      <c r="AD39" s="49">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="AE39" s="49">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AF39" s="49">
+        <v>38</v>
+      </c>
+      <c r="AG39" s="49">
+        <v>10</v>
+      </c>
       <c r="AH39" s="49"/>
       <c r="AI39" s="49"/>
       <c r="AJ39" s="49"/>
@@ -8906,18 +8986,42 @@
       <c r="U40" s="49">
         <v>33.700000000000003</v>
       </c>
-      <c r="V40" s="49"/>
-      <c r="W40" s="49"/>
-      <c r="X40" s="49"/>
-      <c r="Y40" s="49"/>
-      <c r="Z40" s="49"/>
-      <c r="AA40" s="49"/>
-      <c r="AB40" s="49"/>
-      <c r="AC40" s="49"/>
-      <c r="AD40" s="49"/>
-      <c r="AE40" s="49"/>
-      <c r="AF40" s="49"/>
-      <c r="AG40" s="49"/>
+      <c r="V40" s="49">
+        <v>10.7</v>
+      </c>
+      <c r="W40" s="49">
+        <v>0.112</v>
+      </c>
+      <c r="X40" s="49">
+        <v>106.4</v>
+      </c>
+      <c r="Y40" s="49">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="Z40" s="49">
+        <v>10.57</v>
+      </c>
+      <c r="AA40" s="49">
+        <v>0.109</v>
+      </c>
+      <c r="AB40" s="49">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="AC40" s="49">
+        <v>34</v>
+      </c>
+      <c r="AD40" s="49">
+        <v>10.18</v>
+      </c>
+      <c r="AE40" s="49">
+        <v>0.105</v>
+      </c>
+      <c r="AF40" s="49">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="AG40" s="49">
+        <v>34.299999999999997</v>
+      </c>
       <c r="AH40" s="49"/>
       <c r="AI40" s="49"/>
       <c r="AJ40" s="49"/>
@@ -8985,17 +9089,35 @@
         <v>363.8</v>
       </c>
       <c r="U41" s="49"/>
-      <c r="V41" s="49"/>
-      <c r="W41" s="49"/>
-      <c r="X41" s="49"/>
+      <c r="V41" s="49">
+        <v>10.69</v>
+      </c>
+      <c r="W41" s="49">
+        <v>0.123</v>
+      </c>
+      <c r="X41" s="49">
+        <v>105.9</v>
+      </c>
       <c r="Y41" s="49"/>
-      <c r="Z41" s="49"/>
-      <c r="AA41" s="49"/>
-      <c r="AB41" s="49"/>
+      <c r="Z41" s="49">
+        <v>10.56</v>
+      </c>
+      <c r="AA41" s="49">
+        <v>0.12</v>
+      </c>
+      <c r="AB41" s="60">
+        <v>78.400000000000006</v>
+      </c>
       <c r="AC41" s="49"/>
-      <c r="AD41" s="49"/>
-      <c r="AE41" s="49"/>
-      <c r="AF41" s="49"/>
+      <c r="AD41" s="49">
+        <v>10.16</v>
+      </c>
+      <c r="AE41" s="49">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="AF41" s="49">
+        <v>36.5</v>
+      </c>
       <c r="AG41" s="49"/>
       <c r="AH41" s="49"/>
       <c r="AI41" s="49"/>
@@ -9064,17 +9186,35 @@
         <v>241.5</v>
       </c>
       <c r="U42" s="49"/>
-      <c r="V42" s="49"/>
-      <c r="W42" s="49"/>
-      <c r="X42" s="49"/>
+      <c r="V42" s="49">
+        <v>10.68</v>
+      </c>
+      <c r="W42" s="49">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="X42" s="49">
+        <v>105.8</v>
+      </c>
       <c r="Y42" s="49"/>
-      <c r="Z42" s="49"/>
-      <c r="AA42" s="49"/>
-      <c r="AB42" s="49"/>
+      <c r="Z42" s="49">
+        <v>10.55</v>
+      </c>
+      <c r="AA42" s="49">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="AB42" s="49">
+        <v>80.599999999999994</v>
+      </c>
       <c r="AC42" s="49"/>
-      <c r="AD42" s="49"/>
-      <c r="AE42" s="49"/>
-      <c r="AF42" s="49"/>
+      <c r="AD42" s="49">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="AE42" s="49">
+        <v>0.13</v>
+      </c>
+      <c r="AF42" s="49">
+        <v>36.4</v>
+      </c>
       <c r="AG42" s="49"/>
       <c r="AH42" s="49"/>
       <c r="AI42" s="49"/>
@@ -9153,21 +9293,39 @@
       <c r="U43" s="50" t="s">
         <v>441</v>
       </c>
-      <c r="V43" s="49"/>
-      <c r="W43" s="49"/>
-      <c r="X43" s="49"/>
+      <c r="V43" s="49">
+        <v>10.66</v>
+      </c>
+      <c r="W43" s="49">
+        <v>0.158</v>
+      </c>
+      <c r="X43" s="49">
+        <v>105.8</v>
+      </c>
       <c r="Y43" s="50" t="s">
         <v>441</v>
       </c>
-      <c r="Z43" s="49"/>
-      <c r="AA43" s="49"/>
-      <c r="AB43" s="49"/>
+      <c r="Z43" s="49">
+        <v>10.53</v>
+      </c>
+      <c r="AA43" s="49">
+        <v>0.158</v>
+      </c>
+      <c r="AB43" s="49">
+        <v>80.3</v>
+      </c>
       <c r="AC43" s="50" t="s">
         <v>441</v>
       </c>
-      <c r="AD43" s="49"/>
-      <c r="AE43" s="49"/>
-      <c r="AF43" s="49"/>
+      <c r="AD43" s="49">
+        <v>10.06</v>
+      </c>
+      <c r="AE43" s="49">
+        <v>0.151</v>
+      </c>
+      <c r="AF43" s="49">
+        <v>36.1</v>
+      </c>
       <c r="AG43" s="50" t="s">
         <v>441</v>
       </c>
@@ -9254,18 +9412,42 @@
       <c r="U44" s="49">
         <v>10.199999999999999</v>
       </c>
-      <c r="V44" s="49"/>
-      <c r="W44" s="49"/>
-      <c r="X44" s="49"/>
-      <c r="Y44" s="49"/>
-      <c r="Z44" s="49"/>
-      <c r="AA44" s="49"/>
-      <c r="AB44" s="49"/>
-      <c r="AC44" s="49"/>
-      <c r="AD44" s="49"/>
-      <c r="AE44" s="49"/>
-      <c r="AF44" s="49"/>
-      <c r="AG44" s="49"/>
+      <c r="V44" s="49">
+        <v>10.64</v>
+      </c>
+      <c r="W44" s="49">
+        <v>0.183</v>
+      </c>
+      <c r="X44" s="49">
+        <v>103.7</v>
+      </c>
+      <c r="Y44" s="49">
+        <v>9.9</v>
+      </c>
+      <c r="Z44" s="49">
+        <v>10.51</v>
+      </c>
+      <c r="AA44" s="49">
+        <v>0.182</v>
+      </c>
+      <c r="AB44" s="49">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="AC44" s="49">
+        <v>10.4</v>
+      </c>
+      <c r="AD44" s="49">
+        <v>9.98</v>
+      </c>
+      <c r="AE44" s="49">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="AF44" s="49">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="AG44" s="49">
+        <v>10</v>
+      </c>
       <c r="AH44" s="49"/>
       <c r="AI44" s="49"/>
       <c r="AJ44" s="49"/>
@@ -9343,18 +9525,42 @@
       <c r="U45" s="49">
         <v>34.200000000000003</v>
       </c>
-      <c r="V45" s="49"/>
-      <c r="W45" s="49"/>
-      <c r="X45" s="49"/>
-      <c r="Y45" s="49"/>
-      <c r="Z45" s="49"/>
-      <c r="AA45" s="49"/>
-      <c r="AB45" s="49"/>
-      <c r="AC45" s="49"/>
-      <c r="AD45" s="49"/>
-      <c r="AE45" s="49"/>
-      <c r="AF45" s="49"/>
-      <c r="AG45" s="49"/>
+      <c r="V45" s="49">
+        <v>10.61</v>
+      </c>
+      <c r="W45" s="49">
+        <v>0.219</v>
+      </c>
+      <c r="X45" s="49">
+        <v>102.7</v>
+      </c>
+      <c r="Y45" s="49">
+        <v>36.5</v>
+      </c>
+      <c r="Z45" s="49">
+        <v>10.48</v>
+      </c>
+      <c r="AA45" s="49">
+        <v>0.219</v>
+      </c>
+      <c r="AB45" s="49">
+        <v>81.3</v>
+      </c>
+      <c r="AC45" s="49">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="AD45" s="49">
+        <v>9.89</v>
+      </c>
+      <c r="AE45" s="49">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="AF45" s="49">
+        <v>35.6</v>
+      </c>
+      <c r="AG45" s="49">
+        <v>34.4</v>
+      </c>
       <c r="AH45" s="49"/>
       <c r="AI45" s="49"/>
       <c r="AJ45" s="49"/>
@@ -9422,17 +9628,35 @@
         <v>162.69999999999999</v>
       </c>
       <c r="U46" s="49"/>
-      <c r="V46" s="49"/>
-      <c r="W46" s="49"/>
-      <c r="X46" s="49"/>
+      <c r="V46" s="49">
+        <v>10.55</v>
+      </c>
+      <c r="W46" s="49">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="X46" s="49">
+        <v>100.5</v>
+      </c>
       <c r="Y46" s="49"/>
-      <c r="Z46" s="49"/>
-      <c r="AA46" s="49"/>
-      <c r="AB46" s="49"/>
+      <c r="Z46" s="49">
+        <v>10.41</v>
+      </c>
+      <c r="AA46" s="49">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AB46" s="49">
+        <v>83.3</v>
+      </c>
       <c r="AC46" s="49"/>
-      <c r="AD46" s="49"/>
-      <c r="AE46" s="49"/>
-      <c r="AF46" s="49"/>
+      <c r="AD46" s="49">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="AE46" s="49">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="AF46" s="49">
+        <v>36.1</v>
+      </c>
       <c r="AG46" s="49"/>
       <c r="AH46" s="49"/>
       <c r="AI46" s="49"/>
@@ -9501,17 +9725,35 @@
         <v>156</v>
       </c>
       <c r="U47" s="49"/>
-      <c r="V47" s="49"/>
-      <c r="W47" s="49"/>
-      <c r="X47" s="49"/>
+      <c r="V47" s="49">
+        <v>10.44</v>
+      </c>
+      <c r="W47" s="49">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="X47" s="49">
+        <v>96.4</v>
+      </c>
       <c r="Y47" s="49"/>
-      <c r="Z47" s="49"/>
-      <c r="AA47" s="49"/>
-      <c r="AB47" s="49"/>
+      <c r="Z47" s="49">
+        <v>10.28</v>
+      </c>
+      <c r="AA47" s="49">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="AB47" s="49">
+        <v>86.6</v>
+      </c>
       <c r="AC47" s="49"/>
-      <c r="AD47" s="49"/>
-      <c r="AE47" s="49"/>
-      <c r="AF47" s="49"/>
+      <c r="AD47" s="49">
+        <v>8.02</v>
+      </c>
+      <c r="AE47" s="49">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="AF47" s="49">
+        <v>36.299999999999997</v>
+      </c>
       <c r="AG47" s="49"/>
       <c r="AH47" s="49"/>
       <c r="AI47" s="49"/>
@@ -9590,21 +9832,39 @@
       <c r="U48" s="50" t="s">
         <v>442</v>
       </c>
-      <c r="V48" s="49"/>
-      <c r="W48" s="49"/>
-      <c r="X48" s="49"/>
+      <c r="V48" s="49">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="W48" s="49">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="X48" s="49">
+        <v>99.3</v>
+      </c>
       <c r="Y48" s="50" t="s">
         <v>442</v>
       </c>
-      <c r="Z48" s="49"/>
-      <c r="AA48" s="49"/>
-      <c r="AB48" s="49"/>
+      <c r="Z48" s="49">
+        <v>9.98</v>
+      </c>
+      <c r="AA48" s="49">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="AB48" s="49">
+        <v>84.8</v>
+      </c>
       <c r="AC48" s="50" t="s">
         <v>442</v>
       </c>
-      <c r="AD48" s="49"/>
-      <c r="AE48" s="49"/>
-      <c r="AF48" s="49"/>
+      <c r="AD48" s="49">
+        <v>5.24</v>
+      </c>
+      <c r="AE48" s="49">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="AF48" s="49">
+        <v>36</v>
+      </c>
       <c r="AG48" s="50" t="s">
         <v>442</v>
       </c>
@@ -9691,18 +9951,42 @@
       <c r="U49" s="49">
         <v>9.6999999999999993</v>
       </c>
-      <c r="V49" s="49"/>
-      <c r="W49" s="49"/>
-      <c r="X49" s="49"/>
-      <c r="Y49" s="49"/>
-      <c r="Z49" s="49"/>
-      <c r="AA49" s="49"/>
-      <c r="AB49" s="49"/>
-      <c r="AC49" s="49"/>
-      <c r="AD49" s="49"/>
-      <c r="AE49" s="49"/>
-      <c r="AF49" s="49"/>
-      <c r="AG49" s="49"/>
+      <c r="V49" s="49">
+        <v>7.01</v>
+      </c>
+      <c r="W49" s="49">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="X49" s="49">
+        <v>96.5</v>
+      </c>
+      <c r="Y49" s="49">
+        <v>10</v>
+      </c>
+      <c r="Z49" s="49">
+        <v>5.6</v>
+      </c>
+      <c r="AA49" s="49">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="AB49" s="49">
+        <v>86.6</v>
+      </c>
+      <c r="AC49" s="49">
+        <v>10.4</v>
+      </c>
+      <c r="AD49" s="49">
+        <v>2.4209999999999998</v>
+      </c>
+      <c r="AE49" s="49">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="AF49" s="49">
+        <v>35.5</v>
+      </c>
+      <c r="AG49" s="49">
+        <v>9.9</v>
+      </c>
       <c r="AH49" s="49"/>
       <c r="AI49" s="49"/>
       <c r="AJ49" s="49"/>
@@ -9780,18 +10064,42 @@
       <c r="U50" s="49">
         <v>34.4</v>
       </c>
-      <c r="V50" s="49"/>
-      <c r="W50" s="49"/>
-      <c r="X50" s="49"/>
-      <c r="Y50" s="49"/>
-      <c r="Z50" s="49"/>
-      <c r="AA50" s="49"/>
-      <c r="AB50" s="49"/>
-      <c r="AC50" s="49"/>
-      <c r="AD50" s="49"/>
-      <c r="AE50" s="49"/>
-      <c r="AF50" s="49"/>
-      <c r="AG50" s="49"/>
+      <c r="V50" s="49">
+        <v>5.86</v>
+      </c>
+      <c r="W50" s="49">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="X50" s="49">
+        <v>96.4</v>
+      </c>
+      <c r="Y50" s="49">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="Z50" s="49">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="AA50" s="49">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="AB50" s="49">
+        <v>87.8</v>
+      </c>
+      <c r="AC50" s="49">
+        <v>35.6</v>
+      </c>
+      <c r="AD50" s="49">
+        <v>2.1459999999999999</v>
+      </c>
+      <c r="AE50" s="49">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="AF50" s="49">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="AG50" s="49">
+        <v>33.799999999999997</v>
+      </c>
       <c r="AH50" s="49"/>
       <c r="AI50" s="49"/>
       <c r="AJ50" s="49"/>
@@ -9859,17 +10167,35 @@
         <v>134.19999999999999</v>
       </c>
       <c r="U51" s="49"/>
-      <c r="V51" s="49"/>
-      <c r="W51" s="49"/>
-      <c r="X51" s="49"/>
+      <c r="V51" s="49">
+        <v>4.7</v>
+      </c>
+      <c r="W51" s="49">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="X51" s="49">
+        <v>93.8</v>
+      </c>
       <c r="Y51" s="49"/>
-      <c r="Z51" s="49"/>
-      <c r="AA51" s="49"/>
-      <c r="AB51" s="49"/>
+      <c r="Z51" s="49">
+        <v>4.28</v>
+      </c>
+      <c r="AA51" s="49">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="AB51" s="49">
+        <v>91.5</v>
+      </c>
       <c r="AC51" s="49"/>
-      <c r="AD51" s="49"/>
-      <c r="AE51" s="49"/>
-      <c r="AF51" s="49"/>
+      <c r="AD51" s="49">
+        <v>1.734</v>
+      </c>
+      <c r="AE51" s="49">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="AF51" s="49">
+        <v>35.200000000000003</v>
+      </c>
       <c r="AG51" s="49"/>
       <c r="AH51" s="49"/>
       <c r="AI51" s="49"/>
@@ -9938,17 +10264,35 @@
         <v>130</v>
       </c>
       <c r="U52" s="49"/>
-      <c r="V52" s="49"/>
-      <c r="W52" s="49"/>
-      <c r="X52" s="49"/>
+      <c r="V52" s="49">
+        <v>3.645</v>
+      </c>
+      <c r="W52" s="49">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="X52" s="49">
+        <v>90.3</v>
+      </c>
       <c r="Y52" s="49"/>
-      <c r="Z52" s="49"/>
-      <c r="AA52" s="49"/>
-      <c r="AB52" s="49"/>
+      <c r="Z52" s="49">
+        <v>3.32</v>
+      </c>
+      <c r="AA52" s="49">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="AB52" s="49">
+        <v>93.3</v>
+      </c>
       <c r="AC52" s="49"/>
-      <c r="AD52" s="49"/>
-      <c r="AE52" s="49"/>
-      <c r="AF52" s="49"/>
+      <c r="AD52" s="49">
+        <v>1.3660000000000001</v>
+      </c>
+      <c r="AE52" s="49">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="AF52" s="49">
+        <v>35.700000000000003</v>
+      </c>
       <c r="AG52" s="49"/>
       <c r="AH52" s="49"/>
       <c r="AI52" s="49"/>
@@ -10027,21 +10371,39 @@
       <c r="U53" s="50" t="s">
         <v>443</v>
       </c>
-      <c r="V53" s="49"/>
-      <c r="W53" s="49"/>
-      <c r="X53" s="49"/>
+      <c r="V53" s="49">
+        <v>2.758</v>
+      </c>
+      <c r="W53" s="49">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="X53" s="49">
+        <v>91.8</v>
+      </c>
       <c r="Y53" s="50" t="s">
         <v>443</v>
       </c>
-      <c r="Z53" s="49"/>
-      <c r="AA53" s="49"/>
-      <c r="AB53" s="49"/>
+      <c r="Z53" s="49">
+        <v>2.6819999999999999</v>
+      </c>
+      <c r="AA53" s="49">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="AB53" s="49">
+        <v>95</v>
+      </c>
       <c r="AC53" s="50" t="s">
         <v>443</v>
       </c>
-      <c r="AD53" s="49"/>
-      <c r="AE53" s="49"/>
-      <c r="AF53" s="49"/>
+      <c r="AD53" s="49">
+        <v>1.0529999999999999</v>
+      </c>
+      <c r="AE53" s="49">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="AF53" s="49">
+        <v>35.299999999999997</v>
+      </c>
       <c r="AG53" s="50" t="s">
         <v>443</v>
       </c>
@@ -10128,18 +10490,42 @@
       <c r="U54" s="49">
         <v>9.6999999999999993</v>
       </c>
-      <c r="V54" s="51"/>
-      <c r="W54" s="51"/>
-      <c r="X54" s="49"/>
-      <c r="Y54" s="49"/>
-      <c r="Z54" s="51"/>
-      <c r="AA54" s="51"/>
-      <c r="AB54" s="49"/>
-      <c r="AC54" s="49"/>
-      <c r="AD54" s="51"/>
-      <c r="AE54" s="51"/>
-      <c r="AF54" s="49"/>
-      <c r="AG54" s="49"/>
+      <c r="V54" s="51">
+        <v>1.681</v>
+      </c>
+      <c r="W54" s="51">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="X54" s="49">
+        <v>86.4</v>
+      </c>
+      <c r="Y54" s="49">
+        <v>10.1</v>
+      </c>
+      <c r="Z54" s="51">
+        <v>1.6619999999999999</v>
+      </c>
+      <c r="AA54" s="51">
+        <v>0.879</v>
+      </c>
+      <c r="AB54" s="49">
+        <v>96.6</v>
+      </c>
+      <c r="AC54" s="49">
+        <v>10.5</v>
+      </c>
+      <c r="AD54" s="51">
+        <v>0.69</v>
+      </c>
+      <c r="AE54" s="49">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="AF54" s="49">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="AG54" s="49">
+        <v>9.6999999999999993</v>
+      </c>
       <c r="AH54" s="51"/>
       <c r="AI54" s="51"/>
       <c r="AJ54" s="49"/>
@@ -10217,18 +10603,42 @@
       <c r="U55" s="49">
         <v>34.200000000000003</v>
       </c>
-      <c r="V55" s="49"/>
-      <c r="W55" s="49"/>
-      <c r="X55" s="49"/>
-      <c r="Y55" s="49"/>
-      <c r="Z55" s="49"/>
-      <c r="AA55" s="49"/>
-      <c r="AB55" s="49"/>
-      <c r="AC55" s="49"/>
-      <c r="AD55" s="49"/>
-      <c r="AE55" s="49"/>
-      <c r="AF55" s="49"/>
-      <c r="AG55" s="49"/>
+      <c r="V55" s="49">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="W55" s="49">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="X55" s="49">
+        <v>85.7</v>
+      </c>
+      <c r="Y55" s="49">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="Z55" s="49">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="AA55" s="49">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="AB55" s="49">
+        <v>106.2</v>
+      </c>
+      <c r="AC55" s="49">
+        <v>36.4</v>
+      </c>
+      <c r="AD55" s="49">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="AE55" s="49">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="AF55" s="49">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="AG55" s="49">
+        <v>34.299999999999997</v>
+      </c>
       <c r="AH55" s="49"/>
       <c r="AI55" s="49"/>
       <c r="AJ55" s="49"/>
@@ -10296,17 +10706,35 @@
         <v>126.1</v>
       </c>
       <c r="U56" s="49"/>
-      <c r="V56" s="49"/>
-      <c r="W56" s="49"/>
-      <c r="X56" s="49"/>
+      <c r="V56" s="49">
+        <v>0.439</v>
+      </c>
+      <c r="W56" s="49">
+        <v>0.84</v>
+      </c>
+      <c r="X56" s="49">
+        <v>85.6</v>
+      </c>
       <c r="Y56" s="49"/>
-      <c r="Z56" s="49"/>
-      <c r="AA56" s="49"/>
-      <c r="AB56" s="49"/>
+      <c r="Z56" s="49">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="AA56" s="49">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="AB56" s="49">
+        <v>104.3</v>
+      </c>
       <c r="AC56" s="49"/>
-      <c r="AD56" s="49"/>
-      <c r="AE56" s="49"/>
-      <c r="AF56" s="49"/>
+      <c r="AD56" s="49">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="AE56" s="49">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="AF56" s="49">
+        <v>35.200000000000003</v>
+      </c>
       <c r="AG56" s="49"/>
       <c r="AH56" s="49"/>
       <c r="AI56" s="49"/>

--- a/数据记录/记录表单.xlsx
+++ b/数据记录/记录表单.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="498">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4396,6 +4396,14 @@
       </rPr>
       <t xml:space="preserve"> 有云</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无太阳 无照射 昨天有雨 冷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4806,13 +4814,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -5281,10 +5289,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AS57"/>
+  <dimension ref="A4:CS57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC61" sqref="AC61"/>
+    <sheetView tabSelected="1" topLeftCell="AZ29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BM56" sqref="BM56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5292,6 +5300,7 @@
     <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" customWidth="1"/>
     <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5577,13 +5586,13 @@
       <c r="O8" s="64"/>
       <c r="P8" s="64"/>
       <c r="Q8" s="64"/>
-      <c r="R8" s="67" t="s">
+      <c r="R8" s="65" t="s">
         <v>469</v>
       </c>
       <c r="S8" s="64"/>
       <c r="T8" s="64"/>
       <c r="U8" s="64"/>
-      <c r="V8" s="67" t="s">
+      <c r="V8" s="65" t="s">
         <v>470</v>
       </c>
       <c r="W8" s="64"/>
@@ -5595,7 +5604,7 @@
       <c r="AA8" s="64"/>
       <c r="AB8" s="64"/>
       <c r="AC8" s="64"/>
-      <c r="AD8" s="67" t="s">
+      <c r="AD8" s="65" t="s">
         <v>473</v>
       </c>
       <c r="AE8" s="64"/>
@@ -6672,7 +6681,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A17" s="49">
         <v>47</v>
       </c>
@@ -6809,7 +6818,7 @@
         <v>80.3</v>
       </c>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A18" s="49">
         <v>37</v>
       </c>
@@ -6924,7 +6933,7 @@
       </c>
       <c r="AS18" s="49"/>
     </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A19" s="49">
         <v>27</v>
       </c>
@@ -7039,7 +7048,7 @@
       </c>
       <c r="AS19" s="49"/>
     </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A20" s="49">
         <v>17</v>
       </c>
@@ -7176,7 +7185,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A21" s="49">
         <v>7</v>
       </c>
@@ -7313,7 +7322,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A22" s="49">
         <v>6</v>
       </c>
@@ -7450,7 +7459,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A23" s="49">
         <v>5</v>
       </c>
@@ -7565,7 +7574,7 @@
       </c>
       <c r="AS23" s="49"/>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A24" s="49">
         <v>4</v>
       </c>
@@ -7680,7 +7689,7 @@
       </c>
       <c r="AS24" s="49"/>
     </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A25" s="49">
         <v>3</v>
       </c>
@@ -7817,7 +7826,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A26" s="49">
         <v>2</v>
       </c>
@@ -7954,7 +7963,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A27" s="49">
         <v>1</v>
       </c>
@@ -8091,7 +8100,7 @@
         <v>79.7</v>
       </c>
     </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A28" s="49">
         <v>0</v>
       </c>
@@ -8206,13 +8215,13 @@
       </c>
       <c r="AS28" s="49"/>
     </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="R29" s="65" t="s">
+    <row r="29" spans="1:97" x14ac:dyDescent="0.15">
+      <c r="R29" s="66" t="s">
         <v>471</v>
       </c>
-      <c r="S29" s="65"/>
-      <c r="T29" s="65"/>
-      <c r="U29" s="65"/>
+      <c r="S29" s="66"/>
+      <c r="T29" s="66"/>
+      <c r="U29" s="66"/>
       <c r="AD29">
         <v>22.5</v>
       </c>
@@ -8247,12 +8256,12 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:97" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A32" s="49" t="s">
         <v>0</v>
       </c>
@@ -8296,7 +8305,9 @@
       <c r="AE32" s="58"/>
       <c r="AF32" s="58"/>
       <c r="AG32" s="58"/>
-      <c r="AH32" s="59"/>
+      <c r="AH32" s="59">
+        <v>42359</v>
+      </c>
       <c r="AI32" s="58"/>
       <c r="AJ32" s="58"/>
       <c r="AK32" s="58"/>
@@ -8308,8 +8319,60 @@
       <c r="AQ32" s="58"/>
       <c r="AR32" s="58"/>
       <c r="AS32" s="58"/>
-    </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT32" s="59"/>
+      <c r="AU32" s="58"/>
+      <c r="AV32" s="58"/>
+      <c r="AW32" s="58"/>
+      <c r="AX32" s="59"/>
+      <c r="AY32" s="58"/>
+      <c r="AZ32" s="58"/>
+      <c r="BA32" s="58"/>
+      <c r="BB32" s="59"/>
+      <c r="BC32" s="58"/>
+      <c r="BD32" s="58"/>
+      <c r="BE32" s="58"/>
+      <c r="BF32" s="59"/>
+      <c r="BG32" s="58"/>
+      <c r="BH32" s="58"/>
+      <c r="BI32" s="58"/>
+      <c r="BJ32" s="59"/>
+      <c r="BK32" s="58"/>
+      <c r="BL32" s="58"/>
+      <c r="BM32" s="58"/>
+      <c r="BN32" s="59"/>
+      <c r="BO32" s="58"/>
+      <c r="BP32" s="58"/>
+      <c r="BQ32" s="58"/>
+      <c r="BR32" s="59"/>
+      <c r="BS32" s="58"/>
+      <c r="BT32" s="58"/>
+      <c r="BU32" s="58"/>
+      <c r="BV32" s="59"/>
+      <c r="BW32" s="58"/>
+      <c r="BX32" s="58"/>
+      <c r="BY32" s="58"/>
+      <c r="BZ32" s="59"/>
+      <c r="CA32" s="58"/>
+      <c r="CB32" s="58"/>
+      <c r="CC32" s="58"/>
+      <c r="CD32" s="59"/>
+      <c r="CE32" s="58"/>
+      <c r="CF32" s="58"/>
+      <c r="CG32" s="58"/>
+      <c r="CH32" s="59"/>
+      <c r="CI32" s="58"/>
+      <c r="CJ32" s="58"/>
+      <c r="CK32" s="58"/>
+      <c r="CL32" s="59"/>
+      <c r="CM32" s="58"/>
+      <c r="CN32" s="58"/>
+      <c r="CO32" s="58"/>
+      <c r="CP32" s="59"/>
+      <c r="CQ32" s="58"/>
+      <c r="CR32" s="58"/>
+      <c r="CS32" s="58"/>
+    </row>
+    <row r="33" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A33" s="49" t="s">
         <v>124</v>
       </c>
@@ -8343,7 +8406,7 @@
       <c r="S33" s="62"/>
       <c r="T33" s="62"/>
       <c r="U33" s="63"/>
-      <c r="V33" s="66" t="s">
+      <c r="V33" s="67" t="s">
         <v>491</v>
       </c>
       <c r="W33" s="62"/>
@@ -8361,20 +8424,88 @@
       <c r="AE33" s="62"/>
       <c r="AF33" s="62"/>
       <c r="AG33" s="63"/>
-      <c r="AH33" s="61"/>
+      <c r="AH33" s="61">
+        <v>0.43124999999999997</v>
+      </c>
       <c r="AI33" s="62"/>
       <c r="AJ33" s="62"/>
       <c r="AK33" s="63"/>
-      <c r="AL33" s="61"/>
+      <c r="AL33" s="61">
+        <v>0.45069444444444445</v>
+      </c>
       <c r="AM33" s="62"/>
       <c r="AN33" s="62"/>
       <c r="AO33" s="63"/>
-      <c r="AP33" s="61"/>
+      <c r="AP33" s="61">
+        <v>0.47500000000000003</v>
+      </c>
       <c r="AQ33" s="62"/>
       <c r="AR33" s="62"/>
       <c r="AS33" s="63"/>
-    </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT33" s="61">
+        <v>0.49722222222222223</v>
+      </c>
+      <c r="AU33" s="62"/>
+      <c r="AV33" s="62"/>
+      <c r="AW33" s="63"/>
+      <c r="AX33" s="61">
+        <v>0.52013888888888882</v>
+      </c>
+      <c r="AY33" s="62"/>
+      <c r="AZ33" s="62"/>
+      <c r="BA33" s="63"/>
+      <c r="BB33" s="61">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="BC33" s="62"/>
+      <c r="BD33" s="62"/>
+      <c r="BE33" s="63"/>
+      <c r="BF33" s="61">
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="BG33" s="62"/>
+      <c r="BH33" s="62"/>
+      <c r="BI33" s="63"/>
+      <c r="BJ33" s="61">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="BK33" s="62"/>
+      <c r="BL33" s="62"/>
+      <c r="BM33" s="63"/>
+      <c r="BN33" s="61"/>
+      <c r="BO33" s="62"/>
+      <c r="BP33" s="62"/>
+      <c r="BQ33" s="63"/>
+      <c r="BR33" s="61"/>
+      <c r="BS33" s="62"/>
+      <c r="BT33" s="62"/>
+      <c r="BU33" s="63"/>
+      <c r="BV33" s="61"/>
+      <c r="BW33" s="62"/>
+      <c r="BX33" s="62"/>
+      <c r="BY33" s="63"/>
+      <c r="BZ33" s="61"/>
+      <c r="CA33" s="62"/>
+      <c r="CB33" s="62"/>
+      <c r="CC33" s="63"/>
+      <c r="CD33" s="61"/>
+      <c r="CE33" s="62"/>
+      <c r="CF33" s="62"/>
+      <c r="CG33" s="63"/>
+      <c r="CH33" s="61"/>
+      <c r="CI33" s="62"/>
+      <c r="CJ33" s="62"/>
+      <c r="CK33" s="63"/>
+      <c r="CL33" s="61"/>
+      <c r="CM33" s="62"/>
+      <c r="CN33" s="62"/>
+      <c r="CO33" s="63"/>
+      <c r="CP33" s="61"/>
+      <c r="CQ33" s="62"/>
+      <c r="CR33" s="62"/>
+      <c r="CS33" s="63"/>
+    </row>
+    <row r="34" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A34" s="49" t="s">
         <v>126</v>
       </c>
@@ -8390,7 +8521,7 @@
       <c r="K34" s="62"/>
       <c r="L34" s="62"/>
       <c r="M34" s="63"/>
-      <c r="N34" s="66" t="s">
+      <c r="N34" s="67" t="s">
         <v>485</v>
       </c>
       <c r="O34" s="62"/>
@@ -8424,8 +8555,60 @@
       <c r="AQ34" s="62"/>
       <c r="AR34" s="62"/>
       <c r="AS34" s="63"/>
-    </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT34" s="61"/>
+      <c r="AU34" s="62"/>
+      <c r="AV34" s="62"/>
+      <c r="AW34" s="63"/>
+      <c r="AX34" s="61"/>
+      <c r="AY34" s="62"/>
+      <c r="AZ34" s="62"/>
+      <c r="BA34" s="63"/>
+      <c r="BB34" s="61"/>
+      <c r="BC34" s="62"/>
+      <c r="BD34" s="62"/>
+      <c r="BE34" s="63"/>
+      <c r="BF34" s="61"/>
+      <c r="BG34" s="62"/>
+      <c r="BH34" s="62"/>
+      <c r="BI34" s="63"/>
+      <c r="BJ34" s="61"/>
+      <c r="BK34" s="62"/>
+      <c r="BL34" s="62"/>
+      <c r="BM34" s="63"/>
+      <c r="BN34" s="61"/>
+      <c r="BO34" s="62"/>
+      <c r="BP34" s="62"/>
+      <c r="BQ34" s="63"/>
+      <c r="BR34" s="61"/>
+      <c r="BS34" s="62"/>
+      <c r="BT34" s="62"/>
+      <c r="BU34" s="63"/>
+      <c r="BV34" s="61"/>
+      <c r="BW34" s="62"/>
+      <c r="BX34" s="62"/>
+      <c r="BY34" s="63"/>
+      <c r="BZ34" s="61"/>
+      <c r="CA34" s="62"/>
+      <c r="CB34" s="62"/>
+      <c r="CC34" s="63"/>
+      <c r="CD34" s="61"/>
+      <c r="CE34" s="62"/>
+      <c r="CF34" s="62"/>
+      <c r="CG34" s="63"/>
+      <c r="CH34" s="61"/>
+      <c r="CI34" s="62"/>
+      <c r="CJ34" s="62"/>
+      <c r="CK34" s="63"/>
+      <c r="CL34" s="61"/>
+      <c r="CM34" s="62"/>
+      <c r="CN34" s="62"/>
+      <c r="CO34" s="63"/>
+      <c r="CP34" s="61"/>
+      <c r="CQ34" s="62"/>
+      <c r="CR34" s="62"/>
+      <c r="CS34" s="63"/>
+    </row>
+    <row r="35" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A35" s="49" t="s">
         <v>449</v>
       </c>
@@ -8441,7 +8624,7 @@
       <c r="G35" s="62"/>
       <c r="H35" s="62"/>
       <c r="I35" s="63"/>
-      <c r="J35" s="66" t="s">
+      <c r="J35" s="67" t="s">
         <v>483</v>
       </c>
       <c r="K35" s="62"/>
@@ -8457,7 +8640,7 @@
       <c r="S35" s="62"/>
       <c r="T35" s="62"/>
       <c r="U35" s="63"/>
-      <c r="V35" s="66" t="s">
+      <c r="V35" s="67" t="s">
         <v>492</v>
       </c>
       <c r="W35" s="62"/>
@@ -8475,20 +8658,88 @@
       <c r="AE35" s="62"/>
       <c r="AF35" s="62"/>
       <c r="AG35" s="63"/>
-      <c r="AH35" s="61"/>
+      <c r="AH35" s="61">
+        <v>0.43888888888888888</v>
+      </c>
       <c r="AI35" s="62"/>
       <c r="AJ35" s="62"/>
       <c r="AK35" s="63"/>
-      <c r="AL35" s="61"/>
+      <c r="AL35" s="61">
+        <v>0.45624999999999999</v>
+      </c>
       <c r="AM35" s="62"/>
       <c r="AN35" s="62"/>
       <c r="AO35" s="63"/>
-      <c r="AP35" s="61"/>
+      <c r="AP35" s="61">
+        <v>0.48125000000000001</v>
+      </c>
       <c r="AQ35" s="62"/>
       <c r="AR35" s="62"/>
       <c r="AS35" s="63"/>
-    </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT35" s="61">
+        <v>0.50277777777777777</v>
+      </c>
+      <c r="AU35" s="62"/>
+      <c r="AV35" s="62"/>
+      <c r="AW35" s="63"/>
+      <c r="AX35" s="61">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="AY35" s="62"/>
+      <c r="AZ35" s="62"/>
+      <c r="BA35" s="63"/>
+      <c r="BB35" s="61">
+        <v>0.53263888888888888</v>
+      </c>
+      <c r="BC35" s="62"/>
+      <c r="BD35" s="62"/>
+      <c r="BE35" s="63"/>
+      <c r="BF35" s="61">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="BG35" s="62"/>
+      <c r="BH35" s="62"/>
+      <c r="BI35" s="63"/>
+      <c r="BJ35" s="61">
+        <v>0.56041666666666667</v>
+      </c>
+      <c r="BK35" s="62"/>
+      <c r="BL35" s="62"/>
+      <c r="BM35" s="63"/>
+      <c r="BN35" s="61"/>
+      <c r="BO35" s="62"/>
+      <c r="BP35" s="62"/>
+      <c r="BQ35" s="63"/>
+      <c r="BR35" s="61"/>
+      <c r="BS35" s="62"/>
+      <c r="BT35" s="62"/>
+      <c r="BU35" s="63"/>
+      <c r="BV35" s="61"/>
+      <c r="BW35" s="62"/>
+      <c r="BX35" s="62"/>
+      <c r="BY35" s="63"/>
+      <c r="BZ35" s="61"/>
+      <c r="CA35" s="62"/>
+      <c r="CB35" s="62"/>
+      <c r="CC35" s="63"/>
+      <c r="CD35" s="61"/>
+      <c r="CE35" s="62"/>
+      <c r="CF35" s="62"/>
+      <c r="CG35" s="63"/>
+      <c r="CH35" s="61"/>
+      <c r="CI35" s="62"/>
+      <c r="CJ35" s="62"/>
+      <c r="CK35" s="63"/>
+      <c r="CL35" s="61"/>
+      <c r="CM35" s="62"/>
+      <c r="CN35" s="62"/>
+      <c r="CO35" s="63"/>
+      <c r="CP35" s="61"/>
+      <c r="CQ35" s="62"/>
+      <c r="CR35" s="62"/>
+      <c r="CS35" s="63"/>
+    </row>
+    <row r="36" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A36" s="49" t="s">
         <v>438</v>
       </c>
@@ -8504,13 +8755,13 @@
       <c r="G36" s="64"/>
       <c r="H36" s="64"/>
       <c r="I36" s="64"/>
-      <c r="J36" s="67" t="s">
+      <c r="J36" s="65" t="s">
         <v>484</v>
       </c>
       <c r="K36" s="64"/>
       <c r="L36" s="64"/>
       <c r="M36" s="64"/>
-      <c r="N36" s="67" t="s">
+      <c r="N36" s="65" t="s">
         <v>486</v>
       </c>
       <c r="O36" s="64"/>
@@ -8522,38 +8773,96 @@
       <c r="S36" s="64"/>
       <c r="T36" s="64"/>
       <c r="U36" s="64"/>
-      <c r="V36" s="67" t="s">
+      <c r="V36" s="65" t="s">
         <v>493</v>
       </c>
       <c r="W36" s="64"/>
       <c r="X36" s="64"/>
       <c r="Y36" s="64"/>
-      <c r="Z36" s="67" t="s">
+      <c r="Z36" s="65" t="s">
         <v>494</v>
       </c>
       <c r="AA36" s="64"/>
       <c r="AB36" s="64"/>
       <c r="AC36" s="64"/>
-      <c r="AD36" s="67" t="s">
+      <c r="AD36" s="65" t="s">
         <v>495</v>
       </c>
       <c r="AE36" s="64"/>
       <c r="AF36" s="64"/>
       <c r="AG36" s="64"/>
-      <c r="AH36" s="64"/>
+      <c r="AH36" s="64" t="s">
+        <v>496</v>
+      </c>
       <c r="AI36" s="64"/>
       <c r="AJ36" s="64"/>
       <c r="AK36" s="64"/>
-      <c r="AL36" s="64"/>
+      <c r="AL36" s="65" t="s">
+        <v>497</v>
+      </c>
       <c r="AM36" s="64"/>
       <c r="AN36" s="64"/>
       <c r="AO36" s="64"/>
-      <c r="AP36" s="64"/>
+      <c r="AP36" s="65" t="s">
+        <v>497</v>
+      </c>
       <c r="AQ36" s="64"/>
       <c r="AR36" s="64"/>
       <c r="AS36" s="64"/>
-    </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT36" s="64"/>
+      <c r="AU36" s="64"/>
+      <c r="AV36" s="64"/>
+      <c r="AW36" s="64"/>
+      <c r="AX36" s="64"/>
+      <c r="AY36" s="64"/>
+      <c r="AZ36" s="64"/>
+      <c r="BA36" s="64"/>
+      <c r="BB36" s="64"/>
+      <c r="BC36" s="64"/>
+      <c r="BD36" s="64"/>
+      <c r="BE36" s="64"/>
+      <c r="BF36" s="64"/>
+      <c r="BG36" s="64"/>
+      <c r="BH36" s="64"/>
+      <c r="BI36" s="64"/>
+      <c r="BJ36" s="64"/>
+      <c r="BK36" s="64"/>
+      <c r="BL36" s="64"/>
+      <c r="BM36" s="64"/>
+      <c r="BN36" s="64"/>
+      <c r="BO36" s="64"/>
+      <c r="BP36" s="64"/>
+      <c r="BQ36" s="64"/>
+      <c r="BR36" s="64"/>
+      <c r="BS36" s="64"/>
+      <c r="BT36" s="64"/>
+      <c r="BU36" s="64"/>
+      <c r="BV36" s="64"/>
+      <c r="BW36" s="64"/>
+      <c r="BX36" s="64"/>
+      <c r="BY36" s="64"/>
+      <c r="BZ36" s="64"/>
+      <c r="CA36" s="64"/>
+      <c r="CB36" s="64"/>
+      <c r="CC36" s="64"/>
+      <c r="CD36" s="64"/>
+      <c r="CE36" s="64"/>
+      <c r="CF36" s="64"/>
+      <c r="CG36" s="64"/>
+      <c r="CH36" s="64"/>
+      <c r="CI36" s="64"/>
+      <c r="CJ36" s="64"/>
+      <c r="CK36" s="64"/>
+      <c r="CL36" s="64"/>
+      <c r="CM36" s="64"/>
+      <c r="CN36" s="64"/>
+      <c r="CO36" s="64"/>
+      <c r="CP36" s="64"/>
+      <c r="CQ36" s="64"/>
+      <c r="CR36" s="64"/>
+      <c r="CS36" s="64"/>
+    </row>
+    <row r="37" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A37" s="49" t="s">
         <v>11</v>
       </c>
@@ -8689,8 +8998,164 @@
       <c r="AS37" s="50" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT37" s="50" t="s">
+        <v>422</v>
+      </c>
+      <c r="AU37" s="50" t="s">
+        <v>423</v>
+      </c>
+      <c r="AV37" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW37" s="50" t="s">
+        <v>439</v>
+      </c>
+      <c r="AX37" s="50" t="s">
+        <v>422</v>
+      </c>
+      <c r="AY37" s="50" t="s">
+        <v>423</v>
+      </c>
+      <c r="AZ37" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA37" s="50" t="s">
+        <v>439</v>
+      </c>
+      <c r="BB37" s="50" t="s">
+        <v>422</v>
+      </c>
+      <c r="BC37" s="50" t="s">
+        <v>423</v>
+      </c>
+      <c r="BD37" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE37" s="50" t="s">
+        <v>439</v>
+      </c>
+      <c r="BF37" s="50" t="s">
+        <v>422</v>
+      </c>
+      <c r="BG37" s="50" t="s">
+        <v>423</v>
+      </c>
+      <c r="BH37" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI37" s="50" t="s">
+        <v>439</v>
+      </c>
+      <c r="BJ37" s="50" t="s">
+        <v>422</v>
+      </c>
+      <c r="BK37" s="50" t="s">
+        <v>423</v>
+      </c>
+      <c r="BL37" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM37" s="50" t="s">
+        <v>439</v>
+      </c>
+      <c r="BN37" s="50" t="s">
+        <v>422</v>
+      </c>
+      <c r="BO37" s="50" t="s">
+        <v>423</v>
+      </c>
+      <c r="BP37" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ37" s="50" t="s">
+        <v>439</v>
+      </c>
+      <c r="BR37" s="50" t="s">
+        <v>422</v>
+      </c>
+      <c r="BS37" s="50" t="s">
+        <v>423</v>
+      </c>
+      <c r="BT37" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU37" s="50" t="s">
+        <v>439</v>
+      </c>
+      <c r="BV37" s="50" t="s">
+        <v>422</v>
+      </c>
+      <c r="BW37" s="50" t="s">
+        <v>423</v>
+      </c>
+      <c r="BX37" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY37" s="50" t="s">
+        <v>439</v>
+      </c>
+      <c r="BZ37" s="50" t="s">
+        <v>422</v>
+      </c>
+      <c r="CA37" s="50" t="s">
+        <v>423</v>
+      </c>
+      <c r="CB37" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="CC37" s="50" t="s">
+        <v>439</v>
+      </c>
+      <c r="CD37" s="50" t="s">
+        <v>422</v>
+      </c>
+      <c r="CE37" s="50" t="s">
+        <v>423</v>
+      </c>
+      <c r="CF37" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="CG37" s="50" t="s">
+        <v>439</v>
+      </c>
+      <c r="CH37" s="50" t="s">
+        <v>422</v>
+      </c>
+      <c r="CI37" s="50" t="s">
+        <v>423</v>
+      </c>
+      <c r="CJ37" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="CK37" s="50" t="s">
+        <v>439</v>
+      </c>
+      <c r="CL37" s="50" t="s">
+        <v>422</v>
+      </c>
+      <c r="CM37" s="50" t="s">
+        <v>423</v>
+      </c>
+      <c r="CN37" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="CO37" s="50" t="s">
+        <v>439</v>
+      </c>
+      <c r="CP37" s="50" t="s">
+        <v>422</v>
+      </c>
+      <c r="CQ37" s="50" t="s">
+        <v>423</v>
+      </c>
+      <c r="CR37" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="CS37" s="50" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="38" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A38" s="49">
         <v>117</v>
       </c>
@@ -8790,26 +9255,152 @@
       <c r="AG38" s="50" t="s">
         <v>440</v>
       </c>
-      <c r="AH38" s="49"/>
-      <c r="AI38" s="49"/>
-      <c r="AJ38" s="49"/>
+      <c r="AH38" s="49">
+        <v>10.37</v>
+      </c>
+      <c r="AI38" s="49">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="AJ38" s="49">
+        <v>36.9</v>
+      </c>
       <c r="AK38" s="50" t="s">
         <v>440</v>
       </c>
-      <c r="AL38" s="49"/>
-      <c r="AM38" s="49"/>
-      <c r="AN38" s="49"/>
+      <c r="AL38" s="49">
+        <v>10.28</v>
+      </c>
+      <c r="AM38" s="49">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="AN38" s="49">
+        <v>34.299999999999997</v>
+      </c>
       <c r="AO38" s="50" t="s">
         <v>440</v>
       </c>
-      <c r="AP38" s="49"/>
-      <c r="AQ38" s="49"/>
-      <c r="AR38" s="49"/>
+      <c r="AP38" s="50">
+        <v>10.23</v>
+      </c>
+      <c r="AQ38" s="49">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="AR38" s="49">
+        <v>30.5</v>
+      </c>
       <c r="AS38" s="50" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT38" s="49">
+        <v>10.45</v>
+      </c>
+      <c r="AU38" s="49">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="AV38" s="49">
+        <v>44.1</v>
+      </c>
+      <c r="AW38" s="50" t="s">
+        <v>440</v>
+      </c>
+      <c r="AX38" s="49">
+        <v>10.18</v>
+      </c>
+      <c r="AY38" s="49">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="AZ38" s="49">
+        <v>27.3</v>
+      </c>
+      <c r="BA38" s="50" t="s">
+        <v>440</v>
+      </c>
+      <c r="BB38" s="49">
+        <v>10.37</v>
+      </c>
+      <c r="BC38" s="49">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="BD38" s="49">
+        <v>38.6</v>
+      </c>
+      <c r="BE38" s="50" t="s">
+        <v>440</v>
+      </c>
+      <c r="BF38" s="49">
+        <v>10.58</v>
+      </c>
+      <c r="BG38" s="49">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="BH38" s="49">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="BI38" s="50" t="s">
+        <v>440</v>
+      </c>
+      <c r="BJ38" s="49">
+        <v>10.47</v>
+      </c>
+      <c r="BK38" s="49">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="BL38" s="49">
+        <v>54.2</v>
+      </c>
+      <c r="BM38" s="50" t="s">
+        <v>440</v>
+      </c>
+      <c r="BN38" s="49"/>
+      <c r="BO38" s="49"/>
+      <c r="BP38" s="49"/>
+      <c r="BQ38" s="50" t="s">
+        <v>440</v>
+      </c>
+      <c r="BR38" s="49"/>
+      <c r="BS38" s="49"/>
+      <c r="BT38" s="49"/>
+      <c r="BU38" s="50" t="s">
+        <v>440</v>
+      </c>
+      <c r="BV38" s="49"/>
+      <c r="BW38" s="49"/>
+      <c r="BX38" s="49"/>
+      <c r="BY38" s="50" t="s">
+        <v>440</v>
+      </c>
+      <c r="BZ38" s="49"/>
+      <c r="CA38" s="49"/>
+      <c r="CB38" s="49"/>
+      <c r="CC38" s="50" t="s">
+        <v>440</v>
+      </c>
+      <c r="CD38" s="49"/>
+      <c r="CE38" s="49"/>
+      <c r="CF38" s="49"/>
+      <c r="CG38" s="50" t="s">
+        <v>440</v>
+      </c>
+      <c r="CH38" s="49"/>
+      <c r="CI38" s="49"/>
+      <c r="CJ38" s="49"/>
+      <c r="CK38" s="50" t="s">
+        <v>440</v>
+      </c>
+      <c r="CL38" s="49"/>
+      <c r="CM38" s="49"/>
+      <c r="CN38" s="49"/>
+      <c r="CO38" s="50" t="s">
+        <v>440</v>
+      </c>
+      <c r="CP38" s="49"/>
+      <c r="CQ38" s="49"/>
+      <c r="CR38" s="49"/>
+      <c r="CS38" s="50" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="39" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A39" s="49">
         <v>107</v>
       </c>
@@ -8909,20 +9500,136 @@
       <c r="AG39" s="49">
         <v>10</v>
       </c>
-      <c r="AH39" s="49"/>
-      <c r="AI39" s="49"/>
-      <c r="AJ39" s="49"/>
-      <c r="AK39" s="49"/>
-      <c r="AL39" s="49"/>
-      <c r="AM39" s="49"/>
-      <c r="AN39" s="49"/>
-      <c r="AO39" s="49"/>
-      <c r="AP39" s="49"/>
-      <c r="AQ39" s="49"/>
-      <c r="AR39" s="49"/>
-      <c r="AS39" s="49"/>
-    </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AH39" s="49">
+        <v>10.34</v>
+      </c>
+      <c r="AI39" s="49">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="AJ39" s="49">
+        <v>37</v>
+      </c>
+      <c r="AK39" s="49">
+        <v>8.6</v>
+      </c>
+      <c r="AL39" s="49">
+        <v>10.23</v>
+      </c>
+      <c r="AM39" s="49">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="AN39" s="49">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="AO39" s="49">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AP39" s="60">
+        <v>10.19</v>
+      </c>
+      <c r="AQ39" s="49">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="AR39" s="49">
+        <v>29.1</v>
+      </c>
+      <c r="AS39" s="49">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AT39" s="49">
+        <v>10.43</v>
+      </c>
+      <c r="AU39" s="49">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="AV39" s="49">
+        <v>43.2</v>
+      </c>
+      <c r="AW39" s="49">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AX39" s="49">
+        <v>10.14</v>
+      </c>
+      <c r="AY39" s="49">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AZ39" s="49">
+        <v>26.7</v>
+      </c>
+      <c r="BA39" s="49">
+        <v>8.6</v>
+      </c>
+      <c r="BB39" s="49">
+        <v>10.37</v>
+      </c>
+      <c r="BC39" s="49">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="BD39" s="49">
+        <v>39.1</v>
+      </c>
+      <c r="BE39" s="49">
+        <v>8.4</v>
+      </c>
+      <c r="BF39" s="49">
+        <v>10.56</v>
+      </c>
+      <c r="BG39" s="49">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="BH39" s="49">
+        <v>63.5</v>
+      </c>
+      <c r="BI39" s="49">
+        <v>9</v>
+      </c>
+      <c r="BJ39" s="49">
+        <v>10.47</v>
+      </c>
+      <c r="BK39" s="49">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="BL39" s="49">
+        <v>55.1</v>
+      </c>
+      <c r="BM39" s="49">
+        <v>9.1</v>
+      </c>
+      <c r="BN39" s="49"/>
+      <c r="BO39" s="49"/>
+      <c r="BP39" s="49"/>
+      <c r="BQ39" s="49"/>
+      <c r="BR39" s="49"/>
+      <c r="BS39" s="49"/>
+      <c r="BT39" s="49"/>
+      <c r="BU39" s="49"/>
+      <c r="BV39" s="49"/>
+      <c r="BW39" s="49"/>
+      <c r="BX39" s="49"/>
+      <c r="BY39" s="49"/>
+      <c r="BZ39" s="49"/>
+      <c r="CA39" s="49"/>
+      <c r="CB39" s="49"/>
+      <c r="CC39" s="49"/>
+      <c r="CD39" s="49"/>
+      <c r="CE39" s="49"/>
+      <c r="CF39" s="49"/>
+      <c r="CG39" s="49"/>
+      <c r="CH39" s="49"/>
+      <c r="CI39" s="49"/>
+      <c r="CJ39" s="49"/>
+      <c r="CK39" s="49"/>
+      <c r="CL39" s="49"/>
+      <c r="CM39" s="49"/>
+      <c r="CN39" s="49"/>
+      <c r="CO39" s="49"/>
+      <c r="CP39" s="49"/>
+      <c r="CQ39" s="49"/>
+      <c r="CR39" s="49"/>
+      <c r="CS39" s="49"/>
+    </row>
+    <row r="40" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A40" s="49">
         <v>97</v>
       </c>
@@ -9022,20 +9729,136 @@
       <c r="AG40" s="49">
         <v>34.299999999999997</v>
       </c>
-      <c r="AH40" s="49"/>
-      <c r="AI40" s="49"/>
-      <c r="AJ40" s="49"/>
-      <c r="AK40" s="49"/>
-      <c r="AL40" s="49"/>
-      <c r="AM40" s="49"/>
-      <c r="AN40" s="49"/>
-      <c r="AO40" s="49"/>
-      <c r="AP40" s="49"/>
-      <c r="AQ40" s="49"/>
-      <c r="AR40" s="49"/>
-      <c r="AS40" s="49"/>
-    </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AH40" s="49">
+        <v>10.33</v>
+      </c>
+      <c r="AI40" s="49">
+        <v>0.109</v>
+      </c>
+      <c r="AJ40" s="49">
+        <v>37.5</v>
+      </c>
+      <c r="AK40" s="49">
+        <v>72.7</v>
+      </c>
+      <c r="AL40" s="49">
+        <v>10.18</v>
+      </c>
+      <c r="AM40" s="49">
+        <v>0.106</v>
+      </c>
+      <c r="AN40" s="49">
+        <v>31.5</v>
+      </c>
+      <c r="AO40" s="49">
+        <v>73.2</v>
+      </c>
+      <c r="AP40" s="49">
+        <v>10.15</v>
+      </c>
+      <c r="AQ40" s="49">
+        <v>0.107</v>
+      </c>
+      <c r="AR40" s="49">
+        <v>29.4</v>
+      </c>
+      <c r="AS40" s="49">
+        <v>73.2</v>
+      </c>
+      <c r="AT40" s="49">
+        <v>10.42</v>
+      </c>
+      <c r="AU40" s="49">
+        <v>0.109</v>
+      </c>
+      <c r="AV40" s="49">
+        <v>42.5</v>
+      </c>
+      <c r="AW40" s="49">
+        <v>74</v>
+      </c>
+      <c r="AX40" s="49">
+        <v>10.11</v>
+      </c>
+      <c r="AY40" s="49">
+        <v>0.106</v>
+      </c>
+      <c r="AZ40" s="49">
+        <v>26.4</v>
+      </c>
+      <c r="BA40" s="49">
+        <v>74.3</v>
+      </c>
+      <c r="BB40" s="49">
+        <v>10.36</v>
+      </c>
+      <c r="BC40" s="49">
+        <v>0.11</v>
+      </c>
+      <c r="BD40" s="49">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="BE40" s="49">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="BF40" s="49">
+        <v>10.54</v>
+      </c>
+      <c r="BG40" s="49">
+        <v>0.109</v>
+      </c>
+      <c r="BH40" s="49">
+        <v>65</v>
+      </c>
+      <c r="BI40" s="49">
+        <v>73.3</v>
+      </c>
+      <c r="BJ40" s="49">
+        <v>10.47</v>
+      </c>
+      <c r="BK40" s="49">
+        <v>0.111</v>
+      </c>
+      <c r="BL40" s="49">
+        <v>54.5</v>
+      </c>
+      <c r="BM40" s="49">
+        <v>73.7</v>
+      </c>
+      <c r="BN40" s="49"/>
+      <c r="BO40" s="49"/>
+      <c r="BP40" s="49"/>
+      <c r="BQ40" s="49"/>
+      <c r="BR40" s="49"/>
+      <c r="BS40" s="49"/>
+      <c r="BT40" s="49"/>
+      <c r="BU40" s="49"/>
+      <c r="BV40" s="49"/>
+      <c r="BW40" s="49"/>
+      <c r="BX40" s="49"/>
+      <c r="BY40" s="49"/>
+      <c r="BZ40" s="49"/>
+      <c r="CA40" s="49"/>
+      <c r="CB40" s="49"/>
+      <c r="CC40" s="49"/>
+      <c r="CD40" s="49"/>
+      <c r="CE40" s="49"/>
+      <c r="CF40" s="49"/>
+      <c r="CG40" s="49"/>
+      <c r="CH40" s="49"/>
+      <c r="CI40" s="49"/>
+      <c r="CJ40" s="49"/>
+      <c r="CK40" s="49"/>
+      <c r="CL40" s="49"/>
+      <c r="CM40" s="49"/>
+      <c r="CN40" s="49"/>
+      <c r="CO40" s="49"/>
+      <c r="CP40" s="49"/>
+      <c r="CQ40" s="49"/>
+      <c r="CR40" s="49"/>
+      <c r="CS40" s="49"/>
+    </row>
+    <row r="41" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A41" s="49">
         <v>87</v>
       </c>
@@ -9119,20 +9942,119 @@
         <v>36.5</v>
       </c>
       <c r="AG41" s="49"/>
-      <c r="AH41" s="49"/>
-      <c r="AI41" s="49"/>
-      <c r="AJ41" s="49"/>
+      <c r="AH41" s="49">
+        <v>10.31</v>
+      </c>
+      <c r="AI41" s="49">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="AJ41" s="49">
+        <v>37.799999999999997</v>
+      </c>
       <c r="AK41" s="49"/>
-      <c r="AL41" s="49"/>
-      <c r="AM41" s="49"/>
-      <c r="AN41" s="49"/>
+      <c r="AL41" s="49">
+        <v>10.14</v>
+      </c>
+      <c r="AM41" s="49">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="AN41" s="49">
+        <v>29.7</v>
+      </c>
       <c r="AO41" s="49"/>
-      <c r="AP41" s="49"/>
-      <c r="AQ41" s="49"/>
-      <c r="AR41" s="49"/>
+      <c r="AP41" s="49">
+        <v>10.14</v>
+      </c>
+      <c r="AQ41" s="49">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="AR41" s="49">
+        <v>31.1</v>
+      </c>
       <c r="AS41" s="49"/>
-    </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT41" s="49">
+        <v>10.4</v>
+      </c>
+      <c r="AU41" s="49">
+        <v>0.12</v>
+      </c>
+      <c r="AV41" s="49">
+        <v>44.5</v>
+      </c>
+      <c r="AW41" s="49"/>
+      <c r="AX41" s="49">
+        <v>10.07</v>
+      </c>
+      <c r="AY41" s="49">
+        <v>0.115</v>
+      </c>
+      <c r="AZ41" s="49">
+        <v>26.7</v>
+      </c>
+      <c r="BA41" s="49"/>
+      <c r="BB41" s="49">
+        <v>10.37</v>
+      </c>
+      <c r="BC41" s="49">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="BD41" s="49">
+        <v>40.4</v>
+      </c>
+      <c r="BE41" s="49"/>
+      <c r="BF41" s="49">
+        <v>10.53</v>
+      </c>
+      <c r="BG41" s="49">
+        <v>0.121</v>
+      </c>
+      <c r="BH41" s="49">
+        <v>61</v>
+      </c>
+      <c r="BI41" s="49"/>
+      <c r="BJ41" s="49">
+        <v>10.46</v>
+      </c>
+      <c r="BK41" s="49">
+        <v>0.12</v>
+      </c>
+      <c r="BL41" s="49">
+        <v>55.9</v>
+      </c>
+      <c r="BN41" s="49"/>
+      <c r="BO41" s="49"/>
+      <c r="BP41" s="49"/>
+      <c r="BQ41" s="49"/>
+      <c r="BR41" s="49"/>
+      <c r="BS41" s="49"/>
+      <c r="BT41" s="49"/>
+      <c r="BU41" s="49"/>
+      <c r="BV41" s="49"/>
+      <c r="BW41" s="49"/>
+      <c r="BX41" s="49"/>
+      <c r="BY41" s="49"/>
+      <c r="BZ41" s="49"/>
+      <c r="CA41" s="49"/>
+      <c r="CB41" s="49"/>
+      <c r="CC41" s="49"/>
+      <c r="CD41" s="49"/>
+      <c r="CE41" s="49"/>
+      <c r="CF41" s="49"/>
+      <c r="CG41" s="49"/>
+      <c r="CH41" s="49"/>
+      <c r="CI41" s="49"/>
+      <c r="CJ41" s="49"/>
+      <c r="CK41" s="49"/>
+      <c r="CL41" s="49"/>
+      <c r="CM41" s="49"/>
+      <c r="CN41" s="49"/>
+      <c r="CO41" s="49"/>
+      <c r="CP41" s="49"/>
+      <c r="CQ41" s="49"/>
+      <c r="CR41" s="49"/>
+      <c r="CS41" s="49"/>
+    </row>
+    <row r="42" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A42" s="49">
         <v>77</v>
       </c>
@@ -9216,20 +10138,119 @@
         <v>36.4</v>
       </c>
       <c r="AG42" s="49"/>
-      <c r="AH42" s="49"/>
-      <c r="AI42" s="49"/>
-      <c r="AJ42" s="49"/>
+      <c r="AH42" s="49">
+        <v>10.28</v>
+      </c>
+      <c r="AI42" s="49">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="AJ42" s="49">
+        <v>38.4</v>
+      </c>
       <c r="AK42" s="49"/>
-      <c r="AL42" s="49"/>
-      <c r="AM42" s="49"/>
-      <c r="AN42" s="49"/>
+      <c r="AL42" s="49">
+        <v>10.1</v>
+      </c>
+      <c r="AM42" s="49">
+        <v>0.129</v>
+      </c>
+      <c r="AN42" s="49">
+        <v>29.3</v>
+      </c>
       <c r="AO42" s="49"/>
-      <c r="AP42" s="49"/>
-      <c r="AQ42" s="49"/>
-      <c r="AR42" s="49"/>
+      <c r="AP42" s="49">
+        <v>10.1</v>
+      </c>
+      <c r="AQ42" s="49">
+        <v>0.13</v>
+      </c>
+      <c r="AR42" s="49">
+        <v>29.8</v>
+      </c>
       <c r="AS42" s="49"/>
-    </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT42" s="49">
+        <v>10.37</v>
+      </c>
+      <c r="AU42" s="49">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="AV42" s="49">
+        <v>45.6</v>
+      </c>
+      <c r="AW42" s="49"/>
+      <c r="AX42" s="49">
+        <v>10.07</v>
+      </c>
+      <c r="AY42" s="49">
+        <v>0.129</v>
+      </c>
+      <c r="AZ42" s="49">
+        <v>26.7</v>
+      </c>
+      <c r="BA42" s="49"/>
+      <c r="BB42" s="49">
+        <v>10.35</v>
+      </c>
+      <c r="BC42" s="49">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="BD42" s="49">
+        <v>40.9</v>
+      </c>
+      <c r="BE42" s="49"/>
+      <c r="BF42" s="49">
+        <v>10.51</v>
+      </c>
+      <c r="BG42" s="49">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="BH42" s="49">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="BI42" s="49"/>
+      <c r="BJ42" s="49">
+        <v>10.46</v>
+      </c>
+      <c r="BK42" s="49">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="BL42" s="49">
+        <v>56.3</v>
+      </c>
+      <c r="BN42" s="49"/>
+      <c r="BO42" s="49"/>
+      <c r="BP42" s="49"/>
+      <c r="BQ42" s="49"/>
+      <c r="BR42" s="49"/>
+      <c r="BS42" s="49"/>
+      <c r="BT42" s="49"/>
+      <c r="BU42" s="49"/>
+      <c r="BV42" s="49"/>
+      <c r="BW42" s="49"/>
+      <c r="BX42" s="49"/>
+      <c r="BY42" s="49"/>
+      <c r="BZ42" s="49"/>
+      <c r="CA42" s="49"/>
+      <c r="CB42" s="49"/>
+      <c r="CC42" s="49"/>
+      <c r="CD42" s="49"/>
+      <c r="CE42" s="49"/>
+      <c r="CF42" s="49"/>
+      <c r="CG42" s="49"/>
+      <c r="CH42" s="49"/>
+      <c r="CI42" s="49"/>
+      <c r="CJ42" s="49"/>
+      <c r="CK42" s="49"/>
+      <c r="CL42" s="49"/>
+      <c r="CM42" s="49"/>
+      <c r="CN42" s="49"/>
+      <c r="CO42" s="49"/>
+      <c r="CP42" s="49"/>
+      <c r="CQ42" s="49"/>
+      <c r="CR42" s="49"/>
+      <c r="CS42" s="49"/>
+    </row>
+    <row r="43" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A43" s="49">
         <v>67</v>
       </c>
@@ -9329,26 +10350,152 @@
       <c r="AG43" s="50" t="s">
         <v>441</v>
       </c>
-      <c r="AH43" s="49"/>
-      <c r="AI43" s="49"/>
-      <c r="AJ43" s="49"/>
+      <c r="AH43" s="49">
+        <v>10.36</v>
+      </c>
+      <c r="AI43" s="49">
+        <v>0.153</v>
+      </c>
+      <c r="AJ43" s="49">
+        <v>37.799999999999997</v>
+      </c>
       <c r="AK43" s="50" t="s">
         <v>441</v>
       </c>
-      <c r="AL43" s="49"/>
-      <c r="AM43" s="49"/>
-      <c r="AN43" s="49"/>
+      <c r="AL43" s="49">
+        <v>10.02</v>
+      </c>
+      <c r="AM43" s="49">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="AN43" s="49">
+        <v>28.7</v>
+      </c>
       <c r="AO43" s="50" t="s">
         <v>441</v>
       </c>
-      <c r="AP43" s="49"/>
-      <c r="AQ43" s="49"/>
-      <c r="AR43" s="49"/>
+      <c r="AP43" s="49">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="AQ43" s="49">
+        <v>0.15</v>
+      </c>
+      <c r="AR43" s="49">
+        <v>28.9</v>
+      </c>
       <c r="AS43" s="50" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT43" s="49">
+        <v>10.34</v>
+      </c>
+      <c r="AU43" s="49">
+        <v>0.153</v>
+      </c>
+      <c r="AV43" s="49">
+        <v>44.8</v>
+      </c>
+      <c r="AW43" s="50" t="s">
+        <v>441</v>
+      </c>
+      <c r="AX43" s="49">
+        <v>10.01</v>
+      </c>
+      <c r="AY43" s="49">
+        <v>0.15</v>
+      </c>
+      <c r="AZ43" s="49">
+        <v>26.7</v>
+      </c>
+      <c r="BA43" s="50" t="s">
+        <v>441</v>
+      </c>
+      <c r="BB43" s="49">
+        <v>10.32</v>
+      </c>
+      <c r="BC43" s="49">
+        <v>0.154</v>
+      </c>
+      <c r="BD43" s="49">
+        <v>40.9</v>
+      </c>
+      <c r="BE43" s="50" t="s">
+        <v>441</v>
+      </c>
+      <c r="BF43" s="49">
+        <v>10.49</v>
+      </c>
+      <c r="BG43" s="49">
+        <v>0.154</v>
+      </c>
+      <c r="BH43" s="49">
+        <v>60.9</v>
+      </c>
+      <c r="BI43" s="50" t="s">
+        <v>441</v>
+      </c>
+      <c r="BJ43" s="49">
+        <v>10.44</v>
+      </c>
+      <c r="BK43" s="49">
+        <v>0.154</v>
+      </c>
+      <c r="BL43" s="49">
+        <v>56.3</v>
+      </c>
+      <c r="BM43" s="50" t="s">
+        <v>441</v>
+      </c>
+      <c r="BN43" s="49"/>
+      <c r="BO43" s="49"/>
+      <c r="BP43" s="49"/>
+      <c r="BQ43" s="50" t="s">
+        <v>441</v>
+      </c>
+      <c r="BR43" s="49"/>
+      <c r="BS43" s="49"/>
+      <c r="BT43" s="49"/>
+      <c r="BU43" s="50" t="s">
+        <v>441</v>
+      </c>
+      <c r="BV43" s="49"/>
+      <c r="BW43" s="49"/>
+      <c r="BX43" s="49"/>
+      <c r="BY43" s="50" t="s">
+        <v>441</v>
+      </c>
+      <c r="BZ43" s="49"/>
+      <c r="CA43" s="49"/>
+      <c r="CB43" s="49"/>
+      <c r="CC43" s="50" t="s">
+        <v>441</v>
+      </c>
+      <c r="CD43" s="49"/>
+      <c r="CE43" s="49"/>
+      <c r="CF43" s="49"/>
+      <c r="CG43" s="50" t="s">
+        <v>441</v>
+      </c>
+      <c r="CH43" s="49"/>
+      <c r="CI43" s="49"/>
+      <c r="CJ43" s="49"/>
+      <c r="CK43" s="50" t="s">
+        <v>441</v>
+      </c>
+      <c r="CL43" s="49"/>
+      <c r="CM43" s="49"/>
+      <c r="CN43" s="49"/>
+      <c r="CO43" s="50" t="s">
+        <v>441</v>
+      </c>
+      <c r="CP43" s="49"/>
+      <c r="CQ43" s="49"/>
+      <c r="CR43" s="49"/>
+      <c r="CS43" s="50" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="44" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A44" s="49">
         <v>57</v>
       </c>
@@ -9448,20 +10595,136 @@
       <c r="AG44" s="49">
         <v>10</v>
       </c>
-      <c r="AH44" s="49"/>
-      <c r="AI44" s="49"/>
-      <c r="AJ44" s="49"/>
-      <c r="AK44" s="49"/>
-      <c r="AL44" s="49"/>
-      <c r="AM44" s="49"/>
-      <c r="AN44" s="49"/>
-      <c r="AO44" s="49"/>
-      <c r="AP44" s="49"/>
-      <c r="AQ44" s="49"/>
-      <c r="AR44" s="49"/>
-      <c r="AS44" s="49"/>
-    </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AH44" s="49">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="AI44" s="49">
+        <v>0.18</v>
+      </c>
+      <c r="AJ44" s="49">
+        <v>38</v>
+      </c>
+      <c r="AK44" s="49">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AL44" s="49">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="AM44" s="49">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="AN44" s="49">
+        <v>28.8</v>
+      </c>
+      <c r="AO44" s="49">
+        <v>8.5</v>
+      </c>
+      <c r="AP44" s="49">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="AQ44" s="49">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="AR44" s="60">
+        <v>29.7</v>
+      </c>
+      <c r="AS44" s="49">
+        <v>8.6</v>
+      </c>
+      <c r="AT44" s="49">
+        <v>10.31</v>
+      </c>
+      <c r="AU44" s="49">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="AV44" s="49">
+        <v>44.8</v>
+      </c>
+      <c r="AW44" s="49">
+        <v>8.6</v>
+      </c>
+      <c r="AX44" s="49">
+        <v>9.91</v>
+      </c>
+      <c r="AY44" s="49">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="AZ44" s="49">
+        <v>27.7</v>
+      </c>
+      <c r="BA44" s="49">
+        <v>8.4</v>
+      </c>
+      <c r="BB44" s="49">
+        <v>10.29</v>
+      </c>
+      <c r="BC44" s="49">
+        <v>0.18</v>
+      </c>
+      <c r="BD44" s="49">
+        <v>42.1</v>
+      </c>
+      <c r="BE44" s="49">
+        <v>8.4</v>
+      </c>
+      <c r="BF44" s="49">
+        <v>10.46</v>
+      </c>
+      <c r="BG44" s="49">
+        <v>0.183</v>
+      </c>
+      <c r="BH44" s="49">
+        <v>63</v>
+      </c>
+      <c r="BI44" s="49">
+        <v>8.9</v>
+      </c>
+      <c r="BJ44" s="49">
+        <v>10.41</v>
+      </c>
+      <c r="BK44" s="49">
+        <v>0.185</v>
+      </c>
+      <c r="BL44" s="49">
+        <v>59.3</v>
+      </c>
+      <c r="BM44" s="49">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="BN44" s="49"/>
+      <c r="BO44" s="49"/>
+      <c r="BP44" s="49"/>
+      <c r="BQ44" s="49"/>
+      <c r="BR44" s="49"/>
+      <c r="BS44" s="49"/>
+      <c r="BT44" s="49"/>
+      <c r="BU44" s="49"/>
+      <c r="BV44" s="49"/>
+      <c r="BW44" s="49"/>
+      <c r="BX44" s="49"/>
+      <c r="BY44" s="49"/>
+      <c r="BZ44" s="49"/>
+      <c r="CA44" s="49"/>
+      <c r="CB44" s="49"/>
+      <c r="CC44" s="49"/>
+      <c r="CD44" s="49"/>
+      <c r="CE44" s="49"/>
+      <c r="CF44" s="49"/>
+      <c r="CG44" s="49"/>
+      <c r="CH44" s="49"/>
+      <c r="CI44" s="49"/>
+      <c r="CJ44" s="49"/>
+      <c r="CK44" s="49"/>
+      <c r="CL44" s="49"/>
+      <c r="CM44" s="49"/>
+      <c r="CN44" s="49"/>
+      <c r="CO44" s="49"/>
+      <c r="CP44" s="49"/>
+      <c r="CQ44" s="49"/>
+      <c r="CR44" s="49"/>
+      <c r="CS44" s="49"/>
+    </row>
+    <row r="45" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A45" s="49">
         <v>47</v>
       </c>
@@ -9561,20 +10824,136 @@
       <c r="AG45" s="49">
         <v>34.4</v>
       </c>
-      <c r="AH45" s="49"/>
-      <c r="AI45" s="49"/>
-      <c r="AJ45" s="49"/>
-      <c r="AK45" s="49"/>
-      <c r="AL45" s="49"/>
-      <c r="AM45" s="49"/>
-      <c r="AN45" s="49"/>
-      <c r="AO45" s="49"/>
-      <c r="AP45" s="49"/>
-      <c r="AQ45" s="49"/>
-      <c r="AR45" s="49"/>
-      <c r="AS45" s="49"/>
-    </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AH45" s="49">
+        <v>10.14</v>
+      </c>
+      <c r="AI45" s="49">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="AJ45" s="49">
+        <v>39.9</v>
+      </c>
+      <c r="AK45" s="49">
+        <v>72.7</v>
+      </c>
+      <c r="AL45" s="49">
+        <v>9.84</v>
+      </c>
+      <c r="AM45" s="49">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="AN45" s="49">
+        <v>29.1</v>
+      </c>
+      <c r="AO45" s="49">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="AP45" s="49">
+        <v>9.85</v>
+      </c>
+      <c r="AQ45" s="49">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="AR45" s="60">
+        <v>31.1</v>
+      </c>
+      <c r="AS45" s="49">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="AT45" s="49">
+        <v>10.24</v>
+      </c>
+      <c r="AU45" s="49">
+        <v>0.214</v>
+      </c>
+      <c r="AV45" s="49">
+        <v>44.1</v>
+      </c>
+      <c r="AW45" s="49">
+        <v>74.2</v>
+      </c>
+      <c r="AX45" s="49">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="AY45" s="49">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="AZ45" s="49">
+        <v>28</v>
+      </c>
+      <c r="BA45" s="49">
+        <v>74.8</v>
+      </c>
+      <c r="BB45" s="49">
+        <v>10.23</v>
+      </c>
+      <c r="BC45" s="49">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="BD45" s="49">
+        <v>44.4</v>
+      </c>
+      <c r="BE45" s="49">
+        <v>75.5</v>
+      </c>
+      <c r="BF45" s="49">
+        <v>10.43</v>
+      </c>
+      <c r="BG45" s="49">
+        <v>0.217</v>
+      </c>
+      <c r="BH45" s="49">
+        <v>60.8</v>
+      </c>
+      <c r="BI45" s="49">
+        <v>73.8</v>
+      </c>
+      <c r="BJ45" s="49">
+        <v>10.37</v>
+      </c>
+      <c r="BK45" s="49">
+        <v>0.218</v>
+      </c>
+      <c r="BL45" s="49">
+        <v>57.8</v>
+      </c>
+      <c r="BM45" s="49">
+        <v>73.5</v>
+      </c>
+      <c r="BN45" s="49"/>
+      <c r="BO45" s="49"/>
+      <c r="BP45" s="49"/>
+      <c r="BQ45" s="49"/>
+      <c r="BR45" s="49"/>
+      <c r="BS45" s="49"/>
+      <c r="BT45" s="49"/>
+      <c r="BU45" s="49"/>
+      <c r="BV45" s="49"/>
+      <c r="BW45" s="49"/>
+      <c r="BX45" s="49"/>
+      <c r="BY45" s="49"/>
+      <c r="BZ45" s="49"/>
+      <c r="CA45" s="49"/>
+      <c r="CB45" s="49"/>
+      <c r="CC45" s="49"/>
+      <c r="CD45" s="49"/>
+      <c r="CE45" s="49"/>
+      <c r="CF45" s="49"/>
+      <c r="CG45" s="49"/>
+      <c r="CH45" s="49"/>
+      <c r="CI45" s="49"/>
+      <c r="CJ45" s="49"/>
+      <c r="CK45" s="49"/>
+      <c r="CL45" s="49"/>
+      <c r="CM45" s="49"/>
+      <c r="CN45" s="49"/>
+      <c r="CO45" s="49"/>
+      <c r="CP45" s="49"/>
+      <c r="CQ45" s="49"/>
+      <c r="CR45" s="49"/>
+      <c r="CS45" s="49"/>
+    </row>
+    <row r="46" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A46" s="49">
         <v>37</v>
       </c>
@@ -9658,20 +11037,120 @@
         <v>36.1</v>
       </c>
       <c r="AG46" s="49"/>
-      <c r="AH46" s="49"/>
-      <c r="AI46" s="49"/>
-      <c r="AJ46" s="49"/>
+      <c r="AH46" s="49">
+        <v>10</v>
+      </c>
+      <c r="AI46" s="49">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="AJ46" s="49">
+        <v>39.1</v>
+      </c>
       <c r="AK46" s="49"/>
-      <c r="AL46" s="49"/>
-      <c r="AM46" s="49"/>
-      <c r="AN46" s="49"/>
+      <c r="AL46" s="49">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="AM46" s="49">
+        <v>0.154</v>
+      </c>
+      <c r="AN46" s="49">
+        <v>29.3</v>
+      </c>
       <c r="AO46" s="49"/>
-      <c r="AP46" s="49"/>
-      <c r="AQ46" s="49"/>
-      <c r="AR46" s="49"/>
+      <c r="AP46" s="49">
+        <v>9.56</v>
+      </c>
+      <c r="AQ46" s="49">
+        <v>0.255</v>
+      </c>
+      <c r="AR46" s="49">
+        <v>29.7</v>
+      </c>
       <c r="AS46" s="49"/>
-    </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT46" s="49">
+        <v>10.09</v>
+      </c>
+      <c r="AU46" s="49">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="AV46" s="49">
+        <v>44.1</v>
+      </c>
+      <c r="AW46" s="49"/>
+      <c r="AX46" s="49">
+        <v>9.43</v>
+      </c>
+      <c r="AY46" s="49">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="AZ46" s="49">
+        <v>27.3</v>
+      </c>
+      <c r="BA46" s="49"/>
+      <c r="BB46" s="49">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="BC46" s="49">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="BD46" s="49">
+        <v>44.1</v>
+      </c>
+      <c r="BE46" s="49"/>
+      <c r="BF46" s="49">
+        <v>10.35</v>
+      </c>
+      <c r="BG46" s="49">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="BH46" s="49">
+        <v>65.2</v>
+      </c>
+      <c r="BI46" s="49"/>
+      <c r="BJ46" s="49">
+        <v>10.28</v>
+      </c>
+      <c r="BK46" s="49">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="BL46" s="49">
+        <v>57.9</v>
+      </c>
+      <c r="BM46" s="49"/>
+      <c r="BN46" s="49"/>
+      <c r="BO46" s="49"/>
+      <c r="BP46" s="49"/>
+      <c r="BQ46" s="49"/>
+      <c r="BR46" s="49"/>
+      <c r="BS46" s="49"/>
+      <c r="BT46" s="49"/>
+      <c r="BU46" s="49"/>
+      <c r="BV46" s="49"/>
+      <c r="BW46" s="49"/>
+      <c r="BX46" s="49"/>
+      <c r="BY46" s="49"/>
+      <c r="BZ46" s="49"/>
+      <c r="CA46" s="49"/>
+      <c r="CB46" s="49"/>
+      <c r="CC46" s="49"/>
+      <c r="CD46" s="49"/>
+      <c r="CE46" s="49"/>
+      <c r="CF46" s="49"/>
+      <c r="CG46" s="49"/>
+      <c r="CH46" s="49"/>
+      <c r="CI46" s="49"/>
+      <c r="CJ46" s="49"/>
+      <c r="CK46" s="49"/>
+      <c r="CL46" s="49"/>
+      <c r="CM46" s="49"/>
+      <c r="CN46" s="49"/>
+      <c r="CO46" s="49"/>
+      <c r="CP46" s="49"/>
+      <c r="CQ46" s="49"/>
+      <c r="CR46" s="49"/>
+      <c r="CS46" s="49"/>
+    </row>
+    <row r="47" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A47" s="49">
         <v>27</v>
       </c>
@@ -9755,20 +11234,120 @@
         <v>36.299999999999997</v>
       </c>
       <c r="AG47" s="49"/>
-      <c r="AH47" s="49"/>
-      <c r="AI47" s="49"/>
-      <c r="AJ47" s="49"/>
+      <c r="AH47" s="49">
+        <v>9.32</v>
+      </c>
+      <c r="AI47" s="49">
+        <v>0.376</v>
+      </c>
+      <c r="AJ47" s="49">
+        <v>40.799999999999997</v>
+      </c>
       <c r="AK47" s="49"/>
-      <c r="AL47" s="49"/>
-      <c r="AM47" s="49"/>
-      <c r="AN47" s="49"/>
+      <c r="AL47" s="49">
+        <v>7.67</v>
+      </c>
+      <c r="AM47" s="49">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="AN47" s="49">
+        <v>32.299999999999997</v>
+      </c>
       <c r="AO47" s="49"/>
-      <c r="AP47" s="49"/>
-      <c r="AQ47" s="49"/>
-      <c r="AR47" s="49"/>
+      <c r="AP47" s="49">
+        <v>7.77</v>
+      </c>
+      <c r="AQ47" s="49">
+        <v>0.309</v>
+      </c>
+      <c r="AR47" s="49">
+        <v>29.6</v>
+      </c>
       <c r="AS47" s="49"/>
-    </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT47" s="49">
+        <v>9.69</v>
+      </c>
+      <c r="AU47" s="49">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="AV47" s="49">
+        <v>44.7</v>
+      </c>
+      <c r="AW47" s="49"/>
+      <c r="AX47" s="49">
+        <v>7.44</v>
+      </c>
+      <c r="AY47" s="49">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="AZ47" s="49">
+        <v>27.7</v>
+      </c>
+      <c r="BA47" s="49"/>
+      <c r="BB47" s="49">
+        <v>9.67</v>
+      </c>
+      <c r="BC47" s="49">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="BD47" s="49">
+        <v>44.9</v>
+      </c>
+      <c r="BE47" s="49"/>
+      <c r="BF47" s="49">
+        <v>10.15</v>
+      </c>
+      <c r="BG47" s="49">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="BH47" s="49">
+        <v>64.2</v>
+      </c>
+      <c r="BI47" s="49"/>
+      <c r="BJ47" s="49">
+        <v>10.01</v>
+      </c>
+      <c r="BK47" s="49">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="BL47" s="49">
+        <v>56.7</v>
+      </c>
+      <c r="BM47" s="49"/>
+      <c r="BN47" s="49"/>
+      <c r="BO47" s="49"/>
+      <c r="BP47" s="49"/>
+      <c r="BQ47" s="49"/>
+      <c r="BR47" s="49"/>
+      <c r="BS47" s="49"/>
+      <c r="BT47" s="49"/>
+      <c r="BU47" s="49"/>
+      <c r="BV47" s="49"/>
+      <c r="BW47" s="49"/>
+      <c r="BX47" s="49"/>
+      <c r="BY47" s="49"/>
+      <c r="BZ47" s="49"/>
+      <c r="CA47" s="49"/>
+      <c r="CB47" s="49"/>
+      <c r="CC47" s="49"/>
+      <c r="CD47" s="49"/>
+      <c r="CE47" s="49"/>
+      <c r="CF47" s="49"/>
+      <c r="CG47" s="49"/>
+      <c r="CH47" s="49"/>
+      <c r="CI47" s="49"/>
+      <c r="CJ47" s="49"/>
+      <c r="CK47" s="49"/>
+      <c r="CL47" s="49"/>
+      <c r="CM47" s="49"/>
+      <c r="CN47" s="49"/>
+      <c r="CO47" s="49"/>
+      <c r="CP47" s="49"/>
+      <c r="CQ47" s="49"/>
+      <c r="CR47" s="49"/>
+      <c r="CS47" s="49"/>
+    </row>
+    <row r="48" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A48" s="49">
         <v>17</v>
       </c>
@@ -9868,26 +11447,152 @@
       <c r="AG48" s="50" t="s">
         <v>442</v>
       </c>
-      <c r="AH48" s="49"/>
-      <c r="AI48" s="49"/>
-      <c r="AJ48" s="49"/>
+      <c r="AH48" s="49">
+        <v>6.5</v>
+      </c>
+      <c r="AI48" s="49">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="AJ48" s="49">
+        <v>39.200000000000003</v>
+      </c>
       <c r="AK48" s="50" t="s">
         <v>442</v>
       </c>
-      <c r="AL48" s="49"/>
-      <c r="AM48" s="49"/>
-      <c r="AN48" s="49"/>
+      <c r="AL48" s="49">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AM48" s="49">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="AN48" s="49">
+        <v>28.5</v>
+      </c>
       <c r="AO48" s="50" t="s">
         <v>442</v>
       </c>
-      <c r="AP48" s="49"/>
-      <c r="AQ48" s="49"/>
-      <c r="AR48" s="49"/>
+      <c r="AP48" s="49">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="AQ48" s="49">
+        <v>0.316</v>
+      </c>
+      <c r="AR48" s="49">
+        <v>29.4</v>
+      </c>
       <c r="AS48" s="50" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="49" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT48" s="49">
+        <v>7.41</v>
+      </c>
+      <c r="AU48" s="49">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="AV48" s="49">
+        <v>43.2</v>
+      </c>
+      <c r="AW48" s="50" t="s">
+        <v>442</v>
+      </c>
+      <c r="AX48" s="49">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="AY48" s="49">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="AZ48" s="49">
+        <v>27.7</v>
+      </c>
+      <c r="BA48" s="50" t="s">
+        <v>442</v>
+      </c>
+      <c r="BB48" s="49">
+        <v>7.57</v>
+      </c>
+      <c r="BC48" s="49">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="BD48" s="49">
+        <v>46.8</v>
+      </c>
+      <c r="BE48" s="50" t="s">
+        <v>442</v>
+      </c>
+      <c r="BF48" s="49">
+        <v>9.35</v>
+      </c>
+      <c r="BG48" s="49">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="BH48" s="49">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="BI48" s="50" t="s">
+        <v>442</v>
+      </c>
+      <c r="BJ48" s="49">
+        <v>9.02</v>
+      </c>
+      <c r="BK48" s="49">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="BL48" s="49">
+        <v>56.6</v>
+      </c>
+      <c r="BM48" s="50" t="s">
+        <v>442</v>
+      </c>
+      <c r="BN48" s="49"/>
+      <c r="BO48" s="49"/>
+      <c r="BP48" s="49"/>
+      <c r="BQ48" s="50" t="s">
+        <v>442</v>
+      </c>
+      <c r="BR48" s="49"/>
+      <c r="BS48" s="49"/>
+      <c r="BT48" s="49"/>
+      <c r="BU48" s="50" t="s">
+        <v>442</v>
+      </c>
+      <c r="BV48" s="49"/>
+      <c r="BW48" s="49"/>
+      <c r="BX48" s="49"/>
+      <c r="BY48" s="50" t="s">
+        <v>442</v>
+      </c>
+      <c r="BZ48" s="49"/>
+      <c r="CA48" s="49"/>
+      <c r="CB48" s="49"/>
+      <c r="CC48" s="50" t="s">
+        <v>442</v>
+      </c>
+      <c r="CD48" s="49"/>
+      <c r="CE48" s="49"/>
+      <c r="CF48" s="49"/>
+      <c r="CG48" s="50" t="s">
+        <v>442</v>
+      </c>
+      <c r="CH48" s="49"/>
+      <c r="CI48" s="49"/>
+      <c r="CJ48" s="49"/>
+      <c r="CK48" s="50" t="s">
+        <v>442</v>
+      </c>
+      <c r="CL48" s="49"/>
+      <c r="CM48" s="49"/>
+      <c r="CN48" s="49"/>
+      <c r="CO48" s="50" t="s">
+        <v>442</v>
+      </c>
+      <c r="CP48" s="49"/>
+      <c r="CQ48" s="49"/>
+      <c r="CR48" s="49"/>
+      <c r="CS48" s="50" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="49" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A49" s="49">
         <v>7</v>
       </c>
@@ -9987,20 +11692,136 @@
       <c r="AG49" s="49">
         <v>9.9</v>
       </c>
-      <c r="AH49" s="49"/>
-      <c r="AI49" s="49"/>
-      <c r="AJ49" s="49"/>
-      <c r="AK49" s="49"/>
-      <c r="AL49" s="49"/>
-      <c r="AM49" s="49"/>
-      <c r="AN49" s="49"/>
-      <c r="AO49" s="49"/>
-      <c r="AP49" s="49"/>
-      <c r="AQ49" s="49"/>
-      <c r="AR49" s="49"/>
-      <c r="AS49" s="49"/>
-    </row>
-    <row r="50" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AH49" s="49">
+        <v>2.9220000000000002</v>
+      </c>
+      <c r="AI49" s="49">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="AJ49" s="49">
+        <v>39.4</v>
+      </c>
+      <c r="AK49" s="49">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AL49" s="49">
+        <v>2.1840000000000002</v>
+      </c>
+      <c r="AM49" s="49">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="AN49" s="49">
+        <v>27.7</v>
+      </c>
+      <c r="AO49" s="49">
+        <v>8.4</v>
+      </c>
+      <c r="AP49" s="49">
+        <v>2.3010000000000002</v>
+      </c>
+      <c r="AQ49" s="49">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="AR49" s="49">
+        <v>29.4</v>
+      </c>
+      <c r="AS49" s="49">
+        <v>8.5</v>
+      </c>
+      <c r="AT49" s="49">
+        <v>3.2250000000000001</v>
+      </c>
+      <c r="AU49" s="49">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="AV49" s="49">
+        <v>43.4</v>
+      </c>
+      <c r="AW49" s="49">
+        <v>8.5</v>
+      </c>
+      <c r="AX49" s="49">
+        <v>2.1949999999999998</v>
+      </c>
+      <c r="AY49" s="49">
+        <v>0.31</v>
+      </c>
+      <c r="AZ49" s="49">
+        <v>28.3</v>
+      </c>
+      <c r="BA49" s="49">
+        <v>8.5</v>
+      </c>
+      <c r="BB49" s="49">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="BC49" s="49">
+        <v>0.496</v>
+      </c>
+      <c r="BD49" s="49">
+        <v>47.4</v>
+      </c>
+      <c r="BE49" s="49">
+        <v>8.4</v>
+      </c>
+      <c r="BF49" s="49">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="BG49" s="49">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="BH49" s="49">
+        <v>62.1</v>
+      </c>
+      <c r="BI49" s="49">
+        <v>9</v>
+      </c>
+      <c r="BJ49" s="49">
+        <v>3.95</v>
+      </c>
+      <c r="BK49" s="49">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="BL49" s="49">
+        <v>56.7</v>
+      </c>
+      <c r="BM49" s="49">
+        <v>9.1</v>
+      </c>
+      <c r="BN49" s="49"/>
+      <c r="BO49" s="49"/>
+      <c r="BP49" s="49"/>
+      <c r="BQ49" s="49"/>
+      <c r="BR49" s="49"/>
+      <c r="BS49" s="49"/>
+      <c r="BT49" s="49"/>
+      <c r="BU49" s="49"/>
+      <c r="BV49" s="49"/>
+      <c r="BW49" s="49"/>
+      <c r="BX49" s="49"/>
+      <c r="BY49" s="49"/>
+      <c r="BZ49" s="49"/>
+      <c r="CA49" s="49"/>
+      <c r="CB49" s="49"/>
+      <c r="CC49" s="49"/>
+      <c r="CD49" s="49"/>
+      <c r="CE49" s="49"/>
+      <c r="CF49" s="49"/>
+      <c r="CG49" s="49"/>
+      <c r="CH49" s="49"/>
+      <c r="CI49" s="49"/>
+      <c r="CJ49" s="49"/>
+      <c r="CK49" s="49"/>
+      <c r="CL49" s="49"/>
+      <c r="CM49" s="49"/>
+      <c r="CN49" s="49"/>
+      <c r="CO49" s="49"/>
+      <c r="CP49" s="49"/>
+      <c r="CQ49" s="49"/>
+      <c r="CR49" s="49"/>
+      <c r="CS49" s="49"/>
+    </row>
+    <row r="50" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A50" s="49">
         <v>6</v>
       </c>
@@ -10100,20 +11921,136 @@
       <c r="AG50" s="49">
         <v>33.799999999999997</v>
       </c>
-      <c r="AH50" s="49"/>
-      <c r="AI50" s="49"/>
-      <c r="AJ50" s="49"/>
-      <c r="AK50" s="49"/>
-      <c r="AL50" s="49"/>
-      <c r="AM50" s="49"/>
-      <c r="AN50" s="49"/>
-      <c r="AO50" s="49"/>
-      <c r="AP50" s="49"/>
-      <c r="AQ50" s="49"/>
-      <c r="AR50" s="49"/>
-      <c r="AS50" s="49"/>
-    </row>
-    <row r="51" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AH50" s="49">
+        <v>2.5110000000000001</v>
+      </c>
+      <c r="AI50" s="49">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="AJ50" s="49">
+        <v>39</v>
+      </c>
+      <c r="AK50" s="49">
+        <v>72.8</v>
+      </c>
+      <c r="AL50" s="49">
+        <v>1.84</v>
+      </c>
+      <c r="AM50" s="49">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="AN50" s="49">
+        <v>27.2</v>
+      </c>
+      <c r="AO50" s="49">
+        <v>74.8</v>
+      </c>
+      <c r="AP50" s="49">
+        <v>2.028</v>
+      </c>
+      <c r="AQ50" s="49">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="AR50" s="49">
+        <v>30.3</v>
+      </c>
+      <c r="AS50" s="49">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="AT50" s="49">
+        <v>2.7469999999999999</v>
+      </c>
+      <c r="AU50" s="49">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="AV50" s="49">
+        <v>42.5</v>
+      </c>
+      <c r="AW50" s="49">
+        <v>74.3</v>
+      </c>
+      <c r="AX50" s="49">
+        <v>1.9379999999999999</v>
+      </c>
+      <c r="AY50" s="49">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="AZ50" s="49">
+        <v>29</v>
+      </c>
+      <c r="BA50" s="49">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="BB50" s="49">
+        <v>3.94</v>
+      </c>
+      <c r="BC50" s="49">
+        <v>0.629</v>
+      </c>
+      <c r="BD50" s="49">
+        <v>61.5</v>
+      </c>
+      <c r="BE50" s="49">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="BF50" s="49">
+        <v>3.79</v>
+      </c>
+      <c r="BG50" s="49">
+        <v>0.622</v>
+      </c>
+      <c r="BH50" s="49">
+        <v>62.7</v>
+      </c>
+      <c r="BI50" s="49">
+        <v>74</v>
+      </c>
+      <c r="BJ50" s="49">
+        <v>3.2269999999999999</v>
+      </c>
+      <c r="BK50" s="49">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="BL50" s="49">
+        <v>52.8</v>
+      </c>
+      <c r="BM50" s="49">
+        <v>73.5</v>
+      </c>
+      <c r="BN50" s="49"/>
+      <c r="BO50" s="49"/>
+      <c r="BP50" s="49"/>
+      <c r="BQ50" s="49"/>
+      <c r="BR50" s="49"/>
+      <c r="BS50" s="49"/>
+      <c r="BT50" s="49"/>
+      <c r="BU50" s="49"/>
+      <c r="BV50" s="49"/>
+      <c r="BW50" s="49"/>
+      <c r="BX50" s="49"/>
+      <c r="BY50" s="49"/>
+      <c r="BZ50" s="49"/>
+      <c r="CA50" s="49"/>
+      <c r="CB50" s="49"/>
+      <c r="CC50" s="49"/>
+      <c r="CD50" s="49"/>
+      <c r="CE50" s="49"/>
+      <c r="CF50" s="49"/>
+      <c r="CG50" s="49"/>
+      <c r="CH50" s="49"/>
+      <c r="CI50" s="49"/>
+      <c r="CJ50" s="49"/>
+      <c r="CK50" s="49"/>
+      <c r="CL50" s="49"/>
+      <c r="CM50" s="49"/>
+      <c r="CN50" s="49"/>
+      <c r="CO50" s="49"/>
+      <c r="CP50" s="49"/>
+      <c r="CQ50" s="49"/>
+      <c r="CR50" s="49"/>
+      <c r="CS50" s="49"/>
+    </row>
+    <row r="51" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A51" s="49">
         <v>5</v>
       </c>
@@ -10197,20 +12134,120 @@
         <v>35.200000000000003</v>
       </c>
       <c r="AG51" s="49"/>
-      <c r="AH51" s="49"/>
-      <c r="AI51" s="49"/>
-      <c r="AJ51" s="49"/>
+      <c r="AH51" s="49">
+        <v>2.0910000000000002</v>
+      </c>
+      <c r="AI51" s="49">
+        <v>0.41</v>
+      </c>
+      <c r="AJ51" s="49">
+        <v>39.9</v>
+      </c>
       <c r="AK51" s="49"/>
-      <c r="AL51" s="49"/>
-      <c r="AM51" s="49"/>
-      <c r="AN51" s="49"/>
+      <c r="AL51" s="49">
+        <v>1.4770000000000001</v>
+      </c>
+      <c r="AM51" s="49">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="AN51" s="49">
+        <v>25.2</v>
+      </c>
       <c r="AO51" s="49"/>
-      <c r="AP51" s="49"/>
-      <c r="AQ51" s="49"/>
-      <c r="AR51" s="49"/>
+      <c r="AP51" s="49">
+        <v>1.6850000000000001</v>
+      </c>
+      <c r="AQ51" s="49">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="AR51" s="49">
+        <v>31</v>
+      </c>
       <c r="AS51" s="49"/>
-    </row>
-    <row r="52" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT51" s="49">
+        <v>2.2029999999999998</v>
+      </c>
+      <c r="AU51" s="49">
+        <v>0.442</v>
+      </c>
+      <c r="AV51" s="49">
+        <v>41.4</v>
+      </c>
+      <c r="AW51" s="49"/>
+      <c r="AX51" s="49">
+        <v>1.609</v>
+      </c>
+      <c r="AY51" s="49">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="AZ51" s="49">
+        <v>29.4</v>
+      </c>
+      <c r="BA51" s="49"/>
+      <c r="BB51" s="49">
+        <v>3.3540000000000001</v>
+      </c>
+      <c r="BC51" s="49">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="BD51" s="49">
+        <v>62.9</v>
+      </c>
+      <c r="BE51" s="49"/>
+      <c r="BF51" s="49">
+        <v>3.0720000000000001</v>
+      </c>
+      <c r="BG51" s="49">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="BH51" s="49">
+        <v>61.1</v>
+      </c>
+      <c r="BI51" s="49"/>
+      <c r="BJ51" s="49">
+        <v>2.5329999999999999</v>
+      </c>
+      <c r="BK51" s="49">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="BL51" s="49">
+        <v>50.9</v>
+      </c>
+      <c r="BM51" s="49"/>
+      <c r="BN51" s="49"/>
+      <c r="BO51" s="49"/>
+      <c r="BP51" s="49"/>
+      <c r="BQ51" s="49"/>
+      <c r="BR51" s="49"/>
+      <c r="BS51" s="49"/>
+      <c r="BT51" s="49"/>
+      <c r="BU51" s="49"/>
+      <c r="BV51" s="49"/>
+      <c r="BW51" s="49"/>
+      <c r="BX51" s="49"/>
+      <c r="BY51" s="49"/>
+      <c r="BZ51" s="49"/>
+      <c r="CA51" s="49"/>
+      <c r="CB51" s="49"/>
+      <c r="CC51" s="49"/>
+      <c r="CD51" s="49"/>
+      <c r="CE51" s="49"/>
+      <c r="CF51" s="49"/>
+      <c r="CG51" s="49"/>
+      <c r="CH51" s="49"/>
+      <c r="CI51" s="49"/>
+      <c r="CJ51" s="49"/>
+      <c r="CK51" s="49"/>
+      <c r="CL51" s="49"/>
+      <c r="CM51" s="49"/>
+      <c r="CN51" s="49"/>
+      <c r="CO51" s="49"/>
+      <c r="CP51" s="49"/>
+      <c r="CQ51" s="49"/>
+      <c r="CR51" s="49"/>
+      <c r="CS51" s="49"/>
+    </row>
+    <row r="52" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A52" s="49">
         <v>4</v>
       </c>
@@ -10294,20 +12331,120 @@
         <v>35.700000000000003</v>
       </c>
       <c r="AG52" s="49"/>
-      <c r="AH52" s="49"/>
-      <c r="AI52" s="49"/>
-      <c r="AJ52" s="49"/>
+      <c r="AH52" s="49">
+        <v>1.661</v>
+      </c>
+      <c r="AI52" s="49">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="AJ52" s="49">
+        <v>39.799999999999997</v>
+      </c>
       <c r="AK52" s="49"/>
-      <c r="AL52" s="49"/>
-      <c r="AM52" s="49"/>
-      <c r="AN52" s="49"/>
+      <c r="AL52" s="49">
+        <v>1.151</v>
+      </c>
+      <c r="AM52" s="49">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="AN52" s="49">
+        <v>26.6</v>
+      </c>
       <c r="AO52" s="49"/>
-      <c r="AP52" s="49"/>
-      <c r="AQ52" s="49"/>
-      <c r="AR52" s="49"/>
+      <c r="AP52" s="49">
+        <v>1.351</v>
+      </c>
+      <c r="AQ52" s="49">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="AR52" s="49">
+        <v>31.5</v>
+      </c>
       <c r="AS52" s="49"/>
-    </row>
-    <row r="53" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT52" s="49">
+        <v>1.706</v>
+      </c>
+      <c r="AU52" s="49">
+        <v>0.435</v>
+      </c>
+      <c r="AV52" s="49">
+        <v>40.9</v>
+      </c>
+      <c r="AW52" s="49"/>
+      <c r="AX52" s="49">
+        <v>1.2849999999999999</v>
+      </c>
+      <c r="AY52" s="49">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="AZ52" s="49">
+        <v>29.7</v>
+      </c>
+      <c r="BA52" s="49"/>
+      <c r="BB52" s="49">
+        <v>2.762</v>
+      </c>
+      <c r="BC52" s="49">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="BD52" s="49">
+        <v>66.5</v>
+      </c>
+      <c r="BE52" s="49"/>
+      <c r="BF52" s="49">
+        <v>2.3519999999999999</v>
+      </c>
+      <c r="BG52" s="49">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="BH52" s="49">
+        <v>61</v>
+      </c>
+      <c r="BI52" s="49"/>
+      <c r="BJ52" s="49">
+        <v>1.9710000000000001</v>
+      </c>
+      <c r="BK52" s="49">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="BL52" s="49">
+        <v>49.1</v>
+      </c>
+      <c r="BM52" s="49"/>
+      <c r="BN52" s="49"/>
+      <c r="BO52" s="49"/>
+      <c r="BP52" s="49"/>
+      <c r="BQ52" s="49"/>
+      <c r="BR52" s="49"/>
+      <c r="BS52" s="49"/>
+      <c r="BT52" s="49"/>
+      <c r="BU52" s="49"/>
+      <c r="BV52" s="49"/>
+      <c r="BW52" s="49"/>
+      <c r="BX52" s="49"/>
+      <c r="BY52" s="49"/>
+      <c r="BZ52" s="49"/>
+      <c r="CA52" s="49"/>
+      <c r="CB52" s="49"/>
+      <c r="CC52" s="49"/>
+      <c r="CD52" s="49"/>
+      <c r="CE52" s="49"/>
+      <c r="CF52" s="49"/>
+      <c r="CG52" s="49"/>
+      <c r="CH52" s="49"/>
+      <c r="CI52" s="49"/>
+      <c r="CJ52" s="49"/>
+      <c r="CK52" s="49"/>
+      <c r="CL52" s="49"/>
+      <c r="CM52" s="49"/>
+      <c r="CN52" s="49"/>
+      <c r="CO52" s="49"/>
+      <c r="CP52" s="49"/>
+      <c r="CQ52" s="49"/>
+      <c r="CR52" s="49"/>
+      <c r="CS52" s="49"/>
+    </row>
+    <row r="53" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A53" s="49">
         <v>3</v>
       </c>
@@ -10407,26 +12544,152 @@
       <c r="AG53" s="50" t="s">
         <v>443</v>
       </c>
-      <c r="AH53" s="49"/>
-      <c r="AI53" s="49"/>
-      <c r="AJ53" s="49"/>
+      <c r="AH53" s="49">
+        <v>1.2989999999999999</v>
+      </c>
+      <c r="AI53" s="49">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="AJ53" s="49">
+        <v>41.1</v>
+      </c>
       <c r="AK53" s="50" t="s">
         <v>443</v>
       </c>
-      <c r="AL53" s="49"/>
-      <c r="AM53" s="49"/>
-      <c r="AN53" s="49"/>
+      <c r="AL53" s="49">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="AM53" s="49">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="AN53" s="60">
+        <v>25.4</v>
+      </c>
       <c r="AO53" s="50" t="s">
         <v>443</v>
       </c>
-      <c r="AP53" s="49"/>
-      <c r="AQ53" s="49"/>
-      <c r="AR53" s="49"/>
+      <c r="AP53" s="49">
+        <v>1.0409999999999999</v>
+      </c>
+      <c r="AQ53" s="49">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="AR53" s="49">
+        <v>32.1</v>
+      </c>
       <c r="AS53" s="50" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="54" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT53" s="49">
+        <v>1.282</v>
+      </c>
+      <c r="AU53" s="49">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="AV53" s="49">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="AW53" s="50" t="s">
+        <v>443</v>
+      </c>
+      <c r="AX53" s="49">
+        <v>1.004</v>
+      </c>
+      <c r="AY53" s="49">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="AZ53" s="49">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="BA53" s="50" t="s">
+        <v>443</v>
+      </c>
+      <c r="BB53" s="49">
+        <v>2.2189999999999999</v>
+      </c>
+      <c r="BC53" s="49">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="BD53" s="49">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="BE53" s="50" t="s">
+        <v>443</v>
+      </c>
+      <c r="BF53" s="49">
+        <v>1.756</v>
+      </c>
+      <c r="BG53" s="49">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="BH53" s="49">
+        <v>60.1</v>
+      </c>
+      <c r="BI53" s="50" t="s">
+        <v>443</v>
+      </c>
+      <c r="BJ53" s="49">
+        <v>1.504</v>
+      </c>
+      <c r="BK53" s="49">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="BL53" s="49">
+        <v>49.5</v>
+      </c>
+      <c r="BM53" s="50" t="s">
+        <v>443</v>
+      </c>
+      <c r="BN53" s="49"/>
+      <c r="BO53" s="49"/>
+      <c r="BP53" s="49"/>
+      <c r="BQ53" s="50" t="s">
+        <v>443</v>
+      </c>
+      <c r="BR53" s="49"/>
+      <c r="BS53" s="49"/>
+      <c r="BT53" s="49"/>
+      <c r="BU53" s="50" t="s">
+        <v>443</v>
+      </c>
+      <c r="BV53" s="49"/>
+      <c r="BW53" s="49"/>
+      <c r="BX53" s="49"/>
+      <c r="BY53" s="50" t="s">
+        <v>443</v>
+      </c>
+      <c r="BZ53" s="49"/>
+      <c r="CA53" s="49"/>
+      <c r="CB53" s="49"/>
+      <c r="CC53" s="50" t="s">
+        <v>443</v>
+      </c>
+      <c r="CD53" s="49"/>
+      <c r="CE53" s="49"/>
+      <c r="CF53" s="49"/>
+      <c r="CG53" s="50" t="s">
+        <v>443</v>
+      </c>
+      <c r="CH53" s="49"/>
+      <c r="CI53" s="49"/>
+      <c r="CJ53" s="49"/>
+      <c r="CK53" s="50" t="s">
+        <v>443</v>
+      </c>
+      <c r="CL53" s="49"/>
+      <c r="CM53" s="49"/>
+      <c r="CN53" s="49"/>
+      <c r="CO53" s="50" t="s">
+        <v>443</v>
+      </c>
+      <c r="CP53" s="49"/>
+      <c r="CQ53" s="49"/>
+      <c r="CR53" s="49"/>
+      <c r="CS53" s="50" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="54" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A54" s="49">
         <v>2</v>
       </c>
@@ -10526,20 +12789,136 @@
       <c r="AG54" s="49">
         <v>9.6999999999999993</v>
       </c>
-      <c r="AH54" s="51"/>
-      <c r="AI54" s="51"/>
-      <c r="AJ54" s="49"/>
-      <c r="AK54" s="49"/>
-      <c r="AL54" s="51"/>
-      <c r="AM54" s="51"/>
-      <c r="AN54" s="49"/>
-      <c r="AO54" s="49"/>
-      <c r="AP54" s="51"/>
-      <c r="AQ54" s="51"/>
-      <c r="AR54" s="49"/>
-      <c r="AS54" s="49"/>
-    </row>
-    <row r="55" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AH54" s="51">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="AI54" s="51">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="AJ54" s="49">
+        <v>43.7</v>
+      </c>
+      <c r="AK54" s="49">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AL54" s="51">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="AM54" s="51">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="AN54" s="60">
+        <v>24.7</v>
+      </c>
+      <c r="AO54" s="49">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AP54" s="49">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="AQ54" s="51">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="AR54" s="49">
+        <v>32.1</v>
+      </c>
+      <c r="AS54" s="49">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AT54" s="51">
+        <v>0.748</v>
+      </c>
+      <c r="AU54" s="51">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="AV54" s="49">
+        <v>38.1</v>
+      </c>
+      <c r="AW54" s="49">
+        <v>8.5</v>
+      </c>
+      <c r="AX54" s="51">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="AY54" s="51">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="AZ54" s="49">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="BA54" s="49">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="BB54" s="51">
+        <v>1.339</v>
+      </c>
+      <c r="BC54" s="51">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="BD54" s="49">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="BE54" s="49">
+        <v>8.5</v>
+      </c>
+      <c r="BF54" s="51">
+        <v>1.02</v>
+      </c>
+      <c r="BG54" s="51">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="BH54" s="49">
+        <v>56.8</v>
+      </c>
+      <c r="BI54" s="49">
+        <v>9</v>
+      </c>
+      <c r="BJ54" s="51">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="BK54" s="51">
+        <v>0.51</v>
+      </c>
+      <c r="BL54" s="49">
+        <v>50.4</v>
+      </c>
+      <c r="BM54" s="49">
+        <v>9.1</v>
+      </c>
+      <c r="BN54" s="51"/>
+      <c r="BO54" s="51"/>
+      <c r="BP54" s="49"/>
+      <c r="BQ54" s="49"/>
+      <c r="BR54" s="51"/>
+      <c r="BS54" s="51"/>
+      <c r="BT54" s="49"/>
+      <c r="BU54" s="49"/>
+      <c r="BV54" s="51"/>
+      <c r="BW54" s="51"/>
+      <c r="BX54" s="49"/>
+      <c r="BY54" s="49"/>
+      <c r="BZ54" s="51"/>
+      <c r="CA54" s="51"/>
+      <c r="CB54" s="49"/>
+      <c r="CC54" s="49"/>
+      <c r="CD54" s="51"/>
+      <c r="CE54" s="51"/>
+      <c r="CF54" s="49"/>
+      <c r="CG54" s="49"/>
+      <c r="CH54" s="51"/>
+      <c r="CI54" s="51"/>
+      <c r="CJ54" s="49"/>
+      <c r="CK54" s="49"/>
+      <c r="CL54" s="51"/>
+      <c r="CM54" s="51"/>
+      <c r="CN54" s="49"/>
+      <c r="CO54" s="49"/>
+      <c r="CP54" s="51"/>
+      <c r="CQ54" s="51"/>
+      <c r="CR54" s="49"/>
+      <c r="CS54" s="49"/>
+    </row>
+    <row r="55" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A55" s="49">
         <v>1</v>
       </c>
@@ -10639,20 +13018,136 @@
       <c r="AG55" s="49">
         <v>34.299999999999997</v>
       </c>
-      <c r="AH55" s="49"/>
-      <c r="AI55" s="49"/>
-      <c r="AJ55" s="49"/>
-      <c r="AK55" s="49"/>
-      <c r="AL55" s="49"/>
-      <c r="AM55" s="49"/>
-      <c r="AN55" s="49"/>
-      <c r="AO55" s="49"/>
-      <c r="AP55" s="49"/>
-      <c r="AQ55" s="49"/>
-      <c r="AR55" s="49"/>
-      <c r="AS55" s="49"/>
-    </row>
-    <row r="56" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AH55" s="49">
+        <v>0.496</v>
+      </c>
+      <c r="AI55" s="49">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="AJ55" s="49">
+        <v>45.1</v>
+      </c>
+      <c r="AK55" s="49">
+        <v>72.8</v>
+      </c>
+      <c r="AL55" s="49">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="AM55" s="49">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="AN55" s="60">
+        <v>27.6</v>
+      </c>
+      <c r="AO55" s="49">
+        <v>75</v>
+      </c>
+      <c r="AP55" s="51">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="AQ55" s="49">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="AR55" s="49">
+        <v>33.1</v>
+      </c>
+      <c r="AS55" s="49">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="AT55" s="49">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="AU55" s="49">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="AV55" s="49">
+        <v>36</v>
+      </c>
+      <c r="AW55" s="49">
+        <v>74.5</v>
+      </c>
+      <c r="AX55" s="49">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="AY55" s="49">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="AZ55" s="49">
+        <v>32.5</v>
+      </c>
+      <c r="BA55" s="49">
+        <v>75.3</v>
+      </c>
+      <c r="BB55" s="49">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="BC55" s="49">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="BD55" s="49">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="BE55" s="49">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="BF55" s="49">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="BG55" s="49">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="BH55" s="49">
+        <v>54.5</v>
+      </c>
+      <c r="BI55" s="49">
+        <v>73.8</v>
+      </c>
+      <c r="BJ55" s="49">
+        <v>0.47</v>
+      </c>
+      <c r="BK55" s="49">
+        <v>0.51</v>
+      </c>
+      <c r="BL55" s="49">
+        <v>50.5</v>
+      </c>
+      <c r="BM55" s="49">
+        <v>73.3</v>
+      </c>
+      <c r="BN55" s="49"/>
+      <c r="BO55" s="49"/>
+      <c r="BP55" s="49"/>
+      <c r="BQ55" s="49"/>
+      <c r="BR55" s="49"/>
+      <c r="BS55" s="49"/>
+      <c r="BT55" s="49"/>
+      <c r="BU55" s="49"/>
+      <c r="BV55" s="49"/>
+      <c r="BW55" s="49"/>
+      <c r="BX55" s="49"/>
+      <c r="BY55" s="49"/>
+      <c r="BZ55" s="49"/>
+      <c r="CA55" s="49"/>
+      <c r="CB55" s="49"/>
+      <c r="CC55" s="49"/>
+      <c r="CD55" s="49"/>
+      <c r="CE55" s="49"/>
+      <c r="CF55" s="49"/>
+      <c r="CG55" s="49"/>
+      <c r="CH55" s="49"/>
+      <c r="CI55" s="49"/>
+      <c r="CJ55" s="49"/>
+      <c r="CK55" s="49"/>
+      <c r="CL55" s="49"/>
+      <c r="CM55" s="49"/>
+      <c r="CN55" s="49"/>
+      <c r="CO55" s="49"/>
+      <c r="CP55" s="49"/>
+      <c r="CQ55" s="49"/>
+      <c r="CR55" s="49"/>
+      <c r="CS55" s="49"/>
+    </row>
+    <row r="56" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A56" s="49">
         <v>0</v>
       </c>
@@ -10736,45 +13231,139 @@
         <v>35.200000000000003</v>
       </c>
       <c r="AG56" s="49"/>
-      <c r="AH56" s="49"/>
-      <c r="AI56" s="49"/>
-      <c r="AJ56" s="49"/>
+      <c r="AH56" s="49">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="AI56" s="49">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="AJ56" s="49">
+        <v>47.1</v>
+      </c>
       <c r="AK56" s="49"/>
-      <c r="AL56" s="49"/>
-      <c r="AM56" s="49"/>
-      <c r="AN56" s="49"/>
+      <c r="AL56" s="49">
+        <v>0.185</v>
+      </c>
+      <c r="AM56" s="49">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="AN56" s="60">
+        <v>26.2</v>
+      </c>
       <c r="AO56" s="49"/>
-      <c r="AP56" s="49"/>
-      <c r="AQ56" s="49"/>
-      <c r="AR56" s="49"/>
+      <c r="AP56" s="49">
+        <v>0.155</v>
+      </c>
+      <c r="AQ56" s="49">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="AR56" s="49">
+        <v>33.4</v>
+      </c>
       <c r="AS56" s="49"/>
-    </row>
-    <row r="57" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="J57" s="65" t="s">
+      <c r="AT56" s="49">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="AU56" s="49">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="AV56" s="49">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="AW56" s="49"/>
+      <c r="AX56" s="49">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="AY56" s="49">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="AZ56" s="49">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="BA56" s="49"/>
+      <c r="BB56" s="49">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="BC56" s="49">
+        <v>0.755</v>
+      </c>
+      <c r="BD56" s="49">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="BE56" s="49"/>
+      <c r="BF56" s="49">
+        <v>0.219</v>
+      </c>
+      <c r="BG56" s="49">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="BH56" s="49">
+        <v>52.6</v>
+      </c>
+      <c r="BI56" s="49"/>
+      <c r="BJ56" s="49">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="BK56" s="49">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="BL56" s="49">
+        <v>50.5</v>
+      </c>
+      <c r="BM56" s="49"/>
+      <c r="BN56" s="49"/>
+      <c r="BO56" s="49"/>
+      <c r="BP56" s="49"/>
+      <c r="BQ56" s="49"/>
+      <c r="BR56" s="49"/>
+      <c r="BS56" s="49"/>
+      <c r="BT56" s="49"/>
+      <c r="BU56" s="49"/>
+      <c r="BV56" s="49"/>
+      <c r="BW56" s="49"/>
+      <c r="BX56" s="49"/>
+      <c r="BY56" s="49"/>
+      <c r="BZ56" s="49"/>
+      <c r="CA56" s="49"/>
+      <c r="CB56" s="49"/>
+      <c r="CC56" s="49"/>
+      <c r="CD56" s="49"/>
+      <c r="CE56" s="49"/>
+      <c r="CF56" s="49"/>
+      <c r="CG56" s="49"/>
+      <c r="CH56" s="49"/>
+      <c r="CI56" s="49"/>
+      <c r="CJ56" s="49"/>
+      <c r="CK56" s="49"/>
+      <c r="CL56" s="49"/>
+      <c r="CM56" s="49"/>
+      <c r="CN56" s="49"/>
+      <c r="CO56" s="49"/>
+      <c r="CP56" s="49"/>
+      <c r="CQ56" s="49"/>
+      <c r="CR56" s="49"/>
+      <c r="CS56" s="49"/>
+    </row>
+    <row r="57" spans="1:97" x14ac:dyDescent="0.15">
+      <c r="J57" s="66" t="s">
         <v>487</v>
       </c>
-      <c r="K57" s="65"/>
-      <c r="L57" s="65"/>
-      <c r="M57" s="65"/>
+      <c r="K57" s="66"/>
+      <c r="L57" s="66"/>
+      <c r="M57" s="66"/>
     </row>
   </sheetData>
-  <mergeCells count="93">
-    <mergeCell ref="AD8:AG8"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="N33:Q33"/>
-    <mergeCell ref="N34:Q34"/>
+  <mergeCells count="145">
     <mergeCell ref="N35:Q35"/>
     <mergeCell ref="N36:Q36"/>
     <mergeCell ref="R33:U33"/>
     <mergeCell ref="R34:U34"/>
     <mergeCell ref="R35:U35"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Y4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="F8:I8"/>
     <mergeCell ref="J8:M8"/>
@@ -10785,15 +13374,6 @@
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J7:M7"/>
-    <mergeCell ref="V5:Y5"/>
-    <mergeCell ref="V6:Y6"/>
-    <mergeCell ref="AP5:AS5"/>
-    <mergeCell ref="AP6:AS6"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Y4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="AP7:AS7"/>
     <mergeCell ref="AP8:AS8"/>
     <mergeCell ref="N7:Q7"/>
@@ -10810,6 +13390,11 @@
     <mergeCell ref="AH6:AK6"/>
     <mergeCell ref="Z5:AC5"/>
     <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="V5:Y5"/>
+    <mergeCell ref="V6:Y6"/>
+    <mergeCell ref="AP5:AS5"/>
+    <mergeCell ref="AP6:AS6"/>
+    <mergeCell ref="AD8:AG8"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="B35:E35"/>
@@ -10826,20 +13411,14 @@
     <mergeCell ref="AD5:AG5"/>
     <mergeCell ref="AD6:AG6"/>
     <mergeCell ref="AD7:AG7"/>
-    <mergeCell ref="R36:U36"/>
-    <mergeCell ref="V33:Y33"/>
-    <mergeCell ref="V34:Y34"/>
-    <mergeCell ref="V35:Y35"/>
-    <mergeCell ref="V36:Y36"/>
-    <mergeCell ref="Z36:AC36"/>
-    <mergeCell ref="AD33:AG33"/>
-    <mergeCell ref="AD34:AG34"/>
-    <mergeCell ref="AD35:AG35"/>
-    <mergeCell ref="AD36:AG36"/>
-    <mergeCell ref="AP33:AS33"/>
-    <mergeCell ref="AP34:AS34"/>
-    <mergeCell ref="AP35:AS35"/>
-    <mergeCell ref="AP36:AS36"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="J36:M36"/>
     <mergeCell ref="J57:M57"/>
     <mergeCell ref="AH33:AK33"/>
     <mergeCell ref="AH34:AK34"/>
@@ -10852,6 +13431,74 @@
     <mergeCell ref="Z33:AC33"/>
     <mergeCell ref="Z34:AC34"/>
     <mergeCell ref="Z35:AC35"/>
+    <mergeCell ref="Z36:AC36"/>
+    <mergeCell ref="AD33:AG33"/>
+    <mergeCell ref="AD34:AG34"/>
+    <mergeCell ref="AD35:AG35"/>
+    <mergeCell ref="AD36:AG36"/>
+    <mergeCell ref="R36:U36"/>
+    <mergeCell ref="V33:Y33"/>
+    <mergeCell ref="V34:Y34"/>
+    <mergeCell ref="V35:Y35"/>
+    <mergeCell ref="V36:Y36"/>
+    <mergeCell ref="N33:Q33"/>
+    <mergeCell ref="N34:Q34"/>
+    <mergeCell ref="AT33:AW33"/>
+    <mergeCell ref="AT34:AW34"/>
+    <mergeCell ref="AT35:AW35"/>
+    <mergeCell ref="AT36:AW36"/>
+    <mergeCell ref="AX33:BA33"/>
+    <mergeCell ref="AX34:BA34"/>
+    <mergeCell ref="AX35:BA35"/>
+    <mergeCell ref="AX36:BA36"/>
+    <mergeCell ref="AP33:AS33"/>
+    <mergeCell ref="AP34:AS34"/>
+    <mergeCell ref="AP35:AS35"/>
+    <mergeCell ref="AP36:AS36"/>
+    <mergeCell ref="BJ33:BM33"/>
+    <mergeCell ref="BJ34:BM34"/>
+    <mergeCell ref="BJ35:BM35"/>
+    <mergeCell ref="BJ36:BM36"/>
+    <mergeCell ref="BN33:BQ33"/>
+    <mergeCell ref="BN34:BQ34"/>
+    <mergeCell ref="BN35:BQ35"/>
+    <mergeCell ref="BN36:BQ36"/>
+    <mergeCell ref="BB33:BE33"/>
+    <mergeCell ref="BB34:BE34"/>
+    <mergeCell ref="BB35:BE35"/>
+    <mergeCell ref="BB36:BE36"/>
+    <mergeCell ref="BF33:BI33"/>
+    <mergeCell ref="BF34:BI34"/>
+    <mergeCell ref="BF35:BI35"/>
+    <mergeCell ref="BF36:BI36"/>
+    <mergeCell ref="BZ33:CC33"/>
+    <mergeCell ref="BZ34:CC34"/>
+    <mergeCell ref="BZ35:CC35"/>
+    <mergeCell ref="BZ36:CC36"/>
+    <mergeCell ref="CD33:CG33"/>
+    <mergeCell ref="CD34:CG34"/>
+    <mergeCell ref="CD35:CG35"/>
+    <mergeCell ref="CD36:CG36"/>
+    <mergeCell ref="BR33:BU33"/>
+    <mergeCell ref="BR34:BU34"/>
+    <mergeCell ref="BR35:BU35"/>
+    <mergeCell ref="BR36:BU36"/>
+    <mergeCell ref="BV33:BY33"/>
+    <mergeCell ref="BV34:BY34"/>
+    <mergeCell ref="BV35:BY35"/>
+    <mergeCell ref="BV36:BY36"/>
+    <mergeCell ref="CP33:CS33"/>
+    <mergeCell ref="CP34:CS34"/>
+    <mergeCell ref="CP35:CS35"/>
+    <mergeCell ref="CP36:CS36"/>
+    <mergeCell ref="CH33:CK33"/>
+    <mergeCell ref="CH34:CK34"/>
+    <mergeCell ref="CH35:CK35"/>
+    <mergeCell ref="CH36:CK36"/>
+    <mergeCell ref="CL33:CO33"/>
+    <mergeCell ref="CL34:CO34"/>
+    <mergeCell ref="CL35:CO35"/>
+    <mergeCell ref="CL36:CO36"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10864,7 +13511,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AG27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="R1" workbookViewId="0">
       <selection activeCell="AD4" sqref="AD4:AG4"/>
     </sheetView>
   </sheetViews>
@@ -12835,7 +15482,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24:E29"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>

--- a/数据记录/记录表单.xlsx
+++ b/数据记录/记录表单.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="501">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4404,6 +4404,29 @@
   </si>
   <si>
     <t>同上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5块板子没有光</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晴 太阳可见 无云 昨天有雨 倾角过大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.5-3块板子没有光 没光200左右</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4811,19 +4834,10 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -4841,8 +4855,20 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4850,16 +4876,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4895,19 +4918,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4919,10 +4939,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4934,41 +4951,23 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4990,6 +4989,30 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5291,8 +5314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:CS57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AZ29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BM56" sqref="BM56"/>
+    <sheetView tabSelected="1" topLeftCell="BF28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BU55" sqref="BU55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5302,42 +5325,43 @@
     <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="10" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="69">
+      <c r="B4" s="66">
         <v>42309</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="69">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="66">
         <v>42310</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="69">
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="66">
         <v>42311</v>
       </c>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="72"/>
-      <c r="X4" s="72"/>
-      <c r="Y4" s="73"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
+      <c r="U4" s="69"/>
+      <c r="V4" s="69"/>
+      <c r="W4" s="69"/>
+      <c r="X4" s="69"/>
+      <c r="Y4" s="70"/>
       <c r="Z4" s="59">
         <v>42312</v>
       </c>
@@ -5371,18 +5395,18 @@
       <c r="A5" s="49" t="s">
         <v>447</v>
       </c>
-      <c r="B5" s="68">
+      <c r="B5" s="71">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="68">
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="71">
         <v>0.68819444444444444</v>
       </c>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
       <c r="J5" s="61">
         <v>0.41041666666666665</v>
       </c>
@@ -5562,72 +5586,72 @@
       <c r="A8" s="49" t="s">
         <v>438</v>
       </c>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="71" t="s">
         <v>463</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68" t="s">
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71" t="s">
         <v>465</v>
       </c>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="64" t="s">
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="65" t="s">
         <v>466</v>
       </c>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64" t="s">
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="65" t="s">
         <v>468</v>
       </c>
-      <c r="O8" s="64"/>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="65" t="s">
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="65"/>
+      <c r="R8" s="64" t="s">
         <v>469</v>
       </c>
-      <c r="S8" s="64"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="64"/>
-      <c r="V8" s="65" t="s">
+      <c r="S8" s="65"/>
+      <c r="T8" s="65"/>
+      <c r="U8" s="65"/>
+      <c r="V8" s="64" t="s">
         <v>470</v>
       </c>
-      <c r="W8" s="64"/>
-      <c r="X8" s="64"/>
-      <c r="Y8" s="64"/>
-      <c r="Z8" s="64" t="s">
+      <c r="W8" s="65"/>
+      <c r="X8" s="65"/>
+      <c r="Y8" s="65"/>
+      <c r="Z8" s="65" t="s">
         <v>472</v>
       </c>
-      <c r="AA8" s="64"/>
-      <c r="AB8" s="64"/>
-      <c r="AC8" s="64"/>
-      <c r="AD8" s="65" t="s">
+      <c r="AA8" s="65"/>
+      <c r="AB8" s="65"/>
+      <c r="AC8" s="65"/>
+      <c r="AD8" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="AE8" s="64"/>
-      <c r="AF8" s="64"/>
-      <c r="AG8" s="64"/>
-      <c r="AH8" s="64" t="s">
+      <c r="AE8" s="65"/>
+      <c r="AF8" s="65"/>
+      <c r="AG8" s="65"/>
+      <c r="AH8" s="65" t="s">
         <v>474</v>
       </c>
-      <c r="AI8" s="64"/>
-      <c r="AJ8" s="64"/>
-      <c r="AK8" s="64"/>
-      <c r="AL8" s="64" t="s">
+      <c r="AI8" s="65"/>
+      <c r="AJ8" s="65"/>
+      <c r="AK8" s="65"/>
+      <c r="AL8" s="65" t="s">
         <v>475</v>
       </c>
-      <c r="AM8" s="64"/>
-      <c r="AN8" s="64"/>
-      <c r="AO8" s="64"/>
-      <c r="AP8" s="64" t="s">
+      <c r="AM8" s="65"/>
+      <c r="AN8" s="65"/>
+      <c r="AO8" s="65"/>
+      <c r="AP8" s="65" t="s">
         <v>478</v>
       </c>
-      <c r="AQ8" s="64"/>
-      <c r="AR8" s="64"/>
-      <c r="AS8" s="64"/>
+      <c r="AQ8" s="65"/>
+      <c r="AR8" s="65"/>
+      <c r="AS8" s="65"/>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A9" s="49" t="s">
@@ -8216,12 +8240,12 @@
       <c r="AS28" s="49"/>
     </row>
     <row r="29" spans="1:97" x14ac:dyDescent="0.15">
-      <c r="R29" s="66" t="s">
+      <c r="R29" s="72" t="s">
         <v>471</v>
       </c>
-      <c r="S29" s="66"/>
-      <c r="T29" s="66"/>
-      <c r="U29" s="66"/>
+      <c r="S29" s="72"/>
+      <c r="T29" s="72"/>
+      <c r="U29" s="72"/>
       <c r="AD29">
         <v>22.5</v>
       </c>
@@ -8339,7 +8363,9 @@
       <c r="BK32" s="58"/>
       <c r="BL32" s="58"/>
       <c r="BM32" s="58"/>
-      <c r="BN32" s="59"/>
+      <c r="BN32" s="59">
+        <v>42363</v>
+      </c>
       <c r="BO32" s="58"/>
       <c r="BP32" s="58"/>
       <c r="BQ32" s="58"/>
@@ -8406,7 +8432,7 @@
       <c r="S33" s="62"/>
       <c r="T33" s="62"/>
       <c r="U33" s="63"/>
-      <c r="V33" s="67" t="s">
+      <c r="V33" s="73" t="s">
         <v>491</v>
       </c>
       <c r="W33" s="62"/>
@@ -8472,7 +8498,9 @@
       <c r="BK33" s="62"/>
       <c r="BL33" s="62"/>
       <c r="BM33" s="63"/>
-      <c r="BN33" s="61"/>
+      <c r="BN33" s="61">
+        <v>0.43263888888888885</v>
+      </c>
       <c r="BO33" s="62"/>
       <c r="BP33" s="62"/>
       <c r="BQ33" s="63"/>
@@ -8521,7 +8549,7 @@
       <c r="K34" s="62"/>
       <c r="L34" s="62"/>
       <c r="M34" s="63"/>
-      <c r="N34" s="67" t="s">
+      <c r="N34" s="73" t="s">
         <v>485</v>
       </c>
       <c r="O34" s="62"/>
@@ -8624,7 +8652,7 @@
       <c r="G35" s="62"/>
       <c r="H35" s="62"/>
       <c r="I35" s="63"/>
-      <c r="J35" s="67" t="s">
+      <c r="J35" s="73" t="s">
         <v>483</v>
       </c>
       <c r="K35" s="62"/>
@@ -8640,7 +8668,7 @@
       <c r="S35" s="62"/>
       <c r="T35" s="62"/>
       <c r="U35" s="63"/>
-      <c r="V35" s="67" t="s">
+      <c r="V35" s="73" t="s">
         <v>492</v>
       </c>
       <c r="W35" s="62"/>
@@ -8706,7 +8734,9 @@
       <c r="BK35" s="62"/>
       <c r="BL35" s="62"/>
       <c r="BM35" s="63"/>
-      <c r="BN35" s="61"/>
+      <c r="BN35" s="61">
+        <v>0.4381944444444445</v>
+      </c>
       <c r="BO35" s="62"/>
       <c r="BP35" s="62"/>
       <c r="BQ35" s="63"/>
@@ -8743,124 +8773,130 @@
       <c r="A36" s="49" t="s">
         <v>438</v>
       </c>
-      <c r="B36" s="64" t="s">
+      <c r="B36" s="65" t="s">
         <v>481</v>
       </c>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64" t="s">
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65" t="s">
         <v>482</v>
       </c>
-      <c r="G36" s="64"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="65" t="s">
+      <c r="G36" s="65"/>
+      <c r="H36" s="65"/>
+      <c r="I36" s="65"/>
+      <c r="J36" s="64" t="s">
         <v>484</v>
       </c>
-      <c r="K36" s="64"/>
-      <c r="L36" s="64"/>
-      <c r="M36" s="64"/>
-      <c r="N36" s="65" t="s">
+      <c r="K36" s="65"/>
+      <c r="L36" s="65"/>
+      <c r="M36" s="65"/>
+      <c r="N36" s="64" t="s">
         <v>486</v>
       </c>
-      <c r="O36" s="64"/>
-      <c r="P36" s="64"/>
-      <c r="Q36" s="64"/>
-      <c r="R36" s="64" t="s">
+      <c r="O36" s="65"/>
+      <c r="P36" s="65"/>
+      <c r="Q36" s="65"/>
+      <c r="R36" s="65" t="s">
         <v>490</v>
       </c>
-      <c r="S36" s="64"/>
-      <c r="T36" s="64"/>
-      <c r="U36" s="64"/>
-      <c r="V36" s="65" t="s">
+      <c r="S36" s="65"/>
+      <c r="T36" s="65"/>
+      <c r="U36" s="65"/>
+      <c r="V36" s="64" t="s">
         <v>493</v>
       </c>
-      <c r="W36" s="64"/>
-      <c r="X36" s="64"/>
-      <c r="Y36" s="64"/>
-      <c r="Z36" s="65" t="s">
+      <c r="W36" s="65"/>
+      <c r="X36" s="65"/>
+      <c r="Y36" s="65"/>
+      <c r="Z36" s="64" t="s">
         <v>494</v>
       </c>
-      <c r="AA36" s="64"/>
-      <c r="AB36" s="64"/>
-      <c r="AC36" s="64"/>
-      <c r="AD36" s="65" t="s">
+      <c r="AA36" s="65"/>
+      <c r="AB36" s="65"/>
+      <c r="AC36" s="65"/>
+      <c r="AD36" s="64" t="s">
         <v>495</v>
       </c>
-      <c r="AE36" s="64"/>
-      <c r="AF36" s="64"/>
-      <c r="AG36" s="64"/>
-      <c r="AH36" s="64" t="s">
+      <c r="AE36" s="65"/>
+      <c r="AF36" s="65"/>
+      <c r="AG36" s="65"/>
+      <c r="AH36" s="65" t="s">
         <v>496</v>
       </c>
-      <c r="AI36" s="64"/>
-      <c r="AJ36" s="64"/>
-      <c r="AK36" s="64"/>
-      <c r="AL36" s="65" t="s">
+      <c r="AI36" s="65"/>
+      <c r="AJ36" s="65"/>
+      <c r="AK36" s="65"/>
+      <c r="AL36" s="64" t="s">
         <v>497</v>
       </c>
-      <c r="AM36" s="64"/>
-      <c r="AN36" s="64"/>
-      <c r="AO36" s="64"/>
-      <c r="AP36" s="65" t="s">
+      <c r="AM36" s="65"/>
+      <c r="AN36" s="65"/>
+      <c r="AO36" s="65"/>
+      <c r="AP36" s="64" t="s">
         <v>497</v>
       </c>
-      <c r="AQ36" s="64"/>
-      <c r="AR36" s="64"/>
-      <c r="AS36" s="64"/>
-      <c r="AT36" s="64"/>
-      <c r="AU36" s="64"/>
-      <c r="AV36" s="64"/>
-      <c r="AW36" s="64"/>
-      <c r="AX36" s="64"/>
-      <c r="AY36" s="64"/>
-      <c r="AZ36" s="64"/>
-      <c r="BA36" s="64"/>
-      <c r="BB36" s="64"/>
-      <c r="BC36" s="64"/>
-      <c r="BD36" s="64"/>
-      <c r="BE36" s="64"/>
-      <c r="BF36" s="64"/>
-      <c r="BG36" s="64"/>
-      <c r="BH36" s="64"/>
-      <c r="BI36" s="64"/>
-      <c r="BJ36" s="64"/>
-      <c r="BK36" s="64"/>
-      <c r="BL36" s="64"/>
-      <c r="BM36" s="64"/>
-      <c r="BN36" s="64"/>
-      <c r="BO36" s="64"/>
-      <c r="BP36" s="64"/>
-      <c r="BQ36" s="64"/>
-      <c r="BR36" s="64"/>
-      <c r="BS36" s="64"/>
-      <c r="BT36" s="64"/>
-      <c r="BU36" s="64"/>
-      <c r="BV36" s="64"/>
-      <c r="BW36" s="64"/>
-      <c r="BX36" s="64"/>
-      <c r="BY36" s="64"/>
-      <c r="BZ36" s="64"/>
-      <c r="CA36" s="64"/>
-      <c r="CB36" s="64"/>
-      <c r="CC36" s="64"/>
-      <c r="CD36" s="64"/>
-      <c r="CE36" s="64"/>
-      <c r="CF36" s="64"/>
-      <c r="CG36" s="64"/>
-      <c r="CH36" s="64"/>
-      <c r="CI36" s="64"/>
-      <c r="CJ36" s="64"/>
-      <c r="CK36" s="64"/>
-      <c r="CL36" s="64"/>
-      <c r="CM36" s="64"/>
-      <c r="CN36" s="64"/>
-      <c r="CO36" s="64"/>
-      <c r="CP36" s="64"/>
-      <c r="CQ36" s="64"/>
-      <c r="CR36" s="64"/>
-      <c r="CS36" s="64"/>
+      <c r="AQ36" s="65"/>
+      <c r="AR36" s="65"/>
+      <c r="AS36" s="65"/>
+      <c r="AT36" s="65"/>
+      <c r="AU36" s="65"/>
+      <c r="AV36" s="65"/>
+      <c r="AW36" s="65"/>
+      <c r="AX36" s="65"/>
+      <c r="AY36" s="65"/>
+      <c r="AZ36" s="65"/>
+      <c r="BA36" s="65"/>
+      <c r="BB36" s="65"/>
+      <c r="BC36" s="65"/>
+      <c r="BD36" s="65"/>
+      <c r="BE36" s="65"/>
+      <c r="BF36" s="65"/>
+      <c r="BG36" s="65"/>
+      <c r="BH36" s="65"/>
+      <c r="BI36" s="65"/>
+      <c r="BJ36" s="65"/>
+      <c r="BK36" s="65"/>
+      <c r="BL36" s="65"/>
+      <c r="BM36" s="65"/>
+      <c r="BN36" s="65" t="s">
+        <v>499</v>
+      </c>
+      <c r="BO36" s="65"/>
+      <c r="BP36" s="65"/>
+      <c r="BQ36" s="65"/>
+      <c r="BR36" s="65" t="s">
+        <v>498</v>
+      </c>
+      <c r="BS36" s="65"/>
+      <c r="BT36" s="65"/>
+      <c r="BU36" s="65"/>
+      <c r="BV36" s="64" t="s">
+        <v>500</v>
+      </c>
+      <c r="BW36" s="65"/>
+      <c r="BX36" s="65"/>
+      <c r="BY36" s="65"/>
+      <c r="BZ36" s="65"/>
+      <c r="CA36" s="65"/>
+      <c r="CB36" s="65"/>
+      <c r="CC36" s="65"/>
+      <c r="CD36" s="65"/>
+      <c r="CE36" s="65"/>
+      <c r="CF36" s="65"/>
+      <c r="CG36" s="65"/>
+      <c r="CH36" s="65"/>
+      <c r="CI36" s="65"/>
+      <c r="CJ36" s="65"/>
+      <c r="CK36" s="65"/>
+      <c r="CL36" s="65"/>
+      <c r="CM36" s="65"/>
+      <c r="CN36" s="65"/>
+      <c r="CO36" s="65"/>
+      <c r="CP36" s="65"/>
+      <c r="CQ36" s="65"/>
+      <c r="CR36" s="65"/>
+      <c r="CS36" s="65"/>
     </row>
     <row r="37" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A37" s="49" t="s">
@@ -9351,14 +9387,24 @@
       <c r="BM38" s="50" t="s">
         <v>440</v>
       </c>
-      <c r="BN38" s="49"/>
-      <c r="BO38" s="49"/>
-      <c r="BP38" s="49"/>
+      <c r="BN38" s="49">
+        <v>10.84</v>
+      </c>
+      <c r="BO38" s="49">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="BP38" s="49">
+        <v>345.2</v>
+      </c>
       <c r="BQ38" s="50" t="s">
         <v>440</v>
       </c>
-      <c r="BR38" s="49"/>
-      <c r="BS38" s="49"/>
+      <c r="BR38" s="49">
+        <v>10.83</v>
+      </c>
+      <c r="BS38" s="49">
+        <v>9.0999999999999998E-2</v>
+      </c>
       <c r="BT38" s="49"/>
       <c r="BU38" s="50" t="s">
         <v>440</v>
@@ -9596,14 +9642,28 @@
       <c r="BM39" s="49">
         <v>9.1</v>
       </c>
-      <c r="BN39" s="49"/>
-      <c r="BO39" s="49"/>
-      <c r="BP39" s="49"/>
-      <c r="BQ39" s="49"/>
-      <c r="BR39" s="49"/>
-      <c r="BS39" s="49"/>
+      <c r="BN39" s="49">
+        <v>10.84</v>
+      </c>
+      <c r="BO39" s="49">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="BP39" s="49">
+        <v>350.5</v>
+      </c>
+      <c r="BQ39" s="49">
+        <v>10</v>
+      </c>
+      <c r="BR39" s="49">
+        <v>10.82</v>
+      </c>
+      <c r="BS39" s="49">
+        <v>0.10100000000000001</v>
+      </c>
       <c r="BT39" s="49"/>
-      <c r="BU39" s="49"/>
+      <c r="BU39" s="49">
+        <v>10.5</v>
+      </c>
       <c r="BV39" s="49"/>
       <c r="BW39" s="49"/>
       <c r="BX39" s="49"/>
@@ -9825,14 +9885,28 @@
       <c r="BM40" s="49">
         <v>73.7</v>
       </c>
-      <c r="BN40" s="49"/>
-      <c r="BO40" s="49"/>
-      <c r="BP40" s="49"/>
-      <c r="BQ40" s="49"/>
-      <c r="BR40" s="49"/>
-      <c r="BS40" s="49"/>
+      <c r="BN40" s="49">
+        <v>10.84</v>
+      </c>
+      <c r="BO40" s="49">
+        <v>0.111</v>
+      </c>
+      <c r="BP40" s="49">
+        <v>362.7</v>
+      </c>
+      <c r="BQ40" s="49">
+        <v>64.3</v>
+      </c>
+      <c r="BR40" s="49">
+        <v>10.81</v>
+      </c>
+      <c r="BS40" s="49">
+        <v>0.11</v>
+      </c>
       <c r="BT40" s="49"/>
-      <c r="BU40" s="49"/>
+      <c r="BU40" s="49">
+        <v>65.5</v>
+      </c>
       <c r="BV40" s="49"/>
       <c r="BW40" s="49"/>
       <c r="BX40" s="49"/>
@@ -10021,12 +10095,22 @@
       <c r="BL41" s="49">
         <v>55.9</v>
       </c>
-      <c r="BN41" s="49"/>
-      <c r="BO41" s="49"/>
-      <c r="BP41" s="49"/>
+      <c r="BN41" s="49">
+        <v>10.83</v>
+      </c>
+      <c r="BO41" s="49">
+        <v>0.124</v>
+      </c>
+      <c r="BP41" s="49">
+        <v>363.5</v>
+      </c>
       <c r="BQ41" s="49"/>
-      <c r="BR41" s="49"/>
-      <c r="BS41" s="49"/>
+      <c r="BR41" s="49">
+        <v>10.81</v>
+      </c>
+      <c r="BS41" s="49">
+        <v>0.121</v>
+      </c>
       <c r="BT41" s="49"/>
       <c r="BU41" s="49"/>
       <c r="BV41" s="49"/>
@@ -10217,12 +10301,22 @@
       <c r="BL42" s="49">
         <v>56.3</v>
       </c>
-      <c r="BN42" s="49"/>
-      <c r="BO42" s="49"/>
-      <c r="BP42" s="49"/>
+      <c r="BN42" s="49">
+        <v>10.82</v>
+      </c>
+      <c r="BO42" s="49">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="BP42" s="49">
+        <v>360.8</v>
+      </c>
       <c r="BQ42" s="49"/>
-      <c r="BR42" s="49"/>
-      <c r="BS42" s="49"/>
+      <c r="BR42" s="49">
+        <v>10.81</v>
+      </c>
+      <c r="BS42" s="49">
+        <v>0.13800000000000001</v>
+      </c>
       <c r="BT42" s="49"/>
       <c r="BU42" s="49"/>
       <c r="BV42" s="49"/>
@@ -10446,14 +10540,24 @@
       <c r="BM43" s="50" t="s">
         <v>441</v>
       </c>
-      <c r="BN43" s="49"/>
-      <c r="BO43" s="49"/>
-      <c r="BP43" s="49"/>
+      <c r="BN43" s="49">
+        <v>10.81</v>
+      </c>
+      <c r="BO43" s="49">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="BP43" s="49">
+        <v>354.5</v>
+      </c>
       <c r="BQ43" s="50" t="s">
         <v>441</v>
       </c>
-      <c r="BR43" s="49"/>
-      <c r="BS43" s="49"/>
+      <c r="BR43" s="49">
+        <v>10.8</v>
+      </c>
+      <c r="BS43" s="49">
+        <v>0.16200000000000001</v>
+      </c>
       <c r="BT43" s="49"/>
       <c r="BU43" s="50" t="s">
         <v>441</v>
@@ -10691,14 +10795,28 @@
       <c r="BM44" s="49">
         <v>9.1999999999999993</v>
       </c>
-      <c r="BN44" s="49"/>
-      <c r="BO44" s="49"/>
-      <c r="BP44" s="49"/>
-      <c r="BQ44" s="49"/>
-      <c r="BR44" s="49"/>
-      <c r="BS44" s="49"/>
+      <c r="BN44" s="49">
+        <v>10.8</v>
+      </c>
+      <c r="BO44" s="49">
+        <v>0.186</v>
+      </c>
+      <c r="BP44" s="49">
+        <v>352.5</v>
+      </c>
+      <c r="BQ44" s="49">
+        <v>10.1</v>
+      </c>
+      <c r="BR44" s="49">
+        <v>10.8</v>
+      </c>
+      <c r="BS44" s="49">
+        <v>0.189</v>
+      </c>
       <c r="BT44" s="49"/>
-      <c r="BU44" s="49"/>
+      <c r="BU44" s="49">
+        <v>10.6</v>
+      </c>
       <c r="BV44" s="49"/>
       <c r="BW44" s="49"/>
       <c r="BX44" s="49"/>
@@ -10920,14 +11038,28 @@
       <c r="BM45" s="49">
         <v>73.5</v>
       </c>
-      <c r="BN45" s="49"/>
-      <c r="BO45" s="49"/>
-      <c r="BP45" s="49"/>
-      <c r="BQ45" s="49"/>
-      <c r="BR45" s="49"/>
-      <c r="BS45" s="49"/>
+      <c r="BN45" s="49">
+        <v>10.79</v>
+      </c>
+      <c r="BO45" s="49">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="BP45" s="60">
+        <v>352.3</v>
+      </c>
+      <c r="BQ45" s="49">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="BR45" s="49">
+        <v>10.79</v>
+      </c>
+      <c r="BS45" s="49">
+        <v>0.22700000000000001</v>
+      </c>
       <c r="BT45" s="49"/>
-      <c r="BU45" s="49"/>
+      <c r="BU45" s="49">
+        <v>61.5</v>
+      </c>
       <c r="BV45" s="49"/>
       <c r="BW45" s="49"/>
       <c r="BX45" s="49"/>
@@ -11117,12 +11249,22 @@
         <v>57.9</v>
       </c>
       <c r="BM46" s="49"/>
-      <c r="BN46" s="49"/>
-      <c r="BO46" s="49"/>
-      <c r="BP46" s="49"/>
+      <c r="BN46">
+        <v>10.76</v>
+      </c>
+      <c r="BO46" s="49">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="BP46" s="49">
+        <v>354.2</v>
+      </c>
       <c r="BQ46" s="49"/>
-      <c r="BR46" s="49"/>
-      <c r="BS46" s="49"/>
+      <c r="BR46" s="49">
+        <v>10.76</v>
+      </c>
+      <c r="BS46" s="49">
+        <v>0.29699999999999999</v>
+      </c>
       <c r="BT46" s="49"/>
       <c r="BU46" s="49"/>
       <c r="BV46" s="49"/>
@@ -11314,12 +11456,22 @@
         <v>56.7</v>
       </c>
       <c r="BM47" s="49"/>
-      <c r="BN47" s="49"/>
-      <c r="BO47" s="49"/>
-      <c r="BP47" s="49"/>
+      <c r="BN47">
+        <v>10.7</v>
+      </c>
+      <c r="BO47" s="49">
+        <v>0.439</v>
+      </c>
+      <c r="BP47" s="49">
+        <v>356.4</v>
+      </c>
       <c r="BQ47" s="49"/>
-      <c r="BR47" s="49"/>
-      <c r="BS47" s="49"/>
+      <c r="BR47" s="49">
+        <v>10.71</v>
+      </c>
+      <c r="BS47" s="49">
+        <v>0.434</v>
+      </c>
       <c r="BT47" s="49"/>
       <c r="BU47" s="49"/>
       <c r="BV47" s="49"/>
@@ -11543,14 +11695,24 @@
       <c r="BM48" s="50" t="s">
         <v>442</v>
       </c>
-      <c r="BN48" s="49"/>
-      <c r="BO48" s="49"/>
-      <c r="BP48" s="49"/>
+      <c r="BN48">
+        <v>10.58</v>
+      </c>
+      <c r="BO48" s="49">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="BP48" s="49">
+        <v>355.7</v>
+      </c>
       <c r="BQ48" s="50" t="s">
         <v>442</v>
       </c>
-      <c r="BR48" s="49"/>
-      <c r="BS48" s="49"/>
+      <c r="BR48" s="49">
+        <v>10.61</v>
+      </c>
+      <c r="BS48" s="49">
+        <v>0.68700000000000006</v>
+      </c>
       <c r="BT48" s="49"/>
       <c r="BU48" s="50" t="s">
         <v>442</v>
@@ -11788,14 +11950,28 @@
       <c r="BM49" s="49">
         <v>9.1</v>
       </c>
-      <c r="BN49" s="49"/>
-      <c r="BO49" s="49"/>
-      <c r="BP49" s="49"/>
-      <c r="BQ49" s="49"/>
-      <c r="BR49" s="49"/>
-      <c r="BS49" s="49"/>
+      <c r="BN49">
+        <v>10.01</v>
+      </c>
+      <c r="BO49" s="49">
+        <v>1.413</v>
+      </c>
+      <c r="BP49" s="49">
+        <v>358.6</v>
+      </c>
+      <c r="BQ49" s="49">
+        <v>10.1</v>
+      </c>
+      <c r="BR49" s="49">
+        <v>10.06</v>
+      </c>
+      <c r="BS49" s="49">
+        <v>1.431</v>
+      </c>
       <c r="BT49" s="49"/>
-      <c r="BU49" s="49"/>
+      <c r="BU49" s="49">
+        <v>10.6</v>
+      </c>
       <c r="BV49" s="49"/>
       <c r="BW49" s="49"/>
       <c r="BX49" s="49"/>
@@ -12017,14 +12193,28 @@
       <c r="BM50" s="49">
         <v>73.5</v>
       </c>
-      <c r="BN50" s="49"/>
-      <c r="BO50" s="49"/>
-      <c r="BP50" s="49"/>
-      <c r="BQ50" s="49"/>
-      <c r="BR50" s="49"/>
-      <c r="BS50" s="49"/>
+      <c r="BN50">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="BO50" s="49">
+        <v>1.502</v>
+      </c>
+      <c r="BP50" s="49">
+        <v>358.2</v>
+      </c>
+      <c r="BQ50" s="49">
+        <v>67.2</v>
+      </c>
+      <c r="BR50" s="49">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="BS50" s="49">
+        <v>1.538</v>
+      </c>
       <c r="BT50" s="49"/>
-      <c r="BU50" s="49"/>
+      <c r="BU50" s="49">
+        <v>62.5</v>
+      </c>
       <c r="BV50" s="49"/>
       <c r="BW50" s="49"/>
       <c r="BX50" s="49"/>
@@ -12214,12 +12404,22 @@
         <v>50.9</v>
       </c>
       <c r="BM51" s="49"/>
-      <c r="BN51" s="49"/>
-      <c r="BO51" s="49"/>
-      <c r="BP51" s="49"/>
+      <c r="BN51">
+        <v>7.41</v>
+      </c>
+      <c r="BO51" s="49">
+        <v>1.512</v>
+      </c>
+      <c r="BP51" s="49">
+        <v>363.9</v>
+      </c>
       <c r="BQ51" s="49"/>
-      <c r="BR51" s="49"/>
-      <c r="BS51" s="49"/>
+      <c r="BR51" s="49">
+        <v>7.64</v>
+      </c>
+      <c r="BS51" s="49">
+        <v>1.5489999999999999</v>
+      </c>
       <c r="BT51" s="49"/>
       <c r="BU51" s="49"/>
       <c r="BV51" s="49"/>
@@ -12411,12 +12611,22 @@
         <v>49.1</v>
       </c>
       <c r="BM52" s="49"/>
-      <c r="BN52" s="49"/>
-      <c r="BO52" s="49"/>
-      <c r="BP52" s="49"/>
+      <c r="BN52">
+        <v>5.8</v>
+      </c>
+      <c r="BO52" s="49">
+        <v>1.508</v>
+      </c>
+      <c r="BP52" s="49">
+        <v>361.4</v>
+      </c>
       <c r="BQ52" s="49"/>
-      <c r="BR52" s="49"/>
-      <c r="BS52" s="49"/>
+      <c r="BR52" s="49">
+        <v>5.98</v>
+      </c>
+      <c r="BS52" s="49">
+        <v>1.556</v>
+      </c>
       <c r="BT52" s="49"/>
       <c r="BU52" s="49"/>
       <c r="BV52" s="49"/>
@@ -12640,14 +12850,24 @@
       <c r="BM53" s="50" t="s">
         <v>443</v>
       </c>
-      <c r="BN53" s="49"/>
-      <c r="BO53" s="49"/>
-      <c r="BP53" s="49"/>
+      <c r="BN53" s="49">
+        <v>4.46</v>
+      </c>
+      <c r="BO53" s="49">
+        <v>1.512</v>
+      </c>
+      <c r="BP53" s="49">
+        <v>354.5</v>
+      </c>
       <c r="BQ53" s="50" t="s">
         <v>443</v>
       </c>
-      <c r="BR53" s="49"/>
-      <c r="BS53" s="49"/>
+      <c r="BR53" s="49">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="BS53" s="49">
+        <v>1.5609999999999999</v>
+      </c>
       <c r="BT53" s="49"/>
       <c r="BU53" s="50" t="s">
         <v>443</v>
@@ -12885,14 +13105,28 @@
       <c r="BM54" s="49">
         <v>9.1</v>
       </c>
-      <c r="BN54" s="51"/>
-      <c r="BO54" s="51"/>
-      <c r="BP54" s="49"/>
-      <c r="BQ54" s="49"/>
-      <c r="BR54" s="51"/>
-      <c r="BS54" s="51"/>
+      <c r="BN54" s="51">
+        <v>2.637</v>
+      </c>
+      <c r="BO54" s="51">
+        <v>1.5149999999999999</v>
+      </c>
+      <c r="BP54" s="49">
+        <v>355.1</v>
+      </c>
+      <c r="BQ54" s="49">
+        <v>10.3</v>
+      </c>
+      <c r="BR54" s="51">
+        <v>2.7610000000000001</v>
+      </c>
+      <c r="BS54" s="49">
+        <v>1.5669999999999999</v>
+      </c>
       <c r="BT54" s="49"/>
-      <c r="BU54" s="49"/>
+      <c r="BU54" s="49">
+        <v>10.7</v>
+      </c>
       <c r="BV54" s="51"/>
       <c r="BW54" s="51"/>
       <c r="BX54" s="49"/>
@@ -13114,14 +13348,28 @@
       <c r="BM55" s="49">
         <v>73.3</v>
       </c>
-      <c r="BN55" s="49"/>
-      <c r="BO55" s="49"/>
-      <c r="BP55" s="49"/>
-      <c r="BQ55" s="49"/>
-      <c r="BR55" s="49"/>
-      <c r="BS55" s="49"/>
+      <c r="BN55" s="49">
+        <v>1.43</v>
+      </c>
+      <c r="BO55" s="49">
+        <v>1.5169999999999999</v>
+      </c>
+      <c r="BP55" s="49">
+        <v>355.8</v>
+      </c>
+      <c r="BQ55" s="49">
+        <v>66.3</v>
+      </c>
+      <c r="BR55" s="49">
+        <v>1.4930000000000001</v>
+      </c>
+      <c r="BS55" s="49">
+        <v>1.5780000000000001</v>
+      </c>
       <c r="BT55" s="49"/>
-      <c r="BU55" s="49"/>
+      <c r="BU55" s="49">
+        <v>62.3</v>
+      </c>
       <c r="BV55" s="49"/>
       <c r="BW55" s="49"/>
       <c r="BX55" s="49"/>
@@ -13311,12 +13559,22 @@
         <v>50.5</v>
       </c>
       <c r="BM56" s="49"/>
-      <c r="BN56" s="49"/>
-      <c r="BO56" s="49"/>
-      <c r="BP56" s="49"/>
+      <c r="BN56" s="49">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="BO56" s="49">
+        <v>1.5209999999999999</v>
+      </c>
+      <c r="BP56" s="49">
+        <v>357.4</v>
+      </c>
       <c r="BQ56" s="49"/>
-      <c r="BR56" s="49"/>
-      <c r="BS56" s="49"/>
+      <c r="BR56" s="49">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="BS56" s="60">
+        <v>1.5880000000000001</v>
+      </c>
       <c r="BT56" s="49"/>
       <c r="BU56" s="49"/>
       <c r="BV56" s="49"/>
@@ -13345,35 +13603,112 @@
       <c r="CS56" s="49"/>
     </row>
     <row r="57" spans="1:97" x14ac:dyDescent="0.15">
-      <c r="J57" s="66" t="s">
+      <c r="J57" s="72" t="s">
         <v>487</v>
       </c>
-      <c r="K57" s="66"/>
-      <c r="L57" s="66"/>
-      <c r="M57" s="66"/>
+      <c r="K57" s="72"/>
+      <c r="L57" s="72"/>
+      <c r="M57" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="145">
-    <mergeCell ref="N35:Q35"/>
-    <mergeCell ref="N36:Q36"/>
-    <mergeCell ref="R33:U33"/>
-    <mergeCell ref="R34:U34"/>
-    <mergeCell ref="R35:U35"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Y4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="CP33:CS33"/>
+    <mergeCell ref="CP34:CS34"/>
+    <mergeCell ref="CP35:CS35"/>
+    <mergeCell ref="CP36:CS36"/>
+    <mergeCell ref="CH33:CK33"/>
+    <mergeCell ref="CH34:CK34"/>
+    <mergeCell ref="CH35:CK35"/>
+    <mergeCell ref="CH36:CK36"/>
+    <mergeCell ref="CL33:CO33"/>
+    <mergeCell ref="CL34:CO34"/>
+    <mergeCell ref="CL35:CO35"/>
+    <mergeCell ref="CL36:CO36"/>
+    <mergeCell ref="BZ33:CC33"/>
+    <mergeCell ref="BZ34:CC34"/>
+    <mergeCell ref="BZ35:CC35"/>
+    <mergeCell ref="BZ36:CC36"/>
+    <mergeCell ref="CD33:CG33"/>
+    <mergeCell ref="CD34:CG34"/>
+    <mergeCell ref="CD35:CG35"/>
+    <mergeCell ref="CD36:CG36"/>
+    <mergeCell ref="BR33:BU33"/>
+    <mergeCell ref="BR34:BU34"/>
+    <mergeCell ref="BR35:BU35"/>
+    <mergeCell ref="BR36:BU36"/>
+    <mergeCell ref="BV33:BY33"/>
+    <mergeCell ref="BV34:BY34"/>
+    <mergeCell ref="BV35:BY35"/>
+    <mergeCell ref="BV36:BY36"/>
+    <mergeCell ref="BN33:BQ33"/>
+    <mergeCell ref="BN34:BQ34"/>
+    <mergeCell ref="BN35:BQ35"/>
+    <mergeCell ref="BN36:BQ36"/>
+    <mergeCell ref="BB33:BE33"/>
+    <mergeCell ref="BB34:BE34"/>
+    <mergeCell ref="BB35:BE35"/>
+    <mergeCell ref="BB36:BE36"/>
+    <mergeCell ref="BF33:BI33"/>
+    <mergeCell ref="BF34:BI34"/>
+    <mergeCell ref="BF35:BI35"/>
+    <mergeCell ref="BF36:BI36"/>
+    <mergeCell ref="AX33:BA33"/>
+    <mergeCell ref="AX34:BA34"/>
+    <mergeCell ref="AX35:BA35"/>
+    <mergeCell ref="AX36:BA36"/>
+    <mergeCell ref="AP33:AS33"/>
+    <mergeCell ref="AP34:AS34"/>
+    <mergeCell ref="AP35:AS35"/>
+    <mergeCell ref="AP36:AS36"/>
+    <mergeCell ref="BJ33:BM33"/>
+    <mergeCell ref="BJ34:BM34"/>
+    <mergeCell ref="BJ35:BM35"/>
+    <mergeCell ref="BJ36:BM36"/>
+    <mergeCell ref="R36:U36"/>
+    <mergeCell ref="V33:Y33"/>
+    <mergeCell ref="V34:Y34"/>
+    <mergeCell ref="V35:Y35"/>
+    <mergeCell ref="V36:Y36"/>
+    <mergeCell ref="N33:Q33"/>
+    <mergeCell ref="N34:Q34"/>
+    <mergeCell ref="AT33:AW33"/>
+    <mergeCell ref="AT34:AW34"/>
+    <mergeCell ref="AT35:AW35"/>
+    <mergeCell ref="AT36:AW36"/>
+    <mergeCell ref="AH33:AK33"/>
+    <mergeCell ref="AH34:AK34"/>
+    <mergeCell ref="AH35:AK35"/>
+    <mergeCell ref="AH36:AK36"/>
+    <mergeCell ref="AL33:AO33"/>
+    <mergeCell ref="AL34:AO34"/>
+    <mergeCell ref="AL35:AO35"/>
+    <mergeCell ref="AL36:AO36"/>
+    <mergeCell ref="Z33:AC33"/>
+    <mergeCell ref="Z34:AC34"/>
+    <mergeCell ref="Z35:AC35"/>
+    <mergeCell ref="Z36:AC36"/>
+    <mergeCell ref="AD33:AG33"/>
+    <mergeCell ref="AD34:AG34"/>
+    <mergeCell ref="AD35:AG35"/>
+    <mergeCell ref="AD36:AG36"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="AL8:AO8"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="R29:U29"/>
+    <mergeCell ref="AH7:AK7"/>
+    <mergeCell ref="AH8:AK8"/>
+    <mergeCell ref="AD5:AG5"/>
+    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="AD7:AG7"/>
     <mergeCell ref="AP7:AS7"/>
     <mergeCell ref="AP8:AS8"/>
     <mergeCell ref="N7:Q7"/>
@@ -13395,110 +13730,33 @@
     <mergeCell ref="AP5:AS5"/>
     <mergeCell ref="AP6:AS6"/>
     <mergeCell ref="AD8:AG8"/>
+    <mergeCell ref="AL5:AO5"/>
+    <mergeCell ref="AL6:AO6"/>
+    <mergeCell ref="AL7:AO7"/>
+    <mergeCell ref="N35:Q35"/>
+    <mergeCell ref="N36:Q36"/>
+    <mergeCell ref="R33:U33"/>
+    <mergeCell ref="R34:U34"/>
+    <mergeCell ref="R35:U35"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Y4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:M7"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="B35:E35"/>
     <mergeCell ref="B36:E36"/>
-    <mergeCell ref="AL5:AO5"/>
-    <mergeCell ref="AL6:AO6"/>
-    <mergeCell ref="AL7:AO7"/>
-    <mergeCell ref="AL8:AO8"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="R29:U29"/>
-    <mergeCell ref="AH7:AK7"/>
-    <mergeCell ref="AH8:AK8"/>
-    <mergeCell ref="AD5:AG5"/>
-    <mergeCell ref="AD6:AG6"/>
-    <mergeCell ref="AD7:AG7"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="J57:M57"/>
-    <mergeCell ref="AH33:AK33"/>
-    <mergeCell ref="AH34:AK34"/>
-    <mergeCell ref="AH35:AK35"/>
-    <mergeCell ref="AH36:AK36"/>
-    <mergeCell ref="AL33:AO33"/>
-    <mergeCell ref="AL34:AO34"/>
-    <mergeCell ref="AL35:AO35"/>
-    <mergeCell ref="AL36:AO36"/>
-    <mergeCell ref="Z33:AC33"/>
-    <mergeCell ref="Z34:AC34"/>
-    <mergeCell ref="Z35:AC35"/>
-    <mergeCell ref="Z36:AC36"/>
-    <mergeCell ref="AD33:AG33"/>
-    <mergeCell ref="AD34:AG34"/>
-    <mergeCell ref="AD35:AG35"/>
-    <mergeCell ref="AD36:AG36"/>
-    <mergeCell ref="R36:U36"/>
-    <mergeCell ref="V33:Y33"/>
-    <mergeCell ref="V34:Y34"/>
-    <mergeCell ref="V35:Y35"/>
-    <mergeCell ref="V36:Y36"/>
-    <mergeCell ref="N33:Q33"/>
-    <mergeCell ref="N34:Q34"/>
-    <mergeCell ref="AT33:AW33"/>
-    <mergeCell ref="AT34:AW34"/>
-    <mergeCell ref="AT35:AW35"/>
-    <mergeCell ref="AT36:AW36"/>
-    <mergeCell ref="AX33:BA33"/>
-    <mergeCell ref="AX34:BA34"/>
-    <mergeCell ref="AX35:BA35"/>
-    <mergeCell ref="AX36:BA36"/>
-    <mergeCell ref="AP33:AS33"/>
-    <mergeCell ref="AP34:AS34"/>
-    <mergeCell ref="AP35:AS35"/>
-    <mergeCell ref="AP36:AS36"/>
-    <mergeCell ref="BJ33:BM33"/>
-    <mergeCell ref="BJ34:BM34"/>
-    <mergeCell ref="BJ35:BM35"/>
-    <mergeCell ref="BJ36:BM36"/>
-    <mergeCell ref="BN33:BQ33"/>
-    <mergeCell ref="BN34:BQ34"/>
-    <mergeCell ref="BN35:BQ35"/>
-    <mergeCell ref="BN36:BQ36"/>
-    <mergeCell ref="BB33:BE33"/>
-    <mergeCell ref="BB34:BE34"/>
-    <mergeCell ref="BB35:BE35"/>
-    <mergeCell ref="BB36:BE36"/>
-    <mergeCell ref="BF33:BI33"/>
-    <mergeCell ref="BF34:BI34"/>
-    <mergeCell ref="BF35:BI35"/>
-    <mergeCell ref="BF36:BI36"/>
-    <mergeCell ref="BZ33:CC33"/>
-    <mergeCell ref="BZ34:CC34"/>
-    <mergeCell ref="BZ35:CC35"/>
-    <mergeCell ref="BZ36:CC36"/>
-    <mergeCell ref="CD33:CG33"/>
-    <mergeCell ref="CD34:CG34"/>
-    <mergeCell ref="CD35:CG35"/>
-    <mergeCell ref="CD36:CG36"/>
-    <mergeCell ref="BR33:BU33"/>
-    <mergeCell ref="BR34:BU34"/>
-    <mergeCell ref="BR35:BU35"/>
-    <mergeCell ref="BR36:BU36"/>
-    <mergeCell ref="BV33:BY33"/>
-    <mergeCell ref="BV34:BY34"/>
-    <mergeCell ref="BV35:BY35"/>
-    <mergeCell ref="BV36:BY36"/>
-    <mergeCell ref="CP33:CS33"/>
-    <mergeCell ref="CP34:CS34"/>
-    <mergeCell ref="CP35:CS35"/>
-    <mergeCell ref="CP36:CS36"/>
-    <mergeCell ref="CH33:CK33"/>
-    <mergeCell ref="CH34:CK34"/>
-    <mergeCell ref="CH35:CK35"/>
-    <mergeCell ref="CH36:CK36"/>
-    <mergeCell ref="CL33:CO33"/>
-    <mergeCell ref="CL34:CO34"/>
-    <mergeCell ref="CL35:CO35"/>
-    <mergeCell ref="CL36:CO36"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13534,93 +13792,93 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="74">
+      <c r="B3" s="78">
         <v>42299</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="74"/>
-      <c r="T3" s="74"/>
-      <c r="U3" s="74"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="74"/>
-      <c r="X3" s="74"/>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="74">
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="78"/>
+      <c r="Z3" s="78">
         <v>42300</v>
       </c>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="76"/>
-      <c r="AC3" s="76"/>
-      <c r="AD3" s="76"/>
-      <c r="AE3" s="76"/>
-      <c r="AF3" s="76"/>
-      <c r="AG3" s="76"/>
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="77"/>
+      <c r="AC3" s="77"/>
+      <c r="AD3" s="77"/>
+      <c r="AE3" s="77"/>
+      <c r="AF3" s="77"/>
+      <c r="AG3" s="77"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A4" s="39" t="s">
         <v>454</v>
       </c>
-      <c r="B4" s="75">
+      <c r="B4" s="76">
         <v>0.37013888888888885</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="75">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="76">
         <v>0.4375</v>
       </c>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75">
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76">
         <v>0.52361111111111114</v>
       </c>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="75">
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76">
         <v>0.60625000000000007</v>
       </c>
-      <c r="S4" s="75"/>
-      <c r="T4" s="75"/>
-      <c r="U4" s="75"/>
-      <c r="V4" s="75">
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76">
         <v>0.67569444444444438</v>
       </c>
-      <c r="W4" s="75"/>
-      <c r="X4" s="75"/>
-      <c r="Y4" s="75"/>
-      <c r="Z4" s="75">
+      <c r="W4" s="76"/>
+      <c r="X4" s="76"/>
+      <c r="Y4" s="76"/>
+      <c r="Z4" s="76">
         <v>0.41180555555555554</v>
       </c>
-      <c r="AA4" s="76"/>
-      <c r="AB4" s="76"/>
-      <c r="AC4" s="76"/>
-      <c r="AD4" s="75">
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="77"/>
+      <c r="AD4" s="76">
         <v>0.62986111111111109</v>
       </c>
-      <c r="AE4" s="75"/>
-      <c r="AF4" s="75"/>
-      <c r="AG4" s="75"/>
+      <c r="AE4" s="76"/>
+      <c r="AF4" s="76"/>
+      <c r="AG4" s="76"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A5" s="39" t="s">
@@ -13650,12 +13908,12 @@
       <c r="W5" s="52"/>
       <c r="X5" s="52"/>
       <c r="Y5" s="52"/>
-      <c r="Z5" s="77" t="s">
+      <c r="Z5" s="79" t="s">
         <v>464</v>
       </c>
-      <c r="AA5" s="78"/>
-      <c r="AB5" s="78"/>
-      <c r="AC5" s="78"/>
+      <c r="AA5" s="80"/>
+      <c r="AB5" s="80"/>
+      <c r="AC5" s="80"/>
       <c r="AD5" s="52"/>
       <c r="AE5" s="52"/>
       <c r="AF5" s="52"/>
@@ -13669,46 +13927,46 @@
       <c r="C6" s="52"/>
       <c r="D6" s="52"/>
       <c r="E6" s="52"/>
-      <c r="F6" s="75">
+      <c r="F6" s="76">
         <v>0.38055555555555554</v>
       </c>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="75">
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="76">
         <v>0.44305555555555554</v>
       </c>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75">
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76">
         <v>0.52847222222222223</v>
       </c>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="75">
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="76">
         <v>0.61249999999999993</v>
       </c>
-      <c r="S6" s="75"/>
-      <c r="T6" s="75"/>
-      <c r="U6" s="75"/>
-      <c r="V6" s="75">
+      <c r="S6" s="76"/>
+      <c r="T6" s="76"/>
+      <c r="U6" s="76"/>
+      <c r="V6" s="76">
         <v>0.68194444444444446</v>
       </c>
-      <c r="W6" s="75"/>
-      <c r="X6" s="75"/>
-      <c r="Y6" s="75"/>
-      <c r="Z6" s="78"/>
-      <c r="AA6" s="78"/>
-      <c r="AB6" s="78"/>
-      <c r="AC6" s="78"/>
-      <c r="AD6" s="75">
+      <c r="W6" s="76"/>
+      <c r="X6" s="76"/>
+      <c r="Y6" s="76"/>
+      <c r="Z6" s="80"/>
+      <c r="AA6" s="80"/>
+      <c r="AB6" s="80"/>
+      <c r="AC6" s="80"/>
+      <c r="AD6" s="76">
         <v>0.64236111111111105</v>
       </c>
-      <c r="AE6" s="75"/>
-      <c r="AF6" s="75"/>
-      <c r="AG6" s="75"/>
+      <c r="AE6" s="76"/>
+      <c r="AF6" s="76"/>
+      <c r="AG6" s="76"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
@@ -13932,7 +14190,7 @@
       <c r="C10">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="D10" s="79" t="s">
+      <c r="D10" s="74" t="s">
         <v>450</v>
       </c>
       <c r="F10">
@@ -14024,7 +14282,7 @@
       <c r="C11">
         <v>0.107</v>
       </c>
-      <c r="D11" s="80"/>
+      <c r="D11" s="75"/>
       <c r="F11">
         <v>10.47</v>
       </c>
@@ -14114,7 +14372,7 @@
       <c r="C12">
         <v>0.11799999999999999</v>
       </c>
-      <c r="D12" s="80"/>
+      <c r="D12" s="75"/>
       <c r="F12">
         <v>10.47</v>
       </c>
@@ -14186,7 +14444,7 @@
       <c r="C13">
         <v>0.13500000000000001</v>
       </c>
-      <c r="D13" s="80"/>
+      <c r="D13" s="75"/>
       <c r="F13">
         <v>10.46</v>
       </c>
@@ -14258,7 +14516,7 @@
       <c r="C14">
         <v>0.154</v>
       </c>
-      <c r="D14" s="80"/>
+      <c r="D14" s="75"/>
       <c r="E14" s="39" t="s">
         <v>441</v>
       </c>
@@ -14354,7 +14612,7 @@
       <c r="C15">
         <v>0.184</v>
       </c>
-      <c r="D15" s="80"/>
+      <c r="D15" s="75"/>
       <c r="F15">
         <v>10.43</v>
       </c>
@@ -14437,7 +14695,7 @@
       <c r="C16">
         <v>0.218</v>
       </c>
-      <c r="D16" s="80"/>
+      <c r="D16" s="75"/>
       <c r="F16">
         <v>10.42</v>
       </c>
@@ -14520,7 +14778,7 @@
       <c r="C17">
         <v>0.27500000000000002</v>
       </c>
-      <c r="D17" s="80"/>
+      <c r="D17" s="75"/>
       <c r="F17">
         <v>10.42</v>
       </c>
@@ -14595,7 +14853,7 @@
       <c r="C18">
         <v>0.42099999999999999</v>
       </c>
-      <c r="D18" s="80"/>
+      <c r="D18" s="75"/>
       <c r="F18">
         <v>10.4</v>
       </c>
@@ -14670,7 +14928,7 @@
       <c r="C19">
         <v>0.61699999999999999</v>
       </c>
-      <c r="D19" s="80"/>
+      <c r="D19" s="75"/>
       <c r="E19" s="39" t="s">
         <v>442</v>
       </c>
@@ -14769,7 +15027,7 @@
       <c r="C20">
         <v>1.425</v>
       </c>
-      <c r="D20" s="80"/>
+      <c r="D20" s="75"/>
       <c r="F20">
         <v>10.3</v>
       </c>
@@ -14859,7 +15117,7 @@
       <c r="C21">
         <v>1.649</v>
       </c>
-      <c r="D21" s="80"/>
+      <c r="D21" s="75"/>
       <c r="F21">
         <v>10.02</v>
       </c>
@@ -14949,7 +15207,7 @@
       <c r="C22">
         <v>2</v>
       </c>
-      <c r="D22" s="80"/>
+      <c r="D22" s="75"/>
       <c r="F22">
         <v>9.94</v>
       </c>
@@ -15024,7 +15282,7 @@
       <c r="C23">
         <v>2.4950000000000001</v>
       </c>
-      <c r="D23" s="80"/>
+      <c r="D23" s="75"/>
       <c r="F23">
         <v>9.82</v>
       </c>
@@ -15099,7 +15357,7 @@
       <c r="C24">
         <v>3.0350000000000001</v>
       </c>
-      <c r="D24" s="80"/>
+      <c r="D24" s="75"/>
       <c r="E24" s="39" t="s">
         <v>443</v>
       </c>
@@ -15198,7 +15456,7 @@
       <c r="C25">
         <v>3.2789999999999999</v>
       </c>
-      <c r="D25" s="80"/>
+      <c r="D25" s="75"/>
       <c r="F25">
         <v>8.9700000000000006</v>
       </c>
@@ -15291,7 +15549,7 @@
       <c r="C26">
         <v>3.3</v>
       </c>
-      <c r="D26" s="80"/>
+      <c r="D26" s="75"/>
       <c r="F26">
         <v>5.95</v>
       </c>
@@ -15384,7 +15642,7 @@
       <c r="C27">
         <v>3.3</v>
       </c>
-      <c r="D27" s="80"/>
+      <c r="D27" s="75"/>
       <c r="F27">
         <v>3.105</v>
       </c>
@@ -15451,11 +15709,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D10:D27"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="R4:U4"/>
     <mergeCell ref="B3:Y3"/>
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="Z3:AG3"/>
@@ -15469,6 +15722,11 @@
     <mergeCell ref="AD4:AG4"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="V4:Y4"/>
+    <mergeCell ref="D10:D27"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="R4:U4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15819,138 +16077,138 @@
       <c r="A1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="100" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="102" t="s">
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="100" t="s">
         <v>458</v>
       </c>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="94" t="s">
         <v>461</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="92" t="s">
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="92"/>
-      <c r="J2" s="105" t="s">
+      <c r="I2" s="104"/>
+      <c r="J2" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="92" t="s">
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="92"/>
+      <c r="O2" s="104"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="99" t="s">
+      <c r="B3" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="99" t="s">
+      <c r="C3" s="99"/>
+      <c r="D3" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="108"/>
-      <c r="F3" s="99" t="s">
+      <c r="E3" s="99"/>
+      <c r="F3" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="108"/>
-      <c r="H3" s="99" t="s">
+      <c r="G3" s="99"/>
+      <c r="H3" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="108"/>
-      <c r="J3" s="105" t="s">
+      <c r="I3" s="99"/>
+      <c r="J3" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="K3" s="107"/>
-      <c r="L3" s="105" t="s">
+      <c r="K3" s="95"/>
+      <c r="L3" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="107"/>
-      <c r="N3" s="99" t="s">
+      <c r="M3" s="95"/>
+      <c r="N3" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="100"/>
+      <c r="O3" s="105"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="92" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="95" t="s">
+      <c r="C4" s="93"/>
+      <c r="D4" s="92" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="96"/>
-      <c r="F4" s="95" t="s">
+      <c r="E4" s="93"/>
+      <c r="F4" s="92" t="s">
         <v>130</v>
       </c>
-      <c r="G4" s="96"/>
-      <c r="H4" s="95" t="s">
+      <c r="G4" s="93"/>
+      <c r="H4" s="92" t="s">
         <v>131</v>
       </c>
-      <c r="I4" s="96"/>
-      <c r="J4" s="97" t="s">
+      <c r="I4" s="93"/>
+      <c r="J4" s="96" t="s">
         <v>457</v>
       </c>
-      <c r="K4" s="98"/>
-      <c r="L4" s="97" t="s">
+      <c r="K4" s="97"/>
+      <c r="L4" s="96" t="s">
         <v>457</v>
       </c>
-      <c r="M4" s="98"/>
-      <c r="N4" s="95" t="s">
+      <c r="M4" s="97"/>
+      <c r="N4" s="92" t="s">
         <v>457</v>
       </c>
-      <c r="O4" s="101"/>
+      <c r="O4" s="106"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="95" t="s">
+      <c r="C5" s="93"/>
+      <c r="D5" s="92" t="s">
         <v>127</v>
       </c>
-      <c r="E5" s="96"/>
-      <c r="F5" s="95" t="s">
+      <c r="E5" s="93"/>
+      <c r="F5" s="92" t="s">
         <v>128</v>
       </c>
-      <c r="G5" s="96"/>
-      <c r="H5" s="95" t="s">
+      <c r="G5" s="93"/>
+      <c r="H5" s="92" t="s">
         <v>129</v>
       </c>
-      <c r="I5" s="96"/>
+      <c r="I5" s="93"/>
       <c r="J5" s="54"/>
       <c r="K5" s="54"/>
       <c r="L5" s="54"/>
@@ -15965,27 +16223,27 @@
       <c r="D6" s="54"/>
       <c r="F6" s="54"/>
       <c r="H6" s="54"/>
-      <c r="J6" s="97" t="s">
+      <c r="J6" s="96" t="s">
         <v>460</v>
       </c>
-      <c r="K6" s="98"/>
-      <c r="L6" s="97" t="s">
+      <c r="K6" s="97"/>
+      <c r="L6" s="96" t="s">
         <v>460</v>
       </c>
-      <c r="M6" s="98"/>
-      <c r="N6" s="102" t="s">
+      <c r="M6" s="97"/>
+      <c r="N6" s="100" t="s">
         <v>460</v>
       </c>
-      <c r="O6" s="103"/>
+      <c r="O6" s="101"/>
     </row>
     <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="94" t="s">
+      <c r="B7" s="107" t="s">
         <v>80</v>
       </c>
       <c r="C7" s="40">
         <v>78.2</v>
       </c>
-      <c r="D7" s="94" t="s">
+      <c r="D7" s="107" t="s">
         <v>80</v>
       </c>
       <c r="E7" s="41">
@@ -16023,11 +16281,11 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B8" s="94"/>
+      <c r="B8" s="107"/>
       <c r="C8" s="40">
         <v>78.400000000000006</v>
       </c>
-      <c r="D8" s="94"/>
+      <c r="D8" s="107"/>
       <c r="E8" s="41">
         <v>53.4</v>
       </c>
@@ -16053,11 +16311,11 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B9" s="94"/>
+      <c r="B9" s="107"/>
       <c r="C9" s="40">
         <v>78.400000000000006</v>
       </c>
-      <c r="D9" s="94"/>
+      <c r="D9" s="107"/>
       <c r="E9" s="41">
         <v>53.9</v>
       </c>
@@ -16083,11 +16341,11 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B10" s="94"/>
+      <c r="B10" s="107"/>
       <c r="C10" s="40">
         <v>78.400000000000006</v>
       </c>
-      <c r="D10" s="94"/>
+      <c r="D10" s="107"/>
       <c r="E10" s="41">
         <v>54</v>
       </c>
@@ -16113,11 +16371,11 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B11" s="94"/>
+      <c r="B11" s="107"/>
       <c r="C11" s="40">
         <v>78.400000000000006</v>
       </c>
-      <c r="D11" s="94"/>
+      <c r="D11" s="107"/>
       <c r="E11" s="41">
         <v>53.9</v>
       </c>
@@ -16143,11 +16401,11 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B12" s="94"/>
+      <c r="B12" s="107"/>
       <c r="C12" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D12" s="94"/>
+      <c r="D12" s="107"/>
       <c r="E12" s="41">
         <v>55.2</v>
       </c>
@@ -16173,11 +16431,11 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B13" s="94"/>
+      <c r="B13" s="107"/>
       <c r="C13" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D13" s="94"/>
+      <c r="D13" s="107"/>
       <c r="E13" s="41">
         <v>53.7</v>
       </c>
@@ -16203,11 +16461,11 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B14" s="94"/>
+      <c r="B14" s="107"/>
       <c r="C14" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D14" s="94"/>
+      <c r="D14" s="107"/>
       <c r="E14" s="41">
         <v>53.4</v>
       </c>
@@ -16233,11 +16491,11 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B15" s="94"/>
+      <c r="B15" s="107"/>
       <c r="C15" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D15" s="94"/>
+      <c r="D15" s="107"/>
       <c r="E15" s="41">
         <v>53.1</v>
       </c>
@@ -16263,11 +16521,11 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B16" s="94"/>
+      <c r="B16" s="107"/>
       <c r="C16" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D16" s="94"/>
+      <c r="D16" s="107"/>
       <c r="E16" s="41">
         <v>52.6</v>
       </c>
@@ -16293,7 +16551,7 @@
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B17" s="92" t="s">
+      <c r="B17" s="104" t="s">
         <v>444</v>
       </c>
       <c r="C17" s="40">
@@ -16327,7 +16585,7 @@
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B18" s="92"/>
+      <c r="B18" s="104"/>
       <c r="C18" s="40">
         <v>79.5</v>
       </c>
@@ -16357,7 +16615,7 @@
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B19" s="92"/>
+      <c r="B19" s="104"/>
       <c r="C19" s="40">
         <v>79.5</v>
       </c>
@@ -16387,7 +16645,7 @@
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B20" s="92"/>
+      <c r="B20" s="104"/>
       <c r="C20" s="40">
         <v>79.5</v>
       </c>
@@ -16417,7 +16675,7 @@
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B21" s="92"/>
+      <c r="B21" s="104"/>
       <c r="C21" s="40">
         <v>79.5</v>
       </c>
@@ -16447,7 +16705,7 @@
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B22" s="92" t="s">
+      <c r="B22" s="104" t="s">
         <v>55</v>
       </c>
       <c r="C22" s="40">
@@ -16481,7 +16739,7 @@
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B23" s="92"/>
+      <c r="B23" s="104"/>
       <c r="C23" s="40">
         <v>80</v>
       </c>
@@ -16511,7 +16769,7 @@
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B24" s="92"/>
+      <c r="B24" s="104"/>
       <c r="C24" s="40">
         <v>80</v>
       </c>
@@ -16541,7 +16799,7 @@
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B25" s="92"/>
+      <c r="B25" s="104"/>
       <c r="C25" s="40">
         <v>80</v>
       </c>
@@ -16571,7 +16829,7 @@
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B26" s="92"/>
+      <c r="B26" s="104"/>
       <c r="C26" s="40">
         <v>80</v>
       </c>
@@ -16601,7 +16859,7 @@
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B27" s="92" t="s">
+      <c r="B27" s="104" t="s">
         <v>56</v>
       </c>
       <c r="C27" s="40">
@@ -16635,7 +16893,7 @@
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B28" s="92"/>
+      <c r="B28" s="104"/>
       <c r="C28" s="40">
         <v>80.7</v>
       </c>
@@ -16665,7 +16923,7 @@
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B29" s="92"/>
+      <c r="B29" s="104"/>
       <c r="C29" s="40">
         <v>80.7</v>
       </c>
@@ -16695,7 +16953,7 @@
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B30" s="92"/>
+      <c r="B30" s="104"/>
       <c r="C30" s="40">
         <v>80.7</v>
       </c>
@@ -16725,7 +16983,7 @@
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B31" s="92"/>
+      <c r="B31" s="104"/>
       <c r="C31" s="40">
         <v>80.900000000000006</v>
       </c>
@@ -16755,7 +17013,7 @@
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B32" s="92" t="s">
+      <c r="B32" s="104" t="s">
         <v>57</v>
       </c>
       <c r="C32" s="40">
@@ -16789,7 +17047,7 @@
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B33" s="92"/>
+      <c r="B33" s="104"/>
       <c r="C33" s="40">
         <v>81.099999999999994</v>
       </c>
@@ -16819,7 +17077,7 @@
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B34" s="92"/>
+      <c r="B34" s="104"/>
       <c r="C34" s="40">
         <v>81.099999999999994</v>
       </c>
@@ -16849,7 +17107,7 @@
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B35" s="92"/>
+      <c r="B35" s="104"/>
       <c r="C35" s="40">
         <v>81.099999999999994</v>
       </c>
@@ -16879,7 +17137,7 @@
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B36" s="92"/>
+      <c r="B36" s="104"/>
       <c r="C36" s="40">
         <v>81.099999999999994</v>
       </c>
@@ -16909,7 +17167,7 @@
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B37" s="92" t="s">
+      <c r="B37" s="104" t="s">
         <v>58</v>
       </c>
       <c r="C37" s="40">
@@ -16943,7 +17201,7 @@
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B38" s="92"/>
+      <c r="B38" s="104"/>
       <c r="C38" s="40">
         <v>81.5</v>
       </c>
@@ -16973,7 +17231,7 @@
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B39" s="92"/>
+      <c r="B39" s="104"/>
       <c r="C39" s="40">
         <v>81.5</v>
       </c>
@@ -17003,7 +17261,7 @@
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B40" s="92"/>
+      <c r="B40" s="104"/>
       <c r="C40" s="40">
         <v>81.5</v>
       </c>
@@ -17033,7 +17291,7 @@
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B41" s="92"/>
+      <c r="B41" s="104"/>
       <c r="C41" s="40">
         <v>81.5</v>
       </c>
@@ -17063,7 +17321,7 @@
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B42" s="92" t="s">
+      <c r="B42" s="104" t="s">
         <v>59</v>
       </c>
       <c r="C42" s="40">
@@ -17097,7 +17355,7 @@
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B43" s="92"/>
+      <c r="B43" s="104"/>
       <c r="C43" s="40">
         <v>82.4</v>
       </c>
@@ -17127,7 +17385,7 @@
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B44" s="92"/>
+      <c r="B44" s="104"/>
       <c r="C44" s="40">
         <v>82.4</v>
       </c>
@@ -17157,7 +17415,7 @@
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B45" s="92"/>
+      <c r="B45" s="104"/>
       <c r="C45" s="40">
         <v>82.4</v>
       </c>
@@ -17187,7 +17445,7 @@
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B46" s="92"/>
+      <c r="B46" s="104"/>
       <c r="C46" s="40">
         <v>82.4</v>
       </c>
@@ -17217,13 +17475,13 @@
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B47" s="92" t="s">
+      <c r="B47" s="104" t="s">
         <v>94</v>
       </c>
       <c r="C47" s="40">
         <v>82.9</v>
       </c>
-      <c r="D47" s="93" t="s">
+      <c r="D47" s="108" t="s">
         <v>90</v>
       </c>
       <c r="E47" s="41">
@@ -17236,11 +17494,11 @@
       <c r="J47" s="56"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B48" s="92"/>
+      <c r="B48" s="104"/>
       <c r="C48" s="40">
         <v>83.1</v>
       </c>
-      <c r="D48" s="93"/>
+      <c r="D48" s="108"/>
       <c r="E48" s="41">
         <v>43.4</v>
       </c>
@@ -17251,11 +17509,11 @@
       <c r="J48" s="56"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B49" s="92"/>
+      <c r="B49" s="104"/>
       <c r="C49" s="40">
         <v>83.1</v>
       </c>
-      <c r="D49" s="93"/>
+      <c r="D49" s="108"/>
       <c r="E49" s="41">
         <v>43.4</v>
       </c>
@@ -17266,11 +17524,11 @@
       <c r="J49" s="56"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B50" s="92"/>
+      <c r="B50" s="104"/>
       <c r="C50" s="40">
         <v>83.1</v>
       </c>
-      <c r="D50" s="93"/>
+      <c r="D50" s="108"/>
       <c r="E50" s="41">
         <v>43.4</v>
       </c>
@@ -17281,11 +17539,11 @@
       <c r="J50" s="56"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B51" s="92"/>
+      <c r="B51" s="104"/>
       <c r="C51" s="40">
         <v>83.1</v>
       </c>
-      <c r="D51" s="93"/>
+      <c r="D51" s="108"/>
       <c r="E51" s="41">
         <v>43.4</v>
       </c>
@@ -17296,13 +17554,13 @@
       <c r="J51" s="56"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B52" s="92" t="s">
+      <c r="B52" s="104" t="s">
         <v>95</v>
       </c>
       <c r="C52" s="40">
         <v>83.4</v>
       </c>
-      <c r="D52" s="93" t="s">
+      <c r="D52" s="108" t="s">
         <v>92</v>
       </c>
       <c r="E52" s="41">
@@ -17315,11 +17573,11 @@
       <c r="J52" s="56"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B53" s="92"/>
+      <c r="B53" s="104"/>
       <c r="C53" s="40">
         <v>83.4</v>
       </c>
-      <c r="D53" s="93"/>
+      <c r="D53" s="108"/>
       <c r="E53" s="41">
         <v>43.3</v>
       </c>
@@ -17330,11 +17588,11 @@
       <c r="J53" s="56"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B54" s="92"/>
+      <c r="B54" s="104"/>
       <c r="C54" s="40">
         <v>83.4</v>
       </c>
-      <c r="D54" s="93"/>
+      <c r="D54" s="108"/>
       <c r="E54" s="41">
         <v>43.4</v>
       </c>
@@ -17345,11 +17603,11 @@
       <c r="J54" s="56"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B55" s="92"/>
+      <c r="B55" s="104"/>
       <c r="C55" s="40">
         <v>83.6</v>
       </c>
-      <c r="D55" s="93"/>
+      <c r="D55" s="108"/>
       <c r="E55" s="41">
         <v>43.4</v>
       </c>
@@ -17360,11 +17618,11 @@
       <c r="J55" s="56"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B56" s="92"/>
+      <c r="B56" s="104"/>
       <c r="C56" s="40">
         <v>83.3</v>
       </c>
-      <c r="D56" s="93"/>
+      <c r="D56" s="108"/>
       <c r="E56" s="41">
         <v>43.4</v>
       </c>
@@ -17375,7 +17633,7 @@
       <c r="J56" s="56"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B57" s="92" t="s">
+      <c r="B57" s="104" t="s">
         <v>96</v>
       </c>
       <c r="C57" s="40">
@@ -17390,7 +17648,7 @@
       <c r="J57" s="56"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B58" s="92"/>
+      <c r="B58" s="104"/>
       <c r="C58" s="40">
         <v>83.4</v>
       </c>
@@ -17403,7 +17661,7 @@
       <c r="J58" s="56"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B59" s="92"/>
+      <c r="B59" s="104"/>
       <c r="C59" s="40">
         <v>83.3</v>
       </c>
@@ -17416,7 +17674,7 @@
       <c r="J59" s="56"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B60" s="92"/>
+      <c r="B60" s="104"/>
       <c r="C60" s="40">
         <v>83.3</v>
       </c>
@@ -17429,7 +17687,7 @@
       <c r="J60" s="56"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B61" s="92"/>
+      <c r="B61" s="104"/>
       <c r="C61" s="40">
         <v>83.4</v>
       </c>
@@ -17442,7 +17700,7 @@
       <c r="J61" s="56"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B62" s="92" t="s">
+      <c r="B62" s="104" t="s">
         <v>97</v>
       </c>
       <c r="C62" s="40">
@@ -17457,7 +17715,7 @@
       <c r="J62" s="56"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B63" s="92"/>
+      <c r="B63" s="104"/>
       <c r="C63" s="40">
         <v>83.8</v>
       </c>
@@ -17470,7 +17728,7 @@
       <c r="J63" s="56"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B64" s="92"/>
+      <c r="B64" s="104"/>
       <c r="C64" s="40">
         <v>83.6</v>
       </c>
@@ -17483,7 +17741,7 @@
       <c r="J64" s="56"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B65" s="92"/>
+      <c r="B65" s="104"/>
       <c r="C65" s="40">
         <v>83.8</v>
       </c>
@@ -17496,7 +17754,7 @@
       <c r="J65" s="56"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B66" s="92"/>
+      <c r="B66" s="104"/>
       <c r="C66" s="40">
         <v>83.8</v>
       </c>
@@ -17509,7 +17767,7 @@
       <c r="J66" s="56"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B67" s="92" t="s">
+      <c r="B67" s="104" t="s">
         <v>93</v>
       </c>
       <c r="C67" s="40">
@@ -17524,7 +17782,7 @@
       <c r="J67" s="56"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B68" s="92"/>
+      <c r="B68" s="104"/>
       <c r="C68" s="40">
         <v>84</v>
       </c>
@@ -17537,7 +17795,7 @@
       <c r="J68" s="56"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B69" s="92"/>
+      <c r="B69" s="104"/>
       <c r="C69" s="40">
         <v>84</v>
       </c>
@@ -17550,7 +17808,7 @@
       <c r="J69" s="56"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B70" s="92"/>
+      <c r="B70" s="104"/>
       <c r="C70" s="40">
         <v>84</v>
       </c>
@@ -17563,7 +17821,7 @@
       <c r="J70" s="56"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B71" s="92"/>
+      <c r="B71" s="104"/>
       <c r="C71" s="40">
         <v>84</v>
       </c>
@@ -17576,7 +17834,7 @@
       <c r="J71" s="56"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B72" s="92" t="s">
+      <c r="B72" s="104" t="s">
         <v>82</v>
       </c>
       <c r="C72" s="40">
@@ -17591,7 +17849,7 @@
       <c r="J72" s="56"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B73" s="92"/>
+      <c r="B73" s="104"/>
       <c r="C73" s="40">
         <v>83.4</v>
       </c>
@@ -17604,7 +17862,7 @@
       <c r="J73" s="56"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B74" s="92"/>
+      <c r="B74" s="104"/>
       <c r="C74" s="40">
         <v>83.3</v>
       </c>
@@ -17617,7 +17875,7 @@
       <c r="J74" s="56"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B75" s="92"/>
+      <c r="B75" s="104"/>
       <c r="C75" s="40">
         <v>83.3</v>
       </c>
@@ -17630,7 +17888,7 @@
       <c r="J75" s="56"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B76" s="92"/>
+      <c r="B76" s="104"/>
       <c r="C76" s="40">
         <v>83.3</v>
       </c>
@@ -17643,7 +17901,7 @@
       <c r="J76" s="56"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B77" s="92" t="s">
+      <c r="B77" s="104" t="s">
         <v>83</v>
       </c>
       <c r="C77" s="40">
@@ -17658,7 +17916,7 @@
       <c r="J77" s="56"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B78" s="92"/>
+      <c r="B78" s="104"/>
       <c r="C78" s="40">
         <v>83.4</v>
       </c>
@@ -17671,7 +17929,7 @@
       <c r="J78" s="56"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B79" s="92"/>
+      <c r="B79" s="104"/>
       <c r="C79" s="40">
         <v>83.4</v>
       </c>
@@ -17684,7 +17942,7 @@
       <c r="J79" s="56"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B80" s="92"/>
+      <c r="B80" s="104"/>
       <c r="C80" s="40">
         <v>83.4</v>
       </c>
@@ -17697,7 +17955,7 @@
       <c r="J80" s="56"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B81" s="92"/>
+      <c r="B81" s="104"/>
       <c r="C81" s="40">
         <v>83.4</v>
       </c>
@@ -17710,7 +17968,7 @@
       <c r="J81" s="56"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B82" s="92" t="s">
+      <c r="B82" s="104" t="s">
         <v>84</v>
       </c>
       <c r="C82" s="40">
@@ -17725,7 +17983,7 @@
       <c r="J82" s="56"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B83" s="92"/>
+      <c r="B83" s="104"/>
       <c r="C83" s="40">
         <v>83.3</v>
       </c>
@@ -17738,7 +17996,7 @@
       <c r="J83" s="56"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B84" s="92"/>
+      <c r="B84" s="104"/>
       <c r="C84" s="40">
         <v>83.3</v>
       </c>
@@ -17751,7 +18009,7 @@
       <c r="J84" s="56"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B85" s="92"/>
+      <c r="B85" s="104"/>
       <c r="C85" s="40">
         <v>83.3</v>
       </c>
@@ -17764,7 +18022,7 @@
       <c r="J85" s="56"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B86" s="92"/>
+      <c r="B86" s="104"/>
       <c r="C86" s="40">
         <v>83.3</v>
       </c>
@@ -17777,7 +18035,7 @@
       <c r="J86" s="56"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B87" s="92" t="s">
+      <c r="B87" s="104" t="s">
         <v>87</v>
       </c>
       <c r="C87" s="40">
@@ -17792,7 +18050,7 @@
       <c r="J87" s="56"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B88" s="92"/>
+      <c r="B88" s="104"/>
       <c r="C88" s="40">
         <v>83.8</v>
       </c>
@@ -17805,7 +18063,7 @@
       <c r="J88" s="56"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B89" s="92"/>
+      <c r="B89" s="104"/>
       <c r="C89" s="40">
         <v>83.8</v>
       </c>
@@ -17818,7 +18076,7 @@
       <c r="J89" s="56"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B90" s="92"/>
+      <c r="B90" s="104"/>
       <c r="C90" s="40">
         <v>84</v>
       </c>
@@ -17831,7 +18089,7 @@
       <c r="J90" s="56"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B91" s="92"/>
+      <c r="B91" s="104"/>
       <c r="C91" s="40">
         <v>84</v>
       </c>
@@ -17844,7 +18102,7 @@
       <c r="J91" s="56"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B92" s="92" t="s">
+      <c r="B92" s="104" t="s">
         <v>89</v>
       </c>
       <c r="C92" s="40">
@@ -17859,7 +18117,7 @@
       <c r="J92" s="56"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B93" s="92"/>
+      <c r="B93" s="104"/>
       <c r="C93" s="40">
         <v>84</v>
       </c>
@@ -17872,7 +18130,7 @@
       <c r="J93" s="56"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B94" s="92"/>
+      <c r="B94" s="104"/>
       <c r="C94" s="40">
         <v>84</v>
       </c>
@@ -17885,7 +18143,7 @@
       <c r="J94" s="56"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B95" s="92"/>
+      <c r="B95" s="104"/>
       <c r="C95" s="40">
         <v>84.2</v>
       </c>
@@ -17898,7 +18156,7 @@
       <c r="J95" s="56"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B96" s="92"/>
+      <c r="B96" s="104"/>
       <c r="C96" s="40">
         <v>84.2</v>
       </c>
@@ -17911,7 +18169,7 @@
       <c r="J96" s="56"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B97" s="92" t="s">
+      <c r="B97" s="104" t="s">
         <v>91</v>
       </c>
       <c r="C97" s="40">
@@ -17926,7 +18184,7 @@
       <c r="J97" s="56"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B98" s="92"/>
+      <c r="B98" s="104"/>
       <c r="C98" s="40">
         <v>84</v>
       </c>
@@ -17939,7 +18197,7 @@
       <c r="J98" s="56"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B99" s="92"/>
+      <c r="B99" s="104"/>
       <c r="C99" s="40">
         <v>84</v>
       </c>
@@ -17952,7 +18210,7 @@
       <c r="J99" s="56"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B100" s="92"/>
+      <c r="B100" s="104"/>
       <c r="C100" s="40">
         <v>84</v>
       </c>
@@ -17965,7 +18223,7 @@
       <c r="J100" s="56"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B101" s="92"/>
+      <c r="B101" s="104"/>
       <c r="C101" s="40">
         <v>84</v>
       </c>
@@ -17979,12 +18237,43 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B97:B101"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="D42:D46"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="L7:L46"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B92:B96"/>
+    <mergeCell ref="B7:B16"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="D7:D16"/>
+    <mergeCell ref="F7:F46"/>
+    <mergeCell ref="H7:H46"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N6:O6"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="J7:J46"/>
     <mergeCell ref="J2:M2"/>
@@ -18001,43 +18290,12 @@
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="N7:N46"/>
     <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L7:L46"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B92:B96"/>
-    <mergeCell ref="B7:B16"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="D7:D16"/>
-    <mergeCell ref="F7:F46"/>
-    <mergeCell ref="H7:H46"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B97:B101"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="D37:D41"/>
-    <mergeCell ref="D42:D46"/>
-    <mergeCell ref="D47:D51"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18055,44 +18313,44 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="116" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
       <c r="G1" s="17"/>
-      <c r="H1" s="114" t="s">
+      <c r="H1" s="118" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114" t="s">
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="116"/>
+      <c r="A2" s="119"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="120"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A3" s="26" t="s">
@@ -18116,27 +18374,27 @@
       <c r="G3" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="H3" s="105" t="s">
+      <c r="H3" s="94" t="s">
         <v>189</v>
       </c>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="106"/>
-      <c r="O3" s="107"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="95"/>
       <c r="P3" s="31">
         <v>0.36041666666666666</v>
       </c>
-      <c r="Q3" s="105" t="s">
+      <c r="Q3" s="94" t="s">
         <v>189</v>
       </c>
-      <c r="R3" s="106"/>
-      <c r="S3" s="106"/>
-      <c r="T3" s="106"/>
-      <c r="U3" s="106"/>
-      <c r="V3" s="106"/>
+      <c r="R3" s="103"/>
+      <c r="S3" s="103"/>
+      <c r="T3" s="103"/>
+      <c r="U3" s="103"/>
+      <c r="V3" s="103"/>
       <c r="W3" s="37">
         <v>0.36319444444444443</v>
       </c>
@@ -18145,13 +18403,13 @@
       <c r="Z3" s="20"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="109" t="s">
         <v>133</v>
       </c>
-      <c r="B4" s="120" t="s">
+      <c r="B4" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="104" t="s">
         <v>98</v>
       </c>
       <c r="D4" s="23">
@@ -18215,9 +18473,9 @@
       <c r="Z4" s="13"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A5" s="118"/>
-      <c r="B5" s="121"/>
-      <c r="C5" s="92"/>
+      <c r="A5" s="110"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="104"/>
       <c r="D5" s="23">
         <v>2</v>
       </c>
@@ -18277,9 +18535,9 @@
       <c r="Z5" s="13"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A6" s="118"/>
-      <c r="B6" s="121"/>
-      <c r="C6" s="92"/>
+      <c r="A6" s="110"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="104"/>
       <c r="D6" s="23">
         <v>3</v>
       </c>
@@ -18339,9 +18597,9 @@
       <c r="Z6" s="13"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A7" s="118"/>
-      <c r="B7" s="121"/>
-      <c r="C7" s="92"/>
+      <c r="A7" s="110"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="104"/>
       <c r="D7" s="23">
         <v>4</v>
       </c>
@@ -18401,9 +18659,9 @@
       <c r="Z7" s="13"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A8" s="118"/>
-      <c r="B8" s="121"/>
-      <c r="C8" s="92"/>
+      <c r="A8" s="110"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="104"/>
       <c r="D8" s="23">
         <v>5</v>
       </c>
@@ -18463,15 +18721,15 @@
       <c r="Z8" s="13"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A9" s="118"/>
-      <c r="B9" s="121"/>
+      <c r="A9" s="110"/>
+      <c r="B9" s="113"/>
       <c r="C9" s="26"/>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
       <c r="J9" s="82"/>
       <c r="K9" s="82"/>
       <c r="L9" s="82"/>
@@ -18491,8 +18749,8 @@
       <c r="Z9" s="21"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A10" s="118"/>
-      <c r="B10" s="121"/>
+      <c r="A10" s="110"/>
+      <c r="B10" s="113"/>
       <c r="C10" s="26"/>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
@@ -18523,9 +18781,9 @@
       <c r="Z10" s="11"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A11" s="118"/>
-      <c r="B11" s="121"/>
-      <c r="C11" s="92" t="s">
+      <c r="A11" s="110"/>
+      <c r="B11" s="113"/>
+      <c r="C11" s="104" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="23">
@@ -18589,9 +18847,9 @@
       <c r="Z11" s="11"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A12" s="118"/>
-      <c r="B12" s="121"/>
-      <c r="C12" s="92"/>
+      <c r="A12" s="110"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="104"/>
       <c r="D12" s="23">
         <v>2</v>
       </c>
@@ -18651,9 +18909,9 @@
       <c r="Z12" s="11"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A13" s="118"/>
-      <c r="B13" s="121"/>
-      <c r="C13" s="92"/>
+      <c r="A13" s="110"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="104"/>
       <c r="D13" s="23">
         <v>3</v>
       </c>
@@ -18713,9 +18971,9 @@
       <c r="Z13" s="11"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A14" s="118"/>
-      <c r="B14" s="121"/>
-      <c r="C14" s="92"/>
+      <c r="A14" s="110"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="104"/>
       <c r="D14" s="23">
         <v>4</v>
       </c>
@@ -18775,9 +19033,9 @@
       <c r="Z14" s="11"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A15" s="118"/>
-      <c r="B15" s="121"/>
-      <c r="C15" s="92"/>
+      <c r="A15" s="110"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="104"/>
       <c r="D15" s="23">
         <v>5</v>
       </c>
@@ -18837,23 +19095,23 @@
       <c r="Z15" s="11"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A16" s="118"/>
-      <c r="B16" s="122"/>
+      <c r="A16" s="110"/>
+      <c r="B16" s="114"/>
       <c r="C16" s="29"/>
       <c r="D16" s="22"/>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="109" t="s">
+      <c r="H16" s="121" t="s">
         <v>178</v>
       </c>
-      <c r="I16" s="110"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="110"/>
-      <c r="L16" s="110"/>
-      <c r="M16" s="110"/>
-      <c r="N16" s="110"/>
-      <c r="O16" s="111"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="122"/>
+      <c r="K16" s="122"/>
+      <c r="L16" s="122"/>
+      <c r="M16" s="122"/>
+      <c r="N16" s="122"/>
+      <c r="O16" s="123"/>
       <c r="P16" s="36"/>
       <c r="Q16" s="36"/>
       <c r="R16" s="36"/>
@@ -18867,11 +19125,11 @@
       <c r="Z16" s="11"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A17" s="118"/>
-      <c r="B17" s="92" t="s">
+      <c r="A17" s="110"/>
+      <c r="B17" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="92" t="s">
+      <c r="C17" s="104" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="23">
@@ -18921,9 +19179,9 @@
       <c r="Z17" s="11"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A18" s="118"/>
-      <c r="B18" s="92"/>
-      <c r="C18" s="92"/>
+      <c r="A18" s="110"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="104"/>
       <c r="D18" s="23">
         <v>2</v>
       </c>
@@ -18967,9 +19225,9 @@
       <c r="Z18" s="11"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A19" s="118"/>
-      <c r="B19" s="92"/>
-      <c r="C19" s="92"/>
+      <c r="A19" s="110"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="104"/>
       <c r="D19" s="23">
         <v>3</v>
       </c>
@@ -19013,9 +19271,9 @@
       <c r="Z19" s="11"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A20" s="118"/>
-      <c r="B20" s="92"/>
-      <c r="C20" s="92"/>
+      <c r="A20" s="110"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="104"/>
       <c r="D20" s="23">
         <v>4</v>
       </c>
@@ -19059,9 +19317,9 @@
       <c r="Z20" s="11"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A21" s="119"/>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
+      <c r="A21" s="111"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="104"/>
       <c r="D21" s="23">
         <v>5</v>
       </c>
@@ -19120,16 +19378,16 @@
       <c r="G22" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="H22" s="99" t="s">
+      <c r="H22" s="98" t="s">
         <v>189</v>
       </c>
-      <c r="I22" s="100"/>
-      <c r="J22" s="100"/>
-      <c r="K22" s="100"/>
-      <c r="L22" s="100"/>
-      <c r="M22" s="100"/>
-      <c r="N22" s="100"/>
-      <c r="O22" s="108"/>
+      <c r="I22" s="105"/>
+      <c r="J22" s="105"/>
+      <c r="K22" s="105"/>
+      <c r="L22" s="105"/>
+      <c r="M22" s="105"/>
+      <c r="N22" s="105"/>
+      <c r="O22" s="99"/>
       <c r="P22" s="32" t="s">
         <v>248</v>
       </c>
@@ -19145,13 +19403,13 @@
       <c r="Z22" s="11"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A23" s="117" t="s">
+      <c r="A23" s="109" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="92" t="s">
+      <c r="B23" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="92" t="s">
+      <c r="C23" s="104" t="s">
         <v>98</v>
       </c>
       <c r="D23" s="23">
@@ -19219,9 +19477,9 @@
       <c r="Z23" s="11"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A24" s="118"/>
-      <c r="B24" s="92"/>
-      <c r="C24" s="92"/>
+      <c r="A24" s="110"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="104"/>
       <c r="D24" s="23">
         <v>2</v>
       </c>
@@ -19281,9 +19539,9 @@
       <c r="Z24" s="11"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A25" s="118"/>
-      <c r="B25" s="92"/>
-      <c r="C25" s="92"/>
+      <c r="A25" s="110"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="104"/>
       <c r="D25" s="23">
         <v>3</v>
       </c>
@@ -19343,9 +19601,9 @@
       <c r="Z25" s="11"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A26" s="118"/>
-      <c r="B26" s="92"/>
-      <c r="C26" s="92"/>
+      <c r="A26" s="110"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="104"/>
       <c r="D26" s="23">
         <v>4</v>
       </c>
@@ -19405,9 +19663,9 @@
       <c r="Z26" s="11"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A27" s="118"/>
-      <c r="B27" s="92"/>
-      <c r="C27" s="92"/>
+      <c r="A27" s="110"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="104"/>
       <c r="D27" s="23">
         <v>5</v>
       </c>
@@ -19467,8 +19725,8 @@
       <c r="Z27" s="11"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A28" s="118"/>
-      <c r="B28" s="92"/>
+      <c r="A28" s="110"/>
+      <c r="B28" s="104"/>
       <c r="C28" s="26"/>
       <c r="D28" s="23"/>
       <c r="E28" s="23"/>
@@ -19495,8 +19753,8 @@
       <c r="Z28" s="11"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A29" s="118"/>
-      <c r="B29" s="92"/>
+      <c r="A29" s="110"/>
+      <c r="B29" s="104"/>
       <c r="C29" s="26"/>
       <c r="D29" s="23"/>
       <c r="E29" s="23"/>
@@ -19525,9 +19783,9 @@
       <c r="Z29" s="11"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A30" s="118"/>
-      <c r="B30" s="92"/>
-      <c r="C30" s="92" t="s">
+      <c r="A30" s="110"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="104" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="23">
@@ -19595,9 +19853,9 @@
       <c r="Z30" s="11"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A31" s="118"/>
-      <c r="B31" s="92"/>
-      <c r="C31" s="92"/>
+      <c r="A31" s="110"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="104"/>
       <c r="D31" s="23">
         <v>2</v>
       </c>
@@ -19657,9 +19915,9 @@
       <c r="Z31" s="11"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A32" s="118"/>
-      <c r="B32" s="92"/>
-      <c r="C32" s="92"/>
+      <c r="A32" s="110"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="104"/>
       <c r="D32" s="23">
         <v>3</v>
       </c>
@@ -19719,9 +19977,9 @@
       <c r="Z32" s="11"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A33" s="118"/>
-      <c r="B33" s="92"/>
-      <c r="C33" s="92"/>
+      <c r="A33" s="110"/>
+      <c r="B33" s="104"/>
+      <c r="C33" s="104"/>
       <c r="D33" s="23">
         <v>4</v>
       </c>
@@ -19778,9 +20036,9 @@
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A34" s="118"/>
-      <c r="B34" s="92"/>
-      <c r="C34" s="92"/>
+      <c r="A34" s="110"/>
+      <c r="B34" s="104"/>
+      <c r="C34" s="104"/>
       <c r="D34" s="23">
         <v>5</v>
       </c>
@@ -19837,8 +20095,8 @@
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A35" s="118"/>
-      <c r="B35" s="92"/>
+      <c r="A35" s="110"/>
+      <c r="B35" s="104"/>
       <c r="C35" s="26"/>
       <c r="D35" s="23"/>
       <c r="E35" s="23"/>
@@ -19862,11 +20120,11 @@
       <c r="W35" s="26"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A36" s="118"/>
-      <c r="B36" s="92" t="s">
+      <c r="A36" s="110"/>
+      <c r="B36" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="92" t="s">
+      <c r="C36" s="104" t="s">
         <v>10</v>
       </c>
       <c r="D36" s="23">
@@ -19925,9 +20183,9 @@
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A37" s="118"/>
-      <c r="B37" s="92"/>
-      <c r="C37" s="92"/>
+      <c r="A37" s="110"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="104"/>
       <c r="D37" s="23">
         <v>2</v>
       </c>
@@ -19980,9 +20238,9 @@
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A38" s="118"/>
-      <c r="B38" s="92"/>
-      <c r="C38" s="92"/>
+      <c r="A38" s="110"/>
+      <c r="B38" s="104"/>
+      <c r="C38" s="104"/>
       <c r="D38" s="23">
         <v>3</v>
       </c>
@@ -20035,9 +20293,9 @@
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A39" s="118"/>
-      <c r="B39" s="92"/>
-      <c r="C39" s="92"/>
+      <c r="A39" s="110"/>
+      <c r="B39" s="104"/>
+      <c r="C39" s="104"/>
       <c r="D39" s="23">
         <v>4</v>
       </c>
@@ -20090,9 +20348,9 @@
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A40" s="119"/>
-      <c r="B40" s="92"/>
-      <c r="C40" s="92"/>
+      <c r="A40" s="111"/>
+      <c r="B40" s="104"/>
+      <c r="C40" s="104"/>
       <c r="D40" s="23">
         <v>5</v>
       </c>
@@ -20175,10 +20433,10 @@
       <c r="A42" s="83" t="s">
         <v>294</v>
       </c>
-      <c r="B42" s="92" t="s">
+      <c r="B42" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="92" t="s">
+      <c r="C42" s="104" t="s">
         <v>98</v>
       </c>
       <c r="D42" s="23">
@@ -20218,8 +20476,8 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A43" s="83"/>
-      <c r="B43" s="92"/>
-      <c r="C43" s="92"/>
+      <c r="B43" s="104"/>
+      <c r="C43" s="104"/>
       <c r="D43" s="23">
         <v>2</v>
       </c>
@@ -20253,8 +20511,8 @@
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A44" s="83"/>
-      <c r="B44" s="92"/>
-      <c r="C44" s="92"/>
+      <c r="B44" s="104"/>
+      <c r="C44" s="104"/>
       <c r="D44" s="23">
         <v>3</v>
       </c>
@@ -20288,8 +20546,8 @@
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A45" s="83"/>
-      <c r="B45" s="92"/>
-      <c r="C45" s="92"/>
+      <c r="B45" s="104"/>
+      <c r="C45" s="104"/>
       <c r="D45" s="23">
         <v>4</v>
       </c>
@@ -20323,8 +20581,8 @@
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A46" s="83"/>
-      <c r="B46" s="92"/>
-      <c r="C46" s="92"/>
+      <c r="B46" s="104"/>
+      <c r="C46" s="104"/>
       <c r="D46" s="23">
         <v>5</v>
       </c>
@@ -20358,7 +20616,7 @@
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A47" s="83"/>
-      <c r="B47" s="92"/>
+      <c r="B47" s="104"/>
       <c r="C47" s="26"/>
       <c r="D47" s="23"/>
       <c r="E47" s="23"/>
@@ -20375,7 +20633,7 @@
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A48" s="83"/>
-      <c r="B48" s="92"/>
+      <c r="B48" s="104"/>
       <c r="C48" s="26"/>
       <c r="D48" s="23"/>
       <c r="E48" s="23"/>
@@ -20392,8 +20650,8 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A49" s="83"/>
-      <c r="B49" s="92"/>
-      <c r="C49" s="92" t="s">
+      <c r="B49" s="104"/>
+      <c r="C49" s="104" t="s">
         <v>2</v>
       </c>
       <c r="D49" s="23">
@@ -20433,8 +20691,8 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A50" s="83"/>
-      <c r="B50" s="92"/>
-      <c r="C50" s="92"/>
+      <c r="B50" s="104"/>
+      <c r="C50" s="104"/>
       <c r="D50" s="23">
         <v>2</v>
       </c>
@@ -20468,8 +20726,8 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A51" s="83"/>
-      <c r="B51" s="92"/>
-      <c r="C51" s="92"/>
+      <c r="B51" s="104"/>
+      <c r="C51" s="104"/>
       <c r="D51" s="23">
         <v>3</v>
       </c>
@@ -20503,8 +20761,8 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A52" s="83"/>
-      <c r="B52" s="92"/>
-      <c r="C52" s="92"/>
+      <c r="B52" s="104"/>
+      <c r="C52" s="104"/>
       <c r="D52" s="23">
         <v>4</v>
       </c>
@@ -20538,8 +20796,8 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A53" s="83"/>
-      <c r="B53" s="92"/>
-      <c r="C53" s="92"/>
+      <c r="B53" s="104"/>
+      <c r="C53" s="104"/>
       <c r="D53" s="23">
         <v>5</v>
       </c>
@@ -20573,7 +20831,7 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A54" s="83"/>
-      <c r="B54" s="92"/>
+      <c r="B54" s="104"/>
       <c r="C54" s="26"/>
       <c r="D54" s="23"/>
       <c r="E54" s="23"/>
@@ -20590,10 +20848,10 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A55" s="83"/>
-      <c r="B55" s="92" t="s">
+      <c r="B55" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="92" t="s">
+      <c r="C55" s="104" t="s">
         <v>10</v>
       </c>
       <c r="D55" s="23">
@@ -20633,8 +20891,8 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A56" s="83"/>
-      <c r="B56" s="92"/>
-      <c r="C56" s="92"/>
+      <c r="B56" s="104"/>
+      <c r="C56" s="104"/>
       <c r="D56" s="23">
         <v>2</v>
       </c>
@@ -20668,8 +20926,8 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A57" s="83"/>
-      <c r="B57" s="92"/>
-      <c r="C57" s="92"/>
+      <c r="B57" s="104"/>
+      <c r="C57" s="104"/>
       <c r="D57" s="23">
         <v>3</v>
       </c>
@@ -20703,8 +20961,8 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A58" s="83"/>
-      <c r="B58" s="92"/>
-      <c r="C58" s="92"/>
+      <c r="B58" s="104"/>
+      <c r="C58" s="104"/>
       <c r="D58" s="23">
         <v>4</v>
       </c>
@@ -20738,8 +20996,8 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A59" s="83"/>
-      <c r="B59" s="92"/>
-      <c r="C59" s="92"/>
+      <c r="B59" s="104"/>
+      <c r="C59" s="104"/>
       <c r="D59" s="23">
         <v>5</v>
       </c>
@@ -20802,10 +21060,10 @@
       <c r="A61" s="83" t="s">
         <v>134</v>
       </c>
-      <c r="B61" s="92" t="s">
+      <c r="B61" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="92" t="s">
+      <c r="C61" s="104" t="s">
         <v>98</v>
       </c>
       <c r="D61" s="23">
@@ -20847,8 +21105,8 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A62" s="83"/>
-      <c r="B62" s="92"/>
-      <c r="C62" s="92"/>
+      <c r="B62" s="104"/>
+      <c r="C62" s="104"/>
       <c r="D62" s="23">
         <v>2</v>
       </c>
@@ -20882,8 +21140,8 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A63" s="83"/>
-      <c r="B63" s="92"/>
-      <c r="C63" s="92"/>
+      <c r="B63" s="104"/>
+      <c r="C63" s="104"/>
       <c r="D63" s="23">
         <v>3</v>
       </c>
@@ -20917,8 +21175,8 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A64" s="83"/>
-      <c r="B64" s="92"/>
-      <c r="C64" s="92"/>
+      <c r="B64" s="104"/>
+      <c r="C64" s="104"/>
       <c r="D64" s="23">
         <v>4</v>
       </c>
@@ -20952,8 +21210,8 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A65" s="83"/>
-      <c r="B65" s="92"/>
-      <c r="C65" s="92"/>
+      <c r="B65" s="104"/>
+      <c r="C65" s="104"/>
       <c r="D65" s="23">
         <v>5</v>
       </c>
@@ -20987,7 +21245,7 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A66" s="83"/>
-      <c r="B66" s="92"/>
+      <c r="B66" s="104"/>
       <c r="C66" s="26"/>
       <c r="D66" s="23"/>
       <c r="E66" s="23"/>
@@ -21004,7 +21262,7 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A67" s="83"/>
-      <c r="B67" s="92"/>
+      <c r="B67" s="104"/>
       <c r="C67" s="26"/>
       <c r="D67" s="23"/>
       <c r="E67" s="23"/>
@@ -21021,8 +21279,8 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A68" s="83"/>
-      <c r="B68" s="92"/>
-      <c r="C68" s="92" t="s">
+      <c r="B68" s="104"/>
+      <c r="C68" s="104" t="s">
         <v>2</v>
       </c>
       <c r="D68" s="23">
@@ -21064,8 +21322,8 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A69" s="83"/>
-      <c r="B69" s="92"/>
-      <c r="C69" s="92"/>
+      <c r="B69" s="104"/>
+      <c r="C69" s="104"/>
       <c r="D69" s="23">
         <v>2</v>
       </c>
@@ -21099,8 +21357,8 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A70" s="83"/>
-      <c r="B70" s="92"/>
-      <c r="C70" s="92"/>
+      <c r="B70" s="104"/>
+      <c r="C70" s="104"/>
       <c r="D70" s="23">
         <v>3</v>
       </c>
@@ -21134,8 +21392,8 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A71" s="83"/>
-      <c r="B71" s="92"/>
-      <c r="C71" s="92"/>
+      <c r="B71" s="104"/>
+      <c r="C71" s="104"/>
       <c r="D71" s="23">
         <v>4</v>
       </c>
@@ -21169,8 +21427,8 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A72" s="83"/>
-      <c r="B72" s="92"/>
-      <c r="C72" s="92"/>
+      <c r="B72" s="104"/>
+      <c r="C72" s="104"/>
       <c r="D72" s="23">
         <v>5</v>
       </c>
@@ -21204,7 +21462,7 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A73" s="83"/>
-      <c r="B73" s="92"/>
+      <c r="B73" s="104"/>
       <c r="C73" s="26"/>
       <c r="D73" s="23"/>
       <c r="E73" s="23"/>
@@ -21221,10 +21479,10 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A74" s="83"/>
-      <c r="B74" s="92" t="s">
+      <c r="B74" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C74" s="92" t="s">
+      <c r="C74" s="104" t="s">
         <v>10</v>
       </c>
       <c r="D74" s="23">
@@ -21266,8 +21524,8 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A75" s="83"/>
-      <c r="B75" s="92"/>
-      <c r="C75" s="92"/>
+      <c r="B75" s="104"/>
+      <c r="C75" s="104"/>
       <c r="D75" s="23">
         <v>2</v>
       </c>
@@ -21301,8 +21559,8 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A76" s="83"/>
-      <c r="B76" s="92"/>
-      <c r="C76" s="92"/>
+      <c r="B76" s="104"/>
+      <c r="C76" s="104"/>
       <c r="D76" s="23">
         <v>3</v>
       </c>
@@ -21336,8 +21594,8 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A77" s="83"/>
-      <c r="B77" s="92"/>
-      <c r="C77" s="92"/>
+      <c r="B77" s="104"/>
+      <c r="C77" s="104"/>
       <c r="D77" s="23">
         <v>4</v>
       </c>
@@ -21371,8 +21629,8 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A78" s="83"/>
-      <c r="B78" s="92"/>
-      <c r="C78" s="92"/>
+      <c r="B78" s="104"/>
+      <c r="C78" s="104"/>
       <c r="D78" s="23">
         <v>5</v>
       </c>
@@ -21496,6 +21754,61 @@
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="G42:G46"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="F30:F34"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="E36:E40"/>
+    <mergeCell ref="F36:F40"/>
+    <mergeCell ref="E49:E53"/>
+    <mergeCell ref="F49:F53"/>
+    <mergeCell ref="A42:A59"/>
+    <mergeCell ref="B42:B54"/>
+    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="E42:E46"/>
+    <mergeCell ref="F42:F46"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="E55:E59"/>
+    <mergeCell ref="F55:F59"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="H41:O41"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="G17:G21"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="F17:F21"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="F74:F78"/>
+    <mergeCell ref="G49:G53"/>
+    <mergeCell ref="Q3:V3"/>
+    <mergeCell ref="A4:A21"/>
+    <mergeCell ref="B4:B16"/>
+    <mergeCell ref="A23:A40"/>
+    <mergeCell ref="B23:B35"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="G30:G34"/>
+    <mergeCell ref="G36:G40"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="F23:F27"/>
+    <mergeCell ref="J9:Q9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:C15"/>
     <mergeCell ref="G55:G59"/>
     <mergeCell ref="G68:G72"/>
     <mergeCell ref="G74:G78"/>
@@ -21512,61 +21825,6 @@
     <mergeCell ref="B74:B78"/>
     <mergeCell ref="C74:C78"/>
     <mergeCell ref="E74:E78"/>
-    <mergeCell ref="F74:F78"/>
-    <mergeCell ref="G49:G53"/>
-    <mergeCell ref="Q3:V3"/>
-    <mergeCell ref="A4:A21"/>
-    <mergeCell ref="B4:B16"/>
-    <mergeCell ref="A23:A40"/>
-    <mergeCell ref="B23:B35"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="G30:G34"/>
-    <mergeCell ref="G36:G40"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="F23:F27"/>
-    <mergeCell ref="J9:Q9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="H3:O3"/>
-    <mergeCell ref="E11:E15"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="G17:G21"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="F17:F21"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="E30:E34"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="H41:O41"/>
-    <mergeCell ref="A42:A59"/>
-    <mergeCell ref="B42:B54"/>
-    <mergeCell ref="C42:C46"/>
-    <mergeCell ref="E42:E46"/>
-    <mergeCell ref="F42:F46"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="C55:C59"/>
-    <mergeCell ref="E55:E59"/>
-    <mergeCell ref="F55:F59"/>
-    <mergeCell ref="G42:G46"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="C36:C40"/>
-    <mergeCell ref="E36:E40"/>
-    <mergeCell ref="F36:F40"/>
-    <mergeCell ref="E49:E53"/>
-    <mergeCell ref="F49:F53"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21639,15 +21897,15 @@
       <c r="C4" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="92"/>
+      <c r="D4" s="104"/>
       <c r="E4" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="92"/>
+      <c r="F4" s="104"/>
       <c r="G4" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="92"/>
+      <c r="H4" s="104"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
@@ -21672,7 +21930,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="104" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="1">
@@ -21698,7 +21956,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="92"/>
+      <c r="A7" s="104"/>
       <c r="B7" s="1">
         <v>2</v>
       </c>
@@ -21722,7 +21980,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="92"/>
+      <c r="A8" s="104"/>
       <c r="B8" s="1">
         <v>3</v>
       </c>
@@ -21746,7 +22004,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="92"/>
+      <c r="A9" s="104"/>
       <c r="B9" s="7">
         <v>4</v>
       </c>
@@ -21770,7 +22028,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="92"/>
+      <c r="A10" s="104"/>
       <c r="B10" s="7">
         <v>5</v>
       </c>
@@ -21794,7 +22052,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="92" t="s">
+      <c r="A11" s="104" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="1">
@@ -21820,7 +22078,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="92"/>
+      <c r="A12" s="104"/>
       <c r="B12" s="1">
         <v>2</v>
       </c>
@@ -21844,7 +22102,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="92"/>
+      <c r="A13" s="104"/>
       <c r="B13" s="1">
         <v>3</v>
       </c>
@@ -21868,7 +22126,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="92"/>
+      <c r="A14" s="104"/>
       <c r="B14" s="7">
         <v>4</v>
       </c>
@@ -21892,7 +22150,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="92"/>
+      <c r="A15" s="104"/>
       <c r="B15" s="7">
         <v>5</v>
       </c>

--- a/数据记录/记录表单.xlsx
+++ b/数据记录/记录表单.xlsx
@@ -4834,10 +4834,19 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -4855,20 +4864,8 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4876,13 +4873,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4918,16 +4918,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4939,7 +4942,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4951,23 +4957,41 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4989,30 +5013,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5314,8 +5314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:CS57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BF28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BU55" sqref="BU55"/>
+    <sheetView tabSelected="1" topLeftCell="BV31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="CH39" sqref="CH39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5332,36 +5332,36 @@
       <c r="A4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="66">
+      <c r="B4" s="69">
         <v>42309</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="66">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="69">
         <v>42310</v>
       </c>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="66">
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="69">
         <v>42311</v>
       </c>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
-      <c r="U4" s="69"/>
-      <c r="V4" s="69"/>
-      <c r="W4" s="69"/>
-      <c r="X4" s="69"/>
-      <c r="Y4" s="70"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="73"/>
       <c r="Z4" s="59">
         <v>42312</v>
       </c>
@@ -5395,18 +5395,18 @@
       <c r="A5" s="49" t="s">
         <v>447</v>
       </c>
-      <c r="B5" s="71">
+      <c r="B5" s="68">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="71">
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="68">
         <v>0.68819444444444444</v>
       </c>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
       <c r="J5" s="61">
         <v>0.41041666666666665</v>
       </c>
@@ -5586,72 +5586,72 @@
       <c r="A8" s="49" t="s">
         <v>438</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="68" t="s">
         <v>463</v>
       </c>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71" t="s">
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68" t="s">
         <v>465</v>
       </c>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="65" t="s">
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="64" t="s">
         <v>466</v>
       </c>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65" t="s">
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64" t="s">
         <v>468</v>
       </c>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="65"/>
-      <c r="R8" s="64" t="s">
+      <c r="O8" s="64"/>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="65" t="s">
         <v>469</v>
       </c>
-      <c r="S8" s="65"/>
-      <c r="T8" s="65"/>
-      <c r="U8" s="65"/>
-      <c r="V8" s="64" t="s">
+      <c r="S8" s="64"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="65" t="s">
         <v>470</v>
       </c>
-      <c r="W8" s="65"/>
-      <c r="X8" s="65"/>
-      <c r="Y8" s="65"/>
-      <c r="Z8" s="65" t="s">
+      <c r="W8" s="64"/>
+      <c r="X8" s="64"/>
+      <c r="Y8" s="64"/>
+      <c r="Z8" s="64" t="s">
         <v>472</v>
       </c>
-      <c r="AA8" s="65"/>
-      <c r="AB8" s="65"/>
-      <c r="AC8" s="65"/>
-      <c r="AD8" s="64" t="s">
+      <c r="AA8" s="64"/>
+      <c r="AB8" s="64"/>
+      <c r="AC8" s="64"/>
+      <c r="AD8" s="65" t="s">
         <v>473</v>
       </c>
-      <c r="AE8" s="65"/>
-      <c r="AF8" s="65"/>
-      <c r="AG8" s="65"/>
-      <c r="AH8" s="65" t="s">
+      <c r="AE8" s="64"/>
+      <c r="AF8" s="64"/>
+      <c r="AG8" s="64"/>
+      <c r="AH8" s="64" t="s">
         <v>474</v>
       </c>
-      <c r="AI8" s="65"/>
-      <c r="AJ8" s="65"/>
-      <c r="AK8" s="65"/>
-      <c r="AL8" s="65" t="s">
+      <c r="AI8" s="64"/>
+      <c r="AJ8" s="64"/>
+      <c r="AK8" s="64"/>
+      <c r="AL8" s="64" t="s">
         <v>475</v>
       </c>
-      <c r="AM8" s="65"/>
-      <c r="AN8" s="65"/>
-      <c r="AO8" s="65"/>
-      <c r="AP8" s="65" t="s">
+      <c r="AM8" s="64"/>
+      <c r="AN8" s="64"/>
+      <c r="AO8" s="64"/>
+      <c r="AP8" s="64" t="s">
         <v>478</v>
       </c>
-      <c r="AQ8" s="65"/>
-      <c r="AR8" s="65"/>
-      <c r="AS8" s="65"/>
+      <c r="AQ8" s="64"/>
+      <c r="AR8" s="64"/>
+      <c r="AS8" s="64"/>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A9" s="49" t="s">
@@ -8240,12 +8240,12 @@
       <c r="AS28" s="49"/>
     </row>
     <row r="29" spans="1:97" x14ac:dyDescent="0.15">
-      <c r="R29" s="72" t="s">
+      <c r="R29" s="67" t="s">
         <v>471</v>
       </c>
-      <c r="S29" s="72"/>
-      <c r="T29" s="72"/>
-      <c r="U29" s="72"/>
+      <c r="S29" s="67"/>
+      <c r="T29" s="67"/>
+      <c r="U29" s="67"/>
       <c r="AD29">
         <v>22.5</v>
       </c>
@@ -8432,7 +8432,7 @@
       <c r="S33" s="62"/>
       <c r="T33" s="62"/>
       <c r="U33" s="63"/>
-      <c r="V33" s="73" t="s">
+      <c r="V33" s="66" t="s">
         <v>491</v>
       </c>
       <c r="W33" s="62"/>
@@ -8504,23 +8504,33 @@
       <c r="BO33" s="62"/>
       <c r="BP33" s="62"/>
       <c r="BQ33" s="63"/>
-      <c r="BR33" s="61"/>
+      <c r="BR33" s="61">
+        <v>0.43888888888888888</v>
+      </c>
       <c r="BS33" s="62"/>
       <c r="BT33" s="62"/>
       <c r="BU33" s="63"/>
-      <c r="BV33" s="61"/>
+      <c r="BV33" s="61">
+        <v>0.44513888888888892</v>
+      </c>
       <c r="BW33" s="62"/>
       <c r="BX33" s="62"/>
       <c r="BY33" s="63"/>
-      <c r="BZ33" s="61"/>
+      <c r="BZ33" s="61">
+        <v>0.47361111111111115</v>
+      </c>
       <c r="CA33" s="62"/>
       <c r="CB33" s="62"/>
       <c r="CC33" s="63"/>
-      <c r="CD33" s="61"/>
+      <c r="CD33" s="61">
+        <v>0.47916666666666669</v>
+      </c>
       <c r="CE33" s="62"/>
       <c r="CF33" s="62"/>
       <c r="CG33" s="63"/>
-      <c r="CH33" s="61"/>
+      <c r="CH33" s="61">
+        <v>0.48472222222222222</v>
+      </c>
       <c r="CI33" s="62"/>
       <c r="CJ33" s="62"/>
       <c r="CK33" s="63"/>
@@ -8549,7 +8559,7 @@
       <c r="K34" s="62"/>
       <c r="L34" s="62"/>
       <c r="M34" s="63"/>
-      <c r="N34" s="73" t="s">
+      <c r="N34" s="66" t="s">
         <v>485</v>
       </c>
       <c r="O34" s="62"/>
@@ -8652,7 +8662,7 @@
       <c r="G35" s="62"/>
       <c r="H35" s="62"/>
       <c r="I35" s="63"/>
-      <c r="J35" s="73" t="s">
+      <c r="J35" s="66" t="s">
         <v>483</v>
       </c>
       <c r="K35" s="62"/>
@@ -8668,7 +8678,7 @@
       <c r="S35" s="62"/>
       <c r="T35" s="62"/>
       <c r="U35" s="63"/>
-      <c r="V35" s="73" t="s">
+      <c r="V35" s="66" t="s">
         <v>492</v>
       </c>
       <c r="W35" s="62"/>
@@ -8740,23 +8750,33 @@
       <c r="BO35" s="62"/>
       <c r="BP35" s="62"/>
       <c r="BQ35" s="63"/>
-      <c r="BR35" s="61"/>
+      <c r="BR35" s="61">
+        <v>0.44513888888888892</v>
+      </c>
       <c r="BS35" s="62"/>
       <c r="BT35" s="62"/>
       <c r="BU35" s="63"/>
-      <c r="BV35" s="61"/>
+      <c r="BV35" s="61">
+        <v>0.4513888888888889</v>
+      </c>
       <c r="BW35" s="62"/>
       <c r="BX35" s="62"/>
       <c r="BY35" s="63"/>
-      <c r="BZ35" s="61"/>
+      <c r="BZ35" s="61">
+        <v>0.47916666666666669</v>
+      </c>
       <c r="CA35" s="62"/>
       <c r="CB35" s="62"/>
       <c r="CC35" s="63"/>
-      <c r="CD35" s="61"/>
+      <c r="CD35" s="61">
+        <v>0.48472222222222222</v>
+      </c>
       <c r="CE35" s="62"/>
       <c r="CF35" s="62"/>
       <c r="CG35" s="63"/>
-      <c r="CH35" s="61"/>
+      <c r="CH35" s="61">
+        <v>0.48958333333333331</v>
+      </c>
       <c r="CI35" s="62"/>
       <c r="CJ35" s="62"/>
       <c r="CK35" s="63"/>
@@ -8773,130 +8793,130 @@
       <c r="A36" s="49" t="s">
         <v>438</v>
       </c>
-      <c r="B36" s="65" t="s">
+      <c r="B36" s="64" t="s">
         <v>481</v>
       </c>
-      <c r="C36" s="65"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65" t="s">
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="64" t="s">
         <v>482</v>
       </c>
-      <c r="G36" s="65"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="65"/>
-      <c r="J36" s="64" t="s">
+      <c r="G36" s="64"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="65" t="s">
         <v>484</v>
       </c>
-      <c r="K36" s="65"/>
-      <c r="L36" s="65"/>
-      <c r="M36" s="65"/>
-      <c r="N36" s="64" t="s">
+      <c r="K36" s="64"/>
+      <c r="L36" s="64"/>
+      <c r="M36" s="64"/>
+      <c r="N36" s="65" t="s">
         <v>486</v>
       </c>
-      <c r="O36" s="65"/>
-      <c r="P36" s="65"/>
-      <c r="Q36" s="65"/>
-      <c r="R36" s="65" t="s">
+      <c r="O36" s="64"/>
+      <c r="P36" s="64"/>
+      <c r="Q36" s="64"/>
+      <c r="R36" s="64" t="s">
         <v>490</v>
       </c>
-      <c r="S36" s="65"/>
-      <c r="T36" s="65"/>
-      <c r="U36" s="65"/>
-      <c r="V36" s="64" t="s">
+      <c r="S36" s="64"/>
+      <c r="T36" s="64"/>
+      <c r="U36" s="64"/>
+      <c r="V36" s="65" t="s">
         <v>493</v>
       </c>
-      <c r="W36" s="65"/>
-      <c r="X36" s="65"/>
-      <c r="Y36" s="65"/>
-      <c r="Z36" s="64" t="s">
+      <c r="W36" s="64"/>
+      <c r="X36" s="64"/>
+      <c r="Y36" s="64"/>
+      <c r="Z36" s="65" t="s">
         <v>494</v>
       </c>
-      <c r="AA36" s="65"/>
-      <c r="AB36" s="65"/>
-      <c r="AC36" s="65"/>
-      <c r="AD36" s="64" t="s">
+      <c r="AA36" s="64"/>
+      <c r="AB36" s="64"/>
+      <c r="AC36" s="64"/>
+      <c r="AD36" s="65" t="s">
         <v>495</v>
       </c>
-      <c r="AE36" s="65"/>
-      <c r="AF36" s="65"/>
-      <c r="AG36" s="65"/>
-      <c r="AH36" s="65" t="s">
+      <c r="AE36" s="64"/>
+      <c r="AF36" s="64"/>
+      <c r="AG36" s="64"/>
+      <c r="AH36" s="64" t="s">
         <v>496</v>
       </c>
-      <c r="AI36" s="65"/>
-      <c r="AJ36" s="65"/>
-      <c r="AK36" s="65"/>
-      <c r="AL36" s="64" t="s">
+      <c r="AI36" s="64"/>
+      <c r="AJ36" s="64"/>
+      <c r="AK36" s="64"/>
+      <c r="AL36" s="65" t="s">
         <v>497</v>
       </c>
-      <c r="AM36" s="65"/>
-      <c r="AN36" s="65"/>
-      <c r="AO36" s="65"/>
-      <c r="AP36" s="64" t="s">
+      <c r="AM36" s="64"/>
+      <c r="AN36" s="64"/>
+      <c r="AO36" s="64"/>
+      <c r="AP36" s="65" t="s">
         <v>497</v>
       </c>
-      <c r="AQ36" s="65"/>
-      <c r="AR36" s="65"/>
-      <c r="AS36" s="65"/>
-      <c r="AT36" s="65"/>
-      <c r="AU36" s="65"/>
-      <c r="AV36" s="65"/>
-      <c r="AW36" s="65"/>
-      <c r="AX36" s="65"/>
-      <c r="AY36" s="65"/>
-      <c r="AZ36" s="65"/>
-      <c r="BA36" s="65"/>
-      <c r="BB36" s="65"/>
-      <c r="BC36" s="65"/>
-      <c r="BD36" s="65"/>
-      <c r="BE36" s="65"/>
-      <c r="BF36" s="65"/>
-      <c r="BG36" s="65"/>
-      <c r="BH36" s="65"/>
-      <c r="BI36" s="65"/>
-      <c r="BJ36" s="65"/>
-      <c r="BK36" s="65"/>
-      <c r="BL36" s="65"/>
-      <c r="BM36" s="65"/>
-      <c r="BN36" s="65" t="s">
+      <c r="AQ36" s="64"/>
+      <c r="AR36" s="64"/>
+      <c r="AS36" s="64"/>
+      <c r="AT36" s="64"/>
+      <c r="AU36" s="64"/>
+      <c r="AV36" s="64"/>
+      <c r="AW36" s="64"/>
+      <c r="AX36" s="64"/>
+      <c r="AY36" s="64"/>
+      <c r="AZ36" s="64"/>
+      <c r="BA36" s="64"/>
+      <c r="BB36" s="64"/>
+      <c r="BC36" s="64"/>
+      <c r="BD36" s="64"/>
+      <c r="BE36" s="64"/>
+      <c r="BF36" s="64"/>
+      <c r="BG36" s="64"/>
+      <c r="BH36" s="64"/>
+      <c r="BI36" s="64"/>
+      <c r="BJ36" s="64"/>
+      <c r="BK36" s="64"/>
+      <c r="BL36" s="64"/>
+      <c r="BM36" s="64"/>
+      <c r="BN36" s="64" t="s">
         <v>499</v>
       </c>
-      <c r="BO36" s="65"/>
-      <c r="BP36" s="65"/>
-      <c r="BQ36" s="65"/>
-      <c r="BR36" s="65" t="s">
+      <c r="BO36" s="64"/>
+      <c r="BP36" s="64"/>
+      <c r="BQ36" s="64"/>
+      <c r="BR36" s="64" t="s">
         <v>498</v>
       </c>
-      <c r="BS36" s="65"/>
-      <c r="BT36" s="65"/>
-      <c r="BU36" s="65"/>
-      <c r="BV36" s="64" t="s">
+      <c r="BS36" s="64"/>
+      <c r="BT36" s="64"/>
+      <c r="BU36" s="64"/>
+      <c r="BV36" s="65" t="s">
         <v>500</v>
       </c>
-      <c r="BW36" s="65"/>
-      <c r="BX36" s="65"/>
-      <c r="BY36" s="65"/>
-      <c r="BZ36" s="65"/>
-      <c r="CA36" s="65"/>
-      <c r="CB36" s="65"/>
-      <c r="CC36" s="65"/>
-      <c r="CD36" s="65"/>
-      <c r="CE36" s="65"/>
-      <c r="CF36" s="65"/>
-      <c r="CG36" s="65"/>
-      <c r="CH36" s="65"/>
-      <c r="CI36" s="65"/>
-      <c r="CJ36" s="65"/>
-      <c r="CK36" s="65"/>
-      <c r="CL36" s="65"/>
-      <c r="CM36" s="65"/>
-      <c r="CN36" s="65"/>
-      <c r="CO36" s="65"/>
-      <c r="CP36" s="65"/>
-      <c r="CQ36" s="65"/>
-      <c r="CR36" s="65"/>
-      <c r="CS36" s="65"/>
+      <c r="BW36" s="64"/>
+      <c r="BX36" s="64"/>
+      <c r="BY36" s="64"/>
+      <c r="BZ36" s="64"/>
+      <c r="CA36" s="64"/>
+      <c r="CB36" s="64"/>
+      <c r="CC36" s="64"/>
+      <c r="CD36" s="64"/>
+      <c r="CE36" s="64"/>
+      <c r="CF36" s="64"/>
+      <c r="CG36" s="64"/>
+      <c r="CH36" s="64"/>
+      <c r="CI36" s="64"/>
+      <c r="CJ36" s="64"/>
+      <c r="CK36" s="64"/>
+      <c r="CL36" s="64"/>
+      <c r="CM36" s="64"/>
+      <c r="CN36" s="64"/>
+      <c r="CO36" s="64"/>
+      <c r="CP36" s="64"/>
+      <c r="CQ36" s="64"/>
+      <c r="CR36" s="64"/>
+      <c r="CS36" s="64"/>
     </row>
     <row r="37" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A37" s="49" t="s">
@@ -9405,25 +9425,45 @@
       <c r="BS38" s="49">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="BT38" s="49"/>
+      <c r="BT38" s="49">
+        <v>372.2</v>
+      </c>
       <c r="BU38" s="50" t="s">
         <v>440</v>
       </c>
-      <c r="BV38" s="49"/>
-      <c r="BW38" s="49"/>
-      <c r="BX38" s="49"/>
+      <c r="BV38" s="49">
+        <v>10.84</v>
+      </c>
+      <c r="BW38" s="49">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="BX38" s="49">
+        <v>434.7</v>
+      </c>
       <c r="BY38" s="50" t="s">
         <v>440</v>
       </c>
-      <c r="BZ38" s="49"/>
-      <c r="CA38" s="49"/>
-      <c r="CB38" s="49"/>
+      <c r="BZ38" s="49">
+        <v>10.77</v>
+      </c>
+      <c r="CA38" s="49">
+        <v>0.09</v>
+      </c>
+      <c r="CB38" s="49">
+        <v>440</v>
+      </c>
       <c r="CC38" s="50" t="s">
         <v>440</v>
       </c>
-      <c r="CD38" s="49"/>
-      <c r="CE38" s="49"/>
-      <c r="CF38" s="49"/>
+      <c r="CD38" s="49">
+        <v>10.77</v>
+      </c>
+      <c r="CE38" s="49">
+        <v>0.09</v>
+      </c>
+      <c r="CF38" s="49">
+        <v>497.8</v>
+      </c>
       <c r="CG38" s="50" t="s">
         <v>440</v>
       </c>
@@ -9660,22 +9700,48 @@
       <c r="BS39" s="49">
         <v>0.10100000000000001</v>
       </c>
-      <c r="BT39" s="49"/>
+      <c r="BT39" s="49">
+        <v>269.3</v>
+      </c>
       <c r="BU39" s="49">
         <v>10.5</v>
       </c>
-      <c r="BV39" s="49"/>
-      <c r="BW39" s="49"/>
-      <c r="BX39" s="49"/>
-      <c r="BY39" s="49"/>
-      <c r="BZ39" s="49"/>
-      <c r="CA39" s="49"/>
-      <c r="CB39" s="49"/>
-      <c r="CC39" s="49"/>
-      <c r="CD39" s="49"/>
-      <c r="CE39" s="49"/>
-      <c r="CF39" s="49"/>
-      <c r="CG39" s="49"/>
+      <c r="BV39" s="49">
+        <v>10.84</v>
+      </c>
+      <c r="BW39" s="49">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="BX39" s="49">
+        <v>334.1</v>
+      </c>
+      <c r="BY39" s="49">
+        <v>10.9</v>
+      </c>
+      <c r="BZ39" s="49">
+        <v>10.77</v>
+      </c>
+      <c r="CA39" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="CB39" s="49">
+        <v>431.8</v>
+      </c>
+      <c r="CC39" s="49">
+        <v>11.1</v>
+      </c>
+      <c r="CD39" s="49">
+        <v>10.75</v>
+      </c>
+      <c r="CE39" s="49">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="CF39" s="49">
+        <v>489.2</v>
+      </c>
+      <c r="CG39" s="49">
+        <v>11.8</v>
+      </c>
       <c r="CH39" s="49"/>
       <c r="CI39" s="49"/>
       <c r="CJ39" s="49"/>
@@ -9903,22 +9969,48 @@
       <c r="BS40" s="49">
         <v>0.11</v>
       </c>
-      <c r="BT40" s="49"/>
+      <c r="BT40" s="49">
+        <v>271.7</v>
+      </c>
       <c r="BU40" s="49">
         <v>65.5</v>
       </c>
-      <c r="BV40" s="49"/>
-      <c r="BW40" s="49"/>
-      <c r="BX40" s="49"/>
-      <c r="BY40" s="49"/>
-      <c r="BZ40" s="49"/>
-      <c r="CA40" s="49"/>
-      <c r="CB40" s="49"/>
-      <c r="CC40" s="49"/>
-      <c r="CD40" s="49"/>
-      <c r="CE40" s="49"/>
-      <c r="CF40" s="49"/>
-      <c r="CG40" s="49"/>
+      <c r="BV40" s="49">
+        <v>10.83</v>
+      </c>
+      <c r="BW40" s="49">
+        <v>0.112</v>
+      </c>
+      <c r="BX40" s="49">
+        <v>446.3</v>
+      </c>
+      <c r="BY40" s="49">
+        <v>62.3</v>
+      </c>
+      <c r="BZ40" s="49">
+        <v>10.78</v>
+      </c>
+      <c r="CA40" s="49">
+        <v>0.108</v>
+      </c>
+      <c r="CB40" s="49">
+        <v>454.6</v>
+      </c>
+      <c r="CC40" s="49">
+        <v>61.6</v>
+      </c>
+      <c r="CD40" s="49">
+        <v>10.74</v>
+      </c>
+      <c r="CE40" s="49">
+        <v>0.107</v>
+      </c>
+      <c r="CF40" s="49">
+        <v>484.6</v>
+      </c>
+      <c r="CG40" s="49">
+        <v>58.5</v>
+      </c>
       <c r="CH40" s="49"/>
       <c r="CI40" s="49"/>
       <c r="CJ40" s="49"/>
@@ -10111,19 +10203,39 @@
       <c r="BS41" s="49">
         <v>0.121</v>
       </c>
-      <c r="BT41" s="49"/>
+      <c r="BT41" s="49">
+        <v>372.6</v>
+      </c>
       <c r="BU41" s="49"/>
-      <c r="BV41" s="49"/>
-      <c r="BW41" s="49"/>
-      <c r="BX41" s="49"/>
+      <c r="BV41" s="49">
+        <v>10.83</v>
+      </c>
+      <c r="BW41" s="49">
+        <v>0.122</v>
+      </c>
+      <c r="BX41" s="49">
+        <v>445.7</v>
+      </c>
       <c r="BY41" s="49"/>
-      <c r="BZ41" s="49"/>
-      <c r="CA41" s="49"/>
-      <c r="CB41" s="49"/>
+      <c r="BZ41" s="49">
+        <v>10.8</v>
+      </c>
+      <c r="CA41" s="49">
+        <v>0.122</v>
+      </c>
+      <c r="CB41" s="49">
+        <v>483.8</v>
+      </c>
       <c r="CC41" s="49"/>
-      <c r="CD41" s="49"/>
-      <c r="CE41" s="49"/>
-      <c r="CF41" s="49"/>
+      <c r="CD41" s="49">
+        <v>10.74</v>
+      </c>
+      <c r="CE41" s="49">
+        <v>0.121</v>
+      </c>
+      <c r="CF41" s="49">
+        <v>483.7</v>
+      </c>
       <c r="CG41" s="49"/>
       <c r="CH41" s="49"/>
       <c r="CI41" s="49"/>
@@ -10317,19 +10429,39 @@
       <c r="BS42" s="49">
         <v>0.13800000000000001</v>
       </c>
-      <c r="BT42" s="49"/>
+      <c r="BT42" s="49">
+        <v>375.9</v>
+      </c>
       <c r="BU42" s="49"/>
-      <c r="BV42" s="49"/>
-      <c r="BW42" s="49"/>
-      <c r="BX42" s="49"/>
+      <c r="BV42" s="49">
+        <v>10.82</v>
+      </c>
+      <c r="BW42" s="49">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="BX42" s="49">
+        <v>444.4</v>
+      </c>
       <c r="BY42" s="49"/>
-      <c r="BZ42" s="49"/>
-      <c r="CA42" s="49"/>
-      <c r="CB42" s="49"/>
+      <c r="BZ42" s="49">
+        <v>10.8</v>
+      </c>
+      <c r="CA42" s="49">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="CB42" s="49">
+        <v>502.1</v>
+      </c>
       <c r="CC42" s="49"/>
-      <c r="CD42" s="49"/>
-      <c r="CE42" s="49"/>
-      <c r="CF42" s="49"/>
+      <c r="CD42" s="49">
+        <v>10.74</v>
+      </c>
+      <c r="CE42" s="49">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="CF42" s="49">
+        <v>499.4</v>
+      </c>
       <c r="CG42" s="49"/>
       <c r="CH42" s="49"/>
       <c r="CI42" s="49"/>
@@ -10558,25 +10690,45 @@
       <c r="BS43" s="49">
         <v>0.16200000000000001</v>
       </c>
-      <c r="BT43" s="49"/>
+      <c r="BT43" s="49">
+        <v>378.9</v>
+      </c>
       <c r="BU43" s="50" t="s">
         <v>441</v>
       </c>
-      <c r="BV43" s="49"/>
-      <c r="BW43" s="49"/>
-      <c r="BX43" s="49"/>
+      <c r="BV43" s="49">
+        <v>10.81</v>
+      </c>
+      <c r="BW43" s="49">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="BX43" s="49">
+        <v>449.3</v>
+      </c>
       <c r="BY43" s="50" t="s">
         <v>441</v>
       </c>
-      <c r="BZ43" s="49"/>
-      <c r="CA43" s="49"/>
-      <c r="CB43" s="49"/>
+      <c r="BZ43" s="49">
+        <v>10.79</v>
+      </c>
+      <c r="CA43" s="49">
+        <v>0.161</v>
+      </c>
+      <c r="CB43" s="49">
+        <v>504.1</v>
+      </c>
       <c r="CC43" s="50" t="s">
         <v>441</v>
       </c>
-      <c r="CD43" s="49"/>
-      <c r="CE43" s="49"/>
-      <c r="CF43" s="49"/>
+      <c r="CD43" s="49">
+        <v>10.74</v>
+      </c>
+      <c r="CE43" s="49">
+        <v>0.161</v>
+      </c>
+      <c r="CF43" s="49">
+        <v>511.7</v>
+      </c>
       <c r="CG43" s="50" t="s">
         <v>441</v>
       </c>
@@ -10813,22 +10965,48 @@
       <c r="BS44" s="49">
         <v>0.189</v>
       </c>
-      <c r="BT44" s="49"/>
+      <c r="BT44" s="49">
+        <v>387.3</v>
+      </c>
       <c r="BU44" s="49">
         <v>10.6</v>
       </c>
-      <c r="BV44" s="49"/>
-      <c r="BW44" s="49"/>
-      <c r="BX44" s="49"/>
-      <c r="BY44" s="49"/>
-      <c r="BZ44" s="49"/>
-      <c r="CA44" s="49"/>
-      <c r="CB44" s="49"/>
-      <c r="CC44" s="49"/>
-      <c r="CD44" s="49"/>
-      <c r="CE44" s="49"/>
-      <c r="CF44" s="49"/>
-      <c r="CG44" s="49"/>
+      <c r="BV44" s="49">
+        <v>10.79</v>
+      </c>
+      <c r="BW44" s="49">
+        <v>0.19</v>
+      </c>
+      <c r="BX44" s="49">
+        <v>449.1</v>
+      </c>
+      <c r="BY44" s="49">
+        <v>11</v>
+      </c>
+      <c r="BZ44" s="49">
+        <v>10.78</v>
+      </c>
+      <c r="CA44" s="49">
+        <v>0.188</v>
+      </c>
+      <c r="CB44" s="49">
+        <v>499.1</v>
+      </c>
+      <c r="CC44" s="49">
+        <v>11.3</v>
+      </c>
+      <c r="CD44" s="49">
+        <v>10.73</v>
+      </c>
+      <c r="CE44" s="49">
+        <v>0.189</v>
+      </c>
+      <c r="CF44" s="49">
+        <v>509.7</v>
+      </c>
+      <c r="CG44" s="49">
+        <v>11.9</v>
+      </c>
       <c r="CH44" s="49"/>
       <c r="CI44" s="49"/>
       <c r="CJ44" s="49"/>
@@ -11056,22 +11234,48 @@
       <c r="BS45" s="49">
         <v>0.22700000000000001</v>
       </c>
-      <c r="BT45" s="49"/>
+      <c r="BT45" s="49">
+        <v>392</v>
+      </c>
       <c r="BU45" s="49">
         <v>61.5</v>
       </c>
-      <c r="BV45" s="49"/>
-      <c r="BW45" s="49"/>
-      <c r="BX45" s="49"/>
-      <c r="BY45" s="49"/>
-      <c r="BZ45" s="49"/>
-      <c r="CA45" s="49"/>
-      <c r="CB45" s="49"/>
-      <c r="CC45" s="49"/>
-      <c r="CD45" s="49"/>
-      <c r="CE45" s="49"/>
-      <c r="CF45" s="49"/>
-      <c r="CG45" s="49"/>
+      <c r="BV45" s="49">
+        <v>10.78</v>
+      </c>
+      <c r="BW45" s="49">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="BX45" s="49">
+        <v>444.6</v>
+      </c>
+      <c r="BY45" s="49">
+        <v>63</v>
+      </c>
+      <c r="BZ45" s="49">
+        <v>10.77</v>
+      </c>
+      <c r="CA45" s="49">
+        <v>0.222</v>
+      </c>
+      <c r="CB45" s="49">
+        <v>502.2</v>
+      </c>
+      <c r="CC45" s="49">
+        <v>62.2</v>
+      </c>
+      <c r="CD45" s="49">
+        <v>10.7</v>
+      </c>
+      <c r="CE45" s="49">
+        <v>0.222</v>
+      </c>
+      <c r="CF45" s="49">
+        <v>495.8</v>
+      </c>
+      <c r="CG45" s="49">
+        <v>58.6</v>
+      </c>
       <c r="CH45" s="49"/>
       <c r="CI45" s="49"/>
       <c r="CJ45" s="49"/>
@@ -11265,19 +11469,39 @@
       <c r="BS46" s="49">
         <v>0.29699999999999999</v>
       </c>
-      <c r="BT46" s="49"/>
+      <c r="BT46" s="49">
+        <v>395.7</v>
+      </c>
       <c r="BU46" s="49"/>
-      <c r="BV46" s="49"/>
-      <c r="BW46" s="49"/>
-      <c r="BX46" s="49"/>
+      <c r="BV46" s="49">
+        <v>10.75</v>
+      </c>
+      <c r="BW46" s="49">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="BX46" s="49">
+        <v>443.1</v>
+      </c>
       <c r="BY46" s="49"/>
-      <c r="BZ46" s="49"/>
-      <c r="CA46" s="49"/>
-      <c r="CB46" s="49"/>
+      <c r="BZ46" s="49">
+        <v>10.74</v>
+      </c>
+      <c r="CA46" s="49">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="CB46" s="49">
+        <v>509</v>
+      </c>
       <c r="CC46" s="49"/>
-      <c r="CD46" s="49"/>
-      <c r="CE46" s="49"/>
-      <c r="CF46" s="49"/>
+      <c r="CD46" s="49">
+        <v>10.67</v>
+      </c>
+      <c r="CE46" s="49">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="CF46" s="49">
+        <v>491.6</v>
+      </c>
       <c r="CG46" s="49"/>
       <c r="CH46" s="49"/>
       <c r="CI46" s="49"/>
@@ -11472,19 +11696,39 @@
       <c r="BS47" s="49">
         <v>0.434</v>
       </c>
-      <c r="BT47" s="49"/>
+      <c r="BT47" s="49">
+        <v>398.2</v>
+      </c>
       <c r="BU47" s="49"/>
-      <c r="BV47" s="49"/>
-      <c r="BW47" s="49"/>
-      <c r="BX47" s="49"/>
+      <c r="BV47" s="49">
+        <v>10.7</v>
+      </c>
+      <c r="BW47" s="49">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="BX47" s="49">
+        <v>445.1</v>
+      </c>
       <c r="BY47" s="49"/>
-      <c r="BZ47" s="49"/>
-      <c r="CA47" s="49"/>
-      <c r="CB47" s="49"/>
+      <c r="BZ47" s="49">
+        <v>10.69</v>
+      </c>
+      <c r="CA47" s="49">
+        <v>0.439</v>
+      </c>
+      <c r="CB47" s="49">
+        <v>507.8</v>
+      </c>
       <c r="CC47" s="49"/>
-      <c r="CD47" s="49"/>
-      <c r="CE47" s="49"/>
-      <c r="CF47" s="49"/>
+      <c r="CD47" s="49">
+        <v>10.64</v>
+      </c>
+      <c r="CE47" s="49">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="CF47" s="49">
+        <v>507.6</v>
+      </c>
       <c r="CG47" s="49"/>
       <c r="CH47" s="49"/>
       <c r="CI47" s="49"/>
@@ -11713,25 +11957,45 @@
       <c r="BS48" s="49">
         <v>0.68700000000000006</v>
       </c>
-      <c r="BT48" s="49"/>
+      <c r="BT48" s="49">
+        <v>402.4</v>
+      </c>
       <c r="BU48" s="50" t="s">
         <v>442</v>
       </c>
-      <c r="BV48" s="49"/>
-      <c r="BW48" s="49"/>
-      <c r="BX48" s="49"/>
+      <c r="BV48" s="49">
+        <v>10.6</v>
+      </c>
+      <c r="BW48" s="49">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="BX48" s="49">
+        <v>447</v>
+      </c>
       <c r="BY48" s="50" t="s">
         <v>442</v>
       </c>
-      <c r="BZ48" s="49"/>
-      <c r="CA48" s="49"/>
-      <c r="CB48" s="49"/>
+      <c r="BZ48" s="49">
+        <v>10.6</v>
+      </c>
+      <c r="CA48" s="49">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="CB48" s="49">
+        <v>488.9</v>
+      </c>
       <c r="CC48" s="50" t="s">
         <v>442</v>
       </c>
-      <c r="CD48" s="49"/>
-      <c r="CE48" s="49"/>
-      <c r="CF48" s="49"/>
+      <c r="CD48" s="49">
+        <v>10.55</v>
+      </c>
+      <c r="CE48" s="49">
+        <v>0.68</v>
+      </c>
+      <c r="CF48" s="49">
+        <v>516.5</v>
+      </c>
       <c r="CG48" s="50" t="s">
         <v>442</v>
       </c>
@@ -11968,22 +12232,48 @@
       <c r="BS49" s="49">
         <v>1.431</v>
       </c>
-      <c r="BT49" s="49"/>
+      <c r="BT49" s="49">
+        <v>400.9</v>
+      </c>
       <c r="BU49" s="49">
         <v>10.6</v>
       </c>
-      <c r="BV49" s="49"/>
-      <c r="BW49" s="49"/>
-      <c r="BX49" s="49"/>
-      <c r="BY49" s="49"/>
-      <c r="BZ49" s="49"/>
-      <c r="CA49" s="49"/>
-      <c r="CB49" s="49"/>
-      <c r="CC49" s="49"/>
-      <c r="CD49" s="49"/>
-      <c r="CE49" s="49"/>
-      <c r="CF49" s="49"/>
-      <c r="CG49" s="49"/>
+      <c r="BV49" s="49">
+        <v>10.1</v>
+      </c>
+      <c r="BW49" s="49">
+        <v>1.448</v>
+      </c>
+      <c r="BX49" s="49">
+        <v>445.7</v>
+      </c>
+      <c r="BY49" s="49">
+        <v>11</v>
+      </c>
+      <c r="BZ49" s="49">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="CA49" s="49">
+        <v>1.4370000000000001</v>
+      </c>
+      <c r="CB49" s="49">
+        <v>491.6</v>
+      </c>
+      <c r="CC49" s="49">
+        <v>11.4</v>
+      </c>
+      <c r="CD49" s="49">
+        <v>10.17</v>
+      </c>
+      <c r="CE49" s="49">
+        <v>1.4379999999999999</v>
+      </c>
+      <c r="CF49" s="49">
+        <v>509.8</v>
+      </c>
+      <c r="CG49" s="49">
+        <v>12</v>
+      </c>
       <c r="CH49" s="49"/>
       <c r="CI49" s="49"/>
       <c r="CJ49" s="49"/>
@@ -12211,22 +12501,48 @@
       <c r="BS50" s="49">
         <v>1.538</v>
       </c>
-      <c r="BT50" s="49"/>
+      <c r="BT50" s="49">
+        <v>398.8</v>
+      </c>
       <c r="BU50" s="49">
         <v>62.5</v>
       </c>
-      <c r="BV50" s="49"/>
-      <c r="BW50" s="49"/>
-      <c r="BX50" s="49"/>
-      <c r="BY50" s="49"/>
-      <c r="BZ50" s="49"/>
-      <c r="CA50" s="49"/>
-      <c r="CB50" s="49"/>
-      <c r="CC50" s="49"/>
-      <c r="CD50" s="49"/>
-      <c r="CE50" s="49"/>
-      <c r="CF50" s="49"/>
-      <c r="CG50" s="49"/>
+      <c r="BV50" s="49">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="BW50" s="49">
+        <v>1.585</v>
+      </c>
+      <c r="BX50" s="49">
+        <v>437.6</v>
+      </c>
+      <c r="BY50" s="49">
+        <v>62.7</v>
+      </c>
+      <c r="BZ50" s="49">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="CA50" s="49">
+        <v>1.6559999999999999</v>
+      </c>
+      <c r="CB50" s="49">
+        <v>506.4</v>
+      </c>
+      <c r="CC50" s="49">
+        <v>60.8</v>
+      </c>
+      <c r="CD50" s="49">
+        <v>9.94</v>
+      </c>
+      <c r="CE50" s="49">
+        <v>1.637</v>
+      </c>
+      <c r="CF50" s="49">
+        <v>491.4</v>
+      </c>
+      <c r="CG50" s="49">
+        <v>57</v>
+      </c>
       <c r="CH50" s="49"/>
       <c r="CI50" s="49"/>
       <c r="CJ50" s="49"/>
@@ -12420,19 +12736,39 @@
       <c r="BS51" s="49">
         <v>1.5489999999999999</v>
       </c>
-      <c r="BT51" s="49"/>
+      <c r="BT51" s="49">
+        <v>407.4</v>
+      </c>
       <c r="BU51" s="49"/>
-      <c r="BV51" s="49"/>
-      <c r="BW51" s="49"/>
-      <c r="BX51" s="49"/>
+      <c r="BV51" s="49">
+        <v>8.01</v>
+      </c>
+      <c r="BW51" s="49">
+        <v>1.607</v>
+      </c>
+      <c r="BX51" s="49">
+        <v>440.1</v>
+      </c>
       <c r="BY51" s="49"/>
-      <c r="BZ51" s="49"/>
-      <c r="CA51" s="49"/>
-      <c r="CB51" s="49"/>
+      <c r="BZ51" s="49">
+        <v>8.9</v>
+      </c>
+      <c r="CA51" s="49">
+        <v>1.8149999999999999</v>
+      </c>
+      <c r="CB51" s="49">
+        <v>499.6</v>
+      </c>
       <c r="CC51" s="49"/>
-      <c r="CD51" s="49"/>
-      <c r="CE51" s="49"/>
-      <c r="CF51" s="49"/>
+      <c r="CD51" s="49">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="CE51" s="49">
+        <v>1.748</v>
+      </c>
+      <c r="CF51" s="49">
+        <v>495.9</v>
+      </c>
       <c r="CG51" s="49"/>
       <c r="CH51" s="49"/>
       <c r="CI51" s="49"/>
@@ -12627,19 +12963,39 @@
       <c r="BS52" s="49">
         <v>1.556</v>
       </c>
-      <c r="BT52" s="49"/>
+      <c r="BT52" s="49">
+        <v>408.6</v>
+      </c>
       <c r="BU52" s="49"/>
-      <c r="BV52" s="49"/>
-      <c r="BW52" s="49"/>
-      <c r="BX52" s="49"/>
+      <c r="BV52" s="49">
+        <v>6.33</v>
+      </c>
+      <c r="BW52" s="49">
+        <v>1.617</v>
+      </c>
+      <c r="BX52" s="49">
+        <v>440.4</v>
+      </c>
       <c r="BY52" s="49"/>
-      <c r="BZ52" s="49"/>
-      <c r="CA52" s="49"/>
-      <c r="CB52" s="49"/>
+      <c r="BZ52" s="49">
+        <v>7.06</v>
+      </c>
+      <c r="CA52" s="49">
+        <v>1.833</v>
+      </c>
+      <c r="CB52" s="49">
+        <v>499.9</v>
+      </c>
       <c r="CC52" s="49"/>
-      <c r="CD52" s="49"/>
-      <c r="CE52" s="49"/>
-      <c r="CF52" s="49"/>
+      <c r="CD52" s="49">
+        <v>6.78</v>
+      </c>
+      <c r="CE52" s="49">
+        <v>1.746</v>
+      </c>
+      <c r="CF52" s="49">
+        <v>494.3</v>
+      </c>
       <c r="CG52" s="49"/>
       <c r="CH52" s="49"/>
       <c r="CI52" s="49"/>
@@ -12868,25 +13224,45 @@
       <c r="BS53" s="49">
         <v>1.5609999999999999</v>
       </c>
-      <c r="BT53" s="49"/>
+      <c r="BT53" s="49">
+        <v>411.9</v>
+      </c>
       <c r="BU53" s="50" t="s">
         <v>443</v>
       </c>
-      <c r="BV53" s="49"/>
-      <c r="BW53" s="49"/>
-      <c r="BX53" s="49"/>
+      <c r="BV53" s="49">
+        <v>4.96</v>
+      </c>
+      <c r="BW53" s="49">
+        <v>1.631</v>
+      </c>
+      <c r="BX53" s="49">
+        <v>454.7</v>
+      </c>
       <c r="BY53" s="50" t="s">
         <v>443</v>
       </c>
-      <c r="BZ53" s="49"/>
-      <c r="CA53" s="49"/>
-      <c r="CB53" s="49"/>
+      <c r="BZ53" s="51">
+        <v>5.4</v>
+      </c>
+      <c r="CA53" s="49">
+        <v>1.8360000000000001</v>
+      </c>
+      <c r="CB53" s="49">
+        <v>485.3</v>
+      </c>
       <c r="CC53" s="50" t="s">
         <v>443</v>
       </c>
-      <c r="CD53" s="49"/>
-      <c r="CE53" s="49"/>
-      <c r="CF53" s="49"/>
+      <c r="CD53" s="49">
+        <v>5.14</v>
+      </c>
+      <c r="CE53" s="49">
+        <v>1.7450000000000001</v>
+      </c>
+      <c r="CF53" s="49">
+        <v>498.1</v>
+      </c>
       <c r="CG53" s="50" t="s">
         <v>443</v>
       </c>
@@ -13123,22 +13499,48 @@
       <c r="BS54" s="49">
         <v>1.5669999999999999</v>
       </c>
-      <c r="BT54" s="49"/>
+      <c r="BT54" s="49">
+        <v>416.5</v>
+      </c>
       <c r="BU54" s="49">
         <v>10.7</v>
       </c>
-      <c r="BV54" s="51"/>
-      <c r="BW54" s="51"/>
-      <c r="BX54" s="49"/>
-      <c r="BY54" s="49"/>
-      <c r="BZ54" s="51"/>
-      <c r="CA54" s="51"/>
-      <c r="CB54" s="49"/>
-      <c r="CC54" s="49"/>
-      <c r="CD54" s="51"/>
-      <c r="CE54" s="51"/>
-      <c r="CF54" s="49"/>
-      <c r="CG54" s="49"/>
+      <c r="BV54" s="51">
+        <v>3.069</v>
+      </c>
+      <c r="BW54" s="51">
+        <v>1.645</v>
+      </c>
+      <c r="BX54" s="49">
+        <v>445</v>
+      </c>
+      <c r="BY54" s="49">
+        <v>11.1</v>
+      </c>
+      <c r="BZ54" s="49">
+        <v>3.2210000000000001</v>
+      </c>
+      <c r="CA54" s="51">
+        <v>1.8129999999999999</v>
+      </c>
+      <c r="CB54" s="49">
+        <v>479.4</v>
+      </c>
+      <c r="CC54" s="49">
+        <v>11.6</v>
+      </c>
+      <c r="CD54" s="51">
+        <v>3.0939999999999999</v>
+      </c>
+      <c r="CE54" s="51">
+        <v>1.7410000000000001</v>
+      </c>
+      <c r="CF54" s="49">
+        <v>492.3</v>
+      </c>
+      <c r="CG54" s="49">
+        <v>12</v>
+      </c>
       <c r="CH54" s="51"/>
       <c r="CI54" s="51"/>
       <c r="CJ54" s="49"/>
@@ -13366,22 +13768,48 @@
       <c r="BS55" s="49">
         <v>1.5780000000000001</v>
       </c>
-      <c r="BT55" s="49"/>
+      <c r="BT55" s="49">
+        <v>414.3</v>
+      </c>
       <c r="BU55" s="49">
         <v>62.3</v>
       </c>
-      <c r="BV55" s="49"/>
-      <c r="BW55" s="49"/>
-      <c r="BX55" s="49"/>
-      <c r="BY55" s="49"/>
-      <c r="BZ55" s="49"/>
-      <c r="CA55" s="49"/>
-      <c r="CB55" s="49"/>
-      <c r="CC55" s="49"/>
-      <c r="CD55" s="49"/>
-      <c r="CE55" s="49"/>
-      <c r="CF55" s="49"/>
-      <c r="CG55" s="49"/>
+      <c r="BV55" s="49">
+        <v>1.6419999999999999</v>
+      </c>
+      <c r="BW55" s="49">
+        <v>1.661</v>
+      </c>
+      <c r="BX55" s="49">
+        <v>454</v>
+      </c>
+      <c r="BY55" s="49">
+        <v>63.3</v>
+      </c>
+      <c r="BZ55" s="49">
+        <v>1.718</v>
+      </c>
+      <c r="CA55" s="49">
+        <v>1.8089999999999999</v>
+      </c>
+      <c r="CB55" s="49">
+        <v>471.4</v>
+      </c>
+      <c r="CC55" s="49">
+        <v>58.8</v>
+      </c>
+      <c r="CD55" s="49">
+        <v>1.6240000000000001</v>
+      </c>
+      <c r="CE55" s="49">
+        <v>1.726</v>
+      </c>
+      <c r="CF55" s="49">
+        <v>489.9</v>
+      </c>
+      <c r="CG55" s="49">
+        <v>55.5</v>
+      </c>
       <c r="CH55" s="49"/>
       <c r="CI55" s="49"/>
       <c r="CJ55" s="49"/>
@@ -13575,19 +14003,39 @@
       <c r="BS56" s="60">
         <v>1.5880000000000001</v>
       </c>
-      <c r="BT56" s="49"/>
+      <c r="BT56" s="49">
+        <v>419</v>
+      </c>
       <c r="BU56" s="49"/>
-      <c r="BV56" s="49"/>
-      <c r="BW56" s="49"/>
-      <c r="BX56" s="49"/>
+      <c r="BV56" s="49">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="BW56" s="49">
+        <v>1.665</v>
+      </c>
+      <c r="BX56" s="49">
+        <v>446.6</v>
+      </c>
       <c r="BY56" s="49"/>
-      <c r="BZ56" s="49"/>
-      <c r="CA56" s="49"/>
-      <c r="CB56" s="49"/>
+      <c r="BZ56" s="60">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="CA56" s="49">
+        <v>1.823</v>
+      </c>
+      <c r="CB56" s="49">
+        <v>476.6</v>
+      </c>
       <c r="CC56" s="49"/>
-      <c r="CD56" s="49"/>
-      <c r="CE56" s="49"/>
-      <c r="CF56" s="49"/>
+      <c r="CD56" s="49">
+        <v>0.628</v>
+      </c>
+      <c r="CE56" s="49">
+        <v>1.724</v>
+      </c>
+      <c r="CF56" s="49">
+        <v>485.1</v>
+      </c>
       <c r="CG56" s="49"/>
       <c r="CH56" s="49"/>
       <c r="CI56" s="49"/>
@@ -13603,67 +14051,84 @@
       <c r="CS56" s="49"/>
     </row>
     <row r="57" spans="1:97" x14ac:dyDescent="0.15">
-      <c r="J57" s="72" t="s">
+      <c r="J57" s="67" t="s">
         <v>487</v>
       </c>
-      <c r="K57" s="72"/>
-      <c r="L57" s="72"/>
-      <c r="M57" s="72"/>
+      <c r="K57" s="67"/>
+      <c r="L57" s="67"/>
+      <c r="M57" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="145">
-    <mergeCell ref="CP33:CS33"/>
-    <mergeCell ref="CP34:CS34"/>
-    <mergeCell ref="CP35:CS35"/>
-    <mergeCell ref="CP36:CS36"/>
-    <mergeCell ref="CH33:CK33"/>
-    <mergeCell ref="CH34:CK34"/>
-    <mergeCell ref="CH35:CK35"/>
-    <mergeCell ref="CH36:CK36"/>
-    <mergeCell ref="CL33:CO33"/>
-    <mergeCell ref="CL34:CO34"/>
-    <mergeCell ref="CL35:CO35"/>
-    <mergeCell ref="CL36:CO36"/>
-    <mergeCell ref="BZ33:CC33"/>
-    <mergeCell ref="BZ34:CC34"/>
-    <mergeCell ref="BZ35:CC35"/>
-    <mergeCell ref="BZ36:CC36"/>
-    <mergeCell ref="CD33:CG33"/>
-    <mergeCell ref="CD34:CG34"/>
-    <mergeCell ref="CD35:CG35"/>
-    <mergeCell ref="CD36:CG36"/>
-    <mergeCell ref="BR33:BU33"/>
-    <mergeCell ref="BR34:BU34"/>
-    <mergeCell ref="BR35:BU35"/>
-    <mergeCell ref="BR36:BU36"/>
-    <mergeCell ref="BV33:BY33"/>
-    <mergeCell ref="BV34:BY34"/>
-    <mergeCell ref="BV35:BY35"/>
-    <mergeCell ref="BV36:BY36"/>
-    <mergeCell ref="BN33:BQ33"/>
-    <mergeCell ref="BN34:BQ34"/>
-    <mergeCell ref="BN35:BQ35"/>
-    <mergeCell ref="BN36:BQ36"/>
-    <mergeCell ref="BB33:BE33"/>
-    <mergeCell ref="BB34:BE34"/>
-    <mergeCell ref="BB35:BE35"/>
-    <mergeCell ref="BB36:BE36"/>
-    <mergeCell ref="BF33:BI33"/>
-    <mergeCell ref="BF34:BI34"/>
-    <mergeCell ref="BF35:BI35"/>
-    <mergeCell ref="BF36:BI36"/>
-    <mergeCell ref="AX33:BA33"/>
-    <mergeCell ref="AX34:BA34"/>
-    <mergeCell ref="AX35:BA35"/>
-    <mergeCell ref="AX36:BA36"/>
-    <mergeCell ref="AP33:AS33"/>
-    <mergeCell ref="AP34:AS34"/>
-    <mergeCell ref="AP35:AS35"/>
-    <mergeCell ref="AP36:AS36"/>
-    <mergeCell ref="BJ33:BM33"/>
-    <mergeCell ref="BJ34:BM34"/>
-    <mergeCell ref="BJ35:BM35"/>
-    <mergeCell ref="BJ36:BM36"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Y4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="AP7:AS7"/>
+    <mergeCell ref="AP8:AS8"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="Z7:AC7"/>
+    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="V7:Y7"/>
+    <mergeCell ref="V8:Y8"/>
+    <mergeCell ref="AH5:AK5"/>
+    <mergeCell ref="AH6:AK6"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="V5:Y5"/>
+    <mergeCell ref="V6:Y6"/>
+    <mergeCell ref="AP5:AS5"/>
+    <mergeCell ref="AP6:AS6"/>
+    <mergeCell ref="AD8:AG8"/>
+    <mergeCell ref="AL5:AO5"/>
+    <mergeCell ref="AL6:AO6"/>
+    <mergeCell ref="AL7:AO7"/>
+    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="AL8:AO8"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="R29:U29"/>
+    <mergeCell ref="AH7:AK7"/>
+    <mergeCell ref="AH8:AK8"/>
+    <mergeCell ref="AD5:AG5"/>
+    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="AD7:AG7"/>
+    <mergeCell ref="N35:Q35"/>
+    <mergeCell ref="N36:Q36"/>
+    <mergeCell ref="R33:U33"/>
+    <mergeCell ref="R34:U34"/>
+    <mergeCell ref="R35:U35"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="AD34:AG34"/>
+    <mergeCell ref="AD35:AG35"/>
+    <mergeCell ref="AD36:AG36"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="J36:M36"/>
     <mergeCell ref="R36:U36"/>
     <mergeCell ref="V33:Y33"/>
     <mergeCell ref="V34:Y34"/>
@@ -13688,75 +14153,58 @@
     <mergeCell ref="Z35:AC35"/>
     <mergeCell ref="Z36:AC36"/>
     <mergeCell ref="AD33:AG33"/>
-    <mergeCell ref="AD34:AG34"/>
-    <mergeCell ref="AD35:AG35"/>
-    <mergeCell ref="AD36:AG36"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="J57:M57"/>
-    <mergeCell ref="AL8:AO8"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="R29:U29"/>
-    <mergeCell ref="AH7:AK7"/>
-    <mergeCell ref="AH8:AK8"/>
-    <mergeCell ref="AD5:AG5"/>
-    <mergeCell ref="AD6:AG6"/>
-    <mergeCell ref="AD7:AG7"/>
-    <mergeCell ref="AP7:AS7"/>
-    <mergeCell ref="AP8:AS8"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="R5:U5"/>
-    <mergeCell ref="R6:U6"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="Z7:AC7"/>
-    <mergeCell ref="Z8:AC8"/>
-    <mergeCell ref="V7:Y7"/>
-    <mergeCell ref="V8:Y8"/>
-    <mergeCell ref="AH5:AK5"/>
-    <mergeCell ref="AH6:AK6"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="Z6:AC6"/>
-    <mergeCell ref="V5:Y5"/>
-    <mergeCell ref="V6:Y6"/>
-    <mergeCell ref="AP5:AS5"/>
-    <mergeCell ref="AP6:AS6"/>
-    <mergeCell ref="AD8:AG8"/>
-    <mergeCell ref="AL5:AO5"/>
-    <mergeCell ref="AL6:AO6"/>
-    <mergeCell ref="AL7:AO7"/>
-    <mergeCell ref="N35:Q35"/>
-    <mergeCell ref="N36:Q36"/>
-    <mergeCell ref="R33:U33"/>
-    <mergeCell ref="R34:U34"/>
-    <mergeCell ref="R35:U35"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Y4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="AX33:BA33"/>
+    <mergeCell ref="AX34:BA34"/>
+    <mergeCell ref="AX35:BA35"/>
+    <mergeCell ref="AX36:BA36"/>
+    <mergeCell ref="AP33:AS33"/>
+    <mergeCell ref="AP34:AS34"/>
+    <mergeCell ref="AP35:AS35"/>
+    <mergeCell ref="AP36:AS36"/>
+    <mergeCell ref="BJ33:BM33"/>
+    <mergeCell ref="BJ34:BM34"/>
+    <mergeCell ref="BJ35:BM35"/>
+    <mergeCell ref="BJ36:BM36"/>
+    <mergeCell ref="BN33:BQ33"/>
+    <mergeCell ref="BN34:BQ34"/>
+    <mergeCell ref="BN35:BQ35"/>
+    <mergeCell ref="BN36:BQ36"/>
+    <mergeCell ref="BB33:BE33"/>
+    <mergeCell ref="BB34:BE34"/>
+    <mergeCell ref="BB35:BE35"/>
+    <mergeCell ref="BB36:BE36"/>
+    <mergeCell ref="BF33:BI33"/>
+    <mergeCell ref="BF34:BI34"/>
+    <mergeCell ref="BF35:BI35"/>
+    <mergeCell ref="BF36:BI36"/>
+    <mergeCell ref="BZ33:CC33"/>
+    <mergeCell ref="BZ34:CC34"/>
+    <mergeCell ref="BZ35:CC35"/>
+    <mergeCell ref="BZ36:CC36"/>
+    <mergeCell ref="CD33:CG33"/>
+    <mergeCell ref="CD34:CG34"/>
+    <mergeCell ref="CD35:CG35"/>
+    <mergeCell ref="CD36:CG36"/>
+    <mergeCell ref="BR33:BU33"/>
+    <mergeCell ref="BR34:BU34"/>
+    <mergeCell ref="BR35:BU35"/>
+    <mergeCell ref="BR36:BU36"/>
+    <mergeCell ref="BV33:BY33"/>
+    <mergeCell ref="BV34:BY34"/>
+    <mergeCell ref="BV35:BY35"/>
+    <mergeCell ref="BV36:BY36"/>
+    <mergeCell ref="CP33:CS33"/>
+    <mergeCell ref="CP34:CS34"/>
+    <mergeCell ref="CP35:CS35"/>
+    <mergeCell ref="CP36:CS36"/>
+    <mergeCell ref="CH33:CK33"/>
+    <mergeCell ref="CH34:CK34"/>
+    <mergeCell ref="CH35:CK35"/>
+    <mergeCell ref="CH36:CK36"/>
+    <mergeCell ref="CL33:CO33"/>
+    <mergeCell ref="CL34:CO34"/>
+    <mergeCell ref="CL35:CO35"/>
+    <mergeCell ref="CL36:CO36"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13792,93 +14240,93 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="78">
+      <c r="B3" s="74">
         <v>42299</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="78">
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="74"/>
+      <c r="T3" s="74"/>
+      <c r="U3" s="74"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="74"/>
+      <c r="X3" s="74"/>
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="74">
         <v>42300</v>
       </c>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="77"/>
-      <c r="AC3" s="77"/>
-      <c r="AD3" s="77"/>
-      <c r="AE3" s="77"/>
-      <c r="AF3" s="77"/>
-      <c r="AG3" s="77"/>
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="76"/>
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="76"/>
+      <c r="AE3" s="76"/>
+      <c r="AF3" s="76"/>
+      <c r="AG3" s="76"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A4" s="39" t="s">
         <v>454</v>
       </c>
-      <c r="B4" s="76">
+      <c r="B4" s="75">
         <v>0.37013888888888885</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="76">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="75">
         <v>0.4375</v>
       </c>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76">
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75">
         <v>0.52361111111111114</v>
       </c>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76">
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75">
         <v>0.60625000000000007</v>
       </c>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="76"/>
-      <c r="V4" s="76">
+      <c r="S4" s="75"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="75">
         <v>0.67569444444444438</v>
       </c>
-      <c r="W4" s="76"/>
-      <c r="X4" s="76"/>
-      <c r="Y4" s="76"/>
-      <c r="Z4" s="76">
+      <c r="W4" s="75"/>
+      <c r="X4" s="75"/>
+      <c r="Y4" s="75"/>
+      <c r="Z4" s="75">
         <v>0.41180555555555554</v>
       </c>
-      <c r="AA4" s="77"/>
-      <c r="AB4" s="77"/>
-      <c r="AC4" s="77"/>
-      <c r="AD4" s="76">
+      <c r="AA4" s="76"/>
+      <c r="AB4" s="76"/>
+      <c r="AC4" s="76"/>
+      <c r="AD4" s="75">
         <v>0.62986111111111109</v>
       </c>
-      <c r="AE4" s="76"/>
-      <c r="AF4" s="76"/>
-      <c r="AG4" s="76"/>
+      <c r="AE4" s="75"/>
+      <c r="AF4" s="75"/>
+      <c r="AG4" s="75"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A5" s="39" t="s">
@@ -13908,12 +14356,12 @@
       <c r="W5" s="52"/>
       <c r="X5" s="52"/>
       <c r="Y5" s="52"/>
-      <c r="Z5" s="79" t="s">
+      <c r="Z5" s="77" t="s">
         <v>464</v>
       </c>
-      <c r="AA5" s="80"/>
-      <c r="AB5" s="80"/>
-      <c r="AC5" s="80"/>
+      <c r="AA5" s="78"/>
+      <c r="AB5" s="78"/>
+      <c r="AC5" s="78"/>
       <c r="AD5" s="52"/>
       <c r="AE5" s="52"/>
       <c r="AF5" s="52"/>
@@ -13927,46 +14375,46 @@
       <c r="C6" s="52"/>
       <c r="D6" s="52"/>
       <c r="E6" s="52"/>
-      <c r="F6" s="76">
+      <c r="F6" s="75">
         <v>0.38055555555555554</v>
       </c>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="76">
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="75">
         <v>0.44305555555555554</v>
       </c>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76">
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75">
         <v>0.52847222222222223</v>
       </c>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="76">
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="75">
         <v>0.61249999999999993</v>
       </c>
-      <c r="S6" s="76"/>
-      <c r="T6" s="76"/>
-      <c r="U6" s="76"/>
-      <c r="V6" s="76">
+      <c r="S6" s="75"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="75">
         <v>0.68194444444444446</v>
       </c>
-      <c r="W6" s="76"/>
-      <c r="X6" s="76"/>
-      <c r="Y6" s="76"/>
-      <c r="Z6" s="80"/>
-      <c r="AA6" s="80"/>
-      <c r="AB6" s="80"/>
-      <c r="AC6" s="80"/>
-      <c r="AD6" s="76">
+      <c r="W6" s="75"/>
+      <c r="X6" s="75"/>
+      <c r="Y6" s="75"/>
+      <c r="Z6" s="78"/>
+      <c r="AA6" s="78"/>
+      <c r="AB6" s="78"/>
+      <c r="AC6" s="78"/>
+      <c r="AD6" s="75">
         <v>0.64236111111111105</v>
       </c>
-      <c r="AE6" s="76"/>
-      <c r="AF6" s="76"/>
-      <c r="AG6" s="76"/>
+      <c r="AE6" s="75"/>
+      <c r="AF6" s="75"/>
+      <c r="AG6" s="75"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
@@ -14190,7 +14638,7 @@
       <c r="C10">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="D10" s="74" t="s">
+      <c r="D10" s="79" t="s">
         <v>450</v>
       </c>
       <c r="F10">
@@ -14282,7 +14730,7 @@
       <c r="C11">
         <v>0.107</v>
       </c>
-      <c r="D11" s="75"/>
+      <c r="D11" s="80"/>
       <c r="F11">
         <v>10.47</v>
       </c>
@@ -14372,7 +14820,7 @@
       <c r="C12">
         <v>0.11799999999999999</v>
       </c>
-      <c r="D12" s="75"/>
+      <c r="D12" s="80"/>
       <c r="F12">
         <v>10.47</v>
       </c>
@@ -14444,7 +14892,7 @@
       <c r="C13">
         <v>0.13500000000000001</v>
       </c>
-      <c r="D13" s="75"/>
+      <c r="D13" s="80"/>
       <c r="F13">
         <v>10.46</v>
       </c>
@@ -14516,7 +14964,7 @@
       <c r="C14">
         <v>0.154</v>
       </c>
-      <c r="D14" s="75"/>
+      <c r="D14" s="80"/>
       <c r="E14" s="39" t="s">
         <v>441</v>
       </c>
@@ -14612,7 +15060,7 @@
       <c r="C15">
         <v>0.184</v>
       </c>
-      <c r="D15" s="75"/>
+      <c r="D15" s="80"/>
       <c r="F15">
         <v>10.43</v>
       </c>
@@ -14695,7 +15143,7 @@
       <c r="C16">
         <v>0.218</v>
       </c>
-      <c r="D16" s="75"/>
+      <c r="D16" s="80"/>
       <c r="F16">
         <v>10.42</v>
       </c>
@@ -14778,7 +15226,7 @@
       <c r="C17">
         <v>0.27500000000000002</v>
       </c>
-      <c r="D17" s="75"/>
+      <c r="D17" s="80"/>
       <c r="F17">
         <v>10.42</v>
       </c>
@@ -14853,7 +15301,7 @@
       <c r="C18">
         <v>0.42099999999999999</v>
       </c>
-      <c r="D18" s="75"/>
+      <c r="D18" s="80"/>
       <c r="F18">
         <v>10.4</v>
       </c>
@@ -14928,7 +15376,7 @@
       <c r="C19">
         <v>0.61699999999999999</v>
       </c>
-      <c r="D19" s="75"/>
+      <c r="D19" s="80"/>
       <c r="E19" s="39" t="s">
         <v>442</v>
       </c>
@@ -15027,7 +15475,7 @@
       <c r="C20">
         <v>1.425</v>
       </c>
-      <c r="D20" s="75"/>
+      <c r="D20" s="80"/>
       <c r="F20">
         <v>10.3</v>
       </c>
@@ -15117,7 +15565,7 @@
       <c r="C21">
         <v>1.649</v>
       </c>
-      <c r="D21" s="75"/>
+      <c r="D21" s="80"/>
       <c r="F21">
         <v>10.02</v>
       </c>
@@ -15207,7 +15655,7 @@
       <c r="C22">
         <v>2</v>
       </c>
-      <c r="D22" s="75"/>
+      <c r="D22" s="80"/>
       <c r="F22">
         <v>9.94</v>
       </c>
@@ -15282,7 +15730,7 @@
       <c r="C23">
         <v>2.4950000000000001</v>
       </c>
-      <c r="D23" s="75"/>
+      <c r="D23" s="80"/>
       <c r="F23">
         <v>9.82</v>
       </c>
@@ -15357,7 +15805,7 @@
       <c r="C24">
         <v>3.0350000000000001</v>
       </c>
-      <c r="D24" s="75"/>
+      <c r="D24" s="80"/>
       <c r="E24" s="39" t="s">
         <v>443</v>
       </c>
@@ -15456,7 +15904,7 @@
       <c r="C25">
         <v>3.2789999999999999</v>
       </c>
-      <c r="D25" s="75"/>
+      <c r="D25" s="80"/>
       <c r="F25">
         <v>8.9700000000000006</v>
       </c>
@@ -15549,7 +15997,7 @@
       <c r="C26">
         <v>3.3</v>
       </c>
-      <c r="D26" s="75"/>
+      <c r="D26" s="80"/>
       <c r="F26">
         <v>5.95</v>
       </c>
@@ -15642,7 +16090,7 @@
       <c r="C27">
         <v>3.3</v>
       </c>
-      <c r="D27" s="75"/>
+      <c r="D27" s="80"/>
       <c r="F27">
         <v>3.105</v>
       </c>
@@ -15709,6 +16157,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D10:D27"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="R4:U4"/>
     <mergeCell ref="B3:Y3"/>
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="Z3:AG3"/>
@@ -15722,11 +16175,6 @@
     <mergeCell ref="AD4:AG4"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="V4:Y4"/>
-    <mergeCell ref="D10:D27"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="R4:U4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16077,138 +16525,138 @@
       <c r="A1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="102" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="100" t="s">
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="102" t="s">
         <v>458</v>
       </c>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="105" t="s">
         <v>461</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="104" t="s">
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="104"/>
-      <c r="J2" s="94" t="s">
+      <c r="I2" s="92"/>
+      <c r="J2" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="104" t="s">
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="104"/>
+      <c r="O2" s="92"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="99"/>
-      <c r="D3" s="98" t="s">
+      <c r="C3" s="108"/>
+      <c r="D3" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="99"/>
-      <c r="F3" s="98" t="s">
+      <c r="E3" s="108"/>
+      <c r="F3" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="99"/>
-      <c r="H3" s="98" t="s">
+      <c r="G3" s="108"/>
+      <c r="H3" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="99"/>
-      <c r="J3" s="94" t="s">
+      <c r="I3" s="108"/>
+      <c r="J3" s="105" t="s">
         <v>98</v>
       </c>
-      <c r="K3" s="95"/>
-      <c r="L3" s="94" t="s">
+      <c r="K3" s="107"/>
+      <c r="L3" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="95"/>
-      <c r="N3" s="98" t="s">
+      <c r="M3" s="107"/>
+      <c r="N3" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="105"/>
+      <c r="O3" s="100"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="95" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="92" t="s">
+      <c r="C4" s="96"/>
+      <c r="D4" s="95" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="93"/>
-      <c r="F4" s="92" t="s">
+      <c r="E4" s="96"/>
+      <c r="F4" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="G4" s="93"/>
-      <c r="H4" s="92" t="s">
+      <c r="G4" s="96"/>
+      <c r="H4" s="95" t="s">
         <v>131</v>
       </c>
-      <c r="I4" s="93"/>
-      <c r="J4" s="96" t="s">
+      <c r="I4" s="96"/>
+      <c r="J4" s="97" t="s">
         <v>457</v>
       </c>
-      <c r="K4" s="97"/>
-      <c r="L4" s="96" t="s">
+      <c r="K4" s="98"/>
+      <c r="L4" s="97" t="s">
         <v>457</v>
       </c>
-      <c r="M4" s="97"/>
-      <c r="N4" s="92" t="s">
+      <c r="M4" s="98"/>
+      <c r="N4" s="95" t="s">
         <v>457</v>
       </c>
-      <c r="O4" s="106"/>
+      <c r="O4" s="101"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="95" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="93"/>
-      <c r="D5" s="92" t="s">
+      <c r="C5" s="96"/>
+      <c r="D5" s="95" t="s">
         <v>127</v>
       </c>
-      <c r="E5" s="93"/>
-      <c r="F5" s="92" t="s">
+      <c r="E5" s="96"/>
+      <c r="F5" s="95" t="s">
         <v>128</v>
       </c>
-      <c r="G5" s="93"/>
-      <c r="H5" s="92" t="s">
+      <c r="G5" s="96"/>
+      <c r="H5" s="95" t="s">
         <v>129</v>
       </c>
-      <c r="I5" s="93"/>
+      <c r="I5" s="96"/>
       <c r="J5" s="54"/>
       <c r="K5" s="54"/>
       <c r="L5" s="54"/>
@@ -16223,27 +16671,27 @@
       <c r="D6" s="54"/>
       <c r="F6" s="54"/>
       <c r="H6" s="54"/>
-      <c r="J6" s="96" t="s">
+      <c r="J6" s="97" t="s">
         <v>460</v>
       </c>
-      <c r="K6" s="97"/>
-      <c r="L6" s="96" t="s">
+      <c r="K6" s="98"/>
+      <c r="L6" s="97" t="s">
         <v>460</v>
       </c>
-      <c r="M6" s="97"/>
-      <c r="N6" s="100" t="s">
+      <c r="M6" s="98"/>
+      <c r="N6" s="102" t="s">
         <v>460</v>
       </c>
-      <c r="O6" s="101"/>
+      <c r="O6" s="103"/>
     </row>
     <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="94" t="s">
         <v>80</v>
       </c>
       <c r="C7" s="40">
         <v>78.2</v>
       </c>
-      <c r="D7" s="107" t="s">
+      <c r="D7" s="94" t="s">
         <v>80</v>
       </c>
       <c r="E7" s="41">
@@ -16281,11 +16729,11 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B8" s="107"/>
+      <c r="B8" s="94"/>
       <c r="C8" s="40">
         <v>78.400000000000006</v>
       </c>
-      <c r="D8" s="107"/>
+      <c r="D8" s="94"/>
       <c r="E8" s="41">
         <v>53.4</v>
       </c>
@@ -16311,11 +16759,11 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B9" s="107"/>
+      <c r="B9" s="94"/>
       <c r="C9" s="40">
         <v>78.400000000000006</v>
       </c>
-      <c r="D9" s="107"/>
+      <c r="D9" s="94"/>
       <c r="E9" s="41">
         <v>53.9</v>
       </c>
@@ -16341,11 +16789,11 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B10" s="107"/>
+      <c r="B10" s="94"/>
       <c r="C10" s="40">
         <v>78.400000000000006</v>
       </c>
-      <c r="D10" s="107"/>
+      <c r="D10" s="94"/>
       <c r="E10" s="41">
         <v>54</v>
       </c>
@@ -16371,11 +16819,11 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B11" s="107"/>
+      <c r="B11" s="94"/>
       <c r="C11" s="40">
         <v>78.400000000000006</v>
       </c>
-      <c r="D11" s="107"/>
+      <c r="D11" s="94"/>
       <c r="E11" s="41">
         <v>53.9</v>
       </c>
@@ -16401,11 +16849,11 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B12" s="107"/>
+      <c r="B12" s="94"/>
       <c r="C12" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D12" s="107"/>
+      <c r="D12" s="94"/>
       <c r="E12" s="41">
         <v>55.2</v>
       </c>
@@ -16431,11 +16879,11 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B13" s="107"/>
+      <c r="B13" s="94"/>
       <c r="C13" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D13" s="107"/>
+      <c r="D13" s="94"/>
       <c r="E13" s="41">
         <v>53.7</v>
       </c>
@@ -16461,11 +16909,11 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B14" s="107"/>
+      <c r="B14" s="94"/>
       <c r="C14" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D14" s="107"/>
+      <c r="D14" s="94"/>
       <c r="E14" s="41">
         <v>53.4</v>
       </c>
@@ -16491,11 +16939,11 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B15" s="107"/>
+      <c r="B15" s="94"/>
       <c r="C15" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D15" s="107"/>
+      <c r="D15" s="94"/>
       <c r="E15" s="41">
         <v>53.1</v>
       </c>
@@ -16521,11 +16969,11 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B16" s="107"/>
+      <c r="B16" s="94"/>
       <c r="C16" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="D16" s="107"/>
+      <c r="D16" s="94"/>
       <c r="E16" s="41">
         <v>52.6</v>
       </c>
@@ -16551,7 +16999,7 @@
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B17" s="104" t="s">
+      <c r="B17" s="92" t="s">
         <v>444</v>
       </c>
       <c r="C17" s="40">
@@ -16585,7 +17033,7 @@
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B18" s="104"/>
+      <c r="B18" s="92"/>
       <c r="C18" s="40">
         <v>79.5</v>
       </c>
@@ -16615,7 +17063,7 @@
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B19" s="104"/>
+      <c r="B19" s="92"/>
       <c r="C19" s="40">
         <v>79.5</v>
       </c>
@@ -16645,7 +17093,7 @@
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B20" s="104"/>
+      <c r="B20" s="92"/>
       <c r="C20" s="40">
         <v>79.5</v>
       </c>
@@ -16675,7 +17123,7 @@
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B21" s="104"/>
+      <c r="B21" s="92"/>
       <c r="C21" s="40">
         <v>79.5</v>
       </c>
@@ -16705,7 +17153,7 @@
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B22" s="104" t="s">
+      <c r="B22" s="92" t="s">
         <v>55</v>
       </c>
       <c r="C22" s="40">
@@ -16739,7 +17187,7 @@
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B23" s="104"/>
+      <c r="B23" s="92"/>
       <c r="C23" s="40">
         <v>80</v>
       </c>
@@ -16769,7 +17217,7 @@
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B24" s="104"/>
+      <c r="B24" s="92"/>
       <c r="C24" s="40">
         <v>80</v>
       </c>
@@ -16799,7 +17247,7 @@
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B25" s="104"/>
+      <c r="B25" s="92"/>
       <c r="C25" s="40">
         <v>80</v>
       </c>
@@ -16829,7 +17277,7 @@
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B26" s="104"/>
+      <c r="B26" s="92"/>
       <c r="C26" s="40">
         <v>80</v>
       </c>
@@ -16859,7 +17307,7 @@
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B27" s="104" t="s">
+      <c r="B27" s="92" t="s">
         <v>56</v>
       </c>
       <c r="C27" s="40">
@@ -16893,7 +17341,7 @@
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B28" s="104"/>
+      <c r="B28" s="92"/>
       <c r="C28" s="40">
         <v>80.7</v>
       </c>
@@ -16923,7 +17371,7 @@
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B29" s="104"/>
+      <c r="B29" s="92"/>
       <c r="C29" s="40">
         <v>80.7</v>
       </c>
@@ -16953,7 +17401,7 @@
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B30" s="104"/>
+      <c r="B30" s="92"/>
       <c r="C30" s="40">
         <v>80.7</v>
       </c>
@@ -16983,7 +17431,7 @@
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B31" s="104"/>
+      <c r="B31" s="92"/>
       <c r="C31" s="40">
         <v>80.900000000000006</v>
       </c>
@@ -17013,7 +17461,7 @@
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B32" s="104" t="s">
+      <c r="B32" s="92" t="s">
         <v>57</v>
       </c>
       <c r="C32" s="40">
@@ -17047,7 +17495,7 @@
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B33" s="104"/>
+      <c r="B33" s="92"/>
       <c r="C33" s="40">
         <v>81.099999999999994</v>
       </c>
@@ -17077,7 +17525,7 @@
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B34" s="104"/>
+      <c r="B34" s="92"/>
       <c r="C34" s="40">
         <v>81.099999999999994</v>
       </c>
@@ -17107,7 +17555,7 @@
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B35" s="104"/>
+      <c r="B35" s="92"/>
       <c r="C35" s="40">
         <v>81.099999999999994</v>
       </c>
@@ -17137,7 +17585,7 @@
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B36" s="104"/>
+      <c r="B36" s="92"/>
       <c r="C36" s="40">
         <v>81.099999999999994</v>
       </c>
@@ -17167,7 +17615,7 @@
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B37" s="104" t="s">
+      <c r="B37" s="92" t="s">
         <v>58</v>
       </c>
       <c r="C37" s="40">
@@ -17201,7 +17649,7 @@
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B38" s="104"/>
+      <c r="B38" s="92"/>
       <c r="C38" s="40">
         <v>81.5</v>
       </c>
@@ -17231,7 +17679,7 @@
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B39" s="104"/>
+      <c r="B39" s="92"/>
       <c r="C39" s="40">
         <v>81.5</v>
       </c>
@@ -17261,7 +17709,7 @@
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B40" s="104"/>
+      <c r="B40" s="92"/>
       <c r="C40" s="40">
         <v>81.5</v>
       </c>
@@ -17291,7 +17739,7 @@
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B41" s="104"/>
+      <c r="B41" s="92"/>
       <c r="C41" s="40">
         <v>81.5</v>
       </c>
@@ -17321,7 +17769,7 @@
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B42" s="104" t="s">
+      <c r="B42" s="92" t="s">
         <v>59</v>
       </c>
       <c r="C42" s="40">
@@ -17355,7 +17803,7 @@
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B43" s="104"/>
+      <c r="B43" s="92"/>
       <c r="C43" s="40">
         <v>82.4</v>
       </c>
@@ -17385,7 +17833,7 @@
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B44" s="104"/>
+      <c r="B44" s="92"/>
       <c r="C44" s="40">
         <v>82.4</v>
       </c>
@@ -17415,7 +17863,7 @@
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B45" s="104"/>
+      <c r="B45" s="92"/>
       <c r="C45" s="40">
         <v>82.4</v>
       </c>
@@ -17445,7 +17893,7 @@
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B46" s="104"/>
+      <c r="B46" s="92"/>
       <c r="C46" s="40">
         <v>82.4</v>
       </c>
@@ -17475,13 +17923,13 @@
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B47" s="104" t="s">
+      <c r="B47" s="92" t="s">
         <v>94</v>
       </c>
       <c r="C47" s="40">
         <v>82.9</v>
       </c>
-      <c r="D47" s="108" t="s">
+      <c r="D47" s="93" t="s">
         <v>90</v>
       </c>
       <c r="E47" s="41">
@@ -17494,11 +17942,11 @@
       <c r="J47" s="56"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B48" s="104"/>
+      <c r="B48" s="92"/>
       <c r="C48" s="40">
         <v>83.1</v>
       </c>
-      <c r="D48" s="108"/>
+      <c r="D48" s="93"/>
       <c r="E48" s="41">
         <v>43.4</v>
       </c>
@@ -17509,11 +17957,11 @@
       <c r="J48" s="56"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B49" s="104"/>
+      <c r="B49" s="92"/>
       <c r="C49" s="40">
         <v>83.1</v>
       </c>
-      <c r="D49" s="108"/>
+      <c r="D49" s="93"/>
       <c r="E49" s="41">
         <v>43.4</v>
       </c>
@@ -17524,11 +17972,11 @@
       <c r="J49" s="56"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B50" s="104"/>
+      <c r="B50" s="92"/>
       <c r="C50" s="40">
         <v>83.1</v>
       </c>
-      <c r="D50" s="108"/>
+      <c r="D50" s="93"/>
       <c r="E50" s="41">
         <v>43.4</v>
       </c>
@@ -17539,11 +17987,11 @@
       <c r="J50" s="56"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B51" s="104"/>
+      <c r="B51" s="92"/>
       <c r="C51" s="40">
         <v>83.1</v>
       </c>
-      <c r="D51" s="108"/>
+      <c r="D51" s="93"/>
       <c r="E51" s="41">
         <v>43.4</v>
       </c>
@@ -17554,13 +18002,13 @@
       <c r="J51" s="56"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B52" s="104" t="s">
+      <c r="B52" s="92" t="s">
         <v>95</v>
       </c>
       <c r="C52" s="40">
         <v>83.4</v>
       </c>
-      <c r="D52" s="108" t="s">
+      <c r="D52" s="93" t="s">
         <v>92</v>
       </c>
       <c r="E52" s="41">
@@ -17573,11 +18021,11 @@
       <c r="J52" s="56"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B53" s="104"/>
+      <c r="B53" s="92"/>
       <c r="C53" s="40">
         <v>83.4</v>
       </c>
-      <c r="D53" s="108"/>
+      <c r="D53" s="93"/>
       <c r="E53" s="41">
         <v>43.3</v>
       </c>
@@ -17588,11 +18036,11 @@
       <c r="J53" s="56"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B54" s="104"/>
+      <c r="B54" s="92"/>
       <c r="C54" s="40">
         <v>83.4</v>
       </c>
-      <c r="D54" s="108"/>
+      <c r="D54" s="93"/>
       <c r="E54" s="41">
         <v>43.4</v>
       </c>
@@ -17603,11 +18051,11 @@
       <c r="J54" s="56"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B55" s="104"/>
+      <c r="B55" s="92"/>
       <c r="C55" s="40">
         <v>83.6</v>
       </c>
-      <c r="D55" s="108"/>
+      <c r="D55" s="93"/>
       <c r="E55" s="41">
         <v>43.4</v>
       </c>
@@ -17618,11 +18066,11 @@
       <c r="J55" s="56"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B56" s="104"/>
+      <c r="B56" s="92"/>
       <c r="C56" s="40">
         <v>83.3</v>
       </c>
-      <c r="D56" s="108"/>
+      <c r="D56" s="93"/>
       <c r="E56" s="41">
         <v>43.4</v>
       </c>
@@ -17633,7 +18081,7 @@
       <c r="J56" s="56"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B57" s="104" t="s">
+      <c r="B57" s="92" t="s">
         <v>96</v>
       </c>
       <c r="C57" s="40">
@@ -17648,7 +18096,7 @@
       <c r="J57" s="56"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B58" s="104"/>
+      <c r="B58" s="92"/>
       <c r="C58" s="40">
         <v>83.4</v>
       </c>
@@ -17661,7 +18109,7 @@
       <c r="J58" s="56"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B59" s="104"/>
+      <c r="B59" s="92"/>
       <c r="C59" s="40">
         <v>83.3</v>
       </c>
@@ -17674,7 +18122,7 @@
       <c r="J59" s="56"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B60" s="104"/>
+      <c r="B60" s="92"/>
       <c r="C60" s="40">
         <v>83.3</v>
       </c>
@@ -17687,7 +18135,7 @@
       <c r="J60" s="56"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B61" s="104"/>
+      <c r="B61" s="92"/>
       <c r="C61" s="40">
         <v>83.4</v>
       </c>
@@ -17700,7 +18148,7 @@
       <c r="J61" s="56"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B62" s="104" t="s">
+      <c r="B62" s="92" t="s">
         <v>97</v>
       </c>
       <c r="C62" s="40">
@@ -17715,7 +18163,7 @@
       <c r="J62" s="56"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B63" s="104"/>
+      <c r="B63" s="92"/>
       <c r="C63" s="40">
         <v>83.8</v>
       </c>
@@ -17728,7 +18176,7 @@
       <c r="J63" s="56"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B64" s="104"/>
+      <c r="B64" s="92"/>
       <c r="C64" s="40">
         <v>83.6</v>
       </c>
@@ -17741,7 +18189,7 @@
       <c r="J64" s="56"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B65" s="104"/>
+      <c r="B65" s="92"/>
       <c r="C65" s="40">
         <v>83.8</v>
       </c>
@@ -17754,7 +18202,7 @@
       <c r="J65" s="56"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B66" s="104"/>
+      <c r="B66" s="92"/>
       <c r="C66" s="40">
         <v>83.8</v>
       </c>
@@ -17767,7 +18215,7 @@
       <c r="J66" s="56"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B67" s="104" t="s">
+      <c r="B67" s="92" t="s">
         <v>93</v>
       </c>
       <c r="C67" s="40">
@@ -17782,7 +18230,7 @@
       <c r="J67" s="56"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B68" s="104"/>
+      <c r="B68" s="92"/>
       <c r="C68" s="40">
         <v>84</v>
       </c>
@@ -17795,7 +18243,7 @@
       <c r="J68" s="56"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B69" s="104"/>
+      <c r="B69" s="92"/>
       <c r="C69" s="40">
         <v>84</v>
       </c>
@@ -17808,7 +18256,7 @@
       <c r="J69" s="56"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B70" s="104"/>
+      <c r="B70" s="92"/>
       <c r="C70" s="40">
         <v>84</v>
       </c>
@@ -17821,7 +18269,7 @@
       <c r="J70" s="56"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B71" s="104"/>
+      <c r="B71" s="92"/>
       <c r="C71" s="40">
         <v>84</v>
       </c>
@@ -17834,7 +18282,7 @@
       <c r="J71" s="56"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B72" s="104" t="s">
+      <c r="B72" s="92" t="s">
         <v>82</v>
       </c>
       <c r="C72" s="40">
@@ -17849,7 +18297,7 @@
       <c r="J72" s="56"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B73" s="104"/>
+      <c r="B73" s="92"/>
       <c r="C73" s="40">
         <v>83.4</v>
       </c>
@@ -17862,7 +18310,7 @@
       <c r="J73" s="56"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B74" s="104"/>
+      <c r="B74" s="92"/>
       <c r="C74" s="40">
         <v>83.3</v>
       </c>
@@ -17875,7 +18323,7 @@
       <c r="J74" s="56"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B75" s="104"/>
+      <c r="B75" s="92"/>
       <c r="C75" s="40">
         <v>83.3</v>
       </c>
@@ -17888,7 +18336,7 @@
       <c r="J75" s="56"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B76" s="104"/>
+      <c r="B76" s="92"/>
       <c r="C76" s="40">
         <v>83.3</v>
       </c>
@@ -17901,7 +18349,7 @@
       <c r="J76" s="56"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B77" s="104" t="s">
+      <c r="B77" s="92" t="s">
         <v>83</v>
       </c>
       <c r="C77" s="40">
@@ -17916,7 +18364,7 @@
       <c r="J77" s="56"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B78" s="104"/>
+      <c r="B78" s="92"/>
       <c r="C78" s="40">
         <v>83.4</v>
       </c>
@@ -17929,7 +18377,7 @@
       <c r="J78" s="56"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B79" s="104"/>
+      <c r="B79" s="92"/>
       <c r="C79" s="40">
         <v>83.4</v>
       </c>
@@ -17942,7 +18390,7 @@
       <c r="J79" s="56"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B80" s="104"/>
+      <c r="B80" s="92"/>
       <c r="C80" s="40">
         <v>83.4</v>
       </c>
@@ -17955,7 +18403,7 @@
       <c r="J80" s="56"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B81" s="104"/>
+      <c r="B81" s="92"/>
       <c r="C81" s="40">
         <v>83.4</v>
       </c>
@@ -17968,7 +18416,7 @@
       <c r="J81" s="56"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B82" s="104" t="s">
+      <c r="B82" s="92" t="s">
         <v>84</v>
       </c>
       <c r="C82" s="40">
@@ -17983,7 +18431,7 @@
       <c r="J82" s="56"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B83" s="104"/>
+      <c r="B83" s="92"/>
       <c r="C83" s="40">
         <v>83.3</v>
       </c>
@@ -17996,7 +18444,7 @@
       <c r="J83" s="56"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B84" s="104"/>
+      <c r="B84" s="92"/>
       <c r="C84" s="40">
         <v>83.3</v>
       </c>
@@ -18009,7 +18457,7 @@
       <c r="J84" s="56"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B85" s="104"/>
+      <c r="B85" s="92"/>
       <c r="C85" s="40">
         <v>83.3</v>
       </c>
@@ -18022,7 +18470,7 @@
       <c r="J85" s="56"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B86" s="104"/>
+      <c r="B86" s="92"/>
       <c r="C86" s="40">
         <v>83.3</v>
       </c>
@@ -18035,7 +18483,7 @@
       <c r="J86" s="56"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B87" s="104" t="s">
+      <c r="B87" s="92" t="s">
         <v>87</v>
       </c>
       <c r="C87" s="40">
@@ -18050,7 +18498,7 @@
       <c r="J87" s="56"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B88" s="104"/>
+      <c r="B88" s="92"/>
       <c r="C88" s="40">
         <v>83.8</v>
       </c>
@@ -18063,7 +18511,7 @@
       <c r="J88" s="56"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B89" s="104"/>
+      <c r="B89" s="92"/>
       <c r="C89" s="40">
         <v>83.8</v>
       </c>
@@ -18076,7 +18524,7 @@
       <c r="J89" s="56"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B90" s="104"/>
+      <c r="B90" s="92"/>
       <c r="C90" s="40">
         <v>84</v>
       </c>
@@ -18089,7 +18537,7 @@
       <c r="J90" s="56"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B91" s="104"/>
+      <c r="B91" s="92"/>
       <c r="C91" s="40">
         <v>84</v>
       </c>
@@ -18102,7 +18550,7 @@
       <c r="J91" s="56"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B92" s="104" t="s">
+      <c r="B92" s="92" t="s">
         <v>89</v>
       </c>
       <c r="C92" s="40">
@@ -18117,7 +18565,7 @@
       <c r="J92" s="56"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B93" s="104"/>
+      <c r="B93" s="92"/>
       <c r="C93" s="40">
         <v>84</v>
       </c>
@@ -18130,7 +18578,7 @@
       <c r="J93" s="56"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B94" s="104"/>
+      <c r="B94" s="92"/>
       <c r="C94" s="40">
         <v>84</v>
       </c>
@@ -18143,7 +18591,7 @@
       <c r="J94" s="56"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B95" s="104"/>
+      <c r="B95" s="92"/>
       <c r="C95" s="40">
         <v>84.2</v>
       </c>
@@ -18156,7 +18604,7 @@
       <c r="J95" s="56"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B96" s="104"/>
+      <c r="B96" s="92"/>
       <c r="C96" s="40">
         <v>84.2</v>
       </c>
@@ -18169,7 +18617,7 @@
       <c r="J96" s="56"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B97" s="104" t="s">
+      <c r="B97" s="92" t="s">
         <v>91</v>
       </c>
       <c r="C97" s="40">
@@ -18184,7 +18632,7 @@
       <c r="J97" s="56"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B98" s="104"/>
+      <c r="B98" s="92"/>
       <c r="C98" s="40">
         <v>84</v>
       </c>
@@ -18197,7 +18645,7 @@
       <c r="J98" s="56"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B99" s="104"/>
+      <c r="B99" s="92"/>
       <c r="C99" s="40">
         <v>84</v>
       </c>
@@ -18210,7 +18658,7 @@
       <c r="J99" s="56"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B100" s="104"/>
+      <c r="B100" s="92"/>
       <c r="C100" s="40">
         <v>84</v>
       </c>
@@ -18223,7 +18671,7 @@
       <c r="J100" s="56"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B101" s="104"/>
+      <c r="B101" s="92"/>
       <c r="C101" s="40">
         <v>84</v>
       </c>
@@ -18237,6 +18685,49 @@
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="J7:J46"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N7:N46"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L7:L46"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B92:B96"/>
+    <mergeCell ref="B7:B16"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="D7:D16"/>
+    <mergeCell ref="F7:F46"/>
+    <mergeCell ref="H7:H46"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="F5:G5"/>
     <mergeCell ref="B97:B101"/>
     <mergeCell ref="D27:D31"/>
     <mergeCell ref="D32:D36"/>
@@ -18253,49 +18744,6 @@
     <mergeCell ref="B32:B36"/>
     <mergeCell ref="B47:B51"/>
     <mergeCell ref="B52:B56"/>
-    <mergeCell ref="L7:L46"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B92:B96"/>
-    <mergeCell ref="B7:B16"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="D7:D16"/>
-    <mergeCell ref="F7:F46"/>
-    <mergeCell ref="H7:H46"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="D17:D21"